--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -896,28 +896,28 @@
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>16968993.44</v>
+        <v>15122734.71428571</v>
       </c>
       <c r="D2" s="2">
-        <v>1.504451533533602</v>
+        <v>1.59371808715668</v>
       </c>
       <c r="E2" s="3">
-        <v>-0.001157598809326944</v>
+        <v>-0.09230005789430153</v>
       </c>
       <c r="F2" s="3">
-        <v>0.01760593041866737</v>
+        <v>-0.09678215784709081</v>
       </c>
       <c r="G2" s="3">
-        <v>0.06375484325466708</v>
+        <v>-0.02790079716563335</v>
       </c>
       <c r="H2" s="3">
-        <v>0.1448066717210008</v>
+        <v>0.06989666601676742</v>
       </c>
       <c r="I2" s="3">
-        <v>0.1865239171004812</v>
+        <v>0.01705124640904461</v>
       </c>
       <c r="J2" s="3">
-        <v>1.993407804713097</v>
+        <v>-2.402111023429603</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -928,28 +928,28 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>187484846.2262229</v>
+        <v>177020020.5250614</v>
       </c>
       <c r="D3" s="2">
-        <v>1.845279422849176</v>
+        <v>1.999840372135145</v>
       </c>
       <c r="E3" s="3">
-        <v>-0.0009862346818867937</v>
+        <v>-0.05433095971941763</v>
       </c>
       <c r="F3" s="3">
-        <v>0.07598255248943449</v>
+        <v>-0.07932204792847981</v>
       </c>
       <c r="G3" s="3">
-        <v>0.07329004914558815</v>
+        <v>-0.007739316620572744</v>
       </c>
       <c r="H3" s="3">
-        <v>0.1617051388414426</v>
+        <v>0.1080973374181176</v>
       </c>
       <c r="I3" s="3">
-        <v>0.1291921635596036</v>
+        <v>0.08082697633739856</v>
       </c>
       <c r="J3" s="3">
-        <v>1.619002556903582</v>
+        <v>-1.090498212093892</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -960,28 +960,28 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>19084368.06214286</v>
+        <v>17433575.36285714</v>
       </c>
       <c r="D4" s="2">
-        <v>1.149021623387829</v>
+        <v>1.208015508025773</v>
       </c>
       <c r="E4" s="3">
-        <v>0.04192386831275727</v>
+        <v>-0.03551030543829159</v>
       </c>
       <c r="F4" s="3">
-        <v>0.03289138194798572</v>
+        <v>-0.005886869721013599</v>
       </c>
       <c r="G4" s="3">
-        <v>0.04380314351971151</v>
+        <v>0.007261410788381749</v>
       </c>
       <c r="H4" s="3">
-        <v>0.1246529705719046</v>
+        <v>0.07352128247650637</v>
       </c>
       <c r="I4" s="3">
-        <v>0.02686945500633722</v>
+        <v>-0.01145329600407227</v>
       </c>
       <c r="J4" s="3">
-        <v>1.890956592965752</v>
+        <v>-0.3392572819581248</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -992,28 +992,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>13724591.7</v>
+        <v>12704819.77</v>
       </c>
       <c r="D5" s="2">
-        <v>1.675966975831972</v>
+        <v>1.858717761110382</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01454374853389638</v>
+        <v>-0.08751431844215352</v>
       </c>
       <c r="F5" s="3">
-        <v>-0.008709603483841451</v>
+        <v>-0.07242664182580334</v>
       </c>
       <c r="G5" s="3">
-        <v>0.002317497103128572</v>
+        <v>-0.07651286807326678</v>
       </c>
       <c r="H5" s="3">
-        <v>0.1781530918005994</v>
+        <v>0.116937745372967</v>
       </c>
       <c r="I5" s="3">
-        <v>0.005112712061352601</v>
+        <v>-0.002004510147832625</v>
       </c>
       <c r="J5" s="3">
-        <v>1.062527470359106</v>
+        <v>-2.06706652184179</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1024,28 +1024,28 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>9217625.235814285</v>
+        <v>8488855.46747143</v>
       </c>
       <c r="D6" s="2">
-        <v>1.29419321156967</v>
+        <v>1.289397551585356</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01119541080680977</v>
+        <v>-0.0200991189427311</v>
       </c>
       <c r="F6" s="3">
-        <v>-0.0166456721252474</v>
+        <v>-0.02901054929065098</v>
       </c>
       <c r="G6" s="3">
-        <v>-0.04030558482613281</v>
+        <v>-0.04703677258122096</v>
       </c>
       <c r="H6" s="3">
-        <v>-0.01433982683982686</v>
+        <v>-0.002056266940835573</v>
       </c>
       <c r="I6" s="3">
-        <v>0.03592417061611379</v>
+        <v>-0.03567557803468197</v>
       </c>
       <c r="J6" s="3">
-        <v>-0.368637294611207</v>
+        <v>-0.8027163791161991</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1056,28 +1056,28 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>23652567.55091429</v>
+        <v>21416954.93714286</v>
       </c>
       <c r="D7" s="2">
-        <v>1.365615167469126</v>
+        <v>1.399704026995532</v>
       </c>
       <c r="E7" s="3">
-        <v>0.04515467879331327</v>
+        <v>-0.06405324540514136</v>
       </c>
       <c r="F7" s="3">
-        <v>0.05141752577319579</v>
+        <v>-0.02207477351027176</v>
       </c>
       <c r="G7" s="3">
-        <v>0.04355055317516136</v>
+        <v>-0.008986875282860298</v>
       </c>
       <c r="H7" s="3">
-        <v>0.04999678270381563</v>
+        <v>0.03616575407287222</v>
       </c>
       <c r="I7" s="3">
-        <v>-0.01413726437892707</v>
+        <v>-0.06570766792636847</v>
       </c>
       <c r="J7" s="3">
-        <v>2.121746262792418</v>
+        <v>-1.128165985551179</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1088,28 +1088,28 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>48895789.57714286</v>
+        <v>43207111.4135</v>
       </c>
       <c r="D8" s="2">
-        <v>1.424938037098243</v>
+        <v>1.394638402737495</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03771213073538658</v>
+        <v>-0.04863221884498484</v>
       </c>
       <c r="F8" s="3">
-        <v>0.04164037854889586</v>
+        <v>-0.02975821450712957</v>
       </c>
       <c r="G8" s="3">
-        <v>0.01599999999999994</v>
+        <v>-0.006979695431472017</v>
       </c>
       <c r="H8" s="3">
-        <v>0.03901825047199486</v>
+        <v>0.03711066931742872</v>
       </c>
       <c r="I8" s="3">
-        <v>-0.03223915592028139</v>
+        <v>-0.08049353701527609</v>
       </c>
       <c r="J8" s="3">
-        <v>1.382463647446246</v>
+        <v>-1.104233755929471</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1120,28 +1120,28 @@
         <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>6135462.399153142</v>
+        <v>5993479.641144857</v>
       </c>
       <c r="D9" s="2">
-        <v>1.313130228217254</v>
+        <v>1.372077339886146</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01877326428224625</v>
+        <v>-0.05176507835998097</v>
       </c>
       <c r="F9" s="3">
-        <v>0.005269881826892235</v>
+        <v>-0.01642036124794732</v>
       </c>
       <c r="G9" s="3">
-        <v>-0.01424992170372699</v>
+        <v>-0.04205981129058042</v>
       </c>
       <c r="H9" s="3">
-        <v>0.0181141840530486</v>
+        <v>0.003686327077748079</v>
       </c>
       <c r="I9" s="3">
-        <v>-0.03450920245398782</v>
+        <v>-0.07418856259659964</v>
       </c>
       <c r="J9" s="3">
-        <v>0.4754250992496591</v>
+        <v>-1.051254326025972</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1152,28 +1152,28 @@
         <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>44695059.33342857</v>
+        <v>33179783.12825714</v>
       </c>
       <c r="D10" s="2">
-        <v>1.537404824686366</v>
+        <v>1.492744159834257</v>
       </c>
       <c r="E10" s="3">
-        <v>0.002406463072251117</v>
+        <v>-0.0465281629054506</v>
       </c>
       <c r="F10" s="3">
-        <v>-0.03238295401122766</v>
+        <v>-0.04757102272727274</v>
       </c>
       <c r="G10" s="3">
-        <v>-0.01684485592660758</v>
+        <v>-0.02904846720824834</v>
       </c>
       <c r="H10" s="3">
-        <v>-0.06280969599571459</v>
+        <v>-0.05564631982197683</v>
       </c>
       <c r="I10" s="3">
-        <v>-0.009665595856388832</v>
+        <v>-0.06365121702579291</v>
       </c>
       <c r="J10" s="3">
-        <v>-0.0382326338475838</v>
+        <v>-0.8792708075503803</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1184,28 +1184,28 @@
         <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>22562240.59782857</v>
+        <v>18375842.61962857</v>
       </c>
       <c r="D11" s="2">
-        <v>1.418492726379549</v>
+        <v>1.426373666139052</v>
       </c>
       <c r="E11" s="3">
-        <v>-0.01614003182541486</v>
+        <v>-0.05247410817031067</v>
       </c>
       <c r="F11" s="3">
-        <v>-0.01479626678807195</v>
+        <v>-0.07979436745641486</v>
       </c>
       <c r="G11" s="3">
-        <v>0.01859261002588849</v>
+        <v>-0.04477958236658929</v>
       </c>
       <c r="H11" s="3">
-        <v>0.06943414875216213</v>
+        <v>-0.02371354043158646</v>
       </c>
       <c r="I11" s="3">
-        <v>0.1516764236295902</v>
+        <v>0.07972724888539219</v>
       </c>
       <c r="J11" s="3">
-        <v>-0.09909966488946302</v>
+        <v>-2.091719239098899</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1216,28 +1216,28 @@
         <v>19</v>
       </c>
       <c r="C12" s="1">
-        <v>19405639.08028572</v>
+        <v>18335256.74938571</v>
       </c>
       <c r="D12" s="2">
-        <v>1.587819104574614</v>
+        <v>1.676936317376773</v>
       </c>
       <c r="E12" s="3">
-        <v>0.005614472863381234</v>
+        <v>-0.05635566687539141</v>
       </c>
       <c r="F12" s="3">
-        <v>0.001864512119328846</v>
+        <v>-0.06047381546134675</v>
       </c>
       <c r="G12" s="3">
-        <v>-0.0318318318318318</v>
+        <v>-0.05040957781978581</v>
       </c>
       <c r="H12" s="3">
-        <v>0.02609802673456407</v>
+        <v>-0.03086816720257238</v>
       </c>
       <c r="I12" s="3">
-        <v>-0.1103752759381898</v>
+        <v>-0.1393489434608795</v>
       </c>
       <c r="J12" s="3">
-        <v>0.002585957002542294</v>
+        <v>-1.815584993257874</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1248,28 +1248,28 @@
         <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>77202819.64010571</v>
+        <v>71612924.59861286</v>
       </c>
       <c r="D13" s="2">
-        <v>1.54955023297134</v>
+        <v>1.63639123636839</v>
       </c>
       <c r="E13" s="3">
-        <v>0.008711954124393368</v>
+        <v>-0.04619625137816984</v>
       </c>
       <c r="F13" s="3">
-        <v>-0.007486979166666685</v>
+        <v>-0.04724669603524234</v>
       </c>
       <c r="G13" s="3">
-        <v>-0.03155108523028062</v>
+        <v>-0.04996705468921589</v>
       </c>
       <c r="H13" s="3">
-        <v>0.0794194005192352</v>
+        <v>0.05371498172959809</v>
       </c>
       <c r="I13" s="3">
-        <v>0.01363031914893615</v>
+        <v>-0.0756491078106635</v>
       </c>
       <c r="J13" s="3">
-        <v>0.3223488592858932</v>
+        <v>-1.588937115232173</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1280,28 +1280,28 @@
         <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>48007275.23267143</v>
+        <v>47050335.09651428</v>
       </c>
       <c r="D14" s="2">
-        <v>1.900414687436045</v>
+        <v>1.906252653138854</v>
       </c>
       <c r="E14" s="3">
-        <v>0.001988466892026323</v>
+        <v>-0.02183720169990199</v>
       </c>
       <c r="F14" s="3">
-        <v>0.02128090798540743</v>
+        <v>0.006458123107971781</v>
       </c>
       <c r="G14" s="3">
-        <v>-0.001914696949689623</v>
+        <v>0.04170728310820225</v>
       </c>
       <c r="H14" s="3">
-        <v>0.1019827963259951</v>
+        <v>0.175994340512498</v>
       </c>
       <c r="I14" s="3">
-        <v>0.05110554860241978</v>
+        <v>0.04600433475494657</v>
       </c>
       <c r="J14" s="3">
-        <v>0.9264142425025094</v>
+        <v>0.074192531442619</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1312,28 +1312,28 @@
         <v>22</v>
       </c>
       <c r="C15" s="1">
-        <v>6055551.92322</v>
+        <v>5456870.414978571</v>
       </c>
       <c r="D15" s="2">
-        <v>1.285055010837944</v>
+        <v>1.277711199112102</v>
       </c>
       <c r="E15" s="3">
-        <v>0.01777777777777767</v>
+        <v>-0.03657644476956823</v>
       </c>
       <c r="F15" s="3">
-        <v>0.02921348314606732</v>
+        <v>-0.02876106194690256</v>
       </c>
       <c r="G15" s="3">
-        <v>0.02080237741456164</v>
+        <v>-0.009774436090225531</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0742767787333853</v>
+        <v>0.05191693290734829</v>
       </c>
       <c r="I15" s="3">
-        <v>0.03463855421686741</v>
+        <v>-0.02732644017725245</v>
       </c>
       <c r="J15" s="3">
-        <v>1.058080477683692</v>
+        <v>-0.9478767050467172</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1344,28 +1344,28 @@
         <v>23</v>
       </c>
       <c r="C16" s="1">
-        <v>21943896.75753514</v>
+        <v>21804827.21937643</v>
       </c>
       <c r="D16" s="2">
-        <v>1.302011099933511</v>
+        <v>1.355319197546881</v>
       </c>
       <c r="E16" s="3">
-        <v>0.03678221751786181</v>
+        <v>-0.03685692347069364</v>
       </c>
       <c r="F16" s="3">
-        <v>0.02404600104547821</v>
+        <v>-0.01749347258485645</v>
       </c>
       <c r="G16" s="3">
-        <v>0.001021972406744932</v>
+        <v>-0.01595188284518836</v>
       </c>
       <c r="H16" s="3">
-        <v>0.03213909378292933</v>
+        <v>0.01867893881970765</v>
       </c>
       <c r="I16" s="3">
-        <v>0.05407586763518962</v>
+        <v>-0.02056220718375848</v>
       </c>
       <c r="J16" s="3">
-        <v>1.376780858502519</v>
+        <v>-1.200371620543834</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1376,28 +1376,28 @@
         <v>24</v>
       </c>
       <c r="C17" s="1">
-        <v>13792118.4632</v>
+        <v>12264029.0122</v>
       </c>
       <c r="D17" s="2">
-        <v>1.441745957706647</v>
+        <v>1.479110508198595</v>
       </c>
       <c r="E17" s="3">
-        <v>0.03818880820162325</v>
+        <v>-0.04783282997306335</v>
       </c>
       <c r="F17" s="3">
-        <v>0.04993951961292559</v>
+        <v>-0.01068611652955642</v>
       </c>
       <c r="G17" s="3">
-        <v>0.02109066465002939</v>
+        <v>0.008036640165917734</v>
       </c>
       <c r="H17" s="3">
-        <v>0.10332304339931</v>
+        <v>0.1018229904599981</v>
       </c>
       <c r="I17" s="3">
-        <v>0.0119077358647681</v>
+        <v>-0.05301185257346967</v>
       </c>
       <c r="J17" s="3">
-        <v>2.059677846548697</v>
+        <v>-0.7794324078478382</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1408,28 +1408,28 @@
         <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>80264758.68142857</v>
+        <v>81016843.60628572</v>
       </c>
       <c r="D18" s="2">
-        <v>1.514929410901968</v>
+        <v>1.504453976724981</v>
       </c>
       <c r="E18" s="3">
-        <v>-0.0170267178141194</v>
+        <v>-0.00643239217279429</v>
       </c>
       <c r="F18" s="3">
-        <v>-0.06293706293706294</v>
+        <v>-0.04135362905860054</v>
       </c>
       <c r="G18" s="3">
-        <v>-0.1466962668691943</v>
+        <v>-0.07512920710954234</v>
       </c>
       <c r="H18" s="3">
-        <v>-0.05585003232062047</v>
+        <v>-0.06439683754144347</v>
       </c>
       <c r="I18" s="3">
-        <v>0.01954488342873106</v>
+        <v>-0.0008851365152855958</v>
       </c>
       <c r="J18" s="3">
-        <v>-2.010451072290835</v>
+        <v>-0.7341280285321968</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1440,28 +1440,28 @@
         <v>26</v>
       </c>
       <c r="C19" s="1">
-        <v>277067291.0468572</v>
+        <v>327966867.0938572</v>
       </c>
       <c r="D19" s="2">
-        <v>1.729533850685406</v>
+        <v>1.808766926813559</v>
       </c>
       <c r="E19" s="3">
-        <v>0.07407407407407401</v>
+        <v>0.03450960041515309</v>
       </c>
       <c r="F19" s="3">
-        <v>0.1855063487147723</v>
+        <v>0.1139983235540653</v>
       </c>
       <c r="G19" s="3">
-        <v>0.1523178807947019</v>
+        <v>0.2320766378244746</v>
       </c>
       <c r="H19" s="3">
-        <v>0.2617007251153593</v>
+        <v>0.2807581111468038</v>
       </c>
       <c r="I19" s="3">
-        <v>0.3268630849220104</v>
+        <v>0.378630705394191</v>
       </c>
       <c r="J19" s="3">
-        <v>4.504254162737703</v>
+        <v>2.804181079419089</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1472,28 +1472,28 @@
         <v>27</v>
       </c>
       <c r="C20" s="1">
-        <v>105187325.3125714</v>
+        <v>94866276.26719999</v>
       </c>
       <c r="D20" s="2">
-        <v>1.171671572344081</v>
+        <v>1.279913479253588</v>
       </c>
       <c r="E20" s="3">
-        <v>0.03699788583509517</v>
+        <v>-0.06111967128916292</v>
       </c>
       <c r="F20" s="3">
-        <v>0.02965101023353459</v>
+        <v>-0.04117492787831102</v>
       </c>
       <c r="G20" s="3">
-        <v>0.008999742864489594</v>
+        <v>-0.04192872117400423</v>
       </c>
       <c r="H20" s="3">
-        <v>0.04333953735708598</v>
+        <v>0.031311706629055</v>
       </c>
       <c r="I20" s="3">
-        <v>0.008740359897172272</v>
+        <v>-0.03484688489968333</v>
       </c>
       <c r="J20" s="3">
-        <v>1.979352516371939</v>
+        <v>-1.497078448733944</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1504,28 +1504,28 @@
         <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>6669399.093485714</v>
+        <v>10555187.188</v>
       </c>
       <c r="D21" s="2">
-        <v>1.309610833496436</v>
+        <v>1.517255584448189</v>
       </c>
       <c r="E21" s="3">
-        <v>0.01881720430107529</v>
+        <v>-0.006587615283267463</v>
       </c>
       <c r="F21" s="3">
-        <v>0.03410641200545705</v>
+        <v>0.02864938608458393</v>
       </c>
       <c r="G21" s="3">
-        <v>0.04120879120879125</v>
+        <v>0.0457697642163662</v>
       </c>
       <c r="H21" s="3">
-        <v>0.1065693430656934</v>
+        <v>0.1153846153846153</v>
       </c>
       <c r="I21" s="3">
-        <v>0.109809663250366</v>
+        <v>0.05602240896358548</v>
       </c>
       <c r="J21" s="3">
-        <v>1.364049948729063</v>
+        <v>0.7412093234670135</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1536,28 +1536,28 @@
         <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>16728766.7748</v>
+        <v>15275987.63035714</v>
       </c>
       <c r="D22" s="2">
-        <v>1.428419558807285</v>
+        <v>1.59891146904696</v>
       </c>
       <c r="E22" s="3">
-        <v>0.05926446474584209</v>
+        <v>-0.08088235294117647</v>
       </c>
       <c r="F22" s="3">
-        <v>0.07641037848131402</v>
+        <v>-0.04778393351800553</v>
       </c>
       <c r="G22" s="3">
-        <v>0.04700162074554291</v>
+        <v>-0.01574803149606298</v>
       </c>
       <c r="H22" s="3">
-        <v>0.1535714285714285</v>
+        <v>0.0325406758448059</v>
       </c>
       <c r="I22" s="3">
-        <v>0.08311377245508984</v>
+        <v>-0.03259849906191375</v>
       </c>
       <c r="J22" s="3">
-        <v>3.011712640459582</v>
+        <v>-2.163306836680407</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1568,28 +1568,28 @@
         <v>30</v>
       </c>
       <c r="C23" s="1">
-        <v>12581965.6264</v>
+        <v>12196002.8319</v>
       </c>
       <c r="D23" s="2">
-        <v>1.13747445747673</v>
+        <v>1.175942782704205</v>
       </c>
       <c r="E23" s="3">
-        <v>0.02226179875333919</v>
+        <v>-0.0410122164048865</v>
       </c>
       <c r="F23" s="3">
-        <v>0.02044444444444436</v>
+        <v>-0.02311111111111113</v>
       </c>
       <c r="G23" s="3">
-        <v>0.0008718395815169048</v>
+        <v>-0.02311111111111113</v>
       </c>
       <c r="H23" s="3">
-        <v>0.0034965034965035</v>
+        <v>-0.009909909909910019</v>
       </c>
       <c r="I23" s="3">
-        <v>-0.03122362869198324</v>
+        <v>-0.07257383966244732</v>
       </c>
       <c r="J23" s="3">
-        <v>1.10670865576921</v>
+        <v>-0.986162841622209</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1600,28 +1600,28 @@
         <v>31</v>
       </c>
       <c r="C24" s="1">
-        <v>4663575.231528572</v>
+        <v>4689218.469868571</v>
       </c>
       <c r="D24" s="2">
-        <v>1.046738714779722</v>
+        <v>1.054284385016874</v>
       </c>
       <c r="E24" s="3">
-        <v>0.01620601620601624</v>
+        <v>-0.005251641137855518</v>
       </c>
       <c r="F24" s="3">
-        <v>0.02039679001337508</v>
+        <v>0.01382694023193583</v>
       </c>
       <c r="G24" s="3">
-        <v>0.02957714799820071</v>
+        <v>0.01916825467996865</v>
       </c>
       <c r="H24" s="3">
-        <v>0.05801456142378379</v>
+        <v>0.0913455767614933</v>
       </c>
       <c r="I24" s="3">
-        <v>0.02911420863309363</v>
+        <v>0.02111410601976647</v>
       </c>
       <c r="J24" s="3">
-        <v>0.9669798628499091</v>
+        <v>0.1536381872706638</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1632,28 +1632,28 @@
         <v>32</v>
       </c>
       <c r="C25" s="1">
-        <v>13370351.56490571</v>
+        <v>12946656.72638857</v>
       </c>
       <c r="D25" s="2">
-        <v>1.152975532097429</v>
+        <v>1.209583942925337</v>
       </c>
       <c r="E25" s="3">
-        <v>0.03514166483637157</v>
+        <v>-0.05252056528158614</v>
       </c>
       <c r="F25" s="3">
-        <v>0.04108681245858185</v>
+        <v>-0.01749781277340322</v>
       </c>
       <c r="G25" s="3">
-        <v>0.01704790677600343</v>
+        <v>-0.01079057476326795</v>
       </c>
       <c r="H25" s="3">
-        <v>0.07898351648351652</v>
+        <v>0.03051158522596937</v>
       </c>
       <c r="I25" s="3">
-        <v>0.02411994784876141</v>
+        <v>-0.01942807247325901</v>
       </c>
       <c r="J25" s="3">
-        <v>1.876324147806082</v>
+        <v>-1.260946355752183</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1664,28 +1664,28 @@
         <v>33</v>
       </c>
       <c r="C26" s="1">
-        <v>7513506.658285716</v>
+        <v>6793152.520228572</v>
       </c>
       <c r="D26" s="2">
-        <v>1.235836253414257</v>
+        <v>1.211564109130887</v>
       </c>
       <c r="E26" s="3">
-        <v>0.01672240802675587</v>
+        <v>0.005488474204171245</v>
       </c>
       <c r="F26" s="3">
-        <v>0.007734806629834261</v>
+        <v>0.02118171683389077</v>
       </c>
       <c r="G26" s="3">
-        <v>-0.028236547682472</v>
+        <v>0.01271420674405756</v>
       </c>
       <c r="H26" s="3">
-        <v>0.02587176602924637</v>
+        <v>0.004385964912280706</v>
       </c>
       <c r="I26" s="3">
-        <v>0.009966777408637882</v>
+        <v>-0.0483116883116883</v>
       </c>
       <c r="J26" s="3">
-        <v>0.5728560091552107</v>
+        <v>-0.1223125823083022</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1696,28 +1696,28 @@
         <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>74146342.27113</v>
+        <v>66537465.45865428</v>
       </c>
       <c r="D27" s="2">
-        <v>1.809692479582142</v>
+        <v>1.933350641984834</v>
       </c>
       <c r="E27" s="3">
-        <v>0.002378121284185534</v>
+        <v>-0.05330661322645296</v>
       </c>
       <c r="F27" s="3">
-        <v>0.06126731011330254</v>
+        <v>-0.03944692964619773</v>
       </c>
       <c r="G27" s="3">
-        <v>0.07708688245315158</v>
+        <v>-0.009228187919463149</v>
       </c>
       <c r="H27" s="3">
-        <v>0.1812237272302663</v>
+        <v>0.1333973128598847</v>
       </c>
       <c r="I27" s="3">
-        <v>0.1320501342882722</v>
+        <v>0.1279847182425978</v>
       </c>
       <c r="J27" s="3">
-        <v>1.934447260480081</v>
+        <v>-1.216554052907799</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1728,28 +1728,28 @@
         <v>35</v>
       </c>
       <c r="C28" s="1">
-        <v>31173048.39257143</v>
+        <v>30866156.16737143</v>
       </c>
       <c r="D28" s="2">
-        <v>1.277882503679628</v>
+        <v>1.416253927065896</v>
       </c>
       <c r="E28" s="3">
-        <v>0.06221198156682032</v>
+        <v>-0.06539449541284403</v>
       </c>
       <c r="F28" s="3">
-        <v>0.0607455131155085</v>
+        <v>-0.02511100903383857</v>
       </c>
       <c r="G28" s="3">
-        <v>0.04393115942028991</v>
+        <v>-0.02189108226438283</v>
       </c>
       <c r="H28" s="3">
-        <v>0.1398664798483476</v>
+        <v>0.07887825129204432</v>
       </c>
       <c r="I28" s="3">
-        <v>0.1298096560738502</v>
+        <v>-0.02868039664378333</v>
       </c>
       <c r="J28" s="3">
-        <v>2.630456901393607</v>
+        <v>-1.610338561568335</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1760,28 +1760,28 @@
         <v>36</v>
       </c>
       <c r="C29" s="1">
-        <v>6664550.3452</v>
+        <v>6164070.867542857</v>
       </c>
       <c r="D29" s="2">
-        <v>1.117818060431243</v>
+        <v>1.171279860750121</v>
       </c>
       <c r="E29" s="3">
-        <v>0.0331161780673181</v>
+        <v>-0.04988956736390806</v>
       </c>
       <c r="F29" s="3">
-        <v>0.01493333333333335</v>
+        <v>-0.01983648304516828</v>
       </c>
       <c r="G29" s="3">
-        <v>0.02698327037236916</v>
+        <v>-0.01362287564067979</v>
       </c>
       <c r="H29" s="3">
-        <v>0.09904706901530463</v>
+        <v>0.06619040676483448</v>
       </c>
       <c r="I29" s="3">
-        <v>0.1361194029850746</v>
+        <v>0.06993416239941475</v>
       </c>
       <c r="J29" s="3">
-        <v>1.985507689848833</v>
+        <v>-0.3468507778893725</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1792,28 +1792,28 @@
         <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>5206558.613742857</v>
+        <v>5443102.770171429</v>
       </c>
       <c r="D30" s="2">
-        <v>1.178912567232996</v>
+        <v>1.290055487502269</v>
       </c>
       <c r="E30" s="3">
-        <v>0.02811621368322402</v>
+        <v>-0.04657534246575337</v>
       </c>
       <c r="F30" s="3">
-        <v>0.01199261992619935</v>
+        <v>-0.0178739416745061</v>
       </c>
       <c r="G30" s="3">
-        <v>0.01857010213556176</v>
+        <v>-0.02702702702702703</v>
       </c>
       <c r="H30" s="3">
-        <v>0.1036217303822938</v>
+        <v>0.08074534161490685</v>
       </c>
       <c r="I30" s="3">
-        <v>0.09481037924151706</v>
+        <v>0.02352941176470601</v>
       </c>
       <c r="J30" s="3">
-        <v>1.416042215010073</v>
+        <v>-0.6254206010832778</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1824,28 +1824,28 @@
         <v>38</v>
       </c>
       <c r="C31" s="1">
-        <v>7043221.628942857</v>
+        <v>6767968.95791</v>
       </c>
       <c r="D31" s="2">
-        <v>1.075903269693492</v>
+        <v>1.106620893783409</v>
       </c>
       <c r="E31" s="3">
-        <v>0.01589021307331165</v>
+        <v>-0.02904711300035428</v>
       </c>
       <c r="F31" s="3">
-        <v>0.03762449280708226</v>
+        <v>-0.008321273516642583</v>
       </c>
       <c r="G31" s="3">
-        <v>0.02739225712198675</v>
+        <v>0.01181247692875603</v>
       </c>
       <c r="H31" s="3">
-        <v>0.08862229102167185</v>
+        <v>0.07955888144938957</v>
       </c>
       <c r="I31" s="3">
-        <v>0.07943207981580963</v>
+        <v>0.05059409735530861</v>
       </c>
       <c r="J31" s="3">
-        <v>1.309824381982357</v>
+        <v>-0.4568430914036938</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1856,28 +1856,28 @@
         <v>39</v>
       </c>
       <c r="C32" s="1">
-        <v>31459475.22395857</v>
+        <v>30222359.23907572</v>
       </c>
       <c r="D32" s="2">
-        <v>1.441919646263731</v>
+        <v>1.478808649980931</v>
       </c>
       <c r="E32" s="3">
-        <v>-0.01763085399449041</v>
+        <v>-0.04042081949058694</v>
       </c>
       <c r="F32" s="3">
-        <v>-0.009444444444444484</v>
+        <v>-0.04675467546754665</v>
       </c>
       <c r="G32" s="3">
-        <v>0.003376477208778781</v>
+        <v>-0.01534090909090898</v>
       </c>
       <c r="H32" s="3">
-        <v>0.0600475624256837</v>
+        <v>0.06843403205918618</v>
       </c>
       <c r="I32" s="3">
-        <v>0.043911007025761</v>
+        <v>-0.04307012700165655</v>
       </c>
       <c r="J32" s="3">
-        <v>0.004583218360381336</v>
+        <v>-0.6544678207524073</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1888,28 +1888,28 @@
         <v>40</v>
       </c>
       <c r="C33" s="1">
-        <v>27442831.06358572</v>
+        <v>25691365.47985714</v>
       </c>
       <c r="D33" s="2">
-        <v>1.501901056640631</v>
+        <v>1.523288311042557</v>
       </c>
       <c r="E33" s="3">
-        <v>0.01994147610274187</v>
+        <v>-0.05804416403785485</v>
       </c>
       <c r="F33" s="3">
-        <v>0.01455368693402326</v>
+        <v>-0.02957426064348388</v>
       </c>
       <c r="G33" s="3">
-        <v>0.03134246575342461</v>
+        <v>-0.01948336252189132</v>
       </c>
       <c r="H33" s="3">
-        <v>-0.003388753574076038</v>
+        <v>0.0002233139794551885</v>
       </c>
       <c r="I33" s="3">
-        <v>0.08684605612657337</v>
+        <v>0.003247844103483023</v>
       </c>
       <c r="J33" s="3">
-        <v>0.5411195618006964</v>
+        <v>-1.479991522011407</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1920,28 +1920,28 @@
         <v>41</v>
       </c>
       <c r="C34" s="1">
-        <v>97417609.32682857</v>
+        <v>122443837.696</v>
       </c>
       <c r="D34" s="2">
-        <v>1.787311546411132</v>
+        <v>2.283318853553252</v>
       </c>
       <c r="E34" s="3">
-        <v>0.2706333973128599</v>
+        <v>-0.04320987654320992</v>
       </c>
       <c r="F34" s="3">
-        <v>0.2854368932038835</v>
+        <v>0.2133072407045009</v>
       </c>
       <c r="G34" s="3">
-        <v>0.3134920634920635</v>
+        <v>0.2204724409448819</v>
       </c>
       <c r="H34" s="3">
-        <v>0.5395348837209303</v>
+        <v>0.4187643020594966</v>
       </c>
       <c r="I34" s="3">
-        <v>0.5503512880562061</v>
+        <v>0.497584541062802</v>
       </c>
       <c r="J34" s="3">
-        <v>15.69074907990047</v>
+        <v>2.416861183488137</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1952,28 +1952,28 @@
         <v>42</v>
       </c>
       <c r="C35" s="1">
-        <v>31089937.00132572</v>
+        <v>28280854.6688</v>
       </c>
       <c r="D35" s="2">
-        <v>1.201341463798564</v>
+        <v>1.23857454053186</v>
       </c>
       <c r="E35" s="3">
-        <v>0.03347947389398168</v>
+        <v>-0.0606411741985322</v>
       </c>
       <c r="F35" s="3">
-        <v>0.03637090327737814</v>
+        <v>-0.04364923318914667</v>
       </c>
       <c r="G35" s="3">
-        <v>0.02449624654286853</v>
+        <v>-0.02485966319165995</v>
       </c>
       <c r="H35" s="3">
-        <v>0.008164852255054504</v>
+        <v>-0.01697655618431691</v>
       </c>
       <c r="I35" s="3">
-        <v>-0.1186267845003399</v>
+        <v>-0.1733514615907546</v>
       </c>
       <c r="J35" s="3">
-        <v>1.394490364163149</v>
+        <v>-1.563584401463119</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1984,28 +1984,28 @@
         <v>43</v>
       </c>
       <c r="C36" s="1">
-        <v>5214506.458889999</v>
+        <v>4357389.601168571</v>
       </c>
       <c r="D36" s="2">
-        <v>0.9260199720623126</v>
+        <v>0.9092231680042769</v>
       </c>
       <c r="E36" s="3">
-        <v>0.01550654720882147</v>
+        <v>-0.04083021435862538</v>
       </c>
       <c r="F36" s="3">
-        <v>0.007177033492822911</v>
+        <v>-0.0309384668270884</v>
       </c>
       <c r="G36" s="3">
-        <v>0.002380952380952402</v>
+        <v>-0.03359616043880705</v>
       </c>
       <c r="H36" s="3">
-        <v>0.0365810763278227</v>
+        <v>0.01293568091987062</v>
       </c>
       <c r="I36" s="3">
-        <v>0.04171085189112762</v>
+        <v>-0.007394366197183163</v>
       </c>
       <c r="J36" s="3">
-        <v>0.5884750873486282</v>
+        <v>-0.9406717814612696</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2016,28 +2016,28 @@
         <v>44</v>
       </c>
       <c r="C37" s="1">
-        <v>242051089.8224286</v>
+        <v>209072493.6350143</v>
       </c>
       <c r="D37" s="2">
-        <v>2.239634317957651</v>
+        <v>2.383933297877851</v>
       </c>
       <c r="E37" s="3">
-        <v>0.02208380520951298</v>
+        <v>-0.08296213808463253</v>
       </c>
       <c r="F37" s="3">
-        <v>-0.01527550463720678</v>
+        <v>-0.08398220244716352</v>
       </c>
       <c r="G37" s="3">
-        <v>-0.06958762886597938</v>
+        <v>-0.09356081452944411</v>
       </c>
       <c r="H37" s="3">
-        <v>-0.01419989077007101</v>
+        <v>-0.07211267605633798</v>
       </c>
       <c r="I37" s="3">
-        <v>-0.246661101836394</v>
+        <v>-0.3829149494192581</v>
       </c>
       <c r="J37" s="3">
-        <v>-0.1387089608265829</v>
+        <v>-3.019514857718865</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2048,28 +2048,28 @@
         <v>45</v>
       </c>
       <c r="C38" s="1">
-        <v>18853289.2392</v>
+        <v>17559487.1888</v>
       </c>
       <c r="D38" s="2">
-        <v>1.612030729633602</v>
+        <v>1.72252380848787</v>
       </c>
       <c r="E38" s="3">
-        <v>0.04930232558139534</v>
+        <v>-0.09238665526090679</v>
       </c>
       <c r="F38" s="3">
-        <v>0.05519176800748365</v>
+        <v>-0.011183597390494</v>
       </c>
       <c r="G38" s="3">
-        <v>0.04541241890639482</v>
+        <v>0.001888574126534521</v>
       </c>
       <c r="H38" s="3">
-        <v>0.1545547594677585</v>
+        <v>0.0904419321685509</v>
       </c>
       <c r="I38" s="3">
-        <v>-0.0568561872909699</v>
+        <v>-0.01302325581395348</v>
       </c>
       <c r="J38" s="3">
-        <v>3.08744685954301</v>
+        <v>-1.702380199250277</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2080,28 +2080,28 @@
         <v>46</v>
       </c>
       <c r="C39" s="1">
-        <v>366150339.1397142</v>
+        <v>328149341.979</v>
       </c>
       <c r="D39" s="2">
-        <v>2.358930317497705</v>
+        <v>2.623412631810099</v>
       </c>
       <c r="E39" s="3">
-        <v>0.09132101777622849</v>
+        <v>-0.0969502407704655</v>
       </c>
       <c r="F39" s="3">
-        <v>0.03812997347480098</v>
+        <v>-0.02563214409421539</v>
       </c>
       <c r="G39" s="3">
-        <v>0.1739782527184102</v>
+        <v>-0.0470867208672086</v>
       </c>
       <c r="H39" s="3">
-        <v>0.2921997523730911</v>
+        <v>0.1247500999600161</v>
       </c>
       <c r="I39" s="3">
-        <v>0.06787175989085943</v>
+        <v>-0.05951186894015377</v>
       </c>
       <c r="J39" s="3">
-        <v>5.366883775158513</v>
+        <v>-1.99272176777568</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2112,28 +2112,28 @@
         <v>47</v>
       </c>
       <c r="C40" s="1">
-        <v>28452906.8622</v>
+        <v>24870942.7582</v>
       </c>
       <c r="D40" s="2">
-        <v>1.503299717589022</v>
+        <v>1.500793180638722</v>
       </c>
       <c r="E40" s="3">
-        <v>0.02395209580838321</v>
+        <v>-0.06333892617449666</v>
       </c>
       <c r="F40" s="3">
-        <v>0.01269035532994925</v>
+        <v>-0.04857264593097569</v>
       </c>
       <c r="G40" s="3">
-        <v>-0.004159733777038273</v>
+        <v>-0.04531851218469431</v>
       </c>
       <c r="H40" s="3">
-        <v>0.01226215644820302</v>
+        <v>-0.04163090128755371</v>
       </c>
       <c r="I40" s="3">
-        <v>-0.09762532981530336</v>
+        <v>-0.3162890385793019</v>
       </c>
       <c r="J40" s="3">
-        <v>0.9821963664377603</v>
+        <v>-2.199695877542854</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2144,28 +2144,28 @@
         <v>48</v>
       </c>
       <c r="C41" s="1">
-        <v>8108174.067685713</v>
+        <v>7757313.843157143</v>
       </c>
       <c r="D41" s="2">
-        <v>1.201617348074497</v>
+        <v>1.302799845107209</v>
       </c>
       <c r="E41" s="3">
-        <v>0.04305283757338549</v>
+        <v>-0.06018808777429465</v>
       </c>
       <c r="F41" s="3">
-        <v>0.0450980392156862</v>
+        <v>-0.0278858625162127</v>
       </c>
       <c r="G41" s="3">
-        <v>0.02042118698149318</v>
+        <v>-0.02281616688396351</v>
       </c>
       <c r="H41" s="3">
-        <v>0.126056338028169</v>
+        <v>0.06690391459074727</v>
       </c>
       <c r="I41" s="3">
-        <v>0.08553971486761712</v>
+        <v>0.02741603838245376</v>
       </c>
       <c r="J41" s="3">
-        <v>2.541063757063887</v>
+        <v>-1.507219320721148</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2176,28 +2176,28 @@
         <v>49</v>
       </c>
       <c r="C42" s="1">
-        <v>7501119.375399999</v>
+        <v>7892811.893874285</v>
       </c>
       <c r="D42" s="2">
-        <v>1.173226327943679</v>
+        <v>1.255759120525167</v>
       </c>
       <c r="E42" s="3">
-        <v>0.0188003581020591</v>
+        <v>-0.04997807978956607</v>
       </c>
       <c r="F42" s="3">
-        <v>-0.01386481802426347</v>
+        <v>-0.04956140350877204</v>
       </c>
       <c r="G42" s="3">
-        <v>-0.06375976964212256</v>
+        <v>-0.08449514152936213</v>
       </c>
       <c r="H42" s="3">
-        <v>-0.005244755244755334</v>
+        <v>-0.03603202846975097</v>
       </c>
       <c r="I42" s="3">
-        <v>-0.03885135135135138</v>
+        <v>-0.1034340091021929</v>
       </c>
       <c r="J42" s="3">
-        <v>-0.1959036944445653</v>
+        <v>-1.746298925887966</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2208,28 +2208,28 @@
         <v>50</v>
       </c>
       <c r="C43" s="1">
-        <v>6264347.341999999</v>
+        <v>6165084.191099999</v>
       </c>
       <c r="D43" s="2">
-        <v>0.4885997920138838</v>
+        <v>0.465429184622118</v>
       </c>
       <c r="E43" s="3">
-        <v>-0.006030969845150848</v>
+        <v>0.02452427821522299</v>
       </c>
       <c r="F43" s="3">
-        <v>-0.01787727492349819</v>
+        <v>0.01917428198433421</v>
       </c>
       <c r="G43" s="3">
-        <v>-0.02150192554557139</v>
+        <v>0.00240751143567932</v>
       </c>
       <c r="H43" s="3">
-        <v>-0.07028510443665197</v>
+        <v>-0.06026181161600973</v>
       </c>
       <c r="I43" s="3">
-        <v>-0.02353883106485195</v>
+        <v>-0.005335244465679284</v>
       </c>
       <c r="J43" s="3">
-        <v>-1.040508147032377</v>
+        <v>0.373084519551971</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2240,28 +2240,28 @@
         <v>51</v>
       </c>
       <c r="C44" s="1">
-        <v>13582582.50428571</v>
+        <v>12796612.20674286</v>
       </c>
       <c r="D44" s="2">
-        <v>1.600017693193844</v>
+        <v>1.683985045128838</v>
       </c>
       <c r="E44" s="3">
-        <v>0.03595368677635585</v>
+        <v>-0.03714622641509431</v>
       </c>
       <c r="F44" s="3">
-        <v>0.01130279595478876</v>
+        <v>-0.0054811205846528</v>
       </c>
       <c r="G44" s="3">
-        <v>0.03217972070431083</v>
+        <v>-0.02623732856290998</v>
       </c>
       <c r="H44" s="3">
-        <v>0.1060507482108003</v>
+        <v>0.08432934926958831</v>
       </c>
       <c r="I44" s="3">
-        <v>-0.004100761570005927</v>
+        <v>-0.09227348526959418</v>
       </c>
       <c r="J44" s="3">
-        <v>0.9775192623711503</v>
+        <v>-0.5163401831036969</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2272,28 +2272,28 @@
         <v>52</v>
       </c>
       <c r="C45" s="1">
-        <v>6715033.580700001</v>
+        <v>5920671.721428571</v>
       </c>
       <c r="D45" s="2">
-        <v>1.092005430801732</v>
+        <v>1.122632798792933</v>
       </c>
       <c r="E45" s="3">
-        <v>0.01825013419216326</v>
+        <v>-0.05160610847814641</v>
       </c>
       <c r="F45" s="3">
-        <v>0.03097826086956527</v>
+        <v>-0.03327965646806218</v>
       </c>
       <c r="G45" s="3">
-        <v>0.02209051724137942</v>
+        <v>-0.02437703141928481</v>
       </c>
       <c r="H45" s="3">
-        <v>0.09400230680507503</v>
+        <v>0.03684513529073125</v>
       </c>
       <c r="I45" s="3">
-        <v>0.1061224489795918</v>
+        <v>-0.00276854928017719</v>
       </c>
       <c r="J45" s="3">
-        <v>1.037518016641462</v>
+        <v>-1.07894159333549</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2304,28 +2304,28 @@
         <v>53</v>
       </c>
       <c r="C46" s="1">
-        <v>125784201.8404367</v>
+        <v>122178753.0685637</v>
       </c>
       <c r="D46" s="2">
-        <v>1.086626959324716</v>
+        <v>1.159847605556724</v>
       </c>
       <c r="E46" s="3">
-        <v>0.04982245894363088</v>
+        <v>-0.04169332480272969</v>
       </c>
       <c r="F46" s="3">
-        <v>0.03094693254876335</v>
+        <v>-0.01577045230533348</v>
       </c>
       <c r="G46" s="3">
-        <v>0.04970598025074897</v>
+        <v>-0.02832738674451293</v>
       </c>
       <c r="H46" s="3">
-        <v>0.07756264236902062</v>
+        <v>0.06016279344107586</v>
       </c>
       <c r="I46" s="3">
-        <v>0.04958952740181953</v>
+        <v>-0.002884722068123819</v>
       </c>
       <c r="J46" s="3">
-        <v>2.589436561137771</v>
+        <v>-0.6677926855235631</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2336,28 +2336,28 @@
         <v>54</v>
       </c>
       <c r="C47" s="1">
-        <v>5154374.26443</v>
+        <v>4763833.014028572</v>
       </c>
       <c r="D47" s="2">
-        <v>1.184263903919925</v>
+        <v>1.296368859670537</v>
       </c>
       <c r="E47" s="3">
-        <v>0.0475543478260869</v>
+        <v>-0.0713359273670558</v>
       </c>
       <c r="F47" s="3">
-        <v>0.03212851405622487</v>
+        <v>-0.0337381916329285</v>
       </c>
       <c r="G47" s="3">
-        <v>0.04189189189189182</v>
+        <v>-0.02585034013605443</v>
       </c>
       <c r="H47" s="3">
-        <v>0.154191616766467</v>
+        <v>0.08320726172465949</v>
       </c>
       <c r="I47" s="3">
-        <v>0.1422222222222222</v>
+        <v>0.0734632683658171</v>
       </c>
       <c r="J47" s="3">
-        <v>3.027905439796879</v>
+        <v>-1.346769651371309</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2368,28 +2368,28 @@
         <v>55</v>
       </c>
       <c r="C48" s="1">
-        <v>10069670.92091</v>
+        <v>9389538.820428571</v>
       </c>
       <c r="D48" s="2">
-        <v>1.283346210006258</v>
+        <v>1.352055193018154</v>
       </c>
       <c r="E48" s="3">
-        <v>0.02358961557663508</v>
+        <v>-0.06153474903474896</v>
       </c>
       <c r="F48" s="3">
-        <v>0.04073604060913712</v>
+        <v>-0.02811445707859555</v>
       </c>
       <c r="G48" s="3">
-        <v>0.04511278195488724</v>
+        <v>-0.01481950601646617</v>
       </c>
       <c r="H48" s="3">
-        <v>0.1027295952669086</v>
+        <v>0.05967302452316069</v>
       </c>
       <c r="I48" s="3">
-        <v>0.0657569850552306</v>
+        <v>0.009736466311826569</v>
       </c>
       <c r="J48" s="3">
-        <v>2.03396612342752</v>
+        <v>-1.458433803344535</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2400,28 +2400,28 @@
         <v>56</v>
       </c>
       <c r="C49" s="1">
-        <v>8866086.512357144</v>
+        <v>8545935.230114287</v>
       </c>
       <c r="D49" s="2">
-        <v>1.295583608738391</v>
+        <v>1.413465488650973</v>
       </c>
       <c r="E49" s="3">
-        <v>0.01053639846743285</v>
+        <v>-0.06792452830188678</v>
       </c>
       <c r="F49" s="3">
-        <v>0.03027343749999992</v>
+        <v>-0.05815061963775019</v>
       </c>
       <c r="G49" s="3">
-        <v>0.02826510721247563</v>
+        <v>-0.03421309872922779</v>
       </c>
       <c r="H49" s="3">
-        <v>0.08205128205128198</v>
+        <v>0.03999999999999998</v>
       </c>
       <c r="I49" s="3">
-        <v>0.05184446660019937</v>
+        <v>-0.08007448789571692</v>
       </c>
       <c r="J49" s="3">
-        <v>1.351270741956206</v>
+        <v>-1.227301038668623</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2432,28 +2432,28 @@
         <v>57</v>
       </c>
       <c r="C50" s="1">
-        <v>13682016.98088571</v>
+        <v>11332702.04982857</v>
       </c>
       <c r="D50" s="2">
-        <v>1.369237939982385</v>
+        <v>1.382610226265734</v>
       </c>
       <c r="E50" s="3">
-        <v>0.0176967776016904</v>
+        <v>-0.06276692118545373</v>
       </c>
       <c r="F50" s="3">
-        <v>0.03173115544249557</v>
+        <v>-0.03619909502262444</v>
       </c>
       <c r="G50" s="3">
-        <v>0.02582534611288601</v>
+        <v>-0.02896218825422374</v>
       </c>
       <c r="H50" s="3">
-        <v>0.1468968596517337</v>
+        <v>0.06531332744924978</v>
       </c>
       <c r="I50" s="3">
-        <v>0.2031225604996097</v>
+        <v>0.0002762430939226215</v>
       </c>
       <c r="J50" s="3">
-        <v>1.525788556590207</v>
+        <v>-1.399073273964098</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2464,28 +2464,28 @@
         <v>58</v>
       </c>
       <c r="C51" s="1">
-        <v>18032928.954228</v>
+        <v>17381794.05196457</v>
       </c>
       <c r="D51" s="2">
-        <v>1.305210222769422</v>
+        <v>1.362890684618783</v>
       </c>
       <c r="E51" s="3">
-        <v>0.004276114844227283</v>
+        <v>-0.04077906269020085</v>
       </c>
       <c r="F51" s="3">
-        <v>0.006736068585425694</v>
+        <v>-0.05060240963855427</v>
       </c>
       <c r="G51" s="3">
-        <v>-0.004239854633555327</v>
+        <v>-0.03549571603427179</v>
       </c>
       <c r="H51" s="3">
-        <v>0.08658294778585594</v>
+        <v>0.09292649098474343</v>
       </c>
       <c r="I51" s="3">
-        <v>0.08300395256916998</v>
+        <v>0.02537410540013011</v>
       </c>
       <c r="J51" s="3">
-        <v>0.5873296316974801</v>
+        <v>-0.7785445079662362</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2496,28 +2496,28 @@
         <v>59</v>
       </c>
       <c r="C52" s="1">
-        <v>9112022.094501428</v>
+        <v>8166595.627785714</v>
       </c>
       <c r="D52" s="2">
-        <v>1.22283154578135</v>
+        <v>1.260444494913819</v>
       </c>
       <c r="E52" s="3">
-        <v>0.0302267002518891</v>
+        <v>-0.05744336569579279</v>
       </c>
       <c r="F52" s="3">
-        <v>0.02677824267782419</v>
+        <v>-0.02265100671140935</v>
       </c>
       <c r="G52" s="3">
-        <v>0.04071246819338419</v>
+        <v>-0.008510638297872289</v>
       </c>
       <c r="H52" s="3">
-        <v>0.1329639889196676</v>
+        <v>0.0797034291010196</v>
       </c>
       <c r="I52" s="3">
-        <v>0.1340110905730129</v>
+        <v>0.06295620437956218</v>
       </c>
       <c r="J52" s="3">
-        <v>2.40666799710257</v>
+        <v>-1.08245913606849</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2528,28 +2528,28 @@
         <v>60</v>
       </c>
       <c r="C53" s="1">
-        <v>7164693.759533143</v>
+        <v>7439641.508154142</v>
       </c>
       <c r="D53" s="2">
-        <v>1.121503025318714</v>
+        <v>1.193227942963137</v>
       </c>
       <c r="E53" s="3">
-        <v>0.02932551319648102</v>
+        <v>-0.05657708628005657</v>
       </c>
       <c r="F53" s="3">
-        <v>0.0278184480234261</v>
+        <v>-0.0305232558139536</v>
       </c>
       <c r="G53" s="3">
-        <v>0.01152737752161396</v>
+        <v>-0.01038575667655795</v>
       </c>
       <c r="H53" s="3">
-        <v>0.08000000000000011</v>
+        <v>0.04709576138147562</v>
       </c>
       <c r="I53" s="3">
-        <v>0.07175572519083978</v>
+        <v>0.009077155824508213</v>
       </c>
       <c r="J53" s="3">
-        <v>1.591889964699144</v>
+        <v>-1.124016151644962</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2560,28 +2560,28 @@
         <v>61</v>
       </c>
       <c r="C54" s="1">
-        <v>7501468.684068571</v>
+        <v>6841067.636075715</v>
       </c>
       <c r="D54" s="2">
-        <v>1.339094224624644</v>
+        <v>1.3977612676033</v>
       </c>
       <c r="E54" s="3">
-        <v>-0.003802281368821303</v>
+        <v>-0.05758157389635315</v>
       </c>
       <c r="F54" s="3">
-        <v>0.007692307692307713</v>
+        <v>-0.06831119544592032</v>
       </c>
       <c r="G54" s="3">
-        <v>-0.01318267419962331</v>
+        <v>-0.05938697318007654</v>
       </c>
       <c r="H54" s="3">
-        <v>0.06504065040650406</v>
+        <v>0.00408997955010226</v>
       </c>
       <c r="I54" s="3">
-        <v>0.1268817204301076</v>
+        <v>0.05818965517241385</v>
       </c>
       <c r="J54" s="3">
-        <v>0.2563402801198066</v>
+        <v>-2.117996612209492</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2592,28 +2592,28 @@
         <v>62</v>
       </c>
       <c r="C55" s="1">
-        <v>11080687.24928571</v>
+        <v>10174124.42006143</v>
       </c>
       <c r="D55" s="2">
-        <v>1.27690610757413</v>
+        <v>1.320095053401593</v>
       </c>
       <c r="E55" s="3">
-        <v>0.03171953255425711</v>
+        <v>-0.03864734299516918</v>
       </c>
       <c r="F55" s="3">
-        <v>0.03517587939698495</v>
+        <v>-0.0132231404958678</v>
       </c>
       <c r="G55" s="3">
-        <v>0.04391891891891889</v>
+        <v>-0.008305647840531656</v>
       </c>
       <c r="H55" s="3">
-        <v>0.08231173380035026</v>
+        <v>0.06607142857142852</v>
       </c>
       <c r="I55" s="3">
-        <v>-0.001615508885298943</v>
+        <v>-0.01809210526315801</v>
       </c>
       <c r="J55" s="3">
-        <v>1.758309954103929</v>
+        <v>-1.016551389981386</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2624,28 +2624,28 @@
         <v>63</v>
       </c>
       <c r="C56" s="1">
-        <v>9039450.330114286</v>
+        <v>8584472.59974857</v>
       </c>
       <c r="D56" s="2">
-        <v>1.119581678295898</v>
+        <v>1.168129360115671</v>
       </c>
       <c r="E56" s="3">
-        <v>0.01418439716312061</v>
+        <v>-0.05307262569832404</v>
       </c>
       <c r="F56" s="3">
-        <v>0</v>
+        <v>-0.04507042253521138</v>
       </c>
       <c r="G56" s="3">
-        <v>-0.006254343293954121</v>
+        <v>-0.04101838755304107</v>
       </c>
       <c r="H56" s="3">
-        <v>0.0671641791044776</v>
+        <v>0.02883156297420322</v>
       </c>
       <c r="I56" s="3">
-        <v>0.03773584905660374</v>
+        <v>-0.0396600566572239</v>
       </c>
       <c r="J56" s="3">
-        <v>0.4419506419300638</v>
+        <v>-1.403678626529067</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2656,28 +2656,28 @@
         <v>64</v>
       </c>
       <c r="C57" s="1">
-        <v>12600081.01732286</v>
+        <v>11720757.62350571</v>
       </c>
       <c r="D57" s="2">
-        <v>0.9728563224390373</v>
+        <v>1.011340555786979</v>
       </c>
       <c r="E57" s="3">
-        <v>0.02190669371196764</v>
+        <v>-0.04277227722772281</v>
       </c>
       <c r="F57" s="3">
-        <v>0.0277437780497756</v>
+        <v>-0.04144358516755902</v>
       </c>
       <c r="G57" s="3">
-        <v>0.01736672051696284</v>
+        <v>-0.01987023519870238</v>
       </c>
       <c r="H57" s="3">
-        <v>0.09236773633998265</v>
+        <v>0.0645232327681128</v>
       </c>
       <c r="I57" s="3">
-        <v>0.1158361018826135</v>
+        <v>0.02610910634684785</v>
       </c>
       <c r="J57" s="3">
-        <v>1.790247158262909</v>
+        <v>-0.719879262184328</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2688,28 +2688,28 @@
         <v>65</v>
       </c>
       <c r="C58" s="1">
-        <v>15323307.82951429</v>
+        <v>14908516.10574286</v>
       </c>
       <c r="D58" s="2">
-        <v>1.219466218567354</v>
+        <v>1.303995072241739</v>
       </c>
       <c r="E58" s="3">
-        <v>0.03317152103559864</v>
+        <v>-0.05144193296960237</v>
       </c>
       <c r="F58" s="3">
-        <v>0.03736799350121837</v>
+        <v>-0.01616814874696848</v>
       </c>
       <c r="G58" s="3">
-        <v>0.03568532035685305</v>
+        <v>-0.002459016393442534</v>
       </c>
       <c r="H58" s="3">
-        <v>0.1231310466138961</v>
+        <v>0.09936766034327019</v>
       </c>
       <c r="I58" s="3">
-        <v>0.1056277056277055</v>
+        <v>0.02441077441077453</v>
       </c>
       <c r="J58" s="3">
-        <v>1.718418470615942</v>
+        <v>-0.654327109754408</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2720,28 +2720,28 @@
         <v>66</v>
       </c>
       <c r="C59" s="1">
-        <v>46629664.9258</v>
+        <v>40876865.16222857</v>
       </c>
       <c r="D59" s="2">
-        <v>1.10190967261017</v>
+        <v>1.149074129660198</v>
       </c>
       <c r="E59" s="3">
-        <v>0.00790318597184499</v>
+        <v>-0.04817193675889332</v>
       </c>
       <c r="F59" s="3">
-        <v>0.04426816786079846</v>
+        <v>-0.02873708091757</v>
       </c>
       <c r="G59" s="3">
-        <v>0.03604975882203617</v>
+        <v>-0.01205128205128215</v>
       </c>
       <c r="H59" s="3">
-        <v>0.06470127837203248</v>
+        <v>0.04191454840454288</v>
       </c>
       <c r="I59" s="3">
-        <v>-0.09068627450980384</v>
+        <v>-0.1140492067141872</v>
       </c>
       <c r="J59" s="3">
-        <v>1.355096420898905</v>
+        <v>-1.176448445471054</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2752,28 +2752,28 @@
         <v>67</v>
       </c>
       <c r="C60" s="1">
-        <v>7871632.798314285</v>
+        <v>7646423.070742857</v>
       </c>
       <c r="D60" s="2">
-        <v>1.051256787347444</v>
+        <v>1.108630347776236</v>
       </c>
       <c r="E60" s="3">
-        <v>0.01320422535211256</v>
+        <v>-0.04695652173913045</v>
       </c>
       <c r="F60" s="3">
-        <v>0.009649122807017454</v>
+        <v>-0.03605980650835525</v>
       </c>
       <c r="G60" s="3">
-        <v>0.02311111111111103</v>
+        <v>-0.02922940655447296</v>
       </c>
       <c r="H60" s="3">
-        <v>0.07670720299345182</v>
+        <v>0.05182341650671787</v>
       </c>
       <c r="I60" s="3">
-        <v>0.04731574158325747</v>
+        <v>-0.009936766034327043</v>
       </c>
       <c r="J60" s="3">
-        <v>0.7782942657957316</v>
+        <v>-0.9789867334659113</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2784,28 +2784,28 @@
         <v>68</v>
       </c>
       <c r="C61" s="1">
-        <v>23514807.59961857</v>
+        <v>14820683.98708714</v>
       </c>
       <c r="D61" s="2">
-        <v>1.28869005307031</v>
+        <v>1.175906873372163</v>
       </c>
       <c r="E61" s="3">
-        <v>0.008140008140008185</v>
+        <v>-0.05640818524501884</v>
       </c>
       <c r="F61" s="3">
-        <v>0.01225991009399262</v>
+        <v>-0.04444444444444443</v>
       </c>
       <c r="G61" s="3">
-        <v>0.008276797829036626</v>
+        <v>-0.04743136721935318</v>
       </c>
       <c r="H61" s="3">
-        <v>0.01212203759193683</v>
+        <v>0.03929418742586002</v>
       </c>
       <c r="I61" s="3">
-        <v>0.07462039045553143</v>
+        <v>-0.006660997732426279</v>
       </c>
       <c r="J61" s="3">
-        <v>0.338959526262663</v>
+        <v>-1.215135335370209</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2816,28 +2816,28 @@
         <v>69</v>
       </c>
       <c r="C62" s="1">
-        <v>19929237.20768571</v>
+        <v>13512721.08488571</v>
       </c>
       <c r="D62" s="2">
-        <v>1.478412378209175</v>
+        <v>1.3413594208033</v>
       </c>
       <c r="E62" s="3">
-        <v>0.003076923076922952</v>
+        <v>-0.01230769230769245</v>
       </c>
       <c r="F62" s="3">
-        <v>0.006172839506172803</v>
+        <v>-0.01533742331288345</v>
       </c>
       <c r="G62" s="3">
-        <v>-0.04398826979472145</v>
+        <v>-0.01230769230769245</v>
       </c>
       <c r="H62" s="3">
-        <v>0.06535947712418295</v>
+        <v>-0.006191950464396462</v>
       </c>
       <c r="I62" s="3">
-        <v>0.03821656050955413</v>
+        <v>0.03548387096774183</v>
       </c>
       <c r="J62" s="3">
-        <v>-0.003082475751909234</v>
+        <v>-0.2726066341523736</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2848,28 +2848,28 @@
         <v>70</v>
       </c>
       <c r="C63" s="1">
-        <v>82274436.38142858</v>
+        <v>60709326.348</v>
       </c>
       <c r="D63" s="2">
-        <v>2.326508097616539</v>
+        <v>2.247092798535527</v>
       </c>
       <c r="E63" s="3">
-        <v>0.03911342894393745</v>
+        <v>-0.07673112913287583</v>
       </c>
       <c r="F63" s="3">
-        <v>0.001256281407035154</v>
+        <v>-0.0541116318704729</v>
       </c>
       <c r="G63" s="3">
-        <v>-0.01137068430845566</v>
+        <v>-0.03014416775884661</v>
       </c>
       <c r="H63" s="3">
-        <v>-0.09654260343850364</v>
+        <v>-0.102123356926188</v>
       </c>
       <c r="I63" s="3">
-        <v>-0.02646579804560263</v>
+        <v>-0.3501170960187354</v>
       </c>
       <c r="J63" s="3">
-        <v>0.5960632531813777</v>
+        <v>-2.093373595341319</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2880,28 +2880,28 @@
         <v>71</v>
       </c>
       <c r="C64" s="1">
-        <v>25235666.72502857</v>
+        <v>24638852.43337143</v>
       </c>
       <c r="D64" s="2">
-        <v>1.304297166715388</v>
+        <v>1.401117899178065</v>
       </c>
       <c r="E64" s="3">
-        <v>0.01808318264014456</v>
+        <v>-0.05317247542448615</v>
       </c>
       <c r="F64" s="3">
-        <v>0.01077199281867133</v>
+        <v>-0.04977578475336322</v>
       </c>
       <c r="G64" s="3">
-        <v>-0.007929515418502337</v>
+        <v>-0.04592525889239082</v>
       </c>
       <c r="H64" s="3">
-        <v>0.09800097513408083</v>
+        <v>0.06268806419257779</v>
       </c>
       <c r="I64" s="3">
-        <v>0.04939422180801484</v>
+        <v>-0.02664216812126783</v>
       </c>
       <c r="J64" s="3">
-        <v>0.866906426974874</v>
+        <v>-1.558792739646067</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2912,28 +2912,28 @@
         <v>72</v>
       </c>
       <c r="C65" s="1">
-        <v>26491164.78738857</v>
+        <v>25391270.99048057</v>
       </c>
       <c r="D65" s="2">
-        <v>1.274918402289485</v>
+        <v>1.354219821192122</v>
       </c>
       <c r="E65" s="3">
-        <v>0.02512562814070351</v>
+        <v>-0.05366492146596861</v>
       </c>
       <c r="F65" s="3">
-        <v>0.03273709078636512</v>
+        <v>-0.04015930965814803</v>
       </c>
       <c r="G65" s="3">
-        <v>0.01728723404255318</v>
+        <v>-0.02527805864509605</v>
       </c>
       <c r="H65" s="3">
-        <v>0.04902296880356528</v>
+        <v>0.01974612129760228</v>
       </c>
       <c r="I65" s="3">
-        <v>-0.0911790911790913</v>
+        <v>-0.1225728155339805</v>
       </c>
       <c r="J65" s="3">
-        <v>1.449782929458168</v>
+        <v>-0.7942235591466952</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2944,28 +2944,28 @@
         <v>73</v>
       </c>
       <c r="C66" s="1">
-        <v>56127638.30492857</v>
+        <v>50131254.82811429</v>
       </c>
       <c r="D66" s="2">
-        <v>1.86956570992747</v>
+        <v>1.9552732810114</v>
       </c>
       <c r="E66" s="3">
-        <v>0.02438452520515829</v>
+        <v>-0.03353238401469911</v>
       </c>
       <c r="F66" s="3">
-        <v>-0.006593906321055006</v>
+        <v>-0.02839990764257682</v>
       </c>
       <c r="G66" s="3">
-        <v>-0.02477678571428586</v>
+        <v>-0.04167615577317236</v>
       </c>
       <c r="H66" s="3">
-        <v>0.0718842001962709</v>
+        <v>0.06964921199796645</v>
       </c>
       <c r="I66" s="3">
-        <v>0.03924833491912465</v>
+        <v>0.0311198235726537</v>
       </c>
       <c r="J66" s="3">
-        <v>0.5952003591675364</v>
+        <v>-0.5631512722670647</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2976,28 +2976,28 @@
         <v>74</v>
       </c>
       <c r="C67" s="1">
-        <v>35993599.91314286</v>
+        <v>33719412.49714286</v>
       </c>
       <c r="D67" s="2">
-        <v>1.498115601907954</v>
+        <v>1.594316296059497</v>
       </c>
       <c r="E67" s="3">
-        <v>0.05857142857142863</v>
+        <v>-0.07661822985468963</v>
       </c>
       <c r="F67" s="3">
-        <v>0.05555555555555561</v>
+        <v>-0.00142857142857143</v>
       </c>
       <c r="G67" s="3">
-        <v>0.05255681818181823</v>
+        <v>-0.002853067047075609</v>
       </c>
       <c r="H67" s="3">
-        <v>0.1193353474320241</v>
+        <v>0.06880733944954118</v>
       </c>
       <c r="I67" s="3">
-        <v>0.1109445277361319</v>
+        <v>0.02342606149341128</v>
       </c>
       <c r="J67" s="3">
-        <v>3.220958320177294</v>
+        <v>-1.331815465324862</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3008,28 +3008,28 @@
         <v>75</v>
       </c>
       <c r="C68" s="1">
-        <v>24450979.89068571</v>
+        <v>21688803.51579428</v>
       </c>
       <c r="D68" s="2">
-        <v>1.383305840105594</v>
+        <v>1.377736430501903</v>
       </c>
       <c r="E68" s="3">
-        <v>0.001326846528084864</v>
+        <v>-0.05139565795303506</v>
       </c>
       <c r="F68" s="3">
-        <v>-0.003082342580361101</v>
+        <v>-0.05682819383259925</v>
       </c>
       <c r="G68" s="3">
-        <v>-0.03040685224839396</v>
+        <v>-0.05055432372505553</v>
       </c>
       <c r="H68" s="3">
-        <v>0.1038517796196977</v>
+        <v>0.03680387409200953</v>
       </c>
       <c r="I68" s="3">
-        <v>0.1180246913580247</v>
+        <v>0.01421127427759347</v>
       </c>
       <c r="J68" s="3">
-        <v>0.3921656437331101</v>
+        <v>-1.393050787495411</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3040,28 +3040,28 @@
         <v>76</v>
       </c>
       <c r="C69" s="1">
-        <v>88208132.54245713</v>
+        <v>77304841.77000001</v>
       </c>
       <c r="D69" s="2">
-        <v>1.194350106807982</v>
+        <v>1.261759074348837</v>
       </c>
       <c r="E69" s="3">
-        <v>0.03346909863644418</v>
+        <v>-0.05372616984402066</v>
       </c>
       <c r="F69" s="3">
-        <v>0.03456833894699515</v>
+        <v>-0.03482411171999283</v>
       </c>
       <c r="G69" s="3">
-        <v>0.03566992014196985</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="H69" s="3">
-        <v>0.06769118185144536</v>
+        <v>0.01751770406261662</v>
       </c>
       <c r="I69" s="3">
-        <v>-0.0128552097428957</v>
+        <v>-0.06314344543582695</v>
       </c>
       <c r="J69" s="3">
-        <v>1.729099111905587</v>
+        <v>-1.405323817848742</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3072,28 +3072,28 @@
         <v>77</v>
       </c>
       <c r="C70" s="1">
-        <v>507339956.8861171</v>
+        <v>435020414.48822</v>
       </c>
       <c r="D70" s="2">
-        <v>1.889297669375288</v>
+        <v>1.822002499442128</v>
       </c>
       <c r="E70" s="3">
-        <v>0.009566326530612318</v>
+        <v>-0.0411954765751212</v>
       </c>
       <c r="F70" s="3">
-        <v>-0.01214046633006185</v>
+        <v>-0.04202455756038519</v>
       </c>
       <c r="G70" s="3">
-        <v>-0.01704769968952862</v>
+        <v>-0.0375861469855794</v>
       </c>
       <c r="H70" s="3">
-        <v>-0.1154627654170476</v>
+        <v>-0.1101472556894244</v>
       </c>
       <c r="I70" s="3">
-        <v>-0.1341984884645982</v>
+        <v>-0.1423853021623575</v>
       </c>
       <c r="J70" s="3">
-        <v>-0.1824603578765579</v>
+        <v>-1.650746658446467</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3104,28 +3104,28 @@
         <v>78</v>
       </c>
       <c r="C71" s="1">
-        <v>19866251.04271429</v>
+        <v>20571847.58811428</v>
       </c>
       <c r="D71" s="2">
-        <v>0.9588589818756402</v>
+        <v>1.036737847854703</v>
       </c>
       <c r="E71" s="3">
-        <v>0.02507232401157186</v>
+        <v>-0.03327032136105872</v>
       </c>
       <c r="F71" s="3">
-        <v>0.02864331333462342</v>
+        <v>-0.02086923224200655</v>
       </c>
       <c r="G71" s="3">
-        <v>0.008156297420333783</v>
+        <v>-0.009106762255376937</v>
       </c>
       <c r="H71" s="3">
-        <v>0.0556107249255214</v>
+        <v>0.03021756647864617</v>
       </c>
       <c r="I71" s="3">
-        <v>0.01956646844427391</v>
+        <v>0.009674234945705856</v>
       </c>
       <c r="J71" s="3">
-        <v>0.5300309591296278</v>
+        <v>-0.62530567893016</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3136,28 +3136,28 @@
         <v>79</v>
       </c>
       <c r="C72" s="1">
-        <v>44567507.04926</v>
+        <v>42776732.98626</v>
       </c>
       <c r="D72" s="2">
-        <v>1.541891960128093</v>
+        <v>1.676480838258096</v>
       </c>
       <c r="E72" s="3">
-        <v>0.02798092209856912</v>
+        <v>-0.06204884042389805</v>
       </c>
       <c r="F72" s="3">
-        <v>0.03704891740176412</v>
+        <v>-0.0362947767082215</v>
       </c>
       <c r="G72" s="3">
-        <v>0.03638403590318952</v>
+        <v>-0.0092472420506165</v>
       </c>
       <c r="H72" s="3">
-        <v>0.1387812610073969</v>
+        <v>0.1317642698295033</v>
       </c>
       <c r="I72" s="3">
-        <v>0.05001623903864879</v>
+        <v>-0.02256722151088351</v>
       </c>
       <c r="J72" s="3">
-        <v>2.144137367345411</v>
+        <v>-0.5701791130605154</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3168,28 +3168,28 @@
         <v>80</v>
       </c>
       <c r="C73" s="1">
-        <v>7359244.669291429</v>
+        <v>6910247.39592</v>
       </c>
       <c r="D73" s="2">
-        <v>1.212136683008774</v>
+        <v>1.259114986410203</v>
       </c>
       <c r="E73" s="3">
-        <v>0.008643367155204718</v>
+        <v>-0.02872062663185378</v>
       </c>
       <c r="F73" s="3">
-        <v>0.01975683890577506</v>
+        <v>-0.01288855193328279</v>
       </c>
       <c r="G73" s="3">
-        <v>0.02364607170099157</v>
+        <v>-0.004587155963302698</v>
       </c>
       <c r="H73" s="3">
-        <v>0.08532147189648204</v>
+        <v>0.0755885997521686</v>
       </c>
       <c r="I73" s="3">
-        <v>-0.02753623188405798</v>
+        <v>-0.09426086956521741</v>
       </c>
       <c r="J73" s="3">
-        <v>0.9537043424456128</v>
+        <v>-0.2515293253681727</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3200,28 +3200,28 @@
         <v>81</v>
       </c>
       <c r="C74" s="1">
-        <v>14429205.099</v>
+        <v>13350161.71977143</v>
       </c>
       <c r="D74" s="2">
-        <v>1.18865395852229</v>
+        <v>1.232021693022008</v>
       </c>
       <c r="E74" s="3">
-        <v>0.01686972820993448</v>
+        <v>-0.03363412633306</v>
       </c>
       <c r="F74" s="3">
-        <v>0.05419410558134521</v>
+        <v>-0.01945687233378433</v>
       </c>
       <c r="G74" s="3">
-        <v>0.04684819897084061</v>
+        <v>0.0344676180021954</v>
       </c>
       <c r="H74" s="3">
-        <v>0.1132010943912449</v>
+        <v>0.1123701605288007</v>
       </c>
       <c r="I74" s="3">
-        <v>-0.06751336898395713</v>
+        <v>-0.1307074993081819</v>
       </c>
       <c r="J74" s="3">
-        <v>1.522058873009332</v>
+        <v>-0.650257154983679</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3232,28 +3232,28 @@
         <v>82</v>
       </c>
       <c r="C75" s="1">
-        <v>9403519.287945714</v>
+        <v>8789189.489228571</v>
       </c>
       <c r="D75" s="2">
-        <v>1.10417698266881</v>
+        <v>1.185270474234897</v>
       </c>
       <c r="E75" s="3">
-        <v>0.008795368514807382</v>
+        <v>-0.0675630993056322</v>
       </c>
       <c r="F75" s="3">
-        <v>-0.001982597202335055</v>
+        <v>-0.05843071786310523</v>
       </c>
       <c r="G75" s="3">
-        <v>0.01923509561304825</v>
+        <v>-0.05590893873451624</v>
       </c>
       <c r="H75" s="3">
-        <v>0.09116088631984577</v>
+        <v>0.02969814995131448</v>
       </c>
       <c r="I75" s="3">
-        <v>0.05091626072836918</v>
+        <v>-0.04772624943719054</v>
       </c>
       <c r="J75" s="3">
-        <v>0.792034189039193</v>
+        <v>-1.583374050367306</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3264,28 +3264,28 @@
         <v>83</v>
       </c>
       <c r="C76" s="1">
-        <v>63621860.36028571</v>
+        <v>59514299.13342858</v>
       </c>
       <c r="D76" s="2">
-        <v>1.213506479881235</v>
+        <v>1.317879780847451</v>
       </c>
       <c r="E76" s="3">
-        <v>0.03055388320288987</v>
+        <v>-0.05903737094663367</v>
       </c>
       <c r="F76" s="3">
-        <v>0.02977891412242448</v>
+        <v>-0.02735607996392598</v>
       </c>
       <c r="G76" s="3">
-        <v>0.01092573453417994</v>
+        <v>-0.0255985544345731</v>
       </c>
       <c r="H76" s="3">
-        <v>0.04375000000000013</v>
+        <v>0.03469779341221627</v>
       </c>
       <c r="I76" s="3">
-        <v>-0.02394868139700631</v>
+        <v>-0.08173690932311617</v>
       </c>
       <c r="J76" s="3">
-        <v>1.64634011836409</v>
+        <v>-1.335672406332195</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3296,28 +3296,28 @@
         <v>84</v>
       </c>
       <c r="C77" s="1">
-        <v>6695233.179814285</v>
+        <v>6126117.772628572</v>
       </c>
       <c r="D77" s="2">
-        <v>0.7833155661808009</v>
+        <v>0.8485047399878568</v>
       </c>
       <c r="E77" s="3">
-        <v>0.02444444444444436</v>
+        <v>-0.03181295515523179</v>
       </c>
       <c r="F77" s="3">
-        <v>0.03773834745762708</v>
+        <v>-0.007985338395077882</v>
       </c>
       <c r="G77" s="3">
-        <v>0.04493333333333327</v>
+        <v>0.007444828503057764</v>
       </c>
       <c r="H77" s="3">
-        <v>0.06307650569723276</v>
+        <v>0.0445210199862164</v>
       </c>
       <c r="I77" s="3">
-        <v>0.02780327868852459</v>
+        <v>-0.009411764705882331</v>
       </c>
       <c r="J77" s="3">
-        <v>2.12951264256392</v>
+        <v>-0.6454903276462259</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3328,28 +3328,28 @@
         <v>85</v>
       </c>
       <c r="C78" s="1">
-        <v>27966103.02848571</v>
+        <v>27288149.69442857</v>
       </c>
       <c r="D78" s="2">
-        <v>1.539576130728904</v>
+        <v>1.605754976961358</v>
       </c>
       <c r="E78" s="3">
-        <v>0.01078228951594398</v>
+        <v>-0.02616147947677041</v>
       </c>
       <c r="F78" s="3">
-        <v>0.01755196304849883</v>
+        <v>-0.009178522257916483</v>
       </c>
       <c r="G78" s="3">
-        <v>0.01872832369942196</v>
+        <v>-0.0002315350775642255</v>
       </c>
       <c r="H78" s="3">
-        <v>0.1473958333333333</v>
+        <v>0.1049129989764586</v>
       </c>
       <c r="I78" s="3">
-        <v>0.1205493387589013</v>
+        <v>0.09040404040404039</v>
       </c>
       <c r="J78" s="3">
-        <v>0.9864977255467172</v>
+        <v>-0.04529047279427664</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3360,28 +3360,28 @@
         <v>86</v>
       </c>
       <c r="C79" s="1">
-        <v>10267138.30442857</v>
+        <v>13905503.76703428</v>
       </c>
       <c r="D79" s="2">
-        <v>1.227776180725172</v>
+        <v>1.398489175266289</v>
       </c>
       <c r="E79" s="3">
-        <v>0.01719401770271642</v>
+        <v>0.006008411776486976</v>
       </c>
       <c r="F79" s="3">
-        <v>0.0031102638707736</v>
+        <v>0.02052011377488819</v>
       </c>
       <c r="G79" s="3">
-        <v>-0.01594488188976375</v>
+        <v>0.004800960192038351</v>
       </c>
       <c r="H79" s="3">
-        <v>0.07022050952686787</v>
+        <v>0.0823098470157293</v>
       </c>
       <c r="I79" s="3">
-        <v>0.1421064656157184</v>
+        <v>0.1489021043000914</v>
       </c>
       <c r="J79" s="3">
-        <v>0.2578929927095147</v>
+        <v>0.2110955900230994</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3392,28 +3392,28 @@
         <v>87</v>
       </c>
       <c r="C80" s="1">
-        <v>15377330.37049714</v>
+        <v>16779796.87368</v>
       </c>
       <c r="D80" s="2">
-        <v>1.225057814409303</v>
+        <v>1.366543142007226</v>
       </c>
       <c r="E80" s="3">
-        <v>0.03335082065502518</v>
+        <v>-0.02690126508652035</v>
       </c>
       <c r="F80" s="3">
-        <v>0.05267979844251022</v>
+        <v>-0.0009703664999628199</v>
       </c>
       <c r="G80" s="3">
-        <v>0.06834030683403064</v>
+        <v>0.02012195121951201</v>
       </c>
       <c r="H80" s="3">
-        <v>0.1098768413426709</v>
+        <v>0.132893177585915</v>
       </c>
       <c r="I80" s="3">
-        <v>0.05622797609928002</v>
+        <v>-0.01912788567240748</v>
       </c>
       <c r="J80" s="3">
-        <v>2.648053360129383</v>
+        <v>0.4863490980534231</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3424,28 +3424,28 @@
         <v>88</v>
       </c>
       <c r="C81" s="1">
-        <v>516430773.3231428</v>
+        <v>459104880.1095285</v>
       </c>
       <c r="D81" s="2">
-        <v>1.249189057373929</v>
+        <v>1.251690377417719</v>
       </c>
       <c r="E81" s="3">
-        <v>0.02021515545572763</v>
+        <v>-0.04740221833041457</v>
       </c>
       <c r="F81" s="3">
-        <v>0.02275420715809433</v>
+        <v>-0.04192108971348058</v>
       </c>
       <c r="G81" s="3">
-        <v>0.01732877519745366</v>
+        <v>-0.03375177640928479</v>
       </c>
       <c r="H81" s="3">
-        <v>0.07018849206349204</v>
+        <v>0.04295027483062759</v>
       </c>
       <c r="I81" s="3">
-        <v>-0.02924634420697415</v>
+        <v>-0.1064505530610011</v>
       </c>
       <c r="J81" s="3">
-        <v>1.085014112618204</v>
+        <v>-1.336361976088497</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3456,28 +3456,28 @@
         <v>89</v>
       </c>
       <c r="C82" s="1">
-        <v>14938277.52347143</v>
+        <v>14568946.79382857</v>
       </c>
       <c r="D82" s="2">
-        <v>1.192816276038003</v>
+        <v>1.247826727756686</v>
       </c>
       <c r="E82" s="3">
-        <v>0.02252816020025038</v>
+        <v>-0.04433497536945814</v>
       </c>
       <c r="F82" s="3">
-        <v>0.02681189777963978</v>
+        <v>-0.04197530864197525</v>
       </c>
       <c r="G82" s="3">
-        <v>0.01406702523789828</v>
+        <v>-0.03201663201663196</v>
       </c>
       <c r="H82" s="3">
-        <v>0.05102915951972566</v>
+        <v>0.02781456953642384</v>
       </c>
       <c r="I82" s="3">
-        <v>0.004920049200492032</v>
+        <v>-0.06768121746095314</v>
       </c>
       <c r="J82" s="3">
-        <v>0.6647210315663165</v>
+        <v>-1.063390458996553</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3488,28 +3488,28 @@
         <v>90</v>
       </c>
       <c r="C83" s="1">
-        <v>28813990.55932285</v>
+        <v>31502590.64748714</v>
       </c>
       <c r="D83" s="2">
-        <v>1.253455463284731</v>
+        <v>1.416485482712733</v>
       </c>
       <c r="E83" s="3">
-        <v>0.04545454545454535</v>
+        <v>-0.02650778210116746</v>
       </c>
       <c r="F83" s="3">
-        <v>0.04571861581207369</v>
+        <v>0.02065272819989788</v>
       </c>
       <c r="G83" s="3">
-        <v>0.04387291981845681</v>
+        <v>0.02746406570841875</v>
       </c>
       <c r="H83" s="3">
-        <v>0.07756376887037993</v>
+        <v>0.07607526881720414</v>
       </c>
       <c r="I83" s="3">
-        <v>0.01222493887530555</v>
+        <v>-0.05119696610571227</v>
       </c>
       <c r="J83" s="3">
-        <v>2.710978271337435</v>
+        <v>0.2195131508832229</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3520,28 +3520,28 @@
         <v>91</v>
       </c>
       <c r="C84" s="1">
-        <v>83157965.1496</v>
+        <v>81267636.18702856</v>
       </c>
       <c r="D84" s="2">
-        <v>0.9527892097722855</v>
+        <v>1.032035215614584</v>
       </c>
       <c r="E84" s="3">
-        <v>0.032288037166086</v>
+        <v>-0.05028184892897404</v>
       </c>
       <c r="F84" s="3">
-        <v>0.03445065176908745</v>
+        <v>-0.01955307262569844</v>
       </c>
       <c r="G84" s="3">
-        <v>0.01137915339098767</v>
+        <v>-0.01749475157452768</v>
       </c>
       <c r="H84" s="3">
-        <v>0.06801249699591454</v>
+        <v>0.02282661486158315</v>
       </c>
       <c r="I84" s="3">
-        <v>0.03783278841662772</v>
+        <v>-0.02837370242214538</v>
       </c>
       <c r="J84" s="3">
-        <v>0.6498838620899846</v>
+        <v>-1.221659325671984</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3552,28 +3552,28 @@
         <v>92</v>
       </c>
       <c r="C85" s="1">
-        <v>92029620.40800001</v>
+        <v>87881254.28000002</v>
       </c>
       <c r="D85" s="2">
-        <v>1.472362170659976</v>
+        <v>1.552824326785075</v>
       </c>
       <c r="E85" s="3">
-        <v>0.0235046198735614</v>
+        <v>-0.05553787396562702</v>
       </c>
       <c r="F85" s="3">
-        <v>0.06799729364005418</v>
+        <v>-0.03354502524018882</v>
       </c>
       <c r="G85" s="3">
-        <v>0.08693406782578751</v>
+        <v>0.006443954553162668</v>
       </c>
       <c r="H85" s="3">
-        <v>0.1279028224365846</v>
+        <v>0.0666786484543494</v>
       </c>
       <c r="I85" s="3">
-        <v>0.115547703180212</v>
+        <v>0.0255745636772076</v>
       </c>
       <c r="J85" s="3">
-        <v>1.914769142399747</v>
+        <v>-1.142741189686575</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3584,28 +3584,28 @@
         <v>93</v>
       </c>
       <c r="C86" s="1">
-        <v>169908288.5971428</v>
+        <v>150924388.131</v>
       </c>
       <c r="D86" s="2">
-        <v>1.510317175360547</v>
+        <v>1.599595553445504</v>
       </c>
       <c r="E86" s="3">
-        <v>0.03231821006836547</v>
+        <v>-0.06500607533414338</v>
       </c>
       <c r="F86" s="3">
-        <v>0.009113001215066904</v>
+        <v>-0.05582822085889569</v>
       </c>
       <c r="G86" s="3">
-        <v>0.01095556908094949</v>
+        <v>-0.05756276791181879</v>
       </c>
       <c r="H86" s="3">
-        <v>0.0593112244897959</v>
+        <v>0.03012048192771079</v>
       </c>
       <c r="I86" s="3">
-        <v>-0.149077868852459</v>
+        <v>-0.2005194805194806</v>
       </c>
       <c r="J86" s="3">
-        <v>1.513289579441307</v>
+        <v>-2.163813263732395</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3616,28 +3616,28 @@
         <v>94</v>
       </c>
       <c r="C87" s="1">
-        <v>14447361.01714286</v>
+        <v>13786757.66771428</v>
       </c>
       <c r="D87" s="2">
-        <v>1.121825817149197</v>
+        <v>1.175489367524315</v>
       </c>
       <c r="E87" s="3">
-        <v>-0.00300751879699255</v>
+        <v>-0.04941969299887684</v>
       </c>
       <c r="F87" s="3">
-        <v>0.01067073170731712</v>
+        <v>-0.05508001488649052</v>
       </c>
       <c r="G87" s="3">
-        <v>0.001132502831257121</v>
+        <v>-0.04152510381275945</v>
       </c>
       <c r="H87" s="3">
-        <v>0.1313993174061433</v>
+        <v>0.07767402376910025</v>
       </c>
       <c r="I87" s="3">
-        <v>0.1450777202072539</v>
+        <v>0.06501677852348996</v>
       </c>
       <c r="J87" s="3">
-        <v>0.6831527110076644</v>
+        <v>-0.8898308466422917</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3648,28 +3648,28 @@
         <v>95</v>
       </c>
       <c r="C88" s="1">
-        <v>307175459.7423657</v>
+        <v>320161809.8493028</v>
       </c>
       <c r="D88" s="2">
-        <v>2.439068633149863</v>
+        <v>2.771846116809144</v>
       </c>
       <c r="E88" s="3">
-        <v>-0.03534768211920538</v>
+        <v>-0.01659929474499012</v>
       </c>
       <c r="F88" s="3">
-        <v>0.1028771531326897</v>
+        <v>-0.07760567925137143</v>
       </c>
       <c r="G88" s="3">
-        <v>0.4439900867410161</v>
+        <v>0.09531564326084875</v>
       </c>
       <c r="H88" s="3">
-        <v>0.5500133014099494</v>
+        <v>0.5552230685527747</v>
       </c>
       <c r="I88" s="3">
-        <v>0.5278615445129144</v>
+        <v>0.4416845290631697</v>
       </c>
       <c r="J88" s="3">
-        <v>5.55830716908686</v>
+        <v>2.629318960190862</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3680,28 +3680,28 @@
         <v>96</v>
       </c>
       <c r="C89" s="1">
-        <v>5680211.4642</v>
+        <v>5523711.759000001</v>
       </c>
       <c r="D89" s="2">
-        <v>1.163575889763074</v>
+        <v>1.179755770289185</v>
       </c>
       <c r="E89" s="3">
-        <v>0.005079365079365049</v>
+        <v>-0.01355611601513232</v>
       </c>
       <c r="F89" s="3">
-        <v>0.02559118885649504</v>
+        <v>0.006756756756756727</v>
       </c>
       <c r="G89" s="3">
-        <v>0.0222796254439781</v>
+        <v>0.01557935735150934</v>
       </c>
       <c r="H89" s="3">
-        <v>0.1085434173669467</v>
+        <v>0.07488835451734793</v>
       </c>
       <c r="I89" s="3">
-        <v>0.1035203903799233</v>
+        <v>0.0409181636726548</v>
       </c>
       <c r="J89" s="3">
-        <v>1.005623170022411</v>
+        <v>0.09444502721428941</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3712,28 +3712,28 @@
         <v>97</v>
       </c>
       <c r="C90" s="1">
-        <v>9398803.169500001</v>
+        <v>9077375.055985715</v>
       </c>
       <c r="D90" s="2">
-        <v>1.083407796156079</v>
+        <v>1.146889368875483</v>
       </c>
       <c r="E90" s="3">
-        <v>0.003605769230769334</v>
+        <v>-0.04415274463007154</v>
       </c>
       <c r="F90" s="3">
-        <v>0.01581508515815097</v>
+        <v>-0.02909090909090908</v>
       </c>
       <c r="G90" s="3">
-        <v>0.01581508515815097</v>
+        <v>-0.02197802197802193</v>
       </c>
       <c r="H90" s="3">
-        <v>0.1074270557029179</v>
+        <v>0.07661290322580661</v>
       </c>
       <c r="I90" s="3">
-        <v>0.07464607464607463</v>
+        <v>0.01392405063291144</v>
       </c>
       <c r="J90" s="3">
-        <v>1.207663431027874</v>
+        <v>-0.8556261310592614</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3744,28 +3744,28 @@
         <v>98</v>
       </c>
       <c r="C91" s="1">
-        <v>15171852.60685714</v>
+        <v>14231695.41021429</v>
       </c>
       <c r="D91" s="2">
-        <v>1.039666492298219</v>
+        <v>1.083814869755896</v>
       </c>
       <c r="E91" s="3">
-        <v>0.02834541858932102</v>
+        <v>-0.054983922829582</v>
       </c>
       <c r="F91" s="3">
-        <v>0.02868447082096929</v>
+        <v>-0.03194993412384713</v>
       </c>
       <c r="G91" s="3">
-        <v>0.02127659574468087</v>
+        <v>-0.02939233817701459</v>
       </c>
       <c r="H91" s="3">
-        <v>0.06885919835560125</v>
+        <v>0.04109103790294013</v>
       </c>
       <c r="I91" s="3">
-        <v>0.006451612903225813</v>
+        <v>-0.04886731391585761</v>
       </c>
       <c r="J91" s="3">
-        <v>1.446403211865843</v>
+        <v>-1.223657878157393</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3776,28 +3776,28 @@
         <v>99</v>
       </c>
       <c r="C92" s="1">
-        <v>17642214.45542857</v>
+        <v>15693806.88628571</v>
       </c>
       <c r="D92" s="2">
-        <v>1.523239350286641</v>
+        <v>1.611899811337114</v>
       </c>
       <c r="E92" s="3">
-        <v>0.03273322422258595</v>
+        <v>0.005978477481068205</v>
       </c>
       <c r="F92" s="3">
         <v>0.0386831275720164</v>
       </c>
       <c r="G92" s="3">
-        <v>0.02726902726902734</v>
+        <v>0.0399670374948496</v>
       </c>
       <c r="H92" s="3">
-        <v>0.1530379168570123</v>
+        <v>0.1866478608368596</v>
       </c>
       <c r="I92" s="3">
-        <v>0.04600082884376304</v>
+        <v>-0.01444748145255756</v>
       </c>
       <c r="J92" s="3">
-        <v>1.701036600252635</v>
+        <v>0.2069952905274846</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3808,28 +3808,28 @@
         <v>100</v>
       </c>
       <c r="C93" s="1">
-        <v>52170262.81628571</v>
+        <v>72335579.87207143</v>
       </c>
       <c r="D93" s="2">
-        <v>1.176276770315483</v>
+        <v>1.272864500361401</v>
       </c>
       <c r="E93" s="3">
-        <v>0.03663793103448276</v>
+        <v>0.02754677754677754</v>
       </c>
       <c r="F93" s="3">
-        <v>0.03496503496503484</v>
+        <v>0.05552589428723968</v>
       </c>
       <c r="G93" s="3">
-        <v>0.04508419337316661</v>
+        <v>0.08328767123287667</v>
       </c>
       <c r="H93" s="3">
-        <v>0.1218658892128278</v>
+        <v>0.1698224852071004</v>
       </c>
       <c r="I93" s="3">
-        <v>0.06651884700665178</v>
+        <v>0.1144306651634723</v>
       </c>
       <c r="J93" s="3">
-        <v>2.570891836038477</v>
+        <v>0.5576475046734612</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3840,28 +3840,28 @@
         <v>101</v>
       </c>
       <c r="C94" s="1">
-        <v>134656561.9417143</v>
+        <v>123933925.5385714</v>
       </c>
       <c r="D94" s="2">
-        <v>1.05381765245044</v>
+        <v>1.154474856583389</v>
       </c>
       <c r="E94" s="3">
-        <v>0.03416392414981977</v>
+        <v>-0.06271484225803986</v>
       </c>
       <c r="F94" s="3">
-        <v>0.03004760789822834</v>
+        <v>-0.0444669418269605</v>
       </c>
       <c r="G94" s="3">
-        <v>0.02001700285957186</v>
+        <v>-0.04528478057889828</v>
       </c>
       <c r="H94" s="3">
-        <v>0.08384659604171806</v>
+        <v>0.04106567113524521</v>
       </c>
       <c r="I94" s="3">
-        <v>0.01437245407731928</v>
+        <v>-0.06034614795527648</v>
       </c>
       <c r="J94" s="3">
-        <v>2.093195758213537</v>
+        <v>-1.578448412511645</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3872,28 +3872,28 @@
         <v>102</v>
       </c>
       <c r="C95" s="1">
-        <v>50853015.71714286</v>
+        <v>46263691.847</v>
       </c>
       <c r="D95" s="2">
-        <v>1.233282583345017</v>
+        <v>1.243256995192571</v>
       </c>
       <c r="E95" s="3">
-        <v>0.02327299593646109</v>
+        <v>-0.05745677233429394</v>
       </c>
       <c r="F95" s="3">
-        <v>0.02384032526335252</v>
+        <v>-0.04420091324200914</v>
       </c>
       <c r="G95" s="3">
-        <v>0.01576824349101582</v>
+        <v>-0.04052071873854054</v>
       </c>
       <c r="H95" s="3">
-        <v>0.02006996869821395</v>
+        <v>0.01316553727008705</v>
       </c>
       <c r="I95" s="3">
-        <v>-0.04548587181254311</v>
+        <v>-0.1302974904437428</v>
       </c>
       <c r="J95" s="3">
-        <v>0.4643036050294626</v>
+        <v>-1.479994143375838</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3904,28 +3904,28 @@
         <v>103</v>
       </c>
       <c r="C96" s="1">
-        <v>9238137.391999999</v>
+        <v>9145756.958862858</v>
       </c>
       <c r="D96" s="2">
-        <v>1.295060300791538</v>
+        <v>1.382453289936032</v>
       </c>
       <c r="E96" s="3">
-        <v>0.01672679567071171</v>
+        <v>-0.03128007699711261</v>
       </c>
       <c r="F96" s="3">
-        <v>0.01141924959216964</v>
+        <v>-0.01772934287573196</v>
       </c>
       <c r="G96" s="3">
-        <v>0.02124855872179212</v>
+        <v>-0.01339650383924198</v>
       </c>
       <c r="H96" s="3">
-        <v>0.09968073785030153</v>
+        <v>0.0838119167264896</v>
       </c>
       <c r="I96" s="3">
-        <v>0.09870636186425658</v>
+        <v>0.05080911780059159</v>
       </c>
       <c r="J96" s="3">
-        <v>0.6292692830043397</v>
+        <v>-0.4939122371228188</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3936,28 +3936,28 @@
         <v>104</v>
       </c>
       <c r="C97" s="1">
-        <v>43938431.97054286</v>
+        <v>26072154.4797</v>
       </c>
       <c r="D97" s="2">
-        <v>1.548470094997158</v>
+        <v>1.416309018053174</v>
       </c>
       <c r="E97" s="3">
-        <v>0.01738609112709824</v>
+        <v>-0.06211180124223608</v>
       </c>
       <c r="F97" s="3">
-        <v>0.01525575830092729</v>
+        <v>-0.04803362353647558</v>
       </c>
       <c r="G97" s="3">
-        <v>-0.0182238935493203</v>
+        <v>-0.04660252555622373</v>
       </c>
       <c r="H97" s="3">
-        <v>0.09519199741852201</v>
+        <v>-0.07631808913486747</v>
       </c>
       <c r="I97" s="3">
-        <v>0.1556009533537622</v>
+        <v>0.08004087193460478</v>
       </c>
       <c r="J97" s="3">
-        <v>0.07929590853026856</v>
+        <v>-1.678575105931581</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3968,28 +3968,28 @@
         <v>105</v>
       </c>
       <c r="C98" s="1">
-        <v>6577404.6066</v>
+        <v>5783502.057885715</v>
       </c>
       <c r="D98" s="2">
-        <v>1.166801410392688</v>
+        <v>1.203555308369145</v>
       </c>
       <c r="E98" s="3">
-        <v>0.004081632653061098</v>
+        <v>-0.05542725173210161</v>
       </c>
       <c r="F98" s="3">
-        <v>-0.006347374495095312</v>
+        <v>-0.05324074074074082</v>
       </c>
       <c r="G98" s="3">
-        <v>-0.01148105625717567</v>
+        <v>-0.0537883169462117</v>
       </c>
       <c r="H98" s="3">
-        <v>0.1247550620509469</v>
+        <v>0.05141388174807203</v>
       </c>
       <c r="I98" s="3">
-        <v>0.1306631648063034</v>
+        <v>0.1039136302294197</v>
       </c>
       <c r="J98" s="3">
-        <v>0.8526524803566996</v>
+        <v>-1.409110441109198</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4000,28 +4000,28 @@
         <v>106</v>
       </c>
       <c r="C99" s="1">
-        <v>561954655.1071428</v>
+        <v>518421875.2994285</v>
       </c>
       <c r="D99" s="2">
-        <v>1.767227248481787</v>
+        <v>1.931569140911976</v>
       </c>
       <c r="E99" s="3">
-        <v>0.01669850704026043</v>
+        <v>-0.07363987363987361</v>
       </c>
       <c r="F99" s="3">
-        <v>0.02525865144488043</v>
+        <v>-0.06998379026006063</v>
       </c>
       <c r="G99" s="3">
-        <v>-0.015214858474402</v>
+        <v>-0.05944404846756947</v>
       </c>
       <c r="H99" s="3">
-        <v>0.1728838462166354</v>
+        <v>0.1298912578131689</v>
       </c>
       <c r="I99" s="3">
-        <v>0.09469754685357309</v>
+        <v>-0.0337555832173977</v>
       </c>
       <c r="J99" s="3">
-        <v>1.36763097036629</v>
+        <v>-1.47284544624379</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4032,28 +4032,28 @@
         <v>107</v>
       </c>
       <c r="C100" s="1">
-        <v>24342537.215</v>
+        <v>22708400.80457143</v>
       </c>
       <c r="D100" s="2">
-        <v>0.879185356118146</v>
+        <v>0.8962965004135525</v>
       </c>
       <c r="E100" s="3">
-        <v>-0.001146263182026528</v>
+        <v>-0.0274004144600506</v>
       </c>
       <c r="F100" s="3">
-        <v>0.03148674242424238</v>
+        <v>-0.03912647861692445</v>
       </c>
       <c r="G100" s="3">
-        <v>0.01989700374531839</v>
+        <v>-0.00471253534401498</v>
       </c>
       <c r="H100" s="3">
-        <v>0.05880923450789798</v>
+        <v>0.03478686918177368</v>
       </c>
       <c r="I100" s="3">
-        <v>0.01043599257884979</v>
+        <v>-0.04520795660036166</v>
       </c>
       <c r="J100" s="3">
-        <v>0.7214034167669809</v>
+        <v>-0.3287857196628142</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4064,28 +4064,28 @@
         <v>108</v>
       </c>
       <c r="C101" s="1">
-        <v>86170059.44485714</v>
+        <v>110215393.8711429</v>
       </c>
       <c r="D101" s="2">
-        <v>1.447317768104755</v>
+        <v>1.533337306595537</v>
       </c>
       <c r="E101" s="3">
-        <v>0.08060453400503767</v>
+        <v>0.03330751355538354</v>
       </c>
       <c r="F101" s="3">
-        <v>0.09812286689419795</v>
+        <v>0.1285956006768191</v>
       </c>
       <c r="G101" s="3">
-        <v>0.1028277634961439</v>
+        <v>0.143101970865467</v>
       </c>
       <c r="H101" s="3">
-        <v>0.1</v>
+        <v>0.2018018018018018</v>
       </c>
       <c r="I101" s="3">
-        <v>0.03456591639871377</v>
+        <v>0.09344262295081976</v>
       </c>
       <c r="J101" s="3">
-        <v>3.296320639590213</v>
+        <v>2.927504055743588</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4096,28 +4096,28 @@
         <v>109</v>
       </c>
       <c r="C102" s="1">
-        <v>19093670.39528571</v>
+        <v>18186391.992</v>
       </c>
       <c r="D102" s="2">
-        <v>1.002854618423995</v>
+        <v>1.045685152999725</v>
       </c>
       <c r="E102" s="3">
-        <v>0.01347935973041282</v>
+        <v>-0.04420350291909938</v>
       </c>
       <c r="F102" s="3">
-        <v>0.01092436974789926</v>
+        <v>-0.04020100502512566</v>
       </c>
       <c r="G102" s="3">
-        <v>0.01862828111769688</v>
+        <v>-0.02963590177815422</v>
       </c>
       <c r="H102" s="3">
-        <v>0.04427083333333347</v>
+        <v>0.0287253141831237</v>
       </c>
       <c r="I102" s="3">
-        <v>0.06460176991150458</v>
+        <v>-0.01715265866209264</v>
       </c>
       <c r="J102" s="3">
-        <v>0.8479975442781834</v>
+        <v>-1.153300687365804</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4128,28 +4128,28 @@
         <v>110</v>
       </c>
       <c r="C103" s="1">
-        <v>26023259.95185714</v>
+        <v>53778771.26285715</v>
       </c>
       <c r="D103" s="2">
-        <v>1.408425558898342</v>
+        <v>1.449052255319536</v>
       </c>
       <c r="E103" s="3">
-        <v>0.02642444260941373</v>
+        <v>0.1936</v>
       </c>
       <c r="F103" s="3">
-        <v>0.07340241796200342</v>
+        <v>0.2259654889071487</v>
       </c>
       <c r="G103" s="3">
-        <v>0.08844133099824866</v>
+        <v>0.281786941580756</v>
       </c>
       <c r="H103" s="3">
-        <v>0.1552044609665428</v>
+        <v>0.3866171003717472</v>
       </c>
       <c r="I103" s="3">
-        <v>0.06330196749358429</v>
+        <v>0.2665534804753821</v>
       </c>
       <c r="J103" s="3">
-        <v>3.064090031971368</v>
+        <v>6.31883982932063</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4160,28 +4160,28 @@
         <v>111</v>
       </c>
       <c r="C104" s="1">
-        <v>675888261.9325714</v>
+        <v>629180579.3191715</v>
       </c>
       <c r="D104" s="2">
-        <v>2.675064980996922</v>
+        <v>2.996664068994016</v>
       </c>
       <c r="E104" s="3">
-        <v>0.002844950213371269</v>
+        <v>-0.09193776520509186</v>
       </c>
       <c r="F104" s="3">
-        <v>0.03982300884955739</v>
+        <v>-0.1132596685082872</v>
       </c>
       <c r="G104" s="3">
-        <v>0.02620087336244527</v>
+        <v>-0.0572687224669604</v>
       </c>
       <c r="H104" s="3">
-        <v>0.3796477495107631</v>
+        <v>0.3155737704918034</v>
       </c>
       <c r="I104" s="3">
-        <v>0.119047619047619</v>
+        <v>0.06644518272425255</v>
       </c>
       <c r="J104" s="3">
-        <v>2.02635352539163</v>
+        <v>-2.091537326164296</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4192,28 +4192,28 @@
         <v>112</v>
       </c>
       <c r="C105" s="1">
-        <v>34919866.8795</v>
+        <v>34128470.88</v>
       </c>
       <c r="D105" s="2">
-        <v>1.378665914060248</v>
+        <v>1.510727636761577</v>
       </c>
       <c r="E105" s="3">
-        <v>0.008998500249958236</v>
+        <v>-0.04182509505703424</v>
       </c>
       <c r="F105" s="3">
-        <v>0.01152689609087871</v>
+        <v>-0.04733727810650878</v>
       </c>
       <c r="G105" s="3">
-        <v>-0.01287903488751233</v>
+        <v>-0.02473498233215537</v>
       </c>
       <c r="H105" s="3">
-        <v>0.1345325089001312</v>
+        <v>0.1324736225087925</v>
       </c>
       <c r="I105" s="3">
-        <v>0.142884107210268</v>
+        <v>0.06937269372693733</v>
       </c>
       <c r="J105" s="3">
-        <v>1.155501395675294</v>
+        <v>0.05011749607574659</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4224,28 +4224,28 @@
         <v>113</v>
       </c>
       <c r="C106" s="1">
-        <v>48851876.78628572</v>
+        <v>40490487.88071428</v>
       </c>
       <c r="D106" s="2">
-        <v>1.382752939071783</v>
+        <v>1.363795568424752</v>
       </c>
       <c r="E106" s="3">
-        <v>0.007063255375922148</v>
+        <v>-0.03686923918137791</v>
       </c>
       <c r="F106" s="3">
-        <v>0.01792797080755196</v>
+        <v>-0.01705994897959184</v>
       </c>
       <c r="G106" s="3">
-        <v>0.05128625266262494</v>
+        <v>0.00129933409127822</v>
       </c>
       <c r="H106" s="3">
-        <v>0.04853734270305606</v>
+        <v>-0.01312630062429966</v>
       </c>
       <c r="I106" s="3">
-        <v>0.1242333975819169</v>
+        <v>0.03596034279952949</v>
       </c>
       <c r="J106" s="3">
-        <v>0.9094605414397425</v>
+        <v>-0.08890198117141675</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4256,28 +4256,28 @@
         <v>114</v>
       </c>
       <c r="C107" s="1">
-        <v>3409843.875885715</v>
+        <v>3388164.507371429</v>
       </c>
       <c r="D107" s="2">
-        <v>0.9795645947987283</v>
+        <v>1.026502625697942</v>
       </c>
       <c r="E107" s="3">
-        <v>0.01582516955538827</v>
+        <v>-0.04050538833147541</v>
       </c>
       <c r="F107" s="3">
-        <v>0.02724328443513063</v>
+        <v>-0.03638738570628849</v>
       </c>
       <c r="G107" s="3">
-        <v>0.02940053455517391</v>
+        <v>-0.009779482262703783</v>
       </c>
       <c r="H107" s="3">
-        <v>0.09061488673139173</v>
+        <v>0.07092492741600993</v>
       </c>
       <c r="I107" s="3">
-        <v>0.05436057880328524</v>
+        <v>-0.01412752959144708</v>
       </c>
       <c r="J107" s="3">
-        <v>1.359835917936169</v>
+        <v>-0.4965901356459787</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4288,28 +4288,28 @@
         <v>115</v>
       </c>
       <c r="C108" s="1">
-        <v>133155899.8457143</v>
+        <v>131508055.3325714</v>
       </c>
       <c r="D108" s="2">
-        <v>0.9132458738671536</v>
+        <v>0.9694160252415065</v>
       </c>
       <c r="E108" s="3">
-        <v>0.01963746223564956</v>
+        <v>-0.04797322424693194</v>
       </c>
       <c r="F108" s="3">
-        <v>0.02622576966932741</v>
+        <v>-0.04584420424897494</v>
       </c>
       <c r="G108" s="3">
-        <v>0.003344481605351298</v>
+        <v>-0.03140370790768057</v>
       </c>
       <c r="H108" s="3">
-        <v>0.0211800302571861</v>
+        <v>-0.008904374758033344</v>
       </c>
       <c r="I108" s="3">
-        <v>-0.06037932834522351</v>
+        <v>-0.1180017226528854</v>
       </c>
       <c r="J108" s="3">
-        <v>0.5234667332417783</v>
+        <v>-1.010701956930937</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4320,28 +4320,28 @@
         <v>116</v>
       </c>
       <c r="C109" s="1">
-        <v>21112075.886</v>
+        <v>20521389.0152</v>
       </c>
       <c r="D109" s="2">
-        <v>1.203417080847952</v>
+        <v>1.247745069229216</v>
       </c>
       <c r="E109" s="3">
-        <v>0.02772754671488851</v>
+        <v>-0.03391812865497079</v>
       </c>
       <c r="F109" s="3">
-        <v>0.001174398120963008</v>
+        <v>-0.02536873156342192</v>
       </c>
       <c r="G109" s="3">
-        <v>-0.01216685979142521</v>
+        <v>-0.02016607354685648</v>
       </c>
       <c r="H109" s="3">
-        <v>0.02402402402402404</v>
+        <v>0.04030226700251879</v>
       </c>
       <c r="I109" s="3">
-        <v>0.08529598981540427</v>
+        <v>-0.007807807807807881</v>
       </c>
       <c r="J109" s="3">
-        <v>0.9934512783333238</v>
+        <v>-0.6964664509782434</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4352,28 +4352,28 @@
         <v>117</v>
       </c>
       <c r="C110" s="1">
-        <v>16010393.14971429</v>
+        <v>15492427.53314286</v>
       </c>
       <c r="D110" s="2">
-        <v>1.036743132715595</v>
+        <v>1.032986741693895</v>
       </c>
       <c r="E110" s="3">
-        <v>0.01906845889340426</v>
+        <v>0.0007667535654040791</v>
       </c>
       <c r="F110" s="3">
-        <v>0.009287925696594427</v>
+        <v>0.008967223252937645</v>
       </c>
       <c r="G110" s="3">
-        <v>-0.01406320883109021</v>
+        <v>0.01068607712560009</v>
       </c>
       <c r="H110" s="3">
-        <v>-0.007761375741896245</v>
+        <v>0.03259493670886079</v>
       </c>
       <c r="I110" s="3">
-        <v>-0.03177903177903175</v>
+        <v>-0.05283018867924525</v>
       </c>
       <c r="J110" s="3">
-        <v>0.261829207535675</v>
+        <v>-0.01967947374503405</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4384,28 +4384,28 @@
         <v>118</v>
       </c>
       <c r="C111" s="1">
-        <v>55538445.19354286</v>
+        <v>71477827.62574285</v>
       </c>
       <c r="D111" s="2">
-        <v>1.243147993852281</v>
+        <v>1.444684642762566</v>
       </c>
       <c r="E111" s="3">
-        <v>0.06778889899909009</v>
+        <v>-0.04389632107023411</v>
       </c>
       <c r="F111" s="3">
-        <v>0.06924829157175405</v>
+        <v>0.03437358661239261</v>
       </c>
       <c r="G111" s="3">
-        <v>0.05246636771300448</v>
+        <v>0.04286365709074321</v>
       </c>
       <c r="H111" s="3">
-        <v>0.09010682768230374</v>
+        <v>0.06969130028063612</v>
       </c>
       <c r="I111" s="3">
-        <v>0.04590017825311932</v>
+        <v>0.01554174067495566</v>
       </c>
       <c r="J111" s="3">
-        <v>3.670016341186042</v>
+        <v>0.6008220801517983</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4416,28 +4416,28 @@
         <v>119</v>
       </c>
       <c r="C112" s="1">
-        <v>243311277.2024457</v>
+        <v>150531116.4940286</v>
       </c>
       <c r="D112" s="2">
-        <v>3.129187133146406</v>
+        <v>2.730990125456114</v>
       </c>
       <c r="E112" s="3">
-        <v>-0.01488229457923691</v>
+        <v>-0.06031218250669614</v>
       </c>
       <c r="F112" s="3">
-        <v>0.00635768911821628</v>
+        <v>-0.05234724292101343</v>
       </c>
       <c r="G112" s="3">
-        <v>-0.04083604109949941</v>
+        <v>-0.06814434878182819</v>
       </c>
       <c r="H112" s="3">
-        <v>0.06141885325558809</v>
+        <v>-0.1933719178625228</v>
       </c>
       <c r="I112" s="3">
-        <v>0.3783442705704191</v>
+        <v>0.2375623403478896</v>
       </c>
       <c r="J112" s="3">
-        <v>-0.3507105255944805</v>
+        <v>-1.049362437938729</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4448,28 +4448,28 @@
         <v>120</v>
       </c>
       <c r="C113" s="1">
-        <v>150245143.6802143</v>
+        <v>145115007.9358172</v>
       </c>
       <c r="D113" s="2">
-        <v>2.097005067105961</v>
+        <v>2.083028023690004</v>
       </c>
       <c r="E113" s="3">
-        <v>0.01477990789332766</v>
+        <v>0.01455565553379563</v>
       </c>
       <c r="F113" s="3">
-        <v>0.09215607169615579</v>
+        <v>0.03722943722943721</v>
       </c>
       <c r="G113" s="3">
-        <v>0.1043123543123543</v>
+        <v>0.1434707391278412</v>
       </c>
       <c r="H113" s="3">
-        <v>0.1383432450291343</v>
+        <v>0.1242228739002932</v>
       </c>
       <c r="I113" s="3">
-        <v>-0.04735572089282127</v>
+        <v>-0.01974020660734375</v>
       </c>
       <c r="J113" s="3">
-        <v>2.581908776414273</v>
+        <v>1.302990985073339</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4480,28 +4480,28 @@
         <v>121</v>
       </c>
       <c r="C114" s="1">
-        <v>35316645.45417428</v>
+        <v>31650024.3572</v>
       </c>
       <c r="D114" s="2">
-        <v>1.598051992295861</v>
+        <v>1.628307885329488</v>
       </c>
       <c r="E114" s="3">
-        <v>0.01156271899089</v>
+        <v>-0.04695973231798785</v>
       </c>
       <c r="F114" s="3">
-        <v>-0.004024839006439809</v>
+        <v>-0.05546026300743293</v>
       </c>
       <c r="G114" s="3">
-        <v>-0.05354606053983176</v>
+        <v>-0.06645569620253172</v>
       </c>
       <c r="H114" s="3">
-        <v>0.0564771895584289</v>
+        <v>-0.0378567268491556</v>
       </c>
       <c r="I114" s="3">
-        <v>-0.06032331561245523</v>
+        <v>-0.06582221216919253</v>
       </c>
       <c r="J114" s="3">
-        <v>-0.2015918363972886</v>
+        <v>-1.505210861186977</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4512,28 +4512,28 @@
         <v>122</v>
       </c>
       <c r="C115" s="1">
-        <v>15996166.63932</v>
+        <v>14213168.64844286</v>
       </c>
       <c r="D115" s="2">
-        <v>1.08706797087431</v>
+        <v>1.13921546037724</v>
       </c>
       <c r="E115" s="3">
-        <v>0.02741459299873474</v>
+        <v>-0.02886597938144332</v>
       </c>
       <c r="F115" s="3">
-        <v>0.0248212031973076</v>
+        <v>-0.01587964897618063</v>
       </c>
       <c r="G115" s="3">
-        <v>0.03880597014925384</v>
+        <v>-0.006329113924050639</v>
       </c>
       <c r="H115" s="3">
-        <v>0.07978723404255327</v>
+        <v>0.0887656033287101</v>
       </c>
       <c r="I115" s="3">
-        <v>0.003294892915980325</v>
+        <v>-0.1719409282700422</v>
       </c>
       <c r="J115" s="3">
-        <v>1.890779255979731</v>
+        <v>-0.1344470830558755</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4544,28 +4544,28 @@
         <v>123</v>
       </c>
       <c r="C116" s="1">
-        <v>1466127222.562273</v>
+        <v>1444093783.276259</v>
       </c>
       <c r="D116" s="2">
-        <v>1.496572386976851</v>
+        <v>1.849551228693877</v>
       </c>
       <c r="E116" s="3">
-        <v>0.1758946657663741</v>
+        <v>-0.1051512515705035</v>
       </c>
       <c r="F116" s="3">
-        <v>0.16839986581684</v>
+        <v>0.01557529889217949</v>
       </c>
       <c r="G116" s="3">
-        <v>0.2835032551283627</v>
+        <v>0.03464074198234446</v>
       </c>
       <c r="H116" s="3">
-        <v>0.3568367744448774</v>
+        <v>0.2408201554543018</v>
       </c>
       <c r="I116" s="3">
-        <v>0.2304521902967499</v>
+        <v>0.08903787344154325</v>
       </c>
       <c r="J116" s="3">
-        <v>11.88547704009405</v>
+        <v>-0.9125785490492457</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4576,28 +4576,28 @@
         <v>124</v>
       </c>
       <c r="C117" s="1">
-        <v>10784682.7868</v>
+        <v>10282695.93785714</v>
       </c>
       <c r="D117" s="2">
-        <v>1.187896938436672</v>
+        <v>1.215868038993283</v>
       </c>
       <c r="E117" s="3">
-        <v>0.00588730025231278</v>
+        <v>-0.04006677796327215</v>
       </c>
       <c r="F117" s="3">
-        <v>0.01700680272108845</v>
+        <v>-0.04958677685950418</v>
       </c>
       <c r="G117" s="3">
-        <v>0.01700680272108845</v>
+        <v>-0.020442930153322</v>
       </c>
       <c r="H117" s="3">
-        <v>0.08137432188065086</v>
+        <v>0.07176141658900276</v>
       </c>
       <c r="I117" s="3">
-        <v>0.06216696269982244</v>
+        <v>0.02495543672014243</v>
       </c>
       <c r="J117" s="3">
-        <v>0.8440673283716897</v>
+        <v>-0.727432581412363</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4608,28 +4608,28 @@
         <v>125</v>
       </c>
       <c r="C118" s="1">
-        <v>13889063.63803857</v>
+        <v>13609192.7688</v>
       </c>
       <c r="D118" s="2">
-        <v>1.09324095280196</v>
+        <v>1.132599327819523</v>
       </c>
       <c r="E118" s="3">
-        <v>0.007647679324894492</v>
+        <v>-0.04388714733542319</v>
       </c>
       <c r="F118" s="3">
-        <v>-0.001045751633986906</v>
+        <v>-0.04513435950952249</v>
       </c>
       <c r="G118" s="3">
-        <v>0.00738201950962302</v>
+        <v>-0.04488517745302711</v>
       </c>
       <c r="H118" s="3">
-        <v>0.01703486824594093</v>
+        <v>-0.01214574898785414</v>
       </c>
       <c r="I118" s="3">
-        <v>-0.0101036269430052</v>
+        <v>-0.05936777178103304</v>
       </c>
       <c r="J118" s="3">
-        <v>0.1118391870894033</v>
+        <v>-1.295052947207769</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4640,28 +4640,28 @@
         <v>126</v>
       </c>
       <c r="C119" s="1">
-        <v>16238058.18848714</v>
+        <v>14946019.37129143</v>
       </c>
       <c r="D119" s="2">
-        <v>1.250995925088358</v>
+        <v>1.278512091018088</v>
       </c>
       <c r="E119" s="3">
-        <v>0.005723204994797034</v>
+        <v>-0.0623069001029866</v>
       </c>
       <c r="F119" s="3">
-        <v>0.0005175983436852432</v>
+        <v>-0.04759414225941421</v>
       </c>
       <c r="G119" s="3">
-        <v>-0.02913108990457057</v>
+        <v>-0.05205622071837575</v>
       </c>
       <c r="H119" s="3">
-        <v>0.09580498866213151</v>
+        <v>0.015616285554936</v>
       </c>
       <c r="I119" s="3">
-        <v>0.1258008153756553</v>
+        <v>0.03289846851956891</v>
       </c>
       <c r="J119" s="3">
-        <v>0.1835958159105049</v>
+        <v>-1.431196766396565</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4672,28 +4672,28 @@
         <v>127</v>
       </c>
       <c r="C120" s="1">
-        <v>25067106.29957143</v>
+        <v>24290201.18218571</v>
       </c>
       <c r="D120" s="2">
-        <v>1.191705979441002</v>
+        <v>1.350011645989139</v>
       </c>
       <c r="E120" s="3">
-        <v>0.0463639250555732</v>
+        <v>-0.05921052631578941</v>
       </c>
       <c r="F120" s="3">
-        <v>0.06755224364166544</v>
+        <v>-0.03921875000000002</v>
       </c>
       <c r="G120" s="3">
-        <v>0.05880462724935746</v>
+        <v>0.003590664272890451</v>
       </c>
       <c r="H120" s="3">
-        <v>0.1427085139587308</v>
+        <v>0.1099277978339349</v>
       </c>
       <c r="I120" s="3">
-        <v>0.1364028280738059</v>
+        <v>0.06347284676582489</v>
       </c>
       <c r="J120" s="3">
-        <v>3.518593708964516</v>
+        <v>-1.775767606259589</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4704,28 +4704,28 @@
         <v>128</v>
       </c>
       <c r="C121" s="1">
-        <v>28893691.18666285</v>
+        <v>25511500.55441428</v>
       </c>
       <c r="D121" s="2">
-        <v>1.120570795735726</v>
+        <v>1.218937332992632</v>
       </c>
       <c r="E121" s="3">
-        <v>0.03328894806924088</v>
+        <v>-0.06635071090047406</v>
       </c>
       <c r="F121" s="3">
-        <v>0.0183727034120735</v>
+        <v>-0.04072598494909255</v>
       </c>
       <c r="G121" s="3">
-        <v>-0.001287001287001383</v>
+        <v>-0.04956140350877204</v>
       </c>
       <c r="H121" s="3">
-        <v>0.111217183770883</v>
+        <v>0.04132628543969244</v>
       </c>
       <c r="I121" s="3">
-        <v>0.1192307692307692</v>
+        <v>0.04787234042553181</v>
       </c>
       <c r="J121" s="3">
-        <v>2.050625475705838</v>
+        <v>-1.792591217165798</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4736,28 +4736,28 @@
         <v>129</v>
       </c>
       <c r="C122" s="1">
-        <v>87231584.61797142</v>
+        <v>73225270.19917427</v>
       </c>
       <c r="D122" s="2">
-        <v>1.339824767697552</v>
+        <v>1.330213347885381</v>
       </c>
       <c r="E122" s="3">
-        <v>0.02201911092646448</v>
+        <v>-0.04580777096114515</v>
       </c>
       <c r="F122" s="3">
-        <v>0.009852216748768412</v>
+        <v>-0.029130253849355</v>
       </c>
       <c r="G122" s="3">
-        <v>0.01568951279933938</v>
+        <v>-0.03833470733718056</v>
       </c>
       <c r="H122" s="3">
-        <v>-0.03943771964076532</v>
+        <v>-0.04385245901639339</v>
       </c>
       <c r="I122" s="3">
-        <v>-0.06071019473081338</v>
+        <v>-0.08077226162332551</v>
       </c>
       <c r="J122" s="3">
-        <v>0.4903191503216351</v>
+        <v>-1.089910060590158</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4768,28 +4768,28 @@
         <v>130</v>
       </c>
       <c r="C123" s="1">
-        <v>38278426.35615429</v>
+        <v>38631775.98018572</v>
       </c>
       <c r="D123" s="2">
-        <v>1.003803149399309</v>
+        <v>1.132363169857856</v>
       </c>
       <c r="E123" s="3">
-        <v>0.06054623231326097</v>
+        <v>-0.06275720164609047</v>
       </c>
       <c r="F123" s="3">
-        <v>0.05672131147540978</v>
+        <v>-0.004262760957481708</v>
       </c>
       <c r="G123" s="3">
-        <v>0.08154362416107379</v>
+        <v>-0.009782608695652182</v>
       </c>
       <c r="H123" s="3">
-        <v>0.1429078014184397</v>
+        <v>0.09891435464414967</v>
       </c>
       <c r="I123" s="3">
-        <v>0.1074332837017524</v>
+        <v>0.02451641925326141</v>
       </c>
       <c r="J123" s="3">
-        <v>4.294619648791232</v>
+        <v>-0.9064161134841645</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4800,28 +4800,28 @@
         <v>131</v>
       </c>
       <c r="C124" s="1">
-        <v>8720442.271415999</v>
+        <v>7677195.911277142</v>
       </c>
       <c r="D124" s="2">
-        <v>0.9621423482125062</v>
+        <v>0.9672316711166784</v>
       </c>
       <c r="E124" s="3">
-        <v>-0.003684937816674433</v>
+        <v>-0.04541263254956204</v>
       </c>
       <c r="F124" s="3">
-        <v>-0.008025682182985624</v>
+        <v>-0.05510553337136347</v>
       </c>
       <c r="G124" s="3">
-        <v>-0.01971447994561529</v>
+        <v>-0.04804597701149425</v>
       </c>
       <c r="H124" s="3">
-        <v>0.06551724137931028</v>
+        <v>0.03914680050188203</v>
       </c>
       <c r="I124" s="3">
-        <v>0.02706552706552716</v>
+        <v>0.001451027811366367</v>
       </c>
       <c r="J124" s="3">
-        <v>0.3886167141178113</v>
+        <v>-1.504588068384811</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4832,28 +4832,28 @@
         <v>132</v>
       </c>
       <c r="C125" s="1">
-        <v>9713945.997185713</v>
+        <v>9078877.737114286</v>
       </c>
       <c r="D125" s="2">
-        <v>0.9901084214005621</v>
+        <v>1.039010651107279</v>
       </c>
       <c r="E125" s="3">
-        <v>0.01755196304849876</v>
+        <v>-0.04549590536851687</v>
       </c>
       <c r="F125" s="3">
-        <v>0.01194304088194754</v>
+        <v>-0.03451449608835719</v>
       </c>
       <c r="G125" s="3">
-        <v>0.02274837511606311</v>
+        <v>-0.0463636363636365</v>
       </c>
       <c r="H125" s="3">
-        <v>0.09601990049751248</v>
+        <v>0.047952047952048</v>
       </c>
       <c r="I125" s="3">
-        <v>0.09601990049751248</v>
+        <v>0.05215646940822461</v>
       </c>
       <c r="J125" s="3">
-        <v>1.026215570229712</v>
+        <v>-1.067347804986292</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4864,28 +4864,28 @@
         <v>133</v>
       </c>
       <c r="C126" s="1">
-        <v>15104125.18659</v>
+        <v>13930973.75791143</v>
       </c>
       <c r="D126" s="2">
-        <v>0.9551274699235788</v>
+        <v>1.004060882053308</v>
       </c>
       <c r="E126" s="3">
-        <v>-0.003434950622584803</v>
+        <v>-0.05690472769076016</v>
       </c>
       <c r="F126" s="3">
-        <v>0.0132421420256112</v>
+        <v>-0.06108726752503583</v>
       </c>
       <c r="G126" s="3">
-        <v>0.01531058617672797</v>
+        <v>-0.04440885264997096</v>
       </c>
       <c r="H126" s="3">
-        <v>0.07803065490013941</v>
+        <v>0.0264310290897716</v>
       </c>
       <c r="I126" s="3">
-        <v>0.04801324503311257</v>
+        <v>-0.009657461898294863</v>
       </c>
       <c r="J126" s="3">
-        <v>0.682203708204847</v>
+        <v>-1.89426881525588</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4896,28 +4896,28 @@
         <v>134</v>
       </c>
       <c r="C127" s="1">
-        <v>16310520.09988</v>
+        <v>14708908.26982143</v>
       </c>
       <c r="D127" s="2">
-        <v>0.9295955816821619</v>
+        <v>0.9661025136267933</v>
       </c>
       <c r="E127" s="3">
-        <v>0.0153520381154049</v>
+        <v>-0.04600104547830644</v>
       </c>
       <c r="F127" s="3">
-        <v>0.0100052659294365</v>
+        <v>-0.03947368421052636</v>
       </c>
       <c r="G127" s="3">
-        <v>0.004714510214772122</v>
+        <v>-0.04947916666666664</v>
       </c>
       <c r="H127" s="3">
-        <v>0.06733444629938783</v>
+        <v>0.02012297372833981</v>
       </c>
       <c r="I127" s="3">
-        <v>0</v>
+        <v>-0.03592181722134179</v>
       </c>
       <c r="J127" s="3">
-        <v>0.8540896104770228</v>
+        <v>-1.403037490950467</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4928,28 +4928,28 @@
         <v>135</v>
       </c>
       <c r="C128" s="1">
-        <v>8183799.593048572</v>
+        <v>7446705.221571429</v>
       </c>
       <c r="D128" s="2">
-        <v>1.003510840406983</v>
+        <v>1.013996103394303</v>
       </c>
       <c r="E128" s="3">
-        <v>0.02426113806793109</v>
+        <v>-0.04269081500646827</v>
       </c>
       <c r="F128" s="3">
-        <v>0.01842105263157887</v>
+        <v>-0.03141361256544496</v>
       </c>
       <c r="G128" s="3">
-        <v>0.008250108554059856</v>
+        <v>-0.0241758241758242</v>
       </c>
       <c r="H128" s="3">
-        <v>0.06172839506172832</v>
+        <v>0.02022058823529419</v>
       </c>
       <c r="I128" s="3">
-        <v>0.04312668463611859</v>
+        <v>-0.01245551601423486</v>
       </c>
       <c r="J128" s="3">
-        <v>1.053809662010212</v>
+        <v>-1.067152779869239</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4960,28 +4960,28 @@
         <v>136</v>
       </c>
       <c r="C129" s="1">
-        <v>12624831.94160571</v>
+        <v>9844552.718047142</v>
       </c>
       <c r="D129" s="2">
-        <v>1.017641583057775</v>
+        <v>1.024784610456024</v>
       </c>
       <c r="E129" s="3">
-        <v>0.01633224451703221</v>
+        <v>-0.05338242061665899</v>
       </c>
       <c r="F129" s="3">
-        <v>0.02735849056603773</v>
+        <v>-0.04370060437006053</v>
       </c>
       <c r="G129" s="3">
-        <v>0.009735744089012474</v>
+        <v>-0.02604166666666669</v>
       </c>
       <c r="H129" s="3">
-        <v>0.02639019792648442</v>
+        <v>-0.05294659300184167</v>
       </c>
       <c r="I129" s="3">
-        <v>0.01870907390084193</v>
+        <v>-0.05207373271889403</v>
       </c>
       <c r="J129" s="3">
-        <v>0.6771715740012731</v>
+        <v>-1.2611654854739</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4992,28 +4992,28 @@
         <v>137</v>
       </c>
       <c r="C130" s="1">
-        <v>11166429.0852</v>
+        <v>9527123.925475713</v>
       </c>
       <c r="D130" s="2">
-        <v>1.056862233093287</v>
+        <v>1.070141408537507</v>
       </c>
       <c r="E130" s="3">
-        <v>0.01443642420877285</v>
+        <v>-0.0440286186020914</v>
       </c>
       <c r="F130" s="3">
-        <v>0.01669449081803007</v>
+        <v>-0.04086140254003322</v>
       </c>
       <c r="G130" s="3">
-        <v>0.01387347391786905</v>
+        <v>-0.03820598006644527</v>
       </c>
       <c r="H130" s="3">
-        <v>0.1045949214026603</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="I130" s="3">
-        <v>0.1025950512975257</v>
+        <v>0.04074295985620132</v>
       </c>
       <c r="J130" s="3">
-        <v>0.5328305595015935</v>
+        <v>-1.101494425881379</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5024,28 +5024,28 @@
         <v>138</v>
       </c>
       <c r="C131" s="1">
-        <v>101287644.4212943</v>
+        <v>93269038.42575</v>
       </c>
       <c r="D131" s="2">
-        <v>1.192973054168994</v>
+        <v>1.258196398073122</v>
       </c>
       <c r="E131" s="3">
-        <v>0.008907363420427717</v>
+        <v>-0.0479236370793151</v>
       </c>
       <c r="F131" s="3">
-        <v>0.0174668130551952</v>
+        <v>-0.05388226090357912</v>
       </c>
       <c r="G131" s="3">
-        <v>0.00463191090962852</v>
+        <v>-0.03124061279663556</v>
       </c>
       <c r="H131" s="3">
-        <v>0.09096746575342482</v>
+        <v>0.07955813434501238</v>
       </c>
       <c r="I131" s="3">
-        <v>0.001276888321383133</v>
+        <v>-0.06331687481847226</v>
       </c>
       <c r="J131" s="3">
-        <v>0.8491257521283274</v>
+        <v>-0.8521684880265163</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5056,28 +5056,28 @@
         <v>139</v>
       </c>
       <c r="C132" s="1">
-        <v>833903667.072</v>
+        <v>815195639.8931999</v>
       </c>
       <c r="D132" s="2">
-        <v>0.9558799424535627</v>
+        <v>1.078214036885417</v>
       </c>
       <c r="E132" s="3">
-        <v>0.008522270461489095</v>
+        <v>-0.05868355895687964</v>
       </c>
       <c r="F132" s="3">
-        <v>0.04383716672769036</v>
+        <v>-0.06711281070745698</v>
       </c>
       <c r="G132" s="3">
-        <v>0.0458213833122124</v>
+        <v>-0.02556421010585183</v>
       </c>
       <c r="H132" s="3">
-        <v>0.1873840445269017</v>
+        <v>0.1493521790341579</v>
       </c>
       <c r="I132" s="3">
-        <v>0.1345465070004703</v>
+        <v>0.05992251710778816</v>
       </c>
       <c r="J132" s="3">
-        <v>1.941209831257472</v>
+        <v>-1.032518317138176</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -5088,28 +5088,28 @@
         <v>140</v>
       </c>
       <c r="C133" s="1">
-        <v>20258957.4912</v>
+        <v>19034386.8234</v>
       </c>
       <c r="D133" s="2">
-        <v>1.014486000670596</v>
+        <v>1.06072062571064</v>
       </c>
       <c r="E133" s="3">
-        <v>0.02127659574468087</v>
+        <v>-0.03880597014925366</v>
       </c>
       <c r="F133" s="3">
-        <v>0.01921132457027302</v>
+        <v>-0.02719033232628401</v>
       </c>
       <c r="G133" s="3">
-        <v>0.004985044865403904</v>
+        <v>-0.02424242424242426</v>
       </c>
       <c r="H133" s="3">
-        <v>0.03703703703703707</v>
+        <v>0.02222222222222224</v>
       </c>
       <c r="I133" s="3">
-        <v>0</v>
+        <v>-0.04261645193260647</v>
       </c>
       <c r="J133" s="3">
-        <v>1.371410597066177</v>
+        <v>-0.7913974417314752</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -5120,28 +5120,28 @@
         <v>141</v>
       </c>
       <c r="C134" s="1">
-        <v>34376814.05280571</v>
+        <v>32683199.55004286</v>
       </c>
       <c r="D134" s="2">
-        <v>1.125079399820258</v>
+        <v>1.205995582403244</v>
       </c>
       <c r="E134" s="3">
-        <v>0.009927360774818492</v>
+        <v>-0.06046845124282985</v>
       </c>
       <c r="F134" s="3">
-        <v>0.007001448575567338</v>
+        <v>-0.05277108433734935</v>
       </c>
       <c r="G134" s="3">
-        <v>-0.04684643510054838</v>
+        <v>-0.05345533349385983</v>
       </c>
       <c r="H134" s="3">
-        <v>0.09734280452512505</v>
+        <v>0.04077310034418848</v>
       </c>
       <c r="I134" s="3">
-        <v>0.02835305719921101</v>
+        <v>-0.02818294190358469</v>
       </c>
       <c r="J134" s="3">
-        <v>0.4057654732995352</v>
+        <v>-1.635603967856303</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5152,28 +5152,28 @@
         <v>142</v>
       </c>
       <c r="C135" s="1">
-        <v>54975477.77724572</v>
+        <v>53135779.15402</v>
       </c>
       <c r="D135" s="2">
-        <v>1.478379879261277</v>
+        <v>1.597370158368777</v>
       </c>
       <c r="E135" s="3">
-        <v>0.01900121802679662</v>
+        <v>-0.04988009592326152</v>
       </c>
       <c r="F135" s="3">
-        <v>0.03309459125710042</v>
+        <v>-0.03247863247863261</v>
       </c>
       <c r="G135" s="3">
-        <v>-0.003810431055013186</v>
+        <v>-0.02892156862745097</v>
       </c>
       <c r="H135" s="3">
-        <v>0.2114103677961192</v>
+        <v>0.154765374526377</v>
       </c>
       <c r="I135" s="3">
-        <v>0.2538968824940048</v>
+        <v>0.1760166221430692</v>
       </c>
       <c r="J135" s="3">
-        <v>1.019014301853337</v>
+        <v>-1.064854012063384</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5184,28 +5184,28 @@
         <v>143</v>
       </c>
       <c r="C136" s="1">
-        <v>38992359.17659713</v>
+        <v>32446725.924</v>
       </c>
       <c r="D136" s="2">
-        <v>0.9551716296774962</v>
+        <v>0.8950196184231833</v>
       </c>
       <c r="E136" s="3">
-        <v>-0.003822023509050272</v>
+        <v>-0.02899920052329391</v>
       </c>
       <c r="F136" s="3">
-        <v>0.01327660823002988</v>
+        <v>-0.02181871430663361</v>
       </c>
       <c r="G136" s="3">
-        <v>0.01142187728803612</v>
+        <v>-0.02210510906163088</v>
       </c>
       <c r="H136" s="3">
-        <v>0.06573059713007237</v>
+        <v>0.03261709692379038</v>
       </c>
       <c r="I136" s="3">
-        <v>0.0878878563553314</v>
+        <v>0.04260964570001567</v>
       </c>
       <c r="J136" s="3">
-        <v>0.4647248043876781</v>
+        <v>-0.2223973772610814</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5216,28 +5216,28 @@
         <v>144</v>
       </c>
       <c r="C137" s="1">
-        <v>198036272.7066857</v>
+        <v>180896870.3246286</v>
       </c>
       <c r="D137" s="2">
-        <v>0.9724770756933442</v>
+        <v>0.9849575551781798</v>
       </c>
       <c r="E137" s="3">
-        <v>0.01594387755102042</v>
+        <v>-0.04093198992443329</v>
       </c>
       <c r="F137" s="3">
-        <v>0.01303656597774243</v>
+        <v>-0.03607594936708867</v>
       </c>
       <c r="G137" s="3">
-        <v>0.007590132827324521</v>
+        <v>-0.02900860694931462</v>
       </c>
       <c r="H137" s="3">
-        <v>0.02148124398845778</v>
+        <v>0.007608336089976741</v>
       </c>
       <c r="I137" s="3">
-        <v>-0.03337378640776702</v>
+        <v>-0.0690709046454768</v>
       </c>
       <c r="J137" s="3">
-        <v>0.6916135685987429</v>
+        <v>-1.111031714131735</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5248,28 +5248,28 @@
         <v>145</v>
       </c>
       <c r="C138" s="1">
-        <v>28469557.15849143</v>
+        <v>29195108.92551428</v>
       </c>
       <c r="D138" s="2">
-        <v>0.8868700055910952</v>
+        <v>0.9637964613065911</v>
       </c>
       <c r="E138" s="3">
-        <v>0.03929139223256876</v>
+        <v>-0.0416528560380068</v>
       </c>
       <c r="F138" s="3">
-        <v>0.0260089686098655</v>
+        <v>-0.02099322799097066</v>
       </c>
       <c r="G138" s="3">
-        <v>0.01711491442542787</v>
+        <v>-0.03739873487959159</v>
       </c>
       <c r="H138" s="3">
-        <v>0.0601181512799722</v>
+        <v>0.03016627078384799</v>
       </c>
       <c r="I138" s="3">
-        <v>0.03905540417801996</v>
+        <v>-0.008232334781614434</v>
       </c>
       <c r="J138" s="3">
-        <v>1.717795122552194</v>
+        <v>-1.162735058678337</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5280,28 +5280,28 @@
         <v>146</v>
       </c>
       <c r="C139" s="1">
-        <v>417367117.6261542</v>
+        <v>422918646.38144</v>
       </c>
       <c r="D139" s="2">
-        <v>1.339558602415777</v>
+        <v>1.45582985087978</v>
       </c>
       <c r="E139" s="3">
-        <v>-0.009228187919463064</v>
+        <v>-0.03968253968253972</v>
       </c>
       <c r="F139" s="3">
-        <v>0.03551074090311272</v>
+        <v>-0.06201550387596905</v>
       </c>
       <c r="G139" s="3">
-        <v>0.03824175824175826</v>
+        <v>0</v>
       </c>
       <c r="H139" s="3">
-        <v>0.2302083333333334</v>
+        <v>0.1893979287344216</v>
       </c>
       <c r="I139" s="3">
-        <v>0.1668038860530215</v>
+        <v>0.0983952018155293</v>
       </c>
       <c r="J139" s="3">
-        <v>1.671761465508502</v>
+        <v>-0.05960561504989262</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5312,28 +5312,28 @@
         <v>147</v>
       </c>
       <c r="C140" s="1">
-        <v>268931154.89225</v>
+        <v>254895785.8703657</v>
       </c>
       <c r="D140" s="2">
-        <v>1.290916991370983</v>
+        <v>1.40325491973616</v>
       </c>
       <c r="E140" s="3">
-        <v>0.0165920860777315</v>
+        <v>-0.05443739699345752</v>
       </c>
       <c r="F140" s="3">
-        <v>0.00607055779469572</v>
+        <v>-0.05211775307900272</v>
       </c>
       <c r="G140" s="3">
-        <v>0.001138839374133476</v>
+        <v>-0.05107257417802736</v>
       </c>
       <c r="H140" s="3">
-        <v>0.114547158370542</v>
+        <v>0.08200937249971417</v>
       </c>
       <c r="I140" s="3">
-        <v>0.01577493092187893</v>
+        <v>-0.05660471373760523</v>
       </c>
       <c r="J140" s="3">
-        <v>0.9263823454504131</v>
+        <v>-1.468196835747805</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5344,28 +5344,28 @@
         <v>148</v>
       </c>
       <c r="C141" s="1">
-        <v>102193004.3695371</v>
+        <v>99484174.46113999</v>
       </c>
       <c r="D141" s="2">
-        <v>0.8203658033958349</v>
+        <v>0.8446712538906529</v>
       </c>
       <c r="E141" s="3">
-        <v>0.02427000379218803</v>
+        <v>-0.009114583333333414</v>
       </c>
       <c r="F141" s="3">
-        <v>0.0205932363498961</v>
+        <v>0.009092631180147779</v>
       </c>
       <c r="G141" s="3">
-        <v>0.02349374763167863</v>
+        <v>0.003201506591337035</v>
       </c>
       <c r="H141" s="3">
-        <v>0.07953637090327732</v>
+        <v>0.041446725317693</v>
       </c>
       <c r="I141" s="3">
-        <v>0.06380464749901536</v>
+        <v>0.08892068683565003</v>
       </c>
       <c r="J141" s="3">
-        <v>1.493876780721811</v>
+        <v>-0.06391868368412137</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5376,28 +5376,28 @@
         <v>149</v>
       </c>
       <c r="C142" s="1">
-        <v>967109275.6818429</v>
+        <v>903237983.8469744</v>
       </c>
       <c r="D142" s="2">
-        <v>1.894371224012617</v>
+        <v>1.990772324085988</v>
       </c>
       <c r="E142" s="3">
-        <v>-0.006934449823367802</v>
+        <v>-0.05585349901896659</v>
       </c>
       <c r="F142" s="3">
-        <v>0.02512155591572122</v>
+        <v>-0.04888654631703773</v>
       </c>
       <c r="G142" s="3">
-        <v>-0.03484231943031529</v>
+        <v>-0.03463956132138544</v>
       </c>
       <c r="H142" s="3">
-        <v>0.2230099903319369</v>
+        <v>0.1746135069161921</v>
       </c>
       <c r="I142" s="3">
-        <v>0.3241451500348919</v>
+        <v>0.2716701902748416</v>
       </c>
       <c r="J142" s="3">
-        <v>0.5289730633017915</v>
+        <v>-1.431294459234669</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5408,28 +5408,28 @@
         <v>150</v>
       </c>
       <c r="C143" s="1">
-        <v>95378324.39778571</v>
+        <v>91705818.477</v>
       </c>
       <c r="D143" s="2">
-        <v>1.004615899821586</v>
+        <v>1.076195444065342</v>
       </c>
       <c r="E143" s="3">
-        <v>0.0150053590568059</v>
+        <v>-0.05974842767295591</v>
       </c>
       <c r="F143" s="3">
-        <v>0.0150053590568059</v>
+        <v>-0.03236245954692559</v>
       </c>
       <c r="G143" s="3">
-        <v>0.03951701427003284</v>
+        <v>-0.0416666666666667</v>
       </c>
       <c r="H143" s="3">
-        <v>0.08850574712643673</v>
+        <v>0.05653710247349829</v>
       </c>
       <c r="I143" s="3">
-        <v>0.0712669683257918</v>
+        <v>0</v>
       </c>
       <c r="J143" s="3">
-        <v>1.001157790091669</v>
+        <v>-1.345436243943978</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5440,28 +5440,28 @@
         <v>151</v>
       </c>
       <c r="C144" s="1">
-        <v>706235719.4695714</v>
+        <v>651339865.5267771</v>
       </c>
       <c r="D144" s="2">
-        <v>1.199791903399011</v>
+        <v>1.272690915513722</v>
       </c>
       <c r="E144" s="3">
-        <v>0.0176856998484083</v>
+        <v>-0.05116629044394275</v>
       </c>
       <c r="F144" s="3">
-        <v>-0.0117762512266929</v>
+        <v>-0.05895522388059701</v>
       </c>
       <c r="G144" s="3">
-        <v>0.002738361961662907</v>
+        <v>-0.06059101067792395</v>
       </c>
       <c r="H144" s="3">
-        <v>0.1167174937621291</v>
+        <v>0.06323777403035419</v>
       </c>
       <c r="I144" s="3">
-        <v>0.1829662261380322</v>
+        <v>0.1042031523642732</v>
       </c>
       <c r="J144" s="3">
-        <v>1.07458583959646</v>
+        <v>-1.528668498140736</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5472,28 +5472,28 @@
         <v>152</v>
       </c>
       <c r="C145" s="1">
-        <v>110912245.50243</v>
+        <v>99390568.6608</v>
       </c>
       <c r="D145" s="2">
-        <v>1.109762324507596</v>
+        <v>1.124715130177887</v>
       </c>
       <c r="E145" s="3">
-        <v>0.006318974724101048</v>
+        <v>-0.03396895787139688</v>
       </c>
       <c r="F145" s="3">
-        <v>-0.006763879128601636</v>
+        <v>-0.02793395805443994</v>
       </c>
       <c r="G145" s="3">
-        <v>-0.02391229281767964</v>
+        <v>-0.04380651391449385</v>
       </c>
       <c r="H145" s="3">
-        <v>0.08045867176301946</v>
+        <v>0.05645004849660532</v>
       </c>
       <c r="I145" s="3">
-        <v>0.1367246405951543</v>
+        <v>0.07246947617172114</v>
       </c>
       <c r="J145" s="3">
-        <v>0.1210664372657996</v>
+        <v>-1.009815124588967</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5504,28 +5504,28 @@
         <v>153</v>
       </c>
       <c r="C146" s="1">
-        <v>6944763047.334479</v>
+        <v>6325231960.74678</v>
       </c>
       <c r="D146" s="2">
-        <v>0.9850034338568188</v>
+        <v>0.9933064692640936</v>
       </c>
       <c r="E146" s="3">
-        <v>0.009478436970884161</v>
+        <v>-0.04271098270653801</v>
       </c>
       <c r="F146" s="3">
-        <v>0.01477618789370492</v>
+        <v>-0.04059460663405462</v>
       </c>
       <c r="G146" s="3">
-        <v>0.01108968177434902</v>
+        <v>-0.02336166067649721</v>
       </c>
       <c r="H146" s="3">
-        <v>0.06542743765165523</v>
+        <v>0.05255441422688804</v>
       </c>
       <c r="I146" s="3">
-        <v>-0.003702550828159031</v>
+        <v>-0.06245868601370417</v>
       </c>
       <c r="J146" s="3">
-        <v>0.7484113975789457</v>
+        <v>-1.003647096053303</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -5536,28 +5536,28 @@
         <v>154</v>
       </c>
       <c r="C147" s="1">
-        <v>7102226021.150699</v>
+        <v>6698170437.921686</v>
       </c>
       <c r="D147" s="2">
-        <v>0.6444365832951051</v>
+        <v>0.6328523875953113</v>
       </c>
       <c r="E147" s="3">
-        <v>0.007836247355494359</v>
+        <v>-0.0232575028595291</v>
       </c>
       <c r="F147" s="3">
-        <v>0.00375391284867493</v>
+        <v>-0.02251804835505603</v>
       </c>
       <c r="G147" s="3">
-        <v>-0.0008618403606472186</v>
+        <v>-0.02200272685956675</v>
       </c>
       <c r="H147" s="3">
-        <v>0.01877388985165236</v>
+        <v>0.008397375820056209</v>
       </c>
       <c r="I147" s="3">
-        <v>0.01574026419625995</v>
+        <v>-0.02620416684264836</v>
       </c>
       <c r="J147" s="3">
-        <v>0.2282203799201993</v>
+        <v>-0.6760607454568818</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>pair</t>
   </si>
@@ -28,18 +28,33 @@
     <t>24h performance</t>
   </si>
   <si>
+    <t>24h momentum</t>
+  </si>
+  <si>
     <t>2d performance</t>
   </si>
   <si>
+    <t>2d momentum</t>
+  </si>
+  <si>
     <t>3d performance</t>
   </si>
   <si>
+    <t>3d momentum</t>
+  </si>
+  <si>
     <t>7d performance</t>
   </si>
   <si>
+    <t>7d momentum</t>
+  </si>
+  <si>
     <t>14d performance</t>
   </si>
   <si>
+    <t>14d momentum</t>
+  </si>
+  <si>
     <t>avg momentum</t>
   </si>
   <si>
@@ -272,9 +287,6 @@
   </si>
   <si>
     <t>BEL/USDT</t>
-  </si>
-  <si>
-    <t>CVC/USDT</t>
   </si>
   <si>
     <t>OCEAN/USDT</t>
@@ -847,19 +859,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="27" width="18.7109375" customWidth="1"/>
+    <col min="2" max="27" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="10" width="9.140625" style="3"/>
+    <col min="5" max="15" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1">
+    <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -887,4677 +899,6835 @@
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>15122734.71428571</v>
+        <v>16711041.47</v>
       </c>
       <c r="D2" s="2">
-        <v>1.59371808715668</v>
+        <v>1.2657104577864</v>
       </c>
       <c r="E2" s="3">
-        <v>-0.09230005789430153</v>
+        <v>0.0679748302699123</v>
       </c>
       <c r="F2" s="3">
-        <v>-0.09678215784709081</v>
+        <v>5.358419355147232</v>
       </c>
       <c r="G2" s="3">
-        <v>-0.02790079716563335</v>
+        <v>0.05694854146181582</v>
       </c>
       <c r="H2" s="3">
-        <v>0.06989666601676742</v>
+        <v>0.6856139193256695</v>
       </c>
       <c r="I2" s="3">
-        <v>0.01705124640904461</v>
+        <v>0.1382809742322628</v>
       </c>
       <c r="J2" s="3">
-        <v>-2.402111023429603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>2.378944647605026</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.08981074687394398</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.03690461665106048</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.1000341122292342</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.360149360618271</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.1060995365032625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>177020020.5250614</v>
+        <v>160929680.9645428</v>
       </c>
       <c r="D3" s="2">
-        <v>1.999840372135145</v>
+        <v>1.537862135703343</v>
       </c>
       <c r="E3" s="3">
-        <v>-0.05433095971941763</v>
+        <v>0.0606782450517562</v>
       </c>
       <c r="F3" s="3">
-        <v>-0.07932204792847981</v>
+        <v>2.394712469606746</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.007739316620572744</v>
+        <v>0.03294107722805689</v>
       </c>
       <c r="H3" s="3">
-        <v>0.1080973374181176</v>
+        <v>-0.01251143944492062</v>
       </c>
       <c r="I3" s="3">
-        <v>0.08082697633739856</v>
+        <v>0.03692099246337528</v>
       </c>
       <c r="J3" s="3">
-        <v>-1.090498212093892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>-0.06681813721398895</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.1063675995572721</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-3.916453757822385E-05</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.0561497326203208</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.2766611376383065</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-0.0001566781612516309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>17433575.36285714</v>
+        <v>20918254.60371429</v>
       </c>
       <c r="D4" s="2">
-        <v>1.208015508025773</v>
+        <v>1.187024813327387</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.03551030543829159</v>
+        <v>0.04340404779322115</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.005886869721013599</v>
+        <v>4.469873889978259</v>
       </c>
       <c r="G4" s="3">
-        <v>0.007261410788381749</v>
+        <v>0.03834020868721171</v>
       </c>
       <c r="H4" s="3">
-        <v>0.07352128247650637</v>
+        <v>0.8941637589347495</v>
       </c>
       <c r="I4" s="3">
-        <v>-0.01145329600407227</v>
+        <v>0.09130323896965063</v>
       </c>
       <c r="J4" s="3">
-        <v>-0.3392572819581248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>1.335960820716233</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.1085492227979275</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.6052601108360465</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.1201570680628272</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.4947801411303168</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.3654013444412022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>12704819.77</v>
+        <v>7714104.294285715</v>
       </c>
       <c r="D5" s="2">
-        <v>1.858717761110382</v>
+        <v>1.328034060329933</v>
       </c>
       <c r="E5" s="3">
-        <v>-0.08751431844215352</v>
+        <v>-0.01992528019925271</v>
       </c>
       <c r="F5" s="3">
-        <v>-0.07242664182580334</v>
+        <v>-1.437602269752043</v>
       </c>
       <c r="G5" s="3">
-        <v>-0.07651286807326678</v>
+        <v>-0.03860249205961395</v>
       </c>
       <c r="H5" s="3">
-        <v>0.116937745372967</v>
+        <v>-3.438942798753497</v>
       </c>
       <c r="I5" s="3">
-        <v>-0.002004510147832625</v>
+        <v>-0.01279478173607631</v>
       </c>
       <c r="J5" s="3">
-        <v>-2.06706652184179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>-0.3339102694205247</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-0.08700696055684445</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-1.084259858440335</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.04404351286813477</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.1085274587342215</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.221090827840322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>8488855.46747143</v>
+        <v>8694674.918099999</v>
       </c>
       <c r="D6" s="2">
-        <v>1.289397551585356</v>
+        <v>1.120734798287377</v>
       </c>
       <c r="E6" s="3">
-        <v>-0.0200991189427311</v>
+        <v>-0.0008135960947388563</v>
       </c>
       <c r="F6" s="3">
-        <v>-0.02901054929065098</v>
+        <v>0.1485430630187193</v>
       </c>
       <c r="G6" s="3">
-        <v>-0.04703677258122096</v>
+        <v>-0.03281414070703543</v>
       </c>
       <c r="H6" s="3">
-        <v>-0.002056266940835573</v>
+        <v>-1.567276759746749</v>
       </c>
       <c r="I6" s="3">
-        <v>-0.03567557803468197</v>
+        <v>-0.005935785592229662</v>
       </c>
       <c r="J6" s="3">
-        <v>-0.8027163791161991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-0.4374469896737188</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-0.006918238993710728</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.0420652373806325</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-0.10436755530346</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-0.1156630082553108</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.2146252049075187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>21416954.93714286</v>
+        <v>26586378.94205714</v>
       </c>
       <c r="D7" s="2">
-        <v>1.399704026995532</v>
+        <v>1.284821517905989</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.06405324540514136</v>
+        <v>0.02992750480203235</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.02207477351027176</v>
+        <v>0.1811874903798322</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.008986875282860298</v>
+        <v>0.02528990870959778</v>
       </c>
       <c r="H7" s="3">
-        <v>0.03616575407287222</v>
+        <v>1.782495690740292</v>
       </c>
       <c r="I7" s="3">
-        <v>-0.06570766792636847</v>
+        <v>0.04586925061347761</v>
       </c>
       <c r="J7" s="3">
-        <v>-1.128165985551179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>1.305631366650531</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.07100515463917516</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.3923333803152498</v>
+      </c>
+      <c r="M7" s="3">
+        <v>-0.006633598278850242</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.004139903589739298</v>
+      </c>
+      <c r="O7" s="3">
+        <v>-0.02818611685659783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>43207111.4135</v>
+        <v>74625639.09042858</v>
       </c>
       <c r="D8" s="2">
-        <v>1.394638402737495</v>
+        <v>1.239754201136088</v>
       </c>
       <c r="E8" s="3">
-        <v>-0.04863221884498484</v>
+        <v>0.09393939393939385</v>
       </c>
       <c r="F8" s="3">
-        <v>-0.02975821450712957</v>
+        <v>2.470545450261619</v>
       </c>
       <c r="G8" s="3">
-        <v>-0.006979695431472017</v>
+        <v>0.09926918392204616</v>
       </c>
       <c r="H8" s="3">
-        <v>0.03711066931742872</v>
+        <v>6.660339981959726</v>
       </c>
       <c r="I8" s="3">
-        <v>-0.08049353701527609</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="J8" s="3">
-        <v>-1.104233755929471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>4.102636530433903</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.1388012618296529</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.6383538726985496</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.03379152348224507</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.0003728857389340252</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.1257534827257805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
-        <v>5993479.641144857</v>
+        <v>6227325.553103443</v>
       </c>
       <c r="D9" s="2">
-        <v>1.372077339886146</v>
+        <v>1.139365085137975</v>
       </c>
       <c r="E9" s="3">
-        <v>-0.05176507835998097</v>
+        <v>0.009794476557482489</v>
       </c>
       <c r="F9" s="3">
-        <v>-0.01642036124794732</v>
+        <v>0.01472648793227991</v>
       </c>
       <c r="G9" s="3">
-        <v>-0.04205981129058042</v>
+        <v>-0.00253766851704985</v>
       </c>
       <c r="H9" s="3">
-        <v>0.003686327077748079</v>
+        <v>0.02768900544813998</v>
       </c>
       <c r="I9" s="3">
-        <v>-0.07418856259659964</v>
+        <v>0.01895657809462089</v>
       </c>
       <c r="J9" s="3">
-        <v>-1.051254326025972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0.2405653308962032</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.004151365160466331</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.007291784621079446</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-0.04509565745520788</v>
+      </c>
+      <c r="N9" s="3">
+        <v>-0.01144454324478152</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.02138725401402072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>33179783.12825714</v>
+        <v>22666964.9418</v>
       </c>
       <c r="D10" s="2">
-        <v>1.492744159834257</v>
+        <v>1.153632423441187</v>
       </c>
       <c r="E10" s="3">
-        <v>-0.0465281629054506</v>
+        <v>0.03565923337786468</v>
       </c>
       <c r="F10" s="3">
-        <v>-0.04757102272727274</v>
+        <v>2.325823267150569</v>
       </c>
       <c r="G10" s="3">
-        <v>-0.02904846720824834</v>
+        <v>0.03634387119520509</v>
       </c>
       <c r="H10" s="3">
-        <v>-0.05564631982197683</v>
+        <v>0.06599001805828462</v>
       </c>
       <c r="I10" s="3">
-        <v>-0.06365121702579291</v>
+        <v>0.0276632627791455</v>
       </c>
       <c r="J10" s="3">
-        <v>-0.8792708075503803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>-4.585022212806926E-07</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.02377082486793985</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-0.1944822244732256</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-0.2669631538477524</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-1.131502658498305</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-1.834001773062514E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
-        <v>18375842.61962857</v>
+        <v>11125958.62034286</v>
       </c>
       <c r="D11" s="2">
-        <v>1.426373666139052</v>
+        <v>1.121437795825202</v>
       </c>
       <c r="E11" s="3">
-        <v>-0.05247410817031067</v>
+        <v>0.01060570351166628</v>
       </c>
       <c r="F11" s="3">
-        <v>-0.07979436745641486</v>
+        <v>0.9825933434410113</v>
       </c>
       <c r="G11" s="3">
-        <v>-0.04477958236658929</v>
+        <v>0.003275620028076772</v>
       </c>
       <c r="H11" s="3">
-        <v>-0.02371354043158646</v>
+        <v>-0.006287606836944381</v>
       </c>
       <c r="I11" s="3">
-        <v>0.07972724888539219</v>
+        <v>0.002571896188917442</v>
       </c>
       <c r="J11" s="3">
-        <v>-2.091719239098899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>-0.07279594599426312</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-0.01561065197428828</v>
+      </c>
+      <c r="L11" s="3">
+        <v>-0.1126386327849448</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.03524867213906326</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.08612174904115824</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.5906150688074775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>18335256.74938571</v>
+        <v>27536991.9187</v>
       </c>
       <c r="D12" s="2">
-        <v>1.676936317376773</v>
+        <v>1.689169104806649</v>
       </c>
       <c r="E12" s="3">
-        <v>-0.05635566687539141</v>
+        <v>-0.01443174984966929</v>
       </c>
       <c r="F12" s="3">
-        <v>-0.06047381546134675</v>
+        <v>-1.312667801923917</v>
       </c>
       <c r="G12" s="3">
-        <v>-0.05040957781978581</v>
+        <v>-0.05478662053056516</v>
       </c>
       <c r="H12" s="3">
-        <v>-0.03086816720257238</v>
+        <v>-3.416539065179488</v>
       </c>
       <c r="I12" s="3">
-        <v>-0.1393489434608795</v>
+        <v>0.01991288114499068</v>
       </c>
       <c r="J12" s="3">
-        <v>-1.815584993257874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>-0.1539824373044731</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.02182044887780544</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.4203753794944483</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-0.05587557603686635</v>
+      </c>
+      <c r="N12" s="3">
+        <v>6.674332798321775E-05</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-0.1756378420425048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>71612924.59861286</v>
+        <v>123783823.3836414</v>
       </c>
       <c r="D13" s="2">
-        <v>1.63639123636839</v>
+        <v>1.36177184415177</v>
       </c>
       <c r="E13" s="3">
-        <v>-0.04619625137816984</v>
+        <v>0.04294073235183075</v>
       </c>
       <c r="F13" s="3">
-        <v>-0.04724669603524234</v>
+        <v>3.061908356519103</v>
       </c>
       <c r="G13" s="3">
-        <v>-0.04996705468921589</v>
+        <v>0.1154739073382456</v>
       </c>
       <c r="H13" s="3">
-        <v>0.05371498172959809</v>
+        <v>1.918212423723221</v>
       </c>
       <c r="I13" s="3">
-        <v>-0.0756491078106635</v>
+        <v>0.2343348598235228</v>
       </c>
       <c r="J13" s="3">
-        <v>-1.588937115232173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>6.754596665047226</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.2084199015855659</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.992577159596757</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.225981806079432</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.5427304858825397</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.7405160267504787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
-        <v>47050335.09651428</v>
+        <v>23838305.27742857</v>
       </c>
       <c r="D14" s="2">
-        <v>1.906252653138854</v>
+        <v>1.638019055429099</v>
       </c>
       <c r="E14" s="3">
-        <v>-0.02183720169990199</v>
+        <v>-0.01963993453355163</v>
       </c>
       <c r="F14" s="3">
-        <v>0.006458123107971781</v>
+        <v>-2.298283960133972</v>
       </c>
       <c r="G14" s="3">
-        <v>0.04170728310820225</v>
+        <v>-0.01086059066370284</v>
       </c>
       <c r="H14" s="3">
-        <v>0.175994340512498</v>
+        <v>-0.5386752058587733</v>
       </c>
       <c r="I14" s="3">
-        <v>0.04600433475494657</v>
+        <v>0.02299001576458218</v>
       </c>
       <c r="J14" s="3">
-        <v>0.074192531442619</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>0.0138988583615597</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.07163008325879024</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.7545735245782018</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.11123795932929</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.007257600939692</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.04888288134873155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
-        <v>5456870.414978571</v>
+        <v>6278685.613154287</v>
       </c>
       <c r="D15" s="2">
-        <v>1.277711199112102</v>
+        <v>1.186212916236129</v>
       </c>
       <c r="E15" s="3">
-        <v>-0.03657644476956823</v>
+        <v>0.01169590643274847</v>
       </c>
       <c r="F15" s="3">
-        <v>-0.02876106194690256</v>
+        <v>0.8594298642806363</v>
       </c>
       <c r="G15" s="3">
-        <v>-0.009774436090225531</v>
+        <v>-0.01704545454545464</v>
       </c>
       <c r="H15" s="3">
-        <v>0.05191693290734829</v>
+        <v>-0.2007304353539057</v>
       </c>
       <c r="I15" s="3">
-        <v>-0.02732644017725245</v>
+        <v>0.0390390390390389</v>
       </c>
       <c r="J15" s="3">
-        <v>-0.9478767050467172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>0.05360595030002038</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.03670411985018717</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.07410709496503512</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.04769114307342922</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.2983782884016232</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.07369136183407023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
-        <v>21804827.21937643</v>
+        <v>63873663.00052886</v>
       </c>
       <c r="D16" s="2">
-        <v>1.355319197546881</v>
+        <v>1.614767363308182</v>
       </c>
       <c r="E16" s="3">
-        <v>-0.03685692347069364</v>
+        <v>-0.034313725490196</v>
       </c>
       <c r="F16" s="3">
-        <v>-0.01749347258485645</v>
+        <v>-3.840271737357225</v>
       </c>
       <c r="G16" s="3">
-        <v>-0.01595188284518836</v>
+        <v>0.05991685008559561</v>
       </c>
       <c r="H16" s="3">
-        <v>0.01867893881970765</v>
+        <v>2.732367058345071</v>
       </c>
       <c r="I16" s="3">
-        <v>-0.02056220718375848</v>
+        <v>0.07516745224510055</v>
       </c>
       <c r="J16" s="3">
-        <v>-1.200371620543834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>4.309629333967279</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.127471383975026</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2.168182387994373</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.08187718422366455</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.2019861108528065</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.3162987798931118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
-        <v>12264029.0122</v>
+        <v>10560081.86000714</v>
       </c>
       <c r="D17" s="2">
-        <v>1.479110508198595</v>
+        <v>1.30995047832191</v>
       </c>
       <c r="E17" s="3">
-        <v>-0.04783282997306335</v>
+        <v>-0.01313668600902637</v>
       </c>
       <c r="F17" s="3">
-        <v>-0.01068611652955642</v>
+        <v>-1.136892319257274</v>
       </c>
       <c r="G17" s="3">
-        <v>0.008036640165917734</v>
+        <v>-0.0426862637792197</v>
       </c>
       <c r="H17" s="3">
-        <v>0.1018229904599981</v>
+        <v>-1.09708062081695</v>
       </c>
       <c r="I17" s="3">
-        <v>-0.05301185257346967</v>
+        <v>-0.002200130378096419</v>
       </c>
       <c r="J17" s="3">
-        <v>-0.7794324078478382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>-0.07551567704538839</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.05542147905533533</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.7519714261688852</v>
+      </c>
+      <c r="M17" s="3">
+        <v>-0.03521903561298457</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.1039415783362205</v>
+      </c>
+      <c r="O17" s="3">
+        <v>-0.09712091723380403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
-        <v>81016843.60628572</v>
+        <v>42968656.45714287</v>
       </c>
       <c r="D18" s="2">
-        <v>1.504453976724981</v>
+        <v>1.132668091584629</v>
       </c>
       <c r="E18" s="3">
-        <v>-0.00643239217279429</v>
+        <v>-0.0115473441108545</v>
       </c>
       <c r="F18" s="3">
-        <v>-0.04135362905860054</v>
+        <v>-0.6111563504260985</v>
       </c>
       <c r="G18" s="3">
-        <v>-0.07512920710954234</v>
+        <v>-0.08651109846328968</v>
       </c>
       <c r="H18" s="3">
-        <v>-0.06439683754144347</v>
+        <v>-4.257826683460594</v>
       </c>
       <c r="I18" s="3">
-        <v>-0.0008851365152855958</v>
+        <v>-0.08239834202815693</v>
       </c>
       <c r="J18" s="3">
-        <v>-0.7341280285321968</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>-4.39955460287698</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-0.1822176931405642</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-2.972897481078153</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-0.1726271022617436</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-0.924444501202855</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-0.5004539386986607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
-        <v>327966867.0938572</v>
+        <v>376806173.976</v>
       </c>
       <c r="D19" s="2">
-        <v>1.808766926813559</v>
+        <v>2.04420425653792</v>
       </c>
       <c r="E19" s="3">
-        <v>0.03450960041515309</v>
+        <v>0.002575991756826323</v>
       </c>
       <c r="F19" s="3">
-        <v>0.1139983235540653</v>
+        <v>0.5675764745007182</v>
       </c>
       <c r="G19" s="3">
-        <v>0.2320766378244746</v>
+        <v>-0.03734850358644577</v>
       </c>
       <c r="H19" s="3">
-        <v>0.2807581111468038</v>
+        <v>-0.4371409569559858</v>
       </c>
       <c r="I19" s="3">
-        <v>0.378630705394191</v>
+        <v>-0.05579815623483746</v>
       </c>
       <c r="J19" s="3">
-        <v>2.804181079419089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>-1.763096603694773</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.2038354469532941</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1.205927756796207</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.2351634401777214</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2.39707842311173</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.6373189815163477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
-        <v>94866276.26719999</v>
+        <v>74851806.35664286</v>
       </c>
       <c r="D20" s="2">
-        <v>1.279913479253588</v>
+        <v>1.076459098495545</v>
       </c>
       <c r="E20" s="3">
-        <v>-0.06111967128916292</v>
+        <v>0.0117801047120419</v>
       </c>
       <c r="F20" s="3">
-        <v>-0.04117492787831102</v>
+        <v>1.618785842816618</v>
       </c>
       <c r="G20" s="3">
-        <v>-0.04192872117400423</v>
+        <v>-0.001549987083440944</v>
       </c>
       <c r="H20" s="3">
-        <v>0.031311706629055</v>
+        <v>-0.132633132631751</v>
       </c>
       <c r="I20" s="3">
-        <v>-0.03484688489968333</v>
+        <v>0.02956846030900373</v>
       </c>
       <c r="J20" s="3">
-        <v>-1.497078448733944</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>0.06090906596087037</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.01337178814892499</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.007010281353470792</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-0.04284299157999005</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-0.005158407149520622</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.02933793434965658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
-        <v>10555187.188</v>
+        <v>13477464.10548572</v>
       </c>
       <c r="D21" s="2">
-        <v>1.517255584448189</v>
+        <v>1.575414277479005</v>
       </c>
       <c r="E21" s="3">
-        <v>-0.006587615283267463</v>
+        <v>0.01773533424283767</v>
       </c>
       <c r="F21" s="3">
-        <v>0.02864938608458393</v>
+        <v>0.4672583312550149</v>
       </c>
       <c r="G21" s="3">
-        <v>0.0457697642163662</v>
+        <v>-0.03367875647668397</v>
       </c>
       <c r="H21" s="3">
-        <v>0.1153846153846153</v>
+        <v>-1.244196788055189</v>
       </c>
       <c r="I21" s="3">
-        <v>0.05602240896358548</v>
+        <v>-0.04481434058898851</v>
       </c>
       <c r="J21" s="3">
-        <v>0.7412093234670135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>-2.050369205733618</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.02402196293754284</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.008037151209261156</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.05815602836879438</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.6136556922695199</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.02791936301595225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>15275987.63035714</v>
+        <v>15320209.79657143</v>
       </c>
       <c r="D22" s="2">
-        <v>1.59891146904696</v>
+        <v>1.312401867484848</v>
       </c>
       <c r="E22" s="3">
-        <v>-0.08088235294117647</v>
+        <v>0.004450095359186249</v>
       </c>
       <c r="F22" s="3">
-        <v>-0.04778393351800553</v>
+        <v>0.1485617606467621</v>
       </c>
       <c r="G22" s="3">
-        <v>-0.01574803149606298</v>
+        <v>0.004450095359186249</v>
       </c>
       <c r="H22" s="3">
-        <v>0.0325406758448059</v>
+        <v>0.2038036751053199</v>
       </c>
       <c r="I22" s="3">
-        <v>-0.03259849906191375</v>
+        <v>0.07800773254491698</v>
       </c>
       <c r="J22" s="3">
-        <v>-2.163306836680407</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>1.407937896123129</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.1299165673420739</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.415719529266494</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.1695040710584752</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.8526375538612393</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.2847505319601009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1">
-        <v>12196002.8319</v>
+        <v>13836022.74382857</v>
       </c>
       <c r="D23" s="2">
-        <v>1.175942782704205</v>
+        <v>1.044613884418509</v>
       </c>
       <c r="E23" s="3">
-        <v>-0.0410122164048865</v>
+        <v>-0.001826484018264842</v>
       </c>
       <c r="F23" s="3">
-        <v>-0.02311111111111113</v>
+        <v>0.01171706055289517</v>
       </c>
       <c r="G23" s="3">
-        <v>-0.02311111111111113</v>
+        <v>-0.02758007117437734</v>
       </c>
       <c r="H23" s="3">
-        <v>-0.009909909909910019</v>
+        <v>-1.34695846982612</v>
       </c>
       <c r="I23" s="3">
-        <v>-0.07257383966244732</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-0.986162841622209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>-0.2123400780233764</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-0.02236135957066201</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-0.1300129088502141</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-0.09444904722452369</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-0.4329724713483386</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.06414682179982736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1">
-        <v>4689218.469868571</v>
+        <v>5503949.456528571</v>
       </c>
       <c r="D24" s="2">
-        <v>1.054284385016874</v>
+        <v>1.018901006104114</v>
       </c>
       <c r="E24" s="3">
-        <v>-0.005251641137855518</v>
+        <v>0.01453090449615675</v>
       </c>
       <c r="F24" s="3">
-        <v>0.01382694023193583</v>
+        <v>0.7534811978977883</v>
       </c>
       <c r="G24" s="3">
-        <v>0.01916825467996865</v>
+        <v>0.0005192107995847183</v>
       </c>
       <c r="H24" s="3">
-        <v>0.0913455767614933</v>
+        <v>-0.03135407297589671</v>
       </c>
       <c r="I24" s="3">
-        <v>0.02111410601976647</v>
+        <v>0.02314962302219392</v>
       </c>
       <c r="J24" s="3">
-        <v>0.1536381872706638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0.05997868806139493</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.07677693339293698</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1.035536289026777</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.09141368373357509</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.7204201710975555</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.1337581207023713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
-        <v>12946656.72638857</v>
+        <v>12043118.6442</v>
       </c>
       <c r="D25" s="2">
-        <v>1.209583942925337</v>
+        <v>1.034048430642069</v>
       </c>
       <c r="E25" s="3">
-        <v>-0.05252056528158614</v>
+        <v>0.01347017318794096</v>
       </c>
       <c r="F25" s="3">
-        <v>-0.01749781277340322</v>
+        <v>1.027233610169747</v>
       </c>
       <c r="G25" s="3">
-        <v>-0.01079057476326795</v>
+        <v>0.008081667375584823</v>
       </c>
       <c r="H25" s="3">
-        <v>0.03051158522596937</v>
+        <v>-0.1057691603308711</v>
       </c>
       <c r="I25" s="3">
-        <v>-0.01942807247325901</v>
+        <v>0.03765323992994744</v>
       </c>
       <c r="J25" s="3">
-        <v>-1.260946355752183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>0.02397757997900001</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.04960141718334807</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.1139281943696407</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.01109215017064846</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.06347386174890605</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.02824650902316258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1">
-        <v>6793152.520228572</v>
+        <v>7316399.524342857</v>
       </c>
       <c r="D26" s="2">
-        <v>1.211564109130887</v>
+        <v>1.128492626683093</v>
       </c>
       <c r="E26" s="3">
-        <v>0.005488474204171245</v>
+        <v>-0.005586592178771011</v>
       </c>
       <c r="F26" s="3">
-        <v>0.02118171683389077</v>
+        <v>-0.03517537201103304</v>
       </c>
       <c r="G26" s="3">
-        <v>0.01271420674405756</v>
+        <v>0.0145077720207254</v>
       </c>
       <c r="H26" s="3">
-        <v>0.004385964912280706</v>
+        <v>0.840830467363485</v>
       </c>
       <c r="I26" s="3">
-        <v>-0.0483116883116883</v>
+        <v>0.04538174052322475</v>
       </c>
       <c r="J26" s="3">
-        <v>-0.1223125823083022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>1.56098691813419</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.08416389811738643</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1.667345207166547</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-0.05364910584823586</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-0.002455009174105976</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-0.08728241730080333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1">
-        <v>66537465.45865428</v>
+        <v>73259105.48836285</v>
       </c>
       <c r="D27" s="2">
-        <v>1.933350641984834</v>
+        <v>1.726837371487356</v>
       </c>
       <c r="E27" s="3">
-        <v>-0.05330661322645296</v>
+        <v>0.05215686274509809</v>
       </c>
       <c r="F27" s="3">
-        <v>-0.03944692964619773</v>
+        <v>4.479803855302741</v>
       </c>
       <c r="G27" s="3">
-        <v>-0.009228187919463149</v>
+        <v>0.04478193146417438</v>
       </c>
       <c r="H27" s="3">
-        <v>0.1333973128598847</v>
+        <v>1.115784670358817</v>
       </c>
       <c r="I27" s="3">
-        <v>0.1279847182425978</v>
+        <v>0.08141878274889162</v>
       </c>
       <c r="J27" s="3">
-        <v>-1.216554052907799</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>0.1471170781116555</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.1146655587868716</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.3296888231773685</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.2025997310623039</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.7667495823009045</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.2668528352350301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
-        <v>30866156.16737143</v>
+        <v>31803440.64491428</v>
       </c>
       <c r="D28" s="2">
-        <v>1.416253927065896</v>
+        <v>1.255140631153287</v>
       </c>
       <c r="E28" s="3">
-        <v>-0.06539449541284403</v>
+        <v>-0.007335137444808414</v>
       </c>
       <c r="F28" s="3">
-        <v>-0.02511100903383857</v>
+        <v>-0.2720171928659057</v>
       </c>
       <c r="G28" s="3">
-        <v>-0.02189108226438283</v>
+        <v>-0.0112080584521529</v>
       </c>
       <c r="H28" s="3">
-        <v>0.07887825129204432</v>
+        <v>-0.4452555345109453</v>
       </c>
       <c r="I28" s="3">
-        <v>-0.02868039664378333</v>
+        <v>0.03597175771088815</v>
       </c>
       <c r="J28" s="3">
-        <v>-1.610338561568335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0.08194096458005791</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.07330407330407331</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.9865517122770465</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.08331390378487596</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.4771303892825422</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.1856656812314799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1">
-        <v>6164070.867542857</v>
+        <v>5952676.068785714</v>
       </c>
       <c r="D29" s="2">
-        <v>1.171279860750121</v>
+        <v>1.046336753406043</v>
       </c>
       <c r="E29" s="3">
-        <v>-0.04988956736390806</v>
+        <v>0.01655319716993733</v>
       </c>
       <c r="F29" s="3">
-        <v>-0.01983648304516828</v>
+        <v>1.266193594902593</v>
       </c>
       <c r="G29" s="3">
-        <v>-0.01362287564067979</v>
+        <v>0.01357646745640893</v>
       </c>
       <c r="H29" s="3">
-        <v>0.06619040676483448</v>
+        <v>0.1166332050071196</v>
       </c>
       <c r="I29" s="3">
-        <v>0.06993416239941475</v>
+        <v>0.024485402932867</v>
       </c>
       <c r="J29" s="3">
-        <v>-0.3468507778893725</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>0.1025028019053778</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.01614625033360027</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.02179959602646388</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.04616018683885153</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.3110891379976918</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.05122839302772723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="5">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1">
-        <v>5443102.770171429</v>
+        <v>5762818.533257144</v>
       </c>
       <c r="D30" s="2">
-        <v>1.290055487502269</v>
+        <v>1.142831521298159</v>
       </c>
       <c r="E30" s="3">
-        <v>-0.04657534246575337</v>
+        <v>0.05268022181146022</v>
       </c>
       <c r="F30" s="3">
-        <v>-0.0178739416745061</v>
+        <v>7.219121260847862</v>
       </c>
       <c r="G30" s="3">
-        <v>-0.02702702702702703</v>
+        <v>0.02520252025202517</v>
       </c>
       <c r="H30" s="3">
-        <v>0.08074534161490685</v>
+        <v>0.3583642334261395</v>
       </c>
       <c r="I30" s="3">
-        <v>0.02352941176470601</v>
+        <v>0.06448598130841125</v>
       </c>
       <c r="J30" s="3">
-        <v>-0.6254206010832778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>0.5663426444570011</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.0565862708719851</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.2163924594738022</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.1155729676787464</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.493745777535452</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.2635391243712326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="5">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1">
-        <v>6767968.95791</v>
+        <v>7600217.966839999</v>
       </c>
       <c r="D31" s="2">
-        <v>1.106620893783409</v>
+        <v>1.046579527420347</v>
       </c>
       <c r="E31" s="3">
-        <v>-0.02904711300035428</v>
+        <v>0.01108330353950666</v>
       </c>
       <c r="F31" s="3">
-        <v>-0.008321273516642583</v>
+        <v>1.308779460441676</v>
       </c>
       <c r="G31" s="3">
-        <v>0.01181247692875603</v>
+        <v>-0.01703163017031633</v>
       </c>
       <c r="H31" s="3">
-        <v>0.07955888144938957</v>
+        <v>-0.4831231095962092</v>
       </c>
       <c r="I31" s="3">
-        <v>0.05059409735530861</v>
+        <v>0.02426657008330317</v>
       </c>
       <c r="J31" s="3">
-        <v>-0.4568430914036938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>-0.006120338492123293</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.04200442151805448</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.1677351333685464</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.057196261682243</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.4196035481622527</v>
+      </c>
+      <c r="O31" s="3">
+        <v>-0.02873973155052674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="5">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1">
-        <v>30222359.23907572</v>
+        <v>20670989.91085714</v>
       </c>
       <c r="D32" s="2">
-        <v>1.478808649980931</v>
+        <v>1.122927312438053</v>
       </c>
       <c r="E32" s="3">
-        <v>-0.04042081949058694</v>
+        <v>0.01587301587301589</v>
       </c>
       <c r="F32" s="3">
-        <v>-0.04675467546754665</v>
+        <v>1.148398532147973</v>
       </c>
       <c r="G32" s="3">
-        <v>-0.01534090909090898</v>
+        <v>0.01319261213720318</v>
       </c>
       <c r="H32" s="3">
-        <v>0.06843403205918618</v>
+        <v>0.7091837176850562</v>
       </c>
       <c r="I32" s="3">
-        <v>-0.04307012700165655</v>
+        <v>0.04975396391470747</v>
       </c>
       <c r="J32" s="3">
-        <v>-0.6544678207524073</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>0.7996740218735275</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.07804604154969115</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.624646437953438</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.1208406304728546</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.6658665092000368</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.333401254273238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="5">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1">
-        <v>25691365.47985714</v>
+        <v>24435361.88657143</v>
       </c>
       <c r="D33" s="2">
-        <v>1.523288311042557</v>
+        <v>1.315602815130912</v>
       </c>
       <c r="E33" s="3">
-        <v>-0.05804416403785485</v>
+        <v>0.002138579982891315</v>
       </c>
       <c r="F33" s="3">
-        <v>-0.02957426064348388</v>
+        <v>0.04217748073893458</v>
       </c>
       <c r="G33" s="3">
-        <v>-0.01948336252189132</v>
+        <v>-0.0160629921259843</v>
       </c>
       <c r="H33" s="3">
-        <v>0.0002233139794551885</v>
+        <v>-0.666489668121241</v>
       </c>
       <c r="I33" s="3">
-        <v>0.003247844103483023</v>
+        <v>0.02751891239995608</v>
       </c>
       <c r="J33" s="3">
-        <v>-1.479991522011407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>0.02500150189709962</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.007308684436801334</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.008601293370468903</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-0.07299703264094952</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-0.07640338756022805</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.02405735326893723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="5">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1">
-        <v>122443837.696</v>
+        <v>107557472.3156</v>
       </c>
       <c r="D34" s="2">
-        <v>2.283318853553252</v>
+        <v>2.255896401983598</v>
       </c>
       <c r="E34" s="3">
-        <v>-0.04320987654320992</v>
+        <v>0.006872852233676983</v>
       </c>
       <c r="F34" s="3">
-        <v>0.2133072407045009</v>
+        <v>-0.02351928676383659</v>
       </c>
       <c r="G34" s="3">
-        <v>0.2204724409448819</v>
+        <v>-0.005093378607809852</v>
       </c>
       <c r="H34" s="3">
-        <v>0.4187643020594966</v>
+        <v>-1.088544085715488</v>
       </c>
       <c r="I34" s="3">
-        <v>0.497584541062802</v>
+        <v>-0.04560260586319222</v>
       </c>
       <c r="J34" s="3">
-        <v>2.416861183488137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>-1.873055037840054</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.1626984126984126</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.08664442902326235</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.2602150537634407</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2.406913018199307</v>
+      </c>
+      <c r="O34" s="3">
+        <v>-0.1445724685568041</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
-        <v>28280854.6688</v>
+        <v>33353851.31536857</v>
       </c>
       <c r="D35" s="2">
-        <v>1.23857454053186</v>
+        <v>1.165339265629749</v>
       </c>
       <c r="E35" s="3">
-        <v>-0.0606411741985322</v>
+        <v>-0.004743083003952513</v>
       </c>
       <c r="F35" s="3">
-        <v>-0.04364923318914667</v>
+        <v>-0.000107190419732754</v>
       </c>
       <c r="G35" s="3">
-        <v>-0.02485966319165995</v>
+        <v>-0.04729474082482019</v>
       </c>
       <c r="H35" s="3">
-        <v>-0.01697655618431691</v>
+        <v>-1.351652215864954</v>
       </c>
       <c r="I35" s="3">
-        <v>-0.1733514615907546</v>
+        <v>0.002388535031847174</v>
       </c>
       <c r="J35" s="3">
-        <v>-1.563584401463119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>-0.856378658149449</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.007199999999999984</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.00184928974369115</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-0.08135716891645382</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-0.08274532114310507</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-0.0004544471811964985</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="5">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
-        <v>4357389.601168571</v>
+        <v>3307618.4748</v>
       </c>
       <c r="D36" s="2">
-        <v>0.9092231680042769</v>
+        <v>0.7321164752564657</v>
       </c>
       <c r="E36" s="3">
-        <v>-0.04083021435862538</v>
+        <v>0.006513541309564593</v>
       </c>
       <c r="F36" s="3">
-        <v>-0.0309384668270884</v>
+        <v>0.5504371288089692</v>
       </c>
       <c r="G36" s="3">
-        <v>-0.03359616043880705</v>
+        <v>-0.007101792357118647</v>
       </c>
       <c r="H36" s="3">
-        <v>0.01293568091987062</v>
+        <v>-0.2512730251404869</v>
       </c>
       <c r="I36" s="3">
-        <v>-0.007394366197183163</v>
+        <v>0.02157272094641611</v>
       </c>
       <c r="J36" s="3">
-        <v>-0.9406717814612696</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>0.005388331110433982</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.003417634996582344</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.006453231328014501</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.02693249387897866</v>
+      </c>
+      <c r="N36" s="3">
+        <v>-0.0001262390516848406</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.01054035236005186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
-        <v>209072493.6350143</v>
+        <v>195088018.3998857</v>
       </c>
       <c r="D37" s="2">
-        <v>2.383933297877851</v>
+        <v>1.646793094665131</v>
       </c>
       <c r="E37" s="3">
-        <v>-0.08296213808463253</v>
+        <v>0.02777777777777774</v>
       </c>
       <c r="F37" s="3">
-        <v>-0.08398220244716352</v>
+        <v>2.422541801154145</v>
       </c>
       <c r="G37" s="3">
-        <v>-0.09356081452944411</v>
+        <v>0.1048009367681499</v>
       </c>
       <c r="H37" s="3">
-        <v>-0.07211267605633798</v>
+        <v>6.832944905138679</v>
       </c>
       <c r="I37" s="3">
-        <v>-0.3829149494192581</v>
+        <v>0.08075601374570447</v>
       </c>
       <c r="J37" s="3">
-        <v>-3.019514857718865</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>2.239526931954096</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.03909691629955944</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.01628906224688856</v>
+      </c>
+      <c r="M37" s="3">
+        <v>-0.08928571428571432</v>
+      </c>
+      <c r="N37" s="3">
+        <v>-0.48417975584506</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.07835424632579338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="5">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
-        <v>17559487.1888</v>
+        <v>19059194.8316</v>
       </c>
       <c r="D38" s="2">
-        <v>1.72252380848787</v>
+        <v>1.56920058963148</v>
       </c>
       <c r="E38" s="3">
-        <v>-0.09238665526090679</v>
+        <v>0.0488454706927175</v>
       </c>
       <c r="F38" s="3">
-        <v>-0.011183597390494</v>
+        <v>3.849517233537748</v>
       </c>
       <c r="G38" s="3">
-        <v>0.001888574126534521</v>
+        <v>0.02874564459930311</v>
       </c>
       <c r="H38" s="3">
-        <v>0.0904419321685509</v>
+        <v>0.0002429936090407684</v>
       </c>
       <c r="I38" s="3">
-        <v>-0.01302325581395348</v>
+        <v>0.05258467023172908</v>
       </c>
       <c r="J38" s="3">
-        <v>-1.702380199250277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>0.02486833748144217</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.1141509433962264</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.7344916125305632</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.1727904667328699</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1.036995184442378</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.0839976313386946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="5">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1">
-        <v>328149341.979</v>
+        <v>605078203.3397143</v>
       </c>
       <c r="D39" s="2">
-        <v>2.623412631810099</v>
+        <v>2.510477925551574</v>
       </c>
       <c r="E39" s="3">
-        <v>-0.0969502407704655</v>
+        <v>-0.07419435423432429</v>
       </c>
       <c r="F39" s="3">
-        <v>-0.02563214409421539</v>
+        <v>-6.059762044723988</v>
       </c>
       <c r="G39" s="3">
-        <v>-0.0470867208672086</v>
+        <v>-0.01146972526006939</v>
       </c>
       <c r="H39" s="3">
-        <v>0.1247500999600161</v>
+        <v>-0.003743899362161052</v>
       </c>
       <c r="I39" s="3">
-        <v>-0.05951186894015377</v>
+        <v>0.1368098159509203</v>
       </c>
       <c r="J39" s="3">
-        <v>-1.99272176777568</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>5.134493330021665</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.2198815009874918</v>
+      </c>
+      <c r="L39" s="3">
+        <v>4.599891043566337</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.2304116865869854</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1.934459782552587</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.8719930939328603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="5">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1">
-        <v>24870942.7582</v>
+        <v>24899724.91812857</v>
       </c>
       <c r="D40" s="2">
-        <v>1.500793180638722</v>
+        <v>1.267766989283988</v>
       </c>
       <c r="E40" s="3">
-        <v>-0.06333892617449666</v>
+        <v>0.02361872627583296</v>
       </c>
       <c r="F40" s="3">
-        <v>-0.04857264593097569</v>
+        <v>0.1566276210007049</v>
       </c>
       <c r="G40" s="3">
-        <v>-0.04531851218469431</v>
+        <v>0.01040799333888427</v>
       </c>
       <c r="H40" s="3">
-        <v>-0.04163090128755371</v>
+        <v>0.7860013638378124</v>
       </c>
       <c r="I40" s="3">
-        <v>-0.3162890385793019</v>
+        <v>0.02969876962240138</v>
       </c>
       <c r="J40" s="3">
-        <v>-2.199695877542854</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>0.2785037806026475</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.03013582342954158</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.09021721802647176</v>
+      </c>
+      <c r="M40" s="3">
+        <v>-0.08827948910593536</v>
+      </c>
+      <c r="N40" s="3">
+        <v>-0.1380843151681816</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.411020084314241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="5">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1">
-        <v>7757313.843157143</v>
+        <v>8432097.660628572</v>
       </c>
       <c r="D41" s="2">
-        <v>1.302799845107209</v>
+        <v>1.15108147272276</v>
       </c>
       <c r="E41" s="3">
-        <v>-0.06018808777429465</v>
+        <v>0.01511335012594467</v>
       </c>
       <c r="F41" s="3">
-        <v>-0.0278858625162127</v>
+        <v>1.806503842043943</v>
       </c>
       <c r="G41" s="3">
-        <v>-0.02281616688396351</v>
+        <v>0.002487562189054797</v>
       </c>
       <c r="H41" s="3">
-        <v>0.06690391459074727</v>
+        <v>0.2562470263194383</v>
       </c>
       <c r="I41" s="3">
-        <v>0.02741603838245376</v>
+        <v>0.06967485069674857</v>
       </c>
       <c r="J41" s="3">
-        <v>-1.507219320721148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>0.6023955561906232</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.04947916666666682</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.2186600317090089</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.1010928961748634</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.3852513830938405</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.2398254700735126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="5">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1">
-        <v>7892811.893874285</v>
+        <v>8610993.869678572</v>
       </c>
       <c r="D42" s="2">
-        <v>1.255759120525167</v>
+        <v>1.049236459598422</v>
       </c>
       <c r="E42" s="3">
-        <v>-0.04997807978956607</v>
+        <v>0.02818141787758689</v>
       </c>
       <c r="F42" s="3">
-        <v>-0.04956140350877204</v>
+        <v>2.873194286354383</v>
       </c>
       <c r="G42" s="3">
-        <v>-0.08449514152936213</v>
+        <v>0.01257588898525579</v>
       </c>
       <c r="H42" s="3">
-        <v>-0.03603202846975097</v>
+        <v>0.02967217538725525</v>
       </c>
       <c r="I42" s="3">
-        <v>-0.1034340091021929</v>
+        <v>0.03823921742996886</v>
       </c>
       <c r="J42" s="3">
-        <v>-1.746298925887966</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>0.09701858248794719</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.004733218588640232</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.03615164260352342</v>
+      </c>
+      <c r="M42" s="3">
+        <v>-0.07378024593415314</v>
+      </c>
+      <c r="N42" s="3">
+        <v>-0.2172126561945865</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.1615323253285017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="5">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1">
-        <v>6165084.191099999</v>
+        <v>5345286.465014286</v>
       </c>
       <c r="D43" s="2">
-        <v>0.465429184622118</v>
+        <v>0.4162028433028406</v>
       </c>
       <c r="E43" s="3">
-        <v>0.02452427821522299</v>
+        <v>-8.136696501213104E-05</v>
       </c>
       <c r="F43" s="3">
-        <v>0.01917428198433421</v>
+        <v>-0.0225954635256241</v>
       </c>
       <c r="G43" s="3">
-        <v>0.00240751143567932</v>
+        <v>0.00704744734901265</v>
       </c>
       <c r="H43" s="3">
-        <v>-0.06026181161600973</v>
+        <v>0.02937979671892807</v>
       </c>
       <c r="I43" s="3">
-        <v>-0.005335244465679284</v>
+        <v>0.002692558746736441</v>
       </c>
       <c r="J43" s="3">
-        <v>0.373084519551971</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>0.2060848011291513</v>
+      </c>
+      <c r="K43" s="3">
+        <v>-0.00943092052232776</v>
+      </c>
+      <c r="L43" s="3">
+        <v>3.36649558387012E-06</v>
+      </c>
+      <c r="M43" s="3">
+        <v>-0.03243839067789923</v>
+      </c>
+      <c r="N43" s="3">
+        <v>-0.3886896487855542</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1.346916692625686E-05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="5">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1">
-        <v>12796612.20674286</v>
+        <v>18839693.808</v>
       </c>
       <c r="D44" s="2">
-        <v>1.683985045128838</v>
+        <v>1.611753072508279</v>
       </c>
       <c r="E44" s="3">
-        <v>-0.03714622641509431</v>
+        <v>-0.02771855010660972</v>
       </c>
       <c r="F44" s="3">
-        <v>-0.0054811205846528</v>
+        <v>-1.285199519401128</v>
       </c>
       <c r="G44" s="3">
-        <v>-0.02623732856290998</v>
+        <v>0.004958677685950479</v>
       </c>
       <c r="H44" s="3">
-        <v>0.08432934926958831</v>
+        <v>-0.1429706369491865</v>
       </c>
       <c r="I44" s="3">
-        <v>-0.09227348526959418</v>
+        <v>0.04467353951890039</v>
       </c>
       <c r="J44" s="3">
-        <v>-0.5163401831036969</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>0.4299571364941034</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.09090909090909099</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1.451440044636093</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.07231040564373897</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.4920496337812005</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.2489735573604543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="5">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1">
-        <v>5920671.721428571</v>
+        <v>10392507.50914286</v>
       </c>
       <c r="D45" s="2">
-        <v>1.122632798792933</v>
+        <v>1.132759143802186</v>
       </c>
       <c r="E45" s="3">
-        <v>-0.05160610847814641</v>
+        <v>0.01628151260504197</v>
       </c>
       <c r="F45" s="3">
-        <v>-0.03327965646806218</v>
+        <v>1.478405364577445</v>
       </c>
       <c r="G45" s="3">
-        <v>-0.02437703141928481</v>
+        <v>-0.01073619631901836</v>
       </c>
       <c r="H45" s="3">
-        <v>0.03684513529073125</v>
+        <v>-0.07955509234417019</v>
       </c>
       <c r="I45" s="3">
-        <v>-0.00276854928017719</v>
+        <v>0.05795516675779113</v>
       </c>
       <c r="J45" s="3">
-        <v>-1.07894159333549</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>0.09828560737872438</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.05277475516866167</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.2248450898834859</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.09569648924122309</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.443207087898549</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.1553516017411521</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="5">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1">
-        <v>122178753.0685637</v>
+        <v>113797043.5310109</v>
       </c>
       <c r="D46" s="2">
-        <v>1.159847605556724</v>
+        <v>1.006872108158358</v>
       </c>
       <c r="E46" s="3">
-        <v>-0.04169332480272969</v>
+        <v>0.008742213965686833</v>
       </c>
       <c r="F46" s="3">
-        <v>-0.01577045230533348</v>
+        <v>0.1567343792522206</v>
       </c>
       <c r="G46" s="3">
-        <v>-0.02832738674451293</v>
+        <v>-0.006029934316786959</v>
       </c>
       <c r="H46" s="3">
-        <v>0.06016279344107586</v>
+        <v>-0.09118498114165062</v>
       </c>
       <c r="I46" s="3">
-        <v>-0.002884722068123819</v>
+        <v>0.009624849611724766</v>
       </c>
       <c r="J46" s="3">
-        <v>-0.6677926855235631</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>-5.066559029982329E-05</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.008962728167012841</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0.0001566753437569038</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.01966199050038654</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.1361286080787795</v>
+      </c>
+      <c r="O46" s="3">
+        <v>-0.0003008107658670375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="5">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1">
-        <v>4763833.014028572</v>
+        <v>4338594.44428</v>
       </c>
       <c r="D47" s="2">
-        <v>1.296368859670537</v>
+        <v>1.098193112657324</v>
       </c>
       <c r="E47" s="3">
-        <v>-0.0713359273670558</v>
+        <v>0.006518904823989644</v>
       </c>
       <c r="F47" s="3">
-        <v>-0.0337381916329285</v>
+        <v>0.0001184640332679976</v>
       </c>
       <c r="G47" s="3">
-        <v>-0.02585034013605443</v>
+        <v>0.01179554390563574</v>
       </c>
       <c r="H47" s="3">
-        <v>0.08320726172465949</v>
+        <v>0.517647530713252</v>
       </c>
       <c r="I47" s="3">
-        <v>0.0734632683658171</v>
+        <v>0.04465493910690128</v>
       </c>
       <c r="J47" s="3">
-        <v>-1.346769651371309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>1.12492482420794</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.03208556149732629</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0.1513887456380871</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.118840579710145</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.8424253130793032</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.0004729647575090315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="5">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C48" s="1">
-        <v>9389538.820428571</v>
+        <v>10730644.6824</v>
       </c>
       <c r="D48" s="2">
-        <v>1.352055193018154</v>
+        <v>1.190654570453881</v>
       </c>
       <c r="E48" s="3">
-        <v>-0.06153474903474896</v>
+        <v>-0.01205106789165967</v>
       </c>
       <c r="F48" s="3">
-        <v>-0.02811445707859555</v>
+        <v>-1.375642119592242</v>
       </c>
       <c r="G48" s="3">
-        <v>-0.01481950601646617</v>
+        <v>0.002299963684783873</v>
       </c>
       <c r="H48" s="3">
-        <v>0.05967302452316069</v>
+        <v>-0.007673971008134038</v>
       </c>
       <c r="I48" s="3">
-        <v>0.009736466311826569</v>
+        <v>0.03087649402390433</v>
       </c>
       <c r="J48" s="3">
-        <v>-1.458433803344535</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>0.2812728571054235</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.045586563960096</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0.3592153296425294</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.08933035126956985</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.493727502324082</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0.2380019857868585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="5">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C49" s="1">
-        <v>8545935.230114287</v>
+        <v>9298296.431257144</v>
       </c>
       <c r="D49" s="2">
-        <v>1.413465488650973</v>
+        <v>1.215475644372189</v>
       </c>
       <c r="E49" s="3">
-        <v>-0.06792452830188678</v>
+        <v>0.00951474785918174</v>
       </c>
       <c r="F49" s="3">
-        <v>-0.05815061963775019</v>
+        <v>0.107295781404865</v>
       </c>
       <c r="G49" s="3">
-        <v>-0.03421309872922779</v>
+        <v>-0.01026119402985078</v>
       </c>
       <c r="H49" s="3">
-        <v>0.03999999999999998</v>
+        <v>-6.205762130224872E-05</v>
       </c>
       <c r="I49" s="3">
-        <v>-0.08007448789571692</v>
+        <v>0.01628352490421449</v>
       </c>
       <c r="J49" s="3">
-        <v>-1.227301038668623</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>0.154815337681755</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0.03714565004887584</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0.09002836650225556</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0.05257936507936507</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.2584561335786565</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0.08713492605402264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="5">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C50" s="1">
-        <v>11332702.04982857</v>
+        <v>7818284.4663</v>
       </c>
       <c r="D50" s="2">
-        <v>1.382610226265734</v>
+        <v>1.045563758991922</v>
       </c>
       <c r="E50" s="3">
-        <v>-0.06276692118545373</v>
+        <v>0.00648834745762714</v>
       </c>
       <c r="F50" s="3">
-        <v>-0.03619909502262444</v>
+        <v>0.215094376448691</v>
       </c>
       <c r="G50" s="3">
-        <v>-0.02896218825422374</v>
+        <v>-0.00275518236683284</v>
       </c>
       <c r="H50" s="3">
-        <v>0.06531332744924978</v>
+        <v>-0.1380039823938611</v>
       </c>
       <c r="I50" s="3">
-        <v>0.0002762430939226215</v>
+        <v>0.03443113772455089</v>
       </c>
       <c r="J50" s="3">
-        <v>-1.399073273964098</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>0.2026705400512816</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.02163978494623656</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0.003286723747845615</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0.105760837940064</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.5239506338442076</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0.01237268182819002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="5">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C51" s="1">
-        <v>17381794.05196457</v>
+        <v>9322941.30383</v>
       </c>
       <c r="D51" s="2">
-        <v>1.362890684618783</v>
+        <v>0.949603647370215</v>
       </c>
       <c r="E51" s="3">
-        <v>-0.04077906269020085</v>
+        <v>0.02460024600245996</v>
       </c>
       <c r="F51" s="3">
-        <v>-0.05060240963855427</v>
+        <v>2.276899527564836</v>
       </c>
       <c r="G51" s="3">
-        <v>-0.03549571603427179</v>
+        <v>0.0164734594264795</v>
       </c>
       <c r="H51" s="3">
-        <v>0.09292649098474343</v>
+        <v>-0.002042278844732372</v>
       </c>
       <c r="I51" s="3">
-        <v>0.02537410540013011</v>
+        <v>0.03157894736842108</v>
       </c>
       <c r="J51" s="3">
-        <v>-0.7785445079662362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>0.03749770868797453</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.01771533292608427</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0.0002331931725339734</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0.07138263665594854</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.2513383919305835</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0.0009239141213279337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="5">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1">
-        <v>8166595.627785714</v>
+        <v>8216192.885554287</v>
       </c>
       <c r="D52" s="2">
-        <v>1.260444494913819</v>
+        <v>1.141626579277872</v>
       </c>
       <c r="E52" s="3">
-        <v>-0.05744336569579279</v>
+        <v>0.01084236864053377</v>
       </c>
       <c r="F52" s="3">
-        <v>-0.02265100671140935</v>
+        <v>0.5053612899211405</v>
       </c>
       <c r="G52" s="3">
-        <v>-0.008510638297872289</v>
+        <v>-0.005742411812961352</v>
       </c>
       <c r="H52" s="3">
-        <v>0.0797034291010196</v>
+        <v>-0.006737152109046493</v>
       </c>
       <c r="I52" s="3">
-        <v>0.06295620437956218</v>
+        <v>0.02538071065989847</v>
       </c>
       <c r="J52" s="3">
-        <v>-1.08245913606849</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>0.03209089428130116</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.01592623637887686</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.0154939856410577</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0.07829181494661927</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.5490186898517236</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0.0362141150017237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="5">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C53" s="1">
-        <v>7439641.508154142</v>
+        <v>7763297.336526</v>
       </c>
       <c r="D53" s="2">
-        <v>1.193227942963137</v>
+        <v>0.9912681168776049</v>
       </c>
       <c r="E53" s="3">
-        <v>-0.05657708628005657</v>
+        <v>0.01558073654390927</v>
       </c>
       <c r="F53" s="3">
-        <v>-0.0305232558139536</v>
+        <v>1.241088410874453</v>
       </c>
       <c r="G53" s="3">
-        <v>-0.01038575667655795</v>
+        <v>0.0098591549295774</v>
       </c>
       <c r="H53" s="3">
-        <v>0.04709576138147562</v>
+        <v>0.1089702326604608</v>
       </c>
       <c r="I53" s="3">
-        <v>0.009077155824508213</v>
+        <v>0.04366812227074231</v>
       </c>
       <c r="J53" s="3">
-        <v>-1.124016151644962</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>0.7077989888898163</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0.05131964809384162</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0.2861958006313444</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0.05286343612334803</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0.2036800442679841</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0.1624078397660355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="5">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1">
-        <v>6841067.636075715</v>
+        <v>8627661.557250001</v>
       </c>
       <c r="D54" s="2">
-        <v>1.3977612676033</v>
+        <v>1.156484457490683</v>
       </c>
       <c r="E54" s="3">
-        <v>-0.05758157389635315</v>
+        <v>0.005747126436781707</v>
       </c>
       <c r="F54" s="3">
-        <v>-0.06831119544592032</v>
+        <v>0.485963042189833</v>
       </c>
       <c r="G54" s="3">
-        <v>-0.05938697318007654</v>
+        <v>-0.01315789473684206</v>
       </c>
       <c r="H54" s="3">
-        <v>0.00408997955010226</v>
+        <v>-0.09361213233330533</v>
       </c>
       <c r="I54" s="3">
-        <v>0.05818965517241385</v>
+        <v>0.009615384615384725</v>
       </c>
       <c r="J54" s="3">
-        <v>-2.117996612209492</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>0.0001672911988485412</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0.01351351351351363</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0.01618704214668942</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0.03143418467583505</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0.02233869256669782</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0.000658626065861288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="5">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C55" s="1">
-        <v>10174124.42006143</v>
+        <v>10931966.10123429</v>
       </c>
       <c r="D55" s="2">
-        <v>1.320095053401593</v>
+        <v>1.232534291822788</v>
       </c>
       <c r="E55" s="3">
-        <v>-0.03864734299516918</v>
+        <v>0.02431118314424635</v>
       </c>
       <c r="F55" s="3">
-        <v>-0.0132231404958678</v>
+        <v>3.231534476547434</v>
       </c>
       <c r="G55" s="3">
-        <v>-0.008305647840531656</v>
+        <v>0.006369426751592373</v>
       </c>
       <c r="H55" s="3">
-        <v>0.06607142857142852</v>
+        <v>-0.01219158539338614</v>
       </c>
       <c r="I55" s="3">
-        <v>-0.01809210526315801</v>
+        <v>0.01282051282051285</v>
       </c>
       <c r="J55" s="3">
-        <v>-1.016551389981386</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>-0.0003146978767234778</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0.0604026845637584</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0.5243214892076562</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0.06937394247038912</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0.3902072933013531</v>
+      </c>
+      <c r="O55" s="3">
+        <v>-0.001265414481807815</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="5">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C56" s="1">
-        <v>8584472.59974857</v>
+        <v>8642315.123382859</v>
       </c>
       <c r="D56" s="2">
-        <v>1.168129360115671</v>
+        <v>0.9835631435875413</v>
       </c>
       <c r="E56" s="3">
-        <v>-0.05307262569832404</v>
+        <v>0.02435629784272788</v>
       </c>
       <c r="F56" s="3">
-        <v>-0.04507042253521138</v>
+        <v>2.686164683733155</v>
       </c>
       <c r="G56" s="3">
-        <v>-0.04101838755304107</v>
+        <v>0.0130763936682726</v>
       </c>
       <c r="H56" s="3">
-        <v>0.02883156297420322</v>
+        <v>0.06661050038007579</v>
       </c>
       <c r="I56" s="3">
-        <v>-0.0396600566572239</v>
+        <v>0.05823148813803019</v>
       </c>
       <c r="J56" s="3">
-        <v>-1.403678626529067</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>0.5176269749545974</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0.03735024665257231</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0.05484309213216104</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0.06589427950760327</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0.1245887788520679</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0.1120014220502846</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="5">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C57" s="1">
-        <v>11720757.62350571</v>
+        <v>9217416.365714286</v>
       </c>
       <c r="D57" s="2">
-        <v>1.011340555786979</v>
+        <v>0.8462616100329258</v>
       </c>
       <c r="E57" s="3">
-        <v>-0.04277227722772281</v>
+        <v>-0.003074400491904025</v>
       </c>
       <c r="F57" s="3">
-        <v>-0.04144358516755902</v>
+        <v>-0.4805665536289631</v>
       </c>
       <c r="G57" s="3">
-        <v>-0.01987023519870238</v>
+        <v>-0.034154090548054</v>
       </c>
       <c r="H57" s="3">
-        <v>0.0645232327681128</v>
+        <v>-2.663318772005215</v>
       </c>
       <c r="I57" s="3">
-        <v>0.02610910634684785</v>
+        <v>-0.004706363822385802</v>
       </c>
       <c r="J57" s="3">
-        <v>-0.719879262184328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>-0.7155908934651953</v>
+      </c>
+      <c r="K57" s="3">
+        <v>-0.0091668364228967</v>
+      </c>
+      <c r="L57" s="3">
+        <v>-0.002387559363905863</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0.009757110234585949</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0.1946525429109748</v>
+      </c>
+      <c r="O57" s="3">
+        <v>-0.01250677259682948</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="5">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C58" s="1">
-        <v>14908516.10574286</v>
+        <v>17880670.4204</v>
       </c>
       <c r="D58" s="2">
-        <v>1.303995072241739</v>
+        <v>1.208565716292643</v>
       </c>
       <c r="E58" s="3">
-        <v>-0.05144193296960237</v>
+        <v>0.03533026113671278</v>
       </c>
       <c r="F58" s="3">
-        <v>-0.01616814874696848</v>
+        <v>2.349942299947822</v>
       </c>
       <c r="G58" s="3">
-        <v>-0.002459016393442534</v>
+        <v>0.03215926493108732</v>
       </c>
       <c r="H58" s="3">
-        <v>0.09936766034327019</v>
+        <v>2.51240947363725</v>
       </c>
       <c r="I58" s="3">
-        <v>0.02441077441077453</v>
+        <v>0.09504467912266448</v>
       </c>
       <c r="J58" s="3">
-        <v>-0.654327109754408</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>3.215018813006835</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0.09861450692746536</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0.871802490522908</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0.1318219983207389</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0.6787192607180971</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0.4224034959948972</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="5">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C59" s="1">
-        <v>40876865.16222857</v>
+        <v>39560133.48162857</v>
       </c>
       <c r="D59" s="2">
-        <v>1.149074129660198</v>
+        <v>0.9951692998126797</v>
       </c>
       <c r="E59" s="3">
-        <v>-0.04817193675889332</v>
+        <v>0.04175988068605514</v>
       </c>
       <c r="F59" s="3">
-        <v>-0.02873708091757</v>
+        <v>6.095222055181667</v>
       </c>
       <c r="G59" s="3">
-        <v>-0.01205128205128215</v>
+        <v>0.02419354838709669</v>
       </c>
       <c r="H59" s="3">
-        <v>0.04191454840454288</v>
+        <v>0.3349019763954875</v>
       </c>
       <c r="I59" s="3">
-        <v>-0.1140492067141872</v>
+        <v>0.0696784073506891</v>
       </c>
       <c r="J59" s="3">
-        <v>-1.176448445471054</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>0.6947745766517863</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.07049808429118763</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0.1782365146009317</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0.01526162790697668</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0.01369880310631985</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0.05499210729779236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="5">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C60" s="1">
-        <v>7646423.070742857</v>
+        <v>8041284.8215</v>
       </c>
       <c r="D60" s="2">
-        <v>1.108630347776236</v>
+        <v>0.9618263169720072</v>
       </c>
       <c r="E60" s="3">
-        <v>-0.04695652173913045</v>
+        <v>-0.00518582541054454</v>
       </c>
       <c r="F60" s="3">
-        <v>-0.03605980650835525</v>
+        <v>-0.02067307238776192</v>
       </c>
       <c r="G60" s="3">
-        <v>-0.02922940655447296</v>
+        <v>-0.01286449399656948</v>
       </c>
       <c r="H60" s="3">
-        <v>0.05182341650671787</v>
+        <v>-0.444102177459349</v>
       </c>
       <c r="I60" s="3">
-        <v>-0.009936766034327043</v>
+        <v>0.03321364452423694</v>
       </c>
       <c r="J60" s="3">
-        <v>-0.9789867334659113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>0.01378515963140583</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0.01142355008787342</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0.01674744108045115</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0.01768346595932792</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0.1984271871558324</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0.02848388341269268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="5">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C61" s="1">
-        <v>14820683.98708714</v>
+        <v>9889213.937039999</v>
       </c>
       <c r="D61" s="2">
-        <v>1.175906873372163</v>
+        <v>1.007240560272015</v>
       </c>
       <c r="E61" s="3">
-        <v>-0.05640818524501884</v>
+        <v>0.009460211463550363</v>
       </c>
       <c r="F61" s="3">
-        <v>-0.04444444444444443</v>
+        <v>0.9858976537595034</v>
       </c>
       <c r="G61" s="3">
-        <v>-0.04743136721935318</v>
+        <v>-0.02525523911875345</v>
       </c>
       <c r="H61" s="3">
-        <v>0.03929418742586002</v>
+        <v>-1.144683843089779</v>
       </c>
       <c r="I61" s="3">
-        <v>-0.006660997732426279</v>
+        <v>0.008057793831619855</v>
       </c>
       <c r="J61" s="3">
-        <v>-1.215135335370209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>-0.2298172766954753</v>
+      </c>
+      <c r="K61" s="3">
+        <v>-0.01036552100381883</v>
+      </c>
+      <c r="L61" s="3">
+        <v>-0.03110647084503664</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0.02732549907971119</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0.02788788595352349</v>
+      </c>
+      <c r="O61" s="3">
+        <v>3.599634215758737</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="5">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C62" s="1">
-        <v>13512721.08488571</v>
+        <v>10140595.87645714</v>
       </c>
       <c r="D62" s="2">
-        <v>1.3413594208033</v>
+        <v>0.9493018598122177</v>
       </c>
       <c r="E62" s="3">
-        <v>-0.01230769230769245</v>
+        <v>0.003058103975535256</v>
       </c>
       <c r="F62" s="3">
-        <v>-0.01533742331288345</v>
+        <v>0.01968907199969679</v>
       </c>
       <c r="G62" s="3">
-        <v>-0.01230769230769245</v>
+        <v>0.003058103975535256</v>
       </c>
       <c r="H62" s="3">
-        <v>-0.006191950464396462</v>
+        <v>-0.1462429827934292</v>
       </c>
       <c r="I62" s="3">
-        <v>0.03548387096774183</v>
+        <v>0.01863354037267091</v>
       </c>
       <c r="J62" s="3">
-        <v>-0.2726066341523736</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>0.01334145526479218</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0.01234567901234582</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0.008681034806697008</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0.03797468354430378</v>
+      </c>
+      <c r="N62" s="3">
+        <v>8.081153558067639E-05</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0.01496608810688129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="5">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C63" s="1">
-        <v>60709326.348</v>
+        <v>56564945.5778</v>
       </c>
       <c r="D63" s="2">
-        <v>2.247092798535527</v>
+        <v>1.777624595149173</v>
       </c>
       <c r="E63" s="3">
-        <v>-0.07673112913287583</v>
+        <v>0.09045226130653258</v>
       </c>
       <c r="F63" s="3">
-        <v>-0.0541116318704729</v>
+        <v>4.864799010406418</v>
       </c>
       <c r="G63" s="3">
-        <v>-0.03014416775884661</v>
+        <v>0.08229426433915212</v>
       </c>
       <c r="H63" s="3">
-        <v>-0.102123356926188</v>
+        <v>5.888330599443844</v>
       </c>
       <c r="I63" s="3">
-        <v>-0.3501170960187354</v>
+        <v>0.06065318818040433</v>
       </c>
       <c r="J63" s="3">
-        <v>-2.093373595341319</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>0.4049991016931519</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0.0118694362017804</v>
+      </c>
+      <c r="L63" s="3">
+        <v>-0.08720924297107903</v>
+      </c>
+      <c r="M63" s="3">
+        <v>-0.3722550953320184</v>
+      </c>
+      <c r="N63" s="3">
+        <v>-1.452343113892339</v>
+      </c>
+      <c r="O63" s="3">
+        <v>-0.3484835155829222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="5">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C64" s="1">
-        <v>24638852.43337143</v>
+        <v>13154695.64269714</v>
       </c>
       <c r="D64" s="2">
-        <v>1.401117899178065</v>
+        <v>1.050746062243596</v>
       </c>
       <c r="E64" s="3">
-        <v>-0.05317247542448615</v>
+        <v>0.03403863845446187</v>
       </c>
       <c r="F64" s="3">
-        <v>-0.04977578475336322</v>
+        <v>4.203067862523002</v>
       </c>
       <c r="G64" s="3">
-        <v>-0.04592525889239082</v>
+        <v>0.02321347291761493</v>
       </c>
       <c r="H64" s="3">
-        <v>0.06268806419257779</v>
+        <v>0.4634426430835653</v>
       </c>
       <c r="I64" s="3">
-        <v>-0.02664216812126783</v>
+        <v>0.05490380103237921</v>
       </c>
       <c r="J64" s="3">
-        <v>-1.558792739646067</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>0.7024046250787144</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0.01261261261261257</v>
+      </c>
+      <c r="L64" s="3">
+        <v>-0.01393752866258315</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0.05292740046838403</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0.04596304978506684</v>
+      </c>
+      <c r="O64" s="3">
+        <v>-0.07813518842916778</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="5">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C65" s="1">
-        <v>25391270.99048057</v>
+        <v>32687362.98522857</v>
       </c>
       <c r="D65" s="2">
-        <v>1.354219821192122</v>
+        <v>1.21124038646023</v>
       </c>
       <c r="E65" s="3">
-        <v>-0.05366492146596861</v>
+        <v>0.0608666887198148</v>
       </c>
       <c r="F65" s="3">
-        <v>-0.04015930965814803</v>
+        <v>6.832264259453868</v>
       </c>
       <c r="G65" s="3">
-        <v>-0.02527805864509605</v>
+        <v>0.05251066622907792</v>
       </c>
       <c r="H65" s="3">
-        <v>0.01974612129760228</v>
+        <v>1.798231807538337</v>
       </c>
       <c r="I65" s="3">
-        <v>-0.1225728155339805</v>
+        <v>0.08125421443020915</v>
       </c>
       <c r="J65" s="3">
-        <v>-0.7942235591466952</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>1.165991122249569</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0.08161888701517707</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0.09089504875529979</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0.03652230122818367</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0.008056607095732089</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0.1015583257739025</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="5">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C66" s="1">
-        <v>50131254.82811429</v>
+        <v>34050742.7736</v>
       </c>
       <c r="D66" s="2">
-        <v>1.9552732810114</v>
+        <v>1.495092267340945</v>
       </c>
       <c r="E66" s="3">
-        <v>-0.03353238401469911</v>
+        <v>-0.01328191945158532</v>
       </c>
       <c r="F66" s="3">
-        <v>-0.02839990764257682</v>
+        <v>-0.02076591951906936</v>
       </c>
       <c r="G66" s="3">
-        <v>-0.04167615577317236</v>
+        <v>-0.01560162427869211</v>
       </c>
       <c r="H66" s="3">
-        <v>0.06964921199796645</v>
+        <v>-0.5158424220963724</v>
       </c>
       <c r="I66" s="3">
-        <v>0.0311198235726537</v>
+        <v>0.02038103677447932</v>
       </c>
       <c r="J66" s="3">
-        <v>-0.5631512722670647</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>0.02381632022228531</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0.05039908779931587</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0.7515435653661968</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0.07868852459016401</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0.1854717021809484</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0.5081870795263206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="5">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C67" s="1">
-        <v>33719412.49714286</v>
+        <v>65501692.94122858</v>
       </c>
       <c r="D67" s="2">
-        <v>1.594316296059497</v>
+        <v>1.591910104899665</v>
       </c>
       <c r="E67" s="3">
-        <v>-0.07661822985468963</v>
+        <v>0.07024265644955292</v>
       </c>
       <c r="F67" s="3">
-        <v>-0.00142857142857143</v>
+        <v>8.332340703146759</v>
       </c>
       <c r="G67" s="3">
-        <v>-0.002853067047075609</v>
+        <v>0.08408796895213447</v>
       </c>
       <c r="H67" s="3">
-        <v>0.06880733944954118</v>
+        <v>3.265989002148583</v>
       </c>
       <c r="I67" s="3">
-        <v>0.02342606149341128</v>
+        <v>0.1055408970976253</v>
       </c>
       <c r="J67" s="3">
-        <v>-1.331815465324862</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>2.998529565542993</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0.1903409090909091</v>
+      </c>
+      <c r="L67" s="3">
+        <v>2.540267463175091</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0.1510989010989011</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0.7390077688131786</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0.5358086088128016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="5">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C68" s="1">
-        <v>21688803.51579428</v>
+        <v>19614847.18764285</v>
       </c>
       <c r="D68" s="2">
-        <v>1.377736430501903</v>
+        <v>1.068767788018293</v>
       </c>
       <c r="E68" s="3">
-        <v>-0.05139565795303506</v>
+        <v>-0.01534296028880867</v>
       </c>
       <c r="F68" s="3">
-        <v>-0.05682819383259925</v>
+        <v>-0.007756769128879496</v>
       </c>
       <c r="G68" s="3">
-        <v>-0.05055432372505553</v>
+        <v>-0.03961267605633809</v>
       </c>
       <c r="H68" s="3">
-        <v>0.03680387409200953</v>
+        <v>-2.261343226918974</v>
       </c>
       <c r="I68" s="3">
-        <v>0.01421127427759347</v>
+        <v>-0.002286236854138154</v>
       </c>
       <c r="J68" s="3">
-        <v>-1.393050787495411</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>-0.2023282572909784</v>
+      </c>
+      <c r="K68" s="3">
+        <v>-0.03151353750554826</v>
+      </c>
+      <c r="L68" s="3">
+        <v>-0.06104442957092532</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0.03855306996668244</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0.03308564969528657</v>
+      </c>
+      <c r="O68" s="3">
+        <v>-0.03217882212900158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="5">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C69" s="1">
-        <v>77304841.77000001</v>
+        <v>72858517.60457143</v>
       </c>
       <c r="D69" s="2">
-        <v>1.261759074348837</v>
+        <v>1.102904137838849</v>
       </c>
       <c r="E69" s="3">
-        <v>-0.05372616984402066</v>
+        <v>0.03764093668690362</v>
       </c>
       <c r="F69" s="3">
-        <v>-0.03482411171999283</v>
+        <v>5.244258459590912</v>
       </c>
       <c r="G69" s="3">
-        <v>-0.02500000000000002</v>
+        <v>0.02589607271480021</v>
       </c>
       <c r="H69" s="3">
-        <v>0.01751770406261662</v>
+        <v>0.7299388233064193</v>
       </c>
       <c r="I69" s="3">
-        <v>-0.06314344543582695</v>
+        <v>0.0595111583421891</v>
       </c>
       <c r="J69" s="3">
-        <v>-1.405323817848742</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>1.257764932677644</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0.06346666666666659</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0.2662278640253675</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0.03120151697983108</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0.02930534926676284</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0.1087203197473818</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="5">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C70" s="1">
-        <v>435020414.48822</v>
+        <v>278951427.9090286</v>
       </c>
       <c r="D70" s="2">
-        <v>1.822002499442128</v>
+        <v>1.28018909352269</v>
       </c>
       <c r="E70" s="3">
-        <v>-0.0411954765751212</v>
+        <v>0.05651794616151542</v>
       </c>
       <c r="F70" s="3">
-        <v>-0.04202455756038519</v>
+        <v>6.581372128023813</v>
       </c>
       <c r="G70" s="3">
-        <v>-0.0375861469855794</v>
+        <v>0.04152589225382405</v>
       </c>
       <c r="H70" s="3">
-        <v>-0.1101472556894244</v>
+        <v>0.03060092006902021</v>
       </c>
       <c r="I70" s="3">
-        <v>-0.1423853021623575</v>
+        <v>0.0380824098450989</v>
       </c>
       <c r="J70" s="3">
-        <v>-1.650746658446467</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>-0.0005176629317574165</v>
+      </c>
+      <c r="K70" s="3">
+        <v>-0.01390019774339888</v>
+      </c>
+      <c r="L70" s="3">
+        <v>-0.756178922025137</v>
+      </c>
+      <c r="M70" s="3">
+        <v>-0.3633598678281766</v>
+      </c>
+      <c r="N70" s="3">
+        <v>-2.274538991854697</v>
+      </c>
+      <c r="O70" s="3">
+        <v>-0.002066455627998826</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="5">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C71" s="1">
-        <v>20571847.58811428</v>
+        <v>22905929.73857142</v>
       </c>
       <c r="D71" s="2">
-        <v>1.036737847854703</v>
+        <v>0.9215342066892716</v>
       </c>
       <c r="E71" s="3">
-        <v>-0.03327032136105872</v>
+        <v>-0.01204343534057255</v>
       </c>
       <c r="F71" s="3">
-        <v>-0.02086923224200655</v>
+        <v>-0.5777891077223895</v>
       </c>
       <c r="G71" s="3">
-        <v>-0.009106762255376937</v>
+        <v>-0.04394344669468862</v>
       </c>
       <c r="H71" s="3">
-        <v>0.03021756647864617</v>
+        <v>-3.043827239385114</v>
       </c>
       <c r="I71" s="3">
-        <v>0.009674234945705856</v>
+        <v>-0.03379030700907525</v>
       </c>
       <c r="J71" s="3">
-        <v>-0.62530567893016</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>-1.703883440678041</v>
+      </c>
+      <c r="K71" s="3">
+        <v>-0.02683780630105024</v>
+      </c>
+      <c r="L71" s="3">
+        <v>-0.1338687673539638</v>
+      </c>
+      <c r="M71" s="3">
+        <v>-0.0547789950887798</v>
+      </c>
+      <c r="N71" s="3">
+        <v>-0.01750444032881587</v>
+      </c>
+      <c r="O71" s="3">
+        <v>-0.1426390853366434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="5">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C72" s="1">
-        <v>42776732.98626</v>
+        <v>23957207.4204</v>
       </c>
       <c r="D72" s="2">
-        <v>1.676480838258096</v>
+        <v>1.27976339784186</v>
       </c>
       <c r="E72" s="3">
-        <v>-0.06204884042389805</v>
+        <v>0.01106263633530698</v>
       </c>
       <c r="F72" s="3">
-        <v>-0.0362947767082215</v>
+        <v>0.2339573591188542</v>
       </c>
       <c r="G72" s="3">
-        <v>-0.0092472420506165</v>
+        <v>0.01374785189814101</v>
       </c>
       <c r="H72" s="3">
-        <v>0.1317642698295033</v>
+        <v>0.02113328222752247</v>
       </c>
       <c r="I72" s="3">
-        <v>-0.02256722151088351</v>
+        <v>0.03426840930825628</v>
       </c>
       <c r="J72" s="3">
-        <v>-0.5701791130605154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>0.4406809319230096</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0.03741007194244619</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0.01103043005030152</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0.0798801797304045</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0.6071168377622373</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0.03645625336417006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="5">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C73" s="1">
-        <v>6910247.39592</v>
+        <v>6131487.79866</v>
       </c>
       <c r="D73" s="2">
-        <v>1.259114986410203</v>
+        <v>1.094597233227335</v>
       </c>
       <c r="E73" s="3">
-        <v>-0.02872062663185378</v>
+        <v>0.01822821728035</v>
       </c>
       <c r="F73" s="3">
-        <v>-0.01288855193328279</v>
+        <v>1.566347089543454</v>
       </c>
       <c r="G73" s="3">
-        <v>-0.004587155963302698</v>
+        <v>0.008303249097472962</v>
       </c>
       <c r="H73" s="3">
-        <v>0.0755885997521686</v>
+        <v>-0.001668435539280396</v>
       </c>
       <c r="I73" s="3">
-        <v>-0.09426086956521741</v>
+        <v>0.03253234750462103</v>
       </c>
       <c r="J73" s="3">
-        <v>-0.2515293253681727</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>8.03015263015065E-05</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0.06603053435114499</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0.497717192822579</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0.07134637514384352</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0.5201314786395997</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0.0003207768663121717</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="5">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C74" s="1">
-        <v>13350161.71977143</v>
+        <v>11921979.97388572</v>
       </c>
       <c r="D74" s="2">
-        <v>1.232021693022008</v>
+        <v>1.026233176440661</v>
       </c>
       <c r="E74" s="3">
-        <v>-0.03363412633306</v>
+        <v>0.04917869586859132</v>
       </c>
       <c r="F74" s="3">
-        <v>-0.01945687233378433</v>
+        <v>4.486188867821046</v>
       </c>
       <c r="G74" s="3">
-        <v>0.0344676180021954</v>
+        <v>0.05611784747970744</v>
       </c>
       <c r="H74" s="3">
-        <v>0.1123701605288007</v>
+        <v>2.530651331696745</v>
       </c>
       <c r="I74" s="3">
-        <v>-0.1307074993081819</v>
+        <v>0.08325624421831643</v>
       </c>
       <c r="J74" s="3">
-        <v>-0.650257154983679</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>1.942737268987797</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0.1506714706845724</v>
+      </c>
+      <c r="L74" s="3">
+        <v>1.12603102096922</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0.07475015296757094</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0.4721057136105035</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0.2666023614546747</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="5">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C75" s="1">
-        <v>8789189.489228571</v>
+        <v>9800878.865600001</v>
       </c>
       <c r="D75" s="2">
-        <v>1.185270474234897</v>
+        <v>1.037870532309665</v>
       </c>
       <c r="E75" s="3">
-        <v>-0.0675630993056322</v>
+        <v>0.02400717971729866</v>
       </c>
       <c r="F75" s="3">
-        <v>-0.05843071786310523</v>
+        <v>2.498633942301355</v>
       </c>
       <c r="G75" s="3">
-        <v>-0.05590893873451624</v>
+        <v>-0.005447809980387889</v>
       </c>
       <c r="H75" s="3">
-        <v>0.02969814995131448</v>
+        <v>-0.02664656841592672</v>
       </c>
       <c r="I75" s="3">
-        <v>-0.04772624943719054</v>
+        <v>0.03001579778830959</v>
       </c>
       <c r="J75" s="3">
-        <v>-1.583374050367306</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>-0.0007016784285726437</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0.01795472287275566</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0.004022567448419775</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0.05795085767269361</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0.2103414039838293</v>
+      </c>
+      <c r="O75" s="3">
+        <v>-0.003451547120881093</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="5">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C76" s="1">
-        <v>59514299.13342858</v>
+        <v>51877656.09371429</v>
       </c>
       <c r="D76" s="2">
-        <v>1.317879780847451</v>
+        <v>1.159788302677055</v>
       </c>
       <c r="E76" s="3">
-        <v>-0.05903737094663367</v>
+        <v>0.01439905965324711</v>
       </c>
       <c r="F76" s="3">
-        <v>-0.02735607996392598</v>
+        <v>1.149053249473453</v>
       </c>
       <c r="G76" s="3">
-        <v>-0.0255985544345731</v>
+        <v>-0.006761617033520315</v>
       </c>
       <c r="H76" s="3">
-        <v>0.03469779341221627</v>
+        <v>-0.06633172017397215</v>
       </c>
       <c r="I76" s="3">
-        <v>-0.08173690932311617</v>
+        <v>0.0228148148148148</v>
       </c>
       <c r="J76" s="3">
-        <v>-1.335672406332195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>0.001709351493394012</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0.03353293413173656</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0.2798933048971277</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-0.02430751837196152</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0.0001631252953888607</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0.007295000600965695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="5">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C77" s="1">
-        <v>6126117.772628572</v>
+        <v>6086624.839428571</v>
       </c>
       <c r="D77" s="2">
-        <v>0.8485047399878568</v>
+        <v>0.7973738055508429</v>
       </c>
       <c r="E77" s="3">
-        <v>-0.03181295515523179</v>
+        <v>0.02592016588906172</v>
       </c>
       <c r="F77" s="3">
-        <v>-0.007985338395077882</v>
+        <v>2.993755758362685</v>
       </c>
       <c r="G77" s="3">
-        <v>0.007444828503057764</v>
+        <v>0</v>
       </c>
       <c r="H77" s="3">
-        <v>0.0445210199862164</v>
+        <v>-0.0003012797166581964</v>
       </c>
       <c r="I77" s="3">
-        <v>-0.009411764705882331</v>
+        <v>0.01931496265773888</v>
       </c>
       <c r="J77" s="3">
-        <v>-0.6454903276462259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>-0.001592282659504539</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0.04778292521508937</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0.2687303679845008</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0.04089414858645631</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0.21952471578243</v>
+      </c>
+      <c r="O77" s="3">
+        <v>-0.006671997702735826</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="5">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C78" s="1">
-        <v>27288149.69442857</v>
+        <v>25023532.27258571</v>
       </c>
       <c r="D78" s="2">
-        <v>1.605754976961358</v>
+        <v>1.403251240715802</v>
       </c>
       <c r="E78" s="3">
-        <v>-0.02616147947677041</v>
+        <v>0.01621972318339102</v>
       </c>
       <c r="F78" s="3">
-        <v>-0.009178522257916483</v>
+        <v>0.7167658583698155</v>
       </c>
       <c r="G78" s="3">
-        <v>-0.0002315350775642255</v>
+        <v>0.02980495288187596</v>
       </c>
       <c r="H78" s="3">
-        <v>0.1049129989764586</v>
+        <v>0.0155716901638386</v>
       </c>
       <c r="I78" s="3">
-        <v>0.09040404040404039</v>
+        <v>0.05761872608597797</v>
       </c>
       <c r="J78" s="3">
-        <v>-0.04529047279427664</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>1.138011539106462</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0.09943846513804394</v>
+      </c>
+      <c r="L78" s="3">
+        <v>1.130610283974524</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0.1718204488778054</v>
+      </c>
+      <c r="N78" s="3">
+        <v>1.144941447733749</v>
+      </c>
+      <c r="O78" s="3">
+        <v>0.4455142456358115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="5">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1">
-        <v>13905503.76703428</v>
+        <v>21314430.14081143</v>
       </c>
       <c r="D79" s="2">
-        <v>1.398489175266289</v>
+        <v>1.373031144379417</v>
       </c>
       <c r="E79" s="3">
-        <v>0.006008411776486976</v>
+        <v>0.01318569243097549</v>
       </c>
       <c r="F79" s="3">
-        <v>0.02052011377488819</v>
+        <v>1.018946357689584</v>
       </c>
       <c r="G79" s="3">
-        <v>0.004800960192038351</v>
+        <v>-0.008554319931565291</v>
       </c>
       <c r="H79" s="3">
-        <v>0.0823098470157293</v>
+        <v>-0.3170936107809966</v>
       </c>
       <c r="I79" s="3">
-        <v>0.1489021043000914</v>
+        <v>-0.008695652173913035</v>
       </c>
       <c r="J79" s="3">
-        <v>0.2110955900230994</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>-0.6953801053189786</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0.05836694315501111</v>
+      </c>
+      <c r="L79" s="3">
+        <v>0.4590958960448645</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0.08851843155670357</v>
+      </c>
+      <c r="N79" s="3">
+        <v>0.843708812409751</v>
+      </c>
+      <c r="O79" s="3">
+        <v>0.307252230397063</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="5">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C80" s="1">
-        <v>16779796.87368</v>
+        <v>385000870.4689714</v>
       </c>
       <c r="D80" s="2">
-        <v>1.366543142007226</v>
+        <v>0.9879080293729972</v>
       </c>
       <c r="E80" s="3">
-        <v>-0.02690126508652035</v>
+        <v>0.0005453157378121332</v>
       </c>
       <c r="F80" s="3">
-        <v>-0.0009703664999628199</v>
+        <v>0.1727314311636012</v>
       </c>
       <c r="G80" s="3">
-        <v>0.02012195121951201</v>
+        <v>-0.0004358247984309828</v>
       </c>
       <c r="H80" s="3">
-        <v>0.132893177585915</v>
+        <v>-0.1279210163512688</v>
       </c>
       <c r="I80" s="3">
-        <v>-0.01912788567240748</v>
+        <v>0.0903256477299738</v>
       </c>
       <c r="J80" s="3">
-        <v>0.4863490980534231</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>2.00989156674971</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0.08903133903133897</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0.9159864639049589</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0.04368600682593855</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0.144585158594792</v>
+      </c>
+      <c r="O80" s="3">
+        <v>0.1321474519091272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="5">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C81" s="1">
-        <v>459104880.1095285</v>
+        <v>23945172.28548571</v>
       </c>
       <c r="D81" s="2">
-        <v>1.251690377417719</v>
+        <v>1.261297047814573</v>
       </c>
       <c r="E81" s="3">
-        <v>-0.04740221833041457</v>
+        <v>-0.03224582701062218</v>
       </c>
       <c r="F81" s="3">
-        <v>-0.04192108971348058</v>
+        <v>-0.7900046063769702</v>
       </c>
       <c r="G81" s="3">
-        <v>-0.03375177640928479</v>
+        <v>0.02408671216378967</v>
       </c>
       <c r="H81" s="3">
-        <v>0.04295027483062759</v>
+        <v>0.2754466513746457</v>
       </c>
       <c r="I81" s="3">
-        <v>-0.1064505530610011</v>
+        <v>0.06781079949769775</v>
       </c>
       <c r="J81" s="3">
-        <v>-1.336361976088497</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>1.614207245932047</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0.06647157190635451</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0.5177122894146755</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0.03404945277665176</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0.08133595183316347</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0.1304873769713711</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="5">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C82" s="1">
-        <v>14568946.79382857</v>
+        <v>32789740.60316142</v>
       </c>
       <c r="D82" s="2">
-        <v>1.247826727756686</v>
+        <v>1.425260175631407</v>
       </c>
       <c r="E82" s="3">
-        <v>-0.04433497536945814</v>
+        <v>0.006784589290041253</v>
       </c>
       <c r="F82" s="3">
-        <v>-0.04197530864197525</v>
+        <v>0.002429205301790683</v>
       </c>
       <c r="G82" s="3">
-        <v>-0.03201663201663196</v>
+        <v>-0.03461895910780666</v>
       </c>
       <c r="H82" s="3">
-        <v>0.02781456953642384</v>
+        <v>-2.026381247843355</v>
       </c>
       <c r="I82" s="3">
-        <v>-0.06768121746095314</v>
+        <v>-0.02050919377652057</v>
       </c>
       <c r="J82" s="3">
-        <v>-1.063390458996553</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>-1.790020194173235</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0.0460725075528701</v>
+      </c>
+      <c r="L82" s="3">
+        <v>0.4483075555886235</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0.01688693098384719</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0.253990997327429</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0.008464773444358423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="5">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C83" s="1">
-        <v>31502590.64748714</v>
+        <v>104342095.9305857</v>
       </c>
       <c r="D83" s="2">
-        <v>1.416485482712733</v>
+        <v>1.000674705108351</v>
       </c>
       <c r="E83" s="3">
-        <v>-0.02650778210116746</v>
+        <v>0.05597614131681573</v>
       </c>
       <c r="F83" s="3">
-        <v>0.02065272819989788</v>
+        <v>6.819907930699123</v>
       </c>
       <c r="G83" s="3">
-        <v>0.02746406570841875</v>
+        <v>0.0516335389536212</v>
       </c>
       <c r="H83" s="3">
-        <v>0.07607526881720414</v>
+        <v>1.612298932271503</v>
       </c>
       <c r="I83" s="3">
-        <v>-0.05119696610571227</v>
+        <v>0.05428309665597804</v>
       </c>
       <c r="J83" s="3">
-        <v>0.2195131508832229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>0.5477583101085144</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0.07571862584716052</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0.1338365023021927</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0.06452358926919517</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0.05292516412494676</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0.1603703703964322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="5">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C84" s="1">
-        <v>81267636.18702856</v>
+        <v>51839524.34057144</v>
       </c>
       <c r="D84" s="2">
-        <v>1.032035215614584</v>
+        <v>1.166239714693039</v>
       </c>
       <c r="E84" s="3">
-        <v>-0.05028184892897404</v>
+        <v>0.02248074202169481</v>
       </c>
       <c r="F84" s="3">
-        <v>-0.01955307262569844</v>
+        <v>2.42194745162755</v>
       </c>
       <c r="G84" s="3">
-        <v>-0.01749475157452768</v>
+        <v>-0.01379833206974976</v>
       </c>
       <c r="H84" s="3">
-        <v>0.02282661486158315</v>
+        <v>-0.02153666144518433</v>
       </c>
       <c r="I84" s="3">
-        <v>-0.02837370242214538</v>
+        <v>0.05670186839967521</v>
       </c>
       <c r="J84" s="3">
-        <v>-1.221659325671984</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>0.0900495067227788</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0.09624136187426273</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0.8514457161778767</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0.1184866723989683</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0.8483326225215917</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0.1892851884377313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="5">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C85" s="1">
-        <v>87881254.28000002</v>
+        <v>142088032.6114286</v>
       </c>
       <c r="D85" s="2">
-        <v>1.552824326785075</v>
+        <v>1.343648725348151</v>
       </c>
       <c r="E85" s="3">
-        <v>-0.05553787396562702</v>
+        <v>0.009982384028185498</v>
       </c>
       <c r="F85" s="3">
-        <v>-0.03354502524018882</v>
+        <v>-0.0002055959889564233</v>
       </c>
       <c r="G85" s="3">
-        <v>0.006443954553162668</v>
+        <v>-0.003476245654692935</v>
       </c>
       <c r="H85" s="3">
-        <v>0.0666786484543494</v>
+        <v>0.07705370990697209</v>
       </c>
       <c r="I85" s="3">
-        <v>0.0255745636772076</v>
+        <v>0.05911330049261075</v>
       </c>
       <c r="J85" s="3">
-        <v>-1.142741189686575</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>1.18509249740417</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0.04686548995739499</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0.6061228753561556</v>
+      </c>
+      <c r="M85" s="3">
+        <v>-0.03098591549295771</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0.005907741383552645</v>
+      </c>
+      <c r="O85" s="3">
+        <v>-0.0008173795823826756</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="5">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C86" s="1">
-        <v>150924388.131</v>
+        <v>22749595.79885715</v>
       </c>
       <c r="D86" s="2">
-        <v>1.599595553445504</v>
+        <v>1.072068715173193</v>
       </c>
       <c r="E86" s="3">
-        <v>-0.06500607533414338</v>
+        <v>0.0109525389976768</v>
       </c>
       <c r="F86" s="3">
-        <v>-0.05582822085889569</v>
+        <v>1.123158163773059</v>
       </c>
       <c r="G86" s="3">
-        <v>-0.05756276791181879</v>
+        <v>0.03394433129667346</v>
       </c>
       <c r="H86" s="3">
-        <v>0.03012048192771079</v>
+        <v>0.9257638149508206</v>
       </c>
       <c r="I86" s="3">
-        <v>-0.2005194805194806</v>
+        <v>0.1357196122296794</v>
       </c>
       <c r="J86" s="3">
-        <v>-2.163813263732395</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>4.420543107435431</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0.1679447852760737</v>
+      </c>
+      <c r="L86" s="3">
+        <v>1.967659279311781</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0.2755443886097153</v>
+      </c>
+      <c r="N86" s="3">
+        <v>1.488568366198511</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0.7613304285101075</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="5">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C87" s="1">
-        <v>13786757.66771428</v>
+        <v>224222102.9038928</v>
       </c>
       <c r="D87" s="2">
-        <v>1.175489367524315</v>
+        <v>3.437865381710368</v>
       </c>
       <c r="E87" s="3">
-        <v>-0.04941969299887684</v>
+        <v>-0.06800886234466812</v>
       </c>
       <c r="F87" s="3">
-        <v>-0.05508001488649052</v>
+        <v>-10.25002922159881</v>
       </c>
       <c r="G87" s="3">
-        <v>-0.04152510381275945</v>
+        <v>-0.06503672207189795</v>
       </c>
       <c r="H87" s="3">
-        <v>0.07767402376910025</v>
+        <v>-0.8268997199663395</v>
       </c>
       <c r="I87" s="3">
-        <v>0.06501677852348996</v>
+        <v>-0.09240150093808629</v>
       </c>
       <c r="J87" s="3">
-        <v>-0.8898308466422917</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>-1.396259856971912</v>
+      </c>
+      <c r="K87" s="3">
+        <v>-0.08510638297872335</v>
+      </c>
+      <c r="L87" s="3">
+        <v>-1.630170990769151</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0.263879817112998</v>
+      </c>
+      <c r="N87" s="3">
+        <v>2.8516372338454</v>
+      </c>
+      <c r="O87" s="3">
+        <v>1.693185035220542</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="5">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C88" s="1">
-        <v>320161809.8493028</v>
+        <v>6367171.16442857</v>
       </c>
       <c r="D88" s="2">
-        <v>2.771846116809144</v>
+        <v>1.072406503737026</v>
       </c>
       <c r="E88" s="3">
-        <v>-0.01659929474499012</v>
+        <v>0.02004251442453688</v>
       </c>
       <c r="F88" s="3">
-        <v>-0.07760567925137143</v>
+        <v>0.8519053233770179</v>
       </c>
       <c r="G88" s="3">
-        <v>0.09531564326084875</v>
+        <v>0.01052948255114321</v>
       </c>
       <c r="H88" s="3">
-        <v>0.5552230685527747</v>
+        <v>0.0283793799362759</v>
       </c>
       <c r="I88" s="3">
-        <v>0.4416845290631697</v>
+        <v>0.05995582202587554</v>
       </c>
       <c r="J88" s="3">
-        <v>2.629318960190862</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>0.8108218537772945</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0.08811143505021057</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0.9991254938663717</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0.1230357739886326</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0.8101176020455719</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0.3467481957863219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="5">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C89" s="1">
-        <v>5523711.759000001</v>
+        <v>9451219.851557145</v>
       </c>
       <c r="D89" s="2">
-        <v>1.179755770289185</v>
+        <v>1.076893414486874</v>
       </c>
       <c r="E89" s="3">
-        <v>-0.01355611601513232</v>
+        <v>0.01853997682502902</v>
       </c>
       <c r="F89" s="3">
-        <v>0.006756756756756727</v>
+        <v>0.7793317520823609</v>
       </c>
       <c r="G89" s="3">
-        <v>0.01557935735150934</v>
+        <v>0.006872852233677014</v>
       </c>
       <c r="H89" s="3">
-        <v>0.07488835451734793</v>
+        <v>-0.0007836132436319957</v>
       </c>
       <c r="I89" s="3">
-        <v>0.0409181636726548</v>
+        <v>0.06159420289855081</v>
       </c>
       <c r="J89" s="3">
-        <v>0.09444502721428941</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>0.7016487344074299</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0.07064555420219244</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0.6756528384213676</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0.1211734693877552</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0.8253647196299997</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0.321516354268836</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="5">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C90" s="1">
-        <v>9077375.055985715</v>
+        <v>13819116.72897143</v>
       </c>
       <c r="D90" s="2">
-        <v>1.146889368875483</v>
+        <v>0.9033382343002945</v>
       </c>
       <c r="E90" s="3">
-        <v>-0.04415274463007154</v>
+        <v>0.01114023591087798</v>
       </c>
       <c r="F90" s="3">
-        <v>-0.02909090909090908</v>
+        <v>1.510145361366821</v>
       </c>
       <c r="G90" s="3">
-        <v>-0.02197802197802193</v>
+        <v>-0.007397877130910338</v>
       </c>
       <c r="H90" s="3">
-        <v>0.07661290322580661</v>
+        <v>-0.05983984708515769</v>
       </c>
       <c r="I90" s="3">
-        <v>0.01392405063291144</v>
+        <v>0.03487592219986574</v>
       </c>
       <c r="J90" s="3">
-        <v>-0.8556261310592614</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+        <v>0.004388776978774348</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0.01747444774150996</v>
+      </c>
+      <c r="L90" s="3">
+        <v>0.008010173902588789</v>
+      </c>
+      <c r="M90" s="3">
+        <v>-0.006439150032195756</v>
+      </c>
+      <c r="N90" s="3">
+        <v>0.008216275630804008</v>
+      </c>
+      <c r="O90" s="3">
+        <v>0.02019617210561603</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="5">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C91" s="1">
-        <v>14231695.41021429</v>
+        <v>14285408.256</v>
       </c>
       <c r="D91" s="2">
-        <v>1.083814869755896</v>
+        <v>1.580450146261122</v>
       </c>
       <c r="E91" s="3">
-        <v>-0.054983922829582</v>
+        <v>0.005674378000872938</v>
       </c>
       <c r="F91" s="3">
-        <v>-0.03194993412384713</v>
+        <v>-0.001903218256244365</v>
       </c>
       <c r="G91" s="3">
-        <v>-0.02939233817701459</v>
+        <v>-0.03274559193954672</v>
       </c>
       <c r="H91" s="3">
-        <v>0.04109103790294013</v>
+        <v>-1.90485891380836</v>
       </c>
       <c r="I91" s="3">
-        <v>-0.04886731391585761</v>
+        <v>-0.08023952095808386</v>
       </c>
       <c r="J91" s="3">
-        <v>-1.223657878157393</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>-3.09591638569864</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-0.04950495049504955</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-0.6386987430552229</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-0.05805396565821764</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0.004837080291439569</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-0.007345651497355591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="5">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C92" s="1">
-        <v>15693806.88628571</v>
+        <v>287041569.3606857</v>
       </c>
       <c r="D92" s="2">
-        <v>1.611899811337114</v>
+        <v>1.721195409000596</v>
       </c>
       <c r="E92" s="3">
-        <v>0.005978477481068205</v>
+        <v>-0.05225933202357566</v>
       </c>
       <c r="F92" s="3">
-        <v>0.0386831275720164</v>
+        <v>-4.712666231574726</v>
       </c>
       <c r="G92" s="3">
-        <v>0.0399670374948496</v>
+        <v>-0.02741935483870968</v>
       </c>
       <c r="H92" s="3">
-        <v>0.1866478608368596</v>
+        <v>0.171593653515937</v>
       </c>
       <c r="I92" s="3">
-        <v>-0.01444748145255756</v>
+        <v>0.1135734072022161</v>
       </c>
       <c r="J92" s="3">
-        <v>0.2069952905274846</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>1.560433158815341</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0.3073170731707317</v>
+      </c>
+      <c r="L92" s="3">
+        <v>6.112735553782864</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0.3437325905292479</v>
+      </c>
+      <c r="N92" s="3">
+        <v>2.502660484476213</v>
+      </c>
+      <c r="O92" s="3">
+        <v>1.14237254178729</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="5">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C93" s="1">
-        <v>72335579.87207143</v>
+        <v>123709929.0702857</v>
       </c>
       <c r="D93" s="2">
-        <v>1.272864500361401</v>
+        <v>1.030728815085436</v>
       </c>
       <c r="E93" s="3">
-        <v>0.02754677754677754</v>
+        <v>0.02699139067711153</v>
       </c>
       <c r="F93" s="3">
-        <v>0.05552589428723968</v>
+        <v>2.961457962843634</v>
       </c>
       <c r="G93" s="3">
-        <v>0.08328767123287667</v>
+        <v>0.02026506395438434</v>
       </c>
       <c r="H93" s="3">
-        <v>0.1698224852071004</v>
+        <v>0.0176190251902861</v>
       </c>
       <c r="I93" s="3">
-        <v>0.1144306651634723</v>
+        <v>0.06157299767497786</v>
       </c>
       <c r="J93" s="3">
-        <v>0.5576475046734612</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>0.6132885551465973</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0.02858696496543155</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0.01616695781683048</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0.02341938475807691</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0.05152640017216212</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0.03755076930115624</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="5">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C94" s="1">
-        <v>123933925.5385714</v>
+        <v>56280754.81285714</v>
       </c>
       <c r="D94" s="2">
-        <v>1.154474856583389</v>
+        <v>1.060577644583687</v>
       </c>
       <c r="E94" s="3">
-        <v>-0.06271484225803986</v>
+        <v>0.03544776119402994</v>
       </c>
       <c r="F94" s="3">
-        <v>-0.0444669418269605</v>
+        <v>2.277173576601679</v>
       </c>
       <c r="G94" s="3">
-        <v>-0.04528478057889828</v>
+        <v>0.04252049180327878</v>
       </c>
       <c r="H94" s="3">
-        <v>0.04106567113524521</v>
+        <v>2.373243169207034</v>
       </c>
       <c r="I94" s="3">
-        <v>-0.06034614795527648</v>
+        <v>0.1175178473366283</v>
       </c>
       <c r="J94" s="3">
-        <v>-1.578448412511645</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>2.383193162555616</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0.1241023752531763</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1.132695059205667</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0.04860872552387502</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0.04432772307193421</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0.1792593821931203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="5">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C95" s="1">
-        <v>46263691.847</v>
+        <v>10190910.19660429</v>
       </c>
       <c r="D95" s="2">
-        <v>1.243256995192571</v>
+        <v>1.249100332349898</v>
       </c>
       <c r="E95" s="3">
-        <v>-0.05745677233429394</v>
+        <v>0.01030766828049342</v>
       </c>
       <c r="F95" s="3">
-        <v>-0.04420091324200914</v>
+        <v>0.0002036645424925893</v>
       </c>
       <c r="G95" s="3">
-        <v>-0.04052071873854054</v>
+        <v>-0.003389308272993345</v>
       </c>
       <c r="H95" s="3">
-        <v>0.01316553727008705</v>
+        <v>0.0002537409221471206</v>
       </c>
       <c r="I95" s="3">
-        <v>-0.1302974904437428</v>
+        <v>0.01188800250273732</v>
       </c>
       <c r="J95" s="3">
-        <v>-1.479994143375838</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>0.08979485555617955</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0.05910281597904379</v>
+      </c>
+      <c r="L95" s="3">
+        <v>0.8646992639785331</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0.1099862731640357</v>
+      </c>
+      <c r="N95" s="3">
+        <v>0.860207836841033</v>
+      </c>
+      <c r="O95" s="3">
+        <v>0.000811125419953668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="5">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C96" s="1">
-        <v>9145756.958862858</v>
+        <v>13412758.98355714</v>
       </c>
       <c r="D96" s="2">
-        <v>1.382453289936032</v>
+        <v>0.9861621746937015</v>
       </c>
       <c r="E96" s="3">
-        <v>-0.03128007699711261</v>
+        <v>0.001198681450404589</v>
       </c>
       <c r="F96" s="3">
-        <v>-0.01772934287573196</v>
+        <v>0.09687832698331705</v>
       </c>
       <c r="G96" s="3">
-        <v>-0.01339650383924198</v>
+        <v>-0.01124593074874214</v>
       </c>
       <c r="H96" s="3">
-        <v>0.0838119167264896</v>
+        <v>-0.3232508624915991</v>
       </c>
       <c r="I96" s="3">
-        <v>0.05080911780059159</v>
+        <v>0.02894979981521411</v>
       </c>
       <c r="J96" s="3">
-        <v>-0.4939122371228188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>0.00727347392133706</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0.002099580083983305</v>
+      </c>
+      <c r="L96" s="3">
+        <v>5.583816491842413E-12</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0.0904046997389034</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0.02325510916074685</v>
+      </c>
+      <c r="O96" s="3">
+        <v>2.233526594755608E-11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="5">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C97" s="1">
-        <v>26072154.4797</v>
+        <v>53296072.75457142</v>
       </c>
       <c r="D97" s="2">
-        <v>1.416309018053174</v>
+        <v>1.51736988051602</v>
       </c>
       <c r="E97" s="3">
-        <v>-0.06211180124223608</v>
+        <v>-0.01685985247629088</v>
       </c>
       <c r="F97" s="3">
-        <v>-0.04803362353647558</v>
+        <v>-0.7024554917383992</v>
       </c>
       <c r="G97" s="3">
-        <v>-0.04660252555622373</v>
+        <v>-0.08975609756097562</v>
       </c>
       <c r="H97" s="3">
-        <v>-0.07631808913486747</v>
+        <v>-5.430510630522249</v>
       </c>
       <c r="I97" s="3">
-        <v>0.08004087193460478</v>
+        <v>0.1146953405017921</v>
       </c>
       <c r="J97" s="3">
-        <v>-1.678575105931581</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>-0.4368352099366974</v>
+      </c>
+      <c r="K97" s="3">
+        <v>0.07488479262672802</v>
+      </c>
+      <c r="L97" s="3">
+        <v>1.166062129214344</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0.2164276401564536</v>
+      </c>
+      <c r="N97" s="3">
+        <v>1.246544357588411</v>
+      </c>
+      <c r="O97" s="3">
+        <v>2.265905523626734</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="5">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C98" s="1">
-        <v>5783502.057885715</v>
+        <v>324507796.5034286</v>
       </c>
       <c r="D98" s="2">
-        <v>1.203555308369145</v>
+        <v>1.35713998775083</v>
       </c>
       <c r="E98" s="3">
-        <v>-0.05542725173210161</v>
+        <v>0.01153016439782795</v>
       </c>
       <c r="F98" s="3">
-        <v>-0.05324074074074082</v>
+        <v>0.3533781497850644</v>
       </c>
       <c r="G98" s="3">
-        <v>-0.0537883169462117</v>
+        <v>-0.00824155787324043</v>
       </c>
       <c r="H98" s="3">
-        <v>0.05141388174807203</v>
+        <v>-1.339859379090529</v>
       </c>
       <c r="I98" s="3">
-        <v>0.1039136302294197</v>
+        <v>0.01629297458893871</v>
       </c>
       <c r="J98" s="3">
-        <v>-1.409110441109198</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>-0.01019619976890115</v>
+      </c>
+      <c r="K98" s="3">
+        <v>-0.04353942463248222</v>
+      </c>
+      <c r="L98" s="3">
+        <v>-0.3585485613578747</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0.03108886866848651</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0.2783203354966629</v>
+      </c>
+      <c r="O98" s="3">
+        <v>-0.06072650609536091</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="5">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C99" s="1">
-        <v>518421875.2994285</v>
+        <v>18920580.63428571</v>
       </c>
       <c r="D99" s="2">
-        <v>1.931569140911976</v>
+        <v>0.7981136114865944</v>
       </c>
       <c r="E99" s="3">
-        <v>-0.07363987363987361</v>
+        <v>0.004839824844434221</v>
       </c>
       <c r="F99" s="3">
-        <v>-0.06998379026006063</v>
+        <v>0.003340370398748631</v>
       </c>
       <c r="G99" s="3">
-        <v>-0.05944404846756947</v>
+        <v>0.002759889604415928</v>
       </c>
       <c r="H99" s="3">
-        <v>0.1298912578131689</v>
+        <v>-0.06451128017956068</v>
       </c>
       <c r="I99" s="3">
-        <v>-0.0337555832173977</v>
+        <v>0.0283018867924529</v>
       </c>
       <c r="J99" s="3">
-        <v>-1.47284544624379</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>0.2593218184926485</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0.0300023623907395</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0.001556539023054436</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0.01940612578910447</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0.08369710384697979</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0.00401121013765312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="5">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C100" s="1">
-        <v>22708400.80457143</v>
+        <v>127198258.4004286</v>
       </c>
       <c r="D100" s="2">
-        <v>0.8962965004135525</v>
+        <v>1.840756860860191</v>
       </c>
       <c r="E100" s="3">
-        <v>-0.0274004144600506</v>
+        <v>-0.02892263195950834</v>
       </c>
       <c r="F100" s="3">
-        <v>-0.03912647861692445</v>
+        <v>-2.819024325821978</v>
       </c>
       <c r="G100" s="3">
-        <v>-0.00471253534401498</v>
+        <v>-0.06736111111111109</v>
       </c>
       <c r="H100" s="3">
-        <v>0.03478686918177368</v>
+        <v>-3.520742459096261</v>
       </c>
       <c r="I100" s="3">
-        <v>-0.04520795660036166</v>
+        <v>-0.03727598566308247</v>
       </c>
       <c r="J100" s="3">
-        <v>-0.3287857196628142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>-1.763187358229051</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0.1518010291595198</v>
+      </c>
+      <c r="L100" s="3">
+        <v>2.037883360174543</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0.1071723000824401</v>
+      </c>
+      <c r="N100" s="3">
+        <v>1.323675743004688</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0.4494590547689187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="5">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C101" s="1">
-        <v>110215393.8711429</v>
+        <v>28126740.551</v>
       </c>
       <c r="D101" s="2">
-        <v>1.533337306595537</v>
+        <v>0.9346830499113736</v>
       </c>
       <c r="E101" s="3">
-        <v>0.03330751355538354</v>
+        <v>0.03366488140780417</v>
       </c>
       <c r="F101" s="3">
-        <v>0.1285956006768191</v>
+        <v>2.008350813428163</v>
       </c>
       <c r="G101" s="3">
-        <v>0.143101970865467</v>
+        <v>0.05054432348367025</v>
       </c>
       <c r="H101" s="3">
-        <v>0.2018018018018018</v>
+        <v>3.381051147925739</v>
       </c>
       <c r="I101" s="3">
-        <v>0.09344262295081976</v>
+        <v>0.09215844785772019</v>
       </c>
       <c r="J101" s="3">
-        <v>2.927504055743588</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>3.036771477894444</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0.1391231028667791</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1.677922619320038</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0.1305439330543932</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0.4822231609209555</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0.4403613400186318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="5">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C102" s="1">
-        <v>18186391.992</v>
+        <v>108914450.0344286</v>
       </c>
       <c r="D102" s="2">
-        <v>1.045685152999725</v>
+        <v>2.838281241296416</v>
       </c>
       <c r="E102" s="3">
-        <v>-0.04420350291909938</v>
+        <v>-0.01581595974119343</v>
       </c>
       <c r="F102" s="3">
-        <v>-0.04020100502512566</v>
+        <v>-0.6963722623616145</v>
       </c>
       <c r="G102" s="3">
-        <v>-0.02963590177815422</v>
+        <v>-0.04532775453277548</v>
       </c>
       <c r="H102" s="3">
-        <v>0.0287253141831237</v>
+        <v>-1.937931551548422</v>
       </c>
       <c r="I102" s="3">
-        <v>-0.01715265866209264</v>
+        <v>-0.07249322493224934</v>
       </c>
       <c r="J102" s="3">
-        <v>-1.153300687365804</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>-2.323807421657484</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0.1730934018851756</v>
+      </c>
+      <c r="L102" s="3">
+        <v>2.024840954782248</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0.2093639575971731</v>
+      </c>
+      <c r="N102" s="3">
+        <v>2.416464970862362</v>
+      </c>
+      <c r="O102" s="3">
+        <v>1.175124222275372</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="5">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C103" s="1">
-        <v>53778771.26285715</v>
+        <v>182517682.5995572</v>
       </c>
       <c r="D103" s="2">
-        <v>1.449052255319536</v>
+        <v>1.614970383735987</v>
       </c>
       <c r="E103" s="3">
-        <v>0.1936</v>
+        <v>0.001562500000000001</v>
       </c>
       <c r="F103" s="3">
-        <v>0.2259654889071487</v>
+        <v>0.004512611351066349</v>
       </c>
       <c r="G103" s="3">
-        <v>0.281786941580756</v>
+        <v>-0.0346385542168675</v>
       </c>
       <c r="H103" s="3">
-        <v>0.3866171003717472</v>
+        <v>-2.915516538156247</v>
       </c>
       <c r="I103" s="3">
-        <v>0.2665534804753821</v>
+        <v>-0.04754829123328384</v>
       </c>
       <c r="J103" s="3">
-        <v>6.31883982932063</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>-2.140104531864791</v>
+      </c>
+      <c r="K103" s="3">
+        <v>-0.05735294117647063</v>
+      </c>
+      <c r="L103" s="3">
+        <v>-0.897289672279221</v>
+      </c>
+      <c r="M103" s="3">
+        <v>0.1654545454545454</v>
+      </c>
+      <c r="N103" s="3">
+        <v>1.02396201167831</v>
+      </c>
+      <c r="O103" s="3">
+        <v>0.0176941511470168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="5">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C104" s="1">
-        <v>629180579.3191715</v>
+        <v>17538306.82641429</v>
       </c>
       <c r="D104" s="2">
-        <v>2.996664068994016</v>
+        <v>1.105837261415021</v>
       </c>
       <c r="E104" s="3">
-        <v>-0.09193776520509186</v>
+        <v>0.02189425883879335</v>
       </c>
       <c r="F104" s="3">
-        <v>-0.1132596685082872</v>
+        <v>0.6696978449127787</v>
       </c>
       <c r="G104" s="3">
-        <v>-0.0572687224669604</v>
+        <v>0.01612643122077093</v>
       </c>
       <c r="H104" s="3">
-        <v>0.3155737704918034</v>
+        <v>0.03187283621251637</v>
       </c>
       <c r="I104" s="3">
-        <v>0.06644518272425255</v>
+        <v>0.06796610169491521</v>
       </c>
       <c r="J104" s="3">
-        <v>-2.091537326164296</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>0.8341153883075678</v>
+      </c>
+      <c r="K104" s="3">
+        <v>0.05420779655345488</v>
+      </c>
+      <c r="L104" s="3">
+        <v>0.1412299989798049</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0.1213739099483895</v>
+      </c>
+      <c r="N104" s="3">
+        <v>1.048372896326591</v>
+      </c>
+      <c r="O104" s="3">
+        <v>0.2220774131158283</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="5">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C105" s="1">
-        <v>34128470.88</v>
+        <v>32316990.26400001</v>
       </c>
       <c r="D105" s="2">
-        <v>1.510727636761577</v>
+        <v>1.182644925179206</v>
       </c>
       <c r="E105" s="3">
-        <v>-0.04182509505703424</v>
+        <v>-0.0105708245243129</v>
       </c>
       <c r="F105" s="3">
-        <v>-0.04733727810650878</v>
+        <v>-1.014010338007137</v>
       </c>
       <c r="G105" s="3">
-        <v>-0.02473498233215537</v>
+        <v>-0.02875778238956419</v>
       </c>
       <c r="H105" s="3">
-        <v>0.1324736225087925</v>
+        <v>-0.2005974964453889</v>
       </c>
       <c r="I105" s="3">
-        <v>0.06937269372693733</v>
+        <v>0.01283042201267584</v>
       </c>
       <c r="J105" s="3">
-        <v>0.05011749607574659</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+        <v>-5.824793245760904E-06</v>
+      </c>
+      <c r="K105" s="3">
+        <v>0.01897356143079316</v>
+      </c>
+      <c r="L105" s="3">
+        <v>0.6621954652127502</v>
+      </c>
+      <c r="M105" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="N105" s="3">
+        <v>0.2802816040051699</v>
+      </c>
+      <c r="O105" s="3">
+        <v>-2.330073703561218E-05</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="5">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C106" s="1">
-        <v>40490487.88071428</v>
+        <v>2803898.341557142</v>
       </c>
       <c r="D106" s="2">
-        <v>1.363795568424752</v>
+        <v>0.8797752048740327</v>
       </c>
       <c r="E106" s="3">
-        <v>-0.03686923918137791</v>
+        <v>0.001278305332359262</v>
       </c>
       <c r="F106" s="3">
-        <v>-0.01705994897959184</v>
+        <v>-0.001836156026504902</v>
       </c>
       <c r="G106" s="3">
-        <v>0.00129933409127822</v>
+        <v>-0.002909619930896568</v>
       </c>
       <c r="H106" s="3">
-        <v>-0.01312630062429966</v>
+        <v>-2.669565183048476E-05</v>
       </c>
       <c r="I106" s="3">
-        <v>0.03596034279952949</v>
+        <v>0.02967136150234733</v>
       </c>
       <c r="J106" s="3">
-        <v>-0.08890198117141675</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>0.2069140746155415</v>
+      </c>
+      <c r="K106" s="3">
+        <v>0.04697345808669068</v>
+      </c>
+      <c r="L106" s="3">
+        <v>0.3316233133726885</v>
+      </c>
+      <c r="M106" s="3">
+        <v>0.02812675792237015</v>
+      </c>
+      <c r="N106" s="3">
+        <v>0.3178682470516713</v>
+      </c>
+      <c r="O106" s="3">
+        <v>-0.007980618269589667</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="5">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C107" s="1">
-        <v>3388164.507371429</v>
+        <v>157628267.4393857</v>
       </c>
       <c r="D107" s="2">
-        <v>1.026502625697942</v>
+        <v>0.8740930871243004</v>
       </c>
       <c r="E107" s="3">
-        <v>-0.04050538833147541</v>
+        <v>0.04437814655976124</v>
       </c>
       <c r="F107" s="3">
-        <v>-0.03638738570628849</v>
+        <v>5.956379640574257</v>
       </c>
       <c r="G107" s="3">
-        <v>-0.009779482262703783</v>
+        <v>0.02808370044052855</v>
       </c>
       <c r="H107" s="3">
-        <v>0.07092492741600993</v>
+        <v>0.9820012211149853</v>
       </c>
       <c r="I107" s="3">
-        <v>-0.01412752959144708</v>
+        <v>0.05262168765269691</v>
       </c>
       <c r="J107" s="3">
-        <v>-0.4965901356459787</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>0.6005599649843621</v>
+      </c>
+      <c r="K107" s="3">
+        <v>0.05919062027231462</v>
+      </c>
+      <c r="L107" s="3">
+        <v>0.1569213909707109</v>
+      </c>
+      <c r="M107" s="3">
+        <v>-0.005680809515355943</v>
+      </c>
+      <c r="N107" s="3">
+        <v>-0.0007619296995044366</v>
+      </c>
+      <c r="O107" s="3">
+        <v>-0.02383426141232867</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="5">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C108" s="1">
-        <v>131508055.3325714</v>
+        <v>19964627.73315715</v>
       </c>
       <c r="D108" s="2">
-        <v>0.9694160252415065</v>
+        <v>1.054303018250192</v>
       </c>
       <c r="E108" s="3">
-        <v>-0.04797322424693194</v>
+        <v>0.01755412521942658</v>
       </c>
       <c r="F108" s="3">
-        <v>-0.04584420424897494</v>
+        <v>0.1625735154804319</v>
       </c>
       <c r="G108" s="3">
-        <v>-0.03140370790768057</v>
+        <v>0.016364699006429</v>
       </c>
       <c r="H108" s="3">
-        <v>-0.008904374758033344</v>
+        <v>-0.3366653388492806</v>
       </c>
       <c r="I108" s="3">
-        <v>-0.1180017226528854</v>
+        <v>0.05585913782635099</v>
       </c>
       <c r="J108" s="3">
-        <v>-1.010701956930937</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+        <v>0.31501653042436</v>
+      </c>
+      <c r="K108" s="3">
+        <v>0.02354326074161273</v>
+      </c>
+      <c r="L108" s="3">
+        <v>0.03778671182657931</v>
+      </c>
+      <c r="M108" s="3">
+        <v>-0.007420091324200856</v>
+      </c>
+      <c r="N108" s="3">
+        <v>3.517081114424191E-05</v>
+      </c>
+      <c r="O108" s="3">
+        <v>-0.04041244901488383</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="5">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C109" s="1">
-        <v>20521389.0152</v>
+        <v>14670070.06392857</v>
       </c>
       <c r="D109" s="2">
-        <v>1.247745069229216</v>
+        <v>0.8750037157710086</v>
       </c>
       <c r="E109" s="3">
-        <v>-0.03391812865497079</v>
+        <v>-0.006803773001391821</v>
       </c>
       <c r="F109" s="3">
-        <v>-0.02536873156342192</v>
+        <v>-0.2475657646684179</v>
       </c>
       <c r="G109" s="3">
-        <v>-0.02016607354685648</v>
+        <v>-0.02784925079461191</v>
       </c>
       <c r="H109" s="3">
-        <v>0.04030226700251879</v>
+        <v>-1.342708110597479</v>
       </c>
       <c r="I109" s="3">
-        <v>-0.007807807807807881</v>
+        <v>-0.01154201292705448</v>
       </c>
       <c r="J109" s="3">
-        <v>-0.6964664509782434</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <v>-0.5909215632243865</v>
+      </c>
+      <c r="K109" s="3">
+        <v>-0.00372266170311787</v>
+      </c>
+      <c r="L109" s="3">
+        <v>0.00516662927161892</v>
+      </c>
+      <c r="M109" s="3">
+        <v>-0.01638591117917312</v>
+      </c>
+      <c r="N109" s="3">
+        <v>-0.002129957173353441</v>
+      </c>
+      <c r="O109" s="3">
+        <v>0.03154819256002127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="5">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C110" s="1">
-        <v>15492427.53314286</v>
+        <v>86302554.6506857</v>
       </c>
       <c r="D110" s="2">
-        <v>1.032986741693895</v>
+        <v>1.474399557201403</v>
       </c>
       <c r="E110" s="3">
-        <v>0.0007667535654040791</v>
+        <v>0.01246239793725824</v>
       </c>
       <c r="F110" s="3">
-        <v>0.008967223252937645</v>
+        <v>0.04294258324717226</v>
       </c>
       <c r="G110" s="3">
-        <v>0.01068607712560009</v>
+        <v>0.001700680272108845</v>
       </c>
       <c r="H110" s="3">
-        <v>0.03259493670886079</v>
+        <v>0.02710820464895123</v>
       </c>
       <c r="I110" s="3">
-        <v>-0.05283018867924525</v>
+        <v>0.02123970524490678</v>
       </c>
       <c r="J110" s="3">
-        <v>-0.01967947374503405</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <v>0.1182581639773129</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0.07237141556668175</v>
+      </c>
+      <c r="L110" s="3">
+        <v>0.6373241491142425</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0.00255319148936161</v>
+      </c>
+      <c r="N110" s="3">
+        <v>0.1353359150731706</v>
+      </c>
+      <c r="O110" s="3">
+        <v>0.009412236179465605</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="5">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C111" s="1">
-        <v>71477827.62574285</v>
+        <v>52695031.34720714</v>
       </c>
       <c r="D111" s="2">
-        <v>1.444684642762566</v>
+        <v>1.553565713785807</v>
       </c>
       <c r="E111" s="3">
-        <v>-0.04389632107023411</v>
+        <v>0.002039870190078794</v>
       </c>
       <c r="F111" s="3">
-        <v>0.03437358661239261</v>
+        <v>-0.1026375391543475</v>
       </c>
       <c r="G111" s="3">
-        <v>0.04286365709074321</v>
+        <v>-0.003687655572969488</v>
       </c>
       <c r="H111" s="3">
-        <v>0.06969130028063612</v>
+        <v>-0.3091124603783524</v>
       </c>
       <c r="I111" s="3">
-        <v>0.01554174067495566</v>
+        <v>0.02068379297317721</v>
       </c>
       <c r="J111" s="3">
-        <v>0.6008220801517983</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>0.009464801213164807</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0.006988445769660886</v>
+      </c>
+      <c r="L111" s="3">
+        <v>-0.003815925113694993</v>
+      </c>
+      <c r="M111" s="3">
+        <v>0.2591168589071421</v>
+      </c>
+      <c r="N111" s="3">
+        <v>0.1020443127468258</v>
+      </c>
+      <c r="O111" s="3">
+        <v>-0.02464742037239205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="5">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C112" s="1">
-        <v>150531116.4940286</v>
+        <v>243716179.9011085</v>
       </c>
       <c r="D112" s="2">
-        <v>2.730990125456114</v>
+        <v>2.361343792476313</v>
       </c>
       <c r="E112" s="3">
-        <v>-0.06031218250669614</v>
+        <v>-0.09549565142140121</v>
       </c>
       <c r="F112" s="3">
-        <v>-0.05234724292101343</v>
+        <v>-9.037070163094972</v>
       </c>
       <c r="G112" s="3">
-        <v>-0.06814434878182819</v>
+        <v>0.1059732289296862</v>
       </c>
       <c r="H112" s="3">
-        <v>-0.1933719178625228</v>
+        <v>2.981128976361343</v>
       </c>
       <c r="I112" s="3">
-        <v>0.2375623403478896</v>
+        <v>0.1401767208465146</v>
       </c>
       <c r="J112" s="3">
-        <v>-1.049362437938729</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+        <v>5.852400758718068</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0.2206715328467153</v>
+      </c>
+      <c r="L112" s="3">
+        <v>1.568995463771781</v>
+      </c>
+      <c r="M112" s="3">
+        <v>0.07613899613899611</v>
+      </c>
+      <c r="N112" s="3">
+        <v>0.5736289989741677</v>
+      </c>
+      <c r="O112" s="3">
+        <v>0.2891962200213192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="5">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C113" s="1">
-        <v>145115007.9358172</v>
+        <v>25250410.58</v>
       </c>
       <c r="D113" s="2">
-        <v>2.083028023690004</v>
+        <v>1.121293088665317</v>
       </c>
       <c r="E113" s="3">
-        <v>0.01455565553379563</v>
+        <v>0.01178039564347626</v>
       </c>
       <c r="F113" s="3">
-        <v>0.03722943722943721</v>
+        <v>2.029940150379651</v>
       </c>
       <c r="G113" s="3">
-        <v>0.1434707391278412</v>
+        <v>0.02395681025756381</v>
       </c>
       <c r="H113" s="3">
-        <v>0.1242228739002932</v>
+        <v>1.126005930920308</v>
       </c>
       <c r="I113" s="3">
-        <v>-0.01974020660734375</v>
+        <v>0.05199907557198988</v>
       </c>
       <c r="J113" s="3">
-        <v>1.302990985073339</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+        <v>1.408830409291332</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0.04523536165327209</v>
+      </c>
+      <c r="L113" s="3">
+        <v>0.3450334729017969</v>
+      </c>
+      <c r="M113" s="3">
+        <v>0.005966850828729238</v>
+      </c>
+      <c r="N113" s="3">
+        <v>0.002668696148364575</v>
+      </c>
+      <c r="O113" s="3">
+        <v>0.02329735691690253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="5">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C114" s="1">
-        <v>31650024.3572</v>
+        <v>15109787.02125428</v>
       </c>
       <c r="D114" s="2">
-        <v>1.628307885329488</v>
+        <v>1.051227005792003</v>
       </c>
       <c r="E114" s="3">
-        <v>-0.04695973231798785</v>
+        <v>0.02975947818997147</v>
       </c>
       <c r="F114" s="3">
-        <v>-0.05546026300743293</v>
+        <v>4.32780747797907</v>
       </c>
       <c r="G114" s="3">
-        <v>-0.06645569620253172</v>
+        <v>0.02557856272838003</v>
       </c>
       <c r="H114" s="3">
-        <v>-0.0378567268491556</v>
+        <v>1.332685797247068</v>
       </c>
       <c r="I114" s="3">
-        <v>-0.06582221216919253</v>
+        <v>0.04466501240694791</v>
       </c>
       <c r="J114" s="3">
-        <v>-1.505210861186977</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>1.230931384027325</v>
+      </c>
+      <c r="K114" s="3">
+        <v>0.06179066834804536</v>
+      </c>
+      <c r="L114" s="3">
+        <v>0.5272669524320414</v>
+      </c>
+      <c r="M114" s="3">
+        <v>0.05823209049015499</v>
+      </c>
+      <c r="N114" s="3">
+        <v>0.3746487846733211</v>
+      </c>
+      <c r="O114" s="3">
+        <v>0.1988794019092609</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="5">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C115" s="1">
-        <v>14213168.64844286</v>
+        <v>1985154011.742587</v>
       </c>
       <c r="D115" s="2">
-        <v>1.13921546037724</v>
+        <v>2.092947406969506</v>
       </c>
       <c r="E115" s="3">
-        <v>-0.02886597938144332</v>
+        <v>-0.03248920298390257</v>
       </c>
       <c r="F115" s="3">
-        <v>-0.01587964897618063</v>
+        <v>-2.209268557806276</v>
       </c>
       <c r="G115" s="3">
-        <v>-0.006329113924050639</v>
+        <v>-0.05493767976989453</v>
       </c>
       <c r="H115" s="3">
-        <v>0.0887656033287101</v>
+        <v>-4.21971109291367</v>
       </c>
       <c r="I115" s="3">
-        <v>-0.1719409282700422</v>
+        <v>-0.03740234375</v>
       </c>
       <c r="J115" s="3">
-        <v>-0.1344470830558755</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+        <v>-2.052625561755542</v>
+      </c>
+      <c r="K115" s="3">
+        <v>0.1137853107344634</v>
+      </c>
+      <c r="L115" s="3">
+        <v>0.8820691193471896</v>
+      </c>
+      <c r="M115" s="3">
+        <v>0.169276393831554</v>
+      </c>
+      <c r="N115" s="3">
+        <v>2.233133917100031</v>
+      </c>
+      <c r="O115" s="3">
+        <v>0.6555897308447617</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="5">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C116" s="1">
-        <v>1444093783.276259</v>
+        <v>16272556.341</v>
       </c>
       <c r="D116" s="2">
-        <v>1.849551228693877</v>
+        <v>1.129272339196029</v>
       </c>
       <c r="E116" s="3">
-        <v>-0.1051512515705035</v>
+        <v>-0.003314001657000831</v>
       </c>
       <c r="F116" s="3">
-        <v>0.01557529889217949</v>
+        <v>0.006969591192124072</v>
       </c>
       <c r="G116" s="3">
-        <v>0.03464074198234446</v>
+        <v>-0.0429594272076371</v>
       </c>
       <c r="H116" s="3">
-        <v>0.2408201554543018</v>
+        <v>-1.192288245463736</v>
       </c>
       <c r="I116" s="3">
-        <v>0.08903787344154325</v>
+        <v>0.03261802575107299</v>
       </c>
       <c r="J116" s="3">
-        <v>-0.9125785490492457</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+        <v>-0.002959610147212417</v>
+      </c>
+      <c r="K116" s="3">
+        <v>0.02645051194539261</v>
+      </c>
+      <c r="L116" s="3">
+        <v>0.1343165773942313</v>
+      </c>
+      <c r="M116" s="3">
+        <v>0.06272084805653726</v>
+      </c>
+      <c r="N116" s="3">
+        <v>0.3874855855409066</v>
+      </c>
+      <c r="O116" s="3">
+        <v>-0.0233900153208653</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="5">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C117" s="1">
-        <v>10282695.93785714</v>
+        <v>14441000.05851</v>
       </c>
       <c r="D117" s="2">
-        <v>1.215868038993283</v>
+        <v>0.9679399130300809</v>
       </c>
       <c r="E117" s="3">
-        <v>-0.04006677796327215</v>
+        <v>0.01903485254691692</v>
       </c>
       <c r="F117" s="3">
-        <v>-0.04958677685950418</v>
+        <v>2.430600625901745</v>
       </c>
       <c r="G117" s="3">
-        <v>-0.020442930153322</v>
+        <v>0.003961965134706777</v>
       </c>
       <c r="H117" s="3">
-        <v>0.07176141658900276</v>
+        <v>-0.1735138881244803</v>
       </c>
       <c r="I117" s="3">
-        <v>0.02495543672014243</v>
+        <v>0.01522435897435898</v>
       </c>
       <c r="J117" s="3">
-        <v>-0.727432581412363</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>0.0006569386580731158</v>
+      </c>
+      <c r="K117" s="3">
+        <v>-0.003930817610062856</v>
+      </c>
+      <c r="L117" s="3">
+        <v>-0.01151911005624663</v>
+      </c>
+      <c r="M117" s="3">
+        <v>-0.01655886157826651</v>
+      </c>
+      <c r="N117" s="3">
+        <v>-0.02907391288750586</v>
+      </c>
+      <c r="O117" s="3">
+        <v>0.002908201162147215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="5">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C118" s="1">
-        <v>13609192.7688</v>
+        <v>17942732.15896</v>
       </c>
       <c r="D118" s="2">
-        <v>1.132599327819523</v>
+        <v>1.129885589653966</v>
       </c>
       <c r="E118" s="3">
-        <v>-0.04388714733542319</v>
+        <v>-0.007326007326007245</v>
       </c>
       <c r="F118" s="3">
-        <v>-0.04513435950952249</v>
+        <v>-0.06827491635255475</v>
       </c>
       <c r="G118" s="3">
-        <v>-0.04488517745302711</v>
+        <v>-0.03656678517013705</v>
       </c>
       <c r="H118" s="3">
-        <v>-0.01214574898785414</v>
+        <v>-1.642812350619408</v>
       </c>
       <c r="I118" s="3">
-        <v>-0.05936777178103304</v>
+        <v>0.01879699248120302</v>
       </c>
       <c r="J118" s="3">
-        <v>-1.295052947207769</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>-0.4384825688209162</v>
+      </c>
+      <c r="K118" s="3">
+        <v>-0.01454545454545453</v>
+      </c>
+      <c r="L118" s="3">
+        <v>9.94814766811921E-08</v>
+      </c>
+      <c r="M118" s="3">
+        <v>0.05741360089186178</v>
+      </c>
+      <c r="N118" s="3">
+        <v>0.03685951858168799</v>
+      </c>
+      <c r="O118" s="3">
+        <v>3.979258873189593E-07</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" s="5">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C119" s="1">
-        <v>14946019.37129143</v>
+        <v>60018105.26371429</v>
       </c>
       <c r="D119" s="2">
-        <v>1.278512091018088</v>
+        <v>1.416187501604955</v>
       </c>
       <c r="E119" s="3">
-        <v>-0.0623069001029866</v>
+        <v>-0.007645030730025473</v>
       </c>
       <c r="F119" s="3">
-        <v>-0.04759414225941421</v>
+        <v>-0.1495116686370218</v>
       </c>
       <c r="G119" s="3">
-        <v>-0.05205622071837575</v>
+        <v>-0.08840539796199384</v>
       </c>
       <c r="H119" s="3">
-        <v>0.015616285554936</v>
+        <v>-4.090461825590946</v>
       </c>
       <c r="I119" s="3">
-        <v>0.03289846851956891</v>
+        <v>0.06739761367300881</v>
       </c>
       <c r="J119" s="3">
-        <v>-1.431196766396565</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>-0.005176137013831277</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0.07993474714518767</v>
+      </c>
+      <c r="L119" s="3">
+        <v>0.7014416713722026</v>
+      </c>
+      <c r="M119" s="3">
+        <v>0.1083207768290641</v>
+      </c>
+      <c r="N119" s="3">
+        <v>0.829062739809152</v>
+      </c>
+      <c r="O119" s="3">
+        <v>-0.02113882968042597</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="5">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C120" s="1">
-        <v>24290201.18218571</v>
+        <v>17468405.74215</v>
       </c>
       <c r="D120" s="2">
-        <v>1.350011645989139</v>
+        <v>0.9448882984193225</v>
       </c>
       <c r="E120" s="3">
-        <v>-0.05921052631578941</v>
+        <v>0.01414052143172783</v>
       </c>
       <c r="F120" s="3">
-        <v>-0.03921875000000002</v>
+        <v>0.8813099025741027</v>
       </c>
       <c r="G120" s="3">
-        <v>0.003590664272890451</v>
+        <v>0.01324503311258285</v>
       </c>
       <c r="H120" s="3">
-        <v>0.1099277978339349</v>
+        <v>0.1069320603071491</v>
       </c>
       <c r="I120" s="3">
-        <v>0.06347284676582489</v>
+        <v>0.04270786006360761</v>
       </c>
       <c r="J120" s="3">
-        <v>-1.775767606259589</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+        <v>0.6376637381403644</v>
+      </c>
+      <c r="K120" s="3">
+        <v>0.004816112084063155</v>
+      </c>
+      <c r="L120" s="3">
+        <v>5.563486214313514E-05</v>
+      </c>
+      <c r="M120" s="3">
+        <v>0.07594936708860776</v>
+      </c>
+      <c r="N120" s="3">
+        <v>0.06991276361340373</v>
+      </c>
+      <c r="O120" s="3">
+        <v>0.0002223431415649082</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" s="5">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C121" s="1">
-        <v>25511500.55441428</v>
+        <v>49466862.30432858</v>
       </c>
       <c r="D121" s="2">
-        <v>1.218937332992632</v>
+        <v>1.02670811717038</v>
       </c>
       <c r="E121" s="3">
-        <v>-0.06635071090047406</v>
+        <v>0.01461377870563676</v>
       </c>
       <c r="F121" s="3">
-        <v>-0.04072598494909255</v>
+        <v>1.599330256668397</v>
       </c>
       <c r="G121" s="3">
-        <v>-0.04956140350877204</v>
+        <v>-0.01219512195121952</v>
       </c>
       <c r="H121" s="3">
-        <v>0.04132628543969244</v>
+        <v>-0.1968150629169005</v>
       </c>
       <c r="I121" s="3">
-        <v>0.04787234042553181</v>
+        <v>0.01503759398496237</v>
       </c>
       <c r="J121" s="3">
-        <v>-1.792591217165798</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>-0.03331921595655815</v>
+      </c>
+      <c r="K121" s="3">
+        <v>0.005378568473314007</v>
+      </c>
+      <c r="L121" s="3">
+        <v>0.0002197462842909465</v>
+      </c>
+      <c r="M121" s="3">
+        <v>-0.1556636553161918</v>
+      </c>
+      <c r="N121" s="3">
+        <v>-0.4931688884440287</v>
+      </c>
+      <c r="O121" s="3">
+        <v>0.0008859571382905593</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="5">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C122" s="1">
-        <v>73225270.19917427</v>
+        <v>41932626.46300001</v>
       </c>
       <c r="D122" s="2">
-        <v>1.330213347885381</v>
+        <v>1.200171306158231</v>
       </c>
       <c r="E122" s="3">
-        <v>-0.04580777096114515</v>
+        <v>-0.01376395361439247</v>
       </c>
       <c r="F122" s="3">
-        <v>-0.029130253849355</v>
+        <v>-1.096403823854045</v>
       </c>
       <c r="G122" s="3">
-        <v>-0.03833470733718056</v>
+        <v>-0.04741965874594369</v>
       </c>
       <c r="H122" s="3">
-        <v>-0.04385245901639339</v>
+        <v>-3.455046908470304</v>
       </c>
       <c r="I122" s="3">
-        <v>-0.08077226162332551</v>
+        <v>-0.01674770394381411</v>
       </c>
       <c r="J122" s="3">
-        <v>-1.089910060590158</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+        <v>-0.5320255085635148</v>
+      </c>
+      <c r="K122" s="3">
+        <v>-0.01076203935210351</v>
+      </c>
+      <c r="L122" s="3">
+        <v>0.0002281140947333762</v>
+      </c>
+      <c r="M122" s="3">
+        <v>0.01619207146845346</v>
+      </c>
+      <c r="N122" s="3">
+        <v>0.4367864602232517</v>
+      </c>
+      <c r="O122" s="3">
+        <v>0.0009003456585250954</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" s="5">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C123" s="1">
-        <v>38631775.98018572</v>
+        <v>6603039.339813429</v>
       </c>
       <c r="D123" s="2">
-        <v>1.132363169857856</v>
+        <v>0.7456179624908162</v>
       </c>
       <c r="E123" s="3">
-        <v>-0.06275720164609047</v>
+        <v>0.01826484018264839</v>
       </c>
       <c r="F123" s="3">
-        <v>-0.004262760957481708</v>
+        <v>1.945991226006863</v>
       </c>
       <c r="G123" s="3">
-        <v>-0.009782608695652182</v>
+        <v>0.01245634458672869</v>
       </c>
       <c r="H123" s="3">
-        <v>0.09891435464414967</v>
+        <v>0.03348529200665533</v>
       </c>
       <c r="I123" s="3">
-        <v>0.02451641925326141</v>
+        <v>0.0388198757763976</v>
       </c>
       <c r="J123" s="3">
-        <v>-0.9064161134841645</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>0.3310672837541783</v>
+      </c>
+      <c r="K123" s="3">
+        <v>-0.00446428571428581</v>
+      </c>
+      <c r="L123" s="3">
+        <v>-0.008110420506055864</v>
+      </c>
+      <c r="M123" s="3">
+        <v>0.06869009584664543</v>
+      </c>
+      <c r="N123" s="3">
+        <v>0.0486705789932667</v>
+      </c>
+      <c r="O123" s="3">
+        <v>-0.03802078300477292</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="5">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C124" s="1">
-        <v>7677195.911277142</v>
+        <v>8643667.793899998</v>
       </c>
       <c r="D124" s="2">
-        <v>0.9672316711166784</v>
+        <v>0.8922863442954516</v>
       </c>
       <c r="E124" s="3">
-        <v>-0.04541263254956204</v>
+        <v>0.01319381255686984</v>
       </c>
       <c r="F124" s="3">
-        <v>-0.05510553337136347</v>
+        <v>0.8626920258298316</v>
       </c>
       <c r="G124" s="3">
-        <v>-0.04804597701149425</v>
+        <v>-0.002240143369175778</v>
       </c>
       <c r="H124" s="3">
-        <v>0.03914680050188203</v>
+        <v>0.000132472291980519</v>
       </c>
       <c r="I124" s="3">
-        <v>0.001451027811366367</v>
+        <v>0.03341067285382834</v>
       </c>
       <c r="J124" s="3">
-        <v>-1.504588068384811</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+        <v>0.2833191765050768</v>
+      </c>
+      <c r="K124" s="3">
+        <v>0.01922196796338664</v>
+      </c>
+      <c r="L124" s="3">
+        <v>0.1237678484110098</v>
+      </c>
+      <c r="M124" s="3">
+        <v>0.08317120622568085</v>
+      </c>
+      <c r="N124" s="3">
+        <v>0.4036342570432577</v>
+      </c>
+      <c r="O124" s="3">
+        <v>0.1613437683072197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="5">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C125" s="1">
-        <v>9078877.737114286</v>
+        <v>14499026.28987429</v>
       </c>
       <c r="D125" s="2">
-        <v>1.039010651107279</v>
+        <v>0.836722635863604</v>
       </c>
       <c r="E125" s="3">
-        <v>-0.04549590536851687</v>
+        <v>0.0210139603232918</v>
       </c>
       <c r="F125" s="3">
-        <v>-0.03451449608835719</v>
+        <v>3.139414390883062</v>
       </c>
       <c r="G125" s="3">
-        <v>-0.0463636363636365</v>
+        <v>-0.003299383158800701</v>
       </c>
       <c r="H125" s="3">
-        <v>0.047952047952048</v>
+        <v>-0.06094131772235522</v>
       </c>
       <c r="I125" s="3">
-        <v>0.05215646940822461</v>
+        <v>0.03670546105640114</v>
       </c>
       <c r="J125" s="3">
-        <v>-1.067347804986292</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>0.003495853145814259</v>
+      </c>
+      <c r="K125" s="3">
+        <v>0.01105937136204897</v>
+      </c>
+      <c r="L125" s="3">
+        <v>-0.001585258687373347</v>
+      </c>
+      <c r="M125" s="3">
+        <v>0.04796380090497745</v>
+      </c>
+      <c r="N125" s="3">
+        <v>0.07738551336003005</v>
+      </c>
+      <c r="O125" s="3">
+        <v>-0.01236128022402493</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="5">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C126" s="1">
-        <v>13930973.75791143</v>
+        <v>12766062.18905429</v>
       </c>
       <c r="D126" s="2">
-        <v>1.004060882053308</v>
+        <v>0.7660032657287128</v>
       </c>
       <c r="E126" s="3">
-        <v>-0.05690472769076016</v>
+        <v>0.01104681746449247</v>
       </c>
       <c r="F126" s="3">
-        <v>-0.06108726752503583</v>
+        <v>1.169683521483478</v>
       </c>
       <c r="G126" s="3">
-        <v>-0.04440885264997096</v>
+        <v>-0.004145077720207264</v>
       </c>
       <c r="H126" s="3">
-        <v>0.0264310290897716</v>
+        <v>7.169991221559064E-05</v>
       </c>
       <c r="I126" s="3">
-        <v>-0.009657461898294863</v>
+        <v>0.03611859838274935</v>
       </c>
       <c r="J126" s="3">
-        <v>-1.89426881525588</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>0.1757244026663599</v>
+      </c>
+      <c r="K126" s="3">
+        <v>0.009453781512605021</v>
+      </c>
+      <c r="L126" s="3">
+        <v>0.006610069967025125</v>
+      </c>
+      <c r="M126" s="3">
+        <v>0.003655352480417787</v>
+      </c>
+      <c r="N126" s="3">
+        <v>0.02125466977253686</v>
+      </c>
+      <c r="O126" s="3">
+        <v>0.009272106728962667</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="5">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C127" s="1">
-        <v>14708908.26982143</v>
+        <v>8667287.17961143</v>
       </c>
       <c r="D127" s="2">
-        <v>0.9661025136267933</v>
+        <v>0.8882265945799948</v>
       </c>
       <c r="E127" s="3">
-        <v>-0.04600104547830644</v>
+        <v>0.03059440559440562</v>
       </c>
       <c r="F127" s="3">
-        <v>-0.03947368421052636</v>
+        <v>2.549176080327841</v>
       </c>
       <c r="G127" s="3">
-        <v>-0.04947916666666664</v>
+        <v>-0.005063291139240417</v>
       </c>
       <c r="H127" s="3">
-        <v>0.02012297372833981</v>
+        <v>-0.08754829247945269</v>
       </c>
       <c r="I127" s="3">
-        <v>-0.03592181722134179</v>
+        <v>0.04846598488216994</v>
       </c>
       <c r="J127" s="3">
-        <v>-1.403037490950467</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>0.003460395351532877</v>
+      </c>
+      <c r="K127" s="3">
+        <v>0.03557312252964425</v>
+      </c>
+      <c r="L127" s="3">
+        <v>0.05908082568455455</v>
+      </c>
+      <c r="M127" s="3">
+        <v>0.05127061970575127</v>
+      </c>
+      <c r="N127" s="3">
+        <v>0.1022674909189851</v>
+      </c>
+      <c r="O127" s="3">
+        <v>0.01227721017294941</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="5">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C128" s="1">
-        <v>7446705.221571429</v>
+        <v>9784611.669469999</v>
       </c>
       <c r="D128" s="2">
-        <v>1.013996103394303</v>
+        <v>0.8674641989915913</v>
       </c>
       <c r="E128" s="3">
-        <v>-0.04269081500646827</v>
+        <v>0.003782505910165462</v>
       </c>
       <c r="F128" s="3">
-        <v>-0.03141361256544496</v>
+        <v>0.2926184602460759</v>
       </c>
       <c r="G128" s="3">
-        <v>-0.0241758241758242</v>
+        <v>-0.01939953810623561</v>
       </c>
       <c r="H128" s="3">
-        <v>0.02022058823529419</v>
+        <v>-0.878563325033432</v>
       </c>
       <c r="I128" s="3">
-        <v>-0.01245551601423486</v>
+        <v>0.01288167938931288</v>
       </c>
       <c r="J128" s="3">
-        <v>-1.067152779869239</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+        <v>-0.0507644141405383</v>
+      </c>
+      <c r="K128" s="3">
+        <v>0.007593735168485953</v>
+      </c>
+      <c r="L128" s="3">
+        <v>-0.0007543778527392058</v>
+      </c>
+      <c r="M128" s="3">
+        <v>-0.02120792992162296</v>
+      </c>
+      <c r="N128" s="3">
+        <v>-0.06298696912419199</v>
+      </c>
+      <c r="O128" s="3">
+        <v>-0.002879708991030714</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="5">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C129" s="1">
-        <v>9844552.718047142</v>
+        <v>8813770.145725714</v>
       </c>
       <c r="D129" s="2">
-        <v>1.024784610456024</v>
+        <v>0.9318112917770537</v>
       </c>
       <c r="E129" s="3">
-        <v>-0.05338242061665899</v>
+        <v>0.03687396807925158</v>
       </c>
       <c r="F129" s="3">
-        <v>-0.04370060437006053</v>
+        <v>5.020414914633474</v>
       </c>
       <c r="G129" s="3">
-        <v>-0.02604166666666669</v>
+        <v>0.004264392324093939</v>
       </c>
       <c r="H129" s="3">
-        <v>-0.05294659300184167</v>
+        <v>0.001384844684432082</v>
       </c>
       <c r="I129" s="3">
-        <v>-0.05207373271889403</v>
+        <v>0.04608550805108274</v>
       </c>
       <c r="J129" s="3">
-        <v>-1.2611654854739</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>0.006712336050395441</v>
+      </c>
+      <c r="K129" s="3">
+        <v>0.04434589800443463</v>
+      </c>
+      <c r="L129" s="3">
+        <v>0.1858876393713229</v>
+      </c>
+      <c r="M129" s="3">
+        <v>0.112817483756645</v>
+      </c>
+      <c r="N129" s="3">
+        <v>0.3838991451597612</v>
+      </c>
+      <c r="O129" s="3">
+        <v>0.02447649592549595</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="5">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C130" s="1">
-        <v>9527123.925475713</v>
+        <v>74251129.8281143</v>
       </c>
       <c r="D130" s="2">
-        <v>1.070141408537507</v>
+        <v>0.9879687564196348</v>
       </c>
       <c r="E130" s="3">
-        <v>-0.0440286186020914</v>
+        <v>0.007769472856018944</v>
       </c>
       <c r="F130" s="3">
-        <v>-0.04086140254003322</v>
+        <v>0.003400965173056491</v>
       </c>
       <c r="G130" s="3">
-        <v>-0.03820598006644527</v>
+        <v>-0.01989478718316597</v>
       </c>
       <c r="H130" s="3">
-        <v>0.03763440860215054</v>
+        <v>-0.9127570102504248</v>
       </c>
       <c r="I130" s="3">
-        <v>0.04074295985620132</v>
+        <v>-0.002433800623052994</v>
       </c>
       <c r="J130" s="3">
-        <v>-1.101494425881379</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+        <v>-0.2065182806538955</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0.02552041633306635</v>
+      </c>
+      <c r="L130" s="3">
+        <v>0.09897293861007821</v>
+      </c>
+      <c r="M130" s="3">
+        <v>0.0346324717285945</v>
+      </c>
+      <c r="N130" s="3">
+        <v>0.3265812473316916</v>
+      </c>
+      <c r="O130" s="3">
+        <v>0.01218878974742117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="5">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C131" s="1">
-        <v>93269038.42575</v>
+        <v>739467308.2104</v>
       </c>
       <c r="D131" s="2">
-        <v>1.258196398073122</v>
+        <v>1.013988039501514</v>
       </c>
       <c r="E131" s="3">
-        <v>-0.0479236370793151</v>
+        <v>-0.00940910801656003</v>
       </c>
       <c r="F131" s="3">
-        <v>-0.05388226090357912</v>
+        <v>-0.09636051536428726</v>
       </c>
       <c r="G131" s="3">
-        <v>-0.03124061279663556</v>
+        <v>-0.03499766682221186</v>
       </c>
       <c r="H131" s="3">
-        <v>0.07955813434501238</v>
+        <v>-1.915374274399355</v>
       </c>
       <c r="I131" s="3">
-        <v>-0.06331687481847226</v>
+        <v>-0.02152827064111665</v>
       </c>
       <c r="J131" s="3">
-        <v>-0.8521684880265163</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>-1.211477124287901</v>
+      </c>
+      <c r="K131" s="3">
+        <v>-0.03730797366495985</v>
+      </c>
+      <c r="L131" s="3">
+        <v>-0.7768620726689692</v>
+      </c>
+      <c r="M131" s="3">
+        <v>0.05861274635270018</v>
+      </c>
+      <c r="N131" s="3">
+        <v>0.5419013291343133</v>
+      </c>
+      <c r="O131" s="3">
+        <v>0.875125619330315</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="5">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C132" s="1">
-        <v>815195639.8931999</v>
+        <v>18811389.38657143</v>
       </c>
       <c r="D132" s="2">
-        <v>1.078214036885417</v>
+        <v>0.8394056489893331</v>
       </c>
       <c r="E132" s="3">
-        <v>-0.05868355895687964</v>
+        <v>0.0240963855421687</v>
       </c>
       <c r="F132" s="3">
-        <v>-0.06711281070745698</v>
+        <v>3.694705105275723</v>
       </c>
       <c r="G132" s="3">
-        <v>-0.02556421010585183</v>
+        <v>0.005917159763313615</v>
       </c>
       <c r="H132" s="3">
-        <v>0.1493521790341579</v>
+        <v>0.08270779497805196</v>
       </c>
       <c r="I132" s="3">
-        <v>0.05992251710778816</v>
+        <v>0.03975535168195722</v>
       </c>
       <c r="J132" s="3">
-        <v>-1.032518317138176</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+        <v>0.3604186950341187</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0.03658536585365857</v>
+      </c>
+      <c r="L132" s="3">
+        <v>0.1531882312870475</v>
+      </c>
+      <c r="M132" s="3">
+        <v>0.03975535168195722</v>
+      </c>
+      <c r="N132" s="3">
+        <v>0.07003088098450411</v>
+      </c>
+      <c r="O132" s="3">
+        <v>0.1151842461129608</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="5">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C133" s="1">
-        <v>19034386.8234</v>
+        <v>40354560.72817715</v>
       </c>
       <c r="D133" s="2">
-        <v>1.06072062571064</v>
+        <v>0.9093400857651276</v>
       </c>
       <c r="E133" s="3">
-        <v>-0.03880597014925366</v>
+        <v>0.02725647899910632</v>
       </c>
       <c r="F133" s="3">
-        <v>-0.02719033232628401</v>
+        <v>3.837044039472742</v>
       </c>
       <c r="G133" s="3">
-        <v>-0.02424242424242426</v>
+        <v>0.05241474021515219</v>
       </c>
       <c r="H133" s="3">
-        <v>0.02222222222222224</v>
+        <v>3.536214892241981</v>
       </c>
       <c r="I133" s="3">
-        <v>-0.04261645193260647</v>
+        <v>0.1469194312796207</v>
       </c>
       <c r="J133" s="3">
-        <v>-0.7913974417314752</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+        <v>5.178285465938822</v>
+      </c>
+      <c r="K133" s="3">
+        <v>0.1063522617901827</v>
+      </c>
+      <c r="L133" s="3">
+        <v>0.6832554913403077</v>
+      </c>
+      <c r="M133" s="3">
+        <v>0.1735579377233282</v>
+      </c>
+      <c r="N133" s="3">
+        <v>0.420419271178444</v>
+      </c>
+      <c r="O133" s="3">
+        <v>0.5208959045177914</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="5">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C134" s="1">
-        <v>32683199.55004286</v>
+        <v>43271879.97876857</v>
       </c>
       <c r="D134" s="2">
-        <v>1.205995582403244</v>
+        <v>1.238187243111915</v>
       </c>
       <c r="E134" s="3">
-        <v>-0.06046845124282985</v>
+        <v>0.01191526919682258</v>
       </c>
       <c r="F134" s="3">
-        <v>-0.05277108433734935</v>
+        <v>0.7330137978377248</v>
       </c>
       <c r="G134" s="3">
-        <v>-0.05345533349385983</v>
+        <v>0.0672562252734466</v>
       </c>
       <c r="H134" s="3">
-        <v>0.04077310034418848</v>
+        <v>2.116415649512827</v>
       </c>
       <c r="I134" s="3">
-        <v>-0.02818294190358469</v>
+        <v>0.07074480504319405</v>
       </c>
       <c r="J134" s="3">
-        <v>-1.635603967856303</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+        <v>1.773934743147655</v>
+      </c>
+      <c r="K134" s="3">
+        <v>0.1265045443380005</v>
+      </c>
+      <c r="L134" s="3">
+        <v>1.476590163999472</v>
+      </c>
+      <c r="M134" s="3">
+        <v>0.3417203042715038</v>
+      </c>
+      <c r="N134" s="3">
+        <v>1.808579692761072</v>
+      </c>
+      <c r="O134" s="3">
+        <v>0.7231239356142325</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="5">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C135" s="1">
-        <v>53135779.15402</v>
+        <v>30195715.35366285</v>
       </c>
       <c r="D135" s="2">
-        <v>1.597370158368777</v>
+        <v>0.7236771738059175</v>
       </c>
       <c r="E135" s="3">
-        <v>-0.04988009592326152</v>
+        <v>0.0159860383944153</v>
       </c>
       <c r="F135" s="3">
-        <v>-0.03247863247863261</v>
+        <v>0.50963904090121</v>
       </c>
       <c r="G135" s="3">
-        <v>-0.02892156862745097</v>
+        <v>0.03022580873504624</v>
       </c>
       <c r="H135" s="3">
-        <v>0.154765374526377</v>
+        <v>0.6689543509756761</v>
       </c>
       <c r="I135" s="3">
-        <v>0.1760166221430692</v>
+        <v>0.05479054935497901</v>
       </c>
       <c r="J135" s="3">
-        <v>-1.064854012063384</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+        <v>1.611144609425678</v>
+      </c>
+      <c r="K135" s="3">
+        <v>0.05693536673928834</v>
+      </c>
+      <c r="L135" s="3">
+        <v>0.6534691769038524</v>
+      </c>
+      <c r="M135" s="3">
+        <v>0.09157728943223564</v>
+      </c>
+      <c r="N135" s="3">
+        <v>0.5698599008757139</v>
+      </c>
+      <c r="O135" s="3">
+        <v>0.2660833800180772</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="5">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C136" s="1">
-        <v>32446725.924</v>
+        <v>157574077.7975</v>
       </c>
       <c r="D136" s="2">
-        <v>0.8950196184231833</v>
+        <v>0.7995095558841734</v>
       </c>
       <c r="E136" s="3">
-        <v>-0.02899920052329391</v>
+        <v>0.01400827761859285</v>
       </c>
       <c r="F136" s="3">
-        <v>-0.02181871430663361</v>
+        <v>0.8677403927688579</v>
       </c>
       <c r="G136" s="3">
-        <v>-0.02210510906163088</v>
+        <v>0.006319115323854665</v>
       </c>
       <c r="H136" s="3">
-        <v>0.03261709692379038</v>
+        <v>-0.04256430911606195</v>
       </c>
       <c r="I136" s="3">
-        <v>0.04260964570001567</v>
+        <v>0.03041087026852158</v>
       </c>
       <c r="J136" s="3">
-        <v>-0.2223973772610814</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+        <v>0.04141685320429533</v>
+      </c>
+      <c r="K136" s="3">
+        <v>0.01111111111111112</v>
+      </c>
+      <c r="L136" s="3">
+        <v>8.874156367853004E-06</v>
+      </c>
+      <c r="M136" s="3">
+        <v>-0.01788467468393454</v>
+      </c>
+      <c r="N136" s="3">
+        <v>-0.007310328906454321</v>
+      </c>
+      <c r="O136" s="3">
+        <v>3.55062724056887E-05</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="5">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C137" s="1">
-        <v>180896870.3246286</v>
+        <v>25846827.74560572</v>
       </c>
       <c r="D137" s="2">
-        <v>0.9849575551781798</v>
+        <v>0.8314571830538889</v>
       </c>
       <c r="E137" s="3">
-        <v>-0.04093198992443329</v>
+        <v>0.006304447501146364</v>
       </c>
       <c r="F137" s="3">
-        <v>-0.03607594936708867</v>
+        <v>0.1546471942503069</v>
       </c>
       <c r="G137" s="3">
-        <v>-0.02900860694931462</v>
+        <v>-0.02107493309545037</v>
       </c>
       <c r="H137" s="3">
-        <v>0.007608336089976741</v>
+        <v>-1.065511435733527</v>
       </c>
       <c r="I137" s="3">
-        <v>-0.0690709046454768</v>
+        <v>-0.008022598870056366</v>
       </c>
       <c r="J137" s="3">
-        <v>-1.111031714131735</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+        <v>-0.7544467204982904</v>
+      </c>
+      <c r="K137" s="3">
+        <v>-0.02260075706969484</v>
+      </c>
+      <c r="L137" s="3">
+        <v>-0.0392612953537121</v>
+      </c>
+      <c r="M137" s="3">
+        <v>-0.01259700821054995</v>
+      </c>
+      <c r="N137" s="3">
+        <v>0.001365258336363066</v>
+      </c>
+      <c r="O137" s="3">
+        <v>-0.04011494978225878</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="5">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C138" s="1">
-        <v>29195108.92551428</v>
+        <v>461716054.4239843</v>
       </c>
       <c r="D138" s="2">
-        <v>0.9637964613065911</v>
+        <v>1.308251850089347</v>
       </c>
       <c r="E138" s="3">
-        <v>-0.0416528560380068</v>
+        <v>-0.01038653694451745</v>
       </c>
       <c r="F138" s="3">
-        <v>-0.02099322799097066</v>
+        <v>-1.396490158164279</v>
       </c>
       <c r="G138" s="3">
-        <v>-0.03739873487959159</v>
+        <v>-0.01129646657034025</v>
       </c>
       <c r="H138" s="3">
-        <v>0.03016627078384799</v>
+        <v>-0.002977166476422331</v>
       </c>
       <c r="I138" s="3">
-        <v>-0.008232334781614434</v>
+        <v>0.02547683923705726</v>
       </c>
       <c r="J138" s="3">
-        <v>-1.162735058678337</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+        <v>0.4289943037212433</v>
+      </c>
+      <c r="K138" s="3">
+        <v>0.1001169248757674</v>
+      </c>
+      <c r="L138" s="3">
+        <v>1.505199891875018</v>
+      </c>
+      <c r="M138" s="3">
+        <v>0.2237034628515689</v>
+      </c>
+      <c r="N138" s="3">
+        <v>2.247094479559545</v>
+      </c>
+      <c r="O138" s="3">
+        <v>0.5926347875089349</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="5">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C139" s="1">
-        <v>422918646.38144</v>
+        <v>166460557.7664643</v>
       </c>
       <c r="D139" s="2">
-        <v>1.45582985087978</v>
+        <v>1.008558850481782</v>
       </c>
       <c r="E139" s="3">
-        <v>-0.03968253968253972</v>
+        <v>-0.01015869806934198</v>
       </c>
       <c r="F139" s="3">
-        <v>-0.06201550387596905</v>
+        <v>-0.1460654094568766</v>
       </c>
       <c r="G139" s="3">
-        <v>0</v>
+        <v>-0.02503982477100757</v>
       </c>
       <c r="H139" s="3">
-        <v>0.1893979287344216</v>
+        <v>-1.748380553229971</v>
       </c>
       <c r="I139" s="3">
-        <v>0.0983952018155293</v>
+        <v>0.002149107097170424</v>
       </c>
       <c r="J139" s="3">
-        <v>-0.05960561504989262</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+        <v>-0.3045338410429704</v>
+      </c>
+      <c r="K139" s="3">
+        <v>-0.01908244014825204</v>
+      </c>
+      <c r="L139" s="3">
+        <v>-0.01206418171356512</v>
+      </c>
+      <c r="M139" s="3">
+        <v>0.006475152885554305</v>
+      </c>
+      <c r="N139" s="3">
+        <v>0.1278155388539871</v>
+      </c>
+      <c r="O139" s="3">
+        <v>0.06512901980250828</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="5">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C140" s="1">
-        <v>254895785.8703657</v>
+        <v>54339154.65531143</v>
       </c>
       <c r="D140" s="2">
-        <v>1.40325491973616</v>
+        <v>0.5916426946236375</v>
       </c>
       <c r="E140" s="3">
-        <v>-0.05443739699345752</v>
+        <v>0.002588278794601613</v>
       </c>
       <c r="F140" s="3">
-        <v>-0.05211775307900272</v>
+        <v>0.05553397313199193</v>
       </c>
       <c r="G140" s="3">
-        <v>-0.05107257417802736</v>
+        <v>-0.004588839941262853</v>
       </c>
       <c r="H140" s="3">
-        <v>0.08200937249971417</v>
+        <v>-0.2701292491460042</v>
       </c>
       <c r="I140" s="3">
-        <v>-0.05660471373760523</v>
+        <v>0.01175373134328356</v>
       </c>
       <c r="J140" s="3">
-        <v>-1.468196835747805</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+        <v>0.0303374527999939</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0.02669443392654301</v>
+      </c>
+      <c r="L140" s="3">
+        <v>0.3133210850463897</v>
+      </c>
+      <c r="M140" s="3">
+        <v>0.07428684627575284</v>
+      </c>
+      <c r="N140" s="3">
+        <v>0.5233576281826207</v>
+      </c>
+      <c r="O140" s="3">
+        <v>0.0591519100980862</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="5">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C141" s="1">
-        <v>99484174.46113999</v>
+        <v>595353248.2470257</v>
       </c>
       <c r="D141" s="2">
-        <v>0.8446712538906529</v>
+        <v>1.395071709388489</v>
       </c>
       <c r="E141" s="3">
-        <v>-0.009114583333333414</v>
+        <v>-0.008919338159255399</v>
       </c>
       <c r="F141" s="3">
-        <v>0.009092631180147779</v>
+        <v>-0.4867145159706709</v>
       </c>
       <c r="G141" s="3">
-        <v>0.003201506591337035</v>
+        <v>-0.01956521739130436</v>
       </c>
       <c r="H141" s="3">
-        <v>0.041446725317693</v>
+        <v>-0.7289310733153603</v>
       </c>
       <c r="I141" s="3">
-        <v>0.08892068683565003</v>
+        <v>-0.0005214444009906407</v>
       </c>
       <c r="J141" s="3">
-        <v>-0.06391868368412137</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+        <v>-0.3373689418504254</v>
+      </c>
+      <c r="K141" s="3">
+        <v>0.02871326982423186</v>
+      </c>
+      <c r="L141" s="3">
+        <v>0.03468063861152675</v>
+      </c>
+      <c r="M141" s="3">
+        <v>0.2294740218088519</v>
+      </c>
+      <c r="N141" s="3">
+        <v>1.260180626890833</v>
+      </c>
+      <c r="O141" s="3">
+        <v>0.1419767968685699</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="5">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C142" s="1">
-        <v>903237983.8469744</v>
+        <v>73010615.45</v>
       </c>
       <c r="D142" s="2">
-        <v>1.990772324085988</v>
+        <v>0.8535171067987432</v>
       </c>
       <c r="E142" s="3">
-        <v>-0.05585349901896659</v>
+        <v>0.0107526881720429</v>
       </c>
       <c r="F142" s="3">
-        <v>-0.04888654631703773</v>
+        <v>0.730066423789136</v>
       </c>
       <c r="G142" s="3">
-        <v>-0.03463956132138544</v>
+        <v>-0.004237288135593225</v>
       </c>
       <c r="H142" s="3">
-        <v>0.1746135069161921</v>
+        <v>-0.2546937648769744</v>
       </c>
       <c r="I142" s="3">
-        <v>0.2716701902748416</v>
+        <v>0.02173913043478251</v>
       </c>
       <c r="J142" s="3">
-        <v>-1.431294459234669</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
+        <v>-0.001236587908537808</v>
+      </c>
+      <c r="K142" s="3">
+        <v>0.004273504273504159</v>
+      </c>
+      <c r="L142" s="3">
+        <v>0.004002632901940089</v>
+      </c>
+      <c r="M142" s="3">
+        <v>0.05263157894736834</v>
+      </c>
+      <c r="N142" s="3">
+        <v>0.3061592713782776</v>
+      </c>
+      <c r="O142" s="3">
+        <v>-0.007428433341443053</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="5">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C143" s="1">
-        <v>91705818.477</v>
+        <v>487359919.2500143</v>
       </c>
       <c r="D143" s="2">
-        <v>1.076195444065342</v>
+        <v>1.012735342714733</v>
       </c>
       <c r="E143" s="3">
-        <v>-0.05974842767295591</v>
+        <v>-0.01538849646821391</v>
       </c>
       <c r="F143" s="3">
-        <v>-0.03236245954692559</v>
+        <v>-0.5751503436879948</v>
       </c>
       <c r="G143" s="3">
-        <v>-0.0416666666666667</v>
+        <v>-0.04595453434368135</v>
       </c>
       <c r="H143" s="3">
-        <v>0.05653710247349829</v>
+        <v>-2.663723373181029</v>
       </c>
       <c r="I143" s="3">
-        <v>0</v>
+        <v>-0.02982848620432516</v>
       </c>
       <c r="J143" s="3">
-        <v>-1.345436243943978</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
+        <v>-1.042657883049888</v>
+      </c>
+      <c r="K143" s="3">
+        <v>-0.0445532435740514</v>
+      </c>
+      <c r="L143" s="3">
+        <v>-0.01928886008086463</v>
+      </c>
+      <c r="M143" s="3">
+        <v>0.01932619482893696</v>
+      </c>
+      <c r="N143" s="3">
+        <v>0.2705263825852093</v>
+      </c>
+      <c r="O143" s="3">
+        <v>-1.429635818602658</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="5">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C144" s="1">
-        <v>651339865.5267771</v>
+        <v>66999824.22031714</v>
       </c>
       <c r="D144" s="2">
-        <v>1.272690915513722</v>
+        <v>0.832346945779051</v>
       </c>
       <c r="E144" s="3">
-        <v>-0.05116629044394275</v>
+        <v>0.001267656646142707</v>
       </c>
       <c r="F144" s="3">
-        <v>-0.05895522388059701</v>
+        <v>0.01440607041048652</v>
       </c>
       <c r="G144" s="3">
-        <v>-0.06059101067792395</v>
+        <v>-0.02417931521355449</v>
       </c>
       <c r="H144" s="3">
-        <v>0.06323777403035419</v>
+        <v>-1.461023664470592</v>
       </c>
       <c r="I144" s="3">
-        <v>0.1042031523642732</v>
+        <v>-0.00566495818721334</v>
       </c>
       <c r="J144" s="3">
-        <v>-1.528668498140736</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+        <v>-0.70478461335051</v>
+      </c>
+      <c r="K144" s="3">
+        <v>-0.02340369160116582</v>
+      </c>
+      <c r="L144" s="3">
+        <v>-0.05932496159452321</v>
+      </c>
+      <c r="M144" s="3">
+        <v>0.06224783861671474</v>
+      </c>
+      <c r="N144" s="3">
+        <v>0.1591547217787338</v>
+      </c>
+      <c r="O144" s="3">
+        <v>0.05951954688079224</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="5">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C145" s="1">
-        <v>99390568.6608</v>
+        <v>6261080798.849365</v>
       </c>
       <c r="D145" s="2">
-        <v>1.124715130177887</v>
+        <v>0.794789069165568</v>
       </c>
       <c r="E145" s="3">
-        <v>-0.03396895787139688</v>
+        <v>0.007566045600761237</v>
       </c>
       <c r="F145" s="3">
-        <v>-0.02793395805443994</v>
+        <v>0.2340982163873765</v>
       </c>
       <c r="G145" s="3">
-        <v>-0.04380651391449385</v>
+        <v>-0.0104891593996927</v>
       </c>
       <c r="H145" s="3">
-        <v>0.05645004849660532</v>
+        <v>-0.1688986781780547</v>
       </c>
       <c r="I145" s="3">
-        <v>0.07246947617172114</v>
+        <v>0.04827795006914385</v>
       </c>
       <c r="J145" s="3">
-        <v>-1.009815124588967</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+        <v>0.1784670345733402</v>
+      </c>
+      <c r="K145" s="3">
+        <v>0.06852777059544748</v>
+      </c>
+      <c r="L145" s="3">
+        <v>0.8151833524056162</v>
+      </c>
+      <c r="M145" s="3">
+        <v>0.05905840532385386</v>
+      </c>
+      <c r="N145" s="3">
+        <v>0.3855359225901785</v>
+      </c>
+      <c r="O145" s="3">
+        <v>0.1426833966135753</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="5">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C146" s="1">
-        <v>6325231960.74678</v>
+        <v>6503794287.979072</v>
       </c>
       <c r="D146" s="2">
-        <v>0.9933064692640936</v>
+        <v>0.4990851886487558</v>
       </c>
       <c r="E146" s="3">
-        <v>-0.04271098270653801</v>
+        <v>0.001425141627145234</v>
       </c>
       <c r="F146" s="3">
-        <v>-0.04059460663405462</v>
+        <v>-8.826543105480551E-06</v>
       </c>
       <c r="G146" s="3">
-        <v>-0.02336166067649721</v>
+        <v>-0.009139366563492894</v>
       </c>
       <c r="H146" s="3">
-        <v>0.05255441422688804</v>
+        <v>-0.649893287044779</v>
       </c>
       <c r="I146" s="3">
-        <v>-0.06245868601370417</v>
+        <v>0.02717964892700752</v>
       </c>
       <c r="J146" s="3">
-        <v>-1.003647096053303</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147" s="5">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>154</v>
-      </c>
-      <c r="C147" s="1">
-        <v>6698170437.921686</v>
-      </c>
-      <c r="D147" s="2">
-        <v>0.6328523875953113</v>
-      </c>
-      <c r="E147" s="3">
-        <v>-0.0232575028595291</v>
-      </c>
-      <c r="F147" s="3">
-        <v>-0.02251804835505603</v>
-      </c>
-      <c r="G147" s="3">
-        <v>-0.02200272685956675</v>
-      </c>
-      <c r="H147" s="3">
-        <v>0.008397375820056209</v>
-      </c>
-      <c r="I147" s="3">
-        <v>-0.02620416684264836</v>
-      </c>
-      <c r="J147" s="3">
-        <v>-0.6760607454568818</v>
+        <v>0.07626707898415842</v>
+      </c>
+      <c r="K146" s="3">
+        <v>0.02517116757169056</v>
+      </c>
+      <c r="L146" s="3">
+        <v>0.3325188928523732</v>
+      </c>
+      <c r="M146" s="3">
+        <v>0.01824271103281171</v>
+      </c>
+      <c r="N146" s="3">
+        <v>0.0670796209695468</v>
+      </c>
+      <c r="O146" s="3">
+        <v>-3.532829202893482E-05</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -923,43 +923,43 @@
         <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>16711041.47</v>
+        <v>17066211.79342857</v>
       </c>
       <c r="D2" s="2">
-        <v>1.2657104577864</v>
+        <v>1.261044009681009</v>
       </c>
       <c r="E2" s="3">
-        <v>0.0679748302699123</v>
+        <v>0.08904223478550057</v>
       </c>
       <c r="F2" s="3">
-        <v>5.358419355147232</v>
+        <v>6.574885011242137</v>
       </c>
       <c r="G2" s="3">
-        <v>0.05694854146181582</v>
+        <v>0.06965539768087552</v>
       </c>
       <c r="H2" s="3">
-        <v>0.6856139193256695</v>
+        <v>0.9911932865820239</v>
       </c>
       <c r="I2" s="3">
-        <v>0.1382809742322628</v>
+        <v>0.1555222300635146</v>
       </c>
       <c r="J2" s="3">
-        <v>2.378944647605026</v>
+        <v>2.409528718749247</v>
       </c>
       <c r="K2" s="3">
-        <v>0.08981074687394398</v>
+        <v>0.09964741437206182</v>
       </c>
       <c r="L2" s="3">
-        <v>0.03690461665106048</v>
+        <v>0.04906027339012253</v>
       </c>
       <c r="M2" s="3">
-        <v>0.1000341122292342</v>
+        <v>0.1143343258188006</v>
       </c>
       <c r="N2" s="3">
-        <v>0.360149360618271</v>
+        <v>0.381954154524153</v>
       </c>
       <c r="O2" s="3">
-        <v>0.1060995365032625</v>
+        <v>1.261931522284024</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -970,43 +970,43 @@
         <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>160929680.9645428</v>
+        <v>166777612.0659314</v>
       </c>
       <c r="D3" s="2">
-        <v>1.537862135703343</v>
+        <v>1.527490849098854</v>
       </c>
       <c r="E3" s="3">
-        <v>0.0606782450517562</v>
+        <v>0.07558929457180449</v>
       </c>
       <c r="F3" s="3">
-        <v>2.394712469606746</v>
+        <v>3.765388448345349</v>
       </c>
       <c r="G3" s="3">
-        <v>0.03294107722805689</v>
+        <v>0.0421028437702418</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.01251143944492062</v>
+        <v>3.185275235807359E-05</v>
       </c>
       <c r="I3" s="3">
-        <v>0.03692099246337528</v>
+        <v>0.05772819816762804</v>
       </c>
       <c r="J3" s="3">
-        <v>-0.06681813721398895</v>
+        <v>-0.01448023452092682</v>
       </c>
       <c r="K3" s="3">
-        <v>0.1063675995572721</v>
+        <v>0.1312888445311437</v>
       </c>
       <c r="L3" s="3">
-        <v>-3.916453757822385E-05</v>
+        <v>-2.014514254085169E-05</v>
       </c>
       <c r="M3" s="3">
-        <v>0.0561497326203208</v>
+        <v>0.08125569093353001</v>
       </c>
       <c r="N3" s="3">
-        <v>0.2766611376383065</v>
+        <v>0.2936227708660738</v>
       </c>
       <c r="O3" s="3">
-        <v>-0.0001566781612516309</v>
+        <v>0.04061777289549458</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1017,43 +1017,43 @@
         <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>20918254.60371429</v>
+        <v>20895546.304</v>
       </c>
       <c r="D4" s="2">
-        <v>1.187024813327387</v>
+        <v>1.185564183853889</v>
       </c>
       <c r="E4" s="3">
-        <v>0.04340404779322115</v>
+        <v>0.04471048130955285</v>
       </c>
       <c r="F4" s="3">
-        <v>4.469873889978259</v>
+        <v>5.097943621767169</v>
       </c>
       <c r="G4" s="3">
-        <v>0.03834020868721171</v>
+        <v>0.03786407766990284</v>
       </c>
       <c r="H4" s="3">
-        <v>0.8941637589347495</v>
+        <v>1.127751188581044</v>
       </c>
       <c r="I4" s="3">
-        <v>0.09130323896965063</v>
+        <v>0.0888719124013241</v>
       </c>
       <c r="J4" s="3">
-        <v>1.335960820716233</v>
+        <v>1.335379662379324</v>
       </c>
       <c r="K4" s="3">
-        <v>0.1085492227979275</v>
+        <v>0.09922879177377883</v>
       </c>
       <c r="L4" s="3">
-        <v>0.6052601108360465</v>
+        <v>0.6205398162161986</v>
       </c>
       <c r="M4" s="3">
-        <v>0.1201570680628272</v>
+        <v>0.1226043580992385</v>
       </c>
       <c r="N4" s="3">
-        <v>0.4947801411303168</v>
+        <v>0.5068343906903771</v>
       </c>
       <c r="O4" s="3">
-        <v>0.3654013444412022</v>
+        <v>0.9779597392977615</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1064,43 +1064,43 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>7714104.294285715</v>
+        <v>7853017.221857143</v>
       </c>
       <c r="D5" s="2">
-        <v>1.328034060329933</v>
+        <v>1.309792954878432</v>
       </c>
       <c r="E5" s="3">
-        <v>-0.01992528019925271</v>
+        <v>-0.005484916479680938</v>
       </c>
       <c r="F5" s="3">
-        <v>-1.437602269752043</v>
+        <v>-0.4076030333623574</v>
       </c>
       <c r="G5" s="3">
-        <v>-0.03860249205961395</v>
+        <v>-0.04569377990430618</v>
       </c>
       <c r="H5" s="3">
-        <v>-3.438942798753497</v>
+        <v>-3.24422109035807</v>
       </c>
       <c r="I5" s="3">
-        <v>-0.01279478173607631</v>
+        <v>0.001757910597689521</v>
       </c>
       <c r="J5" s="3">
-        <v>-0.3339102694205247</v>
+        <v>-0.3807542539954039</v>
       </c>
       <c r="K5" s="3">
-        <v>-0.08700696055684445</v>
+        <v>-0.07081295131609604</v>
       </c>
       <c r="L5" s="3">
-        <v>-1.084259858440335</v>
+        <v>-1.066971170131954</v>
       </c>
       <c r="M5" s="3">
-        <v>0.04404351286813477</v>
+        <v>0.05529100529100531</v>
       </c>
       <c r="N5" s="3">
-        <v>0.1085274587342215</v>
+        <v>0.1040867357061924</v>
       </c>
       <c r="O5" s="3">
-        <v>0.221090827840322</v>
+        <v>-0.3941786436788807</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1111,43 +1111,43 @@
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>8694674.918099999</v>
+        <v>8831018.791157143</v>
       </c>
       <c r="D6" s="2">
-        <v>1.120734798287377</v>
+        <v>1.115083075641694</v>
       </c>
       <c r="E6" s="3">
-        <v>-0.0008135960947388563</v>
+        <v>0.02136010953902336</v>
       </c>
       <c r="F6" s="3">
-        <v>0.1485430630187193</v>
+        <v>0.5510143129322346</v>
       </c>
       <c r="G6" s="3">
-        <v>-0.03281414070703543</v>
+        <v>-0.01971263360784998</v>
       </c>
       <c r="H6" s="3">
-        <v>-1.567276759746749</v>
+        <v>-1.191777188361735</v>
       </c>
       <c r="I6" s="3">
-        <v>-0.005935785592229662</v>
+        <v>0.0201495258935084</v>
       </c>
       <c r="J6" s="3">
-        <v>-0.4374469896737188</v>
+        <v>-0.4437548910061468</v>
       </c>
       <c r="K6" s="3">
-        <v>-0.006918238993710728</v>
+        <v>0.008926961226330046</v>
       </c>
       <c r="L6" s="3">
-        <v>0.0420652373806325</v>
+        <v>0.04804719375719061</v>
       </c>
       <c r="M6" s="3">
-        <v>-0.10436755530346</v>
+        <v>-0.08504374846675941</v>
       </c>
       <c r="N6" s="3">
-        <v>-0.1156630082553108</v>
+        <v>-0.1074321562450253</v>
       </c>
       <c r="O6" s="3">
-        <v>0.2146252049075187</v>
+        <v>-0.0184982773547844</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1158,43 +1158,43 @@
         <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>26586378.94205714</v>
+        <v>26760104.62357143</v>
       </c>
       <c r="D7" s="2">
-        <v>1.284821517905989</v>
+        <v>1.282399892447196</v>
       </c>
       <c r="E7" s="3">
-        <v>0.02992750480203235</v>
+        <v>0.03507032653819953</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1811874903798322</v>
+        <v>0.07025589337432687</v>
       </c>
       <c r="G7" s="3">
-        <v>0.02528990870959778</v>
+        <v>0.02787349249323167</v>
       </c>
       <c r="H7" s="3">
-        <v>1.782495690740292</v>
+        <v>1.953475922023062</v>
       </c>
       <c r="I7" s="3">
-        <v>0.04586925061347761</v>
+        <v>0.05102554423052735</v>
       </c>
       <c r="J7" s="3">
-        <v>1.305631366650531</v>
+        <v>1.345844528650707</v>
       </c>
       <c r="K7" s="3">
-        <v>0.07100515463917516</v>
+        <v>0.07969234746639102</v>
       </c>
       <c r="L7" s="3">
-        <v>0.3923333803152498</v>
+        <v>0.4031762525905129</v>
       </c>
       <c r="M7" s="3">
-        <v>-0.006633598278850242</v>
+        <v>-0.005240278687548335</v>
       </c>
       <c r="N7" s="3">
-        <v>0.004139903589739298</v>
+        <v>0.005615977465807894</v>
       </c>
       <c r="O7" s="3">
-        <v>-0.02818611685659783</v>
+        <v>0.2367160729824199</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1205,43 +1205,43 @@
         <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>74625639.09042858</v>
+        <v>75458103.3702857</v>
       </c>
       <c r="D8" s="2">
-        <v>1.239754201136088</v>
+        <v>1.242290045560669</v>
       </c>
       <c r="E8" s="3">
-        <v>0.09393939393939385</v>
+        <v>0.09775349119611398</v>
       </c>
       <c r="F8" s="3">
-        <v>2.470545450261619</v>
+        <v>1.268973527619087</v>
       </c>
       <c r="G8" s="3">
-        <v>0.09926918392204616</v>
+        <v>0.09775349119611398</v>
       </c>
       <c r="H8" s="3">
-        <v>6.660339981959726</v>
+        <v>6.830480605014772</v>
       </c>
       <c r="I8" s="3">
-        <v>0.130952380952381</v>
+        <v>0.1321227301189729</v>
       </c>
       <c r="J8" s="3">
-        <v>4.102636530433903</v>
+        <v>4.204712700910064</v>
       </c>
       <c r="K8" s="3">
-        <v>0.1388012618296529</v>
+        <v>0.1399747793190416</v>
       </c>
       <c r="L8" s="3">
-        <v>0.6383538726985496</v>
+        <v>0.671606055377867</v>
       </c>
       <c r="M8" s="3">
-        <v>0.03379152348224507</v>
+        <v>0.03550973654066428</v>
       </c>
       <c r="N8" s="3">
-        <v>0.0003728857389340252</v>
+        <v>0.0008322648438472493</v>
       </c>
       <c r="O8" s="3">
-        <v>0.1257534827257805</v>
+        <v>0.9702897914984772</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1252,43 +1252,43 @@
         <v>21</v>
       </c>
       <c r="C9" s="1">
-        <v>6227325.553103443</v>
+        <v>6295310.527316457</v>
       </c>
       <c r="D9" s="2">
-        <v>1.139365085137975</v>
+        <v>1.132890215036395</v>
       </c>
       <c r="E9" s="3">
-        <v>0.009794476557482489</v>
+        <v>0.01247201790853849</v>
       </c>
       <c r="F9" s="3">
-        <v>0.01472648793227991</v>
+        <v>0.002541359160415761</v>
       </c>
       <c r="G9" s="3">
-        <v>-0.00253766851704985</v>
+        <v>0.003009662600982088</v>
       </c>
       <c r="H9" s="3">
-        <v>0.02768900544813998</v>
+        <v>0.04671673922457516</v>
       </c>
       <c r="I9" s="3">
-        <v>0.01895657809462089</v>
+        <v>0.03093454900683821</v>
       </c>
       <c r="J9" s="3">
-        <v>0.2405653308962032</v>
+        <v>0.228410950295312</v>
       </c>
       <c r="K9" s="3">
-        <v>0.004151365160466331</v>
+        <v>0.01328212514002247</v>
       </c>
       <c r="L9" s="3">
-        <v>0.007291784621079446</v>
+        <v>0.009144631702238525</v>
       </c>
       <c r="M9" s="3">
-        <v>-0.04509565745520788</v>
+        <v>-0.03505028954587019</v>
       </c>
       <c r="N9" s="3">
-        <v>-0.01144454324478152</v>
+        <v>-0.009884584331681438</v>
       </c>
       <c r="O9" s="3">
-        <v>0.02138725401402072</v>
+        <v>0.005842995431327143</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1299,43 +1299,43 @@
         <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>22666964.9418</v>
+        <v>22838161.04034286</v>
       </c>
       <c r="D10" s="2">
-        <v>1.153632423441187</v>
+        <v>1.15676804037985</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03565923337786468</v>
+        <v>0.03544180986961062</v>
       </c>
       <c r="F10" s="3">
-        <v>2.325823267150569</v>
+        <v>3.174108628307832</v>
       </c>
       <c r="G10" s="3">
-        <v>0.03634387119520509</v>
+        <v>0.0252387051700047</v>
       </c>
       <c r="H10" s="3">
-        <v>0.06599001805828462</v>
+        <v>0.1209710697523655</v>
       </c>
       <c r="I10" s="3">
-        <v>0.0276632627791455</v>
+        <v>0.0282019093218113</v>
       </c>
       <c r="J10" s="3">
-        <v>-4.585022212806926E-07</v>
+        <v>0.0005514672946781017</v>
       </c>
       <c r="K10" s="3">
-        <v>0.02377082486793985</v>
+        <v>0.02441862156226816</v>
       </c>
       <c r="L10" s="3">
-        <v>-0.1944822244732256</v>
+        <v>-0.1816239247037298</v>
       </c>
       <c r="M10" s="3">
-        <v>-0.2669631538477524</v>
+        <v>-0.2668512427661435</v>
       </c>
       <c r="N10" s="3">
-        <v>-1.131502658498305</v>
+        <v>-1.098989194287625</v>
       </c>
       <c r="O10" s="3">
-        <v>-1.834001773062514E-06</v>
+        <v>-0.09053622870452585</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1346,43 +1346,43 @@
         <v>23</v>
       </c>
       <c r="C11" s="1">
-        <v>11125958.62034286</v>
+        <v>11113235.94717143</v>
       </c>
       <c r="D11" s="2">
-        <v>1.121437795825202</v>
+        <v>1.119418973415597</v>
       </c>
       <c r="E11" s="3">
-        <v>0.01060570351166628</v>
+        <v>0.01441058351051262</v>
       </c>
       <c r="F11" s="3">
-        <v>0.9825933434410113</v>
+        <v>1.009660295957527</v>
       </c>
       <c r="G11" s="3">
-        <v>0.003275620028076772</v>
+        <v>-0.0006981615080289096</v>
       </c>
       <c r="H11" s="3">
-        <v>-0.006287606836944381</v>
+        <v>-0.002438088170152434</v>
       </c>
       <c r="I11" s="3">
-        <v>0.002571896188917442</v>
+        <v>0.00679953106682301</v>
       </c>
       <c r="J11" s="3">
-        <v>-0.07279594599426312</v>
+        <v>-0.06760306168291234</v>
       </c>
       <c r="K11" s="3">
-        <v>-0.01561065197428828</v>
+        <v>-0.009914687572054348</v>
       </c>
       <c r="L11" s="3">
-        <v>-0.1126386327849448</v>
+        <v>-0.1080917147863674</v>
       </c>
       <c r="M11" s="3">
-        <v>0.03524867213906326</v>
+        <v>0.03270803270803271</v>
       </c>
       <c r="N11" s="3">
-        <v>0.08612174904115824</v>
+        <v>0.08503164137224574</v>
       </c>
       <c r="O11" s="3">
-        <v>0.5906150688074775</v>
+        <v>-0.01744751448743982</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1393,43 +1393,43 @@
         <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>27536991.9187</v>
+        <v>27906397.82742857</v>
       </c>
       <c r="D12" s="2">
-        <v>1.689169104806649</v>
+        <v>1.671776065058093</v>
       </c>
       <c r="E12" s="3">
-        <v>-0.01443174984966929</v>
+        <v>-0.01775147928994085</v>
       </c>
       <c r="F12" s="3">
-        <v>-1.312667801923917</v>
+        <v>-1.211825364485771</v>
       </c>
       <c r="G12" s="3">
-        <v>-0.05478662053056516</v>
+        <v>-0.06108597285067879</v>
       </c>
       <c r="H12" s="3">
-        <v>-3.416539065179488</v>
+        <v>-3.250512618450119</v>
       </c>
       <c r="I12" s="3">
-        <v>0.01991288114499068</v>
+        <v>0.03879849812265321</v>
       </c>
       <c r="J12" s="3">
-        <v>-0.1539824373044731</v>
+        <v>-0.263128698141921</v>
       </c>
       <c r="K12" s="3">
-        <v>0.02182044887780544</v>
+        <v>0.03426791277258563</v>
       </c>
       <c r="L12" s="3">
-        <v>0.4203753794944483</v>
+        <v>0.4253028373620601</v>
       </c>
       <c r="M12" s="3">
-        <v>-0.05587557603686635</v>
+        <v>-0.04597701149425291</v>
       </c>
       <c r="N12" s="3">
-        <v>6.674332798321775E-05</v>
+        <v>0.0001404427102935182</v>
       </c>
       <c r="O12" s="3">
-        <v>-0.1756378420425048</v>
+        <v>-0.154552854818087</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1440,43 +1440,43 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>123783823.3836414</v>
+        <v>124000197.58656</v>
       </c>
       <c r="D13" s="2">
-        <v>1.36177184415177</v>
+        <v>1.368462489701554</v>
       </c>
       <c r="E13" s="3">
-        <v>0.04294073235183075</v>
+        <v>0.03149827086643597</v>
       </c>
       <c r="F13" s="3">
-        <v>3.061908356519103</v>
+        <v>3.695265370095786</v>
       </c>
       <c r="G13" s="3">
-        <v>0.1154739073382456</v>
+        <v>0.1009577015163607</v>
       </c>
       <c r="H13" s="3">
-        <v>1.918212423723221</v>
+        <v>1.789624304233927</v>
       </c>
       <c r="I13" s="3">
-        <v>0.2343348598235228</v>
+        <v>0.2290900991201691</v>
       </c>
       <c r="J13" s="3">
-        <v>6.754596665047226</v>
+        <v>6.561783919963293</v>
       </c>
       <c r="K13" s="3">
-        <v>0.2084199015855659</v>
+        <v>0.2050666084297881</v>
       </c>
       <c r="L13" s="3">
-        <v>1.992577159596757</v>
+        <v>2.074661698253065</v>
       </c>
       <c r="M13" s="3">
-        <v>0.225981806079432</v>
+        <v>0.2235033259423502</v>
       </c>
       <c r="N13" s="3">
-        <v>0.5427304858825397</v>
+        <v>0.5631579120109371</v>
       </c>
       <c r="O13" s="3">
-        <v>0.7405160267504787</v>
+        <v>2.884963534174426</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1487,43 +1487,43 @@
         <v>26</v>
       </c>
       <c r="C14" s="1">
-        <v>23838305.27742857</v>
+        <v>24051084.61</v>
       </c>
       <c r="D14" s="2">
-        <v>1.638019055429099</v>
+        <v>1.628022225926826</v>
       </c>
       <c r="E14" s="3">
-        <v>-0.01963993453355163</v>
+        <v>-0.00839222614840995</v>
       </c>
       <c r="F14" s="3">
-        <v>-2.298283960133972</v>
+        <v>-1.015258322468591</v>
       </c>
       <c r="G14" s="3">
-        <v>-0.01086059066370284</v>
+        <v>-0.005945980137896182</v>
       </c>
       <c r="H14" s="3">
-        <v>-0.5386752058587733</v>
+        <v>-0.5659701449099721</v>
       </c>
       <c r="I14" s="3">
-        <v>0.02299001576458218</v>
+        <v>0.03660949868073871</v>
       </c>
       <c r="J14" s="3">
-        <v>0.0138988583615597</v>
+        <v>0.007927266406227863</v>
       </c>
       <c r="K14" s="3">
-        <v>0.07163008325879024</v>
+        <v>0.08252393745264167</v>
       </c>
       <c r="L14" s="3">
-        <v>0.7545735245782018</v>
+        <v>0.7416550070464275</v>
       </c>
       <c r="M14" s="3">
-        <v>0.11123795932929</v>
+        <v>0.121218607305936</v>
       </c>
       <c r="N14" s="3">
-        <v>1.007257600939692</v>
+        <v>1.015280261108703</v>
       </c>
       <c r="O14" s="3">
-        <v>0.04888288134873155</v>
+        <v>0.06457293685608195</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1534,43 +1534,43 @@
         <v>27</v>
       </c>
       <c r="C15" s="1">
-        <v>6278685.613154287</v>
+        <v>6321207.669828572</v>
       </c>
       <c r="D15" s="2">
-        <v>1.186212916236129</v>
+        <v>1.184115481501197</v>
       </c>
       <c r="E15" s="3">
-        <v>0.01169590643274847</v>
+        <v>0.01459854014598541</v>
       </c>
       <c r="F15" s="3">
-        <v>0.8594298642806363</v>
+        <v>1.106077366606973</v>
       </c>
       <c r="G15" s="3">
-        <v>-0.01704545454545464</v>
+        <v>-0.007142857142857149</v>
       </c>
       <c r="H15" s="3">
-        <v>-0.2007304353539057</v>
+        <v>-0.0952201377514427</v>
       </c>
       <c r="I15" s="3">
-        <v>0.0390390390390389</v>
+        <v>0.04747550866616428</v>
       </c>
       <c r="J15" s="3">
-        <v>0.05360595030002038</v>
+        <v>0.0413568761336372</v>
       </c>
       <c r="K15" s="3">
-        <v>0.03670411985018717</v>
+        <v>0.04119850187265921</v>
       </c>
       <c r="L15" s="3">
-        <v>0.07410709496503512</v>
+        <v>0.07660256028668493</v>
       </c>
       <c r="M15" s="3">
-        <v>0.04769114307342922</v>
+        <v>0.05143721633888048</v>
       </c>
       <c r="N15" s="3">
-        <v>0.2983782884016232</v>
+        <v>0.3049643201354583</v>
       </c>
       <c r="O15" s="3">
-        <v>0.07369136183407023</v>
+        <v>0.0640198883127827</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1581,43 +1581,43 @@
         <v>28</v>
       </c>
       <c r="C16" s="1">
-        <v>63873663.00052886</v>
+        <v>63885857.24894915</v>
       </c>
       <c r="D16" s="2">
-        <v>1.614767363308182</v>
+        <v>1.624870089153433</v>
       </c>
       <c r="E16" s="3">
-        <v>-0.034313725490196</v>
+        <v>-0.02327683615819204</v>
       </c>
       <c r="F16" s="3">
-        <v>-3.840271737357225</v>
+        <v>-4.987033931541487</v>
       </c>
       <c r="G16" s="3">
-        <v>0.05991685008559561</v>
+        <v>0.02757964812173102</v>
       </c>
       <c r="H16" s="3">
-        <v>2.732367058345071</v>
+        <v>2.199049229051698</v>
       </c>
       <c r="I16" s="3">
-        <v>0.07516745224510055</v>
+        <v>0.07352210630899161</v>
       </c>
       <c r="J16" s="3">
-        <v>4.309629333967279</v>
+        <v>4.145138061994463</v>
       </c>
       <c r="K16" s="3">
-        <v>0.127471383975026</v>
+        <v>0.1258140140661632</v>
       </c>
       <c r="L16" s="3">
-        <v>2.168182387994373</v>
+        <v>2.194853122579269</v>
       </c>
       <c r="M16" s="3">
-        <v>0.08187718422366455</v>
+        <v>0.07512437810945279</v>
       </c>
       <c r="N16" s="3">
-        <v>0.2019861108528065</v>
+        <v>0.213456156504132</v>
       </c>
       <c r="O16" s="3">
-        <v>0.3162987798931118</v>
+        <v>1.134988750344361</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1628,43 +1628,43 @@
         <v>29</v>
       </c>
       <c r="C17" s="1">
-        <v>10560081.86000714</v>
+        <v>10683233.46759429</v>
       </c>
       <c r="D17" s="2">
-        <v>1.30995047832191</v>
+        <v>1.297342998026325</v>
       </c>
       <c r="E17" s="3">
-        <v>-0.01313668600902637</v>
+        <v>-0.009277031349968075</v>
       </c>
       <c r="F17" s="3">
-        <v>-1.136892319257274</v>
+        <v>-0.6679727927378954</v>
       </c>
       <c r="G17" s="3">
-        <v>-0.0426862637792197</v>
+        <v>-0.03475144148355934</v>
       </c>
       <c r="H17" s="3">
-        <v>-1.09708062081695</v>
+        <v>-0.8628049260092954</v>
       </c>
       <c r="I17" s="3">
-        <v>-0.002200130378096419</v>
+        <v>0.01358206512845695</v>
       </c>
       <c r="J17" s="3">
-        <v>-0.07551567704538839</v>
+        <v>-0.09850172287126249</v>
       </c>
       <c r="K17" s="3">
-        <v>0.05542147905533533</v>
+        <v>0.0679310344827586</v>
       </c>
       <c r="L17" s="3">
-        <v>0.7519714261688852</v>
+        <v>0.7416750564357585</v>
       </c>
       <c r="M17" s="3">
-        <v>-0.03521903561298457</v>
+        <v>-0.0205566097406705</v>
       </c>
       <c r="N17" s="3">
-        <v>0.1039415783362205</v>
+        <v>0.1140016437244014</v>
       </c>
       <c r="O17" s="3">
-        <v>-0.09712091723380403</v>
+        <v>-0.0595291663059665</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1675,43 +1675,43 @@
         <v>30</v>
       </c>
       <c r="C18" s="1">
-        <v>42968656.45714287</v>
+        <v>43038650.18285714</v>
       </c>
       <c r="D18" s="2">
-        <v>1.132668091584629</v>
+        <v>1.132559535086578</v>
       </c>
       <c r="E18" s="3">
-        <v>-0.0115473441108545</v>
+        <v>-0.005875077303648881</v>
       </c>
       <c r="F18" s="3">
-        <v>-0.6111563504260985</v>
+        <v>-0.5607690414656219</v>
       </c>
       <c r="G18" s="3">
-        <v>-0.08651109846328968</v>
+        <v>-0.08273894436519255</v>
       </c>
       <c r="H18" s="3">
-        <v>-4.257826683460594</v>
+        <v>-3.905440071608365</v>
       </c>
       <c r="I18" s="3">
-        <v>-0.08239834202815693</v>
+        <v>-0.08024603061078529</v>
       </c>
       <c r="J18" s="3">
-        <v>-4.39955460287698</v>
+        <v>-4.428293484151408</v>
       </c>
       <c r="K18" s="3">
-        <v>-0.1822176931405642</v>
+        <v>-0.177696783681821</v>
       </c>
       <c r="L18" s="3">
-        <v>-2.972897481078153</v>
+        <v>-2.969630234235733</v>
       </c>
       <c r="M18" s="3">
-        <v>-0.1726271022617436</v>
+        <v>-0.1695725171122305</v>
       </c>
       <c r="N18" s="3">
-        <v>-0.924444501202855</v>
+        <v>-0.9428029306312388</v>
       </c>
       <c r="O18" s="3">
-        <v>-0.5004539386986607</v>
+        <v>-1.765199637850677</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1722,43 +1722,43 @@
         <v>31</v>
       </c>
       <c r="C19" s="1">
-        <v>376806173.976</v>
+        <v>379702788.5714285</v>
       </c>
       <c r="D19" s="2">
-        <v>2.04420425653792</v>
+        <v>2.030948880589466</v>
       </c>
       <c r="E19" s="3">
-        <v>0.002575991756826323</v>
+        <v>-0.004827235772357756</v>
       </c>
       <c r="F19" s="3">
-        <v>0.5675764745007182</v>
+        <v>0.6447475457099574</v>
       </c>
       <c r="G19" s="3">
-        <v>-0.03734850358644577</v>
+        <v>-0.04089128305582758</v>
       </c>
       <c r="H19" s="3">
-        <v>-0.4371409569559858</v>
+        <v>-0.2985356224423095</v>
       </c>
       <c r="I19" s="3">
-        <v>-0.05579815623483746</v>
+        <v>-0.04603019970774478</v>
       </c>
       <c r="J19" s="3">
-        <v>-1.763096603694773</v>
+        <v>-1.665171742267169</v>
       </c>
       <c r="K19" s="3">
-        <v>0.2038354469532941</v>
+        <v>0.2206294795886568</v>
       </c>
       <c r="L19" s="3">
-        <v>1.205927756796207</v>
+        <v>1.125094080909369</v>
       </c>
       <c r="M19" s="3">
-        <v>0.2351634401777214</v>
+        <v>0.2379898862199746</v>
       </c>
       <c r="N19" s="3">
-        <v>2.39707842311173</v>
+        <v>2.399033835078793</v>
       </c>
       <c r="O19" s="3">
-        <v>0.6373189815163477</v>
+        <v>0.441368715964966</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1769,43 +1769,43 @@
         <v>32</v>
       </c>
       <c r="C20" s="1">
-        <v>74851806.35664286</v>
+        <v>75133578.96974286</v>
       </c>
       <c r="D20" s="2">
-        <v>1.076459098495545</v>
+        <v>1.073802668715426</v>
       </c>
       <c r="E20" s="3">
-        <v>0.0117801047120419</v>
+        <v>0.01622611881706355</v>
       </c>
       <c r="F20" s="3">
-        <v>1.618785842816618</v>
+        <v>1.941043260679974</v>
       </c>
       <c r="G20" s="3">
-        <v>-0.001549987083440944</v>
+        <v>-0.000514800514800601</v>
       </c>
       <c r="H20" s="3">
-        <v>-0.132633132631751</v>
+        <v>-0.08664770691373383</v>
       </c>
       <c r="I20" s="3">
-        <v>0.02956846030900373</v>
+        <v>0.03271276595744675</v>
       </c>
       <c r="J20" s="3">
-        <v>0.06090906596087037</v>
+        <v>0.05245845839588922</v>
       </c>
       <c r="K20" s="3">
-        <v>0.01337178814892499</v>
+        <v>0.02049934296977654</v>
       </c>
       <c r="L20" s="3">
-        <v>0.007010281353470792</v>
+        <v>0.008532348827736357</v>
       </c>
       <c r="M20" s="3">
-        <v>-0.04284299157999005</v>
+        <v>-0.03479990057171269</v>
       </c>
       <c r="N20" s="3">
-        <v>-0.005158407149520622</v>
+        <v>-0.004225911554885459</v>
       </c>
       <c r="O20" s="3">
-        <v>0.02933793434965658</v>
+        <v>0.03049540361181279</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1816,43 +1816,43 @@
         <v>33</v>
       </c>
       <c r="C21" s="1">
-        <v>13477464.10548572</v>
+        <v>13486575.2384</v>
       </c>
       <c r="D21" s="2">
-        <v>1.575414277479005</v>
+        <v>1.57121921587215</v>
       </c>
       <c r="E21" s="3">
-        <v>0.01773533424283767</v>
+        <v>0.01699524133242686</v>
       </c>
       <c r="F21" s="3">
-        <v>0.4672583312550149</v>
+        <v>0.3735261460059973</v>
       </c>
       <c r="G21" s="3">
-        <v>-0.03367875647668397</v>
+        <v>-0.0335917312661499</v>
       </c>
       <c r="H21" s="3">
-        <v>-1.244196788055189</v>
+        <v>-1.003418834225599</v>
       </c>
       <c r="I21" s="3">
-        <v>-0.04481434058898851</v>
+        <v>-0.04286628278950733</v>
       </c>
       <c r="J21" s="3">
-        <v>-2.050369205733618</v>
+        <v>-1.951714887287895</v>
       </c>
       <c r="K21" s="3">
-        <v>0.02402196293754284</v>
+        <v>0.0274725274725275</v>
       </c>
       <c r="L21" s="3">
-        <v>0.008037151209261156</v>
+        <v>0.005634029753711293</v>
       </c>
       <c r="M21" s="3">
-        <v>0.05815602836879438</v>
+        <v>0.05874026893135171</v>
       </c>
       <c r="N21" s="3">
-        <v>0.6136556922695199</v>
+        <v>0.61069006210712</v>
       </c>
       <c r="O21" s="3">
-        <v>0.02791936301595225</v>
+        <v>0.0321871493425315</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1863,43 +1863,43 @@
         <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>15320209.79657143</v>
+        <v>15445187.52377143</v>
       </c>
       <c r="D22" s="2">
-        <v>1.312401867484848</v>
+        <v>1.302377054025359</v>
       </c>
       <c r="E22" s="3">
-        <v>0.004450095359186249</v>
+        <v>0.0144435004248089</v>
       </c>
       <c r="F22" s="3">
-        <v>0.1485617606467621</v>
+        <v>0.3298503776962736</v>
       </c>
       <c r="G22" s="3">
-        <v>0.004450095359186249</v>
+        <v>0.01207883026064852</v>
       </c>
       <c r="H22" s="3">
-        <v>0.2038036751053199</v>
+        <v>0.3126986147538008</v>
       </c>
       <c r="I22" s="3">
-        <v>0.07800773254491698</v>
+        <v>0.08668941979522189</v>
       </c>
       <c r="J22" s="3">
-        <v>1.407937896123129</v>
+        <v>1.353161337232216</v>
       </c>
       <c r="K22" s="3">
-        <v>0.1299165673420739</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="L22" s="3">
-        <v>1.415719529266494</v>
+        <v>1.424881921239495</v>
       </c>
       <c r="M22" s="3">
-        <v>0.1695040710584752</v>
+        <v>0.1801334321719793</v>
       </c>
       <c r="N22" s="3">
-        <v>0.8526375538612393</v>
+        <v>0.860014210372879</v>
       </c>
       <c r="O22" s="3">
-        <v>0.2847505319601009</v>
+        <v>0.8415058574642448</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1910,43 +1910,43 @@
         <v>35</v>
       </c>
       <c r="C23" s="1">
-        <v>13836022.74382857</v>
+        <v>13978090.96234286</v>
       </c>
       <c r="D23" s="2">
-        <v>1.044613884418509</v>
+        <v>1.039769178558521</v>
       </c>
       <c r="E23" s="3">
-        <v>-0.001826484018264842</v>
+        <v>0.006398537477147984</v>
       </c>
       <c r="F23" s="3">
-        <v>0.01171706055289517</v>
+        <v>0.0632901793732345</v>
       </c>
       <c r="G23" s="3">
-        <v>-0.02758007117437734</v>
+        <v>-0.02566371681415922</v>
       </c>
       <c r="H23" s="3">
-        <v>-1.34695846982612</v>
+        <v>-1.138524202240581</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>0.007319304666056731</v>
       </c>
       <c r="J23" s="3">
-        <v>-0.2123400780233764</v>
+        <v>-0.2573443376527322</v>
       </c>
       <c r="K23" s="3">
-        <v>-0.02236135957066201</v>
+        <v>-0.0125560538116592</v>
       </c>
       <c r="L23" s="3">
-        <v>-0.1300129088502141</v>
+        <v>-0.1292252149113089</v>
       </c>
       <c r="M23" s="3">
-        <v>-0.09444904722452369</v>
+        <v>-0.08706467661691542</v>
       </c>
       <c r="N23" s="3">
-        <v>-0.4329724713483386</v>
+        <v>-0.4266477109563441</v>
       </c>
       <c r="O23" s="3">
-        <v>0.06414682179982736</v>
+        <v>-0.1081449457641121</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1957,43 +1957,43 @@
         <v>36</v>
       </c>
       <c r="C24" s="1">
-        <v>5503949.456528571</v>
+        <v>5571217.458411429</v>
       </c>
       <c r="D24" s="2">
-        <v>1.018901006104114</v>
+        <v>1.019759892575418</v>
       </c>
       <c r="E24" s="3">
-        <v>0.01453090449615675</v>
+        <v>0.01942053327734626</v>
       </c>
       <c r="F24" s="3">
-        <v>0.7534811978977883</v>
+        <v>1.107602122112154</v>
       </c>
       <c r="G24" s="3">
-        <v>0.0005192107995847183</v>
+        <v>0.003928460663703146</v>
       </c>
       <c r="H24" s="3">
-        <v>-0.03135407297589671</v>
+        <v>-0.003534473972482243</v>
       </c>
       <c r="I24" s="3">
-        <v>0.02314962302219392</v>
+        <v>0.02490765171503959</v>
       </c>
       <c r="J24" s="3">
-        <v>0.05997868806139493</v>
+        <v>0.07071212752566411</v>
       </c>
       <c r="K24" s="3">
-        <v>0.07677693339293698</v>
+        <v>0.08818915284625731</v>
       </c>
       <c r="L24" s="3">
-        <v>1.035536289026777</v>
+        <v>1.045500508851367</v>
       </c>
       <c r="M24" s="3">
-        <v>0.09141368373357509</v>
+        <v>0.09964896387725063</v>
       </c>
       <c r="N24" s="3">
-        <v>0.7204201710975555</v>
+        <v>0.7338693198684219</v>
       </c>
       <c r="O24" s="3">
-        <v>0.1337581207023713</v>
+        <v>0.5725747363643089</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2004,43 +2004,43 @@
         <v>37</v>
       </c>
       <c r="C25" s="1">
-        <v>12043118.6442</v>
+        <v>12130111.33507857</v>
       </c>
       <c r="D25" s="2">
-        <v>1.034048430642069</v>
+        <v>1.031253956812817</v>
       </c>
       <c r="E25" s="3">
-        <v>0.01347017318794096</v>
+        <v>0.01642491467576792</v>
       </c>
       <c r="F25" s="3">
-        <v>1.027233610169747</v>
+        <v>1.731426488006679</v>
       </c>
       <c r="G25" s="3">
-        <v>0.008081667375584823</v>
+        <v>-0.001048218029350135</v>
       </c>
       <c r="H25" s="3">
-        <v>-0.1057691603308711</v>
+        <v>-0.05423992128763624</v>
       </c>
       <c r="I25" s="3">
-        <v>0.03765323992994744</v>
+        <v>0.04062022275606029</v>
       </c>
       <c r="J25" s="3">
-        <v>0.02397757997900001</v>
+        <v>0.02191073453939223</v>
       </c>
       <c r="K25" s="3">
-        <v>0.04960141718334807</v>
+        <v>0.05865363252610523</v>
       </c>
       <c r="L25" s="3">
-        <v>0.1139281943696407</v>
+        <v>0.1169419269049167</v>
       </c>
       <c r="M25" s="3">
-        <v>0.01109215017064846</v>
+        <v>0.01990582191780823</v>
       </c>
       <c r="N25" s="3">
-        <v>0.06347386174890605</v>
+        <v>0.06936318943335663</v>
       </c>
       <c r="O25" s="3">
-        <v>0.02824650902316258</v>
+        <v>0.06942633072215448</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2051,43 +2051,43 @@
         <v>38</v>
       </c>
       <c r="C26" s="1">
-        <v>7316399.524342857</v>
+        <v>7332546.114171429</v>
       </c>
       <c r="D26" s="2">
-        <v>1.128492626683093</v>
+        <v>1.129203304827513</v>
       </c>
       <c r="E26" s="3">
-        <v>-0.005586592178771011</v>
+        <v>-0.005086469989827065</v>
       </c>
       <c r="F26" s="3">
-        <v>-0.03517537201103304</v>
+        <v>-0.1361082466234672</v>
       </c>
       <c r="G26" s="3">
-        <v>0.0145077720207254</v>
+        <v>0.009287925696594436</v>
       </c>
       <c r="H26" s="3">
-        <v>0.840830467363485</v>
+        <v>0.666749764427508</v>
       </c>
       <c r="I26" s="3">
-        <v>0.04538174052322475</v>
+        <v>0.04264392324093821</v>
       </c>
       <c r="J26" s="3">
-        <v>1.56098691813419</v>
+        <v>1.425923069577065</v>
       </c>
       <c r="K26" s="3">
-        <v>0.08416389811738643</v>
+        <v>0.09090909090909093</v>
       </c>
       <c r="L26" s="3">
-        <v>1.667345207166547</v>
+        <v>1.673095913051577</v>
       </c>
       <c r="M26" s="3">
-        <v>-0.05364910584823586</v>
+        <v>-0.06276952563488271</v>
       </c>
       <c r="N26" s="3">
-        <v>-0.002455009174105976</v>
+        <v>-0.001700206525922446</v>
       </c>
       <c r="O26" s="3">
-        <v>-0.08728241730080333</v>
+        <v>0.681576771971091</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2098,43 +2098,43 @@
         <v>39</v>
       </c>
       <c r="C27" s="1">
-        <v>73259105.48836285</v>
+        <v>73863238.16878286</v>
       </c>
       <c r="D27" s="2">
-        <v>1.726837371487356</v>
+        <v>1.720242469616224</v>
       </c>
       <c r="E27" s="3">
-        <v>0.05215686274509809</v>
+        <v>0.05261106780982076</v>
       </c>
       <c r="F27" s="3">
-        <v>4.479803855302741</v>
+        <v>5.200453498865302</v>
       </c>
       <c r="G27" s="3">
-        <v>0.04478193146417438</v>
+        <v>0.04447022428460937</v>
       </c>
       <c r="H27" s="3">
-        <v>1.115784670358817</v>
+        <v>1.481668044295824</v>
       </c>
       <c r="I27" s="3">
-        <v>0.08141878274889162</v>
+        <v>0.09307972480777013</v>
       </c>
       <c r="J27" s="3">
-        <v>0.1471170781116555</v>
+        <v>0.1715201118572079</v>
       </c>
       <c r="K27" s="3">
-        <v>0.1146655587868716</v>
+        <v>0.1287087338069369</v>
       </c>
       <c r="L27" s="3">
-        <v>0.3296888231773685</v>
+        <v>0.3461488558109196</v>
       </c>
       <c r="M27" s="3">
-        <v>0.2025997310623039</v>
+        <v>0.2009782125389062</v>
       </c>
       <c r="N27" s="3">
-        <v>0.7667495823009045</v>
+        <v>0.7751527908842393</v>
       </c>
       <c r="O27" s="3">
-        <v>0.2668528352350301</v>
+        <v>0.2735635341749129</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2145,43 +2145,43 @@
         <v>40</v>
       </c>
       <c r="C28" s="1">
-        <v>31803440.64491428</v>
+        <v>32006259.38828572</v>
       </c>
       <c r="D28" s="2">
-        <v>1.255140631153287</v>
+        <v>1.250606919041542</v>
       </c>
       <c r="E28" s="3">
-        <v>-0.007335137444808414</v>
+        <v>-0.004823379202723889</v>
       </c>
       <c r="F28" s="3">
-        <v>-0.2720171928659057</v>
+        <v>-0.03654278535707053</v>
       </c>
       <c r="G28" s="3">
-        <v>-0.0112080584521529</v>
+        <v>-0.01812583105885649</v>
       </c>
       <c r="H28" s="3">
-        <v>-0.4452555345109453</v>
+        <v>-0.3130141748047304</v>
       </c>
       <c r="I28" s="3">
-        <v>0.03597175771088815</v>
+        <v>0.04724938419049034</v>
       </c>
       <c r="J28" s="3">
-        <v>0.08194096458005791</v>
+        <v>0.06201902955619672</v>
       </c>
       <c r="K28" s="3">
-        <v>0.07330407330407331</v>
+        <v>0.07840122982321288</v>
       </c>
       <c r="L28" s="3">
-        <v>0.9865517122770465</v>
+        <v>0.9924006471681315</v>
       </c>
       <c r="M28" s="3">
-        <v>0.08331390378487596</v>
+        <v>0.08197732706100092</v>
       </c>
       <c r="N28" s="3">
-        <v>0.4771303892825422</v>
+        <v>0.4865427601023311</v>
       </c>
       <c r="O28" s="3">
-        <v>0.1856656812314799</v>
+        <v>0.07199817830859881</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2192,43 +2192,43 @@
         <v>41</v>
       </c>
       <c r="C29" s="1">
-        <v>5952676.068785714</v>
+        <v>5914008.668571429</v>
       </c>
       <c r="D29" s="2">
-        <v>1.046336753406043</v>
+        <v>1.038024643353752</v>
       </c>
       <c r="E29" s="3">
-        <v>0.01655319716993733</v>
+        <v>0.02218065205772319</v>
       </c>
       <c r="F29" s="3">
-        <v>1.266193594902593</v>
+        <v>1.395842915392932</v>
       </c>
       <c r="G29" s="3">
-        <v>0.01357646745640893</v>
+        <v>0.01688156320616784</v>
       </c>
       <c r="H29" s="3">
-        <v>0.1166332050071196</v>
+        <v>0.1546597693942884</v>
       </c>
       <c r="I29" s="3">
-        <v>0.024485402932867</v>
+        <v>0.02739726027397269</v>
       </c>
       <c r="J29" s="3">
-        <v>0.1025028019053778</v>
+        <v>0.1089751503744684</v>
       </c>
       <c r="K29" s="3">
-        <v>0.01614625033360027</v>
+        <v>0.02423349846030259</v>
       </c>
       <c r="L29" s="3">
-        <v>0.02179959602646388</v>
+        <v>0.02580102056935457</v>
       </c>
       <c r="M29" s="3">
-        <v>0.04616018683885153</v>
+        <v>0.05241436236070989</v>
       </c>
       <c r="N29" s="3">
-        <v>0.3110891379976918</v>
+        <v>0.3173745089614617</v>
       </c>
       <c r="O29" s="3">
-        <v>0.05122839302772723</v>
+        <v>0.08069475636758912</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2239,43 +2239,43 @@
         <v>42</v>
       </c>
       <c r="C30" s="1">
-        <v>5762818.533257144</v>
+        <v>5810396.069957143</v>
       </c>
       <c r="D30" s="2">
-        <v>1.142831521298159</v>
+        <v>1.145117477444211</v>
       </c>
       <c r="E30" s="3">
-        <v>0.05268022181146022</v>
+        <v>0.05248618784530384</v>
       </c>
       <c r="F30" s="3">
-        <v>7.219121260847862</v>
+        <v>7.113696471289938</v>
       </c>
       <c r="G30" s="3">
-        <v>0.02520252025202517</v>
+        <v>0.01599999999999997</v>
       </c>
       <c r="H30" s="3">
-        <v>0.3583642334261395</v>
+        <v>0.5271714244757036</v>
       </c>
       <c r="I30" s="3">
-        <v>0.06448598130841125</v>
+        <v>0.06822429906542057</v>
       </c>
       <c r="J30" s="3">
-        <v>0.5663426444570011</v>
+        <v>0.5855996619297337</v>
       </c>
       <c r="K30" s="3">
-        <v>0.0565862708719851</v>
+        <v>0.06128133704735371</v>
       </c>
       <c r="L30" s="3">
-        <v>0.2163924594738022</v>
+        <v>0.2359786090884574</v>
       </c>
       <c r="M30" s="3">
-        <v>0.1155729676787464</v>
+        <v>0.11949069539667</v>
       </c>
       <c r="N30" s="3">
-        <v>0.493745777535452</v>
+        <v>0.5002802091082762</v>
       </c>
       <c r="O30" s="3">
-        <v>0.2635391243712326</v>
+        <v>0.4107891355090955</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2286,43 +2286,43 @@
         <v>43</v>
       </c>
       <c r="C31" s="1">
-        <v>7600217.966839999</v>
+        <v>7665891.181705714</v>
       </c>
       <c r="D31" s="2">
-        <v>1.046579527420347</v>
+        <v>1.038912199701717</v>
       </c>
       <c r="E31" s="3">
-        <v>0.01108330353950666</v>
+        <v>0.01642270617636554</v>
       </c>
       <c r="F31" s="3">
-        <v>1.308779460441676</v>
+        <v>1.585700851636795</v>
       </c>
       <c r="G31" s="3">
-        <v>-0.01703163017031633</v>
+        <v>-0.01590044936052548</v>
       </c>
       <c r="H31" s="3">
-        <v>-0.4831231095962092</v>
+        <v>-0.318785455968943</v>
       </c>
       <c r="I31" s="3">
-        <v>0.02426657008330317</v>
+        <v>0.03226976069615658</v>
       </c>
       <c r="J31" s="3">
-        <v>-0.006120338492123293</v>
+        <v>-0.01328558654804907</v>
       </c>
       <c r="K31" s="3">
-        <v>0.04200442151805448</v>
+        <v>0.05288461538461528</v>
       </c>
       <c r="L31" s="3">
-        <v>0.1677351333685464</v>
+        <v>0.1658208045642602</v>
       </c>
       <c r="M31" s="3">
-        <v>0.057196261682243</v>
+        <v>0.0595459620394491</v>
       </c>
       <c r="N31" s="3">
-        <v>0.4196035481622527</v>
+        <v>0.4250221213416621</v>
       </c>
       <c r="O31" s="3">
-        <v>-0.02873973155052674</v>
+        <v>0.1126833833018546</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2333,43 +2333,43 @@
         <v>44</v>
       </c>
       <c r="C32" s="1">
-        <v>20670989.91085714</v>
+        <v>20723339.11672286</v>
       </c>
       <c r="D32" s="2">
-        <v>1.122927312438053</v>
+        <v>1.119736106607505</v>
       </c>
       <c r="E32" s="3">
-        <v>0.01587301587301589</v>
+        <v>0.01743264659270997</v>
       </c>
       <c r="F32" s="3">
-        <v>1.148398532147973</v>
+        <v>0.9853397462440201</v>
       </c>
       <c r="G32" s="3">
-        <v>0.01319261213720318</v>
+        <v>0.01475237091675446</v>
       </c>
       <c r="H32" s="3">
-        <v>0.7091837176850562</v>
+        <v>0.7847077099548282</v>
       </c>
       <c r="I32" s="3">
-        <v>0.04975396391470747</v>
+        <v>0.05188421627525931</v>
       </c>
       <c r="J32" s="3">
-        <v>0.7996740218735275</v>
+        <v>0.7624713433168204</v>
       </c>
       <c r="K32" s="3">
-        <v>0.07804604154969115</v>
+        <v>0.08141493542953389</v>
       </c>
       <c r="L32" s="3">
-        <v>0.624646437953438</v>
+        <v>0.6376815551126469</v>
       </c>
       <c r="M32" s="3">
-        <v>0.1208406304728546</v>
+        <v>0.1322751322751322</v>
       </c>
       <c r="N32" s="3">
-        <v>0.6658665092000368</v>
+        <v>0.6751363577685685</v>
       </c>
       <c r="O32" s="3">
-        <v>0.333401254273238</v>
+        <v>0.7000764492147337</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2380,43 +2380,43 @@
         <v>45</v>
       </c>
       <c r="C33" s="1">
-        <v>24435361.88657143</v>
+        <v>24301848.19731428</v>
       </c>
       <c r="D33" s="2">
-        <v>1.315602815130912</v>
+        <v>1.305046608774503</v>
       </c>
       <c r="E33" s="3">
-        <v>0.002138579982891315</v>
+        <v>0.01207910208444677</v>
       </c>
       <c r="F33" s="3">
-        <v>0.04217748073893458</v>
+        <v>0.1678434172800445</v>
       </c>
       <c r="G33" s="3">
-        <v>-0.0160629921259843</v>
+        <v>-0.005253204454717452</v>
       </c>
       <c r="H33" s="3">
-        <v>-0.666489668121241</v>
+        <v>-0.4807051795694739</v>
       </c>
       <c r="I33" s="3">
-        <v>0.02751891239995608</v>
+        <v>0.0391834046756667</v>
       </c>
       <c r="J33" s="3">
-        <v>0.02500150189709962</v>
+        <v>0.01925358023999378</v>
       </c>
       <c r="K33" s="3">
-        <v>0.007308684436801334</v>
+        <v>0.0225726320336969</v>
       </c>
       <c r="L33" s="3">
-        <v>0.008601293370468903</v>
+        <v>0.01034670390701346</v>
       </c>
       <c r="M33" s="3">
-        <v>-0.07299703264094952</v>
+        <v>-0.06719211822660102</v>
       </c>
       <c r="N33" s="3">
-        <v>-0.07640338756022805</v>
+        <v>-0.07068155089550336</v>
       </c>
       <c r="O33" s="3">
-        <v>0.02405735326893723</v>
+        <v>0.01480014207350362</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2427,43 +2427,43 @@
         <v>46</v>
       </c>
       <c r="C34" s="1">
-        <v>107557472.3156</v>
+        <v>108573811.8322714</v>
       </c>
       <c r="D34" s="2">
-        <v>2.255896401983598</v>
+        <v>2.241944462635544</v>
       </c>
       <c r="E34" s="3">
-        <v>0.006872852233676983</v>
+        <v>0.01198630136986303</v>
       </c>
       <c r="F34" s="3">
-        <v>-0.02351928676383659</v>
+        <v>0.001404836815897634</v>
       </c>
       <c r="G34" s="3">
-        <v>-0.005093378607809852</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>-1.088544085715488</v>
+        <v>-0.7357123942113507</v>
       </c>
       <c r="I34" s="3">
-        <v>-0.04560260586319222</v>
+        <v>-0.03431372549019611</v>
       </c>
       <c r="J34" s="3">
-        <v>-1.873055037840054</v>
+        <v>-1.577143099994613</v>
       </c>
       <c r="K34" s="3">
-        <v>0.1626984126984126</v>
+        <v>0.1633858267716535</v>
       </c>
       <c r="L34" s="3">
-        <v>0.08664442902326235</v>
+        <v>0.0706218919775084</v>
       </c>
       <c r="M34" s="3">
-        <v>0.2602150537634407</v>
+        <v>0.2764578833693303</v>
       </c>
       <c r="N34" s="3">
-        <v>2.406913018199307</v>
+        <v>2.403621499216936</v>
       </c>
       <c r="O34" s="3">
-        <v>-0.1445724685568041</v>
+        <v>0.03601336439670302</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2474,43 +2474,43 @@
         <v>47</v>
       </c>
       <c r="C35" s="1">
-        <v>33353851.31536857</v>
+        <v>33546162.96042285</v>
       </c>
       <c r="D35" s="2">
-        <v>1.165339265629749</v>
+        <v>1.161760353523618</v>
       </c>
       <c r="E35" s="3">
-        <v>-0.004743083003952513</v>
+        <v>-0.000394632991318195</v>
       </c>
       <c r="F35" s="3">
-        <v>-0.000107190419732754</v>
+        <v>0.01945324944887387</v>
       </c>
       <c r="G35" s="3">
-        <v>-0.04729474082482019</v>
+        <v>-0.03688212927756662</v>
       </c>
       <c r="H35" s="3">
-        <v>-1.351652215864954</v>
+        <v>-1.040599385623968</v>
       </c>
       <c r="I35" s="3">
-        <v>0.002388535031847174</v>
+        <v>0.005957108816520943</v>
       </c>
       <c r="J35" s="3">
-        <v>-0.856378658149449</v>
+        <v>-0.994571412237087</v>
       </c>
       <c r="K35" s="3">
-        <v>0.007199999999999984</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="L35" s="3">
-        <v>0.00184928974369115</v>
+        <v>0.001620058776084269</v>
       </c>
       <c r="M35" s="3">
-        <v>-0.08135716891645382</v>
+        <v>-0.07487216946676417</v>
       </c>
       <c r="N35" s="3">
-        <v>-0.08274532114310507</v>
+        <v>-0.07822676742562698</v>
       </c>
       <c r="O35" s="3">
-        <v>-0.0004544471811964985</v>
+        <v>-0.03662605534533995</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2521,43 +2521,43 @@
         <v>48</v>
       </c>
       <c r="C36" s="1">
-        <v>3307618.4748</v>
+        <v>3324725.082411429</v>
       </c>
       <c r="D36" s="2">
-        <v>0.7321164752564657</v>
+        <v>0.7301826455842074</v>
       </c>
       <c r="E36" s="3">
-        <v>0.006513541309564593</v>
+        <v>0.01234567901234577</v>
       </c>
       <c r="F36" s="3">
-        <v>0.5504371288089692</v>
+        <v>0.8551299637317176</v>
       </c>
       <c r="G36" s="3">
-        <v>-0.007101792357118647</v>
+        <v>-0.007731092436974708</v>
       </c>
       <c r="H36" s="3">
-        <v>-0.2512730251404869</v>
+        <v>-0.1405761424738701</v>
       </c>
       <c r="I36" s="3">
-        <v>0.02157272094641611</v>
+        <v>0.02642559109874827</v>
       </c>
       <c r="J36" s="3">
-        <v>0.005388331110433982</v>
+        <v>0.003560717219693031</v>
       </c>
       <c r="K36" s="3">
-        <v>0.003417634996582344</v>
+        <v>0.01095890410958907</v>
       </c>
       <c r="L36" s="3">
-        <v>0.006453231328014501</v>
+        <v>0.008473667437498184</v>
       </c>
       <c r="M36" s="3">
-        <v>0.02693249387897866</v>
+        <v>0.03036649214659696</v>
       </c>
       <c r="N36" s="3">
-        <v>-0.0001262390516848406</v>
+        <v>-0.000124204061996113</v>
       </c>
       <c r="O36" s="3">
-        <v>0.01054035236005186</v>
+        <v>0.01942007979204757</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2568,43 +2568,43 @@
         <v>49</v>
       </c>
       <c r="C37" s="1">
-        <v>195088018.3998857</v>
+        <v>196432963.3472</v>
       </c>
       <c r="D37" s="2">
-        <v>1.646793094665131</v>
+        <v>1.637782879560463</v>
       </c>
       <c r="E37" s="3">
-        <v>0.02777777777777774</v>
+        <v>0.03717878622197926</v>
       </c>
       <c r="F37" s="3">
-        <v>2.422541801154145</v>
+        <v>2.106644534664693</v>
       </c>
       <c r="G37" s="3">
-        <v>0.1048009367681499</v>
+        <v>0.1074138937536485</v>
       </c>
       <c r="H37" s="3">
-        <v>6.832944905138679</v>
+        <v>6.653342682839851</v>
       </c>
       <c r="I37" s="3">
-        <v>0.08075601374570447</v>
+        <v>0.09148446490218644</v>
       </c>
       <c r="J37" s="3">
-        <v>2.239526931954096</v>
+        <v>2.355917080704287</v>
       </c>
       <c r="K37" s="3">
-        <v>0.03909691629955944</v>
+        <v>0.04922566371681414</v>
       </c>
       <c r="L37" s="3">
-        <v>0.01628906224688856</v>
+        <v>0.02347432398265823</v>
       </c>
       <c r="M37" s="3">
-        <v>-0.08928571428571432</v>
+        <v>-0.08445945945945948</v>
       </c>
       <c r="N37" s="3">
-        <v>-0.48417975584506</v>
+        <v>-0.4614787916290718</v>
       </c>
       <c r="O37" s="3">
-        <v>0.07835424632579338</v>
+        <v>1.065059429323676</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2615,43 +2615,43 @@
         <v>50</v>
       </c>
       <c r="C38" s="1">
-        <v>19059194.8316</v>
+        <v>19154793.52864286</v>
       </c>
       <c r="D38" s="2">
-        <v>1.56920058963148</v>
+        <v>1.583074612148308</v>
       </c>
       <c r="E38" s="3">
-        <v>0.0488454706927175</v>
+        <v>0.04336283185840709</v>
       </c>
       <c r="F38" s="3">
-        <v>3.849517233537748</v>
+        <v>4.662212313039694</v>
       </c>
       <c r="G38" s="3">
-        <v>0.02874564459930311</v>
+        <v>0.01550387596899233</v>
       </c>
       <c r="H38" s="3">
-        <v>0.0002429936090407684</v>
+        <v>0.00742963791322706</v>
       </c>
       <c r="I38" s="3">
-        <v>0.05258467023172908</v>
+        <v>0.05361930294906171</v>
       </c>
       <c r="J38" s="3">
-        <v>0.02486833748144217</v>
+        <v>0.03586135476902954</v>
       </c>
       <c r="K38" s="3">
-        <v>0.1141509433962264</v>
+        <v>0.1112158341187559</v>
       </c>
       <c r="L38" s="3">
-        <v>0.7344916125305632</v>
+        <v>0.7451022536462707</v>
       </c>
       <c r="M38" s="3">
-        <v>0.1727904667328699</v>
+        <v>0.1743027888446215</v>
       </c>
       <c r="N38" s="3">
-        <v>1.036995184442378</v>
+        <v>1.045165839434626</v>
       </c>
       <c r="O38" s="3">
-        <v>0.0839976313386946</v>
+        <v>0.4597025212454461</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2662,43 +2662,43 @@
         <v>51</v>
       </c>
       <c r="C39" s="1">
-        <v>605078203.3397143</v>
+        <v>611746214.4642857</v>
       </c>
       <c r="D39" s="2">
-        <v>2.510477925551574</v>
+        <v>2.48833356184847</v>
       </c>
       <c r="E39" s="3">
-        <v>-0.07419435423432429</v>
+        <v>-0.07247093742270594</v>
       </c>
       <c r="F39" s="3">
-        <v>-6.059762044723988</v>
+        <v>-5.958700616864325</v>
       </c>
       <c r="G39" s="3">
-        <v>-0.01146972526006939</v>
+        <v>0.007793603869927415</v>
       </c>
       <c r="H39" s="3">
-        <v>-0.003743899362161052</v>
+        <v>-0.031790333666876</v>
       </c>
       <c r="I39" s="3">
-        <v>0.1368098159509203</v>
+        <v>0.1696818465377417</v>
       </c>
       <c r="J39" s="3">
-        <v>5.134493330021665</v>
+        <v>4.644223758170535</v>
       </c>
       <c r="K39" s="3">
-        <v>0.2198815009874918</v>
+        <v>0.2409000661813369</v>
       </c>
       <c r="L39" s="3">
-        <v>4.599891043566337</v>
+        <v>4.663779430433967</v>
       </c>
       <c r="M39" s="3">
-        <v>0.2304116865869854</v>
+        <v>0.2495834721759414</v>
       </c>
       <c r="N39" s="3">
-        <v>1.934459782552587</v>
+        <v>1.990326217943154</v>
       </c>
       <c r="O39" s="3">
-        <v>0.8719930939328603</v>
+        <v>2.446903615173238</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2709,43 +2709,43 @@
         <v>52</v>
       </c>
       <c r="C40" s="1">
-        <v>24899724.91812857</v>
+        <v>24977853.34457143</v>
       </c>
       <c r="D40" s="2">
-        <v>1.267766989283988</v>
+        <v>1.263615493154379</v>
       </c>
       <c r="E40" s="3">
-        <v>0.02361872627583296</v>
+        <v>0.01883633319380495</v>
       </c>
       <c r="F40" s="3">
-        <v>0.1566276210007049</v>
+        <v>0.0491563651895047</v>
       </c>
       <c r="G40" s="3">
-        <v>0.01040799333888427</v>
+        <v>0.01205821205821212</v>
       </c>
       <c r="H40" s="3">
-        <v>0.7860013638378124</v>
+        <v>0.9464284467998469</v>
       </c>
       <c r="I40" s="3">
-        <v>0.02969876962240138</v>
+        <v>0.03839590443686011</v>
       </c>
       <c r="J40" s="3">
-        <v>0.2785037806026475</v>
+        <v>0.2874303546279457</v>
       </c>
       <c r="K40" s="3">
-        <v>0.03013582342954158</v>
+        <v>0.0300465509944985</v>
       </c>
       <c r="L40" s="3">
-        <v>0.09021721802647176</v>
+        <v>0.0997949830019184</v>
       </c>
       <c r="M40" s="3">
-        <v>-0.08827948910593536</v>
+        <v>-0.09246830723340786</v>
       </c>
       <c r="N40" s="3">
-        <v>-0.1380843151681816</v>
+        <v>-0.127201074109962</v>
       </c>
       <c r="O40" s="3">
-        <v>0.411020084314241</v>
+        <v>0.07447567409571156</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2756,43 +2756,43 @@
         <v>53</v>
       </c>
       <c r="C41" s="1">
-        <v>8432097.660628572</v>
+        <v>8503339.069642857</v>
       </c>
       <c r="D41" s="2">
-        <v>1.15108147272276</v>
+        <v>1.14370818493673</v>
       </c>
       <c r="E41" s="3">
-        <v>0.01511335012594467</v>
+        <v>0.02265575833857767</v>
       </c>
       <c r="F41" s="3">
-        <v>1.806503842043943</v>
+        <v>2.010851218953215</v>
       </c>
       <c r="G41" s="3">
-        <v>0.002487562189054797</v>
+        <v>0.01499063085571526</v>
       </c>
       <c r="H41" s="3">
-        <v>0.2562470263194383</v>
+        <v>0.4280188354239874</v>
       </c>
       <c r="I41" s="3">
-        <v>0.06967485069674857</v>
+        <v>0.07687210072895957</v>
       </c>
       <c r="J41" s="3">
-        <v>0.6023955561906232</v>
+        <v>0.5602555031559371</v>
       </c>
       <c r="K41" s="3">
-        <v>0.04947916666666682</v>
+        <v>0.06070496083550916</v>
       </c>
       <c r="L41" s="3">
-        <v>0.2186600317090089</v>
+        <v>0.2317707138433808</v>
       </c>
       <c r="M41" s="3">
-        <v>0.1010928961748634</v>
+        <v>0.1077027948193593</v>
       </c>
       <c r="N41" s="3">
-        <v>0.3852513830938405</v>
+        <v>0.3894863792485739</v>
       </c>
       <c r="O41" s="3">
-        <v>0.2398254700735126</v>
+        <v>0.3960131084996589</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2803,43 +2803,43 @@
         <v>54</v>
       </c>
       <c r="C42" s="1">
-        <v>8610993.869678572</v>
+        <v>8616854.815342857</v>
       </c>
       <c r="D42" s="2">
-        <v>1.049236459598422</v>
+        <v>1.048759800022121</v>
       </c>
       <c r="E42" s="3">
-        <v>0.02818141787758689</v>
+        <v>0.02542744410346342</v>
       </c>
       <c r="F42" s="3">
-        <v>2.873194286354383</v>
+        <v>2.944702894557608</v>
       </c>
       <c r="G42" s="3">
-        <v>0.01257588898525579</v>
+        <v>0.01343154246100525</v>
       </c>
       <c r="H42" s="3">
-        <v>0.02967217538725525</v>
+        <v>0.07021456440202635</v>
       </c>
       <c r="I42" s="3">
-        <v>0.03823921742996886</v>
+        <v>0.04094348019581667</v>
       </c>
       <c r="J42" s="3">
-        <v>0.09701858248794719</v>
+        <v>0.09942238379039117</v>
       </c>
       <c r="K42" s="3">
-        <v>0.004733218588640232</v>
+        <v>0.0116782006920415</v>
       </c>
       <c r="L42" s="3">
-        <v>0.03615164260352342</v>
+        <v>0.04730141555161475</v>
       </c>
       <c r="M42" s="3">
-        <v>-0.07378024593415314</v>
+        <v>-0.07329635499207597</v>
       </c>
       <c r="N42" s="3">
-        <v>-0.2172126561945865</v>
+        <v>-0.2062890410422088</v>
       </c>
       <c r="O42" s="3">
-        <v>0.1615323253285017</v>
+        <v>0.07336189967100296</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2850,43 +2850,43 @@
         <v>55</v>
       </c>
       <c r="C43" s="1">
-        <v>5345286.465014286</v>
+        <v>5338756.609585715</v>
       </c>
       <c r="D43" s="2">
-        <v>0.4162028433028406</v>
+        <v>0.4187329630842412</v>
       </c>
       <c r="E43" s="3">
-        <v>-8.136696501213104E-05</v>
+        <v>-0.00179109338109586</v>
       </c>
       <c r="F43" s="3">
-        <v>-0.0225954635256241</v>
+        <v>-0.1106448133178222</v>
       </c>
       <c r="G43" s="3">
-        <v>0.00704744734901265</v>
+        <v>0.006567605286922257</v>
       </c>
       <c r="H43" s="3">
-        <v>0.02937979671892807</v>
+        <v>0.006322101091543931</v>
       </c>
       <c r="I43" s="3">
-        <v>0.002692558746736441</v>
+        <v>0.0004895960832312599</v>
       </c>
       <c r="J43" s="3">
-        <v>0.2060848011291513</v>
+        <v>0.1853856266965465</v>
       </c>
       <c r="K43" s="3">
-        <v>-0.00943092052232776</v>
+        <v>-0.01160822249093115</v>
       </c>
       <c r="L43" s="3">
-        <v>3.36649558387012E-06</v>
+        <v>7.568391895690083E-06</v>
       </c>
       <c r="M43" s="3">
-        <v>-0.03243839067789923</v>
+        <v>-0.03593332284950468</v>
       </c>
       <c r="N43" s="3">
-        <v>-0.3886896487855542</v>
+        <v>-0.3919844247204793</v>
       </c>
       <c r="O43" s="3">
-        <v>1.346916692625686E-05</v>
+        <v>-0.01796287722880449</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2897,43 +2897,43 @@
         <v>56</v>
       </c>
       <c r="C44" s="1">
-        <v>18839693.808</v>
+        <v>19057145.14092857</v>
       </c>
       <c r="D44" s="2">
-        <v>1.611753072508279</v>
+        <v>1.599298670730696</v>
       </c>
       <c r="E44" s="3">
-        <v>-0.02771855010660972</v>
+        <v>-0.009129967776584385</v>
       </c>
       <c r="F44" s="3">
-        <v>-1.285199519401128</v>
+        <v>-0.2038616382787213</v>
       </c>
       <c r="G44" s="3">
-        <v>0.004958677685950479</v>
+        <v>0.01652892561983473</v>
       </c>
       <c r="H44" s="3">
-        <v>-0.1429706369491865</v>
+        <v>-0.1330102448243823</v>
       </c>
       <c r="I44" s="3">
-        <v>0.04467353951890039</v>
+        <v>0.06095457159286939</v>
       </c>
       <c r="J44" s="3">
-        <v>0.4299571364941034</v>
+        <v>0.4223263641538426</v>
       </c>
       <c r="K44" s="3">
-        <v>0.09090909090909099</v>
+        <v>0.104129263913824</v>
       </c>
       <c r="L44" s="3">
-        <v>1.451440044636093</v>
+        <v>1.480889264479062</v>
       </c>
       <c r="M44" s="3">
-        <v>0.07231040564373897</v>
+        <v>0.08529411764705884</v>
       </c>
       <c r="N44" s="3">
-        <v>0.4920496337812005</v>
+        <v>0.5120415737589135</v>
       </c>
       <c r="O44" s="3">
-        <v>0.2489735573604543</v>
+        <v>0.2538102409004507</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2944,43 +2944,43 @@
         <v>57</v>
       </c>
       <c r="C45" s="1">
-        <v>10392507.50914286</v>
+        <v>10498444.7697</v>
       </c>
       <c r="D45" s="2">
-        <v>1.132759143802186</v>
+        <v>1.127268915850452</v>
       </c>
       <c r="E45" s="3">
-        <v>0.01628151260504197</v>
+        <v>0.02573529411764699</v>
       </c>
       <c r="F45" s="3">
-        <v>1.478405364577445</v>
+        <v>1.913796256230135</v>
       </c>
       <c r="G45" s="3">
-        <v>-0.01073619631901836</v>
+        <v>-0.003062787136293974</v>
       </c>
       <c r="H45" s="3">
-        <v>-0.07955509234417019</v>
+        <v>-0.01813400869573343</v>
       </c>
       <c r="I45" s="3">
-        <v>0.05795516675779113</v>
+        <v>0.06488549618320608</v>
       </c>
       <c r="J45" s="3">
-        <v>0.09828560737872438</v>
+        <v>0.07877867582061966</v>
       </c>
       <c r="K45" s="3">
-        <v>0.05277475516866167</v>
+        <v>0.06430517711171665</v>
       </c>
       <c r="L45" s="3">
-        <v>0.2248450898834859</v>
+        <v>0.2336942411827432</v>
       </c>
       <c r="M45" s="3">
-        <v>0.09569648924122309</v>
+        <v>0.1077708451503119</v>
       </c>
       <c r="N45" s="3">
-        <v>0.443207087898549</v>
+        <v>0.446942857410335</v>
       </c>
       <c r="O45" s="3">
-        <v>0.1553516017411521</v>
+        <v>0.1707325431665276</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2991,43 +2991,43 @@
         <v>58</v>
       </c>
       <c r="C46" s="1">
-        <v>113797043.5310109</v>
+        <v>114211220.0370947</v>
       </c>
       <c r="D46" s="2">
-        <v>1.006872108158358</v>
+        <v>1.002799357151377</v>
       </c>
       <c r="E46" s="3">
-        <v>0.008742213965686833</v>
+        <v>0.01266237310337297</v>
       </c>
       <c r="F46" s="3">
-        <v>0.1567343792522206</v>
+        <v>0.210290953906411</v>
       </c>
       <c r="G46" s="3">
-        <v>-0.006029934316786959</v>
+        <v>-0.006638826426812245</v>
       </c>
       <c r="H46" s="3">
-        <v>-0.09118498114165062</v>
+        <v>-0.03921792308505852</v>
       </c>
       <c r="I46" s="3">
-        <v>0.009624849611724766</v>
+        <v>0.01821973438700485</v>
       </c>
       <c r="J46" s="3">
-        <v>-5.066559029982329E-05</v>
+        <v>-4.651573246679611E-05</v>
       </c>
       <c r="K46" s="3">
-        <v>0.008962728167012841</v>
+        <v>0.01354747077460951</v>
       </c>
       <c r="L46" s="3">
-        <v>0.0001566753437569038</v>
+        <v>0.0002096436199597743</v>
       </c>
       <c r="M46" s="3">
-        <v>0.01966199050038654</v>
+        <v>0.02667109340416112</v>
       </c>
       <c r="N46" s="3">
-        <v>0.1361286080787795</v>
+        <v>0.1400780292149379</v>
       </c>
       <c r="O46" s="3">
-        <v>-0.0003008107658670375</v>
+        <v>0.01344036851206045</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3038,43 +3038,43 @@
         <v>59</v>
       </c>
       <c r="C47" s="1">
-        <v>4338594.44428</v>
+        <v>4331772.851988572</v>
       </c>
       <c r="D47" s="2">
-        <v>1.098193112657324</v>
+        <v>1.093698392961795</v>
       </c>
       <c r="E47" s="3">
-        <v>0.006518904823989644</v>
+        <v>0.00389610389610385</v>
       </c>
       <c r="F47" s="3">
-        <v>0.0001184640332679976</v>
+        <v>8.435791714500763E-06</v>
       </c>
       <c r="G47" s="3">
-        <v>0.01179554390563574</v>
+        <v>0.01178010471204186</v>
       </c>
       <c r="H47" s="3">
-        <v>0.517647530713252</v>
+        <v>0.5545709972245647</v>
       </c>
       <c r="I47" s="3">
-        <v>0.04465493910690128</v>
+        <v>0.04742547425474249</v>
       </c>
       <c r="J47" s="3">
-        <v>1.12492482420794</v>
+        <v>1.0884287301059</v>
       </c>
       <c r="K47" s="3">
-        <v>0.03208556149732629</v>
+        <v>0.03204272363150865</v>
       </c>
       <c r="L47" s="3">
-        <v>0.1513887456380871</v>
+        <v>0.162120187052041</v>
       </c>
       <c r="M47" s="3">
-        <v>0.118840579710145</v>
+        <v>0.1170520231213873</v>
       </c>
       <c r="N47" s="3">
-        <v>0.8424253130793032</v>
+        <v>0.8467326715472101</v>
       </c>
       <c r="O47" s="3">
-        <v>0.0004729647575090315</v>
+        <v>0.1395861050867141</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3085,43 +3085,43 @@
         <v>60</v>
       </c>
       <c r="C48" s="1">
-        <v>10730644.6824</v>
+        <v>10728638.32174286</v>
       </c>
       <c r="D48" s="2">
-        <v>1.190654570453881</v>
+        <v>1.183963485648834</v>
       </c>
       <c r="E48" s="3">
-        <v>-0.01205106789165967</v>
+        <v>-0.006439303601240147</v>
       </c>
       <c r="F48" s="3">
-        <v>-1.375642119592242</v>
+        <v>-0.6053119337901792</v>
       </c>
       <c r="G48" s="3">
-        <v>0.002299963684783873</v>
+        <v>0.005066344993968681</v>
       </c>
       <c r="H48" s="3">
-        <v>-0.007673971008134038</v>
+        <v>-0.006882312511162678</v>
       </c>
       <c r="I48" s="3">
-        <v>0.03087649402390433</v>
+        <v>0.0378674638764325</v>
       </c>
       <c r="J48" s="3">
-        <v>0.2812728571054235</v>
+        <v>0.2629682448512039</v>
       </c>
       <c r="K48" s="3">
-        <v>0.045586563960096</v>
+        <v>0.06086070791953153</v>
       </c>
       <c r="L48" s="3">
-        <v>0.3592153296425294</v>
+        <v>0.3681323461466711</v>
       </c>
       <c r="M48" s="3">
-        <v>0.08933035126956985</v>
+        <v>0.09129011132940411</v>
       </c>
       <c r="N48" s="3">
-        <v>0.493727502324082</v>
+        <v>0.4979128176174712</v>
       </c>
       <c r="O48" s="3">
-        <v>0.2380019857868585</v>
+        <v>0.177129178090304</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3132,43 +3132,43 @@
         <v>61</v>
       </c>
       <c r="C49" s="1">
-        <v>9298296.431257144</v>
+        <v>9350259.877671428</v>
       </c>
       <c r="D49" s="2">
-        <v>1.215475644372189</v>
+        <v>1.212027997053896</v>
       </c>
       <c r="E49" s="3">
-        <v>0.00951474785918174</v>
+        <v>0.01425855513307986</v>
       </c>
       <c r="F49" s="3">
-        <v>0.107295781404865</v>
+        <v>0.06737410280150384</v>
       </c>
       <c r="G49" s="3">
-        <v>-0.01026119402985078</v>
+        <v>-0.008364312267657974</v>
       </c>
       <c r="H49" s="3">
-        <v>-6.205762130224872E-05</v>
+        <v>0.000258212269568065</v>
       </c>
       <c r="I49" s="3">
-        <v>0.01628352490421449</v>
+        <v>0.02301054650047938</v>
       </c>
       <c r="J49" s="3">
-        <v>0.154815337681755</v>
+        <v>0.1493283655407375</v>
       </c>
       <c r="K49" s="3">
-        <v>0.03714565004887584</v>
+        <v>0.04403131115459887</v>
       </c>
       <c r="L49" s="3">
-        <v>0.09002836650225556</v>
+        <v>0.0921991933761957</v>
       </c>
       <c r="M49" s="3">
-        <v>0.05257936507936507</v>
+        <v>0.05958291956305865</v>
       </c>
       <c r="N49" s="3">
-        <v>0.2584561335786565</v>
+        <v>0.2640886701922874</v>
       </c>
       <c r="O49" s="3">
-        <v>0.08713492605402264</v>
+        <v>0.07978664808884978</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3179,43 +3179,43 @@
         <v>62</v>
       </c>
       <c r="C50" s="1">
-        <v>7818284.4663</v>
+        <v>7859065.620571427</v>
       </c>
       <c r="D50" s="2">
-        <v>1.045563758991922</v>
+        <v>1.041469575525101</v>
       </c>
       <c r="E50" s="3">
-        <v>0.00648834745762714</v>
+        <v>0.01231298821660264</v>
       </c>
       <c r="F50" s="3">
-        <v>0.215094376448691</v>
+        <v>0.476506709082108</v>
       </c>
       <c r="G50" s="3">
-        <v>-0.00275518236683284</v>
+        <v>-0.001827676240208966</v>
       </c>
       <c r="H50" s="3">
-        <v>-0.1380039823938611</v>
+        <v>-0.0841092873529037</v>
       </c>
       <c r="I50" s="3">
-        <v>0.03443113772455089</v>
+        <v>0.04098025867937359</v>
       </c>
       <c r="J50" s="3">
-        <v>0.2026705400512816</v>
+        <v>0.1882622408607225</v>
       </c>
       <c r="K50" s="3">
-        <v>0.02163978494623656</v>
+        <v>0.02796450658779232</v>
       </c>
       <c r="L50" s="3">
-        <v>0.003286723747845615</v>
+        <v>0.004002960180738399</v>
       </c>
       <c r="M50" s="3">
-        <v>0.105760837940064</v>
+        <v>0.1077948420747608</v>
       </c>
       <c r="N50" s="3">
-        <v>0.5239506338442076</v>
+        <v>0.5235123462325605</v>
       </c>
       <c r="O50" s="3">
-        <v>0.01237268182819002</v>
+        <v>0.1480285414677416</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3226,43 +3226,43 @@
         <v>63</v>
       </c>
       <c r="C51" s="1">
-        <v>9322941.30383</v>
+        <v>9366265.509278143</v>
       </c>
       <c r="D51" s="2">
-        <v>0.949603647370215</v>
+        <v>0.949258952067312</v>
       </c>
       <c r="E51" s="3">
-        <v>0.02460024600245996</v>
+        <v>0.02767527675276747</v>
       </c>
       <c r="F51" s="3">
-        <v>2.276899527564836</v>
+        <v>2.633402468775752</v>
       </c>
       <c r="G51" s="3">
-        <v>0.0164734594264795</v>
+        <v>0.01272727272727271</v>
       </c>
       <c r="H51" s="3">
-        <v>-0.002042278844732372</v>
+        <v>-1.397379584442374E-05</v>
       </c>
       <c r="I51" s="3">
-        <v>0.03157894736842108</v>
+        <v>0.03595784252944816</v>
       </c>
       <c r="J51" s="3">
-        <v>0.03749770868797453</v>
+        <v>0.04374971018131441</v>
       </c>
       <c r="K51" s="3">
-        <v>0.01771533292608427</v>
+        <v>0.02578268876611414</v>
       </c>
       <c r="L51" s="3">
-        <v>0.0002331931725339734</v>
+        <v>0.0005578310821679543</v>
       </c>
       <c r="M51" s="3">
-        <v>0.07138263665594854</v>
+        <v>0.07598197037990989</v>
       </c>
       <c r="N51" s="3">
-        <v>0.2513383919305835</v>
+        <v>0.2546916227029522</v>
       </c>
       <c r="O51" s="3">
-        <v>0.0009239141213279337</v>
+        <v>0.05986584028061215</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3273,43 +3273,43 @@
         <v>64</v>
       </c>
       <c r="C52" s="1">
-        <v>8216192.885554287</v>
+        <v>8258834.048811427</v>
       </c>
       <c r="D52" s="2">
-        <v>1.141626579277872</v>
+        <v>1.129987282970879</v>
       </c>
       <c r="E52" s="3">
-        <v>0.01084236864053377</v>
+        <v>0.02085070892410329</v>
       </c>
       <c r="F52" s="3">
-        <v>0.5053612899211405</v>
+        <v>0.6296265480197252</v>
       </c>
       <c r="G52" s="3">
-        <v>-0.005742411812961352</v>
+        <v>0.002457002457002357</v>
       </c>
       <c r="H52" s="3">
-        <v>-0.006737152109046493</v>
+        <v>-0.0002104775880681696</v>
       </c>
       <c r="I52" s="3">
-        <v>0.02538071065989847</v>
+        <v>0.03816793893129763</v>
       </c>
       <c r="J52" s="3">
-        <v>0.03209089428130116</v>
+        <v>0.02832359778383471</v>
       </c>
       <c r="K52" s="3">
-        <v>0.01592623637887686</v>
+        <v>0.03378378378378372</v>
       </c>
       <c r="L52" s="3">
-        <v>0.0154939856410577</v>
+        <v>0.01770406783687306</v>
       </c>
       <c r="M52" s="3">
-        <v>0.07829181494661927</v>
+        <v>0.08993766696349054</v>
       </c>
       <c r="N52" s="3">
-        <v>0.5490186898517236</v>
+        <v>0.5517418259049838</v>
       </c>
       <c r="O52" s="3">
-        <v>0.0362141150017237</v>
+        <v>0.05913063237366262</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3320,43 +3320,43 @@
         <v>65</v>
       </c>
       <c r="C53" s="1">
-        <v>7763297.336526</v>
+        <v>7815960.072397</v>
       </c>
       <c r="D53" s="2">
-        <v>0.9912681168776049</v>
+        <v>0.9832315203422901</v>
       </c>
       <c r="E53" s="3">
-        <v>0.01558073654390927</v>
+        <v>0.01406469760900129</v>
       </c>
       <c r="F53" s="3">
-        <v>1.241088410874453</v>
+        <v>1.402830696579385</v>
       </c>
       <c r="G53" s="3">
-        <v>0.0098591549295774</v>
+        <v>0.00557880055788004</v>
       </c>
       <c r="H53" s="3">
-        <v>0.1089702326604608</v>
+        <v>0.1671648473973336</v>
       </c>
       <c r="I53" s="3">
-        <v>0.04366812227074231</v>
+        <v>0.05255474452554746</v>
       </c>
       <c r="J53" s="3">
-        <v>0.7077989888898163</v>
+        <v>0.700816662592556</v>
       </c>
       <c r="K53" s="3">
-        <v>0.05131964809384162</v>
+        <v>0.06342182890855451</v>
       </c>
       <c r="L53" s="3">
-        <v>0.2861958006313444</v>
+        <v>0.2975092694843656</v>
       </c>
       <c r="M53" s="3">
-        <v>0.05286343612334803</v>
+        <v>0.05718475073313779</v>
       </c>
       <c r="N53" s="3">
-        <v>0.2036800442679841</v>
+        <v>0.2114147323442863</v>
       </c>
       <c r="O53" s="3">
-        <v>0.1624078397660355</v>
+        <v>0.4991629660384608</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3367,43 +3367,43 @@
         <v>66</v>
       </c>
       <c r="C54" s="1">
-        <v>8627661.557250001</v>
+        <v>8662536.217757143</v>
       </c>
       <c r="D54" s="2">
-        <v>1.156484457490683</v>
+        <v>1.153147843813156</v>
       </c>
       <c r="E54" s="3">
-        <v>0.005747126436781707</v>
+        <v>0.007648183556405373</v>
       </c>
       <c r="F54" s="3">
-        <v>0.485963042189833</v>
+        <v>0.4529574612059554</v>
       </c>
       <c r="G54" s="3">
-        <v>-0.01315789473684206</v>
+        <v>-0.01310861423220969</v>
       </c>
       <c r="H54" s="3">
-        <v>-0.09361213233330533</v>
+        <v>-0.07721402853938568</v>
       </c>
       <c r="I54" s="3">
-        <v>0.009615384615384725</v>
+        <v>0.01346153846153858</v>
       </c>
       <c r="J54" s="3">
-        <v>0.0001672911988485412</v>
+        <v>9.106745874289136E-06</v>
       </c>
       <c r="K54" s="3">
-        <v>0.01351351351351363</v>
+        <v>0.01934235976789173</v>
       </c>
       <c r="L54" s="3">
-        <v>0.01618704214668942</v>
+        <v>0.01695955255369126</v>
       </c>
       <c r="M54" s="3">
-        <v>0.03143418467583505</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="N54" s="3">
-        <v>0.02233869256669782</v>
+        <v>0.02259386714999253</v>
       </c>
       <c r="O54" s="3">
-        <v>0.000658626065861288</v>
+        <v>0.02514644294351229</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3414,43 +3414,43 @@
         <v>67</v>
       </c>
       <c r="C55" s="1">
-        <v>10931966.10123429</v>
+        <v>10981592.57557857</v>
       </c>
       <c r="D55" s="2">
-        <v>1.232534291822788</v>
+        <v>1.22860268910259</v>
       </c>
       <c r="E55" s="3">
-        <v>0.02431118314424635</v>
+        <v>0.03084415584415586</v>
       </c>
       <c r="F55" s="3">
-        <v>3.231534476547434</v>
+        <v>3.3744196983026</v>
       </c>
       <c r="G55" s="3">
-        <v>0.006369426751592373</v>
+        <v>0.003159557661927339</v>
       </c>
       <c r="H55" s="3">
-        <v>-0.01219158539338614</v>
+        <v>-0.003977935611033578</v>
       </c>
       <c r="I55" s="3">
-        <v>0.01282051282051285</v>
+        <v>0.02090032154340835</v>
       </c>
       <c r="J55" s="3">
-        <v>-0.0003146978767234778</v>
+        <v>-7.344889030030454E-05</v>
       </c>
       <c r="K55" s="3">
-        <v>0.0604026845637584</v>
+        <v>0.0654362416107382</v>
       </c>
       <c r="L55" s="3">
-        <v>0.5243214892076562</v>
+        <v>0.5269659201023735</v>
       </c>
       <c r="M55" s="3">
-        <v>0.06937394247038912</v>
+        <v>0.0726351351351351</v>
       </c>
       <c r="N55" s="3">
-        <v>0.3902072933013531</v>
+        <v>0.397757812204471</v>
       </c>
       <c r="O55" s="3">
-        <v>-0.001265414481807815</v>
+        <v>0.2998005276187543</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3461,43 +3461,43 @@
         <v>68</v>
       </c>
       <c r="C56" s="1">
-        <v>8642315.123382859</v>
+        <v>8742684.934731429</v>
       </c>
       <c r="D56" s="2">
-        <v>0.9835631435875413</v>
+        <v>0.983856010452557</v>
       </c>
       <c r="E56" s="3">
-        <v>0.02435629784272788</v>
+        <v>0.03059805285118216</v>
       </c>
       <c r="F56" s="3">
-        <v>2.686164683733155</v>
+        <v>3.285458416082945</v>
       </c>
       <c r="G56" s="3">
-        <v>0.0130763936682726</v>
+        <v>0.01646090534979428</v>
       </c>
       <c r="H56" s="3">
-        <v>0.06661050038007579</v>
+        <v>0.1579142321528386</v>
       </c>
       <c r="I56" s="3">
-        <v>0.05823148813803019</v>
+        <v>0.06926406926406919</v>
       </c>
       <c r="J56" s="3">
-        <v>0.5176269749545974</v>
+        <v>0.5242255191611734</v>
       </c>
       <c r="K56" s="3">
-        <v>0.03735024665257231</v>
+        <v>0.04513399153737659</v>
       </c>
       <c r="L56" s="3">
-        <v>0.05484309213216104</v>
+        <v>0.06537001375416385</v>
       </c>
       <c r="M56" s="3">
-        <v>0.06589427950760327</v>
+        <v>0.07003610108303251</v>
       </c>
       <c r="N56" s="3">
-        <v>0.1245887788520679</v>
+        <v>0.1293354442219455</v>
       </c>
       <c r="O56" s="3">
-        <v>0.1120014220502846</v>
+        <v>0.297130810122103</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3508,43 +3508,43 @@
         <v>69</v>
       </c>
       <c r="C57" s="1">
-        <v>9217416.365714286</v>
+        <v>9351709.459018571</v>
       </c>
       <c r="D57" s="2">
-        <v>0.8462616100329258</v>
+        <v>0.8452496363850766</v>
       </c>
       <c r="E57" s="3">
-        <v>-0.003074400491904025</v>
+        <v>0.002456499488229315</v>
       </c>
       <c r="F57" s="3">
-        <v>-0.4805665536289631</v>
+        <v>-0.1276563226655499</v>
       </c>
       <c r="G57" s="3">
-        <v>-0.034154090548054</v>
+        <v>-0.03087274886206212</v>
       </c>
       <c r="H57" s="3">
-        <v>-2.663318772005215</v>
+        <v>-2.41276000043809</v>
       </c>
       <c r="I57" s="3">
-        <v>-0.004706363822385802</v>
+        <v>-0.00345950345950353</v>
       </c>
       <c r="J57" s="3">
-        <v>-0.7155908934651953</v>
+        <v>-0.8311215556790396</v>
       </c>
       <c r="K57" s="3">
-        <v>-0.0091668364228967</v>
+        <v>0.0002042483660131345</v>
       </c>
       <c r="L57" s="3">
-        <v>-0.002387559363905863</v>
+        <v>-0.002666680096104814</v>
       </c>
       <c r="M57" s="3">
-        <v>0.009757110234585949</v>
+        <v>0.01534314741861907</v>
       </c>
       <c r="N57" s="3">
-        <v>0.1946525429109748</v>
+        <v>0.1964993156274259</v>
       </c>
       <c r="O57" s="3">
-        <v>-0.01250677259682948</v>
+        <v>-0.06516150138082734</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3555,43 +3555,43 @@
         <v>70</v>
       </c>
       <c r="C58" s="1">
-        <v>17880670.4204</v>
+        <v>18115795.7376</v>
       </c>
       <c r="D58" s="2">
-        <v>1.208565716292643</v>
+        <v>1.209459770383488</v>
       </c>
       <c r="E58" s="3">
-        <v>0.03533026113671278</v>
+        <v>0.03427265803503439</v>
       </c>
       <c r="F58" s="3">
-        <v>2.349942299947822</v>
+        <v>1.901389525809766</v>
       </c>
       <c r="G58" s="3">
-        <v>0.03215926493108732</v>
+        <v>0.02800908402725219</v>
       </c>
       <c r="H58" s="3">
-        <v>2.51240947363725</v>
+        <v>2.67396806104861</v>
       </c>
       <c r="I58" s="3">
-        <v>0.09504467912266448</v>
+        <v>0.1058631921824105</v>
       </c>
       <c r="J58" s="3">
-        <v>3.215018813006835</v>
+        <v>3.170179161103749</v>
       </c>
       <c r="K58" s="3">
-        <v>0.09861450692746536</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="L58" s="3">
-        <v>0.871802490522908</v>
+        <v>0.8949235694643098</v>
       </c>
       <c r="M58" s="3">
-        <v>0.1318219983207389</v>
+        <v>0.1335559265442405</v>
       </c>
       <c r="N58" s="3">
-        <v>0.6787192607180971</v>
+        <v>0.691396227757587</v>
       </c>
       <c r="O58" s="3">
-        <v>0.4224034959948972</v>
+        <v>1.398156547637038</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3602,43 +3602,43 @@
         <v>71</v>
       </c>
       <c r="C59" s="1">
-        <v>39560133.48162857</v>
+        <v>39970475.69354286</v>
       </c>
       <c r="D59" s="2">
-        <v>0.9951692998126797</v>
+        <v>0.9947673392028145</v>
       </c>
       <c r="E59" s="3">
-        <v>0.04175988068605514</v>
+        <v>0.04822271936365903</v>
       </c>
       <c r="F59" s="3">
-        <v>6.095222055181667</v>
+        <v>6.61092060138329</v>
       </c>
       <c r="G59" s="3">
-        <v>0.02419354838709669</v>
+        <v>0.02528567955263803</v>
       </c>
       <c r="H59" s="3">
-        <v>0.3349019763954875</v>
+        <v>0.5199798671636883</v>
       </c>
       <c r="I59" s="3">
-        <v>0.0696784073506891</v>
+        <v>0.07658922644881294</v>
       </c>
       <c r="J59" s="3">
-        <v>0.6947745766517863</v>
+        <v>0.710026636396471</v>
       </c>
       <c r="K59" s="3">
-        <v>0.07049808429118763</v>
+        <v>0.07851662404092073</v>
       </c>
       <c r="L59" s="3">
-        <v>0.1782365146009317</v>
+        <v>0.190779535641018</v>
       </c>
       <c r="M59" s="3">
-        <v>0.01526162790697668</v>
+        <v>0.02081820382473976</v>
       </c>
       <c r="N59" s="3">
-        <v>0.01369880310631985</v>
+        <v>0.0168056838870446</v>
       </c>
       <c r="O59" s="3">
-        <v>0.05499210729779236</v>
+        <v>0.4504030860187445</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3649,43 +3649,43 @@
         <v>72</v>
       </c>
       <c r="C60" s="1">
-        <v>8041284.8215</v>
+        <v>8122877.3028</v>
       </c>
       <c r="D60" s="2">
-        <v>0.9618263169720072</v>
+        <v>0.9558444251629877</v>
       </c>
       <c r="E60" s="3">
-        <v>-0.00518582541054454</v>
+        <v>0.003454231433506024</v>
       </c>
       <c r="F60" s="3">
-        <v>-0.02067307238776192</v>
+        <v>0.001997496075135006</v>
       </c>
       <c r="G60" s="3">
-        <v>-0.01286449399656948</v>
+        <v>-0.005988023952095861</v>
       </c>
       <c r="H60" s="3">
-        <v>-0.444102177459349</v>
+        <v>-0.26848731168374</v>
       </c>
       <c r="I60" s="3">
-        <v>0.03321364452423694</v>
+        <v>0.04215246636771296</v>
       </c>
       <c r="J60" s="3">
-        <v>0.01378515963140583</v>
+        <v>0.00851456264557539</v>
       </c>
       <c r="K60" s="3">
-        <v>0.01142355008787342</v>
+        <v>0.02559576345984113</v>
       </c>
       <c r="L60" s="3">
-        <v>0.01674744108045115</v>
+        <v>0.019800941650822</v>
       </c>
       <c r="M60" s="3">
-        <v>0.01768346595932792</v>
+        <v>0.02469135802469133</v>
       </c>
       <c r="N60" s="3">
-        <v>0.1984271871558324</v>
+        <v>0.2069995455205881</v>
       </c>
       <c r="O60" s="3">
-        <v>0.02848388341269268</v>
+        <v>0.0141577521481987</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3696,43 +3696,43 @@
         <v>73</v>
       </c>
       <c r="C61" s="1">
-        <v>9889213.937039999</v>
+        <v>9949927.896625714</v>
       </c>
       <c r="D61" s="2">
-        <v>1.007240560272015</v>
+        <v>1.002274604750377</v>
       </c>
       <c r="E61" s="3">
-        <v>0.009460211463550363</v>
+        <v>0.01503550048726156</v>
       </c>
       <c r="F61" s="3">
-        <v>0.9858976537595034</v>
+        <v>1.477448568467737</v>
       </c>
       <c r="G61" s="3">
-        <v>-0.02525523911875345</v>
+        <v>-0.02812583311117036</v>
       </c>
       <c r="H61" s="3">
-        <v>-1.144683843089779</v>
+        <v>-0.8672934707241641</v>
       </c>
       <c r="I61" s="3">
-        <v>0.008057793831619855</v>
+        <v>0.01418834330226745</v>
       </c>
       <c r="J61" s="3">
-        <v>-0.2298172766954753</v>
+        <v>-0.256154488043859</v>
       </c>
       <c r="K61" s="3">
-        <v>-0.01036552100381883</v>
+        <v>-0.00300834130999587</v>
       </c>
       <c r="L61" s="3">
-        <v>-0.03110647084503664</v>
+        <v>-0.02921859693806027</v>
       </c>
       <c r="M61" s="3">
-        <v>0.02732549907971119</v>
+        <v>0.03184262666289275</v>
       </c>
       <c r="N61" s="3">
-        <v>0.02788788595352349</v>
+        <v>0.02752274272377257</v>
       </c>
       <c r="O61" s="3">
-        <v>3.599634215758737</v>
+        <v>0.001312014862416239</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3743,43 +3743,43 @@
         <v>74</v>
       </c>
       <c r="C62" s="1">
-        <v>10140595.87645714</v>
+        <v>10130094.9356</v>
       </c>
       <c r="D62" s="2">
-        <v>0.9493018598122177</v>
+        <v>0.9427321844064582</v>
       </c>
       <c r="E62" s="3">
-        <v>0.003058103975535256</v>
+        <v>0.006116207951070299</v>
       </c>
       <c r="F62" s="3">
-        <v>0.01968907199969679</v>
+        <v>0.1501767965087916</v>
       </c>
       <c r="G62" s="3">
-        <v>0.003058103975535256</v>
+        <v>0.006116207951070299</v>
       </c>
       <c r="H62" s="3">
-        <v>-0.1462429827934292</v>
+        <v>-0.08932431494371063</v>
       </c>
       <c r="I62" s="3">
-        <v>0.01863354037267091</v>
+        <v>0.02492211838006237</v>
       </c>
       <c r="J62" s="3">
-        <v>0.01334145526479218</v>
+        <v>0.01343571999686839</v>
       </c>
       <c r="K62" s="3">
-        <v>0.01234567901234582</v>
+        <v>0.01857585139318874</v>
       </c>
       <c r="L62" s="3">
-        <v>0.008681034806697008</v>
+        <v>0.01053384291675024</v>
       </c>
       <c r="M62" s="3">
-        <v>0.03797468354430378</v>
+        <v>0.03785488958990536</v>
       </c>
       <c r="N62" s="3">
-        <v>8.081153558067639E-05</v>
+        <v>7.222825149121647E-05</v>
       </c>
       <c r="O62" s="3">
-        <v>0.01496608810688129</v>
+        <v>0.02564530479338687</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3790,43 +3790,43 @@
         <v>75</v>
       </c>
       <c r="C63" s="1">
-        <v>56564945.5778</v>
+        <v>56994407.9694</v>
       </c>
       <c r="D63" s="2">
-        <v>1.777624595149173</v>
+        <v>1.768181938757696</v>
       </c>
       <c r="E63" s="3">
-        <v>0.09045226130653258</v>
+        <v>0.09002267573696147</v>
       </c>
       <c r="F63" s="3">
-        <v>4.864799010406418</v>
+        <v>3.209979942582411</v>
       </c>
       <c r="G63" s="3">
-        <v>0.08229426433915212</v>
+        <v>0.08681890119828169</v>
       </c>
       <c r="H63" s="3">
-        <v>5.888330599443844</v>
+        <v>6.273943347227404</v>
       </c>
       <c r="I63" s="3">
-        <v>0.06065318818040433</v>
+        <v>0.06609004213794631</v>
       </c>
       <c r="J63" s="3">
-        <v>0.4049991016931519</v>
+        <v>0.4917966019095198</v>
       </c>
       <c r="K63" s="3">
-        <v>0.0118694362017804</v>
+        <v>0.02037783909997877</v>
       </c>
       <c r="L63" s="3">
-        <v>-0.08720924297107903</v>
+        <v>-0.07101752039161209</v>
       </c>
       <c r="M63" s="3">
-        <v>-0.3722550953320184</v>
+        <v>-0.3390622851643063</v>
       </c>
       <c r="N63" s="3">
-        <v>-1.452343113892339</v>
+        <v>-1.408784886782482</v>
       </c>
       <c r="O63" s="3">
-        <v>-0.3484835155829222</v>
+        <v>0.2103895407589539</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3837,43 +3837,43 @@
         <v>76</v>
       </c>
       <c r="C64" s="1">
-        <v>13154695.64269714</v>
+        <v>13221796.9557</v>
       </c>
       <c r="D64" s="2">
-        <v>1.050746062243596</v>
+        <v>1.048156570683356</v>
       </c>
       <c r="E64" s="3">
-        <v>0.03403863845446187</v>
+        <v>0.04097605893186013</v>
       </c>
       <c r="F64" s="3">
-        <v>4.203067862523002</v>
+        <v>4.410264222202651</v>
       </c>
       <c r="G64" s="3">
-        <v>0.02321347291761493</v>
+        <v>0.02493200362647334</v>
       </c>
       <c r="H64" s="3">
-        <v>0.4634426430835653</v>
+        <v>0.6105232960847148</v>
       </c>
       <c r="I64" s="3">
-        <v>0.05490380103237921</v>
+        <v>0.06000937646507283</v>
       </c>
       <c r="J64" s="3">
-        <v>0.7024046250787144</v>
+        <v>0.7142585150204899</v>
       </c>
       <c r="K64" s="3">
-        <v>0.01261261261261257</v>
+        <v>0.01800990544799645</v>
       </c>
       <c r="L64" s="3">
-        <v>-0.01393752866258315</v>
+        <v>-0.009965629704735019</v>
       </c>
       <c r="M64" s="3">
-        <v>0.05292740046838403</v>
+        <v>0.05802526906878809</v>
       </c>
       <c r="N64" s="3">
-        <v>0.04596304978506684</v>
+        <v>0.04740758515593603</v>
       </c>
       <c r="O64" s="3">
-        <v>-0.07813518842916778</v>
+        <v>0.386141892044639</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3884,43 +3884,43 @@
         <v>77</v>
       </c>
       <c r="C65" s="1">
-        <v>32687362.98522857</v>
+        <v>33513434.60211771</v>
       </c>
       <c r="D65" s="2">
-        <v>1.21124038646023</v>
+        <v>1.205338135289035</v>
       </c>
       <c r="E65" s="3">
-        <v>0.0608666887198148</v>
+        <v>0.07234886025768088</v>
       </c>
       <c r="F65" s="3">
-        <v>6.832264259453868</v>
+        <v>7.408451798574963</v>
       </c>
       <c r="G65" s="3">
-        <v>0.05251066622907792</v>
+        <v>0.06043776543613207</v>
       </c>
       <c r="H65" s="3">
-        <v>1.798231807538337</v>
+        <v>2.178653683785033</v>
       </c>
       <c r="I65" s="3">
-        <v>0.08125421443020915</v>
+        <v>0.09440323668240065</v>
       </c>
       <c r="J65" s="3">
-        <v>1.165991122249569</v>
+        <v>1.246795934830395</v>
       </c>
       <c r="K65" s="3">
-        <v>0.08161888701517707</v>
+        <v>0.09625126646403245</v>
       </c>
       <c r="L65" s="3">
-        <v>0.09089504875529979</v>
+        <v>0.1050539434571534</v>
       </c>
       <c r="M65" s="3">
-        <v>0.03652230122818367</v>
+        <v>0.05150631681243936</v>
       </c>
       <c r="N65" s="3">
-        <v>0.008056607095732089</v>
+        <v>0.01048615448967778</v>
       </c>
       <c r="O65" s="3">
-        <v>0.1015583257739025</v>
+        <v>0.6759249391437739</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3931,43 +3931,43 @@
         <v>78</v>
       </c>
       <c r="C66" s="1">
-        <v>34050742.7736</v>
+        <v>34208066.30827142</v>
       </c>
       <c r="D66" s="2">
-        <v>1.495092267340945</v>
+        <v>1.489495681570196</v>
       </c>
       <c r="E66" s="3">
-        <v>-0.01328191945158532</v>
+        <v>-0.003657487091221915</v>
       </c>
       <c r="F66" s="3">
-        <v>-0.02076591951906936</v>
+        <v>1.006035437396482E-11</v>
       </c>
       <c r="G66" s="3">
-        <v>-0.01560162427869211</v>
+        <v>-0.01551870748299309</v>
       </c>
       <c r="H66" s="3">
-        <v>-0.5158424220963724</v>
+        <v>-0.419553916679696</v>
       </c>
       <c r="I66" s="3">
-        <v>0.02038103677447932</v>
+        <v>0.02774079005770084</v>
       </c>
       <c r="J66" s="3">
-        <v>0.02381632022228531</v>
+        <v>0.01690839872247809</v>
       </c>
       <c r="K66" s="3">
-        <v>0.05039908779931587</v>
+        <v>0.05972540045766593</v>
       </c>
       <c r="L66" s="3">
-        <v>0.7515435653661968</v>
+        <v>0.7705501291600181</v>
       </c>
       <c r="M66" s="3">
-        <v>0.07868852459016401</v>
+        <v>0.083528310715957</v>
       </c>
       <c r="N66" s="3">
-        <v>0.1854717021809484</v>
+        <v>0.1888764741440269</v>
       </c>
       <c r="O66" s="3">
-        <v>0.5081870795263206</v>
+        <v>0.05021835471921754</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3978,43 +3978,43 @@
         <v>79</v>
       </c>
       <c r="C67" s="1">
-        <v>65501692.94122858</v>
+        <v>66068048.68402857</v>
       </c>
       <c r="D67" s="2">
-        <v>1.591910104899665</v>
+        <v>1.592928056505857</v>
       </c>
       <c r="E67" s="3">
-        <v>0.07024265644955292</v>
+        <v>0.07535121328224768</v>
       </c>
       <c r="F67" s="3">
-        <v>8.332340703146759</v>
+        <v>7.851954595948595</v>
       </c>
       <c r="G67" s="3">
-        <v>0.08408796895213447</v>
+        <v>0.07261146496815278</v>
       </c>
       <c r="H67" s="3">
-        <v>3.265989002148583</v>
+        <v>3.327162653028678</v>
       </c>
       <c r="I67" s="3">
-        <v>0.1055408970976253</v>
+        <v>0.1152317880794702</v>
       </c>
       <c r="J67" s="3">
-        <v>2.998529565542993</v>
+        <v>3.060515625137208</v>
       </c>
       <c r="K67" s="3">
-        <v>0.1903409090909091</v>
+        <v>0.2063037249283668</v>
       </c>
       <c r="L67" s="3">
-        <v>2.540267463175091</v>
+        <v>2.589255586616347</v>
       </c>
       <c r="M67" s="3">
-        <v>0.1510989010989011</v>
+        <v>0.1487039563437926</v>
       </c>
       <c r="N67" s="3">
-        <v>0.7390077688131786</v>
+        <v>0.7690612891280274</v>
       </c>
       <c r="O67" s="3">
-        <v>0.5358086088128016</v>
+        <v>2.824885605876777</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4025,43 +4025,43 @@
         <v>80</v>
       </c>
       <c r="C68" s="1">
-        <v>19614847.18764285</v>
+        <v>19817489.02018286</v>
       </c>
       <c r="D68" s="2">
-        <v>1.068767788018293</v>
+        <v>1.070634787371318</v>
       </c>
       <c r="E68" s="3">
-        <v>-0.01534296028880867</v>
+        <v>-0.01437556154537275</v>
       </c>
       <c r="F68" s="3">
-        <v>-0.007756769128879496</v>
+        <v>0.0001403630675330292</v>
       </c>
       <c r="G68" s="3">
-        <v>-0.03961267605633809</v>
+        <v>-0.03771929824561402</v>
       </c>
       <c r="H68" s="3">
-        <v>-2.261343226918974</v>
+        <v>-2.04220772362521</v>
       </c>
       <c r="I68" s="3">
-        <v>-0.002286236854138154</v>
+        <v>0.005960568546538361</v>
       </c>
       <c r="J68" s="3">
-        <v>-0.2023282572909784</v>
+        <v>-0.2441676338867056</v>
       </c>
       <c r="K68" s="3">
-        <v>-0.03151353750554826</v>
+        <v>-0.02705099778270507</v>
       </c>
       <c r="L68" s="3">
-        <v>-0.06104442957092532</v>
+        <v>-0.05883435101274335</v>
       </c>
       <c r="M68" s="3">
-        <v>0.03855306996668244</v>
+        <v>0.03833412210127789</v>
       </c>
       <c r="N68" s="3">
-        <v>0.03308564969528657</v>
+        <v>0.0312627674086248</v>
       </c>
       <c r="O68" s="3">
-        <v>-0.03217882212900158</v>
+        <v>-0.02934699397260516</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4072,43 +4072,43 @@
         <v>81</v>
       </c>
       <c r="C69" s="1">
-        <v>72858517.60457143</v>
+        <v>73195118.22480001</v>
       </c>
       <c r="D69" s="2">
-        <v>1.102904137838849</v>
+        <v>1.099758422572926</v>
       </c>
       <c r="E69" s="3">
-        <v>0.03764093668690362</v>
+        <v>0.04144269117392064</v>
       </c>
       <c r="F69" s="3">
-        <v>5.244258459590912</v>
+        <v>4.893667935135328</v>
       </c>
       <c r="G69" s="3">
-        <v>0.02589607271480021</v>
+        <v>0.02247191011235953</v>
       </c>
       <c r="H69" s="3">
-        <v>0.7299388233064193</v>
+        <v>0.8363970795013579</v>
       </c>
       <c r="I69" s="3">
-        <v>0.0595111583421891</v>
+        <v>0.06583850931677022</v>
       </c>
       <c r="J69" s="3">
-        <v>1.257764932677644</v>
+        <v>1.256292445778179</v>
       </c>
       <c r="K69" s="3">
-        <v>0.06346666666666659</v>
+        <v>0.06830309498399144</v>
       </c>
       <c r="L69" s="3">
-        <v>0.2662278640253675</v>
+        <v>0.280889920757876</v>
       </c>
       <c r="M69" s="3">
-        <v>0.03120151697983108</v>
+        <v>0.04397705544933076</v>
       </c>
       <c r="N69" s="3">
-        <v>0.02930534926676284</v>
+        <v>0.03310592651358254</v>
       </c>
       <c r="O69" s="3">
-        <v>0.1087203197473818</v>
+        <v>0.7685911832680274</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4119,43 +4119,43 @@
         <v>82</v>
       </c>
       <c r="C70" s="1">
-        <v>278951427.9090286</v>
+        <v>279112597.4148943</v>
       </c>
       <c r="D70" s="2">
-        <v>1.28018909352269</v>
+        <v>1.286899851621911</v>
       </c>
       <c r="E70" s="3">
-        <v>0.05651794616151542</v>
+        <v>0.0543925233644859</v>
       </c>
       <c r="F70" s="3">
-        <v>6.581372128023813</v>
+        <v>7.592035053106748</v>
       </c>
       <c r="G70" s="3">
-        <v>0.04152589225382405</v>
+        <v>0.02093388030888032</v>
       </c>
       <c r="H70" s="3">
-        <v>0.03060092006902021</v>
+        <v>0.07239456603738652</v>
       </c>
       <c r="I70" s="3">
-        <v>0.0380824098450989</v>
+        <v>0.03694852941176458</v>
       </c>
       <c r="J70" s="3">
-        <v>-0.0005176629317574165</v>
+        <v>-2.163429901167377E-07</v>
       </c>
       <c r="K70" s="3">
-        <v>-0.01390019774339888</v>
+        <v>-0.01472985561248256</v>
       </c>
       <c r="L70" s="3">
-        <v>-0.756178922025137</v>
+        <v>-0.7081369537264592</v>
       </c>
       <c r="M70" s="3">
-        <v>-0.3633598678281766</v>
+        <v>-0.3659898096808032</v>
       </c>
       <c r="N70" s="3">
-        <v>-2.274538991854697</v>
+        <v>-2.227712582131594</v>
       </c>
       <c r="O70" s="3">
-        <v>-0.002066455627998826</v>
+        <v>-0.1829950130118967</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4166,43 +4166,43 @@
         <v>83</v>
       </c>
       <c r="C71" s="1">
-        <v>22905929.73857142</v>
+        <v>23114067.65571428</v>
       </c>
       <c r="D71" s="2">
-        <v>0.9215342066892716</v>
+        <v>0.9200043992582856</v>
       </c>
       <c r="E71" s="3">
-        <v>-0.01204343534057255</v>
+        <v>-0.009284867641248593</v>
       </c>
       <c r="F71" s="3">
-        <v>-0.5777891077223895</v>
+        <v>-0.4188357982740579</v>
       </c>
       <c r="G71" s="3">
-        <v>-0.04394344669468862</v>
+        <v>-0.04129229592812094</v>
       </c>
       <c r="H71" s="3">
-        <v>-3.043827239385114</v>
+        <v>-2.932698985434625</v>
       </c>
       <c r="I71" s="3">
-        <v>-0.03379030700907525</v>
+        <v>-0.03035576179427697</v>
       </c>
       <c r="J71" s="3">
-        <v>-1.703883440678041</v>
+        <v>-1.793191548348838</v>
       </c>
       <c r="K71" s="3">
-        <v>-0.02683780630105024</v>
+        <v>-0.02222655488399313</v>
       </c>
       <c r="L71" s="3">
-        <v>-0.1338687673539638</v>
+        <v>-0.1490306033942252</v>
       </c>
       <c r="M71" s="3">
-        <v>-0.0547789950887798</v>
+        <v>-0.05252219913092773</v>
       </c>
       <c r="N71" s="3">
-        <v>-0.01750444032881587</v>
+        <v>-0.01809205392267714</v>
       </c>
       <c r="O71" s="3">
-        <v>-0.1426390853366434</v>
+        <v>-0.2839332008341415</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4213,43 +4213,43 @@
         <v>84</v>
       </c>
       <c r="C72" s="1">
-        <v>23957207.4204</v>
+        <v>23925586.80512143</v>
       </c>
       <c r="D72" s="2">
-        <v>1.27976339784186</v>
+        <v>1.277198534458214</v>
       </c>
       <c r="E72" s="3">
-        <v>0.01106263633530698</v>
+        <v>0.009324009324009159</v>
       </c>
       <c r="F72" s="3">
-        <v>0.2339573591188542</v>
+        <v>0.4078967040816082</v>
       </c>
       <c r="G72" s="3">
-        <v>0.01374785189814101</v>
+        <v>0.01152468462856238</v>
       </c>
       <c r="H72" s="3">
-        <v>0.02113328222752247</v>
+        <v>0.03723260464736457</v>
       </c>
       <c r="I72" s="3">
-        <v>0.03426840930825628</v>
+        <v>0.03737422137038804</v>
       </c>
       <c r="J72" s="3">
-        <v>0.4406809319230096</v>
+        <v>0.4488284290320974</v>
       </c>
       <c r="K72" s="3">
-        <v>0.03741007194244619</v>
+        <v>0.04186717998075063</v>
       </c>
       <c r="L72" s="3">
-        <v>0.01103043005030152</v>
+        <v>0.01235573074034533</v>
       </c>
       <c r="M72" s="3">
-        <v>0.0798801797304045</v>
+        <v>0.07782940590773303</v>
       </c>
       <c r="N72" s="3">
-        <v>0.6071168377622373</v>
+        <v>0.6185901278512088</v>
       </c>
       <c r="O72" s="3">
-        <v>0.03645625336417006</v>
+        <v>0.2428630549946706</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4260,43 +4260,43 @@
         <v>85</v>
       </c>
       <c r="C73" s="1">
-        <v>6131487.79866</v>
+        <v>6162054.241652857</v>
       </c>
       <c r="D73" s="2">
-        <v>1.094597233227335</v>
+        <v>1.095614867004171</v>
       </c>
       <c r="E73" s="3">
-        <v>0.01822821728035</v>
+        <v>0.02005835156819834</v>
       </c>
       <c r="F73" s="3">
-        <v>1.566347089543454</v>
+        <v>2.084835740810992</v>
       </c>
       <c r="G73" s="3">
-        <v>0.008303249097472962</v>
+        <v>0.004308797127468531</v>
       </c>
       <c r="H73" s="3">
-        <v>-0.001668435539280396</v>
+        <v>5.199107884197715E-06</v>
       </c>
       <c r="I73" s="3">
-        <v>0.03253234750462103</v>
+        <v>0.03515914137675794</v>
       </c>
       <c r="J73" s="3">
-        <v>8.03015263015065E-05</v>
+        <v>0.0001025542407388457</v>
       </c>
       <c r="K73" s="3">
-        <v>0.06603053435114499</v>
+        <v>0.06959847036328867</v>
       </c>
       <c r="L73" s="3">
-        <v>0.497717192822579</v>
+        <v>0.5033597261402144</v>
       </c>
       <c r="M73" s="3">
-        <v>0.07134637514384352</v>
+        <v>0.07164750957854393</v>
       </c>
       <c r="N73" s="3">
-        <v>0.5201314786395997</v>
+        <v>0.5323580314547375</v>
       </c>
       <c r="O73" s="3">
-        <v>0.0003207768663121717</v>
+        <v>0.2875036178593792</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4307,43 +4307,43 @@
         <v>86</v>
       </c>
       <c r="C74" s="1">
-        <v>11921979.97388572</v>
+        <v>12115889.199</v>
       </c>
       <c r="D74" s="2">
-        <v>1.026233176440661</v>
+        <v>1.028524043549776</v>
       </c>
       <c r="E74" s="3">
-        <v>0.04917869586859132</v>
+        <v>0.04823564297716709</v>
       </c>
       <c r="F74" s="3">
-        <v>4.486188867821046</v>
+        <v>4.667875412619835</v>
       </c>
       <c r="G74" s="3">
-        <v>0.05611784747970744</v>
+        <v>0.0594405594405595</v>
       </c>
       <c r="H74" s="3">
-        <v>2.530651331696745</v>
+        <v>2.66785397821474</v>
       </c>
       <c r="I74" s="3">
-        <v>0.08325624421831643</v>
+        <v>0.0901521381578948</v>
       </c>
       <c r="J74" s="3">
-        <v>1.942737268987797</v>
+        <v>1.973578987520442</v>
       </c>
       <c r="K74" s="3">
-        <v>0.1506714706845724</v>
+        <v>0.1551029299640564</v>
       </c>
       <c r="L74" s="3">
-        <v>1.12603102096922</v>
+        <v>1.13281479735507</v>
       </c>
       <c r="M74" s="3">
-        <v>0.07475015296757094</v>
+        <v>0.08258472846059628</v>
       </c>
       <c r="N74" s="3">
-        <v>0.4721057136105035</v>
+        <v>0.4977805592797878</v>
       </c>
       <c r="O74" s="3">
-        <v>0.2666023614546747</v>
+        <v>1.553196892437756</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4354,43 +4354,43 @@
         <v>87</v>
       </c>
       <c r="C75" s="1">
-        <v>9800878.865600001</v>
+        <v>9818378.887560001</v>
       </c>
       <c r="D75" s="2">
-        <v>1.037870532309665</v>
+        <v>1.035691930160285</v>
       </c>
       <c r="E75" s="3">
-        <v>0.02400717971729866</v>
+        <v>0.02406806224112839</v>
       </c>
       <c r="F75" s="3">
-        <v>2.498633942301355</v>
+        <v>2.637971047827696</v>
       </c>
       <c r="G75" s="3">
-        <v>-0.005447809980387889</v>
+        <v>-0.006408167698490207</v>
       </c>
       <c r="H75" s="3">
-        <v>-0.02664656841592672</v>
+        <v>-0.003464998428786138</v>
       </c>
       <c r="I75" s="3">
-        <v>0.03001579778830959</v>
+        <v>0.03320533092387636</v>
       </c>
       <c r="J75" s="3">
-        <v>-0.0007016784285726437</v>
+        <v>-0.001122299228126074</v>
       </c>
       <c r="K75" s="3">
-        <v>0.01795472287275566</v>
+        <v>0.01848140725896247</v>
       </c>
       <c r="L75" s="3">
-        <v>0.004022567448419775</v>
+        <v>0.005299932337365042</v>
       </c>
       <c r="M75" s="3">
-        <v>0.05795085767269361</v>
+        <v>0.05904144477888409</v>
       </c>
       <c r="N75" s="3">
-        <v>0.2103414039838293</v>
+        <v>0.2137297250739324</v>
       </c>
       <c r="O75" s="3">
-        <v>-0.003451547120881093</v>
+        <v>0.03217068855812456</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4401,43 +4401,43 @@
         <v>88</v>
       </c>
       <c r="C76" s="1">
-        <v>51877656.09371429</v>
+        <v>52445659.37371429</v>
       </c>
       <c r="D76" s="2">
-        <v>1.159788302677055</v>
+        <v>1.154523060276673</v>
       </c>
       <c r="E76" s="3">
-        <v>0.01439905965324711</v>
+        <v>0.02350176263219744</v>
       </c>
       <c r="F76" s="3">
-        <v>1.149053249473453</v>
+        <v>1.527461821889593</v>
       </c>
       <c r="G76" s="3">
-        <v>-0.006761617033520315</v>
+        <v>-0.002005156115726187</v>
       </c>
       <c r="H76" s="3">
-        <v>-0.06633172017397215</v>
+        <v>-0.01424096143956579</v>
       </c>
       <c r="I76" s="3">
-        <v>0.0228148148148148</v>
+        <v>0.03183770176217975</v>
       </c>
       <c r="J76" s="3">
-        <v>0.001709351493394012</v>
+        <v>0.002023157488242599</v>
       </c>
       <c r="K76" s="3">
-        <v>0.03353293413173656</v>
+        <v>0.04624624624624622</v>
       </c>
       <c r="L76" s="3">
-        <v>0.2798933048971277</v>
+        <v>0.2945381345331063</v>
       </c>
       <c r="M76" s="3">
-        <v>-0.02430751837196152</v>
+        <v>-0.01679130802878507</v>
       </c>
       <c r="N76" s="3">
-        <v>0.0001631252953888607</v>
+        <v>0.0003241994762825794</v>
       </c>
       <c r="O76" s="3">
-        <v>0.007295000600965695</v>
+        <v>0.1482806460106744</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4448,43 +4448,43 @@
         <v>89</v>
       </c>
       <c r="C77" s="1">
-        <v>6086624.839428571</v>
+        <v>6087109.402457142</v>
       </c>
       <c r="D77" s="2">
-        <v>0.7973738055508429</v>
+        <v>0.7988646076648261</v>
       </c>
       <c r="E77" s="3">
-        <v>0.02592016588906172</v>
+        <v>0.02353854112778064</v>
       </c>
       <c r="F77" s="3">
-        <v>2.993755758362685</v>
+        <v>2.814634052190911</v>
       </c>
       <c r="G77" s="3">
-        <v>0</v>
+        <v>-0.004027183488547673</v>
       </c>
       <c r="H77" s="3">
-        <v>-0.0003012797166581964</v>
+        <v>2.683576655652784E-05</v>
       </c>
       <c r="I77" s="3">
-        <v>0.01931496265773888</v>
+        <v>0.02050290135396522</v>
       </c>
       <c r="J77" s="3">
-        <v>-0.001592282659504539</v>
+        <v>-0.001752763787683956</v>
       </c>
       <c r="K77" s="3">
-        <v>0.04778292521508937</v>
+        <v>0.04765687053216843</v>
       </c>
       <c r="L77" s="3">
-        <v>0.2687303679845008</v>
+        <v>0.2655872196861779</v>
       </c>
       <c r="M77" s="3">
-        <v>0.04089414858645631</v>
+        <v>0.03967419863373621</v>
       </c>
       <c r="N77" s="3">
-        <v>0.21952471578243</v>
+        <v>0.2255196242788202</v>
       </c>
       <c r="O77" s="3">
-        <v>-0.006671997702735826</v>
+        <v>0.1526307091599571</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4495,43 +4495,43 @@
         <v>90</v>
       </c>
       <c r="C78" s="1">
-        <v>25023532.27258571</v>
+        <v>25063052.30957143</v>
       </c>
       <c r="D78" s="2">
-        <v>1.403251240715802</v>
+        <v>1.400837865204198</v>
       </c>
       <c r="E78" s="3">
-        <v>0.01621972318339102</v>
+        <v>0.01399354144241109</v>
       </c>
       <c r="F78" s="3">
-        <v>0.7167658583698155</v>
+        <v>0.5157791006665455</v>
       </c>
       <c r="G78" s="3">
-        <v>0.02980495288187596</v>
+        <v>0.02703881378107276</v>
       </c>
       <c r="H78" s="3">
-        <v>0.0155716901638386</v>
+        <v>0.005771170371807337</v>
       </c>
       <c r="I78" s="3">
-        <v>0.05761872608597797</v>
+        <v>0.06009453072248482</v>
       </c>
       <c r="J78" s="3">
-        <v>1.138011539106462</v>
+        <v>1.058774185706584</v>
       </c>
       <c r="K78" s="3">
-        <v>0.09943846513804394</v>
+        <v>0.1033028812368235</v>
       </c>
       <c r="L78" s="3">
-        <v>1.130610283974524</v>
+        <v>1.132126679712036</v>
       </c>
       <c r="M78" s="3">
-        <v>0.1718204488778054</v>
+        <v>0.1742707554225878</v>
       </c>
       <c r="N78" s="3">
-        <v>1.144941447733749</v>
+        <v>1.149172884637702</v>
       </c>
       <c r="O78" s="3">
-        <v>0.4455142456358115</v>
+        <v>0.7872766431865648</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4542,43 +4542,43 @@
         <v>91</v>
       </c>
       <c r="C79" s="1">
-        <v>21314430.14081143</v>
+        <v>21369636.72854571</v>
       </c>
       <c r="D79" s="2">
-        <v>1.373031144379417</v>
+        <v>1.370577243865832</v>
       </c>
       <c r="E79" s="3">
-        <v>0.01318569243097549</v>
+        <v>0.01699985407850576</v>
       </c>
       <c r="F79" s="3">
-        <v>1.018946357689584</v>
+        <v>1.141005825388771</v>
       </c>
       <c r="G79" s="3">
-        <v>-0.008554319931565291</v>
+        <v>-0.007547169811320794</v>
       </c>
       <c r="H79" s="3">
-        <v>-0.3170936107809966</v>
+        <v>-0.2412955312896379</v>
       </c>
       <c r="I79" s="3">
-        <v>-0.008695652173913035</v>
+        <v>-0.002147612570692408</v>
       </c>
       <c r="J79" s="3">
-        <v>-0.6953801053189786</v>
+        <v>-0.6928218866728167</v>
       </c>
       <c r="K79" s="3">
-        <v>0.05836694315501111</v>
+        <v>0.06608030592734211</v>
       </c>
       <c r="L79" s="3">
-        <v>0.4590958960448645</v>
+        <v>0.4418568234482836</v>
       </c>
       <c r="M79" s="3">
-        <v>0.08851843155670357</v>
+        <v>0.0856764545525351</v>
       </c>
       <c r="N79" s="3">
-        <v>0.843708812409751</v>
+        <v>0.8501585086579631</v>
       </c>
       <c r="O79" s="3">
-        <v>0.307252230397063</v>
+        <v>0.2637666390004094</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4589,43 +4589,43 @@
         <v>92</v>
       </c>
       <c r="C80" s="1">
-        <v>385000870.4689714</v>
+        <v>389314159.5898286</v>
       </c>
       <c r="D80" s="2">
-        <v>0.9879080293729972</v>
+        <v>0.9861416647597055</v>
       </c>
       <c r="E80" s="3">
-        <v>0.0005453157378121332</v>
+        <v>0.007072135785007018</v>
       </c>
       <c r="F80" s="3">
-        <v>0.1727314311636012</v>
+        <v>0.5820610691105212</v>
       </c>
       <c r="G80" s="3">
-        <v>-0.0004358247984309828</v>
+        <v>-0.002371200689803815</v>
       </c>
       <c r="H80" s="3">
-        <v>-0.1279210163512688</v>
+        <v>-0.07022036719599394</v>
       </c>
       <c r="I80" s="3">
-        <v>0.0903256477299738</v>
+        <v>0.09941798313338876</v>
       </c>
       <c r="J80" s="3">
-        <v>2.00989156674971</v>
+        <v>1.914602717568002</v>
       </c>
       <c r="K80" s="3">
-        <v>0.08903133903133897</v>
+        <v>0.1003328578221589</v>
       </c>
       <c r="L80" s="3">
-        <v>0.9159864639049589</v>
+        <v>0.9467735104705095</v>
       </c>
       <c r="M80" s="3">
-        <v>0.04368600682593855</v>
+        <v>0.05337430294753606</v>
       </c>
       <c r="N80" s="3">
-        <v>0.144585158594792</v>
+        <v>0.1566164075774703</v>
       </c>
       <c r="O80" s="3">
-        <v>0.1321474519091272</v>
+        <v>0.7644172897905154</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4636,43 +4636,43 @@
         <v>93</v>
       </c>
       <c r="C81" s="1">
-        <v>23945172.28548571</v>
+        <v>24226450.57847143</v>
       </c>
       <c r="D81" s="2">
-        <v>1.261297047814573</v>
+        <v>1.253306134329955</v>
       </c>
       <c r="E81" s="3">
-        <v>-0.03224582701062218</v>
+        <v>-0.003871467286101436</v>
       </c>
       <c r="F81" s="3">
-        <v>-0.7900046063769702</v>
+        <v>-0.2039905316407445</v>
       </c>
       <c r="G81" s="3">
-        <v>0.02408671216378967</v>
+        <v>0.01941362916006323</v>
       </c>
       <c r="H81" s="3">
-        <v>0.2754466513746457</v>
+        <v>0.2612773651374938</v>
       </c>
       <c r="I81" s="3">
-        <v>0.06781079949769775</v>
+        <v>0.08018471872376146</v>
       </c>
       <c r="J81" s="3">
-        <v>1.614207245932047</v>
+        <v>1.551968141354656</v>
       </c>
       <c r="K81" s="3">
-        <v>0.06647157190635451</v>
+        <v>0.07837384744341981</v>
       </c>
       <c r="L81" s="3">
-        <v>0.5177122894146755</v>
+        <v>0.5381815781559385</v>
       </c>
       <c r="M81" s="3">
-        <v>0.03404945277665176</v>
+        <v>0.0408576051779934</v>
       </c>
       <c r="N81" s="3">
-        <v>0.08133595183316347</v>
+        <v>0.08875682019889233</v>
       </c>
       <c r="O81" s="3">
-        <v>0.1304873769713711</v>
+        <v>0.2895195916669659</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4683,43 +4683,43 @@
         <v>94</v>
       </c>
       <c r="C82" s="1">
-        <v>32789740.60316142</v>
+        <v>32611518.78165486</v>
       </c>
       <c r="D82" s="2">
-        <v>1.425260175631407</v>
+        <v>1.421221965005145</v>
       </c>
       <c r="E82" s="3">
-        <v>0.006784589290041253</v>
+        <v>0.01066149745577917</v>
       </c>
       <c r="F82" s="3">
-        <v>0.002429205301790683</v>
+        <v>0.03566406250611378</v>
       </c>
       <c r="G82" s="3">
-        <v>-0.03461895910780666</v>
+        <v>-0.03605269239657959</v>
       </c>
       <c r="H82" s="3">
-        <v>-2.026381247843355</v>
+        <v>-1.671882876834222</v>
       </c>
       <c r="I82" s="3">
-        <v>-0.02050919377652057</v>
+        <v>-0.02066212725992006</v>
       </c>
       <c r="J82" s="3">
-        <v>-1.790020194173235</v>
+        <v>-1.800373110823796</v>
       </c>
       <c r="K82" s="3">
-        <v>0.0460725075528701</v>
+        <v>0.05461441213653604</v>
       </c>
       <c r="L82" s="3">
-        <v>0.4483075555886235</v>
+        <v>0.4321387537901621</v>
       </c>
       <c r="M82" s="3">
-        <v>0.01688693098384719</v>
+        <v>0.01706900755913207</v>
       </c>
       <c r="N82" s="3">
-        <v>0.253990997327429</v>
+        <v>0.2621653430500417</v>
       </c>
       <c r="O82" s="3">
-        <v>0.008464773444358423</v>
+        <v>0.02636653503262293</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4730,43 +4730,43 @@
         <v>95</v>
       </c>
       <c r="C83" s="1">
-        <v>104342095.9305857</v>
+        <v>104372013.672</v>
       </c>
       <c r="D83" s="2">
-        <v>1.000674705108351</v>
+        <v>1.006494414804012</v>
       </c>
       <c r="E83" s="3">
-        <v>0.05597614131681573</v>
+        <v>0.05245075584058637</v>
       </c>
       <c r="F83" s="3">
-        <v>6.819907930699123</v>
+        <v>6.642085333755423</v>
       </c>
       <c r="G83" s="3">
-        <v>0.0516335389536212</v>
+        <v>0.04384370740572458</v>
       </c>
       <c r="H83" s="3">
-        <v>1.612298932271503</v>
+        <v>1.795181658963507</v>
       </c>
       <c r="I83" s="3">
-        <v>0.05428309665597804</v>
+        <v>0.05414085799495292</v>
       </c>
       <c r="J83" s="3">
-        <v>0.5477583101085144</v>
+        <v>0.6204282169931848</v>
       </c>
       <c r="K83" s="3">
-        <v>0.07571862584716052</v>
+        <v>0.07259570494864612</v>
       </c>
       <c r="L83" s="3">
-        <v>0.1338365023021927</v>
+        <v>0.1434372645044958</v>
       </c>
       <c r="M83" s="3">
-        <v>0.06452358926919517</v>
+        <v>0.06095589933040853</v>
       </c>
       <c r="N83" s="3">
-        <v>0.05292516412494676</v>
+        <v>0.05680408407098308</v>
       </c>
       <c r="O83" s="3">
-        <v>0.1603703703964322</v>
+        <v>0.3819327407488403</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4777,43 +4777,43 @@
         <v>96</v>
       </c>
       <c r="C84" s="1">
-        <v>51839524.34057144</v>
+        <v>52277488.12</v>
       </c>
       <c r="D84" s="2">
-        <v>1.166239714693039</v>
+        <v>1.161344925572614</v>
       </c>
       <c r="E84" s="3">
-        <v>0.02248074202169481</v>
+        <v>0.02908805031446543</v>
       </c>
       <c r="F84" s="3">
-        <v>2.42194745162755</v>
+        <v>3.185700725645257</v>
       </c>
       <c r="G84" s="3">
-        <v>-0.01379833206974976</v>
+        <v>-0.003653524128482188</v>
       </c>
       <c r="H84" s="3">
-        <v>-0.02153666144518433</v>
+        <v>-0.0001761760765515636</v>
       </c>
       <c r="I84" s="3">
-        <v>0.05670186839967521</v>
+        <v>0.0666558018252934</v>
       </c>
       <c r="J84" s="3">
-        <v>0.0900495067227788</v>
+        <v>0.08250149605067145</v>
       </c>
       <c r="K84" s="3">
-        <v>0.09624136187426273</v>
+        <v>0.1035238576968471</v>
       </c>
       <c r="L84" s="3">
-        <v>0.8514457161778767</v>
+        <v>0.8573598411932315</v>
       </c>
       <c r="M84" s="3">
-        <v>0.1184866723989683</v>
+        <v>0.1241841291652354</v>
       </c>
       <c r="N84" s="3">
-        <v>0.8483326225215917</v>
+        <v>0.8623506303034854</v>
       </c>
       <c r="O84" s="3">
-        <v>0.1892851884377313</v>
+        <v>0.4907719851792334</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4824,43 +4824,43 @@
         <v>97</v>
       </c>
       <c r="C85" s="1">
-        <v>142088032.6114286</v>
+        <v>143554793.552</v>
       </c>
       <c r="D85" s="2">
-        <v>1.343648725348151</v>
+        <v>1.336833610256096</v>
       </c>
       <c r="E85" s="3">
-        <v>0.009982384028185498</v>
+        <v>0.01579871269748386</v>
       </c>
       <c r="F85" s="3">
-        <v>-0.0002055959889564233</v>
+        <v>-0.0428042260227279</v>
       </c>
       <c r="G85" s="3">
-        <v>-0.003476245654692935</v>
+        <v>0.004629629629629634</v>
       </c>
       <c r="H85" s="3">
-        <v>0.07705370990697209</v>
+        <v>0.08447369106853901</v>
       </c>
       <c r="I85" s="3">
-        <v>0.05911330049261075</v>
+        <v>0.07359307359307359</v>
       </c>
       <c r="J85" s="3">
-        <v>1.18509249740417</v>
+        <v>1.082014971212567</v>
       </c>
       <c r="K85" s="3">
-        <v>0.04686548995739499</v>
+        <v>0.05724725943970773</v>
       </c>
       <c r="L85" s="3">
-        <v>0.6061228753561556</v>
+        <v>0.6358536234786349</v>
       </c>
       <c r="M85" s="3">
-        <v>-0.03098591549295771</v>
+        <v>-0.02086858432036093</v>
       </c>
       <c r="N85" s="3">
-        <v>0.005907741383552645</v>
+        <v>0.007821681207724836</v>
       </c>
       <c r="O85" s="3">
-        <v>-0.0008173795823826756</v>
+        <v>0.307492519579137</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4871,43 +4871,43 @@
         <v>98</v>
       </c>
       <c r="C86" s="1">
-        <v>22749595.79885715</v>
+        <v>23042331.42971428</v>
       </c>
       <c r="D86" s="2">
-        <v>1.072068715173193</v>
+        <v>1.065882666432683</v>
       </c>
       <c r="E86" s="3">
-        <v>0.0109525389976768</v>
+        <v>0.0252743598270701</v>
       </c>
       <c r="F86" s="3">
-        <v>1.123158163773059</v>
+        <v>2.059612848413051</v>
       </c>
       <c r="G86" s="3">
-        <v>0.03394433129667346</v>
+        <v>0.04828289697381836</v>
       </c>
       <c r="H86" s="3">
-        <v>0.9257638149508206</v>
+        <v>1.057349302502113</v>
       </c>
       <c r="I86" s="3">
-        <v>0.1357196122296794</v>
+        <v>0.1495152870991796</v>
       </c>
       <c r="J86" s="3">
-        <v>4.420543107435431</v>
+        <v>4.359535897248963</v>
       </c>
       <c r="K86" s="3">
-        <v>0.1679447852760737</v>
+        <v>0.1798698813624187</v>
       </c>
       <c r="L86" s="3">
-        <v>1.967659279311781</v>
+        <v>2.019047847599023</v>
       </c>
       <c r="M86" s="3">
-        <v>0.2755443886097153</v>
+        <v>0.2926624737945491</v>
       </c>
       <c r="N86" s="3">
-        <v>1.488568366198511</v>
+        <v>1.500196222574648</v>
       </c>
       <c r="O86" s="3">
-        <v>0.7613304285101075</v>
+        <v>2.039330348006037</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4918,43 +4918,43 @@
         <v>99</v>
       </c>
       <c r="C87" s="1">
-        <v>224222102.9038928</v>
+        <v>224158811.1912257</v>
       </c>
       <c r="D87" s="2">
-        <v>3.437865381710368</v>
+        <v>3.392556749021633</v>
       </c>
       <c r="E87" s="3">
-        <v>-0.06800886234466812</v>
+        <v>-0.06340996168582376</v>
       </c>
       <c r="F87" s="3">
-        <v>-10.25002922159881</v>
+        <v>-10.99972833779501</v>
       </c>
       <c r="G87" s="3">
-        <v>-0.06503672207189795</v>
+        <v>-0.05535697034102984</v>
       </c>
       <c r="H87" s="3">
-        <v>-0.8268997199663395</v>
+        <v>-1.007442893633126</v>
       </c>
       <c r="I87" s="3">
-        <v>-0.09240150093808629</v>
+        <v>-0.07623996221067543</v>
       </c>
       <c r="J87" s="3">
-        <v>-1.396259856971912</v>
+        <v>-1.479848005967216</v>
       </c>
       <c r="K87" s="3">
-        <v>-0.08510638297872335</v>
+        <v>-0.07711184521000469</v>
       </c>
       <c r="L87" s="3">
-        <v>-1.630170990769151</v>
+        <v>-1.766409678701652</v>
       </c>
       <c r="M87" s="3">
-        <v>0.263879817112998</v>
+        <v>0.2891232696110745</v>
       </c>
       <c r="N87" s="3">
-        <v>2.8516372338454</v>
+        <v>2.819064758725</v>
       </c>
       <c r="O87" s="3">
-        <v>1.693185035220542</v>
+        <v>-1.623128842334434</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4965,43 +4965,43 @@
         <v>100</v>
       </c>
       <c r="C88" s="1">
-        <v>6367171.16442857</v>
+        <v>6397166.003314286</v>
       </c>
       <c r="D88" s="2">
-        <v>1.072406503737026</v>
+        <v>1.071822874346829</v>
       </c>
       <c r="E88" s="3">
-        <v>0.02004251442453688</v>
+        <v>0.01934703748488518</v>
       </c>
       <c r="F88" s="3">
-        <v>0.8519053233770179</v>
+        <v>1.149323573588964</v>
       </c>
       <c r="G88" s="3">
-        <v>0.01052948255114321</v>
+        <v>0.01230861603122183</v>
       </c>
       <c r="H88" s="3">
-        <v>0.0283793799362759</v>
+        <v>0.07445582494335397</v>
       </c>
       <c r="I88" s="3">
-        <v>0.05995582202587554</v>
+        <v>0.06104468219005655</v>
       </c>
       <c r="J88" s="3">
-        <v>0.8108218537772945</v>
+        <v>0.7963743138377556</v>
       </c>
       <c r="K88" s="3">
-        <v>0.08811143505021057</v>
+        <v>0.0969420949902407</v>
       </c>
       <c r="L88" s="3">
-        <v>0.9991254938663717</v>
+        <v>1.013670948418375</v>
       </c>
       <c r="M88" s="3">
-        <v>0.1230357739886326</v>
+        <v>0.1251251251251251</v>
       </c>
       <c r="N88" s="3">
-        <v>0.8101176020455719</v>
+        <v>0.8203145750260159</v>
       </c>
       <c r="O88" s="3">
-        <v>0.3467481957863219</v>
+        <v>0.9050226311280651</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -5012,43 +5012,43 @@
         <v>101</v>
       </c>
       <c r="C89" s="1">
-        <v>9451219.851557145</v>
+        <v>9457823.439514287</v>
       </c>
       <c r="D89" s="2">
-        <v>1.076893414486874</v>
+        <v>1.07828069752221</v>
       </c>
       <c r="E89" s="3">
         <v>0.01853997682502902</v>
       </c>
       <c r="F89" s="3">
-        <v>0.7793317520823609</v>
+        <v>1.042946899146054</v>
       </c>
       <c r="G89" s="3">
-        <v>0.006872852233677014</v>
+        <v>-0.002270147559591281</v>
       </c>
       <c r="H89" s="3">
-        <v>-0.0007836132436319957</v>
+        <v>4.407168054885791E-07</v>
       </c>
       <c r="I89" s="3">
-        <v>0.06159420289855081</v>
+        <v>0.06545454545454547</v>
       </c>
       <c r="J89" s="3">
-        <v>0.7016487344074299</v>
+        <v>0.6614928035877454</v>
       </c>
       <c r="K89" s="3">
-        <v>0.07064555420219244</v>
+        <v>0.07588739290085693</v>
       </c>
       <c r="L89" s="3">
-        <v>0.6756528384213676</v>
+        <v>0.6944272642755304</v>
       </c>
       <c r="M89" s="3">
         <v>0.1211734693877552</v>
       </c>
       <c r="N89" s="3">
-        <v>0.8253647196299997</v>
+        <v>0.8348948067706251</v>
       </c>
       <c r="O89" s="3">
-        <v>0.321516354268836</v>
+        <v>0.6779600339316378</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5059,43 +5059,43 @@
         <v>102</v>
       </c>
       <c r="C90" s="1">
-        <v>13819116.72897143</v>
+        <v>13912761.72094285</v>
       </c>
       <c r="D90" s="2">
-        <v>0.9033382343002945</v>
+        <v>0.9031474614310543</v>
       </c>
       <c r="E90" s="3">
-        <v>0.01114023591087798</v>
+        <v>0.01838476690741955</v>
       </c>
       <c r="F90" s="3">
-        <v>1.510145361366821</v>
+        <v>1.936325313911392</v>
       </c>
       <c r="G90" s="3">
-        <v>-0.007397877130910338</v>
+        <v>-0.006724303554274884</v>
       </c>
       <c r="H90" s="3">
-        <v>-0.05983984708515769</v>
+        <v>-0.0183689187805913</v>
       </c>
       <c r="I90" s="3">
-        <v>0.03487592219986574</v>
+        <v>0.03884795713328868</v>
       </c>
       <c r="J90" s="3">
-        <v>0.004388776978774348</v>
+        <v>0.0020070358062903</v>
       </c>
       <c r="K90" s="3">
-        <v>0.01747444774150996</v>
+        <v>0.02410036315615706</v>
       </c>
       <c r="L90" s="3">
-        <v>0.008010173902588789</v>
+        <v>0.00950178253068667</v>
       </c>
       <c r="M90" s="3">
-        <v>-0.006439150032195756</v>
+        <v>0.006815968841285268</v>
       </c>
       <c r="N90" s="3">
-        <v>0.008216275630804008</v>
+        <v>0.009579872545567667</v>
       </c>
       <c r="O90" s="3">
-        <v>0.02019617210561603</v>
+        <v>0.008158875685985969</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5106,43 +5106,43 @@
         <v>103</v>
       </c>
       <c r="C91" s="1">
-        <v>14285408.256</v>
+        <v>14412483.426</v>
       </c>
       <c r="D91" s="2">
-        <v>1.580450146261122</v>
+        <v>1.577327659428163</v>
       </c>
       <c r="E91" s="3">
-        <v>0.005674378000872938</v>
+        <v>0.00958605664488028</v>
       </c>
       <c r="F91" s="3">
-        <v>-0.001903218256244365</v>
+        <v>-0.00357094610405424</v>
       </c>
       <c r="G91" s="3">
-        <v>-0.03274559193954672</v>
+        <v>-0.03458333333333323</v>
       </c>
       <c r="H91" s="3">
-        <v>-1.90485891380836</v>
+        <v>-1.718050760233964</v>
       </c>
       <c r="I91" s="3">
-        <v>-0.08023952095808386</v>
+        <v>-0.07097032878909383</v>
       </c>
       <c r="J91" s="3">
-        <v>-3.09591638569864</v>
+        <v>-2.928146694055204</v>
       </c>
       <c r="K91" s="3">
-        <v>-0.04950495049504955</v>
+        <v>-0.04374742055303338</v>
       </c>
       <c r="L91" s="3">
-        <v>-0.6386987430552229</v>
+        <v>-0.6735585714829312</v>
       </c>
       <c r="M91" s="3">
-        <v>-0.05805396565821764</v>
+        <v>-0.05118755118755118</v>
       </c>
       <c r="N91" s="3">
-        <v>0.004837080291439569</v>
+        <v>0.004710232867959662</v>
       </c>
       <c r="O91" s="3">
-        <v>-0.007345651497355591</v>
+        <v>-0.3623730613352412</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5153,43 +5153,43 @@
         <v>104</v>
       </c>
       <c r="C92" s="1">
-        <v>287041569.3606857</v>
+        <v>290574339.0037857</v>
       </c>
       <c r="D92" s="2">
-        <v>1.721195409000596</v>
+        <v>1.708644012890146</v>
       </c>
       <c r="E92" s="3">
-        <v>-0.05225933202357566</v>
+        <v>-0.03868930122384536</v>
       </c>
       <c r="F92" s="3">
-        <v>-4.712666231574726</v>
+        <v>-4.089398664962933</v>
       </c>
       <c r="G92" s="3">
-        <v>-0.02741935483870968</v>
+        <v>-0.01417004048582997</v>
       </c>
       <c r="H92" s="3">
-        <v>0.171593653515937</v>
+        <v>0.1980317684521466</v>
       </c>
       <c r="I92" s="3">
-        <v>0.1135734072022161</v>
+        <v>0.130980027868091</v>
       </c>
       <c r="J92" s="3">
-        <v>1.560433158815341</v>
+        <v>1.310081074518903</v>
       </c>
       <c r="K92" s="3">
-        <v>0.3073170731707317</v>
+        <v>0.3155051323608861</v>
       </c>
       <c r="L92" s="3">
-        <v>6.112735553782864</v>
+        <v>6.102787420102851</v>
       </c>
       <c r="M92" s="3">
-        <v>0.3437325905292479</v>
+        <v>0.3565459610027855</v>
       </c>
       <c r="N92" s="3">
-        <v>2.502660484476213</v>
+        <v>2.533468774767502</v>
       </c>
       <c r="O92" s="3">
-        <v>1.14237254178729</v>
+        <v>0.8333135177608441</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5200,43 +5200,43 @@
         <v>105</v>
       </c>
       <c r="C93" s="1">
-        <v>123709929.0702857</v>
+        <v>126546749.7871429</v>
       </c>
       <c r="D93" s="2">
-        <v>1.030728815085436</v>
+        <v>1.027104967239176</v>
       </c>
       <c r="E93" s="3">
-        <v>0.02699139067711153</v>
+        <v>0.04161813805419672</v>
       </c>
       <c r="F93" s="3">
-        <v>2.961457962843634</v>
+        <v>3.496905675305507</v>
       </c>
       <c r="G93" s="3">
-        <v>0.02026506395438434</v>
+        <v>0.02812691600245242</v>
       </c>
       <c r="H93" s="3">
-        <v>0.0176190251902861</v>
+        <v>0.05988202640803954</v>
       </c>
       <c r="I93" s="3">
-        <v>0.06157299767497786</v>
+        <v>0.07423126201153105</v>
       </c>
       <c r="J93" s="3">
-        <v>0.6132885551465973</v>
+        <v>0.6302609005285436</v>
       </c>
       <c r="K93" s="3">
-        <v>0.02858696496543155</v>
+        <v>0.04323819892682162</v>
       </c>
       <c r="L93" s="3">
-        <v>0.01616695781683048</v>
+        <v>0.0221458066975636</v>
       </c>
       <c r="M93" s="3">
-        <v>0.02341938475807691</v>
+        <v>0.03702844774273339</v>
       </c>
       <c r="N93" s="3">
-        <v>0.05152640017216212</v>
+        <v>0.05701290152568893</v>
       </c>
       <c r="O93" s="3">
-        <v>0.03755076930115624</v>
+        <v>0.3336446741356385</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5247,43 +5247,43 @@
         <v>106</v>
       </c>
       <c r="C94" s="1">
-        <v>56280754.81285714</v>
+        <v>62868200.59314286</v>
       </c>
       <c r="D94" s="2">
-        <v>1.060577644583687</v>
+        <v>1.052992829006492</v>
       </c>
       <c r="E94" s="3">
-        <v>0.03544776119402994</v>
+        <v>0.09101755582069197</v>
       </c>
       <c r="F94" s="3">
-        <v>2.277173576601679</v>
+        <v>3.195358545354986</v>
       </c>
       <c r="G94" s="3">
-        <v>0.04252049180327878</v>
+        <v>0.09418803418803422</v>
       </c>
       <c r="H94" s="3">
-        <v>2.373243169207034</v>
+        <v>2.75327187091804</v>
       </c>
       <c r="I94" s="3">
-        <v>0.1175178473366283</v>
+        <v>0.1704150667398061</v>
       </c>
       <c r="J94" s="3">
-        <v>2.383193162555616</v>
+        <v>2.415457888771181</v>
       </c>
       <c r="K94" s="3">
-        <v>0.1241023752531763</v>
+        <v>0.1814322628276116</v>
       </c>
       <c r="L94" s="3">
-        <v>1.132695059205667</v>
+        <v>1.192367814359706</v>
       </c>
       <c r="M94" s="3">
-        <v>0.04860872552387502</v>
+        <v>0.09945036070079007</v>
       </c>
       <c r="N94" s="3">
-        <v>0.04432772307193421</v>
+        <v>0.05437384261623015</v>
       </c>
       <c r="O94" s="3">
-        <v>0.1792593821931203</v>
+        <v>1.803912851565443</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5294,43 +5294,43 @@
         <v>107</v>
       </c>
       <c r="C95" s="1">
-        <v>10190910.19660429</v>
+        <v>10224583.29796286</v>
       </c>
       <c r="D95" s="2">
-        <v>1.249100332349898</v>
+        <v>1.24785939271626</v>
       </c>
       <c r="E95" s="3">
-        <v>0.01030766828049342</v>
+        <v>0.01327917512888617</v>
       </c>
       <c r="F95" s="3">
-        <v>0.0002036645424925893</v>
+        <v>-4.795570387044091E-07</v>
       </c>
       <c r="G95" s="3">
-        <v>-0.003389308272993345</v>
+        <v>0.002008342345125987</v>
       </c>
       <c r="H95" s="3">
-        <v>0.0002537409221471206</v>
+        <v>0.00272215777121862</v>
       </c>
       <c r="I95" s="3">
-        <v>0.01188800250273732</v>
+        <v>0.01486465341887039</v>
       </c>
       <c r="J95" s="3">
-        <v>0.08979485555617955</v>
+        <v>0.09534994722335034</v>
       </c>
       <c r="K95" s="3">
-        <v>0.05910281597904379</v>
+        <v>0.06188605108055007</v>
       </c>
       <c r="L95" s="3">
-        <v>0.8646992639785331</v>
+        <v>0.8702780174743476</v>
       </c>
       <c r="M95" s="3">
-        <v>0.1099862731640357</v>
+        <v>0.115774987097884</v>
       </c>
       <c r="N95" s="3">
-        <v>0.860207836841033</v>
+        <v>0.8655981592751542</v>
       </c>
       <c r="O95" s="3">
-        <v>0.000811125419953668</v>
+        <v>0.1055624671606172</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5341,43 +5341,43 @@
         <v>108</v>
       </c>
       <c r="C96" s="1">
-        <v>13412758.98355714</v>
+        <v>13503042.54295714</v>
       </c>
       <c r="D96" s="2">
-        <v>0.9861621746937015</v>
+        <v>0.9826270798768805</v>
       </c>
       <c r="E96" s="3">
-        <v>0.001198681450404589</v>
+        <v>0.005986231667165524</v>
       </c>
       <c r="F96" s="3">
-        <v>0.09687832698331705</v>
+        <v>0.236633567745018</v>
       </c>
       <c r="G96" s="3">
-        <v>-0.01124593074874214</v>
+        <v>-0.01205173427395647</v>
       </c>
       <c r="H96" s="3">
-        <v>-0.3232508624915991</v>
+        <v>-0.2314773390190625</v>
       </c>
       <c r="I96" s="3">
-        <v>0.02894979981521411</v>
+        <v>0.03447214527546934</v>
       </c>
       <c r="J96" s="3">
-        <v>0.00727347392133706</v>
+        <v>0.003034313588060966</v>
       </c>
       <c r="K96" s="3">
-        <v>0.002099580083983305</v>
+        <v>0.009309309309309283</v>
       </c>
       <c r="L96" s="3">
-        <v>5.583816491842413E-12</v>
+        <v>1.550224931563993E-06</v>
       </c>
       <c r="M96" s="3">
-        <v>0.0904046997389034</v>
+        <v>0.09123376623376628</v>
       </c>
       <c r="N96" s="3">
-        <v>0.02325510916074685</v>
+        <v>0.02140154974075011</v>
       </c>
       <c r="O96" s="3">
-        <v>2.233526594755608E-11</v>
+        <v>0.04713403991091362</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5388,43 +5388,43 @@
         <v>109</v>
       </c>
       <c r="C97" s="1">
-        <v>53296072.75457142</v>
+        <v>53418933.70611428</v>
       </c>
       <c r="D97" s="2">
-        <v>1.51736988051602</v>
+        <v>1.520578239077527</v>
       </c>
       <c r="E97" s="3">
-        <v>-0.01685985247629088</v>
+        <v>-0.01476793248945146</v>
       </c>
       <c r="F97" s="3">
-        <v>-0.7024554917383992</v>
+        <v>-0.308873616107449</v>
       </c>
       <c r="G97" s="3">
-        <v>-0.08975609756097562</v>
+        <v>-0.09627479438800195</v>
       </c>
       <c r="H97" s="3">
-        <v>-5.430510630522249</v>
+        <v>-4.980158904607154</v>
       </c>
       <c r="I97" s="3">
-        <v>0.1146953405017921</v>
+        <v>0.1092636579572447</v>
       </c>
       <c r="J97" s="3">
-        <v>-0.4368352099366974</v>
+        <v>-0.8411752351444431</v>
       </c>
       <c r="K97" s="3">
-        <v>0.07488479262672802</v>
+        <v>0.07976878612716767</v>
       </c>
       <c r="L97" s="3">
-        <v>1.166062129214344</v>
+        <v>1.17379342912416</v>
       </c>
       <c r="M97" s="3">
-        <v>0.2164276401564536</v>
+        <v>0.2169381107491856</v>
       </c>
       <c r="N97" s="3">
-        <v>1.246544357588411</v>
+        <v>1.244289390190517</v>
       </c>
       <c r="O97" s="3">
-        <v>2.265905523626734</v>
+        <v>-0.04596775267913168</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5435,43 +5435,43 @@
         <v>110</v>
       </c>
       <c r="C98" s="1">
-        <v>324507796.5034286</v>
+        <v>325755285.093</v>
       </c>
       <c r="D98" s="2">
-        <v>1.35713998775083</v>
+        <v>1.351879265701328</v>
       </c>
       <c r="E98" s="3">
-        <v>0.01153016439782795</v>
+        <v>0.01575154171929562</v>
       </c>
       <c r="F98" s="3">
-        <v>0.3533781497850644</v>
+        <v>0.5892822343826442</v>
       </c>
       <c r="G98" s="3">
-        <v>-0.00824155787324043</v>
+        <v>-0.01278162911611795</v>
       </c>
       <c r="H98" s="3">
-        <v>-1.339859379090529</v>
+        <v>-1.196900875711878</v>
       </c>
       <c r="I98" s="3">
-        <v>0.01629297458893871</v>
+        <v>0.02075711192413938</v>
       </c>
       <c r="J98" s="3">
-        <v>-0.01019619976890115</v>
+        <v>-0.01389751558106188</v>
       </c>
       <c r="K98" s="3">
-        <v>-0.04353942463248222</v>
+        <v>-0.03473840288074567</v>
       </c>
       <c r="L98" s="3">
-        <v>-0.3585485613578747</v>
+        <v>-0.3416954361115921</v>
       </c>
       <c r="M98" s="3">
-        <v>0.03108886866848651</v>
+        <v>0.03442796610169492</v>
       </c>
       <c r="N98" s="3">
-        <v>0.2783203354966629</v>
+        <v>0.2806538670749356</v>
       </c>
       <c r="O98" s="3">
-        <v>-0.06072650609536091</v>
+        <v>0.01026522526031652</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5482,43 +5482,43 @@
         <v>111</v>
       </c>
       <c r="C99" s="1">
-        <v>18920580.63428571</v>
+        <v>19078573.18628572</v>
       </c>
       <c r="D99" s="2">
-        <v>0.7981136114865944</v>
+        <v>0.7974997154558929</v>
       </c>
       <c r="E99" s="3">
-        <v>0.004839824844434221</v>
+        <v>0.01132947976878617</v>
       </c>
       <c r="F99" s="3">
-        <v>0.003340370398748631</v>
+        <v>0.04186716072195106</v>
       </c>
       <c r="G99" s="3">
-        <v>0.002759889604415928</v>
+        <v>0.007137923094635098</v>
       </c>
       <c r="H99" s="3">
-        <v>-0.06451128017956068</v>
+        <v>-0.03411164990124749</v>
       </c>
       <c r="I99" s="3">
-        <v>0.0283018867924529</v>
+        <v>0.03087438133396187</v>
       </c>
       <c r="J99" s="3">
-        <v>0.2593218184926485</v>
+        <v>0.245469250835801</v>
       </c>
       <c r="K99" s="3">
-        <v>0.0300023623907395</v>
+        <v>0.03673856364067325</v>
       </c>
       <c r="L99" s="3">
-        <v>0.001556539023054436</v>
+        <v>0.001581136426712397</v>
       </c>
       <c r="M99" s="3">
-        <v>0.01940612578910447</v>
+        <v>0.02291861552853143</v>
       </c>
       <c r="N99" s="3">
-        <v>0.08369710384697979</v>
+        <v>0.08772599851477268</v>
       </c>
       <c r="O99" s="3">
-        <v>0.00401121013765312</v>
+        <v>0.03239288812524124</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5529,43 +5529,43 @@
         <v>112</v>
       </c>
       <c r="C100" s="1">
-        <v>127198258.4004286</v>
+        <v>130613356.9954286</v>
       </c>
       <c r="D100" s="2">
-        <v>1.840756860860191</v>
+        <v>1.819489484855683</v>
       </c>
       <c r="E100" s="3">
-        <v>-0.02892263195950834</v>
+        <v>-0.02494654312188162</v>
       </c>
       <c r="F100" s="3">
-        <v>-2.819024325821978</v>
+        <v>-1.263410786377314</v>
       </c>
       <c r="G100" s="3">
-        <v>-0.06736111111111109</v>
+        <v>-0.06043956043956034</v>
       </c>
       <c r="H100" s="3">
-        <v>-3.520742459096261</v>
+        <v>-2.989046572614243</v>
       </c>
       <c r="I100" s="3">
-        <v>-0.03727598566308247</v>
+        <v>-0.02075876879026479</v>
       </c>
       <c r="J100" s="3">
-        <v>-1.763187358229051</v>
+        <v>-1.788481617075196</v>
       </c>
       <c r="K100" s="3">
-        <v>0.1518010291595198</v>
+        <v>0.1742489270386267</v>
       </c>
       <c r="L100" s="3">
-        <v>2.037883360174543</v>
+        <v>1.978525589675741</v>
       </c>
       <c r="M100" s="3">
-        <v>0.1071723000824401</v>
+        <v>0.126853377265239</v>
       </c>
       <c r="N100" s="3">
-        <v>1.323675743004688</v>
+        <v>1.341853220002258</v>
       </c>
       <c r="O100" s="3">
-        <v>0.4494590547689187</v>
+        <v>-0.5682787045560375</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5576,43 +5576,43 @@
         <v>113</v>
       </c>
       <c r="C101" s="1">
-        <v>28126740.551</v>
+        <v>28320634.72</v>
       </c>
       <c r="D101" s="2">
-        <v>0.9346830499113736</v>
+        <v>0.9418443630120205</v>
       </c>
       <c r="E101" s="3">
-        <v>0.03366488140780417</v>
+        <v>0.03445635528330775</v>
       </c>
       <c r="F101" s="3">
-        <v>2.008350813428163</v>
+        <v>1.941267899560123</v>
       </c>
       <c r="G101" s="3">
-        <v>0.05054432348367025</v>
+        <v>0.05218068535825541</v>
       </c>
       <c r="H101" s="3">
-        <v>3.381051147925739</v>
+        <v>3.584644232710636</v>
       </c>
       <c r="I101" s="3">
-        <v>0.09215844785772019</v>
+        <v>0.09926769731489006</v>
       </c>
       <c r="J101" s="3">
-        <v>3.036771477894444</v>
+        <v>3.05361537201482</v>
       </c>
       <c r="K101" s="3">
-        <v>0.1391231028667791</v>
+        <v>0.1410472972972973</v>
       </c>
       <c r="L101" s="3">
-        <v>1.677922619320038</v>
+        <v>1.71918375288981</v>
       </c>
       <c r="M101" s="3">
-        <v>0.1305439330543932</v>
+        <v>0.1314907872696818</v>
       </c>
       <c r="N101" s="3">
-        <v>0.4822231609209555</v>
+        <v>0.5008009136129024</v>
       </c>
       <c r="O101" s="3">
-        <v>0.4403613400186318</v>
+        <v>1.830225826224967</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5623,43 +5623,43 @@
         <v>114</v>
       </c>
       <c r="C102" s="1">
-        <v>108914450.0344286</v>
+        <v>109199467.8171428</v>
       </c>
       <c r="D102" s="2">
-        <v>2.838281241296416</v>
+        <v>2.816487588227581</v>
       </c>
       <c r="E102" s="3">
-        <v>-0.01581595974119343</v>
+        <v>-0.01004304160688657</v>
       </c>
       <c r="F102" s="3">
-        <v>-0.6963722623616145</v>
+        <v>-1.254620762111841</v>
       </c>
       <c r="G102" s="3">
-        <v>-0.04532775453277548</v>
+        <v>-0.04498269896193762</v>
       </c>
       <c r="H102" s="3">
-        <v>-1.937931551548422</v>
+        <v>-2.105913664653368</v>
       </c>
       <c r="I102" s="3">
-        <v>-0.07249322493224934</v>
+        <v>-0.06377204884667567</v>
       </c>
       <c r="J102" s="3">
-        <v>-2.323807421657484</v>
+        <v>-2.381232707408691</v>
       </c>
       <c r="K102" s="3">
-        <v>0.1730934018851756</v>
+        <v>0.187607573149742</v>
       </c>
       <c r="L102" s="3">
-        <v>2.024840954782248</v>
+        <v>1.923580894370279</v>
       </c>
       <c r="M102" s="3">
-        <v>0.2093639575971731</v>
+        <v>0.2158590308370045</v>
       </c>
       <c r="N102" s="3">
-        <v>2.416464970862362</v>
+        <v>2.425844695796092</v>
       </c>
       <c r="O102" s="3">
-        <v>1.175124222275372</v>
+        <v>-0.5193808656374184</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5670,43 +5670,43 @@
         <v>115</v>
       </c>
       <c r="C103" s="1">
-        <v>182517682.5995572</v>
+        <v>183647592.9969715</v>
       </c>
       <c r="D103" s="2">
-        <v>1.614970383735987</v>
+        <v>1.602476403300928</v>
       </c>
       <c r="E103" s="3">
-        <v>0.001562500000000001</v>
+        <v>0.009375000000000008</v>
       </c>
       <c r="F103" s="3">
-        <v>0.004512611351066349</v>
+        <v>0.1350710744543595</v>
       </c>
       <c r="G103" s="3">
-        <v>-0.0346385542168675</v>
+        <v>-0.03582089552238809</v>
       </c>
       <c r="H103" s="3">
-        <v>-2.915516538156247</v>
+        <v>-2.545189277379828</v>
       </c>
       <c r="I103" s="3">
-        <v>-0.04754829123328384</v>
+        <v>-0.03293413173652698</v>
       </c>
       <c r="J103" s="3">
-        <v>-2.140104531864791</v>
+        <v>-2.018026423770795</v>
       </c>
       <c r="K103" s="3">
-        <v>-0.05735294117647063</v>
+        <v>-0.042962962962963</v>
       </c>
       <c r="L103" s="3">
-        <v>-0.897289672279221</v>
+        <v>-0.9064178241754201</v>
       </c>
       <c r="M103" s="3">
-        <v>0.1654545454545454</v>
+        <v>0.1724137931034482</v>
       </c>
       <c r="N103" s="3">
-        <v>1.02396201167831</v>
+        <v>1.010020176173322</v>
       </c>
       <c r="O103" s="3">
-        <v>0.0176941511470168</v>
+        <v>-0.3856733748605303</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5717,43 +5717,43 @@
         <v>116</v>
       </c>
       <c r="C104" s="1">
-        <v>17538306.82641429</v>
+        <v>17445394.15457143</v>
       </c>
       <c r="D104" s="2">
-        <v>1.105837261415021</v>
+        <v>1.106722800863942</v>
       </c>
       <c r="E104" s="3">
-        <v>0.02189425883879335</v>
+        <v>0.02209585702680749</v>
       </c>
       <c r="F104" s="3">
-        <v>0.6696978449127787</v>
+        <v>0.5702362142874767</v>
       </c>
       <c r="G104" s="3">
-        <v>0.01612643122077093</v>
+        <v>0.01336984536082477</v>
       </c>
       <c r="H104" s="3">
-        <v>0.03187283621251637</v>
+        <v>0.03420833979419375</v>
       </c>
       <c r="I104" s="3">
-        <v>0.06796610169491521</v>
+        <v>0.06953417205032314</v>
       </c>
       <c r="J104" s="3">
-        <v>0.8341153883075678</v>
+        <v>0.7570704531840002</v>
       </c>
       <c r="K104" s="3">
-        <v>0.05420779655345488</v>
+        <v>0.05147919104128376</v>
       </c>
       <c r="L104" s="3">
-        <v>0.1412299989798049</v>
+        <v>0.1481745797669287</v>
       </c>
       <c r="M104" s="3">
-        <v>0.1213739099483895</v>
+        <v>0.1276214375336083</v>
       </c>
       <c r="N104" s="3">
-        <v>1.048372896326591</v>
+        <v>1.062192732294453</v>
       </c>
       <c r="O104" s="3">
-        <v>0.2220774131158283</v>
+        <v>0.3592053970272027</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5764,43 +5764,43 @@
         <v>117</v>
       </c>
       <c r="C105" s="1">
-        <v>32316990.26400001</v>
+        <v>32055246.09357143</v>
       </c>
       <c r="D105" s="2">
-        <v>1.182644925179206</v>
+        <v>1.170887781224782</v>
       </c>
       <c r="E105" s="3">
-        <v>-0.0105708245243129</v>
+        <v>-0.006489586477512828</v>
       </c>
       <c r="F105" s="3">
-        <v>-1.014010338007137</v>
+        <v>-1.172419234654915</v>
       </c>
       <c r="G105" s="3">
-        <v>-0.02875778238956419</v>
+        <v>-0.02416246664690187</v>
       </c>
       <c r="H105" s="3">
-        <v>-0.2005974964453889</v>
+        <v>-0.1563578906376976</v>
       </c>
       <c r="I105" s="3">
-        <v>0.01283042201267584</v>
+        <v>0.01809464893287968</v>
       </c>
       <c r="J105" s="3">
-        <v>-5.824793245760904E-06</v>
+        <v>-0.0009674848468484005</v>
       </c>
       <c r="K105" s="3">
-        <v>0.01897356143079316</v>
+        <v>0.03963992419456728</v>
       </c>
       <c r="L105" s="3">
-        <v>0.6621954652127502</v>
+        <v>0.678161921846994</v>
       </c>
       <c r="M105" s="3">
-        <v>0.09090909090909091</v>
+        <v>0.09388501163177135</v>
       </c>
       <c r="N105" s="3">
-        <v>0.2802816040051699</v>
+        <v>0.2796679599563383</v>
       </c>
       <c r="O105" s="3">
-        <v>-2.330073703561218E-05</v>
+        <v>0.04645876339246147</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5811,43 +5811,43 @@
         <v>118</v>
       </c>
       <c r="C106" s="1">
-        <v>2803898.341557142</v>
+        <v>2837702.991357142</v>
       </c>
       <c r="D106" s="2">
-        <v>0.8797752048740327</v>
+        <v>0.8770832548984756</v>
       </c>
       <c r="E106" s="3">
-        <v>0.001278305332359262</v>
+        <v>0.007465404224326126</v>
       </c>
       <c r="F106" s="3">
-        <v>-0.001836156026504902</v>
+        <v>0.004721754099103377</v>
       </c>
       <c r="G106" s="3">
-        <v>-0.002909619930896568</v>
+        <v>0.002355072463768034</v>
       </c>
       <c r="H106" s="3">
-        <v>-2.669565183048476E-05</v>
+        <v>0.001249290941723401</v>
       </c>
       <c r="I106" s="3">
-        <v>0.02967136150234733</v>
+        <v>0.04003759398496232</v>
       </c>
       <c r="J106" s="3">
-        <v>0.2069140746155415</v>
+        <v>0.1999156353164229</v>
       </c>
       <c r="K106" s="3">
-        <v>0.04697345808669068</v>
+        <v>0.05915007656967837</v>
       </c>
       <c r="L106" s="3">
-        <v>0.3316233133726885</v>
+        <v>0.3377291655049653</v>
       </c>
       <c r="M106" s="3">
-        <v>0.02812675792237015</v>
+        <v>0.03964674934235232</v>
       </c>
       <c r="N106" s="3">
-        <v>0.3178682470516713</v>
+        <v>0.3317593408692968</v>
       </c>
       <c r="O106" s="3">
-        <v>-0.007980618269589667</v>
+        <v>0.1197811923293876</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5858,43 +5858,43 @@
         <v>119</v>
       </c>
       <c r="C107" s="1">
-        <v>157628267.4393857</v>
+        <v>158359333.9966</v>
       </c>
       <c r="D107" s="2">
-        <v>0.8740930871243004</v>
+        <v>0.8729393617976431</v>
       </c>
       <c r="E107" s="3">
-        <v>0.04437814655976124</v>
+        <v>0.04423791821561347</v>
       </c>
       <c r="F107" s="3">
-        <v>5.956379640574257</v>
+        <v>5.843256569265957</v>
       </c>
       <c r="G107" s="3">
-        <v>0.02808370044052855</v>
+        <v>0.02950339014110326</v>
       </c>
       <c r="H107" s="3">
-        <v>0.9820012211149853</v>
+        <v>1.236124272179445</v>
       </c>
       <c r="I107" s="3">
-        <v>0.05262168765269691</v>
+        <v>0.05720737674068503</v>
       </c>
       <c r="J107" s="3">
-        <v>0.6005599649843621</v>
+        <v>0.6397377729310211</v>
       </c>
       <c r="K107" s="3">
-        <v>0.05919062027231462</v>
+        <v>0.06462004927041884</v>
       </c>
       <c r="L107" s="3">
-        <v>0.1569213909707109</v>
+        <v>0.1713669895597685</v>
       </c>
       <c r="M107" s="3">
-        <v>-0.005680809515355943</v>
+        <v>-0.002485795454545339</v>
       </c>
       <c r="N107" s="3">
-        <v>-0.0007619296995044366</v>
+        <v>-0.0003783095661722511</v>
       </c>
       <c r="O107" s="3">
-        <v>-0.02383426141232867</v>
+        <v>0.4055523812453948</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5905,43 +5905,43 @@
         <v>120</v>
       </c>
       <c r="C108" s="1">
-        <v>19964627.73315715</v>
+        <v>20243595.5752</v>
       </c>
       <c r="D108" s="2">
-        <v>1.054303018250192</v>
+        <v>1.048976883164885</v>
       </c>
       <c r="E108" s="3">
-        <v>0.01755412521942658</v>
+        <v>0.02270081490104769</v>
       </c>
       <c r="F108" s="3">
-        <v>0.1625735154804319</v>
+        <v>0.5061255049226334</v>
       </c>
       <c r="G108" s="3">
-        <v>0.016364699006429</v>
+        <v>0.008032128514056104</v>
       </c>
       <c r="H108" s="3">
-        <v>-0.3366653388492806</v>
+        <v>-0.2076097901628066</v>
       </c>
       <c r="I108" s="3">
-        <v>0.05585913782635099</v>
+        <v>0.06484848484848484</v>
       </c>
       <c r="J108" s="3">
-        <v>0.31501653042436</v>
+        <v>0.3122845605984378</v>
       </c>
       <c r="K108" s="3">
-        <v>0.02354326074161273</v>
+        <v>0.03596698113207544</v>
       </c>
       <c r="L108" s="3">
-        <v>0.03778671182657931</v>
+        <v>0.04679600591964443</v>
       </c>
       <c r="M108" s="3">
-        <v>-0.007420091324200856</v>
+        <v>0.002853881278538752</v>
       </c>
       <c r="N108" s="3">
-        <v>3.517081114424191E-05</v>
+        <v>0.0001051237290413027</v>
       </c>
       <c r="O108" s="3">
-        <v>-0.04041244901488383</v>
+        <v>0.1795402832590411</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5952,43 +5952,43 @@
         <v>121</v>
       </c>
       <c r="C109" s="1">
-        <v>14670070.06392857</v>
+        <v>14746382.16835714</v>
       </c>
       <c r="D109" s="2">
-        <v>0.8750037157710086</v>
+        <v>0.8719188912836712</v>
       </c>
       <c r="E109" s="3">
-        <v>-0.006803773001391821</v>
+        <v>-0.002013007122948211</v>
       </c>
       <c r="F109" s="3">
-        <v>-0.2475657646684179</v>
+        <v>-0.1830156974961517</v>
       </c>
       <c r="G109" s="3">
-        <v>-0.02784925079461191</v>
+        <v>-0.02805006786306745</v>
       </c>
       <c r="H109" s="3">
-        <v>-1.342708110597479</v>
+        <v>-1.229893652976727</v>
       </c>
       <c r="I109" s="3">
-        <v>-0.01154201292705448</v>
+        <v>-0.006627620221948143</v>
       </c>
       <c r="J109" s="3">
-        <v>-0.5909215632243865</v>
+        <v>-0.6608796613853575</v>
       </c>
       <c r="K109" s="3">
-        <v>-0.00372266170311787</v>
+        <v>0.001554001554001554</v>
       </c>
       <c r="L109" s="3">
-        <v>0.00516662927161892</v>
+        <v>0.004341840346349982</v>
       </c>
       <c r="M109" s="3">
-        <v>-0.01638591117917312</v>
+        <v>-0.01256319901945771</v>
       </c>
       <c r="N109" s="3">
-        <v>-0.002129957173353441</v>
+        <v>-0.002181511760194989</v>
       </c>
       <c r="O109" s="3">
-        <v>0.03154819256002127</v>
+        <v>-0.09778944825780468</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -5999,43 +5999,43 @@
         <v>122</v>
       </c>
       <c r="C110" s="1">
-        <v>86302554.6506857</v>
+        <v>86915059.85657144</v>
       </c>
       <c r="D110" s="2">
-        <v>1.474399557201403</v>
+        <v>1.469144462237312</v>
       </c>
       <c r="E110" s="3">
-        <v>0.01246239793725824</v>
+        <v>0.01195049082373027</v>
       </c>
       <c r="F110" s="3">
-        <v>0.04294258324717226</v>
+        <v>0.01164894193291549</v>
       </c>
       <c r="G110" s="3">
-        <v>0.001700680272108845</v>
+        <v>-0.00336275746111812</v>
       </c>
       <c r="H110" s="3">
-        <v>0.02710820464895123</v>
+        <v>0.03959241321722106</v>
       </c>
       <c r="I110" s="3">
-        <v>0.02123970524490678</v>
+        <v>0.02818733738074586</v>
       </c>
       <c r="J110" s="3">
-        <v>0.1182581639773129</v>
+        <v>0.109962933935439</v>
       </c>
       <c r="K110" s="3">
-        <v>0.07237141556668175</v>
+        <v>0.07969034608378862</v>
       </c>
       <c r="L110" s="3">
-        <v>0.6373241491142425</v>
+        <v>0.6256597675213809</v>
       </c>
       <c r="M110" s="3">
-        <v>0.00255319148936161</v>
+        <v>0.01151877133105808</v>
       </c>
       <c r="N110" s="3">
-        <v>0.1353359150731706</v>
+        <v>0.1452619817040237</v>
       </c>
       <c r="O110" s="3">
-        <v>0.009412236179465605</v>
+        <v>0.06080593793417723</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -6046,43 +6046,43 @@
         <v>123</v>
       </c>
       <c r="C111" s="1">
-        <v>52695031.34720714</v>
+        <v>52718015.0024</v>
       </c>
       <c r="D111" s="2">
-        <v>1.553565713785807</v>
+        <v>1.543907798567748</v>
       </c>
       <c r="E111" s="3">
-        <v>0.002039870190078794</v>
+        <v>0.005735960773429534</v>
       </c>
       <c r="F111" s="3">
-        <v>-0.1026375391543475</v>
+        <v>-0.02121576536696742</v>
       </c>
       <c r="G111" s="3">
-        <v>-0.003687655572969488</v>
+        <v>0.008067507418397561</v>
       </c>
       <c r="H111" s="3">
-        <v>-0.3091124603783524</v>
+        <v>-0.2685240411187535</v>
       </c>
       <c r="I111" s="3">
-        <v>0.02068379297317721</v>
+        <v>0.02421330318447339</v>
       </c>
       <c r="J111" s="3">
-        <v>0.009464801213164807</v>
+        <v>0.007244496450509636</v>
       </c>
       <c r="K111" s="3">
-        <v>0.006988445769660886</v>
+        <v>0.007974038015762578</v>
       </c>
       <c r="L111" s="3">
-        <v>-0.003815925113694993</v>
+        <v>-0.003386048059346037</v>
       </c>
       <c r="M111" s="3">
-        <v>0.2591168589071421</v>
+        <v>0.2687908496732025</v>
       </c>
       <c r="N111" s="3">
-        <v>0.1020443127468258</v>
+        <v>0.09338355001328959</v>
       </c>
       <c r="O111" s="3">
-        <v>-0.02464742037239205</v>
+        <v>0.0019292241955818</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -6093,43 +6093,43 @@
         <v>124</v>
       </c>
       <c r="C112" s="1">
-        <v>243716179.9011085</v>
+        <v>245695487.8502743</v>
       </c>
       <c r="D112" s="2">
-        <v>2.361343792476313</v>
+        <v>2.348094834558884</v>
       </c>
       <c r="E112" s="3">
-        <v>-0.09549565142140121</v>
+        <v>-0.09665236051502149</v>
       </c>
       <c r="F112" s="3">
-        <v>-9.037070163094972</v>
+        <v>-7.785094827461651</v>
       </c>
       <c r="G112" s="3">
-        <v>0.1059732289296862</v>
+        <v>0.1045340050377834</v>
       </c>
       <c r="H112" s="3">
-        <v>2.981128976361343</v>
+        <v>2.397731760260681</v>
       </c>
       <c r="I112" s="3">
-        <v>0.1401767208465146</v>
+        <v>0.1482188642190825</v>
       </c>
       <c r="J112" s="3">
-        <v>5.852400758718068</v>
+        <v>5.629224149300079</v>
       </c>
       <c r="K112" s="3">
-        <v>0.2206715328467153</v>
+        <v>0.2321742184755884</v>
       </c>
       <c r="L112" s="3">
-        <v>1.568995463771781</v>
+        <v>1.553741368520605</v>
       </c>
       <c r="M112" s="3">
-        <v>0.07613899613899611</v>
+        <v>0.08093672966310597</v>
       </c>
       <c r="N112" s="3">
-        <v>0.5736289989741677</v>
+        <v>0.6065738610532118</v>
       </c>
       <c r="O112" s="3">
-        <v>0.2891962200213192</v>
+        <v>0.8173390490918553</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -6140,43 +6140,43 @@
         <v>125</v>
       </c>
       <c r="C113" s="1">
-        <v>25250410.58</v>
+        <v>25340396.39131</v>
       </c>
       <c r="D113" s="2">
-        <v>1.121293088665317</v>
+        <v>1.114165095813977</v>
       </c>
       <c r="E113" s="3">
-        <v>0.01178039564347626</v>
+        <v>0.01619163801707892</v>
       </c>
       <c r="F113" s="3">
-        <v>2.029940150379651</v>
+        <v>2.335031600459131</v>
       </c>
       <c r="G113" s="3">
-        <v>0.02395681025756381</v>
+        <v>0.03606965174129358</v>
       </c>
       <c r="H113" s="3">
-        <v>1.126005930920308</v>
+        <v>1.191276013809705</v>
       </c>
       <c r="I113" s="3">
-        <v>0.05199907557198988</v>
+        <v>0.06163828061638284</v>
       </c>
       <c r="J113" s="3">
-        <v>1.408830409291332</v>
+        <v>1.398040053527112</v>
       </c>
       <c r="K113" s="3">
-        <v>0.04523536165327209</v>
+        <v>0.05637537468296064</v>
       </c>
       <c r="L113" s="3">
-        <v>0.3450334729017969</v>
+        <v>0.3714142888213938</v>
       </c>
       <c r="M113" s="3">
-        <v>0.005966850828729238</v>
+        <v>0.01081081081081084</v>
       </c>
       <c r="N113" s="3">
-        <v>0.002668696148364575</v>
+        <v>0.003457448354522413</v>
       </c>
       <c r="O113" s="3">
-        <v>0.02329735691690253</v>
+        <v>0.8847271711742528</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -6187,43 +6187,43 @@
         <v>126</v>
       </c>
       <c r="C114" s="1">
-        <v>15109787.02125428</v>
+        <v>15202600.56979715</v>
       </c>
       <c r="D114" s="2">
-        <v>1.051227005792003</v>
+        <v>1.04767345229004</v>
       </c>
       <c r="E114" s="3">
-        <v>0.02975947818997147</v>
+        <v>0.03296703296703307</v>
       </c>
       <c r="F114" s="3">
-        <v>4.32780747797907</v>
+        <v>3.89675855763776</v>
       </c>
       <c r="G114" s="3">
-        <v>0.02557856272838003</v>
+        <v>0.02753036437246975</v>
       </c>
       <c r="H114" s="3">
-        <v>1.332685797247068</v>
+        <v>1.460370047900815</v>
       </c>
       <c r="I114" s="3">
-        <v>0.04466501240694791</v>
+        <v>0.05267523849025307</v>
       </c>
       <c r="J114" s="3">
-        <v>1.230931384027325</v>
+        <v>1.265255351933498</v>
       </c>
       <c r="K114" s="3">
-        <v>0.06179066834804536</v>
+        <v>0.06818181818181826</v>
       </c>
       <c r="L114" s="3">
-        <v>0.5272669524320414</v>
+        <v>0.5456822313717067</v>
       </c>
       <c r="M114" s="3">
-        <v>0.05823209049015499</v>
+        <v>0.06773243584350035</v>
       </c>
       <c r="N114" s="3">
-        <v>0.3746487846733211</v>
+        <v>0.3899663038481762</v>
       </c>
       <c r="O114" s="3">
-        <v>0.1988794019092609</v>
+        <v>0.9054687916526024</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -6234,43 +6234,43 @@
         <v>127</v>
       </c>
       <c r="C115" s="1">
-        <v>1985154011.742587</v>
+        <v>1998319757.059827</v>
       </c>
       <c r="D115" s="2">
-        <v>2.092947406969506</v>
+        <v>2.079369988357583</v>
       </c>
       <c r="E115" s="3">
-        <v>-0.03248920298390257</v>
+        <v>-0.01731644567583615</v>
       </c>
       <c r="F115" s="3">
-        <v>-2.209268557806276</v>
+        <v>-1.330458597402223</v>
       </c>
       <c r="G115" s="3">
-        <v>-0.05493767976989453</v>
+        <v>-0.06275953189882978</v>
       </c>
       <c r="H115" s="3">
-        <v>-4.21971109291367</v>
+        <v>-4.098240672717737</v>
       </c>
       <c r="I115" s="3">
-        <v>-0.03740234375</v>
+        <v>-0.02465134551168728</v>
       </c>
       <c r="J115" s="3">
-        <v>-2.052625561755542</v>
+        <v>-2.224736609032505</v>
       </c>
       <c r="K115" s="3">
-        <v>0.1137853107344634</v>
+        <v>0.1181040306237334</v>
       </c>
       <c r="L115" s="3">
-        <v>0.8820691193471896</v>
+        <v>0.8258504451060851</v>
       </c>
       <c r="M115" s="3">
-        <v>0.169276393831554</v>
+        <v>0.17819432910191</v>
       </c>
       <c r="N115" s="3">
-        <v>2.233133917100031</v>
+        <v>2.24803343142025</v>
       </c>
       <c r="O115" s="3">
-        <v>0.6555897308447617</v>
+        <v>-0.5761321341501565</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -6281,43 +6281,43 @@
         <v>128</v>
       </c>
       <c r="C116" s="1">
-        <v>16272556.341</v>
+        <v>16431100.21168572</v>
       </c>
       <c r="D116" s="2">
-        <v>1.129272339196029</v>
+        <v>1.122929991103415</v>
       </c>
       <c r="E116" s="3">
-        <v>-0.003314001657000831</v>
+        <v>0.006639004149377599</v>
       </c>
       <c r="F116" s="3">
-        <v>0.006969591192124072</v>
+        <v>0.02135105433840883</v>
       </c>
       <c r="G116" s="3">
-        <v>-0.0429594272076371</v>
+        <v>-0.03577106518282983</v>
       </c>
       <c r="H116" s="3">
-        <v>-1.192288245463736</v>
+        <v>-0.960256940389517</v>
       </c>
       <c r="I116" s="3">
-        <v>0.03261802575107299</v>
+        <v>0.03675213675213689</v>
       </c>
       <c r="J116" s="3">
-        <v>-0.002959610147212417</v>
+        <v>-0.01285959513055366</v>
       </c>
       <c r="K116" s="3">
-        <v>0.02645051194539261</v>
+        <v>0.03498293515358374</v>
       </c>
       <c r="L116" s="3">
-        <v>0.1343165773942313</v>
+        <v>0.1348918547952125</v>
       </c>
       <c r="M116" s="3">
-        <v>0.06272084805653726</v>
+        <v>0.07250221043324498</v>
       </c>
       <c r="N116" s="3">
-        <v>0.3874855855409066</v>
+        <v>0.3904270772293476</v>
       </c>
       <c r="O116" s="3">
-        <v>-0.0233900153208653</v>
+        <v>0.04692663238582691</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -6328,43 +6328,43 @@
         <v>129</v>
       </c>
       <c r="C117" s="1">
-        <v>14441000.05851</v>
+        <v>14529677.32623</v>
       </c>
       <c r="D117" s="2">
-        <v>0.9679399130300809</v>
+        <v>0.9671416614200194</v>
       </c>
       <c r="E117" s="3">
-        <v>0.01903485254691692</v>
+        <v>0.02171581769437004</v>
       </c>
       <c r="F117" s="3">
-        <v>2.430600625901745</v>
+        <v>2.527150145376235</v>
       </c>
       <c r="G117" s="3">
-        <v>0.003961965134706777</v>
+        <v>0.004216073781291082</v>
       </c>
       <c r="H117" s="3">
-        <v>-0.1735138881244803</v>
+        <v>-0.1477737777924168</v>
       </c>
       <c r="I117" s="3">
-        <v>0.01522435897435898</v>
+        <v>0.0233619763694951</v>
       </c>
       <c r="J117" s="3">
-        <v>0.0006569386580731158</v>
+        <v>0.0006357991428320401</v>
       </c>
       <c r="K117" s="3">
-        <v>-0.003930817610062856</v>
+        <v>-0.0005245213742460825</v>
       </c>
       <c r="L117" s="3">
-        <v>-0.01151911005624663</v>
+        <v>-0.009817123787528644</v>
       </c>
       <c r="M117" s="3">
-        <v>-0.01655886157826651</v>
+        <v>-0.01778350515463912</v>
       </c>
       <c r="N117" s="3">
-        <v>-0.02907391288750586</v>
+        <v>-0.027723512667853</v>
       </c>
       <c r="O117" s="3">
-        <v>0.002908201162147215</v>
+        <v>-0.004590662322348301</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -6375,43 +6375,43 @@
         <v>130</v>
       </c>
       <c r="C118" s="1">
-        <v>17942732.15896</v>
+        <v>18008949.48679714</v>
       </c>
       <c r="D118" s="2">
-        <v>1.129885589653966</v>
+        <v>1.126770346008215</v>
       </c>
       <c r="E118" s="3">
-        <v>-0.007326007326007245</v>
+        <v>-0.009355509355509335</v>
       </c>
       <c r="F118" s="3">
-        <v>-0.06827491635255475</v>
+        <v>-0.009625740778919421</v>
       </c>
       <c r="G118" s="3">
-        <v>-0.03656678517013705</v>
+        <v>-0.042211055276382</v>
       </c>
       <c r="H118" s="3">
-        <v>-1.642812350619408</v>
+        <v>-1.389530677264608</v>
       </c>
       <c r="I118" s="3">
-        <v>0.01879699248120302</v>
+        <v>0.0230810520665593</v>
       </c>
       <c r="J118" s="3">
-        <v>-0.4384825688209162</v>
+        <v>-0.5944471208416114</v>
       </c>
       <c r="K118" s="3">
-        <v>-0.01454545454545453</v>
+        <v>-0.007808433107756384</v>
       </c>
       <c r="L118" s="3">
-        <v>9.94814766811921E-08</v>
+        <v>1.114563632546093E-06</v>
       </c>
       <c r="M118" s="3">
-        <v>0.05741360089186178</v>
+        <v>0.06124721603563464</v>
       </c>
       <c r="N118" s="3">
-        <v>0.03685951858168799</v>
+        <v>0.03484385071485119</v>
       </c>
       <c r="O118" s="3">
-        <v>3.979258873189593E-07</v>
+        <v>-0.004812313107643437</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -6422,43 +6422,43 @@
         <v>131</v>
       </c>
       <c r="C119" s="1">
-        <v>60018105.26371429</v>
+        <v>60242549.37312857</v>
       </c>
       <c r="D119" s="2">
-        <v>1.416187501604955</v>
+        <v>1.417066753870078</v>
       </c>
       <c r="E119" s="3">
-        <v>-0.007645030730025473</v>
+        <v>-0.009260642270350984</v>
       </c>
       <c r="F119" s="3">
-        <v>-0.1495116686370218</v>
+        <v>-0.07569020904695362</v>
       </c>
       <c r="G119" s="3">
-        <v>-0.08840539796199384</v>
+        <v>-0.08573397656788426</v>
       </c>
       <c r="H119" s="3">
-        <v>-4.090461825590946</v>
+        <v>-3.679119399306507</v>
       </c>
       <c r="I119" s="3">
-        <v>0.06739761367300881</v>
+        <v>0.06966618287373007</v>
       </c>
       <c r="J119" s="3">
-        <v>-0.005176137013831277</v>
+        <v>-0.02545667587132102</v>
       </c>
       <c r="K119" s="3">
-        <v>0.07993474714518767</v>
+        <v>0.08417783589408302</v>
       </c>
       <c r="L119" s="3">
-        <v>0.7014416713722026</v>
+        <v>0.683752172378527</v>
       </c>
       <c r="M119" s="3">
-        <v>0.1083207768290641</v>
+        <v>0.1114276139410188</v>
       </c>
       <c r="N119" s="3">
-        <v>0.829062739809152</v>
+        <v>0.8359407325322741</v>
       </c>
       <c r="O119" s="3">
-        <v>-0.02113882968042597</v>
+        <v>0.04298546903484887</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -6469,43 +6469,43 @@
         <v>132</v>
       </c>
       <c r="C120" s="1">
-        <v>17468405.74215</v>
+        <v>17589709.50492857</v>
       </c>
       <c r="D120" s="2">
-        <v>0.9448882984193225</v>
+        <v>0.9410808005264454</v>
       </c>
       <c r="E120" s="3">
-        <v>0.01414052143172783</v>
+        <v>0.01766004415011042</v>
       </c>
       <c r="F120" s="3">
-        <v>0.8813099025741027</v>
+        <v>1.030201871691672</v>
       </c>
       <c r="G120" s="3">
-        <v>0.01324503311258285</v>
+        <v>0.01229688186209936</v>
       </c>
       <c r="H120" s="3">
-        <v>0.1069320603071491</v>
+        <v>0.1415074126248508</v>
       </c>
       <c r="I120" s="3">
-        <v>0.04270786006360761</v>
+        <v>0.04677565849227973</v>
       </c>
       <c r="J120" s="3">
-        <v>0.6376637381403644</v>
+        <v>0.6249787272014884</v>
       </c>
       <c r="K120" s="3">
-        <v>0.004816112084063155</v>
+        <v>0.01274165202108972</v>
       </c>
       <c r="L120" s="3">
-        <v>5.563486214313514E-05</v>
+        <v>0.0002302832333241007</v>
       </c>
       <c r="M120" s="3">
-        <v>0.07594936708860776</v>
+        <v>0.07811038353601503</v>
       </c>
       <c r="N120" s="3">
-        <v>0.06991276361340373</v>
+        <v>0.06948175768372261</v>
       </c>
       <c r="O120" s="3">
-        <v>0.0002223431415649082</v>
+        <v>0.3515445553687517</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -6516,43 +6516,43 @@
         <v>133</v>
       </c>
       <c r="C121" s="1">
-        <v>49466862.30432858</v>
+        <v>49559052.80694856</v>
       </c>
       <c r="D121" s="2">
-        <v>1.02670811717038</v>
+        <v>1.026339462556237</v>
       </c>
       <c r="E121" s="3">
-        <v>0.01461377870563676</v>
+        <v>0.01206824802330414</v>
       </c>
       <c r="F121" s="3">
-        <v>1.599330256668397</v>
+        <v>1.58718615472939</v>
       </c>
       <c r="G121" s="3">
-        <v>-0.01219512195121952</v>
+        <v>-0.01856335754640837</v>
       </c>
       <c r="H121" s="3">
-        <v>-0.1968150629169005</v>
+        <v>-0.1335615461140615</v>
       </c>
       <c r="I121" s="3">
-        <v>0.01503759398496237</v>
+        <v>0.01333333333333337</v>
       </c>
       <c r="J121" s="3">
-        <v>-0.03331921595655815</v>
+        <v>-0.04547593410932538</v>
       </c>
       <c r="K121" s="3">
-        <v>0.005378568473314007</v>
+        <v>0.007039337474120113</v>
       </c>
       <c r="L121" s="3">
-        <v>0.0002197462842909465</v>
+        <v>0.0003069070774586298</v>
       </c>
       <c r="M121" s="3">
-        <v>-0.1556636553161918</v>
+        <v>-0.1696824854899283</v>
       </c>
       <c r="N121" s="3">
-        <v>-0.4931688884440287</v>
+        <v>-0.4767485012270178</v>
       </c>
       <c r="O121" s="3">
-        <v>0.0008859571382905593</v>
+        <v>-0.02258451351593338</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -6563,43 +6563,43 @@
         <v>134</v>
       </c>
       <c r="C122" s="1">
-        <v>41932626.46300001</v>
+        <v>42153125.69055429</v>
       </c>
       <c r="D122" s="2">
-        <v>1.200171306158231</v>
+        <v>1.197044342605893</v>
       </c>
       <c r="E122" s="3">
-        <v>-0.01376395361439247</v>
+        <v>-0.009430894308943134</v>
       </c>
       <c r="F122" s="3">
-        <v>-1.096403823854045</v>
+        <v>-0.7056668066101814</v>
       </c>
       <c r="G122" s="3">
-        <v>-0.04741965874594369</v>
+        <v>-0.04374215152783598</v>
       </c>
       <c r="H122" s="3">
-        <v>-3.455046908470304</v>
+        <v>-3.319685756436859</v>
       </c>
       <c r="I122" s="3">
-        <v>-0.01674770394381411</v>
+        <v>-0.01028918011480566</v>
       </c>
       <c r="J122" s="3">
-        <v>-0.5320255085635148</v>
+        <v>-0.6264229175551059</v>
       </c>
       <c r="K122" s="3">
-        <v>-0.01076203935210351</v>
+        <v>-0.009860223209448593</v>
       </c>
       <c r="L122" s="3">
-        <v>0.0002281140947333762</v>
+        <v>0.0001009972215920047</v>
       </c>
       <c r="M122" s="3">
-        <v>0.01619207146845346</v>
+        <v>0.01906992305118757</v>
       </c>
       <c r="N122" s="3">
-        <v>0.4367864602232517</v>
+        <v>0.4396876438737281</v>
       </c>
       <c r="O122" s="3">
-        <v>0.0009003456585250954</v>
+        <v>-0.313160960166757</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -6610,43 +6610,43 @@
         <v>135</v>
       </c>
       <c r="C123" s="1">
-        <v>6603039.339813429</v>
+        <v>6621818.058115428</v>
       </c>
       <c r="D123" s="2">
-        <v>0.7456179624908162</v>
+        <v>0.7455308084562045</v>
       </c>
       <c r="E123" s="3">
-        <v>0.01826484018264839</v>
+        <v>0.01953444847350573</v>
       </c>
       <c r="F123" s="3">
-        <v>1.945991226006863</v>
+        <v>2.109920039228258</v>
       </c>
       <c r="G123" s="3">
-        <v>0.01245634458672869</v>
+        <v>0.01231126596980258</v>
       </c>
       <c r="H123" s="3">
-        <v>0.03348529200665533</v>
+        <v>0.05959006854421815</v>
       </c>
       <c r="I123" s="3">
-        <v>0.0388198757763976</v>
+        <v>0.04171148559818338</v>
       </c>
       <c r="J123" s="3">
-        <v>0.3310672837541783</v>
+        <v>0.3221167335325437</v>
       </c>
       <c r="K123" s="3">
-        <v>-0.00446428571428581</v>
+        <v>-0.0008024762123122849</v>
       </c>
       <c r="L123" s="3">
-        <v>-0.008110420506055864</v>
+        <v>-0.005497056857393337</v>
       </c>
       <c r="M123" s="3">
-        <v>0.06869009584664543</v>
+        <v>0.07102482182354392</v>
       </c>
       <c r="N123" s="3">
-        <v>0.0486705789932667</v>
+        <v>0.04816713443147791</v>
       </c>
       <c r="O123" s="3">
-        <v>-0.03802078300477292</v>
+        <v>0.1965707776780438</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -6657,43 +6657,43 @@
         <v>136</v>
       </c>
       <c r="C124" s="1">
-        <v>8643667.793899998</v>
+        <v>8730963.320428571</v>
       </c>
       <c r="D124" s="2">
-        <v>0.8922863442954516</v>
+        <v>0.8935829101891797</v>
       </c>
       <c r="E124" s="3">
-        <v>0.01319381255686984</v>
+        <v>0.01591632560254668</v>
       </c>
       <c r="F124" s="3">
-        <v>0.8626920258298316</v>
+        <v>0.9600692669065451</v>
       </c>
       <c r="G124" s="3">
-        <v>-0.002240143369175778</v>
+        <v>-0.002233139794551091</v>
       </c>
       <c r="H124" s="3">
-        <v>0.000132472291980519</v>
+        <v>0.005923761980972679</v>
       </c>
       <c r="I124" s="3">
-        <v>0.03341067285382834</v>
+        <v>0.03810408921933078</v>
       </c>
       <c r="J124" s="3">
-        <v>0.2833191765050768</v>
+        <v>0.2693168854409795</v>
       </c>
       <c r="K124" s="3">
-        <v>0.01922196796338664</v>
+        <v>0.02571166207529846</v>
       </c>
       <c r="L124" s="3">
-        <v>0.1237678484110098</v>
+        <v>0.137049380783338</v>
       </c>
       <c r="M124" s="3">
-        <v>0.08317120622568085</v>
+        <v>0.08551992225461622</v>
       </c>
       <c r="N124" s="3">
-        <v>0.4036342570432577</v>
+        <v>0.4062498787464627</v>
       </c>
       <c r="O124" s="3">
-        <v>0.1613437683072197</v>
+        <v>0.2031831331121587</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -6704,43 +6704,43 @@
         <v>137</v>
       </c>
       <c r="C125" s="1">
-        <v>14499026.28987429</v>
+        <v>14560804.61782571</v>
       </c>
       <c r="D125" s="2">
-        <v>0.836722635863604</v>
+        <v>0.8355548274685116</v>
       </c>
       <c r="E125" s="3">
-        <v>0.0210139603232918</v>
+        <v>0.02600646488392589</v>
       </c>
       <c r="F125" s="3">
-        <v>3.139414390883062</v>
+        <v>3.813119999072483</v>
       </c>
       <c r="G125" s="3">
-        <v>-0.003299383158800701</v>
+        <v>-0.0008584919158678248</v>
       </c>
       <c r="H125" s="3">
-        <v>-0.06094131772235522</v>
+        <v>-0.0125051296366648</v>
       </c>
       <c r="I125" s="3">
-        <v>0.03670546105640114</v>
+        <v>0.04208327115355918</v>
       </c>
       <c r="J125" s="3">
-        <v>0.003495853145814259</v>
+        <v>0.003015982164253756</v>
       </c>
       <c r="K125" s="3">
-        <v>0.01105937136204897</v>
+        <v>0.0170404893678998</v>
       </c>
       <c r="L125" s="3">
-        <v>-0.001585258687373347</v>
+        <v>-0.0009607636971842208</v>
       </c>
       <c r="M125" s="3">
-        <v>0.04796380090497745</v>
+        <v>0.05371963180926511</v>
       </c>
       <c r="N125" s="3">
-        <v>0.07738551336003005</v>
+        <v>0.07898586279298142</v>
       </c>
       <c r="O125" s="3">
-        <v>-0.01236128022402493</v>
+        <v>0.02836780698675943</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -6751,43 +6751,43 @@
         <v>138</v>
       </c>
       <c r="C126" s="1">
-        <v>12766062.18905429</v>
+        <v>12899693.71721143</v>
       </c>
       <c r="D126" s="2">
-        <v>0.7660032657287128</v>
+        <v>0.7600375415793125</v>
       </c>
       <c r="E126" s="3">
-        <v>0.01104681746449247</v>
+        <v>0.01892744479495282</v>
       </c>
       <c r="F126" s="3">
-        <v>1.169683521483478</v>
+        <v>1.611519412265656</v>
       </c>
       <c r="G126" s="3">
-        <v>-0.004145077720207264</v>
+        <v>0.00727650727650734</v>
       </c>
       <c r="H126" s="3">
-        <v>7.169991221559064E-05</v>
+        <v>0.01506318715051137</v>
       </c>
       <c r="I126" s="3">
-        <v>0.03611859838274935</v>
+        <v>0.04361873990306956</v>
       </c>
       <c r="J126" s="3">
-        <v>0.1757244026663599</v>
+        <v>0.1743724648585721</v>
       </c>
       <c r="K126" s="3">
-        <v>0.009453781512605021</v>
+        <v>0.02485457429931262</v>
       </c>
       <c r="L126" s="3">
-        <v>0.006610069967025125</v>
+        <v>0.009412245684859981</v>
       </c>
       <c r="M126" s="3">
-        <v>0.003655352480417787</v>
+        <v>0.0109546165884195</v>
       </c>
       <c r="N126" s="3">
-        <v>0.02125466977253686</v>
+        <v>0.02396706628939248</v>
       </c>
       <c r="O126" s="3">
-        <v>0.009272106728962667</v>
+        <v>0.09266354072349578</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -6798,43 +6798,43 @@
         <v>139</v>
       </c>
       <c r="C127" s="1">
-        <v>8667287.17961143</v>
+        <v>8688681.549711427</v>
       </c>
       <c r="D127" s="2">
-        <v>0.8882265945799948</v>
+        <v>0.8915084083247685</v>
       </c>
       <c r="E127" s="3">
-        <v>0.03059440559440562</v>
+        <v>0.02526132404181184</v>
       </c>
       <c r="F127" s="3">
-        <v>2.549176080327841</v>
+        <v>2.449746626107306</v>
       </c>
       <c r="G127" s="3">
-        <v>-0.005063291139240417</v>
+        <v>-0.01092436974789912</v>
       </c>
       <c r="H127" s="3">
-        <v>-0.08754829247945269</v>
+        <v>-0.03483806907218056</v>
       </c>
       <c r="I127" s="3">
-        <v>0.04846598488216994</v>
+        <v>0.04482911673324455</v>
       </c>
       <c r="J127" s="3">
-        <v>0.003460395351532877</v>
+        <v>0.0009600845294306118</v>
       </c>
       <c r="K127" s="3">
-        <v>0.03557312252964425</v>
+        <v>0.03746143675628034</v>
       </c>
       <c r="L127" s="3">
-        <v>0.05908082568455455</v>
+        <v>0.06308481111510504</v>
       </c>
       <c r="M127" s="3">
-        <v>0.05127061970575127</v>
+        <v>0.04948729380294248</v>
       </c>
       <c r="N127" s="3">
-        <v>0.1022674909189851</v>
+        <v>0.1047674400674142</v>
       </c>
       <c r="O127" s="3">
-        <v>0.01227721017294941</v>
+        <v>0.05628605245902377</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -6845,43 +6845,43 @@
         <v>140</v>
       </c>
       <c r="C128" s="1">
-        <v>9784611.669469999</v>
+        <v>9848673.414771428</v>
       </c>
       <c r="D128" s="2">
-        <v>0.8674641989915913</v>
+        <v>0.8648335836055839</v>
       </c>
       <c r="E128" s="3">
-        <v>0.003782505910165462</v>
+        <v>0.008987701040681102</v>
       </c>
       <c r="F128" s="3">
-        <v>0.2926184602460759</v>
+        <v>0.5753479703966458</v>
       </c>
       <c r="G128" s="3">
-        <v>-0.01939953810623561</v>
+        <v>-0.01568989386248276</v>
       </c>
       <c r="H128" s="3">
-        <v>-0.878563325033432</v>
+        <v>-0.6604851606167549</v>
       </c>
       <c r="I128" s="3">
-        <v>0.01288167938931288</v>
+        <v>0.01619818961410189</v>
       </c>
       <c r="J128" s="3">
-        <v>-0.0507644141405383</v>
+        <v>-0.07131559183935358</v>
       </c>
       <c r="K128" s="3">
-        <v>0.007593735168485953</v>
+        <v>0.01474785918173164</v>
       </c>
       <c r="L128" s="3">
-        <v>-0.0007543778527392058</v>
+        <v>-0.0007435654344084882</v>
       </c>
       <c r="M128" s="3">
-        <v>-0.02120792992162296</v>
+        <v>-0.02290426019239581</v>
       </c>
       <c r="N128" s="3">
-        <v>-0.06298696912419199</v>
+        <v>-0.06169887969679663</v>
       </c>
       <c r="O128" s="3">
-        <v>-0.002879708991030714</v>
+        <v>-0.01182391281340215</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -6892,43 +6892,43 @@
         <v>141</v>
       </c>
       <c r="C129" s="1">
-        <v>8813770.145725714</v>
+        <v>8854773.535854286</v>
       </c>
       <c r="D129" s="2">
-        <v>0.9318112917770537</v>
+        <v>0.9315769452894106</v>
       </c>
       <c r="E129" s="3">
-        <v>0.03687396807925158</v>
+        <v>0.0384826827927433</v>
       </c>
       <c r="F129" s="3">
-        <v>5.020414914633474</v>
+        <v>5.258457077705909</v>
       </c>
       <c r="G129" s="3">
-        <v>0.004264392324093939</v>
+        <v>0.00585729499467528</v>
       </c>
       <c r="H129" s="3">
-        <v>0.001384844684432082</v>
+        <v>0.01972292869170883</v>
       </c>
       <c r="I129" s="3">
-        <v>0.04608550805108274</v>
+        <v>0.05236768802228423</v>
       </c>
       <c r="J129" s="3">
-        <v>0.006712336050395441</v>
+        <v>0.006271831778230418</v>
       </c>
       <c r="K129" s="3">
-        <v>0.04434589800443463</v>
+        <v>0.05061179087875431</v>
       </c>
       <c r="L129" s="3">
-        <v>0.1858876393713229</v>
+        <v>0.2008567668277812</v>
       </c>
       <c r="M129" s="3">
-        <v>0.112817483756645</v>
+        <v>0.1151121605667061</v>
       </c>
       <c r="N129" s="3">
-        <v>0.3838991451597612</v>
+        <v>0.3855159735142468</v>
       </c>
       <c r="O129" s="3">
-        <v>0.02447649592549595</v>
+        <v>0.1579844636972437</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -6939,43 +6939,43 @@
         <v>142</v>
       </c>
       <c r="C130" s="1">
-        <v>74251129.8281143</v>
+        <v>74435584.01954716</v>
       </c>
       <c r="D130" s="2">
-        <v>0.9879687564196348</v>
+        <v>0.9851145469768858</v>
       </c>
       <c r="E130" s="3">
-        <v>0.007769472856018944</v>
+        <v>0.00968688845401176</v>
       </c>
       <c r="F130" s="3">
-        <v>0.003400965173056491</v>
+        <v>0.01455528901928071</v>
       </c>
       <c r="G130" s="3">
-        <v>-0.01989478718316597</v>
+        <v>-0.01676989042401128</v>
       </c>
       <c r="H130" s="3">
-        <v>-0.9127570102504248</v>
+        <v>-0.6941525574088496</v>
       </c>
       <c r="I130" s="3">
-        <v>-0.002433800623052994</v>
+        <v>0.009094465088988849</v>
       </c>
       <c r="J130" s="3">
-        <v>-0.2065182806538955</v>
+        <v>-0.2108337521345441</v>
       </c>
       <c r="K130" s="3">
-        <v>0.02552041633306635</v>
+        <v>0.031178175277306</v>
       </c>
       <c r="L130" s="3">
-        <v>0.09897293861007821</v>
+        <v>0.1008273021824387</v>
       </c>
       <c r="M130" s="3">
-        <v>0.0346324717285945</v>
+        <v>0.03990728610299313</v>
       </c>
       <c r="N130" s="3">
-        <v>0.3265812473316916</v>
+        <v>0.3346581478926408</v>
       </c>
       <c r="O130" s="3">
-        <v>0.01218878974742117</v>
+        <v>0.02723128756113692</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -6986,43 +6986,43 @@
         <v>143</v>
       </c>
       <c r="C131" s="1">
-        <v>739467308.2104</v>
+        <v>742105343.3567144</v>
       </c>
       <c r="D131" s="2">
-        <v>1.013988039501514</v>
+        <v>1.010061122199475</v>
       </c>
       <c r="E131" s="3">
-        <v>-0.00940910801656003</v>
+        <v>-0.005303678357570612</v>
       </c>
       <c r="F131" s="3">
-        <v>-0.09636051536428726</v>
+        <v>-0.01345396704712422</v>
       </c>
       <c r="G131" s="3">
-        <v>-0.03499766682221186</v>
+        <v>-0.03161331156933945</v>
       </c>
       <c r="H131" s="3">
-        <v>-1.915374274399355</v>
+        <v>-1.719476831197046</v>
       </c>
       <c r="I131" s="3">
-        <v>-0.02152827064111665</v>
+        <v>-0.018601667735728</v>
       </c>
       <c r="J131" s="3">
-        <v>-1.211477124287901</v>
+        <v>-1.261313129851201</v>
       </c>
       <c r="K131" s="3">
-        <v>-0.03730797366495985</v>
+        <v>-0.03161331156933945</v>
       </c>
       <c r="L131" s="3">
-        <v>-0.7768620726689692</v>
+        <v>-0.8030632911162884</v>
       </c>
       <c r="M131" s="3">
-        <v>0.05861274635270018</v>
+        <v>0.06087146923582223</v>
       </c>
       <c r="N131" s="3">
-        <v>0.5419013291343133</v>
+        <v>0.5348592272355205</v>
       </c>
       <c r="O131" s="3">
-        <v>0.875125619330315</v>
+        <v>-0.4082586290817063</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -7033,43 +7033,43 @@
         <v>144</v>
       </c>
       <c r="C132" s="1">
-        <v>18811389.38657143</v>
+        <v>18935137.24428571</v>
       </c>
       <c r="D132" s="2">
-        <v>0.8394056489893331</v>
+        <v>0.8358878889982756</v>
       </c>
       <c r="E132" s="3">
-        <v>0.0240963855421687</v>
+        <v>0.02705410821643278</v>
       </c>
       <c r="F132" s="3">
-        <v>3.694705105275723</v>
+        <v>3.512978851014562</v>
       </c>
       <c r="G132" s="3">
-        <v>0.005917159763313615</v>
+        <v>0.006876227897838797</v>
       </c>
       <c r="H132" s="3">
-        <v>0.08270779497805196</v>
+        <v>0.1345772916102467</v>
       </c>
       <c r="I132" s="3">
-        <v>0.03975535168195722</v>
+        <v>0.0459183673469387</v>
       </c>
       <c r="J132" s="3">
-        <v>0.3604186950341187</v>
+        <v>0.3470305213805696</v>
       </c>
       <c r="K132" s="3">
-        <v>0.03658536585365857</v>
+        <v>0.04166666666666659</v>
       </c>
       <c r="L132" s="3">
-        <v>0.1531882312870475</v>
+        <v>0.1620937453377954</v>
       </c>
       <c r="M132" s="3">
-        <v>0.03975535168195722</v>
+        <v>0.0459183673469387</v>
       </c>
       <c r="N132" s="3">
-        <v>0.07003088098450411</v>
+        <v>0.07312003818459198</v>
       </c>
       <c r="O132" s="3">
-        <v>0.1151842461129608</v>
+        <v>0.2545621333591824</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -7080,43 +7080,43 @@
         <v>145</v>
       </c>
       <c r="C133" s="1">
-        <v>40354560.72817715</v>
+        <v>40491746.30731999</v>
       </c>
       <c r="D133" s="2">
-        <v>0.9093400857651276</v>
+        <v>0.9055037324449684</v>
       </c>
       <c r="E133" s="3">
-        <v>0.02725647899910632</v>
+        <v>0.03199820989035578</v>
       </c>
       <c r="F133" s="3">
-        <v>3.837044039472742</v>
+        <v>4.079256750850003</v>
       </c>
       <c r="G133" s="3">
-        <v>0.05241474021515219</v>
+        <v>0.05634448007329366</v>
       </c>
       <c r="H133" s="3">
-        <v>3.536214892241981</v>
+        <v>3.690439645321011</v>
       </c>
       <c r="I133" s="3">
-        <v>0.1469194312796207</v>
+        <v>0.15328832208052</v>
       </c>
       <c r="J133" s="3">
-        <v>5.178285465938822</v>
+        <v>5.088777132045102</v>
       </c>
       <c r="K133" s="3">
-        <v>0.1063522617901827</v>
+        <v>0.1126658624849215</v>
       </c>
       <c r="L133" s="3">
-        <v>0.6832554913403077</v>
+        <v>0.7306076396126822</v>
       </c>
       <c r="M133" s="3">
-        <v>0.1735579377233282</v>
+        <v>0.1753312945973495</v>
       </c>
       <c r="N133" s="3">
-        <v>0.420419271178444</v>
+        <v>0.4286463108264253</v>
       </c>
       <c r="O133" s="3">
-        <v>0.5208959045177914</v>
+        <v>2.404932195231342</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -7127,43 +7127,43 @@
         <v>146</v>
       </c>
       <c r="C134" s="1">
-        <v>43271879.97876857</v>
+        <v>43468838.44223142</v>
       </c>
       <c r="D134" s="2">
-        <v>1.238187243111915</v>
+        <v>1.233870419858186</v>
       </c>
       <c r="E134" s="3">
-        <v>0.01191526919682258</v>
+        <v>0.02312138728323714</v>
       </c>
       <c r="F134" s="3">
-        <v>0.7330137978377248</v>
+        <v>1.393380781500384</v>
       </c>
       <c r="G134" s="3">
-        <v>0.0672562252734466</v>
+        <v>0.07048150732728543</v>
       </c>
       <c r="H134" s="3">
-        <v>2.116415649512827</v>
+        <v>2.048091966283684</v>
       </c>
       <c r="I134" s="3">
-        <v>0.07074480504319405</v>
+        <v>0.0782567947516402</v>
       </c>
       <c r="J134" s="3">
-        <v>1.773934743147655</v>
+        <v>1.810019977076948</v>
       </c>
       <c r="K134" s="3">
-        <v>0.1265045443380005</v>
+        <v>0.1351751356684757</v>
       </c>
       <c r="L134" s="3">
-        <v>1.476590163999472</v>
+        <v>1.509367410596077</v>
       </c>
       <c r="M134" s="3">
-        <v>0.3417203042715038</v>
+        <v>0.3456140350877193</v>
       </c>
       <c r="N134" s="3">
-        <v>1.808579692761072</v>
+        <v>1.806678666036839</v>
       </c>
       <c r="O134" s="3">
-        <v>0.7231239356142325</v>
+        <v>1.451374096048231</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -7174,43 +7174,43 @@
         <v>147</v>
       </c>
       <c r="C135" s="1">
-        <v>30195715.35366285</v>
+        <v>30263563.43425572</v>
       </c>
       <c r="D135" s="2">
-        <v>0.7236771738059175</v>
+        <v>0.7229923808752721</v>
       </c>
       <c r="E135" s="3">
-        <v>0.0159860383944153</v>
+        <v>0.01627549594858908</v>
       </c>
       <c r="F135" s="3">
-        <v>0.50963904090121</v>
+        <v>0.5833804268897899</v>
       </c>
       <c r="G135" s="3">
-        <v>0.03022580873504624</v>
+        <v>0.0248661594815441</v>
       </c>
       <c r="H135" s="3">
-        <v>0.6689543509756761</v>
+        <v>0.6684866405688267</v>
       </c>
       <c r="I135" s="3">
-        <v>0.05479054935497901</v>
+        <v>0.05419897108905165</v>
       </c>
       <c r="J135" s="3">
-        <v>1.611144609425678</v>
+        <v>1.593817790297154</v>
       </c>
       <c r="K135" s="3">
-        <v>0.05693536673928834</v>
+        <v>0.06656403489480253</v>
       </c>
       <c r="L135" s="3">
-        <v>0.6534691769038524</v>
+        <v>0.6797757148491783</v>
       </c>
       <c r="M135" s="3">
-        <v>0.09157728943223564</v>
+        <v>0.09903308656896823</v>
       </c>
       <c r="N135" s="3">
-        <v>0.5698599008757139</v>
+        <v>0.5790447370606938</v>
       </c>
       <c r="O135" s="3">
-        <v>0.2660833800180772</v>
+        <v>0.631578070869484</v>
       </c>
     </row>
     <row r="136" spans="1:15">
@@ -7221,43 +7221,43 @@
         <v>148</v>
       </c>
       <c r="C136" s="1">
-        <v>157574077.7975</v>
+        <v>157877952.3367286</v>
       </c>
       <c r="D136" s="2">
-        <v>0.7995095558841734</v>
+        <v>0.799636540650375</v>
       </c>
       <c r="E136" s="3">
-        <v>0.01400827761859285</v>
+        <v>0.01431297709923665</v>
       </c>
       <c r="F136" s="3">
-        <v>0.8677403927688579</v>
+        <v>1.180347851009132</v>
       </c>
       <c r="G136" s="3">
-        <v>0.006319115323854665</v>
+        <v>-0.004992199687987489</v>
       </c>
       <c r="H136" s="3">
-        <v>-0.04256430911606195</v>
+        <v>-0.01473032818106086</v>
       </c>
       <c r="I136" s="3">
-        <v>0.03041087026852158</v>
+        <v>0.02937378954163975</v>
       </c>
       <c r="J136" s="3">
-        <v>0.04141685320429533</v>
+        <v>0.03797531224683148</v>
       </c>
       <c r="K136" s="3">
-        <v>0.01111111111111112</v>
+        <v>0.01495862507956727</v>
       </c>
       <c r="L136" s="3">
-        <v>8.874156367853004E-06</v>
+        <v>5.481779425262823E-05</v>
       </c>
       <c r="M136" s="3">
-        <v>-0.01788467468393454</v>
+        <v>-0.01967414694128485</v>
       </c>
       <c r="N136" s="3">
-        <v>-0.007310328906454321</v>
+        <v>-0.006185452024660803</v>
       </c>
       <c r="O136" s="3">
-        <v>3.55062724056887E-05</v>
+        <v>0.01901506502054205</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -7268,43 +7268,43 @@
         <v>149</v>
       </c>
       <c r="C137" s="1">
-        <v>25846827.74560572</v>
+        <v>25856413.15290857</v>
       </c>
       <c r="D137" s="2">
-        <v>0.8314571830538889</v>
+        <v>0.8304483149121084</v>
       </c>
       <c r="E137" s="3">
-        <v>0.006304447501146364</v>
+        <v>0.005377574370709361</v>
       </c>
       <c r="F137" s="3">
-        <v>0.1546471942503069</v>
+        <v>0.2216922845514201</v>
       </c>
       <c r="G137" s="3">
-        <v>-0.02107493309545037</v>
+        <v>-0.02225436741960612</v>
       </c>
       <c r="H137" s="3">
-        <v>-1.065511435733527</v>
+        <v>-0.8923906941541843</v>
       </c>
       <c r="I137" s="3">
-        <v>-0.008022598870056366</v>
+        <v>-0.01169722190979641</v>
       </c>
       <c r="J137" s="3">
-        <v>-0.7544467204982904</v>
+        <v>-0.7791594290889157</v>
       </c>
       <c r="K137" s="3">
-        <v>-0.02260075706969484</v>
+        <v>-0.01667412712623088</v>
       </c>
       <c r="L137" s="3">
-        <v>-0.0392612953537121</v>
+        <v>-0.03748194486726494</v>
       </c>
       <c r="M137" s="3">
-        <v>-0.01259700821054995</v>
+        <v>-0.01391538547862183</v>
       </c>
       <c r="N137" s="3">
-        <v>0.001365258336363066</v>
+        <v>0.001415256308833292</v>
       </c>
       <c r="O137" s="3">
-        <v>-0.04011494978225878</v>
+        <v>-0.02569866517294338</v>
       </c>
     </row>
     <row r="138" spans="1:15">
@@ -7315,43 +7315,43 @@
         <v>150</v>
       </c>
       <c r="C138" s="1">
-        <v>461716054.4239843</v>
+        <v>465510575.9812315</v>
       </c>
       <c r="D138" s="2">
-        <v>1.308251850089347</v>
+        <v>1.301746929206598</v>
       </c>
       <c r="E138" s="3">
-        <v>-0.01038653694451745</v>
+        <v>-0.01338705484793342</v>
       </c>
       <c r="F138" s="3">
-        <v>-1.396490158164279</v>
+        <v>-1.252221980867336</v>
       </c>
       <c r="G138" s="3">
-        <v>-0.01129646657034025</v>
+        <v>-0.01145982549811174</v>
       </c>
       <c r="H138" s="3">
-        <v>-0.002977166476422331</v>
+        <v>-0.001022356564579466</v>
       </c>
       <c r="I138" s="3">
-        <v>0.02547683923705726</v>
+        <v>0.0302660152008686</v>
       </c>
       <c r="J138" s="3">
-        <v>0.4289943037212433</v>
+        <v>0.3990373681569474</v>
       </c>
       <c r="K138" s="3">
-        <v>0.1001169248757674</v>
+        <v>0.1106071689831749</v>
       </c>
       <c r="L138" s="3">
-        <v>1.505199891875018</v>
+        <v>1.500336593493917</v>
       </c>
       <c r="M138" s="3">
-        <v>0.2237034628515689</v>
+        <v>0.2303079416531605</v>
       </c>
       <c r="N138" s="3">
-        <v>2.247094479559545</v>
+        <v>2.254675228481064</v>
       </c>
       <c r="O138" s="3">
-        <v>0.5926347875089349</v>
+        <v>0.3146726549050539</v>
       </c>
     </row>
     <row r="139" spans="1:15">
@@ -7362,43 +7362,43 @@
         <v>151</v>
       </c>
       <c r="C139" s="1">
-        <v>166460557.7664643</v>
+        <v>167384580.4501928</v>
       </c>
       <c r="D139" s="2">
-        <v>1.008558850481782</v>
+        <v>1.005700381444801</v>
       </c>
       <c r="E139" s="3">
-        <v>-0.01015869806934198</v>
+        <v>-0.005503938598262887</v>
       </c>
       <c r="F139" s="3">
-        <v>-0.1460654094568766</v>
+        <v>-0.009791451945757994</v>
       </c>
       <c r="G139" s="3">
-        <v>-0.02503982477100757</v>
+        <v>-0.02194964493221434</v>
       </c>
       <c r="H139" s="3">
-        <v>-1.748380553229971</v>
+        <v>-1.546624218464083</v>
       </c>
       <c r="I139" s="3">
-        <v>0.002149107097170424</v>
+        <v>0.009534061202521911</v>
       </c>
       <c r="J139" s="3">
-        <v>-0.3045338410429704</v>
+        <v>-0.3702588539350896</v>
       </c>
       <c r="K139" s="3">
-        <v>-0.01908244014825204</v>
+        <v>-0.01588967171338637</v>
       </c>
       <c r="L139" s="3">
-        <v>-0.01206418171356512</v>
+        <v>-0.01108943279292094</v>
       </c>
       <c r="M139" s="3">
-        <v>0.006475152885554305</v>
+        <v>0.01181608014384795</v>
       </c>
       <c r="N139" s="3">
-        <v>0.1278155388539871</v>
+        <v>0.1299726140451415</v>
       </c>
       <c r="O139" s="3">
-        <v>0.06512901980250828</v>
+        <v>-0.01044044236933947</v>
       </c>
     </row>
     <row r="140" spans="1:15">
@@ -7409,43 +7409,43 @@
         <v>152</v>
       </c>
       <c r="C140" s="1">
-        <v>54339154.65531143</v>
+        <v>54412286.60088</v>
       </c>
       <c r="D140" s="2">
-        <v>0.5916426946236375</v>
+        <v>0.5914521383044992</v>
       </c>
       <c r="E140" s="3">
-        <v>0.002588278794601613</v>
+        <v>0.003137110167927598</v>
       </c>
       <c r="F140" s="3">
-        <v>0.05553397313199193</v>
+        <v>0.1082315774568318</v>
       </c>
       <c r="G140" s="3">
-        <v>-0.004588839941262853</v>
+        <v>-0.00384826827927436</v>
       </c>
       <c r="H140" s="3">
-        <v>-0.2701292491460042</v>
+        <v>-0.2184272543792681</v>
       </c>
       <c r="I140" s="3">
-        <v>0.01175373134328356</v>
+        <v>0.01912260967379078</v>
       </c>
       <c r="J140" s="3">
-        <v>0.0303374527999939</v>
+        <v>0.02441173533538073</v>
       </c>
       <c r="K140" s="3">
-        <v>0.02669443392654301</v>
+        <v>0.02896081771720607</v>
       </c>
       <c r="L140" s="3">
-        <v>0.3133210850463897</v>
+        <v>0.3129108003553845</v>
       </c>
       <c r="M140" s="3">
-        <v>0.07428684627575284</v>
+        <v>0.07600950118764838</v>
       </c>
       <c r="N140" s="3">
-        <v>0.5233576281826207</v>
+        <v>0.5227766794343502</v>
       </c>
       <c r="O140" s="3">
-        <v>0.0591519100980862</v>
+        <v>0.0921205393222401</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -7456,43 +7456,43 @@
         <v>153</v>
       </c>
       <c r="C141" s="1">
-        <v>595353248.2470257</v>
+        <v>596295857.7100672</v>
       </c>
       <c r="D141" s="2">
-        <v>1.395071709388489</v>
+        <v>1.389854004297829</v>
       </c>
       <c r="E141" s="3">
-        <v>-0.008919338159255399</v>
+        <v>-0.01182063471669024</v>
       </c>
       <c r="F141" s="3">
-        <v>-0.4867145159706709</v>
+        <v>-0.1804782331028881</v>
       </c>
       <c r="G141" s="3">
-        <v>-0.01956521739130436</v>
+        <v>-0.01963033779477382</v>
       </c>
       <c r="H141" s="3">
-        <v>-0.7289310733153603</v>
+        <v>-0.5920214571109177</v>
       </c>
       <c r="I141" s="3">
-        <v>-0.0005214444009906407</v>
+        <v>0.002737940026075537</v>
       </c>
       <c r="J141" s="3">
-        <v>-0.3373689418504254</v>
+        <v>-0.3822241662472842</v>
       </c>
       <c r="K141" s="3">
-        <v>0.02871326982423186</v>
+        <v>0.0311033650623407</v>
       </c>
       <c r="L141" s="3">
-        <v>0.03468063861152675</v>
+        <v>0.0331380692387069</v>
       </c>
       <c r="M141" s="3">
-        <v>0.2294740218088519</v>
+        <v>0.2227344992050874</v>
       </c>
       <c r="N141" s="3">
-        <v>1.260180626890833</v>
+        <v>1.245375051392438</v>
       </c>
       <c r="O141" s="3">
-        <v>0.1419767968685699</v>
+        <v>-0.07367008193209058</v>
       </c>
     </row>
     <row r="142" spans="1:15">
@@ -7503,43 +7503,43 @@
         <v>154</v>
       </c>
       <c r="C142" s="1">
-        <v>73010615.45</v>
+        <v>73185357.27128571</v>
       </c>
       <c r="D142" s="2">
-        <v>0.8535171067987432</v>
+        <v>0.8517049685677479</v>
       </c>
       <c r="E142" s="3">
-        <v>0.0107526881720429</v>
+        <v>0.0129032258064515</v>
       </c>
       <c r="F142" s="3">
-        <v>0.730066423789136</v>
+        <v>1.04290859364179</v>
       </c>
       <c r="G142" s="3">
-        <v>-0.004237288135593225</v>
+        <v>-0.004228329809725162</v>
       </c>
       <c r="H142" s="3">
-        <v>-0.2546937648769744</v>
+        <v>-0.1320597387286996</v>
       </c>
       <c r="I142" s="3">
-        <v>0.02173913043478251</v>
+        <v>0.02391304347826077</v>
       </c>
       <c r="J142" s="3">
-        <v>-0.001236587908537808</v>
+        <v>-0.002176519470290819</v>
       </c>
       <c r="K142" s="3">
-        <v>0.004273504273504159</v>
+        <v>0.01181525241675607</v>
       </c>
       <c r="L142" s="3">
-        <v>0.004002632901940089</v>
+        <v>0.005523202837857567</v>
       </c>
       <c r="M142" s="3">
-        <v>0.05263157894736834</v>
+        <v>0.05369127516778516</v>
       </c>
       <c r="N142" s="3">
-        <v>0.3061592713782776</v>
+        <v>0.3101611894087522</v>
       </c>
       <c r="O142" s="3">
-        <v>-0.007428433341443053</v>
+        <v>0.02960723900282136</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -7550,43 +7550,43 @@
         <v>155</v>
       </c>
       <c r="C143" s="1">
-        <v>487359919.2500143</v>
+        <v>484932497.4691215</v>
       </c>
       <c r="D143" s="2">
-        <v>1.012735342714733</v>
+        <v>1.009755237166198</v>
       </c>
       <c r="E143" s="3">
-        <v>-0.01538849646821391</v>
+        <v>-0.01562893874464327</v>
       </c>
       <c r="F143" s="3">
-        <v>-0.5751503436879948</v>
+        <v>-0.2876083005453241</v>
       </c>
       <c r="G143" s="3">
-        <v>-0.04595453434368135</v>
+        <v>-0.04756097560975601</v>
       </c>
       <c r="H143" s="3">
-        <v>-2.663723373181029</v>
+        <v>-2.469606259239752</v>
       </c>
       <c r="I143" s="3">
-        <v>-0.02982848620432516</v>
+        <v>-0.02203856749311289</v>
       </c>
       <c r="J143" s="3">
-        <v>-1.042657883049888</v>
+        <v>-1.068009303725355</v>
       </c>
       <c r="K143" s="3">
-        <v>-0.0445532435740514</v>
+        <v>-0.04124723790817575</v>
       </c>
       <c r="L143" s="3">
-        <v>-0.01928886008086463</v>
+        <v>-0.01759515367519083</v>
       </c>
       <c r="M143" s="3">
-        <v>0.01932619482893696</v>
+        <v>0.02225130890052358</v>
       </c>
       <c r="N143" s="3">
-        <v>0.2705263825852093</v>
+        <v>0.2706962984495571</v>
       </c>
       <c r="O143" s="3">
-        <v>-1.429635818602658</v>
+        <v>-0.1526017271102575</v>
       </c>
     </row>
     <row r="144" spans="1:15">
@@ -7597,43 +7597,43 @@
         <v>156</v>
       </c>
       <c r="C144" s="1">
-        <v>66999824.22031714</v>
+        <v>67419727.18260001</v>
       </c>
       <c r="D144" s="2">
-        <v>0.832346945779051</v>
+        <v>0.8305383352926679</v>
       </c>
       <c r="E144" s="3">
-        <v>0.001267656646142707</v>
+        <v>0.005521361332367844</v>
       </c>
       <c r="F144" s="3">
-        <v>0.01440607041048652</v>
+        <v>0.1606014810551751</v>
       </c>
       <c r="G144" s="3">
-        <v>-0.02417931521355449</v>
+        <v>-0.01811914442283893</v>
       </c>
       <c r="H144" s="3">
-        <v>-1.461023664470592</v>
+        <v>-1.16208373694519</v>
       </c>
       <c r="I144" s="3">
-        <v>-0.00566495818721334</v>
+        <v>-0.002155753166262417</v>
       </c>
       <c r="J144" s="3">
-        <v>-0.70478461335051</v>
+        <v>-0.7156739067700093</v>
       </c>
       <c r="K144" s="3">
-        <v>-0.02340369160116582</v>
+        <v>-0.0195922689965581</v>
       </c>
       <c r="L144" s="3">
-        <v>-0.05932496159452321</v>
+        <v>-0.05558171208714684</v>
       </c>
       <c r="M144" s="3">
-        <v>0.06224783861671474</v>
+        <v>0.06591824985607374</v>
       </c>
       <c r="N144" s="3">
-        <v>0.1591547217787338</v>
+        <v>0.1545255303687926</v>
       </c>
       <c r="O144" s="3">
-        <v>0.05951954688079224</v>
+        <v>0.005168268884463447</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -7644,43 +7644,43 @@
         <v>157</v>
       </c>
       <c r="C145" s="1">
-        <v>6261080798.849365</v>
+        <v>6287349309.978338</v>
       </c>
       <c r="D145" s="2">
-        <v>0.794789069165568</v>
+        <v>0.7943206023503713</v>
       </c>
       <c r="E145" s="3">
-        <v>0.007566045600761237</v>
+        <v>0.009853104864627539</v>
       </c>
       <c r="F145" s="3">
-        <v>0.2340982163873765</v>
+        <v>0.3869904913044013</v>
       </c>
       <c r="G145" s="3">
-        <v>-0.0104891593996927</v>
+        <v>-0.006140695996975967</v>
       </c>
       <c r="H145" s="3">
-        <v>-0.1688986781780547</v>
+        <v>-0.06722037574269184</v>
       </c>
       <c r="I145" s="3">
-        <v>0.04827795006914385</v>
+        <v>0.0568494105872798</v>
       </c>
       <c r="J145" s="3">
-        <v>0.1784670345733402</v>
+        <v>0.1460481668223566</v>
       </c>
       <c r="K145" s="3">
-        <v>0.06852777059544748</v>
+        <v>0.07468426233337223</v>
       </c>
       <c r="L145" s="3">
-        <v>0.8151833524056162</v>
+        <v>0.8316554503978912</v>
       </c>
       <c r="M145" s="3">
-        <v>0.05905840532385386</v>
+        <v>0.0660934758862665</v>
       </c>
       <c r="N145" s="3">
-        <v>0.3855359225901785</v>
+        <v>0.4000115974657097</v>
       </c>
       <c r="O145" s="3">
-        <v>0.1426833966135753</v>
+        <v>0.2665193290633789</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -7691,43 +7691,43 @@
         <v>158</v>
       </c>
       <c r="C146" s="1">
-        <v>6503794287.979072</v>
+        <v>6517344792.553285</v>
       </c>
       <c r="D146" s="2">
-        <v>0.4990851886487558</v>
+        <v>0.4985141410549013</v>
       </c>
       <c r="E146" s="3">
-        <v>0.001425141627145234</v>
+        <v>0.004315058371508793</v>
       </c>
       <c r="F146" s="3">
-        <v>-8.826543105480551E-06</v>
+        <v>0.0008123762018865633</v>
       </c>
       <c r="G146" s="3">
-        <v>-0.009139366563492894</v>
+        <v>-0.006159407573790012</v>
       </c>
       <c r="H146" s="3">
-        <v>-0.649893287044779</v>
+        <v>-0.5693972301623796</v>
       </c>
       <c r="I146" s="3">
-        <v>0.02717964892700752</v>
+        <v>0.03248682843235548</v>
       </c>
       <c r="J146" s="3">
-        <v>0.07626707898415842</v>
+        <v>0.05347535509532741</v>
       </c>
       <c r="K146" s="3">
-        <v>0.02517116757169056</v>
+        <v>0.03012683707619935</v>
       </c>
       <c r="L146" s="3">
-        <v>0.3325188928523732</v>
+        <v>0.3432090140482285</v>
       </c>
       <c r="M146" s="3">
-        <v>0.01824271103281171</v>
+        <v>0.0207447191983274</v>
       </c>
       <c r="N146" s="3">
-        <v>0.0670796209695468</v>
+        <v>0.07085857699625728</v>
       </c>
       <c r="O146" s="3">
-        <v>-3.532829202893482E-05</v>
+        <v>0.0371100371468274</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>pair</t>
   </si>
@@ -56,6 +56,435 @@
   </si>
   <si>
     <t>avg momentum</t>
+  </si>
+  <si>
+    <t>QNT/USDT</t>
+  </si>
+  <si>
+    <t>APT/USDT</t>
+  </si>
+  <si>
+    <t>ICP/USDT</t>
+  </si>
+  <si>
+    <t>CVX/USDT</t>
+  </si>
+  <si>
+    <t>LDO/USDT</t>
+  </si>
+  <si>
+    <t>LUNA2/USDT</t>
+  </si>
+  <si>
+    <t>1000LUNC/USDT</t>
+  </si>
+  <si>
+    <t>SPELL/USDT</t>
+  </si>
+  <si>
+    <t>FOOTBALL/USDT</t>
+  </si>
+  <si>
+    <t>STG/USDT</t>
+  </si>
+  <si>
+    <t>INJ/USDT</t>
+  </si>
+  <si>
+    <t>OP/USDT</t>
+  </si>
+  <si>
+    <t>GAL/USDT</t>
+  </si>
+  <si>
+    <t>DAR/USDT</t>
+  </si>
+  <si>
+    <t>JASMY/USDT</t>
+  </si>
+  <si>
+    <t>WOO/USDT</t>
+  </si>
+  <si>
+    <t>BNX/USDT</t>
+  </si>
+  <si>
+    <t>APE/USDT</t>
+  </si>
+  <si>
+    <t>GMT/USDT</t>
+  </si>
+  <si>
+    <t>API3/USDT</t>
+  </si>
+  <si>
+    <t>IMX/USDT</t>
+  </si>
+  <si>
+    <t>FLOW/USDT</t>
+  </si>
+  <si>
+    <t>DUSK/USDT</t>
+  </si>
+  <si>
+    <t>ROSE/USDT</t>
+  </si>
+  <si>
+    <t>ANT/USDT</t>
+  </si>
+  <si>
+    <t>PEOPLE/USDT</t>
+  </si>
+  <si>
+    <t>ENS/USDT</t>
+  </si>
+  <si>
+    <t>LPT/USDT</t>
+  </si>
+  <si>
+    <t>CTSI/USDT</t>
+  </si>
+  <si>
+    <t>ARPA/USDT</t>
+  </si>
+  <si>
+    <t>KLAY/USDT</t>
+  </si>
+  <si>
+    <t>AR/USDT</t>
+  </si>
+  <si>
+    <t>CELO/USDT</t>
+  </si>
+  <si>
+    <t>GALA/USDT</t>
+  </si>
+  <si>
+    <t>1000XEC/USDT</t>
+  </si>
+  <si>
+    <t>DYDX/USDT</t>
+  </si>
+  <si>
+    <t>ATA/USDT</t>
+  </si>
+  <si>
+    <t>MASK/USDT</t>
+  </si>
+  <si>
+    <t>C98/USDT</t>
+  </si>
+  <si>
+    <t>AUDIO/USDT</t>
+  </si>
+  <si>
+    <t>IOTX/USDT</t>
+  </si>
+  <si>
+    <t>BTCDOM/USDT</t>
+  </si>
+  <si>
+    <t>GTC/USDT</t>
+  </si>
+  <si>
+    <t>BAKE/USDT</t>
+  </si>
+  <si>
+    <t>1000SHIB/USDT</t>
+  </si>
+  <si>
+    <t>DGB/USDT</t>
+  </si>
+  <si>
+    <t>NKN/USDT</t>
+  </si>
+  <si>
+    <t>OGN/USDT</t>
+  </si>
+  <si>
+    <t>MTL/USDT</t>
+  </si>
+  <si>
+    <t>HOT/USDT</t>
+  </si>
+  <si>
+    <t>CELR/USDT</t>
+  </si>
+  <si>
+    <t>DENT/USDT</t>
+  </si>
+  <si>
+    <t>STMX/USDT</t>
+  </si>
+  <si>
+    <t>LINA/USDT</t>
+  </si>
+  <si>
+    <t>ONE/USDT</t>
+  </si>
+  <si>
+    <t>HBAR/USDT</t>
+  </si>
+  <si>
+    <t>ALICE/USDT</t>
+  </si>
+  <si>
+    <t>MANA/USDT</t>
+  </si>
+  <si>
+    <t>CHR/USDT</t>
+  </si>
+  <si>
+    <t>COTI/USDT</t>
+  </si>
+  <si>
+    <t>XEM/USDT</t>
+  </si>
+  <si>
+    <t>SFP/USDT</t>
+  </si>
+  <si>
+    <t>RVN/USDT</t>
+  </si>
+  <si>
+    <t>REEF/USDT</t>
+  </si>
+  <si>
+    <t>UNFI/USDT</t>
+  </si>
+  <si>
+    <t>LIT/USDT</t>
+  </si>
+  <si>
+    <t>ANKR/USDT</t>
+  </si>
+  <si>
+    <t>SAND/USDT</t>
+  </si>
+  <si>
+    <t>CHZ/USDT</t>
+  </si>
+  <si>
+    <t>1INCH/USDT</t>
+  </si>
+  <si>
+    <t>GRT/USDT</t>
+  </si>
+  <si>
+    <t>SKL/USDT</t>
+  </si>
+  <si>
+    <t>ZEN/USDT</t>
+  </si>
+  <si>
+    <t>ALPHA/USDT</t>
+  </si>
+  <si>
+    <t>AXS/USDT</t>
+  </si>
+  <si>
+    <t>CTK/USDT</t>
+  </si>
+  <si>
+    <t>BEL/USDT</t>
+  </si>
+  <si>
+    <t>OCEAN/USDT</t>
+  </si>
+  <si>
+    <t>MATIC/USDT</t>
+  </si>
+  <si>
+    <t>LRC/USDT</t>
+  </si>
+  <si>
+    <t>RSR/USDT</t>
+  </si>
+  <si>
+    <t>FIL/USDT</t>
+  </si>
+  <si>
+    <t>AAVE/USDT</t>
+  </si>
+  <si>
+    <t>NEAR/USDT</t>
+  </si>
+  <si>
+    <t>KSM/USDT</t>
+  </si>
+  <si>
+    <t>REN/USDT</t>
+  </si>
+  <si>
+    <t>TOMO/USDT</t>
+  </si>
+  <si>
+    <t>FLM/USDT</t>
+  </si>
+  <si>
+    <t>ENJ/USDT</t>
+  </si>
+  <si>
+    <t>HNT/USDT</t>
+  </si>
+  <si>
+    <t>FTM/USDT</t>
+  </si>
+  <si>
+    <t>AVAX/USDT</t>
+  </si>
+  <si>
+    <t>UNI/USDT</t>
+  </si>
+  <si>
+    <t>BLZ/USDT</t>
+  </si>
+  <si>
+    <t>STORJ/USDT</t>
+  </si>
+  <si>
+    <t>ICX/USDT</t>
+  </si>
+  <si>
+    <t>SOL/USDT</t>
+  </si>
+  <si>
+    <t>EGLD/USDT</t>
+  </si>
+  <si>
+    <t>SUSHI/USDT</t>
+  </si>
+  <si>
+    <t>RUNE/USDT</t>
+  </si>
+  <si>
+    <t>TRB/USDT</t>
+  </si>
+  <si>
+    <t>CRV/USDT</t>
+  </si>
+  <si>
+    <t>BAL/USDT</t>
+  </si>
+  <si>
+    <t>YFI/USDT</t>
+  </si>
+  <si>
+    <t>DEFI/USDT</t>
+  </si>
+  <si>
+    <t>DOT/USDT</t>
+  </si>
+  <si>
+    <t>SNX/USDT</t>
+  </si>
+  <si>
+    <t>MKR/USDT</t>
+  </si>
+  <si>
+    <t>WAVES/USDT</t>
+  </si>
+  <si>
+    <t>RLC/USDT</t>
+  </si>
+  <si>
+    <t>BAND/USDT</t>
+  </si>
+  <si>
+    <t>KAVA/USDT</t>
+  </si>
+  <si>
+    <t>SXP/USDT</t>
+  </si>
+  <si>
+    <t>DOGE/USDT</t>
+  </si>
+  <si>
+    <t>OMG/USDT</t>
+  </si>
+  <si>
+    <t>COMP/USDT</t>
+  </si>
+  <si>
+    <t>ZRX/USDT</t>
+  </si>
+  <si>
+    <t>KNC/USDT</t>
+  </si>
+  <si>
+    <t>ZIL/USDT</t>
+  </si>
+  <si>
+    <t>ALGO/USDT</t>
+  </si>
+  <si>
+    <t>THETA/USDT</t>
+  </si>
+  <si>
+    <t>IOST/USDT</t>
+  </si>
+  <si>
+    <t>QTUM/USDT</t>
+  </si>
+  <si>
+    <t>NEO/USDT</t>
+  </si>
+  <si>
+    <t>VET/USDT</t>
+  </si>
+  <si>
+    <t>BAT/USDT</t>
+  </si>
+  <si>
+    <t>IOTA/USDT</t>
+  </si>
+  <si>
+    <t>ONT/USDT</t>
+  </si>
+  <si>
+    <t>ATOM/USDT</t>
+  </si>
+  <si>
+    <t>BNB/USDT</t>
+  </si>
+  <si>
+    <t>XTZ/USDT</t>
+  </si>
+  <si>
+    <t>ZEC/USDT</t>
+  </si>
+  <si>
+    <t>DASH/USDT</t>
+  </si>
+  <si>
+    <t>XMR/USDT</t>
+  </si>
+  <si>
+    <t>ADA/USDT</t>
+  </si>
+  <si>
+    <t>XLM/USDT</t>
+  </si>
+  <si>
+    <t>LINK/USDT</t>
+  </si>
+  <si>
+    <t>ETC/USDT</t>
+  </si>
+  <si>
+    <t>TRX/USDT</t>
+  </si>
+  <si>
+    <t>LTC/USDT</t>
+  </si>
+  <si>
+    <t>EOS/USDT</t>
+  </si>
+  <si>
+    <t>XRP/USDT</t>
+  </si>
+  <si>
+    <t>BCH/USDT</t>
   </si>
   <si>
     <t>ETH/USDT</t>
@@ -430,7 +859,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,43 +923,43 @@
         <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>604942770.4771127</v>
+        <v>16591899.49971429</v>
       </c>
       <c r="D2" s="2">
-        <v>0.7560750249006957</v>
+        <v>1.280784781277022</v>
       </c>
       <c r="E2" s="3">
-        <v>0.0132951011038773</v>
+        <v>0.05298337137267688</v>
       </c>
       <c r="F2" s="3">
-        <v>0.8722435170009112</v>
+        <v>9.157633037654206</v>
       </c>
       <c r="G2" s="3">
-        <v>-0.0008343247377284174</v>
+        <v>0.06163708086785009</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.000521069938526048</v>
+        <v>2.57399867892481</v>
       </c>
       <c r="I2" s="3">
-        <v>0.06320643819513526</v>
+        <v>0.1164117189525539</v>
       </c>
       <c r="J2" s="3">
-        <v>0.08511928526231879</v>
+        <v>2.422842687292294</v>
       </c>
       <c r="K2" s="3">
-        <v>0.07844576002668237</v>
+        <v>0.08436162175774374</v>
       </c>
       <c r="L2" s="3">
-        <v>0.8579360116854431</v>
+        <v>0.1051827199677361</v>
       </c>
       <c r="M2" s="3">
-        <v>0.06663477873624848</v>
+        <v>0.09707006369426757</v>
       </c>
       <c r="N2" s="3">
-        <v>0.4284825233343744</v>
+        <v>0.4734963962295717</v>
       </c>
       <c r="O2" s="3">
-        <v>0.471527648473881</v>
+        <v>1.264012703630015</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -541,43 +970,6764 @@
         <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>3854121476.944017</v>
+        <v>168898553.6592914</v>
       </c>
       <c r="D3" s="2">
-        <v>0.5035524749287503</v>
+        <v>1.537875214890431</v>
       </c>
       <c r="E3" s="3">
-        <v>0.005556808857909096</v>
+        <v>0.0635192203573363</v>
       </c>
       <c r="F3" s="3">
-        <v>0.05061640011930785</v>
+        <v>9.923707656811077</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.005356089966930109</v>
+        <v>0.04327505258014498</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.3524457398197602</v>
+        <v>0.3934401756086145</v>
       </c>
       <c r="I3" s="3">
-        <v>0.03826540076253474</v>
+        <v>0.01462809917355376</v>
       </c>
       <c r="J3" s="3">
-        <v>0.01945621451823036</v>
+        <v>0.002564496676004742</v>
       </c>
       <c r="K3" s="3">
-        <v>0.03326264031172715</v>
+        <v>0.02863366917324737</v>
       </c>
       <c r="L3" s="3">
-        <v>0.3636454211999267</v>
+        <v>-3.008983695977402E-05</v>
       </c>
       <c r="M3" s="3">
-        <v>0.02223053869805894</v>
+        <v>0.04037964493029954</v>
       </c>
       <c r="N3" s="3">
-        <v>0.07907628670963421</v>
+        <v>0.3678005722367748</v>
       </c>
       <c r="O3" s="3">
-        <v>0.03642346940868339</v>
+        <v>0.02147207080315214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20726663.99571428</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.187603782616653</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.04273084479371325</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6.884949218390587</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.04273084479371325</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.975248342169982</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.03738089420962631</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.450850819525431</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.06979087931468898</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.7137472830411845</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.1153138954557396</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.5535048636547786</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1.082299051283308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7881169.539857144</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.295621736845258</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.006056018168054509</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1438473618517997</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.02779809802487195</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-2.033679226744455</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-0.024706457925636</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-0.7657884056206111</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-0.09386363636363641</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-1.004345845436888</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.02863777089783287</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.08919518203833447</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-0.3685753173613891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8845525.248</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.120441681406976</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01310043668122268</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.581528475869696</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-0.01608057960770454</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-0.4021829345507005</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-0.02204268024940733</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-0.7256581166136991</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-0.009340805978115981</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.06798691220068634</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-0.0736211629648116</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-0.08253904009929396</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-0.002817125382062628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>26880603.28114286</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.295749140606516</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01384230745777192</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-0.06701786422766004</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.03977485928705447</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.281132629829516</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.02547338555480178</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.505004518149958</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.04677957564691811</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.4363979970458139</v>
+      </c>
+      <c r="M7" s="3">
+        <v>-0.01106352605281938</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.01528996313228885</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.2126672354964972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>77280891.12777144</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.285685184584451</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.01824401368301031</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.2226549895029821</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.09570552147239265</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7.188477326390894</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.09369259032455608</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.586466350472023</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.1051980198019803</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.813285180929694</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.01477272727272738</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.006433824377112571</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.4140289541012107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6339219.058305286</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.118797847780934</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.01050955414012747</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.0004704749718272709</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.01099251234666243</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.2673471860881411</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.00906344410876129</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.196432153521249</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.002210991787744842</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.01979524182015774</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-0.02817764165390507</v>
+      </c>
+      <c r="N9" s="3">
+        <v>-0.005049313111835266</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.0101328583959925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>21674781.72804286</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.097084390973238</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.0576303737627419</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7.656306573199608</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.05042990873609767</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.881292563746743</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.03815255220417625</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.07631355480786195</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-0.002549669796862431</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-0.08353864408290959</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-0.2444062143791954</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-0.963734248503645</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-0.003612544637523821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11351969.85428571</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.106103763835601</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.02221696998345549</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.496534491403179</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.003014842300556511</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.03945568051948738</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.003014842300556511</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-0.02880087306372839</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-0.02392236515459264</v>
+      </c>
+      <c r="L11" s="3">
+        <v>-0.08405226379730688</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.04166666666666662</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.08484318905889671</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.006432896801469117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>28247086.99487143</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.662334475466813</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.001798561151079205</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-2.953204847992311E-05</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-0.06123595505617976</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-2.148802461579275</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-0.01007109004739331</v>
+      </c>
+      <c r="J12" s="3">
+        <v>-1.453152870597993</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.01642335766423366</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.4415190865938735</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-0.03354540196645463</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.0009179121209269784</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-0.01678746700746727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>125302997.5872457</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.40140617739554</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.05190576517908449</v>
+      </c>
+      <c r="F13" s="3">
+        <v>9.24818779595738</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.02721406527634913</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.902028128051457</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1635593220338984</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6.03569015782274</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.173128270853359</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2.456637872622452</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.211158892931966</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.6569366207930479</v>
+      </c>
+      <c r="O13" s="3">
+        <v>4.246164015222597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24252913.58914286</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.632524283367791</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-0.002420690533825981</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.01918347161537838</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-0.01204971295186417</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-0.5216926959324513</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-0.006471259992386744</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-1.478991513992668E-05</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.04490558484019493</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.6857177314514202</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.120572450805009</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.040901504634512</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.0698779612101937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6349384.103220001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.18662650161844</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.02051282051282049</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2.772688316914861</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.001437814521926713</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.006438020022076174</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.02126099706744878</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.007162121510509133</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.02652910832719248</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.08883328917253086</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.07401696222050884</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.3289879335688412</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.08142512569651986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>65296679.03420514</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.669220399984137</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-0.05545774647887335</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-8.809712336400629</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.03371868978805383</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.6652069748682722</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.04990215264187872</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2.963434883356218</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.1078988125967992</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2.216512306687014</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.06501240694789084</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.2617698416208978</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1.140762356817453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10938793.89246429</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.269468246154155</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.02312232193386694</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.3458191017154976</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.01744653481267078</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-0.05369267418504801</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.002217470499722836</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-0.1741083130353407</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.07009978014544217</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.7243332959534357</v>
+      </c>
+      <c r="M17" s="3">
+        <v>-0.003621762065979182</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.1629267107024608</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.1710986698247592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42602952.81428572</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.122027337025063</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-0.01432091161071747</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1.63037956285347</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-0.0776657060518732</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-2.841255651917053</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-0.1014879281302638</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-4.490004139654292</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-0.1676202860858257</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-2.980636302949955</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-0.1749162155194637</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-1.018558336966867</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-2.305507932901713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1">
+        <v>381494019.1102858</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.03611923994238</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.01527310380533269</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.826419849555858</v>
+      </c>
+      <c r="G19" s="3">
+        <v>-0.004062976130015239</v>
+      </c>
+      <c r="H19" s="3">
+        <v>-0.002128700384508561</v>
+      </c>
+      <c r="I19" s="3">
+        <v>-0.1070127504553734</v>
+      </c>
+      <c r="J19" s="3">
+        <v>-1.266013525201114</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.1870460048426151</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.8221772599007579</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.2676147382029736</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2.408069619791247</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.5448959990518657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1">
+        <v>77174944.04674286</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.058022890928249</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.035620743844945</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3.127525318781137</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.01332649923116346</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.0007826486372959414</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.02941942202551413</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.03497004390022299</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.02594706798131799</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.01797684710278216</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-0.01666252176075613</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-0.001521290567723869</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.02647344550150258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13593198.87797143</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.549363464161692</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.01619433198380568</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.717758689261514</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-0.01953125000000002</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-0.1453271275598672</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-0.04562737642585555</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1.411671991534554</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.02658486707566457</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.001010356267343078</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.05981703026037999</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.6069271126025223</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.03041369326386153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15552656.97977143</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.29677323240415</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.02374331550802139</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.7542171285451014</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.02046908315565043</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.6784111414356441</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.03503460207612467</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1.183051050244092</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.09972426470588247</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.453961693558657</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.1840672934190995</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.8851600599307266</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.9686340893945968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1">
+        <v>13978650.82902857</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.033085721705937</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.0009132420091325223</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.4597722811130093</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-0.01792114695340503</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-0.6101642171714453</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-0.02142857142857145</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-0.5025956749521957</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-0.03094606542882398</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-0.1339535748969523</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-0.09719934102141671</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-0.4068869412743869</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-0.1155764579591845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5658088.106432858</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.9976991946791447</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.03546621763839204</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2.945346550810406</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.02244622259170746</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.06757069543281032</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.02223376623376627</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.1702087449200607</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.08132761841960659</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1.094491067947029</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.1154064165060652</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.7871782903802846</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.6323499064335449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12200137.99868</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.017978437616654</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.0345871162991785</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5.192631678596293</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.0050398992020159</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.001157773504668733</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.02352437981180489</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.01675098971056933</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.03975668042580922</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.1290774256449912</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.02615780445969123</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.09343139685724118</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.07761761505234122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7361406.195</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.121985632184456</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-0.01265822784810133</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1.358954537176448</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.01141078838174275</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.2650708352092956</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.008273009307135478</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1.018619459324331</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.06151333696243876</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1.698130465271655</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-0.0788852149267832</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-4.37955027682509E-05</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.4698671221987741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1">
+        <v>73915240.45660858</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.701193960468262</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.06926406926406932</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7.424296148266441</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.07518796992481198</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3.540196467974697</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.01418439716312051</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.218233852507477</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.0907266158169409</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.4121598129702642</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.1701119724375538</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.8250760648576624</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.3151968327388706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1">
+        <v>32247896.96691428</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.233419212686943</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.01478716531476572</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.15465323081798</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.01646534368708664</v>
+      </c>
+      <c r="H28" s="3">
+        <v>-0.01475500036046601</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.01123032904148784</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.01605371519284247</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.06629959269874804</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1.026029983403565</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.09098626331223957</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.5321784021303626</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.5585081233579021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5937189.038971429</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.024431164050938</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.01032428855062876</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.9389725262611127</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.01556679084619478</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.3121345474541369</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.003417904561587985</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.1171008085715333</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.0007866789038940904</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.03910003447203763</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.0607281823235131</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.3341416075670025</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.0889144954475232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6015236.001942857</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.143846526671332</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.0580110497237569</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6.30556724035331</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.04264972776769506</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1.69902790461905</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.0493150684931507</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.7566385385438581</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.0580110497237569</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.3325084251264392</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.1297935103244838</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.5256866519023161</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.5445734818351486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8289380.361599999</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.026361218383713</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.02637205987170341</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2.52773344931517</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.00946372239747632</v>
+      </c>
+      <c r="H31" s="3">
+        <v>-0.002522644843813892</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.0133708655876143</v>
+      </c>
+      <c r="J31" s="3">
+        <v>-0.07122691249622784</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.04347826086956521</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.1566691472388103</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.07946026986506749</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.4478520881943777</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.1180647085519389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1">
+        <v>20530907.07411429</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.103096811642689</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.01157894736842109</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.1137092856735221</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.01531959852086642</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.934969190357249</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.008394543546694744</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.5251366035268084</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.0491266375545852</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.6886402191281644</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.1167925624636839</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.7005424926202667</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.3209645829952462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1">
+        <v>24163313.75627143</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.285810313159269</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.01512408137181822</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.642461918204026</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-0.005944931163954799</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-0.01463862847808022</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.008251348778165787</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.01165332719633489</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.01881346873329772</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.01815372446475027</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-0.05352532274081427</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-0.04945979063515569</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.01490352583054258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1">
+        <v>110092189.1302286</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2.203031715815487</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.0327586206896552</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4.137496017334152</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.003350083752093805</v>
+      </c>
+      <c r="H34" s="3">
+        <v>-0.0103947853432817</v>
+      </c>
+      <c r="I34" s="3">
+        <v>-0.03074433656957931</v>
+      </c>
+      <c r="J34" s="3">
+        <v>-0.5974714630366468</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.1586073500967117</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.02761605731717534</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.3021739130434782</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2.38163989492084</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.1648949851803267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1">
+        <v>33928989.83991428</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.158263218620281</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.0147822612864562</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2.397955866595785</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-0.0007867820613691052</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-0.3140509645241814</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-0.02006172839506172</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1.348376266315041</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-0.001179709005112161</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.001086531012284162</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-0.07299270072992707</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-0.0609599730560552</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-0.03595308485882145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3360733.502</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.7209525961760037</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.02163461538461534</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2.258346383313573</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.01052989130434775</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1.726428470626493E-05</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.01362862010221457</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.003753903376834612</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.01501194131695665</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.02027801240546589</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.02763385146804831</v>
+      </c>
+      <c r="N36" s="3">
+        <v>-0.0001026179402436968</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.0239559319367571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="1">
+        <v>199947406.8688571</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.620607641788681</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.0377562028047464</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1.75443951148003</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.1070195627157652</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6.445554824186089</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.06770255271920082</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2.860206475871877</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.03719676549865227</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.07807160043165569</v>
+      </c>
+      <c r="M37" s="3">
+        <v>-0.06963249516441011</v>
+      </c>
+      <c r="N37" s="3">
+        <v>-0.3747978049290286</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.9162555559558428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1">
+        <v>20035151.0802</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.569806107791147</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.06211180124223608</v>
+      </c>
+      <c r="F38" s="3">
+        <v>9.214812453401599</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.047244094488189</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.5717721647887646</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.0399652476107733</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.1519372600565093</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.1083333333333334</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.8248417064807978</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.1863230921704658</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1.081268448916419</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.5055823993256318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1">
+        <v>599609563.7447143</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2.550286193626003</v>
+      </c>
+      <c r="E39" s="3">
+        <v>-0.07609511889862335</v>
+      </c>
+      <c r="F39" s="3">
+        <v>-3.753703561127997</v>
+      </c>
+      <c r="G39" s="3">
+        <v>-0.04353459445452194</v>
+      </c>
+      <c r="H39" s="3">
+        <v>-0.5428635907448592</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.07860900058445344</v>
+      </c>
+      <c r="J39" s="3">
+        <v>2.672031401140479</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.1807421625079974</v>
+      </c>
+      <c r="L39" s="3">
+        <v>4.888953117984804</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.2101639344262295</v>
+      </c>
+      <c r="N39" s="3">
+        <v>2.223965213184964</v>
+      </c>
+      <c r="O39" s="3">
+        <v>1.441097667783354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="1">
+        <v>24982064.38572857</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.247143555792548</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.008227067050596469</v>
+      </c>
+      <c r="F40" s="3">
+        <v>-0.0001802950318618449</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.03113167858645359</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1.612551209903531</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.02167569820758653</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.2865256400601714</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.02724224643755241</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.1467671545864463</v>
+      </c>
+      <c r="M40" s="3">
+        <v>-0.07334593572778828</v>
+      </c>
+      <c r="N40" s="3">
+        <v>-0.08831980060159403</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.07329342977729224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8566835.226071429</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.133800849732481</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.02382445141065829</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2.968955465474919</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.02575376884422106</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1.335233691522518</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.03551046290424853</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.4917083869103271</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.06176853055916781</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.289051415026299</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.1071186440677967</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.4106808651859311</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.3903799009683131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8632749.82752</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.038181967036252</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.0347558293004839</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3.493914170428486</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.01642178046672422</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.484904693903427</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.02394427514148883</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.1090774183451154</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.008144020574367732</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.1039554212884957</v>
+      </c>
+      <c r="M42" s="3">
+        <v>-0.07328605200945629</v>
+      </c>
+      <c r="N42" s="3">
+        <v>-0.1667768215619877</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.1065164198168056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5313680.901085714</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.4138114966936076</v>
+      </c>
+      <c r="E43" s="3">
+        <v>-0.008105698305909053</v>
+      </c>
+      <c r="F43" s="3">
+        <v>-1.135631377361443</v>
+      </c>
+      <c r="G43" s="3">
+        <v>-0.006172338179160164</v>
+      </c>
+      <c r="H43" s="3">
+        <v>-0.04274534311047478</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.00857166405670493</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.09888006381917222</v>
+      </c>
+      <c r="K43" s="3">
+        <v>-0.006495088089632215</v>
+      </c>
+      <c r="L43" s="3">
+        <v>7.271241483246556E-05</v>
+      </c>
+      <c r="M43" s="3">
+        <v>-0.03865189724251712</v>
+      </c>
+      <c r="N43" s="3">
+        <v>-0.402096923591945</v>
+      </c>
+      <c r="O43" s="3">
+        <v>-0.01928959241384233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="1">
+        <v>19129911.81771429</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.596254348609726</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.006543075245365328</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1.881738363656392</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.01317233809001099</v>
+      </c>
+      <c r="H44" s="3">
+        <v>-0.03625973566312223</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.03824521934758159</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.3555764691455906</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.0720092915214867</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1.615202236255468</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.08396946564885496</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.593856654373245</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.9853893527005295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="1">
+        <v>10958582.30685714</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.110677037078488</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.05359957961114038</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2.737231370426043</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.02400408580183866</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.06374335002360626</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.04372722540343581</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.03552890115985612</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.0693333333333334</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.2662865532466395</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.1314898419864561</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.4577271349875348</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.1988881976165478</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="1">
+        <v>114819744.2775257</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.9899783279953231</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.01500326157860415</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.8854342543233245</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.01247153237176017</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.02098540658241978</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.002577319587628835</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2.437487946312194E-07</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.003223726627982002</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0.001055229378665743</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.0263852242744064</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.1577770711514623</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.01372022682653607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4166406.857828572</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.049833045856351</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.01412066752246479</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.4708029992597902</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.03674540682414708</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.9758527749821271</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.03810775295663616</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1.045014877379923</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.04221635883905024</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0.2229268102010677</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.146589259796807</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.8679343965108838</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.346864904730429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="5">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="1">
+        <v>11031873.69579428</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.17053602024589</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.02094618996027436</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.3789579015604515</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.0283739541651509</v>
+      </c>
+      <c r="H48" s="3">
+        <v>-0.001509338715854356</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.03049817739975697</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.1986588829866916</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.05223325062034729</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0.3861194993508878</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.1099332548095798</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.5167671139986549</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0.2888083922735715</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="1">
+        <v>9710198.8464</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.185116002191979</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.0301886792452831</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.2073125055488442</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.02824858757062149</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.1834383890019402</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.02921771913289355</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.1460786439859315</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0.05609284332688588</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0.1113667926085387</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0.08333333333333338</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.2902977042548727</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0.1287227182972351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="5">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7895840.480657142</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.023860566032927</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.03858435337945704</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3.095149218810443</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.02751085954982219</v>
+      </c>
+      <c r="H50" s="3">
+        <v>-2.371650927443372E-05</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.03541583764424983</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.1714853975299248</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.03500397772474142</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0.009206661730879289</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0.1275458616206846</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.5240746154510557</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0.1495156295753047</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="5">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="1">
+        <v>9582269.179847859</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.9359636077287422</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.04120541205412054</v>
+      </c>
+      <c r="F51" s="3">
+        <v>4.30499642379174</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.02543912780133262</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.1555516514134921</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.03043213633597087</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.07627451899701899</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.02234299516908221</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0.003669584554800255</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0.09085051546391756</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.2672384377805758</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0.08356251723046829</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="5">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="1">
+        <v>8512996.27671</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.10206976128548</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.03706754530477765</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2.203933799743079</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.03366174055829234</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.2467688089383511</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.02691680261011423</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0.06628448213210035</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.0244100895036615</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.0367182503735912</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0.1261180679785331</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.5677483639722196</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0.0962012750553167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="1">
+        <v>8039732.789071571</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.9639992361629147</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.03094233473980308</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2.948813462766892</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.03531073446327693</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.8462992133248624</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.03824362606232296</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.7472761028107193</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0.05316091954022993</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0.3589101619879876</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0.07478005865102647</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0.2444095212408141</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0.5530931323993534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="5">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="1">
+        <v>9273432.695464285</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1.129756122787597</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.03612167300380229</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1.742747066350607</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.02830188679245282</v>
+      </c>
+      <c r="H54" s="3">
+        <v>-1.362535589996866E-06</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.03415559772296008</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7.062461437051338E-06</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0.03809523809523803</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0.02590239341468806</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0.05620155038759696</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0.02539553025200478</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0.04105197190114251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="1">
+        <v>11807126.63966857</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.215329961070867</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.05834683954619126</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4.831916039305946</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.03650793650793654</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.03182312104003079</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.02834645669291346</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0.002480473585424937</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0.07578253706754537</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0.5645498438113332</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0.1105442176870749</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0.4323770283093937</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0.3375470307492041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="5">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="1">
+        <v>8934294.679225715</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.9645603275266342</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.04592901878914399</v>
+      </c>
+      <c r="F56" s="3">
+        <v>6.063887850303569</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.03655172413793098</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1.138144006764843</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.04520166898470094</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0.57463395448874</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0.03583735354927634</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0.1291718027881662</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0.08913043478260871</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0.1503442295780011</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0.3519028786384531</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="1">
+        <v>9497036.970771428</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.8395251811473988</v>
+      </c>
+      <c r="E57" s="3">
+        <v>-0.0008183306055646148</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.01676766935056059</v>
+      </c>
+      <c r="G57" s="3">
+        <v>-0.02476038338658143</v>
+      </c>
+      <c r="H57" s="3">
+        <v>-1.731486392011088</v>
+      </c>
+      <c r="I57" s="3">
+        <v>-0.02921884317233153</v>
+      </c>
+      <c r="J57" s="3">
+        <v>-1.193865982722532</v>
+      </c>
+      <c r="K57" s="3">
+        <v>-0.02437075509388731</v>
+      </c>
+      <c r="L57" s="3">
+        <v>-0.005853055787350831</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0.01644120707596252</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0.1981597118325674</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0.005294075644305843</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="5">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="1">
+        <v>18158821.57128572</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.209020975933295</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.01728024042073639</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.08322775778729857</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.04314329738058555</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3.009640590970076</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.07120253164556968</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2.750301999826688</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0.08060654429369529</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0.9729717620801532</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0.1368597816960538</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0.7382363300622593</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0.5549157718881035</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="5">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="1">
+        <v>39868432.76000001</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.004202698062186</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.04025844930417507</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5.542997377627954</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.02749140893470801</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1.469923494824718</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.03511374876360051</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0.7390963892721584</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.05149459934689781</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0.2284159698127856</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0.01626608400097121</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0.03101759331607932</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0.483756179542472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="5">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="1">
+        <v>8671450.963071428</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.9412411341954995</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.0401046207497821</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3.095821031720863</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.03290043290043288</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.0003885326861201508</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0.04465849387040287</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0.00737849871056437</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0.03469210754553342</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0.04281686333963147</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0.05481874447391686</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0.252922641565976</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0.04881780390677416</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="5">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="1">
+        <v>10096989.78746857</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.9888524898830067</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.02611367127496175</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3.228085625326887</v>
+      </c>
+      <c r="G61" s="3">
+        <v>-0.004740620344033632</v>
+      </c>
+      <c r="H61" s="3">
+        <v>-0.08862137592143038</v>
+      </c>
+      <c r="I61" s="3">
+        <v>-0.00366101694915244</v>
+      </c>
+      <c r="J61" s="3">
+        <v>-0.3426055186837597</v>
+      </c>
+      <c r="K61" s="3">
+        <v>-0.01236559139784933</v>
+      </c>
+      <c r="L61" s="3">
+        <v>-0.02191775523046118</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0.04956434795029283</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0.02525915088894889</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0.01382329635991582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="5">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="1">
+        <v>10336394.50888571</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.9054610887511636</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.03680981595092024</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2.202906006093424</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.03048780487804859</v>
+      </c>
+      <c r="H62" s="3">
+        <v>-1.323188524995704E-08</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0.04320987654320983</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0.02635453090852757</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0.02424242424242409</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0.02344635406325818</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0.05295950155763241</v>
+      </c>
+      <c r="N62" s="3">
+        <v>5.856709613593432E-05</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0.03965701623307999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="5">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="1">
+        <v>59080660.626</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.729545489070742</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.04065725721508318</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1.804288440442368</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0.1296592728104276</v>
+      </c>
+      <c r="H63" s="3">
+        <v>8.072388081396172</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0.06259410625941066</v>
+      </c>
+      <c r="J63" s="3">
+        <v>1.080868146597993</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0.03716145286584084</v>
+      </c>
+      <c r="L63" s="3">
+        <v>-0.02064783593590992</v>
+      </c>
+      <c r="M63" s="3">
+        <v>-0.2953929539295392</v>
+      </c>
+      <c r="N63" s="3">
+        <v>-1.224529754410437</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0.5301101553310413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="5">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="1">
+        <v>13295953.45843714</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.046235865497344</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.03807339449541289</v>
+      </c>
+      <c r="F64" s="3">
+        <v>4.095964857554736</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.03998161764705879</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1.388238904680389</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0.03004096495220759</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0.8542180120125534</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0.002214348981399532</v>
+      </c>
+      <c r="L64" s="3">
+        <v>-0.001625967604852441</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0.06544256120527318</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0.05234463020990101</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0.4598302866089133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="5">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="1">
+        <v>34754775.20403571</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.21470019024215</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.06487549148099601</v>
+      </c>
+      <c r="F65" s="3">
+        <v>6.642952659714012</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.07189973614775721</v>
+      </c>
+      <c r="H65" s="3">
+        <v>3.775364082453875</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0.0722533817222039</v>
+      </c>
+      <c r="J65" s="3">
+        <v>1.499731433937521</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0.07794361525704809</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0.1565791978958842</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0.04636188023180941</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0.02294962033715064</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0.8281553159167024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="5">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="1">
+        <v>34327200.6584</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.478596018217054</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.008022549869904579</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1.007508049446873</v>
+      </c>
+      <c r="G66" s="3">
+        <v>-0.007472245943637946</v>
+      </c>
+      <c r="H66" s="3">
+        <v>-0.03347509263148759</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0.005841627001298168</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0.002926155026127966</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0.03610430131490972</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0.8517468829744987</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0.08520074696545291</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0.2032112014778751</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0.4684738149699758</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="5">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="1">
+        <v>65883130.42928573</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.659441425757307</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.02996254681647929</v>
+      </c>
+      <c r="F67" s="3">
+        <v>3.538824183067207</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.05905006418485229</v>
+      </c>
+      <c r="H67" s="3">
+        <v>3.61754848019294</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0.06177606177606169</v>
+      </c>
+      <c r="J67" s="3">
+        <v>3.231092477962823</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0.1506276150627615</v>
+      </c>
+      <c r="L67" s="3">
+        <v>2.752677431164115</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0.149025069637883</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0.8963904679986164</v>
+      </c>
+      <c r="O67" s="3">
+        <v>2.991884954563469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="5">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="1">
+        <v>19895741.25942857</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.058993716422159</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.03969754253308114</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2.976042389076417</v>
+      </c>
+      <c r="G68" s="3">
+        <v>-0.03169014084507051</v>
+      </c>
+      <c r="H68" s="3">
+        <v>-1.236541466298345</v>
+      </c>
+      <c r="I68" s="3">
+        <v>-0.01917075345519393</v>
+      </c>
+      <c r="J68" s="3">
+        <v>-0.4830325808884493</v>
+      </c>
+      <c r="K68" s="3">
+        <v>-0.04097646033129904</v>
+      </c>
+      <c r="L68" s="3">
+        <v>-0.04848656993706801</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0.02373196835737553</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0.02494593486767957</v>
+      </c>
+      <c r="O68" s="3">
+        <v>-0.01237730078984624</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="5">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="1">
+        <v>73369579.7772</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1.104909615481662</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.02865968766088905</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2.894124501651016</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.02813036020583205</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1.603409143911079</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0.03774238227146821</v>
+      </c>
+      <c r="J69" s="3">
+        <v>1.242204104842333</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0.04863540937718693</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0.3471836609191462</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0.03972246313963579</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0.04901486685506565</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0.7946938828807395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="5">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="1">
+        <v>274565719.8248057</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1.278186547232549</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.06060224266095513</v>
+      </c>
+      <c r="F70" s="3">
+        <v>9.961781236179835</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.03313696612665695</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.7859252400653962</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0.01111044381718827</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0.01809516030399575</v>
+      </c>
+      <c r="K70" s="3">
+        <v>-0.05106526885356772</v>
+      </c>
+      <c r="L70" s="3">
+        <v>-0.5065409777241383</v>
+      </c>
+      <c r="M70" s="3">
+        <v>-0.3650147092102285</v>
+      </c>
+      <c r="N70" s="3">
+        <v>-2.04785010698756</v>
+      </c>
+      <c r="O70" s="3">
+        <v>-0.1734597744531164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="5">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="1">
+        <v>23599454.77707143</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.9094844690852999</v>
+      </c>
+      <c r="E71" s="3">
+        <v>-0.00454725187821289</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1.343911107522627E-05</v>
+      </c>
+      <c r="G71" s="3">
+        <v>-0.03525579612952689</v>
+      </c>
+      <c r="H71" s="3">
+        <v>-2.315009418273583</v>
+      </c>
+      <c r="I71" s="3">
+        <v>-0.04404784507309664</v>
+      </c>
+      <c r="J71" s="3">
+        <v>-2.037551143036113</v>
+      </c>
+      <c r="K71" s="3">
+        <v>-0.03967194354377273</v>
+      </c>
+      <c r="L71" s="3">
+        <v>-0.2112865363700721</v>
+      </c>
+      <c r="M71" s="3">
+        <v>-0.04332129963898925</v>
+      </c>
+      <c r="N71" s="3">
+        <v>-0.02133756412962661</v>
+      </c>
+      <c r="O71" s="3">
+        <v>-0.1273039180045307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="5">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="1">
+        <v>24118247.20022572</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1.264853176827631</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.02153558052434467</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2.000882637097714</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.02137618973318786</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0.2851408388224313</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0.01994390775942666</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0.5045424231582352</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0.04219073395956057</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0.01723968430768693</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0.09027315123251167</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0.6656799457138681</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0.2974077871953734</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="5">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="1">
+        <v>6263857.60571</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1.073860874698664</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.0347222222222222</v>
+      </c>
+      <c r="F73" s="3">
+        <v>4.401061422571147</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.02128427128427117</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0.2851431113112669</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0.01396848137535809</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0.001252880014424657</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0.05476900149031293</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0.538675295054449</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0.08550613496932513</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0.5841482568446601</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0.3120907150118871</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="5">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="1">
+        <v>12288729.7472</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1.015535620170403</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.05410466147629836</v>
+      </c>
+      <c r="F74" s="3">
+        <v>6.074880030151786</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0.07067067067067062</v>
+      </c>
+      <c r="H74" s="3">
+        <v>3.424628280400924</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0.07508292290682479</v>
+      </c>
+      <c r="J74" s="3">
+        <v>2.10474595026198</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0.1175425765332776</v>
+      </c>
+      <c r="L74" s="3">
+        <v>1.174386589492327</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0.1045022717885172</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0.6000919120991022</v>
+      </c>
+      <c r="O74" s="3">
+        <v>1.639566269877153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="5">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="1">
+        <v>10370246.45716</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1.020307939931539</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.05430167597765367</v>
+      </c>
+      <c r="F75" s="3">
+        <v>5.231842527327822</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.03589856186189477</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0.2881676703997835</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0.02265091579061444</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0.001632421221449327</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0.0327240888694319</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0.02376713365050279</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0.09746452663410093</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0.2363216665209447</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0.06061583014230186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="5">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="1">
+        <v>53046699.29857143</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1.152159466513339</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.01909620991253634</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3.421632114089315</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.01172214182344421</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.08276556776313462</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0.004309725614135808</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0.00727369316852819</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0.03754823389729878</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0.3404680371536543</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-0.01354592916607875</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0.002157945571481847</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0.1738708651610912</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="5">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6186294.238714285</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.796397822234717</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.02520900321543416</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2.37777783435395</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0.02035330261136716</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.07307392609039262</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0.008731966590736544</v>
+      </c>
+      <c r="J77" s="3">
+        <v>-0.001181709933106677</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0.04523996852871766</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0.2547980212537342</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0.04592573153129514</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0.2500574090145656</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0.1503618763925147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="5">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="1">
+        <v>25433947.14931429</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.374244892648683</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.02749731471535978</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.3145049553700214</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0.03349178910976667</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.0004405531162748024</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0.04182095404051404</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0.8556884587123734</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0.1010589318600368</v>
+      </c>
+      <c r="L78" s="3">
+        <v>1.170627731710308</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0.1960490122530633</v>
+      </c>
+      <c r="N78" s="3">
+        <v>1.166004818617361</v>
+      </c>
+      <c r="O78" s="3">
+        <v>0.5850967070411974</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="5">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="1">
+        <v>21549862.60563</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1.355097215743047</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.02289576973397286</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1.512284890107928</v>
+      </c>
+      <c r="G79" s="3">
+        <v>-0.001348282713596336</v>
+      </c>
+      <c r="H79" s="3">
+        <v>-0.02013519394480212</v>
+      </c>
+      <c r="I79" s="3">
+        <v>-0.01608054254352231</v>
+      </c>
+      <c r="J79" s="3">
+        <v>-0.6839614720830741</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0.06331696259916886</v>
+      </c>
+      <c r="L79" s="3">
+        <v>0.3633474056051447</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0.0939832089552238</v>
+      </c>
+      <c r="N79" s="3">
+        <v>0.8796755749673247</v>
+      </c>
+      <c r="O79" s="3">
+        <v>0.2286653072801842</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="5">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="1">
+        <v>401033533.1852143</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.9742757076886347</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.0324104592397275</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2.554787518812985</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0.02252448313384106</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0.00971443658473603</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0.08560536044362285</v>
+      </c>
+      <c r="J80" s="3">
+        <v>1.563471026096019</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0.08950724637681151</v>
+      </c>
+      <c r="L80" s="3">
+        <v>1.082545898983832</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0.07431119240882582</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0.2090187013393699</v>
+      </c>
+      <c r="O80" s="3">
+        <v>1.323008462539926</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="5">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="1">
+        <v>24264337.1712</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1.260002788738709</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.003132341425215221</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4.124684156970286E-07</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.01626338754462512</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0.3270222085912389</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0.03598867771936915</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1.236080847307172</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0.04999999999999995</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0.6123684302720972</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0.04146341463414629</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0.1218797694261258</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0.3269159224531217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="5">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="1">
+        <v>33017664.690722</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1.408446205056984</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.02279893281591083</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1.213769199075181</v>
+      </c>
+      <c r="G82" s="3">
+        <v>-0.01310554645448154</v>
+      </c>
+      <c r="H82" s="3">
+        <v>-0.5039482056590917</v>
+      </c>
+      <c r="I82" s="3">
+        <v>-0.03940774487471516</v>
+      </c>
+      <c r="J82" s="3">
+        <v>-1.71497283569726</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0.0503113325031133</v>
+      </c>
+      <c r="L82" s="3">
+        <v>0.3580425393967919</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0.03332516540063706</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0.2983845069422021</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0.1956838523987145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="5">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="1">
+        <v>105608258.9001143</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1.012491710390596</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.04994298745724066</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5.938745910938778</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0.05186200594014172</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2.877745523536155</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0.03159309881245799</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1.022450772738547</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0.06009670734515315</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0.1929416985669756</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0.0645086705202312</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0.0749334274336125</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0.6076962356527614</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="5">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="1">
+        <v>52472438.09742858</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1.144260678612357</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.04484944532488123</v>
+      </c>
+      <c r="F84" s="3">
+        <v>5.691431986787766</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0.02328108024212323</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0.1907763342638932</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0.02870962708690909</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0.06771543130871351</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0.09209872453205251</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0.8733237889705227</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0.1341820058489593</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0.916854848568792</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0.5037528974097409</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="5">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="1">
+        <v>143993275.6135714</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1.334603084330753</v>
+      </c>
+      <c r="E85" s="3">
+        <v>-0.009137635636778866</v>
+      </c>
+      <c r="F85" s="3">
+        <v>-0.4569327965617069</v>
+      </c>
+      <c r="G85" s="3">
+        <v>-0.002873563218390743</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0.1750527250449475</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0.0242030696576152</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0.7367440288215397</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0.03520286396181394</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0.7651242989864573</v>
+      </c>
+      <c r="M85" s="3">
+        <v>-0.01588201928530902</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0.01952075797344206</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0.3604310047681153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="5">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="1">
+        <v>22841704.71</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1.085167633036902</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.02490743857287103</v>
+      </c>
+      <c r="F86" s="3">
+        <v>3.912778083550622</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0.03115475787334907</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1.698237762537681</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0.1096938775510203</v>
+      </c>
+      <c r="J86" s="3">
+        <v>3.80925138558139</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0.1451673561489281</v>
+      </c>
+      <c r="L86" s="3">
+        <v>2.211335289529853</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0.2794117647058823</v>
+      </c>
+      <c r="N86" s="3">
+        <v>1.538984190411612</v>
+      </c>
+      <c r="O86" s="3">
+        <v>3.010293337555622</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="5">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="1">
+        <v>217932421.22778</v>
+      </c>
+      <c r="D87" s="2">
+        <v>3.280150057532068</v>
+      </c>
+      <c r="E87" s="3">
+        <v>-0.06697307944845693</v>
+      </c>
+      <c r="F87" s="3">
+        <v>-8.975291722293614</v>
+      </c>
+      <c r="G87" s="3">
+        <v>-0.02384690873405301</v>
+      </c>
+      <c r="H87" s="3">
+        <v>-1.677784274250036</v>
+      </c>
+      <c r="I87" s="3">
+        <v>-0.09026888604353396</v>
+      </c>
+      <c r="J87" s="3">
+        <v>-1.754246184686937</v>
+      </c>
+      <c r="K87" s="3">
+        <v>-0.03716968347691411</v>
+      </c>
+      <c r="L87" s="3">
+        <v>-2.430810880396446</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0.3153927532398835</v>
+      </c>
+      <c r="N87" s="3">
+        <v>2.678895933302211</v>
+      </c>
+      <c r="O87" s="3">
+        <v>-2.092528532541691</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="5">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="1">
+        <v>6387150.868171428</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1.072283168807672</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.02158054711246199</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2.147722268897472</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0.00900630441308917</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0.5298140491651225</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0.04508706467661695</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0.667796324504431</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0.06902035623409668</v>
+      </c>
+      <c r="L88" s="3">
+        <v>1.050060824912236</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0.1233288770053475</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0.860906702104056</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0.8589285747083335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="5">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="1">
+        <v>9566641.00602857</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1.071388676402492</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.02543352601156078</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2.888411247508414</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0.02071346375143839</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0.08702414363974478</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0.04599056603773586</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0.5330276373302029</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0.07255139056831929</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0.7664218801164581</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0.1313775510204082</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0.8726712557278672</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0.6497247587233305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="5">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="1">
+        <v>14318756.35714286</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.8978341594736853</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.02726675427069637</v>
+      </c>
+      <c r="F90" s="3">
+        <v>3.365198068158539</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.01230171576561984</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0.03658109616232316</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0.0152597402597402</v>
+      </c>
+      <c r="J90" s="3">
+        <v>7.638801325857315E-06</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0.01889866405995429</v>
+      </c>
+      <c r="L90" s="3">
+        <v>0.01760706547633994</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0.01624959376015601</v>
+      </c>
+      <c r="N90" s="3">
+        <v>0.01510157524727795</v>
+      </c>
+      <c r="O90" s="3">
+        <v>0.01692832961824798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="5">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="1">
+        <v>14543302.90857143</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1.576150058937352</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-0.005176876617773948</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.002439995630217147</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-0.04116424116424106</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-0.6762032015470253</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-0.09033530571992114</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2.234358454065096</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-0.0686591276252019</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-0.8022076141899667</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-0.07165861513687598</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0.004357267853621345</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-0.4369331146634213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="5">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="1">
+        <v>293005310.7832857</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1.704605497825058</v>
+      </c>
+      <c r="E92" s="3">
+        <v>-0.02012072434607648</v>
+      </c>
+      <c r="F92" s="3">
+        <v>-1.535140979395357</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.02742616033755277</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0.221314651152983</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0.07934397163120567</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0.5326952463122959</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0.2532166752444673</v>
+      </c>
+      <c r="L92" s="3">
+        <v>6.081337370603233</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0.3535297387437464</v>
+      </c>
+      <c r="N92" s="3">
+        <v>2.656456128175121</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0.4431124925280212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="5">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="1">
+        <v>133778730.3438571</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1.013563389045901</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.05784548758796699</v>
+      </c>
+      <c r="F93" s="3">
+        <v>5.551865523423171</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0.04940544687380131</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0.7368530515518112</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0.06302455704072116</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0.7629238908210011</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0.03991181389691351</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0.05827925138946501</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0.06079875920899579</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0.08245522345301989</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0.4118613250149984</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="5">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="1">
+        <v>68654438.93828572</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1.090318021396889</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.0748482805124747</v>
+      </c>
+      <c r="F94" s="3">
+        <v>7.58496040789931</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.1036870347931453</v>
+      </c>
+      <c r="H94" s="3">
+        <v>4.608481672208493</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0.1067522999479257</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2.607335154061465</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0.1609613983976694</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1.400526021283091</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0.1006387018815812</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0.101156494681395</v>
+      </c>
+      <c r="O94" s="3">
+        <v>2.003930587672278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="5">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="1">
+        <v>10701454.90358286</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1.221403277876461</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.03677269200930972</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0.3177272172985203</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0.03596899224806206</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0.3136762761237244</v>
+      </c>
+      <c r="I95" s="3">
+        <v>0.0337252475247525</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0.210393125704602</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0.07289659601798333</v>
+      </c>
+      <c r="L95" s="3">
+        <v>0.9393733143262571</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0.1641114982578398</v>
+      </c>
+      <c r="N95" s="3">
+        <v>0.8883363302576051</v>
+      </c>
+      <c r="O95" s="3">
+        <v>0.2640601715015611</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="5">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="1">
+        <v>13404371.78034286</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.9639236982163296</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.02086483217417604</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1.839174414603114</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.004462957453138951</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-0.01246069953262288</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0.009267563527653188</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-0.0001289807807809228</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-0.006766696087084345</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0.0001994239848603247</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0.09503730132987347</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0.01468141204655586</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0.04761836265736689</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="5">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="1">
+        <v>53337102.71995714</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1.536231962254822</v>
+      </c>
+      <c r="E97" s="3">
+        <v>-0.0148856990962254</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.1099189123172905</v>
+      </c>
+      <c r="G97" s="3">
+        <v>-0.0631951466127402</v>
+      </c>
+      <c r="H97" s="3">
+        <v>-3.800975131796804</v>
+      </c>
+      <c r="I97" s="3">
+        <v>-0.07117794486215548</v>
+      </c>
+      <c r="J97" s="3">
+        <v>-4.931897051563337</v>
+      </c>
+      <c r="K97" s="3">
+        <v>0.05704506560182533</v>
+      </c>
+      <c r="L97" s="3">
+        <v>1.164912436191796</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0.1885824246311737</v>
+      </c>
+      <c r="N97" s="3">
+        <v>1.227291676170208</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0.1492506684742321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="5">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="1">
+        <v>321914973.4162857</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1.323810094013696</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.01112512052213888</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2.040375750453819</v>
+      </c>
+      <c r="G98" s="3">
+        <v>-0.01673278038225756</v>
+      </c>
+      <c r="H98" s="3">
+        <v>-0.3659587465495778</v>
+      </c>
+      <c r="I98" s="3">
+        <v>-0.009877260512746096</v>
+      </c>
+      <c r="J98" s="3">
+        <v>-0.0283746595399684</v>
+      </c>
+      <c r="K98" s="3">
+        <v>-0.05816925734024184</v>
+      </c>
+      <c r="L98" s="3">
+        <v>-0.2919109050931267</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0.04013122758831158</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0.2880596236448471</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0.005878284024171591</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="5">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="1">
+        <v>19194387.44271429</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.7907247397075469</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.005513439007581025</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.623527105866674</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.004129387474191322</v>
+      </c>
+      <c r="H99" s="3">
+        <v>-6.592131799203454E-05</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0.01861764021410296</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0.1737803006830903</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0.02818886539816779</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0.001042573412206906</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0.02457865168539336</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0.1037885664922365</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0.09917947618424183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="5">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="1">
+        <v>134041547.2982857</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1.813146575722205</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.03430275913497393</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.4876802161014594</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-0.01561391057487581</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-0.7805646738075274</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-0.03412256267409466</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1.587046539932689</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0.173434856175973</v>
+      </c>
+      <c r="L100" s="3">
+        <v>1.75113910437224</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0.1396877567789646</v>
+      </c>
+      <c r="N100" s="3">
+        <v>1.416043916299116</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0.313683986440212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="5">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="1">
+        <v>29399328.47828571</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.9253839851024523</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.03767897513187645</v>
+      </c>
+      <c r="F101" s="3">
+        <v>4.238000660414054</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.07578124999999998</v>
+      </c>
+      <c r="H101" s="3">
+        <v>4.651859464171724</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0.084251968503937</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3.191784958630645</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0.1399006622516557</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1.910685032691697</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0.1571428571428572</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0.5808600459872353</v>
+      </c>
+      <c r="O101" s="3">
+        <v>2.551234995661171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="5">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="1">
+        <v>109298100.5867143</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2.816179162208879</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-0.01775568181818182</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-2.87723207639777</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-0.04356846473029051</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-2.248564005716238</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-0.0798403193612774</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-2.544111111935125</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0.1790281329923273</v>
+      </c>
+      <c r="L102" s="3">
+        <v>1.521107481865521</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0.2249778565101861</v>
+      </c>
+      <c r="N102" s="3">
+        <v>2.461229519478843</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-1.159566627712469</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="5">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="1">
+        <v>185652016.8012571</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1.583337103013763</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.03492063492063495</v>
+      </c>
+      <c r="F103" s="3">
+        <v>3.415703302179183</v>
+      </c>
+      <c r="G103" s="3">
+        <v>-0.01212121212121213</v>
+      </c>
+      <c r="H103" s="3">
+        <v>-0.6891566391132589</v>
+      </c>
+      <c r="I103" s="3">
+        <v>-0.04538799414348466</v>
+      </c>
+      <c r="J103" s="3">
+        <v>-1.397583872630324</v>
+      </c>
+      <c r="K103" s="3">
+        <v>-0.0618705035971222</v>
+      </c>
+      <c r="L103" s="3">
+        <v>-0.9329043793385995</v>
+      </c>
+      <c r="M103" s="3">
+        <v>0.1897810218978102</v>
+      </c>
+      <c r="N103" s="3">
+        <v>0.9624518771773602</v>
+      </c>
+      <c r="O103" s="3">
+        <v>-0.3715616787203946</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="5">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="1">
+        <v>17280987.42192857</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1.098395721637681</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.003991060025542699</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0.615601919550439</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0.0239335721263431</v>
+      </c>
+      <c r="H104" s="3">
+        <v>0.01168983565284587</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0.02677551020408158</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0.5493881520192837</v>
+      </c>
+      <c r="K104" s="3">
+        <v>0.03778877887788781</v>
+      </c>
+      <c r="L104" s="3">
+        <v>0.1803062099770648</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0.1399311219865868</v>
+      </c>
+      <c r="N104" s="3">
+        <v>1.104622155374118</v>
+      </c>
+      <c r="O104" s="3">
+        <v>0.3648471809981743</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="5">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="1">
+        <v>33326998.94828572</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1.151837143676529</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.01861302912038427</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.01119730128484225</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0.02368381354653794</v>
+      </c>
+      <c r="H105" s="3">
+        <v>0.002423806117370377</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0.02383826191913096</v>
+      </c>
+      <c r="J105" s="3">
+        <v>-0.00362123182949444</v>
+      </c>
+      <c r="K105" s="3">
+        <v>0.06547338671691004</v>
+      </c>
+      <c r="L105" s="3">
+        <v>0.7258311948863656</v>
+      </c>
+      <c r="M105" s="3">
+        <v>0.1186943620178042</v>
+      </c>
+      <c r="N105" s="3">
+        <v>0.2890680616935629</v>
+      </c>
+      <c r="O105" s="3">
+        <v>0.0649458316513232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="5">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2856096.969028572</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.8657895064034988</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0.01514598540145977</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1.074436490174113</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0.01849139509337222</v>
+      </c>
+      <c r="H106" s="3">
+        <v>0.2357482973881771</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0.01403572730586936</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0.1984282427155496</v>
+      </c>
+      <c r="K106" s="3">
+        <v>0.04823817599397005</v>
+      </c>
+      <c r="L106" s="3">
+        <v>0.357648782141464</v>
+      </c>
+      <c r="M106" s="3">
+        <v>0.04804069329314243</v>
+      </c>
+      <c r="N106" s="3">
+        <v>0.3881386469795134</v>
+      </c>
+      <c r="O106" s="3">
+        <v>0.2780385124285067</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="5">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="1">
+        <v>160936284.9576714</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.8685433123322166</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0.04530325443786967</v>
+      </c>
+      <c r="F107" s="3">
+        <v>5.057287161321107</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.04337393872277583</v>
+      </c>
+      <c r="H107" s="3">
+        <v>2.482735853665636</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0.03705742065676022</v>
+      </c>
+      <c r="J107" s="3">
+        <v>0.8737343032787929</v>
+      </c>
+      <c r="K107" s="3">
+        <v>0.06399397703745527</v>
+      </c>
+      <c r="L107" s="3">
+        <v>0.2255044450084244</v>
+      </c>
+      <c r="M107" s="3">
+        <v>0.005692937199786361</v>
+      </c>
+      <c r="N107" s="3">
+        <v>7.530822112890272E-09</v>
+      </c>
+      <c r="O107" s="3">
+        <v>0.5496193741436086</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="5">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" s="1">
+        <v>21007692.3078</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.070299598232298</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.03092182030338386</v>
+      </c>
+      <c r="F108" s="3">
+        <v>4.523668890341887</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0.0005662514156284767</v>
+      </c>
+      <c r="H108" s="3">
+        <v>0.001385468895064831</v>
+      </c>
+      <c r="I108" s="3">
+        <v>0.04063604240282682</v>
+      </c>
+      <c r="J108" s="3">
+        <v>0.3588714365111183</v>
+      </c>
+      <c r="K108" s="3">
+        <v>0.03032069970845471</v>
+      </c>
+      <c r="L108" s="3">
+        <v>0.1024564006083563</v>
+      </c>
+      <c r="M108" s="3">
+        <v>0.0166858457997698</v>
+      </c>
+      <c r="N108" s="3">
+        <v>0.001300861802411787</v>
+      </c>
+      <c r="O108" s="3">
+        <v>0.2306639185597373</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="5">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="1">
+        <v>14794535.29242857</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.859875629214005</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0.003727865796831456</v>
+      </c>
+      <c r="F109" s="3">
+        <v>-0.006574590941813022</v>
+      </c>
+      <c r="G109" s="3">
+        <v>-0.01433801098230625</v>
+      </c>
+      <c r="H109" s="3">
+        <v>-0.6879542802322993</v>
+      </c>
+      <c r="I109" s="3">
+        <v>-0.02120569524386549</v>
+      </c>
+      <c r="J109" s="3">
+        <v>-0.9731181479087708</v>
+      </c>
+      <c r="K109" s="3">
+        <v>-0.007220771239821681</v>
+      </c>
+      <c r="L109" s="3">
+        <v>0.002264373814810768</v>
+      </c>
+      <c r="M109" s="3">
+        <v>-0.008743672342383697</v>
+      </c>
+      <c r="N109" s="3">
+        <v>-0.002268833451578901</v>
+      </c>
+      <c r="O109" s="3">
+        <v>-0.00765913164209836</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="5">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="1">
+        <v>87437882.58454287</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1.454182466997961</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0.004215851602023707</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0.0007549423585215447</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0.0114649681528663</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0.3156153792504801</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0.007614213197969644</v>
+      </c>
+      <c r="J110" s="3">
+        <v>0.1042481982964447</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0.06577181208053702</v>
+      </c>
+      <c r="L110" s="3">
+        <v>0.572307411592175</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0.02187902187902195</v>
+      </c>
+      <c r="N110" s="3">
+        <v>0.1866109070281835</v>
+      </c>
+      <c r="O110" s="3">
+        <v>0.0630636100877333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="5">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="1">
+        <v>52494262.60694001</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1.518807363936682</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0.01058639418208604</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0.9102049503050197</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0.002008032128514241</v>
+      </c>
+      <c r="H111" s="3">
+        <v>-0.01465964236479415</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0.0218747091129108</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0.008829531355964546</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0.00429969810630331</v>
+      </c>
+      <c r="L111" s="3">
+        <v>-0.000799838700791729</v>
+      </c>
+      <c r="M111" s="3">
+        <v>0.290163356446116</v>
+      </c>
+      <c r="N111" s="3">
+        <v>0.06299358204059792</v>
+      </c>
+      <c r="O111" s="3">
+        <v>0.1494964439010403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="5">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="1">
+        <v>244806644.6590972</v>
+      </c>
+      <c r="D112" s="2">
+        <v>2.346833127183639</v>
+      </c>
+      <c r="E112" s="3">
+        <v>-0.03613793103448266</v>
+      </c>
+      <c r="F112" s="3">
+        <v>-5.118142835863538</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0.1031361818564512</v>
+      </c>
+      <c r="H112" s="3">
+        <v>0.8098236809295658</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0.1114409924716361</v>
+      </c>
+      <c r="J112" s="3">
+        <v>4.6618546766306</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0.1891094724900738</v>
+      </c>
+      <c r="L112" s="3">
+        <v>1.498501285396432</v>
+      </c>
+      <c r="M112" s="3">
+        <v>0.06975557483288261</v>
+      </c>
+      <c r="N112" s="3">
+        <v>0.7495749930535949</v>
+      </c>
+      <c r="O112" s="3">
+        <v>0.7841284301146573</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="5">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="1">
+        <v>25863699.60915715</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1.11734199312726</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.04125449640287777</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1.326485797839973</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.06093231015920287</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0.7876607418520229</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0.05237446034992051</v>
+      </c>
+      <c r="J113" s="3">
+        <v>1.150108226744266</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0.0491561898289727</v>
+      </c>
+      <c r="L113" s="3">
+        <v>0.4580832065784866</v>
+      </c>
+      <c r="M113" s="3">
+        <v>0.03450971632789819</v>
+      </c>
+      <c r="N113" s="3">
+        <v>0.007185040250116521</v>
+      </c>
+      <c r="O113" s="3">
+        <v>0.8040957166613764</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="5">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" s="1">
+        <v>15360851.4696</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1.036778546805208</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.03577235772357736</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1.600089261698295</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0.03325223033252235</v>
+      </c>
+      <c r="H114" s="3">
+        <v>2.089265745321409</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0.03915171288743893</v>
+      </c>
+      <c r="J114" s="3">
+        <v>1.360606108335074</v>
+      </c>
+      <c r="K114" s="3">
+        <v>0.057700290577003</v>
+      </c>
+      <c r="L114" s="3">
+        <v>0.6168711011351614</v>
+      </c>
+      <c r="M114" s="3">
+        <v>0.07966101694915272</v>
+      </c>
+      <c r="N114" s="3">
+        <v>0.4496770060080339</v>
+      </c>
+      <c r="O114" s="3">
+        <v>0.9887386047351179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="5">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2038946694.593326</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2.004439462272465</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.006510159794831404</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0.2353373805856877</v>
+      </c>
+      <c r="G115" s="3">
+        <v>-0.02119904076738599</v>
+      </c>
+      <c r="H115" s="3">
+        <v>-2.072783080627977</v>
+      </c>
+      <c r="I115" s="3">
+        <v>-0.05096726190476189</v>
+      </c>
+      <c r="J115" s="3">
+        <v>-2.470856886644267</v>
+      </c>
+      <c r="K115" s="3">
+        <v>0.09075360769641916</v>
+      </c>
+      <c r="L115" s="3">
+        <v>0.6682170857643459</v>
+      </c>
+      <c r="M115" s="3">
+        <v>0.2045803329004842</v>
+      </c>
+      <c r="N115" s="3">
+        <v>2.316895968238467</v>
+      </c>
+      <c r="O115" s="3">
+        <v>0.2199588567430859</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="5">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="1">
+        <v>16528014.81048571</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1.114677982048504</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.01082431307243955</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0.01424793479328766</v>
+      </c>
+      <c r="G116" s="3">
+        <v>-0.0154095701540958</v>
+      </c>
+      <c r="H116" s="3">
+        <v>-0.3608074066025738</v>
+      </c>
+      <c r="I116" s="3">
+        <v>0.001650165016501652</v>
+      </c>
+      <c r="J116" s="3">
+        <v>-0.2027686853123011</v>
+      </c>
+      <c r="K116" s="3">
+        <v>0.005799502899751363</v>
+      </c>
+      <c r="L116" s="3">
+        <v>0.134726716793478</v>
+      </c>
+      <c r="M116" s="3">
+        <v>0.07433628318584078</v>
+      </c>
+      <c r="N116" s="3">
+        <v>0.396090142116631</v>
+      </c>
+      <c r="O116" s="3">
+        <v>0.04429210898956422</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="5">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" s="1">
+        <v>14902414.85467428</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0.9520834444890232</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0.03562818108759706</v>
+      </c>
+      <c r="F117" s="3">
+        <v>3.73219226627304</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0.009663097414468464</v>
+      </c>
+      <c r="H117" s="3">
+        <v>-0.00102482734564868</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0.01790416008425487</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0.001820566714805265</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0.0002587322121603625</v>
+      </c>
+      <c r="L117" s="3">
+        <v>-0.003130587851042473</v>
+      </c>
+      <c r="M117" s="3">
+        <v>-0.008972058446552203</v>
+      </c>
+      <c r="N117" s="3">
+        <v>-0.02049196869296342</v>
+      </c>
+      <c r="O117" s="3">
+        <v>-0.000655010568118604</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="5">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="1">
+        <v>18162147.63740143</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1.118804998882836</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0.005771248688352664</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1.827432424128508</v>
+      </c>
+      <c r="G118" s="3">
+        <v>-0.01388888888888879</v>
+      </c>
+      <c r="H118" s="3">
+        <v>-0.3888228775178295</v>
+      </c>
+      <c r="I118" s="3">
+        <v>-0.00776397515527951</v>
+      </c>
+      <c r="J118" s="3">
+        <v>-1.386157655611308</v>
+      </c>
+      <c r="K118" s="3">
+        <v>-0.01540832049306627</v>
+      </c>
+      <c r="L118" s="3">
+        <v>7.768116704288917E-05</v>
+      </c>
+      <c r="M118" s="3">
+        <v>0.05853119823302042</v>
+      </c>
+      <c r="N118" s="3">
+        <v>0.02813596630693924</v>
+      </c>
+      <c r="O118" s="3">
+        <v>0.02930443970003165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="5">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" s="1">
+        <v>60472153.10447143</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1.421030345777053</v>
+      </c>
+      <c r="E119" s="3">
+        <v>-0.001356238698010868</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0.3072401767567714</v>
+      </c>
+      <c r="G119" s="3">
+        <v>-0.04468790543462596</v>
+      </c>
+      <c r="H119" s="3">
+        <v>-2.353524623275608</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0.02474099273233323</v>
+      </c>
+      <c r="J119" s="3">
+        <v>-0.5665025021468426</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0.06355320173326909</v>
+      </c>
+      <c r="L119" s="3">
+        <v>0.6154192791262592</v>
+      </c>
+      <c r="M119" s="3">
+        <v>0.111539751761154</v>
+      </c>
+      <c r="N119" s="3">
+        <v>0.8607073749105066</v>
+      </c>
+      <c r="O119" s="3">
+        <v>0.2093899642589627</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="5">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>132</v>
+      </c>
+      <c r="C120" s="1">
+        <v>17701310.75143286</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.9259208191676243</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0.02384105960264895</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1.734541102808687</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0.0220361392684002</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0.5255012485672959</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0.02929427430093197</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0.595586608124826</v>
+      </c>
+      <c r="K120" s="3">
+        <v>0.003461704889658166</v>
+      </c>
+      <c r="L120" s="3">
+        <v>0.003449121866984757</v>
+      </c>
+      <c r="M120" s="3">
+        <v>0.05361199454793279</v>
+      </c>
+      <c r="N120" s="3">
+        <v>0.06797307325712071</v>
+      </c>
+      <c r="O120" s="3">
+        <v>0.3245993013363794</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="5">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>133</v>
+      </c>
+      <c r="C121" s="1">
+        <v>49540347.6705</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1.02238913871434</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0.01929530201342279</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1.92625432242735</v>
+      </c>
+      <c r="G121" s="3">
+        <v>-0.004914004914004941</v>
+      </c>
+      <c r="H121" s="3">
+        <v>-0.000328486198033713</v>
+      </c>
+      <c r="I121" s="3">
+        <v>-0.009376273950264968</v>
+      </c>
+      <c r="J121" s="3">
+        <v>-0.05474005951361598</v>
+      </c>
+      <c r="K121" s="3">
+        <v>-0.00694728238659586</v>
+      </c>
+      <c r="L121" s="3">
+        <v>0.001226008824424347</v>
+      </c>
+      <c r="M121" s="3">
+        <v>-0.1969596827495043</v>
+      </c>
+      <c r="N121" s="3">
+        <v>-0.4025077076110501</v>
+      </c>
+      <c r="O121" s="3">
+        <v>-0.02675702534459581</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="5">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="1">
+        <v>41973226.86985715</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1.180991233200626</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.001636661211129358</v>
+      </c>
+      <c r="F122" s="3">
+        <v>-4.057136345930714E-05</v>
+      </c>
+      <c r="G122" s="3">
+        <v>-0.03123680878007594</v>
+      </c>
+      <c r="H122" s="3">
+        <v>-2.502828856728849</v>
+      </c>
+      <c r="I122" s="3">
+        <v>-0.03348073278584959</v>
+      </c>
+      <c r="J122" s="3">
+        <v>-0.93306582777834</v>
+      </c>
+      <c r="K122" s="3">
+        <v>-0.01226597805035503</v>
+      </c>
+      <c r="L122" s="3">
+        <v>-2.025764328222971E-07</v>
+      </c>
+      <c r="M122" s="3">
+        <v>0.02421064375767048</v>
+      </c>
+      <c r="N122" s="3">
+        <v>0.4532702933476735</v>
+      </c>
+      <c r="O122" s="3">
+        <v>-2.038696994606472E-05</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="5">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" s="1">
+        <v>6733662.129336857</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0.7359062673733621</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0.03055848261327723</v>
+      </c>
+      <c r="F123" s="3">
+        <v>3.487991484540434</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0.02206223873664665</v>
+      </c>
+      <c r="H123" s="3">
+        <v>0.4485529766955706</v>
+      </c>
+      <c r="I123" s="3">
+        <v>0.02491849091755946</v>
+      </c>
+      <c r="J123" s="3">
+        <v>0.3463710225165031</v>
+      </c>
+      <c r="K123" s="3">
+        <v>-0.000227169468423277</v>
+      </c>
+      <c r="L123" s="3">
+        <v>-0.0003769087068986855</v>
+      </c>
+      <c r="M123" s="3">
+        <v>0.06703842890047296</v>
+      </c>
+      <c r="N123" s="3">
+        <v>0.04698549426441503</v>
+      </c>
+      <c r="O123" s="3">
+        <v>0.206704725708488</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="5">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="1">
+        <v>8651068.821857143</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0.8777296546239762</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0.0186025408348457</v>
+      </c>
+      <c r="F124" s="3">
+        <v>1.732745355155477</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0.02045454545454542</v>
+      </c>
+      <c r="H124" s="3">
+        <v>0.2661808889687417</v>
+      </c>
+      <c r="I124" s="3">
+        <v>0.02045454545454542</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0.2177678728390441</v>
+      </c>
+      <c r="K124" s="3">
+        <v>0.02981651376146786</v>
+      </c>
+      <c r="L124" s="3">
+        <v>0.1797180669166247</v>
+      </c>
+      <c r="M124" s="3">
+        <v>0.08980582524271848</v>
+      </c>
+      <c r="N124" s="3">
+        <v>0.4146923617256867</v>
+      </c>
+      <c r="O124" s="3">
+        <v>0.1987429698778344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="5">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" s="1">
+        <v>14696738.7327</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0.8240650741934111</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0.03402366863905332</v>
+      </c>
+      <c r="F125" s="3">
+        <v>4.637318783470519</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0.008366993652625479</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0.0371723529466706</v>
+      </c>
+      <c r="I125" s="3">
+        <v>0.01230992034757422</v>
+      </c>
+      <c r="J125" s="3">
+        <v>0.0004454301996732656</v>
+      </c>
+      <c r="K125" s="3">
+        <v>-0.002710800399486393</v>
+      </c>
+      <c r="L125" s="3">
+        <v>-6.331662838948936E-05</v>
+      </c>
+      <c r="M125" s="3">
+        <v>0.0536629484473922</v>
+      </c>
+      <c r="N125" s="3">
+        <v>0.08281378014021015</v>
+      </c>
+      <c r="O125" s="3">
+        <v>0.02705418932353273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="5">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" s="1">
+        <v>12954730.64005</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0.754395043084172</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0.02052631578947376</v>
+      </c>
+      <c r="F126" s="3">
+        <v>2.567079668101977</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0.01465201465201478</v>
+      </c>
+      <c r="H126" s="3">
+        <v>0.3206917073764739</v>
+      </c>
+      <c r="I126" s="3">
+        <v>0.02214022140221403</v>
+      </c>
+      <c r="J126" s="3">
+        <v>0.1441225576136309</v>
+      </c>
+      <c r="K126" s="3">
+        <v>0.008320332813312554</v>
+      </c>
+      <c r="L126" s="3">
+        <v>0.02229609872526489</v>
+      </c>
+      <c r="M126" s="3">
+        <v>0.01147626499739183</v>
+      </c>
+      <c r="N126" s="3">
+        <v>0.03540428171662659</v>
+      </c>
+      <c r="O126" s="3">
+        <v>0.0832093281694479</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="5">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="1">
+        <v>8740863.492457142</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0.8796586703650441</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0.01855848079413033</v>
+      </c>
+      <c r="F127" s="3">
+        <v>3.195132952375162</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0.0008481764206954112</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0.008904625091989533</v>
+      </c>
+      <c r="I127" s="3">
+        <v>0.01505376344086011</v>
+      </c>
+      <c r="J127" s="3">
+        <v>-0.0004391785191370787</v>
+      </c>
+      <c r="K127" s="3">
+        <v>0.02120294244915616</v>
+      </c>
+      <c r="L127" s="3">
+        <v>0.08516970552424016</v>
+      </c>
+      <c r="M127" s="3">
+        <v>0.05782160466158671</v>
+      </c>
+      <c r="N127" s="3">
+        <v>0.1140261251505057</v>
+      </c>
+      <c r="O127" s="3">
+        <v>0.07149565509291343</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="5">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" s="1">
+        <v>9984360.879497144</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0.8562372852091249</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0.02143878037160555</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1.854893021955901</v>
+      </c>
+      <c r="G128" s="3">
+        <v>-0.001397298556124801</v>
+      </c>
+      <c r="H128" s="3">
+        <v>-0.1522530304629236</v>
+      </c>
+      <c r="I128" s="3">
+        <v>0.002806361085126367</v>
+      </c>
+      <c r="J128" s="3">
+        <v>-0.1837864541805884</v>
+      </c>
+      <c r="K128" s="3">
+        <v>0.000933706816059784</v>
+      </c>
+      <c r="L128" s="3">
+        <v>-0.000680153969732791</v>
+      </c>
+      <c r="M128" s="3">
+        <v>-0.02055733211512108</v>
+      </c>
+      <c r="N128" s="3">
+        <v>-0.05614726045876426</v>
+      </c>
+      <c r="O128" s="3">
+        <v>-0.01061874304242693</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="5">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" s="1">
+        <v>8867184.481839998</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0.923528194490817</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0.03683342495876846</v>
+      </c>
+      <c r="F129" s="3">
+        <v>4.599473730011389</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0.01835853131749453</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0.3983444672155304</v>
+      </c>
+      <c r="I129" s="3">
+        <v>0.02056277056277055</v>
+      </c>
+      <c r="J129" s="3">
+        <v>0.001162825477400248</v>
+      </c>
+      <c r="K129" s="3">
+        <v>0.03003823047515006</v>
+      </c>
+      <c r="L129" s="3">
+        <v>0.2516289503809137</v>
+      </c>
+      <c r="M129" s="3">
+        <v>0.0984274898078043</v>
+      </c>
+      <c r="N129" s="3">
+        <v>0.3902016528742747</v>
+      </c>
+      <c r="O129" s="3">
+        <v>0.175028220094359</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="5">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>142</v>
+      </c>
+      <c r="C130" s="1">
+        <v>74394002.72140001</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0.9857589042094744</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0.005569125549584796</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0.4252531733549467</v>
+      </c>
+      <c r="G130" s="3">
+        <v>-0.007808734213824306</v>
+      </c>
+      <c r="H130" s="3">
+        <v>-0.2327423311114716</v>
+      </c>
+      <c r="I130" s="3">
+        <v>-0.01521385513348012</v>
+      </c>
+      <c r="J130" s="3">
+        <v>-0.3302456551266543</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0.01569130563505386</v>
+      </c>
+      <c r="L130" s="3">
+        <v>0.1031568249793567</v>
+      </c>
+      <c r="M130" s="3">
+        <v>0.03271121814168177</v>
+      </c>
+      <c r="N130" s="3">
+        <v>0.3665850304246854</v>
+      </c>
+      <c r="O130" s="3">
+        <v>0.06793402156051921</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="5">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>143</v>
+      </c>
+      <c r="C131" s="1">
+        <v>750337881.7211429</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1.000286066238967</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0.01238240177089092</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0.9578362457645343</v>
+      </c>
+      <c r="G131" s="3">
+        <v>-0.01334861457560856</v>
+      </c>
+      <c r="H131" s="3">
+        <v>-0.9055352697918635</v>
+      </c>
+      <c r="I131" s="3">
+        <v>-0.0331637708925151</v>
+      </c>
+      <c r="J131" s="3">
+        <v>-1.259253302016292</v>
+      </c>
+      <c r="K131" s="3">
+        <v>-0.03957212232576454</v>
+      </c>
+      <c r="L131" s="3">
+        <v>-0.9054919861190189</v>
+      </c>
+      <c r="M131" s="3">
+        <v>0.06984904419021169</v>
+      </c>
+      <c r="N131" s="3">
+        <v>0.5077903549709216</v>
+      </c>
+      <c r="O131" s="3">
+        <v>-0.4178214709644036</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="5">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>144</v>
+      </c>
+      <c r="C132" s="1">
+        <v>19131418.79665714</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0.8258379614859325</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0.0290872617853561</v>
+      </c>
+      <c r="F132" s="3">
+        <v>2.343816397298636</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0.01684836471754225</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0.5951546919155093</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0.02600000000000002</v>
+      </c>
+      <c r="J132" s="3">
+        <v>0.2888358881496948</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0.02395209580838326</v>
+      </c>
+      <c r="L132" s="3">
+        <v>0.2091095260229286</v>
+      </c>
+      <c r="M132" s="3">
+        <v>0.04800817160367726</v>
+      </c>
+      <c r="N132" s="3">
+        <v>0.08455874356087364</v>
+      </c>
+      <c r="O132" s="3">
+        <v>0.2489727070863117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="5">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="1">
+        <v>40941878.6304</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0.9114255757610346</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0.02582368655387348</v>
+      </c>
+      <c r="F133" s="3">
+        <v>3.93576155699949</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0.06518723994452151</v>
+      </c>
+      <c r="H133" s="3">
+        <v>3.819669745916725</v>
+      </c>
+      <c r="I133" s="3">
+        <v>0.1206225680933852</v>
+      </c>
+      <c r="J133" s="3">
+        <v>4.695560853488318</v>
+      </c>
+      <c r="K133" s="3">
+        <v>0.09792709077912794</v>
+      </c>
+      <c r="L133" s="3">
+        <v>0.923207674034584</v>
+      </c>
+      <c r="M133" s="3">
+        <v>0.18824136152656</v>
+      </c>
+      <c r="N133" s="3">
+        <v>0.4601726839356827</v>
+      </c>
+      <c r="O133" s="3">
+        <v>2.429484615517037</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="5">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>146</v>
+      </c>
+      <c r="C134" s="1">
+        <v>43849626.23531857</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1.233052671249588</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0.02358175750834249</v>
+      </c>
+      <c r="F134" s="3">
+        <v>3.054273217960299</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0.07199440820130466</v>
+      </c>
+      <c r="H134" s="3">
+        <v>1.414156737863417</v>
+      </c>
+      <c r="I134" s="3">
+        <v>0.03672825597115807</v>
+      </c>
+      <c r="J134" s="3">
+        <v>1.941247888816155</v>
+      </c>
+      <c r="K134" s="3">
+        <v>0.1172899465760077</v>
+      </c>
+      <c r="L134" s="3">
+        <v>1.600529257749544</v>
+      </c>
+      <c r="M134" s="3">
+        <v>0.3433576642335766</v>
+      </c>
+      <c r="N134" s="3">
+        <v>1.791053429479284</v>
+      </c>
+      <c r="O134" s="3">
+        <v>1.77088857328285</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="5">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" s="1">
+        <v>31210309.05257143</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0.7204521300216009</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.0307842317871569</v>
+      </c>
+      <c r="F135" s="3">
+        <v>0.869759681718385</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0.04741684359518746</v>
+      </c>
+      <c r="H135" s="3">
+        <v>0.6996515981290961</v>
+      </c>
+      <c r="I135" s="3">
+        <v>0.06291295604711283</v>
+      </c>
+      <c r="J135" s="3">
+        <v>1.488562692377237</v>
+      </c>
+      <c r="K135" s="3">
+        <v>0.07659853058849204</v>
+      </c>
+      <c r="L135" s="3">
+        <v>0.7428148330363991</v>
+      </c>
+      <c r="M135" s="3">
+        <v>0.1073699962588851</v>
+      </c>
+      <c r="N135" s="3">
+        <v>0.6104229427956679</v>
+      </c>
+      <c r="O135" s="3">
+        <v>0.806287257377392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="5">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>148</v>
+      </c>
+      <c r="C136" s="1">
+        <v>158556310.6575714</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0.7870034845288084</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.02140575079872199</v>
+      </c>
+      <c r="F136" s="3">
+        <v>2.735203104183134</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0.01011058451816739</v>
+      </c>
+      <c r="H136" s="3">
+        <v>0.02177744669594181</v>
+      </c>
+      <c r="I136" s="3">
+        <v>0.01234958834705497</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0.04365572326791282</v>
+      </c>
+      <c r="K136" s="3">
+        <v>0.001880288310874301</v>
+      </c>
+      <c r="L136" s="3">
+        <v>0.001039508902848953</v>
+      </c>
+      <c r="M136" s="3">
+        <v>-0.01539882968894365</v>
+      </c>
+      <c r="N136" s="3">
+        <v>-0.002873467824753901</v>
+      </c>
+      <c r="O136" s="3">
+        <v>0.02234761608538088</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="5">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" s="1">
+        <v>26346789.90272572</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.8177603502889446</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.01976557113307285</v>
+      </c>
+      <c r="F137" s="3">
+        <v>1.34301169769763</v>
+      </c>
+      <c r="G137" s="3">
+        <v>-0.002136511863263193</v>
+      </c>
+      <c r="H137" s="3">
+        <v>-0.242978549845493</v>
+      </c>
+      <c r="I137" s="3">
+        <v>-0.01125348189415038</v>
+      </c>
+      <c r="J137" s="3">
+        <v>-0.6954442503572997</v>
+      </c>
+      <c r="K137" s="3">
+        <v>-0.01389043227025226</v>
+      </c>
+      <c r="L137" s="3">
+        <v>-0.0344788907436879</v>
+      </c>
+      <c r="M137" s="3">
+        <v>0.0002254283137962819</v>
+      </c>
+      <c r="N137" s="3">
+        <v>0.001706745220454555</v>
+      </c>
+      <c r="O137" s="3">
+        <v>-0.01712673121494581</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="5">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" s="1">
+        <v>464196029.3150786</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1.30787728691433</v>
+      </c>
+      <c r="E138" s="3">
+        <v>-0.01487279843444225</v>
+      </c>
+      <c r="F138" s="3">
+        <v>-0.1224091188952859</v>
+      </c>
+      <c r="G138" s="3">
+        <v>-0.001586671955573128</v>
+      </c>
+      <c r="H138" s="3">
+        <v>0.001830322728448083</v>
+      </c>
+      <c r="I138" s="3">
+        <v>-0.008143964271640651</v>
+      </c>
+      <c r="J138" s="3">
+        <v>0.2717502988172579</v>
+      </c>
+      <c r="K138" s="3">
+        <v>0.08976764323856254</v>
+      </c>
+      <c r="L138" s="3">
+        <v>1.446865823170672</v>
+      </c>
+      <c r="M138" s="3">
+        <v>0.2310074991848712</v>
+      </c>
+      <c r="N138" s="3">
+        <v>2.276782473705731</v>
+      </c>
+      <c r="O138" s="3">
+        <v>0.2513788990010646</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="5">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" s="1">
+        <v>167676304.13336</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0.9810001469947304</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0.01186943620178038</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1.476358404593993</v>
+      </c>
+      <c r="G139" s="3">
+        <v>-0.01045679691799668</v>
+      </c>
+      <c r="H139" s="3">
+        <v>-0.6563319163810519</v>
+      </c>
+      <c r="I139" s="3">
+        <v>-0.0269126691266913</v>
+      </c>
+      <c r="J139" s="3">
+        <v>-0.5729684660264626</v>
+      </c>
+      <c r="K139" s="3">
+        <v>-0.03831566663425072</v>
+      </c>
+      <c r="L139" s="3">
+        <v>-0.006070034843926377</v>
+      </c>
+      <c r="M139" s="3">
+        <v>0.02217168845935183</v>
+      </c>
+      <c r="N139" s="3">
+        <v>0.138895038160328</v>
+      </c>
+      <c r="O139" s="3">
+        <v>0.008050826807712724</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="5">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" s="1">
+        <v>54432464.94063</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0.5901760695850193</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.003883136094674462</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0.4349702575206283</v>
+      </c>
+      <c r="G140" s="3">
+        <v>-0.001471399668935142</v>
+      </c>
+      <c r="H140" s="3">
+        <v>-0.1049538599951814</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0.002585410895660226</v>
+      </c>
+      <c r="J140" s="3">
+        <v>0.001403711632795065</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0.02010522360015022</v>
+      </c>
+      <c r="L140" s="3">
+        <v>0.3052558844560619</v>
+      </c>
+      <c r="M140" s="3">
+        <v>0.06954294720252165</v>
+      </c>
+      <c r="N140" s="3">
+        <v>0.5189447311532173</v>
+      </c>
+      <c r="O140" s="3">
+        <v>0.1873994158292918</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="5">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" s="1">
+        <v>593566114.7664227</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1.365549861443157</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0.007816571130797216</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0.935739343110654</v>
+      </c>
+      <c r="G141" s="3">
+        <v>-0.007441621760328436</v>
+      </c>
+      <c r="H141" s="3">
+        <v>-0.05868801613559692</v>
+      </c>
+      <c r="I141" s="3">
+        <v>-0.02434102661117426</v>
+      </c>
+      <c r="J141" s="3">
+        <v>-0.5070660223519035</v>
+      </c>
+      <c r="K141" s="3">
+        <v>0.02477149291296867</v>
+      </c>
+      <c r="L141" s="3">
+        <v>0.02663475414823434</v>
+      </c>
+      <c r="M141" s="3">
+        <v>0.2455321204314925</v>
+      </c>
+      <c r="N141" s="3">
+        <v>1.188745923372114</v>
+      </c>
+      <c r="O141" s="3">
+        <v>0.1360834372898634</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="5">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>154</v>
+      </c>
+      <c r="C142" s="1">
+        <v>73398638.92774285</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0.8431073630636409</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0.01939655172413783</v>
+      </c>
+      <c r="F142" s="3">
+        <v>2.559411876631464</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0.004246284501061575</v>
+      </c>
+      <c r="H142" s="3">
+        <v>9.382235935297359E-05</v>
+      </c>
+      <c r="I142" s="3">
+        <v>0.008528784648187642</v>
+      </c>
+      <c r="J142" s="3">
+        <v>-0.008870812918491136</v>
+      </c>
+      <c r="K142" s="3">
+        <v>0.005313496280552609</v>
+      </c>
+      <c r="L142" s="3">
+        <v>0.01302148779091328</v>
+      </c>
+      <c r="M142" s="3">
+        <v>0.05580357142857136</v>
+      </c>
+      <c r="N142" s="3">
+        <v>0.3269102791034721</v>
+      </c>
+      <c r="O142" s="3">
+        <v>0.03441252960974232</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="5">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>155</v>
+      </c>
+      <c r="C143" s="1">
+        <v>487575291.1635529</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0.9969849474581879</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0.01469072164948449</v>
+      </c>
+      <c r="F143" s="3">
+        <v>0.9927961807769814</v>
+      </c>
+      <c r="G143" s="3">
+        <v>-0.01869391824526422</v>
+      </c>
+      <c r="H143" s="3">
+        <v>-1.267546051381127</v>
+      </c>
+      <c r="I143" s="3">
+        <v>-0.03362788414334804</v>
+      </c>
+      <c r="J143" s="3">
+        <v>-1.098713240836443</v>
+      </c>
+      <c r="K143" s="3">
+        <v>-0.0317265125430399</v>
+      </c>
+      <c r="L143" s="3">
+        <v>-0.009653661210436534</v>
+      </c>
+      <c r="M143" s="3">
+        <v>0.0357800578795054</v>
+      </c>
+      <c r="N143" s="3">
+        <v>0.2739537483542958</v>
+      </c>
+      <c r="O143" s="3">
+        <v>0.01306319833453443</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="5">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>156</v>
+      </c>
+      <c r="C144" s="1">
+        <v>68219976.70271142</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0.8206713617783402</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0.02353479853479847</v>
+      </c>
+      <c r="F144" s="3">
+        <v>2.519349694403307</v>
+      </c>
+      <c r="G144" s="3">
+        <v>-0.007194883638301673</v>
+      </c>
+      <c r="H144" s="3">
+        <v>-0.1936988971901934</v>
+      </c>
+      <c r="I144" s="3">
+        <v>-0.01662854126341722</v>
+      </c>
+      <c r="J144" s="3">
+        <v>-0.5815167678462981</v>
+      </c>
+      <c r="K144" s="3">
+        <v>-0.02960583434624076</v>
+      </c>
+      <c r="L144" s="3">
+        <v>-0.03496823580312748</v>
+      </c>
+      <c r="M144" s="3">
+        <v>0.06875119525721933</v>
+      </c>
+      <c r="N144" s="3">
+        <v>0.1386029814283706</v>
+      </c>
+      <c r="O144" s="3">
+        <v>0.01689147972704592</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="5">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="1">
+        <v>6350353280.452428</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.7906363649949991</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0.01496104467872668</v>
+      </c>
+      <c r="F145" s="3">
+        <v>1.592145278325823</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0.004434762312300665</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0.006269750282554274</v>
+      </c>
+      <c r="I145" s="3">
+        <v>0.01441076171169041</v>
+      </c>
+      <c r="J145" s="3">
+        <v>0.06799658560144115</v>
+      </c>
+      <c r="K145" s="3">
+        <v>0.05948199455076652</v>
+      </c>
+      <c r="L145" s="3">
+        <v>0.8923378739096453</v>
+      </c>
+      <c r="M145" s="3">
+        <v>0.06722438992130145</v>
+      </c>
+      <c r="N145" s="3">
+        <v>0.4594063775332274</v>
+      </c>
+      <c r="O145" s="3">
+        <v>0.4801672297555432</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="5">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146" s="1">
+        <v>6591644562.444943</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.4974092947416669</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0.008086540166696179</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0.4494708566894061</v>
+      </c>
+      <c r="G146" s="3">
+        <v>-0.00316228175287453</v>
+      </c>
+      <c r="H146" s="3">
+        <v>-0.1745046842947896</v>
+      </c>
+      <c r="I146" s="3">
+        <v>0.01060154430544761</v>
+      </c>
+      <c r="J146" s="3">
+        <v>0.006179397887164643</v>
+      </c>
+      <c r="K146" s="3">
+        <v>0.02585418671799803</v>
+      </c>
+      <c r="L146" s="3">
+        <v>0.3883567434499915</v>
+      </c>
+      <c r="M146" s="3">
+        <v>0.02377879299062887</v>
+      </c>
+      <c r="N146" s="3">
+        <v>0.08842930431892061</v>
+      </c>
+      <c r="O146" s="3">
+        <v>0.2060677682203102</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>pair</t>
   </si>
@@ -61,6 +61,9 @@
     <t>median momentum</t>
   </si>
   <si>
+    <t>BLUEBIRD/USDT</t>
+  </si>
+  <si>
     <t>QNT/USDT</t>
   </si>
   <si>
@@ -494,6 +497,9 @@
   </si>
   <si>
     <t>BTC/USDT</t>
+  </si>
+  <si>
+    <t>BLUEBIRD</t>
   </si>
   <si>
     <t>QNT</t>
@@ -1297,7 +1303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P146"/>
+  <dimension ref="A1:P147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1364,46 +1370,46 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D2" s="1">
-        <v>16750606.002</v>
+        <v>4669402.307242856</v>
       </c>
       <c r="E2" s="2">
-        <v>1.268224020370246</v>
+        <v>1.100070640727135</v>
       </c>
       <c r="F2" s="3">
-        <v>-0.01350093109869642</v>
+        <v>0.01920782629444042</v>
       </c>
       <c r="G2" s="3">
-        <v>-1.886677818004454E-06</v>
+        <v>0.005842364383913201</v>
       </c>
       <c r="H2" s="3">
-        <v>0.03847096299926483</v>
+        <v>0.009810874704491537</v>
       </c>
       <c r="I2" s="3">
-        <v>0.1163192199740261</v>
+        <v>0.008646125682171289</v>
       </c>
       <c r="J2" s="3">
-        <v>0.04418528252299602</v>
+        <v>0.002229000469263272</v>
       </c>
       <c r="K2" s="3">
-        <v>0.1100138950455836</v>
+        <v>0.007114694566407727</v>
       </c>
       <c r="L2" s="3">
-        <v>0.06331019486493274</v>
+        <v>-0.03085649461145777</v>
       </c>
       <c r="M2" s="3">
-        <v>0.03675840307427251</v>
+        <v>0.0008813247856390652</v>
       </c>
       <c r="N2" s="3">
-        <v>0.09161157379582727</v>
+        <v>0.2114293817356778</v>
       </c>
       <c r="O2" s="3">
-        <v>0.03184748172134028</v>
+        <v>0.04360155549211439</v>
       </c>
       <c r="P2" s="3">
-        <v>0.06418498843504988</v>
+        <v>0.006478529475160463</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1414,46 +1420,46 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1">
-        <v>191219310.1845</v>
+        <v>17339128.62742857</v>
       </c>
       <c r="E3" s="2">
-        <v>1.441138904188699</v>
+        <v>1.289466769869944</v>
       </c>
       <c r="F3" s="3">
-        <v>0.03249433473616049</v>
+        <v>0.001644865669303625</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0881465098947007</v>
+        <v>0.01145262795066869</v>
       </c>
       <c r="H3" s="3">
-        <v>0.09064096261941913</v>
+        <v>-0.01311930853526792</v>
       </c>
       <c r="I3" s="3">
-        <v>0.2593311100014947</v>
+        <v>-0.02497034121285325</v>
       </c>
       <c r="J3" s="3">
-        <v>0.07771911298838424</v>
+        <v>0.05026281208935603</v>
       </c>
       <c r="K3" s="3">
-        <v>0.1144289960784178</v>
+        <v>0.01528981135396991</v>
       </c>
       <c r="L3" s="3">
-        <v>0.05484010996961363</v>
+        <v>0.06001326259946945</v>
       </c>
       <c r="M3" s="3">
-        <v>0.01668190639957808</v>
+        <v>0.08402839627528101</v>
       </c>
       <c r="N3" s="3">
-        <v>0.1144598047566009</v>
+        <v>0.1941357736483331</v>
       </c>
       <c r="O3" s="3">
-        <v>0.03060866466741313</v>
+        <v>0.0434774749980619</v>
       </c>
       <c r="P3" s="3">
-        <v>0.1012877529865593</v>
+        <v>0.04965910381462546</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1464,46 +1470,46 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1">
-        <v>20278881.348</v>
+        <v>215579898.7705229</v>
       </c>
       <c r="E4" s="2">
-        <v>1.226497682907696</v>
+        <v>1.43053768442974</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.03723528042820576</v>
+        <v>0.005578528516813599</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1251062056107188</v>
+        <v>-0.0001742273302882727</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.003612716763005917</v>
+        <v>0.04286436735106705</v>
       </c>
       <c r="I4" s="3">
-        <v>0.005124410128057687</v>
+        <v>0.05473560199016218</v>
       </c>
       <c r="J4" s="3">
-        <v>0.01272949816401459</v>
+        <v>0.1108860541285987</v>
       </c>
       <c r="K4" s="3">
-        <v>0.02631272295466578</v>
+        <v>0.1651468274426856</v>
       </c>
       <c r="L4" s="3">
-        <v>0.05616543272912938</v>
+        <v>0.07975537217777401</v>
       </c>
       <c r="M4" s="3">
-        <v>0.03898670411338241</v>
+        <v>0.06379277886587625</v>
       </c>
       <c r="N4" s="3">
-        <v>0.04920111590159764</v>
+        <v>0.2607355962046367</v>
       </c>
       <c r="O4" s="3">
-        <v>0.02778942656830007</v>
+        <v>0.04671659170568445</v>
       </c>
       <c r="P4" s="3">
-        <v>0.0326497135340241</v>
+        <v>0.1144698031542809</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1514,46 +1520,46 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1">
-        <v>7318003.794000001</v>
+        <v>22091227.13571429</v>
       </c>
       <c r="E5" s="2">
-        <v>1.266085259095191</v>
+        <v>1.171488836439287</v>
       </c>
       <c r="F5" s="3">
-        <v>-0.03516704345641791</v>
+        <v>0.04843787842092522</v>
       </c>
       <c r="G5" s="3">
-        <v>-0.09158532141437815</v>
+        <v>0.1750174609156668</v>
       </c>
       <c r="H5" s="3">
-        <v>-0.04357569721115533</v>
+        <v>0.01192145862552598</v>
       </c>
       <c r="I5" s="3">
-        <v>-0.0002671026684344234</v>
+        <v>4.483857630015078E-07</v>
       </c>
       <c r="J5" s="3">
-        <v>-0.07534906114588343</v>
+        <v>0.04920019389238958</v>
       </c>
       <c r="K5" s="3">
-        <v>-0.03439560492095334</v>
+        <v>0.005974429514789274</v>
       </c>
       <c r="L5" s="3">
-        <v>-0.09941383352872205</v>
+        <v>0.07286245353159841</v>
       </c>
       <c r="M5" s="3">
-        <v>-0.01867414716772154</v>
+        <v>0.05545554747002249</v>
       </c>
       <c r="N5" s="3">
-        <v>-0.02214867617107937</v>
+        <v>0.1769983686786296</v>
       </c>
       <c r="O5" s="3">
-        <v>0.001021287813156959</v>
+        <v>0.03942366752005235</v>
       </c>
       <c r="P5" s="3">
-        <v>-0.02827214054601635</v>
+        <v>0.1152365041928447</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1564,46 +1570,46 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1">
-        <v>8435991.908928571</v>
+        <v>7247532.413285714</v>
       </c>
       <c r="E6" s="2">
-        <v>1.124112145973813</v>
+        <v>1.141392087225487</v>
       </c>
       <c r="F6" s="3">
-        <v>-0.0218932256617317</v>
+        <v>0.01907708172209328</v>
       </c>
       <c r="G6" s="3">
-        <v>-0.07856385633973527</v>
+        <v>0.05110636395945079</v>
       </c>
       <c r="H6" s="3">
-        <v>-0.02608773340480648</v>
+        <v>-0.01175000000000004</v>
       </c>
       <c r="I6" s="3">
-        <v>-0.0001851417164041805</v>
+        <v>-0.02121145519084866</v>
       </c>
       <c r="J6" s="3">
-        <v>-0.04728194371613357</v>
+        <v>-0.009521423202205025</v>
       </c>
       <c r="K6" s="3">
-        <v>-0.01504166113962284</v>
+        <v>-0.005450497388934136</v>
       </c>
       <c r="L6" s="3">
-        <v>0.006648813371502535</v>
+        <v>-0.09209921910886547</v>
       </c>
       <c r="M6" s="3">
-        <v>0.004242787761305824</v>
+        <v>-0.005995720528923732</v>
       </c>
       <c r="N6" s="3">
-        <v>-0.08202105263157888</v>
+        <v>0.07917007917007918</v>
       </c>
       <c r="O6" s="3">
-        <v>-0.0005417759923436066</v>
+        <v>5.878679360607529E-05</v>
       </c>
       <c r="P6" s="3">
-        <v>-0.04680275873967905</v>
+        <v>0.02282793328525833</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1614,46 +1620,46 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" s="1">
-        <v>25394913.35348571</v>
+        <v>8361654.047885715</v>
       </c>
       <c r="E7" s="2">
-        <v>1.298402950588408</v>
+        <v>1.104965348645565</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.02192323863295092</v>
+        <v>0.007768942509825383</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.01797590706604537</v>
+        <v>0.005845794131339948</v>
       </c>
       <c r="H7" s="3">
-        <v>-0.01338988185398365</v>
+        <v>-0.01456787916703904</v>
       </c>
       <c r="I7" s="3">
-        <v>-0.00460864495903352</v>
+        <v>-0.02181402343150562</v>
       </c>
       <c r="J7" s="3">
-        <v>0.01073800508969033</v>
+        <v>-0.0001813565469713257</v>
       </c>
       <c r="K7" s="3">
-        <v>0.02290389545730618</v>
+        <v>-0.003927905126321123</v>
       </c>
       <c r="L7" s="3">
-        <v>0.04464973056197082</v>
+        <v>0.007308605883427743</v>
       </c>
       <c r="M7" s="3">
-        <v>0.02227998864511545</v>
+        <v>0.001390714421960562</v>
       </c>
       <c r="N7" s="3">
-        <v>-0.02607655502392336</v>
+        <v>-0.004604134693508967</v>
       </c>
       <c r="O7" s="3">
-        <v>0.007428245988073296</v>
+        <v>-8.752954141399498E-05</v>
       </c>
       <c r="P7" s="3">
-        <v>0.002152040789535044</v>
+        <v>-0.001268595352180281</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1664,46 +1670,46 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1">
-        <v>78612227.98622857</v>
+        <v>20768142.88265714</v>
       </c>
       <c r="E8" s="2">
-        <v>1.403349846346989</v>
+        <v>1.153475990706264</v>
       </c>
       <c r="F8" s="3">
-        <v>-0.03736754043502501</v>
+        <v>0.01062653562653568</v>
       </c>
       <c r="G8" s="3">
-        <v>-0.01546126827753282</v>
+        <v>0.0004687300913528675</v>
       </c>
       <c r="H8" s="3">
-        <v>-0.002888503755054884</v>
+        <v>-0.01349082623815803</v>
       </c>
       <c r="I8" s="3">
-        <v>-0.00716162468103082</v>
+        <v>-0.0327084937670709</v>
       </c>
       <c r="J8" s="3">
-        <v>0.05436774587660349</v>
+        <v>0.01106126712960119</v>
       </c>
       <c r="K8" s="3">
-        <v>0.08630818028299525</v>
+        <v>-0.01194370617802913</v>
       </c>
       <c r="L8" s="3">
-        <v>0.0869017632241814</v>
+        <v>0.006853925708340907</v>
       </c>
       <c r="M8" s="3">
-        <v>0.05745406044203806</v>
+        <v>0.03071628952769863</v>
       </c>
       <c r="N8" s="3">
-        <v>-0.004613610149942302</v>
+        <v>0.05030322374720714</v>
       </c>
       <c r="O8" s="3">
-        <v>0.007707994104410224</v>
+        <v>0.02224693236781725</v>
       </c>
       <c r="P8" s="3">
-        <v>0.02642022514604788</v>
+        <v>0.01559250980952575</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1714,46 +1720,46 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D9" s="1">
-        <v>5216556.610522286</v>
+        <v>78392138.3248</v>
       </c>
       <c r="E9" s="2">
-        <v>1.035967606456762</v>
+        <v>1.372888996063256</v>
       </c>
       <c r="F9" s="3">
-        <v>-0.01895734597156393</v>
+        <v>0.01448435689455389</v>
       </c>
       <c r="G9" s="3">
-        <v>-0.01740970244478099</v>
+        <v>1.393428389109237E-05</v>
       </c>
       <c r="H9" s="3">
-        <v>-0.01771591268585882</v>
+        <v>-0.03313086692435122</v>
       </c>
       <c r="I9" s="3">
-        <v>-0.0001116899871968466</v>
+        <v>-0.0658128823374545</v>
       </c>
       <c r="J9" s="3">
-        <v>-0.01491116751269037</v>
+        <v>0.05418422636965688</v>
       </c>
       <c r="K9" s="3">
-        <v>0.002089150804128769</v>
+        <v>-0.01296053893090119</v>
       </c>
       <c r="L9" s="3">
-        <v>0.009591936270525086</v>
+        <v>0.05800604229607249</v>
       </c>
       <c r="M9" s="3">
-        <v>0.009147684945608074</v>
+        <v>0.06595449686727588</v>
       </c>
       <c r="N9" s="3">
-        <v>-0.06714736367733205</v>
+        <v>0.1019509125235997</v>
       </c>
       <c r="O9" s="3">
-        <v>1.766011234217943E-05</v>
+        <v>0.02223869051607134</v>
       </c>
       <c r="P9" s="3">
-        <v>-0.007660275820326112</v>
+        <v>0.03298421557558349</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1764,46 +1770,46 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1">
-        <v>19942653.27874285</v>
+        <v>8782928.550742399</v>
       </c>
       <c r="E10" s="2">
-        <v>1.111094373776332</v>
+        <v>0.9831856608506828</v>
       </c>
       <c r="F10" s="3">
-        <v>-0.04496554042696255</v>
+        <v>0.08283928857554862</v>
       </c>
       <c r="G10" s="3">
-        <v>-0.2029652083041846</v>
+        <v>0.1123661627904741</v>
       </c>
       <c r="H10" s="3">
-        <v>-0.0007328369584334878</v>
+        <v>0.06408439615808528</v>
       </c>
       <c r="I10" s="3">
-        <v>0.0106370022386547</v>
+        <v>0.0008595075072649829</v>
       </c>
       <c r="J10" s="3">
-        <v>-0.003012400561534948</v>
+        <v>0.08041566746602714</v>
       </c>
       <c r="K10" s="3">
-        <v>0.01871812628362541</v>
+        <v>0.0003055005342129446</v>
       </c>
       <c r="L10" s="3">
-        <v>-0.0237832729563711</v>
+        <v>0.07320946482451959</v>
       </c>
       <c r="M10" s="3">
-        <v>0.0003496296718179405</v>
+        <v>0.01541351374489595</v>
       </c>
       <c r="N10" s="3">
-        <v>-0.196089991510235</v>
+        <v>0.09850455136540955</v>
       </c>
       <c r="O10" s="3">
-        <v>-0.01416571927222247</v>
+        <v>0.001441948245377306</v>
       </c>
       <c r="P10" s="3">
-        <v>-0.0978701809192085</v>
+        <v>0.05695903255515275</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1814,46 +1820,46 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D11" s="1">
-        <v>9122605.695228571</v>
+        <v>19934348.29774285</v>
       </c>
       <c r="E11" s="2">
-        <v>1.019753802702764</v>
+        <v>1.089966506400712</v>
       </c>
       <c r="F11" s="3">
-        <v>-0.03887988891460306</v>
+        <v>0.0188524470095361</v>
       </c>
       <c r="G11" s="3">
-        <v>-0.1099050213987667</v>
+        <v>0.01207961207546867</v>
       </c>
       <c r="H11" s="3">
-        <v>-0.02488847147217656</v>
+        <v>-0.01586133710647334</v>
       </c>
       <c r="I11" s="3">
-        <v>-0.008269236890898649</v>
+        <v>-0.04063910835335251</v>
       </c>
       <c r="J11" s="3">
-        <v>-0.0323858341099721</v>
+        <v>0.01886737175167726</v>
       </c>
       <c r="K11" s="3">
-        <v>-0.0014613735535676</v>
+        <v>0.0004312508806124972</v>
       </c>
       <c r="L11" s="3">
-        <v>-0.05247547342003198</v>
+        <v>-0.009569105459516457</v>
       </c>
       <c r="M11" s="3">
-        <v>-4.994863999868338E-05</v>
+        <v>0.006665965575464661</v>
       </c>
       <c r="N11" s="3">
-        <v>0.003624939584340264</v>
+        <v>-0.09110629067245123</v>
       </c>
       <c r="O11" s="3">
-        <v>0.0008466317481955996</v>
+        <v>-0.005787956863089149</v>
       </c>
       <c r="P11" s="3">
-        <v>-0.0007556610967831415</v>
+        <v>0.003548608228038579</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1864,46 +1870,46 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D12" s="1">
-        <v>26860122.07425714</v>
+        <v>9094860.437528571</v>
       </c>
       <c r="E12" s="2">
-        <v>1.716374780038822</v>
+        <v>0.9523372767334738</v>
       </c>
       <c r="F12" s="3">
-        <v>-0.04264264264264261</v>
+        <v>0.019875478927203</v>
       </c>
       <c r="G12" s="3">
-        <v>-0.07477659176309731</v>
+        <v>0.08383989153174894</v>
       </c>
       <c r="H12" s="3">
-        <v>-0.06235294117647051</v>
+        <v>-0.01503237742830714</v>
       </c>
       <c r="I12" s="3">
-        <v>-0.02258114025732011</v>
+        <v>-0.01475379894182359</v>
       </c>
       <c r="J12" s="3">
-        <v>-0.07433217189314745</v>
+        <v>0.003297997644287426</v>
       </c>
       <c r="K12" s="3">
-        <v>-0.05935964057460121</v>
+        <v>-0.01073332169769761</v>
       </c>
       <c r="L12" s="3">
-        <v>-0.0123915737298637</v>
+        <v>-0.01617001617001618</v>
       </c>
       <c r="M12" s="3">
-        <v>0.01342713097788539</v>
+        <v>2.716351343996169E-05</v>
       </c>
       <c r="N12" s="3">
-        <v>-0.07754629629629624</v>
+        <v>0.05030826140567194</v>
       </c>
       <c r="O12" s="3">
-        <v>0.0004789824003666796</v>
+        <v>3.912654540321306E-05</v>
       </c>
       <c r="P12" s="3">
-        <v>-0.06706811616884925</v>
+        <v>0.02516771245955595</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1914,46 +1920,46 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D13" s="1">
-        <v>119818879.9445629</v>
+        <v>27254492.02581428</v>
       </c>
       <c r="E13" s="2">
-        <v>1.512884627893291</v>
+        <v>1.656655376863902</v>
       </c>
       <c r="F13" s="3">
-        <v>-0.05075633315108426</v>
+        <v>0.01500938086303941</v>
       </c>
       <c r="G13" s="3">
-        <v>-0.1593627756162556</v>
+        <v>0.0002437557522782069</v>
       </c>
       <c r="H13" s="3">
-        <v>-0.0260845175766642</v>
+        <v>-0.0275614140203715</v>
       </c>
       <c r="I13" s="3">
-        <v>-0.0001070746995423114</v>
+        <v>-0.04794591773389004</v>
       </c>
       <c r="J13" s="3">
-        <v>-0.01400851869380021</v>
+        <v>-0.03450327186198694</v>
       </c>
       <c r="K13" s="3">
-        <v>0.002193279928811189</v>
+        <v>-0.03880504417441374</v>
       </c>
       <c r="L13" s="3">
-        <v>0.1617040258726442</v>
+        <v>0.005576208178438597</v>
       </c>
       <c r="M13" s="3">
-        <v>0.1266993880110746</v>
+        <v>0.003573244290058783</v>
       </c>
       <c r="N13" s="3">
-        <v>0.1111466666666667</v>
+        <v>0.02011313639220618</v>
       </c>
       <c r="O13" s="3">
-        <v>0.03717641697858732</v>
+        <v>0.001619339540085651</v>
       </c>
       <c r="P13" s="3">
-        <v>0.05666997329773896</v>
+        <v>0.001908500021168495</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1964,46 +1970,46 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D14" s="1">
-        <v>21903892.97571429</v>
+        <v>124144065.9139114</v>
       </c>
       <c r="E14" s="2">
-        <v>1.601383543902748</v>
+        <v>1.53043424463543</v>
       </c>
       <c r="F14" s="3">
-        <v>-0.04381196034537882</v>
+        <v>0.01032603499378518</v>
       </c>
       <c r="G14" s="3">
-        <v>-0.1389258354887912</v>
+        <v>-0.0007123897924527298</v>
       </c>
       <c r="H14" s="3">
-        <v>-0.05702031033177735</v>
+        <v>-0.05118074885516741</v>
       </c>
       <c r="I14" s="3">
-        <v>-0.02026539242187748</v>
+        <v>-0.08171891967797434</v>
       </c>
       <c r="J14" s="3">
-        <v>-0.07090920390280273</v>
+        <v>-0.01848411666357053</v>
       </c>
       <c r="K14" s="3">
-        <v>-0.03355326596247195</v>
+        <v>-0.01348028638568176</v>
       </c>
       <c r="L14" s="3">
-        <v>-0.002402242092619662</v>
+        <v>0.1575199912367181</v>
       </c>
       <c r="M14" s="3">
-        <v>0.009789420478407716</v>
+        <v>0.1180281908051256</v>
       </c>
       <c r="N14" s="3">
-        <v>0.05452493475347404</v>
+        <v>0.2386590083225882</v>
       </c>
       <c r="O14" s="3">
-        <v>0.03302904455350875</v>
+        <v>0.05013938390788926</v>
       </c>
       <c r="P14" s="3">
-        <v>-0.01188192274203212</v>
+        <v>0.05865790050633644</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2014,46 +2020,46 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D15" s="1">
-        <v>6045946.361954286</v>
+        <v>21592815.11177143</v>
       </c>
       <c r="E15" s="2">
-        <v>1.159689181647207</v>
+        <v>1.487458904549987</v>
       </c>
       <c r="F15" s="3">
-        <v>-0.0187454938716654</v>
+        <v>0.008216432865731448</v>
       </c>
       <c r="G15" s="3">
-        <v>-0.03593315419843791</v>
+        <v>-0.0004222269143137058</v>
       </c>
       <c r="H15" s="3">
-        <v>-0.01448225923244027</v>
+        <v>-0.04207920792079196</v>
       </c>
       <c r="I15" s="3">
-        <v>0.0004607730406401213</v>
+        <v>-0.09329459151005778</v>
       </c>
       <c r="J15" s="3">
-        <v>-0.02785714285714296</v>
+        <v>-0.05158979514892537</v>
       </c>
       <c r="K15" s="3">
-        <v>9.62726926756492E-06</v>
+        <v>-0.05655348079308512</v>
       </c>
       <c r="L15" s="3">
-        <v>0.007401924500370103</v>
+        <v>-0.007627062923269008</v>
       </c>
       <c r="M15" s="3">
-        <v>0.007811538647743918</v>
+        <v>0.0003743662788378381</v>
       </c>
       <c r="N15" s="3">
-        <v>0.04211332312404292</v>
+        <v>0.09863153297423219</v>
       </c>
       <c r="O15" s="3">
-        <v>0.0115745704445543</v>
+        <v>0.0295386994159215</v>
       </c>
       <c r="P15" s="3">
-        <v>0.003910582958505742</v>
+        <v>-2.393031773793383E-05</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2064,46 +2070,46 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16" s="1">
-        <v>65623283.90764729</v>
+        <v>6327896.383277144</v>
       </c>
       <c r="E16" s="2">
-        <v>1.80651738469973</v>
+        <v>1.104770548374056</v>
       </c>
       <c r="F16" s="3">
-        <v>-0.05183635518363554</v>
+        <v>0.01616458486407059</v>
       </c>
       <c r="G16" s="3">
-        <v>-0.2241524631641265</v>
+        <v>0.01965252962099406</v>
       </c>
       <c r="H16" s="3">
-        <v>-0.1091941471937103</v>
+        <v>-0.01002147458840361</v>
       </c>
       <c r="I16" s="3">
-        <v>-0.1846114373094274</v>
+        <v>-0.004846655975686574</v>
       </c>
       <c r="J16" s="3">
-        <v>-0.01876353139283135</v>
+        <v>0.008017492711370391</v>
       </c>
       <c r="K16" s="3">
-        <v>-0.0001997939938589365</v>
+        <v>7.79422335015144E-06</v>
       </c>
       <c r="L16" s="3">
-        <v>0.06864029342415512</v>
+        <v>0.006550218340611441</v>
       </c>
       <c r="M16" s="3">
-        <v>0.06402722688076418</v>
+        <v>0.01436333575265523</v>
       </c>
       <c r="N16" s="3">
-        <v>-0.001957425984829996</v>
+        <v>0.0813135261923377</v>
       </c>
       <c r="O16" s="3">
-        <v>0.01954233325450816</v>
+        <v>0.01579188071481303</v>
       </c>
       <c r="P16" s="3">
-        <v>-0.001078609989344466</v>
+        <v>0.01700793268682465</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2114,46 +2120,46 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D17" s="1">
-        <v>9799507.643142859</v>
+        <v>67808110.27639529</v>
       </c>
       <c r="E17" s="2">
-        <v>1.264003992481861</v>
+        <v>1.785656225088039</v>
       </c>
       <c r="F17" s="3">
-        <v>-0.03671176517129524</v>
+        <v>0.0188725490196078</v>
       </c>
       <c r="G17" s="3">
-        <v>-0.07597099442843336</v>
+        <v>0.0006209138617513783</v>
       </c>
       <c r="H17" s="3">
-        <v>-0.03242469999205277</v>
+        <v>-0.01679280983916743</v>
       </c>
       <c r="I17" s="3">
-        <v>0.001151852601496294</v>
+        <v>-0.06559896346946779</v>
       </c>
       <c r="J17" s="3">
-        <v>-0.03357675821558986</v>
+        <v>-0.08152894387980547</v>
       </c>
       <c r="K17" s="3">
-        <v>-9.66961630476351E-06</v>
+        <v>-0.1269708583396841</v>
       </c>
       <c r="L17" s="3">
-        <v>0.04095417236662109</v>
+        <v>0.05776081424936381</v>
       </c>
       <c r="M17" s="3">
-        <v>0.01849649698176971</v>
+        <v>0.03311492823843431</v>
       </c>
       <c r="N17" s="3">
-        <v>-0.04494822717288996</v>
+        <v>0.09973544973544977</v>
       </c>
       <c r="O17" s="3">
-        <v>0.02019030672853848</v>
+        <v>0.02839168269938911</v>
       </c>
       <c r="P17" s="3">
-        <v>-0.02247894839459736</v>
+        <v>0.01686792105009284</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2164,46 +2170,46 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D18" s="1">
-        <v>73210862.43657142</v>
+        <v>9525495.876634287</v>
       </c>
       <c r="E18" s="2">
-        <v>1.905761673829134</v>
+        <v>1.188099856882024</v>
       </c>
       <c r="F18" s="3">
-        <v>-0.296264390320307</v>
+        <v>0.007731534791906649</v>
       </c>
       <c r="G18" s="3">
-        <v>-1.124326645969351</v>
+        <v>-1.081415797180741E-05</v>
       </c>
       <c r="H18" s="3">
-        <v>-0.3083435960591132</v>
+        <v>-0.0225767850019943</v>
       </c>
       <c r="I18" s="3">
-        <v>-0.2664632386591857</v>
+        <v>-0.07056590058307183</v>
       </c>
       <c r="J18" s="3">
-        <v>-0.358463625330192</v>
+        <v>-0.01929080284959574</v>
       </c>
       <c r="K18" s="3">
-        <v>-0.1652232240728422</v>
+        <v>-0.005476555866527926</v>
       </c>
       <c r="L18" s="3">
-        <v>-0.3880830779707184</v>
+        <v>0.01339950372208445</v>
       </c>
       <c r="M18" s="3">
-        <v>-0.1046817410576272</v>
+        <v>0.007220036652126968</v>
       </c>
       <c r="N18" s="3">
-        <v>-0.4212661814903073</v>
+        <v>0.107675617032818</v>
       </c>
       <c r="O18" s="3">
-        <v>-0.05054455668517023</v>
+        <v>0.03401092345583003</v>
       </c>
       <c r="P18" s="3">
-        <v>-0.2932447027815747</v>
+        <v>0.00360461124707758</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2214,46 +2220,46 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D19" s="1">
-        <v>352493396.5897143</v>
+        <v>251288772.1371429</v>
       </c>
       <c r="E19" s="2">
-        <v>1.995872972711958</v>
+        <v>3.60221255985024</v>
       </c>
       <c r="F19" s="3">
-        <v>-0.01174068402246051</v>
+        <v>-0.2600434931898821</v>
       </c>
       <c r="G19" s="3">
-        <v>-0.006946682996325894</v>
+        <v>-1.002262325927616</v>
       </c>
       <c r="H19" s="3">
-        <v>-0.003089598352214215</v>
+        <v>-0.4958671241422333</v>
       </c>
       <c r="I19" s="3">
-        <v>0.009611703461268169</v>
+        <v>-1.65902049520987</v>
       </c>
       <c r="J19" s="3">
-        <v>-0.02271580010095919</v>
+        <v>-0.4993805172680811</v>
       </c>
       <c r="K19" s="3">
-        <v>0.0002765400606529939</v>
+        <v>-0.8881441963035831</v>
       </c>
       <c r="L19" s="3">
-        <v>0.06490649064906484</v>
+        <v>-0.5567667626491156</v>
       </c>
       <c r="M19" s="3">
-        <v>0.0002389356337922139</v>
+        <v>-0.2276881390831184</v>
       </c>
       <c r="N19" s="3">
-        <v>0.1596286313267445</v>
+        <v>-0.5814450343130908</v>
       </c>
       <c r="O19" s="3">
-        <v>0.07747724133740519</v>
+        <v>-0.08000797540587409</v>
       </c>
       <c r="P19" s="3">
-        <v>0.0002577378472226039</v>
+        <v>-0.7347946153083369</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2264,46 +2270,46 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D20" s="1">
-        <v>78926494.07600001</v>
+        <v>314053482.8314286</v>
       </c>
       <c r="E20" s="2">
-        <v>1.109403286145938</v>
+        <v>1.811647376625009</v>
       </c>
       <c r="F20" s="3">
-        <v>-0.0180753564154786</v>
+        <v>0.02110682110682119</v>
       </c>
       <c r="G20" s="3">
-        <v>-0.0001748164060988924</v>
+        <v>0.03113001578904198</v>
       </c>
       <c r="H20" s="3">
-        <v>0.002078461938165673</v>
+        <v>-0.003266331658291432</v>
       </c>
       <c r="I20" s="3">
-        <v>0.02116293218472328</v>
+        <v>1.720066096950242E-05</v>
       </c>
       <c r="J20" s="3">
-        <v>-0.01857506361323162</v>
+        <v>0.01380015333503713</v>
       </c>
       <c r="K20" s="3">
-        <v>0.002388336872672811</v>
+        <v>0.008956685146604349</v>
       </c>
       <c r="L20" s="3">
-        <v>0.02935681878836405</v>
+        <v>0.02136972193614835</v>
       </c>
       <c r="M20" s="3">
-        <v>0.0057962949127447</v>
+        <v>-0.0002772409735450656</v>
       </c>
       <c r="N20" s="3">
-        <v>-0.05742913000977522</v>
+        <v>0.308377308707124</v>
       </c>
       <c r="O20" s="3">
-        <v>0.000224548909040297</v>
+        <v>0.073584634365572</v>
       </c>
       <c r="P20" s="3">
-        <v>0.001106760233286959</v>
+        <v>0.02004335046782316</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2314,46 +2320,46 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D21" s="1">
-        <v>12736944.42304286</v>
+        <v>77998545.93742858</v>
       </c>
       <c r="E21" s="2">
-        <v>1.531888913196445</v>
+        <v>1.063103679998024</v>
       </c>
       <c r="F21" s="3">
-        <v>-0.03052422030524209</v>
+        <v>0.01346452615225282</v>
       </c>
       <c r="G21" s="3">
-        <v>-0.09110244053706763</v>
+        <v>0.003832435439081969</v>
       </c>
       <c r="H21" s="3">
-        <v>-0.0214333556597455</v>
+        <v>-0.003056546102903665</v>
       </c>
       <c r="I21" s="3">
-        <v>-5.401336511051293E-05</v>
+        <v>-0.0003649069173761415</v>
       </c>
       <c r="J21" s="3">
-        <v>-0.05191434133679419</v>
+        <v>0.02595019659239848</v>
       </c>
       <c r="K21" s="3">
-        <v>-0.002749203671430979</v>
+        <v>0.008343134960177164</v>
       </c>
       <c r="L21" s="3">
-        <v>-0.0141700404858299</v>
+        <v>-0.003056546102903665</v>
       </c>
       <c r="M21" s="3">
-        <v>-0.002587627678066009</v>
+        <v>0.02132195110415405</v>
       </c>
       <c r="N21" s="3">
-        <v>0.02096436058700211</v>
+        <v>0.03874734607218684</v>
       </c>
       <c r="O21" s="3">
-        <v>0.01673901286916367</v>
+        <v>0.005122310442157872</v>
       </c>
       <c r="P21" s="3">
-        <v>-0.002668415674748494</v>
+        <v>0.01483254303216561</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2364,46 +2370,46 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D22" s="1">
-        <v>14021983.37257143</v>
+        <v>12705085.39428572</v>
       </c>
       <c r="E22" s="2">
-        <v>1.241631218855174</v>
+        <v>1.429630964152319</v>
       </c>
       <c r="F22" s="3">
-        <v>-0.009009009009009063</v>
+        <v>0.007529089664613209</v>
       </c>
       <c r="G22" s="3">
-        <v>0.001310387166819963</v>
+        <v>-2.249668326958694E-06</v>
       </c>
       <c r="H22" s="3">
-        <v>0.002755988976044028</v>
+        <v>-0.02062541583499662</v>
       </c>
       <c r="I22" s="3">
-        <v>0.004349048763282867</v>
+        <v>-0.05408266567229956</v>
       </c>
       <c r="J22" s="3">
-        <v>0.01046784875026695</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0.01470943465918617</v>
+        <v>-0.008309692603665477</v>
       </c>
       <c r="L22" s="3">
-        <v>0.1108501643964302</v>
+        <v>-0.03157894736842108</v>
       </c>
       <c r="M22" s="3">
-        <v>0.06256744523204703</v>
+        <v>-0.01200273402992849</v>
       </c>
       <c r="N22" s="3">
-        <v>0.1171469059990552</v>
+        <v>0.06744017403915879</v>
       </c>
       <c r="O22" s="3">
-        <v>0.03375973905031798</v>
+        <v>0.01227588438764566</v>
       </c>
       <c r="P22" s="3">
-        <v>0.0386384399456166</v>
+        <v>-0.004155971135996218</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2414,46 +2420,46 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D23" s="1">
-        <v>13930728.82838571</v>
+        <v>17632012.08042857</v>
       </c>
       <c r="E23" s="2">
-        <v>1.039051912778873</v>
+        <v>1.207560465554891</v>
       </c>
       <c r="F23" s="3">
-        <v>-0.02374429223744294</v>
+        <v>0.06602186711522284</v>
       </c>
       <c r="G23" s="3">
-        <v>-0.03689548921651963</v>
+        <v>0.308986462899137</v>
       </c>
       <c r="H23" s="3">
-        <v>-0.03257918552036202</v>
+        <v>0.05801335559265441</v>
       </c>
       <c r="I23" s="3">
-        <v>-0.007318740739992982</v>
+        <v>0.09178913480454436</v>
       </c>
       <c r="J23" s="3">
-        <v>-0.04553571428571442</v>
+        <v>0.07666171161605441</v>
       </c>
       <c r="K23" s="3">
-        <v>-0.02719093957055008</v>
+        <v>0.05090065061278169</v>
       </c>
       <c r="L23" s="3">
-        <v>-0.04125560538116595</v>
+        <v>0.1219296304492144</v>
       </c>
       <c r="M23" s="3">
-        <v>-0.004927560915388518</v>
+        <v>0.08494369588160414</v>
       </c>
       <c r="N23" s="3">
-        <v>-0.133711507293355</v>
+        <v>0.2828947368421053</v>
       </c>
       <c r="O23" s="3">
-        <v>-0.009910127786360958</v>
+        <v>0.04106766943045063</v>
       </c>
       <c r="P23" s="3">
-        <v>-0.03204321439353486</v>
+        <v>0.1839192163618547</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2464,46 +2470,46 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D24" s="1">
-        <v>5294746.750107143</v>
+        <v>17295684.64808572</v>
       </c>
       <c r="E24" s="2">
-        <v>1.031609805927702</v>
+        <v>1.006451746978155</v>
       </c>
       <c r="F24" s="3">
-        <v>-0.03081947137463002</v>
+        <v>0.04384328358208948</v>
       </c>
       <c r="G24" s="3">
-        <v>-0.05722567218813254</v>
+        <v>0.1938422031456252</v>
       </c>
       <c r="H24" s="3">
-        <v>-0.01329870129870133</v>
+        <v>0.01727272727272719</v>
       </c>
       <c r="I24" s="3">
-        <v>0.004997017104438886</v>
+        <v>0.007486541621931206</v>
       </c>
       <c r="J24" s="3">
-        <v>-0.01422046917168358</v>
+        <v>0.0191256830601092</v>
       </c>
       <c r="K24" s="3">
-        <v>0.003312101484719627</v>
+        <v>0.0003108675525211097</v>
       </c>
       <c r="L24" s="3">
-        <v>0.05651351652019136</v>
+        <v>-0.02526132404181177</v>
       </c>
       <c r="M24" s="3">
-        <v>0.03459930955056219</v>
+        <v>-0.0001006090396472923</v>
       </c>
       <c r="N24" s="3">
-        <v>0.07419975115937107</v>
+        <v>-0.02526132404181177</v>
       </c>
       <c r="O24" s="3">
-        <v>0.03306582728928623</v>
+        <v>-0.005125668562738169</v>
       </c>
       <c r="P24" s="3">
-        <v>0.01895570551764091</v>
+        <v>0.0001051292564369087</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2514,46 +2520,46 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D25" s="1">
-        <v>11474301.28174286</v>
+        <v>5080999.085691429</v>
       </c>
       <c r="E25" s="2">
-        <v>1.015829167033417</v>
+        <v>0.9931936604181315</v>
       </c>
       <c r="F25" s="3">
-        <v>-0.0286850921273031</v>
+        <v>-0.004317152785089962</v>
       </c>
       <c r="G25" s="3">
-        <v>-0.0278718807028718</v>
+        <v>-0.04329499590322437</v>
       </c>
       <c r="H25" s="3">
-        <v>-0.01150649904112505</v>
+        <v>-0.02985534010464754</v>
       </c>
       <c r="I25" s="3">
-        <v>0.007047307804778398</v>
+        <v>-0.08993374387848216</v>
       </c>
       <c r="J25" s="3">
-        <v>-0.02664708350818297</v>
+        <v>-0.004002527912365615</v>
       </c>
       <c r="K25" s="3">
-        <v>0.0001003090298809544</v>
+        <v>-0.004853126740540536</v>
       </c>
       <c r="L25" s="3">
-        <v>0.01554290718038534</v>
+        <v>0.03208906352324833</v>
       </c>
       <c r="M25" s="3">
-        <v>0.007335825634647673</v>
+        <v>0.01560178408775636</v>
       </c>
       <c r="N25" s="3">
-        <v>-0.0006462731581215477</v>
+        <v>0.0844036697247707</v>
       </c>
       <c r="O25" s="3">
-        <v>0.007015550980583075</v>
+        <v>0.0375315523366481</v>
       </c>
       <c r="P25" s="3">
-        <v>-0.0002729820641202966</v>
+        <v>0.005374328673607912</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2564,46 +2570,46 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D26" s="1">
-        <v>9155180.328742858</v>
+        <v>11055557.17278</v>
       </c>
       <c r="E26" s="2">
-        <v>1.137242039258976</v>
+        <v>0.9510896250746366</v>
       </c>
       <c r="F26" s="3">
-        <v>0.02203997949769345</v>
+        <v>0.01675257731958769</v>
       </c>
       <c r="G26" s="3">
-        <v>0.08687129434706932</v>
+        <v>0.02544395317491295</v>
       </c>
       <c r="H26" s="3">
-        <v>-0.001502253380070162</v>
+        <v>-0.008170961659333783</v>
       </c>
       <c r="I26" s="3">
-        <v>-0.000565605618152192</v>
+        <v>-0.004694780357127881</v>
       </c>
       <c r="J26" s="3">
-        <v>0.03316062176165806</v>
+        <v>0.01283697047496798</v>
       </c>
       <c r="K26" s="3">
-        <v>0.0005269549349776519</v>
+        <v>0.001266100927615772</v>
       </c>
       <c r="L26" s="3">
-        <v>0.116461366181411</v>
+        <v>0.003603985584057738</v>
       </c>
       <c r="M26" s="3">
-        <v>0.05325613034036299</v>
+        <v>0.01722430694767724</v>
       </c>
       <c r="N26" s="3">
-        <v>0.001004016064257029</v>
+        <v>0.07909733302940508</v>
       </c>
       <c r="O26" s="3">
-        <v>0.004792167471037344</v>
+        <v>0.009968228000467356</v>
       </c>
       <c r="P26" s="3">
-        <v>0.02713007320231001</v>
+        <v>0.02133413006129509</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2614,46 +2620,46 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D27" s="1">
-        <v>66475435.33651429</v>
+        <v>40654953.16865715</v>
       </c>
       <c r="E27" s="2">
-        <v>1.7486784984358</v>
+        <v>1.649318253877463</v>
       </c>
       <c r="F27" s="3">
-        <v>-0.05551443375277564</v>
+        <v>0.07723372034326087</v>
       </c>
       <c r="G27" s="3">
-        <v>-0.1194314098582391</v>
+        <v>0.02445700263853406</v>
       </c>
       <c r="H27" s="3">
-        <v>-0.01505210343496712</v>
+        <v>0.09323770491803275</v>
       </c>
       <c r="I27" s="3">
-        <v>0.002309634816012627</v>
+        <v>0.2092065124366158</v>
       </c>
       <c r="J27" s="3">
-        <v>-0.006230529595015593</v>
+        <v>0.08933129147524238</v>
       </c>
       <c r="K27" s="3">
-        <v>0.03863033996191166</v>
+        <v>0.07369004145822691</v>
       </c>
       <c r="L27" s="3">
-        <v>0.01916932907348248</v>
+        <v>0.1680350301039956</v>
       </c>
       <c r="M27" s="3">
-        <v>0.02948300782276117</v>
+        <v>0.06629704256674208</v>
       </c>
       <c r="N27" s="3">
-        <v>0.02366626554352187</v>
+        <v>0.1848972792892837</v>
       </c>
       <c r="O27" s="3">
-        <v>0.04147109883772468</v>
+        <v>0.0177494861967328</v>
       </c>
       <c r="P27" s="3">
-        <v>0.02657463668314152</v>
+        <v>0.06999354201248451</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2664,46 +2670,46 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D28" s="1">
-        <v>31267974.4938</v>
+        <v>66969377.74998857</v>
       </c>
       <c r="E28" s="2">
-        <v>1.240322125224454</v>
+        <v>1.667163850480149</v>
       </c>
       <c r="F28" s="3">
-        <v>-0.01361412465432888</v>
+        <v>0.03669008587041373</v>
       </c>
       <c r="G28" s="3">
-        <v>0.001279761190842329</v>
+        <v>0.05594190655329372</v>
       </c>
       <c r="H28" s="3">
-        <v>-0.008411148335590585</v>
+        <v>-0.007844602166604348</v>
       </c>
       <c r="I28" s="3">
-        <v>0.01390982645363547</v>
+        <v>-0.001069362475329206</v>
       </c>
       <c r="J28" s="3">
-        <v>-0.004722043356943602</v>
+        <v>0.03547758284600394</v>
       </c>
       <c r="K28" s="3">
-        <v>0.0002076983781511486</v>
+        <v>0.002010645136430024</v>
       </c>
       <c r="L28" s="3">
-        <v>0.07587006960556844</v>
+        <v>0.05146476642913694</v>
       </c>
       <c r="M28" s="3">
-        <v>0.03604441472486473</v>
+        <v>0.05082966173290997</v>
       </c>
       <c r="N28" s="3">
-        <v>0.03736017897091718</v>
+        <v>0.2370749883558454</v>
       </c>
       <c r="O28" s="3">
-        <v>0.0300166542365006</v>
+        <v>0.05038038921469693</v>
       </c>
       <c r="P28" s="3">
-        <v>0.01866208795785353</v>
+        <v>0.05338578414310184</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2714,46 +2720,46 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D29" s="1">
-        <v>5592332.676857143</v>
+        <v>29427107.85205714</v>
       </c>
       <c r="E29" s="2">
-        <v>1.023814258666917</v>
+        <v>1.189848138629869</v>
       </c>
       <c r="F29" s="3">
-        <v>-0.0404238618524333</v>
+        <v>-0.003432003432003435</v>
       </c>
       <c r="G29" s="3">
-        <v>-0.09783667506939425</v>
+        <v>-0.01442009165728621</v>
       </c>
       <c r="H29" s="3">
-        <v>-0.03372414701620343</v>
+        <v>-0.008394991462720445</v>
       </c>
       <c r="I29" s="3">
-        <v>-0.01464975178836682</v>
+        <v>-0.00172499296293586</v>
       </c>
       <c r="J29" s="3">
-        <v>-0.03283227848101262</v>
+        <v>-0.011909825606125</v>
       </c>
       <c r="K29" s="3">
-        <v>-0.0006496670717155707</v>
+        <v>0.0003724579913424843</v>
       </c>
       <c r="L29" s="3">
-        <v>-0.00434369485543641</v>
+        <v>0.007299270072992764</v>
       </c>
       <c r="M29" s="3">
-        <v>0.0006897908101169631</v>
+        <v>0.03112718731908933</v>
       </c>
       <c r="N29" s="3">
-        <v>-0.01185504513000136</v>
+        <v>0.146688605512135</v>
       </c>
       <c r="O29" s="3">
-        <v>0.01169111033944958</v>
+        <v>0.03687481123602555</v>
       </c>
       <c r="P29" s="3">
-        <v>-0.006252356100858465</v>
+        <v>0.01574982265521591</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2764,46 +2770,46 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D30" s="1">
-        <v>5991574.977142856</v>
+        <v>5600170.115057143</v>
       </c>
       <c r="E30" s="2">
-        <v>1.215027103539543</v>
+        <v>0.9756553344481667</v>
       </c>
       <c r="F30" s="3">
-        <v>-0.04264577893820715</v>
+        <v>0.01130944270336549</v>
       </c>
       <c r="G30" s="3">
-        <v>-0.0913526041249675</v>
+        <v>0.0002116436499349893</v>
       </c>
       <c r="H30" s="3">
-        <v>0.005484460694698385</v>
+        <v>-0.02649527806925498</v>
       </c>
       <c r="I30" s="3">
-        <v>0.001664040028551423</v>
+        <v>-0.04292375404779452</v>
       </c>
       <c r="J30" s="3">
-        <v>-0.005424954792043429</v>
+        <v>-0.009211053263916694</v>
       </c>
       <c r="K30" s="3">
-        <v>0.01890339457917837</v>
+        <v>-0.02494337611425821</v>
       </c>
       <c r="L30" s="3">
-        <v>0.02899906454630501</v>
+        <v>-0.02483247930626725</v>
       </c>
       <c r="M30" s="3">
-        <v>0.02204568412745337</v>
+        <v>0.0003308077942141898</v>
       </c>
       <c r="N30" s="3">
-        <v>0.04068117313150424</v>
+        <v>0.06500215238915187</v>
       </c>
       <c r="O30" s="3">
-        <v>0.02156762613522583</v>
+        <v>0.01108569339373811</v>
       </c>
       <c r="P30" s="3">
-        <v>0.02047453935331587</v>
+        <v>0.0002712257220745895</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2814,46 +2820,46 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D31" s="1">
-        <v>7817610.118885714</v>
+        <v>5993984.81</v>
       </c>
       <c r="E31" s="2">
-        <v>0.9928408731706457</v>
+        <v>1.193123137287781</v>
       </c>
       <c r="F31" s="3">
-        <v>-0.02609603340292278</v>
+        <v>0.0009099181073703627</v>
       </c>
       <c r="G31" s="3">
-        <v>-0.01102072986588644</v>
+        <v>-0.01617511003931021</v>
       </c>
       <c r="H31" s="3">
-        <v>-0.007094714437743838</v>
+        <v>-0.04097646033129901</v>
       </c>
       <c r="I31" s="3">
-        <v>0.00891127180282744</v>
+        <v>-0.08741653739780285</v>
       </c>
       <c r="J31" s="3">
-        <v>-0.02371817230554587</v>
+        <v>0.008249312557286875</v>
       </c>
       <c r="K31" s="3">
-        <v>0.0001433613230760314</v>
+        <v>-0.001667456451222763</v>
       </c>
       <c r="L31" s="3">
-        <v>0.0126628075253256</v>
+        <v>0.001821493624772366</v>
       </c>
       <c r="M31" s="3">
-        <v>0.008066876242169795</v>
+        <v>0.0217569869847579</v>
       </c>
       <c r="N31" s="3">
-        <v>0.01633986928104584</v>
+        <v>0.09890109890109897</v>
       </c>
       <c r="O31" s="3">
-        <v>0.01815289884875323</v>
+        <v>0.02346559653331877</v>
       </c>
       <c r="P31" s="3">
-        <v>0.004105118782622913</v>
+        <v>0.01004476526676757</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2864,46 +2870,46 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D32" s="1">
-        <v>18762434.60194286</v>
+        <v>7803367.186148573</v>
       </c>
       <c r="E32" s="2">
-        <v>1.101863091625906</v>
+        <v>0.9294085439836458</v>
       </c>
       <c r="F32" s="3">
-        <v>-0.04909560723514216</v>
+        <v>0.0202774813233725</v>
       </c>
       <c r="G32" s="3">
-        <v>-0.1859911320772947</v>
+        <v>0.05950113983974629</v>
       </c>
       <c r="H32" s="3">
-        <v>-0.04415584415584419</v>
+        <v>0.005962820063135742</v>
       </c>
       <c r="I32" s="3">
-        <v>-0.03640584349741897</v>
+        <v>-0.001867959899486356</v>
       </c>
       <c r="J32" s="3">
-        <v>-0.03412073490813651</v>
+        <v>0.02318943988583665</v>
       </c>
       <c r="K32" s="3">
-        <v>-0.0001961705532408994</v>
+        <v>0.00211840707934426</v>
       </c>
       <c r="L32" s="3">
-        <v>0.01265822784810125</v>
+        <v>0.01846590909090908</v>
       </c>
       <c r="M32" s="3">
-        <v>0.03130141345080041</v>
+        <v>0.01310881022516943</v>
       </c>
       <c r="N32" s="3">
-        <v>0.04903078677309006</v>
+        <v>0.1018056089127929</v>
       </c>
       <c r="O32" s="3">
-        <v>0.02596491608390116</v>
+        <v>0.02259613861403974</v>
       </c>
       <c r="P32" s="3">
-        <v>0.01555262144877976</v>
+        <v>0.03630497503245786</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2914,46 +2920,46 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D33" s="1">
-        <v>22023177.20274286</v>
+        <v>18880401.68619429</v>
       </c>
       <c r="E33" s="2">
-        <v>1.291231193124882</v>
+        <v>1.049964065864838</v>
       </c>
       <c r="F33" s="3">
-        <v>-0.04182350480970309</v>
+        <v>0.01189189189189193</v>
       </c>
       <c r="G33" s="3">
-        <v>-0.1077847596139701</v>
+        <v>0.0124775817798105</v>
       </c>
       <c r="H33" s="3">
-        <v>-0.03005927180355638</v>
+        <v>-0.02499999999999999</v>
       </c>
       <c r="I33" s="3">
-        <v>-0.003395789052922557</v>
+        <v>-0.04452873325251473</v>
       </c>
       <c r="J33" s="3">
-        <v>-0.04061976549413734</v>
+        <v>-0.01369863013698626</v>
       </c>
       <c r="K33" s="3">
-        <v>-0.007651420671888136</v>
+        <v>-0.03805526314874757</v>
       </c>
       <c r="L33" s="3">
-        <v>-0.00423774856025206</v>
+        <v>0.05286839145106857</v>
       </c>
       <c r="M33" s="3">
-        <v>0.0005866703616207384</v>
+        <v>0.02320727753403232</v>
       </c>
       <c r="N33" s="3">
-        <v>-0.1683455848988112</v>
+        <v>0.1076923076923076</v>
       </c>
       <c r="O33" s="3">
-        <v>-7.822842449489682E-05</v>
+        <v>0.02721169683232129</v>
       </c>
       <c r="P33" s="3">
-        <v>-0.05771809014292911</v>
+        <v>0.01784242965692141</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2964,46 +2970,46 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D34" s="1">
-        <v>106465095.4605</v>
+        <v>21011468.54685714</v>
       </c>
       <c r="E34" s="2">
-        <v>2.246649018502619</v>
+        <v>1.203690682808029</v>
       </c>
       <c r="F34" s="3">
-        <v>-0.0316666666666667</v>
+        <v>0.004022176323513513</v>
       </c>
       <c r="G34" s="3">
-        <v>-0.0139178670052209</v>
+        <v>0.001133915801048834</v>
       </c>
       <c r="H34" s="3">
-        <v>-0.02188552188552191</v>
+        <v>-0.03166282239463195</v>
       </c>
       <c r="I34" s="3">
-        <v>0.03224067025674591</v>
+        <v>-0.05004666178384885</v>
       </c>
       <c r="J34" s="3">
-        <v>-0.02023608768971334</v>
+        <v>-0.01229814993048874</v>
       </c>
       <c r="K34" s="3">
-        <v>0.00159505848357029</v>
+        <v>-0.01834188698117378</v>
       </c>
       <c r="L34" s="3">
-        <v>0.1130268199233715</v>
+        <v>-0.01796916533758625</v>
       </c>
       <c r="M34" s="3">
-        <v>-0.01278307769052572</v>
+        <v>0.001212445685796564</v>
       </c>
       <c r="N34" s="3">
-        <v>0.2467811158798282</v>
+        <v>-0.02419440042260953</v>
       </c>
       <c r="O34" s="3">
-        <v>0.06846336377404084</v>
+        <v>0.0003158518088038192</v>
       </c>
       <c r="P34" s="3">
-        <v>-0.005594009603477713</v>
+        <v>-0.008603985590062471</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3014,46 +3020,46 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D35" s="1">
-        <v>32458818.49335714</v>
+        <v>131937357.6274286</v>
       </c>
       <c r="E35" s="2">
-        <v>1.155405986049849</v>
+        <v>1.84215011929379</v>
       </c>
       <c r="F35" s="3">
-        <v>-0.01388337961126536</v>
+        <v>0.2117039586919105</v>
       </c>
       <c r="G35" s="3">
-        <v>-0.005212817573324407</v>
+        <v>0.8094405679319433</v>
       </c>
       <c r="H35" s="3">
-        <v>-0.01622477245745946</v>
+        <v>0.1792294807370184</v>
       </c>
       <c r="I35" s="3">
-        <v>0.0004557542080098907</v>
+        <v>0.2901967922708896</v>
       </c>
       <c r="J35" s="3">
-        <v>-0.01661392405063292</v>
+        <v>0.2034188034188034</v>
       </c>
       <c r="K35" s="3">
-        <v>-0.006739351147246613</v>
+        <v>0.1743691654171459</v>
       </c>
       <c r="L35" s="3">
-        <v>-0.005997600959616186</v>
+        <v>0.0507462686567163</v>
       </c>
       <c r="M35" s="3">
-        <v>6.63419381712652E-06</v>
+        <v>-1.044668564859622E-05</v>
       </c>
       <c r="N35" s="3">
-        <v>-0.1025270758122743</v>
+        <v>0.6109839816933638</v>
       </c>
       <c r="O35" s="3">
-        <v>-0.0002905245308332151</v>
+        <v>0.06987142096132967</v>
       </c>
       <c r="P35" s="3">
-        <v>-0.005976084360285509</v>
+        <v>0.3926765735552549</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3064,46 +3070,46 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D36" s="1">
-        <v>3148553.403561429</v>
+        <v>32748148.41797143</v>
       </c>
       <c r="E36" s="2">
-        <v>0.7434157979799096</v>
+        <v>1.107550715398125</v>
       </c>
       <c r="F36" s="3">
-        <v>-0.02489068281197447</v>
+        <v>0.01168883514711818</v>
       </c>
       <c r="G36" s="3">
-        <v>-0.03548276112906926</v>
+        <v>3.878865551720793E-05</v>
       </c>
       <c r="H36" s="3">
-        <v>-0.01192910702113167</v>
+        <v>-0.01219992129083029</v>
       </c>
       <c r="I36" s="3">
-        <v>0.002236549290988953</v>
+        <v>-0.02209582627335468</v>
       </c>
       <c r="J36" s="3">
-        <v>-0.01961447412918501</v>
+        <v>-0.008688783570300078</v>
       </c>
       <c r="K36" s="3">
-        <v>4.182482810609784E-05</v>
+        <v>-0.002388066872533759</v>
       </c>
       <c r="L36" s="3">
-        <v>0.0003450655624568528</v>
+        <v>-0.03312788906009244</v>
       </c>
       <c r="M36" s="3">
-        <v>0.004908652494656171</v>
+        <v>8.250287018815803E-06</v>
       </c>
       <c r="N36" s="3">
-        <v>-0.05631510416666674</v>
+        <v>-0.02713178294573641</v>
       </c>
       <c r="O36" s="3">
-        <v>1.744699991348299E-05</v>
+        <v>2.329460788520638E-07</v>
       </c>
       <c r="P36" s="3">
-        <v>-0.01772046815048158</v>
+        <v>-0.001189908292757471</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3114,46 +3120,46 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D37" s="1">
-        <v>180698320.9282286</v>
+        <v>3090028.228571428</v>
       </c>
       <c r="E37" s="2">
-        <v>1.700581185009237</v>
+        <v>0.7266133119563333</v>
       </c>
       <c r="F37" s="3">
-        <v>-0.06583072100313474</v>
+        <v>0.004801097393690029</v>
       </c>
       <c r="G37" s="3">
-        <v>-0.098689480512595</v>
+        <v>0.002369903924221998</v>
       </c>
       <c r="H37" s="3">
-        <v>-0.05446853516657852</v>
+        <v>-0.009465855307640264</v>
       </c>
       <c r="I37" s="3">
-        <v>-0.02509190837773834</v>
+        <v>-0.01742050161985994</v>
       </c>
       <c r="J37" s="3">
-        <v>0.02640642939150404</v>
+        <v>0.005145797598627816</v>
       </c>
       <c r="K37" s="3">
-        <v>0.03061278008812284</v>
+        <v>-2.454721198613322E-06</v>
       </c>
       <c r="L37" s="3">
-        <v>0.02699597932222856</v>
+        <v>-0.003740224413464774</v>
       </c>
       <c r="M37" s="3">
-        <v>0.02374508645318662</v>
+        <v>0.01079505289074162</v>
       </c>
       <c r="N37" s="3">
-        <v>-0.1493815413891531</v>
+        <v>0.02483385799230496</v>
       </c>
       <c r="O37" s="3">
-        <v>-0.0022815171659914</v>
+        <v>0.002089234082682829</v>
       </c>
       <c r="P37" s="3">
-        <v>-0.0374721970297042</v>
+        <v>0.006582478407481808</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3164,46 +3170,46 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D38" s="1">
-        <v>20029620.951</v>
+        <v>182360386.2777143</v>
       </c>
       <c r="E38" s="2">
-        <v>1.672994593748834</v>
+        <v>1.607709993898257</v>
       </c>
       <c r="F38" s="3">
-        <v>-0.04865771812080537</v>
+        <v>0.02222222222222224</v>
       </c>
       <c r="G38" s="3">
-        <v>-0.06650298363173679</v>
+        <v>0.02978464686229345</v>
       </c>
       <c r="H38" s="3">
-        <v>0.001766784452296871</v>
+        <v>-0.03513371788148922</v>
       </c>
       <c r="I38" s="3">
-        <v>0.02748752337159031</v>
+        <v>-0.02644996056986731</v>
       </c>
       <c r="J38" s="3">
-        <v>-0.01562499999999997</v>
+        <v>-0.002169197396963125</v>
       </c>
       <c r="K38" s="3">
-        <v>0.02195097922125839</v>
+        <v>-0.02252386180306349</v>
       </c>
       <c r="L38" s="3">
-        <v>0.03561643835616439</v>
+        <v>0.02108768035516095</v>
       </c>
       <c r="M38" s="3">
-        <v>0.03166501953522467</v>
+        <v>0.05310522831423148</v>
       </c>
       <c r="N38" s="3">
-        <v>0.111764705882353</v>
+        <v>0.001633097441480737</v>
       </c>
       <c r="O38" s="3">
-        <v>0.0370354925897429</v>
+        <v>-0.0001716843116203534</v>
       </c>
       <c r="P38" s="3">
-        <v>0.02680799937824153</v>
+        <v>0.01570887215188709</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3214,46 +3220,46 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D39" s="1">
-        <v>605941118.2067144</v>
+        <v>19866560.8843</v>
       </c>
       <c r="E39" s="2">
-        <v>2.552994274978136</v>
+        <v>1.530474084756106</v>
       </c>
       <c r="F39" s="3">
-        <v>0.01593733117233932</v>
+        <v>0.03863037752414399</v>
       </c>
       <c r="G39" s="3">
-        <v>0.06822654499451257</v>
+        <v>0.06248626920316993</v>
       </c>
       <c r="H39" s="3">
-        <v>-0.06767476450173518</v>
+        <v>-0.01169590643274853</v>
       </c>
       <c r="I39" s="3">
-        <v>-0.01447048267118659</v>
+        <v>-0.00373172931822519</v>
       </c>
       <c r="J39" s="3">
-        <v>-0.02715985514743921</v>
+        <v>0.05062166962699819</v>
       </c>
       <c r="K39" s="3">
-        <v>-0.02269898771470107</v>
+        <v>0.0116938539963506</v>
       </c>
       <c r="L39" s="3">
-        <v>0.3289752650176678</v>
+        <v>0.04505300353356897</v>
       </c>
       <c r="M39" s="3">
-        <v>0.1598672319121675</v>
+        <v>0.04331991516748425</v>
       </c>
       <c r="N39" s="3">
-        <v>0.2858119658119659</v>
+        <v>0.2022357723577236</v>
       </c>
       <c r="O39" s="3">
-        <v>0.1133517301430513</v>
+        <v>0.04283832999059412</v>
       </c>
       <c r="P39" s="3">
-        <v>0.11404688845334</v>
+        <v>0.05290309218532709</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3264,46 +3270,46 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D40" s="1">
-        <v>26143509.03217143</v>
+        <v>588724551.7360001</v>
       </c>
       <c r="E40" s="2">
-        <v>1.296481051867801</v>
+        <v>2.477213920374881</v>
       </c>
       <c r="F40" s="3">
-        <v>-0.01636661211129298</v>
+        <v>0.03013182674199626</v>
       </c>
       <c r="G40" s="3">
-        <v>0.00236395076750752</v>
+        <v>-0.003901763718318246</v>
       </c>
       <c r="H40" s="3">
-        <v>-0.0187755102040816</v>
+        <v>0.007101525512887989</v>
       </c>
       <c r="I40" s="3">
-        <v>-4.859130866105942E-05</v>
+        <v>0.003660425407134924</v>
       </c>
       <c r="J40" s="3">
-        <v>0.003757828810020927</v>
+        <v>-0.04442226104317432</v>
       </c>
       <c r="K40" s="3">
-        <v>0.02061692487159406</v>
+        <v>-0.003424699777195403</v>
       </c>
       <c r="L40" s="3">
-        <v>0.0304329189884269</v>
+        <v>0.2090306283549101</v>
       </c>
       <c r="M40" s="3">
-        <v>0.01762874956351464</v>
+        <v>0.1390471003008468</v>
       </c>
       <c r="N40" s="3">
-        <v>-0.08488770460601441</v>
+        <v>0.5987473903966598</v>
       </c>
       <c r="O40" s="3">
-        <v>-2.489725900683519E-05</v>
+        <v>0.1394489137903899</v>
       </c>
       <c r="P40" s="3">
-        <v>0.00999635016551108</v>
+        <v>0.06781120026182569</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3314,46 +3320,46 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1">
-        <v>8048521.732114286</v>
+        <v>26792371.0287</v>
       </c>
       <c r="E41" s="2">
-        <v>1.154688849848643</v>
+        <v>1.290369573254617</v>
       </c>
       <c r="F41" s="3">
-        <v>-0.03011677934849425</v>
+        <v>0.0008267879288962618</v>
       </c>
       <c r="G41" s="3">
-        <v>-0.08481323346717429</v>
+        <v>-0.004828620039197951</v>
       </c>
       <c r="H41" s="3">
-        <v>-0.01620947630922688</v>
+        <v>-0.001649484536082407</v>
       </c>
       <c r="I41" s="3">
-        <v>4.17905140383008E-05</v>
+        <v>-0.0003924527341232583</v>
       </c>
       <c r="J41" s="3">
-        <v>-0.01313320825515942</v>
+        <v>0.01339472582670577</v>
       </c>
       <c r="K41" s="3">
-        <v>0.01031455100642854</v>
+        <v>-0.0002838969568656688</v>
       </c>
       <c r="L41" s="3">
-        <v>0.02935420743639924</v>
+        <v>0.01339472582670577</v>
       </c>
       <c r="M41" s="3">
-        <v>0.01915556523450902</v>
+        <v>0.02918286756595753</v>
       </c>
       <c r="N41" s="3">
-        <v>0.03204708960104635</v>
+        <v>0.01851072780816161</v>
       </c>
       <c r="O41" s="3">
-        <v>0.01702069534965302</v>
+        <v>0.000416619909525091</v>
       </c>
       <c r="P41" s="3">
-        <v>0.01473505812046878</v>
+        <v>0.009113415425647971</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3364,46 +3370,46 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D42" s="1">
-        <v>7070089.295751429</v>
+        <v>8545585.861942858</v>
       </c>
       <c r="E42" s="2">
-        <v>1.012352342953669</v>
+        <v>1.099038674438511</v>
       </c>
       <c r="F42" s="3">
-        <v>-0.0208777162334896</v>
+        <v>0.0384373030875866</v>
       </c>
       <c r="G42" s="3">
-        <v>-0.01845211207528564</v>
+        <v>0.08358055059299779</v>
       </c>
       <c r="H42" s="3">
-        <v>0.003055434308162402</v>
+        <v>0.004878048780487775</v>
       </c>
       <c r="I42" s="3">
-        <v>0.01470923129547357</v>
+        <v>4.220042378187016E-05</v>
       </c>
       <c r="J42" s="3">
-        <v>-0.006055363321799361</v>
+        <v>0.04040404040404033</v>
       </c>
       <c r="K42" s="3">
-        <v>0.01747856092105964</v>
+        <v>0.00290419862730908</v>
       </c>
       <c r="L42" s="3">
-        <v>0.03188145487202509</v>
+        <v>0.02935665209244229</v>
       </c>
       <c r="M42" s="3">
-        <v>0.02322580338765541</v>
+        <v>0.04087186647937665</v>
       </c>
       <c r="N42" s="3">
-        <v>-0.08006405124099274</v>
+        <v>0.1540616246498599</v>
       </c>
       <c r="O42" s="3">
-        <v>-0.0009537838593660045</v>
+        <v>0.02286175637447278</v>
       </c>
       <c r="P42" s="3">
-        <v>-0.0004867755771129981</v>
+        <v>0.06222620853618722</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3414,46 +3420,46 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D43" s="1">
-        <v>5126852.9989</v>
+        <v>6831462.471978571</v>
       </c>
       <c r="E43" s="2">
-        <v>0.3956999117153427</v>
+        <v>0.9921310913088488</v>
       </c>
       <c r="F43" s="3">
-        <v>0.01943967981703827</v>
+        <v>0.02115716753022456</v>
       </c>
       <c r="G43" s="3">
-        <v>0.03304888177441379</v>
+        <v>0.07179442700922029</v>
       </c>
       <c r="H43" s="3">
-        <v>0.01628531878511522</v>
+        <v>0.008959044368600762</v>
       </c>
       <c r="I43" s="3">
-        <v>0.0003799274687188227</v>
+        <v>0.003172200437271013</v>
       </c>
       <c r="J43" s="3">
-        <v>0.01603712145880806</v>
+        <v>0.03410581547879316</v>
       </c>
       <c r="K43" s="3">
-        <v>7.368530024070554E-05</v>
+        <v>0.02073140581224229</v>
       </c>
       <c r="L43" s="3">
-        <v>0.01777705292342816</v>
+        <v>0.03956043956043963</v>
       </c>
       <c r="M43" s="3">
-        <v>2.778127196358457E-07</v>
+        <v>0.03952809540766147</v>
       </c>
       <c r="N43" s="3">
-        <v>-0.01429474016743021</v>
+        <v>0.02960383108402264</v>
       </c>
       <c r="O43" s="3">
-        <v>-0.01349977266819541</v>
+        <v>-1.508714371491715E-05</v>
       </c>
       <c r="P43" s="3">
-        <v>3.69815564801707E-05</v>
+        <v>0.03456596324584205</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3464,46 +3470,46 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D44" s="1">
-        <v>18223857.60107142</v>
+        <v>4973374.586399999</v>
       </c>
       <c r="E44" s="2">
-        <v>1.628590207797719</v>
+        <v>0.3954056904810453</v>
       </c>
       <c r="F44" s="3">
-        <v>-0.02057390362750408</v>
+        <v>-0.008740277443669203</v>
       </c>
       <c r="G44" s="3">
-        <v>-0.0795600671405393</v>
+        <v>-0.007087133323983538</v>
       </c>
       <c r="H44" s="3">
-        <v>-0.03210272873194225</v>
+        <v>0.008978126020241593</v>
       </c>
       <c r="I44" s="3">
-        <v>0.001646688625873806</v>
+        <v>0.01906428584787172</v>
       </c>
       <c r="J44" s="3">
-        <v>-0.01147540983606564</v>
+        <v>0.005694760820045558</v>
       </c>
       <c r="K44" s="3">
-        <v>-0.0007492358531166223</v>
+        <v>0.00686969515133359</v>
       </c>
       <c r="L44" s="3">
-        <v>0.09569957601453659</v>
+        <v>0.01510921333552315</v>
       </c>
       <c r="M44" s="3">
-        <v>0.05299415383981613</v>
+        <v>-1.606704670547484E-07</v>
       </c>
       <c r="N44" s="3">
-        <v>0.06224310041103927</v>
+        <v>-0.05698375162102375</v>
       </c>
       <c r="O44" s="3">
-        <v>0.03743086694819838</v>
+        <v>-0.01066358002869404</v>
       </c>
       <c r="P44" s="3">
-        <v>0.02612245899334975</v>
+        <v>-0.003543646997225296</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3514,46 +3520,46 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D45" s="1">
-        <v>10525341.65927143</v>
+        <v>17796364.0272</v>
       </c>
       <c r="E45" s="2">
-        <v>1.159026367728291</v>
+        <v>1.624568448681423</v>
       </c>
       <c r="F45" s="3">
-        <v>-0.04636091724825524</v>
+        <v>0.004454342984409804</v>
       </c>
       <c r="G45" s="3">
-        <v>-0.08134395087851948</v>
+        <v>-0.03441002237367832</v>
       </c>
       <c r="H45" s="3">
-        <v>-0.00829445308449969</v>
+        <v>-0.03529411764705885</v>
       </c>
       <c r="I45" s="3">
-        <v>0.005450688458135443</v>
+        <v>-0.06631435539257842</v>
       </c>
       <c r="J45" s="3">
-        <v>-0.02198364008179958</v>
+        <v>-0.02906350914962328</v>
       </c>
       <c r="K45" s="3">
-        <v>0.003561157767943463</v>
+        <v>-0.002951459938381377</v>
       </c>
       <c r="L45" s="3">
-        <v>0.03126684636118598</v>
+        <v>0.05992949471210346</v>
       </c>
       <c r="M45" s="3">
-        <v>0.01984377154581972</v>
+        <v>0.03245248457727977</v>
       </c>
       <c r="N45" s="3">
-        <v>0.05341409691629948</v>
+        <v>0.1646223369916076</v>
       </c>
       <c r="O45" s="3">
-        <v>0.01617196397886505</v>
+        <v>0.04376211937566395</v>
       </c>
       <c r="P45" s="3">
-        <v>0.01170246465688159</v>
+        <v>0.0147505123194492</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3564,46 +3570,46 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D46" s="1">
-        <v>112817189.7724345</v>
+        <v>10588965.06514286</v>
       </c>
       <c r="E46" s="2">
-        <v>0.9889784218317568</v>
+        <v>1.131309574031884</v>
       </c>
       <c r="F46" s="3">
-        <v>-0.01595630756050563</v>
+        <v>0.003659174072138035</v>
       </c>
       <c r="G46" s="3">
-        <v>-0.001908498183963129</v>
+        <v>-0.0006451608263139393</v>
       </c>
       <c r="H46" s="3">
-        <v>-0.007560211685927273</v>
+        <v>-0.01437371663244352</v>
       </c>
       <c r="I46" s="3">
-        <v>0.008538041080678294</v>
+        <v>-0.06113698860794944</v>
       </c>
       <c r="J46" s="3">
-        <v>-0.009806034482758708</v>
+        <v>0.007874015748031503</v>
       </c>
       <c r="K46" s="3">
-        <v>0.004791883352605771</v>
+        <v>-0.0007565432839068828</v>
       </c>
       <c r="L46" s="3">
-        <v>0.01930116472545744</v>
+        <v>0.01372756071805697</v>
       </c>
       <c r="M46" s="3">
-        <v>0.000676225559650598</v>
+        <v>0.02216979234705968</v>
       </c>
       <c r="N46" s="3">
-        <v>-0.002171788467803336</v>
+        <v>0.1034482758620691</v>
       </c>
       <c r="O46" s="3">
-        <v>0.009482582472579727</v>
+        <v>0.01635530099022502</v>
       </c>
       <c r="P46" s="3">
-        <v>-0.0006161363121562652</v>
+        <v>0.01076231576037287</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3614,46 +3620,46 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D47" s="1">
-        <v>3897672.790345714</v>
+        <v>101013545.9004754</v>
       </c>
       <c r="E47" s="2">
-        <v>1.09188872959841</v>
+        <v>0.9033300540439431</v>
       </c>
       <c r="F47" s="3">
-        <v>-0.03802281368821281</v>
+        <v>0.0130548302872063</v>
       </c>
       <c r="G47" s="3">
-        <v>-0.02845412800368882</v>
+        <v>0.002267591334937249</v>
       </c>
       <c r="H47" s="3">
-        <v>-0.02941176470588237</v>
+        <v>-0.0002147305132057688</v>
       </c>
       <c r="I47" s="3">
-        <v>-1.887803924151546E-07</v>
+        <v>-0.000936396027358935</v>
       </c>
       <c r="J47" s="3">
-        <v>-0.01171874999999997</v>
+        <v>0.01327529923830257</v>
       </c>
       <c r="K47" s="3">
-        <v>0.008386239902802448</v>
+        <v>0.002848121134841188</v>
       </c>
       <c r="L47" s="3">
-        <v>0.02706359945872808</v>
+        <v>-0.02164320235343555</v>
       </c>
       <c r="M47" s="3">
-        <v>0.01439316811157617</v>
+        <v>0.007098069713866957</v>
       </c>
       <c r="N47" s="3">
-        <v>0.05710306406685246</v>
+        <v>0.06071306526939292</v>
       </c>
       <c r="O47" s="3">
-        <v>0.03208008848914883</v>
+        <v>0.01329619793274945</v>
       </c>
       <c r="P47" s="3">
-        <v>0.01138970400718931</v>
+        <v>0.004973095424354072</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3664,46 +3670,46 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D48" s="1">
-        <v>30183202.92754286</v>
+        <v>4009023.571462857</v>
       </c>
       <c r="E48" s="2">
-        <v>1.306946406780676</v>
+        <v>1.077096030039496</v>
       </c>
       <c r="F48" s="3">
-        <v>0.01198026779422137</v>
+        <v>0.002617801047120426</v>
       </c>
       <c r="G48" s="3">
-        <v>0.02880065394726133</v>
+        <v>-0.001075716330694134</v>
       </c>
       <c r="H48" s="3">
-        <v>0.02036949313121742</v>
+        <v>-0.01794871794871788</v>
       </c>
       <c r="I48" s="3">
-        <v>0.126949986924187</v>
+        <v>-0.02391185193267073</v>
       </c>
       <c r="J48" s="3">
-        <v>0.04183796856106415</v>
+        <v>-0.009055627425614457</v>
       </c>
       <c r="K48" s="3">
-        <v>0.04101034194329187</v>
+        <v>-0.00333614242720822</v>
       </c>
       <c r="L48" s="3">
-        <v>0.08445563247325354</v>
+        <v>-0.00648508430609594</v>
       </c>
       <c r="M48" s="3">
-        <v>0.03585199879914951</v>
+        <v>0.02342440211547422</v>
       </c>
       <c r="N48" s="3">
-        <v>0.09506863243518049</v>
+        <v>0.1415797317436662</v>
       </c>
       <c r="O48" s="3">
-        <v>0.02490259022992644</v>
+        <v>0.03200191989130791</v>
       </c>
       <c r="P48" s="3">
-        <v>0.03843117037122069</v>
+        <v>0.01117434289239004</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3714,46 +3720,46 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D49" s="1">
-        <v>8551334.115085714</v>
+        <v>31533669.06500572</v>
       </c>
       <c r="E49" s="2">
-        <v>1.151293599489778</v>
+        <v>1.334920557902572</v>
       </c>
       <c r="F49" s="3">
-        <v>-0.03587856485740571</v>
+        <v>-0.01336898395721923</v>
       </c>
       <c r="G49" s="3">
-        <v>-0.0551160319717352</v>
+        <v>-0.0459182653186684</v>
       </c>
       <c r="H49" s="3">
-        <v>-0.01503759398496231</v>
+        <v>0.01774793140664343</v>
       </c>
       <c r="I49" s="3">
-        <v>0.0008668239096346484</v>
+        <v>-0.003961537571799107</v>
       </c>
       <c r="J49" s="3">
-        <v>-0.01596244131455393</v>
+        <v>0.004735409020954156</v>
       </c>
       <c r="K49" s="3">
-        <v>0.006137221598249434</v>
+        <v>0.01098790637485514</v>
       </c>
       <c r="L49" s="3">
-        <v>0.009633911368015422</v>
+        <v>0.03487379587855141</v>
       </c>
       <c r="M49" s="3">
-        <v>0.01442755429131614</v>
+        <v>0.05040266402206579</v>
       </c>
       <c r="N49" s="3">
-        <v>0.005758157389635348</v>
+        <v>0.1362966929977238</v>
       </c>
       <c r="O49" s="3">
-        <v>0.01557584241338471</v>
+        <v>0.03107976918513564</v>
       </c>
       <c r="P49" s="3">
-        <v>0.005947689493942391</v>
+        <v>0.03069528519846047</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3764,46 +3770,46 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D50" s="1">
-        <v>7457000.52257143</v>
+        <v>8123780.684971428</v>
       </c>
       <c r="E50" s="2">
-        <v>1.044486202505809</v>
+        <v>1.086457174096653</v>
       </c>
       <c r="F50" s="3">
-        <v>-0.03892788768347157</v>
+        <v>0.003816793893129748</v>
       </c>
       <c r="G50" s="3">
-        <v>-0.08357972710745085</v>
+        <v>-0.003115588134708343</v>
       </c>
       <c r="H50" s="3">
-        <v>-0.01194069019813672</v>
+        <v>-0.01865671641791046</v>
       </c>
       <c r="I50" s="3">
-        <v>0.0171485758850893</v>
+        <v>-0.06051842054601949</v>
       </c>
       <c r="J50" s="3">
-        <v>-0.0128474042999476</v>
+        <v>-0.004730368968779569</v>
       </c>
       <c r="K50" s="3">
-        <v>0.003217286371154306</v>
+        <v>-0.004384832786933973</v>
       </c>
       <c r="L50" s="3">
-        <v>-0.01232948583420772</v>
+        <v>-0.006610009442870561</v>
       </c>
       <c r="M50" s="3">
-        <v>0.004461668482617391</v>
+        <v>0.0207672880212821</v>
       </c>
       <c r="N50" s="3">
-        <v>0.04510756419153362</v>
+        <v>0.07237512742099893</v>
       </c>
       <c r="O50" s="3">
-        <v>0.01828833758653964</v>
+        <v>0.0213706238862608</v>
       </c>
       <c r="P50" s="3">
-        <v>0.003839477426885849</v>
+        <v>0.008825849943286879</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3814,46 +3820,46 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D51" s="1">
-        <v>8688524.93465857</v>
+        <v>6857228.446085715</v>
       </c>
       <c r="E51" s="2">
-        <v>0.9073983391138009</v>
+        <v>0.9793039545386715</v>
       </c>
       <c r="F51" s="3">
-        <v>-0.02532391048292112</v>
+        <v>0.01302498670919728</v>
       </c>
       <c r="G51" s="3">
-        <v>-0.02060723027831256</v>
+        <v>-0.0003367087606483325</v>
       </c>
       <c r="H51" s="3">
-        <v>0.00853138330286405</v>
+        <v>-0.00768129149850282</v>
       </c>
       <c r="I51" s="3">
-        <v>0.0398769537023974</v>
+        <v>-0.03529853136957659</v>
       </c>
       <c r="J51" s="3">
-        <v>-0.005408653846153783</v>
+        <v>0.006470355209296204</v>
       </c>
       <c r="K51" s="3">
-        <v>0.01995512476422138</v>
+        <v>0.0002468859986061995</v>
       </c>
       <c r="L51" s="3">
-        <v>0.01533742331288348</v>
+        <v>-0.01295001295001296</v>
       </c>
       <c r="M51" s="3">
-        <v>0.009763204803570066</v>
+        <v>0.02359569746162228</v>
       </c>
       <c r="N51" s="3">
-        <v>0.03566958698372965</v>
+        <v>0.1223678397879546</v>
       </c>
       <c r="O51" s="3">
-        <v>0.01181184767376384</v>
+        <v>0.01857129478816041</v>
       </c>
       <c r="P51" s="3">
-        <v>0.01485916478389572</v>
+        <v>0.01192129173011424</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3864,46 +3870,46 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D52" s="1">
-        <v>6776758.803282856</v>
+        <v>8681177.343397714</v>
       </c>
       <c r="E52" s="2">
-        <v>1.107405251946426</v>
+        <v>0.8731152185722415</v>
       </c>
       <c r="F52" s="3">
-        <v>-0.04070231444533121</v>
+        <v>0.0199034981905911</v>
       </c>
       <c r="G52" s="3">
-        <v>-0.1135316367583517</v>
+        <v>0.05727708374824002</v>
       </c>
       <c r="H52" s="3">
-        <v>-0.013136288998358</v>
+        <v>0.01257485029940118</v>
       </c>
       <c r="I52" s="3">
-        <v>0.004035065019046085</v>
+        <v>-2.798465342373256E-05</v>
       </c>
       <c r="J52" s="3">
-        <v>-0.01717089125102209</v>
+        <v>0.03742331288343563</v>
       </c>
       <c r="K52" s="3">
-        <v>0.008117166095824116</v>
+        <v>0.02070428879640812</v>
       </c>
       <c r="L52" s="3">
-        <v>0.01093355761143818</v>
+        <v>0.02671523982999392</v>
       </c>
       <c r="M52" s="3">
-        <v>0.004789940804066033</v>
+        <v>0.0322145898294447</v>
       </c>
       <c r="N52" s="3">
-        <v>0.0488656195462478</v>
+        <v>0.1117685733070349</v>
       </c>
       <c r="O52" s="3">
-        <v>0.01985934594442037</v>
+        <v>0.01398330491757299</v>
       </c>
       <c r="P52" s="3">
-        <v>0.006453553449945075</v>
+        <v>0.04474583678884236</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3914,46 +3920,46 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D53" s="1">
-        <v>7747552.596938571</v>
+        <v>7289231.647554286</v>
       </c>
       <c r="E53" s="2">
-        <v>0.988646061887688</v>
+        <v>1.087468780067834</v>
       </c>
       <c r="F53" s="3">
-        <v>-0.0342465753424657</v>
+        <v>0.003322259136212633</v>
       </c>
       <c r="G53" s="3">
-        <v>-0.02681695537630548</v>
+        <v>-0.01226177698078167</v>
       </c>
       <c r="H53" s="3">
-        <v>-0.01260504201680672</v>
+        <v>-0.02423263327948303</v>
       </c>
       <c r="I53" s="3">
-        <v>0.002240841740212994</v>
+        <v>-0.08793961146438908</v>
       </c>
       <c r="J53" s="3">
-        <v>-0.005641748942172058</v>
+        <v>0.004991680532446009</v>
       </c>
       <c r="K53" s="3">
-        <v>0.01216378139882233</v>
+        <v>-0.003353639427086946</v>
       </c>
       <c r="L53" s="3">
-        <v>0.02322206095790995</v>
+        <v>-0.0186839967506092</v>
       </c>
       <c r="M53" s="3">
-        <v>0.02295675033406358</v>
+        <v>0.00778629881989159</v>
       </c>
       <c r="N53" s="3">
-        <v>0.01147776183644186</v>
+        <v>0.1092745638200184</v>
       </c>
       <c r="O53" s="3">
-        <v>0.01552548816147088</v>
+        <v>0.01666754156422752</v>
       </c>
       <c r="P53" s="3">
-        <v>0.0118207716176321</v>
+        <v>0.002216329696402322</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3964,46 +3970,46 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D54" s="1">
-        <v>11196205.32202</v>
+        <v>7717074.065842714</v>
       </c>
       <c r="E54" s="2">
-        <v>1.190828542416486</v>
+        <v>0.9434453442503155</v>
       </c>
       <c r="F54" s="3">
-        <v>-0.03818181818181805</v>
+        <v>0.01841359773371103</v>
       </c>
       <c r="G54" s="3">
-        <v>-0.1017668839472541</v>
+        <v>0.003121391990473683</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>-0.00827586206896542</v>
       </c>
       <c r="I54" s="3">
-        <v>0.01495241471290533</v>
+        <v>-0.0161165492271354</v>
       </c>
       <c r="J54" s="3">
-        <v>-0.0112149532710279</v>
+        <v>0.01553672316384188</v>
       </c>
       <c r="K54" s="3">
-        <v>0.003215709483973683</v>
+        <v>-3.394577706567041E-14</v>
       </c>
       <c r="L54" s="3">
-        <v>0.01147227533460806</v>
+        <v>0.01985815602836882</v>
       </c>
       <c r="M54" s="3">
-        <v>0.01100226847127314</v>
+        <v>0.03296622174167558</v>
       </c>
       <c r="N54" s="3">
-        <v>-0.01489757914338908</v>
+        <v>0.1010719754977029</v>
       </c>
       <c r="O54" s="3">
-        <v>0.003025028520579724</v>
+        <v>0.02400943837616376</v>
       </c>
       <c r="P54" s="3">
-        <v>-0.005840934829707697</v>
+        <v>0.01804380686607463</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4014,46 +4020,46 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D55" s="1">
-        <v>11839534.20699571</v>
+        <v>11623693.90992</v>
       </c>
       <c r="E55" s="2">
-        <v>1.253497864070042</v>
+        <v>1.199701275258622</v>
       </c>
       <c r="F55" s="3">
-        <v>-0.03220858895705524</v>
+        <v>0.01140684410646391</v>
       </c>
       <c r="G55" s="3">
-        <v>-0.009567024458823969</v>
+        <v>0.0009552475674350446</v>
       </c>
       <c r="H55" s="3">
-        <v>0.007987220447284296</v>
+        <v>0.003773584905660387</v>
       </c>
       <c r="I55" s="3">
-        <v>0.04278889317192779</v>
+        <v>-0.04768120302233117</v>
       </c>
       <c r="J55" s="3">
-        <v>0</v>
+        <v>0.01333333333333329</v>
       </c>
       <c r="K55" s="3">
-        <v>0.01517389061654069</v>
+        <v>-2.500175553708455E-05</v>
       </c>
       <c r="L55" s="3">
-        <v>0.05166666666666658</v>
+        <v>0.01720841300191201</v>
       </c>
       <c r="M55" s="3">
-        <v>0.02522954907253204</v>
+        <v>0.01503446664865316</v>
       </c>
       <c r="N55" s="3">
-        <v>0.03612479474548436</v>
+        <v>0.08350305498981665</v>
       </c>
       <c r="O55" s="3">
-        <v>0.0208969055503197</v>
+        <v>0.00672527750121717</v>
       </c>
       <c r="P55" s="3">
-        <v>0.02020171984453636</v>
+        <v>0.007994857108044101</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4064,46 +4070,46 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D56" s="1">
-        <v>8359523.803099999</v>
+        <v>12478178.94328571</v>
       </c>
       <c r="E56" s="2">
-        <v>1.003664677117433</v>
+        <v>1.217800963616527</v>
       </c>
       <c r="F56" s="3">
-        <v>-0.03666666666666668</v>
+        <v>0.02848101265822778</v>
       </c>
       <c r="G56" s="3">
-        <v>-0.08572344381637191</v>
+        <v>0.02536074027647926</v>
       </c>
       <c r="H56" s="3">
-        <v>-0.0048209366391185</v>
+        <v>0.018808777429467</v>
       </c>
       <c r="I56" s="3">
-        <v>0.007642296620152826</v>
+        <v>-0.0004212488092507104</v>
       </c>
       <c r="J56" s="3">
-        <v>-0.01027397260273978</v>
+        <v>0.05008077544426486</v>
       </c>
       <c r="K56" s="3">
-        <v>0.01992945144111094</v>
+        <v>0.01508295395504557</v>
       </c>
       <c r="L56" s="3">
-        <v>0.02627840909090901</v>
+        <v>0.0534846029173419</v>
       </c>
       <c r="M56" s="3">
-        <v>0.02206154609019929</v>
+        <v>0.02990379378256969</v>
       </c>
       <c r="N56" s="3">
-        <v>0.01403508771929816</v>
+        <v>0.1284722222222221</v>
       </c>
       <c r="O56" s="3">
-        <v>0.007812015466207311</v>
+        <v>0.03088040572172587</v>
       </c>
       <c r="P56" s="3">
-        <v>0.01698226958020455</v>
+        <v>0.02763226702952448</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4114,46 +4120,46 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D57" s="1">
-        <v>9247305.971292857</v>
+        <v>8516587.406768572</v>
       </c>
       <c r="E57" s="2">
-        <v>0.8130805170868002</v>
+        <v>0.9801427644019457</v>
       </c>
       <c r="F57" s="3">
-        <v>-0.02864743196234906</v>
+        <v>0.02006920415224916</v>
       </c>
       <c r="G57" s="3">
-        <v>-0.08246186793363408</v>
+        <v>0.04366872731080378</v>
       </c>
       <c r="H57" s="3">
-        <v>-0.03711967545638942</v>
+        <v>-0.01404682274247492</v>
       </c>
       <c r="I57" s="3">
-        <v>-0.03738856495397219</v>
+        <v>-0.02846891602389489</v>
       </c>
       <c r="J57" s="3">
-        <v>-0.05832176155524707</v>
+        <v>0.02503477051460356</v>
       </c>
       <c r="K57" s="3">
-        <v>-0.06266171943880181</v>
+        <v>1.80410627796899E-05</v>
       </c>
       <c r="L57" s="3">
-        <v>-0.03809523809523809</v>
+        <v>0.02861130495464054</v>
       </c>
       <c r="M57" s="3">
-        <v>-0.001431074527877152</v>
+        <v>0.03702170251464467</v>
       </c>
       <c r="N57" s="3">
-        <v>-0.03142215874311365</v>
+        <v>0.09917971662938103</v>
       </c>
       <c r="O57" s="3">
-        <v>0.004667407478906527</v>
+        <v>0.01082341432440722</v>
       </c>
       <c r="P57" s="3">
-        <v>-0.04704193909095773</v>
+        <v>0.04034521491272422</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4164,46 +4170,46 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D58" s="1">
-        <v>17234039.23838571</v>
+        <v>9626557.321828572</v>
       </c>
       <c r="E58" s="2">
-        <v>1.226804453309272</v>
+        <v>0.7780533123039522</v>
       </c>
       <c r="F58" s="3">
-        <v>-0.03318584070796471</v>
+        <v>0.007157894736842105</v>
       </c>
       <c r="G58" s="3">
-        <v>-0.01766568380647176</v>
+        <v>-0.0005054283960067315</v>
       </c>
       <c r="H58" s="3">
-        <v>-0.01724137931034492</v>
+        <v>-0.01725554642563682</v>
       </c>
       <c r="I58" s="3">
-        <v>-0.003088497092941667</v>
+        <v>-0.03442262736515517</v>
       </c>
       <c r="J58" s="3">
-        <v>-0.001523229246001525</v>
+        <v>-0.02067553735926299</v>
       </c>
       <c r="K58" s="3">
-        <v>0.02160119841154278</v>
+        <v>-0.03769383982436077</v>
       </c>
       <c r="L58" s="3">
-        <v>0.05132317562149144</v>
+        <v>-0.04814962196577793</v>
       </c>
       <c r="M58" s="3">
-        <v>0.04180474364715094</v>
+        <v>-0.002509032202974416</v>
       </c>
       <c r="N58" s="3">
-        <v>0.06153846153846141</v>
+        <v>0.0393221811861829</v>
       </c>
       <c r="O58" s="3">
-        <v>0.03296494381256306</v>
+        <v>0.002779336769046864</v>
       </c>
       <c r="P58" s="3">
-        <v>0.03170297102934686</v>
+        <v>-0.001507230299490574</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4214,46 +4220,46 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D59" s="1">
-        <v>36996536.3526</v>
+        <v>18074620.9401</v>
       </c>
       <c r="E59" s="2">
-        <v>0.999634397512751</v>
+        <v>1.164235933758974</v>
       </c>
       <c r="F59" s="3">
-        <v>-0.02898897939626258</v>
+        <v>0.026595744680851</v>
       </c>
       <c r="G59" s="3">
-        <v>-0.03310474242357282</v>
+        <v>0.08958367461328411</v>
       </c>
       <c r="H59" s="3">
-        <v>-0.001232134056185314</v>
+        <v>0.0007407407407406591</v>
       </c>
       <c r="I59" s="3">
-        <v>0.001668081785860171</v>
+        <v>-0.000500884578475044</v>
       </c>
       <c r="J59" s="3">
-        <v>-0.01073956553575791</v>
+        <v>0.02039274924471293</v>
       </c>
       <c r="K59" s="3">
-        <v>0.01478802731980742</v>
+        <v>-0.00102943574003277</v>
       </c>
       <c r="L59" s="3">
-        <v>0.01553495364570279</v>
+        <v>0.06127258444619016</v>
       </c>
       <c r="M59" s="3">
-        <v>0.01515623572216201</v>
+        <v>0.05874645796593737</v>
       </c>
       <c r="N59" s="3">
-        <v>-0.02922155688622752</v>
+        <v>0.1778552746294682</v>
       </c>
       <c r="O59" s="3">
-        <v>0.007517631926064112</v>
+        <v>0.04343080987803351</v>
       </c>
       <c r="P59" s="3">
-        <v>-0.00721676478321005</v>
+        <v>0.07416506628961074</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4264,46 +4270,46 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D60" s="1">
-        <v>9189927.955428571</v>
+        <v>37618898.28747143</v>
       </c>
       <c r="E60" s="2">
-        <v>0.9715222107177356</v>
+        <v>0.9718213642760614</v>
       </c>
       <c r="F60" s="3">
-        <v>-0.02356902356902354</v>
+        <v>0.004670599803343198</v>
       </c>
       <c r="G60" s="3">
-        <v>-0.03785167299921833</v>
+        <v>-7.582940418856056E-05</v>
       </c>
       <c r="H60" s="3">
-        <v>-0.0008613264427216967</v>
+        <v>-0.02644116245831348</v>
       </c>
       <c r="I60" s="3">
-        <v>0.06095694071477818</v>
+        <v>-0.04755578444368749</v>
       </c>
       <c r="J60" s="3">
-        <v>-0.0008613264427216967</v>
+        <v>0.01213472015849434</v>
       </c>
       <c r="K60" s="3">
-        <v>0.01915878239300528</v>
+        <v>-0.000480590284489759</v>
       </c>
       <c r="L60" s="3">
-        <v>0.01933216168717054</v>
+        <v>-0.001221896383186707</v>
       </c>
       <c r="M60" s="3">
-        <v>0.01659128152939473</v>
+        <v>0.02584577575258079</v>
       </c>
       <c r="N60" s="3">
-        <v>0.04504504504504508</v>
+        <v>0.06155844155844156</v>
       </c>
       <c r="O60" s="3">
-        <v>0.01454935517482271</v>
+        <v>0.01966100672502666</v>
       </c>
       <c r="P60" s="3">
-        <v>0.0178750319612</v>
+        <v>0.01288497317419611</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4314,46 +4320,46 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D61" s="1">
-        <v>9682672.048735715</v>
+        <v>9858248.057828572</v>
       </c>
       <c r="E61" s="2">
-        <v>0.9897134106700844</v>
+        <v>0.9693263451340423</v>
       </c>
       <c r="F61" s="3">
-        <v>-0.02054980947196513</v>
+        <v>0.006029285099052594</v>
       </c>
       <c r="G61" s="3">
-        <v>-0.0002595986397359109</v>
+        <v>-6.599821237908636E-05</v>
       </c>
       <c r="H61" s="3">
-        <v>-0.003047513506025737</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0.03055535241395813</v>
+        <v>-0.05392331796273385</v>
       </c>
       <c r="J61" s="3">
-        <v>-0.03783422459893047</v>
+        <v>0.01125541125541122</v>
       </c>
       <c r="K61" s="3">
-        <v>3.141106149573105E-05</v>
+        <v>0.001043889749405614</v>
       </c>
       <c r="L61" s="3">
-        <v>-0.02808912896691422</v>
+        <v>0.01653611836379459</v>
       </c>
       <c r="M61" s="3">
-        <v>5.307717411600297E-06</v>
+        <v>0.02571093320244994</v>
       </c>
       <c r="N61" s="3">
-        <v>-0.009087154068566625</v>
+        <v>0.08550185873605948</v>
       </c>
       <c r="O61" s="3">
-        <v>0.0005288607076196106</v>
+        <v>0.01749464398045584</v>
       </c>
       <c r="P61" s="3">
-        <v>-0.0001271454611621553</v>
+        <v>0.01337741147592778</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4364,46 +4370,46 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D62" s="1">
-        <v>9961056.304642858</v>
+        <v>9842776.353725713</v>
       </c>
       <c r="E62" s="2">
-        <v>0.9248622709340684</v>
+        <v>0.9622478506046306</v>
       </c>
       <c r="F62" s="3">
-        <v>-0.03273809523809514</v>
+        <v>-0.006323893318669262</v>
       </c>
       <c r="G62" s="3">
-        <v>-0.06028566345725888</v>
+        <v>-0.005850390256290139</v>
       </c>
       <c r="H62" s="3">
-        <v>-0.009146341463414684</v>
+        <v>-0.008232711306256905</v>
       </c>
       <c r="I62" s="3">
-        <v>0.007831992528442541</v>
+        <v>-0.0252911444306302</v>
       </c>
       <c r="J62" s="3">
-        <v>-0.006116207951070299</v>
+        <v>0.008511232035719261</v>
       </c>
       <c r="K62" s="3">
-        <v>0.000695075829305223</v>
+        <v>0.0001414230241269782</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>-0.02640086206896556</v>
       </c>
       <c r="M62" s="3">
-        <v>0.006887463481637467</v>
+        <v>0.001181461134947794</v>
       </c>
       <c r="N62" s="3">
-        <v>-0.01515151515151516</v>
+        <v>-0.02112676056338036</v>
       </c>
       <c r="O62" s="3">
-        <v>3.893776605315579E-05</v>
+        <v>0.0007084309572023927</v>
       </c>
       <c r="P62" s="3">
-        <v>-0.00722821966110497</v>
+        <v>-0.00285448361608158</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4414,46 +4420,46 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D63" s="1">
-        <v>53573256.18188571</v>
+        <v>10047725.68</v>
       </c>
       <c r="E63" s="2">
-        <v>1.868731089307812</v>
+        <v>0.9273543747044187</v>
       </c>
       <c r="F63" s="3">
-        <v>-0.07444421782582099</v>
+        <v>0.009230769230769282</v>
       </c>
       <c r="G63" s="3">
-        <v>-0.1405044777364253</v>
+        <v>0.0001115764271446322</v>
       </c>
       <c r="H63" s="3">
-        <v>-0.08249090173877882</v>
+        <v>-0.006060606060606023</v>
       </c>
       <c r="I63" s="3">
-        <v>-0.0198096179734527</v>
+        <v>-0.03184523431070189</v>
       </c>
       <c r="J63" s="3">
-        <v>0.0351277372262773</v>
+        <v>0.003058103975535256</v>
       </c>
       <c r="K63" s="3">
-        <v>0.05436850549630862</v>
+        <v>-2.846717338207996E-07</v>
       </c>
       <c r="L63" s="3">
-        <v>-0.01003490401396159</v>
+        <v>0.009230769230769282</v>
       </c>
       <c r="M63" s="3">
-        <v>0.000112500244448712</v>
+        <v>0.009823246989173536</v>
       </c>
       <c r="N63" s="3">
-        <v>-0.1985164252914166</v>
+        <v>0.06493506493506498</v>
       </c>
       <c r="O63" s="3">
-        <v>-0.02035041473708987</v>
+        <v>5.695892032990241E-05</v>
       </c>
       <c r="P63" s="3">
-        <v>-0.07019598874598829</v>
+        <v>0.004967411708159084</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4464,46 +4470,46 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D64" s="1">
-        <v>12275621.98624286</v>
+        <v>55895360.19085714</v>
       </c>
       <c r="E64" s="2">
-        <v>1.049569002541162</v>
+        <v>1.789328389492506</v>
       </c>
       <c r="F64" s="3">
-        <v>-0.03813747228381373</v>
+        <v>0.0325968059505578</v>
       </c>
       <c r="G64" s="3">
-        <v>-0.1077053560161368</v>
+        <v>0.1376683528136618</v>
       </c>
       <c r="H64" s="3">
-        <v>-0.01409090909090899</v>
+        <v>-0.02720527617477338</v>
       </c>
       <c r="I64" s="3">
-        <v>-0.0004411004565837853</v>
+        <v>-0.008925703964512172</v>
       </c>
       <c r="J64" s="3">
-        <v>-0.01139471285323611</v>
+        <v>0.05687416032243613</v>
       </c>
       <c r="K64" s="3">
-        <v>0.002169335018788682</v>
+        <v>-0.005115328109394095</v>
       </c>
       <c r="L64" s="3">
-        <v>-0.01453884597910029</v>
+        <v>-0.01234567901234571</v>
       </c>
       <c r="M64" s="3">
-        <v>0.001271809658063747</v>
+        <v>0.004801605784397465</v>
       </c>
       <c r="N64" s="3">
-        <v>-0.00321691176470591</v>
+        <v>-0.1043643263757117</v>
       </c>
       <c r="O64" s="3">
-        <v>0.001727177496319607</v>
+        <v>-0.009925941474352523</v>
       </c>
       <c r="P64" s="3">
-        <v>-0.0009725510533210817</v>
+        <v>-0.000156861162498315</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4514,46 +4520,46 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D65" s="1">
-        <v>31957367.95700071</v>
+        <v>12230533.33347143</v>
       </c>
       <c r="E65" s="2">
-        <v>1.220053082786058</v>
+        <v>0.9996718971640234</v>
       </c>
       <c r="F65" s="3">
-        <v>-0.05513016845329251</v>
+        <v>0.01058931860036837</v>
       </c>
       <c r="G65" s="3">
-        <v>-0.1171972262501529</v>
+        <v>0.01133017529834864</v>
       </c>
       <c r="H65" s="3">
-        <v>0</v>
+        <v>-0.02703900709219855</v>
       </c>
       <c r="I65" s="3">
-        <v>0.005983803428660949</v>
+        <v>-0.04129367060941119</v>
       </c>
       <c r="J65" s="3">
-        <v>0.011143887250082</v>
+        <v>0.006880733944954166</v>
       </c>
       <c r="K65" s="3">
-        <v>0.05558693883976181</v>
+        <v>-0.006704791589485185</v>
       </c>
       <c r="L65" s="3">
-        <v>0.04328711531958068</v>
+        <v>-0.02227171492204902</v>
       </c>
       <c r="M65" s="3">
-        <v>0.02849559920365432</v>
+        <v>0.010553876776631</v>
       </c>
       <c r="N65" s="3">
-        <v>-0.01469179175982115</v>
+        <v>0.06605148130160272</v>
       </c>
       <c r="O65" s="3">
-        <v>0.006643367014172071</v>
+        <v>0.001728247361790894</v>
       </c>
       <c r="P65" s="3">
-        <v>0.006901903721916585</v>
+        <v>0.01094202603748982</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4564,46 +4570,46 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D66" s="1">
-        <v>30210119.85815715</v>
+        <v>32172077.63727143</v>
       </c>
       <c r="E66" s="2">
-        <v>1.479759954874263</v>
+        <v>1.189987427615238</v>
       </c>
       <c r="F66" s="3">
-        <v>-0.03188967894850241</v>
+        <v>0.01585247492720802</v>
       </c>
       <c r="G66" s="3">
-        <v>-0.04992865626216941</v>
+        <v>0.01171894726678134</v>
       </c>
       <c r="H66" s="3">
-        <v>-0.04036736437419907</v>
+        <v>-0.02332814930015551</v>
       </c>
       <c r="I66" s="3">
-        <v>-0.002450112494730937</v>
+        <v>-0.04368995749924086</v>
       </c>
       <c r="J66" s="3">
-        <v>-0.05030648911435205</v>
+        <v>0.03527860204418064</v>
       </c>
       <c r="K66" s="3">
-        <v>-0.008825066687698668</v>
+        <v>2.753928329655308E-05</v>
       </c>
       <c r="L66" s="3">
-        <v>0.05767419962335218</v>
+        <v>0.02480417754569194</v>
       </c>
       <c r="M66" s="3">
-        <v>0.03495607573615511</v>
+        <v>0.04389429198284703</v>
       </c>
       <c r="N66" s="3">
-        <v>0.05148607535689226</v>
+        <v>0.07203823830658922</v>
       </c>
       <c r="O66" s="3">
-        <v>0.008505913826231889</v>
+        <v>0.0175736188981418</v>
       </c>
       <c r="P66" s="3">
-        <v>0.01306550452422822</v>
+        <v>0.02780661962481419</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4614,46 +4620,46 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D67" s="1">
-        <v>70212736.72542857</v>
+        <v>30270357.58182857</v>
       </c>
       <c r="E67" s="2">
-        <v>1.6913921344658</v>
+        <v>1.449822078156909</v>
       </c>
       <c r="F67" s="3">
-        <v>0.01686746987951809</v>
+        <v>0.02422222222222222</v>
       </c>
       <c r="G67" s="3">
-        <v>0.01465359717698706</v>
+        <v>0.03653462242848328</v>
       </c>
       <c r="H67" s="3">
-        <v>0.05236907730673307</v>
+        <v>-0.01030706463388448</v>
       </c>
       <c r="I67" s="3">
-        <v>0.0006456183196491707</v>
+        <v>-0.004156503291341623</v>
       </c>
       <c r="J67" s="3">
-        <v>0.08205128205128198</v>
+        <v>-0.008177318700236767</v>
       </c>
       <c r="K67" s="3">
-        <v>0.04057172463677287</v>
+        <v>-0.003058938111301595</v>
       </c>
       <c r="L67" s="3">
-        <v>0.2074391988555079</v>
+        <v>0.05132299270072984</v>
       </c>
       <c r="M67" s="3">
-        <v>0.09978796162915259</v>
+        <v>0.02247517821595796</v>
       </c>
       <c r="N67" s="3">
-        <v>0.1609353507565337</v>
+        <v>0.1157104817235536</v>
       </c>
       <c r="O67" s="3">
-        <v>0.04946384507255125</v>
+        <v>0.01778144161727938</v>
       </c>
       <c r="P67" s="3">
-        <v>0.07017984313296273</v>
+        <v>0.02950490032222062</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4664,46 +4670,46 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D68" s="1">
-        <v>19423314.10070857</v>
+        <v>80148426.4782</v>
       </c>
       <c r="E68" s="2">
-        <v>1.047701168728322</v>
+        <v>1.760732307295235</v>
       </c>
       <c r="F68" s="3">
-        <v>-0.02321347291761493</v>
+        <v>0.02622169249106081</v>
       </c>
       <c r="G68" s="3">
-        <v>-0.03702019645150976</v>
+        <v>0.08477909213788713</v>
       </c>
       <c r="H68" s="3">
-        <v>-0.04452359750667858</v>
+        <v>0.02014218009478675</v>
       </c>
       <c r="I68" s="3">
-        <v>2.875032369595398E-05</v>
+        <v>0.1124814414715903</v>
       </c>
       <c r="J68" s="3">
-        <v>-0.05587329520457546</v>
+        <v>0.1038461538461538</v>
       </c>
       <c r="K68" s="3">
-        <v>-0.03014602756553381</v>
+        <v>0.05923395288500518</v>
       </c>
       <c r="L68" s="3">
-        <v>-0.04324565314311184</v>
+        <v>0.1588156123822342</v>
       </c>
       <c r="M68" s="3">
-        <v>-0.0005070527274305333</v>
+        <v>0.1266122953593621</v>
       </c>
       <c r="N68" s="3">
-        <v>-0.05002213368747229</v>
+        <v>0.2908545727136431</v>
       </c>
       <c r="O68" s="3">
-        <v>0.0002592912224226817</v>
+        <v>0.07094471121850296</v>
       </c>
       <c r="P68" s="3">
-        <v>-0.03358311200852179</v>
+        <v>0.1056956937486246</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4714,46 +4720,46 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D69" s="1">
-        <v>69457689.46182857</v>
+        <v>19906274.8155</v>
       </c>
       <c r="E69" s="2">
-        <v>1.122408226016919</v>
+        <v>1.044856919962889</v>
       </c>
       <c r="F69" s="3">
-        <v>-0.03783059926347516</v>
+        <v>0.008379888268156407</v>
       </c>
       <c r="G69" s="3">
-        <v>-0.08199059588106132</v>
+        <v>-0.0002260458087513074</v>
       </c>
       <c r="H69" s="3">
-        <v>-0.02178352620830503</v>
+        <v>-0.01366120218579243</v>
       </c>
       <c r="I69" s="3">
-        <v>-0.003093947274424668</v>
+        <v>-0.03121389695751801</v>
       </c>
       <c r="J69" s="3">
-        <v>-0.01944728761514854</v>
+        <v>-0.02695417789757412</v>
       </c>
       <c r="K69" s="3">
-        <v>0.001921661485368292</v>
+        <v>-0.003411692224503488</v>
       </c>
       <c r="L69" s="3">
-        <v>0.01788560297503099</v>
+        <v>-0.04328621908127216</v>
       </c>
       <c r="M69" s="3">
-        <v>0.01872326168547106</v>
+        <v>-0.0002159881040096945</v>
       </c>
       <c r="N69" s="3">
-        <v>-0.02987341772151907</v>
+        <v>0.0478955007256893</v>
       </c>
       <c r="O69" s="3">
-        <v>0.007062550430802945</v>
+        <v>5.484602299571262E-05</v>
       </c>
       <c r="P69" s="3">
-        <v>-0.01397587811807539</v>
+        <v>-0.000221016956380501</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4764,46 +4770,46 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D70" s="1">
-        <v>268419297.9838672</v>
+        <v>68159667.68405715</v>
       </c>
       <c r="E70" s="2">
-        <v>1.302117989657067</v>
+        <v>1.052405159893544</v>
       </c>
       <c r="F70" s="3">
-        <v>-0.02416345869114599</v>
+        <v>0.02099600902307826</v>
       </c>
       <c r="G70" s="3">
-        <v>-0.002240235184478157</v>
+        <v>0.03325610355494228</v>
       </c>
       <c r="H70" s="3">
-        <v>0.02043723292252429</v>
+        <v>-0.02550513415038087</v>
       </c>
       <c r="I70" s="3">
-        <v>0.0310933649472775</v>
+        <v>-0.02815140804693786</v>
       </c>
       <c r="J70" s="3">
-        <v>0.003226984900146144</v>
+        <v>0.01958066193034151</v>
       </c>
       <c r="K70" s="3">
-        <v>0.02581420228638317</v>
+        <v>-0.006633752097823022</v>
       </c>
       <c r="L70" s="3">
-        <v>-0.03609453609453615</v>
+        <v>0.004609868533378924</v>
       </c>
       <c r="M70" s="3">
-        <v>-0.0006459797463768288</v>
+        <v>0.02714169536758966</v>
       </c>
       <c r="N70" s="3">
-        <v>-0.2871111495695063</v>
+        <v>0.06266931551381627</v>
       </c>
       <c r="O70" s="3">
-        <v>-0.04259993824866595</v>
+        <v>0.01633112322147424</v>
       </c>
       <c r="P70" s="3">
-        <v>-0.001443107465427493</v>
+        <v>0.03019889946126597</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4814,46 +4820,46 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D71" s="1">
-        <v>24767642.12114286</v>
+        <v>268832476.2003643</v>
       </c>
       <c r="E71" s="2">
-        <v>0.927205738922745</v>
+        <v>1.284849442388891</v>
       </c>
       <c r="F71" s="3">
-        <v>-0.03613261862219585</v>
+        <v>0.004244739554908775</v>
       </c>
       <c r="G71" s="3">
-        <v>-0.0731246889768869</v>
+        <v>-0.002482620435342265</v>
       </c>
       <c r="H71" s="3">
-        <v>-0.04934403759545732</v>
+        <v>-0.02225764553075921</v>
       </c>
       <c r="I71" s="3">
-        <v>-0.0301882819969776</v>
+        <v>-0.009849878118190113</v>
       </c>
       <c r="J71" s="3">
-        <v>-0.07400343314896052</v>
+        <v>0.02952878279249039</v>
       </c>
       <c r="K71" s="3">
-        <v>-0.06751462408598247</v>
+        <v>0.006767325832901798</v>
       </c>
       <c r="L71" s="3">
-        <v>-0.06056501547987626</v>
+        <v>-0.0526827594096785</v>
       </c>
       <c r="M71" s="3">
-        <v>-0.01981011842659225</v>
+        <v>0.00240129350522367</v>
       </c>
       <c r="N71" s="3">
-        <v>-0.09724804760133872</v>
+        <v>-0.1607034259071558</v>
       </c>
       <c r="O71" s="3">
-        <v>-0.001570323726538503</v>
+        <v>-0.028014900402252</v>
       </c>
       <c r="P71" s="3">
-        <v>-0.07031965653143468</v>
+        <v>-4.066346505929752E-05</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4864,46 +4870,46 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D72" s="1">
-        <v>21058635.22926714</v>
+        <v>23547441.38057143</v>
       </c>
       <c r="E72" s="2">
-        <v>1.236664095388314</v>
+        <v>0.8449488238977806</v>
       </c>
       <c r="F72" s="3">
-        <v>-0.03824384274131868</v>
+        <v>0.01700122900450629</v>
       </c>
       <c r="G72" s="3">
-        <v>-0.08495637169497812</v>
+        <v>0.04305194110753661</v>
       </c>
       <c r="H72" s="3">
-        <v>-0.02948440876813845</v>
+        <v>-0.008784188460770642</v>
       </c>
       <c r="I72" s="3">
-        <v>0.0001584907128501349</v>
+        <v>-0.01428522578001645</v>
       </c>
       <c r="J72" s="3">
-        <v>-0.02223950233281494</v>
+        <v>-0.02436628021222248</v>
       </c>
       <c r="K72" s="3">
-        <v>0.002198835790951322</v>
+        <v>-0.02694641706044725</v>
       </c>
       <c r="L72" s="3">
-        <v>-0.00317107975265587</v>
+        <v>-0.0651478064394653</v>
       </c>
       <c r="M72" s="3">
-        <v>0.005029010168209367</v>
+        <v>-0.02164817547652569</v>
       </c>
       <c r="N72" s="3">
-        <v>0.04227453580901851</v>
+        <v>-0.01683168316831685</v>
       </c>
       <c r="O72" s="3">
-        <v>0.02776808081948507</v>
+        <v>-0.002745741605618337</v>
       </c>
       <c r="P72" s="3">
-        <v>0.003613922979580344</v>
+        <v>-0.01923992932242127</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4914,46 +4920,46 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D73" s="1">
-        <v>5772755.048951429</v>
+        <v>21156923.68382857</v>
       </c>
       <c r="E73" s="2">
-        <v>1.082612625981516</v>
+        <v>1.170725658636667</v>
       </c>
       <c r="F73" s="3">
-        <v>-0.04134275618374549</v>
+        <v>0.01058786346396972</v>
       </c>
       <c r="G73" s="3">
-        <v>-0.1456337043481433</v>
+        <v>0.001159436426817296</v>
       </c>
       <c r="H73" s="3">
-        <v>-0.01631617113850613</v>
+        <v>-0.01539645881447247</v>
       </c>
       <c r="I73" s="3">
-        <v>0.0003031092375657681</v>
+        <v>-0.05493264047093614</v>
       </c>
       <c r="J73" s="3">
-        <v>-0.03107142857142855</v>
+        <v>-0.006216006216006178</v>
       </c>
       <c r="K73" s="3">
-        <v>0.001323268684632956</v>
+        <v>-0.006770311071846831</v>
       </c>
       <c r="L73" s="3">
-        <v>0.02146084337349402</v>
+        <v>-0.01296496372897042</v>
       </c>
       <c r="M73" s="3">
-        <v>0.01852056696751295</v>
+        <v>0.01378562574460391</v>
       </c>
       <c r="N73" s="3">
-        <v>0.02843062926459441</v>
+        <v>0.1187893631910428</v>
       </c>
       <c r="O73" s="3">
-        <v>0.02632965156925574</v>
+        <v>0.02843288864201416</v>
       </c>
       <c r="P73" s="3">
-        <v>0.009921917826072952</v>
+        <v>0.007472531085710605</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4964,46 +4970,46 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D74" s="1">
-        <v>11834697.09604285</v>
+        <v>5591502.5628</v>
       </c>
       <c r="E74" s="2">
-        <v>1.026715099948601</v>
+        <v>1.031594529026403</v>
       </c>
       <c r="F74" s="3">
-        <v>0.005134428678117972</v>
+        <v>0.009565857247976447</v>
       </c>
       <c r="G74" s="3">
-        <v>0.01378927686584897</v>
+        <v>0.001419242223485216</v>
       </c>
       <c r="H74" s="3">
-        <v>0.05321334246307333</v>
+        <v>-0.02556818181818189</v>
       </c>
       <c r="I74" s="3">
-        <v>0.1290498568796934</v>
+        <v>-0.05794792779729459</v>
       </c>
       <c r="J74" s="3">
-        <v>0.0743364597884653</v>
+        <v>0.002923976608187142</v>
       </c>
       <c r="K74" s="3">
-        <v>0.1254214350977852</v>
+        <v>-0.002932381806058275</v>
       </c>
       <c r="L74" s="3">
-        <v>0.1163297045101089</v>
+        <v>0.02273574357062987</v>
       </c>
       <c r="M74" s="3">
-        <v>0.0652843170506044</v>
+        <v>0.01040238891749704</v>
       </c>
       <c r="N74" s="3">
-        <v>0.1382810022201078</v>
+        <v>0.1055600322320709</v>
       </c>
       <c r="O74" s="3">
-        <v>0.03795459703855888</v>
+        <v>0.02949780081549547</v>
       </c>
       <c r="P74" s="3">
-        <v>0.09535287607419482</v>
+        <v>0.005910815570491128</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5014,46 +5020,46 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D75" s="1">
-        <v>10926989.45518714</v>
+        <v>12272457.50251428</v>
       </c>
       <c r="E75" s="2">
-        <v>1.085357928090984</v>
+        <v>1.046685230522356</v>
       </c>
       <c r="F75" s="3">
-        <v>-0.03660742790252207</v>
+        <v>0.008556547619047502</v>
       </c>
       <c r="G75" s="3">
-        <v>-0.0327513248453979</v>
+        <v>-4.935274057148089E-06</v>
       </c>
       <c r="H75" s="3">
-        <v>0.003992458689142722</v>
+        <v>0.02166949312229119</v>
       </c>
       <c r="I75" s="3">
-        <v>0.03496182211046311</v>
+        <v>0.0002903840271198385</v>
       </c>
       <c r="J75" s="3">
-        <v>-0.01437125748502996</v>
+        <v>0.06230407523510964</v>
       </c>
       <c r="K75" s="3">
-        <v>0.02294337450146458</v>
+        <v>0.05495289696092463</v>
       </c>
       <c r="L75" s="3">
-        <v>0.01479654747225649</v>
+        <v>0.1072084949969368</v>
       </c>
       <c r="M75" s="3">
-        <v>0.01291563594906504</v>
+        <v>0.09080717777454776</v>
       </c>
       <c r="N75" s="3">
-        <v>0.02665003402132008</v>
+        <v>0.2317128577919127</v>
       </c>
       <c r="O75" s="3">
-        <v>0.01075327901113355</v>
+        <v>0.04953037967938283</v>
       </c>
       <c r="P75" s="3">
-        <v>0.01792950522526481</v>
+        <v>0.0728800373677362</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5064,46 +5070,46 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D76" s="1">
-        <v>50675255.95600001</v>
+        <v>11009712.87977714</v>
       </c>
       <c r="E76" s="2">
-        <v>1.193340301885195</v>
+        <v>1.079727307040518</v>
       </c>
       <c r="F76" s="3">
-        <v>-0.03541726412388872</v>
+        <v>0.007286376683594699</v>
       </c>
       <c r="G76" s="3">
-        <v>-0.05870677922550838</v>
+        <v>4.817578847804757E-08</v>
       </c>
       <c r="H76" s="3">
-        <v>-0.0288725277898079</v>
+        <v>-0.01892473118279567</v>
       </c>
       <c r="I76" s="3">
-        <v>-3.323271479832258E-05</v>
+        <v>-0.05466400887193071</v>
       </c>
       <c r="J76" s="3">
-        <v>-0.0323647871116225</v>
+        <v>0.02046750922715578</v>
       </c>
       <c r="K76" s="3">
-        <v>-1.84841955887502E-07</v>
+        <v>0.0003493963421079944</v>
       </c>
       <c r="L76" s="3">
-        <v>0.0215641609719059</v>
+        <v>0.00773138944113106</v>
       </c>
       <c r="M76" s="3">
-        <v>0.01083624011182441</v>
+        <v>0.02408927365010783</v>
       </c>
       <c r="N76" s="3">
-        <v>-0.05532930768150542</v>
+        <v>0.08904273096204356</v>
       </c>
       <c r="O76" s="3">
-        <v>0.002066791027317621</v>
+        <v>0.01288491625210948</v>
       </c>
       <c r="P76" s="3">
-        <v>-0.02766474626173065</v>
+        <v>0.01221933499610791</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5114,46 +5120,46 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D77" s="1">
-        <v>5750300.839771429</v>
+        <v>48227323.82742857</v>
       </c>
       <c r="E77" s="2">
-        <v>0.7962686249126592</v>
+        <v>1.129510559355926</v>
       </c>
       <c r="F77" s="3">
-        <v>-0.02675543273458107</v>
+        <v>0.01831720029784069</v>
       </c>
       <c r="G77" s="3">
-        <v>-0.02813269698738674</v>
+        <v>0.01458562941070781</v>
       </c>
       <c r="H77" s="3">
-        <v>-0.004880554842024036</v>
+        <v>-0.02439720359537741</v>
       </c>
       <c r="I77" s="3">
-        <v>0.002992322228583463</v>
+        <v>-0.03567689162881219</v>
       </c>
       <c r="J77" s="3">
-        <v>-0.01537679501842674</v>
+        <v>0.00219844643118858</v>
       </c>
       <c r="K77" s="3">
-        <v>0.002644692301585283</v>
+        <v>-0.005633327387987266</v>
       </c>
       <c r="L77" s="3">
-        <v>0.01533219761499154</v>
+        <v>-0.002479941648431852</v>
       </c>
       <c r="M77" s="3">
-        <v>0.007129650270190931</v>
+        <v>0.009035229879945346</v>
       </c>
       <c r="N77" s="3">
-        <v>0.005450298468725788</v>
+        <v>0.04110840438489654</v>
       </c>
       <c r="O77" s="3">
-        <v>0.01349219953863184</v>
+        <v>0.006591494703618444</v>
       </c>
       <c r="P77" s="3">
-        <v>0.004047495385155536</v>
+        <v>0.01181042964532658</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5164,46 +5170,46 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D78" s="1">
-        <v>23442710.64672857</v>
+        <v>5472207.675428572</v>
       </c>
       <c r="E78" s="2">
-        <v>1.432347688691504</v>
+        <v>0.7606586512879342</v>
       </c>
       <c r="F78" s="3">
-        <v>-0.04482902418682239</v>
+        <v>-0.004118934225769057</v>
       </c>
       <c r="G78" s="3">
-        <v>-0.06323351315988891</v>
+        <v>-0.01012399125068233</v>
       </c>
       <c r="H78" s="3">
-        <v>-0.01926782273603084</v>
+        <v>-0.02125237191650844</v>
       </c>
       <c r="I78" s="3">
-        <v>2.356730339269691E-05</v>
+        <v>-0.06387341776132363</v>
       </c>
       <c r="J78" s="3">
-        <v>-0.01228978007761963</v>
+        <v>0.000129265770424121</v>
       </c>
       <c r="K78" s="3">
-        <v>8.770929255020072E-05</v>
+        <v>-0.005020518580068319</v>
       </c>
       <c r="L78" s="3">
-        <v>0.05504375863657308</v>
+        <v>-0.01275998468801825</v>
       </c>
       <c r="M78" s="3">
-        <v>0.04383596886243773</v>
+        <v>0.001328947043607193</v>
       </c>
       <c r="N78" s="3">
-        <v>0.1145985401459855</v>
+        <v>0.04880032533550228</v>
       </c>
       <c r="O78" s="3">
-        <v>0.04010418578723559</v>
+        <v>0.01736728642704777</v>
       </c>
       <c r="P78" s="3">
-        <v>0.02196183907749396</v>
+        <v>-0.001845785768230563</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5214,46 +5220,46 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D79" s="1">
-        <v>19529878.40310857</v>
+        <v>23127090.16757143</v>
       </c>
       <c r="E79" s="2">
-        <v>1.34395564174336</v>
+        <v>1.402811231070565</v>
       </c>
       <c r="F79" s="3">
-        <v>-0.03931866572036898</v>
+        <v>-0.002171552660152011</v>
       </c>
       <c r="G79" s="3">
-        <v>-0.09762670292544355</v>
+        <v>-0.03010337440082654</v>
       </c>
       <c r="H79" s="3">
-        <v>-0.02358796797230033</v>
+        <v>-0.0281302876480541</v>
       </c>
       <c r="I79" s="3">
-        <v>-0.0006005308441184964</v>
+        <v>-0.08994957895661901</v>
       </c>
       <c r="J79" s="3">
-        <v>-0.04197041545756947</v>
+        <v>-0.009911656970480484</v>
       </c>
       <c r="K79" s="3">
-        <v>-0.004296594171661365</v>
+        <v>-0.01356502599299424</v>
       </c>
       <c r="L79" s="3">
-        <v>0.01874012192368496</v>
+        <v>0.04265940549126399</v>
       </c>
       <c r="M79" s="3">
-        <v>0.001718925575934867</v>
+        <v>0.03034130780891228</v>
       </c>
       <c r="N79" s="3">
-        <v>0.02974515024724227</v>
+        <v>0.1803236578474186</v>
       </c>
       <c r="O79" s="3">
-        <v>0.03267773501327095</v>
+        <v>0.03821999499491421</v>
       </c>
       <c r="P79" s="3">
-        <v>-0.001288834297863249</v>
+        <v>0.008388140907959019</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5264,46 +5270,46 @@
         <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D80" s="1">
-        <v>379460766.0804285</v>
+        <v>20071658.93144571</v>
       </c>
       <c r="E80" s="2">
-        <v>1.003969050090222</v>
+        <v>1.307471793627219</v>
       </c>
       <c r="F80" s="3">
-        <v>-0.03790710090763479</v>
+        <v>0.02175676672320974</v>
       </c>
       <c r="G80" s="3">
-        <v>-0.08360793720087578</v>
+        <v>0.0006266719539337144</v>
       </c>
       <c r="H80" s="3">
-        <v>-0.02139676333224714</v>
+        <v>-0.00409747681690759</v>
       </c>
       <c r="I80" s="3">
-        <v>6.918632571019105E-06</v>
+        <v>-0.01124475965355421</v>
       </c>
       <c r="J80" s="3">
-        <v>-0.02584063141961297</v>
+        <v>0.007710212394530153</v>
       </c>
       <c r="K80" s="3">
-        <v>-3.984130511353944E-06</v>
+        <v>-0.0014146220544589</v>
       </c>
       <c r="L80" s="3">
-        <v>0.07019836085045734</v>
+        <v>0.005516040063869813</v>
       </c>
       <c r="M80" s="3">
-        <v>0.05632897869153617</v>
+        <v>3.162398058933303E-08</v>
       </c>
       <c r="N80" s="3">
-        <v>0.02736602052451542</v>
+        <v>0.1146512189234854</v>
       </c>
       <c r="O80" s="3">
-        <v>0.01711079674529698</v>
+        <v>0.03519258981568438</v>
       </c>
       <c r="P80" s="3">
-        <v>0.01368101819700203</v>
+        <v>0.0003133517889571519</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5314,46 +5320,46 @@
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="1">
-        <v>25013082.78124286</v>
+        <v>384243027.7880571</v>
       </c>
       <c r="E81" s="2">
-        <v>1.331043919070932</v>
+        <v>0.9738104639364512</v>
       </c>
       <c r="F81" s="3">
-        <v>-0.01292090837901341</v>
+        <v>0.01558872305140962</v>
       </c>
       <c r="G81" s="3">
-        <v>-0.0006416334964469606</v>
+        <v>0.0126146643482435</v>
       </c>
       <c r="H81" s="3">
-        <v>-0.02814186584425608</v>
+        <v>-0.01617221805719182</v>
       </c>
       <c r="I81" s="3">
-        <v>-4.697367167482222E-05</v>
+        <v>-0.02300609676698392</v>
       </c>
       <c r="J81" s="3">
-        <v>0.0003968253968253531</v>
+        <v>0.008231807704971958</v>
       </c>
       <c r="K81" s="3">
-        <v>0.002655516214850919</v>
+        <v>-0.0004124290115544603</v>
       </c>
       <c r="L81" s="3">
-        <v>0.05217028380634384</v>
+        <v>0.06764295676429558</v>
       </c>
       <c r="M81" s="3">
-        <v>0.03913728808013341</v>
+        <v>0.05977649598596806</v>
       </c>
       <c r="N81" s="3">
-        <v>0.02023472278429787</v>
+        <v>0.1335143139190523</v>
       </c>
       <c r="O81" s="3">
-        <v>0.01265302462369872</v>
+        <v>0.0254210497024476</v>
       </c>
       <c r="P81" s="3">
-        <v>0.0114451194995744</v>
+        <v>0.03619558016710578</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5364,46 +5370,46 @@
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="1">
-        <v>29541438.00964929</v>
+        <v>26103382.91954286</v>
       </c>
       <c r="E82" s="2">
-        <v>1.426716804984378</v>
+        <v>1.328904346680406</v>
       </c>
       <c r="F82" s="3">
-        <v>-0.05466161855182192</v>
+        <v>0.009087317265902901</v>
       </c>
       <c r="G82" s="3">
-        <v>-0.1741069670165361</v>
+        <v>0.003536315660361882</v>
       </c>
       <c r="H82" s="3">
-        <v>-0.04311377245508972</v>
+        <v>-0.009693679720822032</v>
       </c>
       <c r="I82" s="3">
-        <v>-0.006261528663146854</v>
+        <v>-0.0009186365158190154</v>
       </c>
       <c r="J82" s="3">
-        <v>-0.06941532727696242</v>
+        <v>-0.01199226305609281</v>
       </c>
       <c r="K82" s="3">
-        <v>-0.02336697000502843</v>
+        <v>-0.0003644813573401937</v>
       </c>
       <c r="L82" s="3">
-        <v>0.009603234773818728</v>
+        <v>0.04330065359477135</v>
       </c>
       <c r="M82" s="3">
-        <v>0.0003323935539222004</v>
+        <v>0.04950665653988863</v>
       </c>
       <c r="N82" s="3">
-        <v>-0.04631176891859626</v>
+        <v>0.09332191780821923</v>
       </c>
       <c r="O82" s="3">
-        <v>0.01557532334741251</v>
+        <v>0.02337364413633525</v>
       </c>
       <c r="P82" s="3">
-        <v>-0.03483936946181235</v>
+        <v>0.02652148610012526</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5414,46 +5420,46 @@
         <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="1">
-        <v>102633225.0168</v>
+        <v>27649272.74475729</v>
       </c>
       <c r="E83" s="2">
-        <v>1.079567590578981</v>
+        <v>1.32429875829484</v>
       </c>
       <c r="F83" s="3">
-        <v>-0.03780594405594407</v>
+        <v>0.01797752808988765</v>
       </c>
       <c r="G83" s="3">
-        <v>-0.08210821518098047</v>
+        <v>0.008172482981293108</v>
       </c>
       <c r="H83" s="3">
-        <v>-0.007439134355275104</v>
+        <v>-0.01971627795143074</v>
       </c>
       <c r="I83" s="3">
-        <v>0.0003399548177890611</v>
+        <v>-0.05397634484259792</v>
       </c>
       <c r="J83" s="3">
-        <v>0.003189792663476725</v>
+        <v>-0.01616795366795372</v>
       </c>
       <c r="K83" s="3">
-        <v>0.02554677233513617</v>
+        <v>-0.02320741664749663</v>
       </c>
       <c r="L83" s="3">
-        <v>0.02086714583816366</v>
+        <v>-0.02370689655172417</v>
       </c>
       <c r="M83" s="3">
-        <v>0.01163592610771374</v>
+        <v>-0.001884696248314819</v>
       </c>
       <c r="N83" s="3">
-        <v>-0.001587301587301715</v>
+        <v>0.05403309203722854</v>
       </c>
       <c r="O83" s="3">
-        <v>0.005570242607431076</v>
+        <v>0.01927206476927903</v>
       </c>
       <c r="P83" s="3">
-        <v>0.005024312260206013</v>
+        <v>0.003143893366489145</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5464,46 +5470,46 @@
         <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="1">
-        <v>45556442.84957143</v>
+        <v>99346670.02338569</v>
       </c>
       <c r="E84" s="2">
-        <v>1.143902137148065</v>
+        <v>0.9896646618867408</v>
       </c>
       <c r="F84" s="3">
-        <v>-0.04418710955355781</v>
+        <v>0.03079012904686441</v>
       </c>
       <c r="G84" s="3">
-        <v>-0.1060463718038961</v>
+        <v>0.09043937601443633</v>
       </c>
       <c r="H84" s="3">
-        <v>-0.01800250469630566</v>
+        <v>-0.01641823287967156</v>
       </c>
       <c r="I84" s="3">
-        <v>-1.741978514308706E-05</v>
+        <v>-0.00828010030158091</v>
       </c>
       <c r="J84" s="3">
-        <v>-0.03044822256568788</v>
+        <v>0.04092363968907185</v>
       </c>
       <c r="K84" s="3">
-        <v>-1.139087185855803E-07</v>
+        <v>1.155814011448721E-05</v>
       </c>
       <c r="L84" s="3">
-        <v>0.01636422553467268</v>
+        <v>0.02291619860705467</v>
       </c>
       <c r="M84" s="3">
-        <v>0.02123469171225087</v>
+        <v>0.02889118239748241</v>
       </c>
       <c r="N84" s="3">
-        <v>0.05534993270524898</v>
+        <v>0.09657996146435448</v>
       </c>
       <c r="O84" s="3">
-        <v>0.0353176737647069</v>
+        <v>0.009575427985152013</v>
       </c>
       <c r="P84" s="3">
-        <v>0.01061728890176614</v>
+        <v>0.05966527920595937</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5514,46 +5520,46 @@
         <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="1">
-        <v>136178250.204</v>
+        <v>40315130.54400001</v>
       </c>
       <c r="E85" s="2">
-        <v>1.372501482521707</v>
+        <v>1.038275945164533</v>
       </c>
       <c r="F85" s="3">
-        <v>-0.03697284806470252</v>
+        <v>0.01656050955414023</v>
       </c>
       <c r="G85" s="3">
-        <v>-0.07142437761461343</v>
+        <v>0.007339074553805411</v>
       </c>
       <c r="H85" s="3">
-        <v>-0.06137387387387386</v>
+        <v>-0.02444987775061116</v>
       </c>
       <c r="I85" s="3">
-        <v>-0.07929568830556009</v>
+        <v>-0.01494713625518358</v>
       </c>
       <c r="J85" s="3">
-        <v>-0.05176336746302615</v>
+        <v>0.001097694840834252</v>
       </c>
       <c r="K85" s="3">
-        <v>-0.004337089758280432</v>
+        <v>-0.0005269398984298244</v>
       </c>
       <c r="L85" s="3">
-        <v>0.04383218534752665</v>
+        <v>0.01591343093570974</v>
       </c>
       <c r="M85" s="3">
-        <v>0.03748593734613655</v>
+        <v>0.02053544834639662</v>
       </c>
       <c r="N85" s="3">
-        <v>-0.03863898500576698</v>
+        <v>0.1339253996447603</v>
       </c>
       <c r="O85" s="3">
-        <v>0.00571240096621281</v>
+        <v>0.04221553874483244</v>
       </c>
       <c r="P85" s="3">
-        <v>-0.02148803738202371</v>
+        <v>0.01393726145010101</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5564,46 +5570,46 @@
         <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="1">
-        <v>22290993.256</v>
+        <v>139080678.0772857</v>
       </c>
       <c r="E86" s="2">
-        <v>1.14511572077054</v>
+        <v>1.334079103096888</v>
       </c>
       <c r="F86" s="3">
-        <v>-0.03774204135214961</v>
+        <v>0.02396644697423609</v>
       </c>
       <c r="G86" s="3">
-        <v>-0.1382221651589924</v>
+        <v>0.01734629178405053</v>
       </c>
       <c r="H86" s="3">
-        <v>-0.02494180246092451</v>
+        <v>-0.02119129438717063</v>
       </c>
       <c r="I86" s="3">
-        <v>-0.0007875541091903538</v>
+        <v>-0.01975390362133931</v>
       </c>
       <c r="J86" s="3">
-        <v>-0.01676727028839705</v>
+        <v>-0.009849362688296583</v>
       </c>
       <c r="K86" s="3">
-        <v>0.002011134099990039</v>
+        <v>-0.04676972434325147</v>
       </c>
       <c r="L86" s="3">
-        <v>0.09977494373593399</v>
+        <v>0.0276608538785328</v>
       </c>
       <c r="M86" s="3">
-        <v>0.0960087335357831</v>
+        <v>0.03218694178537806</v>
       </c>
       <c r="N86" s="3">
-        <v>0.1803542673107891</v>
+        <v>0.08715012722646311</v>
       </c>
       <c r="O86" s="3">
-        <v>0.05576472467411744</v>
+        <v>0.01404174848099954</v>
       </c>
       <c r="P86" s="3">
-        <v>0.04900993381788657</v>
+        <v>0.0247666167847143</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5614,46 +5620,46 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="1">
-        <v>126021316.1102229</v>
+        <v>21995095.22285714</v>
       </c>
       <c r="E87" s="2">
-        <v>2.591134926103699</v>
+        <v>1.150668763703015</v>
       </c>
       <c r="F87" s="3">
-        <v>-0.02496979460330256</v>
+        <v>-0.003752985329239148</v>
       </c>
       <c r="G87" s="3">
-        <v>-0.06505447363200402</v>
+        <v>-0.02244624555146835</v>
       </c>
       <c r="H87" s="3">
-        <v>-0.0776264406133918</v>
+        <v>-0.05501618122977344</v>
       </c>
       <c r="I87" s="3">
-        <v>-0.05404463864713115</v>
+        <v>-0.1204931018554788</v>
       </c>
       <c r="J87" s="3">
-        <v>-0.0665124349334876</v>
+        <v>-0.0276390276390277</v>
       </c>
       <c r="K87" s="3">
-        <v>-0.05740434723126153</v>
+        <v>-0.03435809681519417</v>
       </c>
       <c r="L87" s="3">
-        <v>-0.185876418663304</v>
+        <v>0.0965076980848667</v>
       </c>
       <c r="M87" s="3">
-        <v>-0.103003874422077</v>
+        <v>0.07815997920519034</v>
       </c>
       <c r="N87" s="3">
-        <v>0.2345741968383478</v>
+        <v>0.2346723044397463</v>
       </c>
       <c r="O87" s="3">
-        <v>0.06254687303782612</v>
+        <v>0.05566737671742659</v>
       </c>
       <c r="P87" s="3">
-        <v>-0.06122941043163278</v>
+        <v>0.02785686682686099</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5664,46 +5670,46 @@
         <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="1">
-        <v>6691180.263357144</v>
+        <v>102592294.6940386</v>
       </c>
       <c r="E88" s="2">
-        <v>1.127622049184724</v>
+        <v>2.343779362980313</v>
       </c>
       <c r="F88" s="3">
-        <v>-0.02648809523809529</v>
+        <v>-0.004585286325657285</v>
       </c>
       <c r="G88" s="3">
-        <v>-0.01814081682876788</v>
+        <v>0.006159438789870264</v>
       </c>
       <c r="H88" s="3">
-        <v>-0.01653638003607939</v>
+        <v>-0.001533115290269801</v>
       </c>
       <c r="I88" s="3">
-        <v>0.003458498993103098</v>
+        <v>-0.01937123009427951</v>
       </c>
       <c r="J88" s="3">
-        <v>-0.01505570611261669</v>
+        <v>-0.06757659635391813</v>
       </c>
       <c r="K88" s="3">
-        <v>0.009977437753930594</v>
+        <v>-0.04422686161107659</v>
       </c>
       <c r="L88" s="3">
-        <v>0.06755874673629242</v>
+        <v>-0.1562446018310589</v>
       </c>
       <c r="M88" s="3">
-        <v>0.04348602093131722</v>
+        <v>-0.0998837736008069</v>
       </c>
       <c r="N88" s="3">
-        <v>0.07740447957839269</v>
+        <v>0.2779958137100995</v>
       </c>
       <c r="O88" s="3">
-        <v>0.03482190688756841</v>
+        <v>0.04004526144157644</v>
       </c>
       <c r="P88" s="3">
-        <v>0.02673172934262391</v>
+        <v>-0.01903371141060316</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5714,46 +5720,46 @@
         <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="1">
-        <v>9183105.670357144</v>
+        <v>6657252.709714287</v>
       </c>
       <c r="E89" s="2">
-        <v>1.085220066161702</v>
+        <v>1.113483491760362</v>
       </c>
       <c r="F89" s="3">
-        <v>-0.01807909604519763</v>
+        <v>0.008518405841192652</v>
       </c>
       <c r="G89" s="3">
-        <v>8.425509021586781E-08</v>
+        <v>-0.004964840257868169</v>
       </c>
       <c r="H89" s="3">
-        <v>-0.006857142857142737</v>
+        <v>-0.01777777777777779</v>
       </c>
       <c r="I89" s="3">
-        <v>0.02691602362093792</v>
+        <v>-0.02778677090659898</v>
       </c>
       <c r="J89" s="3">
-        <v>-0.002296211251435038</v>
+        <v>0.007598784194528882</v>
       </c>
       <c r="K89" s="3">
-        <v>0.01179489316988605</v>
+        <v>-4.63547992955144E-05</v>
       </c>
       <c r="L89" s="3">
-        <v>0.05461165048543694</v>
+        <v>0.04838709677419367</v>
       </c>
       <c r="M89" s="3">
-        <v>0.0405767424021611</v>
+        <v>0.03635060154658226</v>
       </c>
       <c r="N89" s="3">
-        <v>0.0972222222222222</v>
+        <v>0.1566643405443126</v>
       </c>
       <c r="O89" s="3">
-        <v>0.03411294581842447</v>
+        <v>0.03728774530539578</v>
       </c>
       <c r="P89" s="3">
-        <v>0.02618581778602358</v>
+        <v>0.01815212337364337</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5764,46 +5770,46 @@
         <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="1">
-        <v>14448703.8994</v>
+        <v>9115382.953499999</v>
       </c>
       <c r="E90" s="2">
-        <v>0.9344347230526147</v>
+        <v>1.098685741965543</v>
       </c>
       <c r="F90" s="3">
-        <v>-0.03172060237103481</v>
+        <v>-0.01261467889908261</v>
       </c>
       <c r="G90" s="3">
-        <v>-0.0512978612828305</v>
+        <v>-0.05703690685301659</v>
       </c>
       <c r="H90" s="3">
-        <v>-0.01531443466927332</v>
+        <v>-0.02047781569965881</v>
       </c>
       <c r="I90" s="3">
-        <v>0.0003179558277678475</v>
+        <v>-0.03459711424892191</v>
       </c>
       <c r="J90" s="3">
-        <v>-0.02735757965883474</v>
+        <v>-0.003472222222222321</v>
       </c>
       <c r="K90" s="3">
-        <v>3.908048200851584E-05</v>
+        <v>-1.235584289797632E-05</v>
       </c>
       <c r="L90" s="3">
-        <v>0.0003310162197949172</v>
+        <v>0.0311377245508981</v>
       </c>
       <c r="M90" s="3">
-        <v>0.00272707761877689</v>
+        <v>0.03835922061235106</v>
       </c>
       <c r="N90" s="3">
-        <v>-0.04457793234271262</v>
+        <v>0.1314060446780551</v>
       </c>
       <c r="O90" s="3">
-        <v>0.002717514529035492</v>
+        <v>0.03793336624238655</v>
       </c>
       <c r="P90" s="3">
-        <v>-0.02226942593035205</v>
+        <v>0.01917343238472654</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5814,46 +5820,46 @@
         <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="1">
-        <v>14443026.16428572</v>
+        <v>15757969.38857143</v>
       </c>
       <c r="E91" s="2">
-        <v>1.590959809431012</v>
+        <v>0.898080387762931</v>
       </c>
       <c r="F91" s="3">
-        <v>-0.03512575888985254</v>
+        <v>0.02834541858932102</v>
       </c>
       <c r="G91" s="3">
-        <v>-0.1033035367271959</v>
+        <v>0.06311955360934758</v>
       </c>
       <c r="H91" s="3">
-        <v>-0.04710920770877939</v>
+        <v>0.0003206155819172458</v>
       </c>
       <c r="I91" s="3">
-        <v>-0.03752528179714366</v>
+        <v>-0.0005159429464644199</v>
       </c>
       <c r="J91" s="3">
-        <v>-0.08960720130932891</v>
+        <v>0.02094240837696341</v>
       </c>
       <c r="K91" s="3">
-        <v>-0.04134050865935345</v>
+        <v>0.0004861960675490267</v>
       </c>
       <c r="L91" s="3">
-        <v>-0.08323032550473834</v>
+        <v>0.001926782273603049</v>
       </c>
       <c r="M91" s="3">
-        <v>-0.05211998529309837</v>
+        <v>0.01479770866166686</v>
       </c>
       <c r="N91" s="3">
-        <v>-0.1124850418827284</v>
+        <v>0.06158557332425997</v>
       </c>
       <c r="O91" s="3">
-        <v>1.178801317063256E-05</v>
+        <v>0.009264698541653899</v>
       </c>
       <c r="P91" s="3">
-        <v>-0.07771176101014714</v>
+        <v>0.03819164099296342</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5864,46 +5870,46 @@
         <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D92" s="1">
-        <v>311730200.9259428</v>
+        <v>14396146.59271429</v>
       </c>
       <c r="E92" s="2">
-        <v>1.896037062658059</v>
+        <v>1.453241422944215</v>
       </c>
       <c r="F92" s="3">
-        <v>-0.01858736059479555</v>
+        <v>0.01434334379202153</v>
       </c>
       <c r="G92" s="3">
-        <v>0.0001045919126886065</v>
+        <v>0.005926818646396883</v>
       </c>
       <c r="H92" s="3">
-        <v>-0.04693140794223822</v>
+        <v>-0.03124999999999998</v>
       </c>
       <c r="I92" s="3">
-        <v>-2.5505157097255E-08</v>
+        <v>-0.04152276929656373</v>
       </c>
       <c r="J92" s="3">
-        <v>-0.01041232819658477</v>
+        <v>-0.01822125813449035</v>
       </c>
       <c r="K92" s="3">
-        <v>0.003292585052351985</v>
+        <v>-0.03983422940731159</v>
       </c>
       <c r="L92" s="3">
-        <v>0.2836304700162076</v>
+        <v>-0.1044717055797389</v>
       </c>
       <c r="M92" s="3">
-        <v>0.1750581418892281</v>
+        <v>-0.05792075382385384</v>
       </c>
       <c r="N92" s="3">
-        <v>0.2829373650107991</v>
+        <v>-0.100556438791733</v>
       </c>
       <c r="O92" s="3">
-        <v>0.1090242220829516</v>
+        <v>-3.565705812192698E-07</v>
       </c>
       <c r="P92" s="3">
-        <v>0.08917536347079003</v>
+        <v>-0.04887749161558272</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5914,46 +5920,46 @@
         <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D93" s="1">
-        <v>140919197.8662857</v>
+        <v>332625435.4628571</v>
       </c>
       <c r="E93" s="2">
-        <v>1.0586808984827</v>
+        <v>1.940061147396997</v>
       </c>
       <c r="F93" s="3">
-        <v>-0.01805423580147649</v>
+        <v>0.002506265664160357</v>
       </c>
       <c r="G93" s="3">
-        <v>0.01133964250887712</v>
+        <v>-6.023815333201362E-05</v>
       </c>
       <c r="H93" s="3">
-        <v>0.03132197144173188</v>
+        <v>-0.01880621422730998</v>
       </c>
       <c r="I93" s="3">
-        <v>0.08967124448840133</v>
+        <v>-0.02650370034999255</v>
       </c>
       <c r="J93" s="3">
-        <v>0.01880782648263304</v>
+        <v>-0.05882352941176475</v>
       </c>
       <c r="K93" s="3">
-        <v>0.05497638844384759</v>
+        <v>-0.01863068323210586</v>
       </c>
       <c r="L93" s="3">
-        <v>0.05929664090837398</v>
+        <v>0.2454592631032692</v>
       </c>
       <c r="M93" s="3">
-        <v>0.02100155673196108</v>
+        <v>0.09844177590933356</v>
       </c>
       <c r="N93" s="3">
-        <v>0.03418013856812926</v>
+        <v>0.3961605584642234</v>
       </c>
       <c r="O93" s="3">
-        <v>0.008509677520257969</v>
+        <v>0.1217001007381159</v>
       </c>
       <c r="P93" s="3">
-        <v>0.02759084765004517</v>
+        <v>0.04919076887800077</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5964,46 +5970,46 @@
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D94" s="1">
-        <v>67822797.80571429</v>
+        <v>148506037.2351429</v>
       </c>
       <c r="E94" s="2">
-        <v>1.172266328806901</v>
+        <v>1.04782497364228</v>
       </c>
       <c r="F94" s="3">
-        <v>-0.04206711832361751</v>
+        <v>0.01456561922365983</v>
       </c>
       <c r="G94" s="3">
-        <v>-0.1703158052686322</v>
+        <v>0.01425973047971726</v>
       </c>
       <c r="H94" s="3">
-        <v>0.008291873963515725</v>
+        <v>0.01045655375552279</v>
       </c>
       <c r="I94" s="3">
-        <v>0.02915730128834828</v>
+        <v>0.012033905704116</v>
       </c>
       <c r="J94" s="3">
-        <v>0.04056135546808148</v>
+        <v>0.0651245827835132</v>
       </c>
       <c r="K94" s="3">
-        <v>0.09390008563857295</v>
+        <v>0.06348312862284648</v>
       </c>
       <c r="L94" s="3">
-        <v>0.1162107582155315</v>
+        <v>0.04318078151132732</v>
       </c>
       <c r="M94" s="3">
-        <v>0.08324666706830919</v>
+        <v>0.06134103609462881</v>
       </c>
       <c r="N94" s="3">
-        <v>0.05409153952843278</v>
+        <v>0.1244775874784889</v>
       </c>
       <c r="O94" s="3">
-        <v>0.01834067746624674</v>
+        <v>0.01727445954204181</v>
       </c>
       <c r="P94" s="3">
-        <v>0.06866910329837099</v>
+        <v>0.06241208235873764</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6014,46 +6020,46 @@
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D95" s="1">
-        <v>12732697.78894286</v>
+        <v>69483009.35314286</v>
       </c>
       <c r="E95" s="2">
-        <v>1.316215421518929</v>
+        <v>1.14381025556393</v>
       </c>
       <c r="F95" s="3">
-        <v>-0.03775267538644472</v>
+        <v>0.02962356792144027</v>
       </c>
       <c r="G95" s="3">
-        <v>-0.01028750739285833</v>
+        <v>0.03191483616182201</v>
       </c>
       <c r="H95" s="3">
-        <v>-0.005224339274738677</v>
+        <v>-0.01193654782472116</v>
       </c>
       <c r="I95" s="3">
-        <v>0.04642342069008831</v>
+        <v>-0.01439836697948126</v>
       </c>
       <c r="J95" s="3">
-        <v>-0.003999999999999944</v>
+        <v>0.0666327568667346</v>
       </c>
       <c r="K95" s="3">
-        <v>0.04209408695707532</v>
+        <v>0.0124743049976071</v>
       </c>
       <c r="L95" s="3">
-        <v>0.06340341655716178</v>
+        <v>0.1361748239118657</v>
       </c>
       <c r="M95" s="3">
-        <v>0.04755856678499353</v>
+        <v>0.1065719033994062</v>
       </c>
       <c r="N95" s="3">
-        <v>0.09896452215243608</v>
+        <v>0.1600590079291905</v>
       </c>
       <c r="O95" s="3">
-        <v>0.03289423537702862</v>
+        <v>0.03690551064906546</v>
       </c>
       <c r="P95" s="3">
-        <v>0.04482632687103442</v>
+        <v>0.06924336978061413</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6064,46 +6070,46 @@
         <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D96" s="1">
-        <v>13645467.74788571</v>
+        <v>13363077.37424286</v>
       </c>
       <c r="E96" s="2">
-        <v>0.9761123729701952</v>
+        <v>1.324699436941722</v>
       </c>
       <c r="F96" s="3">
-        <v>-0.03051851851851861</v>
+        <v>0.006771314250538779</v>
       </c>
       <c r="G96" s="3">
-        <v>-0.06160054084396422</v>
+        <v>-0.001739052926678386</v>
       </c>
       <c r="H96" s="3">
-        <v>-0.0250297973778308</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-0.0003815052362355928</v>
+        <v>-0.03125221478016942</v>
       </c>
       <c r="J96" s="3">
-        <v>-0.02994367032315446</v>
+        <v>0.01394916305021717</v>
       </c>
       <c r="K96" s="3">
-        <v>-0.00537830540263899</v>
+        <v>0.001683923905970772</v>
       </c>
       <c r="L96" s="3">
-        <v>-0.01830183018301829</v>
+        <v>0.05465097533451562</v>
       </c>
       <c r="M96" s="3">
-        <v>0.0005986743551860805</v>
+        <v>0.03667564579292656</v>
       </c>
       <c r="N96" s="3">
-        <v>0.007389162561576396</v>
+        <v>0.1531817380574652</v>
       </c>
       <c r="O96" s="3">
-        <v>1.446341516833041E-05</v>
+        <v>0.03871498458476405</v>
       </c>
       <c r="P96" s="3">
-        <v>-0.002389815523726455</v>
+        <v>0.01917978484944867</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6114,46 +6120,46 @@
         <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D97" s="1">
-        <v>52912484.04577142</v>
+        <v>12666994.01935714</v>
       </c>
       <c r="E97" s="2">
-        <v>1.601882404109481</v>
+        <v>0.8983284751231703</v>
       </c>
       <c r="F97" s="3">
-        <v>-0.02810810810810816</v>
+        <v>0.01249999999999998</v>
       </c>
       <c r="G97" s="3">
-        <v>-0.08077178945800377</v>
+        <v>0.0007878649405960892</v>
       </c>
       <c r="H97" s="3">
-        <v>-0.05567226890756316</v>
+        <v>-0.01395486935866978</v>
       </c>
       <c r="I97" s="3">
-        <v>-0.01385006324934463</v>
+        <v>-0.02213791344243555</v>
       </c>
       <c r="J97" s="3">
-        <v>-0.09420654911838802</v>
+        <v>-0.008360704687966465</v>
       </c>
       <c r="K97" s="3">
-        <v>-0.08756687293557576</v>
+        <v>-0.005341111517099229</v>
       </c>
       <c r="L97" s="3">
-        <v>0.05516431924882624</v>
+        <v>-0.02495596007046391</v>
       </c>
       <c r="M97" s="3">
-        <v>0.02764358593009045</v>
+        <v>0.005819064274512308</v>
       </c>
       <c r="N97" s="3">
-        <v>0.1153846153846152</v>
+        <v>0.06306017925736233</v>
       </c>
       <c r="O97" s="3">
-        <v>0.03750133915602816</v>
+        <v>-3.092685549112041E-07</v>
       </c>
       <c r="P97" s="3">
-        <v>-0.02656410176395666</v>
+        <v>0.003303464607554198</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6164,46 +6170,46 @@
         <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D98" s="1">
-        <v>286507533.0252857</v>
+        <v>55175588.73222857</v>
       </c>
       <c r="E98" s="2">
-        <v>1.248259832325192</v>
+        <v>1.655655992431669</v>
       </c>
       <c r="F98" s="3">
-        <v>-0.02519835439318248</v>
+        <v>0.008328706274292066</v>
       </c>
       <c r="G98" s="3">
-        <v>-0.04223771047133549</v>
+        <v>9.723465848096796E-05</v>
       </c>
       <c r="H98" s="3">
-        <v>-0.02498346682342566</v>
+        <v>-0.02207862143241784</v>
       </c>
       <c r="I98" s="3">
-        <v>-3.204682623046523E-05</v>
+        <v>-0.0537642728659178</v>
       </c>
       <c r="J98" s="3">
-        <v>-0.04779332615715826</v>
+        <v>-0.04671916010498683</v>
       </c>
       <c r="K98" s="3">
-        <v>-0.01213656659337472</v>
+        <v>-0.04109243790590798</v>
       </c>
       <c r="L98" s="3">
-        <v>-0.05578879954458128</v>
+        <v>0.05642815590459578</v>
       </c>
       <c r="M98" s="3">
-        <v>-0.001841404855742764</v>
+        <v>0.008492178937854287</v>
       </c>
       <c r="N98" s="3">
-        <v>0.04029792238337902</v>
+        <v>0.1792207792207793</v>
       </c>
       <c r="O98" s="3">
-        <v>0.007061270464219993</v>
+        <v>0.03192095488697632</v>
       </c>
       <c r="P98" s="3">
-        <v>-0.00698898572455874</v>
+        <v>0.004294706798167627</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6214,46 +6220,46 @@
         <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D99" s="1">
-        <v>18481463.80357143</v>
+        <v>283949414.352</v>
       </c>
       <c r="E99" s="2">
-        <v>0.7772656885975777</v>
+        <v>1.167594049879891</v>
       </c>
       <c r="F99" s="3">
-        <v>-0.006624029237094544</v>
+        <v>0.02623271196632593</v>
       </c>
       <c r="G99" s="3">
-        <v>0.004237632339846775</v>
+        <v>0.02707965070742393</v>
       </c>
       <c r="H99" s="3">
-        <v>-0.00753080785029663</v>
+        <v>-0.005100925453618034</v>
       </c>
       <c r="I99" s="3">
-        <v>0.00475170444937188</v>
+        <v>-0.00570982146766758</v>
       </c>
       <c r="J99" s="3">
-        <v>-0.004805491990846701</v>
+        <v>0.01260846992509085</v>
       </c>
       <c r="K99" s="3">
-        <v>0.0003789288564260236</v>
+        <v>-0.0004827186649049675</v>
       </c>
       <c r="L99" s="3">
-        <v>0.000229990800368103</v>
+        <v>-0.05108423686405334</v>
       </c>
       <c r="M99" s="3">
-        <v>0.002191277990586911</v>
+        <v>1.478165868534403E-05</v>
       </c>
       <c r="N99" s="3">
-        <v>0.008113120074177131</v>
+        <v>0.1099097634338672</v>
       </c>
       <c r="O99" s="3">
-        <v>0.006852138179058798</v>
+        <v>0.004419865138649962</v>
       </c>
       <c r="P99" s="3">
-        <v>0.003214455165216843</v>
+        <v>0.01354721618305464</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6264,46 +6270,46 @@
         <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D100" s="1">
-        <v>129108117.348</v>
+        <v>18317243.416</v>
       </c>
       <c r="E100" s="2">
-        <v>1.939725349695983</v>
+        <v>0.7756295211765806</v>
       </c>
       <c r="F100" s="3">
-        <v>-0.05093256814921087</v>
+        <v>-0.00967741935483875</v>
       </c>
       <c r="G100" s="3">
-        <v>-0.1705093001071189</v>
+        <v>-0.045525475988109</v>
       </c>
       <c r="H100" s="3">
-        <v>-0.03851744186046507</v>
+        <v>-0.01602564102564109</v>
       </c>
       <c r="I100" s="3">
-        <v>3.034512824243025E-05</v>
+        <v>-0.01545381438127182</v>
       </c>
       <c r="J100" s="3">
-        <v>-0.08758620689655172</v>
+        <v>-0.008077544426494379</v>
       </c>
       <c r="K100" s="3">
-        <v>-0.008871483919715661</v>
+        <v>-0.0009893889540732133</v>
       </c>
       <c r="L100" s="3">
-        <v>0.08265139116202945</v>
+        <v>-0.01422018348623864</v>
       </c>
       <c r="M100" s="3">
-        <v>0.012186526380218</v>
+        <v>0.009708575832035037</v>
       </c>
       <c r="N100" s="3">
-        <v>0.07473598700243693</v>
+        <v>0.04421768707482994</v>
       </c>
       <c r="O100" s="3">
-        <v>0.05325650696915959</v>
+        <v>0.01027913659571011</v>
       </c>
       <c r="P100" s="3">
-        <v>0.001657521230251172</v>
+        <v>0.004359593438980912</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6314,46 +6320,46 @@
         <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D101" s="1">
-        <v>29182548.04342857</v>
+        <v>115623153.0735714</v>
       </c>
       <c r="E101" s="2">
-        <v>0.9718891061110587</v>
+        <v>1.795248171564854</v>
       </c>
       <c r="F101" s="3">
-        <v>-0.03848946986201884</v>
+        <v>0.01432880844645543</v>
       </c>
       <c r="G101" s="3">
-        <v>-0.08391145660804854</v>
+        <v>0.000833830693590984</v>
       </c>
       <c r="H101" s="3">
-        <v>-0.0119402985074627</v>
+        <v>-0.02817919075144503</v>
       </c>
       <c r="I101" s="3">
-        <v>0.0009921769787062029</v>
+        <v>-0.06062656974890084</v>
       </c>
       <c r="J101" s="3">
-        <v>0.02715283165244387</v>
+        <v>-0.03306973400431347</v>
       </c>
       <c r="K101" s="3">
-        <v>0.05655383081436927</v>
+        <v>-0.004358174518317218</v>
       </c>
       <c r="L101" s="3">
-        <v>0.1144781144781146</v>
+        <v>0.04344453064391005</v>
       </c>
       <c r="M101" s="3">
-        <v>0.08985900967293445</v>
+        <v>2.680928219346856E-06</v>
       </c>
       <c r="N101" s="3">
-        <v>0.07729861676159476</v>
+        <v>0.151541095890411</v>
       </c>
       <c r="O101" s="3">
-        <v>0.0352693877393592</v>
+        <v>0.05484640304388237</v>
       </c>
       <c r="P101" s="3">
-        <v>0.06692622378798202</v>
+        <v>0.0004182558109051655</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6364,46 +6370,46 @@
         <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D102" s="1">
-        <v>103398774.44</v>
+        <v>32327599.12685714</v>
       </c>
       <c r="E102" s="2">
-        <v>2.879524108909749</v>
+        <v>0.968167807602579</v>
       </c>
       <c r="F102" s="3">
-        <v>-0.03762662807525322</v>
+        <v>0.03770739064856699</v>
       </c>
       <c r="G102" s="3">
-        <v>-0.05684575558468024</v>
+        <v>0.1299974759645764</v>
       </c>
       <c r="H102" s="3">
-        <v>-0.06007067137809185</v>
+        <v>0.005113221329437469</v>
       </c>
       <c r="I102" s="3">
-        <v>-0.05388664770706635</v>
+        <v>-0.0002782218824896724</v>
       </c>
       <c r="J102" s="3">
-        <v>-0.07574704656011118</v>
+        <v>0.03225806451612898</v>
       </c>
       <c r="K102" s="3">
-        <v>-0.06423387646439024</v>
+        <v>0.001071310794634137</v>
       </c>
       <c r="L102" s="3">
-        <v>0.1074104912572857</v>
+        <v>0.1438071487946798</v>
       </c>
       <c r="M102" s="3">
-        <v>0.003769891306897334</v>
+        <v>0.09345276061447839</v>
       </c>
       <c r="N102" s="3">
-        <v>0.1575282854656223</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="O102" s="3">
-        <v>0.08129959204035457</v>
+        <v>0.05427689240995834</v>
       </c>
       <c r="P102" s="3">
-        <v>-0.02653793213889145</v>
+        <v>0.1117251182895274</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6414,46 +6420,46 @@
         <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D103" s="1">
-        <v>146904740.5840286</v>
+        <v>104202737.844</v>
       </c>
       <c r="E103" s="2">
-        <v>1.460530615891697</v>
+        <v>2.773268013619987</v>
       </c>
       <c r="F103" s="3">
-        <v>-0.02465331278890603</v>
+        <v>0.01804511278195477</v>
       </c>
       <c r="G103" s="3">
-        <v>-0.03528138422423235</v>
+        <v>0.01744830903943685</v>
       </c>
       <c r="H103" s="3">
-        <v>-0.007836990595611291</v>
+        <v>-0.02659956865564349</v>
       </c>
       <c r="I103" s="3">
-        <v>0.01312883445583465</v>
+        <v>-0.05679009835803547</v>
       </c>
       <c r="J103" s="3">
-        <v>-0.04812030075187974</v>
+        <v>-0.03008595988538694</v>
       </c>
       <c r="K103" s="3">
-        <v>-0.003039481862841385</v>
+        <v>-0.06168862764857101</v>
       </c>
       <c r="L103" s="3">
-        <v>-0.09182209469153507</v>
+        <v>0.08667736757624384</v>
       </c>
       <c r="M103" s="3">
-        <v>-0.01515805729901439</v>
+        <v>-0.0036437070479499</v>
       </c>
       <c r="N103" s="3">
-        <v>0.1657458563535911</v>
+        <v>0.2456301747930083</v>
       </c>
       <c r="O103" s="3">
-        <v>0.01973908135561365</v>
+        <v>0.07770838357232418</v>
       </c>
       <c r="P103" s="3">
-        <v>-0.009098769580927887</v>
+        <v>0.006902300995743474</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6464,46 +6470,46 @@
         <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D104" s="1">
-        <v>15373807.03174286</v>
+        <v>148526323.9156</v>
       </c>
       <c r="E104" s="2">
-        <v>1.079593728226913</v>
+        <v>1.36529871896705</v>
       </c>
       <c r="F104" s="3">
-        <v>-0.04520853231454947</v>
+        <v>0.04709576138147571</v>
       </c>
       <c r="G104" s="3">
-        <v>-0.1196770600276714</v>
+        <v>0.1351291597130785</v>
       </c>
       <c r="H104" s="3">
-        <v>-0.04322858510129206</v>
+        <v>0.02143950995405821</v>
       </c>
       <c r="I104" s="3">
-        <v>-0.02918295319254746</v>
+        <v>0.02242875915308612</v>
       </c>
       <c r="J104" s="3">
-        <v>-0.02392188771358818</v>
+        <v>0.03732503888024886</v>
       </c>
       <c r="K104" s="3">
-        <v>-0.007381184004204353</v>
+        <v>0.04193260333514361</v>
       </c>
       <c r="L104" s="3">
-        <v>0.005195240489358235</v>
+        <v>-0.05120910384068268</v>
       </c>
       <c r="M104" s="3">
-        <v>0.01235853138945553</v>
+        <v>-8.606328444175495E-05</v>
       </c>
       <c r="N104" s="3">
-        <v>0.07202859696157292</v>
+        <v>0.2976653696498055</v>
       </c>
       <c r="O104" s="3">
-        <v>0.03780468934754866</v>
+        <v>0.009241279954664845</v>
       </c>
       <c r="P104" s="3">
-        <v>0.002488673692625591</v>
+        <v>0.08853088152411104</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6514,46 +6520,46 @@
         <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D105" s="1">
-        <v>33011730.10157143</v>
+        <v>14975686.6346</v>
       </c>
       <c r="E105" s="2">
-        <v>1.198127891321995</v>
+        <v>1.004747467437084</v>
       </c>
       <c r="F105" s="3">
-        <v>-0.03326494724501759</v>
+        <v>0.01190869996692029</v>
       </c>
       <c r="G105" s="3">
-        <v>-0.006185599668769733</v>
+        <v>0.03270689855499621</v>
       </c>
       <c r="H105" s="3">
-        <v>-0.01419605499103407</v>
+        <v>-0.02424242424242412</v>
       </c>
       <c r="I105" s="3">
-        <v>0.008308400899826316</v>
+        <v>-0.03408384959565657</v>
       </c>
       <c r="J105" s="3">
-        <v>-0.0112410071942446</v>
+        <v>-0.01131221719457004</v>
       </c>
       <c r="K105" s="3">
-        <v>0.005831806573103404</v>
+        <v>-0.03377241640807072</v>
       </c>
       <c r="L105" s="3">
-        <v>0.03759043724441648</v>
+        <v>0.003279763857002372</v>
       </c>
       <c r="M105" s="3">
-        <v>0.02638058624598394</v>
+        <v>0.01334475342525811</v>
       </c>
       <c r="N105" s="3">
-        <v>0.005180557671796434</v>
+        <v>0.1489201877934272</v>
       </c>
       <c r="O105" s="3">
-        <v>0.01614053664557303</v>
+        <v>0.03440237851058108</v>
       </c>
       <c r="P105" s="3">
-        <v>0.005506182122449919</v>
+        <v>0.02302582599012716</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6564,46 +6570,46 @@
         <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D106" s="1">
-        <v>2644163.094228572</v>
+        <v>45030843.18857143</v>
       </c>
       <c r="E106" s="2">
-        <v>0.8693257779290262</v>
+        <v>1.130311034308777</v>
       </c>
       <c r="F106" s="3">
-        <v>-0.03189763921427272</v>
+        <v>0.1097726246047282</v>
       </c>
       <c r="G106" s="3">
-        <v>-0.07288950799082024</v>
+        <v>0.2974631382527275</v>
       </c>
       <c r="H106" s="3">
-        <v>-0.02874706201410229</v>
+        <v>0.09460864399227685</v>
       </c>
       <c r="I106" s="3">
-        <v>-0.0005672818423831148</v>
+        <v>0.03848285628717465</v>
       </c>
       <c r="J106" s="3">
-        <v>-0.02291742451800638</v>
+        <v>0.1044507717668215</v>
       </c>
       <c r="K106" s="3">
-        <v>1.929653032459527E-05</v>
+        <v>0.03676359572035684</v>
       </c>
       <c r="L106" s="3">
-        <v>0.01358490566037744</v>
+        <v>0.1549913806613384</v>
       </c>
       <c r="M106" s="3">
-        <v>0.01618971581919862</v>
+        <v>0.04314531261905718</v>
       </c>
       <c r="N106" s="3">
-        <v>0.01454202077431548</v>
+        <v>0.2101806239737274</v>
       </c>
       <c r="O106" s="3">
-        <v>0.02154336971365405</v>
+        <v>0.03279558158419797</v>
       </c>
       <c r="P106" s="3">
-        <v>0.007280658652320036</v>
+        <v>0.1266629682963923</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6614,46 +6620,46 @@
         <v>120</v>
       </c>
       <c r="C107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D107" s="1">
-        <v>154251455.9170429</v>
+        <v>2630283.925328571</v>
       </c>
       <c r="E107" s="2">
-        <v>0.8659571525159859</v>
+        <v>0.8345815802206841</v>
       </c>
       <c r="F107" s="3">
-        <v>-0.02776795189246552</v>
+        <v>0.02077536635132616</v>
       </c>
       <c r="G107" s="3">
-        <v>-0.05746195347316328</v>
+        <v>0.04770975532357858</v>
       </c>
       <c r="H107" s="3">
-        <v>0.008068952869979752</v>
+        <v>-0.008647090614303852</v>
       </c>
       <c r="I107" s="3">
-        <v>0.003747472313712028</v>
+        <v>-0.0115977816394811</v>
       </c>
       <c r="J107" s="3">
-        <v>0.01010657846380002</v>
+        <v>0</v>
       </c>
       <c r="K107" s="3">
-        <v>0.03487923263814315</v>
+        <v>-0.002682685904990204</v>
       </c>
       <c r="L107" s="3">
-        <v>0.03619227144203585</v>
+        <v>0.02153332095786135</v>
       </c>
       <c r="M107" s="3">
-        <v>0.02297568834589342</v>
+        <v>0.01835242367884388</v>
       </c>
       <c r="N107" s="3">
-        <v>-0.02153791384834468</v>
+        <v>0.1099233561920128</v>
       </c>
       <c r="O107" s="3">
-        <v>0.001294069734343542</v>
+        <v>0.02677632533701925</v>
       </c>
       <c r="P107" s="3">
-        <v>0.0007188872487743688</v>
+        <v>0.03303108950121123</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6664,46 +6670,46 @@
         <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D108" s="1">
-        <v>18932291.98397143</v>
+        <v>156683868.0447857</v>
       </c>
       <c r="E108" s="2">
-        <v>1.06815275063752</v>
+        <v>0.8545949708727044</v>
       </c>
       <c r="F108" s="3">
-        <v>-0.02845759817871362</v>
+        <v>0.008536142390119817</v>
       </c>
       <c r="G108" s="3">
-        <v>-0.06061176285346474</v>
+        <v>0.006531563849219218</v>
       </c>
       <c r="H108" s="3">
-        <v>-0.0110081112398609</v>
+        <v>-0.01192170818505341</v>
       </c>
       <c r="I108" s="3">
-        <v>0.004922077919261449</v>
+        <v>-0.0112315824495984</v>
       </c>
       <c r="J108" s="3">
-        <v>-0.01896551724137926</v>
+        <v>0.02947719688542822</v>
       </c>
       <c r="K108" s="3">
-        <v>0.0001628877666004603</v>
+        <v>0.0006181132066374146</v>
       </c>
       <c r="L108" s="3">
-        <v>0.02769416014449129</v>
+        <v>0.03119777158774376</v>
       </c>
       <c r="M108" s="3">
-        <v>0.01764313581192381</v>
+        <v>0.04089240826675879</v>
       </c>
       <c r="N108" s="3">
-        <v>-0.02345537757437067</v>
+        <v>0.05130632336236272</v>
       </c>
       <c r="O108" s="3">
-        <v>0.0008736310294460047</v>
+        <v>0.00716532940174633</v>
       </c>
       <c r="P108" s="3">
-        <v>-0.0116462449038851</v>
+        <v>0.023711986057989</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6714,46 +6720,46 @@
         <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D109" s="1">
-        <v>14609172.58592857</v>
+        <v>19520193.12095714</v>
       </c>
       <c r="E109" s="2">
-        <v>0.8294665538029761</v>
+        <v>1.045964769067324</v>
       </c>
       <c r="F109" s="3">
-        <v>-0.008834469931804161</v>
+        <v>0.03220140515222479</v>
       </c>
       <c r="G109" s="3">
-        <v>-0.0006060950939515683</v>
+        <v>0.03542316372643843</v>
       </c>
       <c r="H109" s="3">
-        <v>-0.01433415536374839</v>
+        <v>-0.01782729805013929</v>
       </c>
       <c r="I109" s="3">
-        <v>-0.006803007473323441</v>
+        <v>-0.001927112511261484</v>
       </c>
       <c r="J109" s="3">
-        <v>-0.02914832245331721</v>
+        <v>0.0232153221125942</v>
       </c>
       <c r="K109" s="3">
-        <v>-0.02094229867596374</v>
+        <v>0.002727542316152298</v>
       </c>
       <c r="L109" s="3">
-        <v>0.0003128421711247388</v>
+        <v>0.03401759530791779</v>
       </c>
       <c r="M109" s="3">
-        <v>-4.102554271181674E-05</v>
+        <v>0.02652852114926907</v>
       </c>
       <c r="N109" s="3">
-        <v>-0.05858972471661999</v>
+        <v>0.04815695600475622</v>
       </c>
       <c r="O109" s="3">
-        <v>-1.96358155422302E-05</v>
+        <v>0.004800585781743678</v>
       </c>
       <c r="P109" s="3">
-        <v>-0.01077419688495765</v>
+        <v>0.03097584243785375</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6764,46 +6770,46 @@
         <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D110" s="1">
-        <v>85752869.78907143</v>
+        <v>14756819.5848</v>
       </c>
       <c r="E110" s="2">
-        <v>1.52072592933743</v>
+        <v>0.7779686787596387</v>
       </c>
       <c r="F110" s="3">
-        <v>-0.03273185060847664</v>
+        <v>0.01815904821540392</v>
       </c>
       <c r="G110" s="3">
-        <v>-0.09413211844143392</v>
+        <v>0.03250931342098294</v>
       </c>
       <c r="H110" s="3">
-        <v>-0.0351611552951024</v>
+        <v>0.004789124053761815</v>
       </c>
       <c r="I110" s="3">
-        <v>-0.003309642325613414</v>
+        <v>0.0003910597741742282</v>
       </c>
       <c r="J110" s="3">
-        <v>-0.02495769881556672</v>
+        <v>0.006811145510835878</v>
       </c>
       <c r="K110" s="3">
-        <v>0.0006288250267103826</v>
+        <v>-0.0003518845762736733</v>
       </c>
       <c r="L110" s="3">
-        <v>0.05251141552511426</v>
+        <v>0.001694132142307135</v>
       </c>
       <c r="M110" s="3">
-        <v>0.006383866329947948</v>
+        <v>-0.0001582165140620201</v>
       </c>
       <c r="N110" s="3">
-        <v>-0.0203994900127497</v>
+        <v>-0.004743687834736072</v>
       </c>
       <c r="O110" s="3">
-        <v>0.01601001557953248</v>
+        <v>1.314477406043264E-07</v>
       </c>
       <c r="P110" s="3">
-        <v>-0.009885332493019656</v>
+        <v>-0.0002550505451678467</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6814,46 +6820,46 @@
         <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D111" s="1">
-        <v>44031373.07986286</v>
+        <v>71144413.35039999</v>
       </c>
       <c r="E111" s="2">
-        <v>1.468469742746098</v>
+        <v>1.35859504871339</v>
       </c>
       <c r="F111" s="3">
-        <v>-0.02867513611615252</v>
+        <v>0.01300954032957494</v>
       </c>
       <c r="G111" s="3">
-        <v>-0.0134032674338006</v>
+        <v>0.0007937873728494083</v>
       </c>
       <c r="H111" s="3">
-        <v>-0.02058742794400216</v>
+        <v>-0.01972303818715911</v>
       </c>
       <c r="I111" s="3">
-        <v>0.001368649557100453</v>
+        <v>-0.05577830569862385</v>
       </c>
       <c r="J111" s="3">
-        <v>-0.07732092061029212</v>
+        <v>-0.002135839384878401</v>
       </c>
       <c r="K111" s="3">
-        <v>-0.0002365118450223105</v>
+        <v>-0.01834952959295105</v>
       </c>
       <c r="L111" s="3">
-        <v>-0.02602365787079159</v>
+        <v>-0.008488964346349753</v>
       </c>
       <c r="M111" s="3">
-        <v>0.0005283051847725074</v>
+        <v>0.0006396835258692965</v>
       </c>
       <c r="N111" s="3">
-        <v>0.2337482710926694</v>
+        <v>0.08148148148148135</v>
       </c>
       <c r="O111" s="3">
-        <v>-2.283320442815586E-05</v>
+        <v>0.02430857517372604</v>
       </c>
       <c r="P111" s="3">
-        <v>0.0001458966698750984</v>
+        <v>0.0007167354493593524</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6864,46 +6870,46 @@
         <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D112" s="1">
-        <v>245641970.8757958</v>
+        <v>41835510.95272857</v>
       </c>
       <c r="E112" s="2">
-        <v>2.286570040420431</v>
+        <v>1.388190828815996</v>
       </c>
       <c r="F112" s="3">
-        <v>0.02904227370432289</v>
+        <v>0.01403476159494367</v>
       </c>
       <c r="G112" s="3">
-        <v>0.00617074420396564</v>
+        <v>0.03865105894884058</v>
       </c>
       <c r="H112" s="3">
-        <v>-0.01621152616677316</v>
+        <v>-0.003288872647542525</v>
       </c>
       <c r="I112" s="3">
-        <v>0.003461002865663934</v>
+        <v>-0.001888230670067046</v>
       </c>
       <c r="J112" s="3">
-        <v>0.1161597844671261</v>
+        <v>0.007107911012646581</v>
       </c>
       <c r="K112" s="3">
-        <v>0.02788219209745788</v>
+        <v>4.173821636080134E-05</v>
       </c>
       <c r="L112" s="3">
-        <v>0.1405050558526127</v>
+        <v>-0.001190149226403075</v>
       </c>
       <c r="M112" s="3">
-        <v>0.06484203186174695</v>
+        <v>0.004822787481433197</v>
       </c>
       <c r="N112" s="3">
-        <v>0.1349770823455035</v>
+        <v>0.04833285288747959</v>
       </c>
       <c r="O112" s="3">
-        <v>0.05568486196941411</v>
+        <v>-0.001497055002716171</v>
       </c>
       <c r="P112" s="3">
-        <v>0.04636211197960241</v>
+        <v>0.02173692321513689</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6914,46 +6920,46 @@
         <v>126</v>
       </c>
       <c r="C113" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D113" s="1">
-        <v>24372654.94064572</v>
+        <v>226449260.78937</v>
       </c>
       <c r="E113" s="2">
-        <v>1.105709503435698</v>
+        <v>2.283179799965911</v>
       </c>
       <c r="F113" s="3">
-        <v>-0.002744538368646457</v>
+        <v>-0.02734537392027332</v>
       </c>
       <c r="G113" s="3">
-        <v>0.0003362848435006974</v>
+        <v>-0.08477196438475064</v>
       </c>
       <c r="H113" s="3">
-        <v>0.01124345986864076</v>
+        <v>-0.001990615668989043</v>
       </c>
       <c r="I113" s="3">
-        <v>0.02125903444977446</v>
+        <v>-0.03177586752572385</v>
       </c>
       <c r="J113" s="3">
-        <v>0.03332954157661244</v>
+        <v>-0.1016638225255972</v>
       </c>
       <c r="K113" s="3">
-        <v>0.02854818466330561</v>
+        <v>-0.006458719638491841</v>
       </c>
       <c r="L113" s="3">
-        <v>0.06933490288404938</v>
+        <v>0.112714013950539</v>
       </c>
       <c r="M113" s="3">
-        <v>0.04616457586673794</v>
+        <v>0.0667734834109672</v>
       </c>
       <c r="N113" s="3">
-        <v>0.04413793103448275</v>
+        <v>0.2569842406876792</v>
       </c>
       <c r="O113" s="3">
-        <v>0.001748177081093099</v>
+        <v>0.07463406787117638</v>
       </c>
       <c r="P113" s="3">
-        <v>0.03634305784889418</v>
+        <v>0.03015738188623768</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6964,46 +6970,46 @@
         <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D114" s="1">
-        <v>15077095.60848</v>
+        <v>25402777.90153572</v>
       </c>
       <c r="E114" s="2">
-        <v>1.051059716359873</v>
+        <v>1.146186074654117</v>
       </c>
       <c r="F114" s="3">
-        <v>-0.03016059537798684</v>
+        <v>-0.00769653655854866</v>
       </c>
       <c r="G114" s="3">
-        <v>-0.004932755109841856</v>
+        <v>-0.003244745380821087</v>
       </c>
       <c r="H114" s="3">
-        <v>-0.0004037141703674475</v>
+        <v>-0.007150715071507218</v>
       </c>
       <c r="I114" s="3">
-        <v>0.0001366042946558711</v>
+        <v>-3.528111968909567E-05</v>
       </c>
       <c r="J114" s="3">
-        <v>-0.002417405318291769</v>
+        <v>0.002777777777777718</v>
       </c>
       <c r="K114" s="3">
-        <v>0.02378978044329675</v>
+        <v>0.004926600809405044</v>
       </c>
       <c r="L114" s="3">
-        <v>0.05004240882103467</v>
+        <v>0.04226816029564611</v>
       </c>
       <c r="M114" s="3">
-        <v>0.03337477089457696</v>
+        <v>0.05803522014203113</v>
       </c>
       <c r="N114" s="3">
-        <v>0.0398992020159596</v>
+        <v>0.09539992717562812</v>
       </c>
       <c r="O114" s="3">
-        <v>0.02449384741937619</v>
+        <v>0.002759627587463563</v>
       </c>
       <c r="P114" s="3">
-        <v>0.02858227566893685</v>
+        <v>0.03148091047571808</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7014,46 +7020,46 @@
         <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D115" s="1">
-        <v>1947374411.513509</v>
+        <v>14795477.56455429</v>
       </c>
       <c r="E115" s="2">
-        <v>2.016704830300094</v>
+        <v>1.017289514342807</v>
       </c>
       <c r="F115" s="3">
-        <v>-0.01829808165272996</v>
+        <v>0.008054772452678331</v>
       </c>
       <c r="G115" s="3">
-        <v>0.0002386726660314704</v>
+        <v>-7.005365966833027E-05</v>
       </c>
       <c r="H115" s="3">
-        <v>-0.0339787028073572</v>
+        <v>-0.01611635220125783</v>
       </c>
       <c r="I115" s="3">
-        <v>0.00521472500845884</v>
+        <v>-0.03503247541100341</v>
       </c>
       <c r="J115" s="3">
-        <v>-0.05421287081793198</v>
+        <v>0.01996740016299925</v>
       </c>
       <c r="K115" s="3">
-        <v>-0.01495144403934079</v>
+        <v>-0.002734763945619387</v>
       </c>
       <c r="L115" s="3">
-        <v>0.1219923543962221</v>
+        <v>0.02666119770303541</v>
       </c>
       <c r="M115" s="3">
-        <v>0.001940038201008668</v>
+        <v>0.03007150704566998</v>
       </c>
       <c r="N115" s="3">
-        <v>0.1784364666981577</v>
+        <v>0.1050772626931568</v>
       </c>
       <c r="O115" s="3">
-        <v>0.08435747489955468</v>
+        <v>0.03368923905469969</v>
       </c>
       <c r="P115" s="3">
-        <v>0.001089355433520069</v>
+        <v>0.01500072669300083</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7064,46 +7070,46 @@
         <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D116" s="1">
-        <v>15774724.88742857</v>
+        <v>1784678705.854971</v>
       </c>
       <c r="E116" s="2">
-        <v>1.078117321964229</v>
+        <v>1.760570144229719</v>
       </c>
       <c r="F116" s="3">
-        <v>-0.02805280528052808</v>
+        <v>0.03963963963963955</v>
       </c>
       <c r="G116" s="3">
-        <v>-0.02297100344622882</v>
+        <v>0.06162852393502373</v>
       </c>
       <c r="H116" s="3">
-        <v>-0.02885408079142633</v>
+        <v>0.02740132555148872</v>
       </c>
       <c r="I116" s="3">
-        <v>-0.008059201316184102</v>
+        <v>0.04753699089761807</v>
       </c>
       <c r="J116" s="3">
-        <v>-0.05000000000000004</v>
+        <v>0.02103814392449851</v>
       </c>
       <c r="K116" s="3">
-        <v>-0.01906010531693239</v>
+        <v>0.03419658272329312</v>
       </c>
       <c r="L116" s="3">
-        <v>-0.00169491525423729</v>
+        <v>-0.007833397019487976</v>
       </c>
       <c r="M116" s="3">
-        <v>0.006619754397415838</v>
+        <v>0.002729368339837132</v>
       </c>
       <c r="N116" s="3">
-        <v>-0.00169491525423729</v>
+        <v>0.3387470997679815</v>
       </c>
       <c r="O116" s="3">
-        <v>0.01426875056199684</v>
+        <v>0.08934572572409723</v>
       </c>
       <c r="P116" s="3">
-        <v>-0.01037751028558484</v>
+        <v>0.04791255332915842</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7114,46 +7120,46 @@
         <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D117" s="1">
-        <v>14209483.10514857</v>
+        <v>16133573.52</v>
       </c>
       <c r="E117" s="2">
-        <v>0.962264798751662</v>
+        <v>1.040256487913049</v>
       </c>
       <c r="F117" s="3">
-        <v>-0.04097510373443997</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="G117" s="3">
-        <v>-0.1045550072935524</v>
+        <v>0.002514426762190569</v>
       </c>
       <c r="H117" s="3">
-        <v>-0.01648936170212778</v>
+        <v>-0.01071723000824412</v>
       </c>
       <c r="I117" s="3">
-        <v>-4.9118515192217E-05</v>
+        <v>-0.02406505901317215</v>
       </c>
       <c r="J117" s="3">
-        <v>-0.03898128898128898</v>
+        <v>-0.007444168734491413</v>
       </c>
       <c r="K117" s="3">
-        <v>-0.002001315262161684</v>
+        <v>-0.0184621576698095</v>
       </c>
       <c r="L117" s="3">
-        <v>-0.0245317858084938</v>
+        <v>0.005025125628140708</v>
       </c>
       <c r="M117" s="3">
-        <v>7.450650624704957E-05</v>
+        <v>0.004655463797175444</v>
       </c>
       <c r="N117" s="3">
-        <v>-0.07411116675012522</v>
+        <v>0.07719928186714528</v>
       </c>
       <c r="O117" s="3">
-        <v>-0.000220866541731668</v>
+        <v>0.01526258442746371</v>
       </c>
       <c r="P117" s="3">
-        <v>-0.03805624100614345</v>
+        <v>0.003584945279683007</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7164,46 +7170,46 @@
         <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D118" s="1">
-        <v>18339034.81375714</v>
+        <v>13755433.65182571</v>
       </c>
       <c r="E118" s="2">
-        <v>1.126756529072847</v>
+        <v>0.9033264098782268</v>
       </c>
       <c r="F118" s="3">
-        <v>-0.02481902792140641</v>
+        <v>0.0129519697787371</v>
       </c>
       <c r="G118" s="3">
-        <v>-0.00698379214731566</v>
+        <v>0.009358483755031812</v>
       </c>
       <c r="H118" s="3">
-        <v>-0.02380952380952392</v>
+        <v>-0.01624737945492656</v>
       </c>
       <c r="I118" s="3">
-        <v>0.003747113595137334</v>
+        <v>-0.02862930236725764</v>
       </c>
       <c r="J118" s="3">
-        <v>-0.03480040941658138</v>
+        <v>0.003475006682705228</v>
       </c>
       <c r="K118" s="3">
-        <v>-0.002766166710495214</v>
+        <v>-0.002810725153570819</v>
       </c>
       <c r="L118" s="3">
-        <v>-0.01514360313315934</v>
+        <v>-0.01830543933054401</v>
       </c>
       <c r="M118" s="3">
-        <v>0.0001829382432443438</v>
+        <v>0.001569665657864713</v>
       </c>
       <c r="N118" s="3">
-        <v>-0.005274261603375532</v>
+        <v>-0.0110642781875659</v>
       </c>
       <c r="O118" s="3">
-        <v>0.0003300534856173682</v>
+        <v>-1.015148855593525E-05</v>
       </c>
       <c r="P118" s="3">
-        <v>-0.004020214156935374</v>
+        <v>-0.0006205297478530528</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7214,46 +7220,46 @@
         <v>132</v>
       </c>
       <c r="C119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D119" s="1">
-        <v>58302107.59897143</v>
+        <v>16666729.75207286</v>
       </c>
       <c r="E119" s="2">
-        <v>1.458050051278373</v>
+        <v>1.002341532236649</v>
       </c>
       <c r="F119" s="3">
-        <v>-0.04204476709013921</v>
+        <v>0.03866525423728814</v>
       </c>
       <c r="G119" s="3">
-        <v>-0.1143622360649514</v>
+        <v>0.1425372063785683</v>
       </c>
       <c r="H119" s="3">
-        <v>-0.06343338754990396</v>
+        <v>0.02241918665276329</v>
       </c>
       <c r="I119" s="3">
-        <v>-0.03177998933608139</v>
+        <v>0.02721139502562793</v>
       </c>
       <c r="J119" s="3">
-        <v>-0.09229005445686446</v>
+        <v>0.02135416666666663</v>
       </c>
       <c r="K119" s="3">
-        <v>-0.07871031568179587</v>
+        <v>0.02218535159020064</v>
       </c>
       <c r="L119" s="3">
-        <v>0.01441383728379246</v>
+        <v>0.01501035196687363</v>
       </c>
       <c r="M119" s="3">
-        <v>0.008317453909150617</v>
+        <v>0.006351407816633267</v>
       </c>
       <c r="N119" s="3">
-        <v>0.03344754446076026</v>
+        <v>0.1029246344206973</v>
       </c>
       <c r="O119" s="3">
-        <v>0.02964231072753242</v>
+        <v>0.0005771944746382659</v>
       </c>
       <c r="P119" s="3">
-        <v>-0.03519643088632263</v>
+        <v>0.06255499300544898</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7264,46 +7270,46 @@
         <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D120" s="1">
-        <v>16597856.27811428</v>
+        <v>60563585.07385714</v>
       </c>
       <c r="E120" s="2">
-        <v>0.9217616203762461</v>
+        <v>1.36853960478611</v>
       </c>
       <c r="F120" s="3">
-        <v>-0.02293379489398525</v>
+        <v>0.03108236036604597</v>
       </c>
       <c r="G120" s="3">
-        <v>-0.03011530525195187</v>
+        <v>0.03909398432029527</v>
       </c>
       <c r="H120" s="3">
-        <v>-0.01181619256017503</v>
+        <v>-0.01906334434103879</v>
       </c>
       <c r="I120" s="3">
-        <v>4.276293368578058E-05</v>
+        <v>-0.005090223424787825</v>
       </c>
       <c r="J120" s="3">
-        <v>-0.01051709027169153</v>
+        <v>-0.02839726434730896</v>
       </c>
       <c r="K120" s="3">
-        <v>0.003154075320797509</v>
+        <v>-0.01749420650646427</v>
       </c>
       <c r="L120" s="3">
-        <v>0.008485931219294291</v>
+        <v>-0.005024360535931913</v>
       </c>
       <c r="M120" s="3">
-        <v>0.003853336196142352</v>
+        <v>0.003336796772525183</v>
       </c>
       <c r="N120" s="3">
-        <v>-0.001326846528085018</v>
+        <v>0.1222737420573586</v>
       </c>
       <c r="O120" s="3">
-        <v>0.003156788992280928</v>
+        <v>0.03594140681394296</v>
       </c>
       <c r="P120" s="3">
-        <v>0.0009136143963562459</v>
+        <v>0.02121539054641023</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7314,46 +7320,46 @@
         <v>134</v>
       </c>
       <c r="C121" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D121" s="1">
-        <v>46512353.24699429</v>
+        <v>15476736.96673714</v>
       </c>
       <c r="E121" s="2">
-        <v>1.017496205623397</v>
+        <v>0.8742942529600473</v>
       </c>
       <c r="F121" s="3">
-        <v>-0.02831350020517025</v>
+        <v>0.009292035398230172</v>
       </c>
       <c r="G121" s="3">
-        <v>-0.03374022548317459</v>
+        <v>0.0006819462836294931</v>
       </c>
       <c r="H121" s="3">
-        <v>-0.01701951017019507</v>
+        <v>-0.009982638888888933</v>
       </c>
       <c r="I121" s="3">
-        <v>-0.001530622382877794</v>
+        <v>-0.01798300901239971</v>
       </c>
       <c r="J121" s="3">
-        <v>-0.03543788187372703</v>
+        <v>0.003961267605633794</v>
       </c>
       <c r="K121" s="3">
-        <v>-0.005248647978234286</v>
+        <v>-0.0004662479784710223</v>
       </c>
       <c r="L121" s="3">
-        <v>-0.01003344481605345</v>
+        <v>-0.02270779777206509</v>
       </c>
       <c r="M121" s="3">
-        <v>0.0001471973487015406</v>
+        <v>0.01801493255315779</v>
       </c>
       <c r="N121" s="3">
-        <v>-0.1814725198755617</v>
+        <v>0.07240244475787493</v>
       </c>
       <c r="O121" s="3">
-        <v>-0.003384856039228115</v>
+        <v>0.005003055533214035</v>
       </c>
       <c r="P121" s="3">
-        <v>-0.01949443673070444</v>
+        <v>0.009348439418393643</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7364,46 +7370,46 @@
         <v>135</v>
       </c>
       <c r="C122" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D122" s="1">
-        <v>39200493.09281428</v>
+        <v>44541817.43505286</v>
       </c>
       <c r="E122" s="2">
-        <v>1.208023916154794</v>
+        <v>0.958085375800934</v>
       </c>
       <c r="F122" s="3">
-        <v>-0.03592095206900321</v>
+        <v>0.008016877637130855</v>
       </c>
       <c r="G122" s="3">
-        <v>-0.1180463759170062</v>
+        <v>0.0002258493935250337</v>
       </c>
       <c r="H122" s="3">
-        <v>-0.04736217499190845</v>
+        <v>-0.02250409165302784</v>
       </c>
       <c r="I122" s="3">
-        <v>-0.04156483655433616</v>
+        <v>-0.01976557615136976</v>
       </c>
       <c r="J122" s="3">
-        <v>-0.07218661342860143</v>
+        <v>-0.00499791753436071</v>
       </c>
       <c r="K122" s="3">
-        <v>-0.07878208998199632</v>
+        <v>-0.006966828229304997</v>
       </c>
       <c r="L122" s="3">
-        <v>-0.0283890845070423</v>
+        <v>-0.03004466098254158</v>
       </c>
       <c r="M122" s="3">
-        <v>-0.003384410799295955</v>
+        <v>0.0008745065749251346</v>
       </c>
       <c r="N122" s="3">
-        <v>-0.02956368831739755</v>
+        <v>-0.07078957604045116</v>
       </c>
       <c r="O122" s="3">
-        <v>0.01335957601567051</v>
+        <v>-0.0001077236002804298</v>
       </c>
       <c r="P122" s="3">
-        <v>-0.05417288914969694</v>
+        <v>-0.003370489417889982</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7414,46 +7420,46 @@
         <v>136</v>
       </c>
       <c r="C123" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D123" s="1">
-        <v>6659495.015727429</v>
+        <v>36387440.65944</v>
       </c>
       <c r="E123" s="2">
-        <v>0.7437717375640698</v>
+        <v>1.133867433702691</v>
       </c>
       <c r="F123" s="3">
-        <v>-0.03382135966405626</v>
+        <v>0.007477906186267776</v>
       </c>
       <c r="G123" s="3">
-        <v>-0.08337780661862144</v>
+        <v>-0.0002583929642507271</v>
       </c>
       <c r="H123" s="3">
-        <v>-0.01206916560287802</v>
+        <v>-0.02915165411071084</v>
       </c>
       <c r="I123" s="3">
-        <v>0.0007213774440505523</v>
+        <v>-0.04620399784801128</v>
       </c>
       <c r="J123" s="3">
-        <v>-0.01561054579093429</v>
+        <v>-0.03484207098664932</v>
       </c>
       <c r="K123" s="3">
-        <v>0.004046453739007348</v>
+        <v>-0.04457749126718412</v>
       </c>
       <c r="L123" s="3">
-        <v>-0.01663393785375997</v>
+        <v>-0.08035991312441823</v>
       </c>
       <c r="M123" s="3">
-        <v>0.003361805937369626</v>
+        <v>-0.008885849741969295</v>
       </c>
       <c r="N123" s="3">
-        <v>-0.005141989014841724</v>
+        <v>0.04821407520924194</v>
       </c>
       <c r="O123" s="3">
-        <v>0.002244374693647353</v>
+        <v>0.01000839082589815</v>
       </c>
       <c r="P123" s="3">
-        <v>-0.0008900915387360488</v>
+        <v>-0.004572121353110011</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7464,46 +7470,46 @@
         <v>137</v>
       </c>
       <c r="C124" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D124" s="1">
-        <v>8091302.388000001</v>
+        <v>6659144.788179714</v>
       </c>
       <c r="E124" s="2">
-        <v>0.8844644483057227</v>
+        <v>0.7312335889934645</v>
       </c>
       <c r="F124" s="3">
-        <v>-0.02673796791443852</v>
+        <v>0.00199483689274814</v>
       </c>
       <c r="G124" s="3">
-        <v>-0.04092991273919201</v>
+        <v>-0.00281396670389405</v>
       </c>
       <c r="H124" s="3">
-        <v>-0.01754385964912267</v>
+        <v>-0.02411428571428584</v>
       </c>
       <c r="I124" s="3">
-        <v>6.243311670878802E-05</v>
+        <v>-0.05223187821938812</v>
       </c>
       <c r="J124" s="3">
-        <v>-0.01754385964912267</v>
+        <v>-0.004546514339006859</v>
       </c>
       <c r="K124" s="3">
-        <v>0.001423386716001366</v>
+        <v>-0.001633899685562071</v>
       </c>
       <c r="L124" s="3">
-        <v>0.009708737864077834</v>
+        <v>-0.01328865264617524</v>
       </c>
       <c r="M124" s="3">
-        <v>0.0126826345837402</v>
+        <v>0.01361395802633004</v>
       </c>
       <c r="N124" s="3">
-        <v>0.02056074766355142</v>
+        <v>0.04427051485875009</v>
       </c>
       <c r="O124" s="3">
-        <v>0.01565895871272516</v>
+        <v>0.003432695925577109</v>
       </c>
       <c r="P124" s="3">
-        <v>0.007053010649870782</v>
+        <v>0.005990029170383985</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7514,46 +7520,46 @@
         <v>138</v>
       </c>
       <c r="C125" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D125" s="1">
-        <v>14633136.68705572</v>
+        <v>8420804.7961</v>
       </c>
       <c r="E125" s="2">
-        <v>0.8232133916350647</v>
+        <v>0.8796334006844764</v>
       </c>
       <c r="F125" s="3">
-        <v>-0.02648911798396329</v>
+        <v>0.0004566210045661598</v>
       </c>
       <c r="G125" s="3">
-        <v>-0.01448535928190574</v>
+        <v>-0.01471553614123751</v>
       </c>
       <c r="H125" s="3">
-        <v>-0.003225333528807998</v>
+        <v>-0.0192479856759177</v>
       </c>
       <c r="I125" s="3">
-        <v>0.009933020401425624</v>
+        <v>-0.04996049984837809</v>
       </c>
       <c r="J125" s="3">
-        <v>-0.02774202774202773</v>
+        <v>-0.01217312894499555</v>
       </c>
       <c r="K125" s="3">
-        <v>0.001913386694463291</v>
+        <v>-0.006641300952221649</v>
       </c>
       <c r="L125" s="3">
-        <v>-0.02017581784118744</v>
+        <v>-0.005898366606170755</v>
       </c>
       <c r="M125" s="3">
-        <v>0.002147452722395265</v>
+        <v>0.01572757292461481</v>
       </c>
       <c r="N125" s="3">
-        <v>-0.008024511234315686</v>
+        <v>0.08680555555555547</v>
       </c>
       <c r="O125" s="3">
-        <v>0.003501859650841792</v>
+        <v>0.01673565014005854</v>
       </c>
       <c r="P125" s="3">
-        <v>-0.003055562269926198</v>
+        <v>0.004543135986196583</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7564,46 +7570,46 @@
         <v>139</v>
       </c>
       <c r="C126" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D126" s="1">
-        <v>12835125.8433</v>
+        <v>15246115.58214143</v>
       </c>
       <c r="E126" s="2">
-        <v>0.7592842423430681</v>
+        <v>0.8082086059703799</v>
       </c>
       <c r="F126" s="3">
-        <v>-0.020123839009288</v>
+        <v>0.007625751576477561</v>
       </c>
       <c r="G126" s="3">
-        <v>-0.02553117170116541</v>
+        <v>-1.75868043232165E-08</v>
       </c>
       <c r="H126" s="3">
-        <v>-0.006799163179916403</v>
+        <v>-0.01363766867642833</v>
       </c>
       <c r="I126" s="3">
-        <v>0.007339663152641463</v>
+        <v>-0.0204807790400374</v>
       </c>
       <c r="J126" s="3">
-        <v>-0.01248049921996883</v>
+        <v>0.01118469462840331</v>
       </c>
       <c r="K126" s="3">
-        <v>0.009243999543592386</v>
+        <v>0.0002251203950463337</v>
       </c>
       <c r="L126" s="3">
-        <v>0.004761904761904751</v>
+        <v>-0.01392078071182542</v>
       </c>
       <c r="M126" s="3">
-        <v>0.009459415672877456</v>
+        <v>0.0145011776573375</v>
       </c>
       <c r="N126" s="3">
-        <v>-0.01248049921996883</v>
+        <v>0.05529104592228541</v>
       </c>
       <c r="O126" s="3">
-        <v>0.00483514796237935</v>
+        <v>0.004515060501278704</v>
       </c>
       <c r="P126" s="3">
-        <v>-0.001618249838188222</v>
+        <v>0.007363149026191919</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7614,46 +7620,46 @@
         <v>140</v>
       </c>
       <c r="C127" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D127" s="1">
-        <v>9431409.611335715</v>
+        <v>12802860.31780857</v>
       </c>
       <c r="E127" s="2">
-        <v>0.8933223796070278</v>
+        <v>0.7342166293405559</v>
       </c>
       <c r="F127" s="3">
-        <v>-0.04473244147157186</v>
+        <v>0.01051524710830717</v>
       </c>
       <c r="G127" s="3">
-        <v>-0.0653403944307074</v>
+        <v>0.00306196541161599</v>
       </c>
       <c r="H127" s="3">
-        <v>-0.0197340197340197</v>
+        <v>-0.00671834625322988</v>
       </c>
       <c r="I127" s="3">
-        <v>-1.772417113012339E-06</v>
+        <v>-0.01394488221027892</v>
       </c>
       <c r="J127" s="3">
-        <v>-0.02931180968564142</v>
+        <v>0.009984235417761571</v>
       </c>
       <c r="K127" s="3">
-        <v>-1.115763524892919E-05</v>
+        <v>0.0001395897944344001</v>
       </c>
       <c r="L127" s="3">
-        <v>0.009275618374558385</v>
+        <v>-0.0005200208008320121</v>
       </c>
       <c r="M127" s="3">
-        <v>0.007634466162653292</v>
+        <v>0.0236662956592748</v>
       </c>
       <c r="N127" s="3">
-        <v>-0.03177966101694907</v>
+        <v>0.06896551724137939</v>
       </c>
       <c r="O127" s="3">
-        <v>0.005213209665447509</v>
+        <v>0.008759976117154436</v>
       </c>
       <c r="P127" s="3">
-        <v>-0.015895409326099</v>
+        <v>0.0133641305354454</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7664,46 +7670,46 @@
         <v>141</v>
       </c>
       <c r="C128" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D128" s="1">
-        <v>9724269.749999998</v>
+        <v>9800458.748428572</v>
       </c>
       <c r="E128" s="2">
-        <v>0.8562647272406276</v>
+        <v>0.8690370295107099</v>
       </c>
       <c r="F128" s="3">
-        <v>-0.01960784313725495</v>
+        <v>0.01924759405074372</v>
       </c>
       <c r="G128" s="3">
-        <v>-0.02414831056192136</v>
+        <v>0.02912572681785562</v>
       </c>
       <c r="H128" s="3">
-        <v>-0.01036757775683321</v>
+        <v>-0.0152155536770921</v>
       </c>
       <c r="I128" s="3">
-        <v>0.009102082876126551</v>
+        <v>-0.01989840705520001</v>
       </c>
       <c r="J128" s="3">
-        <v>-0.02597402597402607</v>
+        <v>0.01128472222222231</v>
       </c>
       <c r="K128" s="3">
-        <v>-2.826067792738855E-06</v>
+        <v>-0.001398906236736519</v>
       </c>
       <c r="L128" s="3">
-        <v>-0.01960784313725495</v>
+        <v>0.00301334481274217</v>
       </c>
       <c r="M128" s="3">
-        <v>8.239570520437309E-05</v>
+        <v>0.0104701685287569</v>
       </c>
       <c r="N128" s="3">
-        <v>-0.06291834002677377</v>
+        <v>0.0673385249656437</v>
       </c>
       <c r="O128" s="3">
-        <v>-0.0004659537461295673</v>
+        <v>0.007929992575512159</v>
       </c>
       <c r="P128" s="3">
-        <v>-0.01207556831485705</v>
+        <v>0.01979794767330626</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7714,46 +7720,46 @@
         <v>142</v>
       </c>
       <c r="C129" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D129" s="1">
-        <v>8090185.724475713</v>
+        <v>9521654.679760002</v>
       </c>
       <c r="E129" s="2">
-        <v>0.9280930735710223</v>
+        <v>0.8408608378767337</v>
       </c>
       <c r="F129" s="3">
-        <v>-0.02709883103081824</v>
+        <v>0.003798670465337109</v>
       </c>
       <c r="G129" s="3">
-        <v>-0.03710869012590375</v>
+        <v>-0.002544816182436293</v>
       </c>
       <c r="H129" s="3">
-        <v>-0.002179836512261492</v>
+        <v>-0.008442776735459644</v>
       </c>
       <c r="I129" s="3">
-        <v>0.0009883559063318681</v>
+        <v>-0.02727068994547349</v>
       </c>
       <c r="J129" s="3">
-        <v>-0.01453175457481152</v>
+        <v>0.0004732607666825213</v>
       </c>
       <c r="K129" s="3">
-        <v>0.003385360763686814</v>
+        <v>-2.442817273262812E-07</v>
       </c>
       <c r="L129" s="3">
-        <v>0.0189204229271008</v>
+        <v>-0.02893890675241157</v>
       </c>
       <c r="M129" s="3">
-        <v>0.01688618881398622</v>
+        <v>0.002815220773997147</v>
       </c>
       <c r="N129" s="3">
-        <v>0.01835372636262528</v>
+        <v>-0.009372071227741339</v>
       </c>
       <c r="O129" s="3">
-        <v>0.01472749526795519</v>
+        <v>-4.46791832760057E-06</v>
       </c>
       <c r="P129" s="3">
-        <v>0.01013577478883651</v>
+        <v>-0.00127253023208181</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7764,46 +7770,46 @@
         <v>143</v>
       </c>
       <c r="C130" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D130" s="1">
-        <v>66626840.75189999</v>
+        <v>8511012.112255717</v>
       </c>
       <c r="E130" s="2">
-        <v>0.9715515565714246</v>
+        <v>0.9146591929850895</v>
       </c>
       <c r="F130" s="3">
-        <v>-0.02341463414634148</v>
+        <v>0.01363140676117777</v>
       </c>
       <c r="G130" s="3">
-        <v>-0.01054623962795575</v>
+        <v>0.0007299989147396576</v>
       </c>
       <c r="H130" s="3">
-        <v>-0.03378378378378375</v>
+        <v>-0.0111702127659574</v>
       </c>
       <c r="I130" s="3">
-        <v>-0.004882773435475377</v>
+        <v>-0.01898924872971801</v>
       </c>
       <c r="J130" s="3">
-        <v>-0.03638814016172508</v>
+        <v>0.02142857142857151</v>
       </c>
       <c r="K130" s="3">
-        <v>-0.01425592308085336</v>
+        <v>-4.545967560559653E-06</v>
       </c>
       <c r="L130" s="3">
-        <v>-0.007042952088086473</v>
+        <v>0.02030735455543364</v>
       </c>
       <c r="M130" s="3">
-        <v>0.004631832190032436</v>
+        <v>0.02004988394164365</v>
       </c>
       <c r="N130" s="3">
-        <v>0.0007998400319935131</v>
+        <v>0.1145083932853717</v>
       </c>
       <c r="O130" s="3">
-        <v>0.01585038184125968</v>
+        <v>0.01585498058338705</v>
       </c>
       <c r="P130" s="3">
-        <v>-0.004873199797981118</v>
+        <v>0.01038994142819166</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7814,46 +7820,46 @@
         <v>144</v>
       </c>
       <c r="C131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D131" s="1">
-        <v>660373235.3931428</v>
+        <v>66571721.30500714</v>
       </c>
       <c r="E131" s="2">
-        <v>0.9357131437166478</v>
+        <v>0.9289888554356261</v>
       </c>
       <c r="F131" s="3">
-        <v>-0.004320098745114337</v>
+        <v>0.02007189934092276</v>
       </c>
       <c r="G131" s="3">
-        <v>-1.231422524790468E-05</v>
+        <v>0.04280406964861645</v>
       </c>
       <c r="H131" s="3">
-        <v>-0.009853728391694374</v>
+        <v>-0.008829807878905424</v>
       </c>
       <c r="I131" s="3">
-        <v>0.004110124235219901</v>
+        <v>-0.008296265995554081</v>
       </c>
       <c r="J131" s="3">
-        <v>-0.0212995416554329</v>
+        <v>-0.004385964912280695</v>
       </c>
       <c r="K131" s="3">
-        <v>-0.009179395629627798</v>
+        <v>-0.009845087515323519</v>
       </c>
       <c r="L131" s="3">
-        <v>-0.07327035996936443</v>
+        <v>0.003931203931203847</v>
       </c>
       <c r="M131" s="3">
-        <v>-0.02092117325548672</v>
+        <v>0.003544633081981627</v>
       </c>
       <c r="N131" s="3">
-        <v>0.06537530266343823</v>
+        <v>0.08762776831345831</v>
       </c>
       <c r="O131" s="3">
-        <v>0.0104988312458106</v>
+        <v>0.01722823826252945</v>
       </c>
       <c r="P131" s="3">
-        <v>-0.004595854927437851</v>
+        <v>0.02317435136529904</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7864,46 +7870,46 @@
         <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D132" s="1">
-        <v>16957006.7226</v>
+        <v>644603497.1625856</v>
       </c>
       <c r="E132" s="2">
-        <v>0.8259014415275651</v>
+        <v>0.9009252875550374</v>
       </c>
       <c r="F132" s="3">
-        <v>-0.03118908382066279</v>
+        <v>0.002992364311756224</v>
       </c>
       <c r="G132" s="3">
-        <v>-0.07083916470889377</v>
+        <v>-0.001417207520125199</v>
       </c>
       <c r="H132" s="3">
-        <v>-0.0109452736318407</v>
+        <v>-0.0008908075513070576</v>
       </c>
       <c r="I132" s="3">
-        <v>-0.0002075785209103886</v>
+        <v>-0.001423990957808028</v>
       </c>
       <c r="J132" s="3">
-        <v>-0.02261553588987208</v>
+        <v>-0.003894107600341542</v>
       </c>
       <c r="K132" s="3">
-        <v>0.0006538998045947627</v>
+        <v>0.0001359912427554003</v>
       </c>
       <c r="L132" s="3">
-        <v>0.01532175689479062</v>
+        <v>-0.07000255134583488</v>
       </c>
       <c r="M132" s="3">
-        <v>0.01263298233106034</v>
+        <v>-0.007485913354992997</v>
       </c>
       <c r="N132" s="3">
-        <v>-0.006000000000000005</v>
+        <v>0.1030791345135421</v>
       </c>
       <c r="O132" s="3">
-        <v>0.00499295758580859</v>
+        <v>0.00510262460827741</v>
       </c>
       <c r="P132" s="3">
-        <v>-0.002673050097702621</v>
+        <v>-0.0006406081386848992</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7914,46 +7920,46 @@
         <v>146</v>
       </c>
       <c r="C133" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D133" s="1">
-        <v>40362089.71302858</v>
+        <v>17206035.53828571</v>
       </c>
       <c r="E133" s="2">
-        <v>0.9267964490746196</v>
+        <v>0.8131847992932064</v>
       </c>
       <c r="F133" s="3">
-        <v>-0.01781833985223816</v>
+        <v>0.00701402805611212</v>
       </c>
       <c r="G133" s="3">
-        <v>-0.001241904754506458</v>
+        <v>0.001065822304033671</v>
       </c>
       <c r="H133" s="3">
-        <v>0.01299865531151962</v>
+        <v>-0.01951219512195124</v>
       </c>
       <c r="I133" s="3">
-        <v>0.01997533241647046</v>
+        <v>-0.03948137601569755</v>
       </c>
       <c r="J133" s="3">
-        <v>0.04412104412104421</v>
+        <v>0.00701402805611212</v>
       </c>
       <c r="K133" s="3">
-        <v>0.06800450657953391</v>
+        <v>-0.005970552051691917</v>
       </c>
       <c r="L133" s="3">
-        <v>0.09628910987145298</v>
+        <v>-0.002976190476190589</v>
       </c>
       <c r="M133" s="3">
-        <v>0.075313455544705</v>
+        <v>0.01185651785017619</v>
       </c>
       <c r="N133" s="3">
-        <v>0.1331160691902733</v>
+        <v>0.03076923076923068</v>
       </c>
       <c r="O133" s="3">
-        <v>0.02001919182148427</v>
+        <v>0.007706196361077449</v>
       </c>
       <c r="P133" s="3">
-        <v>0.07165898106211946</v>
+        <v>0.006461170077104929</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7964,46 +7970,46 @@
         <v>147</v>
       </c>
       <c r="C134" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D134" s="1">
-        <v>41941112.37086572</v>
+        <v>41249909.43408286</v>
       </c>
       <c r="E134" s="2">
-        <v>1.204431956681562</v>
+        <v>0.9176457374954384</v>
       </c>
       <c r="F134" s="3">
-        <v>-0.02697453603798014</v>
+        <v>0.01303291362933502</v>
       </c>
       <c r="G134" s="3">
-        <v>-0.01222349965138105</v>
+        <v>4.766717197040046E-06</v>
       </c>
       <c r="H134" s="3">
-        <v>0.001332445036642289</v>
+        <v>-0.006929406669553925</v>
       </c>
       <c r="I134" s="3">
-        <v>1.000112106870154E-06</v>
+        <v>-0.01555808409719018</v>
       </c>
       <c r="J134" s="3">
-        <v>0.04568645640074226</v>
+        <v>0.02297568592460409</v>
       </c>
       <c r="K134" s="3">
-        <v>0.008375069580891858</v>
+        <v>0.0002658747920678578</v>
       </c>
       <c r="L134" s="3">
-        <v>0.09018375241779507</v>
+        <v>0.09398854961832055</v>
       </c>
       <c r="M134" s="3">
-        <v>0.0659668802409763</v>
+        <v>0.1000117821121705</v>
       </c>
       <c r="N134" s="3">
-        <v>0.266217354675653</v>
+        <v>0.1958279009126466</v>
       </c>
       <c r="O134" s="3">
-        <v>0.05391149893677438</v>
+        <v>0.02400306687070209</v>
       </c>
       <c r="P134" s="3">
-        <v>0.03717097491093408</v>
+        <v>0.05013882845211917</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8014,46 +8020,46 @@
         <v>148</v>
       </c>
       <c r="C135" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D135" s="1">
-        <v>31896538.24316001</v>
+        <v>41927960.48563428</v>
       </c>
       <c r="E135" s="2">
-        <v>0.7422761064833583</v>
+        <v>1.204222761484045</v>
       </c>
       <c r="F135" s="3">
-        <v>-0.01839080459770114</v>
+        <v>-0.00884368781782</v>
       </c>
       <c r="G135" s="3">
-        <v>-0.02309801145453743</v>
+        <v>-0.02150153193166863</v>
       </c>
       <c r="H135" s="3">
-        <v>0.00512323456106348</v>
+        <v>-0.0198950590292961</v>
       </c>
       <c r="I135" s="3">
-        <v>0.01649615896522818</v>
+        <v>-0.02617349986690866</v>
       </c>
       <c r="J135" s="3">
-        <v>0.01602631394779215</v>
+        <v>-0.01059368792760989</v>
       </c>
       <c r="K135" s="3">
-        <v>0.02858990348148209</v>
+        <v>-0.004682120194653397</v>
       </c>
       <c r="L135" s="3">
-        <v>0.05119107957425235</v>
+        <v>0.07660902977905854</v>
       </c>
       <c r="M135" s="3">
-        <v>0.04316161185845289</v>
+        <v>0.05816781653150319</v>
       </c>
       <c r="N135" s="3">
-        <v>0.08416100365917414</v>
+        <v>0.2908148574719264</v>
       </c>
       <c r="O135" s="3">
-        <v>0.02683421617203817</v>
+        <v>0.04509037198931647</v>
       </c>
       <c r="P135" s="3">
-        <v>0.03587575766996749</v>
+        <v>0.0267428481684249</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8064,46 +8070,46 @@
         <v>149</v>
       </c>
       <c r="C136" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D136" s="1">
-        <v>163516702.8159857</v>
+        <v>33518660.27727857</v>
       </c>
       <c r="E136" s="2">
-        <v>0.8065306564073232</v>
+        <v>0.7838998561635221</v>
       </c>
       <c r="F136" s="3">
-        <v>0</v>
+        <v>0.0004155412424683307</v>
       </c>
       <c r="G136" s="3">
-        <v>0.01307924669567595</v>
+        <v>-0.02054719202830205</v>
       </c>
       <c r="H136" s="3">
-        <v>0.007597340930674305</v>
+        <v>0.0006927606511949728</v>
       </c>
       <c r="I136" s="3">
-        <v>0.04986173913863239</v>
+        <v>-0.02604753375779394</v>
       </c>
       <c r="J136" s="3">
-        <v>0.001573316551290121</v>
+        <v>0.008095470723707143</v>
       </c>
       <c r="K136" s="3">
-        <v>0.01619865663412364</v>
+        <v>4.761266876702551E-08</v>
       </c>
       <c r="L136" s="3">
-        <v>0.01823416506717863</v>
+        <v>0.04507307191433939</v>
       </c>
       <c r="M136" s="3">
-        <v>0.006450250943865293</v>
+        <v>0.04335900795104978</v>
       </c>
       <c r="N136" s="3">
-        <v>-0.03486961795027275</v>
+        <v>0.1015785861358956</v>
       </c>
       <c r="O136" s="3">
-        <v>0.0001416673752918573</v>
+        <v>0.02982244359428754</v>
       </c>
       <c r="P136" s="3">
-        <v>0.00976474881977062</v>
+        <v>0.02167952778185927</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8114,46 +8120,46 @@
         <v>150</v>
       </c>
       <c r="C137" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D137" s="1">
-        <v>24885201.62983</v>
+        <v>170288491.4710714</v>
       </c>
       <c r="E137" s="2">
-        <v>0.8182530448111741</v>
+        <v>0.8018072500591857</v>
       </c>
       <c r="F137" s="3">
-        <v>-0.02323736114259816</v>
+        <v>0.01287688442211053</v>
       </c>
       <c r="G137" s="3">
-        <v>-0.02964598927077882</v>
+        <v>0.006325363099066253</v>
       </c>
       <c r="H137" s="3">
-        <v>-0.01890014801320743</v>
+        <v>0.01192343897081903</v>
       </c>
       <c r="I137" s="3">
-        <v>-0.0002522631482545751</v>
+        <v>0.001182227699706103</v>
       </c>
       <c r="J137" s="3">
-        <v>-0.03795913810427599</v>
+        <v>0.02315989847715745</v>
       </c>
       <c r="K137" s="3">
-        <v>-0.01150238514730678</v>
+        <v>0.02303337715217894</v>
       </c>
       <c r="L137" s="3">
-        <v>-0.02068416865552906</v>
+        <v>0.01255886970172686</v>
       </c>
       <c r="M137" s="3">
-        <v>-0.002147254852739278</v>
+        <v>0.02572221526366885</v>
       </c>
       <c r="N137" s="3">
-        <v>-0.05182658450704232</v>
+        <v>0.03266090297790582</v>
       </c>
       <c r="O137" s="3">
-        <v>9.941146201855303E-05</v>
+        <v>0.002899309694450232</v>
       </c>
       <c r="P137" s="3">
-        <v>-0.0205741872090428</v>
+        <v>0.02437779620792389</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8164,46 +8170,46 @@
         <v>151</v>
       </c>
       <c r="C138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D138" s="1">
-        <v>414516587.7845943</v>
+        <v>22459598.51057571</v>
       </c>
       <c r="E138" s="2">
-        <v>1.314970456360954</v>
+        <v>0.7397032904551726</v>
       </c>
       <c r="F138" s="3">
-        <v>-0.0381699694108259</v>
+        <v>0.01447429365446951</v>
       </c>
       <c r="G138" s="3">
-        <v>-0.09844844446460956</v>
+        <v>0.02617386385149623</v>
       </c>
       <c r="H138" s="3">
-        <v>-0.0588235294117647</v>
+        <v>-0.00295891658131342</v>
       </c>
       <c r="I138" s="3">
-        <v>-0.08577407798148476</v>
+        <v>-0.006235290763300937</v>
       </c>
       <c r="J138" s="3">
-        <v>-0.05365087673383932</v>
+        <v>0.0005710370031977443</v>
       </c>
       <c r="K138" s="3">
-        <v>-0.02722089076825993</v>
+        <v>-0.002214260942885474</v>
       </c>
       <c r="L138" s="3">
-        <v>0.009914816366429357</v>
+        <v>-0.04418503163866476</v>
       </c>
       <c r="M138" s="3">
-        <v>0.02617679970064312</v>
+        <v>-0.001027955562818007</v>
       </c>
       <c r="N138" s="3">
-        <v>0.1662635058861475</v>
+        <v>0.007590569292696882</v>
       </c>
       <c r="O138" s="3">
-        <v>0.06968486422472232</v>
+        <v>0.0002184753248319633</v>
       </c>
       <c r="P138" s="3">
-        <v>-0.0005220455338084042</v>
+        <v>0.003281306864939438</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8214,46 +8220,46 @@
         <v>152</v>
       </c>
       <c r="C139" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D139" s="1">
-        <v>149502987.7521343</v>
+        <v>417835684.2020628</v>
       </c>
       <c r="E139" s="2">
-        <v>0.967276963190525</v>
+        <v>1.286085547359001</v>
       </c>
       <c r="F139" s="3">
-        <v>-0.02814050005061228</v>
+        <v>0.01668735346848704</v>
       </c>
       <c r="G139" s="3">
-        <v>-0.06096113468851344</v>
+        <v>0.02546786445270396</v>
       </c>
       <c r="H139" s="3">
-        <v>-0.03166918809883997</v>
+        <v>-0.02718395354974933</v>
       </c>
       <c r="I139" s="3">
-        <v>-0.0009717453659706551</v>
+        <v>-0.02589223967892712</v>
       </c>
       <c r="J139" s="3">
-        <v>-0.04324862979571492</v>
+        <v>-0.04791424512462875</v>
       </c>
       <c r="K139" s="3">
-        <v>-0.02278547848362905</v>
+        <v>-0.06018045123971309</v>
       </c>
       <c r="L139" s="3">
-        <v>-0.03034893702974292</v>
+        <v>0.04065499717673635</v>
       </c>
       <c r="M139" s="3">
-        <v>2.155942096750189E-07</v>
+        <v>0.00966084151853481</v>
       </c>
       <c r="N139" s="3">
-        <v>-0.02145441573663555</v>
+        <v>0.2732297063903281</v>
       </c>
       <c r="O139" s="3">
-        <v>0.00452662774145756</v>
+        <v>0.05819028864769287</v>
       </c>
       <c r="P139" s="3">
-        <v>-0.0221199471101323</v>
+        <v>0.01756435298561939</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8264,46 +8270,46 @@
         <v>153</v>
       </c>
       <c r="C140" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D140" s="1">
-        <v>51500530.52306429</v>
+        <v>143125775.4719957</v>
       </c>
       <c r="E140" s="2">
-        <v>0.576832313579637</v>
+        <v>0.9137893325674792</v>
       </c>
       <c r="F140" s="3">
-        <v>-0.01291274672569635</v>
+        <v>0.01350928437304404</v>
       </c>
       <c r="G140" s="3">
-        <v>-0.008990045504993422</v>
+        <v>0.003246097453921706</v>
       </c>
       <c r="H140" s="3">
-        <v>-0.01473025225556979</v>
+        <v>-0.01650048084223316</v>
       </c>
       <c r="I140" s="3">
-        <v>-0.006350575867395112</v>
+        <v>-0.02562529681100734</v>
       </c>
       <c r="J140" s="3">
-        <v>-0.01654107700790292</v>
+        <v>-0.01853722598242233</v>
       </c>
       <c r="K140" s="3">
-        <v>-0.01181437617676058</v>
+        <v>-0.008946171375607813</v>
       </c>
       <c r="L140" s="3">
-        <v>0.01402311919651326</v>
+        <v>-0.03821214671088444</v>
       </c>
       <c r="M140" s="3">
-        <v>0.005130556901194414</v>
+        <v>7.115270585465184E-05</v>
       </c>
       <c r="N140" s="3">
-        <v>0.02313575525812625</v>
+        <v>0.06669960474308299</v>
       </c>
       <c r="O140" s="3">
-        <v>0.01843911800795866</v>
+        <v>0.003287189610069117</v>
       </c>
       <c r="P140" s="3">
-        <v>-0.001929744301899504</v>
+        <v>0.001658625079888179</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8314,46 +8320,46 @@
         <v>154</v>
       </c>
       <c r="C141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D141" s="1">
-        <v>515574553.7522485</v>
+        <v>50821073.46012858</v>
       </c>
       <c r="E141" s="2">
-        <v>1.260916980548802</v>
+        <v>0.5779729056405265</v>
       </c>
       <c r="F141" s="3">
-        <v>-0.01087801087801092</v>
+        <v>-0.008958566629339328</v>
       </c>
       <c r="G141" s="3">
-        <v>-0.0499804750626499</v>
+        <v>-0.04065310764559898</v>
       </c>
       <c r="H141" s="3">
-        <v>-0.01445161290322586</v>
+        <v>-0.02173913043478262</v>
       </c>
       <c r="I141" s="3">
-        <v>-8.072136202476993E-05</v>
+        <v>-0.03737317393541887</v>
       </c>
       <c r="J141" s="3">
-        <v>-0.01926040061633282</v>
+        <v>-0.0199335548172757</v>
       </c>
       <c r="K141" s="3">
-        <v>-0.005422118467494148</v>
+        <v>-0.02196345356551023</v>
       </c>
       <c r="L141" s="3">
-        <v>-0.01330577444774578</v>
+        <v>-0.01648453417299503</v>
       </c>
       <c r="M141" s="3">
-        <v>0.002245737980348268</v>
+        <v>0.0005399320988618169</v>
       </c>
       <c r="N141" s="3">
-        <v>0.186209038670601</v>
+        <v>0.06412825651302607</v>
       </c>
       <c r="O141" s="3">
-        <v>0.02668483688059915</v>
+        <v>0.01514099631104588</v>
       </c>
       <c r="P141" s="3">
-        <v>-0.00158819024357294</v>
+        <v>-0.01071176073332421</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8364,46 +8370,46 @@
         <v>155</v>
       </c>
       <c r="C142" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D142" s="1">
-        <v>67721583.5037</v>
+        <v>476878070.6745771</v>
       </c>
       <c r="E142" s="2">
-        <v>0.8384332331413514</v>
+        <v>1.169381738737135</v>
       </c>
       <c r="F142" s="3">
-        <v>-0.02653927813163473</v>
+        <v>0.008786885245901661</v>
       </c>
       <c r="G142" s="3">
-        <v>-0.05026232141929186</v>
+        <v>-4.331148733458445E-05</v>
       </c>
       <c r="H142" s="3">
-        <v>-0.01820128479657389</v>
+        <v>-0.006586594343277865</v>
       </c>
       <c r="I142" s="3">
-        <v>-2.137105008863017E-05</v>
+        <v>-0.004640221095825554</v>
       </c>
       <c r="J142" s="3">
-        <v>-0.0316789862724392</v>
+        <v>-0.0115651503469544</v>
       </c>
       <c r="K142" s="3">
-        <v>-0.0006069801907956457</v>
+        <v>-0.0005235138717203853</v>
       </c>
       <c r="L142" s="3">
-        <v>-0.01714898177920687</v>
+        <v>0.009846396218983852</v>
       </c>
       <c r="M142" s="3">
-        <v>0.001844783658518349</v>
+        <v>0.00458460316714432</v>
       </c>
       <c r="N142" s="3">
-        <v>0.01214128035320089</v>
+        <v>0.2430510665804783</v>
       </c>
       <c r="O142" s="3">
-        <v>0.01197656780166112</v>
+        <v>0.01421671622362617</v>
       </c>
       <c r="P142" s="3">
-        <v>0.0006189017338613517</v>
+        <v>0.002270645839904868</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8414,46 +8420,46 @@
         <v>156</v>
       </c>
       <c r="C143" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D143" s="1">
-        <v>475780543.0439999</v>
+        <v>65978940.41100001</v>
       </c>
       <c r="E143" s="2">
-        <v>0.9733542673877755</v>
+        <v>0.7879411904603799</v>
       </c>
       <c r="F143" s="3">
-        <v>-0.01322482197355031</v>
+        <v>0.01090512540894221</v>
       </c>
       <c r="G143" s="3">
-        <v>-1.062106294110012E-05</v>
+        <v>7.77184458496585E-06</v>
       </c>
       <c r="H143" s="3">
-        <v>-0.02242378432854614</v>
+        <v>-0.01904761904761895</v>
       </c>
       <c r="I143" s="3">
-        <v>0.002769878953714064</v>
+        <v>-0.0290018467689669</v>
       </c>
       <c r="J143" s="3">
-        <v>-0.04055390702274968</v>
+        <v>-0.004296455424274977</v>
       </c>
       <c r="K143" s="3">
-        <v>-0.01405408110838337</v>
+        <v>-0.004264010160241452</v>
       </c>
       <c r="L143" s="3">
-        <v>-0.01921132457027299</v>
+        <v>-0.0231822971548998</v>
       </c>
       <c r="M143" s="3">
-        <v>-1.419279366933029E-06</v>
+        <v>0.004762818281000481</v>
       </c>
       <c r="N143" s="3">
-        <v>-0.003339326997174333</v>
+        <v>0.06551724137931041</v>
       </c>
       <c r="O143" s="3">
-        <v>0.008438224259184271</v>
+        <v>0.01175919122463895</v>
       </c>
       <c r="P143" s="3">
-        <v>-0.001674974030057717</v>
+        <v>0.002385295062792723</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8464,46 +8470,46 @@
         <v>157</v>
       </c>
       <c r="C144" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D144" s="1">
-        <v>62824693.49744286</v>
+        <v>463622618.6351027</v>
       </c>
       <c r="E144" s="2">
-        <v>0.8128726735086161</v>
+        <v>0.920353293641195</v>
       </c>
       <c r="F144" s="3">
-        <v>-0.01784753363228695</v>
+        <v>0.01033324722293982</v>
       </c>
       <c r="G144" s="3">
-        <v>-0.002367476943241719</v>
+        <v>0.000995681597057776</v>
       </c>
       <c r="H144" s="3">
-        <v>-0.007881862656278224</v>
+        <v>-0.007612281146917033</v>
       </c>
       <c r="I144" s="3">
-        <v>0.009449918945730423</v>
+        <v>-0.006299270928440831</v>
       </c>
       <c r="J144" s="3">
-        <v>-0.03208414353897822</v>
+        <v>-0.01411646080161329</v>
       </c>
       <c r="K144" s="3">
-        <v>-0.0005228663737072926</v>
+        <v>-5.305232059737283E-05</v>
       </c>
       <c r="L144" s="3">
-        <v>-0.02440979955456566</v>
+        <v>-0.03049082796232023</v>
       </c>
       <c r="M144" s="3">
-        <v>-2.72274804879437E-05</v>
+        <v>2.533836763712407E-05</v>
       </c>
       <c r="N144" s="3">
-        <v>0.0383047312031858</v>
+        <v>0.07474580928826602</v>
       </c>
       <c r="O144" s="3">
-        <v>0.001721177785293427</v>
+        <v>0.007106743819166214</v>
       </c>
       <c r="P144" s="3">
-        <v>-0.0002750469270976182</v>
+        <v>0.00051050998234745</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8514,46 +8520,46 @@
         <v>158</v>
       </c>
       <c r="C145" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D145" s="1">
-        <v>6027904132.225965</v>
+        <v>63634331.75638</v>
       </c>
       <c r="E145" s="2">
-        <v>0.8185727216534221</v>
+        <v>0.8027918558893442</v>
       </c>
       <c r="F145" s="3">
-        <v>-0.04133518215832252</v>
+        <v>0.01123185097251383</v>
       </c>
       <c r="G145" s="3">
-        <v>-0.1046026028163916</v>
+        <v>-1.182441908566975E-06</v>
       </c>
       <c r="H145" s="3">
-        <v>-0.03472509301364199</v>
+        <v>-0.008683197565123972</v>
       </c>
       <c r="I145" s="3">
-        <v>-0.006188503340923541</v>
+        <v>-0.00519493501957977</v>
       </c>
       <c r="J145" s="3">
-        <v>-0.04033158596730668</v>
+        <v>0.001990589938472664</v>
       </c>
       <c r="K145" s="3">
-        <v>-0.003079934101758575</v>
+        <v>0.0008006731143132603</v>
       </c>
       <c r="L145" s="3">
-        <v>0.02669719671138328</v>
+        <v>-0.01939254405383876</v>
       </c>
       <c r="M145" s="3">
-        <v>0.03389798037732698</v>
+        <v>4.735126605024274E-05</v>
       </c>
       <c r="N145" s="3">
-        <v>0.01282449995089521</v>
+        <v>0.05698196048487161</v>
       </c>
       <c r="O145" s="3">
-        <v>0.02588517271960407</v>
+        <v>0.0002568434086902013</v>
       </c>
       <c r="P145" s="3">
-        <v>0.00487228292456832</v>
+        <v>0.0004240121901817515</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8564,46 +8570,96 @@
         <v>159</v>
       </c>
       <c r="C146" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D146" s="1">
-        <v>6331248633.42</v>
+        <v>6426018112.188407</v>
       </c>
       <c r="E146" s="2">
-        <v>0.4895201346941088</v>
+        <v>0.8182525564425724</v>
       </c>
       <c r="F146" s="3">
-        <v>-0.009224702485740484</v>
+        <v>0.02830279885918683</v>
       </c>
       <c r="G146" s="3">
-        <v>-0.02175722173913329</v>
+        <v>0.05636139715012413</v>
       </c>
       <c r="H146" s="3">
-        <v>-0.008474128362784264</v>
+        <v>-0.01058906520104502</v>
       </c>
       <c r="I146" s="3">
-        <v>2.65512214272159E-08</v>
+        <v>-0.015621024205023</v>
       </c>
       <c r="J146" s="3">
-        <v>-0.01572255548365663</v>
+        <v>-0.0005011785526903891</v>
       </c>
       <c r="K146" s="3">
-        <v>-0.003884745888602395</v>
+        <v>-0.009565208317199763</v>
       </c>
       <c r="L146" s="3">
-        <v>0.02597757724911129</v>
+        <v>0.04983713890899513</v>
       </c>
       <c r="M146" s="3">
-        <v>0.01815180132863256</v>
+        <v>0.02610000512961716</v>
       </c>
       <c r="N146" s="3">
-        <v>0.01015902645654589</v>
+        <v>0.1172629312231373</v>
       </c>
       <c r="O146" s="3">
-        <v>0.006703229365917226</v>
+        <v>0.03308748853170337</v>
       </c>
       <c r="P146" s="3">
-        <v>0.003137140283971746</v>
+        <v>0.04123070113987064</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" s="5">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>160</v>
+      </c>
+      <c r="C147" t="s">
+        <v>306</v>
+      </c>
+      <c r="D147" s="1">
+        <v>6691575169.981284</v>
+      </c>
+      <c r="E147" s="2">
+        <v>0.4977704543146678</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0.01050033442440516</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0.02238997184370319</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0.002154337438510225</v>
+      </c>
+      <c r="I147" s="3">
+        <v>6.68437498613785E-05</v>
+      </c>
+      <c r="J147" s="3">
+        <v>0.006894639992450565</v>
+      </c>
+      <c r="K147" s="3">
+        <v>0.0006543313145363539</v>
+      </c>
+      <c r="L147" s="3">
+        <v>0.03058785178746043</v>
+      </c>
+      <c r="M147" s="3">
+        <v>0.01978355391311056</v>
+      </c>
+      <c r="N147" s="3">
+        <v>0.04815904025737199</v>
+      </c>
+      <c r="O147" s="3">
+        <v>0.01140619328551725</v>
+      </c>
+      <c r="P147" s="3">
+        <v>0.02108676287840688</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -515,46 +515,46 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>5351409263.2524</v>
+        <v>5383631079.146914</v>
       </c>
       <c r="E2" s="2">
-        <v>0.7839991738380816</v>
+        <v>0.733182618676214</v>
       </c>
       <c r="F2" s="3">
-        <v>-0.02709947809584057</v>
+        <v>0.0002292490118576787</v>
       </c>
       <c r="G2" s="3">
-        <v>-0.05268325121864723</v>
+        <v>0.007544571094106892</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.02576670599507468</v>
+        <v>-0.01219445550429001</v>
       </c>
       <c r="I2" s="3">
-        <v>-0.03949921564909407</v>
+        <v>-0.01052508615553444</v>
       </c>
       <c r="J2" s="3">
-        <v>-0.04636670154633195</v>
+        <v>0.03150883714863355</v>
       </c>
       <c r="K2" s="3">
-        <v>-0.0566715601589594</v>
+        <v>0.007666253617403414</v>
       </c>
       <c r="L2" s="3">
-        <v>-0.04276822531704663</v>
+        <v>0.007581006075953385</v>
       </c>
       <c r="M2" s="3">
-        <v>-0.008875150682762505</v>
+        <v>-4.764789062901647E-07</v>
       </c>
       <c r="N2" s="3">
-        <v>0.02377346558381036</v>
+        <v>0.04522774959935236</v>
       </c>
       <c r="O2" s="3">
-        <v>0.009591966799996885</v>
+        <v>0.003189722930392199</v>
       </c>
       <c r="P2" s="3">
-        <v>-0.03077920095070487</v>
+        <v>0.007605412355755153</v>
       </c>
       <c r="Q2" s="3">
-        <v>-0.03925922625661039</v>
+        <v>0.01037314873815064</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -568,46 +568,46 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>5716882627.477543</v>
+        <v>5613774498.06393</v>
       </c>
       <c r="E3" s="2">
-        <v>0.4640151955949292</v>
+        <v>0.4332179227662801</v>
       </c>
       <c r="F3" s="3">
-        <v>-0.01208680900024055</v>
+        <v>-0.001539906322365474</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.02402439451015917</v>
+        <v>3.530546705368598E-06</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.01134975091643956</v>
+        <v>-0.006344765133396759</v>
       </c>
       <c r="I3" s="3">
-        <v>-0.01749733492720251</v>
+        <v>-0.00270945225145318</v>
       </c>
       <c r="J3" s="3">
-        <v>-0.02478428918287761</v>
+        <v>0.01775383645779442</v>
       </c>
       <c r="K3" s="3">
-        <v>-0.02787051905271563</v>
+        <v>0.009649147790740121</v>
       </c>
       <c r="L3" s="3">
-        <v>-0.01629071949216448</v>
+        <v>0.009322263759331022</v>
       </c>
       <c r="M3" s="3">
-        <v>-0.0001305515658871539</v>
+        <v>9.671197785969803E-05</v>
       </c>
       <c r="N3" s="3">
-        <v>0.005478715459298027</v>
+        <v>0.03897325709846186</v>
       </c>
       <c r="O3" s="3">
-        <v>0.006360498783628201</v>
+        <v>0.006319272090818511</v>
       </c>
       <c r="P3" s="3">
-        <v>-0.01207747303802316</v>
+        <v>0.00487292988429991</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.02602818431956358</v>
+        <v>0.01124821857134669</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -515,46 +515,46 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>5383631079.146914</v>
+        <v>5404626346.079615</v>
       </c>
       <c r="E2" s="2">
-        <v>0.733182618676214</v>
+        <v>0.7325266872306475</v>
       </c>
       <c r="F2" s="3">
-        <v>0.0002292490118576787</v>
+        <v>0.002142292490118606</v>
       </c>
       <c r="G2" s="3">
-        <v>0.007544571094106892</v>
+        <v>0.009551678489368599</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.01219445550429001</v>
+        <v>-0.01030517366559715</v>
       </c>
       <c r="I2" s="3">
-        <v>-0.01052508615553444</v>
+        <v>-0.01005149653630364</v>
       </c>
       <c r="J2" s="3">
-        <v>0.03150883714863355</v>
+        <v>0.03348170612404612</v>
       </c>
       <c r="K2" s="3">
-        <v>0.007666253617403414</v>
+        <v>0.007818394092221846</v>
       </c>
       <c r="L2" s="3">
-        <v>0.007581006075953385</v>
+        <v>0.009508110561647479</v>
       </c>
       <c r="M2" s="3">
-        <v>-4.764789062901647E-07</v>
+        <v>-4.049037939488472E-07</v>
       </c>
       <c r="N2" s="3">
-        <v>0.04522774959935236</v>
+        <v>0.0472268574355247</v>
       </c>
       <c r="O2" s="3">
-        <v>0.003189722930392199</v>
+        <v>0.003196217449636433</v>
       </c>
       <c r="P2" s="3">
-        <v>0.007605412355755153</v>
+        <v>0.008685036290795221</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.01037314873815064</v>
+        <v>0.01185627287331936</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -568,46 +568,46 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>5613774498.06393</v>
+        <v>5627542023.762</v>
       </c>
       <c r="E3" s="2">
-        <v>0.4332179227662801</v>
+        <v>0.433076398610286</v>
       </c>
       <c r="F3" s="3">
-        <v>-0.001539906322365474</v>
+        <v>-0.0005482999784180644</v>
       </c>
       <c r="G3" s="3">
-        <v>3.530546705368598E-06</v>
+        <v>2.94941377943227E-05</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.006344765133396759</v>
+        <v>-0.005357930666171272</v>
       </c>
       <c r="I3" s="3">
-        <v>-0.00270945225145318</v>
+        <v>-0.002526053164248547</v>
       </c>
       <c r="J3" s="3">
-        <v>0.01775383645779442</v>
+        <v>0.01876460410609484</v>
       </c>
       <c r="K3" s="3">
-        <v>0.009649147790740121</v>
+        <v>0.009772276038545583</v>
       </c>
       <c r="L3" s="3">
-        <v>0.009322263759331022</v>
+        <v>0.01032465771194727</v>
       </c>
       <c r="M3" s="3">
-        <v>9.671197785969803E-05</v>
+        <v>9.858054049949218E-05</v>
       </c>
       <c r="N3" s="3">
-        <v>0.03897325709846186</v>
+        <v>0.04000509851050648</v>
       </c>
       <c r="O3" s="3">
-        <v>0.006319272090818511</v>
+        <v>0.006325333124933085</v>
       </c>
       <c r="P3" s="3">
-        <v>0.00487292988429991</v>
+        <v>0.004935428289522537</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.01124821857134669</v>
+        <v>0.01139620700957153</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -515,46 +515,46 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>5404626346.079615</v>
+        <v>5143157152.04662</v>
       </c>
       <c r="E2" s="2">
-        <v>0.7325266872306475</v>
+        <v>0.7215725166667274</v>
       </c>
       <c r="F2" s="3">
-        <v>0.002142292490118606</v>
+        <v>-0.000552975005529786</v>
       </c>
       <c r="G2" s="3">
-        <v>0.009551678489368599</v>
+        <v>-3.666478859935983E-06</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.01030517366559715</v>
+        <v>0.002273609493706077</v>
       </c>
       <c r="I2" s="3">
-        <v>-0.01005149653630364</v>
+        <v>0.00580587194714836</v>
       </c>
       <c r="J2" s="3">
-        <v>0.03348170612404612</v>
+        <v>-0.01136958577199875</v>
       </c>
       <c r="K2" s="3">
-        <v>0.007818394092221846</v>
+        <v>-0.0009517851676377325</v>
       </c>
       <c r="L2" s="3">
-        <v>0.009508110561647479</v>
+        <v>-0.01066608279507661</v>
       </c>
       <c r="M2" s="3">
-        <v>-4.049037939488472E-07</v>
+        <v>2.585297167271899E-05</v>
       </c>
       <c r="N2" s="3">
-        <v>0.0472268574355247</v>
+        <v>0.06027186028191683</v>
       </c>
       <c r="O2" s="3">
-        <v>0.003196217449636433</v>
+        <v>0.002141575476312281</v>
       </c>
       <c r="P2" s="3">
-        <v>0.008685036290795221</v>
+        <v>1.109324640639151E-05</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.01185627287331936</v>
+        <v>1.537370971061408E-05</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -568,46 +568,46 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>5627542023.762</v>
+        <v>5337555119.372286</v>
       </c>
       <c r="E3" s="2">
-        <v>0.433076398610286</v>
+        <v>0.4276337656478431</v>
       </c>
       <c r="F3" s="3">
-        <v>-0.0005482999784180644</v>
+        <v>-0.0004088785046728972</v>
       </c>
       <c r="G3" s="3">
-        <v>2.94941377943227E-05</v>
+        <v>-7.046714356211101E-05</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.005357930666171272</v>
+        <v>-0.0005256395280925126</v>
       </c>
       <c r="I3" s="3">
-        <v>-0.002526053164248547</v>
+        <v>3.493784565212962E-06</v>
       </c>
       <c r="J3" s="3">
-        <v>0.01876460410609484</v>
+        <v>-0.005982806691449814</v>
       </c>
       <c r="K3" s="3">
-        <v>0.009772276038545583</v>
+        <v>-0.0008968262244430282</v>
       </c>
       <c r="L3" s="3">
-        <v>0.01032465771194727</v>
+        <v>0.0007894967689113716</v>
       </c>
       <c r="M3" s="3">
-        <v>9.858054049949218E-05</v>
+        <v>0.0002931181543093958</v>
       </c>
       <c r="N3" s="3">
-        <v>0.04000509851050648</v>
+        <v>0.04203962831707534</v>
       </c>
       <c r="O3" s="3">
-        <v>0.006325333124933085</v>
+        <v>0.005505512329667993</v>
       </c>
       <c r="P3" s="3">
-        <v>0.004935428289522537</v>
+        <v>0.0001113255053736424</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.01139620700957153</v>
+        <v>0.0002603290813694049</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -515,46 +515,46 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>5143157152.04662</v>
+        <v>5032407580.52296</v>
       </c>
       <c r="E2" s="2">
-        <v>0.7215725166667274</v>
+        <v>0.720685876524447</v>
       </c>
       <c r="F2" s="3">
-        <v>-0.000552975005529786</v>
+        <v>-0.01797141554378068</v>
       </c>
       <c r="G2" s="3">
-        <v>-3.666478859935983E-06</v>
+        <v>-0.07402507265718089</v>
       </c>
       <c r="H2" s="3">
-        <v>0.002273609493706077</v>
+        <v>-0.01722198182604923</v>
       </c>
       <c r="I2" s="3">
-        <v>0.00580587194714836</v>
+        <v>-0.02726106216301193</v>
       </c>
       <c r="J2" s="3">
-        <v>-0.01136958577199875</v>
+        <v>-0.01811807799026887</v>
       </c>
       <c r="K2" s="3">
-        <v>-0.0009517851676377325</v>
+        <v>-0.00387870320512566</v>
       </c>
       <c r="L2" s="3">
-        <v>-0.01066608279507661</v>
+        <v>-0.02755807436009207</v>
       </c>
       <c r="M2" s="3">
-        <v>2.585297167271899E-05</v>
+        <v>0.0006899906654017124</v>
       </c>
       <c r="N2" s="3">
-        <v>0.06027186028191683</v>
+        <v>0.07145859244328188</v>
       </c>
       <c r="O2" s="3">
-        <v>0.002141575476312281</v>
+        <v>0.0003616316063199433</v>
       </c>
       <c r="P2" s="3">
-        <v>1.109324640639151E-05</v>
+        <v>-0.001594356269861974</v>
       </c>
       <c r="Q2" s="3">
-        <v>1.537370971061408E-05</v>
+        <v>-0.002212276279855597</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -568,46 +568,46 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>5337555119.372286</v>
+        <v>5046860895.663172</v>
       </c>
       <c r="E3" s="2">
-        <v>0.4276337656478431</v>
+        <v>0.4196192545165436</v>
       </c>
       <c r="F3" s="3">
-        <v>-0.0004088785046728972</v>
+        <v>-0.01142367306952158</v>
       </c>
       <c r="G3" s="3">
-        <v>-7.046714356211101E-05</v>
+        <v>-0.04635213326654215</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.0005256395280925126</v>
+        <v>-0.01193647093107966</v>
       </c>
       <c r="I3" s="3">
-        <v>3.493784565212962E-06</v>
+        <v>-0.02183774304395368</v>
       </c>
       <c r="J3" s="3">
-        <v>-0.005982806691449814</v>
+        <v>-0.01131989642382244</v>
       </c>
       <c r="K3" s="3">
-        <v>-0.0008968262244430282</v>
+        <v>-0.006397209113870169</v>
       </c>
       <c r="L3" s="3">
-        <v>0.0007894967689113716</v>
+        <v>-0.0142804812103521</v>
       </c>
       <c r="M3" s="3">
-        <v>0.0002931181543093958</v>
+        <v>0.001084873409966945</v>
       </c>
       <c r="N3" s="3">
-        <v>0.04203962831707534</v>
+        <v>0.04584965606588733</v>
       </c>
       <c r="O3" s="3">
-        <v>0.005505512329667993</v>
+        <v>0.002841801769471655</v>
       </c>
       <c r="P3" s="3">
-        <v>0.0001113255053736424</v>
+        <v>-0.002656167851951612</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0002603290813694049</v>
+        <v>-0.006329947502079869</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -515,46 +515,46 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>5032407580.52296</v>
+        <v>4932368822.72792</v>
       </c>
       <c r="E2" s="2">
-        <v>0.720685876524447</v>
+        <v>0.7108468842901225</v>
       </c>
       <c r="F2" s="3">
-        <v>-0.01797141554378068</v>
+        <v>-0.01698735568993943</v>
       </c>
       <c r="G2" s="3">
-        <v>-0.07402507265718089</v>
+        <v>-0.05423764853508583</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.01722198182604923</v>
+        <v>-0.01724205617015934</v>
       </c>
       <c r="I2" s="3">
-        <v>-0.02726106216301193</v>
+        <v>-0.02935500889105041</v>
       </c>
       <c r="J2" s="3">
-        <v>-0.01811807799026887</v>
+        <v>-0.01813632049200252</v>
       </c>
       <c r="K2" s="3">
-        <v>-0.00387870320512566</v>
+        <v>-0.004380145654185137</v>
       </c>
       <c r="L2" s="3">
-        <v>-0.02755807436009207</v>
+        <v>-0.005751006823363075</v>
       </c>
       <c r="M2" s="3">
-        <v>0.0006899906654017124</v>
+        <v>0.0007665477733334858</v>
       </c>
       <c r="N2" s="3">
-        <v>0.07145859244328188</v>
+        <v>0.06376631765025834</v>
       </c>
       <c r="O2" s="3">
-        <v>0.0003616316063199433</v>
+        <v>0.0002327607273185254</v>
       </c>
       <c r="P2" s="3">
-        <v>-0.001594356269861974</v>
+        <v>-0.001806798940425825</v>
       </c>
       <c r="Q2" s="3">
-        <v>-0.002212276279855597</v>
+        <v>-0.00254175544741982</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -568,46 +568,46 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>5046860895.663172</v>
+        <v>4949251588.825714</v>
       </c>
       <c r="E3" s="2">
-        <v>0.4196192545165436</v>
+        <v>0.4111348135848094</v>
       </c>
       <c r="F3" s="3">
-        <v>-0.01142367306952158</v>
+        <v>-0.007939977963937852</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.04635213326654215</v>
+        <v>-0.02441458611841494</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.01193647093107966</v>
+        <v>-0.009458672875436554</v>
       </c>
       <c r="I3" s="3">
-        <v>-0.02183774304395368</v>
+        <v>-0.02083373301498324</v>
       </c>
       <c r="J3" s="3">
-        <v>-0.01131989642382244</v>
+        <v>-0.007639152112429658</v>
       </c>
       <c r="K3" s="3">
-        <v>-0.006397209113870169</v>
+        <v>-0.006842130801463517</v>
       </c>
       <c r="L3" s="3">
-        <v>-0.0142804812103521</v>
+        <v>-0.00106834471140022</v>
       </c>
       <c r="M3" s="3">
-        <v>0.001084873409966945</v>
+        <v>0.001205745834540973</v>
       </c>
       <c r="N3" s="3">
-        <v>0.04584965606588733</v>
+        <v>0.04377507084238035</v>
       </c>
       <c r="O3" s="3">
-        <v>0.002841801769471655</v>
+        <v>0.002568553109500483</v>
       </c>
       <c r="P3" s="3">
-        <v>-0.002656167851951612</v>
+        <v>-0.002818192483461272</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.006329947502079869</v>
+        <v>-0.006854667594039519</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -515,46 +515,46 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>4932368822.72792</v>
+        <v>5508837055.00856</v>
       </c>
       <c r="E2" s="2">
-        <v>0.7108468842901225</v>
+        <v>0.6790945385600965</v>
       </c>
       <c r="F2" s="3">
-        <v>-0.01698735568993943</v>
+        <v>-0.02920723226703758</v>
       </c>
       <c r="G2" s="3">
-        <v>-0.05423764853508583</v>
+        <v>-0.1212031153698003</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.01724205617015934</v>
+        <v>-0.03656233647057042</v>
       </c>
       <c r="I2" s="3">
-        <v>-0.02935500889105041</v>
+        <v>-0.07358422952054675</v>
       </c>
       <c r="J2" s="3">
-        <v>-0.01813632049200252</v>
+        <v>0.003332964759031228</v>
       </c>
       <c r="K2" s="3">
-        <v>-0.004380145654185137</v>
+        <v>1.717669252453871E-05</v>
       </c>
       <c r="L2" s="3">
-        <v>-0.005751006823363075</v>
+        <v>-0.006452319315506684</v>
       </c>
       <c r="M2" s="3">
-        <v>0.0007665477733334858</v>
+        <v>0.004149311829919116</v>
       </c>
       <c r="N2" s="3">
-        <v>0.06376631765025834</v>
+        <v>-0.0008730052616264067</v>
       </c>
       <c r="O2" s="3">
-        <v>0.0002327607273185254</v>
+        <v>0.000616973406403265</v>
       </c>
       <c r="P2" s="3">
-        <v>-0.001806798940425825</v>
+        <v>-0.000427914284550934</v>
       </c>
       <c r="Q2" s="3">
-        <v>-0.00254175544741982</v>
+        <v>-0.0006301247620960887</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -568,46 +568,46 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>4949251588.825714</v>
+        <v>6432050306.694688</v>
       </c>
       <c r="E3" s="2">
-        <v>0.4111348135848094</v>
+        <v>0.4179923999058109</v>
       </c>
       <c r="F3" s="3">
-        <v>-0.007939977963937852</v>
+        <v>-0.02103917892591513</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.02441458611841494</v>
+        <v>-0.08755698441087048</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.009458672875436554</v>
+        <v>-0.02023383575151421</v>
       </c>
       <c r="I3" s="3">
-        <v>-0.02083373301498324</v>
+        <v>-0.01692699511435613</v>
       </c>
       <c r="J3" s="3">
-        <v>-0.007639152112429658</v>
+        <v>0.01600990978357407</v>
       </c>
       <c r="K3" s="3">
-        <v>-0.006842130801463517</v>
+        <v>0.00637639942306883</v>
       </c>
       <c r="L3" s="3">
-        <v>-0.00106834471140022</v>
+        <v>0.01176525351735699</v>
       </c>
       <c r="M3" s="3">
-        <v>0.001205745834540973</v>
+        <v>0.01172632244561198</v>
       </c>
       <c r="N3" s="3">
-        <v>0.04377507084238035</v>
+        <v>0.0282544676120305</v>
       </c>
       <c r="O3" s="3">
-        <v>0.002568553109500483</v>
+        <v>0.005449134636136878</v>
       </c>
       <c r="P3" s="3">
-        <v>-0.002818192483461272</v>
+        <v>0.009051360934340403</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.006854667594039519</v>
+        <v>0.02165436724777773</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -515,46 +515,46 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>5508837055.00856</v>
+        <v>5744541718.139336</v>
       </c>
       <c r="E2" s="2">
-        <v>0.6790945385600965</v>
+        <v>0.7663611748613192</v>
       </c>
       <c r="F2" s="3">
-        <v>-0.02920723226703758</v>
+        <v>-0.01501046462955217</v>
       </c>
       <c r="G2" s="3">
-        <v>-0.1212031153698003</v>
+        <v>3.803585010301753E-09</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.03656233647057042</v>
+        <v>-0.06899989713318092</v>
       </c>
       <c r="I2" s="3">
-        <v>-0.07358422952054675</v>
+        <v>-0.1461878626495816</v>
       </c>
       <c r="J2" s="3">
-        <v>0.003332964759031228</v>
+        <v>-0.1026837806301051</v>
       </c>
       <c r="K2" s="3">
-        <v>1.717669252453871E-05</v>
+        <v>-0.1629552812106568</v>
       </c>
       <c r="L2" s="3">
-        <v>-0.006452319315506684</v>
+        <v>-0.07162245332744172</v>
       </c>
       <c r="M2" s="3">
-        <v>0.004149311829919116</v>
+        <v>-0.009670319991913033</v>
       </c>
       <c r="N2" s="3">
-        <v>-0.0008730052616264067</v>
+        <v>-0.0665550671976898</v>
       </c>
       <c r="O2" s="3">
-        <v>0.000616973406403265</v>
+        <v>-0.0001093540768887598</v>
       </c>
       <c r="P2" s="3">
-        <v>-0.000427914284550934</v>
+        <v>-0.03811269359480142</v>
       </c>
       <c r="Q2" s="3">
-        <v>-0.0006301247620960887</v>
+        <v>-0.04973202563621298</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -568,46 +568,46 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>6432050306.694688</v>
+        <v>7229581385.8689</v>
       </c>
       <c r="E3" s="2">
-        <v>0.4179923999058109</v>
+        <v>0.4636682742439511</v>
       </c>
       <c r="F3" s="3">
-        <v>-0.02103917892591513</v>
+        <v>-0.008136411182959172</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.08755698441087048</v>
+        <v>-0.0003624971091008791</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.02023383575151421</v>
+        <v>-0.04026706692200201</v>
       </c>
       <c r="I3" s="3">
-        <v>-0.01692699511435613</v>
+        <v>-0.08606791319952789</v>
       </c>
       <c r="J3" s="3">
-        <v>0.01600990978357407</v>
+        <v>-0.06389984238188461</v>
       </c>
       <c r="K3" s="3">
-        <v>0.00637639942306883</v>
+        <v>-0.1029220290696711</v>
       </c>
       <c r="L3" s="3">
-        <v>0.01176525351735699</v>
+        <v>-0.02497064167655002</v>
       </c>
       <c r="M3" s="3">
-        <v>0.01172632244561198</v>
+        <v>-0.0001672732859233096</v>
       </c>
       <c r="N3" s="3">
-        <v>0.0282544676120305</v>
+        <v>-0.01492193725467044</v>
       </c>
       <c r="O3" s="3">
-        <v>0.005449134636136878</v>
+        <v>0.0004199290554471834</v>
       </c>
       <c r="P3" s="3">
-        <v>0.009051360934340403</v>
+        <v>-0.00764221718188566</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.02165436724777773</v>
+        <v>-0.01648207912078289</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>pair</t>
   </si>
@@ -64,10 +64,874 @@
     <t>mom weighted</t>
   </si>
   <si>
+    <t>BLUEBIRD/USDT</t>
+  </si>
+  <si>
+    <t>QNT/USDT</t>
+  </si>
+  <si>
+    <t>APT/USDT</t>
+  </si>
+  <si>
+    <t>ICP/USDT</t>
+  </si>
+  <si>
+    <t>CVX/USDT</t>
+  </si>
+  <si>
+    <t>LDO/USDT</t>
+  </si>
+  <si>
+    <t>LUNA2/USDT</t>
+  </si>
+  <si>
+    <t>1000LUNC/USDT</t>
+  </si>
+  <si>
+    <t>SPELL/USDT</t>
+  </si>
+  <si>
+    <t>FOOTBALL/USDT</t>
+  </si>
+  <si>
+    <t>STG/USDT</t>
+  </si>
+  <si>
+    <t>INJ/USDT</t>
+  </si>
+  <si>
+    <t>OP/USDT</t>
+  </si>
+  <si>
+    <t>GAL/USDT</t>
+  </si>
+  <si>
+    <t>DAR/USDT</t>
+  </si>
+  <si>
+    <t>JASMY/USDT</t>
+  </si>
+  <si>
+    <t>WOO/USDT</t>
+  </si>
+  <si>
+    <t>BNX/USDT</t>
+  </si>
+  <si>
+    <t>APE/USDT</t>
+  </si>
+  <si>
+    <t>GMT/USDT</t>
+  </si>
+  <si>
+    <t>API3/USDT</t>
+  </si>
+  <si>
+    <t>IMX/USDT</t>
+  </si>
+  <si>
+    <t>FLOW/USDT</t>
+  </si>
+  <si>
+    <t>DUSK/USDT</t>
+  </si>
+  <si>
+    <t>ROSE/USDT</t>
+  </si>
+  <si>
+    <t>ANT/USDT</t>
+  </si>
+  <si>
+    <t>PEOPLE/USDT</t>
+  </si>
+  <si>
+    <t>ENS/USDT</t>
+  </si>
+  <si>
+    <t>LPT/USDT</t>
+  </si>
+  <si>
+    <t>CTSI/USDT</t>
+  </si>
+  <si>
+    <t>ARPA/USDT</t>
+  </si>
+  <si>
+    <t>KLAY/USDT</t>
+  </si>
+  <si>
+    <t>AR/USDT</t>
+  </si>
+  <si>
+    <t>CELO/USDT</t>
+  </si>
+  <si>
+    <t>GALA/USDT</t>
+  </si>
+  <si>
+    <t>1000XEC/USDT</t>
+  </si>
+  <si>
+    <t>DYDX/USDT</t>
+  </si>
+  <si>
+    <t>ATA/USDT</t>
+  </si>
+  <si>
+    <t>MASK/USDT</t>
+  </si>
+  <si>
+    <t>C98/USDT</t>
+  </si>
+  <si>
+    <t>AUDIO/USDT</t>
+  </si>
+  <si>
+    <t>IOTX/USDT</t>
+  </si>
+  <si>
+    <t>BTCDOM/USDT</t>
+  </si>
+  <si>
+    <t>GTC/USDT</t>
+  </si>
+  <si>
+    <t>BAKE/USDT</t>
+  </si>
+  <si>
+    <t>1000SHIB/USDT</t>
+  </si>
+  <si>
+    <t>DGB/USDT</t>
+  </si>
+  <si>
+    <t>NKN/USDT</t>
+  </si>
+  <si>
+    <t>OGN/USDT</t>
+  </si>
+  <si>
+    <t>MTL/USDT</t>
+  </si>
+  <si>
+    <t>HOT/USDT</t>
+  </si>
+  <si>
+    <t>CELR/USDT</t>
+  </si>
+  <si>
+    <t>DENT/USDT</t>
+  </si>
+  <si>
+    <t>STMX/USDT</t>
+  </si>
+  <si>
+    <t>LINA/USDT</t>
+  </si>
+  <si>
+    <t>ONE/USDT</t>
+  </si>
+  <si>
+    <t>HBAR/USDT</t>
+  </si>
+  <si>
+    <t>ALICE/USDT</t>
+  </si>
+  <si>
+    <t>MANA/USDT</t>
+  </si>
+  <si>
+    <t>CHR/USDT</t>
+  </si>
+  <si>
+    <t>COTI/USDT</t>
+  </si>
+  <si>
+    <t>XEM/USDT</t>
+  </si>
+  <si>
+    <t>SFP/USDT</t>
+  </si>
+  <si>
+    <t>RVN/USDT</t>
+  </si>
+  <si>
+    <t>REEF/USDT</t>
+  </si>
+  <si>
+    <t>UNFI/USDT</t>
+  </si>
+  <si>
+    <t>LIT/USDT</t>
+  </si>
+  <si>
+    <t>ANKR/USDT</t>
+  </si>
+  <si>
+    <t>SAND/USDT</t>
+  </si>
+  <si>
+    <t>CHZ/USDT</t>
+  </si>
+  <si>
+    <t>1INCH/USDT</t>
+  </si>
+  <si>
+    <t>GRT/USDT</t>
+  </si>
+  <si>
+    <t>SKL/USDT</t>
+  </si>
+  <si>
+    <t>ZEN/USDT</t>
+  </si>
+  <si>
+    <t>ALPHA/USDT</t>
+  </si>
+  <si>
+    <t>AXS/USDT</t>
+  </si>
+  <si>
+    <t>CTK/USDT</t>
+  </si>
+  <si>
+    <t>BEL/USDT</t>
+  </si>
+  <si>
+    <t>OCEAN/USDT</t>
+  </si>
+  <si>
+    <t>MATIC/USDT</t>
+  </si>
+  <si>
+    <t>LRC/USDT</t>
+  </si>
+  <si>
+    <t>RSR/USDT</t>
+  </si>
+  <si>
+    <t>FIL/USDT</t>
+  </si>
+  <si>
+    <t>AAVE/USDT</t>
+  </si>
+  <si>
+    <t>NEAR/USDT</t>
+  </si>
+  <si>
+    <t>KSM/USDT</t>
+  </si>
+  <si>
+    <t>REN/USDT</t>
+  </si>
+  <si>
+    <t>TOMO/USDT</t>
+  </si>
+  <si>
+    <t>FLM/USDT</t>
+  </si>
+  <si>
+    <t>ENJ/USDT</t>
+  </si>
+  <si>
+    <t>HNT/USDT</t>
+  </si>
+  <si>
+    <t>FTM/USDT</t>
+  </si>
+  <si>
+    <t>AVAX/USDT</t>
+  </si>
+  <si>
+    <t>UNI/USDT</t>
+  </si>
+  <si>
+    <t>BLZ/USDT</t>
+  </si>
+  <si>
+    <t>STORJ/USDT</t>
+  </si>
+  <si>
+    <t>ICX/USDT</t>
+  </si>
+  <si>
+    <t>SOL/USDT</t>
+  </si>
+  <si>
+    <t>EGLD/USDT</t>
+  </si>
+  <si>
+    <t>SUSHI/USDT</t>
+  </si>
+  <si>
+    <t>RUNE/USDT</t>
+  </si>
+  <si>
+    <t>TRB/USDT</t>
+  </si>
+  <si>
+    <t>CRV/USDT</t>
+  </si>
+  <si>
+    <t>BAL/USDT</t>
+  </si>
+  <si>
+    <t>YFI/USDT</t>
+  </si>
+  <si>
+    <t>DEFI/USDT</t>
+  </si>
+  <si>
+    <t>DOT/USDT</t>
+  </si>
+  <si>
+    <t>SNX/USDT</t>
+  </si>
+  <si>
+    <t>MKR/USDT</t>
+  </si>
+  <si>
+    <t>WAVES/USDT</t>
+  </si>
+  <si>
+    <t>RLC/USDT</t>
+  </si>
+  <si>
+    <t>BAND/USDT</t>
+  </si>
+  <si>
+    <t>KAVA/USDT</t>
+  </si>
+  <si>
+    <t>SXP/USDT</t>
+  </si>
+  <si>
+    <t>DOGE/USDT</t>
+  </si>
+  <si>
+    <t>OMG/USDT</t>
+  </si>
+  <si>
+    <t>COMP/USDT</t>
+  </si>
+  <si>
+    <t>ZRX/USDT</t>
+  </si>
+  <si>
+    <t>KNC/USDT</t>
+  </si>
+  <si>
+    <t>ZIL/USDT</t>
+  </si>
+  <si>
+    <t>ALGO/USDT</t>
+  </si>
+  <si>
+    <t>THETA/USDT</t>
+  </si>
+  <si>
+    <t>IOST/USDT</t>
+  </si>
+  <si>
+    <t>QTUM/USDT</t>
+  </si>
+  <si>
+    <t>NEO/USDT</t>
+  </si>
+  <si>
+    <t>VET/USDT</t>
+  </si>
+  <si>
+    <t>BAT/USDT</t>
+  </si>
+  <si>
+    <t>IOTA/USDT</t>
+  </si>
+  <si>
+    <t>ONT/USDT</t>
+  </si>
+  <si>
+    <t>ATOM/USDT</t>
+  </si>
+  <si>
+    <t>BNB/USDT</t>
+  </si>
+  <si>
+    <t>XTZ/USDT</t>
+  </si>
+  <si>
+    <t>ZEC/USDT</t>
+  </si>
+  <si>
+    <t>DASH/USDT</t>
+  </si>
+  <si>
+    <t>XMR/USDT</t>
+  </si>
+  <si>
+    <t>ADA/USDT</t>
+  </si>
+  <si>
+    <t>XLM/USDT</t>
+  </si>
+  <si>
+    <t>LINK/USDT</t>
+  </si>
+  <si>
+    <t>ETC/USDT</t>
+  </si>
+  <si>
+    <t>TRX/USDT</t>
+  </si>
+  <si>
+    <t>LTC/USDT</t>
+  </si>
+  <si>
+    <t>EOS/USDT</t>
+  </si>
+  <si>
+    <t>XRP/USDT</t>
+  </si>
+  <si>
+    <t>BCH/USDT</t>
+  </si>
+  <si>
     <t>ETH/USDT</t>
   </si>
   <si>
     <t>BTC/USDT</t>
+  </si>
+  <si>
+    <t>BLUEBIRD</t>
+  </si>
+  <si>
+    <t>QNT</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>ICP</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>LDO</t>
+  </si>
+  <si>
+    <t>LUNA2</t>
+  </si>
+  <si>
+    <t>1000LUNC</t>
+  </si>
+  <si>
+    <t>SPELL</t>
+  </si>
+  <si>
+    <t>FOOTBALL</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>INJ</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>GAL</t>
+  </si>
+  <si>
+    <t>DAR</t>
+  </si>
+  <si>
+    <t>JASMY</t>
+  </si>
+  <si>
+    <t>WOO</t>
+  </si>
+  <si>
+    <t>BNX</t>
+  </si>
+  <si>
+    <t>APE</t>
+  </si>
+  <si>
+    <t>GMT</t>
+  </si>
+  <si>
+    <t>API3</t>
+  </si>
+  <si>
+    <t>IMX</t>
+  </si>
+  <si>
+    <t>FLOW</t>
+  </si>
+  <si>
+    <t>DUSK</t>
+  </si>
+  <si>
+    <t>ROSE</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>PEOPLE</t>
+  </si>
+  <si>
+    <t>ENS</t>
+  </si>
+  <si>
+    <t>LPT</t>
+  </si>
+  <si>
+    <t>CTSI</t>
+  </si>
+  <si>
+    <t>ARPA</t>
+  </si>
+  <si>
+    <t>KLAY</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CELO</t>
+  </si>
+  <si>
+    <t>GALA</t>
+  </si>
+  <si>
+    <t>1000XEC</t>
+  </si>
+  <si>
+    <t>DYDX</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>MASK</t>
+  </si>
+  <si>
+    <t>C98</t>
+  </si>
+  <si>
+    <t>AUDIO</t>
+  </si>
+  <si>
+    <t>IOTX</t>
+  </si>
+  <si>
+    <t>BTCDOM</t>
+  </si>
+  <si>
+    <t>GTC</t>
+  </si>
+  <si>
+    <t>BAKE</t>
+  </si>
+  <si>
+    <t>1000SHIB</t>
+  </si>
+  <si>
+    <t>DGB</t>
+  </si>
+  <si>
+    <t>NKN</t>
+  </si>
+  <si>
+    <t>OGN</t>
+  </si>
+  <si>
+    <t>MTL</t>
+  </si>
+  <si>
+    <t>HOT</t>
+  </si>
+  <si>
+    <t>CELR</t>
+  </si>
+  <si>
+    <t>DENT</t>
+  </si>
+  <si>
+    <t>STMX</t>
+  </si>
+  <si>
+    <t>LINA</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>HBAR</t>
+  </si>
+  <si>
+    <t>ALICE</t>
+  </si>
+  <si>
+    <t>MANA</t>
+  </si>
+  <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>COTI</t>
+  </si>
+  <si>
+    <t>XEM</t>
+  </si>
+  <si>
+    <t>SFP</t>
+  </si>
+  <si>
+    <t>RVN</t>
+  </si>
+  <si>
+    <t>REEF</t>
+  </si>
+  <si>
+    <t>UNFI</t>
+  </si>
+  <si>
+    <t>LIT</t>
+  </si>
+  <si>
+    <t>ANKR</t>
+  </si>
+  <si>
+    <t>SAND</t>
+  </si>
+  <si>
+    <t>CHZ</t>
+  </si>
+  <si>
+    <t>1INCH</t>
+  </si>
+  <si>
+    <t>GRT</t>
+  </si>
+  <si>
+    <t>SKL</t>
+  </si>
+  <si>
+    <t>ZEN</t>
+  </si>
+  <si>
+    <t>ALPHA</t>
+  </si>
+  <si>
+    <t>AXS</t>
+  </si>
+  <si>
+    <t>CTK</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>OCEAN</t>
+  </si>
+  <si>
+    <t>MATIC</t>
+  </si>
+  <si>
+    <t>LRC</t>
+  </si>
+  <si>
+    <t>RSR</t>
+  </si>
+  <si>
+    <t>FIL</t>
+  </si>
+  <si>
+    <t>AAVE</t>
+  </si>
+  <si>
+    <t>NEAR</t>
+  </si>
+  <si>
+    <t>KSM</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
+    <t>TOMO</t>
+  </si>
+  <si>
+    <t>FLM</t>
+  </si>
+  <si>
+    <t>ENJ</t>
+  </si>
+  <si>
+    <t>HNT</t>
+  </si>
+  <si>
+    <t>FTM</t>
+  </si>
+  <si>
+    <t>AVAX</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>STORJ</t>
+  </si>
+  <si>
+    <t>ICX</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>EGLD</t>
+  </si>
+  <si>
+    <t>SUSHI</t>
+  </si>
+  <si>
+    <t>RUNE</t>
+  </si>
+  <si>
+    <t>TRB</t>
+  </si>
+  <si>
+    <t>CRV</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>YFI</t>
+  </si>
+  <si>
+    <t>DEFI</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>SNX</t>
+  </si>
+  <si>
+    <t>MKR</t>
+  </si>
+  <si>
+    <t>WAVES</t>
+  </si>
+  <si>
+    <t>RLC</t>
+  </si>
+  <si>
+    <t>BAND</t>
+  </si>
+  <si>
+    <t>KAVA</t>
+  </si>
+  <si>
+    <t>SXP</t>
+  </si>
+  <si>
+    <t>DOGE</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>ZRX</t>
+  </si>
+  <si>
+    <t>KNC</t>
+  </si>
+  <si>
+    <t>ZIL</t>
+  </si>
+  <si>
+    <t>ALGO</t>
+  </si>
+  <si>
+    <t>THETA</t>
+  </si>
+  <si>
+    <t>IOST</t>
+  </si>
+  <si>
+    <t>QTUM</t>
+  </si>
+  <si>
+    <t>NEO</t>
+  </si>
+  <si>
+    <t>VET</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>IOTA</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>ATOM</t>
+  </si>
+  <si>
+    <t>BNB</t>
+  </si>
+  <si>
+    <t>XTZ</t>
+  </si>
+  <si>
+    <t>ZEC</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>XMR</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>XLM</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>LTC</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>BCH</t>
   </si>
   <si>
     <t>ETH</t>
@@ -442,7 +1306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,49 +1376,49 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1">
-        <v>5744541718.139336</v>
+        <v>2974229.6584</v>
       </c>
       <c r="E2" s="2">
-        <v>0.7663611748613192</v>
+        <v>1.005274485635292</v>
       </c>
       <c r="F2" s="3">
-        <v>-0.01501046462955217</v>
+        <v>0.02604482132041183</v>
       </c>
       <c r="G2" s="3">
-        <v>3.803585010301753E-09</v>
+        <v>0.04733889975936598</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.06899989713318092</v>
+        <v>-0.01296431172614718</v>
       </c>
       <c r="I2" s="3">
-        <v>-0.1461878626495816</v>
+        <v>0.01294104298695495</v>
       </c>
       <c r="J2" s="3">
-        <v>-0.1026837806301051</v>
+        <v>-0.08122033898305088</v>
       </c>
       <c r="K2" s="3">
-        <v>-0.1629552812106568</v>
+        <v>-0.05736166902568387</v>
       </c>
       <c r="L2" s="3">
-        <v>-0.07162245332744172</v>
+        <v>-0.1724474841231071</v>
       </c>
       <c r="M2" s="3">
-        <v>-0.009670319991913033</v>
+        <v>-0.0964989789291624</v>
       </c>
       <c r="N2" s="3">
-        <v>-0.0665550671976898</v>
+        <v>-0.2016965127238454</v>
       </c>
       <c r="O2" s="3">
-        <v>-0.0001093540768887598</v>
+        <v>-0.06089018657059062</v>
       </c>
       <c r="P2" s="3">
-        <v>-0.03811269359480142</v>
+        <v>-0.07693032397742314</v>
       </c>
       <c r="Q2" s="3">
-        <v>-0.04973202563621298</v>
+        <v>-0.07652668507627183</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -565,49 +1429,7681 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11899519.17285714</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.290301244275279</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-0.008118215816838463</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.0001662686735905073</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-0.04614035087719303</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-0.0503704817073586</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-0.1005789909015716</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-0.1567929260826277</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-0.08912715697771822</v>
+      </c>
+      <c r="M3" s="3">
+        <v>-0.02412568905035081</v>
+      </c>
+      <c r="N3" s="3">
+        <v>-0.1531152647975079</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-0.01338476543920375</v>
+      </c>
+      <c r="P3" s="3">
+        <v>-0.08862047692392934</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-0.0686820053201643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="1">
+        <v>92651991.26593858</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.486609898816528</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.01118831999598625</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.0003218872857929115</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-0.08104596024074415</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-0.04390431088018405</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-0.1380519619373463</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-0.2114590917993214</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-0.1654278556491854</v>
+      </c>
+      <c r="M4" s="3">
+        <v>-0.0355093122261868</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-0.214555728760717</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-0.05109536891099462</v>
+      </c>
+      <c r="P4" s="3">
+        <v>-0.1234842020127541</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-0.08306429421131822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1">
-        <v>7229581385.8689</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.4636682742439511</v>
-      </c>
-      <c r="F3" s="3">
-        <v>-0.008136411182959172</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-0.0003624971091008791</v>
-      </c>
-      <c r="H3" s="3">
-        <v>-0.04026706692200201</v>
-      </c>
-      <c r="I3" s="3">
-        <v>-0.08606791319952789</v>
-      </c>
-      <c r="J3" s="3">
-        <v>-0.06389984238188461</v>
-      </c>
-      <c r="K3" s="3">
-        <v>-0.1029220290696711</v>
-      </c>
-      <c r="L3" s="3">
-        <v>-0.02497064167655002</v>
-      </c>
-      <c r="M3" s="3">
-        <v>-0.0001672732859233096</v>
-      </c>
-      <c r="N3" s="3">
-        <v>-0.01492193725467044</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0.0004199290554471834</v>
-      </c>
-      <c r="P3" s="3">
-        <v>-0.00764221718188566</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>-0.01648207912078289</v>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20181374.851</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.235741115808348</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.005801104972375665</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.002181528865669803</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-0.03982067510548518</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3.523303450184017E-06</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-0.08448579331154132</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-0.07109466614089212</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-0.1673908072261606</v>
+      </c>
+      <c r="M5" s="3">
+        <v>-0.09105509671325746</v>
+      </c>
+      <c r="N5" s="3">
+        <v>-0.1522700814901048</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-0.03971344890080942</v>
+      </c>
+      <c r="P5" s="3">
+        <v>-0.08107488142707478</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-0.0656083061329884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4421404.359285714</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.9337539907112544</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.02027027027027026</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.05417724968858682</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-0.02031029619181948</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6.704055769144924E-05</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-0.06765100671140946</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-0.07485427987013356</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-0.114030612244898</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-0.06344877774078762</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-0.1189751395230848</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-0.01650682470271186</v>
+      </c>
+      <c r="P6" s="3">
+        <v>-0.06915152880546059</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-0.07405754566337847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="1">
+        <v>17250256.17385714</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.244337891656323</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-0.00399017802332721</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-0.002138096757906338</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-0.05723416618245199</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-0.1000400056756138</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-0.1476974260199615</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-0.2237024641316779</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-0.06005600077242448</v>
+      </c>
+      <c r="M7" s="3">
+        <v>-0.001979457497952511</v>
+      </c>
+      <c r="N7" s="3">
+        <v>-0.109983543609435</v>
+      </c>
+      <c r="O7" s="3">
+        <v>-5.902974583051796E-05</v>
+      </c>
+      <c r="P7" s="3">
+        <v>-0.05606082018367069</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-0.04505273090177203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="1">
+        <v>18403015.20715714</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.326087662422311</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.02134099022194636</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.0056103128867041</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-0.1214872171417128</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-0.01688771697725767</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-0.1772318079519879</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-0.2599785312229875</v>
+      </c>
+      <c r="L8" s="3">
+        <v>-0.2025086347936739</v>
+      </c>
+      <c r="M8" s="3">
+        <v>-0.09207208375139926</v>
+      </c>
+      <c r="N8" s="3">
+        <v>-0.1943560235063662</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-0.01687252481612455</v>
+      </c>
+      <c r="P8" s="3">
+        <v>-0.1432140536288828</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-0.1079974255753797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="1">
+        <v>31730736.54464286</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.313353835334333</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.005014326647564514</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-4.254623070855481E-05</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-0.07453825857519791</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-0.004163186099387959</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-0.1350184956843403</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-0.1677294548598761</v>
+      </c>
+      <c r="L9" s="3">
+        <v>-0.1785714285714285</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-0.09280249226099564</v>
+      </c>
+      <c r="N9" s="3">
+        <v>-0.1927502876869965</v>
+      </c>
+      <c r="O9" s="3">
+        <v>-0.03116081872907204</v>
+      </c>
+      <c r="P9" s="3">
+        <v>-0.1302659735604359</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-0.09918574115807477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4641903.874469142</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.170916114612584</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.00387239535312557</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.0007279660876222179</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-0.06524725274725267</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-0.003761280658010965</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-0.1140764849471115</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-0.1480417292247341</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-0.1360101571179178</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-0.05253858056875234</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-0.1362843090591781</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-0.02599868899469212</v>
+      </c>
+      <c r="P10" s="3">
+        <v>-0.09441144481396524</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-0.08063040864819149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="1">
+        <v>38481842.40411428</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.323015488343268</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-0.0337246797669736</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.01243443964308498</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-0.1342006544816028</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-0.01584836197130465</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-0.1697714644338655</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-0.1148368489723418</v>
+      </c>
+      <c r="L11" s="3">
+        <v>-0.1762150668286755</v>
+      </c>
+      <c r="M11" s="3">
+        <v>-0.01017079434296477</v>
+      </c>
+      <c r="N11" s="3">
+        <v>-0.2232072526244934</v>
+      </c>
+      <c r="O11" s="3">
+        <v>-0.03800795291026297</v>
+      </c>
+      <c r="P11" s="3">
+        <v>-0.06250382165765329</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-0.04724345422132817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6773310.4277</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.8600092233223628</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.03864306784660767</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.06190324375931511</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-0.03534246575342457</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9.882242689735136E-05</v>
+      </c>
+      <c r="J12" s="3">
+        <v>-0.06654294803817593</v>
+      </c>
+      <c r="K12" s="3">
+        <v>-0.06740245368638866</v>
+      </c>
+      <c r="L12" s="3">
+        <v>-0.1433090024330899</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-0.07869307897018445</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-0.172113802022102</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-0.0474510606880956</v>
+      </c>
+      <c r="P12" s="3">
+        <v>-0.07304776632828655</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-0.08493835222614303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10464522.32357143</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.238309112737082</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-0.02437325905292474</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-0.02651184319175067</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-0.07402511566424315</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-0.0175616452098094</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-0.124375</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-0.1564589504770197</v>
+      </c>
+      <c r="L13" s="3">
+        <v>-0.1544960772480386</v>
+      </c>
+      <c r="M13" s="3">
+        <v>-0.07366414843211258</v>
+      </c>
+      <c r="N13" s="3">
+        <v>-0.1330445544554456</v>
+      </c>
+      <c r="O13" s="3">
+        <v>-0.01303896646395327</v>
+      </c>
+      <c r="P13" s="3">
+        <v>-0.1033543514437791</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-0.08346409663038898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="1">
+        <v>135037868.0262286</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.686614118758639</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.0229922992299229</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.028058996251241</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-0.07288135593220334</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-0.02225763007768328</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-0.1398575524928314</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-0.1863521995423003</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-0.09954488234724509</v>
+      </c>
+      <c r="M14" s="3">
+        <v>-0.020215931021243</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-0.09971923709942879</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-0.0007901764829801247</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-0.05996758406033589</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-0.03555501130541496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10812915.41417143</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.40797524264418</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-0.02687877125617123</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-0.02694378132387227</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-0.1668101761252447</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-0.1597724294736794</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-0.2298118668596237</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-0.376703613937706</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-0.2556122805790614</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-0.09892558646229312</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-0.2932270916334661</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-0.04918045228220293</v>
+      </c>
+      <c r="P15" s="3">
+        <v>-0.1960763390478796</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-0.1392612122068623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="1">
+        <v>46198042.84234285</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.423187013404045</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-0.02314814814814817</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-0.05497980565046434</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-0.08526011560693646</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-0.02594587831398855</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-0.1520428667113195</v>
+      </c>
+      <c r="K16" s="3">
+        <v>-0.1913218061930902</v>
+      </c>
+      <c r="L16" s="3">
+        <v>-0.04452830188679258</v>
+      </c>
+      <c r="M16" s="3">
+        <v>-5.307024064388577E-06</v>
+      </c>
+      <c r="N16" s="3">
+        <v>-0.08194343727338654</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.0003255867627543907</v>
+      </c>
+      <c r="P16" s="3">
+        <v>-0.06846162146192544</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-0.04810444503577626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14950358.70647057</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.296908215759692</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.00548210254756533</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-1.529101048443133E-05</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-0.107357572287432</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-0.02574800724844564</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-0.1554712892741061</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-0.2201513202258166</v>
+      </c>
+      <c r="L17" s="3">
+        <v>-0.1865379598225932</v>
+      </c>
+      <c r="M17" s="3">
+        <v>-0.07249297335277026</v>
+      </c>
+      <c r="N17" s="3">
+        <v>-0.2430201505219714</v>
+      </c>
+      <c r="O17" s="3">
+        <v>-0.04860892955787624</v>
+      </c>
+      <c r="P17" s="3">
+        <v>-0.1463221467892934</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-0.1128238259355787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="1">
+        <v>26994849.47752714</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.421351459571368</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-0.01579970831307735</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-0.002361695416968245</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-0.09627259876497289</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-0.01913762461617118</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-0.1261151079136692</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-0.1568818556817073</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-0.04714465014119874</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-8.845661998659636E-05</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-0.003936039360393671</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.00643315056176498</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-0.003148867388680958</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-0.002215403774679735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="1">
+        <v>96932754.8022857</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.01828351812758</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.03128086927889362</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.04653366661594692</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.003203074951953921</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.0003378005650518791</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.02857142857142861</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2.506754630551992E-05</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.2357466956007103</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.07837379595062637</v>
+      </c>
+      <c r="N19" s="3">
+        <v>-0.08634772462077014</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2.505979901306955E-06</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.02327936708112622</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.01153424029480415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="1">
+        <v>356045664.51</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.697644351387031</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.02031204003532541</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.003484190151899606</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-0.05558583106267023</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-0.002258754545051848</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-0.1341493879590307</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-0.1804226607761233</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-0.1888602855136905</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-0.131836087875688</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-0.1289268660467454</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-0.007223503863230675</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-0.1303814769612167</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-0.07680140828948699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="1">
+        <v>74147214.31307143</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.324057854686585</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-0.02736069402736083</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-0.06974907768704054</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-0.1577578734469808</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-0.1507726828878181</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-0.2226666666666667</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-0.3621958124030182</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-0.2701552328492739</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-0.1644645048697388</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-0.2498713329902214</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-0.0376047324781438</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-0.2071679189299801</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-0.1564644008543104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3458454.296285715</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.091540576591248</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.00340136054421769</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5.483234525779743E-06</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-0.05448717948717954</v>
+      </c>
+      <c r="I22" s="3">
+        <v>-0.002658231215822904</v>
+      </c>
+      <c r="J22" s="3">
+        <v>-0.125925925925926</v>
+      </c>
+      <c r="K22" s="3">
+        <v>-0.1543260135533658</v>
+      </c>
+      <c r="L22" s="3">
+        <v>-0.1923340177960302</v>
+      </c>
+      <c r="M22" s="3">
+        <v>-0.09304161085326217</v>
+      </c>
+      <c r="N22" s="3">
+        <v>-0.1939890710382514</v>
+      </c>
+      <c r="O22" s="3">
+        <v>-0.03985193043170359</v>
+      </c>
+      <c r="P22" s="3">
+        <v>-0.123683812203314</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-0.1133112362983004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="1">
+        <v>16042417.67378571</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.161291794402666</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.01115151515151527</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.004892762008570565</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-0.03783160322952703</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-0.0001435285108979315</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-0.09835711197578899</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-0.1177089607537099</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-0.05548007246376804</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-8.277769485543272E-05</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-0.1745497724124282</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-0.01705108890210028</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-0.05889586922428265</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-0.0507158231102261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="1">
+        <v>21078751.88571429</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.447125470609428</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-0.001673516704401254</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-0.1028708133971292</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-0.01826030278670126</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-0.1712707182320442</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-0.2181183432228664</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-0.2647058823529412</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-0.1373073861626029</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-0.3303571428571429</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-0.09972826225286416</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-0.1777128646927347</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-0.1228040472661257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3260670.908025715</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.8584562116395552</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.006654111738857536</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.001774903280159144</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-0.04433849821215734</v>
+      </c>
+      <c r="I25" s="3">
+        <v>-0.00200476160395458</v>
+      </c>
+      <c r="J25" s="3">
+        <v>-0.09216485507246371</v>
+      </c>
+      <c r="K25" s="3">
+        <v>-0.1140995767317783</v>
+      </c>
+      <c r="L25" s="3">
+        <v>-0.1498250450641502</v>
+      </c>
+      <c r="M25" s="3">
+        <v>-0.06849648315049338</v>
+      </c>
+      <c r="N25" s="3">
+        <v>-0.1464764743453268</v>
+      </c>
+      <c r="O25" s="3">
+        <v>-0.03237511835253042</v>
+      </c>
+      <c r="P25" s="3">
+        <v>-0.09129802994113584</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>-0.1063514116424958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10112288.41765286</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.9490643442088538</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.01228960726689827</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.008539140720777324</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-0.05675877520537708</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-0.005409297756492161</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-0.109936575052854</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-0.1390116819934995</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-0.1613545816733067</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-0.07671912689338407</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-0.1975857687420584</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-0.03704273938295208</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-0.1078654044434418</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-0.1136544693746335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15710086.0772</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.896447897909399</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-0.01132075471698108</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-0.01205843215334604</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-0.06141248720573177</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-0.04378731343808002</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-0.1493506493506494</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-0.2113807765581809</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-0.2248520710059172</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-0.1109245434280404</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-0.1563937442502299</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-0.01254580821687224</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-0.1336591438391351</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-0.07047867963389763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="1">
+        <v>47485150.36573</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.542986822580606</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.02090592334494775</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.03449781434649159</v>
+      </c>
+      <c r="H28" s="3">
+        <v>-0.008220502901353965</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.002165191973816352</v>
+      </c>
+      <c r="J28" s="3">
+        <v>-0.07068418667874939</v>
+      </c>
+      <c r="K28" s="3">
+        <v>-0.0528564326700016</v>
+      </c>
+      <c r="L28" s="3">
+        <v>-0.1201201201201201</v>
+      </c>
+      <c r="M28" s="3">
+        <v>-0.02888632697349803</v>
+      </c>
+      <c r="N28" s="3">
+        <v>-0.2222222222222222</v>
+      </c>
+      <c r="O28" s="3">
+        <v>-0.07946108061466842</v>
+      </c>
+      <c r="P28" s="3">
+        <v>-0.04087137982174981</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>-0.02648848274244719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="1">
+        <v>17096031.73431428</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.07058855046662</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.02086083971481385</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.01826444781965388</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-0.0343851469486303</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-0.00115686826652145</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-0.09799346710219317</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-0.1293098445300426</v>
+      </c>
+      <c r="L29" s="3">
+        <v>-0.1473939572153201</v>
+      </c>
+      <c r="M29" s="3">
+        <v>-0.07273860605843818</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-0.166391144972328</v>
+      </c>
+      <c r="O29" s="3">
+        <v>-0.03394319698885571</v>
+      </c>
+      <c r="P29" s="3">
+        <v>-0.1010242252942404</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>-0.09436325958297298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6077217.505714286</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.084405567011304</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.01299626134947488</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.00580901424934224</v>
+      </c>
+      <c r="H30" s="3">
+        <v>-0.05544488711819383</v>
+      </c>
+      <c r="I30" s="3">
+        <v>-0.001110746292106284</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-0.1422972565571299</v>
+      </c>
+      <c r="K30" s="3">
+        <v>-0.1575718668942125</v>
+      </c>
+      <c r="L30" s="3">
+        <v>-0.2172238272114458</v>
+      </c>
+      <c r="M30" s="3">
+        <v>-0.1125996496836697</v>
+      </c>
+      <c r="N30" s="3">
+        <v>-0.2263766145479266</v>
+      </c>
+      <c r="O30" s="3">
+        <v>-0.0678695423235726</v>
+      </c>
+      <c r="P30" s="3">
+        <v>-0.1350857582889411</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>-0.1245712511982456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="1">
+        <v>13332644.1425</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.72050369052138</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.00293542074363987</v>
+      </c>
+      <c r="G31" s="3">
+        <v>-0.001563840390167542</v>
+      </c>
+      <c r="H31" s="3">
+        <v>-0.05703771849126045</v>
+      </c>
+      <c r="I31" s="3">
+        <v>-0.007047114206455745</v>
+      </c>
+      <c r="J31" s="3">
+        <v>-0.1163793103448277</v>
+      </c>
+      <c r="K31" s="3">
+        <v>-0.1526573764444762</v>
+      </c>
+      <c r="L31" s="3">
+        <v>-0.1570723684210527</v>
+      </c>
+      <c r="M31" s="3">
+        <v>-0.07909451292836936</v>
+      </c>
+      <c r="N31" s="3">
+        <v>-0.07239819004524893</v>
+      </c>
+      <c r="O31" s="3">
+        <v>-0.007738145319919729</v>
+      </c>
+      <c r="P31" s="3">
+        <v>-0.07574635148680914</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>-0.04402568381812366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5849546.92328</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.9334250600698797</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.01733648542159178</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.01427894255866409</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-0.07455197132616494</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-0.01349671706388734</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-0.1208716377255703</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-0.1758388772178727</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-0.1178681243594124</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-0.02805810804035802</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-0.09371709371709379</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-0.00135684892240779</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-0.0608876008787259</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-0.06523030448118421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="1">
+        <v>11594973.36720571</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.035321552467759</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.01162040025823109</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.0005445465714813317</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-0.03509852216748758</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5.464929608304251E-05</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-0.09106728538283058</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-0.0862721720902405</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-0.1620320855614973</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-0.09829587776711404</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-0.1615837346174425</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-0.02614680293412405</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-0.09228402492867727</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-0.08913561657121116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="1">
+        <v>16380933.08942857</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.174559462231011</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.02406417112299461</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.011555750811889</v>
+      </c>
+      <c r="H34" s="3">
+        <v>-0.03901643457533559</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.0001871222945894911</v>
+      </c>
+      <c r="J34" s="3">
+        <v>-0.0944556094100957</v>
+      </c>
+      <c r="K34" s="3">
+        <v>-0.07431860998042264</v>
+      </c>
+      <c r="L34" s="3">
+        <v>-0.1377757766771725</v>
+      </c>
+      <c r="M34" s="3">
+        <v>-0.07275085800170679</v>
+      </c>
+      <c r="N34" s="3">
+        <v>-0.1726968355113943</v>
+      </c>
+      <c r="O34" s="3">
+        <v>-0.04634080939651824</v>
+      </c>
+      <c r="P34" s="3">
+        <v>-0.07353473399106472</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>-0.06260622501936987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="1">
+        <v>63935721.62855715</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.61110283774253</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.02761341222879687</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.005729745033721749</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-0.0986159169550172</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-0.02797527889343682</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-0.08916083916083906</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-0.1466803082026263</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-0.1154499151103565</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-0.01095956150142473</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-0.2672292545710266</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-0.05040078862220361</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-0.07881993485202553</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-0.04892296941296909</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="1">
+        <v>29604542.46345</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.359509912380762</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.00445986124876114</v>
+      </c>
+      <c r="G36" s="3">
+        <v>-3.309400610858619E-05</v>
+      </c>
+      <c r="H36" s="3">
+        <v>-0.08446251129177959</v>
+      </c>
+      <c r="I36" s="3">
+        <v>-0.03526646966653831</v>
+      </c>
+      <c r="J36" s="3">
+        <v>-0.1550646102542727</v>
+      </c>
+      <c r="K36" s="3">
+        <v>-0.2273637316479025</v>
+      </c>
+      <c r="L36" s="3">
+        <v>-0.208203125</v>
+      </c>
+      <c r="M36" s="3">
+        <v>-0.1156249427145061</v>
+      </c>
+      <c r="N36" s="3">
+        <v>-0.181671376665321</v>
+      </c>
+      <c r="O36" s="3">
+        <v>-0.04076483965575612</v>
+      </c>
+      <c r="P36" s="3">
+        <v>-0.1486481596899135</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>-0.1093395188488197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3447903.78565</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.830516961289708</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.008113590263691775</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.008066654591800152</v>
+      </c>
+      <c r="H37" s="3">
+        <v>-0.06684190762298162</v>
+      </c>
+      <c r="I37" s="3">
+        <v>-0.02002651295375905</v>
+      </c>
+      <c r="J37" s="3">
+        <v>-0.120042492917847</v>
+      </c>
+      <c r="K37" s="3">
+        <v>-0.1670816168649891</v>
+      </c>
+      <c r="L37" s="3">
+        <v>-0.1547619047619047</v>
+      </c>
+      <c r="M37" s="3">
+        <v>-0.07304493410301421</v>
+      </c>
+      <c r="N37" s="3">
+        <v>-0.1538985359210078</v>
+      </c>
+      <c r="O37" s="3">
+        <v>-0.02228162210057912</v>
+      </c>
+      <c r="P37" s="3">
+        <v>-0.113471735012011</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>-0.1366278357949499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="1">
+        <v>185040554.16</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.702734391652299</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.01522842639593902</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.00155666129736948</v>
+      </c>
+      <c r="H38" s="3">
+        <v>-0.08076165462902167</v>
+      </c>
+      <c r="I38" s="3">
+        <v>-0.01676408520118325</v>
+      </c>
+      <c r="J38" s="3">
+        <v>-0.1520290732889159</v>
+      </c>
+      <c r="K38" s="3">
+        <v>-0.2087307034597215</v>
+      </c>
+      <c r="L38" s="3">
+        <v>-0.1341991341991343</v>
+      </c>
+      <c r="M38" s="3">
+        <v>-0.04057255467835948</v>
+      </c>
+      <c r="N38" s="3">
+        <v>-0.2378878606423517</v>
+      </c>
+      <c r="O38" s="3">
+        <v>-0.02957883615061491</v>
+      </c>
+      <c r="P38" s="3">
+        <v>-0.1246516290690405</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>-0.07320673716355793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="1">
+        <v>10254632.11328571</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.304806579552325</v>
+      </c>
+      <c r="F39" s="3">
+        <v>-0.0009970089730807863</v>
+      </c>
+      <c r="G39" s="3">
+        <v>-0.0007031140835530847</v>
+      </c>
+      <c r="H39" s="3">
+        <v>-0.06267539756782037</v>
+      </c>
+      <c r="I39" s="3">
+        <v>-0.001266461769938985</v>
+      </c>
+      <c r="J39" s="3">
+        <v>-0.1077471059661621</v>
+      </c>
+      <c r="K39" s="3">
+        <v>-0.1173705718417967</v>
+      </c>
+      <c r="L39" s="3">
+        <v>-0.1061552185548618</v>
+      </c>
+      <c r="M39" s="3">
+        <v>-0.02837294217379488</v>
+      </c>
+      <c r="N39" s="3">
+        <v>-0.1472340425531915</v>
+      </c>
+      <c r="O39" s="3">
+        <v>-0.01515274438153705</v>
+      </c>
+      <c r="P39" s="3">
+        <v>-0.0728717570077958</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>-0.05584870443617617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="1">
+        <v>177795497.88</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.311149561477884</v>
+      </c>
+      <c r="F40" s="3">
+        <v>-0.0312249799839873</v>
+      </c>
+      <c r="G40" s="3">
+        <v>-0.1417612168153055</v>
+      </c>
+      <c r="H40" s="3">
+        <v>-0.137869611685073</v>
+      </c>
+      <c r="I40" s="3">
+        <v>-0.05314506433065865</v>
+      </c>
+      <c r="J40" s="3">
+        <v>-0.1835357624831309</v>
+      </c>
+      <c r="K40" s="3">
+        <v>-0.2434364709230821</v>
+      </c>
+      <c r="L40" s="3">
+        <v>-0.243277048155097</v>
+      </c>
+      <c r="M40" s="3">
+        <v>-0.1029477270607505</v>
+      </c>
+      <c r="N40" s="3">
+        <v>-0.3560404470463012</v>
+      </c>
+      <c r="O40" s="3">
+        <v>-0.1074855134025653</v>
+      </c>
+      <c r="P40" s="3">
+        <v>-0.1925988438691938</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>-0.08333465175920284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="1">
+        <v>15242143.67634286</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.349733297444879</v>
+      </c>
+      <c r="F41" s="3">
+        <v>-0.00728029121164853</v>
+      </c>
+      <c r="G41" s="3">
+        <v>-0.01572396846579899</v>
+      </c>
+      <c r="H41" s="3">
+        <v>-0.1033348990136215</v>
+      </c>
+      <c r="I41" s="3">
+        <v>-0.05915399764410818</v>
+      </c>
+      <c r="J41" s="3">
+        <v>-0.1526853084775855</v>
+      </c>
+      <c r="K41" s="3">
+        <v>-0.2229998125645016</v>
+      </c>
+      <c r="L41" s="3">
+        <v>-0.1848847139197267</v>
+      </c>
+      <c r="M41" s="3">
+        <v>-0.09631881642113489</v>
+      </c>
+      <c r="N41" s="3">
+        <v>-0.2091963545981774</v>
+      </c>
+      <c r="O41" s="3">
+        <v>-0.01838159253807885</v>
+      </c>
+      <c r="P41" s="3">
+        <v>-0.1527575855096561</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>-0.1131761258308103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4441614.375085714</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.9966040567630171</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.003095975232198016</v>
+      </c>
+      <c r="G42" s="3">
+        <v>-0.0003173748674780671</v>
+      </c>
+      <c r="H42" s="3">
+        <v>-0.06154960173787116</v>
+      </c>
+      <c r="I42" s="3">
+        <v>-0.004575670445518437</v>
+      </c>
+      <c r="J42" s="3">
+        <v>-0.1183673469387755</v>
+      </c>
+      <c r="K42" s="3">
+        <v>-0.1449462802549012</v>
+      </c>
+      <c r="L42" s="3">
+        <v>-0.1551499348109519</v>
+      </c>
+      <c r="M42" s="3">
+        <v>-0.06681488079317841</v>
+      </c>
+      <c r="N42" s="3">
+        <v>-0.2216216216216217</v>
+      </c>
+      <c r="O42" s="3">
+        <v>-0.04278692572716155</v>
+      </c>
+      <c r="P42" s="3">
+        <v>-0.1058805805240398</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>-0.1062413701866128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4886269.687897143</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.9065729933971201</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.004534005037783366</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.003340908434905622</v>
+      </c>
+      <c r="H43" s="3">
+        <v>-0.05002382086707967</v>
+      </c>
+      <c r="I43" s="3">
+        <v>-0.001951859243687702</v>
+      </c>
+      <c r="J43" s="3">
+        <v>-0.09692028985507245</v>
+      </c>
+      <c r="K43" s="3">
+        <v>-0.1223643002244906</v>
+      </c>
+      <c r="L43" s="3">
+        <v>-0.1489543320529236</v>
+      </c>
+      <c r="M43" s="3">
+        <v>-0.05714810059604408</v>
+      </c>
+      <c r="N43" s="3">
+        <v>-0.1593591905564925</v>
+      </c>
+      <c r="O43" s="3">
+        <v>-0.03317138086720046</v>
+      </c>
+      <c r="P43" s="3">
+        <v>-0.08975620041026731</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>-0.0990060381943785</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="1">
+        <v>12871239.19674286</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.3579045285167516</v>
+      </c>
+      <c r="F44" s="3">
+        <v>-0.007270612185546022</v>
+      </c>
+      <c r="G44" s="3">
+        <v>-0.00400118498992158</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.01350950118764849</v>
+      </c>
+      <c r="I44" s="3">
+        <v>-1.331505941567878E-05</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.04268804887361596</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.03637651596317593</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0.08831500079706694</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.04860375062098029</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.100507777867333</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.02568989326265934</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0.04249013329207811</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0.1187191832083493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7870642.215428571</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.446572750179288</v>
+      </c>
+      <c r="F45" s="3">
+        <v>-0.001477104874446087</v>
+      </c>
+      <c r="G45" s="3">
+        <v>-0.002084687417584338</v>
+      </c>
+      <c r="H45" s="3">
+        <v>-0.1157619359058207</v>
+      </c>
+      <c r="I45" s="3">
+        <v>-0.02715734281359244</v>
+      </c>
+      <c r="J45" s="3">
+        <v>-0.1581569115815691</v>
+      </c>
+      <c r="K45" s="3">
+        <v>-0.2246463318846753</v>
+      </c>
+      <c r="L45" s="3">
+        <v>-0.2300683371298405</v>
+      </c>
+      <c r="M45" s="3">
+        <v>-0.102943749538817</v>
+      </c>
+      <c r="N45" s="3">
+        <v>-0.2413019079685746</v>
+      </c>
+      <c r="O45" s="3">
+        <v>-0.05413105309711721</v>
+      </c>
+      <c r="P45" s="3">
+        <v>-0.1637950407117461</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>-0.1132297291591076</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5408936.3097</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.106241703795443</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.006949270326615711</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.000620844228550247</v>
+      </c>
+      <c r="H46" s="3">
+        <v>-0.0805837563451776</v>
+      </c>
+      <c r="I46" s="3">
+        <v>-0.01128995922548911</v>
+      </c>
+      <c r="J46" s="3">
+        <v>-0.1323353293413174</v>
+      </c>
+      <c r="K46" s="3">
+        <v>-0.1698011409694065</v>
+      </c>
+      <c r="L46" s="3">
+        <v>-0.1864121280179675</v>
+      </c>
+      <c r="M46" s="3">
+        <v>-0.07619857916692115</v>
+      </c>
+      <c r="N46" s="3">
+        <v>-0.2413612565445026</v>
+      </c>
+      <c r="O46" s="3">
+        <v>-0.06492056897176122</v>
+      </c>
+      <c r="P46" s="3">
+        <v>-0.1229998600681638</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>-0.111187148022136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="1">
+        <v>125670205.1401131</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.9849730649815172</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.04474492931776272</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.05274072094777742</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.004253810705423558</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.02174030802992833</v>
+      </c>
+      <c r="J47" s="3">
+        <v>-0.03781274765085486</v>
+      </c>
+      <c r="K47" s="3">
+        <v>-0.0140398773903141</v>
+      </c>
+      <c r="L47" s="3">
+        <v>-0.08237961563377239</v>
+      </c>
+      <c r="M47" s="3">
+        <v>-0.02641918813886263</v>
+      </c>
+      <c r="N47" s="3">
+        <v>-0.08376455368693402</v>
+      </c>
+      <c r="O47" s="3">
+        <v>-0.02225349124061888</v>
+      </c>
+      <c r="P47" s="3">
+        <v>-0.02022953276458837</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>-0.02053815833529211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="5">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="1">
+        <v>50938394.55910714</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1.465452441748725</v>
+      </c>
+      <c r="F48" s="3">
+        <v>-0.06785714285714278</v>
+      </c>
+      <c r="G48" s="3">
+        <v>-0.1797108365403222</v>
+      </c>
+      <c r="H48" s="3">
+        <v>-0.08313817330210779</v>
+      </c>
+      <c r="I48" s="3">
+        <v>-0.0001955854639311039</v>
+      </c>
+      <c r="J48" s="3">
+        <v>-0.09269988412514488</v>
+      </c>
+      <c r="K48" s="3">
+        <v>-0.06483081868136475</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0.00642673521850907</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.007520269571689886</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.03162055335968376</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0.02292154590340368</v>
+      </c>
+      <c r="P48" s="3">
+        <v>-0.02865527455483743</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>-0.01955387547114329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="1">
+        <v>17650531.12080857</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1.140380027178446</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.01372850910957149</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.00426134262943734</v>
+      </c>
+      <c r="H49" s="3">
+        <v>-0.01076749718292224</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.009639161407549373</v>
+      </c>
+      <c r="J49" s="3">
+        <v>-0.03611077223374411</v>
+      </c>
+      <c r="K49" s="3">
+        <v>-0.01603548129711843</v>
+      </c>
+      <c r="L49" s="3">
+        <v>-0.05001803534928457</v>
+      </c>
+      <c r="M49" s="3">
+        <v>-0.001670031679405903</v>
+      </c>
+      <c r="N49" s="3">
+        <v>-0.07047058823529422</v>
+      </c>
+      <c r="O49" s="3">
+        <v>-0.005142815393232406</v>
+      </c>
+      <c r="P49" s="3">
+        <v>-0.008852756488262165</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>-0.007762988019148194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="5">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="1">
+        <v>6527159.731</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.110835063302877</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.004645760743321691</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.002453625325062096</v>
+      </c>
+      <c r="H50" s="3">
+        <v>-0.09518828451882856</v>
+      </c>
+      <c r="I50" s="3">
+        <v>-0.02627910973501785</v>
+      </c>
+      <c r="J50" s="3">
+        <v>-0.150294695481336</v>
+      </c>
+      <c r="K50" s="3">
+        <v>-0.2092631346347868</v>
+      </c>
+      <c r="L50" s="3">
+        <v>-0.1793168880455408</v>
+      </c>
+      <c r="M50" s="3">
+        <v>-0.05959849341109928</v>
+      </c>
+      <c r="N50" s="3">
+        <v>-0.1761904761904762</v>
+      </c>
+      <c r="O50" s="3">
+        <v>-0.02443149242616423</v>
+      </c>
+      <c r="P50" s="3">
+        <v>-0.1178944848007878</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>-0.1061314039280042</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="5">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="1">
+        <v>7565632.608857142</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.092060899023109</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.02786327555483557</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.04596996695561635</v>
+      </c>
+      <c r="H51" s="3">
+        <v>-0.08428344638475972</v>
+      </c>
+      <c r="I51" s="3">
+        <v>-0.005995807096067756</v>
+      </c>
+      <c r="J51" s="3">
+        <v>-0.1386098289437959</v>
+      </c>
+      <c r="K51" s="3">
+        <v>-0.1830329596557166</v>
+      </c>
+      <c r="L51" s="3">
+        <v>-0.168958742632613</v>
+      </c>
+      <c r="M51" s="3">
+        <v>-0.0689027871710463</v>
+      </c>
+      <c r="N51" s="3">
+        <v>-0.1681961195595177</v>
+      </c>
+      <c r="O51" s="3">
+        <v>-0.01670999166612006</v>
+      </c>
+      <c r="P51" s="3">
+        <v>-0.118549453365282</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>-0.1085557165093349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="5">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9110691.736466572</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.9932280010633452</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.005298013245033098</v>
+      </c>
+      <c r="G52" s="3">
+        <v>7.117565583111492E-09</v>
+      </c>
+      <c r="H52" s="3">
+        <v>-0.06006191950464388</v>
+      </c>
+      <c r="I52" s="3">
+        <v>-0.008544363643103738</v>
+      </c>
+      <c r="J52" s="3">
+        <v>-0.1012433392539964</v>
+      </c>
+      <c r="K52" s="3">
+        <v>-0.1367564855149714</v>
+      </c>
+      <c r="L52" s="3">
+        <v>-0.1054802592810842</v>
+      </c>
+      <c r="M52" s="3">
+        <v>-0.02239863461364345</v>
+      </c>
+      <c r="N52" s="3">
+        <v>-0.09535160905840286</v>
+      </c>
+      <c r="O52" s="3">
+        <v>-0.01317625506368841</v>
+      </c>
+      <c r="P52" s="3">
+        <v>-0.05887512183602315</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>-0.05927654251892991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5450202.033892858</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1.126650853209997</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.01539942252165548</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.01780793260231121</v>
+      </c>
+      <c r="H53" s="3">
+        <v>-0.04954954954954956</v>
+      </c>
+      <c r="I53" s="3">
+        <v>-0.002140059874218976</v>
+      </c>
+      <c r="J53" s="3">
+        <v>-0.1112047177759056</v>
+      </c>
+      <c r="K53" s="3">
+        <v>-0.1363296165676686</v>
+      </c>
+      <c r="L53" s="3">
+        <v>-0.1539695268644747</v>
+      </c>
+      <c r="M53" s="3">
+        <v>-0.07236486901708716</v>
+      </c>
+      <c r="N53" s="3">
+        <v>-0.1141897565071369</v>
+      </c>
+      <c r="O53" s="3">
+        <v>-0.01374642503779991</v>
+      </c>
+      <c r="P53" s="3">
+        <v>-0.09327731276211201</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>-0.08279167631777935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="5">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6933454.491550285</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.9225892120081927</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.01453957996768983</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.01096249698677445</v>
+      </c>
+      <c r="H54" s="3">
+        <v>-0.04559270516717321</v>
+      </c>
+      <c r="I54" s="3">
+        <v>-0.003587465477402598</v>
+      </c>
+      <c r="J54" s="3">
+        <v>-0.1002865329512895</v>
+      </c>
+      <c r="K54" s="3">
+        <v>-0.1303533373090207</v>
+      </c>
+      <c r="L54" s="3">
+        <v>-0.1066856330014224</v>
+      </c>
+      <c r="M54" s="3">
+        <v>-0.03213245003602256</v>
+      </c>
+      <c r="N54" s="3">
+        <v>-0.1216783216783218</v>
+      </c>
+      <c r="O54" s="3">
+        <v>-0.0149655012881251</v>
+      </c>
+      <c r="P54" s="3">
+        <v>-0.07690538585717216</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>-0.08335821062742844</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="1">
+        <v>7813292.06889</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1.172201605551799</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.004889975550122262</v>
+      </c>
+      <c r="G55" s="3">
+        <v>6.642139034166458E-05</v>
+      </c>
+      <c r="H55" s="3">
+        <v>-0.08666666666666661</v>
+      </c>
+      <c r="I55" s="3">
+        <v>-0.03263746598475862</v>
+      </c>
+      <c r="J55" s="3">
+        <v>-0.1577868852459016</v>
+      </c>
+      <c r="K55" s="3">
+        <v>-0.207515450090873</v>
+      </c>
+      <c r="L55" s="3">
+        <v>-0.1972656250000001</v>
+      </c>
+      <c r="M55" s="3">
+        <v>-0.09703989299217725</v>
+      </c>
+      <c r="N55" s="3">
+        <v>-0.2201138519924099</v>
+      </c>
+      <c r="O55" s="3">
+        <v>-0.03393385036204402</v>
+      </c>
+      <c r="P55" s="3">
+        <v>-0.1522776715415252</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>-0.1299074074120914</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="5">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="1">
+        <v>12417016.27242857</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1.146992086637222</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.02661596958174912</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.05140490956460329</v>
+      </c>
+      <c r="H56" s="3">
+        <v>-0.08163265306122441</v>
+      </c>
+      <c r="I56" s="3">
+        <v>-0.01855900670015562</v>
+      </c>
+      <c r="J56" s="3">
+        <v>-0.1219512195121951</v>
+      </c>
+      <c r="K56" s="3">
+        <v>-0.1855661517531681</v>
+      </c>
+      <c r="L56" s="3">
+        <v>-0.1442155309033279</v>
+      </c>
+      <c r="M56" s="3">
+        <v>-0.04511715450125561</v>
+      </c>
+      <c r="N56" s="3">
+        <v>-0.1679506933744221</v>
+      </c>
+      <c r="O56" s="3">
+        <v>-0.02628676043520078</v>
+      </c>
+      <c r="P56" s="3">
+        <v>-0.1065339239378389</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>-0.09288113246724962</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6539125.821995715</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.038442429948798</v>
+      </c>
+      <c r="F57" s="3">
+        <v>-0.003439380911435951</v>
+      </c>
+      <c r="G57" s="3">
+        <v>-0.0007674587790575249</v>
+      </c>
+      <c r="H57" s="3">
+        <v>-0.07056936647955096</v>
+      </c>
+      <c r="I57" s="3">
+        <v>-0.01295149111535608</v>
+      </c>
+      <c r="J57" s="3">
+        <v>-0.1259426847662141</v>
+      </c>
+      <c r="K57" s="3">
+        <v>-0.1688744518806284</v>
+      </c>
+      <c r="L57" s="3">
+        <v>-0.1906424581005587</v>
+      </c>
+      <c r="M57" s="3">
+        <v>-0.1060275783732888</v>
+      </c>
+      <c r="N57" s="3">
+        <v>-0.2077922077922079</v>
+      </c>
+      <c r="O57" s="3">
+        <v>-0.05005995860937627</v>
+      </c>
+      <c r="P57" s="3">
+        <v>-0.1374510151269586</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>-0.1323626723666673</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="5">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="1">
+        <v>11986512.42325714</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.6954097641065659</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.02914001421464113</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.1161193606917876</v>
+      </c>
+      <c r="H58" s="3">
+        <v>-0.01092896174863391</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.009132900907960368</v>
+      </c>
+      <c r="J58" s="3">
+        <v>-0.051528384279476</v>
+      </c>
+      <c r="K58" s="3">
+        <v>-0.02920501727919388</v>
+      </c>
+      <c r="L58" s="3">
+        <v>-0.1070914696813977</v>
+      </c>
+      <c r="M58" s="3">
+        <v>-0.05625194872781075</v>
+      </c>
+      <c r="N58" s="3">
+        <v>-0.08662741799831788</v>
+      </c>
+      <c r="O58" s="3">
+        <v>-0.01979163599683833</v>
+      </c>
+      <c r="P58" s="3">
+        <v>-0.04272848300350231</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>-0.06144360520792819</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="5">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" s="1">
+        <v>10829908.313</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1.184810308307416</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.005454545454545459</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.001186105485183417</v>
+      </c>
+      <c r="H59" s="3">
+        <v>-0.07370184254606353</v>
+      </c>
+      <c r="I59" s="3">
+        <v>-0.008174572256723434</v>
+      </c>
+      <c r="J59" s="3">
+        <v>-0.1284475965327028</v>
+      </c>
+      <c r="K59" s="3">
+        <v>-0.1690005374402323</v>
+      </c>
+      <c r="L59" s="3">
+        <v>-0.1602126044039483</v>
+      </c>
+      <c r="M59" s="3">
+        <v>-0.04968001912844481</v>
+      </c>
+      <c r="N59" s="3">
+        <v>-0.1770833333333333</v>
+      </c>
+      <c r="O59" s="3">
+        <v>-0.02990781516653211</v>
+      </c>
+      <c r="P59" s="3">
+        <v>-0.1093402782843386</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>-0.09228504978196783</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="5">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" s="1">
+        <v>29245463.98174286</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.9937231157498844</v>
+      </c>
+      <c r="F60" s="3">
+        <v>-0.01823154056517777</v>
+      </c>
+      <c r="G60" s="3">
+        <v>-0.04104417523334667</v>
+      </c>
+      <c r="H60" s="3">
+        <v>-0.1084437086092715</v>
+      </c>
+      <c r="I60" s="3">
+        <v>-0.08855304768102373</v>
+      </c>
+      <c r="J60" s="3">
+        <v>-0.140234167110165</v>
+      </c>
+      <c r="K60" s="3">
+        <v>-0.2139899424974923</v>
+      </c>
+      <c r="L60" s="3">
+        <v>-0.1896162528216704</v>
+      </c>
+      <c r="M60" s="3">
+        <v>-0.07635180130893515</v>
+      </c>
+      <c r="N60" s="3">
+        <v>-0.2034023668639054</v>
+      </c>
+      <c r="O60" s="3">
+        <v>-0.04598298976143553</v>
+      </c>
+      <c r="P60" s="3">
+        <v>-0.1398770840864202</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>-0.1407606222190636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="5">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="1">
+        <v>13002978.74577143</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1.177513658221814</v>
+      </c>
+      <c r="F61" s="3">
+        <v>-0.01746323529411764</v>
+      </c>
+      <c r="G61" s="3">
+        <v>-0.02868822871118911</v>
+      </c>
+      <c r="H61" s="3">
+        <v>-0.1069340016708438</v>
+      </c>
+      <c r="I61" s="3">
+        <v>-0.08201395422079433</v>
+      </c>
+      <c r="J61" s="3">
+        <v>-0.1252045826513912</v>
+      </c>
+      <c r="K61" s="3">
+        <v>-0.2031302885492051</v>
+      </c>
+      <c r="L61" s="3">
+        <v>-0.1365105008077544</v>
+      </c>
+      <c r="M61" s="3">
+        <v>-0.01808556869707305</v>
+      </c>
+      <c r="N61" s="3">
+        <v>-0.07365684575389954</v>
+      </c>
+      <c r="O61" s="3">
+        <v>-0.001299158524510298</v>
+      </c>
+      <c r="P61" s="3">
+        <v>-0.05117253723254432</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>-0.0434581262605658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="5">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6142637.943</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.9765282837884667</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0.01386481802426347</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.01293258952283986</v>
+      </c>
+      <c r="H62" s="3">
+        <v>-0.07714150496923802</v>
+      </c>
+      <c r="I62" s="3">
+        <v>-0.007071033827623984</v>
+      </c>
+      <c r="J62" s="3">
+        <v>-0.1379310344827586</v>
+      </c>
+      <c r="K62" s="3">
+        <v>-0.1759563079889346</v>
+      </c>
+      <c r="L62" s="3">
+        <v>-0.1798682181410346</v>
+      </c>
+      <c r="M62" s="3">
+        <v>-0.08239430438924798</v>
+      </c>
+      <c r="N62" s="3">
+        <v>-0.1895261845386532</v>
+      </c>
+      <c r="O62" s="3">
+        <v>-0.03630681797671059</v>
+      </c>
+      <c r="P62" s="3">
+        <v>-0.1291753061890913</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>-0.1322801482901779</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="5">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="1">
+        <v>13160035.80857143</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1.094498136086653</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.003344481605351151</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1.281838599782839E-07</v>
+      </c>
+      <c r="H63" s="3">
+        <v>-0.04458598726114645</v>
+      </c>
+      <c r="I63" s="3">
+        <v>-0.001384186771492389</v>
+      </c>
+      <c r="J63" s="3">
+        <v>-0.1017964071856288</v>
+      </c>
+      <c r="K63" s="3">
+        <v>-0.1132034171229046</v>
+      </c>
+      <c r="L63" s="3">
+        <v>-0.09638554216867475</v>
+      </c>
+      <c r="M63" s="3">
+        <v>-0.03727742722376871</v>
+      </c>
+      <c r="N63" s="3">
+        <v>-0.08256880733944957</v>
+      </c>
+      <c r="O63" s="3">
+        <v>-0.001904872369431141</v>
+      </c>
+      <c r="P63" s="3">
+        <v>-0.05992311728160914</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>-0.05474940094083902</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="5">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" s="1">
+        <v>41817700.6122</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1.812176807154391</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.0333161157024794</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.000518110172016826</v>
+      </c>
+      <c r="H64" s="3">
+        <v>-0.2078796277964759</v>
+      </c>
+      <c r="I64" s="3">
+        <v>-0.1118874693645841</v>
+      </c>
+      <c r="J64" s="3">
+        <v>-0.2176378568635119</v>
+      </c>
+      <c r="K64" s="3">
+        <v>-0.3246331045109026</v>
+      </c>
+      <c r="L64" s="3">
+        <v>-0.1578615028415071</v>
+      </c>
+      <c r="M64" s="3">
+        <v>-0.01856330697969769</v>
+      </c>
+      <c r="N64" s="3">
+        <v>-0.1474536543788621</v>
+      </c>
+      <c r="O64" s="3">
+        <v>-9.72543270036585E-05</v>
+      </c>
+      <c r="P64" s="3">
+        <v>-0.08300848067927989</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>-0.04580595025362107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="5">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="1">
+        <v>8310284.280728572</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.9889255658695367</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.01028277634961451</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.008102422508729671</v>
+      </c>
+      <c r="H65" s="3">
+        <v>-0.03770812928501469</v>
+      </c>
+      <c r="I65" s="3">
+        <v>-3.4073131803208E-08</v>
+      </c>
+      <c r="J65" s="3">
+        <v>-0.08858998144712424</v>
+      </c>
+      <c r="K65" s="3">
+        <v>-0.09322840500172366</v>
+      </c>
+      <c r="L65" s="3">
+        <v>-0.108843537414966</v>
+      </c>
+      <c r="M65" s="3">
+        <v>-0.04301497674410096</v>
+      </c>
+      <c r="N65" s="3">
+        <v>-0.09986257443884554</v>
+      </c>
+      <c r="O65" s="3">
+        <v>-0.01281633164619469</v>
+      </c>
+      <c r="P65" s="3">
+        <v>-0.06812169087291231</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>-0.06888454826528291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="5">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" s="1">
+        <v>9660440.887789713</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1.051455757595317</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.007680491551459313</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.001059775514629932</v>
+      </c>
+      <c r="H66" s="3">
+        <v>-0.06652436855211671</v>
+      </c>
+      <c r="I66" s="3">
+        <v>-0.005374181909184657</v>
+      </c>
+      <c r="J66" s="3">
+        <v>-0.1253333333333334</v>
+      </c>
+      <c r="K66" s="3">
+        <v>-0.1561061438111708</v>
+      </c>
+      <c r="L66" s="3">
+        <v>-0.1430437622468975</v>
+      </c>
+      <c r="M66" s="3">
+        <v>-0.05052742641448098</v>
+      </c>
+      <c r="N66" s="3">
+        <v>-0.1643312101910828</v>
+      </c>
+      <c r="O66" s="3">
+        <v>-0.02227032292453645</v>
+      </c>
+      <c r="P66" s="3">
+        <v>-0.1033167851128259</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>-0.09826070604160445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="5">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" s="1">
+        <v>20500382.77485714</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1.768806589449427</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0.001860217911241062</v>
+      </c>
+      <c r="G67" s="3">
+        <v>-1.792670205005977E-06</v>
+      </c>
+      <c r="H67" s="3">
+        <v>-0.1143998120742306</v>
+      </c>
+      <c r="I67" s="3">
+        <v>-0.04353130332970094</v>
+      </c>
+      <c r="J67" s="3">
+        <v>-0.1657446337685329</v>
+      </c>
+      <c r="K67" s="3">
+        <v>-0.2543417059013644</v>
+      </c>
+      <c r="L67" s="3">
+        <v>-0.2354491989454472</v>
+      </c>
+      <c r="M67" s="3">
+        <v>-0.1198099027785412</v>
+      </c>
+      <c r="N67" s="3">
+        <v>-0.1790069686411149</v>
+      </c>
+      <c r="O67" s="3">
+        <v>-0.0311364291173607</v>
+      </c>
+      <c r="P67" s="3">
+        <v>-0.149408435709828</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>-0.08446849791323659</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="5">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>228</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45672184.75128572</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2.038387558117166</v>
+      </c>
+      <c r="F68" s="3">
+        <v>-0.03068340306834033</v>
+      </c>
+      <c r="G68" s="3">
+        <v>-0.0714914415795086</v>
+      </c>
+      <c r="H68" s="3">
+        <v>-0.04924760601915189</v>
+      </c>
+      <c r="I68" s="3">
+        <v>3.610577025501031E-05</v>
+      </c>
+      <c r="J68" s="3">
+        <v>-0.1191381495564006</v>
+      </c>
+      <c r="K68" s="3">
+        <v>-0.09489264187130673</v>
+      </c>
+      <c r="L68" s="3">
+        <v>-0.144088669950739</v>
+      </c>
+      <c r="M68" s="3">
+        <v>-0.02754528161570441</v>
+      </c>
+      <c r="N68" s="3">
+        <v>-0.2102272727272728</v>
+      </c>
+      <c r="O68" s="3">
+        <v>-0.05777064525204023</v>
+      </c>
+      <c r="P68" s="3">
+        <v>-0.08319204172540767</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>-0.04081267146383642</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="5">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" t="s">
+        <v>229</v>
+      </c>
+      <c r="D69" s="1">
+        <v>6722032.387274286</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.9004546817938549</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.001109877913429477</v>
+      </c>
+      <c r="G69" s="3">
+        <v>-0.0001020119575994885</v>
+      </c>
+      <c r="H69" s="3">
+        <v>-0.0729701952723536</v>
+      </c>
+      <c r="I69" s="3">
+        <v>-0.02325940352224171</v>
+      </c>
+      <c r="J69" s="3">
+        <v>-0.1174168297455968</v>
+      </c>
+      <c r="K69" s="3">
+        <v>-0.1628926536875878</v>
+      </c>
+      <c r="L69" s="3">
+        <v>-0.1530516431924882</v>
+      </c>
+      <c r="M69" s="3">
+        <v>-0.0611352130854859</v>
+      </c>
+      <c r="N69" s="3">
+        <v>-0.158974358974359</v>
+      </c>
+      <c r="O69" s="3">
+        <v>-0.02543208727333729</v>
+      </c>
+      <c r="P69" s="3">
+        <v>-0.1100547860299224</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>-0.1222213491196193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="5">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="1">
+        <v>52738169.835</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1.183921599752602</v>
+      </c>
+      <c r="F70" s="3">
+        <v>-0.0208464939987365</v>
+      </c>
+      <c r="G70" s="3">
+        <v>-0.05613966733792813</v>
+      </c>
+      <c r="H70" s="3">
+        <v>-0.07628128724672216</v>
+      </c>
+      <c r="I70" s="3">
+        <v>-0.03834313561795381</v>
+      </c>
+      <c r="J70" s="3">
+        <v>-0.1434886719469516</v>
+      </c>
+      <c r="K70" s="3">
+        <v>-0.187946750439281</v>
+      </c>
+      <c r="L70" s="3">
+        <v>-0.1950839536091396</v>
+      </c>
+      <c r="M70" s="3">
+        <v>-0.09245145358095082</v>
+      </c>
+      <c r="N70" s="3">
+        <v>-0.2048563611491107</v>
+      </c>
+      <c r="O70" s="3">
+        <v>-0.05365797266085064</v>
+      </c>
+      <c r="P70" s="3">
+        <v>-0.1401991020101159</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>-0.1184192450238365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="5">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="1">
+        <v>224910926.6902743</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1.437667589797605</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0.01976964070826884</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0.02024301639350509</v>
+      </c>
+      <c r="H71" s="3">
+        <v>-0.1098439375750301</v>
+      </c>
+      <c r="I71" s="3">
+        <v>-0.0290701490524441</v>
+      </c>
+      <c r="J71" s="3">
+        <v>-0.1919907375876864</v>
+      </c>
+      <c r="K71" s="3">
+        <v>-0.2569224148621671</v>
+      </c>
+      <c r="L71" s="3">
+        <v>-0.2080635471597357</v>
+      </c>
+      <c r="M71" s="3">
+        <v>-0.05920581395179518</v>
+      </c>
+      <c r="N71" s="3">
+        <v>-0.2848704038577456</v>
+      </c>
+      <c r="O71" s="3">
+        <v>-0.07664023634796092</v>
+      </c>
+      <c r="P71" s="3">
+        <v>-0.1580641144069811</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>-0.1099448269743867</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="5">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" s="1">
+        <v>22796830.7136</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.9506277999518876</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.02157894736842101</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.03272756867344387</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-0.04666011787819258</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-0.002507053368222774</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-0.09150479756611285</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-0.1195986791137663</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-0.1321260898725687</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-0.05003880299716937</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-0.2173387096774194</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-0.04844785606045214</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-0.08481874105546783</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-0.08922392240134425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="5">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>233</v>
+      </c>
+      <c r="D73" s="1">
+        <v>30966334.1988</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1.298832203011229</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.004213483146067488</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.0004369752718865709</v>
+      </c>
+      <c r="H73" s="3">
+        <v>-0.04841124604891026</v>
+      </c>
+      <c r="I73" s="3">
+        <v>-0.001685461929093249</v>
+      </c>
+      <c r="J73" s="3">
+        <v>-0.1145510835913313</v>
+      </c>
+      <c r="K73" s="3">
+        <v>-0.1311875735974527</v>
+      </c>
+      <c r="L73" s="3">
+        <v>-0.1789866513563944</v>
+      </c>
+      <c r="M73" s="3">
+        <v>-0.1065016397548606</v>
+      </c>
+      <c r="N73" s="3">
+        <v>-0.09493670886075957</v>
+      </c>
+      <c r="O73" s="3">
+        <v>-0.002003256119087782</v>
+      </c>
+      <c r="P73" s="3">
+        <v>-0.1007191743078101</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>-0.07754594787094246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="5">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5886381.192999999</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1.077007327738768</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.02277039848197333</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0.01287289386071411</v>
+      </c>
+      <c r="H74" s="3">
+        <v>-0.0447496677004874</v>
+      </c>
+      <c r="I74" s="3">
+        <v>-0.001154431271338717</v>
+      </c>
+      <c r="J74" s="3">
+        <v>-0.1090909090909091</v>
+      </c>
+      <c r="K74" s="3">
+        <v>-0.1181255829490826</v>
+      </c>
+      <c r="L74" s="3">
+        <v>-0.1755258126195029</v>
+      </c>
+      <c r="M74" s="3">
+        <v>-0.08036038606652827</v>
+      </c>
+      <c r="N74" s="3">
+        <v>-0.2182741116751269</v>
+      </c>
+      <c r="O74" s="3">
+        <v>-0.06033810704278948</v>
+      </c>
+      <c r="P74" s="3">
+        <v>-0.09924298450780544</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>-0.09214699097374865</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="5">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="1">
+        <v>7572376.622271427</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.9976191846464114</v>
+      </c>
+      <c r="F75" s="3">
+        <v>-0.01677053824362603</v>
+      </c>
+      <c r="G75" s="3">
+        <v>-0.01998052738387233</v>
+      </c>
+      <c r="H75" s="3">
+        <v>-0.08576546201664736</v>
+      </c>
+      <c r="I75" s="3">
+        <v>-0.07451759808273536</v>
+      </c>
+      <c r="J75" s="3">
+        <v>-0.1537936415057539</v>
+      </c>
+      <c r="K75" s="3">
+        <v>-0.2248948648615001</v>
+      </c>
+      <c r="L75" s="3">
+        <v>-0.1626942005210846</v>
+      </c>
+      <c r="M75" s="3">
+        <v>-0.05217362689256003</v>
+      </c>
+      <c r="N75" s="3">
+        <v>-0.2024816176470589</v>
+      </c>
+      <c r="O75" s="3">
+        <v>-0.02361545754459896</v>
+      </c>
+      <c r="P75" s="3">
+        <v>-0.1273276222698095</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>-0.1276314892790865</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="5">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" s="1">
+        <v>23293709.77229857</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1.164056588375513</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.009857748939356115</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.00318132900165074</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-0.08667193319038476</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-0.006451348034268332</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-0.1431445209105347</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-0.1769557269941824</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-0.1368387372013651</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-0.05032436298751694</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-0.1053504311297811</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-0.0007869294673704091</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-0.077837397058649</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-0.0668673652431916</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="5">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>237</v>
+      </c>
+      <c r="D77" s="1">
+        <v>177934516.1508572</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2.026149252802354</v>
+      </c>
+      <c r="F77" s="3">
+        <v>-0.01107871720116626</v>
+      </c>
+      <c r="G77" s="3">
+        <v>-0.01734900490922228</v>
+      </c>
+      <c r="H77" s="3">
+        <v>-0.04959372373213787</v>
+      </c>
+      <c r="I77" s="3">
+        <v>-0.002447777222317335</v>
+      </c>
+      <c r="J77" s="3">
+        <v>-0.09942917828222494</v>
+      </c>
+      <c r="K77" s="3">
+        <v>-0.1121735040779367</v>
+      </c>
+      <c r="L77" s="3">
+        <v>-0.1628825271470878</v>
+      </c>
+      <c r="M77" s="3">
+        <v>-0.06561264593834096</v>
+      </c>
+      <c r="N77" s="3">
+        <v>-0.002206206795117013</v>
+      </c>
+      <c r="O77" s="3">
+        <v>-0.02846398266562269</v>
+      </c>
+      <c r="P77" s="3">
+        <v>-0.04148082542378162</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>-0.02047273929421031</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="5">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4829712.757314285</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.7332546910862704</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.01725154821586543</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0.01984150082212755</v>
+      </c>
+      <c r="H78" s="3">
+        <v>-0.0532455056950735</v>
+      </c>
+      <c r="I78" s="3">
+        <v>-0.0008533179870620335</v>
+      </c>
+      <c r="J78" s="3">
+        <v>-0.08294563339093448</v>
+      </c>
+      <c r="K78" s="3">
+        <v>-0.09424380752029618</v>
+      </c>
+      <c r="L78" s="3">
+        <v>-0.1257128374097073</v>
+      </c>
+      <c r="M78" s="3">
+        <v>-0.05500903507113197</v>
+      </c>
+      <c r="N78" s="3">
+        <v>-0.10297750617605</v>
+      </c>
+      <c r="O78" s="3">
+        <v>-0.01174194468849751</v>
+      </c>
+      <c r="P78" s="3">
+        <v>-0.07462642129571408</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>-0.1017742159755702</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="5">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" t="s">
+        <v>239</v>
+      </c>
+      <c r="D79" s="1">
+        <v>9784121.799642857</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1.163037275488056</v>
+      </c>
+      <c r="F79" s="3">
+        <v>-0.005995203836930461</v>
+      </c>
+      <c r="G79" s="3">
+        <v>9.265495515858265E-05</v>
+      </c>
+      <c r="H79" s="3">
+        <v>-0.08194905869324481</v>
+      </c>
+      <c r="I79" s="3">
+        <v>-0.01838553076211099</v>
+      </c>
+      <c r="J79" s="3">
+        <v>-0.1103241038849539</v>
+      </c>
+      <c r="K79" s="3">
+        <v>-0.1463195794306645</v>
+      </c>
+      <c r="L79" s="3">
+        <v>-0.1182727079344821</v>
+      </c>
+      <c r="M79" s="3">
+        <v>-0.02307736673994538</v>
+      </c>
+      <c r="N79" s="3">
+        <v>-0.09299781181619264</v>
+      </c>
+      <c r="O79" s="3">
+        <v>-0.006086794270900504</v>
+      </c>
+      <c r="P79" s="3">
+        <v>-0.05803758927806901</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>-0.04990174476885459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="5">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="1">
+        <v>201008419.8184286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1.945884035489141</v>
+      </c>
+      <c r="F80" s="3">
+        <v>-0.02735156771180782</v>
+      </c>
+      <c r="G80" s="3">
+        <v>-0.1920594287283183</v>
+      </c>
+      <c r="H80" s="3">
+        <v>-0.1125989044430918</v>
+      </c>
+      <c r="I80" s="3">
+        <v>-0.1381281669735305</v>
+      </c>
+      <c r="J80" s="3">
+        <v>-0.1549295774647886</v>
+      </c>
+      <c r="K80" s="3">
+        <v>-0.2618993454298045</v>
+      </c>
+      <c r="L80" s="3">
+        <v>-0.05637175587340622</v>
+      </c>
+      <c r="M80" s="3">
+        <v>-0.0180104416060989</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0.0631471488989354</v>
+      </c>
+      <c r="O80" s="3">
+        <v>0.02947110825778031</v>
+      </c>
+      <c r="P80" s="3">
+        <v>-0.1050349351672086</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>-0.05397800344294706</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="5">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="1">
+        <v>265381493.5932857</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.875474347011034</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.0103983963918817</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.001945808264509099</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-0.02702376643744719</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-0.0001030253234280383</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-0.08735996378861609</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-0.09516053120333391</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-0.1113926840017629</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-0.05188674757465579</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-0.1175183280446439</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-0.01437570615128161</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-0.07352363938899485</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-0.08398148916643036</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="5">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" s="1">
+        <v>11145969.16097143</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1.202136863146916</v>
+      </c>
+      <c r="F82" s="3">
+        <v>-0.005230622919638564</v>
+      </c>
+      <c r="G82" s="3">
+        <v>-0.007616244121957056</v>
+      </c>
+      <c r="H82" s="3">
+        <v>-0.08406304728546408</v>
+      </c>
+      <c r="I82" s="3">
+        <v>-0.03573778460973582</v>
+      </c>
+      <c r="J82" s="3">
+        <v>-0.1250522793810122</v>
+      </c>
+      <c r="K82" s="3">
+        <v>-0.1787376278904987</v>
+      </c>
+      <c r="L82" s="3">
+        <v>-0.1645367412140576</v>
+      </c>
+      <c r="M82" s="3">
+        <v>-0.07154817103111395</v>
+      </c>
+      <c r="N82" s="3">
+        <v>-0.1815336463223787</v>
+      </c>
+      <c r="O82" s="3">
+        <v>-0.02090612093779649</v>
+      </c>
+      <c r="P82" s="3">
+        <v>-0.1251428994608063</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>-0.104100376003121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="5">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="1">
+        <v>16748436.37654629</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1.204451944945019</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0.0009380863039399514</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0.0003899893841705685</v>
+      </c>
+      <c r="H83" s="3">
+        <v>-0.09729272419627756</v>
+      </c>
+      <c r="I83" s="3">
+        <v>-0.04690935111836322</v>
+      </c>
+      <c r="J83" s="3">
+        <v>-0.1582960820404944</v>
+      </c>
+      <c r="K83" s="3">
+        <v>-0.2288974961925099</v>
+      </c>
+      <c r="L83" s="3">
+        <v>-0.2167849278199169</v>
+      </c>
+      <c r="M83" s="3">
+        <v>-0.1203256053742661</v>
+      </c>
+      <c r="N83" s="3">
+        <v>-0.2078693392724574</v>
+      </c>
+      <c r="O83" s="3">
+        <v>-0.03834232450297349</v>
+      </c>
+      <c r="P83" s="3">
+        <v>-0.1640974723233617</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>-0.1362424403996064</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="5">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" t="s">
+        <v>244</v>
+      </c>
+      <c r="D84" s="1">
+        <v>129033833.1481714</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1.38043166261634</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.01668891855807738</v>
+      </c>
+      <c r="G84" s="3">
+        <v>2.343076634945125E-05</v>
+      </c>
+      <c r="H84" s="3">
+        <v>-0.2007347152978221</v>
+      </c>
+      <c r="I84" s="3">
+        <v>-0.03182774850620863</v>
+      </c>
+      <c r="J84" s="3">
+        <v>-0.2644288819125816</v>
+      </c>
+      <c r="K84" s="3">
+        <v>-0.3879145376271274</v>
+      </c>
+      <c r="L84" s="3">
+        <v>-0.3053591790193843</v>
+      </c>
+      <c r="M84" s="3">
+        <v>-0.1603908957354147</v>
+      </c>
+      <c r="N84" s="3">
+        <v>-0.3296654929577464</v>
+      </c>
+      <c r="O84" s="3">
+        <v>-0.0543003383089713</v>
+      </c>
+      <c r="P84" s="3">
+        <v>-0.2450281943465806</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>-0.1775011403912434</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="5">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" t="s">
+        <v>245</v>
+      </c>
+      <c r="D85" s="1">
+        <v>30100193.34571429</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.9331399687573438</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.0124223602484472</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0.0100257694764937</v>
+      </c>
+      <c r="H85" s="3">
+        <v>-0.02326401127952062</v>
+      </c>
+      <c r="I85" s="3">
+        <v>-0.0003308330791604734</v>
+      </c>
+      <c r="J85" s="3">
+        <v>-0.09281388115894584</v>
+      </c>
+      <c r="K85" s="3">
+        <v>-0.1061712856182972</v>
+      </c>
+      <c r="L85" s="3">
+        <v>-0.09192200557103063</v>
+      </c>
+      <c r="M85" s="3">
+        <v>-0.02602645293984497</v>
+      </c>
+      <c r="N85" s="3">
+        <v>-0.1293008641005498</v>
+      </c>
+      <c r="O85" s="3">
+        <v>-0.02360445780049971</v>
+      </c>
+      <c r="P85" s="3">
+        <v>-0.06609886927907106</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>-0.07083489239786232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="5">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>246</v>
+      </c>
+      <c r="D86" s="1">
+        <v>97110839.68114287</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1.3240425291369</v>
+      </c>
+      <c r="F86" s="3">
+        <v>-0.01815541031227299</v>
+      </c>
+      <c r="G86" s="3">
+        <v>-0.02931239630243559</v>
+      </c>
+      <c r="H86" s="3">
+        <v>-0.09383378016085785</v>
+      </c>
+      <c r="I86" s="3">
+        <v>-0.04974792139896004</v>
+      </c>
+      <c r="J86" s="3">
+        <v>-0.1592039800995025</v>
+      </c>
+      <c r="K86" s="3">
+        <v>-0.2238506681514781</v>
+      </c>
+      <c r="L86" s="3">
+        <v>-0.2004730928444707</v>
+      </c>
+      <c r="M86" s="3">
+        <v>-0.08375262949694318</v>
+      </c>
+      <c r="N86" s="3">
+        <v>-0.1990521327014217</v>
+      </c>
+      <c r="O86" s="3">
+        <v>-0.03824361417965205</v>
+      </c>
+      <c r="P86" s="3">
+        <v>-0.1414023810991825</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>-0.1067959510268587</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="5">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" t="s">
+        <v>247</v>
+      </c>
+      <c r="D87" s="1">
+        <v>13911633.21957143</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1.163104487713325</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0.00961153384060881</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0.0001581969946308734</v>
+      </c>
+      <c r="H87" s="3">
+        <v>-0.032988108937476</v>
+      </c>
+      <c r="I87" s="3">
+        <v>-0.0001824724856173761</v>
+      </c>
+      <c r="J87" s="3">
+        <v>-0.07384276267450397</v>
+      </c>
+      <c r="K87" s="3">
+        <v>-0.09002703161631763</v>
+      </c>
+      <c r="L87" s="3">
+        <v>-0.1596666666666667</v>
+      </c>
+      <c r="M87" s="3">
+        <v>-0.08980602832613849</v>
+      </c>
+      <c r="N87" s="3">
+        <v>-0.133379168099003</v>
+      </c>
+      <c r="O87" s="3">
+        <v>-0.04548428403828909</v>
+      </c>
+      <c r="P87" s="3">
+        <v>-0.08991652997122807</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>-0.07730735365659615</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="5">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" s="1">
+        <v>26923722.0684</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1.591353301183041</v>
+      </c>
+      <c r="F88" s="3">
+        <v>-0.01114542768900225</v>
+      </c>
+      <c r="G88" s="3">
+        <v>-0.007763256417414744</v>
+      </c>
+      <c r="H88" s="3">
+        <v>-0.08759757155247189</v>
+      </c>
+      <c r="I88" s="3">
+        <v>-0.05127636289725367</v>
+      </c>
+      <c r="J88" s="3">
+        <v>-0.1391162029459903</v>
+      </c>
+      <c r="K88" s="3">
+        <v>-0.2058603945941081</v>
+      </c>
+      <c r="L88" s="3">
+        <v>-0.1463018780431255</v>
+      </c>
+      <c r="M88" s="3">
+        <v>-0.03175192087259628</v>
+      </c>
+      <c r="N88" s="3">
+        <v>-0.2489546149923509</v>
+      </c>
+      <c r="O88" s="3">
+        <v>-0.04453771452654039</v>
+      </c>
+      <c r="P88" s="3">
+        <v>-0.1188061577333522</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>-0.0746573106330502</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="5">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" s="1">
+        <v>5463546.546857143</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1.068165787368186</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.002200220022002162</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-5.953969290815452E-05</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-0.05301455301455314</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-0.003690313224690757</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-0.09323158593231591</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-0.1186388840990438</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-0.1109303838646715</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-0.03164520686820602</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-0.1705614567526556</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-0.03901157609792882</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-0.07514204548362491</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-0.07034680044262101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="5">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" t="s">
+        <v>250</v>
+      </c>
+      <c r="D90" s="1">
+        <v>7872443.020928572</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1.094359505440626</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.01054018445322805</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.002959213497920384</v>
+      </c>
+      <c r="H90" s="3">
+        <v>-0.1029239766081872</v>
+      </c>
+      <c r="I90" s="3">
+        <v>-0.04818537686372072</v>
+      </c>
+      <c r="J90" s="3">
+        <v>-0.146829810901001</v>
+      </c>
+      <c r="K90" s="3">
+        <v>-0.2312819904330515</v>
+      </c>
+      <c r="L90" s="3">
+        <v>-0.1303854875283446</v>
+      </c>
+      <c r="M90" s="3">
+        <v>-0.02223860020525846</v>
+      </c>
+      <c r="N90" s="3">
+        <v>-0.1081395348837208</v>
+      </c>
+      <c r="O90" s="3">
+        <v>-0.001118041455372922</v>
+      </c>
+      <c r="P90" s="3">
+        <v>-0.06518906754448964</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>-0.05956823806107692</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="5">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" t="s">
+        <v>251</v>
+      </c>
+      <c r="D91" s="1">
+        <v>12105176.304</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0.9373726725032551</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-0.005780346820809253</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-3.84178362502351E-06</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-0.06453952139231321</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-0.01358168741270806</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-0.1230455472467709</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-0.1554132935618208</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-0.1725465041693394</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-0.0743012467265101</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-0.1661279896574014</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-0.02920932857079979</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-0.1148572701441655</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-0.1225310631655593</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="5">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" s="1">
+        <v>14096017.83828571</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1.313436256041759</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0.005807200929152154</v>
+      </c>
+      <c r="G92" s="3">
+        <v>2.189322835446151E-05</v>
+      </c>
+      <c r="H92" s="3">
+        <v>-0.0693175711982805</v>
+      </c>
+      <c r="I92" s="3">
+        <v>-0.0008652547452602164</v>
+      </c>
+      <c r="J92" s="3">
+        <v>-0.1011935651271407</v>
+      </c>
+      <c r="K92" s="3">
+        <v>-0.1295300368167018</v>
+      </c>
+      <c r="L92" s="3">
+        <v>-0.2007383479464697</v>
+      </c>
+      <c r="M92" s="3">
+        <v>-0.103024525852954</v>
+      </c>
+      <c r="N92" s="3">
+        <v>-0.2309058614564831</v>
+      </c>
+      <c r="O92" s="3">
+        <v>-0.06215567874365607</v>
+      </c>
+      <c r="P92" s="3">
+        <v>-0.1162772813348279</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>-0.08852906321106688</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="5">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" s="1">
+        <v>155432042.9006571</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1.463849671364463</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.01835317460317465</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0.00169298140775025</v>
+      </c>
+      <c r="H93" s="3">
+        <v>-0.02793560606060601</v>
+      </c>
+      <c r="I93" s="3">
+        <v>-0.0001474799118068458</v>
+      </c>
+      <c r="J93" s="3">
+        <v>-0.1207708779443255</v>
+      </c>
+      <c r="K93" s="3">
+        <v>-0.1253552693858015</v>
+      </c>
+      <c r="L93" s="3">
+        <v>-0.1495443247721624</v>
+      </c>
+      <c r="M93" s="3">
+        <v>-0.06072059501678546</v>
+      </c>
+      <c r="N93" s="3">
+        <v>-0.1370323665405632</v>
+      </c>
+      <c r="O93" s="3">
+        <v>-0.02007660715293854</v>
+      </c>
+      <c r="P93" s="3">
+        <v>-0.09303793220129349</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>-0.06355702639504798</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="5">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" t="s">
+        <v>254</v>
+      </c>
+      <c r="D94" s="1">
+        <v>112855989.3485714</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.9578624042733608</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.002794952147031377</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1.379949828143353E-05</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-0.04769564867690822</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-0.009418636634531937</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-0.1086350974930362</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-0.1379005054274177</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-0.1188509339882414</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-0.02649142732853471</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-0.1298596310722422</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-0.01410189246874186</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-0.07817552920038845</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-0.08161457099852749</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="5">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" t="s">
+        <v>255</v>
+      </c>
+      <c r="D95" s="1">
+        <v>35871047.29228571</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1.010559824921621</v>
+      </c>
+      <c r="F95" s="3">
+        <v>-0.004492699363534261</v>
+      </c>
+      <c r="G95" s="3">
+        <v>-0.001651118219221326</v>
+      </c>
+      <c r="H95" s="3">
+        <v>-0.02529325513196495</v>
+      </c>
+      <c r="I95" s="3">
+        <v>-0.00851579643346527</v>
+      </c>
+      <c r="J95" s="3">
+        <v>-0.09480851063829794</v>
+      </c>
+      <c r="K95" s="3">
+        <v>-0.1029943166047702</v>
+      </c>
+      <c r="L95" s="3">
+        <v>-0.1211370021484053</v>
+      </c>
+      <c r="M95" s="3">
+        <v>-0.04949745514966773</v>
+      </c>
+      <c r="N95" s="3">
+        <v>-0.140455794407629</v>
+      </c>
+      <c r="O95" s="3">
+        <v>-0.02565464887839305</v>
+      </c>
+      <c r="P95" s="3">
+        <v>-0.07624588587721898</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>-0.07544915599938143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="5">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" s="1">
+        <v>7049900.782671428</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1.224712216937478</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-0.003581526861451511</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-0.001075902745130196</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-0.09979564032697555</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-0.04355876655053426</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-0.1589498806682579</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-0.2326630877538736</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-0.1706934421085662</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-0.0449712537366479</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-0.1938386457221291</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-0.02539901156845185</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-0.1194049497293885</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-0.09749633267150151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="5">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" t="s">
+        <v>257</v>
+      </c>
+      <c r="D97" s="1">
+        <v>29001198.05185714</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1.161469661679262</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>-1.562202209972343E-09</v>
+      </c>
+      <c r="H97" s="3">
+        <v>-0.09946416610850639</v>
+      </c>
+      <c r="I97" s="3">
+        <v>-0.04099744427292215</v>
+      </c>
+      <c r="J97" s="3">
+        <v>-0.1651660974852531</v>
+      </c>
+      <c r="K97" s="3">
+        <v>-0.2334743562402316</v>
+      </c>
+      <c r="L97" s="3">
+        <v>-0.1736324523663185</v>
+      </c>
+      <c r="M97" s="3">
+        <v>-0.0461146039458355</v>
+      </c>
+      <c r="N97" s="3">
+        <v>-0.1866303690260134</v>
+      </c>
+      <c r="O97" s="3">
+        <v>-0.01470887075068564</v>
+      </c>
+      <c r="P97" s="3">
+        <v>-0.1163724864859245</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>-0.1001941680660623</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="5">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" t="s">
+        <v>258</v>
+      </c>
+      <c r="D98" s="1">
+        <v>6263915.8985</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1.011311527758949</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.005379959650302591</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0.0003130980221384669</v>
+      </c>
+      <c r="H98" s="3">
+        <v>-0.07200496585971446</v>
+      </c>
+      <c r="I98" s="3">
+        <v>-0.03034640764393288</v>
+      </c>
+      <c r="J98" s="3">
+        <v>-0.1241944932630346</v>
+      </c>
+      <c r="K98" s="3">
+        <v>-0.1747069438825912</v>
+      </c>
+      <c r="L98" s="3">
+        <v>-0.1914548404542997</v>
+      </c>
+      <c r="M98" s="3">
+        <v>-0.08956049717534834</v>
+      </c>
+      <c r="N98" s="3">
+        <v>-0.1722037652270211</v>
+      </c>
+      <c r="O98" s="3">
+        <v>-0.02887818295109111</v>
+      </c>
+      <c r="P98" s="3">
+        <v>-0.1308821312011847</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>-0.129418213486815</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="5">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" t="s">
+        <v>259</v>
+      </c>
+      <c r="D99" s="1">
+        <v>235777148.027</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1.109266599628968</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.0123041588056762</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.0008217061965469801</v>
+      </c>
+      <c r="H99" s="3">
+        <v>-0.04385217323932755</v>
+      </c>
+      <c r="I99" s="3">
+        <v>-0.003869539285597334</v>
+      </c>
+      <c r="J99" s="3">
+        <v>-0.1146423703278572</v>
+      </c>
+      <c r="K99" s="3">
+        <v>-0.1548136962524621</v>
+      </c>
+      <c r="L99" s="3">
+        <v>-0.09880239520958095</v>
+      </c>
+      <c r="M99" s="3">
+        <v>-0.01228707936816578</v>
+      </c>
+      <c r="N99" s="3">
+        <v>-0.0853776032016602</v>
+      </c>
+      <c r="O99" s="3">
+        <v>-0.00623648939937585</v>
+      </c>
+      <c r="P99" s="3">
+        <v>-0.04883234128491299</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>-0.04402218664227934</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="5">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" t="s">
+        <v>260</v>
+      </c>
+      <c r="D100" s="1">
+        <v>22833576.62285714</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.9579746696442555</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.002583979328165228</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-4.30787093101086E-05</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-0.03769841269841277</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-7.516066661604514E-05</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-0.06954436450839342</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-0.08350348916438333</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-0.1410228027451849</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-0.09623363353844276</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-0.09683426443202987</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-0.01679170493379552</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-0.08986856135141305</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-0.09381099960063224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="5">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
+        <v>261</v>
+      </c>
+      <c r="D101" s="1">
+        <v>44023292.99728571</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1.485041646852501</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.009054325955734303</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.00338502373377323</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-0.05998125585754457</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-0.002245940246535881</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-0.09964093357271113</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-0.1251585650649648</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-0.1528716216216217</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-0.06293994317251891</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-0.2509335324869306</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-0.06609577544593645</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-0.09404925411874185</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-0.06333105493578328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="5">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" t="s">
+        <v>262</v>
+      </c>
+      <c r="D102" s="1">
+        <v>36266295.37142857</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1.035101621448625</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.01960784313725501</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.02278222615598078</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-0.07341411261582322</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-0.04689961813050698</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-0.1222147197839298</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-0.1815433935292198</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-0.07604832977967305</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-0.006428616004309556</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-0.04200442151805449</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-1.482412883080375E-05</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-0.02421651876118202</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-0.02339530560032455</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="5">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" t="s">
+        <v>263</v>
+      </c>
+      <c r="D103" s="1">
+        <v>39403243.54071429</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1.464597533205183</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0.002232142857142942</v>
+      </c>
+      <c r="G103" s="3">
+        <v>-0.002624313936902042</v>
+      </c>
+      <c r="H103" s="3">
+        <v>-0.0323275862068965</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0.01344669068561911</v>
+      </c>
+      <c r="J103" s="3">
+        <v>-0.01822157434402332</v>
+      </c>
+      <c r="K103" s="3">
+        <v>-0.009474521375391924</v>
+      </c>
+      <c r="L103" s="3">
+        <v>-0.01822157434402332</v>
+      </c>
+      <c r="M103" s="3">
+        <v>-0.0003530022444267157</v>
+      </c>
+      <c r="N103" s="3">
+        <v>-0.003698224852070927</v>
+      </c>
+      <c r="O103" s="3">
+        <v>-0.0004548076204912606</v>
+      </c>
+      <c r="P103" s="3">
+        <v>-0.003161269394486485</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>-0.002158456041891753</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="5">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" t="s">
+        <v>264</v>
+      </c>
+      <c r="D104" s="1">
+        <v>88443726.35280001</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1.347060728245596</v>
+      </c>
+      <c r="F104" s="3">
+        <v>-0.00907441016333939</v>
+      </c>
+      <c r="G104" s="3">
+        <v>-0.00954810182777697</v>
+      </c>
+      <c r="H104" s="3">
+        <v>-0.04712041884816739</v>
+      </c>
+      <c r="I104" s="3">
+        <v>-0.003118888455715236</v>
+      </c>
+      <c r="J104" s="3">
+        <v>-0.116504854368932</v>
+      </c>
+      <c r="K104" s="3">
+        <v>-0.1331827648776522</v>
+      </c>
+      <c r="L104" s="3">
+        <v>-0.150855365474339</v>
+      </c>
+      <c r="M104" s="3">
+        <v>-0.05039570383341163</v>
+      </c>
+      <c r="N104" s="3">
+        <v>-0.1826347305389222</v>
+      </c>
+      <c r="O104" s="3">
+        <v>-0.03949636774150725</v>
+      </c>
+      <c r="P104" s="3">
+        <v>-0.09178923435553189</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>-0.06814038330334049</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="5">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" t="s">
+        <v>265</v>
+      </c>
+      <c r="D105" s="1">
+        <v>7969069.061142858</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1.082484840374763</v>
+      </c>
+      <c r="F105" s="3">
+        <v>-0.007603186097031103</v>
+      </c>
+      <c r="G105" s="3">
+        <v>-0.010374594142785</v>
+      </c>
+      <c r="H105" s="3">
+        <v>-0.03536864332218892</v>
+      </c>
+      <c r="I105" s="3">
+        <v>-0.001837593342268802</v>
+      </c>
+      <c r="J105" s="3">
+        <v>-0.08770178066233984</v>
+      </c>
+      <c r="K105" s="3">
+        <v>-0.09786849441372539</v>
+      </c>
+      <c r="L105" s="3">
+        <v>-0.08724608724608725</v>
+      </c>
+      <c r="M105" s="3">
+        <v>-0.02389893032915198</v>
+      </c>
+      <c r="N105" s="3">
+        <v>-0.1038090567271538</v>
+      </c>
+      <c r="O105" s="3">
+        <v>-0.01176277143041052</v>
+      </c>
+      <c r="P105" s="3">
+        <v>-0.06088371237143868</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>-0.05624440186188692</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="5">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" t="s">
+        <v>266</v>
+      </c>
+      <c r="D106" s="1">
+        <v>27523356.83228571</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1.226443124961101</v>
+      </c>
+      <c r="F106" s="3">
+        <v>-0.01979498055850124</v>
+      </c>
+      <c r="G106" s="3">
+        <v>-0.05426491403559102</v>
+      </c>
+      <c r="H106" s="3">
+        <v>-0.04871355060034305</v>
+      </c>
+      <c r="I106" s="3">
+        <v>-0.01186424222857172</v>
+      </c>
+      <c r="J106" s="3">
+        <v>-0.1136327313408982</v>
+      </c>
+      <c r="K106" s="3">
+        <v>-0.1321936780267029</v>
+      </c>
+      <c r="L106" s="3">
+        <v>-0.2098589542669896</v>
+      </c>
+      <c r="M106" s="3">
+        <v>-0.1138492912089828</v>
+      </c>
+      <c r="N106" s="3">
+        <v>-0.2051024795757489</v>
+      </c>
+      <c r="O106" s="3">
+        <v>-0.06469082532532164</v>
+      </c>
+      <c r="P106" s="3">
+        <v>-0.1230214846178428</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>-0.1003075333165121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="5">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2386604.1336</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0.8266664301243232</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0.001310615989514998</v>
+      </c>
+      <c r="G107" s="3">
+        <v>-6.722623235697202E-06</v>
+      </c>
+      <c r="H107" s="3">
+        <v>-0.06238494579668644</v>
+      </c>
+      <c r="I107" s="3">
+        <v>-0.01114797524843687</v>
+      </c>
+      <c r="J107" s="3">
+        <v>-0.1181223547518276</v>
+      </c>
+      <c r="K107" s="3">
+        <v>-0.1517185983756525</v>
+      </c>
+      <c r="L107" s="3">
+        <v>-0.1449356463346392</v>
+      </c>
+      <c r="M107" s="3">
+        <v>-0.05587797889726748</v>
+      </c>
+      <c r="N107" s="3">
+        <v>-0.1618211738891936</v>
+      </c>
+      <c r="O107" s="3">
+        <v>-0.02786755351935229</v>
+      </c>
+      <c r="P107" s="3">
+        <v>-0.10379828863646</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>-0.1255624818596416</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="5">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" t="s">
+        <v>268</v>
+      </c>
+      <c r="D108" s="1">
+        <v>129409054.9476429</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0.7582053855188543</v>
+      </c>
+      <c r="F108" s="3">
+        <v>-0.006646655231560827</v>
+      </c>
+      <c r="G108" s="3">
+        <v>-0.02057450615077872</v>
+      </c>
+      <c r="H108" s="3">
+        <v>-0.07709163346613537</v>
+      </c>
+      <c r="I108" s="3">
+        <v>-0.02731794102423347</v>
+      </c>
+      <c r="J108" s="3">
+        <v>-0.1062885802469136</v>
+      </c>
+      <c r="K108" s="3">
+        <v>-0.1593928690464193</v>
+      </c>
+      <c r="L108" s="3">
+        <v>-0.1248583301851152</v>
+      </c>
+      <c r="M108" s="3">
+        <v>-0.03954039464340962</v>
+      </c>
+      <c r="N108" s="3">
+        <v>-0.1656762110570862</v>
+      </c>
+      <c r="O108" s="3">
+        <v>-0.03099661750065982</v>
+      </c>
+      <c r="P108" s="3">
+        <v>-0.09946663184491444</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>-0.1311869234176536</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="5">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" t="s">
+        <v>269</v>
+      </c>
+      <c r="D109" s="1">
+        <v>23777022.5448</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1.415424891078382</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0.01204819277108442</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0.02597584095914968</v>
+      </c>
+      <c r="H109" s="3">
+        <v>-0.02801461632155897</v>
+      </c>
+      <c r="I109" s="3">
+        <v>0.0003392041696454458</v>
+      </c>
+      <c r="J109" s="3">
+        <v>-0.1259583789704271</v>
+      </c>
+      <c r="K109" s="3">
+        <v>-0.1277718972955344</v>
+      </c>
+      <c r="L109" s="3">
+        <v>-0.1836317135549872</v>
+      </c>
+      <c r="M109" s="3">
+        <v>-0.09624013246700044</v>
+      </c>
+      <c r="N109" s="3">
+        <v>-0.0962627406568516</v>
+      </c>
+      <c r="O109" s="3">
+        <v>-0.01878195514887163</v>
+      </c>
+      <c r="P109" s="3">
+        <v>-0.09625143656192603</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>-0.06800179731797291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="5">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" t="s">
+        <v>270</v>
+      </c>
+      <c r="D110" s="1">
+        <v>13507350.85125714</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0.8074218876210187</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0.02107208872458406</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0.04851929292252226</v>
+      </c>
+      <c r="H110" s="3">
+        <v>-0.02763597958105975</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0.0004509138836645435</v>
+      </c>
+      <c r="J110" s="3">
+        <v>-0.06767932489451481</v>
+      </c>
+      <c r="K110" s="3">
+        <v>-0.05761297858451508</v>
+      </c>
+      <c r="L110" s="3">
+        <v>-0.09531608254176227</v>
+      </c>
+      <c r="M110" s="3">
+        <v>-0.03218694033053948</v>
+      </c>
+      <c r="N110" s="3">
+        <v>-0.1411691542288558</v>
+      </c>
+      <c r="O110" s="3">
+        <v>-0.03262225929094285</v>
+      </c>
+      <c r="P110" s="3">
+        <v>-0.04489995945752728</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>-0.05560904422571471</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="5">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" t="s">
+        <v>271</v>
+      </c>
+      <c r="D111" s="1">
+        <v>156664382.3559086</v>
+      </c>
+      <c r="E111" s="2">
+        <v>2.316696326823024</v>
+      </c>
+      <c r="F111" s="3">
+        <v>-0.03519136912406882</v>
+      </c>
+      <c r="G111" s="3">
+        <v>-0.1648820182349993</v>
+      </c>
+      <c r="H111" s="3">
+        <v>-0.09955049445609837</v>
+      </c>
+      <c r="I111" s="3">
+        <v>-0.01440512279829034</v>
+      </c>
+      <c r="J111" s="3">
+        <v>-0.1370476737507181</v>
+      </c>
+      <c r="K111" s="3">
+        <v>-0.1537113878294104</v>
+      </c>
+      <c r="L111" s="3">
+        <v>-0.2547619047619048</v>
+      </c>
+      <c r="M111" s="3">
+        <v>-0.0928697407194098</v>
+      </c>
+      <c r="N111" s="3">
+        <v>-0.3551931330472103</v>
+      </c>
+      <c r="O111" s="3">
+        <v>-0.1395586260402723</v>
+      </c>
+      <c r="P111" s="3">
+        <v>-0.1592967030322049</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>-0.06876028644231272</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="5">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>126</v>
+      </c>
+      <c r="C112" t="s">
+        <v>272</v>
+      </c>
+      <c r="D112" s="1">
+        <v>92662168.70141999</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1.468396064649628</v>
+      </c>
+      <c r="F112" s="3">
+        <v>-0.007103731598767713</v>
+      </c>
+      <c r="G112" s="3">
+        <v>-0.03474198334290603</v>
+      </c>
+      <c r="H112" s="3">
+        <v>-0.02018581081081084</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0.005824396353140692</v>
+      </c>
+      <c r="J112" s="3">
+        <v>-0.0186109466204213</v>
+      </c>
+      <c r="K112" s="3">
+        <v>-0.002133171841408767</v>
+      </c>
+      <c r="L112" s="3">
+        <v>0.04381860716213781</v>
+      </c>
+      <c r="M112" s="3">
+        <v>0.009166093414910478</v>
+      </c>
+      <c r="N112" s="3">
+        <v>0.06734750207010759</v>
+      </c>
+      <c r="O112" s="3">
+        <v>0.02252864822449624</v>
+      </c>
+      <c r="P112" s="3">
+        <v>0.003516460786750855</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>0.002394763151037123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="5">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" t="s">
+        <v>273</v>
+      </c>
+      <c r="D113" s="1">
+        <v>37664164.29872571</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1.548125991342808</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0.004548945471731445</v>
+      </c>
+      <c r="G113" s="3">
+        <v>-0.0004209810486316162</v>
+      </c>
+      <c r="H113" s="3">
+        <v>-0.06970128022759611</v>
+      </c>
+      <c r="I113" s="3">
+        <v>-0.01208650922687862</v>
+      </c>
+      <c r="J113" s="3">
+        <v>-0.1112272632239181</v>
+      </c>
+      <c r="K113" s="3">
+        <v>-0.1508514131640974</v>
+      </c>
+      <c r="L113" s="3">
+        <v>-0.1542402387465805</v>
+      </c>
+      <c r="M113" s="3">
+        <v>-0.0603731184208947</v>
+      </c>
+      <c r="N113" s="3">
+        <v>-0.1885468861846815</v>
+      </c>
+      <c r="O113" s="3">
+        <v>-0.03646379796645383</v>
+      </c>
+      <c r="P113" s="3">
+        <v>-0.1056122657924961</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>-0.06821942553970718</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="5">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" t="s">
+        <v>274</v>
+      </c>
+      <c r="D114" s="1">
+        <v>22604943.44590715</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1.300222222988032</v>
+      </c>
+      <c r="F114" s="3">
+        <v>-0.0161770966368667</v>
+      </c>
+      <c r="G114" s="3">
+        <v>-0.005879164773932019</v>
+      </c>
+      <c r="H114" s="3">
+        <v>-0.1384366844786876</v>
+      </c>
+      <c r="I114" s="3">
+        <v>-0.07345629033779449</v>
+      </c>
+      <c r="J114" s="3">
+        <v>-0.1987749913324858</v>
+      </c>
+      <c r="K114" s="3">
+        <v>-0.2920024480587682</v>
+      </c>
+      <c r="L114" s="3">
+        <v>-0.2280369669301859</v>
+      </c>
+      <c r="M114" s="3">
+        <v>-0.08633863991210512</v>
+      </c>
+      <c r="N114" s="3">
+        <v>-0.2380481371579294</v>
+      </c>
+      <c r="O114" s="3">
+        <v>-0.0261384775890749</v>
+      </c>
+      <c r="P114" s="3">
+        <v>-0.1621933885350173</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>-0.1247428213942396</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="5">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" t="s">
+        <v>275</v>
+      </c>
+      <c r="D115" s="1">
+        <v>12629482.01412857</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1.001397831651599</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0.005625879043600594</v>
+      </c>
+      <c r="G115" s="3">
+        <v>2.676603104470354E-05</v>
+      </c>
+      <c r="H115" s="3">
+        <v>-0.05589788732394373</v>
+      </c>
+      <c r="I115" s="3">
+        <v>-0.003559723973594533</v>
+      </c>
+      <c r="J115" s="3">
+        <v>-0.100251677852349</v>
+      </c>
+      <c r="K115" s="3">
+        <v>-0.113586493362023</v>
+      </c>
+      <c r="L115" s="3">
+        <v>-0.1368209255533199</v>
+      </c>
+      <c r="M115" s="3">
+        <v>-0.0508022070568193</v>
+      </c>
+      <c r="N115" s="3">
+        <v>-0.1382081157091202</v>
+      </c>
+      <c r="O115" s="3">
+        <v>-0.01999400074234818</v>
+      </c>
+      <c r="P115" s="3">
+        <v>-0.08219435020942113</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>-0.08207961672321434</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="5">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" t="s">
+        <v>276</v>
+      </c>
+      <c r="D116" s="1">
+        <v>679171586.6388727</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1.340689273369011</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0.01154644525168659</v>
+      </c>
+      <c r="G116" s="3">
+        <v>2.116366843662343E-05</v>
+      </c>
+      <c r="H116" s="3">
+        <v>-0.03227007571056231</v>
+      </c>
+      <c r="I116" s="3">
+        <v>1.42487066723527E-06</v>
+      </c>
+      <c r="J116" s="3">
+        <v>-0.09284467713787087</v>
+      </c>
+      <c r="K116" s="3">
+        <v>-0.09136254780494116</v>
+      </c>
+      <c r="L116" s="3">
+        <v>-0.1903426791277258</v>
+      </c>
+      <c r="M116" s="3">
+        <v>-0.09053213702354877</v>
+      </c>
+      <c r="N116" s="3">
+        <v>-0.2458651707128349</v>
+      </c>
+      <c r="O116" s="3">
+        <v>-0.07397911031359206</v>
+      </c>
+      <c r="P116" s="3">
+        <v>-0.09094734241424496</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>-0.0678362572303602</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="5">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" t="s">
+        <v>277</v>
+      </c>
+      <c r="D117" s="1">
+        <v>7006946.382885715</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0.9520709789649217</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0.002970297029702863</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0.001059465188579432</v>
+      </c>
+      <c r="H117" s="3">
+        <v>-0.06893382352941192</v>
+      </c>
+      <c r="I117" s="3">
+        <v>-0.03629391783557406</v>
+      </c>
+      <c r="J117" s="3">
+        <v>-0.1137357830271217</v>
+      </c>
+      <c r="K117" s="3">
+        <v>-0.1627824734157182</v>
+      </c>
+      <c r="L117" s="3">
+        <v>-0.162809917355372</v>
+      </c>
+      <c r="M117" s="3">
+        <v>-0.05848497102841514</v>
+      </c>
+      <c r="N117" s="3">
+        <v>-0.1487394957983194</v>
+      </c>
+      <c r="O117" s="3">
+        <v>-0.02359257653729584</v>
+      </c>
+      <c r="P117" s="3">
+        <v>-0.1036122334133673</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>-0.108828265646762</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="5">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" t="s">
+        <v>278</v>
+      </c>
+      <c r="D118" s="1">
+        <v>18963494.22938429</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1.168076932640876</v>
+      </c>
+      <c r="F118" s="3">
+        <v>-0.01479727730097662</v>
+      </c>
+      <c r="G118" s="3">
+        <v>-0.007779350094313441</v>
+      </c>
+      <c r="H118" s="3">
+        <v>-0.0770723593013585</v>
+      </c>
+      <c r="I118" s="3">
+        <v>-0.03823519758282103</v>
+      </c>
+      <c r="J118" s="3">
+        <v>-0.1675418854713679</v>
+      </c>
+      <c r="K118" s="3">
+        <v>-0.2183324292354607</v>
+      </c>
+      <c r="L118" s="3">
+        <v>-0.1470663592108635</v>
+      </c>
+      <c r="M118" s="3">
+        <v>-0.04185066710155583</v>
+      </c>
+      <c r="N118" s="3">
+        <v>-0.1120298746332356</v>
+      </c>
+      <c r="O118" s="3">
+        <v>-0.003472969182060979</v>
+      </c>
+      <c r="P118" s="3">
+        <v>-0.07694027086739572</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>-0.0658691809737595</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="5">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" t="s">
+        <v>279</v>
+      </c>
+      <c r="D119" s="1">
+        <v>12385654.37530286</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0.8926004723257435</v>
+      </c>
+      <c r="F119" s="3">
+        <v>-0.001811594202898519</v>
+      </c>
+      <c r="G119" s="3">
+        <v>-0.001293537701735491</v>
+      </c>
+      <c r="H119" s="3">
+        <v>-0.07756696428571426</v>
+      </c>
+      <c r="I119" s="3">
+        <v>-0.02344806650735201</v>
+      </c>
+      <c r="J119" s="3">
+        <v>-0.1244703389830508</v>
+      </c>
+      <c r="K119" s="3">
+        <v>-0.1695388789370691</v>
+      </c>
+      <c r="L119" s="3">
+        <v>-0.1587786259541985</v>
+      </c>
+      <c r="M119" s="3">
+        <v>-0.06137282996260357</v>
+      </c>
+      <c r="N119" s="3">
+        <v>-0.1553398058252428</v>
+      </c>
+      <c r="O119" s="3">
+        <v>-0.01088779766035129</v>
+      </c>
+      <c r="P119" s="3">
+        <v>-0.1083563178939232</v>
+      </c>
+      <c r="Q119" s="3">
+        <v>-0.1213939732875022</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="5">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>134</v>
+      </c>
+      <c r="C120" t="s">
+        <v>280</v>
+      </c>
+      <c r="D120" s="1">
+        <v>19866478.80034286</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1.112315827528361</v>
+      </c>
+      <c r="F120" s="3">
+        <v>-0.01588488133059253</v>
+      </c>
+      <c r="G120" s="3">
+        <v>-0.03130537090914386</v>
+      </c>
+      <c r="H120" s="3">
+        <v>-0.08481056656239148</v>
+      </c>
+      <c r="I120" s="3">
+        <v>-0.04926185349387197</v>
+      </c>
+      <c r="J120" s="3">
+        <v>-0.136296539281614</v>
+      </c>
+      <c r="K120" s="3">
+        <v>-0.1959238981352203</v>
+      </c>
+      <c r="L120" s="3">
+        <v>-0.1919594905631425</v>
+      </c>
+      <c r="M120" s="3">
+        <v>-0.0770715382796394</v>
+      </c>
+      <c r="N120" s="3">
+        <v>-0.1873456790123458</v>
+      </c>
+      <c r="O120" s="3">
+        <v>-0.03159271879404788</v>
+      </c>
+      <c r="P120" s="3">
+        <v>-0.1322086086459926</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>-0.1188588756664272</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="5">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D121" s="1">
+        <v>11319146.92859143</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0.8845655088700601</v>
+      </c>
+      <c r="F121" s="3">
+        <v>-0.006420545746388368</v>
+      </c>
+      <c r="G121" s="3">
+        <v>-0.003848830761706191</v>
+      </c>
+      <c r="H121" s="3">
+        <v>-0.07978196233894948</v>
+      </c>
+      <c r="I121" s="3">
+        <v>-0.04062204106761542</v>
+      </c>
+      <c r="J121" s="3">
+        <v>-0.1269393511988717</v>
+      </c>
+      <c r="K121" s="3">
+        <v>-0.1743448569602545</v>
+      </c>
+      <c r="L121" s="3">
+        <v>-0.1702412868632708</v>
+      </c>
+      <c r="M121" s="3">
+        <v>-0.07993953233622987</v>
+      </c>
+      <c r="N121" s="3">
+        <v>-0.1844532279314888</v>
+      </c>
+      <c r="O121" s="3">
+        <v>-0.02953540284170267</v>
+      </c>
+      <c r="P121" s="3">
+        <v>-0.1271421946482422</v>
+      </c>
+      <c r="Q121" s="3">
+        <v>-0.1437340630776493</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="5">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122" t="s">
+        <v>282</v>
+      </c>
+      <c r="D122" s="1">
+        <v>40484310.45116571</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1.101392639207017</v>
+      </c>
+      <c r="F122" s="3">
+        <v>-0.007919746568109827</v>
+      </c>
+      <c r="G122" s="3">
+        <v>-0.009348935817971551</v>
+      </c>
+      <c r="H122" s="3">
+        <v>-0.06424302788844619</v>
+      </c>
+      <c r="I122" s="3">
+        <v>-0.001359723995336021</v>
+      </c>
+      <c r="J122" s="3">
+        <v>-0.1392579019697663</v>
+      </c>
+      <c r="K122" s="3">
+        <v>-0.1245312199887169</v>
+      </c>
+      <c r="L122" s="3">
+        <v>-0.1637739207832666</v>
+      </c>
+      <c r="M122" s="3">
+        <v>-0.06587167526085068</v>
+      </c>
+      <c r="N122" s="3">
+        <v>-0.2144648829431438</v>
+      </c>
+      <c r="O122" s="3">
+        <v>-0.03975015213034382</v>
+      </c>
+      <c r="P122" s="3">
+        <v>-0.09520144762478377</v>
+      </c>
+      <c r="Q122" s="3">
+        <v>-0.08643733781744457</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="5">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" t="s">
+        <v>283</v>
+      </c>
+      <c r="D123" s="1">
+        <v>27907154.07669143</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0.9309714300645379</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0.01313651137594805</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0.01566335745505688</v>
+      </c>
+      <c r="H123" s="3">
+        <v>-0.04809772235653398</v>
+      </c>
+      <c r="I123" s="3">
+        <v>-0.001829774709774564</v>
+      </c>
+      <c r="J123" s="3">
+        <v>-0.09452916969256846</v>
+      </c>
+      <c r="K123" s="3">
+        <v>-0.1183208701361476</v>
+      </c>
+      <c r="L123" s="3">
+        <v>-0.1312274997096737</v>
+      </c>
+      <c r="M123" s="3">
+        <v>-0.0519291732546792</v>
+      </c>
+      <c r="N123" s="3">
+        <v>-0.1568804237574665</v>
+      </c>
+      <c r="O123" s="3">
+        <v>-0.03932278725901665</v>
+      </c>
+      <c r="P123" s="3">
+        <v>-0.08512502169541339</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>-0.09143677125463695</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" s="5">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124" t="s">
+        <v>284</v>
+      </c>
+      <c r="D124" s="1">
+        <v>4635880.450477714</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0.7357113572218249</v>
+      </c>
+      <c r="F124" s="3">
+        <v>-0.002886597938144355</v>
+      </c>
+      <c r="G124" s="3">
+        <v>-3.274386856212172E-05</v>
+      </c>
+      <c r="H124" s="3">
+        <v>-0.0571874187678711</v>
+      </c>
+      <c r="I124" s="3">
+        <v>-0.003545567849571181</v>
+      </c>
+      <c r="J124" s="3">
+        <v>-0.1123348017621146</v>
+      </c>
+      <c r="K124" s="3">
+        <v>-0.1250095248061922</v>
+      </c>
+      <c r="L124" s="3">
+        <v>-0.1567077423854918</v>
+      </c>
+      <c r="M124" s="3">
+        <v>-0.06283771857233578</v>
+      </c>
+      <c r="N124" s="3">
+        <v>-0.1515789473684211</v>
+      </c>
+      <c r="O124" s="3">
+        <v>-0.02448220838617108</v>
+      </c>
+      <c r="P124" s="3">
+        <v>-0.09392362168926396</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>-0.1276636832737448</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="5">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" t="s">
+        <v>285</v>
+      </c>
+      <c r="D125" s="1">
+        <v>18711632.49428571</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1.065903051265639</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0.001979218208807523</v>
+      </c>
+      <c r="G125" s="3">
+        <v>-0.002018804592258371</v>
+      </c>
+      <c r="H125" s="3">
+        <v>-0.128282393456737</v>
+      </c>
+      <c r="I125" s="3">
+        <v>-0.1225374512387126</v>
+      </c>
+      <c r="J125" s="3">
+        <v>-0.1444866920152092</v>
+      </c>
+      <c r="K125" s="3">
+        <v>-0.2424528837276098</v>
+      </c>
+      <c r="L125" s="3">
+        <v>-0.1145605596851771</v>
+      </c>
+      <c r="M125" s="3">
+        <v>-0.009497937342306306</v>
+      </c>
+      <c r="N125" s="3">
+        <v>-0.07492005481955237</v>
+      </c>
+      <c r="O125" s="3">
+        <v>2.296362984159601E-05</v>
+      </c>
+      <c r="P125" s="3">
+        <v>-0.04220899608092934</v>
+      </c>
+      <c r="Q125" s="3">
+        <v>-0.03959928253400809</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126" s="5">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" t="s">
+        <v>286</v>
+      </c>
+      <c r="D126" s="1">
+        <v>27006340.86294</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0.8935373076256404</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0.02553907325279105</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0.05019707946670835</v>
+      </c>
+      <c r="H126" s="3">
+        <v>-0.0653658536585365</v>
+      </c>
+      <c r="I126" s="3">
+        <v>-0.009731719920953914</v>
+      </c>
+      <c r="J126" s="3">
+        <v>-0.07247579529737205</v>
+      </c>
+      <c r="K126" s="3">
+        <v>-0.1214198047355948</v>
+      </c>
+      <c r="L126" s="3">
+        <v>-0.07808633489139395</v>
+      </c>
+      <c r="M126" s="3">
+        <v>-0.03194668818609869</v>
+      </c>
+      <c r="N126" s="3">
+        <v>-0.02173595915390226</v>
+      </c>
+      <c r="O126" s="3">
+        <v>7.380882275448496E-10</v>
+      </c>
+      <c r="P126" s="3">
+        <v>-0.02684132367000047</v>
+      </c>
+      <c r="Q126" s="3">
+        <v>-0.03003939896065986</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127" s="5">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" t="s">
+        <v>287</v>
+      </c>
+      <c r="D127" s="1">
+        <v>10484118.08333714</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0.770256968040662</v>
+      </c>
+      <c r="F127" s="3">
+        <v>-0.006606606606606754</v>
+      </c>
+      <c r="G127" s="3">
+        <v>-0.007835495642883925</v>
+      </c>
+      <c r="H127" s="3">
+        <v>-0.06711787930062042</v>
+      </c>
+      <c r="I127" s="3">
+        <v>-0.03615943341788527</v>
+      </c>
+      <c r="J127" s="3">
+        <v>-0.0912087912087913</v>
+      </c>
+      <c r="K127" s="3">
+        <v>-0.1316113075385701</v>
+      </c>
+      <c r="L127" s="3">
+        <v>-0.1478619268418342</v>
+      </c>
+      <c r="M127" s="3">
+        <v>-0.06742279954620886</v>
+      </c>
+      <c r="N127" s="3">
+        <v>-0.1376433785192909</v>
+      </c>
+      <c r="O127" s="3">
+        <v>-0.01945398517090638</v>
+      </c>
+      <c r="P127" s="3">
+        <v>-0.09951705354238947</v>
+      </c>
+      <c r="Q127" s="3">
+        <v>-0.1291998095071254</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" s="5">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>142</v>
+      </c>
+      <c r="C128" t="s">
+        <v>288</v>
+      </c>
+      <c r="D128" s="1">
+        <v>7563934.080365715</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0.9024435949151967</v>
+      </c>
+      <c r="F128" s="3">
+        <v>-0.001586462189317794</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0.0003156461909026608</v>
+      </c>
+      <c r="H128" s="3">
+        <v>-0.05976095617529886</v>
+      </c>
+      <c r="I128" s="3">
+        <v>-0.03081810177378058</v>
+      </c>
+      <c r="J128" s="3">
+        <v>-0.1307550644567219</v>
+      </c>
+      <c r="K128" s="3">
+        <v>-0.1850011401816699</v>
+      </c>
+      <c r="L128" s="3">
+        <v>-0.1751856705985146</v>
+      </c>
+      <c r="M128" s="3">
+        <v>-0.0812928660482868</v>
+      </c>
+      <c r="N128" s="3">
+        <v>-0.1844492440604752</v>
+      </c>
+      <c r="O128" s="3">
+        <v>-0.03104259252836299</v>
+      </c>
+      <c r="P128" s="3">
+        <v>-0.132871055054381</v>
+      </c>
+      <c r="Q128" s="3">
+        <v>-0.1472347477482701</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="5">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>143</v>
+      </c>
+      <c r="C129" t="s">
+        <v>289</v>
+      </c>
+      <c r="D129" s="1">
+        <v>13337206.83075428</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0.9867509854788801</v>
+      </c>
+      <c r="F129" s="3">
+        <v>-0.002970885323826503</v>
+      </c>
+      <c r="G129" s="3">
+        <v>-0.003168821101735098</v>
+      </c>
+      <c r="H129" s="3">
+        <v>-0.04767309875141879</v>
+      </c>
+      <c r="I129" s="3">
+        <v>-0.0001257525933193657</v>
+      </c>
+      <c r="J129" s="3">
+        <v>-0.1191601049868766</v>
+      </c>
+      <c r="K129" s="3">
+        <v>-0.1116468685516532</v>
+      </c>
+      <c r="L129" s="3">
+        <v>-0.2020922491678554</v>
+      </c>
+      <c r="M129" s="3">
+        <v>-0.1259896854571264</v>
+      </c>
+      <c r="N129" s="3">
+        <v>-0.2047393364928909</v>
+      </c>
+      <c r="O129" s="3">
+        <v>-0.04892406640555347</v>
+      </c>
+      <c r="P129" s="3">
+        <v>-0.1188182770043898</v>
+      </c>
+      <c r="Q129" s="3">
+        <v>-0.1204136390567941</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="5">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130" t="s">
+        <v>290</v>
+      </c>
+      <c r="D130" s="1">
+        <v>9490326.860782858</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0.9330865279715828</v>
+      </c>
+      <c r="F130" s="3">
+        <v>-0.005552128315854313</v>
+      </c>
+      <c r="G130" s="3">
+        <v>-0.00124052572074253</v>
+      </c>
+      <c r="H130" s="3">
+        <v>-0.0746268656716417</v>
+      </c>
+      <c r="I130" s="3">
+        <v>-0.04008555499451566</v>
+      </c>
+      <c r="J130" s="3">
+        <v>-0.1248642779587405</v>
+      </c>
+      <c r="K130" s="3">
+        <v>-0.1819249294526947</v>
+      </c>
+      <c r="L130" s="3">
+        <v>-0.1365827530798071</v>
+      </c>
+      <c r="M130" s="3">
+        <v>-0.03394106843034359</v>
+      </c>
+      <c r="N130" s="3">
+        <v>-0.1258134490238612</v>
+      </c>
+      <c r="O130" s="3">
+        <v>-0.007935367452014671</v>
+      </c>
+      <c r="P130" s="3">
+        <v>-0.07987725872710237</v>
+      </c>
+      <c r="Q130" s="3">
+        <v>-0.08560541421677781</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="5">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" t="s">
+        <v>291</v>
+      </c>
+      <c r="D131" s="1">
+        <v>58133971.25380286</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0.9524031083230201</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0.01522491349480965</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0.04007818327155117</v>
+      </c>
+      <c r="H131" s="3">
+        <v>-0.01796273569117478</v>
+      </c>
+      <c r="I131" s="3">
+        <v>0.0001054853784281339</v>
+      </c>
+      <c r="J131" s="3">
+        <v>-0.0785175879396985</v>
+      </c>
+      <c r="K131" s="3">
+        <v>-0.07244597504945557</v>
+      </c>
+      <c r="L131" s="3">
+        <v>-0.1022947475777665</v>
+      </c>
+      <c r="M131" s="3">
+        <v>-0.04453396090520394</v>
+      </c>
+      <c r="N131" s="3">
+        <v>-0.134683444750295</v>
+      </c>
+      <c r="O131" s="3">
+        <v>-0.02901631483280678</v>
+      </c>
+      <c r="P131" s="3">
+        <v>-0.05848996797732976</v>
+      </c>
+      <c r="Q131" s="3">
+        <v>-0.06141303767930598</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="5">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>146</v>
+      </c>
+      <c r="C132" t="s">
+        <v>292</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1207524887.308543</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0.9902534117030053</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0.04351151525452541</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0.1378957607164968</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0.01366244272918645</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0.05208406662229303</v>
+      </c>
+      <c r="J132" s="3">
+        <v>-0.06131029737787628</v>
+      </c>
+      <c r="K132" s="3">
+        <v>-0.02797653385180433</v>
+      </c>
+      <c r="L132" s="3">
+        <v>-0.1528510814446858</v>
+      </c>
+      <c r="M132" s="3">
+        <v>-0.09460891469252701</v>
+      </c>
+      <c r="N132" s="3">
+        <v>-0.1540475370306579</v>
+      </c>
+      <c r="O132" s="3">
+        <v>-0.04551803906778508</v>
+      </c>
+      <c r="P132" s="3">
+        <v>-0.06129272427216567</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>-0.06189599909255193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="5">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>147</v>
+      </c>
+      <c r="C133" t="s">
+        <v>293</v>
+      </c>
+      <c r="D133" s="1">
+        <v>23113797.86635714</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0.9154834337795804</v>
+      </c>
+      <c r="F133" s="3">
+        <v>-0.02333722287047843</v>
+      </c>
+      <c r="G133" s="3">
+        <v>-0.006493383244795242</v>
+      </c>
+      <c r="H133" s="3">
+        <v>-0.06688963210702346</v>
+      </c>
+      <c r="I133" s="3">
+        <v>-0.04983336400993373</v>
+      </c>
+      <c r="J133" s="3">
+        <v>-0.0990312163616793</v>
+      </c>
+      <c r="K133" s="3">
+        <v>-0.1681804826467845</v>
+      </c>
+      <c r="L133" s="3">
+        <v>-0.1655034895314057</v>
+      </c>
+      <c r="M133" s="3">
+        <v>-0.07499133729934847</v>
+      </c>
+      <c r="N133" s="3">
+        <v>-0.1646706586826348</v>
+      </c>
+      <c r="O133" s="3">
+        <v>-0.03505919503865065</v>
+      </c>
+      <c r="P133" s="3">
+        <v>-0.1198309979909916</v>
+      </c>
+      <c r="Q133" s="3">
+        <v>-0.1308936825828387</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="5">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>148</v>
+      </c>
+      <c r="C134" t="s">
+        <v>294</v>
+      </c>
+      <c r="D134" s="1">
+        <v>38417564.77112571</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0.8926092810708685</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0.0258110348093773</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0.07184236461762401</v>
+      </c>
+      <c r="H134" s="3">
+        <v>0.01333333333333334</v>
+      </c>
+      <c r="I134" s="3">
+        <v>0.02854366123001602</v>
+      </c>
+      <c r="J134" s="3">
+        <v>-0.07217819661597767</v>
+      </c>
+      <c r="K134" s="3">
+        <v>-0.04066155018806246</v>
+      </c>
+      <c r="L134" s="3">
+        <v>-0.05228615182673377</v>
+      </c>
+      <c r="M134" s="3">
+        <v>-0.02233890381533965</v>
+      </c>
+      <c r="N134" s="3">
+        <v>-0.04916593503072875</v>
+      </c>
+      <c r="O134" s="3">
+        <v>-0.001846848608983646</v>
+      </c>
+      <c r="P134" s="3">
+        <v>-0.03150022700170105</v>
+      </c>
+      <c r="Q134" s="3">
+        <v>-0.03529005094357753</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="5">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>149</v>
+      </c>
+      <c r="C135" t="s">
+        <v>295</v>
+      </c>
+      <c r="D135" s="1">
+        <v>55256768.04000001</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1.301663069421373</v>
+      </c>
+      <c r="F135" s="3">
+        <v>0.00164977610181476</v>
+      </c>
+      <c r="G135" s="3">
+        <v>-0.01350924269791936</v>
+      </c>
+      <c r="H135" s="3">
+        <v>-0.0349682107175295</v>
+      </c>
+      <c r="I135" s="3">
+        <v>-0.01647848576955723</v>
+      </c>
+      <c r="J135" s="3">
+        <v>-0.09976699851726331</v>
+      </c>
+      <c r="K135" s="3">
+        <v>-0.1240663027952294</v>
+      </c>
+      <c r="L135" s="3">
+        <v>-0.0990036039855841</v>
+      </c>
+      <c r="M135" s="3">
+        <v>-0.04712479811401631</v>
+      </c>
+      <c r="N135" s="3">
+        <v>-0.04665769403319871</v>
+      </c>
+      <c r="O135" s="3">
+        <v>-0.0002002240862492729</v>
+      </c>
+      <c r="P135" s="3">
+        <v>-0.04689124607360751</v>
+      </c>
+      <c r="Q135" s="3">
+        <v>-0.03602410422111155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="5">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136" t="s">
+        <v>296</v>
+      </c>
+      <c r="D136" s="1">
+        <v>46380196.00521427</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0.6995521458596486</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0.01277887602372213</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0.008456619196278015</v>
+      </c>
+      <c r="H136" s="3">
+        <v>-0.007884362680683413</v>
+      </c>
+      <c r="I136" s="3">
+        <v>0.0007257561086512841</v>
+      </c>
+      <c r="J136" s="3">
+        <v>-0.02454780361757115</v>
+      </c>
+      <c r="K136" s="3">
+        <v>-0.02772440013116177</v>
+      </c>
+      <c r="L136" s="3">
+        <v>-0.051758328926494</v>
+      </c>
+      <c r="M136" s="3">
+        <v>-0.02893248833829699</v>
+      </c>
+      <c r="N136" s="3">
+        <v>-0.002225777283160754</v>
+      </c>
+      <c r="O136" s="3">
+        <v>7.760872424045609E-05</v>
+      </c>
+      <c r="P136" s="3">
+        <v>-0.01497508870716126</v>
+      </c>
+      <c r="Q136" s="3">
+        <v>-0.02140667968183993</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="5">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>151</v>
+      </c>
+      <c r="C137" t="s">
+        <v>297</v>
+      </c>
+      <c r="D137" s="1">
+        <v>151503968.6847571</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0.8075628450334243</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0.006862371330537644</v>
+      </c>
+      <c r="G137" s="3">
+        <v>5.701757750680792E-06</v>
+      </c>
+      <c r="H137" s="3">
+        <v>-0.06777267913872219</v>
+      </c>
+      <c r="I137" s="3">
+        <v>-0.008457278144266365</v>
+      </c>
+      <c r="J137" s="3">
+        <v>-0.1217159960093117</v>
+      </c>
+      <c r="K137" s="3">
+        <v>-0.1539222140767466</v>
+      </c>
+      <c r="L137" s="3">
+        <v>-0.155690537084399</v>
+      </c>
+      <c r="M137" s="3">
+        <v>-0.07884614435710377</v>
+      </c>
+      <c r="N137" s="3">
+        <v>-0.1818463444857496</v>
+      </c>
+      <c r="O137" s="3">
+        <v>-0.03095941899025349</v>
+      </c>
+      <c r="P137" s="3">
+        <v>-0.1163841792169252</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>-0.1441177983022587</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="5">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" t="s">
+        <v>298</v>
+      </c>
+      <c r="D138" s="1">
+        <v>25099175.56937143</v>
+      </c>
+      <c r="E138" s="2">
+        <v>0.6859759115136579</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0.02784160021624552</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0.07260341338071158</v>
+      </c>
+      <c r="H138" s="3">
+        <v>-0.04037854889589899</v>
+      </c>
+      <c r="I138" s="3">
+        <v>-1.438182592156721E-05</v>
+      </c>
+      <c r="J138" s="3">
+        <v>-0.07582938388625587</v>
+      </c>
+      <c r="K138" s="3">
+        <v>-0.079184447452662</v>
+      </c>
+      <c r="L138" s="3">
+        <v>-0.1045566937477923</v>
+      </c>
+      <c r="M138" s="3">
+        <v>-0.05655935654896307</v>
+      </c>
+      <c r="N138" s="3">
+        <v>-0.1281669150521609</v>
+      </c>
+      <c r="O138" s="3">
+        <v>-0.02637769206821778</v>
+      </c>
+      <c r="P138" s="3">
+        <v>-0.06787190200081253</v>
+      </c>
+      <c r="Q138" s="3">
+        <v>-0.09894210694811138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="5">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>153</v>
+      </c>
+      <c r="C139" t="s">
+        <v>299</v>
+      </c>
+      <c r="D139" s="1">
+        <v>213642910.5109029</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1.054720219704227</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0.003202427102646238</v>
+      </c>
+      <c r="G139" s="3">
+        <v>-0.000180834555881548</v>
+      </c>
+      <c r="H139" s="3">
+        <v>-0.02506142506142514</v>
+      </c>
+      <c r="I139" s="3">
+        <v>-0.0006819096485163869</v>
+      </c>
+      <c r="J139" s="3">
+        <v>-0.08767627222562846</v>
+      </c>
+      <c r="K139" s="3">
+        <v>-0.08970941469079156</v>
+      </c>
+      <c r="L139" s="3">
+        <v>-0.131475266306727</v>
+      </c>
+      <c r="M139" s="3">
+        <v>-0.0626400565825475</v>
+      </c>
+      <c r="N139" s="3">
+        <v>-0.1894321122157157</v>
+      </c>
+      <c r="O139" s="3">
+        <v>-0.04438909679354646</v>
+      </c>
+      <c r="P139" s="3">
+        <v>-0.07617473563666953</v>
+      </c>
+      <c r="Q139" s="3">
+        <v>-0.07222269395577818</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="5">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>154</v>
+      </c>
+      <c r="C140" t="s">
+        <v>300</v>
+      </c>
+      <c r="D140" s="1">
+        <v>147926448.52299</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0.9553600761732034</v>
+      </c>
+      <c r="F140" s="3">
+        <v>-0.006783493499151986</v>
+      </c>
+      <c r="G140" s="3">
+        <v>-0.0003257450801182795</v>
+      </c>
+      <c r="H140" s="3">
+        <v>-0.07709816738648299</v>
+      </c>
+      <c r="I140" s="3">
+        <v>-0.03397946706084786</v>
+      </c>
+      <c r="J140" s="3">
+        <v>-0.1312493132622789</v>
+      </c>
+      <c r="K140" s="3">
+        <v>-0.181322353172022</v>
+      </c>
+      <c r="L140" s="3">
+        <v>-0.1774344569288389</v>
+      </c>
+      <c r="M140" s="3">
+        <v>-0.07568036249274754</v>
+      </c>
+      <c r="N140" s="3">
+        <v>-0.1840978277694649</v>
+      </c>
+      <c r="O140" s="3">
+        <v>-0.02952688446538173</v>
+      </c>
+      <c r="P140" s="3">
+        <v>-0.1285013578323848</v>
+      </c>
+      <c r="Q140" s="3">
+        <v>-0.1345056811952104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="5">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141" t="s">
+        <v>301</v>
+      </c>
+      <c r="D141" s="1">
+        <v>86498779.10664287</v>
+      </c>
+      <c r="E141" s="2">
+        <v>0.6046738049838155</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0.005049560501215754</v>
+      </c>
+      <c r="G141" s="3">
+        <v>-0.0009099582274301896</v>
+      </c>
+      <c r="H141" s="3">
+        <v>-0.01140544518027954</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0.00240965881147083</v>
+      </c>
+      <c r="J141" s="3">
+        <v>-0.03536169448931968</v>
+      </c>
+      <c r="K141" s="3">
+        <v>-0.01740428280686143</v>
+      </c>
+      <c r="L141" s="3">
+        <v>-0.009218289085545603</v>
+      </c>
+      <c r="M141" s="3">
+        <v>0.0002844486928530511</v>
+      </c>
+      <c r="N141" s="3">
+        <v>0.01110065851364064</v>
+      </c>
+      <c r="O141" s="3">
+        <v>0.001409347004620542</v>
+      </c>
+      <c r="P141" s="3">
+        <v>-0.0003127547672885693</v>
+      </c>
+      <c r="Q141" s="3">
+        <v>-0.0005172289004597121</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="5">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>156</v>
+      </c>
+      <c r="C142" t="s">
+        <v>302</v>
+      </c>
+      <c r="D142" s="1">
+        <v>334295107.70896</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1.2768393336961</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0.00362833254456534</v>
+      </c>
+      <c r="G142" s="3">
+        <v>-0.0004961971432799166</v>
+      </c>
+      <c r="H142" s="3">
+        <v>-0.05998817966903087</v>
+      </c>
+      <c r="I142" s="3">
+        <v>-0.06047802169267442</v>
+      </c>
+      <c r="J142" s="3">
+        <v>-0.1295662881379122</v>
+      </c>
+      <c r="K142" s="3">
+        <v>-0.183612437902385</v>
+      </c>
+      <c r="L142" s="3">
+        <v>-0.1801546391752577</v>
+      </c>
+      <c r="M142" s="3">
+        <v>-0.09742767413174286</v>
+      </c>
+      <c r="N142" s="3">
+        <v>-0.1659674882013635</v>
+      </c>
+      <c r="O142" s="3">
+        <v>-0.03437623761271932</v>
+      </c>
+      <c r="P142" s="3">
+        <v>-0.1316975811665532</v>
+      </c>
+      <c r="Q142" s="3">
+        <v>-0.1031434243064276</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" s="5">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" t="s">
+        <v>303</v>
+      </c>
+      <c r="D143" s="1">
+        <v>130820118.0678</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1.087693883293126</v>
+      </c>
+      <c r="F143" s="3">
+        <v>-0.001136363636363637</v>
+      </c>
+      <c r="G143" s="3">
+        <v>-0.001563657085161601</v>
+      </c>
+      <c r="H143" s="3">
+        <v>-0.043525571273123</v>
+      </c>
+      <c r="I143" s="3">
+        <v>-0.008033659603487108</v>
+      </c>
+      <c r="J143" s="3">
+        <v>-0.08532778355879289</v>
+      </c>
+      <c r="K143" s="3">
+        <v>-0.1033148931005382</v>
+      </c>
+      <c r="L143" s="3">
+        <v>-0.1564299424184261</v>
+      </c>
+      <c r="M143" s="3">
+        <v>-0.06768912221083133</v>
+      </c>
+      <c r="N143" s="3">
+        <v>-0.04972972972972977</v>
+      </c>
+      <c r="O143" s="3">
+        <v>-0.001696957251731115</v>
+      </c>
+      <c r="P143" s="3">
+        <v>-0.05870942597028055</v>
+      </c>
+      <c r="Q143" s="3">
+        <v>-0.05397605601360061</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="5">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144" t="s">
+        <v>304</v>
+      </c>
+      <c r="D144" s="1">
+        <v>395326793.8990315</v>
+      </c>
+      <c r="E144" s="2">
+        <v>0.8225944657519133</v>
+      </c>
+      <c r="F144" s="3">
+        <v>0.004019523399368396</v>
+      </c>
+      <c r="G144" s="3">
+        <v>-3.850735266541342E-06</v>
+      </c>
+      <c r="H144" s="3">
+        <v>-0.02127064091799607</v>
+      </c>
+      <c r="I144" s="3">
+        <v>-0.01477731947457944</v>
+      </c>
+      <c r="J144" s="3">
+        <v>-0.07876712328767119</v>
+      </c>
+      <c r="K144" s="3">
+        <v>-0.09171163200677929</v>
+      </c>
+      <c r="L144" s="3">
+        <v>-0.09521345407503233</v>
+      </c>
+      <c r="M144" s="3">
+        <v>-0.03882325018175971</v>
+      </c>
+      <c r="N144" s="3">
+        <v>-0.1031033598358554</v>
+      </c>
+      <c r="O144" s="3">
+        <v>-0.01250932780050583</v>
+      </c>
+      <c r="P144" s="3">
+        <v>-0.06526744109426949</v>
+      </c>
+      <c r="Q144" s="3">
+        <v>-0.07934339922237398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="5">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>159</v>
+      </c>
+      <c r="C145" t="s">
+        <v>305</v>
+      </c>
+      <c r="D145" s="1">
+        <v>71806409.57306145</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0.774841393645409</v>
+      </c>
+      <c r="F145" s="3">
+        <v>-0.00528014080375469</v>
+      </c>
+      <c r="G145" s="3">
+        <v>-0.005617841387363461</v>
+      </c>
+      <c r="H145" s="3">
+        <v>-0.01098580594983468</v>
+      </c>
+      <c r="I145" s="3">
+        <v>0.0001462608127720394</v>
+      </c>
+      <c r="J145" s="3">
+        <v>-0.05901396725557299</v>
+      </c>
+      <c r="K145" s="3">
+        <v>-0.03889410767279659</v>
+      </c>
+      <c r="L145" s="3">
+        <v>-0.05744464004447329</v>
+      </c>
+      <c r="M145" s="3">
+        <v>-0.01054359735159658</v>
+      </c>
+      <c r="N145" s="3">
+        <v>-0.07744626825065741</v>
+      </c>
+      <c r="O145" s="3">
+        <v>-0.01646839646886519</v>
+      </c>
+      <c r="P145" s="3">
+        <v>-0.02471885251219658</v>
+      </c>
+      <c r="Q145" s="3">
+        <v>-0.03190182237928899</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="5">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" t="s">
+        <v>306</v>
+      </c>
+      <c r="D146" s="1">
+        <v>5870498918.018904</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0.7482547823824389</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0.002078860375558101</v>
+      </c>
+      <c r="G146" s="3">
+        <v>-5.732387384268854E-05</v>
+      </c>
+      <c r="H146" s="3">
+        <v>-0.01441308574110061</v>
+      </c>
+      <c r="I146" s="3">
+        <v>-0.0002215249828276694</v>
+      </c>
+      <c r="J146" s="3">
+        <v>-0.07372201264795979</v>
+      </c>
+      <c r="K146" s="3">
+        <v>-0.07315134404190519</v>
+      </c>
+      <c r="L146" s="3">
+        <v>-0.07665253571989314</v>
+      </c>
+      <c r="M146" s="3">
+        <v>-0.02696846692810506</v>
+      </c>
+      <c r="N146" s="3">
+        <v>-0.07272884950449775</v>
+      </c>
+      <c r="O146" s="3">
+        <v>-0.001380720530016333</v>
+      </c>
+      <c r="P146" s="3">
+        <v>-0.0498486582163014</v>
+      </c>
+      <c r="Q146" s="3">
+        <v>-0.06661989925087222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147" s="5">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>161</v>
+      </c>
+      <c r="C147" t="s">
+        <v>307</v>
+      </c>
+      <c r="D147" s="1">
+        <v>7319263998.715541</v>
+      </c>
+      <c r="E147" s="2">
+        <v>0.4556737395041002</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0.001404106712109989</v>
+      </c>
+      <c r="G147" s="3">
+        <v>-2.220203869601554E-05</v>
+      </c>
+      <c r="H147" s="3">
+        <v>-0.005908982606623822</v>
+      </c>
+      <c r="I147" s="3">
+        <v>-0.0002516366590369602</v>
+      </c>
+      <c r="J147" s="3">
+        <v>-0.04043789996607652</v>
+      </c>
+      <c r="K147" s="3">
+        <v>-0.04337685731960069</v>
+      </c>
+      <c r="L147" s="3">
+        <v>-0.02790673291433443</v>
+      </c>
+      <c r="M147" s="3">
+        <v>-0.004112031626705229</v>
+      </c>
+      <c r="N147" s="3">
+        <v>-0.02085741274208973</v>
+      </c>
+      <c r="O147" s="3">
+        <v>1.082147497993447E-05</v>
+      </c>
+      <c r="P147" s="3">
+        <v>-0.01248472218439748</v>
+      </c>
+      <c r="Q147" s="3">
+        <v>-0.0273983798100464</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -1379,46 +1379,46 @@
         <v>162</v>
       </c>
       <c r="D2" s="1">
-        <v>2974229.6584</v>
+        <v>3430110.081757143</v>
       </c>
       <c r="E2" s="2">
-        <v>1.005274485635292</v>
+        <v>1.049093144700393</v>
       </c>
       <c r="F2" s="3">
-        <v>0.02604482132041183</v>
+        <v>-0.01874359349831602</v>
       </c>
       <c r="G2" s="3">
-        <v>0.04733889975936598</v>
+        <v>-0.01179734443520437</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.01296431172614718</v>
+        <v>-0.01238025055268983</v>
       </c>
       <c r="I2" s="3">
-        <v>0.01294104298695495</v>
+        <v>-0.0303603773861086</v>
       </c>
       <c r="J2" s="3">
-        <v>-0.08122033898305088</v>
+        <v>0.01638101016229329</v>
       </c>
       <c r="K2" s="3">
-        <v>-0.05736166902568387</v>
+        <v>-3.425153453901077E-05</v>
       </c>
       <c r="L2" s="3">
-        <v>-0.1724474841231071</v>
+        <v>-0.1191008281845669</v>
       </c>
       <c r="M2" s="3">
-        <v>-0.0964989789291624</v>
+        <v>-0.08344205181803879</v>
       </c>
       <c r="N2" s="3">
-        <v>-0.2016965127238454</v>
+        <v>-0.1985408443966034</v>
       </c>
       <c r="O2" s="3">
-        <v>-0.06089018657059062</v>
+        <v>-0.068188803478422</v>
       </c>
       <c r="P2" s="3">
-        <v>-0.07693032397742314</v>
+        <v>-0.04761969812662158</v>
       </c>
       <c r="Q2" s="3">
-        <v>-0.07652668507627183</v>
+        <v>-0.04539129663288488</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1432,46 +1432,46 @@
         <v>163</v>
       </c>
       <c r="D3" s="1">
-        <v>11899519.17285714</v>
+        <v>12015553.81371428</v>
       </c>
       <c r="E3" s="2">
-        <v>1.290301244275279</v>
+        <v>1.293593315120953</v>
       </c>
       <c r="F3" s="3">
-        <v>-0.008118215816838463</v>
+        <v>-0.01966883176287627</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0001662686735905073</v>
+        <v>-0.05567175586107281</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.04614035087719303</v>
+        <v>-0.01389527928591152</v>
       </c>
       <c r="I3" s="3">
-        <v>-0.0503704817073586</v>
+        <v>-0.0273709385070218</v>
       </c>
       <c r="J3" s="3">
-        <v>-0.1005789909015716</v>
+        <v>-0.03511615343057812</v>
       </c>
       <c r="K3" s="3">
-        <v>-0.1567929260826277</v>
+        <v>-0.009169738854275465</v>
       </c>
       <c r="L3" s="3">
-        <v>-0.08912715697771822</v>
+        <v>-0.1137209494665454</v>
       </c>
       <c r="M3" s="3">
-        <v>-0.02412568905035081</v>
+        <v>-0.09199440991221153</v>
       </c>
       <c r="N3" s="3">
-        <v>-0.1531152647975079</v>
+        <v>-0.1362244075447365</v>
       </c>
       <c r="O3" s="3">
-        <v>-0.01338476543920375</v>
+        <v>-0.01654195325290694</v>
       </c>
       <c r="P3" s="3">
-        <v>-0.08862047692392934</v>
+        <v>-0.07383308288664217</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0686820053201643</v>
+        <v>-0.05707596199176299</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1485,46 +1485,46 @@
         <v>164</v>
       </c>
       <c r="D4" s="1">
-        <v>92651991.26593858</v>
+        <v>93141065.54603998</v>
       </c>
       <c r="E4" s="2">
-        <v>1.486609898816528</v>
+        <v>1.455273825300532</v>
       </c>
       <c r="F4" s="3">
-        <v>0.01118831999598625</v>
+        <v>-0.04211716139178303</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0003218872857929115</v>
+        <v>-0.1379404352798704</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.08104596024074415</v>
+        <v>-0.02678816627137674</v>
       </c>
       <c r="I4" s="3">
-        <v>-0.04390431088018405</v>
+        <v>-0.04985014715066145</v>
       </c>
       <c r="J4" s="3">
-        <v>-0.1380519619373463</v>
+        <v>-0.04084444663156328</v>
       </c>
       <c r="K4" s="3">
-        <v>-0.2114590917993214</v>
+        <v>-0.01968963455380821</v>
       </c>
       <c r="L4" s="3">
-        <v>-0.1654278556491854</v>
+        <v>-0.1197272152470418</v>
       </c>
       <c r="M4" s="3">
-        <v>-0.0355093122261868</v>
+        <v>-0.1044031684896541</v>
       </c>
       <c r="N4" s="3">
-        <v>-0.214555728760717</v>
+        <v>-0.2578532536267753</v>
       </c>
       <c r="O4" s="3">
-        <v>-0.05109536891099462</v>
+        <v>-0.05503396304621827</v>
       </c>
       <c r="P4" s="3">
-        <v>-0.1234842020127541</v>
+        <v>-0.1211718018847623</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.08306429421131822</v>
+        <v>-0.08326391898084116</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1538,46 +1538,46 @@
         <v>165</v>
       </c>
       <c r="D5" s="1">
-        <v>20181374.851</v>
+        <v>22200693.55742857</v>
       </c>
       <c r="E5" s="2">
-        <v>1.235741115808348</v>
+        <v>1.217057938583398</v>
       </c>
       <c r="F5" s="3">
-        <v>0.005801104972375665</v>
+        <v>-0.003237992444684299</v>
       </c>
       <c r="G5" s="3">
-        <v>-0.002181528865669803</v>
+        <v>-0.003415913776429541</v>
       </c>
       <c r="H5" s="3">
-        <v>-0.03982067510548518</v>
+        <v>0.01959701904499027</v>
       </c>
       <c r="I5" s="3">
-        <v>3.523303450184017E-06</v>
+        <v>-0.002367022477621816</v>
       </c>
       <c r="J5" s="3">
-        <v>-0.08448579331154132</v>
+        <v>0.0002707825616030029</v>
       </c>
       <c r="K5" s="3">
-        <v>-0.07109466614089212</v>
+        <v>-0.003217609276541728</v>
       </c>
       <c r="L5" s="3">
-        <v>-0.1673908072261606</v>
+        <v>-0.09149040826364975</v>
       </c>
       <c r="M5" s="3">
-        <v>-0.09105509671325746</v>
+        <v>-0.08243735053981642</v>
       </c>
       <c r="N5" s="3">
-        <v>-0.1522700814901048</v>
+        <v>-0.1472760849492151</v>
       </c>
       <c r="O5" s="3">
-        <v>-0.03971344890080942</v>
+        <v>-0.05090029703847588</v>
       </c>
       <c r="P5" s="3">
-        <v>-0.08107488142707478</v>
+        <v>-0.04292663215812298</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0656083061329884</v>
+        <v>-0.03527082055607615</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1591,46 +1591,46 @@
         <v>166</v>
       </c>
       <c r="D6" s="1">
-        <v>4421404.359285714</v>
+        <v>4427269.99</v>
       </c>
       <c r="E6" s="2">
-        <v>0.9337539907112544</v>
+        <v>0.9577373031096615</v>
       </c>
       <c r="F6" s="3">
-        <v>0.02027027027027026</v>
+        <v>-0.01789264413518879</v>
       </c>
       <c r="G6" s="3">
-        <v>0.05417724968858682</v>
+        <v>-0.05423294619561469</v>
       </c>
       <c r="H6" s="3">
-        <v>-0.02031029619181948</v>
+        <v>0.002609452015076933</v>
       </c>
       <c r="I6" s="3">
-        <v>6.704055769144924E-05</v>
+        <v>-0.007763599951443108</v>
       </c>
       <c r="J6" s="3">
-        <v>-0.06765100671140946</v>
+        <v>0.008751458576429477</v>
       </c>
       <c r="K6" s="3">
-        <v>-0.07485427987013356</v>
+        <v>8.600721012997906E-05</v>
       </c>
       <c r="L6" s="3">
-        <v>-0.114030612244898</v>
+        <v>-0.1121951219512195</v>
       </c>
       <c r="M6" s="3">
-        <v>-0.06344877774078762</v>
+        <v>-0.08790779492570763</v>
       </c>
       <c r="N6" s="3">
-        <v>-0.1189751395230848</v>
+        <v>-0.1205493387589013</v>
       </c>
       <c r="O6" s="3">
-        <v>-0.01650682470271186</v>
+        <v>-0.02594797423794508</v>
       </c>
       <c r="P6" s="3">
-        <v>-0.06915152880546059</v>
+        <v>-0.07107037056066116</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.07405754566337847</v>
+        <v>-0.07420653902683329</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1644,46 +1644,46 @@
         <v>167</v>
       </c>
       <c r="D7" s="1">
-        <v>17250256.17385714</v>
+        <v>17002624.30978572</v>
       </c>
       <c r="E7" s="2">
-        <v>1.244337891656323</v>
+        <v>1.236339704351629</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.00399017802332721</v>
+        <v>0.005872228409436091</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.002138096757906338</v>
+        <v>4.769424149192727E-05</v>
       </c>
       <c r="H7" s="3">
-        <v>-0.05723416618245199</v>
+        <v>0.02857438658246202</v>
       </c>
       <c r="I7" s="3">
-        <v>-0.1000400056756138</v>
+        <v>0.0005631965306069221</v>
       </c>
       <c r="J7" s="3">
-        <v>-0.1476974260199615</v>
+        <v>-0.005306367641169375</v>
       </c>
       <c r="K7" s="3">
-        <v>-0.2237024641316779</v>
+        <v>-0.0007390555285493646</v>
       </c>
       <c r="L7" s="3">
-        <v>-0.06005600077242448</v>
+        <v>-0.0563259878419452</v>
       </c>
       <c r="M7" s="3">
-        <v>-0.001979457497952511</v>
+        <v>-0.08580813204464652</v>
       </c>
       <c r="N7" s="3">
-        <v>-0.109983543609435</v>
+        <v>-0.07244888432452609</v>
       </c>
       <c r="O7" s="3">
-        <v>-5.902974583051796E-05</v>
+        <v>-0.000333776495752225</v>
       </c>
       <c r="P7" s="3">
-        <v>-0.05606082018367069</v>
+        <v>-0.03659396992653773</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.04505273090177203</v>
+        <v>-0.02959863684530671</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1697,46 +1697,46 @@
         <v>168</v>
       </c>
       <c r="D8" s="1">
-        <v>18403015.20715714</v>
+        <v>18615246.15405715</v>
       </c>
       <c r="E8" s="2">
-        <v>1.326087662422311</v>
+        <v>1.404232950868194</v>
       </c>
       <c r="F8" s="3">
-        <v>0.02134099022194636</v>
+        <v>-0.0268274302938959</v>
       </c>
       <c r="G8" s="3">
-        <v>0.0056103128867041</v>
+        <v>-0.03383672556950109</v>
       </c>
       <c r="H8" s="3">
-        <v>-0.1214872171417128</v>
+        <v>-0.02033075405856466</v>
       </c>
       <c r="I8" s="3">
-        <v>-0.01688771697725767</v>
+        <v>-0.02908308689337412</v>
       </c>
       <c r="J8" s="3">
-        <v>-0.1772318079519879</v>
+        <v>-0.0188421212581674</v>
       </c>
       <c r="K8" s="3">
-        <v>-0.2599785312229875</v>
+        <v>-0.007634440634938343</v>
       </c>
       <c r="L8" s="3">
-        <v>-0.2025086347936739</v>
+        <v>-0.1942347288949896</v>
       </c>
       <c r="M8" s="3">
-        <v>-0.09207208375139926</v>
+        <v>-0.1660920619664357</v>
       </c>
       <c r="N8" s="3">
-        <v>-0.1943560235063662</v>
+        <v>-0.2046560325183223</v>
       </c>
       <c r="O8" s="3">
-        <v>-0.01687252481612455</v>
+        <v>-0.0404398135586536</v>
       </c>
       <c r="P8" s="3">
-        <v>-0.1432140536288828</v>
+        <v>-0.09996439376796838</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.1079974255753797</v>
+        <v>-0.07118789920587142</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1750,46 +1750,46 @@
         <v>169</v>
       </c>
       <c r="D9" s="1">
-        <v>31730736.54464286</v>
+        <v>31585557.79285714</v>
       </c>
       <c r="E9" s="2">
-        <v>1.313353835334333</v>
+        <v>1.421454957620847</v>
       </c>
       <c r="F9" s="3">
-        <v>0.005014326647564514</v>
+        <v>-0.05099150141643049</v>
       </c>
       <c r="G9" s="3">
-        <v>-4.254623070855481E-05</v>
+        <v>-0.06586357020117416</v>
       </c>
       <c r="H9" s="3">
-        <v>-0.07453825857519791</v>
+        <v>-0.04558404558404551</v>
       </c>
       <c r="I9" s="3">
-        <v>-0.004163186099387959</v>
+        <v>-0.1038554946129869</v>
       </c>
       <c r="J9" s="3">
-        <v>-0.1350184956843403</v>
+        <v>-0.06030855539971947</v>
       </c>
       <c r="K9" s="3">
-        <v>-0.1677294548598761</v>
+        <v>-0.05895701266538788</v>
       </c>
       <c r="L9" s="3">
-        <v>-0.1785714285714285</v>
+        <v>-0.1834247410115782</v>
       </c>
       <c r="M9" s="3">
-        <v>-0.09280249226099564</v>
+        <v>-0.1457406295606078</v>
       </c>
       <c r="N9" s="3">
-        <v>-0.1927502876869965</v>
+        <v>-0.2213829169087739</v>
       </c>
       <c r="O9" s="3">
-        <v>-0.03116081872907204</v>
+        <v>-0.05002296735402311</v>
       </c>
       <c r="P9" s="3">
-        <v>-0.1302659735604359</v>
+        <v>-0.105802099880891</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.09918574115807477</v>
+        <v>-0.07443225640999325</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1803,46 +1803,46 @@
         <v>170</v>
       </c>
       <c r="D10" s="1">
-        <v>4641903.874469142</v>
+        <v>3785287.072920772</v>
       </c>
       <c r="E10" s="2">
-        <v>1.170916114612584</v>
+        <v>1.02684422134905</v>
       </c>
       <c r="F10" s="3">
-        <v>0.00387239535312557</v>
+        <v>-0.0078971533516987</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0007279660876222179</v>
+        <v>-0.01700710365361253</v>
       </c>
       <c r="H10" s="3">
-        <v>-0.06524725274725267</v>
+        <v>-0.008807339449541299</v>
       </c>
       <c r="I10" s="3">
-        <v>-0.003761280658010965</v>
+        <v>-0.0224245483730913</v>
       </c>
       <c r="J10" s="3">
-        <v>-0.1140764849471115</v>
+        <v>-0.006802721088435439</v>
       </c>
       <c r="K10" s="3">
-        <v>-0.1480417292247341</v>
+        <v>-0.007134222556498931</v>
       </c>
       <c r="L10" s="3">
-        <v>-0.1360101571179178</v>
+        <v>-0.12062510174182</v>
       </c>
       <c r="M10" s="3">
-        <v>-0.05253858056875234</v>
+        <v>-0.1025908124807368</v>
       </c>
       <c r="N10" s="3">
-        <v>-0.1362843090591781</v>
+        <v>-0.1546165884194053</v>
       </c>
       <c r="O10" s="3">
-        <v>-0.02599868899469212</v>
+        <v>-0.03428561706242639</v>
       </c>
       <c r="P10" s="3">
-        <v>-0.09441144481396524</v>
+        <v>-0.05979895806717465</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.08063040864819149</v>
+        <v>-0.05823566693359956</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1856,46 +1856,46 @@
         <v>171</v>
       </c>
       <c r="D11" s="1">
-        <v>38481842.40411428</v>
+        <v>65381786.88005713</v>
       </c>
       <c r="E11" s="2">
-        <v>1.323015488343268</v>
+        <v>1.511952672928263</v>
       </c>
       <c r="F11" s="3">
-        <v>-0.0337246797669736</v>
+        <v>-0.008509145947542341</v>
       </c>
       <c r="G11" s="3">
-        <v>0.01243443964308498</v>
+        <v>-0.04230622057047385</v>
       </c>
       <c r="H11" s="3">
-        <v>-0.1342006544816028</v>
+        <v>-0.055144148739688</v>
       </c>
       <c r="I11" s="3">
-        <v>-0.01584836197130465</v>
+        <v>-0.04517729422699254</v>
       </c>
       <c r="J11" s="3">
-        <v>-0.1697714644338655</v>
+        <v>-0.08891075002544195</v>
       </c>
       <c r="K11" s="3">
-        <v>-0.1148368489723418</v>
+        <v>-0.09590820285309348</v>
       </c>
       <c r="L11" s="3">
-        <v>-0.1762150668286755</v>
+        <v>-0.1008821117118323</v>
       </c>
       <c r="M11" s="3">
-        <v>-0.01017079434296477</v>
+        <v>-0.06548695521772098</v>
       </c>
       <c r="N11" s="3">
-        <v>-0.2232072526244934</v>
+        <v>-0.2155843397245871</v>
       </c>
       <c r="O11" s="3">
-        <v>-0.03800795291026297</v>
+        <v>-0.05057922598216316</v>
       </c>
       <c r="P11" s="3">
-        <v>-0.06250382165765329</v>
+        <v>-0.08069757903540722</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.04724345422132817</v>
+        <v>-0.05337308533547998</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1909,46 +1909,46 @@
         <v>172</v>
       </c>
       <c r="D12" s="1">
-        <v>6773310.4277</v>
+        <v>17154810.85392857</v>
       </c>
       <c r="E12" s="2">
-        <v>0.8600092233223628</v>
+        <v>0.9035872837766145</v>
       </c>
       <c r="F12" s="3">
-        <v>0.03864306784660767</v>
+        <v>0.09175870858113844</v>
       </c>
       <c r="G12" s="3">
-        <v>0.06190324375931511</v>
+        <v>0.1586435204279255</v>
       </c>
       <c r="H12" s="3">
-        <v>-0.03534246575342457</v>
+        <v>0.1030042918454937</v>
       </c>
       <c r="I12" s="3">
-        <v>9.882242689735136E-05</v>
+        <v>0.07593859121587609</v>
       </c>
       <c r="J12" s="3">
-        <v>-0.06654294803817593</v>
+        <v>0.1304985337243401</v>
       </c>
       <c r="K12" s="3">
-        <v>-0.06740245368638866</v>
+        <v>0.07132888242134569</v>
       </c>
       <c r="L12" s="3">
-        <v>-0.1433090024330899</v>
+        <v>0.0002594706798131525</v>
       </c>
       <c r="M12" s="3">
-        <v>-0.07869307897018445</v>
+        <v>-0.04108966561269701</v>
       </c>
       <c r="N12" s="3">
-        <v>-0.172113802022102</v>
+        <v>-0.08908317580340266</v>
       </c>
       <c r="O12" s="3">
-        <v>-0.0474510606880956</v>
+        <v>-0.04507763463184437</v>
       </c>
       <c r="P12" s="3">
-        <v>-0.07304776632828655</v>
+        <v>0.01511960840432434</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.08493835222614303</v>
+        <v>0.01673286983536415</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1962,46 +1962,46 @@
         <v>173</v>
       </c>
       <c r="D13" s="1">
-        <v>10464522.32357143</v>
+        <v>8458348.833928572</v>
       </c>
       <c r="E13" s="2">
-        <v>1.238309112737082</v>
+        <v>1.235160857579591</v>
       </c>
       <c r="F13" s="3">
-        <v>-0.02437325905292474</v>
+        <v>-0.01912181303116141</v>
       </c>
       <c r="G13" s="3">
-        <v>-0.02651184319175067</v>
+        <v>-0.02991717815127899</v>
       </c>
       <c r="H13" s="3">
-        <v>-0.07402511566424315</v>
+        <v>-0.02050919377652045</v>
       </c>
       <c r="I13" s="3">
-        <v>-0.0175616452098094</v>
+        <v>-0.02456136093212879</v>
       </c>
       <c r="J13" s="3">
-        <v>-0.124375</v>
+        <v>-0.01912181303116141</v>
       </c>
       <c r="K13" s="3">
-        <v>-0.1564589504770197</v>
+        <v>-0.02350006433290958</v>
       </c>
       <c r="L13" s="3">
-        <v>-0.1544960772480386</v>
+        <v>-0.1413515189088655</v>
       </c>
       <c r="M13" s="3">
-        <v>-0.07366414843211258</v>
+        <v>-0.119818155079734</v>
       </c>
       <c r="N13" s="3">
-        <v>-0.1330445544554456</v>
+        <v>-0.1523867809057527</v>
       </c>
       <c r="O13" s="3">
-        <v>-0.01303896646395327</v>
+        <v>-0.03092458750286893</v>
       </c>
       <c r="P13" s="3">
-        <v>-0.1033543514437791</v>
+        <v>-0.07486766661550648</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.08346409663038898</v>
+        <v>-0.06061369752456084</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2015,46 +2015,46 @@
         <v>174</v>
       </c>
       <c r="D14" s="1">
-        <v>135037868.0262286</v>
+        <v>143158997.4975957</v>
       </c>
       <c r="E14" s="2">
-        <v>1.686614118758639</v>
+        <v>1.678838699511193</v>
       </c>
       <c r="F14" s="3">
-        <v>0.0229922992299229</v>
+        <v>0.01763574176998713</v>
       </c>
       <c r="G14" s="3">
-        <v>0.028058996251241</v>
+        <v>9.336660455619994E-05</v>
       </c>
       <c r="H14" s="3">
-        <v>-0.07288135593220334</v>
+        <v>0.02321332616872644</v>
       </c>
       <c r="I14" s="3">
-        <v>-0.02225763007768328</v>
+        <v>-0.00213094833524166</v>
       </c>
       <c r="J14" s="3">
-        <v>-0.1398575524928314</v>
+        <v>0.02431414739107042</v>
       </c>
       <c r="K14" s="3">
-        <v>-0.1863521995423003</v>
+        <v>-3.889283160738668E-05</v>
       </c>
       <c r="L14" s="3">
-        <v>-0.09954488234724509</v>
+        <v>-0.07193683594892299</v>
       </c>
       <c r="M14" s="3">
-        <v>-0.020215931021243</v>
+        <v>-0.1381256132244677</v>
       </c>
       <c r="N14" s="3">
-        <v>-0.09971923709942879</v>
+        <v>-0.06994236592751793</v>
       </c>
       <c r="O14" s="3">
-        <v>-0.0007901764829801247</v>
+        <v>-0.008814907662855517</v>
       </c>
       <c r="P14" s="3">
-        <v>-0.05996758406033589</v>
+        <v>-0.03499062937956266</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.03555501130541496</v>
+        <v>-0.02084216273412714</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2068,46 +2068,46 @@
         <v>175</v>
       </c>
       <c r="D15" s="1">
-        <v>10812915.41417143</v>
+        <v>13480312.93242857</v>
       </c>
       <c r="E15" s="2">
-        <v>1.40797524264418</v>
+        <v>1.403352246464109</v>
       </c>
       <c r="F15" s="3">
-        <v>-0.02687877125617123</v>
+        <v>-0.00977883385121564</v>
       </c>
       <c r="G15" s="3">
-        <v>-0.02694378132387227</v>
+        <v>-0.001820229057853974</v>
       </c>
       <c r="H15" s="3">
-        <v>-0.1668101761252447</v>
+        <v>0.00444980068601086</v>
       </c>
       <c r="I15" s="3">
-        <v>-0.1597724294736794</v>
+        <v>-0.004894712042199123</v>
       </c>
       <c r="J15" s="3">
-        <v>-0.2298118668596237</v>
+        <v>-0.042252276142491</v>
       </c>
       <c r="K15" s="3">
-        <v>-0.376703613937706</v>
+        <v>-0.0324068896474187</v>
       </c>
       <c r="L15" s="3">
-        <v>-0.2556122805790614</v>
+        <v>-0.1956198960653304</v>
       </c>
       <c r="M15" s="3">
-        <v>-0.09892558646229312</v>
+        <v>-0.1973509095973138</v>
       </c>
       <c r="N15" s="3">
-        <v>-0.2932270916334661</v>
+        <v>-0.2813080392677104</v>
       </c>
       <c r="O15" s="3">
-        <v>-0.04918045228220293</v>
+        <v>-0.07170174339118399</v>
       </c>
       <c r="P15" s="3">
-        <v>-0.1960763390478796</v>
+        <v>-0.1148788996223662</v>
       </c>
       <c r="Q15" s="3">
-        <v>-0.1392612122068623</v>
+        <v>-0.08186034540637643</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2121,46 +2121,46 @@
         <v>176</v>
       </c>
       <c r="D16" s="1">
-        <v>46198042.84234285</v>
+        <v>45586398.28854857</v>
       </c>
       <c r="E16" s="2">
-        <v>1.423187013404045</v>
+        <v>1.529805449218376</v>
       </c>
       <c r="F16" s="3">
-        <v>-0.02314814814814817</v>
+        <v>-0.05189775367931834</v>
       </c>
       <c r="G16" s="3">
-        <v>-0.05497980565046434</v>
+        <v>-0.1542539627597172</v>
       </c>
       <c r="H16" s="3">
-        <v>-0.08526011560693646</v>
+        <v>-0.04747081712062263</v>
       </c>
       <c r="I16" s="3">
-        <v>-0.02594587831398855</v>
+        <v>-0.07328539916238747</v>
       </c>
       <c r="J16" s="3">
-        <v>-0.1520428667113195</v>
+        <v>-0.05846153846153853</v>
       </c>
       <c r="K16" s="3">
-        <v>-0.1913218061930902</v>
+        <v>-0.05797284438462796</v>
       </c>
       <c r="L16" s="3">
-        <v>-0.04452830188679258</v>
+        <v>-0.03849175176747841</v>
       </c>
       <c r="M16" s="3">
-        <v>-5.307024064388577E-06</v>
+        <v>-0.1057894612593086</v>
       </c>
       <c r="N16" s="3">
-        <v>-0.08194343727338654</v>
+        <v>-0.09933774834437085</v>
       </c>
       <c r="O16" s="3">
-        <v>0.0003255867627543907</v>
+        <v>1.959954569107265E-08</v>
       </c>
       <c r="P16" s="3">
-        <v>-0.06846162146192544</v>
+        <v>-0.1025636048018397</v>
       </c>
       <c r="Q16" s="3">
-        <v>-0.04810444503577626</v>
+        <v>-0.06704356090131762</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2174,46 +2174,46 @@
         <v>177</v>
       </c>
       <c r="D17" s="1">
-        <v>14950358.70647057</v>
+        <v>14667914.23193486</v>
       </c>
       <c r="E17" s="2">
-        <v>1.296908215759692</v>
+        <v>1.304563353890615</v>
       </c>
       <c r="F17" s="3">
-        <v>0.00548210254756533</v>
+        <v>-0.01045296167247388</v>
       </c>
       <c r="G17" s="3">
-        <v>-1.529101048443133E-05</v>
+        <v>-0.0102299627079424</v>
       </c>
       <c r="H17" s="3">
-        <v>-0.107357572287432</v>
+        <v>0.01002263174911096</v>
       </c>
       <c r="I17" s="3">
-        <v>-0.02574800724844564</v>
+        <v>-0.001321985170688188</v>
       </c>
       <c r="J17" s="3">
-        <v>-0.1554712892741061</v>
+        <v>-0.002872646026172963</v>
       </c>
       <c r="K17" s="3">
-        <v>-0.2201513202258166</v>
+        <v>-0.000709390667309618</v>
       </c>
       <c r="L17" s="3">
-        <v>-0.1865379598225932</v>
+        <v>-0.1466812346353456</v>
       </c>
       <c r="M17" s="3">
-        <v>-0.07249297335277026</v>
+        <v>-0.1254998746853009</v>
       </c>
       <c r="N17" s="3">
-        <v>-0.2430201505219714</v>
+        <v>-0.2197802197802197</v>
       </c>
       <c r="O17" s="3">
-        <v>-0.04860892955787624</v>
+        <v>-0.05577285379480697</v>
       </c>
       <c r="P17" s="3">
-        <v>-0.1463221467892934</v>
+        <v>-0.06786491869662163</v>
       </c>
       <c r="Q17" s="3">
-        <v>-0.1128238259355787</v>
+        <v>-0.05202117512670217</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2227,46 +2227,46 @@
         <v>178</v>
       </c>
       <c r="D18" s="1">
-        <v>26994849.47752714</v>
+        <v>24179229.06963143</v>
       </c>
       <c r="E18" s="2">
-        <v>1.421351459571368</v>
+        <v>1.547471317402405</v>
       </c>
       <c r="F18" s="3">
-        <v>-0.01579970831307735</v>
+        <v>-0.0262629642020743</v>
       </c>
       <c r="G18" s="3">
-        <v>-0.002361695416968245</v>
+        <v>-0.07911003345545234</v>
       </c>
       <c r="H18" s="3">
-        <v>-0.09627259876497289</v>
+        <v>-0.03385892116182573</v>
       </c>
       <c r="I18" s="3">
-        <v>-0.01913762461617118</v>
+        <v>-0.1006061268114244</v>
       </c>
       <c r="J18" s="3">
-        <v>-0.1261151079136692</v>
+        <v>-0.05671690163668778</v>
       </c>
       <c r="K18" s="3">
-        <v>-0.1568818556817073</v>
+        <v>-0.08230355198069253</v>
       </c>
       <c r="L18" s="3">
-        <v>-0.04714465014119874</v>
+        <v>-0.08575467253023411</v>
       </c>
       <c r="M18" s="3">
-        <v>-8.845661998659636E-05</v>
+        <v>-0.07620159072900363</v>
       </c>
       <c r="N18" s="3">
-        <v>-0.003936039360393671</v>
+        <v>-0.03880449141347432</v>
       </c>
       <c r="O18" s="3">
-        <v>0.00643315056176498</v>
+        <v>0.0003440073715062961</v>
       </c>
       <c r="P18" s="3">
-        <v>-0.003148867388680958</v>
+        <v>-0.07765581209222799</v>
       </c>
       <c r="Q18" s="3">
-        <v>-0.002215403774679735</v>
+        <v>-0.05018239189245945</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2280,46 +2280,46 @@
         <v>179</v>
       </c>
       <c r="D19" s="1">
-        <v>96932754.8022857</v>
+        <v>139738847.9682857</v>
       </c>
       <c r="E19" s="2">
-        <v>2.01828351812758</v>
+        <v>1.65856755721699</v>
       </c>
       <c r="F19" s="3">
-        <v>0.03128086927889362</v>
+        <v>0.1410115014967702</v>
       </c>
       <c r="G19" s="3">
-        <v>0.04653366661594692</v>
+        <v>0.5542786982633126</v>
       </c>
       <c r="H19" s="3">
-        <v>0.003203074951953921</v>
+        <v>0.1817885117493473</v>
       </c>
       <c r="I19" s="3">
-        <v>0.0003378005650518791</v>
+        <v>0.387476679475967</v>
       </c>
       <c r="J19" s="3">
-        <v>0.02857142857142861</v>
+        <v>0.1783273673934266</v>
       </c>
       <c r="K19" s="3">
-        <v>2.506754630551992E-05</v>
+        <v>0.2247584375094999</v>
       </c>
       <c r="L19" s="3">
-        <v>0.2357466956007103</v>
+        <v>0.3376431473956409</v>
       </c>
       <c r="M19" s="3">
-        <v>0.07837379595062637</v>
+        <v>0.06498219007028762</v>
       </c>
       <c r="N19" s="3">
-        <v>-0.08634772462077014</v>
+        <v>0.1661835748792271</v>
       </c>
       <c r="O19" s="3">
-        <v>2.505979901306955E-06</v>
+        <v>0.02739183525343958</v>
       </c>
       <c r="P19" s="3">
-        <v>0.02327936708112622</v>
+        <v>0.1954710061943635</v>
       </c>
       <c r="Q19" s="3">
-        <v>0.01153424029480415</v>
+        <v>0.1178553175864334</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2333,46 +2333,46 @@
         <v>180</v>
       </c>
       <c r="D20" s="1">
-        <v>356045664.51</v>
+        <v>249045694.6342857</v>
       </c>
       <c r="E20" s="2">
-        <v>1.697644351387031</v>
+        <v>1.62213778532472</v>
       </c>
       <c r="F20" s="3">
-        <v>0.02031204003532541</v>
+        <v>0.007128599942971175</v>
       </c>
       <c r="G20" s="3">
-        <v>0.003484190151899606</v>
+        <v>0.0002164432253220152</v>
       </c>
       <c r="H20" s="3">
-        <v>-0.05558583106267023</v>
+        <v>0.02376811594202894</v>
       </c>
       <c r="I20" s="3">
-        <v>-0.002258754545051848</v>
+        <v>0.0009675063550394976</v>
       </c>
       <c r="J20" s="3">
-        <v>-0.1341493879590307</v>
+        <v>0.03214494447691404</v>
       </c>
       <c r="K20" s="3">
-        <v>-0.1804226607761233</v>
+        <v>0.005381529680173435</v>
       </c>
       <c r="L20" s="3">
-        <v>-0.1888602855136905</v>
+        <v>-0.1302634819010096</v>
       </c>
       <c r="M20" s="3">
-        <v>-0.131836087875688</v>
+        <v>-0.1017876027956841</v>
       </c>
       <c r="N20" s="3">
-        <v>-0.1289268660467454</v>
+        <v>-0.1420937575904785</v>
       </c>
       <c r="O20" s="3">
-        <v>-0.007223503863230675</v>
+        <v>-0.02135160219133189</v>
       </c>
       <c r="P20" s="3">
-        <v>-0.1303814769612167</v>
+        <v>-0.05078557978518102</v>
       </c>
       <c r="Q20" s="3">
-        <v>-0.07680140828948699</v>
+        <v>-0.03130780889554011</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2386,46 +2386,46 @@
         <v>181</v>
       </c>
       <c r="D21" s="1">
-        <v>74147214.31307143</v>
+        <v>93854408.35247143</v>
       </c>
       <c r="E21" s="2">
-        <v>1.324057854686585</v>
+        <v>1.340030276740045</v>
       </c>
       <c r="F21" s="3">
-        <v>-0.02736069402736083</v>
+        <v>-0.01988265971316817</v>
       </c>
       <c r="G21" s="3">
-        <v>-0.06974907768704054</v>
+        <v>-0.03176729703493687</v>
       </c>
       <c r="H21" s="3">
-        <v>-0.1577578734469808</v>
+        <v>0.01450742240215933</v>
       </c>
       <c r="I21" s="3">
-        <v>-0.1507726828878181</v>
+        <v>-7.305362585493017E-06</v>
       </c>
       <c r="J21" s="3">
-        <v>-0.2226666666666667</v>
+        <v>-0.01892332789559534</v>
       </c>
       <c r="K21" s="3">
-        <v>-0.3621958124030182</v>
+        <v>-0.002109326543253619</v>
       </c>
       <c r="L21" s="3">
-        <v>-0.2701552328492739</v>
+        <v>-0.2267935201851375</v>
       </c>
       <c r="M21" s="3">
-        <v>-0.1644645048697388</v>
+        <v>-0.2060545605207577</v>
       </c>
       <c r="N21" s="3">
-        <v>-0.2498713329902214</v>
+        <v>-0.2486256871564217</v>
       </c>
       <c r="O21" s="3">
-        <v>-0.0376047324781438</v>
+        <v>-0.07987787766739897</v>
       </c>
       <c r="P21" s="3">
-        <v>-0.2071679189299801</v>
+        <v>-0.1189109287778473</v>
       </c>
       <c r="Q21" s="3">
-        <v>-0.1564644008543104</v>
+        <v>-0.08873749410134787</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2439,46 +2439,46 @@
         <v>182</v>
       </c>
       <c r="D22" s="1">
-        <v>3458454.296285715</v>
+        <v>3099926.504314285</v>
       </c>
       <c r="E22" s="2">
-        <v>1.091540576591248</v>
+        <v>1.109877050650989</v>
       </c>
       <c r="F22" s="3">
-        <v>0.00340136054421769</v>
+        <v>-0.0109151973131823</v>
       </c>
       <c r="G22" s="3">
-        <v>5.483234525779743E-06</v>
+        <v>-0.007066075735736904</v>
       </c>
       <c r="H22" s="3">
-        <v>-0.05448717948717954</v>
+        <v>0.001700680272108845</v>
       </c>
       <c r="I22" s="3">
-        <v>-0.002658231215822904</v>
+        <v>-0.006356256457188709</v>
       </c>
       <c r="J22" s="3">
-        <v>-0.125925925925926</v>
+        <v>-0.003384094754653134</v>
       </c>
       <c r="K22" s="3">
-        <v>-0.1543260135533658</v>
+        <v>-0.002571470867034284</v>
       </c>
       <c r="L22" s="3">
-        <v>-0.1923340177960302</v>
+        <v>-0.1274074074074075</v>
       </c>
       <c r="M22" s="3">
-        <v>-0.09304161085326217</v>
+        <v>-0.1073523710110231</v>
       </c>
       <c r="N22" s="3">
-        <v>-0.1939890710382514</v>
+        <v>-0.188146106133701</v>
       </c>
       <c r="O22" s="3">
-        <v>-0.03985193043170359</v>
+        <v>-0.05550329619285164</v>
       </c>
       <c r="P22" s="3">
-        <v>-0.123683812203314</v>
+        <v>-0.05720922337338002</v>
       </c>
       <c r="Q22" s="3">
-        <v>-0.1133112362983004</v>
+        <v>-0.05154555032904272</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2492,46 +2492,46 @@
         <v>183</v>
       </c>
       <c r="D23" s="1">
-        <v>16042417.67378571</v>
+        <v>27129076.89762857</v>
       </c>
       <c r="E23" s="2">
-        <v>1.161291794402666</v>
+        <v>1.129657134799019</v>
       </c>
       <c r="F23" s="3">
-        <v>0.01115151515151527</v>
+        <v>0.07941729323308271</v>
       </c>
       <c r="G23" s="3">
-        <v>0.004892762008570565</v>
+        <v>0.2728522245632043</v>
       </c>
       <c r="H23" s="3">
-        <v>-0.03783160322952703</v>
+        <v>0.1072547601831766</v>
       </c>
       <c r="I23" s="3">
-        <v>-0.0001435285108979315</v>
+        <v>0.1485841639038392</v>
       </c>
       <c r="J23" s="3">
-        <v>-0.09835711197578899</v>
+        <v>0.09904306220095692</v>
       </c>
       <c r="K23" s="3">
-        <v>-0.1177089607537099</v>
+        <v>0.06554306382806545</v>
       </c>
       <c r="L23" s="3">
-        <v>-0.05548007246376804</v>
+        <v>0.0832350860646074</v>
       </c>
       <c r="M23" s="3">
-        <v>-8.277769485543272E-05</v>
+        <v>-0.005782877105087987</v>
       </c>
       <c r="N23" s="3">
-        <v>-0.1745497724124282</v>
+        <v>-0.05395387149917628</v>
       </c>
       <c r="O23" s="3">
-        <v>-0.01705108890210028</v>
+        <v>-0.004007111231552488</v>
       </c>
       <c r="P23" s="3">
-        <v>-0.05889586922428265</v>
+        <v>0.02988009336148873</v>
       </c>
       <c r="Q23" s="3">
-        <v>-0.0507158231102261</v>
+        <v>0.02645058614780917</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2545,46 +2545,46 @@
         <v>184</v>
       </c>
       <c r="D24" s="1">
-        <v>21078751.88571429</v>
+        <v>19338741.97598571</v>
       </c>
       <c r="E24" s="2">
-        <v>1.447125470609428</v>
+        <v>1.416654740361675</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-0.001302083333333335</v>
       </c>
       <c r="G24" s="3">
-        <v>-0.001673516704401254</v>
+        <v>-6.081905767047944E-05</v>
       </c>
       <c r="H24" s="3">
-        <v>-0.1028708133971292</v>
+        <v>0.01859229747675965</v>
       </c>
       <c r="I24" s="3">
-        <v>-0.01826030278670126</v>
+        <v>-0.0008111145109528093</v>
       </c>
       <c r="J24" s="3">
-        <v>-0.1712707182320442</v>
+        <v>0.01589403973509935</v>
       </c>
       <c r="K24" s="3">
-        <v>-0.2181183432228664</v>
+        <v>-0.00154058469450869</v>
       </c>
       <c r="L24" s="3">
-        <v>-0.2647058823529412</v>
+        <v>-0.1681127982646421</v>
       </c>
       <c r="M24" s="3">
-        <v>-0.1373073861626029</v>
+        <v>-0.1614441755656341</v>
       </c>
       <c r="N24" s="3">
-        <v>-0.3303571428571429</v>
+        <v>-0.3001824817518249</v>
       </c>
       <c r="O24" s="3">
-        <v>-0.09972826225286416</v>
+        <v>-0.1111397981840453</v>
       </c>
       <c r="P24" s="3">
-        <v>-0.1777128646927347</v>
+        <v>-0.08149238013007137</v>
       </c>
       <c r="Q24" s="3">
-        <v>-0.1228040472661257</v>
+        <v>-0.05752451730706536</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2598,46 +2598,46 @@
         <v>185</v>
       </c>
       <c r="D25" s="1">
-        <v>3260670.908025715</v>
+        <v>3031559.047938571</v>
       </c>
       <c r="E25" s="2">
-        <v>0.8584562116395552</v>
+        <v>0.8943781965970214</v>
       </c>
       <c r="F25" s="3">
-        <v>0.006654111738857536</v>
+        <v>-0.01657527417746774</v>
       </c>
       <c r="G25" s="3">
-        <v>0.001774903280159144</v>
+        <v>-0.03078612792326136</v>
       </c>
       <c r="H25" s="3">
-        <v>-0.04433849821215734</v>
+        <v>-0.008419200804222217</v>
       </c>
       <c r="I25" s="3">
-        <v>-0.00200476160395458</v>
+        <v>-0.02453955187615395</v>
       </c>
       <c r="J25" s="3">
-        <v>-0.09216485507246371</v>
+        <v>-0.01288466349762326</v>
       </c>
       <c r="K25" s="3">
-        <v>-0.1140995767317783</v>
+        <v>-0.0050629505077738</v>
       </c>
       <c r="L25" s="3">
-        <v>-0.1498250450641502</v>
+        <v>-0.1009456534123278</v>
       </c>
       <c r="M25" s="3">
-        <v>-0.06849648315049338</v>
+        <v>-0.09106901074702711</v>
       </c>
       <c r="N25" s="3">
-        <v>-0.1464764743453268</v>
+        <v>-0.1582933333333334</v>
       </c>
       <c r="O25" s="3">
-        <v>-0.03237511835253042</v>
+        <v>-0.04328402520497608</v>
       </c>
       <c r="P25" s="3">
-        <v>-0.09129802994113584</v>
+        <v>-0.06092756933514423</v>
       </c>
       <c r="Q25" s="3">
-        <v>-0.1063514116424958</v>
+        <v>-0.06812282496036325</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2651,46 +2651,46 @@
         <v>186</v>
       </c>
       <c r="D26" s="1">
-        <v>10112288.41765286</v>
+        <v>9529480.76948143</v>
       </c>
       <c r="E26" s="2">
-        <v>0.9490643442088538</v>
+        <v>0.9979465626867369</v>
       </c>
       <c r="F26" s="3">
-        <v>0.01228960726689827</v>
+        <v>-0.05070202808112325</v>
       </c>
       <c r="G26" s="3">
-        <v>0.008539140720777324</v>
+        <v>-0.171776975020431</v>
       </c>
       <c r="H26" s="3">
-        <v>-0.05675877520537708</v>
+        <v>-0.03182179793158313</v>
       </c>
       <c r="I26" s="3">
-        <v>-0.005409297756492161</v>
+        <v>-0.06900880836513618</v>
       </c>
       <c r="J26" s="3">
-        <v>-0.109936575052854</v>
+        <v>-0.04399057344854676</v>
       </c>
       <c r="K26" s="3">
-        <v>-0.1390116819934995</v>
+        <v>-0.01569845988819384</v>
       </c>
       <c r="L26" s="3">
-        <v>-0.1613545816733067</v>
+        <v>-0.1479579929988331</v>
       </c>
       <c r="M26" s="3">
-        <v>-0.07671912689338407</v>
+        <v>-0.1199150478815412</v>
       </c>
       <c r="N26" s="3">
-        <v>-0.1975857687420584</v>
+        <v>-0.2063043478260869</v>
       </c>
       <c r="O26" s="3">
-        <v>-0.03704273938295208</v>
+        <v>-0.04642347087121531</v>
       </c>
       <c r="P26" s="3">
-        <v>-0.1078654044434418</v>
+        <v>-0.1458460114509861</v>
       </c>
       <c r="Q26" s="3">
-        <v>-0.1136544693746335</v>
+        <v>-0.1461461133332931</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2704,46 +2704,46 @@
         <v>187</v>
       </c>
       <c r="D27" s="1">
-        <v>15710086.0772</v>
+        <v>10773471.52877143</v>
       </c>
       <c r="E27" s="2">
-        <v>1.896447897909399</v>
+        <v>1.770234189578301</v>
       </c>
       <c r="F27" s="3">
-        <v>-0.01132075471698108</v>
+        <v>0.03657205240174669</v>
       </c>
       <c r="G27" s="3">
-        <v>-0.01205843215334604</v>
+        <v>0.05134754698713471</v>
       </c>
       <c r="H27" s="3">
-        <v>-0.06141248720573177</v>
+        <v>0.03940886699507393</v>
       </c>
       <c r="I27" s="3">
-        <v>-0.04378731343808002</v>
+        <v>0.01895243401239686</v>
       </c>
       <c r="J27" s="3">
-        <v>-0.1493506493506494</v>
+        <v>0.01010638297872347</v>
       </c>
       <c r="K27" s="3">
-        <v>-0.2113807765581809</v>
+        <v>0.001099353732393246</v>
       </c>
       <c r="L27" s="3">
-        <v>-0.2248520710059172</v>
+        <v>-0.126092959042798</v>
       </c>
       <c r="M27" s="3">
-        <v>-0.1109245434280404</v>
+        <v>-0.1094188182995212</v>
       </c>
       <c r="N27" s="3">
-        <v>-0.1563937442502299</v>
+        <v>-0.103399433427762</v>
       </c>
       <c r="O27" s="3">
-        <v>-0.01254580821687224</v>
+        <v>-0.03785019456991662</v>
       </c>
       <c r="P27" s="3">
-        <v>-0.1336591438391351</v>
+        <v>-0.05115003984768437</v>
       </c>
       <c r="Q27" s="3">
-        <v>-0.07047867963389763</v>
+        <v>-0.02889450455132671</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2757,46 +2757,46 @@
         <v>188</v>
       </c>
       <c r="D28" s="1">
-        <v>47485150.36573</v>
+        <v>45250426.37740428</v>
       </c>
       <c r="E28" s="2">
-        <v>1.542986822580606</v>
+        <v>1.437538017171051</v>
       </c>
       <c r="F28" s="3">
-        <v>0.02090592334494775</v>
+        <v>0.02313253012048182</v>
       </c>
       <c r="G28" s="3">
-        <v>0.03449781434649159</v>
+        <v>0.01142076058580032</v>
       </c>
       <c r="H28" s="3">
-        <v>-0.008220502901353965</v>
+        <v>0.03814180929095352</v>
       </c>
       <c r="I28" s="3">
-        <v>0.002165191973816352</v>
+        <v>0.008291172225761019</v>
       </c>
       <c r="J28" s="3">
-        <v>-0.07068418667874939</v>
+        <v>0.0371275036638984</v>
       </c>
       <c r="K28" s="3">
-        <v>-0.0528564326700016</v>
+        <v>0.01416792286508194</v>
       </c>
       <c r="L28" s="3">
-        <v>-0.1201201201201201</v>
+        <v>-0.03059360730593609</v>
       </c>
       <c r="M28" s="3">
-        <v>-0.02888632697349803</v>
+        <v>-0.04530236103740531</v>
       </c>
       <c r="N28" s="3">
-        <v>-0.2222222222222222</v>
+        <v>-0.2148668639053255</v>
       </c>
       <c r="O28" s="3">
-        <v>-0.07946108061466842</v>
+        <v>-0.06645243875215288</v>
       </c>
       <c r="P28" s="3">
-        <v>-0.04087137982174981</v>
+        <v>-0.0169408002258025</v>
       </c>
       <c r="Q28" s="3">
-        <v>-0.02648848274244719</v>
+        <v>-0.01178459284098831</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2810,46 +2810,46 @@
         <v>189</v>
       </c>
       <c r="D29" s="1">
-        <v>17096031.73431428</v>
+        <v>17385931.05608571</v>
       </c>
       <c r="E29" s="2">
-        <v>1.07058855046662</v>
+        <v>1.106497000770365</v>
       </c>
       <c r="F29" s="3">
-        <v>0.02086083971481385</v>
+        <v>-0.028738097280604</v>
       </c>
       <c r="G29" s="3">
-        <v>0.01826444781965388</v>
+        <v>-0.05637478557433986</v>
       </c>
       <c r="H29" s="3">
-        <v>-0.0343851469486303</v>
+        <v>-0.01616266944734098</v>
       </c>
       <c r="I29" s="3">
-        <v>-0.00115686826652145</v>
+        <v>-0.04146017095269824</v>
       </c>
       <c r="J29" s="3">
-        <v>-0.09799346710219317</v>
+        <v>-0.01496432921524279</v>
       </c>
       <c r="K29" s="3">
-        <v>-0.1293098445300426</v>
+        <v>-0.006932889293852917</v>
       </c>
       <c r="L29" s="3">
-        <v>-0.1473939572153201</v>
+        <v>-0.1447348542075843</v>
       </c>
       <c r="M29" s="3">
-        <v>-0.07273860605843818</v>
+        <v>-0.1111537620566095</v>
       </c>
       <c r="N29" s="3">
-        <v>-0.166391144972328</v>
+        <v>-0.1844702153713174</v>
       </c>
       <c r="O29" s="3">
-        <v>-0.03394319698885571</v>
+        <v>-0.0445405598098734</v>
       </c>
       <c r="P29" s="3">
-        <v>-0.1010242252942404</v>
+        <v>-0.08376427381547467</v>
       </c>
       <c r="Q29" s="3">
-        <v>-0.09436325958297298</v>
+        <v>-0.0757022149695447</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2863,46 +2863,46 @@
         <v>190</v>
       </c>
       <c r="D30" s="1">
-        <v>6077217.505714286</v>
+        <v>5989237.465857144</v>
       </c>
       <c r="E30" s="2">
-        <v>1.084405567011304</v>
+        <v>1.101156210807051</v>
       </c>
       <c r="F30" s="3">
-        <v>0.01299626134947488</v>
+        <v>-0.005304101838755191</v>
       </c>
       <c r="G30" s="3">
-        <v>0.00580901424934224</v>
+        <v>-2.910192750734478E-05</v>
       </c>
       <c r="H30" s="3">
-        <v>-0.05544488711819383</v>
+        <v>-0.01159522136331691</v>
       </c>
       <c r="I30" s="3">
-        <v>-0.001110746292106284</v>
+        <v>-0.03118804019536599</v>
       </c>
       <c r="J30" s="3">
-        <v>-0.1422972565571299</v>
+        <v>-0.002128414331323087</v>
       </c>
       <c r="K30" s="3">
-        <v>-0.1575718668942125</v>
+        <v>-0.008700445613872173</v>
       </c>
       <c r="L30" s="3">
-        <v>-0.2172238272114458</v>
+        <v>-0.1534757749021967</v>
       </c>
       <c r="M30" s="3">
-        <v>-0.1125996496836697</v>
+        <v>-0.1299917953817441</v>
       </c>
       <c r="N30" s="3">
-        <v>-0.2263766145479266</v>
+        <v>-0.250166600026656</v>
       </c>
       <c r="O30" s="3">
-        <v>-0.0678695423235726</v>
+        <v>-0.08587080527193808</v>
       </c>
       <c r="P30" s="3">
-        <v>-0.1350857582889411</v>
+        <v>-0.06934612049780814</v>
       </c>
       <c r="Q30" s="3">
-        <v>-0.1245712511982456</v>
+        <v>-0.06297573388518921</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2916,46 +2916,46 @@
         <v>191</v>
       </c>
       <c r="D31" s="1">
-        <v>13332644.1425</v>
+        <v>10293242.5188</v>
       </c>
       <c r="E31" s="2">
-        <v>1.72050369052138</v>
+        <v>1.719493239612184</v>
       </c>
       <c r="F31" s="3">
-        <v>0.00293542074363987</v>
+        <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>-0.001563840390167542</v>
+        <v>-0.0004766600345517983</v>
       </c>
       <c r="H31" s="3">
-        <v>-0.05703771849126045</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="I31" s="3">
-        <v>-0.007047114206455745</v>
+        <v>0.0004715485000545013</v>
       </c>
       <c r="J31" s="3">
-        <v>-0.1163793103448277</v>
+        <v>0.02152641878669283</v>
       </c>
       <c r="K31" s="3">
-        <v>-0.1526573764444762</v>
+        <v>0.001263572431678578</v>
       </c>
       <c r="L31" s="3">
-        <v>-0.1570723684210527</v>
+        <v>-0.1167512690355329</v>
       </c>
       <c r="M31" s="3">
-        <v>-0.07909451292836936</v>
+        <v>-0.09847227250083225</v>
       </c>
       <c r="N31" s="3">
-        <v>-0.07239819004524893</v>
+        <v>-0.1219512195121951</v>
       </c>
       <c r="O31" s="3">
-        <v>-0.007738145319919729</v>
+        <v>-0.04779534993373046</v>
       </c>
       <c r="P31" s="3">
-        <v>-0.07574635148680914</v>
+        <v>-0.04947446626769202</v>
       </c>
       <c r="Q31" s="3">
-        <v>-0.04402568381812366</v>
+        <v>-0.02877270182164284</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2969,46 +2969,46 @@
         <v>192</v>
       </c>
       <c r="D32" s="1">
-        <v>5849546.92328</v>
+        <v>6138384.564788571</v>
       </c>
       <c r="E32" s="2">
-        <v>0.9334250600698797</v>
+        <v>0.9777328499276128</v>
       </c>
       <c r="F32" s="3">
-        <v>0.01733648542159178</v>
+        <v>-0.007960576194086499</v>
       </c>
       <c r="G32" s="3">
-        <v>0.01427894255866409</v>
+        <v>-0.006429880519835599</v>
       </c>
       <c r="H32" s="3">
-        <v>-0.07455197132616494</v>
+        <v>0.008866615265998364</v>
       </c>
       <c r="I32" s="3">
-        <v>-0.01349671706388734</v>
+        <v>-0.0003130697831277958</v>
       </c>
       <c r="J32" s="3">
-        <v>-0.1208716377255703</v>
+        <v>0.008866615265998364</v>
       </c>
       <c r="K32" s="3">
-        <v>-0.1758388772178727</v>
+        <v>0.0001563133199136125</v>
       </c>
       <c r="L32" s="3">
-        <v>-0.1178681243594124</v>
+        <v>-0.07884547694473786</v>
       </c>
       <c r="M32" s="3">
-        <v>-0.02805810804035802</v>
+        <v>-0.07673688041740456</v>
       </c>
       <c r="N32" s="3">
-        <v>-0.09371709371709379</v>
+        <v>-0.08368347338935574</v>
       </c>
       <c r="O32" s="3">
-        <v>-0.00135684892240779</v>
+        <v>-0.008141911855284782</v>
       </c>
       <c r="P32" s="3">
-        <v>-0.0608876008787259</v>
+        <v>-0.04158338046862008</v>
       </c>
       <c r="Q32" s="3">
-        <v>-0.06523030448118421</v>
+        <v>-0.04253041152468053</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3022,46 +3022,46 @@
         <v>193</v>
       </c>
       <c r="D33" s="1">
-        <v>11594973.36720571</v>
+        <v>11742861.24737143</v>
       </c>
       <c r="E33" s="2">
-        <v>1.035321552467759</v>
+        <v>1.045605399392319</v>
       </c>
       <c r="F33" s="3">
-        <v>0.01162040025823109</v>
+        <v>-0.003194888178913741</v>
       </c>
       <c r="G33" s="3">
-        <v>0.0005445465714813317</v>
+        <v>-0.0007382526952007769</v>
       </c>
       <c r="H33" s="3">
-        <v>-0.03509852216748758</v>
+        <v>-0.003194888178913741</v>
       </c>
       <c r="I33" s="3">
-        <v>5.464929608304251E-05</v>
+        <v>-0.02118506186986535</v>
       </c>
       <c r="J33" s="3">
-        <v>-0.09106728538283058</v>
+        <v>0.012987012987013</v>
       </c>
       <c r="K33" s="3">
-        <v>-0.0862721720902405</v>
+        <v>-0.001150442059588003</v>
       </c>
       <c r="L33" s="3">
-        <v>-0.1620320855614973</v>
+        <v>-0.1342952275249722</v>
       </c>
       <c r="M33" s="3">
-        <v>-0.09829587776711404</v>
+        <v>-0.1132879619602944</v>
       </c>
       <c r="N33" s="3">
-        <v>-0.1615837346174425</v>
+        <v>-0.155387114239307</v>
       </c>
       <c r="O33" s="3">
-        <v>-0.02614680293412405</v>
+        <v>-0.03897139324032504</v>
       </c>
       <c r="P33" s="3">
-        <v>-0.09228402492867727</v>
+        <v>-0.0572192020099412</v>
       </c>
       <c r="Q33" s="3">
-        <v>-0.08913561657121116</v>
+        <v>-0.05472351428483026</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3075,46 +3075,46 @@
         <v>194</v>
       </c>
       <c r="D34" s="1">
-        <v>16380933.08942857</v>
+        <v>14723298.98882857</v>
       </c>
       <c r="E34" s="2">
-        <v>1.174559462231011</v>
+        <v>1.194208598176227</v>
       </c>
       <c r="F34" s="3">
-        <v>0.02406417112299461</v>
+        <v>-0.02686218531014803</v>
       </c>
       <c r="G34" s="3">
-        <v>0.011555750811889</v>
+        <v>-0.03851950762818698</v>
       </c>
       <c r="H34" s="3">
-        <v>-0.03901643457533559</v>
+        <v>-0.02471062556899472</v>
       </c>
       <c r="I34" s="3">
-        <v>0.0001871222945894911</v>
+        <v>-0.04096467297220994</v>
       </c>
       <c r="J34" s="3">
-        <v>-0.0944556094100957</v>
+        <v>-0.003984592907424657</v>
       </c>
       <c r="K34" s="3">
-        <v>-0.07431860998042264</v>
+        <v>-0.001121312065719089</v>
       </c>
       <c r="L34" s="3">
-        <v>-0.1377757766771725</v>
+        <v>-0.1310544611819237</v>
       </c>
       <c r="M34" s="3">
-        <v>-0.07275085800170679</v>
+        <v>-0.1002856726816263</v>
       </c>
       <c r="N34" s="3">
-        <v>-0.1726968355113943</v>
+        <v>-0.2140236872445237</v>
       </c>
       <c r="O34" s="3">
-        <v>-0.04634080939651824</v>
+        <v>-0.05790861776761549</v>
       </c>
       <c r="P34" s="3">
-        <v>-0.07353473399106472</v>
+        <v>-0.06940259015490663</v>
       </c>
       <c r="Q34" s="3">
-        <v>-0.06260622501936987</v>
+        <v>-0.0581159692376164</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3128,46 +3128,46 @@
         <v>195</v>
       </c>
       <c r="D35" s="1">
-        <v>63935721.62855715</v>
+        <v>59849187.22361428</v>
       </c>
       <c r="E35" s="2">
-        <v>1.61110283774253</v>
+        <v>1.555266190529642</v>
       </c>
       <c r="F35" s="3">
-        <v>0.02761341222879687</v>
+        <v>-0.024904214559387</v>
       </c>
       <c r="G35" s="3">
-        <v>0.005729745033721749</v>
+        <v>-0.06412274343393903</v>
       </c>
       <c r="H35" s="3">
-        <v>-0.0986159169550172</v>
+        <v>-0.01547388781431336</v>
       </c>
       <c r="I35" s="3">
-        <v>-0.02797527889343682</v>
+        <v>-0.03864723444017517</v>
       </c>
       <c r="J35" s="3">
-        <v>-0.08916083916083906</v>
+        <v>-0.01165048543689321</v>
       </c>
       <c r="K35" s="3">
-        <v>-0.1466803082026263</v>
+        <v>-0.002116705664381803</v>
       </c>
       <c r="L35" s="3">
-        <v>-0.1154499151103565</v>
+        <v>-0.05740740740740746</v>
       </c>
       <c r="M35" s="3">
-        <v>-0.01095956150142473</v>
+        <v>-0.02899877145562521</v>
       </c>
       <c r="N35" s="3">
-        <v>-0.2672292545710266</v>
+        <v>-0.2059282371294852</v>
       </c>
       <c r="O35" s="3">
-        <v>-0.05040078862220361</v>
+        <v>-0.04195685910957045</v>
       </c>
       <c r="P35" s="3">
-        <v>-0.07881993485202553</v>
+        <v>-0.04656075744478212</v>
       </c>
       <c r="Q35" s="3">
-        <v>-0.04892296941296909</v>
+        <v>-0.02993748448227116</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3181,46 +3181,46 @@
         <v>196</v>
       </c>
       <c r="D36" s="1">
-        <v>29604542.46345</v>
+        <v>35077660.37983286</v>
       </c>
       <c r="E36" s="2">
-        <v>1.359509912380762</v>
+        <v>1.384937272197645</v>
       </c>
       <c r="F36" s="3">
-        <v>0.00445986124876114</v>
+        <v>-0.03272186415468522</v>
       </c>
       <c r="G36" s="3">
-        <v>-3.309400610858619E-05</v>
+        <v>-0.03545922232269579</v>
       </c>
       <c r="H36" s="3">
-        <v>-0.08446251129177959</v>
+        <v>-0.03415841584158414</v>
       </c>
       <c r="I36" s="3">
-        <v>-0.03526646966653831</v>
+        <v>-0.09670632690436907</v>
       </c>
       <c r="J36" s="3">
-        <v>-0.1550646102542727</v>
+        <v>-0.05566311713455961</v>
       </c>
       <c r="K36" s="3">
-        <v>-0.2273637316479025</v>
+        <v>-0.0664437956449917</v>
       </c>
       <c r="L36" s="3">
-        <v>-0.208203125</v>
+        <v>-0.2020449897750511</v>
       </c>
       <c r="M36" s="3">
-        <v>-0.1156249427145061</v>
+        <v>-0.1774414182439</v>
       </c>
       <c r="N36" s="3">
-        <v>-0.181671376665321</v>
+        <v>-0.261823685206205</v>
       </c>
       <c r="O36" s="3">
-        <v>-0.04076483965575612</v>
+        <v>-0.07735789476411122</v>
       </c>
       <c r="P36" s="3">
-        <v>-0.1486481596899135</v>
+        <v>-0.1219426069444458</v>
       </c>
       <c r="Q36" s="3">
-        <v>-0.1093395188488197</v>
+        <v>-0.08804919139113426</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3234,46 +3234,46 @@
         <v>197</v>
       </c>
       <c r="D37" s="1">
-        <v>3447903.78565</v>
+        <v>3533117.718035715</v>
       </c>
       <c r="E37" s="2">
-        <v>0.830516961289708</v>
+        <v>0.8976571807136451</v>
       </c>
       <c r="F37" s="3">
-        <v>0.008113590263691775</v>
+        <v>-0.03021641486320951</v>
       </c>
       <c r="G37" s="3">
-        <v>0.008066654591800152</v>
+        <v>-0.07159704219484889</v>
       </c>
       <c r="H37" s="3">
-        <v>-0.06684190762298162</v>
+        <v>-0.04541800643086813</v>
       </c>
       <c r="I37" s="3">
-        <v>-0.02002651295375905</v>
+        <v>-0.1245412795862487</v>
       </c>
       <c r="J37" s="3">
-        <v>-0.120042492917847</v>
+        <v>-0.05378486055776895</v>
       </c>
       <c r="K37" s="3">
-        <v>-0.1670816168649891</v>
+        <v>-0.05975333679719687</v>
       </c>
       <c r="L37" s="3">
-        <v>-0.1547619047619047</v>
+        <v>-0.1583982990786676</v>
       </c>
       <c r="M37" s="3">
-        <v>-0.07304493410301421</v>
+        <v>-0.1355216093884642</v>
       </c>
       <c r="N37" s="3">
-        <v>-0.1538985359210078</v>
+        <v>-0.1880341880341881</v>
       </c>
       <c r="O37" s="3">
-        <v>-0.02228162210057912</v>
+        <v>-0.04193027470392727</v>
       </c>
       <c r="P37" s="3">
-        <v>-0.113471735012011</v>
+        <v>-0.1035593257916566</v>
       </c>
       <c r="Q37" s="3">
-        <v>-0.1366278357949499</v>
+        <v>-0.1153662311366195</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3287,46 +3287,46 @@
         <v>198</v>
       </c>
       <c r="D38" s="1">
-        <v>185040554.16</v>
+        <v>150382802.6015714</v>
       </c>
       <c r="E38" s="2">
-        <v>1.702734391652299</v>
+        <v>1.735413662374753</v>
       </c>
       <c r="F38" s="3">
-        <v>0.01522842639593902</v>
+        <v>-0.02659202239328204</v>
       </c>
       <c r="G38" s="3">
-        <v>0.00155666129736948</v>
+        <v>-0.01642704236607132</v>
       </c>
       <c r="H38" s="3">
-        <v>-0.08076165462902167</v>
+        <v>-0.005007153075822529</v>
       </c>
       <c r="I38" s="3">
-        <v>-0.01676408520118325</v>
+        <v>-0.01229490887966984</v>
       </c>
       <c r="J38" s="3">
-        <v>-0.1520290732889159</v>
+        <v>-0.01207386363636357</v>
       </c>
       <c r="K38" s="3">
-        <v>-0.2087307034597215</v>
+        <v>-0.005163918685899979</v>
       </c>
       <c r="L38" s="3">
-        <v>-0.1341991341991343</v>
+        <v>-0.1926871735345328</v>
       </c>
       <c r="M38" s="3">
-        <v>-0.04057255467835948</v>
+        <v>-0.1226139430385755</v>
       </c>
       <c r="N38" s="3">
-        <v>-0.2378878606423517</v>
+        <v>-0.2118980169971671</v>
       </c>
       <c r="O38" s="3">
-        <v>-0.02957883615061491</v>
+        <v>-0.03041201282496039</v>
       </c>
       <c r="P38" s="3">
-        <v>-0.1246516290690405</v>
+        <v>-0.06952049270232344</v>
       </c>
       <c r="Q38" s="3">
-        <v>-0.07320673716355793</v>
+        <v>-0.04005989707790538</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3340,46 +3340,46 @@
         <v>199</v>
       </c>
       <c r="D39" s="1">
-        <v>10254632.11328571</v>
+        <v>8536866.164799999</v>
       </c>
       <c r="E39" s="2">
-        <v>1.304806579552325</v>
+        <v>1.331081677824345</v>
       </c>
       <c r="F39" s="3">
-        <v>-0.0009970089730807863</v>
+        <v>-0.03251231527093607</v>
       </c>
       <c r="G39" s="3">
-        <v>-0.0007031140835530847</v>
+        <v>-0.0747231253916911</v>
       </c>
       <c r="H39" s="3">
-        <v>-0.06267539756782037</v>
+        <v>-0.02191235059760964</v>
       </c>
       <c r="I39" s="3">
-        <v>-0.001266461769938985</v>
+        <v>-0.03948104900884239</v>
       </c>
       <c r="J39" s="3">
-        <v>-0.1077471059661621</v>
+        <v>-0.03346456692913386</v>
       </c>
       <c r="K39" s="3">
-        <v>-0.1173705718417967</v>
+        <v>-0.01987753361837783</v>
       </c>
       <c r="L39" s="3">
-        <v>-0.1061552185548618</v>
+        <v>-0.09908256880733948</v>
       </c>
       <c r="M39" s="3">
-        <v>-0.02837294217379488</v>
+        <v>-0.08674958843684945</v>
       </c>
       <c r="N39" s="3">
-        <v>-0.1472340425531915</v>
+        <v>-0.1534482758620691</v>
       </c>
       <c r="O39" s="3">
-        <v>-0.01515274438153705</v>
+        <v>-0.02134058014181601</v>
       </c>
       <c r="P39" s="3">
-        <v>-0.0728717570077958</v>
+        <v>-0.08073635691427028</v>
       </c>
       <c r="Q39" s="3">
-        <v>-0.05584870443617617</v>
+        <v>-0.06065469779903662</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3393,46 +3393,46 @@
         <v>200</v>
       </c>
       <c r="D40" s="1">
-        <v>177795497.88</v>
+        <v>176436193.6888571</v>
       </c>
       <c r="E40" s="2">
-        <v>2.311149561477884</v>
+        <v>2.272414003341624</v>
       </c>
       <c r="F40" s="3">
-        <v>-0.0312249799839873</v>
+        <v>-0.08211027370091228</v>
       </c>
       <c r="G40" s="3">
-        <v>-0.1417612168153055</v>
+        <v>-0.1389648161447549</v>
       </c>
       <c r="H40" s="3">
-        <v>-0.137869611685073</v>
+        <v>-0.0449855550969872</v>
       </c>
       <c r="I40" s="3">
-        <v>-0.05314506433065865</v>
+        <v>-0.09422289315458088</v>
       </c>
       <c r="J40" s="3">
-        <v>-0.1835357624831309</v>
+        <v>-0.07291666666666664</v>
       </c>
       <c r="K40" s="3">
-        <v>-0.2434364709230821</v>
+        <v>-0.0907010061163248</v>
       </c>
       <c r="L40" s="3">
-        <v>-0.243277048155097</v>
+        <v>-0.2245308310991957</v>
       </c>
       <c r="M40" s="3">
-        <v>-0.1029477270607505</v>
+        <v>-0.1978458557433222</v>
       </c>
       <c r="N40" s="3">
-        <v>-0.3560404470463012</v>
+        <v>-0.3717078468639696</v>
       </c>
       <c r="O40" s="3">
-        <v>-0.1074855134025653</v>
+        <v>-0.1208470224961948</v>
       </c>
       <c r="P40" s="3">
-        <v>-0.1925988438691938</v>
+        <v>-0.1684053359440386</v>
       </c>
       <c r="Q40" s="3">
-        <v>-0.08333465175920284</v>
+        <v>-0.07410856283071465</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3446,46 +3446,46 @@
         <v>201</v>
       </c>
       <c r="D41" s="1">
-        <v>15242143.67634286</v>
+        <v>10795084.33081429</v>
       </c>
       <c r="E41" s="2">
-        <v>1.349733297444879</v>
+        <v>1.381037823090399</v>
       </c>
       <c r="F41" s="3">
-        <v>-0.00728029121164853</v>
+        <v>-0.01396070320579101</v>
       </c>
       <c r="G41" s="3">
-        <v>-0.01572396846579899</v>
+        <v>-0.004917595536389154</v>
       </c>
       <c r="H41" s="3">
-        <v>-0.1033348990136215</v>
+        <v>-0.001047668936615914</v>
       </c>
       <c r="I41" s="3">
-        <v>-0.05915399764410818</v>
+        <v>-0.01771195119456581</v>
       </c>
       <c r="J41" s="3">
-        <v>-0.1526853084775855</v>
+        <v>-0.02902240325865572</v>
       </c>
       <c r="K41" s="3">
-        <v>-0.2229998125645016</v>
+        <v>-0.02564114493438456</v>
       </c>
       <c r="L41" s="3">
-        <v>-0.1848847139197267</v>
+        <v>-0.1546985815602836</v>
       </c>
       <c r="M41" s="3">
-        <v>-0.09631881642113489</v>
+        <v>-0.1499179363778795</v>
       </c>
       <c r="N41" s="3">
-        <v>-0.2091963545981774</v>
+        <v>-0.1726681127982646</v>
       </c>
       <c r="O41" s="3">
-        <v>-0.01838159253807885</v>
+        <v>-0.03306768059775182</v>
       </c>
       <c r="P41" s="3">
-        <v>-0.1527575855096561</v>
+        <v>-0.08777954065613201</v>
       </c>
       <c r="Q41" s="3">
-        <v>-0.1131761258308103</v>
+        <v>-0.06356056234557324</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3499,46 +3499,46 @@
         <v>202</v>
       </c>
       <c r="D42" s="1">
-        <v>4441614.375085714</v>
+        <v>4439251.135071428</v>
       </c>
       <c r="E42" s="2">
-        <v>0.9966040567630171</v>
+        <v>0.9919238381374897</v>
       </c>
       <c r="F42" s="3">
-        <v>0.003095975232198016</v>
+        <v>-0.01825095057034231</v>
       </c>
       <c r="G42" s="3">
-        <v>-0.0003173748674780671</v>
+        <v>-0.02317723361851256</v>
       </c>
       <c r="H42" s="3">
-        <v>-0.06154960173787116</v>
+        <v>0.004669260700389023</v>
       </c>
       <c r="I42" s="3">
-        <v>-0.004575670445518437</v>
+        <v>-0.007573017275683114</v>
       </c>
       <c r="J42" s="3">
-        <v>-0.1183673469387755</v>
+        <v>0.000775193798449527</v>
       </c>
       <c r="K42" s="3">
-        <v>-0.1449462802549012</v>
+        <v>-0.001642255043291039</v>
       </c>
       <c r="L42" s="3">
-        <v>-0.1551499348109519</v>
+        <v>-0.1277027027027027</v>
       </c>
       <c r="M42" s="3">
-        <v>-0.06681488079317841</v>
+        <v>-0.1140849253740992</v>
       </c>
       <c r="N42" s="3">
-        <v>-0.2216216216216217</v>
+        <v>-0.2021013597033375</v>
       </c>
       <c r="O42" s="3">
-        <v>-0.04278692572716155</v>
+        <v>-0.04941798150961749</v>
       </c>
       <c r="P42" s="3">
-        <v>-0.1058805805240398</v>
+        <v>-0.0686310794963059</v>
       </c>
       <c r="Q42" s="3">
-        <v>-0.1062413701866128</v>
+        <v>-0.06918986807008563</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3552,46 +3552,46 @@
         <v>203</v>
       </c>
       <c r="D43" s="1">
-        <v>4886269.687897143</v>
+        <v>4604214.182107143</v>
       </c>
       <c r="E43" s="2">
-        <v>0.9065729933971201</v>
+        <v>0.9325283938803075</v>
       </c>
       <c r="F43" s="3">
-        <v>0.004534005037783366</v>
+        <v>-0.01692384270781484</v>
       </c>
       <c r="G43" s="3">
-        <v>0.003340908434905622</v>
+        <v>-0.03741793138318712</v>
       </c>
       <c r="H43" s="3">
-        <v>-0.05002382086707967</v>
+        <v>-0.009031610637230287</v>
       </c>
       <c r="I43" s="3">
-        <v>-0.001951859243687702</v>
+        <v>-0.02927430951154746</v>
       </c>
       <c r="J43" s="3">
-        <v>-0.09692028985507245</v>
+        <v>-0.01348651348651346</v>
       </c>
       <c r="K43" s="3">
-        <v>-0.1223643002244906</v>
+        <v>-0.00753558295692452</v>
       </c>
       <c r="L43" s="3">
-        <v>-0.1489543320529236</v>
+        <v>-0.08775981524249418</v>
       </c>
       <c r="M43" s="3">
-        <v>-0.05714810059604408</v>
+        <v>-0.07562181835460484</v>
       </c>
       <c r="N43" s="3">
-        <v>-0.1593591905564925</v>
+        <v>-0.1705165896682067</v>
       </c>
       <c r="O43" s="3">
-        <v>-0.03317138086720046</v>
+        <v>-0.04215639342196614</v>
       </c>
       <c r="P43" s="3">
-        <v>-0.08975620041026731</v>
+        <v>-0.05651987486889598</v>
       </c>
       <c r="Q43" s="3">
-        <v>-0.0990060381943785</v>
+        <v>-0.06060928036058327</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3605,46 +3605,46 @@
         <v>204</v>
       </c>
       <c r="D44" s="1">
-        <v>12871239.19674286</v>
+        <v>12324300.79037143</v>
       </c>
       <c r="E44" s="2">
-        <v>0.3579045285167516</v>
+        <v>0.382924757684478</v>
       </c>
       <c r="F44" s="3">
-        <v>-0.007270612185546022</v>
+        <v>-0.006292529450501307</v>
       </c>
       <c r="G44" s="3">
-        <v>-0.00400118498992158</v>
+        <v>-0.005362157741559318</v>
       </c>
       <c r="H44" s="3">
-        <v>0.01350950118764849</v>
+        <v>-0.005492091388400703</v>
       </c>
       <c r="I44" s="3">
-        <v>-1.331505941567878E-05</v>
+        <v>0.0001284888245220147</v>
       </c>
       <c r="J44" s="3">
-        <v>0.04268804887361596</v>
+        <v>-0.01106822981140322</v>
       </c>
       <c r="K44" s="3">
-        <v>0.03637651596317593</v>
+        <v>-2.9732949282785E-06</v>
       </c>
       <c r="L44" s="3">
-        <v>0.08831500079706694</v>
+        <v>0.04597966728280947</v>
       </c>
       <c r="M44" s="3">
-        <v>0.04860375062098029</v>
+        <v>0.0349160113786</v>
       </c>
       <c r="N44" s="3">
-        <v>0.100507777867333</v>
+        <v>0.08891917896087224</v>
       </c>
       <c r="O44" s="3">
-        <v>0.02568989326265934</v>
+        <v>0.02973767770215516</v>
       </c>
       <c r="P44" s="3">
-        <v>0.04249013329207811</v>
+        <v>0.01745651904183586</v>
       </c>
       <c r="Q44" s="3">
-        <v>0.1187191832083493</v>
+        <v>0.04558733456513581</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3658,46 +3658,46 @@
         <v>205</v>
       </c>
       <c r="D45" s="1">
-        <v>7870642.215428571</v>
+        <v>9116134.018828571</v>
       </c>
       <c r="E45" s="2">
-        <v>1.446572750179288</v>
+        <v>1.432494875784603</v>
       </c>
       <c r="F45" s="3">
-        <v>-0.001477104874446087</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>-0.002084687417584338</v>
+        <v>-0.001249686524599898</v>
       </c>
       <c r="H45" s="3">
-        <v>-0.1157619359058207</v>
+        <v>0.0252976190476189</v>
       </c>
       <c r="I45" s="3">
-        <v>-0.02715734281359244</v>
+        <v>5.420674953006277E-06</v>
       </c>
       <c r="J45" s="3">
-        <v>-0.1581569115815691</v>
+        <v>0.01174743024963274</v>
       </c>
       <c r="K45" s="3">
-        <v>-0.2246463318846753</v>
+        <v>1.488587039048124E-05</v>
       </c>
       <c r="L45" s="3">
-        <v>-0.2300683371298405</v>
+        <v>-0.1446306641837369</v>
       </c>
       <c r="M45" s="3">
-        <v>-0.102943749538817</v>
+        <v>-0.1335505429844764</v>
       </c>
       <c r="N45" s="3">
-        <v>-0.2413019079685746</v>
+        <v>-0.2192634560906516</v>
       </c>
       <c r="O45" s="3">
-        <v>-0.05413105309711721</v>
+        <v>-0.07480579015826523</v>
       </c>
       <c r="P45" s="3">
-        <v>-0.1637950407117461</v>
+        <v>-0.06740011475453815</v>
       </c>
       <c r="Q45" s="3">
-        <v>-0.1132297291591076</v>
+        <v>-0.04705085923439824</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3711,46 +3711,46 @@
         <v>206</v>
       </c>
       <c r="D46" s="1">
-        <v>5408936.3097</v>
+        <v>4748475.791614286</v>
       </c>
       <c r="E46" s="2">
-        <v>1.106241703795443</v>
+        <v>1.141041619138211</v>
       </c>
       <c r="F46" s="3">
-        <v>0.006949270326615711</v>
+        <v>-0.01836734693877538</v>
       </c>
       <c r="G46" s="3">
-        <v>0.000620844228550247</v>
+        <v>-0.02030016368629166</v>
       </c>
       <c r="H46" s="3">
-        <v>-0.0805837563451776</v>
+        <v>-0.005513439007580945</v>
       </c>
       <c r="I46" s="3">
-        <v>-0.01128995922548911</v>
+        <v>-0.01829423778185003</v>
       </c>
       <c r="J46" s="3">
-        <v>-0.1323353293413174</v>
+        <v>-0.01501706484641624</v>
       </c>
       <c r="K46" s="3">
-        <v>-0.1698011409694065</v>
+        <v>-0.008595470762353818</v>
       </c>
       <c r="L46" s="3">
-        <v>-0.1864121280179675</v>
+        <v>-0.1201219512195122</v>
       </c>
       <c r="M46" s="3">
-        <v>-0.07619857916692115</v>
+        <v>-0.112874905971434</v>
       </c>
       <c r="N46" s="3">
-        <v>-0.2413612565445026</v>
+        <v>-0.2381203801478353</v>
       </c>
       <c r="O46" s="3">
-        <v>-0.06492056897176122</v>
+        <v>-0.07125462098156454</v>
       </c>
       <c r="P46" s="3">
-        <v>-0.1229998600681638</v>
+        <v>-0.06658753482886282</v>
       </c>
       <c r="Q46" s="3">
-        <v>-0.111187148022136</v>
+        <v>-0.05835679760669384</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3764,46 +3764,46 @@
         <v>207</v>
       </c>
       <c r="D47" s="1">
-        <v>125670205.1401131</v>
+        <v>154697819.5973071</v>
       </c>
       <c r="E47" s="2">
-        <v>0.9849730649815172</v>
+        <v>1.027991176824827</v>
       </c>
       <c r="F47" s="3">
-        <v>0.04474492931776272</v>
+        <v>-0.03412890579960791</v>
       </c>
       <c r="G47" s="3">
-        <v>0.05274072094777742</v>
+        <v>-0.1132671536974691</v>
       </c>
       <c r="H47" s="3">
-        <v>0.004253810705423558</v>
+        <v>-0.005815333491573546</v>
       </c>
       <c r="I47" s="3">
-        <v>0.02174030802992833</v>
+        <v>-0.01250218415410072</v>
       </c>
       <c r="J47" s="3">
-        <v>-0.03781274765085486</v>
+        <v>0.02924192161199169</v>
       </c>
       <c r="K47" s="3">
-        <v>-0.0140398773903141</v>
+        <v>0.0009508196018032746</v>
       </c>
       <c r="L47" s="3">
-        <v>-0.08237961563377239</v>
+        <v>-0.05366018978761859</v>
       </c>
       <c r="M47" s="3">
-        <v>-0.02641918813886263</v>
+        <v>-0.03231180334189071</v>
       </c>
       <c r="N47" s="3">
-        <v>-0.08376455368693402</v>
+        <v>-0.0999247877941333</v>
       </c>
       <c r="O47" s="3">
-        <v>-0.02225349124061888</v>
+        <v>-0.02249024006960295</v>
       </c>
       <c r="P47" s="3">
-        <v>-0.02022953276458837</v>
+        <v>-0.06611829556801201</v>
       </c>
       <c r="Q47" s="3">
-        <v>-0.02053815833529211</v>
+        <v>-0.06431796017183014</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3817,46 +3817,46 @@
         <v>208</v>
       </c>
       <c r="D48" s="1">
-        <v>50938394.55910714</v>
+        <v>60655828.60829286</v>
       </c>
       <c r="E48" s="2">
-        <v>1.465452441748725</v>
+        <v>1.487871223438232</v>
       </c>
       <c r="F48" s="3">
-        <v>-0.06785714285714278</v>
+        <v>0.01696969696969691</v>
       </c>
       <c r="G48" s="3">
-        <v>-0.1797108365403222</v>
+        <v>-1.977940718997576E-05</v>
       </c>
       <c r="H48" s="3">
-        <v>-0.08313817330210779</v>
+        <v>0.02944785276073628</v>
       </c>
       <c r="I48" s="3">
-        <v>-0.0001955854639311039</v>
+        <v>0.01324320203161277</v>
       </c>
       <c r="J48" s="3">
-        <v>-0.09269988412514488</v>
+        <v>0.0474406991260924</v>
       </c>
       <c r="K48" s="3">
-        <v>-0.06483081868136475</v>
+        <v>1.776377536015233E-06</v>
       </c>
       <c r="L48" s="3">
-        <v>0.00642673521850907</v>
+        <v>0.06337135614702161</v>
       </c>
       <c r="M48" s="3">
-        <v>0.007520269571689886</v>
+        <v>-0.005181950211631431</v>
       </c>
       <c r="N48" s="3">
-        <v>0.03162055335968376</v>
+        <v>0.1097883597883598</v>
       </c>
       <c r="O48" s="3">
-        <v>0.02292154590340368</v>
+        <v>0.02335069979706153</v>
       </c>
       <c r="P48" s="3">
-        <v>-0.02865527455483743</v>
+        <v>-9.001514826980266E-06</v>
       </c>
       <c r="Q48" s="3">
-        <v>-0.01955387547114329</v>
+        <v>-6.049928706987967E-06</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3870,46 +3870,46 @@
         <v>209</v>
       </c>
       <c r="D49" s="1">
-        <v>17650531.12080857</v>
+        <v>18575314.69298143</v>
       </c>
       <c r="E49" s="2">
-        <v>1.140380027178446</v>
+        <v>1.128071102263331</v>
       </c>
       <c r="F49" s="3">
-        <v>0.01372850910957149</v>
+        <v>0.0004957243772462309</v>
       </c>
       <c r="G49" s="3">
-        <v>0.00426134262943734</v>
+        <v>-0.0006675587478787269</v>
       </c>
       <c r="H49" s="3">
-        <v>-0.01076749718292224</v>
+        <v>0.009124999999999932</v>
       </c>
       <c r="I49" s="3">
-        <v>0.009639161407549373</v>
+        <v>0.0003554826404730708</v>
       </c>
       <c r="J49" s="3">
-        <v>-0.03611077223374411</v>
+        <v>0.05130876416200025</v>
       </c>
       <c r="K49" s="3">
-        <v>-0.01603548129711843</v>
+        <v>0.00823114446226376</v>
       </c>
       <c r="L49" s="3">
-        <v>-0.05001803534928457</v>
+        <v>0.0105144573788959</v>
       </c>
       <c r="M49" s="3">
-        <v>-0.001670031679405903</v>
+        <v>-0.0161902251663112</v>
       </c>
       <c r="N49" s="3">
-        <v>-0.07047058823529422</v>
+        <v>-0.04291641967990514</v>
       </c>
       <c r="O49" s="3">
-        <v>-0.005142815393232406</v>
+        <v>-0.004622353281985922</v>
       </c>
       <c r="P49" s="3">
-        <v>-0.008852756488262165</v>
+        <v>-0.008428891957094965</v>
       </c>
       <c r="Q49" s="3">
-        <v>-0.007762988019148194</v>
+        <v>-0.007471950961409676</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3923,46 +3923,46 @@
         <v>210</v>
       </c>
       <c r="D50" s="1">
-        <v>6527159.731</v>
+        <v>6678678.236885713</v>
       </c>
       <c r="E50" s="2">
-        <v>1.110835063302877</v>
+        <v>1.174608153379618</v>
       </c>
       <c r="F50" s="3">
-        <v>0.004645760743321691</v>
+        <v>-0.02045454545454541</v>
       </c>
       <c r="G50" s="3">
-        <v>0.002453625325062096</v>
+        <v>-0.01868562765914096</v>
       </c>
       <c r="H50" s="3">
-        <v>-0.09518828451882856</v>
+        <v>-0.009195402298850519</v>
       </c>
       <c r="I50" s="3">
-        <v>-0.02627910973501785</v>
+        <v>-0.02660005221639002</v>
       </c>
       <c r="J50" s="3">
-        <v>-0.150294695481336</v>
+        <v>-0.01934015927189997</v>
       </c>
       <c r="K50" s="3">
-        <v>-0.2092631346347868</v>
+        <v>-0.01002555981987828</v>
       </c>
       <c r="L50" s="3">
-        <v>-0.1793168880455408</v>
+        <v>-0.1213047910295617</v>
       </c>
       <c r="M50" s="3">
-        <v>-0.05959849341109928</v>
+        <v>-0.1171373360105971</v>
       </c>
       <c r="N50" s="3">
-        <v>-0.1761904761904762</v>
+        <v>-0.179047619047619</v>
       </c>
       <c r="O50" s="3">
-        <v>-0.02443149242616423</v>
+        <v>-0.04182141707593689</v>
       </c>
       <c r="P50" s="3">
-        <v>-0.1178944848007878</v>
+        <v>-0.067911481834869</v>
       </c>
       <c r="Q50" s="3">
-        <v>-0.1061314039280042</v>
+        <v>-0.05781628676718449</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3976,46 +3976,46 @@
         <v>211</v>
       </c>
       <c r="D51" s="1">
-        <v>7565632.608857142</v>
+        <v>12394918.58034286</v>
       </c>
       <c r="E51" s="2">
-        <v>1.092060899023109</v>
+        <v>1.110607135101301</v>
       </c>
       <c r="F51" s="3">
-        <v>0.02786327555483557</v>
+        <v>0.04360691481077718</v>
       </c>
       <c r="G51" s="3">
-        <v>0.04596996695561635</v>
+        <v>0.009134093328230678</v>
       </c>
       <c r="H51" s="3">
-        <v>-0.08428344638475972</v>
+        <v>0.05927916534935184</v>
       </c>
       <c r="I51" s="3">
-        <v>-0.005995807096067756</v>
+        <v>0.001080581372089515</v>
       </c>
       <c r="J51" s="3">
-        <v>-0.1386098289437959</v>
+        <v>0.07439474106140771</v>
       </c>
       <c r="K51" s="3">
-        <v>-0.1830329596557166</v>
+        <v>0.01508751581076182</v>
       </c>
       <c r="L51" s="3">
-        <v>-0.168958742632613</v>
+        <v>-0.05739203826135877</v>
       </c>
       <c r="M51" s="3">
-        <v>-0.0689027871710463</v>
+        <v>-0.09684544481048588</v>
       </c>
       <c r="N51" s="3">
-        <v>-0.1681961195595177</v>
+        <v>-0.1024645057594428</v>
       </c>
       <c r="O51" s="3">
-        <v>-0.01670999166612006</v>
+        <v>-0.02765909980729793</v>
       </c>
       <c r="P51" s="3">
-        <v>-0.118549453365282</v>
+        <v>-0.0438556757411276</v>
       </c>
       <c r="Q51" s="3">
-        <v>-0.1085557165093349</v>
+        <v>-0.0394880190798769</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -4029,46 +4029,46 @@
         <v>212</v>
       </c>
       <c r="D52" s="1">
-        <v>9110691.736466572</v>
+        <v>8288834.175078572</v>
       </c>
       <c r="E52" s="2">
-        <v>0.9932280010633452</v>
+        <v>1.018703282511237</v>
       </c>
       <c r="F52" s="3">
-        <v>0.005298013245033098</v>
+        <v>-0.01779828609096895</v>
       </c>
       <c r="G52" s="3">
-        <v>7.117565583111492E-09</v>
+        <v>-0.03357928713498198</v>
       </c>
       <c r="H52" s="3">
-        <v>-0.06006191950464388</v>
+        <v>-0.02102496714848877</v>
       </c>
       <c r="I52" s="3">
-        <v>-0.008544363643103738</v>
+        <v>-0.05728811402173101</v>
       </c>
       <c r="J52" s="3">
-        <v>-0.1012433392539964</v>
+        <v>-0.02295081967213121</v>
       </c>
       <c r="K52" s="3">
-        <v>-0.1367564855149714</v>
+        <v>-0.0317597352935828</v>
       </c>
       <c r="L52" s="3">
-        <v>-0.1054802592810842</v>
+        <v>-0.09035409035409031</v>
       </c>
       <c r="M52" s="3">
-        <v>-0.02239863461364345</v>
+        <v>-0.08039717936767696</v>
       </c>
       <c r="N52" s="3">
-        <v>-0.09535160905840286</v>
+        <v>-0.1093843395098625</v>
       </c>
       <c r="O52" s="3">
-        <v>-0.01317625506368841</v>
+        <v>-0.02679155348012981</v>
       </c>
       <c r="P52" s="3">
-        <v>-0.05887512183602315</v>
+        <v>-0.05698823325132947</v>
       </c>
       <c r="Q52" s="3">
-        <v>-0.05927654251892991</v>
+        <v>-0.05594193542877964</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -4082,46 +4082,46 @@
         <v>213</v>
       </c>
       <c r="D53" s="1">
-        <v>5450202.033892858</v>
+        <v>5085721.446742857</v>
       </c>
       <c r="E53" s="2">
-        <v>1.126650853209997</v>
+        <v>1.164146388075169</v>
       </c>
       <c r="F53" s="3">
-        <v>0.01539942252165548</v>
+        <v>-0.01608325449385052</v>
       </c>
       <c r="G53" s="3">
-        <v>0.01780793260231121</v>
+        <v>-0.01684411025171694</v>
       </c>
       <c r="H53" s="3">
-        <v>-0.04954954954954956</v>
+        <v>-0.006685768863419352</v>
       </c>
       <c r="I53" s="3">
-        <v>-0.002140059874218976</v>
+        <v>-0.03761145058365103</v>
       </c>
       <c r="J53" s="3">
-        <v>-0.1112047177759056</v>
+        <v>-0.01140684410646391</v>
       </c>
       <c r="K53" s="3">
-        <v>-0.1363296165676686</v>
+        <v>-0.009245140794832674</v>
       </c>
       <c r="L53" s="3">
-        <v>-0.1539695268644747</v>
+        <v>-0.1178965224766752</v>
       </c>
       <c r="M53" s="3">
-        <v>-0.07236486901708716</v>
+        <v>-0.1111729758046574</v>
       </c>
       <c r="N53" s="3">
-        <v>-0.1141897565071369</v>
+        <v>-0.1390728476821193</v>
       </c>
       <c r="O53" s="3">
-        <v>-0.01374642503779991</v>
+        <v>-0.0337188534453384</v>
       </c>
       <c r="P53" s="3">
-        <v>-0.09327731276211201</v>
+        <v>-0.06400854302818718</v>
       </c>
       <c r="Q53" s="3">
-        <v>-0.08279167631777935</v>
+        <v>-0.05498324238588296</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4135,46 +4135,46 @@
         <v>214</v>
       </c>
       <c r="D54" s="1">
-        <v>6933454.491550285</v>
+        <v>6612838.952113001</v>
       </c>
       <c r="E54" s="2">
-        <v>0.9225892120081927</v>
+        <v>0.9943555753729997</v>
       </c>
       <c r="F54" s="3">
-        <v>0.01453957996768983</v>
+        <v>-0.01762820512820503</v>
       </c>
       <c r="G54" s="3">
-        <v>0.01096249698677445</v>
+        <v>-0.0314431204011482</v>
       </c>
       <c r="H54" s="3">
-        <v>-0.04559270516717321</v>
+        <v>-0.01919999999999995</v>
       </c>
       <c r="I54" s="3">
-        <v>-0.003587465477402598</v>
+        <v>-0.07402658847059618</v>
       </c>
       <c r="J54" s="3">
-        <v>-0.1002865329512895</v>
+        <v>-0.01762820512820503</v>
       </c>
       <c r="K54" s="3">
-        <v>-0.1303533373090207</v>
+        <v>-0.02135833898229906</v>
       </c>
       <c r="L54" s="3">
-        <v>-0.1066856330014224</v>
+        <v>-0.09319526627218921</v>
       </c>
       <c r="M54" s="3">
-        <v>-0.03213245003602256</v>
+        <v>-0.09005203212835242</v>
       </c>
       <c r="N54" s="3">
-        <v>-0.1216783216783218</v>
+        <v>-0.1354019746121297</v>
       </c>
       <c r="O54" s="3">
-        <v>-0.0149655012881251</v>
+        <v>-0.0236100260030845</v>
       </c>
       <c r="P54" s="3">
-        <v>-0.07690538585717216</v>
+        <v>-0.06074757626475031</v>
       </c>
       <c r="Q54" s="3">
-        <v>-0.08335821062742844</v>
+        <v>-0.06109240775560881</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4188,46 +4188,46 @@
         <v>215</v>
       </c>
       <c r="D55" s="1">
-        <v>7813292.06889</v>
+        <v>7977433.247185715</v>
       </c>
       <c r="E55" s="2">
-        <v>1.172201605551799</v>
+        <v>1.218781948179033</v>
       </c>
       <c r="F55" s="3">
-        <v>0.004889975550122262</v>
+        <v>-0.007263922518159721</v>
       </c>
       <c r="G55" s="3">
-        <v>6.642139034166458E-05</v>
+        <v>-0.0006552792086582203</v>
       </c>
       <c r="H55" s="3">
-        <v>-0.08666666666666661</v>
+        <v>-0.004854368932038848</v>
       </c>
       <c r="I55" s="3">
-        <v>-0.03263746598475862</v>
+        <v>-0.03417158183136756</v>
       </c>
       <c r="J55" s="3">
-        <v>-0.1577868852459016</v>
+        <v>-0.01442307692307675</v>
       </c>
       <c r="K55" s="3">
-        <v>-0.207515450090873</v>
+        <v>-0.01956999221724717</v>
       </c>
       <c r="L55" s="3">
-        <v>-0.1972656250000001</v>
+        <v>-0.1632653061224489</v>
       </c>
       <c r="M55" s="3">
-        <v>-0.09703989299217725</v>
+        <v>-0.1598920613677684</v>
       </c>
       <c r="N55" s="3">
-        <v>-0.2201138519924099</v>
+        <v>-0.2023346303501944</v>
       </c>
       <c r="O55" s="3">
-        <v>-0.03393385036204402</v>
+        <v>-0.05304941505420115</v>
       </c>
       <c r="P55" s="3">
-        <v>-0.1522776715415252</v>
+        <v>-0.0897310267925078</v>
       </c>
       <c r="Q55" s="3">
-        <v>-0.1299074074120914</v>
+        <v>-0.07362352792193372</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4241,46 +4241,46 @@
         <v>216</v>
       </c>
       <c r="D56" s="1">
-        <v>12417016.27242857</v>
+        <v>12883202.18088</v>
       </c>
       <c r="E56" s="2">
-        <v>1.146992086637222</v>
+        <v>1.194577907786111</v>
       </c>
       <c r="F56" s="3">
-        <v>0.02661596958174912</v>
+        <v>-0.03874538745387456</v>
       </c>
       <c r="G56" s="3">
-        <v>0.05140490956460329</v>
+        <v>-0.08828235806341847</v>
       </c>
       <c r="H56" s="3">
-        <v>-0.08163265306122441</v>
+        <v>-0.02616822429906533</v>
       </c>
       <c r="I56" s="3">
-        <v>-0.01855900670015562</v>
+        <v>-0.06638538572240103</v>
       </c>
       <c r="J56" s="3">
-        <v>-0.1219512195121951</v>
+        <v>-0.02616822429906533</v>
       </c>
       <c r="K56" s="3">
-        <v>-0.1855661517531681</v>
+        <v>-0.008659056771502154</v>
       </c>
       <c r="L56" s="3">
-        <v>-0.1442155309033279</v>
+        <v>-0.12141652613828</v>
       </c>
       <c r="M56" s="3">
-        <v>-0.04511715450125561</v>
+        <v>-0.09732193664222252</v>
       </c>
       <c r="N56" s="3">
-        <v>-0.1679506933744221</v>
+        <v>-0.1833855799373041</v>
       </c>
       <c r="O56" s="3">
-        <v>-0.02628676043520078</v>
+        <v>-0.03829953768231307</v>
       </c>
       <c r="P56" s="3">
-        <v>-0.1065339239378389</v>
+        <v>-0.0928021473528205</v>
       </c>
       <c r="Q56" s="3">
-        <v>-0.09288113246724962</v>
+        <v>-0.07768614064260485</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4294,46 +4294,46 @@
         <v>217</v>
       </c>
       <c r="D57" s="1">
-        <v>6539125.821995715</v>
+        <v>6998973.69632</v>
       </c>
       <c r="E57" s="2">
-        <v>1.038442429948798</v>
+        <v>1.052551248430073</v>
       </c>
       <c r="F57" s="3">
-        <v>-0.003439380911435951</v>
+        <v>-0.00863557858376506</v>
       </c>
       <c r="G57" s="3">
-        <v>-0.0007674587790575249</v>
+        <v>-0.004426690726748662</v>
       </c>
       <c r="H57" s="3">
-        <v>-0.07056936647955096</v>
+        <v>-0.00777873811581675</v>
       </c>
       <c r="I57" s="3">
-        <v>-0.01295149111535608</v>
+        <v>-0.03169557515836208</v>
       </c>
       <c r="J57" s="3">
-        <v>-0.1259426847662141</v>
+        <v>-0.02047781569965861</v>
       </c>
       <c r="K57" s="3">
-        <v>-0.1688744518806284</v>
+        <v>-0.02841976838011417</v>
       </c>
       <c r="L57" s="3">
-        <v>-0.1906424581005587</v>
+        <v>-0.1527675276752767</v>
       </c>
       <c r="M57" s="3">
-        <v>-0.1060275783732888</v>
+        <v>-0.1321880683378302</v>
       </c>
       <c r="N57" s="3">
-        <v>-0.2077922077922079</v>
+        <v>-0.219047619047619</v>
       </c>
       <c r="O57" s="3">
-        <v>-0.05005995860937627</v>
+        <v>-0.06646244262760397</v>
       </c>
       <c r="P57" s="3">
-        <v>-0.1374510151269586</v>
+        <v>-0.0803039183589722</v>
       </c>
       <c r="Q57" s="3">
-        <v>-0.1323626723666673</v>
+        <v>-0.07629454478226028</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4347,46 +4347,46 @@
         <v>218</v>
       </c>
       <c r="D58" s="1">
-        <v>11986512.42325714</v>
+        <v>12579850.58755714</v>
       </c>
       <c r="E58" s="2">
-        <v>0.6954097641065659</v>
+        <v>0.749826064608503</v>
       </c>
       <c r="F58" s="3">
-        <v>0.02914001421464113</v>
+        <v>-0.03347855996331123</v>
       </c>
       <c r="G58" s="3">
-        <v>0.1161193606917876</v>
+        <v>-0.08175552813924312</v>
       </c>
       <c r="H58" s="3">
-        <v>-0.01092896174863391</v>
+        <v>-0.03170227429359061</v>
       </c>
       <c r="I58" s="3">
-        <v>0.009132900907960368</v>
+        <v>-0.08755158044591375</v>
       </c>
       <c r="J58" s="3">
-        <v>-0.051528384279476</v>
+        <v>-0.01033106362996015</v>
       </c>
       <c r="K58" s="3">
-        <v>-0.02920501727919388</v>
+        <v>-0.002472246812166413</v>
       </c>
       <c r="L58" s="3">
-        <v>-0.1070914696813977</v>
+        <v>-0.08904257618327208</v>
       </c>
       <c r="M58" s="3">
-        <v>-0.05625194872781075</v>
+        <v>-0.06170954981779057</v>
       </c>
       <c r="N58" s="3">
-        <v>-0.08662741799831788</v>
+        <v>-0.1294919454770755</v>
       </c>
       <c r="O58" s="3">
-        <v>-0.01979163599683833</v>
+        <v>-0.02833209519920299</v>
       </c>
       <c r="P58" s="3">
-        <v>-0.04272848300350231</v>
+        <v>-0.07173253897851685</v>
       </c>
       <c r="Q58" s="3">
-        <v>-0.06144360520792819</v>
+        <v>-0.09566557147619247</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4400,46 +4400,46 @@
         <v>219</v>
       </c>
       <c r="D59" s="1">
-        <v>10829908.313</v>
+        <v>10500215.8665</v>
       </c>
       <c r="E59" s="2">
-        <v>1.184810308307416</v>
+        <v>1.137411903070328</v>
       </c>
       <c r="F59" s="3">
-        <v>0.005454545454545459</v>
+        <v>-0.01154529307282407</v>
       </c>
       <c r="G59" s="3">
-        <v>0.001186105485183417</v>
+        <v>-0.0160755083725062</v>
       </c>
       <c r="H59" s="3">
-        <v>-0.07370184254606353</v>
+        <v>0.006329113924050537</v>
       </c>
       <c r="I59" s="3">
-        <v>-0.008174572256723434</v>
+        <v>-0.003219341310862066</v>
       </c>
       <c r="J59" s="3">
-        <v>-0.1284475965327028</v>
+        <v>-0.001793721973094172</v>
       </c>
       <c r="K59" s="3">
-        <v>-0.1690005374402323</v>
+        <v>-0.0007688008639831062</v>
       </c>
       <c r="L59" s="3">
-        <v>-0.1602126044039483</v>
+        <v>-0.0951219512195122</v>
       </c>
       <c r="M59" s="3">
-        <v>-0.04968001912844481</v>
+        <v>-0.09732401549958525</v>
       </c>
       <c r="N59" s="3">
-        <v>-0.1770833333333333</v>
+        <v>-0.1755555555555556</v>
       </c>
       <c r="O59" s="3">
-        <v>-0.02990781516653211</v>
+        <v>-0.03986014168151899</v>
       </c>
       <c r="P59" s="3">
-        <v>-0.1093402782843386</v>
+        <v>-0.05669976193604572</v>
       </c>
       <c r="Q59" s="3">
-        <v>-0.09228504978196783</v>
+        <v>-0.04984980531941897</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4453,46 +4453,46 @@
         <v>220</v>
       </c>
       <c r="D60" s="1">
-        <v>29245463.98174286</v>
+        <v>33539158.333</v>
       </c>
       <c r="E60" s="2">
-        <v>0.9937231157498844</v>
+        <v>1.034325042467026</v>
       </c>
       <c r="F60" s="3">
-        <v>-0.01823154056517777</v>
+        <v>-0.03005213124808333</v>
       </c>
       <c r="G60" s="3">
-        <v>-0.04104417523334667</v>
+        <v>-0.05572499531312271</v>
       </c>
       <c r="H60" s="3">
-        <v>-0.1084437086092715</v>
+        <v>-0.03301742586365019</v>
       </c>
       <c r="I60" s="3">
-        <v>-0.08855304768102373</v>
+        <v>-0.06509607394155266</v>
       </c>
       <c r="J60" s="3">
-        <v>-0.140234167110165</v>
+        <v>-0.05015015015015013</v>
       </c>
       <c r="K60" s="3">
-        <v>-0.2139899424974923</v>
+        <v>-0.06994797314492181</v>
       </c>
       <c r="L60" s="3">
-        <v>-0.1896162528216704</v>
+        <v>-0.1583288983501863</v>
       </c>
       <c r="M60" s="3">
-        <v>-0.07635180130893515</v>
+        <v>-0.1468855054059463</v>
       </c>
       <c r="N60" s="3">
-        <v>-0.2034023668639054</v>
+        <v>-0.2423952095808382</v>
       </c>
       <c r="O60" s="3">
-        <v>-0.04598298976143553</v>
+        <v>-0.06190522937589261</v>
       </c>
       <c r="P60" s="3">
-        <v>-0.1398770840864202</v>
+        <v>-0.108416739275434</v>
       </c>
       <c r="Q60" s="3">
-        <v>-0.1407606222190636</v>
+        <v>-0.1048188285346387</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4506,46 +4506,46 @@
         <v>221</v>
       </c>
       <c r="D61" s="1">
-        <v>13002978.74577143</v>
+        <v>13014870.79768571</v>
       </c>
       <c r="E61" s="2">
-        <v>1.177513658221814</v>
+        <v>1.216118153285944</v>
       </c>
       <c r="F61" s="3">
-        <v>-0.01746323529411764</v>
+        <v>-0.005597014925373165</v>
       </c>
       <c r="G61" s="3">
-        <v>-0.02868822871118911</v>
+        <v>-0.01238235372467317</v>
       </c>
       <c r="H61" s="3">
-        <v>-0.1069340016708438</v>
+        <v>0.0009389671361502616</v>
       </c>
       <c r="I61" s="3">
-        <v>-0.08201395422079433</v>
+        <v>-0.01636691614419216</v>
       </c>
       <c r="J61" s="3">
-        <v>-0.1252045826513912</v>
+        <v>-0.03703703703703709</v>
       </c>
       <c r="K61" s="3">
-        <v>-0.2031302885492051</v>
+        <v>-0.04326903421773966</v>
       </c>
       <c r="L61" s="3">
-        <v>-0.1365105008077544</v>
+        <v>-0.08024158757549614</v>
       </c>
       <c r="M61" s="3">
-        <v>-0.01808556869707305</v>
+        <v>-0.08678794190759789</v>
       </c>
       <c r="N61" s="3">
-        <v>-0.07365684575389954</v>
+        <v>-0.1049538203190596</v>
       </c>
       <c r="O61" s="3">
-        <v>-0.001299158524510298</v>
+        <v>-0.01749776180016359</v>
       </c>
       <c r="P61" s="3">
-        <v>-0.05117253723254432</v>
+        <v>-0.06502848806266878</v>
       </c>
       <c r="Q61" s="3">
-        <v>-0.0434581262605658</v>
+        <v>-0.05347217939882093</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4559,46 +4559,46 @@
         <v>222</v>
       </c>
       <c r="D62" s="1">
-        <v>6142637.943</v>
+        <v>6666479.137054285</v>
       </c>
       <c r="E62" s="2">
-        <v>0.9765282837884667</v>
+        <v>0.9958732309442525</v>
       </c>
       <c r="F62" s="3">
-        <v>0.01386481802426347</v>
+        <v>-0.0179054054054055</v>
       </c>
       <c r="G62" s="3">
-        <v>0.01293258952283986</v>
+        <v>-0.02441395335695575</v>
       </c>
       <c r="H62" s="3">
-        <v>-0.07714150496923802</v>
+        <v>-0.01088805716230013</v>
       </c>
       <c r="I62" s="3">
-        <v>-0.007071033827623984</v>
+        <v>-0.02096869154787444</v>
       </c>
       <c r="J62" s="3">
-        <v>-0.1379310344827586</v>
+        <v>-0.01491019993222646</v>
       </c>
       <c r="K62" s="3">
-        <v>-0.1759563079889346</v>
+        <v>-0.003659500471259638</v>
       </c>
       <c r="L62" s="3">
-        <v>-0.1798682181410346</v>
+        <v>-0.1350788455816722</v>
       </c>
       <c r="M62" s="3">
-        <v>-0.08239430438924798</v>
+        <v>-0.1254620052083292</v>
       </c>
       <c r="N62" s="3">
-        <v>-0.1895261845386532</v>
+        <v>-0.2044334975369459</v>
       </c>
       <c r="O62" s="3">
-        <v>-0.03630681797671059</v>
+        <v>-0.05258692513481862</v>
       </c>
       <c r="P62" s="3">
-        <v>-0.1291753061890913</v>
+        <v>-0.07493797928264248</v>
       </c>
       <c r="Q62" s="3">
-        <v>-0.1322801482901779</v>
+        <v>-0.07524851251558282</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4612,46 +4612,46 @@
         <v>223</v>
       </c>
       <c r="D63" s="1">
-        <v>13160035.80857143</v>
+        <v>11760078.70285714</v>
       </c>
       <c r="E63" s="2">
-        <v>1.094498136086653</v>
+        <v>1.175117871288314</v>
       </c>
       <c r="F63" s="3">
-        <v>0.003344481605351151</v>
+        <v>-0.003322259136212605</v>
       </c>
       <c r="G63" s="3">
-        <v>1.281838599782839E-07</v>
+        <v>-0.001237339390500477</v>
       </c>
       <c r="H63" s="3">
-        <v>-0.04458598726114645</v>
+        <v>0</v>
       </c>
       <c r="I63" s="3">
-        <v>-0.001384186771492389</v>
+        <v>-0.01317508565348248</v>
       </c>
       <c r="J63" s="3">
-        <v>-0.1017964071856288</v>
+        <v>0</v>
       </c>
       <c r="K63" s="3">
-        <v>-0.1132034171229046</v>
+        <v>-0.003623025098819767</v>
       </c>
       <c r="L63" s="3">
-        <v>-0.09638554216867475</v>
+        <v>-0.07692307692307698</v>
       </c>
       <c r="M63" s="3">
-        <v>-0.03727742722376871</v>
+        <v>-0.08095201893607827</v>
       </c>
       <c r="N63" s="3">
         <v>-0.08256880733944957</v>
       </c>
       <c r="O63" s="3">
-        <v>-0.001904872369431141</v>
+        <v>-0.009726949295194872</v>
       </c>
       <c r="P63" s="3">
-        <v>-0.05992311728160914</v>
+        <v>-0.04228752201744902</v>
       </c>
       <c r="Q63" s="3">
-        <v>-0.05474940094083902</v>
+        <v>-0.03598577049218735</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4665,46 +4665,46 @@
         <v>224</v>
       </c>
       <c r="D64" s="1">
-        <v>41817700.6122</v>
+        <v>41688692.89007143</v>
       </c>
       <c r="E64" s="2">
-        <v>1.812176807154391</v>
+        <v>1.746395506874096</v>
       </c>
       <c r="F64" s="3">
-        <v>0.0333161157024794</v>
+        <v>0.008574228319451257</v>
       </c>
       <c r="G64" s="3">
-        <v>0.000518110172016826</v>
+        <v>-0.000227084367374579</v>
       </c>
       <c r="H64" s="3">
-        <v>-0.2078796277964759</v>
+        <v>0.03157103482836382</v>
       </c>
       <c r="I64" s="3">
-        <v>-0.1118874693645841</v>
+        <v>0.01129981408962383</v>
       </c>
       <c r="J64" s="3">
-        <v>-0.2176378568635119</v>
+        <v>0.02796504369538074</v>
       </c>
       <c r="K64" s="3">
-        <v>-0.3246331045109026</v>
+        <v>0.01560610092435251</v>
       </c>
       <c r="L64" s="3">
-        <v>-0.1578615028415071</v>
+        <v>-0.1365352348993288</v>
       </c>
       <c r="M64" s="3">
-        <v>-0.01856330697969769</v>
+        <v>-0.08166242119978559</v>
       </c>
       <c r="N64" s="3">
-        <v>-0.1474536543788621</v>
+        <v>-0.07731958762886593</v>
       </c>
       <c r="O64" s="3">
-        <v>-9.72543270036585E-05</v>
+        <v>-0.00529456261499703</v>
       </c>
       <c r="P64" s="3">
-        <v>-0.08300848067927989</v>
+        <v>-0.03877333599812025</v>
       </c>
       <c r="Q64" s="3">
-        <v>-0.04580595025362107</v>
+        <v>-0.02220192152665424</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4718,46 +4718,46 @@
         <v>225</v>
       </c>
       <c r="D65" s="1">
-        <v>8310284.280728572</v>
+        <v>8023253.914962857</v>
       </c>
       <c r="E65" s="2">
-        <v>0.9889255658695367</v>
+        <v>1.015473328544095</v>
       </c>
       <c r="F65" s="3">
-        <v>0.01028277634961451</v>
+        <v>-0.01245019920318726</v>
       </c>
       <c r="G65" s="3">
-        <v>0.008102422508729671</v>
+        <v>-0.01392270918092118</v>
       </c>
       <c r="H65" s="3">
-        <v>-0.03770812928501469</v>
+        <v>0.01070336391437318</v>
       </c>
       <c r="I65" s="3">
-        <v>-3.4073131803208E-08</v>
+        <v>-0.003825191814105321</v>
       </c>
       <c r="J65" s="3">
-        <v>-0.08858998144712424</v>
+        <v>0.01432225063938614</v>
       </c>
       <c r="K65" s="3">
-        <v>-0.09322840500172366</v>
+        <v>4.7647595829995E-06</v>
       </c>
       <c r="L65" s="3">
-        <v>-0.108843537414966</v>
+        <v>-0.06988742964352712</v>
       </c>
       <c r="M65" s="3">
-        <v>-0.04301497674410096</v>
+        <v>-0.06778984306287014</v>
       </c>
       <c r="N65" s="3">
-        <v>-0.09986257443884554</v>
+        <v>-0.09699453551912568</v>
       </c>
       <c r="O65" s="3">
-        <v>-0.01281633164619469</v>
+        <v>-0.02238671718990985</v>
       </c>
       <c r="P65" s="3">
-        <v>-0.06812169087291231</v>
+        <v>-0.04085627612189566</v>
       </c>
       <c r="Q65" s="3">
-        <v>-0.06888454826528291</v>
+        <v>-0.04023372645392091</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4771,46 +4771,46 @@
         <v>226</v>
       </c>
       <c r="D66" s="1">
-        <v>9660440.887789713</v>
+        <v>9449693.800750857</v>
       </c>
       <c r="E66" s="2">
-        <v>1.051455757595317</v>
+        <v>1.099264831382234</v>
       </c>
       <c r="F66" s="3">
-        <v>0.007680491551459313</v>
+        <v>-0.0231862378459237</v>
       </c>
       <c r="G66" s="3">
-        <v>0.001059775514629932</v>
+        <v>-0.03561023502039363</v>
       </c>
       <c r="H66" s="3">
-        <v>-0.06652436855211671</v>
+        <v>-0.004952380952380949</v>
       </c>
       <c r="I66" s="3">
-        <v>-0.005374181909184657</v>
+        <v>-0.02300312797647957</v>
       </c>
       <c r="J66" s="3">
-        <v>-0.1253333333333334</v>
+        <v>-0.006844106463878246</v>
       </c>
       <c r="K66" s="3">
-        <v>-0.1561061438111708</v>
+        <v>-0.004094745984474434</v>
       </c>
       <c r="L66" s="3">
-        <v>-0.1430437622468975</v>
+        <v>-0.1127717391304347</v>
       </c>
       <c r="M66" s="3">
-        <v>-0.05052742641448098</v>
+        <v>-0.1031088490672249</v>
       </c>
       <c r="N66" s="3">
-        <v>-0.1643312101910828</v>
+        <v>-0.1546925566343041</v>
       </c>
       <c r="O66" s="3">
-        <v>-0.02227032292453645</v>
+        <v>-0.03237192198253171</v>
       </c>
       <c r="P66" s="3">
-        <v>-0.1033167851128259</v>
+        <v>-0.06935954204380926</v>
       </c>
       <c r="Q66" s="3">
-        <v>-0.09826070604160445</v>
+        <v>-0.06309629860221709</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4824,46 +4824,46 @@
         <v>227</v>
       </c>
       <c r="D67" s="1">
-        <v>20500382.77485714</v>
+        <v>17724091.07322857</v>
       </c>
       <c r="E67" s="2">
-        <v>1.768806589449427</v>
+        <v>1.701440530802419</v>
       </c>
       <c r="F67" s="3">
-        <v>0.001860217911241062</v>
+        <v>-0.004434011476264973</v>
       </c>
       <c r="G67" s="3">
-        <v>-1.792670205005977E-06</v>
+        <v>-0.0008980702486577314</v>
       </c>
       <c r="H67" s="3">
-        <v>-0.1143998120742306</v>
+        <v>0.01327316166710918</v>
       </c>
       <c r="I67" s="3">
-        <v>-0.04353130332970094</v>
+        <v>-0.0004176936931829526</v>
       </c>
       <c r="J67" s="3">
-        <v>-0.1657446337685329</v>
+        <v>0.005002632964718306</v>
       </c>
       <c r="K67" s="3">
-        <v>-0.2543417059013644</v>
+        <v>-0.0004917759481534047</v>
       </c>
       <c r="L67" s="3">
-        <v>-0.2354491989454472</v>
+        <v>-0.1588805641251653</v>
       </c>
       <c r="M67" s="3">
-        <v>-0.1198099027785412</v>
+        <v>-0.1390930327103919</v>
       </c>
       <c r="N67" s="3">
-        <v>-0.1790069686411149</v>
+        <v>-0.203630294179011</v>
       </c>
       <c r="O67" s="3">
-        <v>-0.0311364291173607</v>
+        <v>-0.06930632674517404</v>
       </c>
       <c r="P67" s="3">
-        <v>-0.149408435709828</v>
+        <v>-0.06999555147952483</v>
       </c>
       <c r="Q67" s="3">
-        <v>-0.08446849791323659</v>
+        <v>-0.04113899381867559</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4877,46 +4877,46 @@
         <v>228</v>
       </c>
       <c r="D68" s="1">
-        <v>45672184.75128572</v>
+        <v>42017526.94397143</v>
       </c>
       <c r="E68" s="2">
-        <v>2.038387558117166</v>
+        <v>1.929603180630725</v>
       </c>
       <c r="F68" s="3">
-        <v>-0.03068340306834033</v>
+        <v>-0.01680672268907565</v>
       </c>
       <c r="G68" s="3">
-        <v>-0.0714914415795086</v>
+        <v>-0.01400871506302484</v>
       </c>
       <c r="H68" s="3">
-        <v>-0.04924760601915189</v>
+        <v>0</v>
       </c>
       <c r="I68" s="3">
-        <v>3.610577025501031E-05</v>
+        <v>-0.006748862171927912</v>
       </c>
       <c r="J68" s="3">
-        <v>-0.1191381495564006</v>
+        <v>0.004291845493562236</v>
       </c>
       <c r="K68" s="3">
-        <v>-0.09489264187130673</v>
+        <v>-0.006522580804782074</v>
       </c>
       <c r="L68" s="3">
-        <v>-0.144088669950739</v>
+        <v>-0.06772908366533871</v>
       </c>
       <c r="M68" s="3">
-        <v>-0.02754528161570441</v>
+        <v>-0.06695939632303863</v>
       </c>
       <c r="N68" s="3">
-        <v>-0.2102272727272728</v>
+        <v>-0.2094594594594595</v>
       </c>
       <c r="O68" s="3">
-        <v>-0.05777064525204023</v>
+        <v>-0.06500974499816149</v>
       </c>
       <c r="P68" s="3">
-        <v>-0.08319204172540767</v>
+        <v>-0.04048405569303173</v>
       </c>
       <c r="Q68" s="3">
-        <v>-0.04081267146383642</v>
+        <v>-0.0209805083757163</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4930,46 +4930,46 @@
         <v>229</v>
       </c>
       <c r="D69" s="1">
-        <v>6722032.387274286</v>
+        <v>6111949.714045715</v>
       </c>
       <c r="E69" s="2">
-        <v>0.9004546817938549</v>
+        <v>0.9679323404144619</v>
       </c>
       <c r="F69" s="3">
-        <v>0.001109877913429477</v>
+        <v>-0.02612562534741513</v>
       </c>
       <c r="G69" s="3">
-        <v>-0.0001020119575994885</v>
+        <v>-0.07425719272835396</v>
       </c>
       <c r="H69" s="3">
-        <v>-0.0729701952723536</v>
+        <v>-0.03257868580894534</v>
       </c>
       <c r="I69" s="3">
-        <v>-0.02325940352224171</v>
+        <v>-0.09448016353973313</v>
       </c>
       <c r="J69" s="3">
-        <v>-0.1174168297455968</v>
+        <v>-0.03789126853377263</v>
       </c>
       <c r="K69" s="3">
-        <v>-0.1628926536875878</v>
+        <v>-0.04895673686227471</v>
       </c>
       <c r="L69" s="3">
-        <v>-0.1530516431924882</v>
+        <v>-0.1287916459472898</v>
       </c>
       <c r="M69" s="3">
-        <v>-0.0611352130854859</v>
+        <v>-0.1226454936506694</v>
       </c>
       <c r="N69" s="3">
-        <v>-0.158974358974359</v>
+        <v>-0.1809256661991584</v>
       </c>
       <c r="O69" s="3">
-        <v>-0.02543208727333729</v>
+        <v>-0.04080605913555288</v>
       </c>
       <c r="P69" s="3">
-        <v>-0.1100547860299224</v>
+        <v>-0.09845134318951171</v>
       </c>
       <c r="Q69" s="3">
-        <v>-0.1222213491196193</v>
+        <v>-0.1017130424088894</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4983,46 +4983,46 @@
         <v>230</v>
       </c>
       <c r="D70" s="1">
-        <v>52738169.835</v>
+        <v>53859755.6365</v>
       </c>
       <c r="E70" s="2">
-        <v>1.183921599752602</v>
+        <v>1.194333832341033</v>
       </c>
       <c r="F70" s="3">
-        <v>-0.0208464939987365</v>
+        <v>-0.03310255300735608</v>
       </c>
       <c r="G70" s="3">
-        <v>-0.05613966733792813</v>
+        <v>-0.0749440610312927</v>
       </c>
       <c r="H70" s="3">
-        <v>-0.07628128724672216</v>
+        <v>-0.04813631522896689</v>
       </c>
       <c r="I70" s="3">
-        <v>-0.03834313561795381</v>
+        <v>-0.1316178177927693</v>
       </c>
       <c r="J70" s="3">
-        <v>-0.1434886719469516</v>
+        <v>-0.0603448275862069</v>
       </c>
       <c r="K70" s="3">
-        <v>-0.187946750439281</v>
+        <v>-0.09743009210262957</v>
       </c>
       <c r="L70" s="3">
-        <v>-0.1950839536091396</v>
+        <v>-0.1829981718464351</v>
       </c>
       <c r="M70" s="3">
-        <v>-0.09245145358095082</v>
+        <v>-0.1618917731705342</v>
       </c>
       <c r="N70" s="3">
-        <v>-0.2048563611491107</v>
+        <v>-0.2627845595513031</v>
       </c>
       <c r="O70" s="3">
-        <v>-0.05365797266085064</v>
+        <v>-0.07485391963396509</v>
       </c>
       <c r="P70" s="3">
-        <v>-0.1401991020101159</v>
+        <v>-0.1296609326365819</v>
       </c>
       <c r="Q70" s="3">
-        <v>-0.1184192450238365</v>
+        <v>-0.1085633925168405</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5036,46 +5036,46 @@
         <v>231</v>
       </c>
       <c r="D71" s="1">
-        <v>224910926.6902743</v>
+        <v>235216326.36414</v>
       </c>
       <c r="E71" s="2">
-        <v>1.437667589797605</v>
+        <v>1.562761816194886</v>
       </c>
       <c r="F71" s="3">
-        <v>0.01976964070826884</v>
+        <v>-0.05118751607648121</v>
       </c>
       <c r="G71" s="3">
-        <v>0.02024301639350509</v>
+        <v>-0.1305745719837689</v>
       </c>
       <c r="H71" s="3">
-        <v>-0.1098439375750301</v>
+        <v>-0.04800412938747421</v>
       </c>
       <c r="I71" s="3">
-        <v>-0.0290701490524441</v>
+        <v>-0.1672769966999186</v>
       </c>
       <c r="J71" s="3">
-        <v>-0.1919907375876864</v>
+        <v>-0.06600270087778534</v>
       </c>
       <c r="K71" s="3">
-        <v>-0.2569224148621671</v>
+        <v>-0.07139318729831381</v>
       </c>
       <c r="L71" s="3">
-        <v>-0.2080635471597357</v>
+        <v>-0.1968355349107274</v>
       </c>
       <c r="M71" s="3">
-        <v>-0.05920581395179518</v>
+        <v>-0.1420852176803561</v>
       </c>
       <c r="N71" s="3">
-        <v>-0.2848704038577456</v>
+        <v>-0.3133531893770167</v>
       </c>
       <c r="O71" s="3">
-        <v>-0.07664023634796092</v>
+        <v>-0.08818410548505487</v>
       </c>
       <c r="P71" s="3">
-        <v>-0.1580641144069811</v>
+        <v>-0.1363298948320625</v>
       </c>
       <c r="Q71" s="3">
-        <v>-0.1099448269743867</v>
+        <v>-0.08723651513575331</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -5089,46 +5089,46 @@
         <v>232</v>
       </c>
       <c r="D72" s="1">
-        <v>22796830.7136</v>
+        <v>23854192.71342858</v>
       </c>
       <c r="E72" s="2">
-        <v>0.9506277999518876</v>
+        <v>0.9466543490513216</v>
       </c>
       <c r="F72" s="3">
-        <v>0.02157894736842101</v>
+        <v>0.0007543374402816758</v>
       </c>
       <c r="G72" s="3">
-        <v>0.03272756867344387</v>
+        <v>-0.002163290774328671</v>
       </c>
       <c r="H72" s="3">
-        <v>-0.04666011787819258</v>
+        <v>0.03726869950482157</v>
       </c>
       <c r="I72" s="3">
-        <v>-0.002507053368222774</v>
+        <v>0.003899794503757212</v>
       </c>
       <c r="J72" s="3">
-        <v>-0.09150479756611285</v>
+        <v>0.02922161882596336</v>
       </c>
       <c r="K72" s="3">
-        <v>-0.1195986791137663</v>
+        <v>0.01790744744937209</v>
       </c>
       <c r="L72" s="3">
-        <v>-0.1321260898725687</v>
+        <v>-0.07484890748489076</v>
       </c>
       <c r="M72" s="3">
-        <v>-0.05003880299716937</v>
+        <v>-0.06979799502740161</v>
       </c>
       <c r="N72" s="3">
-        <v>-0.2173387096774194</v>
+        <v>-0.1716961498439125</v>
       </c>
       <c r="O72" s="3">
-        <v>-0.04844785606045214</v>
+        <v>-0.04073071684882675</v>
       </c>
       <c r="P72" s="3">
-        <v>-0.08481874105546783</v>
+        <v>-0.03598064290086514</v>
       </c>
       <c r="Q72" s="3">
-        <v>-0.08922392240134425</v>
+        <v>-0.03800821592054451</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5142,46 +5142,46 @@
         <v>233</v>
       </c>
       <c r="D73" s="1">
-        <v>30966334.1988</v>
+        <v>22369751.83517143</v>
       </c>
       <c r="E73" s="2">
-        <v>1.298832203011229</v>
+        <v>1.33828831945982</v>
       </c>
       <c r="F73" s="3">
-        <v>0.004213483146067488</v>
+        <v>-0.01174033149171271</v>
       </c>
       <c r="G73" s="3">
-        <v>0.0004369752718865709</v>
+        <v>-0.00694782510616806</v>
       </c>
       <c r="H73" s="3">
-        <v>-0.04841124604891026</v>
+        <v>-0.0005238344683080539</v>
       </c>
       <c r="I73" s="3">
-        <v>-0.001685461929093249</v>
+        <v>-0.007276452808749861</v>
       </c>
       <c r="J73" s="3">
-        <v>-0.1145510835913313</v>
+        <v>-0.001047120418848125</v>
       </c>
       <c r="K73" s="3">
-        <v>-0.1311875735974527</v>
+        <v>-0.00244480327701612</v>
       </c>
       <c r="L73" s="3">
-        <v>-0.1789866513563944</v>
+        <v>-0.1323328785811733</v>
       </c>
       <c r="M73" s="3">
-        <v>-0.1065016397548606</v>
+        <v>-0.1129572463981285</v>
       </c>
       <c r="N73" s="3">
-        <v>-0.09493670886075957</v>
+        <v>-0.1082723165602118</v>
       </c>
       <c r="O73" s="3">
-        <v>-0.002003256119087782</v>
+        <v>-0.01421495927167175</v>
       </c>
       <c r="P73" s="3">
-        <v>-0.1007191743078101</v>
+        <v>-0.05761007083318995</v>
       </c>
       <c r="Q73" s="3">
-        <v>-0.07754594787094246</v>
+        <v>-0.04304757801102484</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5195,46 +5195,46 @@
         <v>234</v>
       </c>
       <c r="D74" s="1">
-        <v>5886381.192999999</v>
+        <v>6301778.68433</v>
       </c>
       <c r="E74" s="2">
-        <v>1.077007327738768</v>
+        <v>1.111452361289017</v>
       </c>
       <c r="F74" s="3">
-        <v>0.02277039848197333</v>
+        <v>-0.006855575868372981</v>
       </c>
       <c r="G74" s="3">
-        <v>0.01287289386071411</v>
+        <v>-0.009352865354195824</v>
       </c>
       <c r="H74" s="3">
-        <v>-0.0447496677004874</v>
+        <v>0.01970905678085407</v>
       </c>
       <c r="I74" s="3">
-        <v>-0.001154431271338717</v>
+        <v>-0.0002523602889851171</v>
       </c>
       <c r="J74" s="3">
-        <v>-0.1090909090909091</v>
+        <v>0.01875293014533526</v>
       </c>
       <c r="K74" s="3">
-        <v>-0.1181255829490826</v>
+        <v>0.0003059128409440798</v>
       </c>
       <c r="L74" s="3">
-        <v>-0.1755258126195029</v>
+        <v>-0.08659100462379149</v>
       </c>
       <c r="M74" s="3">
-        <v>-0.08036038606652827</v>
+        <v>-0.08449629829487695</v>
       </c>
       <c r="N74" s="3">
-        <v>-0.2182741116751269</v>
+        <v>-0.1972663465090506</v>
       </c>
       <c r="O74" s="3">
-        <v>-0.06033810704278948</v>
+        <v>-0.06427285699184138</v>
       </c>
       <c r="P74" s="3">
-        <v>-0.09924298450780544</v>
+        <v>-0.04692458182453639</v>
       </c>
       <c r="Q74" s="3">
-        <v>-0.09214699097374865</v>
+        <v>-0.04221915707670563</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -5248,46 +5248,46 @@
         <v>235</v>
       </c>
       <c r="D75" s="1">
-        <v>7572376.622271427</v>
+        <v>8711041.225200001</v>
       </c>
       <c r="E75" s="2">
-        <v>0.9976191846464114</v>
+        <v>1.049766308895161</v>
       </c>
       <c r="F75" s="3">
-        <v>-0.01677053824362603</v>
+        <v>-0.01528911369122878</v>
       </c>
       <c r="G75" s="3">
-        <v>-0.01998052738387233</v>
+        <v>-0.02909958280665679</v>
       </c>
       <c r="H75" s="3">
-        <v>-0.08576546201664736</v>
+        <v>-0.01517590250632325</v>
       </c>
       <c r="I75" s="3">
-        <v>-0.07451759808273536</v>
+        <v>-0.01727363754872382</v>
       </c>
       <c r="J75" s="3">
-        <v>-0.1537936415057539</v>
+        <v>-0.05012197826569083</v>
       </c>
       <c r="K75" s="3">
-        <v>-0.2248948648615001</v>
+        <v>-0.04711390592382089</v>
       </c>
       <c r="L75" s="3">
-        <v>-0.1626942005210846</v>
+        <v>-0.1445975634112242</v>
       </c>
       <c r="M75" s="3">
-        <v>-0.05217362689256003</v>
+        <v>-0.1321255242478755</v>
       </c>
       <c r="N75" s="3">
-        <v>-0.2024816176470589</v>
+        <v>-0.193939964242025</v>
       </c>
       <c r="O75" s="3">
-        <v>-0.02361545754459896</v>
+        <v>-0.03386944251761585</v>
       </c>
       <c r="P75" s="3">
-        <v>-0.1273276222698095</v>
+        <v>-0.08961971508584819</v>
       </c>
       <c r="Q75" s="3">
-        <v>-0.1276314892790865</v>
+        <v>-0.08537111005226442</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5301,46 +5301,46 @@
         <v>236</v>
       </c>
       <c r="D76" s="1">
-        <v>23293709.77229857</v>
+        <v>12376959.08228571</v>
       </c>
       <c r="E76" s="2">
-        <v>1.164056588375513</v>
+        <v>1.215567776049988</v>
       </c>
       <c r="F76" s="3">
-        <v>0.009857748939356115</v>
+        <v>-0.01927299341302754</v>
       </c>
       <c r="G76" s="3">
-        <v>0.00318132900165074</v>
+        <v>-0.03311060758956</v>
       </c>
       <c r="H76" s="3">
-        <v>-0.08667193319038476</v>
+        <v>-0.008142116950407032</v>
       </c>
       <c r="I76" s="3">
-        <v>-0.006451348034268332</v>
+        <v>-0.0162327134525268</v>
       </c>
       <c r="J76" s="3">
-        <v>-0.1431445209105347</v>
+        <v>-0.003223406893131619</v>
       </c>
       <c r="K76" s="3">
-        <v>-0.1769557269941824</v>
+        <v>-0.0008089343619513711</v>
       </c>
       <c r="L76" s="3">
-        <v>-0.1368387372013651</v>
+        <v>-0.145680586547657</v>
       </c>
       <c r="M76" s="3">
-        <v>-0.05032436298751694</v>
+        <v>-0.1066433095520277</v>
       </c>
       <c r="N76" s="3">
-        <v>-0.1053504311297811</v>
+        <v>-0.1078561917443409</v>
       </c>
       <c r="O76" s="3">
-        <v>-0.0007869294673704091</v>
+        <v>-0.005998394988683814</v>
       </c>
       <c r="P76" s="3">
-        <v>-0.077837397058649</v>
+        <v>-0.06987695857079383</v>
       </c>
       <c r="Q76" s="3">
-        <v>-0.0668673652431916</v>
+        <v>-0.05748503699058263</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -5354,46 +5354,46 @@
         <v>237</v>
       </c>
       <c r="D77" s="1">
-        <v>177934516.1508572</v>
+        <v>161965172.4222857</v>
       </c>
       <c r="E77" s="2">
-        <v>2.026149252802354</v>
+        <v>1.68517942983329</v>
       </c>
       <c r="F77" s="3">
-        <v>-0.01107871720116626</v>
+        <v>-0.02265925609234725</v>
       </c>
       <c r="G77" s="3">
-        <v>-0.01734900490922228</v>
+        <v>-0.04524813405279546</v>
       </c>
       <c r="H77" s="3">
-        <v>-0.04959372373213787</v>
+        <v>0.01195219123505969</v>
       </c>
       <c r="I77" s="3">
-        <v>-0.002447777222317335</v>
+        <v>-4.620594354530087E-05</v>
       </c>
       <c r="J77" s="3">
-        <v>-0.09942917828222494</v>
+        <v>0.01165363622953234</v>
       </c>
       <c r="K77" s="3">
-        <v>-0.1121735040779367</v>
+        <v>-6.393633971648657E-06</v>
       </c>
       <c r="L77" s="3">
-        <v>-0.1628825271470878</v>
+        <v>-0.07847352862133841</v>
       </c>
       <c r="M77" s="3">
-        <v>-0.06561264593834096</v>
+        <v>-0.07698595585638861</v>
       </c>
       <c r="N77" s="3">
-        <v>-0.002206206795117013</v>
+        <v>-0.2115428834214763</v>
       </c>
       <c r="O77" s="3">
-        <v>-0.02846398266562269</v>
+        <v>-0.07114995625182015</v>
       </c>
       <c r="P77" s="3">
-        <v>-0.04148082542378162</v>
+        <v>-0.06111704495459204</v>
       </c>
       <c r="Q77" s="3">
-        <v>-0.02047273929421031</v>
+        <v>-0.03626738130825522</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -5407,46 +5407,46 @@
         <v>238</v>
       </c>
       <c r="D78" s="1">
-        <v>4829712.757314285</v>
+        <v>4571619.341428571</v>
       </c>
       <c r="E78" s="2">
-        <v>0.7332546910862704</v>
+        <v>0.7741090909693512</v>
       </c>
       <c r="F78" s="3">
-        <v>0.01725154821586543</v>
+        <v>-0.02312221743501365</v>
       </c>
       <c r="G78" s="3">
-        <v>0.01984150082212755</v>
+        <v>-0.0735909733328689</v>
       </c>
       <c r="H78" s="3">
-        <v>-0.0532455056950735</v>
+        <v>-0.01348803480783173</v>
       </c>
       <c r="I78" s="3">
-        <v>-0.0008533179870620335</v>
+        <v>-0.02152162447135602</v>
       </c>
       <c r="J78" s="3">
-        <v>-0.08294563339093448</v>
+        <v>-0.006862315666520553</v>
       </c>
       <c r="K78" s="3">
-        <v>-0.09424380752029618</v>
+        <v>-0.001016678210297458</v>
       </c>
       <c r="L78" s="3">
-        <v>-0.1257128374097073</v>
+        <v>-0.08746981486450219</v>
       </c>
       <c r="M78" s="3">
-        <v>-0.05500903507113197</v>
+        <v>-0.06759545667455796</v>
       </c>
       <c r="N78" s="3">
-        <v>-0.10297750617605</v>
+        <v>-0.104174897932306</v>
       </c>
       <c r="O78" s="3">
-        <v>-0.01174194468849751</v>
+        <v>-0.02296965955513477</v>
       </c>
       <c r="P78" s="3">
-        <v>-0.07462642129571408</v>
+        <v>-0.07059321500371343</v>
       </c>
       <c r="Q78" s="3">
-        <v>-0.1017742159755702</v>
+        <v>-0.09119285101705178</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -5460,46 +5460,46 @@
         <v>239</v>
       </c>
       <c r="D79" s="1">
-        <v>9784121.799642857</v>
+        <v>9269824.463914284</v>
       </c>
       <c r="E79" s="2">
-        <v>1.163037275488056</v>
+        <v>1.228490763964769</v>
       </c>
       <c r="F79" s="3">
-        <v>-0.005995203836930461</v>
+        <v>-0.0435399905347846</v>
       </c>
       <c r="G79" s="3">
-        <v>9.265495515858265E-05</v>
+        <v>-0.1305178616680175</v>
       </c>
       <c r="H79" s="3">
-        <v>-0.08194905869324481</v>
+        <v>-0.02953181272508998</v>
       </c>
       <c r="I79" s="3">
-        <v>-0.01838553076211099</v>
+        <v>-0.03607423017836103</v>
       </c>
       <c r="J79" s="3">
-        <v>-0.1103241038849539</v>
+        <v>-0.03830597192481561</v>
       </c>
       <c r="K79" s="3">
-        <v>-0.1463195794306645</v>
+        <v>-0.01351808536669718</v>
       </c>
       <c r="L79" s="3">
-        <v>-0.1182727079344821</v>
+        <v>-0.08984462958793063</v>
       </c>
       <c r="M79" s="3">
-        <v>-0.02307736673994538</v>
+        <v>-0.08135875094528865</v>
       </c>
       <c r="N79" s="3">
-        <v>-0.09299781181619264</v>
+        <v>-0.1425540941875265</v>
       </c>
       <c r="O79" s="3">
-        <v>-0.006086794270900504</v>
+        <v>-0.01679819620473972</v>
       </c>
       <c r="P79" s="3">
-        <v>-0.05803758927806901</v>
+        <v>-0.1059383063066531</v>
       </c>
       <c r="Q79" s="3">
-        <v>-0.04990174476885459</v>
+        <v>-0.0862345158906634</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -5513,46 +5513,46 @@
         <v>240</v>
       </c>
       <c r="D80" s="1">
-        <v>201008419.8184286</v>
+        <v>138008981.6120043</v>
       </c>
       <c r="E80" s="2">
-        <v>1.945884035489141</v>
+        <v>1.928699865710544</v>
       </c>
       <c r="F80" s="3">
-        <v>-0.02735156771180782</v>
+        <v>0.03557338682714824</v>
       </c>
       <c r="G80" s="3">
-        <v>-0.1920594287283183</v>
+        <v>0.1151630068558449</v>
       </c>
       <c r="H80" s="3">
-        <v>-0.1125989044430918</v>
+        <v>0.06498418374363921</v>
       </c>
       <c r="I80" s="3">
-        <v>-0.1381281669735305</v>
+        <v>0.07913976328621677</v>
       </c>
       <c r="J80" s="3">
-        <v>-0.1549295774647886</v>
+        <v>0.02177211849310548</v>
       </c>
       <c r="K80" s="3">
-        <v>-0.2618993454298045</v>
+        <v>0.0003254045591887454</v>
       </c>
       <c r="L80" s="3">
-        <v>-0.05637175587340622</v>
+        <v>-0.1135088723526044</v>
       </c>
       <c r="M80" s="3">
-        <v>-0.0180104416060989</v>
+        <v>-0.08573168299385542</v>
       </c>
       <c r="N80" s="3">
-        <v>0.0631471488989354</v>
+        <v>0.09619195922989822</v>
       </c>
       <c r="O80" s="3">
-        <v>0.02947110825778031</v>
+        <v>0.00574636858128556</v>
       </c>
       <c r="P80" s="3">
-        <v>-0.1050349351672086</v>
+        <v>0.04825868189454349</v>
       </c>
       <c r="Q80" s="3">
-        <v>-0.05397800344294706</v>
+        <v>0.02502135389363171</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5566,46 +5566,46 @@
         <v>241</v>
       </c>
       <c r="D81" s="1">
-        <v>265381493.5932857</v>
+        <v>292642349.442</v>
       </c>
       <c r="E81" s="2">
-        <v>0.875474347011034</v>
+        <v>0.9239731629981478</v>
       </c>
       <c r="F81" s="3">
-        <v>0.0103983963918817</v>
+        <v>-0.002125797173940132</v>
       </c>
       <c r="G81" s="3">
-        <v>0.001945808264509099</v>
+        <v>0.0003479973770662568</v>
       </c>
       <c r="H81" s="3">
-        <v>-0.02702376643744719</v>
+        <v>-0.01090728805156163</v>
       </c>
       <c r="I81" s="3">
-        <v>-0.0001030253234280383</v>
+        <v>-0.03790453451633002</v>
       </c>
       <c r="J81" s="3">
-        <v>-0.08735996378861609</v>
+        <v>-0.01249845316173741</v>
       </c>
       <c r="K81" s="3">
-        <v>-0.09516053120333391</v>
+        <v>-0.01765179497694916</v>
       </c>
       <c r="L81" s="3">
-        <v>-0.1113926840017629</v>
+        <v>-0.1122483034820336</v>
       </c>
       <c r="M81" s="3">
-        <v>-0.05188674757465579</v>
+        <v>-0.1016720651834299</v>
       </c>
       <c r="N81" s="3">
-        <v>-0.1175183280446439</v>
+        <v>-0.119205298013245</v>
       </c>
       <c r="O81" s="3">
-        <v>-0.01437570615128161</v>
+        <v>-0.0263845683125891</v>
       </c>
       <c r="P81" s="3">
-        <v>-0.07352363938899485</v>
+        <v>-0.05966193008018954</v>
       </c>
       <c r="Q81" s="3">
-        <v>-0.08398148916643036</v>
+        <v>-0.06457106382462012</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5619,46 +5619,46 @@
         <v>242</v>
       </c>
       <c r="D82" s="1">
-        <v>11145969.16097143</v>
+        <v>10107038.9568</v>
       </c>
       <c r="E82" s="2">
-        <v>1.202136863146916</v>
+        <v>1.219742109092553</v>
       </c>
       <c r="F82" s="3">
-        <v>-0.005230622919638564</v>
+        <v>-0.02133712660028451</v>
       </c>
       <c r="G82" s="3">
-        <v>-0.007616244121957056</v>
+        <v>-0.03544860761979239</v>
       </c>
       <c r="H82" s="3">
-        <v>-0.08406304728546408</v>
+        <v>-0.01432664756446993</v>
       </c>
       <c r="I82" s="3">
-        <v>-0.03573778460973582</v>
+        <v>-0.03229041925988633</v>
       </c>
       <c r="J82" s="3">
-        <v>-0.1250522793810122</v>
+        <v>-0.03776223776223774</v>
       </c>
       <c r="K82" s="3">
-        <v>-0.1787376278904987</v>
+        <v>-0.03976452684399173</v>
       </c>
       <c r="L82" s="3">
-        <v>-0.1645367412140576</v>
+        <v>-0.1540983606557377</v>
       </c>
       <c r="M82" s="3">
-        <v>-0.07154817103111395</v>
+        <v>-0.1328738206673641</v>
       </c>
       <c r="N82" s="3">
-        <v>-0.1815336463223787</v>
+        <v>-0.175389532560927</v>
       </c>
       <c r="O82" s="3">
-        <v>-0.02090612093779649</v>
+        <v>-0.03353653739301109</v>
       </c>
       <c r="P82" s="3">
-        <v>-0.1251428994608063</v>
+        <v>-0.08631917375567791</v>
       </c>
       <c r="Q82" s="3">
-        <v>-0.104100376003121</v>
+        <v>-0.07076838055537529</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5672,46 +5672,46 @@
         <v>243</v>
       </c>
       <c r="D83" s="1">
-        <v>16748436.37654629</v>
+        <v>17468055.50929857</v>
       </c>
       <c r="E83" s="2">
-        <v>1.204451944945019</v>
+        <v>1.201651527211977</v>
       </c>
       <c r="F83" s="3">
-        <v>0.0009380863039399514</v>
+        <v>-0.009483022330988133</v>
       </c>
       <c r="G83" s="3">
-        <v>0.0003899893841705685</v>
+        <v>-0.01404585894334116</v>
       </c>
       <c r="H83" s="3">
-        <v>-0.09729272419627756</v>
+        <v>0.006840796019900461</v>
       </c>
       <c r="I83" s="3">
-        <v>-0.04690935111836322</v>
+        <v>-0.000413213629923802</v>
       </c>
       <c r="J83" s="3">
-        <v>-0.1582960820404944</v>
+        <v>-0.009785932721712512</v>
       </c>
       <c r="K83" s="3">
-        <v>-0.2288974961925099</v>
+        <v>-0.0001988309254054338</v>
       </c>
       <c r="L83" s="3">
-        <v>-0.2167849278199169</v>
+        <v>-0.1825296642262055</v>
       </c>
       <c r="M83" s="3">
-        <v>-0.1203256053742661</v>
+        <v>-0.1620433599540421</v>
       </c>
       <c r="N83" s="3">
-        <v>-0.2078693392724574</v>
+        <v>-0.2277605533031242</v>
       </c>
       <c r="O83" s="3">
-        <v>-0.03834232450297349</v>
+        <v>-0.06438823666268199</v>
       </c>
       <c r="P83" s="3">
-        <v>-0.1640974723233617</v>
+        <v>-0.08804460944869162</v>
       </c>
       <c r="Q83" s="3">
-        <v>-0.1362424403996064</v>
+        <v>-0.07326966883067101</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5725,46 +5725,46 @@
         <v>244</v>
       </c>
       <c r="D84" s="1">
-        <v>129033833.1481714</v>
+        <v>157341589.9534286</v>
       </c>
       <c r="E84" s="2">
-        <v>1.38043166261634</v>
+        <v>1.500644819539965</v>
       </c>
       <c r="F84" s="3">
-        <v>0.01668891855807738</v>
+        <v>-0.02012537116463212</v>
       </c>
       <c r="G84" s="3">
-        <v>2.343076634945125E-05</v>
+        <v>-0.008555702925173894</v>
       </c>
       <c r="H84" s="3">
-        <v>-0.2007347152978221</v>
+        <v>-0.03602726387536507</v>
       </c>
       <c r="I84" s="3">
-        <v>-0.03182774850620863</v>
+        <v>-0.08671390184148675</v>
       </c>
       <c r="J84" s="3">
-        <v>-0.2644288819125816</v>
+        <v>-0.02622950819672119</v>
       </c>
       <c r="K84" s="3">
-        <v>-0.3879145376271274</v>
+        <v>-0.03740464497894701</v>
       </c>
       <c r="L84" s="3">
-        <v>-0.3053591790193843</v>
+        <v>-0.2960417160464565</v>
       </c>
       <c r="M84" s="3">
-        <v>-0.1603908957354147</v>
+        <v>-0.2651618365547799</v>
       </c>
       <c r="N84" s="3">
-        <v>-0.3296654929577464</v>
+        <v>-0.3421926910299002</v>
       </c>
       <c r="O84" s="3">
-        <v>-0.0543003383089713</v>
+        <v>-0.09555232750058652</v>
       </c>
       <c r="P84" s="3">
-        <v>-0.2450281943465806</v>
+        <v>-0.1512832407668634</v>
       </c>
       <c r="Q84" s="3">
-        <v>-0.1775011403912434</v>
+        <v>-0.100812156745552</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5778,46 +5778,46 @@
         <v>245</v>
       </c>
       <c r="D85" s="1">
-        <v>30100193.34571429</v>
+        <v>29594619.00985714</v>
       </c>
       <c r="E85" s="2">
-        <v>0.9331399687573438</v>
+        <v>0.9341426693251504</v>
       </c>
       <c r="F85" s="3">
-        <v>0.0124223602484472</v>
+        <v>0.007011866235167217</v>
       </c>
       <c r="G85" s="3">
-        <v>0.0100257694764937</v>
+        <v>-0.0003958690910379139</v>
       </c>
       <c r="H85" s="3">
-        <v>-0.02326401127952062</v>
+        <v>0.01688453159041394</v>
       </c>
       <c r="I85" s="3">
-        <v>-0.0003308330791604734</v>
+        <v>-0.001816351033308703</v>
       </c>
       <c r="J85" s="3">
-        <v>-0.09281388115894584</v>
+        <v>0.01522566612289281</v>
       </c>
       <c r="K85" s="3">
-        <v>-0.1061712856182972</v>
+        <v>-3.737783619846244E-07</v>
       </c>
       <c r="L85" s="3">
-        <v>-0.09192200557103063</v>
+        <v>-0.06650000000000003</v>
       </c>
       <c r="M85" s="3">
-        <v>-0.02602645293984497</v>
+        <v>-0.07804163529469087</v>
       </c>
       <c r="N85" s="3">
-        <v>-0.1293008641005498</v>
+        <v>-0.1175358437056877</v>
       </c>
       <c r="O85" s="3">
-        <v>-0.02360445780049971</v>
+        <v>-0.0268701395516743</v>
       </c>
       <c r="P85" s="3">
-        <v>-0.06609886927907106</v>
+        <v>-0.03921875219286439</v>
       </c>
       <c r="Q85" s="3">
-        <v>-0.07083489239786232</v>
+        <v>-0.04198368566248779</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5831,46 +5831,46 @@
         <v>246</v>
       </c>
       <c r="D86" s="1">
-        <v>97110839.68114287</v>
+        <v>110281129.008</v>
       </c>
       <c r="E86" s="2">
-        <v>1.3240425291369</v>
+        <v>1.351537153753862</v>
       </c>
       <c r="F86" s="3">
-        <v>-0.01815541031227299</v>
+        <v>-0.008178438661709963</v>
       </c>
       <c r="G86" s="3">
-        <v>-0.02931239630243559</v>
+        <v>-0.02408568371784169</v>
       </c>
       <c r="H86" s="3">
-        <v>-0.09383378016085785</v>
+        <v>-0.01911764705882354</v>
       </c>
       <c r="I86" s="3">
-        <v>-0.04974792139896004</v>
+        <v>-0.06182014889584436</v>
       </c>
       <c r="J86" s="3">
-        <v>-0.1592039800995025</v>
+        <v>-0.03959683225341968</v>
       </c>
       <c r="K86" s="3">
-        <v>-0.2238506681514781</v>
+        <v>-0.06562733894593389</v>
       </c>
       <c r="L86" s="3">
-        <v>-0.2004730928444707</v>
+        <v>-0.1641604010025063</v>
       </c>
       <c r="M86" s="3">
-        <v>-0.08375262949694318</v>
+        <v>-0.1787597561312916</v>
       </c>
       <c r="N86" s="3">
-        <v>-0.1990521327014217</v>
+        <v>-0.2226107226107226</v>
       </c>
       <c r="O86" s="3">
-        <v>-0.03824361417965205</v>
+        <v>-0.06467479817914262</v>
       </c>
       <c r="P86" s="3">
-        <v>-0.1414023810991825</v>
+        <v>-0.1221935475386128</v>
       </c>
       <c r="Q86" s="3">
-        <v>-0.1067959510268587</v>
+        <v>-0.09041079425691195</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5884,46 +5884,46 @@
         <v>247</v>
       </c>
       <c r="D87" s="1">
-        <v>13911633.21957143</v>
+        <v>12457349.19628572</v>
       </c>
       <c r="E87" s="2">
-        <v>1.163104487713325</v>
+        <v>1.14633518913669</v>
       </c>
       <c r="F87" s="3">
-        <v>0.00961153384060881</v>
+        <v>-0.01894238358326758</v>
       </c>
       <c r="G87" s="3">
-        <v>0.0001581969946308734</v>
+        <v>-0.07587712501521546</v>
       </c>
       <c r="H87" s="3">
-        <v>-0.032988108937476</v>
+        <v>-0.003207698476343298</v>
       </c>
       <c r="I87" s="3">
-        <v>-0.0001824724856173761</v>
+        <v>-0.01269536208396092</v>
       </c>
       <c r="J87" s="3">
-        <v>-0.07384276267450397</v>
+        <v>-0.01388337961126543</v>
       </c>
       <c r="K87" s="3">
-        <v>-0.09002703161631763</v>
+        <v>-0.002980601888341194</v>
       </c>
       <c r="L87" s="3">
-        <v>-0.1596666666666667</v>
+        <v>-0.1134094151212553</v>
       </c>
       <c r="M87" s="3">
-        <v>-0.08980602832613849</v>
+        <v>-0.08312925805878904</v>
       </c>
       <c r="N87" s="3">
-        <v>-0.133379168099003</v>
+        <v>-0.2047344849648113</v>
       </c>
       <c r="O87" s="3">
-        <v>-0.04548428403828909</v>
+        <v>-0.05882209891275735</v>
       </c>
       <c r="P87" s="3">
-        <v>-0.08991652997122807</v>
+        <v>-0.07950319153700225</v>
       </c>
       <c r="Q87" s="3">
-        <v>-0.07730735365659615</v>
+        <v>-0.06935422753346378</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5937,46 +5937,46 @@
         <v>248</v>
       </c>
       <c r="D88" s="1">
-        <v>26923722.0684</v>
+        <v>27951214.26884572</v>
       </c>
       <c r="E88" s="2">
-        <v>1.591353301183041</v>
+        <v>1.665576199483117</v>
       </c>
       <c r="F88" s="3">
-        <v>-0.01114542768900225</v>
+        <v>-0.06410256410256408</v>
       </c>
       <c r="G88" s="3">
-        <v>-0.007763256417414744</v>
+        <v>-0.1278197672719765</v>
       </c>
       <c r="H88" s="3">
-        <v>-0.08759757155247189</v>
+        <v>-0.05220449012713013</v>
       </c>
       <c r="I88" s="3">
-        <v>-0.05127636289725367</v>
+        <v>-0.1491568449368053</v>
       </c>
       <c r="J88" s="3">
-        <v>-0.1391162029459903</v>
+        <v>-0.08344232278315455</v>
       </c>
       <c r="K88" s="3">
-        <v>-0.2058603945941081</v>
+        <v>-0.08090990230243321</v>
       </c>
       <c r="L88" s="3">
-        <v>-0.1463018780431255</v>
+        <v>-0.1488948263298518</v>
       </c>
       <c r="M88" s="3">
-        <v>-0.03175192087259628</v>
+        <v>-0.1122783742714289</v>
       </c>
       <c r="N88" s="3">
-        <v>-0.2489546149923509</v>
+        <v>-0.2531173398699775</v>
       </c>
       <c r="O88" s="3">
-        <v>-0.04453771452654039</v>
+        <v>-0.04457742693195336</v>
       </c>
       <c r="P88" s="3">
-        <v>-0.1188061577333522</v>
+        <v>-0.1200490707717027</v>
       </c>
       <c r="Q88" s="3">
-        <v>-0.0746573106330502</v>
+        <v>-0.0720766007637224</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5990,46 +5990,46 @@
         <v>249</v>
       </c>
       <c r="D89" s="1">
-        <v>5463546.546857143</v>
+        <v>4844793.154714285</v>
       </c>
       <c r="E89" s="2">
-        <v>1.068165787368186</v>
+        <v>1.117753420447871</v>
       </c>
       <c r="F89" s="3">
-        <v>0.002200220022002162</v>
+        <v>-0.02519167579408529</v>
       </c>
       <c r="G89" s="3">
-        <v>-5.953969290815452E-05</v>
+        <v>-0.06845485649018766</v>
       </c>
       <c r="H89" s="3">
-        <v>-0.05301455301455314</v>
+        <v>-0.021978021978022</v>
       </c>
       <c r="I89" s="3">
-        <v>-0.003690313224690757</v>
+        <v>-0.04944428049888593</v>
       </c>
       <c r="J89" s="3">
-        <v>-0.09323158593231591</v>
+        <v>-0.021978021978022</v>
       </c>
       <c r="K89" s="3">
-        <v>-0.1186388840990438</v>
+        <v>-0.01894881554809213</v>
       </c>
       <c r="L89" s="3">
-        <v>-0.1109303838646715</v>
+        <v>-0.08966928060006815</v>
       </c>
       <c r="M89" s="3">
-        <v>-0.03164520686820602</v>
+        <v>-0.08376036168856328</v>
       </c>
       <c r="N89" s="3">
-        <v>-0.1705614567526556</v>
+        <v>-0.1777024946104095</v>
       </c>
       <c r="O89" s="3">
-        <v>-0.03901157609792882</v>
+        <v>-0.04413370365555122</v>
       </c>
       <c r="P89" s="3">
-        <v>-0.07514204548362491</v>
+        <v>-0.07610760908937547</v>
       </c>
       <c r="Q89" s="3">
-        <v>-0.07034680044262101</v>
+        <v>-0.06808980200559801</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -6043,46 +6043,46 @@
         <v>250</v>
       </c>
       <c r="D90" s="1">
-        <v>7872443.020928572</v>
+        <v>8068411.809914286</v>
       </c>
       <c r="E90" s="2">
-        <v>1.094359505440626</v>
+        <v>1.159750856450255</v>
       </c>
       <c r="F90" s="3">
-        <v>0.01054018445322805</v>
+        <v>-0.02570694087403584</v>
       </c>
       <c r="G90" s="3">
-        <v>0.002959213497920384</v>
+        <v>-0.07240546090950954</v>
       </c>
       <c r="H90" s="3">
-        <v>-0.1029239766081872</v>
+        <v>-0.01044386422976495</v>
       </c>
       <c r="I90" s="3">
-        <v>-0.04818537686372072</v>
+        <v>-0.01780305058067506</v>
       </c>
       <c r="J90" s="3">
-        <v>-0.146829810901001</v>
+        <v>-0.01558441558441549</v>
       </c>
       <c r="K90" s="3">
-        <v>-0.2312819904330515</v>
+        <v>-0.002113400571508601</v>
       </c>
       <c r="L90" s="3">
-        <v>-0.1303854875283446</v>
+        <v>-0.1040189125295507</v>
       </c>
       <c r="M90" s="3">
-        <v>-0.02223860020525846</v>
+        <v>-0.08984610618167807</v>
       </c>
       <c r="N90" s="3">
-        <v>-0.1081395348837208</v>
+        <v>-0.1124121779859484</v>
       </c>
       <c r="O90" s="3">
-        <v>-0.001118041455372922</v>
+        <v>-0.007957459616199933</v>
       </c>
       <c r="P90" s="3">
-        <v>-0.06518906754448964</v>
+        <v>-0.0811257835455938</v>
       </c>
       <c r="Q90" s="3">
-        <v>-0.05956823806107692</v>
+        <v>-0.06995104430782846</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -6096,46 +6096,46 @@
         <v>251</v>
       </c>
       <c r="D91" s="1">
-        <v>12105176.304</v>
+        <v>12236140.0512</v>
       </c>
       <c r="E91" s="2">
-        <v>0.9373726725032551</v>
+        <v>0.9504129021354942</v>
       </c>
       <c r="F91" s="3">
-        <v>-0.005780346820809253</v>
+        <v>-0.008755234107346665</v>
       </c>
       <c r="G91" s="3">
-        <v>-3.84178362502351E-06</v>
+        <v>-0.02072361638089711</v>
       </c>
       <c r="H91" s="3">
-        <v>-0.06453952139231321</v>
+        <v>0.006182380216383485</v>
       </c>
       <c r="I91" s="3">
-        <v>-0.01358168741270806</v>
+        <v>-0.003192591487016816</v>
       </c>
       <c r="J91" s="3">
-        <v>-0.1230455472467709</v>
+        <v>-0.005347593582887536</v>
       </c>
       <c r="K91" s="3">
-        <v>-0.1554132935618208</v>
+        <v>-0.002096692585416626</v>
       </c>
       <c r="L91" s="3">
-        <v>-0.1725465041693394</v>
+        <v>-0.09363035154890352</v>
       </c>
       <c r="M91" s="3">
-        <v>-0.0743012467265101</v>
+        <v>-0.1074686239024038</v>
       </c>
       <c r="N91" s="3">
-        <v>-0.1661279896574014</v>
+        <v>-0.169642857142857</v>
       </c>
       <c r="O91" s="3">
-        <v>-0.02920932857079979</v>
+        <v>-0.04009893091687191</v>
       </c>
       <c r="P91" s="3">
-        <v>-0.1148572701441655</v>
+        <v>-0.06409612014165046</v>
       </c>
       <c r="Q91" s="3">
-        <v>-0.1225310631655593</v>
+        <v>-0.06744028831851095</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -6149,46 +6149,46 @@
         <v>252</v>
       </c>
       <c r="D92" s="1">
-        <v>14096017.83828571</v>
+        <v>13503207.90971429</v>
       </c>
       <c r="E92" s="2">
-        <v>1.313436256041759</v>
+        <v>1.408060712745388</v>
       </c>
       <c r="F92" s="3">
-        <v>0.005807200929152154</v>
+        <v>-0.04675028506271384</v>
       </c>
       <c r="G92" s="3">
-        <v>2.189322835446151E-05</v>
+        <v>-0.1526831117145014</v>
       </c>
       <c r="H92" s="3">
-        <v>-0.0693175711982805</v>
+        <v>-0.02050380785002937</v>
       </c>
       <c r="I92" s="3">
-        <v>-0.0008652547452602164</v>
+        <v>-0.04555539116824312</v>
       </c>
       <c r="J92" s="3">
-        <v>-0.1011935651271407</v>
+        <v>-0.04018369690011485</v>
       </c>
       <c r="K92" s="3">
-        <v>-0.1295300368167018</v>
+        <v>-0.01184437402822552</v>
       </c>
       <c r="L92" s="3">
-        <v>-0.2007383479464697</v>
+        <v>-0.1538461538461539</v>
       </c>
       <c r="M92" s="3">
-        <v>-0.103024525852954</v>
+        <v>-0.08776367401519948</v>
       </c>
       <c r="N92" s="3">
-        <v>-0.2309058614564831</v>
+        <v>-0.2365296803652968</v>
       </c>
       <c r="O92" s="3">
-        <v>-0.06215567874365607</v>
+        <v>-0.06894875541428436</v>
       </c>
       <c r="P92" s="3">
-        <v>-0.1162772813348279</v>
+        <v>-0.1202233928648504</v>
       </c>
       <c r="Q92" s="3">
-        <v>-0.08852906321106688</v>
+        <v>-0.08538225076278352</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -6202,46 +6202,46 @@
         <v>253</v>
       </c>
       <c r="D93" s="1">
-        <v>155432042.9006571</v>
+        <v>156255389.5327857</v>
       </c>
       <c r="E93" s="2">
-        <v>1.463849671364463</v>
+        <v>1.394266546004387</v>
       </c>
       <c r="F93" s="3">
-        <v>0.01835317460317465</v>
+        <v>0.004394531249999923</v>
       </c>
       <c r="G93" s="3">
-        <v>0.00169298140775025</v>
+        <v>-0.006200926379916247</v>
       </c>
       <c r="H93" s="3">
-        <v>-0.02793560606060601</v>
+        <v>0.008333333333333368</v>
       </c>
       <c r="I93" s="3">
-        <v>-0.0001474799118068458</v>
+        <v>-0.006445781393915492</v>
       </c>
       <c r="J93" s="3">
-        <v>-0.1207708779443255</v>
+        <v>-0.0004859086491740366</v>
       </c>
       <c r="K93" s="3">
-        <v>-0.1253552693858015</v>
+        <v>-0.001536842800640747</v>
       </c>
       <c r="L93" s="3">
-        <v>-0.1495443247721624</v>
+        <v>-0.107592190889371</v>
       </c>
       <c r="M93" s="3">
-        <v>-0.06072059501678546</v>
+        <v>-0.1276348349000054</v>
       </c>
       <c r="N93" s="3">
-        <v>-0.1370323665405632</v>
+        <v>-0.1692245557350565</v>
       </c>
       <c r="O93" s="3">
-        <v>-0.02007660715293854</v>
+        <v>-0.03094503126835486</v>
       </c>
       <c r="P93" s="3">
-        <v>-0.09303793220129349</v>
+        <v>-0.06691788063996085</v>
       </c>
       <c r="Q93" s="3">
-        <v>-0.06355702639504798</v>
+        <v>-0.0479950414300124</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -6255,46 +6255,46 @@
         <v>254</v>
       </c>
       <c r="D94" s="1">
-        <v>112855989.3485714</v>
+        <v>115274206.552</v>
       </c>
       <c r="E94" s="2">
-        <v>0.9578624042733608</v>
+        <v>0.9645801395973014</v>
       </c>
       <c r="F94" s="3">
-        <v>0.002794952147031377</v>
+        <v>-0.006504336224149531</v>
       </c>
       <c r="G94" s="3">
-        <v>1.379949828143353E-05</v>
+        <v>-0.003019307959232939</v>
       </c>
       <c r="H94" s="3">
-        <v>-0.04769564867690822</v>
+        <v>0.006080054044924774</v>
       </c>
       <c r="I94" s="3">
-        <v>-0.009418636634531937</v>
+        <v>-0.004606344324639436</v>
       </c>
       <c r="J94" s="3">
-        <v>-0.1086350974930362</v>
+        <v>0.005570560432140357</v>
       </c>
       <c r="K94" s="3">
-        <v>-0.1379005054274177</v>
+        <v>-0.001673262886568759</v>
       </c>
       <c r="L94" s="3">
-        <v>-0.1188509339882414</v>
+        <v>-0.07081578536889717</v>
       </c>
       <c r="M94" s="3">
-        <v>-0.02649142732853471</v>
+        <v>-0.0996054519180409</v>
       </c>
       <c r="N94" s="3">
-        <v>-0.1298596310722422</v>
+        <v>-0.1210623386204353</v>
       </c>
       <c r="O94" s="3">
-        <v>-0.01410189246874186</v>
+        <v>-0.02185666641756854</v>
       </c>
       <c r="P94" s="3">
-        <v>-0.07817552920038845</v>
+        <v>-0.05131237993863692</v>
       </c>
       <c r="Q94" s="3">
-        <v>-0.08161457099852749</v>
+        <v>-0.05319659594075731</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -6308,46 +6308,46 @@
         <v>255</v>
       </c>
       <c r="D95" s="1">
-        <v>35871047.29228571</v>
+        <v>34148382.138</v>
       </c>
       <c r="E95" s="2">
-        <v>1.010559824921621</v>
+        <v>1.016480095843505</v>
       </c>
       <c r="F95" s="3">
-        <v>-0.004492699363534261</v>
+        <v>-0.002070003763643229</v>
       </c>
       <c r="G95" s="3">
-        <v>-0.001651118219221326</v>
+        <v>-0.0007182111963154024</v>
       </c>
       <c r="H95" s="3">
-        <v>-0.02529325513196495</v>
+        <v>-0.004318437852046506</v>
       </c>
       <c r="I95" s="3">
-        <v>-0.00851579643346527</v>
+        <v>-0.02691804769438489</v>
       </c>
       <c r="J95" s="3">
-        <v>-0.09480851063829794</v>
+        <v>-0.01687059695958476</v>
       </c>
       <c r="K95" s="3">
-        <v>-0.1029943166047702</v>
+        <v>-0.0270832627091198</v>
       </c>
       <c r="L95" s="3">
-        <v>-0.1211370021484053</v>
+        <v>-0.1149866488651535</v>
       </c>
       <c r="M95" s="3">
-        <v>-0.04949745514966773</v>
+        <v>-0.1026289548839248</v>
       </c>
       <c r="N95" s="3">
-        <v>-0.140455794407629</v>
+        <v>-0.1293712034148744</v>
       </c>
       <c r="O95" s="3">
-        <v>-0.02565464887839305</v>
+        <v>-0.03599789698064876</v>
       </c>
       <c r="P95" s="3">
-        <v>-0.07624588587721898</v>
+        <v>-0.06485610879652229</v>
       </c>
       <c r="Q95" s="3">
-        <v>-0.07544915599938143</v>
+        <v>-0.06380460282668178</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -6361,46 +6361,46 @@
         <v>256</v>
       </c>
       <c r="D96" s="1">
-        <v>7049900.782671428</v>
+        <v>7352644.155750001</v>
       </c>
       <c r="E96" s="2">
-        <v>1.224712216937478</v>
+        <v>1.232024292936506</v>
       </c>
       <c r="F96" s="3">
-        <v>-0.003581526861451511</v>
+        <v>-0.004461795872838765</v>
       </c>
       <c r="G96" s="3">
-        <v>-0.001075902745130196</v>
+        <v>-0.002182727953035517</v>
       </c>
       <c r="H96" s="3">
-        <v>-0.09979564032697555</v>
+        <v>0.01037735849056607</v>
       </c>
       <c r="I96" s="3">
-        <v>-0.04355876655053426</v>
+        <v>-0.0002972773473109567</v>
       </c>
       <c r="J96" s="3">
-        <v>-0.1589498806682579</v>
+        <v>-0.01162790697674416</v>
       </c>
       <c r="K96" s="3">
-        <v>-0.2326630877538736</v>
+        <v>-0.001528706628249647</v>
       </c>
       <c r="L96" s="3">
-        <v>-0.1706934421085662</v>
+        <v>-0.1080946035976016</v>
       </c>
       <c r="M96" s="3">
-        <v>-0.0449712537366479</v>
+        <v>-0.1173539756447541</v>
       </c>
       <c r="N96" s="3">
-        <v>-0.1938386457221291</v>
+        <v>-0.1737386205832434</v>
       </c>
       <c r="O96" s="3">
-        <v>-0.02539901156845185</v>
+        <v>-0.03997843148876618</v>
       </c>
       <c r="P96" s="3">
-        <v>-0.1194049497293885</v>
+        <v>-0.05976835179889482</v>
       </c>
       <c r="Q96" s="3">
-        <v>-0.09749633267150151</v>
+        <v>-0.04851231598399583</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -6414,46 +6414,46 @@
         <v>257</v>
       </c>
       <c r="D97" s="1">
-        <v>29001198.05185714</v>
+        <v>29912694.623</v>
       </c>
       <c r="E97" s="2">
-        <v>1.161469661679262</v>
+        <v>1.25409745501591</v>
       </c>
       <c r="F97" s="3">
-        <v>0</v>
+        <v>-0.02923760177646195</v>
       </c>
       <c r="G97" s="3">
-        <v>-1.562202209972343E-09</v>
+        <v>-0.08968395853928343</v>
       </c>
       <c r="H97" s="3">
-        <v>-0.09946416610850639</v>
+        <v>-0.0252694165737645</v>
       </c>
       <c r="I97" s="3">
-        <v>-0.04099744427292215</v>
+        <v>-0.06940755802140476</v>
       </c>
       <c r="J97" s="3">
-        <v>-0.1651660974852531</v>
+        <v>-0.0356617647058825</v>
       </c>
       <c r="K97" s="3">
-        <v>-0.2334743562402316</v>
+        <v>-0.02714501074518294</v>
       </c>
       <c r="L97" s="3">
-        <v>-0.1736324523663185</v>
+        <v>-0.1461588541666667</v>
       </c>
       <c r="M97" s="3">
-        <v>-0.0461146039458355</v>
+        <v>-0.1538467842282968</v>
       </c>
       <c r="N97" s="3">
-        <v>-0.1866303690260134</v>
+        <v>-0.1891808346213293</v>
       </c>
       <c r="O97" s="3">
-        <v>-0.01470887075068564</v>
+        <v>-0.02983523445575837</v>
       </c>
       <c r="P97" s="3">
-        <v>-0.1163724864859245</v>
+        <v>-0.1217653713837901</v>
       </c>
       <c r="Q97" s="3">
-        <v>-0.1001941680660623</v>
+        <v>-0.09709402638269872</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -6467,46 +6467,46 @@
         <v>258</v>
       </c>
       <c r="D98" s="1">
-        <v>6263915.8985</v>
+        <v>6041482.067028572</v>
       </c>
       <c r="E98" s="2">
-        <v>1.011311527758949</v>
+        <v>1.028898844262402</v>
       </c>
       <c r="F98" s="3">
-        <v>0.005379959650302591</v>
+        <v>-0.007348029392117501</v>
       </c>
       <c r="G98" s="3">
-        <v>0.0003130980221384669</v>
+        <v>-0.00408892307758458</v>
       </c>
       <c r="H98" s="3">
-        <v>-0.07200496585971446</v>
+        <v>-0.003353454057679413</v>
       </c>
       <c r="I98" s="3">
-        <v>-0.03034640764393288</v>
+        <v>-0.02134943570781601</v>
       </c>
       <c r="J98" s="3">
-        <v>-0.1241944932630346</v>
+        <v>-0.01458885941644549</v>
       </c>
       <c r="K98" s="3">
-        <v>-0.1747069438825912</v>
+        <v>-0.00971658282476953</v>
       </c>
       <c r="L98" s="3">
-        <v>-0.1914548404542997</v>
+        <v>-0.1253678634490876</v>
       </c>
       <c r="M98" s="3">
-        <v>-0.08956049717534834</v>
+        <v>-0.1229713865311625</v>
       </c>
       <c r="N98" s="3">
-        <v>-0.1722037652270211</v>
+        <v>-0.1767313019390581</v>
       </c>
       <c r="O98" s="3">
-        <v>-0.02887818295109111</v>
+        <v>-0.04667269415090808</v>
       </c>
       <c r="P98" s="3">
-        <v>-0.1308821312011847</v>
+        <v>-0.066343984677966</v>
       </c>
       <c r="Q98" s="3">
-        <v>-0.129418213486815</v>
+        <v>-0.06448057070714927</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -6520,46 +6520,46 @@
         <v>259</v>
       </c>
       <c r="D99" s="1">
-        <v>235777148.027</v>
+        <v>241925395.643</v>
       </c>
       <c r="E99" s="2">
-        <v>1.109266599628968</v>
+        <v>1.11044830345806</v>
       </c>
       <c r="F99" s="3">
-        <v>0.0123041588056762</v>
+        <v>0.005874194337929424</v>
       </c>
       <c r="G99" s="3">
-        <v>0.0008217061965469801</v>
+        <v>0.0002330698540934103</v>
       </c>
       <c r="H99" s="3">
-        <v>-0.04385217323932755</v>
+        <v>0.003418246927647091</v>
       </c>
       <c r="I99" s="3">
-        <v>-0.003869539285597334</v>
+        <v>-0.01433687871416886</v>
       </c>
       <c r="J99" s="3">
-        <v>-0.1146423703278572</v>
+        <v>0.001706207344816444</v>
       </c>
       <c r="K99" s="3">
-        <v>-0.1548136962524621</v>
+        <v>-0.005388326772736893</v>
       </c>
       <c r="L99" s="3">
-        <v>-0.09880239520958095</v>
+        <v>-0.06093381064818333</v>
       </c>
       <c r="M99" s="3">
-        <v>-0.01228707936816578</v>
+        <v>-0.0835710854886943</v>
       </c>
       <c r="N99" s="3">
-        <v>-0.0853776032016602</v>
+        <v>-0.1199229067028339</v>
       </c>
       <c r="O99" s="3">
-        <v>-0.00623648939937585</v>
+        <v>-0.01534860052174083</v>
       </c>
       <c r="P99" s="3">
-        <v>-0.04883234128491299</v>
+        <v>-0.04447970613071559</v>
       </c>
       <c r="Q99" s="3">
-        <v>-0.04402218664227934</v>
+        <v>-0.0400556297778121</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -6573,46 +6573,46 @@
         <v>260</v>
       </c>
       <c r="D100" s="1">
-        <v>22833576.62285714</v>
+        <v>23973591.51714286</v>
       </c>
       <c r="E100" s="2">
-        <v>0.9579746696442555</v>
+        <v>1.08507025801408</v>
       </c>
       <c r="F100" s="3">
-        <v>0.002583979328165228</v>
+        <v>-0.08237400869787684</v>
       </c>
       <c r="G100" s="3">
-        <v>-4.30787093101086E-05</v>
+        <v>-0.3849594230891629</v>
       </c>
       <c r="H100" s="3">
-        <v>-0.03769841269841277</v>
+        <v>-0.07144706186901385</v>
       </c>
       <c r="I100" s="3">
-        <v>-7.516066661604514E-05</v>
+        <v>-0.1377858509909762</v>
       </c>
       <c r="J100" s="3">
-        <v>-0.06954436450839342</v>
+        <v>-0.06710013003901184</v>
       </c>
       <c r="K100" s="3">
-        <v>-0.08350348916438333</v>
+        <v>-0.05028942476256332</v>
       </c>
       <c r="L100" s="3">
-        <v>-0.1410228027451849</v>
+        <v>-0.1899277326106595</v>
       </c>
       <c r="M100" s="3">
-        <v>-0.09623363353844276</v>
+        <v>-0.1056808794788084</v>
       </c>
       <c r="N100" s="3">
-        <v>-0.09683426443202987</v>
+        <v>-0.1748332183114792</v>
       </c>
       <c r="O100" s="3">
-        <v>-0.01679170493379552</v>
+        <v>-0.04705815782336006</v>
       </c>
       <c r="P100" s="3">
-        <v>-0.08986856135141305</v>
+        <v>-0.1402570488951438</v>
       </c>
       <c r="Q100" s="3">
-        <v>-0.09381099960063224</v>
+        <v>-0.1292607993438558</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6626,46 +6626,46 @@
         <v>261</v>
       </c>
       <c r="D101" s="1">
-        <v>44023292.99728571</v>
+        <v>37893150.60285714</v>
       </c>
       <c r="E101" s="2">
-        <v>1.485041646852501</v>
+        <v>1.484186052109373</v>
       </c>
       <c r="F101" s="3">
-        <v>0.009054325955734303</v>
+        <v>-0.02020202020202022</v>
       </c>
       <c r="G101" s="3">
-        <v>0.00338502373377323</v>
+        <v>-0.02826024165341953</v>
       </c>
       <c r="H101" s="3">
-        <v>-0.05998125585754457</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="I101" s="3">
-        <v>-0.002245940246535881</v>
+        <v>-0.09194399824349418</v>
       </c>
       <c r="J101" s="3">
-        <v>-0.09964093357271113</v>
+        <v>-0.02805611222444892</v>
       </c>
       <c r="K101" s="3">
-        <v>-0.1251585650649648</v>
+        <v>-0.03780791086083801</v>
       </c>
       <c r="L101" s="3">
-        <v>-0.1528716216216217</v>
+        <v>-0.1423519009725907</v>
       </c>
       <c r="M101" s="3">
-        <v>-0.06293994317251891</v>
+        <v>-0.1132742295898388</v>
       </c>
       <c r="N101" s="3">
-        <v>-0.2509335324869306</v>
+        <v>-0.3041606886657102</v>
       </c>
       <c r="O101" s="3">
-        <v>-0.06609577544593645</v>
+        <v>-0.06095023687795504</v>
       </c>
       <c r="P101" s="3">
-        <v>-0.09404925411874185</v>
+        <v>-0.07554107022533837</v>
       </c>
       <c r="Q101" s="3">
-        <v>-0.06333105493578328</v>
+        <v>-0.05089730503664078</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6679,46 +6679,46 @@
         <v>262</v>
       </c>
       <c r="D102" s="1">
-        <v>36266295.37142857</v>
+        <v>38917694.79085714</v>
       </c>
       <c r="E102" s="2">
-        <v>1.035101621448625</v>
+        <v>1.025847206672706</v>
       </c>
       <c r="F102" s="3">
-        <v>0.01960784313725501</v>
+        <v>0.003739715781600685</v>
       </c>
       <c r="G102" s="3">
-        <v>0.02278222615598078</v>
+        <v>-1.223180863756771E-06</v>
       </c>
       <c r="H102" s="3">
-        <v>-0.07341411261582322</v>
+        <v>0.03709428129829988</v>
       </c>
       <c r="I102" s="3">
-        <v>-0.04689961813050698</v>
+        <v>0.01692285402363499</v>
       </c>
       <c r="J102" s="3">
-        <v>-0.1222147197839298</v>
+        <v>0.01743745261561799</v>
       </c>
       <c r="K102" s="3">
-        <v>-0.1815433935292198</v>
+        <v>0.02016755867416864</v>
       </c>
       <c r="L102" s="3">
-        <v>-0.07604832977967305</v>
+        <v>-0.01684981684981678</v>
       </c>
       <c r="M102" s="3">
-        <v>-0.006428616004309556</v>
+        <v>-0.04299665894101137</v>
       </c>
       <c r="N102" s="3">
-        <v>-0.04200442151805449</v>
+        <v>-0.02541757443718222</v>
       </c>
       <c r="O102" s="3">
-        <v>-1.482412883080375E-05</v>
+        <v>-0.001514189852949273</v>
       </c>
       <c r="P102" s="3">
-        <v>-0.02421651876118202</v>
+        <v>-0.01270939880902299</v>
       </c>
       <c r="Q102" s="3">
-        <v>-0.02339530560032455</v>
+        <v>-0.01238917328658076</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6732,46 +6732,46 @@
         <v>263</v>
       </c>
       <c r="D103" s="1">
-        <v>39403243.54071429</v>
+        <v>66744653.02514286</v>
       </c>
       <c r="E103" s="2">
-        <v>1.464597533205183</v>
+        <v>1.50112810452976</v>
       </c>
       <c r="F103" s="3">
-        <v>0.002232142857142942</v>
+        <v>0.001413427561837426</v>
       </c>
       <c r="G103" s="3">
-        <v>-0.002624313936902042</v>
+        <v>-0.0003156393787208408</v>
       </c>
       <c r="H103" s="3">
-        <v>-0.0323275862068965</v>
+        <v>0.07186081694402414</v>
       </c>
       <c r="I103" s="3">
-        <v>0.01344669068561911</v>
+        <v>0.1400954368183141</v>
       </c>
       <c r="J103" s="3">
-        <v>-0.01822157434402332</v>
+        <v>0.1643385373870173</v>
       </c>
       <c r="K103" s="3">
-        <v>-0.009474521375391924</v>
+        <v>0.1104565447579301</v>
       </c>
       <c r="L103" s="3">
-        <v>-0.01822157434402332</v>
+        <v>0.07024169184290029</v>
       </c>
       <c r="M103" s="3">
-        <v>-0.0003530022444267157</v>
+        <v>2.629687342070286E-05</v>
       </c>
       <c r="N103" s="3">
-        <v>-0.003698224852070927</v>
+        <v>0.02458423716558206</v>
       </c>
       <c r="O103" s="3">
-        <v>-0.0004548076204912606</v>
+        <v>6.659660696264782E-06</v>
       </c>
       <c r="P103" s="3">
-        <v>-0.003161269394486485</v>
+        <v>0.01230526701950138</v>
       </c>
       <c r="Q103" s="3">
-        <v>-0.002158456041891753</v>
+        <v>0.008197346370619115</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6785,46 +6785,46 @@
         <v>264</v>
       </c>
       <c r="D104" s="1">
-        <v>88443726.35280001</v>
+        <v>85220359.61300001</v>
       </c>
       <c r="E104" s="2">
-        <v>1.347060728245596</v>
+        <v>1.387040159984871</v>
       </c>
       <c r="F104" s="3">
-        <v>-0.00907441016333939</v>
+        <v>-0.04973357015985776</v>
       </c>
       <c r="G104" s="3">
-        <v>-0.00954810182777697</v>
+        <v>-0.160610361728294</v>
       </c>
       <c r="H104" s="3">
-        <v>-0.04712041884816739</v>
+        <v>-0.02014652014652016</v>
       </c>
       <c r="I104" s="3">
-        <v>-0.003118888455715236</v>
+        <v>-0.02204300929565615</v>
       </c>
       <c r="J104" s="3">
-        <v>-0.116504854368932</v>
+        <v>-0.0272727272727273</v>
       </c>
       <c r="K104" s="3">
-        <v>-0.1331827648776522</v>
+        <v>-0.01385797257652947</v>
       </c>
       <c r="L104" s="3">
-        <v>-0.150855365474339</v>
+        <v>-0.1574803149606299</v>
       </c>
       <c r="M104" s="3">
-        <v>-0.05039570383341163</v>
+        <v>-0.1246607770495203</v>
       </c>
       <c r="N104" s="3">
-        <v>-0.1826347305389222</v>
+        <v>-0.202682563338301</v>
       </c>
       <c r="O104" s="3">
-        <v>-0.03949636774150725</v>
+        <v>-0.05233879844391105</v>
       </c>
       <c r="P104" s="3">
-        <v>-0.09178923435553189</v>
+        <v>-0.1426355693889071</v>
       </c>
       <c r="Q104" s="3">
-        <v>-0.06814038330334049</v>
+        <v>-0.1028344913895377</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6838,46 +6838,46 @@
         <v>265</v>
       </c>
       <c r="D105" s="1">
-        <v>7969069.061142858</v>
+        <v>8173315.839371428</v>
       </c>
       <c r="E105" s="2">
-        <v>1.082484840374763</v>
+        <v>0.8884661603247012</v>
       </c>
       <c r="F105" s="3">
-        <v>-0.007603186097031103</v>
+        <v>0.02116304747883699</v>
       </c>
       <c r="G105" s="3">
-        <v>-0.010374594142785</v>
+        <v>0.003214262042572068</v>
       </c>
       <c r="H105" s="3">
-        <v>-0.03536864332218892</v>
+        <v>0.01891296364304088</v>
       </c>
       <c r="I105" s="3">
-        <v>-0.001837593342268802</v>
+        <v>-0.003996665721904567</v>
       </c>
       <c r="J105" s="3">
-        <v>-0.08770178066233984</v>
+        <v>0.01667277390985713</v>
       </c>
       <c r="K105" s="3">
-        <v>-0.09786849441372539</v>
+        <v>-0.005615673079775211</v>
       </c>
       <c r="L105" s="3">
-        <v>-0.08724608724608725</v>
+        <v>-0.05805465965031398</v>
       </c>
       <c r="M105" s="3">
-        <v>-0.02389893032915198</v>
+        <v>-0.07910571129547882</v>
       </c>
       <c r="N105" s="3">
-        <v>-0.1038090567271538</v>
+        <v>-0.1054328550701273</v>
       </c>
       <c r="O105" s="3">
-        <v>-0.01176277143041052</v>
+        <v>-0.01532034657589684</v>
       </c>
       <c r="P105" s="3">
-        <v>-0.06088371237143868</v>
+        <v>-0.04236069218762702</v>
       </c>
       <c r="Q105" s="3">
-        <v>-0.05624440186188692</v>
+        <v>-0.0476784531356217</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6891,46 +6891,46 @@
         <v>266</v>
       </c>
       <c r="D106" s="1">
-        <v>27523356.83228571</v>
+        <v>26105721.31285715</v>
       </c>
       <c r="E106" s="2">
-        <v>1.226443124961101</v>
+        <v>1.156171163682391</v>
       </c>
       <c r="F106" s="3">
-        <v>-0.01979498055850124</v>
+        <v>-0.003750669762457582</v>
       </c>
       <c r="G106" s="3">
-        <v>-0.05426491403559102</v>
+        <v>-0.004510085935940871</v>
       </c>
       <c r="H106" s="3">
-        <v>-0.04871355060034305</v>
+        <v>0.003417880913833423</v>
       </c>
       <c r="I106" s="3">
-        <v>-0.01186424222857172</v>
+        <v>0.0001416984315902058</v>
       </c>
       <c r="J106" s="3">
-        <v>-0.1136327313408982</v>
+        <v>-0.0183034142907427</v>
       </c>
       <c r="K106" s="3">
-        <v>-0.1321936780267029</v>
+        <v>-0.007556011520078273</v>
       </c>
       <c r="L106" s="3">
-        <v>-0.2098589542669896</v>
+        <v>-0.1283012970776684</v>
       </c>
       <c r="M106" s="3">
-        <v>-0.1138492912089828</v>
+        <v>-0.1083826261019303</v>
       </c>
       <c r="N106" s="3">
-        <v>-0.2051024795757489</v>
+        <v>-0.2209497206703911</v>
       </c>
       <c r="O106" s="3">
-        <v>-0.06469082532532164</v>
+        <v>-0.07809143810264374</v>
       </c>
       <c r="P106" s="3">
-        <v>-0.1230214846178428</v>
+        <v>-0.0579693188110043</v>
       </c>
       <c r="Q106" s="3">
-        <v>-0.1003075333165121</v>
+        <v>-0.05013904569836591</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6944,46 +6944,46 @@
         <v>267</v>
       </c>
       <c r="D107" s="1">
-        <v>2386604.1336</v>
+        <v>2387685.773142857</v>
       </c>
       <c r="E107" s="2">
-        <v>0.8266664301243232</v>
+        <v>0.8556795036943396</v>
       </c>
       <c r="F107" s="3">
-        <v>0.001310615989514998</v>
+        <v>-0.01207937877480592</v>
       </c>
       <c r="G107" s="3">
-        <v>-6.722623235697202E-06</v>
+        <v>-0.01211067349774461</v>
       </c>
       <c r="H107" s="3">
-        <v>-0.06238494579668644</v>
+        <v>-0.0006545930613135748</v>
       </c>
       <c r="I107" s="3">
-        <v>-0.01114797524843687</v>
+        <v>-0.01109909771231611</v>
       </c>
       <c r="J107" s="3">
-        <v>-0.1181223547518276</v>
+        <v>-0.008228670420095304</v>
       </c>
       <c r="K107" s="3">
-        <v>-0.1517185983756525</v>
+        <v>-0.006748903963163056</v>
       </c>
       <c r="L107" s="3">
-        <v>-0.1449356463346392</v>
+        <v>-0.114804793196753</v>
       </c>
       <c r="M107" s="3">
-        <v>-0.05587797889726748</v>
+        <v>-0.104835459010594</v>
       </c>
       <c r="N107" s="3">
-        <v>-0.1618211738891936</v>
+        <v>-0.1604032997250229</v>
       </c>
       <c r="O107" s="3">
-        <v>-0.02786755351935229</v>
+        <v>-0.03819656521842194</v>
       </c>
       <c r="P107" s="3">
-        <v>-0.10379828863646</v>
+        <v>-0.05847306625416933</v>
       </c>
       <c r="Q107" s="3">
-        <v>-0.1255624818596416</v>
+        <v>-0.06833524234449433</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6997,46 +6997,46 @@
         <v>268</v>
       </c>
       <c r="D108" s="1">
-        <v>129409054.9476429</v>
+        <v>124530243.3561428</v>
       </c>
       <c r="E108" s="2">
-        <v>0.7582053855188543</v>
+        <v>0.7848102726447904</v>
       </c>
       <c r="F108" s="3">
-        <v>-0.006646655231560827</v>
+        <v>-0.004333694474539644</v>
       </c>
       <c r="G108" s="3">
-        <v>-0.02057450615077872</v>
+        <v>-0.003091145791997059</v>
       </c>
       <c r="H108" s="3">
-        <v>-0.07709163346613537</v>
+        <v>-0.01033814344174026</v>
       </c>
       <c r="I108" s="3">
-        <v>-0.02731794102423347</v>
+        <v>-0.02902974665716208</v>
       </c>
       <c r="J108" s="3">
-        <v>-0.1062885802469136</v>
+        <v>-0.0154274694664667</v>
       </c>
       <c r="K108" s="3">
-        <v>-0.1593928690464193</v>
+        <v>-0.02778047300774738</v>
       </c>
       <c r="L108" s="3">
-        <v>-0.1248583301851152</v>
+        <v>-0.1027143136106231</v>
       </c>
       <c r="M108" s="3">
-        <v>-0.03954039464340962</v>
+        <v>-0.09627033697261847</v>
       </c>
       <c r="N108" s="3">
-        <v>-0.1656762110570862</v>
+        <v>-0.1568807339449542</v>
       </c>
       <c r="O108" s="3">
-        <v>-0.03099661750065982</v>
+        <v>-0.03831304595442038</v>
       </c>
       <c r="P108" s="3">
-        <v>-0.09946663184491444</v>
+        <v>-0.06202540499018293</v>
       </c>
       <c r="Q108" s="3">
-        <v>-0.1311869234176536</v>
+        <v>-0.07903235616572514</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -7050,46 +7050,46 @@
         <v>269</v>
       </c>
       <c r="D109" s="1">
-        <v>23777022.5448</v>
+        <v>21153026.99525714</v>
       </c>
       <c r="E109" s="2">
-        <v>1.415424891078382</v>
+        <v>1.311647165384846</v>
       </c>
       <c r="F109" s="3">
-        <v>0.01204819277108442</v>
+        <v>-0.009864364981504324</v>
       </c>
       <c r="G109" s="3">
-        <v>0.02597584095914968</v>
+        <v>-0.002253766625298763</v>
       </c>
       <c r="H109" s="3">
-        <v>-0.02801461632155897</v>
+        <v>-0.006188118811881194</v>
       </c>
       <c r="I109" s="3">
-        <v>0.0003392041696454458</v>
+        <v>-0.002198026890169237</v>
       </c>
       <c r="J109" s="3">
-        <v>-0.1259583789704271</v>
+        <v>0.0229299363057325</v>
       </c>
       <c r="K109" s="3">
-        <v>-0.1277718972955344</v>
+        <v>0.0005777937052246188</v>
       </c>
       <c r="L109" s="3">
-        <v>-0.1836317135549872</v>
+        <v>-0.1238406983087833</v>
       </c>
       <c r="M109" s="3">
-        <v>-0.09624013246700044</v>
+        <v>-0.1030427274328471</v>
       </c>
       <c r="N109" s="3">
-        <v>-0.0962627406568516</v>
+        <v>-0.1604809200209095</v>
       </c>
       <c r="O109" s="3">
-        <v>-0.01878195514887163</v>
+        <v>-0.05154009480293262</v>
       </c>
       <c r="P109" s="3">
-        <v>-0.09625143656192603</v>
+        <v>-0.05264824702907292</v>
       </c>
       <c r="Q109" s="3">
-        <v>-0.06800179731797291</v>
+        <v>-0.04013903160734966</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -7103,46 +7103,46 @@
         <v>270</v>
       </c>
       <c r="D110" s="1">
-        <v>13507350.85125714</v>
+        <v>12015599.31898571</v>
       </c>
       <c r="E110" s="2">
-        <v>0.8074218876210187</v>
+        <v>0.8488285691572981</v>
       </c>
       <c r="F110" s="3">
-        <v>0.02107208872458406</v>
+        <v>-0.0001834862385321518</v>
       </c>
       <c r="G110" s="3">
-        <v>0.04851929292252226</v>
+        <v>-0.001293952693134806</v>
       </c>
       <c r="H110" s="3">
-        <v>-0.02763597958105975</v>
+        <v>-0.01855187319884738</v>
       </c>
       <c r="I110" s="3">
-        <v>0.0004509138836645435</v>
+        <v>-0.0548985733077176</v>
       </c>
       <c r="J110" s="3">
-        <v>-0.06767932489451481</v>
+        <v>0.002575896964121393</v>
       </c>
       <c r="K110" s="3">
-        <v>-0.05761297858451508</v>
+        <v>-0.008072426641453172</v>
       </c>
       <c r="L110" s="3">
-        <v>-0.09531608254176227</v>
+        <v>-0.07377188509263978</v>
       </c>
       <c r="M110" s="3">
-        <v>-0.03218694033053948</v>
+        <v>-0.0672378181867186</v>
       </c>
       <c r="N110" s="3">
-        <v>-0.1411691542288558</v>
+        <v>-0.1409427715591991</v>
       </c>
       <c r="O110" s="3">
-        <v>-0.03262225929094285</v>
+        <v>-0.03534358389477816</v>
       </c>
       <c r="P110" s="3">
-        <v>-0.04489995945752728</v>
+        <v>-0.03765512241408589</v>
       </c>
       <c r="Q110" s="3">
-        <v>-0.05560904422571471</v>
+        <v>-0.04436128069000932</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -7156,46 +7156,46 @@
         <v>271</v>
       </c>
       <c r="D111" s="1">
-        <v>156664382.3559086</v>
+        <v>151469329.2840014</v>
       </c>
       <c r="E111" s="2">
-        <v>2.316696326823024</v>
+        <v>2.101404717256411</v>
       </c>
       <c r="F111" s="3">
-        <v>-0.03519136912406882</v>
+        <v>0.007551719761390912</v>
       </c>
       <c r="G111" s="3">
-        <v>-0.1648820182349993</v>
+        <v>0.0002612755036226691</v>
       </c>
       <c r="H111" s="3">
-        <v>-0.09955049445609837</v>
+        <v>0.0470192561329464</v>
       </c>
       <c r="I111" s="3">
-        <v>-0.01440512279829034</v>
+        <v>0.006954298455387095</v>
       </c>
       <c r="J111" s="3">
-        <v>-0.1370476737507181</v>
+        <v>-0.001069586007298373</v>
       </c>
       <c r="K111" s="3">
-        <v>-0.1537113878294104</v>
+        <v>-0.004573812935935997</v>
       </c>
       <c r="L111" s="3">
-        <v>-0.2547619047619048</v>
+        <v>-0.05550267697798938</v>
       </c>
       <c r="M111" s="3">
-        <v>-0.0928697407194098</v>
+        <v>-0.1000091694250723</v>
       </c>
       <c r="N111" s="3">
-        <v>-0.3551931330472103</v>
+        <v>-0.3479671457905545</v>
       </c>
       <c r="O111" s="3">
-        <v>-0.1395586260402723</v>
+        <v>-0.1337677344033205</v>
       </c>
       <c r="P111" s="3">
-        <v>-0.1592967030322049</v>
+        <v>-0.05229149118050417</v>
       </c>
       <c r="Q111" s="3">
-        <v>-0.06876028644231272</v>
+        <v>-0.02488406481202527</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -7209,46 +7209,46 @@
         <v>272</v>
       </c>
       <c r="D112" s="1">
-        <v>92662168.70141999</v>
+        <v>109835780.2857229</v>
       </c>
       <c r="E112" s="2">
-        <v>1.468396064649628</v>
+        <v>1.547334032992023</v>
       </c>
       <c r="F112" s="3">
-        <v>-0.007103731598767713</v>
+        <v>0.03269544323350213</v>
       </c>
       <c r="G112" s="3">
-        <v>-0.03474198334290603</v>
+        <v>0.06689850053556511</v>
       </c>
       <c r="H112" s="3">
-        <v>-0.02018581081081084</v>
+        <v>0.04935472619462852</v>
       </c>
       <c r="I112" s="3">
-        <v>0.005824396353140692</v>
+        <v>0.03934851351564619</v>
       </c>
       <c r="J112" s="3">
-        <v>-0.0186109466204213</v>
+        <v>0.09729187562688066</v>
       </c>
       <c r="K112" s="3">
-        <v>-0.002133171841408767</v>
+        <v>0.01168265327002102</v>
       </c>
       <c r="L112" s="3">
-        <v>0.04381860716213781</v>
+        <v>0.04679888656924154</v>
       </c>
       <c r="M112" s="3">
-        <v>0.009166093414910478</v>
+        <v>5.578072667428331E-05</v>
       </c>
       <c r="N112" s="3">
-        <v>0.06734750207010759</v>
+        <v>0.1439163498098859</v>
       </c>
       <c r="O112" s="3">
-        <v>0.02252864822449624</v>
+        <v>0.02826834653605231</v>
       </c>
       <c r="P112" s="3">
-        <v>0.003516460786750855</v>
+        <v>0.03929057690279306</v>
       </c>
       <c r="Q112" s="3">
-        <v>0.002394763151037123</v>
+        <v>0.02539243373767093</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -7262,46 +7262,46 @@
         <v>273</v>
       </c>
       <c r="D113" s="1">
-        <v>37664164.29872571</v>
+        <v>34932304.64423428</v>
       </c>
       <c r="E113" s="2">
-        <v>1.548125991342808</v>
+        <v>1.562118600357693</v>
       </c>
       <c r="F113" s="3">
-        <v>0.004548945471731445</v>
+        <v>-0.05068782464752554</v>
       </c>
       <c r="G113" s="3">
-        <v>-0.0004209810486316162</v>
+        <v>-0.1570597485554398</v>
       </c>
       <c r="H113" s="3">
-        <v>-0.06970128022759611</v>
+        <v>-0.01626641429078438</v>
       </c>
       <c r="I113" s="3">
-        <v>-0.01208650922687862</v>
+        <v>-0.03690344914423289</v>
       </c>
       <c r="J113" s="3">
-        <v>-0.1112272632239181</v>
+        <v>-0.02239595579590878</v>
       </c>
       <c r="K113" s="3">
-        <v>-0.1508514131640974</v>
+        <v>-0.006799673956378615</v>
       </c>
       <c r="L113" s="3">
-        <v>-0.1542402387465805</v>
+        <v>-0.1341628488129946</v>
       </c>
       <c r="M113" s="3">
-        <v>-0.0603731184208947</v>
+        <v>-0.09859441759520846</v>
       </c>
       <c r="N113" s="3">
-        <v>-0.1885468861846815</v>
+        <v>-0.2072170845647821</v>
       </c>
       <c r="O113" s="3">
-        <v>-0.03646379796645383</v>
+        <v>-0.04863885899756447</v>
       </c>
       <c r="P113" s="3">
-        <v>-0.1056122657924961</v>
+        <v>-0.1278270830753241</v>
       </c>
       <c r="Q113" s="3">
-        <v>-0.06821942553970718</v>
+        <v>-0.08182930735608319</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -7315,46 +7315,46 @@
         <v>274</v>
       </c>
       <c r="D114" s="1">
-        <v>22604943.44590715</v>
+        <v>23022957.00667429</v>
       </c>
       <c r="E114" s="2">
-        <v>1.300222222988032</v>
+        <v>1.259648112252591</v>
       </c>
       <c r="F114" s="3">
-        <v>-0.0161770966368667</v>
+        <v>0.002120740845468607</v>
       </c>
       <c r="G114" s="3">
-        <v>-0.005879164773932019</v>
+        <v>-8.627290279818314E-05</v>
       </c>
       <c r="H114" s="3">
-        <v>-0.1384366844786876</v>
+        <v>0.003397508493771175</v>
       </c>
       <c r="I114" s="3">
-        <v>-0.07345629033779449</v>
+        <v>-1.679216353708877E-05</v>
       </c>
       <c r="J114" s="3">
-        <v>-0.1987749913324858</v>
+        <v>-0.01773835920177388</v>
       </c>
       <c r="K114" s="3">
-        <v>-0.2920024480587682</v>
+        <v>-0.007338154300898914</v>
       </c>
       <c r="L114" s="3">
-        <v>-0.2280369669301859</v>
+        <v>-0.1561904761904762</v>
       </c>
       <c r="M114" s="3">
-        <v>-0.08633863991210512</v>
+        <v>-0.1389039860850727</v>
       </c>
       <c r="N114" s="3">
-        <v>-0.2380481371579294</v>
+        <v>-0.2097223770765972</v>
       </c>
       <c r="O114" s="3">
-        <v>-0.0261384775890749</v>
+        <v>-0.03938600213764838</v>
       </c>
       <c r="P114" s="3">
-        <v>-0.1621933885350173</v>
+        <v>-0.07312107019298579</v>
       </c>
       <c r="Q114" s="3">
-        <v>-0.1247428213942396</v>
+        <v>-0.05804880702931042</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -7368,46 +7368,46 @@
         <v>275</v>
       </c>
       <c r="D115" s="1">
-        <v>12629482.01412857</v>
+        <v>12051052.14305571</v>
       </c>
       <c r="E115" s="2">
-        <v>1.001397831651599</v>
+        <v>1.062332318778244</v>
       </c>
       <c r="F115" s="3">
-        <v>0.005625879043600594</v>
+        <v>-0.02055114432508181</v>
       </c>
       <c r="G115" s="3">
-        <v>2.676603104470354E-05</v>
+        <v>-0.03759637278633871</v>
       </c>
       <c r="H115" s="3">
-        <v>-0.05589788732394373</v>
+        <v>-0.02328830926874711</v>
       </c>
       <c r="I115" s="3">
-        <v>-0.003559723973594533</v>
+        <v>-0.06017640574404892</v>
       </c>
       <c r="J115" s="3">
-        <v>-0.100251677852349</v>
+        <v>-0.02826691380908246</v>
       </c>
       <c r="K115" s="3">
-        <v>-0.113586493362023</v>
+        <v>-0.03197546171689007</v>
       </c>
       <c r="L115" s="3">
-        <v>-0.1368209255533199</v>
+        <v>-0.1053754266211604</v>
       </c>
       <c r="M115" s="3">
-        <v>-0.0508022070568193</v>
+        <v>-0.1080893659206485</v>
       </c>
       <c r="N115" s="3">
-        <v>-0.1382081157091202</v>
+        <v>-0.1472143147620985</v>
       </c>
       <c r="O115" s="3">
-        <v>-0.01999400074234818</v>
+        <v>-0.03415219741900333</v>
       </c>
       <c r="P115" s="3">
-        <v>-0.08219435020942113</v>
+        <v>-0.0728428693534936</v>
       </c>
       <c r="Q115" s="3">
-        <v>-0.08207961672321434</v>
+        <v>-0.06856881605302938</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -7421,46 +7421,46 @@
         <v>276</v>
       </c>
       <c r="D116" s="1">
-        <v>679171586.6388727</v>
+        <v>671090486.3644799</v>
       </c>
       <c r="E116" s="2">
-        <v>1.340689273369011</v>
+        <v>1.378667184570231</v>
       </c>
       <c r="F116" s="3">
-        <v>0.01154644525168659</v>
+        <v>-0.04947314315086104</v>
       </c>
       <c r="G116" s="3">
-        <v>2.116366843662343E-05</v>
+        <v>-0.08034783605394848</v>
       </c>
       <c r="H116" s="3">
-        <v>-0.03227007571056231</v>
+        <v>-0.04898431473386484</v>
       </c>
       <c r="I116" s="3">
-        <v>1.42487066723527E-06</v>
+        <v>-0.1112790717290861</v>
       </c>
       <c r="J116" s="3">
-        <v>-0.09284467713787087</v>
+        <v>-0.04009862444848182</v>
       </c>
       <c r="K116" s="3">
-        <v>-0.09136254780494116</v>
+        <v>-0.04076810892775222</v>
       </c>
       <c r="L116" s="3">
-        <v>-0.1903426791277258</v>
+        <v>-0.1723173324381785</v>
       </c>
       <c r="M116" s="3">
-        <v>-0.09053213702354877</v>
+        <v>-0.1262115549046804</v>
       </c>
       <c r="N116" s="3">
-        <v>-0.2458651707128349</v>
+        <v>-0.263467091506522</v>
       </c>
       <c r="O116" s="3">
-        <v>-0.07397911031359206</v>
+        <v>-0.0817106124864085</v>
       </c>
       <c r="P116" s="3">
-        <v>-0.09094734241424496</v>
+        <v>-0.1032796954793145</v>
       </c>
       <c r="Q116" s="3">
-        <v>-0.0678362572303602</v>
+        <v>-0.07491271035910642</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -7474,46 +7474,46 @@
         <v>277</v>
       </c>
       <c r="D117" s="1">
-        <v>7006946.382885715</v>
+        <v>6628246.663742856</v>
       </c>
       <c r="E117" s="2">
-        <v>0.9520709789649217</v>
+        <v>0.9780449895116079</v>
       </c>
       <c r="F117" s="3">
-        <v>0.002970297029702863</v>
+        <v>-0.001978239366963405</v>
       </c>
       <c r="G117" s="3">
-        <v>0.001059465188579432</v>
+        <v>-0.01963485176219347</v>
       </c>
       <c r="H117" s="3">
-        <v>-0.06893382352941192</v>
+        <v>0.001986097318768622</v>
       </c>
       <c r="I117" s="3">
-        <v>-0.03629391783557406</v>
+        <v>-0.02293862388390474</v>
       </c>
       <c r="J117" s="3">
-        <v>-0.1137357830271217</v>
+        <v>-0.01752677702044792</v>
       </c>
       <c r="K117" s="3">
-        <v>-0.1627824734157182</v>
+        <v>-0.01610326080588176</v>
       </c>
       <c r="L117" s="3">
-        <v>-0.162809917355372</v>
+        <v>-0.1031111111111112</v>
       </c>
       <c r="M117" s="3">
-        <v>-0.05848497102841514</v>
+        <v>-0.111858319012766</v>
       </c>
       <c r="N117" s="3">
-        <v>-0.1487394957983194</v>
+        <v>-0.1633499170812604</v>
       </c>
       <c r="O117" s="3">
-        <v>-0.02359257653729584</v>
+        <v>-0.03631011648064029</v>
       </c>
       <c r="P117" s="3">
-        <v>-0.1036122334133673</v>
+        <v>-0.06574658538747975</v>
       </c>
       <c r="Q117" s="3">
-        <v>-0.108828265646762</v>
+        <v>-0.06722245509412678</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -7527,46 +7527,46 @@
         <v>278</v>
       </c>
       <c r="D118" s="1">
-        <v>18963494.22938429</v>
+        <v>18190980.03701143</v>
       </c>
       <c r="E118" s="2">
-        <v>1.168076932640876</v>
+        <v>1.197521064439867</v>
       </c>
       <c r="F118" s="3">
-        <v>-0.01479727730097662</v>
+        <v>-0.0279165442256833</v>
       </c>
       <c r="G118" s="3">
-        <v>-0.007779350094313441</v>
+        <v>-0.06683777411501442</v>
       </c>
       <c r="H118" s="3">
-        <v>-0.0770723593013585</v>
+        <v>-0.01165222587391696</v>
       </c>
       <c r="I118" s="3">
-        <v>-0.03823519758282103</v>
+        <v>-0.02973504342296081</v>
       </c>
       <c r="J118" s="3">
-        <v>-0.1675418854713679</v>
+        <v>-0.02591283863368676</v>
       </c>
       <c r="K118" s="3">
-        <v>-0.2183324292354607</v>
+        <v>-0.02238312579564822</v>
       </c>
       <c r="L118" s="3">
-        <v>-0.1470663592108635</v>
+        <v>-0.1454404546628779</v>
       </c>
       <c r="M118" s="3">
-        <v>-0.04185066710155583</v>
+        <v>-0.1223156468597531</v>
       </c>
       <c r="N118" s="3">
-        <v>-0.1120298746332356</v>
+        <v>-0.1278671236488268</v>
       </c>
       <c r="O118" s="3">
-        <v>-0.003472969182060979</v>
+        <v>-0.0189715713116844</v>
       </c>
       <c r="P118" s="3">
-        <v>-0.07694027086739572</v>
+        <v>-0.09457671048738374</v>
       </c>
       <c r="Q118" s="3">
-        <v>-0.0658691809737595</v>
+        <v>-0.07897707463845022</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -7580,46 +7580,46 @@
         <v>279</v>
       </c>
       <c r="D119" s="1">
-        <v>12385654.37530286</v>
+        <v>10915156.61787857</v>
       </c>
       <c r="E119" s="2">
-        <v>0.8926004723257435</v>
+        <v>0.9299449097095566</v>
       </c>
       <c r="F119" s="3">
-        <v>-0.001811594202898519</v>
+        <v>-0.01436265709156185</v>
       </c>
       <c r="G119" s="3">
-        <v>-0.001293537701735491</v>
+        <v>-0.02377503674807952</v>
       </c>
       <c r="H119" s="3">
-        <v>-0.07756696428571426</v>
+        <v>-0.001212856276531098</v>
       </c>
       <c r="I119" s="3">
-        <v>-0.02344806650735201</v>
+        <v>-0.01512352083137075</v>
       </c>
       <c r="J119" s="3">
-        <v>-0.1244703389830508</v>
+        <v>-0.0161290322580644</v>
       </c>
       <c r="K119" s="3">
-        <v>-0.1695388789370691</v>
+        <v>-0.01139176392532759</v>
       </c>
       <c r="L119" s="3">
-        <v>-0.1587786259541985</v>
+        <v>-0.103917301414581</v>
       </c>
       <c r="M119" s="3">
-        <v>-0.06137282996260357</v>
+        <v>-0.1068586758453364</v>
       </c>
       <c r="N119" s="3">
-        <v>-0.1553398058252428</v>
+        <v>-0.1336138874276695</v>
       </c>
       <c r="O119" s="3">
-        <v>-0.01088779766035129</v>
+        <v>-0.02222789009338406</v>
       </c>
       <c r="P119" s="3">
-        <v>-0.1083563178939232</v>
+        <v>-0.06531685629670794</v>
       </c>
       <c r="Q119" s="3">
-        <v>-0.1213939732875022</v>
+        <v>-0.07023733945391229</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -7633,46 +7633,46 @@
         <v>280</v>
       </c>
       <c r="D120" s="1">
-        <v>19866478.80034286</v>
+        <v>17437257.43118571</v>
       </c>
       <c r="E120" s="2">
-        <v>1.112315827528361</v>
+        <v>1.110847484616667</v>
       </c>
       <c r="F120" s="3">
-        <v>-0.01588488133059253</v>
+        <v>-0.004347826086956673</v>
       </c>
       <c r="G120" s="3">
-        <v>-0.03130537090914386</v>
+        <v>-0.002598904577725454</v>
       </c>
       <c r="H120" s="3">
-        <v>-0.08481056656239148</v>
+        <v>-0.002651013065707381</v>
       </c>
       <c r="I120" s="3">
-        <v>-0.04926185349387197</v>
+        <v>-0.008573766782335608</v>
       </c>
       <c r="J120" s="3">
-        <v>-0.136296539281614</v>
+        <v>-0.02589236175328281</v>
       </c>
       <c r="K120" s="3">
-        <v>-0.1959238981352203</v>
+        <v>-0.02833433066553782</v>
       </c>
       <c r="L120" s="3">
-        <v>-0.1919594905631425</v>
+        <v>-0.1351395730706076</v>
       </c>
       <c r="M120" s="3">
-        <v>-0.0770715382796394</v>
+        <v>-0.1359425388471847</v>
       </c>
       <c r="N120" s="3">
-        <v>-0.1873456790123458</v>
+        <v>-0.2108181000899012</v>
       </c>
       <c r="O120" s="3">
-        <v>-0.03159271879404788</v>
+        <v>-0.04731510529763246</v>
       </c>
       <c r="P120" s="3">
-        <v>-0.1322086086459926</v>
+        <v>-0.08213843475636126</v>
       </c>
       <c r="Q120" s="3">
-        <v>-0.1188588756664272</v>
+        <v>-0.07394213507600074</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -7686,46 +7686,46 @@
         <v>281</v>
       </c>
       <c r="D121" s="1">
-        <v>11319146.92859143</v>
+        <v>11732967.73293428</v>
       </c>
       <c r="E121" s="2">
-        <v>0.8845655088700601</v>
+        <v>0.9553139815898769</v>
       </c>
       <c r="F121" s="3">
-        <v>-0.006420545746388368</v>
+        <v>-0.02812330989724173</v>
       </c>
       <c r="G121" s="3">
-        <v>-0.003848830761706191</v>
+        <v>-0.07427130848966636</v>
       </c>
       <c r="H121" s="3">
-        <v>-0.07978196233894948</v>
+        <v>-0.03800856531049245</v>
       </c>
       <c r="I121" s="3">
-        <v>-0.04062204106761542</v>
+        <v>-0.09500912895386694</v>
       </c>
       <c r="J121" s="3">
-        <v>-0.1269393511988717</v>
+        <v>-0.05421052631578946</v>
       </c>
       <c r="K121" s="3">
-        <v>-0.1743448569602545</v>
+        <v>-0.07306259032877695</v>
       </c>
       <c r="L121" s="3">
-        <v>-0.1702412868632708</v>
+        <v>-0.1587078651685394</v>
       </c>
       <c r="M121" s="3">
-        <v>-0.07993953233622987</v>
+        <v>-0.1444078778363477</v>
       </c>
       <c r="N121" s="3">
-        <v>-0.1844532279314888</v>
+        <v>-0.2052189296771341</v>
       </c>
       <c r="O121" s="3">
-        <v>-0.02953540284170267</v>
+        <v>-0.04632642961602793</v>
       </c>
       <c r="P121" s="3">
-        <v>-0.1271421946482422</v>
+        <v>-0.109339593163007</v>
       </c>
       <c r="Q121" s="3">
-        <v>-0.1437340630776493</v>
+        <v>-0.1144540907702817</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -7739,46 +7739,46 @@
         <v>282</v>
       </c>
       <c r="D122" s="1">
-        <v>40484310.45116571</v>
+        <v>42984430.82307999</v>
       </c>
       <c r="E122" s="2">
-        <v>1.101392639207017</v>
+        <v>1.206781267203057</v>
       </c>
       <c r="F122" s="3">
-        <v>-0.007919746568109827</v>
+        <v>-0.02810810810810816</v>
       </c>
       <c r="G122" s="3">
-        <v>-0.009348935817971551</v>
+        <v>-0.03818895413641656</v>
       </c>
       <c r="H122" s="3">
-        <v>-0.06424302788844619</v>
+        <v>-0.04310803618946261</v>
       </c>
       <c r="I122" s="3">
-        <v>-0.001359723995336021</v>
+        <v>-0.1347080218471872</v>
       </c>
       <c r="J122" s="3">
-        <v>-0.1392579019697663</v>
+        <v>-0.06109660574412541</v>
       </c>
       <c r="K122" s="3">
-        <v>-0.1245312199887169</v>
+        <v>-0.09729173453412424</v>
       </c>
       <c r="L122" s="3">
-        <v>-0.1637739207832666</v>
+        <v>-0.1598130841121496</v>
       </c>
       <c r="M122" s="3">
-        <v>-0.06587167526085068</v>
+        <v>-0.139926783487017</v>
       </c>
       <c r="N122" s="3">
-        <v>-0.2144648829431438</v>
+        <v>-0.2312954253954682</v>
       </c>
       <c r="O122" s="3">
-        <v>-0.03975015213034382</v>
+        <v>-0.05140409024524377</v>
       </c>
       <c r="P122" s="3">
-        <v>-0.09520144762478377</v>
+        <v>-0.1186092590105706</v>
       </c>
       <c r="Q122" s="3">
-        <v>-0.08643733781744457</v>
+        <v>-0.09828563156724322</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -7792,46 +7792,46 @@
         <v>283</v>
       </c>
       <c r="D123" s="1">
-        <v>27907154.07669143</v>
+        <v>27578369.6395</v>
       </c>
       <c r="E123" s="2">
-        <v>0.9309714300645379</v>
+        <v>0.9627177276796852</v>
       </c>
       <c r="F123" s="3">
-        <v>0.01313651137594805</v>
+        <v>0.02141900937081662</v>
       </c>
       <c r="G123" s="3">
-        <v>0.01566335745505688</v>
+        <v>0.01090222892518913</v>
       </c>
       <c r="H123" s="3">
-        <v>-0.04809772235653398</v>
+        <v>0.02636534839924679</v>
       </c>
       <c r="I123" s="3">
-        <v>-0.001829774709774564</v>
+        <v>0.001277964529104161</v>
       </c>
       <c r="J123" s="3">
-        <v>-0.09452916969256846</v>
+        <v>0.02374882597611707</v>
       </c>
       <c r="K123" s="3">
-        <v>-0.1183208701361476</v>
+        <v>0.002551389039188029</v>
       </c>
       <c r="L123" s="3">
-        <v>-0.1312274997096737</v>
+        <v>-0.06046053441694376</v>
       </c>
       <c r="M123" s="3">
-        <v>-0.0519291732546792</v>
+        <v>-0.07012847735337979</v>
       </c>
       <c r="N123" s="3">
-        <v>-0.1568804237574665</v>
+        <v>-0.1321656050955414</v>
       </c>
       <c r="O123" s="3">
-        <v>-0.03932278725901665</v>
+        <v>-0.04679854651642538</v>
       </c>
       <c r="P123" s="3">
-        <v>-0.08512502169541339</v>
+        <v>-0.03378854415709588</v>
       </c>
       <c r="Q123" s="3">
-        <v>-0.09143677125463695</v>
+        <v>-0.03509704162042603</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -7845,46 +7845,46 @@
         <v>284</v>
       </c>
       <c r="D124" s="1">
-        <v>4635880.450477714</v>
+        <v>4301944.287799999</v>
       </c>
       <c r="E124" s="2">
-        <v>0.7357113572218249</v>
+        <v>0.7914377225411509</v>
       </c>
       <c r="F124" s="3">
-        <v>-0.002886597938144355</v>
+        <v>-0.02321083172146999</v>
       </c>
       <c r="G124" s="3">
-        <v>-3.274386856212172E-05</v>
+        <v>-0.0432099379937901</v>
       </c>
       <c r="H124" s="3">
-        <v>-0.0571874187678711</v>
+        <v>-0.03017832647462273</v>
       </c>
       <c r="I124" s="3">
-        <v>-0.003545567849571181</v>
+        <v>-0.08603628694698451</v>
       </c>
       <c r="J124" s="3">
-        <v>-0.1123348017621146</v>
+        <v>-0.02871273526583322</v>
       </c>
       <c r="K124" s="3">
-        <v>-0.1250095248061922</v>
+        <v>-0.04775989286919613</v>
       </c>
       <c r="L124" s="3">
-        <v>-0.1567077423854918</v>
+        <v>-0.1192226236451974</v>
       </c>
       <c r="M124" s="3">
-        <v>-0.06283771857233578</v>
+        <v>-0.1116975583463307</v>
       </c>
       <c r="N124" s="3">
-        <v>-0.1515789473684211</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="O124" s="3">
-        <v>-0.02448220838617108</v>
+        <v>-0.04121453035001863</v>
       </c>
       <c r="P124" s="3">
-        <v>-0.09392362168926396</v>
+        <v>-0.0797287256077634</v>
       </c>
       <c r="Q124" s="3">
-        <v>-0.1276636832737448</v>
+        <v>-0.1007391021895824</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -7898,46 +7898,46 @@
         <v>285</v>
       </c>
       <c r="D125" s="1">
-        <v>18711632.49428571</v>
+        <v>16470585.4548</v>
       </c>
       <c r="E125" s="2">
-        <v>1.065903051265639</v>
+        <v>1.141219790702324</v>
       </c>
       <c r="F125" s="3">
-        <v>0.001979218208807523</v>
+        <v>-0.02277227722772279</v>
       </c>
       <c r="G125" s="3">
-        <v>-0.002018804592258371</v>
+        <v>-0.08949827962695769</v>
       </c>
       <c r="H125" s="3">
-        <v>-0.128282393456737</v>
+        <v>-0.020347394540943</v>
       </c>
       <c r="I125" s="3">
-        <v>-0.1225374512387126</v>
+        <v>-0.05998545266641025</v>
       </c>
       <c r="J125" s="3">
-        <v>-0.1444866920152092</v>
+        <v>-0.0573065902578796</v>
       </c>
       <c r="K125" s="3">
-        <v>-0.2424528837276098</v>
+        <v>-0.04365492470498389</v>
       </c>
       <c r="L125" s="3">
-        <v>-0.1145605596851771</v>
+        <v>-0.1059782608695653</v>
       </c>
       <c r="M125" s="3">
-        <v>-0.009497937342306306</v>
+        <v>-0.1031295961623143</v>
       </c>
       <c r="N125" s="3">
-        <v>-0.07492005481955237</v>
+        <v>-0.09407985314364381</v>
       </c>
       <c r="O125" s="3">
-        <v>2.296362984159601E-05</v>
+        <v>-0.001466957215623396</v>
       </c>
       <c r="P125" s="3">
-        <v>-0.04220899608092934</v>
+        <v>-0.09178906638530075</v>
       </c>
       <c r="Q125" s="3">
-        <v>-0.03959928253400809</v>
+        <v>-0.08043066474409134</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7951,46 +7951,46 @@
         <v>286</v>
       </c>
       <c r="D126" s="1">
-        <v>27006340.86294</v>
+        <v>20458534.86533143</v>
       </c>
       <c r="E126" s="2">
-        <v>0.8935373076256404</v>
+        <v>0.9671090870995367</v>
       </c>
       <c r="F126" s="3">
-        <v>0.02553907325279105</v>
+        <v>-0.02814344076259645</v>
       </c>
       <c r="G126" s="3">
-        <v>0.05019707946670835</v>
+        <v>-0.09120672591393722</v>
       </c>
       <c r="H126" s="3">
-        <v>-0.0653658536585365</v>
+        <v>-0.03399007369529252</v>
       </c>
       <c r="I126" s="3">
-        <v>-0.009731719920953914</v>
+        <v>-0.1036594985898476</v>
       </c>
       <c r="J126" s="3">
-        <v>-0.07247579529737205</v>
+        <v>-0.03078315980081481</v>
       </c>
       <c r="K126" s="3">
-        <v>-0.1214198047355948</v>
+        <v>-0.02300260985640602</v>
       </c>
       <c r="L126" s="3">
-        <v>-0.07808633489139395</v>
+        <v>-0.1016783216783217</v>
       </c>
       <c r="M126" s="3">
-        <v>-0.03194668818609869</v>
+        <v>-0.06798958452561117</v>
       </c>
       <c r="N126" s="3">
-        <v>-0.02173595915390226</v>
+        <v>-0.07913978494623651</v>
       </c>
       <c r="O126" s="3">
-        <v>7.380882275448496E-10</v>
+        <v>-0.003517606466716846</v>
       </c>
       <c r="P126" s="3">
-        <v>-0.02684132367000047</v>
+        <v>-0.07356468473592384</v>
       </c>
       <c r="Q126" s="3">
-        <v>-0.03003939896065986</v>
+        <v>-0.07606658412915153</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -8004,46 +8004,46 @@
         <v>287</v>
       </c>
       <c r="D127" s="1">
-        <v>10484118.08333714</v>
+        <v>11172310.45326571</v>
       </c>
       <c r="E127" s="2">
-        <v>0.770256968040662</v>
+        <v>0.8264132739839787</v>
       </c>
       <c r="F127" s="3">
-        <v>-0.006606606606606754</v>
+        <v>-0.01437125748502998</v>
       </c>
       <c r="G127" s="3">
-        <v>-0.007835495642883925</v>
+        <v>-0.008849970049925901</v>
       </c>
       <c r="H127" s="3">
-        <v>-0.06711787930062042</v>
+        <v>-0.004836759371221295</v>
       </c>
       <c r="I127" s="3">
-        <v>-0.03615943341788527</v>
+        <v>-0.02119008978628595</v>
       </c>
       <c r="J127" s="3">
-        <v>-0.0912087912087913</v>
+        <v>-0.01907032181168062</v>
       </c>
       <c r="K127" s="3">
-        <v>-0.1316113075385701</v>
+        <v>-0.03012436934949721</v>
       </c>
       <c r="L127" s="3">
-        <v>-0.1478619268418342</v>
+        <v>-0.1121898597626754</v>
       </c>
       <c r="M127" s="3">
-        <v>-0.06742279954620886</v>
+        <v>-0.1059919035747564</v>
       </c>
       <c r="N127" s="3">
-        <v>-0.1376433785192909</v>
+        <v>-0.1413667188315076</v>
       </c>
       <c r="O127" s="3">
-        <v>-0.01945398517090638</v>
+        <v>-0.03362237152464237</v>
       </c>
       <c r="P127" s="3">
-        <v>-0.09951705354238947</v>
+        <v>-0.06805813646212683</v>
       </c>
       <c r="Q127" s="3">
-        <v>-0.1291998095071254</v>
+        <v>-0.08235363419809523</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -8057,46 +8057,46 @@
         <v>288</v>
       </c>
       <c r="D128" s="1">
-        <v>7563934.080365715</v>
+        <v>7264531.252272856</v>
       </c>
       <c r="E128" s="2">
-        <v>0.9024435949151967</v>
+        <v>0.9408502537966688</v>
       </c>
       <c r="F128" s="3">
-        <v>-0.001586462189317794</v>
+        <v>-0.006400000000000035</v>
       </c>
       <c r="G128" s="3">
-        <v>0.0003156461909026608</v>
+        <v>-0.008354949583056135</v>
       </c>
       <c r="H128" s="3">
-        <v>-0.05976095617529886</v>
+        <v>-0.01219512195121949</v>
       </c>
       <c r="I128" s="3">
-        <v>-0.03081810177378058</v>
+        <v>-0.04190839443506078</v>
       </c>
       <c r="J128" s="3">
-        <v>-0.1307550644567219</v>
+        <v>-0.02715404699738909</v>
       </c>
       <c r="K128" s="3">
-        <v>-0.1850011401816699</v>
+        <v>-0.03252118401850837</v>
       </c>
       <c r="L128" s="3">
-        <v>-0.1751856705985146</v>
+        <v>-0.1398891966759002</v>
       </c>
       <c r="M128" s="3">
-        <v>-0.0812928660482868</v>
+        <v>-0.1403767972350889</v>
       </c>
       <c r="N128" s="3">
-        <v>-0.1844492440604752</v>
+        <v>-0.1931572109138155</v>
       </c>
       <c r="O128" s="3">
-        <v>-0.03104259252836299</v>
+        <v>-0.04721235830711371</v>
       </c>
       <c r="P128" s="3">
-        <v>-0.132871055054381</v>
+        <v>-0.08644899062679862</v>
       </c>
       <c r="Q128" s="3">
-        <v>-0.1472347477482701</v>
+        <v>-0.09188389999146611</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -8110,46 +8110,46 @@
         <v>289</v>
       </c>
       <c r="D129" s="1">
-        <v>13337206.83075428</v>
+        <v>13197739.51357714</v>
       </c>
       <c r="E129" s="2">
-        <v>0.9867509854788801</v>
+        <v>1.012133872794161</v>
       </c>
       <c r="F129" s="3">
-        <v>-0.002970885323826503</v>
+        <v>-0.009540846750149018</v>
       </c>
       <c r="G129" s="3">
-        <v>-0.003168821101735098</v>
+        <v>-0.004092076215605421</v>
       </c>
       <c r="H129" s="3">
-        <v>-0.04767309875141879</v>
+        <v>-0.01189767995240929</v>
       </c>
       <c r="I129" s="3">
-        <v>-0.0001257525933193657</v>
+        <v>-0.04888735791625787</v>
       </c>
       <c r="J129" s="3">
-        <v>-0.1191601049868766</v>
+        <v>-0.01657785671995262</v>
       </c>
       <c r="K129" s="3">
-        <v>-0.1116468685516532</v>
+        <v>-0.0383123811010775</v>
       </c>
       <c r="L129" s="3">
-        <v>-0.2020922491678554</v>
+        <v>-0.1682523785678517</v>
       </c>
       <c r="M129" s="3">
-        <v>-0.1259896854571264</v>
+        <v>-0.1377038329380019</v>
       </c>
       <c r="N129" s="3">
-        <v>-0.2047393364928909</v>
+        <v>-0.2165094339622641</v>
       </c>
       <c r="O129" s="3">
-        <v>-0.04892406640555347</v>
+        <v>-0.06807474965144263</v>
       </c>
       <c r="P129" s="3">
-        <v>-0.1188182770043898</v>
+        <v>-0.08800810701953968</v>
       </c>
       <c r="Q129" s="3">
-        <v>-0.1204136390567941</v>
+        <v>-0.08695303001427958</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -8163,46 +8163,46 @@
         <v>290</v>
       </c>
       <c r="D130" s="1">
-        <v>9490326.860782858</v>
+        <v>9143819.95241143</v>
       </c>
       <c r="E130" s="2">
-        <v>0.9330865279715828</v>
+        <v>0.9578749136176463</v>
       </c>
       <c r="F130" s="3">
-        <v>-0.005552128315854313</v>
+        <v>-0.004334365325077438</v>
       </c>
       <c r="G130" s="3">
-        <v>-0.00124052572074253</v>
+        <v>-0.008738644170124391</v>
       </c>
       <c r="H130" s="3">
-        <v>-0.0746268656716417</v>
+        <v>-0.001862197392923617</v>
       </c>
       <c r="I130" s="3">
-        <v>-0.04008555499451566</v>
+        <v>-0.02277301033897143</v>
       </c>
       <c r="J130" s="3">
-        <v>-0.1248642779587405</v>
+        <v>-0.01167793484941618</v>
       </c>
       <c r="K130" s="3">
-        <v>-0.1819249294526947</v>
+        <v>-0.01645358396051753</v>
       </c>
       <c r="L130" s="3">
-        <v>-0.1365827530798071</v>
+        <v>-0.1016759776536313</v>
       </c>
       <c r="M130" s="3">
-        <v>-0.03394106843034359</v>
+        <v>-0.1077492294288398</v>
       </c>
       <c r="N130" s="3">
-        <v>-0.1258134490238612</v>
+        <v>-0.121791370835609</v>
       </c>
       <c r="O130" s="3">
-        <v>-0.007935367452014671</v>
+        <v>-0.01757533894182461</v>
       </c>
       <c r="P130" s="3">
-        <v>-0.07987725872710237</v>
+        <v>-0.06210140669467865</v>
       </c>
       <c r="Q130" s="3">
-        <v>-0.08560541421677781</v>
+        <v>-0.06483248053771203</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -8216,46 +8216,46 @@
         <v>291</v>
       </c>
       <c r="D131" s="1">
-        <v>58133971.25380286</v>
+        <v>57151440.20378572</v>
       </c>
       <c r="E131" s="2">
-        <v>0.9524031083230201</v>
+        <v>0.9559394137663459</v>
       </c>
       <c r="F131" s="3">
-        <v>0.01522491349480965</v>
+        <v>0.00574453705789594</v>
       </c>
       <c r="G131" s="3">
-        <v>0.04007818327155117</v>
+        <v>2.55013454216972E-05</v>
       </c>
       <c r="H131" s="3">
-        <v>-0.01796273569117478</v>
+        <v>0.01316237376602742</v>
       </c>
       <c r="I131" s="3">
-        <v>0.0001054853784281339</v>
+        <v>-1.618688755511515E-05</v>
       </c>
       <c r="J131" s="3">
-        <v>-0.0785175879396985</v>
+        <v>0.02703013572578783</v>
       </c>
       <c r="K131" s="3">
-        <v>-0.07244597504945557</v>
+        <v>0.003552584891679721</v>
       </c>
       <c r="L131" s="3">
-        <v>-0.1022947475777665</v>
+        <v>-0.04472023109018929</v>
       </c>
       <c r="M131" s="3">
-        <v>-0.04453396090520394</v>
+        <v>-0.05880861771522604</v>
       </c>
       <c r="N131" s="3">
-        <v>-0.134683444750295</v>
+        <v>-0.1192542907871375</v>
       </c>
       <c r="O131" s="3">
-        <v>-0.02901631483280678</v>
+        <v>-0.02826526709350122</v>
       </c>
       <c r="P131" s="3">
-        <v>-0.05848996797732976</v>
+        <v>-0.02939155818490217</v>
       </c>
       <c r="Q131" s="3">
-        <v>-0.06141303767930598</v>
+        <v>-0.03074625626021751</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -8269,46 +8269,46 @@
         <v>292</v>
       </c>
       <c r="D132" s="1">
-        <v>1207524887.308543</v>
+        <v>1238229283.257943</v>
       </c>
       <c r="E132" s="2">
-        <v>0.9902534117030053</v>
+        <v>1.051333462038989</v>
       </c>
       <c r="F132" s="3">
-        <v>0.04351151525452541</v>
+        <v>0.002547616159165334</v>
       </c>
       <c r="G132" s="3">
-        <v>0.1378957607164968</v>
+        <v>2.340036015133233E-05</v>
       </c>
       <c r="H132" s="3">
-        <v>0.01366244272918645</v>
+        <v>0.00948735697707555</v>
       </c>
       <c r="I132" s="3">
-        <v>0.05208406662229303</v>
+        <v>-0.0007277011814217213</v>
       </c>
       <c r="J132" s="3">
-        <v>-0.06131029737787628</v>
+        <v>0.05569749616760341</v>
       </c>
       <c r="K132" s="3">
-        <v>-0.02797653385180433</v>
+        <v>0.01786181899154284</v>
       </c>
       <c r="L132" s="3">
-        <v>-0.1528510814446858</v>
+        <v>-0.07973273942093538</v>
       </c>
       <c r="M132" s="3">
-        <v>-0.09460891469252701</v>
+        <v>-0.04650856711966588</v>
       </c>
       <c r="N132" s="3">
-        <v>-0.1540475370306579</v>
+        <v>-0.1399431069173663</v>
       </c>
       <c r="O132" s="3">
-        <v>-0.04551803906778508</v>
+        <v>-0.05226827978419987</v>
       </c>
       <c r="P132" s="3">
-        <v>-0.06129272427216567</v>
+        <v>-0.02324258337975727</v>
       </c>
       <c r="Q132" s="3">
-        <v>-0.06189599909255193</v>
+        <v>-0.02210771769280499</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -8322,46 +8322,46 @@
         <v>293</v>
       </c>
       <c r="D133" s="1">
-        <v>23113797.86635714</v>
+        <v>23454576.616</v>
       </c>
       <c r="E133" s="2">
-        <v>0.9154834337795804</v>
+        <v>1.014974073787053</v>
       </c>
       <c r="F133" s="3">
-        <v>-0.02333722287047843</v>
+        <v>-0.02905569007263912</v>
       </c>
       <c r="G133" s="3">
-        <v>-0.006493383244795242</v>
+        <v>-0.09987072479024965</v>
       </c>
       <c r="H133" s="3">
-        <v>-0.06688963210702346</v>
+        <v>-0.03373493975903604</v>
       </c>
       <c r="I133" s="3">
-        <v>-0.04983336400993373</v>
+        <v>-0.09881919546883751</v>
       </c>
       <c r="J133" s="3">
-        <v>-0.0990312163616793</v>
+        <v>-0.06852497096399529</v>
       </c>
       <c r="K133" s="3">
-        <v>-0.1681804826467845</v>
+        <v>-0.08544552556049294</v>
       </c>
       <c r="L133" s="3">
-        <v>-0.1655034895314057</v>
+        <v>-0.1394849785407725</v>
       </c>
       <c r="M133" s="3">
-        <v>-0.07499133729934847</v>
+        <v>-0.1247515569563524</v>
       </c>
       <c r="N133" s="3">
-        <v>-0.1646706586826348</v>
+        <v>-0.2059405940594059</v>
       </c>
       <c r="O133" s="3">
-        <v>-0.03505919503865065</v>
+        <v>-0.0532124958145409</v>
       </c>
       <c r="P133" s="3">
-        <v>-0.1198309979909916</v>
+        <v>-0.112311140873301</v>
       </c>
       <c r="Q133" s="3">
-        <v>-0.1308936825828387</v>
+        <v>-0.1106541967660786</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -8375,46 +8375,46 @@
         <v>294</v>
       </c>
       <c r="D134" s="1">
-        <v>38417564.77112571</v>
+        <v>40244069.85877714</v>
       </c>
       <c r="E134" s="2">
-        <v>0.8926092810708685</v>
+        <v>0.9896151602559808</v>
       </c>
       <c r="F134" s="3">
-        <v>0.0258110348093773</v>
+        <v>-0.03598441439376576</v>
       </c>
       <c r="G134" s="3">
-        <v>0.07184236461762401</v>
+        <v>-0.07104582978785397</v>
       </c>
       <c r="H134" s="3">
-        <v>0.01333333333333334</v>
+        <v>-0.02186046511627902</v>
       </c>
       <c r="I134" s="3">
-        <v>0.02854366123001602</v>
+        <v>-0.02802494665675106</v>
       </c>
       <c r="J134" s="3">
-        <v>-0.07217819661597767</v>
+        <v>0.01178734664421462</v>
       </c>
       <c r="K134" s="3">
-        <v>-0.04066155018806246</v>
+        <v>0.0003393402415139841</v>
       </c>
       <c r="L134" s="3">
-        <v>-0.05228615182673377</v>
+        <v>-0.08505547095932123</v>
       </c>
       <c r="M134" s="3">
-        <v>-0.02233890381533965</v>
+        <v>-0.04341340484431392</v>
       </c>
       <c r="N134" s="3">
-        <v>-0.04916593503072875</v>
+        <v>-0.08145883380650791</v>
       </c>
       <c r="O134" s="3">
-        <v>-0.001846848608983646</v>
+        <v>-0.003307971112462017</v>
       </c>
       <c r="P134" s="3">
-        <v>-0.03150022700170105</v>
+        <v>-0.05722961731608395</v>
       </c>
       <c r="Q134" s="3">
-        <v>-0.03529005094357753</v>
+        <v>-0.05783017440969733</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -8428,46 +8428,46 @@
         <v>295</v>
       </c>
       <c r="D135" s="1">
-        <v>55256768.04000001</v>
+        <v>40355062.94738286</v>
       </c>
       <c r="E135" s="2">
-        <v>1.301663069421373</v>
+        <v>1.282185984966466</v>
       </c>
       <c r="F135" s="3">
-        <v>0.00164977610181476</v>
+        <v>-0.01157943492357573</v>
       </c>
       <c r="G135" s="3">
-        <v>-0.01350924269791936</v>
+        <v>-0.005479441396356629</v>
       </c>
       <c r="H135" s="3">
-        <v>-0.0349682107175295</v>
+        <v>0.0101775147928994</v>
       </c>
       <c r="I135" s="3">
-        <v>-0.01647848576955723</v>
+        <v>-0.0005202228900096981</v>
       </c>
       <c r="J135" s="3">
-        <v>-0.09976699851726331</v>
+        <v>0.01161412657027736</v>
       </c>
       <c r="K135" s="3">
-        <v>-0.1240663027952294</v>
+        <v>-0.0003794014945763687</v>
       </c>
       <c r="L135" s="3">
-        <v>-0.0990036039855841</v>
+        <v>-0.1097204839382561</v>
       </c>
       <c r="M135" s="3">
-        <v>-0.04712479811401631</v>
+        <v>-0.09637308599758528</v>
       </c>
       <c r="N135" s="3">
-        <v>-0.04665769403319871</v>
+        <v>-0.07277862263741042</v>
       </c>
       <c r="O135" s="3">
-        <v>-0.0002002240862492729</v>
+        <v>-0.003615449763149457</v>
       </c>
       <c r="P135" s="3">
-        <v>-0.04689124607360751</v>
+        <v>-0.03912903201688352</v>
       </c>
       <c r="Q135" s="3">
-        <v>-0.03602410422111155</v>
+        <v>-0.03051743855857768</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -8481,46 +8481,46 @@
         <v>296</v>
       </c>
       <c r="D136" s="1">
-        <v>46380196.00521427</v>
+        <v>42858618.96399286</v>
       </c>
       <c r="E136" s="2">
-        <v>0.6995521458596486</v>
+        <v>0.6756353727167773</v>
       </c>
       <c r="F136" s="3">
-        <v>0.01277887602372213</v>
+        <v>0.008226185538504063</v>
       </c>
       <c r="G136" s="3">
-        <v>0.008456619196278015</v>
+        <v>0.0103349193344926</v>
       </c>
       <c r="H136" s="3">
-        <v>-0.007884362680683413</v>
+        <v>0.01630548393840153</v>
       </c>
       <c r="I136" s="3">
-        <v>0.0007257561086512841</v>
+        <v>0.01692151140261087</v>
       </c>
       <c r="J136" s="3">
-        <v>-0.02454780361757115</v>
+        <v>0.02740208509439269</v>
       </c>
       <c r="K136" s="3">
-        <v>-0.02772440013116177</v>
+        <v>0.02615271778109605</v>
       </c>
       <c r="L136" s="3">
-        <v>-0.051758328926494</v>
+        <v>-0.02844391153743678</v>
       </c>
       <c r="M136" s="3">
-        <v>-0.02893248833829699</v>
+        <v>-0.01596887911123393</v>
       </c>
       <c r="N136" s="3">
-        <v>-0.002225777283160754</v>
+        <v>0.01355107713690055</v>
       </c>
       <c r="O136" s="3">
-        <v>7.760872424045609E-05</v>
+        <v>-4.355600078392924E-05</v>
       </c>
       <c r="P136" s="3">
-        <v>-0.01497508870716126</v>
+        <v>0.01194299823569657</v>
       </c>
       <c r="Q136" s="3">
-        <v>-0.02140667968183993</v>
+        <v>0.01767669177484438</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -8534,46 +8534,46 @@
         <v>297</v>
       </c>
       <c r="D137" s="1">
-        <v>151503968.6847571</v>
+        <v>154035986.4080714</v>
       </c>
       <c r="E137" s="2">
-        <v>0.8075628450334243</v>
+        <v>0.8645218905261929</v>
       </c>
       <c r="F137" s="3">
-        <v>0.006862371330537644</v>
+        <v>-0.02278769464489178</v>
       </c>
       <c r="G137" s="3">
-        <v>5.701757750680792E-06</v>
+        <v>-0.06318668723725113</v>
       </c>
       <c r="H137" s="3">
-        <v>-0.06777267913872219</v>
+        <v>-0.02574782279439617</v>
       </c>
       <c r="I137" s="3">
-        <v>-0.008457278144266365</v>
+        <v>-0.07044047187764044</v>
       </c>
       <c r="J137" s="3">
-        <v>-0.1217159960093117</v>
+        <v>-0.03088512241054629</v>
       </c>
       <c r="K137" s="3">
-        <v>-0.1539222140767466</v>
+        <v>-0.02880462241160767</v>
       </c>
       <c r="L137" s="3">
-        <v>-0.155690537084399</v>
+        <v>-0.1591503267973857</v>
       </c>
       <c r="M137" s="3">
-        <v>-0.07884614435710377</v>
+        <v>-0.1280700777682821</v>
       </c>
       <c r="N137" s="3">
-        <v>-0.1818463444857496</v>
+        <v>-0.1865317736326274</v>
       </c>
       <c r="O137" s="3">
-        <v>-0.03095941899025349</v>
+        <v>-0.04556943789050121</v>
       </c>
       <c r="P137" s="3">
-        <v>-0.1163841792169252</v>
+        <v>-0.09562838250276662</v>
       </c>
       <c r="Q137" s="3">
-        <v>-0.1441177983022587</v>
+        <v>-0.1106141828803921</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -8587,46 +8587,46 @@
         <v>298</v>
       </c>
       <c r="D138" s="1">
-        <v>25099175.56937143</v>
+        <v>23862089.96244</v>
       </c>
       <c r="E138" s="2">
-        <v>0.6859759115136579</v>
+        <v>0.7255728075223016</v>
       </c>
       <c r="F138" s="3">
-        <v>0.02784160021624552</v>
+        <v>-0.01741065584500586</v>
       </c>
       <c r="G138" s="3">
-        <v>0.07260341338071158</v>
+        <v>-0.04888217673617696</v>
       </c>
       <c r="H138" s="3">
-        <v>-0.04037854889589899</v>
+        <v>-0.008192389006342437</v>
       </c>
       <c r="I138" s="3">
-        <v>-1.438182592156721E-05</v>
+        <v>-0.02118855469050402</v>
       </c>
       <c r="J138" s="3">
-        <v>-0.07582938388625587</v>
+        <v>0.01090909090909098</v>
       </c>
       <c r="K138" s="3">
-        <v>-0.079184447452662</v>
+        <v>1.406471609916302E-05</v>
       </c>
       <c r="L138" s="3">
-        <v>-0.1045566937477923</v>
+        <v>-0.0946809793752261</v>
       </c>
       <c r="M138" s="3">
-        <v>-0.05655935654896307</v>
+        <v>-0.06670580952181543</v>
       </c>
       <c r="N138" s="3">
-        <v>-0.1281669150521609</v>
+        <v>-0.1216943599344722</v>
       </c>
       <c r="O138" s="3">
-        <v>-0.02637769206821778</v>
+        <v>-0.03260998772934736</v>
       </c>
       <c r="P138" s="3">
-        <v>-0.06787190200081253</v>
+        <v>-0.05779399312899619</v>
       </c>
       <c r="Q138" s="3">
-        <v>-0.09894210694811138</v>
+        <v>-0.07965292046480091</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -8640,46 +8640,46 @@
         <v>299</v>
       </c>
       <c r="D139" s="1">
-        <v>213642910.5109029</v>
+        <v>228710428.5629828</v>
       </c>
       <c r="E139" s="2">
-        <v>1.054720219704227</v>
+        <v>1.047522153648547</v>
       </c>
       <c r="F139" s="3">
-        <v>0.003202427102646238</v>
+        <v>0.003330003330003259</v>
       </c>
       <c r="G139" s="3">
-        <v>-0.000180834555881548</v>
+        <v>4.09444689166699E-07</v>
       </c>
       <c r="H139" s="3">
-        <v>-0.02506142506142514</v>
+        <v>0.01328400874390444</v>
       </c>
       <c r="I139" s="3">
-        <v>-0.0006819096485163869</v>
+        <v>-0.0001088371180967733</v>
       </c>
       <c r="J139" s="3">
-        <v>-0.08767627222562846</v>
+        <v>0.005170975813177597</v>
       </c>
       <c r="K139" s="3">
-        <v>-0.08970941469079156</v>
+        <v>-0.001379707345298166</v>
       </c>
       <c r="L139" s="3">
-        <v>-0.131475266306727</v>
+        <v>-0.09857890800299175</v>
       </c>
       <c r="M139" s="3">
-        <v>-0.0626400565825475</v>
+        <v>-0.09477528363576899</v>
       </c>
       <c r="N139" s="3">
-        <v>-0.1894321122157157</v>
+        <v>-0.163984461709212</v>
       </c>
       <c r="O139" s="3">
-        <v>-0.04438909679354646</v>
+        <v>-0.04581602905094154</v>
       </c>
       <c r="P139" s="3">
-        <v>-0.07617473563666953</v>
+        <v>-0.04807749549053358</v>
       </c>
       <c r="Q139" s="3">
-        <v>-0.07222269395577818</v>
+        <v>-0.04589639973061992</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -8693,46 +8693,46 @@
         <v>300</v>
       </c>
       <c r="D140" s="1">
-        <v>147926448.52299</v>
+        <v>160683513.0264086</v>
       </c>
       <c r="E140" s="2">
-        <v>0.9553600761732034</v>
+        <v>0.9861413145707975</v>
       </c>
       <c r="F140" s="3">
-        <v>-0.006783493499151986</v>
+        <v>0.0001899335232668638</v>
       </c>
       <c r="G140" s="3">
-        <v>-0.0003257450801182795</v>
+        <v>-0.0007143346540073566</v>
       </c>
       <c r="H140" s="3">
-        <v>-0.07709816738648299</v>
+        <v>-0.009778112072207632</v>
       </c>
       <c r="I140" s="3">
-        <v>-0.03397946706084786</v>
+        <v>-0.02267482818187453</v>
       </c>
       <c r="J140" s="3">
-        <v>-0.1312493132622789</v>
+        <v>-0.0195494321355427</v>
       </c>
       <c r="K140" s="3">
-        <v>-0.181322353172022</v>
+        <v>-0.02988740049864097</v>
       </c>
       <c r="L140" s="3">
-        <v>-0.1774344569288389</v>
+        <v>-0.1417861799217732</v>
       </c>
       <c r="M140" s="3">
-        <v>-0.07568036249274754</v>
+        <v>-0.1438203542675403</v>
       </c>
       <c r="N140" s="3">
-        <v>-0.1840978277694649</v>
+        <v>-0.1817475527010928</v>
       </c>
       <c r="O140" s="3">
-        <v>-0.02952688446538173</v>
+        <v>-0.04703530145109915</v>
       </c>
       <c r="P140" s="3">
-        <v>-0.1285013578323848</v>
+        <v>-0.08685387738309065</v>
       </c>
       <c r="Q140" s="3">
-        <v>-0.1345056811952104</v>
+        <v>-0.0880744738099655</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -8746,46 +8746,46 @@
         <v>301</v>
       </c>
       <c r="D141" s="1">
-        <v>86498779.10664287</v>
+        <v>82497166.76025</v>
       </c>
       <c r="E141" s="2">
-        <v>0.6046738049838155</v>
+        <v>0.6214288907628586</v>
       </c>
       <c r="F141" s="3">
-        <v>0.005049560501215754</v>
+        <v>0.01061847988077498</v>
       </c>
       <c r="G141" s="3">
-        <v>-0.0009099582274301896</v>
+        <v>0.009408985864294847</v>
       </c>
       <c r="H141" s="3">
-        <v>-0.01140544518027954</v>
+        <v>0.01024208566108011</v>
       </c>
       <c r="I141" s="3">
-        <v>0.00240965881147083</v>
+        <v>0.001395711123578205</v>
       </c>
       <c r="J141" s="3">
-        <v>-0.03536169448931968</v>
+        <v>0.02127259036144577</v>
       </c>
       <c r="K141" s="3">
-        <v>-0.01740428280686143</v>
+        <v>1.490251384237176E-06</v>
       </c>
       <c r="L141" s="3">
-        <v>-0.009218289085545603</v>
+        <v>0.02031220613127699</v>
       </c>
       <c r="M141" s="3">
-        <v>0.0002844486928530511</v>
+        <v>-0.004525134485369873</v>
       </c>
       <c r="N141" s="3">
-        <v>0.01110065851364064</v>
+        <v>0.02980258162490513</v>
       </c>
       <c r="O141" s="3">
-        <v>0.001409347004620542</v>
+        <v>0.0001527777966764538</v>
       </c>
       <c r="P141" s="3">
-        <v>-0.0003127547672885693</v>
+        <v>0.004705238057839543</v>
       </c>
       <c r="Q141" s="3">
-        <v>-0.0005172289004597121</v>
+        <v>0.007571643558546899</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -8799,46 +8799,46 @@
         <v>302</v>
       </c>
       <c r="D142" s="1">
-        <v>334295107.70896</v>
+        <v>354545922.8044072</v>
       </c>
       <c r="E142" s="2">
-        <v>1.2768393336961</v>
+        <v>1.199326275210737</v>
       </c>
       <c r="F142" s="3">
-        <v>0.00362833254456534</v>
+        <v>0.02553996531609645</v>
       </c>
       <c r="G142" s="3">
-        <v>-0.0004961971432799166</v>
+        <v>0.06138922965564169</v>
       </c>
       <c r="H142" s="3">
-        <v>-0.05998817966903087</v>
+        <v>0.02764612954186414</v>
       </c>
       <c r="I142" s="3">
-        <v>-0.06047802169267442</v>
+        <v>6.330570534260357E-05</v>
       </c>
       <c r="J142" s="3">
-        <v>-0.1295662881379122</v>
+        <v>0.01640624999999996</v>
       </c>
       <c r="K142" s="3">
-        <v>-0.183612437902385</v>
+        <v>-0.0001909668388122718</v>
       </c>
       <c r="L142" s="3">
-        <v>-0.1801546391752577</v>
+        <v>-0.1453159900144528</v>
       </c>
       <c r="M142" s="3">
-        <v>-0.09742767413174286</v>
+        <v>-0.1402104076760821</v>
       </c>
       <c r="N142" s="3">
-        <v>-0.1659674882013635</v>
+        <v>-0.1778311425682508</v>
       </c>
       <c r="O142" s="3">
-        <v>-0.03437623761271932</v>
+        <v>-0.04918363112449366</v>
       </c>
       <c r="P142" s="3">
-        <v>-0.1316975811665532</v>
+        <v>-0.07020068725744721</v>
       </c>
       <c r="Q142" s="3">
-        <v>-0.1031434243064276</v>
+        <v>-0.05853343556999285</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -8852,46 +8852,46 @@
         <v>303</v>
       </c>
       <c r="D143" s="1">
-        <v>130820118.0678</v>
+        <v>124386080.6873143</v>
       </c>
       <c r="E143" s="2">
-        <v>1.087693883293126</v>
+        <v>1.152176919678204</v>
       </c>
       <c r="F143" s="3">
-        <v>-0.001136363636363637</v>
+        <v>-0.01237345331833522</v>
       </c>
       <c r="G143" s="3">
-        <v>-0.001563657085161601</v>
+        <v>-0.005854405274048203</v>
       </c>
       <c r="H143" s="3">
-        <v>-0.043525571273123</v>
+        <v>0</v>
       </c>
       <c r="I143" s="3">
-        <v>-0.008033659603487108</v>
+        <v>-0.01502402562240527</v>
       </c>
       <c r="J143" s="3">
-        <v>-0.08532778355879289</v>
+        <v>-0.003405221339387063</v>
       </c>
       <c r="K143" s="3">
-        <v>-0.1033148931005382</v>
+        <v>-0.006203905632264877</v>
       </c>
       <c r="L143" s="3">
-        <v>-0.1564299424184261</v>
+        <v>-0.09484536082474224</v>
       </c>
       <c r="M143" s="3">
-        <v>-0.06768912221083133</v>
+        <v>-0.0892838364253004</v>
       </c>
       <c r="N143" s="3">
-        <v>-0.04972972972972977</v>
+        <v>-0.05793991416309018</v>
       </c>
       <c r="O143" s="3">
-        <v>-0.001696957251731115</v>
+        <v>-0.02194165256988313</v>
       </c>
       <c r="P143" s="3">
-        <v>-0.05870942597028055</v>
+        <v>-0.03207190989767753</v>
       </c>
       <c r="Q143" s="3">
-        <v>-0.05397605601360061</v>
+        <v>-0.02783592463094558</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -8905,46 +8905,46 @@
         <v>304</v>
       </c>
       <c r="D144" s="1">
-        <v>395326793.8990315</v>
+        <v>420817315.72844</v>
       </c>
       <c r="E144" s="2">
-        <v>0.8225944657519133</v>
+        <v>0.8634530839935709</v>
       </c>
       <c r="F144" s="3">
-        <v>0.004019523399368396</v>
+        <v>-0.003788982803847343</v>
       </c>
       <c r="G144" s="3">
-        <v>-3.850735266541342E-06</v>
+        <v>-6.96953893898619E-12</v>
       </c>
       <c r="H144" s="3">
-        <v>-0.02127064091799607</v>
+        <v>-0.02454337899543378</v>
       </c>
       <c r="I144" s="3">
-        <v>-0.01477731947457944</v>
+        <v>-0.0541543535592517</v>
       </c>
       <c r="J144" s="3">
-        <v>-0.07876712328767119</v>
+        <v>-0.03117913832199549</v>
       </c>
       <c r="K144" s="3">
-        <v>-0.09171163200677929</v>
+        <v>-0.04927067978164115</v>
       </c>
       <c r="L144" s="3">
-        <v>-0.09521345407503233</v>
+        <v>-0.1071055381400209</v>
       </c>
       <c r="M144" s="3">
-        <v>-0.03882325018175971</v>
+        <v>-0.0954973843357271</v>
       </c>
       <c r="N144" s="3">
-        <v>-0.1031033598358554</v>
+        <v>-0.1073387307390964</v>
       </c>
       <c r="O144" s="3">
-        <v>-0.01250932780050583</v>
+        <v>-0.02549346272182523</v>
       </c>
       <c r="P144" s="3">
-        <v>-0.06526744109426949</v>
+        <v>-0.07238403205868413</v>
       </c>
       <c r="Q144" s="3">
-        <v>-0.07934339922237398</v>
+        <v>-0.08383088021864438</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -8958,46 +8958,46 @@
         <v>305</v>
       </c>
       <c r="D145" s="1">
-        <v>71806409.57306145</v>
+        <v>69975643.90278856</v>
       </c>
       <c r="E145" s="2">
-        <v>0.774841393645409</v>
+        <v>0.7713396241722031</v>
       </c>
       <c r="F145" s="3">
-        <v>-0.00528014080375469</v>
+        <v>-0.009351314105719094</v>
       </c>
       <c r="G145" s="3">
-        <v>-0.005617841387363461</v>
+        <v>-0.01221485750963232</v>
       </c>
       <c r="H145" s="3">
-        <v>-0.01098580594983468</v>
+        <v>-0.01081187340279137</v>
       </c>
       <c r="I145" s="3">
-        <v>0.0001462608127720394</v>
+        <v>-0.03305961001239664</v>
       </c>
       <c r="J145" s="3">
-        <v>-0.05901396725557299</v>
+        <v>-0.008179757563811948</v>
       </c>
       <c r="K145" s="3">
-        <v>-0.03889410767279659</v>
+        <v>-0.0203663185637513</v>
       </c>
       <c r="L145" s="3">
-        <v>-0.05744464004447329</v>
+        <v>-0.06206896551724135</v>
       </c>
       <c r="M145" s="3">
-        <v>-0.01054359735159658</v>
+        <v>-0.0559532074231496</v>
       </c>
       <c r="N145" s="3">
-        <v>-0.07744626825065741</v>
+        <v>-0.09300648882480167</v>
       </c>
       <c r="O145" s="3">
-        <v>-0.01646839646886519</v>
+        <v>-0.02122895311862177</v>
       </c>
       <c r="P145" s="3">
-        <v>-0.02471885251219658</v>
+        <v>-0.03815976299345045</v>
       </c>
       <c r="Q145" s="3">
-        <v>-0.03190182237928899</v>
+        <v>-0.04947206366378917</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -9011,46 +9011,46 @@
         <v>306</v>
       </c>
       <c r="D146" s="1">
-        <v>5870498918.018904</v>
+        <v>6212255581.67424</v>
       </c>
       <c r="E146" s="2">
-        <v>0.7482547823824389</v>
+        <v>0.7397254127702749</v>
       </c>
       <c r="F146" s="3">
-        <v>0.002078860375558101</v>
+        <v>0.02057335011870877</v>
       </c>
       <c r="G146" s="3">
-        <v>-5.732387384268854E-05</v>
+        <v>0.02865463333486702</v>
       </c>
       <c r="H146" s="3">
-        <v>-0.01441308574110061</v>
+        <v>0.02636610048517701</v>
       </c>
       <c r="I146" s="3">
-        <v>-0.0002215249828276694</v>
+        <v>0.003577154216760797</v>
       </c>
       <c r="J146" s="3">
-        <v>-0.07372201264795979</v>
+        <v>0.02683725081820901</v>
       </c>
       <c r="K146" s="3">
-        <v>-0.07315134404190519</v>
+        <v>0.0009534065009846033</v>
       </c>
       <c r="L146" s="3">
-        <v>-0.07665253571989314</v>
+        <v>-0.05440653817851607</v>
       </c>
       <c r="M146" s="3">
-        <v>-0.02696846692810506</v>
+        <v>-0.06810829826729936</v>
       </c>
       <c r="N146" s="3">
-        <v>-0.07272884950449775</v>
+        <v>-0.03770563632742475</v>
       </c>
       <c r="O146" s="3">
-        <v>-0.001380720530016333</v>
+        <v>-0.00481755632498341</v>
       </c>
       <c r="P146" s="3">
-        <v>-0.0498486582163014</v>
+        <v>-0.01837611491322007</v>
       </c>
       <c r="Q146" s="3">
-        <v>-0.06661989925087222</v>
+        <v>-0.02484180561595342</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -9064,46 +9064,46 @@
         <v>307</v>
       </c>
       <c r="D147" s="1">
-        <v>7319263998.715541</v>
+        <v>7538087200.712142</v>
       </c>
       <c r="E147" s="2">
-        <v>0.4556737395041002</v>
+        <v>0.4572383668965512</v>
       </c>
       <c r="F147" s="3">
-        <v>0.001404106712109989</v>
+        <v>0.002472586540529006</v>
       </c>
       <c r="G147" s="3">
-        <v>-2.220203869601554E-05</v>
+        <v>7.922455364166912E-05</v>
       </c>
       <c r="H147" s="3">
-        <v>-0.005908982606623822</v>
+        <v>0.00571613459879215</v>
       </c>
       <c r="I147" s="3">
-        <v>-0.0002516366590369602</v>
+        <v>-0.0004546631289119804</v>
       </c>
       <c r="J147" s="3">
-        <v>-0.04043789996607652</v>
+        <v>0.0058848910516097</v>
       </c>
       <c r="K147" s="3">
-        <v>-0.04337685731960069</v>
+        <v>-0.0001621063345640641</v>
       </c>
       <c r="L147" s="3">
-        <v>-0.02790673291433443</v>
+        <v>-0.03703831193418463</v>
       </c>
       <c r="M147" s="3">
-        <v>-0.004112031626705229</v>
+        <v>-0.04147665971102257</v>
       </c>
       <c r="N147" s="3">
-        <v>-0.02085741274208973</v>
+        <v>-0.01056925425747006</v>
       </c>
       <c r="O147" s="3">
-        <v>1.082147497993447E-05</v>
+        <v>-9.437549201325236E-05</v>
       </c>
       <c r="P147" s="3">
-        <v>-0.01248472218439748</v>
+        <v>-0.00536568029601706</v>
       </c>
       <c r="Q147" s="3">
-        <v>-0.0273983798100464</v>
+        <v>-0.01173497388776876</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -1379,46 +1379,46 @@
         <v>162</v>
       </c>
       <c r="D2" s="1">
-        <v>3430110.081757143</v>
+        <v>3336806.183314285</v>
       </c>
       <c r="E2" s="2">
-        <v>1.049093144700393</v>
+        <v>1.042672211695197</v>
       </c>
       <c r="F2" s="3">
-        <v>-0.01874359349831602</v>
+        <v>0.04261890055589868</v>
       </c>
       <c r="G2" s="3">
-        <v>-0.01179734443520437</v>
+        <v>0.04435558510308193</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.01238025055268983</v>
+        <v>-0.02116555523340097</v>
       </c>
       <c r="I2" s="3">
-        <v>-0.0303603773861086</v>
+        <v>-0.005380645801133898</v>
       </c>
       <c r="J2" s="3">
-        <v>0.01638101016229329</v>
+        <v>-0.004863669859985315</v>
       </c>
       <c r="K2" s="3">
-        <v>-3.425153453901077E-05</v>
+        <v>-0.009064897491835113</v>
       </c>
       <c r="L2" s="3">
-        <v>-0.1191008281845669</v>
+        <v>-0.1268589163326005</v>
       </c>
       <c r="M2" s="3">
-        <v>-0.08344205181803879</v>
+        <v>-0.06720463921323287</v>
       </c>
       <c r="N2" s="3">
-        <v>-0.1985408443966034</v>
+        <v>-0.1935021500238892</v>
       </c>
       <c r="O2" s="3">
-        <v>-0.068188803478422</v>
+        <v>-0.06978704907779887</v>
       </c>
       <c r="P2" s="3">
-        <v>-0.04761969812662158</v>
+        <v>-0.03813476835253399</v>
       </c>
       <c r="Q2" s="3">
-        <v>-0.04539129663288488</v>
+        <v>-0.03657407181738712</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1432,46 +1432,46 @@
         <v>163</v>
       </c>
       <c r="D3" s="1">
-        <v>12015553.81371428</v>
+        <v>11685068.83428571</v>
       </c>
       <c r="E3" s="2">
-        <v>1.293593315120953</v>
+        <v>1.26568827041367</v>
       </c>
       <c r="F3" s="3">
-        <v>-0.01966883176287627</v>
+        <v>0.03173996175908229</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.05567175586107281</v>
+        <v>0.05293597831848547</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.01389527928591152</v>
+        <v>-0.01388888888888885</v>
       </c>
       <c r="I3" s="3">
-        <v>-0.0273709385070218</v>
+        <v>-0.01379054890624497</v>
       </c>
       <c r="J3" s="3">
-        <v>-0.03511615343057812</v>
+        <v>-0.0132577489256652</v>
       </c>
       <c r="K3" s="3">
-        <v>-0.009169738854275465</v>
+        <v>-0.01079087832595841</v>
       </c>
       <c r="L3" s="3">
-        <v>-0.1137209494665454</v>
+        <v>-0.118804605209439</v>
       </c>
       <c r="M3" s="3">
-        <v>-0.09199440991221153</v>
+        <v>-0.08969419446739528</v>
       </c>
       <c r="N3" s="3">
-        <v>-0.1362244075447365</v>
+        <v>-0.1150471504715047</v>
       </c>
       <c r="O3" s="3">
-        <v>-0.01654195325290694</v>
+        <v>-0.01932768164465547</v>
       </c>
       <c r="P3" s="3">
-        <v>-0.07383308288664217</v>
+        <v>-0.05024253639667685</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.05707596199176299</v>
+        <v>-0.03969582208441885</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1485,46 +1485,46 @@
         <v>164</v>
       </c>
       <c r="D4" s="1">
-        <v>93141065.54603998</v>
+        <v>92432446.02585</v>
       </c>
       <c r="E4" s="2">
-        <v>1.455273825300532</v>
+        <v>1.419779480572433</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.04211716139178303</v>
+        <v>0.0212480605885292</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1379404352798704</v>
+        <v>0.0005579185035369984</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.02678816627137674</v>
+        <v>-0.04070844552034188</v>
       </c>
       <c r="I4" s="3">
-        <v>-0.04985014715066145</v>
+        <v>-0.06344596627379526</v>
       </c>
       <c r="J4" s="3">
-        <v>-0.04084444663156328</v>
+        <v>-0.04941988544573353</v>
       </c>
       <c r="K4" s="3">
-        <v>-0.01968963455380821</v>
+        <v>-0.05295486298655852</v>
       </c>
       <c r="L4" s="3">
-        <v>-0.1197272152470418</v>
+        <v>-0.1597247765973559</v>
       </c>
       <c r="M4" s="3">
-        <v>-0.1044031684896541</v>
+        <v>-0.1207363313523895</v>
       </c>
       <c r="N4" s="3">
-        <v>-0.2578532536267753</v>
+        <v>-0.2298004839157511</v>
       </c>
       <c r="O4" s="3">
-        <v>-0.05503396304621827</v>
+        <v>-0.05723628950537005</v>
       </c>
       <c r="P4" s="3">
-        <v>-0.1211718018847623</v>
+        <v>-0.08684559716947401</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.08326391898084116</v>
+        <v>-0.06116837041091708</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1538,46 +1538,46 @@
         <v>165</v>
       </c>
       <c r="D5" s="1">
-        <v>22200693.55742857</v>
+        <v>21816830.53885714</v>
       </c>
       <c r="E5" s="2">
-        <v>1.217057938583398</v>
+        <v>1.215609503167953</v>
       </c>
       <c r="F5" s="3">
-        <v>-0.003237992444684299</v>
+        <v>0.05953062392673146</v>
       </c>
       <c r="G5" s="3">
-        <v>-0.003415913776429541</v>
+        <v>0.05940714654098962</v>
       </c>
       <c r="H5" s="3">
-        <v>0.01959701904499027</v>
+        <v>0.005978260869565162</v>
       </c>
       <c r="I5" s="3">
-        <v>-0.002367022477621816</v>
+        <v>1.195064738944936E-06</v>
       </c>
       <c r="J5" s="3">
-        <v>0.0002707825616030029</v>
+        <v>0.003523990241257766</v>
       </c>
       <c r="K5" s="3">
-        <v>-0.003217609276541728</v>
+        <v>-0.0003747128991653864</v>
       </c>
       <c r="L5" s="3">
-        <v>-0.09149040826364975</v>
+        <v>-0.1122302158273381</v>
       </c>
       <c r="M5" s="3">
-        <v>-0.08243735053981642</v>
+        <v>-0.06152644496645026</v>
       </c>
       <c r="N5" s="3">
-        <v>-0.1472760849492151</v>
+        <v>-0.1544084056646871</v>
       </c>
       <c r="O5" s="3">
-        <v>-0.05090029703847588</v>
+        <v>-0.05203589396198292</v>
       </c>
       <c r="P5" s="3">
-        <v>-0.04292663215812298</v>
+        <v>-0.03095057893280782</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.03527082055607615</v>
+        <v>-0.02546095506176014</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1591,46 +1591,46 @@
         <v>166</v>
       </c>
       <c r="D6" s="1">
-        <v>4427269.99</v>
+        <v>4226754.420428571</v>
       </c>
       <c r="E6" s="2">
-        <v>0.9577373031096615</v>
+        <v>0.9492752795973984</v>
       </c>
       <c r="F6" s="3">
-        <v>-0.01789264413518879</v>
+        <v>0.0449672424061941</v>
       </c>
       <c r="G6" s="3">
-        <v>-0.05423294619561469</v>
+        <v>0.1020383532328707</v>
       </c>
       <c r="H6" s="3">
-        <v>0.002609452015076933</v>
+        <v>0.006886657101865143</v>
       </c>
       <c r="I6" s="3">
-        <v>-0.007763599951443108</v>
+        <v>-0.002679043453880298</v>
       </c>
       <c r="J6" s="3">
-        <v>0.008751458576429477</v>
+        <v>0.01916932907348238</v>
       </c>
       <c r="K6" s="3">
-        <v>8.600721012997906E-05</v>
+        <v>-0.0001852401277744889</v>
       </c>
       <c r="L6" s="3">
-        <v>-0.1121951219512195</v>
+        <v>-0.1281987577639753</v>
       </c>
       <c r="M6" s="3">
-        <v>-0.08790779492570763</v>
+        <v>-0.06744825936763389</v>
       </c>
       <c r="N6" s="3">
-        <v>-0.1205493387589013</v>
+        <v>-0.1071246819338423</v>
       </c>
       <c r="O6" s="3">
-        <v>-0.02594797423794508</v>
+        <v>-0.029012727630127</v>
       </c>
       <c r="P6" s="3">
-        <v>-0.07107037056066116</v>
+        <v>-0.03381674974770419</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.07420653902683329</v>
+        <v>-0.03562375474693323</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1644,46 +1644,46 @@
         <v>167</v>
       </c>
       <c r="D7" s="1">
-        <v>17002624.30978572</v>
+        <v>14413686.97064286</v>
       </c>
       <c r="E7" s="2">
-        <v>1.236339704351629</v>
+        <v>1.255413733310589</v>
       </c>
       <c r="F7" s="3">
-        <v>0.005872228409436091</v>
+        <v>0.03496577145866246</v>
       </c>
       <c r="G7" s="3">
-        <v>4.769424149192727E-05</v>
+        <v>0.007977046438441198</v>
       </c>
       <c r="H7" s="3">
-        <v>0.02857438658246202</v>
+        <v>0.002141545992249633</v>
       </c>
       <c r="I7" s="3">
-        <v>0.0005631965306069221</v>
+        <v>0.0008227204545076389</v>
       </c>
       <c r="J7" s="3">
-        <v>-0.005306367641169375</v>
+        <v>-0.01106973935795513</v>
       </c>
       <c r="K7" s="3">
-        <v>-0.0007390555285493646</v>
+        <v>0.0001134120266744334</v>
       </c>
       <c r="L7" s="3">
-        <v>-0.0563259878419452</v>
+        <v>-0.1279616647439879</v>
       </c>
       <c r="M7" s="3">
-        <v>-0.08580813204464652</v>
+        <v>-0.09532416523331852</v>
       </c>
       <c r="N7" s="3">
-        <v>-0.07244888432452609</v>
+        <v>-0.07327423613730667</v>
       </c>
       <c r="O7" s="3">
-        <v>-0.000333776495752225</v>
+        <v>-0.0006037270027212781</v>
       </c>
       <c r="P7" s="3">
-        <v>-0.03659396992653773</v>
+        <v>-0.03658041205531612</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.02959863684530671</v>
+        <v>-0.02913813278022038</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1697,46 +1697,46 @@
         <v>168</v>
       </c>
       <c r="D8" s="1">
-        <v>18615246.15405715</v>
+        <v>17957502.97367143</v>
       </c>
       <c r="E8" s="2">
-        <v>1.404232950868194</v>
+        <v>1.404777808286165</v>
       </c>
       <c r="F8" s="3">
-        <v>-0.0268274302938959</v>
+        <v>0.05133819951338192</v>
       </c>
       <c r="G8" s="3">
-        <v>-0.03383672556950109</v>
+        <v>0.031360874903465</v>
       </c>
       <c r="H8" s="3">
-        <v>-0.02033075405856466</v>
+        <v>-0.017880142435033</v>
       </c>
       <c r="I8" s="3">
-        <v>-0.02908308689337412</v>
+        <v>-0.009910115323408616</v>
       </c>
       <c r="J8" s="3">
-        <v>-0.0188421212581674</v>
+        <v>-0.02782360881955896</v>
       </c>
       <c r="K8" s="3">
-        <v>-0.007634440634938343</v>
+        <v>-0.01883377923836437</v>
       </c>
       <c r="L8" s="3">
-        <v>-0.1942347288949896</v>
+        <v>-0.2239583333333334</v>
       </c>
       <c r="M8" s="3">
-        <v>-0.1660920619664357</v>
+        <v>-0.1573102783995398</v>
       </c>
       <c r="N8" s="3">
-        <v>-0.2046560325183223</v>
+        <v>-0.2027675276752767</v>
       </c>
       <c r="O8" s="3">
-        <v>-0.0404398135586536</v>
+        <v>-0.05031817314910932</v>
       </c>
       <c r="P8" s="3">
-        <v>-0.09996439376796838</v>
+        <v>-0.08807202881895207</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.07118789920587142</v>
+        <v>-0.0626946327735632</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1750,46 +1750,46 @@
         <v>169</v>
       </c>
       <c r="D9" s="1">
-        <v>31585557.79285714</v>
+        <v>30754311.08055715</v>
       </c>
       <c r="E9" s="2">
-        <v>1.421454957620847</v>
+        <v>1.423071666316079</v>
       </c>
       <c r="F9" s="3">
-        <v>-0.05099150141643049</v>
+        <v>0.02223926380368109</v>
       </c>
       <c r="G9" s="3">
-        <v>-0.06586357020117416</v>
+        <v>0.002462310531548032</v>
       </c>
       <c r="H9" s="3">
-        <v>-0.04558404558404551</v>
+        <v>-0.05460992907801408</v>
       </c>
       <c r="I9" s="3">
-        <v>-0.1038554946129869</v>
+        <v>-0.06717117729545487</v>
       </c>
       <c r="J9" s="3">
-        <v>-0.06030855539971947</v>
+        <v>-0.06978367062107473</v>
       </c>
       <c r="K9" s="3">
-        <v>-0.05895701266538788</v>
+        <v>-0.08486922631041749</v>
       </c>
       <c r="L9" s="3">
-        <v>-0.1834247410115782</v>
+        <v>-0.2070196311719215</v>
       </c>
       <c r="M9" s="3">
-        <v>-0.1457406295606078</v>
+        <v>-0.1466899027259664</v>
       </c>
       <c r="N9" s="3">
-        <v>-0.2213829169087739</v>
+        <v>-0.2227405247813412</v>
       </c>
       <c r="O9" s="3">
-        <v>-0.05002296735402311</v>
+        <v>-0.0585301068920755</v>
       </c>
       <c r="P9" s="3">
-        <v>-0.105802099880891</v>
+        <v>-0.115779564518192</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.07443225640999325</v>
+        <v>-0.0813589134396244</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1803,46 +1803,46 @@
         <v>170</v>
       </c>
       <c r="D10" s="1">
-        <v>3785287.072920772</v>
+        <v>4149102.190063057</v>
       </c>
       <c r="E10" s="2">
-        <v>1.02684422134905</v>
+        <v>1.020235256799567</v>
       </c>
       <c r="F10" s="3">
-        <v>-0.0078971533516987</v>
+        <v>0.04067077872012319</v>
       </c>
       <c r="G10" s="3">
-        <v>-0.01700710365361253</v>
+        <v>0.03633997483854807</v>
       </c>
       <c r="H10" s="3">
-        <v>-0.008807339449541299</v>
+        <v>-0.008994126284875302</v>
       </c>
       <c r="I10" s="3">
-        <v>-0.0224245483730913</v>
+        <v>-0.0024423251860009</v>
       </c>
       <c r="J10" s="3">
-        <v>-0.006802721088435439</v>
+        <v>-0.01978939724037782</v>
       </c>
       <c r="K10" s="3">
-        <v>-0.007134222556498931</v>
+        <v>-0.01693910885379208</v>
       </c>
       <c r="L10" s="3">
-        <v>-0.12062510174182</v>
+        <v>-0.1455926570659916</v>
       </c>
       <c r="M10" s="3">
-        <v>-0.1025908124807368</v>
+        <v>-0.09732791246319915</v>
       </c>
       <c r="N10" s="3">
-        <v>-0.1546165884194053</v>
+        <v>-0.1542919799498748</v>
       </c>
       <c r="O10" s="3">
-        <v>-0.03428561706242639</v>
+        <v>-0.03869208268234143</v>
       </c>
       <c r="P10" s="3">
-        <v>-0.05979895806717465</v>
+        <v>-0.05713351065849562</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.05823566693359956</v>
+        <v>-0.05600032960801698</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1856,46 +1856,46 @@
         <v>171</v>
       </c>
       <c r="D11" s="1">
-        <v>65381786.88005713</v>
+        <v>67216531.21221428</v>
       </c>
       <c r="E11" s="2">
-        <v>1.511952672928263</v>
+        <v>1.477902839266316</v>
       </c>
       <c r="F11" s="3">
-        <v>-0.008509145947542341</v>
+        <v>0.04483323180018289</v>
       </c>
       <c r="G11" s="3">
-        <v>-0.04230622057047385</v>
+        <v>0.1198570623183738</v>
       </c>
       <c r="H11" s="3">
-        <v>-0.055144148739688</v>
+        <v>0.04043601895734605</v>
       </c>
       <c r="I11" s="3">
-        <v>-0.04517729422699254</v>
+        <v>0.0002076503629959616</v>
       </c>
       <c r="J11" s="3">
-        <v>-0.08891075002544195</v>
+        <v>-0.05678244281368684</v>
       </c>
       <c r="K11" s="3">
-        <v>-0.09590820285309348</v>
+        <v>-0.04334730572918889</v>
       </c>
       <c r="L11" s="3">
-        <v>-0.1008821117118323</v>
+        <v>-0.1055427891588846</v>
       </c>
       <c r="M11" s="3">
-        <v>-0.06548695521772098</v>
+        <v>-0.09129560637491294</v>
       </c>
       <c r="N11" s="3">
-        <v>-0.2155843397245871</v>
+        <v>-0.1973705377381944</v>
       </c>
       <c r="O11" s="3">
-        <v>-0.05057922598216316</v>
+        <v>-0.05382490970407307</v>
       </c>
       <c r="P11" s="3">
-        <v>-0.08069757903540722</v>
+        <v>-0.06732145605205092</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.05337308533547998</v>
+        <v>-0.04555201753687118</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1909,46 +1909,46 @@
         <v>172</v>
       </c>
       <c r="D12" s="1">
-        <v>17154810.85392857</v>
+        <v>20354354.55085714</v>
       </c>
       <c r="E12" s="2">
-        <v>0.9035872837766145</v>
+        <v>0.9707027933117288</v>
       </c>
       <c r="F12" s="3">
-        <v>0.09175870858113844</v>
+        <v>0.00513374763577415</v>
       </c>
       <c r="G12" s="3">
-        <v>0.1586435204279255</v>
+        <v>0.0009657968075788215</v>
       </c>
       <c r="H12" s="3">
-        <v>0.1030042918454937</v>
+        <v>0.07359307359307367</v>
       </c>
       <c r="I12" s="3">
-        <v>0.07593859121587609</v>
+        <v>0.1036848062702111</v>
       </c>
       <c r="J12" s="3">
-        <v>0.1304985337243401</v>
+        <v>0.06225014277555678</v>
       </c>
       <c r="K12" s="3">
-        <v>0.07132888242134569</v>
+        <v>0.05908514438407062</v>
       </c>
       <c r="L12" s="3">
-        <v>0.0002594706798131525</v>
+        <v>-0.05655592188688813</v>
       </c>
       <c r="M12" s="3">
-        <v>-0.04108966561269701</v>
+        <v>-0.01711530128642934</v>
       </c>
       <c r="N12" s="3">
-        <v>-0.08908317580340266</v>
+        <v>-0.1255289139633286</v>
       </c>
       <c r="O12" s="3">
-        <v>-0.04507763463184437</v>
+        <v>-0.03841138070369302</v>
       </c>
       <c r="P12" s="3">
-        <v>0.01511960840432434</v>
+        <v>-0.008074752239425258</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.01673286983536415</v>
+        <v>-0.008318459877793052</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1962,46 +1962,46 @@
         <v>173</v>
       </c>
       <c r="D13" s="1">
-        <v>8458348.833928572</v>
+        <v>7665394.270999999</v>
       </c>
       <c r="E13" s="2">
-        <v>1.235160857579591</v>
+        <v>1.226243191538478</v>
       </c>
       <c r="F13" s="3">
-        <v>-0.01912181303116141</v>
+        <v>0.05061349693251538</v>
       </c>
       <c r="G13" s="3">
-        <v>-0.02991717815127899</v>
+        <v>0.01422361918892396</v>
       </c>
       <c r="H13" s="3">
-        <v>-0.02050919377652045</v>
+        <v>-0.02767920511000704</v>
       </c>
       <c r="I13" s="3">
-        <v>-0.02456136093212879</v>
+        <v>-0.01190251484179024</v>
       </c>
       <c r="J13" s="3">
-        <v>-0.01912181303116141</v>
+        <v>-0.04794996525364833</v>
       </c>
       <c r="K13" s="3">
-        <v>-0.02350006433290958</v>
+        <v>-0.02799947243192167</v>
       </c>
       <c r="L13" s="3">
-        <v>-0.1413515189088655</v>
+        <v>-0.1646341463414633</v>
       </c>
       <c r="M13" s="3">
-        <v>-0.119818155079734</v>
+        <v>-0.1156928818287888</v>
       </c>
       <c r="N13" s="3">
-        <v>-0.1523867809057527</v>
+        <v>-0.1701998788612961</v>
       </c>
       <c r="O13" s="3">
-        <v>-0.03092458750286893</v>
+        <v>-0.03716980806903188</v>
       </c>
       <c r="P13" s="3">
-        <v>-0.07486766661550648</v>
+        <v>-0.07184617713035525</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.06061369752456084</v>
+        <v>-0.05859047995219861</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2015,46 +2015,46 @@
         <v>174</v>
       </c>
       <c r="D14" s="1">
-        <v>143158997.4975957</v>
+        <v>140161933.12494</v>
       </c>
       <c r="E14" s="2">
-        <v>1.678838699511193</v>
+        <v>1.654203719492381</v>
       </c>
       <c r="F14" s="3">
-        <v>0.01763574176998713</v>
+        <v>0.09158751696065137</v>
       </c>
       <c r="G14" s="3">
-        <v>9.336660455619994E-05</v>
+        <v>0.1765278904430867</v>
       </c>
       <c r="H14" s="3">
-        <v>0.02321332616872644</v>
+        <v>0.04356285806939791</v>
       </c>
       <c r="I14" s="3">
-        <v>-0.00213094833524166</v>
+        <v>0.0318601756654893</v>
       </c>
       <c r="J14" s="3">
-        <v>0.02431414739107042</v>
+        <v>0.02083113037961304</v>
       </c>
       <c r="K14" s="3">
-        <v>-3.889283160738668E-05</v>
+        <v>0.001450573314004509</v>
       </c>
       <c r="L14" s="3">
-        <v>-0.07193683594892299</v>
+        <v>-0.1515950435011863</v>
       </c>
       <c r="M14" s="3">
-        <v>-0.1381256132244677</v>
+        <v>-0.1183040214498259</v>
       </c>
       <c r="N14" s="3">
-        <v>-0.06994236592751793</v>
+        <v>-0.08786848072562356</v>
       </c>
       <c r="O14" s="3">
-        <v>-0.008814907662855517</v>
+        <v>-0.0116549432720905</v>
       </c>
       <c r="P14" s="3">
-        <v>-0.03499062937956266</v>
+        <v>-0.04320895370580952</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.02084216273412714</v>
+        <v>-0.02612069674167392</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2068,46 +2068,46 @@
         <v>175</v>
       </c>
       <c r="D15" s="1">
-        <v>13480312.93242857</v>
+        <v>13633198.2848</v>
       </c>
       <c r="E15" s="2">
-        <v>1.403352246464109</v>
+        <v>1.41660332488135</v>
       </c>
       <c r="F15" s="3">
-        <v>-0.00977883385121564</v>
+        <v>0.0550980392156863</v>
       </c>
       <c r="G15" s="3">
-        <v>-0.001820229057853974</v>
+        <v>0.01828509800440548</v>
       </c>
       <c r="H15" s="3">
-        <v>0.00444980068601086</v>
+        <v>-0.0008355770123478794</v>
       </c>
       <c r="I15" s="3">
-        <v>-0.004894712042199123</v>
+        <v>-6.007704567774336E-05</v>
       </c>
       <c r="J15" s="3">
-        <v>-0.042252276142491</v>
+        <v>-0.04081996434937617</v>
       </c>
       <c r="K15" s="3">
-        <v>-0.0324068896474187</v>
+        <v>-0.006459938328815465</v>
       </c>
       <c r="L15" s="3">
-        <v>-0.1956198960653304</v>
+        <v>-0.2352732182192851</v>
       </c>
       <c r="M15" s="3">
-        <v>-0.1973509095973138</v>
+        <v>-0.193439393907416</v>
       </c>
       <c r="N15" s="3">
-        <v>-0.2813080392677104</v>
+        <v>-0.2866706436004506</v>
       </c>
       <c r="O15" s="3">
-        <v>-0.07170174339118399</v>
+        <v>-0.07694772101092034</v>
       </c>
       <c r="P15" s="3">
-        <v>-0.1148788996223662</v>
+        <v>-0.09994966611811572</v>
       </c>
       <c r="Q15" s="3">
-        <v>-0.08186034540637643</v>
+        <v>-0.07055586017806868</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2121,46 +2121,46 @@
         <v>176</v>
       </c>
       <c r="D16" s="1">
-        <v>45586398.28854857</v>
+        <v>34817987.49778286</v>
       </c>
       <c r="E16" s="2">
-        <v>1.529805449218376</v>
+        <v>1.530283579998016</v>
       </c>
       <c r="F16" s="3">
-        <v>-0.05189775367931834</v>
+        <v>0.03553299492385783</v>
       </c>
       <c r="G16" s="3">
-        <v>-0.1542539627597172</v>
+        <v>0.009801081776747584</v>
       </c>
       <c r="H16" s="3">
-        <v>-0.04747081712062263</v>
+        <v>-0.04524180967238699</v>
       </c>
       <c r="I16" s="3">
-        <v>-0.07328539916238747</v>
+        <v>-0.0784269876276141</v>
       </c>
       <c r="J16" s="3">
-        <v>-0.05846153846153853</v>
+        <v>-0.06564885496183213</v>
       </c>
       <c r="K16" s="3">
-        <v>-0.05797284438462796</v>
+        <v>-0.06738324204501416</v>
       </c>
       <c r="L16" s="3">
-        <v>-0.03849175176747841</v>
+        <v>-0.184</v>
       </c>
       <c r="M16" s="3">
-        <v>-0.1057894612593086</v>
+        <v>-0.1655803766511512</v>
       </c>
       <c r="N16" s="3">
-        <v>-0.09933774834437085</v>
+        <v>-0.09734513274336286</v>
       </c>
       <c r="O16" s="3">
-        <v>1.959954569107265E-08</v>
+        <v>-2.904122700447501E-05</v>
       </c>
       <c r="P16" s="3">
-        <v>-0.1025636048018397</v>
+        <v>-0.08236418739418851</v>
       </c>
       <c r="Q16" s="3">
-        <v>-0.06704356090131762</v>
+        <v>-0.05382282635111023</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2174,46 +2174,46 @@
         <v>177</v>
       </c>
       <c r="D17" s="1">
-        <v>14667914.23193486</v>
+        <v>14436147.82036114</v>
       </c>
       <c r="E17" s="2">
-        <v>1.304563353890615</v>
+        <v>1.280962227079466</v>
       </c>
       <c r="F17" s="3">
-        <v>-0.01045296167247388</v>
+        <v>0.05705705705705696</v>
       </c>
       <c r="G17" s="3">
-        <v>-0.0102299627079424</v>
+        <v>0.09642243757921677</v>
       </c>
       <c r="H17" s="3">
-        <v>0.01002263174911096</v>
+        <v>0.01440922190201726</v>
       </c>
       <c r="I17" s="3">
-        <v>-0.001321985170688188</v>
+        <v>0.0001857764271152843</v>
       </c>
       <c r="J17" s="3">
-        <v>-0.002872646026172963</v>
+        <v>-0.00876095118898631</v>
       </c>
       <c r="K17" s="3">
-        <v>-0.000709390667309618</v>
+        <v>-2.725485624528343E-05</v>
       </c>
       <c r="L17" s="3">
-        <v>-0.1466812346353456</v>
+        <v>-0.1601272534464476</v>
       </c>
       <c r="M17" s="3">
-        <v>-0.1254998746853009</v>
+        <v>-0.1135168261370648</v>
       </c>
       <c r="N17" s="3">
-        <v>-0.2197802197802197</v>
+        <v>-0.2091862206689966</v>
       </c>
       <c r="O17" s="3">
-        <v>-0.05577285379480697</v>
+        <v>-0.05715200426450159</v>
       </c>
       <c r="P17" s="3">
-        <v>-0.06786491869662163</v>
+        <v>-0.05677204049665503</v>
       </c>
       <c r="Q17" s="3">
-        <v>-0.05202117512670217</v>
+        <v>-0.04431983964592977</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2227,46 +2227,46 @@
         <v>178</v>
       </c>
       <c r="D18" s="1">
-        <v>24179229.06963143</v>
+        <v>20552923.46439</v>
       </c>
       <c r="E18" s="2">
-        <v>1.547471317402405</v>
+        <v>1.600287131708348</v>
       </c>
       <c r="F18" s="3">
-        <v>-0.0262629642020743</v>
+        <v>0.002211215283920044</v>
       </c>
       <c r="G18" s="3">
-        <v>-0.07911003345545234</v>
+        <v>-0.01456892290375413</v>
       </c>
       <c r="H18" s="3">
-        <v>-0.03385892116182573</v>
+        <v>-0.07176210371098553</v>
       </c>
       <c r="I18" s="3">
-        <v>-0.1006061268114244</v>
+        <v>-0.09612667198713552</v>
       </c>
       <c r="J18" s="3">
-        <v>-0.05671690163668778</v>
+        <v>-0.08228719527010613</v>
       </c>
       <c r="K18" s="3">
-        <v>-0.08230355198069253</v>
+        <v>-0.09478760022562967</v>
       </c>
       <c r="L18" s="3">
-        <v>-0.08575467253023411</v>
+        <v>-0.1681838202907063</v>
       </c>
       <c r="M18" s="3">
-        <v>-0.07620159072900363</v>
+        <v>-0.10557870921286</v>
       </c>
       <c r="N18" s="3">
-        <v>-0.03880449141347432</v>
+        <v>-0.07183813892529489</v>
       </c>
       <c r="O18" s="3">
-        <v>0.0003440073715062961</v>
+        <v>2.176493967596753E-06</v>
       </c>
       <c r="P18" s="3">
-        <v>-0.07765581209222799</v>
+        <v>-0.08331286957546227</v>
       </c>
       <c r="Q18" s="3">
-        <v>-0.05018239189245945</v>
+        <v>-0.05206120072122535</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2280,46 +2280,46 @@
         <v>179</v>
       </c>
       <c r="D19" s="1">
-        <v>139738847.9682857</v>
+        <v>142316549.4447143</v>
       </c>
       <c r="E19" s="2">
-        <v>1.65856755721699</v>
+        <v>1.73249205117339</v>
       </c>
       <c r="F19" s="3">
-        <v>0.1410115014967702</v>
+        <v>-0.09199006925388745</v>
       </c>
       <c r="G19" s="3">
-        <v>0.5542786982633126</v>
+        <v>-0.2882957265335805</v>
       </c>
       <c r="H19" s="3">
-        <v>0.1817885117493473</v>
+        <v>0.1166639884300177</v>
       </c>
       <c r="I19" s="3">
-        <v>0.387476679475967</v>
+        <v>0.1479751223520844</v>
       </c>
       <c r="J19" s="3">
-        <v>0.1783273673934266</v>
+        <v>0.1493549454184584</v>
       </c>
       <c r="K19" s="3">
-        <v>0.2247584375094999</v>
+        <v>0.2281356307908109</v>
       </c>
       <c r="L19" s="3">
-        <v>0.3376431473956409</v>
+        <v>0.2150725651337646</v>
       </c>
       <c r="M19" s="3">
-        <v>0.06498219007028762</v>
+        <v>0.06457046432740308</v>
       </c>
       <c r="N19" s="3">
-        <v>0.1661835748792271</v>
+        <v>0.1626233896603646</v>
       </c>
       <c r="O19" s="3">
-        <v>0.02739183525343958</v>
+        <v>0.05011768725682122</v>
       </c>
       <c r="P19" s="3">
-        <v>0.1954710061943635</v>
+        <v>0.1135969269938838</v>
       </c>
       <c r="Q19" s="3">
-        <v>0.1178553175864334</v>
+        <v>0.06556851266183089</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2333,46 +2333,46 @@
         <v>180</v>
       </c>
       <c r="D20" s="1">
-        <v>249045694.6342857</v>
+        <v>220385718.508</v>
       </c>
       <c r="E20" s="2">
-        <v>1.62213778532472</v>
+        <v>1.602250473550892</v>
       </c>
       <c r="F20" s="3">
-        <v>0.007128599942971175</v>
+        <v>0.02873900293255128</v>
       </c>
       <c r="G20" s="3">
-        <v>0.0002164432253220152</v>
+        <v>0.007067724967819893</v>
       </c>
       <c r="H20" s="3">
-        <v>0.02376811594202894</v>
+        <v>0.01036866359447005</v>
       </c>
       <c r="I20" s="3">
-        <v>0.0009675063550394976</v>
+        <v>0.006710745605207898</v>
       </c>
       <c r="J20" s="3">
-        <v>0.03214494447691404</v>
+        <v>-0.01155255001408845</v>
       </c>
       <c r="K20" s="3">
-        <v>0.005381529680173435</v>
+        <v>0.003745532324325211</v>
       </c>
       <c r="L20" s="3">
-        <v>-0.1302634819010096</v>
+        <v>-0.1395634044640667</v>
       </c>
       <c r="M20" s="3">
-        <v>-0.1017876027956841</v>
+        <v>-0.0796088034918624</v>
       </c>
       <c r="N20" s="3">
-        <v>-0.1420937575904785</v>
+        <v>-0.1609662760105238</v>
       </c>
       <c r="O20" s="3">
-        <v>-0.02135160219133189</v>
+        <v>-0.02368894688969189</v>
       </c>
       <c r="P20" s="3">
-        <v>-0.05078557978518102</v>
+        <v>-0.03793163558376859</v>
       </c>
       <c r="Q20" s="3">
-        <v>-0.03130780889554011</v>
+        <v>-0.02367397370755952</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2386,46 +2386,46 @@
         <v>181</v>
       </c>
       <c r="D21" s="1">
-        <v>93854408.35247143</v>
+        <v>93363324.00827143</v>
       </c>
       <c r="E21" s="2">
-        <v>1.340030276740045</v>
+        <v>1.343091992877795</v>
       </c>
       <c r="F21" s="3">
-        <v>-0.01988265971316817</v>
+        <v>0.05302226935312836</v>
       </c>
       <c r="G21" s="3">
-        <v>-0.03176729703493687</v>
+        <v>0.03758412120249923</v>
       </c>
       <c r="H21" s="3">
-        <v>0.01450742240215933</v>
+        <v>-0.003678929765886254</v>
       </c>
       <c r="I21" s="3">
-        <v>-7.305362585493017E-06</v>
+        <v>-0.003531836903197538</v>
       </c>
       <c r="J21" s="3">
-        <v>-0.01892332789559534</v>
+        <v>-0.02423845397969216</v>
       </c>
       <c r="K21" s="3">
-        <v>-0.002109326543253619</v>
+        <v>-0.0005001181631430475</v>
       </c>
       <c r="L21" s="3">
-        <v>-0.2267935201851375</v>
+        <v>-0.2535705337008269</v>
       </c>
       <c r="M21" s="3">
-        <v>-0.2060545605207577</v>
+        <v>-0.1835045539679275</v>
       </c>
       <c r="N21" s="3">
-        <v>-0.2486256871564217</v>
+        <v>-0.2662561576354681</v>
       </c>
       <c r="O21" s="3">
-        <v>-0.07987787766739897</v>
+        <v>-0.09059074584412058</v>
       </c>
       <c r="P21" s="3">
-        <v>-0.1189109287778473</v>
+        <v>-0.09200233606553526</v>
       </c>
       <c r="Q21" s="3">
-        <v>-0.08873749410134787</v>
+        <v>-0.06850039800207965</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2439,46 +2439,46 @@
         <v>182</v>
       </c>
       <c r="D22" s="1">
-        <v>3099926.504314285</v>
+        <v>2911796.808857142</v>
       </c>
       <c r="E22" s="2">
-        <v>1.109877050650989</v>
+        <v>1.107475435354586</v>
       </c>
       <c r="F22" s="3">
-        <v>-0.0109151973131823</v>
+        <v>0.04332449160035361</v>
       </c>
       <c r="G22" s="3">
-        <v>-0.007066075735736904</v>
+        <v>0.03025047262971252</v>
       </c>
       <c r="H22" s="3">
-        <v>0.001700680272108845</v>
+        <v>-0.002535925612848786</v>
       </c>
       <c r="I22" s="3">
-        <v>-0.006356256457188709</v>
+        <v>-0.0002448369429007941</v>
       </c>
       <c r="J22" s="3">
-        <v>-0.003384094754653134</v>
+        <v>-0.01172529313232832</v>
       </c>
       <c r="K22" s="3">
-        <v>-0.002571470867034284</v>
+        <v>-0.002229666292530764</v>
       </c>
       <c r="L22" s="3">
-        <v>-0.1274074074074075</v>
+        <v>-0.144927536231884</v>
       </c>
       <c r="M22" s="3">
-        <v>-0.1073523710110231</v>
+        <v>-0.09641124210904639</v>
       </c>
       <c r="N22" s="3">
-        <v>-0.188146106133701</v>
+        <v>-0.1856452726017944</v>
       </c>
       <c r="O22" s="3">
-        <v>-0.05550329619285164</v>
+        <v>-0.06010278119632466</v>
       </c>
       <c r="P22" s="3">
-        <v>-0.05720922337338002</v>
+        <v>-0.04932045420078858</v>
       </c>
       <c r="Q22" s="3">
-        <v>-0.05154555032904272</v>
+        <v>-0.04453412926942022</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2492,46 +2492,46 @@
         <v>183</v>
       </c>
       <c r="D23" s="1">
-        <v>27129076.89762857</v>
+        <v>29675005.72874286</v>
       </c>
       <c r="E23" s="2">
-        <v>1.129657134799019</v>
+        <v>1.159397383085818</v>
       </c>
       <c r="F23" s="3">
-        <v>0.07941729323308271</v>
+        <v>0.05725544738062123</v>
       </c>
       <c r="G23" s="3">
-        <v>0.2728522245632043</v>
+        <v>0.0004387131491536262</v>
       </c>
       <c r="H23" s="3">
-        <v>0.1072547601831766</v>
+        <v>0.08724672228843867</v>
       </c>
       <c r="I23" s="3">
-        <v>0.1485841639038392</v>
+        <v>0.1642511237764913</v>
       </c>
       <c r="J23" s="3">
-        <v>0.09904306220095692</v>
+        <v>0.0810618630007111</v>
       </c>
       <c r="K23" s="3">
-        <v>0.06554306382806545</v>
+        <v>0.1096470929934426</v>
       </c>
       <c r="L23" s="3">
-        <v>0.0832350860646074</v>
+        <v>0.03330312641594923</v>
       </c>
       <c r="M23" s="3">
-        <v>-0.005782877105087987</v>
+        <v>-0.003233686322429884</v>
       </c>
       <c r="N23" s="3">
-        <v>-0.05395387149917628</v>
+        <v>-0.05803387030152832</v>
       </c>
       <c r="O23" s="3">
-        <v>-0.004007111231552488</v>
+        <v>-0.0007888673570341955</v>
       </c>
       <c r="P23" s="3">
-        <v>0.02988009336148873</v>
+        <v>-0.001397486586638129</v>
       </c>
       <c r="Q23" s="3">
-        <v>0.02645058614780917</v>
+        <v>-0.001205355995300438</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2545,46 +2545,46 @@
         <v>184</v>
       </c>
       <c r="D24" s="1">
-        <v>19338741.97598571</v>
+        <v>19162491.81217143</v>
       </c>
       <c r="E24" s="2">
-        <v>1.416654740361675</v>
+        <v>1.404346576079622</v>
       </c>
       <c r="F24" s="3">
-        <v>-0.001302083333333335</v>
+        <v>0.0604395604395605</v>
       </c>
       <c r="G24" s="3">
-        <v>-6.081905767047944E-05</v>
+        <v>0.1003967381614055</v>
       </c>
       <c r="H24" s="3">
-        <v>0.01859229747675965</v>
+        <v>0.01312335958005251</v>
       </c>
       <c r="I24" s="3">
-        <v>-0.0008111145109528093</v>
+        <v>0.00582048174560435</v>
       </c>
       <c r="J24" s="3">
-        <v>0.01589403973509935</v>
+        <v>-0.01404853128991061</v>
       </c>
       <c r="K24" s="3">
-        <v>-0.00154058469450869</v>
+        <v>1.827409622177424E-06</v>
       </c>
       <c r="L24" s="3">
-        <v>-0.1681127982646421</v>
+        <v>-0.193312434691745</v>
       </c>
       <c r="M24" s="3">
-        <v>-0.1614441755656341</v>
+        <v>-0.1290577383983236</v>
       </c>
       <c r="N24" s="3">
-        <v>-0.3001824817518249</v>
+        <v>-0.3038773669972948</v>
       </c>
       <c r="O24" s="3">
-        <v>-0.1111397981840453</v>
+        <v>-0.1093167563844013</v>
       </c>
       <c r="P24" s="3">
-        <v>-0.08149238013007137</v>
+        <v>-0.06452795549435072</v>
       </c>
       <c r="Q24" s="3">
-        <v>-0.05752451730706536</v>
+        <v>-0.04594873985771173</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2598,46 +2598,46 @@
         <v>185</v>
       </c>
       <c r="D25" s="1">
-        <v>3031559.047938571</v>
+        <v>2754243.479767143</v>
       </c>
       <c r="E25" s="2">
-        <v>0.8943781965970214</v>
+        <v>0.8911469275872925</v>
       </c>
       <c r="F25" s="3">
-        <v>-0.01657527417746774</v>
+        <v>0.04978869519281576</v>
       </c>
       <c r="G25" s="3">
-        <v>-0.03078612792326136</v>
+        <v>0.06972790064251022</v>
       </c>
       <c r="H25" s="3">
-        <v>-0.008419200804222217</v>
+        <v>-0.01291444182292312</v>
       </c>
       <c r="I25" s="3">
-        <v>-0.02453955187615395</v>
+        <v>-0.002811027254977002</v>
       </c>
       <c r="J25" s="3">
-        <v>-0.01288466349762326</v>
+        <v>-0.02334439120285046</v>
       </c>
       <c r="K25" s="3">
-        <v>-0.0050629505077738</v>
+        <v>-0.00576225876470227</v>
       </c>
       <c r="L25" s="3">
-        <v>-0.1009456534123278</v>
+        <v>-0.1209775516974455</v>
       </c>
       <c r="M25" s="3">
-        <v>-0.09106901074702711</v>
+        <v>-0.08338157594524517</v>
       </c>
       <c r="N25" s="3">
-        <v>-0.1582933333333334</v>
+        <v>-0.1552603613177471</v>
       </c>
       <c r="O25" s="3">
-        <v>-0.04328402520497608</v>
+        <v>-0.04640437198810887</v>
       </c>
       <c r="P25" s="3">
-        <v>-0.06092756933514423</v>
+        <v>-0.04457191735497372</v>
       </c>
       <c r="Q25" s="3">
-        <v>-0.06812282496036325</v>
+        <v>-0.05001635081169897</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2651,46 +2651,46 @@
         <v>186</v>
       </c>
       <c r="D26" s="1">
-        <v>9529480.76948143</v>
+        <v>9408867.263714286</v>
       </c>
       <c r="E26" s="2">
-        <v>0.9979465626867369</v>
+        <v>1.004045393754222</v>
       </c>
       <c r="F26" s="3">
-        <v>-0.05070202808112325</v>
+        <v>0.02045964125560523</v>
       </c>
       <c r="G26" s="3">
-        <v>-0.171776975020431</v>
+        <v>0.004113948989860132</v>
       </c>
       <c r="H26" s="3">
-        <v>-0.03182179793158313</v>
+        <v>-0.04635935044525932</v>
       </c>
       <c r="I26" s="3">
-        <v>-0.06900880836513618</v>
+        <v>-0.08599300786330168</v>
       </c>
       <c r="J26" s="3">
-        <v>-0.04399057344854676</v>
+        <v>-0.04735740450026162</v>
       </c>
       <c r="K26" s="3">
-        <v>-0.01569845988819384</v>
+        <v>-0.0602570714644786</v>
       </c>
       <c r="L26" s="3">
-        <v>-0.1479579929988331</v>
+        <v>-0.1858228980322005</v>
       </c>
       <c r="M26" s="3">
-        <v>-0.1199150478815412</v>
+        <v>-0.1215048645049714</v>
       </c>
       <c r="N26" s="3">
-        <v>-0.2063043478260869</v>
+        <v>-0.2089941342602651</v>
       </c>
       <c r="O26" s="3">
-        <v>-0.04642347087121531</v>
+        <v>-0.05123368620698645</v>
       </c>
       <c r="P26" s="3">
-        <v>-0.1458460114509861</v>
+        <v>-0.09088096798472498</v>
       </c>
       <c r="Q26" s="3">
-        <v>-0.1461461133332931</v>
+        <v>-0.09051479997822844</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2704,46 +2704,46 @@
         <v>187</v>
       </c>
       <c r="D27" s="1">
-        <v>10773471.52877143</v>
+        <v>10720550.51297143</v>
       </c>
       <c r="E27" s="2">
-        <v>1.770234189578301</v>
+        <v>1.709329060889275</v>
       </c>
       <c r="F27" s="3">
-        <v>0.03657205240174669</v>
+        <v>0.07444444444444438</v>
       </c>
       <c r="G27" s="3">
-        <v>0.05134754698713471</v>
+        <v>0.1158926922047669</v>
       </c>
       <c r="H27" s="3">
-        <v>0.03940886699507393</v>
+        <v>0.04202586206896543</v>
       </c>
       <c r="I27" s="3">
-        <v>0.01895243401239686</v>
+        <v>0.06930007399767478</v>
       </c>
       <c r="J27" s="3">
-        <v>0.01010638297872347</v>
+        <v>0.03866809881847467</v>
       </c>
       <c r="K27" s="3">
-        <v>0.001099353732393246</v>
+        <v>0.03583482609586509</v>
       </c>
       <c r="L27" s="3">
-        <v>-0.126092959042798</v>
+        <v>-0.1221062187925556</v>
       </c>
       <c r="M27" s="3">
-        <v>-0.1094188182995212</v>
+        <v>-0.07914758196853984</v>
       </c>
       <c r="N27" s="3">
-        <v>-0.103399433427762</v>
+        <v>-0.1079335793357935</v>
       </c>
       <c r="O27" s="3">
-        <v>-0.03785019456991662</v>
+        <v>-0.04857738298619772</v>
       </c>
       <c r="P27" s="3">
-        <v>-0.05115003984768437</v>
+        <v>-0.02165637793633738</v>
       </c>
       <c r="Q27" s="3">
-        <v>-0.02889450455132671</v>
+        <v>-0.01266951953947983</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2757,46 +2757,46 @@
         <v>188</v>
       </c>
       <c r="D28" s="1">
-        <v>45250426.37740428</v>
+        <v>43551249.46807142</v>
       </c>
       <c r="E28" s="2">
-        <v>1.437538017171051</v>
+        <v>1.377673315456001</v>
       </c>
       <c r="F28" s="3">
-        <v>0.02313253012048182</v>
+        <v>0.06699751861042169</v>
       </c>
       <c r="G28" s="3">
-        <v>0.01142076058580032</v>
+        <v>0.1007807609592668</v>
       </c>
       <c r="H28" s="3">
-        <v>0.03814180929095352</v>
+        <v>0.04217159476490544</v>
       </c>
       <c r="I28" s="3">
-        <v>0.008291172225761019</v>
+        <v>0.03881671099107565</v>
       </c>
       <c r="J28" s="3">
-        <v>0.0371275036638984</v>
+        <v>0.04826913700633827</v>
       </c>
       <c r="K28" s="3">
-        <v>0.01416792286508194</v>
+        <v>0.03354428933786272</v>
       </c>
       <c r="L28" s="3">
-        <v>-0.03059360730593609</v>
+        <v>-0.06358885017421616</v>
       </c>
       <c r="M28" s="3">
-        <v>-0.04530236103740531</v>
+        <v>-0.02564948921946239</v>
       </c>
       <c r="N28" s="3">
-        <v>-0.2148668639053255</v>
+        <v>-0.2042931162102147</v>
       </c>
       <c r="O28" s="3">
-        <v>-0.06645243875215288</v>
+        <v>-0.05548750399975225</v>
       </c>
       <c r="P28" s="3">
-        <v>-0.0169408002258025</v>
+        <v>0.003947400059200168</v>
       </c>
       <c r="Q28" s="3">
-        <v>-0.01178459284098831</v>
+        <v>0.002865265672866433</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2810,46 +2810,46 @@
         <v>189</v>
       </c>
       <c r="D29" s="1">
-        <v>17385931.05608571</v>
+        <v>16794060.16102857</v>
       </c>
       <c r="E29" s="2">
-        <v>1.106497000770365</v>
+        <v>1.100268782097602</v>
       </c>
       <c r="F29" s="3">
-        <v>-0.028738097280604</v>
+        <v>0.04442186922792758</v>
       </c>
       <c r="G29" s="3">
-        <v>-0.05637478557433986</v>
+        <v>0.01595176131976153</v>
       </c>
       <c r="H29" s="3">
-        <v>-0.01616266944734098</v>
+        <v>-0.02289614653533787</v>
       </c>
       <c r="I29" s="3">
-        <v>-0.04146017095269824</v>
+        <v>-0.02550584764293627</v>
       </c>
       <c r="J29" s="3">
-        <v>-0.01496432921524279</v>
+        <v>-0.03026925055736593</v>
       </c>
       <c r="K29" s="3">
-        <v>-0.006932889293852917</v>
+        <v>-0.03256082489153529</v>
       </c>
       <c r="L29" s="3">
-        <v>-0.1447348542075843</v>
+        <v>-0.1552883178966239</v>
       </c>
       <c r="M29" s="3">
-        <v>-0.1111537620566095</v>
+        <v>-0.1034851773117305</v>
       </c>
       <c r="N29" s="3">
-        <v>-0.1844702153713174</v>
+        <v>-0.1731978359409271</v>
       </c>
       <c r="O29" s="3">
-        <v>-0.0445405598098734</v>
+        <v>-0.049899813177101</v>
       </c>
       <c r="P29" s="3">
-        <v>-0.08376427381547467</v>
+        <v>-0.0680230011016329</v>
       </c>
       <c r="Q29" s="3">
-        <v>-0.0757022149695447</v>
+        <v>-0.06182398538287231</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2863,46 +2863,46 @@
         <v>190</v>
       </c>
       <c r="D30" s="1">
-        <v>5989237.465857144</v>
+        <v>6143131.994399999</v>
       </c>
       <c r="E30" s="2">
-        <v>1.101156210807051</v>
+        <v>1.078330359151624</v>
       </c>
       <c r="F30" s="3">
-        <v>-0.005304101838755191</v>
+        <v>0.06062291434927697</v>
       </c>
       <c r="G30" s="3">
-        <v>-2.910192750734478E-05</v>
+        <v>0.09049885210759513</v>
       </c>
       <c r="H30" s="3">
-        <v>-0.01159522136331691</v>
+        <v>0.005094869992972578</v>
       </c>
       <c r="I30" s="3">
-        <v>-0.03118804019536599</v>
+        <v>0.0004129488072038739</v>
       </c>
       <c r="J30" s="3">
-        <v>-0.002128414331323087</v>
+        <v>-0.008835758835758862</v>
       </c>
       <c r="K30" s="3">
-        <v>-0.008700445613872173</v>
+        <v>-0.004481165653488778</v>
       </c>
       <c r="L30" s="3">
-        <v>-0.1534757749021967</v>
+        <v>-0.1456093189964157</v>
       </c>
       <c r="M30" s="3">
-        <v>-0.1299917953817441</v>
+        <v>-0.1157238725101692</v>
       </c>
       <c r="N30" s="3">
-        <v>-0.250166600026656</v>
+        <v>-0.2431538563302024</v>
       </c>
       <c r="O30" s="3">
-        <v>-0.08587080527193808</v>
+        <v>-0.08665370105923431</v>
       </c>
       <c r="P30" s="3">
-        <v>-0.06934612049780814</v>
+        <v>-0.06010251908182897</v>
       </c>
       <c r="Q30" s="3">
-        <v>-0.06297573388518921</v>
+        <v>-0.05573664746777103</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2916,46 +2916,46 @@
         <v>191</v>
       </c>
       <c r="D31" s="1">
-        <v>10293242.5188</v>
+        <v>9312220.505114287</v>
       </c>
       <c r="E31" s="2">
-        <v>1.719493239612184</v>
+        <v>1.563868875216259</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>0.03596403596403602</v>
       </c>
       <c r="G31" s="3">
-        <v>-0.0004766600345517983</v>
+        <v>0.005537112909263858</v>
       </c>
       <c r="H31" s="3">
-        <v>0.02857142857142857</v>
+        <v>0.0009652509652509929</v>
       </c>
       <c r="I31" s="3">
-        <v>0.0004715485000545013</v>
+        <v>1.386863540117327E-05</v>
       </c>
       <c r="J31" s="3">
-        <v>0.02152641878669283</v>
+        <v>0.00193236714975851</v>
       </c>
       <c r="K31" s="3">
-        <v>0.001263572431678578</v>
+        <v>0.001217293691537119</v>
       </c>
       <c r="L31" s="3">
-        <v>-0.1167512690355329</v>
+        <v>-0.1415562913907285</v>
       </c>
       <c r="M31" s="3">
-        <v>-0.09847227250083225</v>
+        <v>-0.08303233488529152</v>
       </c>
       <c r="N31" s="3">
-        <v>-0.1219512195121951</v>
+        <v>-0.1936236391912908</v>
       </c>
       <c r="O31" s="3">
-        <v>-0.04779534993373046</v>
+        <v>-0.04724370201902327</v>
       </c>
       <c r="P31" s="3">
-        <v>-0.04947446626769202</v>
+        <v>-0.0409075205968772</v>
       </c>
       <c r="Q31" s="3">
-        <v>-0.02877270182164284</v>
+        <v>-0.02615789676818035</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2969,46 +2969,46 @@
         <v>192</v>
       </c>
       <c r="D32" s="1">
-        <v>6138384.564788571</v>
+        <v>5917357.820617143</v>
       </c>
       <c r="E32" s="2">
-        <v>0.9777328499276128</v>
+        <v>0.9568132248888103</v>
       </c>
       <c r="F32" s="3">
-        <v>-0.007960576194086499</v>
+        <v>0.05086103323988788</v>
       </c>
       <c r="G32" s="3">
-        <v>-0.006429880519835599</v>
+        <v>0.04086693838283065</v>
       </c>
       <c r="H32" s="3">
-        <v>0.008866615265998364</v>
+        <v>0.004594180704440987</v>
       </c>
       <c r="I32" s="3">
-        <v>-0.0003130697831277958</v>
+        <v>1.269802736024035E-05</v>
       </c>
       <c r="J32" s="3">
-        <v>0.008866615265998364</v>
+        <v>0.007680491551459247</v>
       </c>
       <c r="K32" s="3">
-        <v>0.0001563133199136125</v>
+        <v>-3.199847864119002E-10</v>
       </c>
       <c r="L32" s="3">
-        <v>-0.07884547694473786</v>
+        <v>-0.1050477489768076</v>
       </c>
       <c r="M32" s="3">
-        <v>-0.07673688041740456</v>
+        <v>-0.07274458744029091</v>
       </c>
       <c r="N32" s="3">
-        <v>-0.08368347338935574</v>
+        <v>-0.08443824145150042</v>
       </c>
       <c r="O32" s="3">
-        <v>-0.008141911855284782</v>
+        <v>-0.01045724861269198</v>
       </c>
       <c r="P32" s="3">
-        <v>-0.04158338046862008</v>
+        <v>-0.03637229388013785</v>
       </c>
       <c r="Q32" s="3">
-        <v>-0.04253041152468053</v>
+        <v>-0.03801399576637814</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3022,46 +3022,46 @@
         <v>193</v>
       </c>
       <c r="D33" s="1">
-        <v>11742861.24737143</v>
+        <v>11411209.56924429</v>
       </c>
       <c r="E33" s="2">
-        <v>1.045605399392319</v>
+        <v>1.025182064189137</v>
       </c>
       <c r="F33" s="3">
-        <v>-0.003194888178913741</v>
+        <v>0.04847277556440904</v>
       </c>
       <c r="G33" s="3">
-        <v>-0.0007382526952007769</v>
+        <v>0.06733209184006934</v>
       </c>
       <c r="H33" s="3">
-        <v>-0.003194888178913741</v>
+        <v>0.0006337135614703216</v>
       </c>
       <c r="I33" s="3">
-        <v>-0.02118506186986535</v>
+        <v>-1.730455060844906E-06</v>
       </c>
       <c r="J33" s="3">
-        <v>0.012987012987013</v>
+        <v>-0.008165829145728614</v>
       </c>
       <c r="K33" s="3">
-        <v>-0.001150442059588003</v>
+        <v>-0.006326419591244618</v>
       </c>
       <c r="L33" s="3">
-        <v>-0.1342952275249722</v>
+        <v>-0.1542581681842528</v>
       </c>
       <c r="M33" s="3">
-        <v>-0.1132879619602944</v>
+        <v>-0.08820529290982339</v>
       </c>
       <c r="N33" s="3">
-        <v>-0.155387114239307</v>
+        <v>-0.1366867140513942</v>
       </c>
       <c r="O33" s="3">
-        <v>-0.03897139324032504</v>
+        <v>-0.04464802853150195</v>
       </c>
       <c r="P33" s="3">
-        <v>-0.0572192020099412</v>
+        <v>-0.04726585625053401</v>
       </c>
       <c r="Q33" s="3">
-        <v>-0.05472351428483026</v>
+        <v>-0.04610484118049678</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3075,46 +3075,46 @@
         <v>194</v>
       </c>
       <c r="D34" s="1">
-        <v>14723298.98882857</v>
+        <v>13607117.11085714</v>
       </c>
       <c r="E34" s="2">
-        <v>1.194208598176227</v>
+        <v>1.167638163571306</v>
       </c>
       <c r="F34" s="3">
-        <v>-0.02686218531014803</v>
+        <v>0.009602194787380012</v>
       </c>
       <c r="G34" s="3">
-        <v>-0.03851950762818698</v>
+        <v>-0.008708368066106512</v>
       </c>
       <c r="H34" s="3">
-        <v>-0.02471062556899472</v>
+        <v>-0.04465212876427822</v>
       </c>
       <c r="I34" s="3">
-        <v>-0.04096467297220994</v>
+        <v>-0.05507508430030164</v>
       </c>
       <c r="J34" s="3">
-        <v>-0.003984592907424657</v>
+        <v>-0.05556268446041317</v>
       </c>
       <c r="K34" s="3">
-        <v>-0.001121312065719089</v>
+        <v>-0.05189207483333538</v>
       </c>
       <c r="L34" s="3">
-        <v>-0.1310544611819237</v>
+        <v>-0.1706107730448501</v>
       </c>
       <c r="M34" s="3">
-        <v>-0.1002856726816263</v>
+        <v>-0.09452477176892735</v>
       </c>
       <c r="N34" s="3">
-        <v>-0.2140236872445237</v>
+        <v>-0.2233829270866308</v>
       </c>
       <c r="O34" s="3">
-        <v>-0.05790861776761549</v>
+        <v>-0.05865058940960369</v>
       </c>
       <c r="P34" s="3">
-        <v>-0.06940259015490663</v>
+        <v>-0.07320842330113136</v>
       </c>
       <c r="Q34" s="3">
-        <v>-0.0581159692376164</v>
+        <v>-0.06269786787134306</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3128,46 +3128,46 @@
         <v>195</v>
       </c>
       <c r="D35" s="1">
-        <v>59849187.22361428</v>
+        <v>58910043.58048572</v>
       </c>
       <c r="E35" s="2">
-        <v>1.555266190529642</v>
+        <v>1.525598003783581</v>
       </c>
       <c r="F35" s="3">
-        <v>-0.024904214559387</v>
+        <v>0.03212851405622493</v>
       </c>
       <c r="G35" s="3">
-        <v>-0.06412274343393903</v>
+        <v>0.04081560904586677</v>
       </c>
       <c r="H35" s="3">
-        <v>-0.01547388781431336</v>
+        <v>-0.02466793168880458</v>
       </c>
       <c r="I35" s="3">
-        <v>-0.03864723444017517</v>
+        <v>-0.02438594491212668</v>
       </c>
       <c r="J35" s="3">
-        <v>-0.01165048543689321</v>
+        <v>-0.02281368821292777</v>
       </c>
       <c r="K35" s="3">
-        <v>-0.002116705664381803</v>
+        <v>-0.02190134505737096</v>
       </c>
       <c r="L35" s="3">
-        <v>-0.05740740740740746</v>
+        <v>-0.08214285714285721</v>
       </c>
       <c r="M35" s="3">
-        <v>-0.02899877145562521</v>
+        <v>-0.03942717169430703</v>
       </c>
       <c r="N35" s="3">
-        <v>-0.2059282371294852</v>
+        <v>-0.1892744479495268</v>
       </c>
       <c r="O35" s="3">
-        <v>-0.04195685910957045</v>
+        <v>-0.0405640232365995</v>
       </c>
       <c r="P35" s="3">
-        <v>-0.04656075744478212</v>
+        <v>-0.030664258375839</v>
       </c>
       <c r="Q35" s="3">
-        <v>-0.02993748448227116</v>
+        <v>-0.0200998285916668</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3181,46 +3181,46 @@
         <v>196</v>
       </c>
       <c r="D36" s="1">
-        <v>35077660.37983286</v>
+        <v>35166493.39477428</v>
       </c>
       <c r="E36" s="2">
-        <v>1.384937272197645</v>
+        <v>1.336450203767061</v>
       </c>
       <c r="F36" s="3">
-        <v>-0.03272186415468522</v>
+        <v>0.04710341093665399</v>
       </c>
       <c r="G36" s="3">
-        <v>-0.03545922232269579</v>
+        <v>0.01122463722452764</v>
       </c>
       <c r="H36" s="3">
-        <v>-0.03415841584158414</v>
+        <v>-0.04635108481262327</v>
       </c>
       <c r="I36" s="3">
-        <v>-0.09670632690436907</v>
+        <v>-0.02542964178937489</v>
       </c>
       <c r="J36" s="3">
-        <v>-0.05566311713455961</v>
+        <v>-0.06434446057087573</v>
       </c>
       <c r="K36" s="3">
-        <v>-0.0664437956449917</v>
+        <v>-0.06958877265991366</v>
       </c>
       <c r="L36" s="3">
-        <v>-0.2020449897750511</v>
+        <v>-0.2325396825396826</v>
       </c>
       <c r="M36" s="3">
-        <v>-0.1774414182439</v>
+        <v>-0.1710425015504355</v>
       </c>
       <c r="N36" s="3">
-        <v>-0.261823685206205</v>
+        <v>-0.2850277264325324</v>
       </c>
       <c r="O36" s="3">
-        <v>-0.07735789476411122</v>
+        <v>-0.08270927188299314</v>
       </c>
       <c r="P36" s="3">
-        <v>-0.1219426069444458</v>
+        <v>-0.1203156371051746</v>
       </c>
       <c r="Q36" s="3">
-        <v>-0.08804919139113426</v>
+        <v>-0.09002627764658952</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3234,46 +3234,46 @@
         <v>197</v>
       </c>
       <c r="D37" s="1">
-        <v>3533117.718035715</v>
+        <v>3508597.3737</v>
       </c>
       <c r="E37" s="2">
-        <v>0.8976571807136451</v>
+        <v>0.8820288687954613</v>
       </c>
       <c r="F37" s="3">
-        <v>-0.03021641486320951</v>
+        <v>0.04954367666232082</v>
       </c>
       <c r="G37" s="3">
-        <v>-0.07159704219484889</v>
+        <v>0.1257871364475697</v>
       </c>
       <c r="H37" s="3">
-        <v>-0.04541800643086813</v>
+        <v>-0.02777777777777776</v>
       </c>
       <c r="I37" s="3">
-        <v>-0.1245412795862487</v>
+        <v>-0.01519997450527075</v>
       </c>
       <c r="J37" s="3">
-        <v>-0.05378486055776895</v>
+        <v>-0.04242664551942895</v>
       </c>
       <c r="K37" s="3">
-        <v>-0.05975333679719687</v>
+        <v>-0.05763017464226947</v>
       </c>
       <c r="L37" s="3">
-        <v>-0.1583982990786676</v>
+        <v>-0.1768916155419223</v>
       </c>
       <c r="M37" s="3">
-        <v>-0.1355216093884642</v>
+        <v>-0.1319547548564933</v>
       </c>
       <c r="N37" s="3">
-        <v>-0.1880341880341881</v>
+        <v>-0.1852226720647773</v>
       </c>
       <c r="O37" s="3">
-        <v>-0.04193027470392727</v>
+        <v>-0.04843728385932975</v>
       </c>
       <c r="P37" s="3">
-        <v>-0.1035593257916566</v>
+        <v>-0.0947924647493814</v>
       </c>
       <c r="Q37" s="3">
-        <v>-0.1153662311366195</v>
+        <v>-0.1074709321916348</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3287,46 +3287,46 @@
         <v>198</v>
       </c>
       <c r="D38" s="1">
-        <v>150382802.6015714</v>
+        <v>124079079.1272857</v>
       </c>
       <c r="E38" s="2">
-        <v>1.735413662374753</v>
+        <v>1.745589350687909</v>
       </c>
       <c r="F38" s="3">
-        <v>-0.02659202239328204</v>
+        <v>0.03230653643876796</v>
       </c>
       <c r="G38" s="3">
-        <v>-0.01642704236607132</v>
+        <v>6.436973312329399E-05</v>
       </c>
       <c r="H38" s="3">
-        <v>-0.005007153075822529</v>
+        <v>-0.02206405693950172</v>
       </c>
       <c r="I38" s="3">
-        <v>-0.01229490887966984</v>
+        <v>-0.003666876362927157</v>
       </c>
       <c r="J38" s="3">
-        <v>-0.01207386363636357</v>
+        <v>-0.03375527426160325</v>
       </c>
       <c r="K38" s="3">
-        <v>-0.005163918685899979</v>
+        <v>-0.0146160613036458</v>
       </c>
       <c r="L38" s="3">
-        <v>-0.1926871735345328</v>
+        <v>-0.172787477423239</v>
       </c>
       <c r="M38" s="3">
-        <v>-0.1226139430385755</v>
+        <v>-0.1117158530220886</v>
       </c>
       <c r="N38" s="3">
-        <v>-0.2118980169971671</v>
+        <v>-0.2184300341296928</v>
       </c>
       <c r="O38" s="3">
-        <v>-0.03041201282496039</v>
+        <v>-0.03095323681277516</v>
       </c>
       <c r="P38" s="3">
-        <v>-0.06952049270232344</v>
+        <v>-0.06316595716286721</v>
       </c>
       <c r="Q38" s="3">
-        <v>-0.04005989707790538</v>
+        <v>-0.03618603489874322</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3340,46 +3340,46 @@
         <v>199</v>
       </c>
       <c r="D39" s="1">
-        <v>8536866.164799999</v>
+        <v>8089351.08557143</v>
       </c>
       <c r="E39" s="2">
-        <v>1.331081677824345</v>
+        <v>1.315706323716943</v>
       </c>
       <c r="F39" s="3">
-        <v>-0.03251231527093607</v>
+        <v>0.04472843450479243</v>
       </c>
       <c r="G39" s="3">
-        <v>-0.0747231253916911</v>
+        <v>0.01547609513225708</v>
       </c>
       <c r="H39" s="3">
-        <v>-0.02191235059760964</v>
+        <v>-0.02775024777006934</v>
       </c>
       <c r="I39" s="3">
-        <v>-0.03948104900884239</v>
+        <v>-0.03909465247615233</v>
       </c>
       <c r="J39" s="3">
-        <v>-0.03346456692913386</v>
+        <v>-0.03917727717923594</v>
       </c>
       <c r="K39" s="3">
-        <v>-0.01987753361837783</v>
+        <v>-0.04417274121632506</v>
       </c>
       <c r="L39" s="3">
-        <v>-0.09908256880733948</v>
+        <v>-0.1424825174825174</v>
       </c>
       <c r="M39" s="3">
-        <v>-0.08674958843684945</v>
+        <v>-0.09498518981871622</v>
       </c>
       <c r="N39" s="3">
-        <v>-0.1534482758620691</v>
+        <v>-0.1521175453759723</v>
       </c>
       <c r="O39" s="3">
-        <v>-0.02134058014181601</v>
+        <v>-0.02355079702574392</v>
       </c>
       <c r="P39" s="3">
-        <v>-0.08073635691427028</v>
+        <v>-0.06957896551752064</v>
       </c>
       <c r="Q39" s="3">
-        <v>-0.06065469779903662</v>
+        <v>-0.0528833557027804</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3393,46 +3393,46 @@
         <v>200</v>
       </c>
       <c r="D40" s="1">
-        <v>176436193.6888571</v>
+        <v>175141326.5605715</v>
       </c>
       <c r="E40" s="2">
-        <v>2.272414003341624</v>
+        <v>2.230505910505341</v>
       </c>
       <c r="F40" s="3">
-        <v>-0.08211027370091228</v>
+        <v>0.05807041609510756</v>
       </c>
       <c r="G40" s="3">
-        <v>-0.1389648161447549</v>
+        <v>0.04795428254495426</v>
       </c>
       <c r="H40" s="3">
-        <v>-0.0449855550969872</v>
+        <v>-0.06125760649087213</v>
       </c>
       <c r="I40" s="3">
-        <v>-0.09422289315458088</v>
+        <v>-0.08525306393533033</v>
       </c>
       <c r="J40" s="3">
-        <v>-0.07291666666666664</v>
+        <v>-0.107941403238242</v>
       </c>
       <c r="K40" s="3">
-        <v>-0.0907010061163248</v>
+        <v>-0.0980892649478714</v>
       </c>
       <c r="L40" s="3">
-        <v>-0.2245308310991957</v>
+        <v>-0.2632919452403693</v>
       </c>
       <c r="M40" s="3">
-        <v>-0.1978458557433222</v>
+        <v>-0.2046872781102547</v>
       </c>
       <c r="N40" s="3">
-        <v>-0.3717078468639696</v>
+        <v>-0.3632361034672537</v>
       </c>
       <c r="O40" s="3">
-        <v>-0.1208470224961948</v>
+        <v>-0.1263487435607876</v>
       </c>
       <c r="P40" s="3">
-        <v>-0.1684053359440386</v>
+        <v>-0.151388271529063</v>
       </c>
       <c r="Q40" s="3">
-        <v>-0.07410856283071465</v>
+        <v>-0.06787171951262154</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3446,46 +3446,46 @@
         <v>201</v>
       </c>
       <c r="D41" s="1">
-        <v>10795084.33081429</v>
+        <v>9695574.543642856</v>
       </c>
       <c r="E41" s="2">
-        <v>1.381037823090399</v>
+        <v>1.371833881547422</v>
       </c>
       <c r="F41" s="3">
-        <v>-0.01396070320579101</v>
+        <v>0.03588907014681889</v>
       </c>
       <c r="G41" s="3">
-        <v>-0.004917595536389154</v>
+        <v>0.01832232465033633</v>
       </c>
       <c r="H41" s="3">
-        <v>-0.001047668936615914</v>
+        <v>-0.01346452615225267</v>
       </c>
       <c r="I41" s="3">
-        <v>-0.01771195119456581</v>
+        <v>-0.003006532304045891</v>
       </c>
       <c r="J41" s="3">
-        <v>-0.02902240325865572</v>
+        <v>-0.03102746693794504</v>
       </c>
       <c r="K41" s="3">
-        <v>-0.02564114493438456</v>
+        <v>-0.01328104344515206</v>
       </c>
       <c r="L41" s="3">
-        <v>-0.1546985815602836</v>
+        <v>-0.1999160016799664</v>
       </c>
       <c r="M41" s="3">
-        <v>-0.1499179363778795</v>
+        <v>-0.1394505627332073</v>
       </c>
       <c r="N41" s="3">
-        <v>-0.1726681127982646</v>
+        <v>-0.1749675184062364</v>
       </c>
       <c r="O41" s="3">
-        <v>-0.03306768059775182</v>
+        <v>-0.04018980088879602</v>
       </c>
       <c r="P41" s="3">
-        <v>-0.08777954065613201</v>
+        <v>-0.07636580308917966</v>
       </c>
       <c r="Q41" s="3">
-        <v>-0.06356056234557324</v>
+        <v>-0.05566694635289179</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3499,46 +3499,46 @@
         <v>202</v>
       </c>
       <c r="D42" s="1">
-        <v>4439251.135071428</v>
+        <v>4144987.438714286</v>
       </c>
       <c r="E42" s="2">
-        <v>0.9919238381374897</v>
+        <v>0.9818139954908128</v>
       </c>
       <c r="F42" s="3">
-        <v>-0.01825095057034231</v>
+        <v>0.03781174577634763</v>
       </c>
       <c r="G42" s="3">
-        <v>-0.02317723361851256</v>
+        <v>0.0126227348050193</v>
       </c>
       <c r="H42" s="3">
-        <v>0.004669260700389023</v>
+        <v>-0.01225114854517604</v>
       </c>
       <c r="I42" s="3">
-        <v>-0.007573017275683114</v>
+        <v>-0.007920065581893621</v>
       </c>
       <c r="J42" s="3">
-        <v>0.000775193798449527</v>
+        <v>-0.01975683890577501</v>
       </c>
       <c r="K42" s="3">
-        <v>-0.001642255043291039</v>
+        <v>-0.007740618666987622</v>
       </c>
       <c r="L42" s="3">
-        <v>-0.1277027027027027</v>
+        <v>-0.1590612777053455</v>
       </c>
       <c r="M42" s="3">
-        <v>-0.1140849253740992</v>
+        <v>-0.1048780620681592</v>
       </c>
       <c r="N42" s="3">
-        <v>-0.2021013597033375</v>
+        <v>-0.1977611940298507</v>
       </c>
       <c r="O42" s="3">
-        <v>-0.04941798150961749</v>
+        <v>-0.05092735730498971</v>
       </c>
       <c r="P42" s="3">
-        <v>-0.0686310794963059</v>
+        <v>-0.0563093403675734</v>
       </c>
       <c r="Q42" s="3">
-        <v>-0.06918986807008563</v>
+        <v>-0.05735235047186726</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3552,46 +3552,46 @@
         <v>203</v>
       </c>
       <c r="D43" s="1">
-        <v>4604214.182107143</v>
+        <v>4283172.134344285</v>
       </c>
       <c r="E43" s="2">
-        <v>0.9325283938803075</v>
+        <v>0.9350252882428279</v>
       </c>
       <c r="F43" s="3">
-        <v>-0.01692384270781484</v>
+        <v>0.03900896151818648</v>
       </c>
       <c r="G43" s="3">
-        <v>-0.03741793138318712</v>
+        <v>0.028810181281674</v>
       </c>
       <c r="H43" s="3">
-        <v>-0.009031610637230287</v>
+        <v>-0.01989060169070119</v>
       </c>
       <c r="I43" s="3">
-        <v>-0.02927430951154746</v>
+        <v>-0.01152973806710401</v>
       </c>
       <c r="J43" s="3">
-        <v>-0.01348651348651346</v>
+        <v>-0.02474022761009404</v>
       </c>
       <c r="K43" s="3">
-        <v>-0.00753558295692452</v>
+        <v>-0.01676437057519406</v>
       </c>
       <c r="L43" s="3">
-        <v>-0.08775981524249418</v>
+        <v>-0.1105595667870037</v>
       </c>
       <c r="M43" s="3">
-        <v>-0.07562181835460484</v>
+        <v>-0.07886846472510275</v>
       </c>
       <c r="N43" s="3">
-        <v>-0.1705165896682067</v>
+        <v>-0.1756587202007529</v>
       </c>
       <c r="O43" s="3">
-        <v>-0.04215639342196614</v>
+        <v>-0.04316389668189042</v>
       </c>
       <c r="P43" s="3">
-        <v>-0.05651987486889598</v>
+        <v>-0.04781641765014841</v>
       </c>
       <c r="Q43" s="3">
-        <v>-0.06060928036058327</v>
+        <v>-0.05113917051378229</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3605,46 +3605,46 @@
         <v>204</v>
       </c>
       <c r="D44" s="1">
-        <v>12324300.79037143</v>
+        <v>12007105.5163</v>
       </c>
       <c r="E44" s="2">
-        <v>0.382924757684478</v>
+        <v>0.3838016345564105</v>
       </c>
       <c r="F44" s="3">
-        <v>-0.006292529450501307</v>
+        <v>-0.01152359419444239</v>
       </c>
       <c r="G44" s="3">
-        <v>-0.005362157741559318</v>
+        <v>-0.01297169804677967</v>
       </c>
       <c r="H44" s="3">
-        <v>-0.005492091388400703</v>
+        <v>-0.003382601661887003</v>
       </c>
       <c r="I44" s="3">
-        <v>0.0001284888245220147</v>
+        <v>-0.003546759441541222</v>
       </c>
       <c r="J44" s="3">
-        <v>-0.01106822981140322</v>
+        <v>-0.004188096987509218</v>
       </c>
       <c r="K44" s="3">
-        <v>-2.9732949282785E-06</v>
+        <v>-1.976555443552766E-05</v>
       </c>
       <c r="L44" s="3">
-        <v>0.04597966728280947</v>
+        <v>0.05151679726898895</v>
       </c>
       <c r="M44" s="3">
-        <v>0.0349160113786</v>
+        <v>0.02454193932373458</v>
       </c>
       <c r="N44" s="3">
-        <v>0.08891917896087224</v>
+        <v>0.09175124859030116</v>
       </c>
       <c r="O44" s="3">
-        <v>0.02973767770215516</v>
+        <v>0.02994809115454963</v>
       </c>
       <c r="P44" s="3">
-        <v>0.01745651904183586</v>
+        <v>0.01226108688464953</v>
       </c>
       <c r="Q44" s="3">
-        <v>0.04558733456513581</v>
+        <v>0.03194641653577276</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3658,46 +3658,46 @@
         <v>205</v>
       </c>
       <c r="D45" s="1">
-        <v>9116134.018828571</v>
+        <v>9048471.739371428</v>
       </c>
       <c r="E45" s="2">
-        <v>1.432494875784603</v>
+        <v>1.409161612320587</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>0.04801200300075023</v>
       </c>
       <c r="G45" s="3">
-        <v>-0.001249686524599898</v>
+        <v>0.0866336837235844</v>
       </c>
       <c r="H45" s="3">
-        <v>0.0252976190476189</v>
+        <v>0.02494497432134999</v>
       </c>
       <c r="I45" s="3">
-        <v>5.420674953006277E-06</v>
+        <v>-6.481081021540675E-08</v>
       </c>
       <c r="J45" s="3">
-        <v>0.01174743024963274</v>
+        <v>-0.002855103497501787</v>
       </c>
       <c r="K45" s="3">
-        <v>1.488587039048124E-05</v>
+        <v>4.137587247097207E-05</v>
       </c>
       <c r="L45" s="3">
-        <v>-0.1446306641837369</v>
+        <v>-0.1689470553242118</v>
       </c>
       <c r="M45" s="3">
-        <v>-0.1335505429844764</v>
+        <v>-0.1145108710940917</v>
       </c>
       <c r="N45" s="3">
-        <v>-0.2192634560906516</v>
+        <v>-0.2120699379582628</v>
       </c>
       <c r="O45" s="3">
-        <v>-0.07480579015826523</v>
+        <v>-0.08060182005700184</v>
       </c>
       <c r="P45" s="3">
-        <v>-0.06740011475453815</v>
+        <v>-0.05723474761081037</v>
       </c>
       <c r="Q45" s="3">
-        <v>-0.04705085923439824</v>
+        <v>-0.04061617000519693</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3711,46 +3711,46 @@
         <v>206</v>
       </c>
       <c r="D46" s="1">
-        <v>4748475.791614286</v>
+        <v>4462683.771214285</v>
       </c>
       <c r="E46" s="2">
-        <v>1.141041619138211</v>
+        <v>1.138242302294398</v>
       </c>
       <c r="F46" s="3">
-        <v>-0.01836734693877538</v>
+        <v>0.04786076867295138</v>
       </c>
       <c r="G46" s="3">
-        <v>-0.02030016368629166</v>
+        <v>0.05430758321283457</v>
       </c>
       <c r="H46" s="3">
-        <v>-0.005513439007580945</v>
+        <v>-0.01095140314852853</v>
       </c>
       <c r="I46" s="3">
-        <v>-0.01829423778185003</v>
+        <v>-0.002348510589477461</v>
       </c>
       <c r="J46" s="3">
-        <v>-0.01501706484641624</v>
+        <v>-0.02166553825321604</v>
       </c>
       <c r="K46" s="3">
-        <v>-0.008595470762353818</v>
+        <v>-0.01031487235276758</v>
       </c>
       <c r="L46" s="3">
-        <v>-0.1201219512195122</v>
+        <v>-0.1564506713368361</v>
       </c>
       <c r="M46" s="3">
-        <v>-0.112874905971434</v>
+        <v>-0.1073945506925356</v>
       </c>
       <c r="N46" s="3">
-        <v>-0.2381203801478353</v>
+        <v>-0.2321997874601489</v>
       </c>
       <c r="O46" s="3">
-        <v>-0.07125462098156454</v>
+        <v>-0.07139782259788689</v>
       </c>
       <c r="P46" s="3">
-        <v>-0.06658753482886282</v>
+        <v>-0.05885471152265158</v>
       </c>
       <c r="Q46" s="3">
-        <v>-0.05835679760669384</v>
+        <v>-0.05170666333874246</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3764,46 +3764,46 @@
         <v>207</v>
       </c>
       <c r="D47" s="1">
-        <v>154697819.5973071</v>
+        <v>151592545.6510214</v>
       </c>
       <c r="E47" s="2">
-        <v>1.027991176824827</v>
+        <v>1.025624053542196</v>
       </c>
       <c r="F47" s="3">
-        <v>-0.03412890579960791</v>
+        <v>0.03156860336567971</v>
       </c>
       <c r="G47" s="3">
-        <v>-0.1132671536974691</v>
+        <v>0.0341405045875286</v>
       </c>
       <c r="H47" s="3">
-        <v>-0.005815333491573546</v>
+        <v>-0.01823708206686949</v>
       </c>
       <c r="I47" s="3">
-        <v>-0.01250218415410072</v>
+        <v>-0.02451565608770223</v>
       </c>
       <c r="J47" s="3">
-        <v>0.02924192161199169</v>
+        <v>0.01253918495297805</v>
       </c>
       <c r="K47" s="3">
-        <v>0.0009508196018032746</v>
+        <v>-0.01454596341152431</v>
       </c>
       <c r="L47" s="3">
-        <v>-0.05366018978761859</v>
+        <v>-0.08488612836438926</v>
       </c>
       <c r="M47" s="3">
-        <v>-0.03231180334189071</v>
+        <v>-0.02585755981109058</v>
       </c>
       <c r="N47" s="3">
-        <v>-0.0999247877941333</v>
+        <v>-0.09698924731182797</v>
       </c>
       <c r="O47" s="3">
-        <v>-0.02249024006960295</v>
+        <v>-0.0235750602704198</v>
       </c>
       <c r="P47" s="3">
-        <v>-0.06611829556801201</v>
+        <v>-0.02020176161130744</v>
       </c>
       <c r="Q47" s="3">
-        <v>-0.06431796017183014</v>
+        <v>-0.01969704351368969</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3817,46 +3817,46 @@
         <v>208</v>
       </c>
       <c r="D48" s="1">
-        <v>60655828.60829286</v>
+        <v>53670218.22040001</v>
       </c>
       <c r="E48" s="2">
-        <v>1.487871223438232</v>
+        <v>1.530086950266752</v>
       </c>
       <c r="F48" s="3">
-        <v>0.01696969696969691</v>
+        <v>0.015990159901599</v>
       </c>
       <c r="G48" s="3">
-        <v>-1.977940718997576E-05</v>
+        <v>0.03511302228644959</v>
       </c>
       <c r="H48" s="3">
-        <v>0.02944785276073628</v>
+        <v>0.015990159901599</v>
       </c>
       <c r="I48" s="3">
-        <v>0.01324320203161277</v>
+        <v>0.007308985523001225</v>
       </c>
       <c r="J48" s="3">
-        <v>0.0474406991260924</v>
+        <v>-0.001209189842805271</v>
       </c>
       <c r="K48" s="3">
-        <v>1.776377536015233E-06</v>
+        <v>0.009313286784189835</v>
       </c>
       <c r="L48" s="3">
-        <v>0.06337135614702161</v>
+        <v>0.03508771929824571</v>
       </c>
       <c r="M48" s="3">
-        <v>-0.005181950211631431</v>
+        <v>-0.01509412175130762</v>
       </c>
       <c r="N48" s="3">
-        <v>0.1097883597883598</v>
+        <v>0.0755208333333333</v>
       </c>
       <c r="O48" s="3">
-        <v>0.02335069979706153</v>
+        <v>0.02296462952478911</v>
       </c>
       <c r="P48" s="3">
-        <v>-9.001514826980266E-06</v>
+        <v>0.02221315453531971</v>
       </c>
       <c r="Q48" s="3">
-        <v>-6.049928706987967E-06</v>
+        <v>0.01451757661971244</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3870,46 +3870,46 @@
         <v>209</v>
       </c>
       <c r="D49" s="1">
-        <v>18575314.69298143</v>
+        <v>15618524.42720428</v>
       </c>
       <c r="E49" s="2">
-        <v>1.128071102263331</v>
+        <v>1.120192076032848</v>
       </c>
       <c r="F49" s="3">
-        <v>0.0004957243772462309</v>
+        <v>0.03750802825947324</v>
       </c>
       <c r="G49" s="3">
-        <v>-0.0006675587478787269</v>
+        <v>0.0293212574619597</v>
       </c>
       <c r="H49" s="3">
-        <v>0.009124999999999932</v>
+        <v>0.01930843008581511</v>
       </c>
       <c r="I49" s="3">
-        <v>0.0003554826404730708</v>
+        <v>0.002546645113871942</v>
       </c>
       <c r="J49" s="3">
-        <v>0.05130876416200025</v>
+        <v>0.01088861076345427</v>
       </c>
       <c r="K49" s="3">
-        <v>0.00823114446226376</v>
+        <v>0.0005406766923888695</v>
       </c>
       <c r="L49" s="3">
-        <v>0.0105144573788959</v>
+        <v>-0.05487947577814182</v>
       </c>
       <c r="M49" s="3">
-        <v>-0.0161902251663112</v>
+        <v>-0.009555680785981503</v>
       </c>
       <c r="N49" s="3">
-        <v>-0.04291641967990514</v>
+        <v>-0.04278264991704198</v>
       </c>
       <c r="O49" s="3">
-        <v>-0.004622353281985922</v>
+        <v>-0.003459454114334501</v>
       </c>
       <c r="P49" s="3">
-        <v>-0.008428891957094965</v>
+        <v>-0.004507502046796317</v>
       </c>
       <c r="Q49" s="3">
-        <v>-0.007471950961409676</v>
+        <v>-0.004023865320275789</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3923,46 +3923,46 @@
         <v>210</v>
       </c>
       <c r="D50" s="1">
-        <v>6678678.236885713</v>
+        <v>6090246.699428572</v>
       </c>
       <c r="E50" s="2">
-        <v>1.174608153379618</v>
+        <v>1.153570558471302</v>
       </c>
       <c r="F50" s="3">
-        <v>-0.02045454545454541</v>
+        <v>0.05494505494505499</v>
       </c>
       <c r="G50" s="3">
-        <v>-0.01868562765914096</v>
+        <v>0.04646054109877895</v>
       </c>
       <c r="H50" s="3">
-        <v>-0.009195402298850519</v>
+        <v>-0.01257142857142846</v>
       </c>
       <c r="I50" s="3">
-        <v>-0.02660005221639002</v>
+        <v>-0.003364393228700131</v>
       </c>
       <c r="J50" s="3">
-        <v>-0.01934015927189997</v>
+        <v>-0.01706484641638227</v>
       </c>
       <c r="K50" s="3">
-        <v>-0.01002555981987828</v>
+        <v>-0.01436298566034094</v>
       </c>
       <c r="L50" s="3">
-        <v>-0.1213047910295617</v>
+        <v>-0.1587147030185004</v>
       </c>
       <c r="M50" s="3">
-        <v>-0.1171373360105971</v>
+        <v>-0.1199225141520883</v>
       </c>
       <c r="N50" s="3">
-        <v>-0.179047619047619</v>
+        <v>-0.18796992481203</v>
       </c>
       <c r="O50" s="3">
-        <v>-0.04182141707593689</v>
+        <v>-0.04604342019651397</v>
       </c>
       <c r="P50" s="3">
-        <v>-0.067911481834869</v>
+        <v>-0.06714274990621462</v>
       </c>
       <c r="Q50" s="3">
-        <v>-0.05781628676718449</v>
+        <v>-0.05820428530630271</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3976,46 +3976,46 @@
         <v>211</v>
       </c>
       <c r="D51" s="1">
-        <v>12394918.58034286</v>
+        <v>55113595.38428572</v>
       </c>
       <c r="E51" s="2">
-        <v>1.110607135101301</v>
+        <v>1.128272078249124</v>
       </c>
       <c r="F51" s="3">
-        <v>0.04360691481077718</v>
+        <v>0.1779468911917098</v>
       </c>
       <c r="G51" s="3">
-        <v>0.009134093328230678</v>
+        <v>0.5491227428400407</v>
       </c>
       <c r="H51" s="3">
-        <v>0.05927916534935184</v>
+        <v>0.1296583850931677</v>
       </c>
       <c r="I51" s="3">
-        <v>0.001080581372089515</v>
+        <v>0.1909963460192401</v>
       </c>
       <c r="J51" s="3">
-        <v>0.07439474106140771</v>
+        <v>0.1354768222256906</v>
       </c>
       <c r="K51" s="3">
-        <v>0.01508751581076182</v>
+        <v>0.0832740419178306</v>
       </c>
       <c r="L51" s="3">
-        <v>-0.05739203826135877</v>
+        <v>-0.03051705756929627</v>
       </c>
       <c r="M51" s="3">
-        <v>-0.09684544481048588</v>
+        <v>-0.03617874224165714</v>
       </c>
       <c r="N51" s="3">
-        <v>-0.1024645057594428</v>
+        <v>-0.03552963012064157</v>
       </c>
       <c r="O51" s="3">
-        <v>-0.02765909980729793</v>
+        <v>-0.0201374510696956</v>
       </c>
       <c r="P51" s="3">
-        <v>-0.0438556757411276</v>
+        <v>0.02387220589859451</v>
       </c>
       <c r="Q51" s="3">
-        <v>-0.0394880190798769</v>
+        <v>0.02115819965662883</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -4029,46 +4029,46 @@
         <v>212</v>
       </c>
       <c r="D52" s="1">
-        <v>8288834.175078572</v>
+        <v>7861629.167186857</v>
       </c>
       <c r="E52" s="2">
-        <v>1.018703282511237</v>
+        <v>1.007534128164778</v>
       </c>
       <c r="F52" s="3">
-        <v>-0.01779828609096895</v>
+        <v>0.03972125435540068</v>
       </c>
       <c r="G52" s="3">
-        <v>-0.03357928713498198</v>
+        <v>0.06966868470822751</v>
       </c>
       <c r="H52" s="3">
-        <v>-0.02102496714848877</v>
+        <v>-0.02035456336178594</v>
       </c>
       <c r="I52" s="3">
-        <v>-0.05728811402173101</v>
+        <v>-0.006348630609460437</v>
       </c>
       <c r="J52" s="3">
-        <v>-0.02295081967213121</v>
+        <v>-0.0317975340687865</v>
       </c>
       <c r="K52" s="3">
-        <v>-0.0317597352935828</v>
+        <v>-0.03077782594092034</v>
       </c>
       <c r="L52" s="3">
-        <v>-0.09035409035409031</v>
+        <v>-0.114540059347181</v>
       </c>
       <c r="M52" s="3">
-        <v>-0.08039717936767696</v>
+        <v>-0.08651923145615238</v>
       </c>
       <c r="N52" s="3">
-        <v>-0.1093843395098625</v>
+        <v>-0.1315483119906868</v>
       </c>
       <c r="O52" s="3">
-        <v>-0.02679155348012981</v>
+        <v>-0.0317433664972805</v>
       </c>
       <c r="P52" s="3">
-        <v>-0.05698823325132947</v>
+        <v>-0.05864852869853636</v>
       </c>
       <c r="Q52" s="3">
-        <v>-0.05594193542877964</v>
+        <v>-0.05820996734409838</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -4082,46 +4082,46 @@
         <v>213</v>
       </c>
       <c r="D53" s="1">
-        <v>5085721.446742857</v>
+        <v>4928347.043731429</v>
       </c>
       <c r="E53" s="2">
-        <v>1.164146388075169</v>
+        <v>1.123992035731193</v>
       </c>
       <c r="F53" s="3">
-        <v>-0.01608325449385052</v>
+        <v>0.04899999999999991</v>
       </c>
       <c r="G53" s="3">
-        <v>-0.01684411025171694</v>
+        <v>0.0781028606918457</v>
       </c>
       <c r="H53" s="3">
-        <v>-0.006685768863419352</v>
+        <v>-0.007568590350047324</v>
       </c>
       <c r="I53" s="3">
-        <v>-0.03761145058365103</v>
+        <v>-0.0007303088684263968</v>
       </c>
       <c r="J53" s="3">
-        <v>-0.01140684410646391</v>
+        <v>-0.00944287063267244</v>
       </c>
       <c r="K53" s="3">
-        <v>-0.009245140794832674</v>
+        <v>-0.009101395664202856</v>
       </c>
       <c r="L53" s="3">
-        <v>-0.1178965224766752</v>
+        <v>-0.1464605370219692</v>
       </c>
       <c r="M53" s="3">
-        <v>-0.1111729758046574</v>
+        <v>-0.1008779614520013</v>
       </c>
       <c r="N53" s="3">
-        <v>-0.1390728476821193</v>
+        <v>-0.1457654723127036</v>
       </c>
       <c r="O53" s="3">
-        <v>-0.0337188534453384</v>
+        <v>-0.03799393723321084</v>
       </c>
       <c r="P53" s="3">
-        <v>-0.06400854302818718</v>
+        <v>-0.05498967855810208</v>
       </c>
       <c r="Q53" s="3">
-        <v>-0.05498324238588296</v>
+        <v>-0.04892354821920918</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4135,46 +4135,46 @@
         <v>214</v>
       </c>
       <c r="D54" s="1">
-        <v>6612838.952113001</v>
+        <v>6554417.553900857</v>
       </c>
       <c r="E54" s="2">
-        <v>0.9943555753729997</v>
+        <v>0.9958184058954832</v>
       </c>
       <c r="F54" s="3">
-        <v>-0.01762820512820503</v>
+        <v>0.04560810810810812</v>
       </c>
       <c r="G54" s="3">
-        <v>-0.0314431204011482</v>
+        <v>0.09620417820543585</v>
       </c>
       <c r="H54" s="3">
-        <v>-0.01919999999999995</v>
+        <v>-0.01433121019108281</v>
       </c>
       <c r="I54" s="3">
-        <v>-0.07402658847059618</v>
+        <v>-0.007950954896456712</v>
       </c>
       <c r="J54" s="3">
-        <v>-0.01762820512820503</v>
+        <v>-0.02211690363349134</v>
       </c>
       <c r="K54" s="3">
-        <v>-0.02135833898229906</v>
+        <v>-0.03256151915178911</v>
       </c>
       <c r="L54" s="3">
-        <v>-0.09319526627218921</v>
+        <v>-0.1244695898161244</v>
       </c>
       <c r="M54" s="3">
-        <v>-0.09005203212835242</v>
+        <v>-0.09239809145074721</v>
       </c>
       <c r="N54" s="3">
-        <v>-0.1354019746121297</v>
+        <v>-0.1306179775280899</v>
       </c>
       <c r="O54" s="3">
-        <v>-0.0236100260030845</v>
+        <v>-0.02675392382791248</v>
       </c>
       <c r="P54" s="3">
-        <v>-0.06074757626475031</v>
+        <v>-0.06247980530126816</v>
       </c>
       <c r="Q54" s="3">
-        <v>-0.06109240775560881</v>
+        <v>-0.06274216757932245</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4188,46 +4188,46 @@
         <v>215</v>
       </c>
       <c r="D55" s="1">
-        <v>7977433.247185715</v>
+        <v>7699978.607142856</v>
       </c>
       <c r="E55" s="2">
-        <v>1.218781948179033</v>
+        <v>1.204104857889422</v>
       </c>
       <c r="F55" s="3">
-        <v>-0.007263922518159721</v>
+        <v>0.05612244897959177</v>
       </c>
       <c r="G55" s="3">
-        <v>-0.0006552792086582203</v>
+        <v>0.1218009374002539</v>
       </c>
       <c r="H55" s="3">
-        <v>-0.004854368932038848</v>
+        <v>-0.002409638554216978</v>
       </c>
       <c r="I55" s="3">
-        <v>-0.03417158183136756</v>
+        <v>0.0001085736388923126</v>
       </c>
       <c r="J55" s="3">
-        <v>-0.01442307692307675</v>
+        <v>-0.01662707838479825</v>
       </c>
       <c r="K55" s="3">
-        <v>-0.01956999221724717</v>
+        <v>-0.004427745763484887</v>
       </c>
       <c r="L55" s="3">
-        <v>-0.1632653061224489</v>
+        <v>-0.1882352941176472</v>
       </c>
       <c r="M55" s="3">
-        <v>-0.1598920613677684</v>
+        <v>-0.141254166183065</v>
       </c>
       <c r="N55" s="3">
-        <v>-0.2023346303501944</v>
+        <v>-0.1992263056092844</v>
       </c>
       <c r="O55" s="3">
-        <v>-0.05304941505420115</v>
+        <v>-0.05898179980727453</v>
       </c>
       <c r="P55" s="3">
-        <v>-0.0897310267925078</v>
+        <v>-0.07284095597327496</v>
       </c>
       <c r="Q55" s="3">
-        <v>-0.07362352792193372</v>
+        <v>-0.06049386438067528</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4241,46 +4241,46 @@
         <v>216</v>
       </c>
       <c r="D56" s="1">
-        <v>12883202.18088</v>
+        <v>12843109.08142857</v>
       </c>
       <c r="E56" s="2">
-        <v>1.194577907786111</v>
+        <v>1.153468210337135</v>
       </c>
       <c r="F56" s="3">
-        <v>-0.03874538745387456</v>
+        <v>0.06425702811244979</v>
       </c>
       <c r="G56" s="3">
-        <v>-0.08828235806341847</v>
+        <v>0.07278704239566168</v>
       </c>
       <c r="H56" s="3">
-        <v>-0.02616822429906533</v>
+        <v>-0.0130353817504655</v>
       </c>
       <c r="I56" s="3">
-        <v>-0.06638538572240103</v>
+        <v>-0.01358665485820925</v>
       </c>
       <c r="J56" s="3">
-        <v>-0.02616822429906533</v>
+        <v>-0.01851851851851857</v>
       </c>
       <c r="K56" s="3">
-        <v>-0.008659056771502154</v>
+        <v>-0.02661244347737203</v>
       </c>
       <c r="L56" s="3">
-        <v>-0.12141652613828</v>
+        <v>-0.1297208538587849</v>
       </c>
       <c r="M56" s="3">
-        <v>-0.09732193664222252</v>
+        <v>-0.1022655226728754</v>
       </c>
       <c r="N56" s="3">
-        <v>-0.1833855799373041</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="O56" s="3">
-        <v>-0.03829953768231307</v>
+        <v>-0.0412152069642171</v>
       </c>
       <c r="P56" s="3">
-        <v>-0.0928021473528205</v>
+        <v>-0.0644389830751237</v>
       </c>
       <c r="Q56" s="3">
-        <v>-0.07768614064260485</v>
+        <v>-0.0558654174407542</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4294,46 +4294,46 @@
         <v>217</v>
       </c>
       <c r="D57" s="1">
-        <v>6998973.69632</v>
+        <v>6613144.030535715</v>
       </c>
       <c r="E57" s="2">
-        <v>1.052551248430073</v>
+        <v>1.038944431566778</v>
       </c>
       <c r="F57" s="3">
-        <v>-0.00863557858376506</v>
+        <v>0.04705882352941173</v>
       </c>
       <c r="G57" s="3">
-        <v>-0.004426690726748662</v>
+        <v>0.05998181849590105</v>
       </c>
       <c r="H57" s="3">
-        <v>-0.00777873811581675</v>
+        <v>-0.003445305770887175</v>
       </c>
       <c r="I57" s="3">
-        <v>-0.03169557515836208</v>
+        <v>-0.0002231930405340413</v>
       </c>
       <c r="J57" s="3">
-        <v>-0.02047781569965861</v>
+        <v>-0.01699235344095147</v>
       </c>
       <c r="K57" s="3">
-        <v>-0.02841976838011417</v>
+        <v>-0.0131526727309478</v>
       </c>
       <c r="L57" s="3">
-        <v>-0.1527675276752767</v>
+        <v>-0.1640173410404624</v>
       </c>
       <c r="M57" s="3">
-        <v>-0.1321880683378302</v>
+        <v>-0.1202621429556171</v>
       </c>
       <c r="N57" s="3">
-        <v>-0.219047619047619</v>
+        <v>-0.2123893805309734</v>
       </c>
       <c r="O57" s="3">
-        <v>-0.06646244262760397</v>
+        <v>-0.07039586988236192</v>
       </c>
       <c r="P57" s="3">
-        <v>-0.0803039183589722</v>
+        <v>-0.06670740784328247</v>
       </c>
       <c r="Q57" s="3">
-        <v>-0.07629454478226028</v>
+        <v>-0.06420690637196493</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4347,46 +4347,46 @@
         <v>218</v>
       </c>
       <c r="D58" s="1">
-        <v>12579850.58755714</v>
+        <v>12294944.67383143</v>
       </c>
       <c r="E58" s="2">
-        <v>0.749826064608503</v>
+        <v>0.7491812440036913</v>
       </c>
       <c r="F58" s="3">
-        <v>-0.03347855996331123</v>
+        <v>0.03720930232558141</v>
       </c>
       <c r="G58" s="3">
-        <v>-0.08175552813924312</v>
+        <v>0.04708569555017137</v>
       </c>
       <c r="H58" s="3">
-        <v>-0.03170227429359061</v>
+        <v>-0.0324274948618407</v>
       </c>
       <c r="I58" s="3">
-        <v>-0.08755158044591375</v>
+        <v>-0.03710943768534879</v>
       </c>
       <c r="J58" s="3">
-        <v>-0.01033106362996015</v>
+        <v>-0.01350407450523874</v>
       </c>
       <c r="K58" s="3">
-        <v>-0.002472246812166413</v>
+        <v>-0.03824112231953335</v>
       </c>
       <c r="L58" s="3">
-        <v>-0.08904257618327208</v>
+        <v>-0.1130416579443166</v>
       </c>
       <c r="M58" s="3">
-        <v>-0.06170954981779057</v>
+        <v>-0.05583699994647383</v>
       </c>
       <c r="N58" s="3">
-        <v>-0.1294919454770755</v>
+        <v>-0.1198587453261322</v>
       </c>
       <c r="O58" s="3">
-        <v>-0.02833209519920299</v>
+        <v>-0.03149584366374689</v>
       </c>
       <c r="P58" s="3">
-        <v>-0.07173253897851685</v>
+        <v>-0.04703906113300359</v>
       </c>
       <c r="Q58" s="3">
-        <v>-0.09566557147619247</v>
+        <v>-0.06278729147251826</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4400,46 +4400,46 @@
         <v>219</v>
       </c>
       <c r="D59" s="1">
-        <v>10500215.8665</v>
+        <v>9859761.442557141</v>
       </c>
       <c r="E59" s="2">
-        <v>1.137411903070328</v>
+        <v>1.108935400625952</v>
       </c>
       <c r="F59" s="3">
-        <v>-0.01154529307282407</v>
+        <v>0.0442561205273069</v>
       </c>
       <c r="G59" s="3">
-        <v>-0.0160755083725062</v>
+        <v>0.02420176909016052</v>
       </c>
       <c r="H59" s="3">
-        <v>0.006329113924050537</v>
+        <v>-0.007162041181736801</v>
       </c>
       <c r="I59" s="3">
-        <v>-0.003219341310862066</v>
+        <v>-0.00147567387842138</v>
       </c>
       <c r="J59" s="3">
-        <v>-0.001793721973094172</v>
+        <v>-0.01158645276292346</v>
       </c>
       <c r="K59" s="3">
-        <v>-0.0007688008639831062</v>
+        <v>-0.001826255897841369</v>
       </c>
       <c r="L59" s="3">
-        <v>-0.0951219512195122</v>
+        <v>-0.136964980544747</v>
       </c>
       <c r="M59" s="3">
-        <v>-0.09732401549958525</v>
+        <v>-0.09877146049103562</v>
       </c>
       <c r="N59" s="3">
-        <v>-0.1755555555555556</v>
+        <v>-0.1766889383815887</v>
       </c>
       <c r="O59" s="3">
-        <v>-0.03986014168151899</v>
+        <v>-0.04237082612794288</v>
       </c>
       <c r="P59" s="3">
-        <v>-0.05669976193604572</v>
+        <v>-0.05029885819443849</v>
       </c>
       <c r="Q59" s="3">
-        <v>-0.04984980531941897</v>
+        <v>-0.04535778925088577</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4453,46 +4453,46 @@
         <v>220</v>
       </c>
       <c r="D60" s="1">
-        <v>33539158.333</v>
+        <v>32595089.90434285</v>
       </c>
       <c r="E60" s="2">
-        <v>1.034325042467026</v>
+        <v>1.032654015158635</v>
       </c>
       <c r="F60" s="3">
-        <v>-0.03005213124808333</v>
+        <v>0.04136333553937774</v>
       </c>
       <c r="G60" s="3">
-        <v>-0.05572499531312271</v>
+        <v>0.01857623549082871</v>
       </c>
       <c r="H60" s="3">
-        <v>-0.03301742586365019</v>
+        <v>-0.032882606023356</v>
       </c>
       <c r="I60" s="3">
-        <v>-0.06509607394155266</v>
+        <v>-0.03006194023706429</v>
       </c>
       <c r="J60" s="3">
-        <v>-0.05015015015015013</v>
+        <v>-0.05637181409295364</v>
       </c>
       <c r="K60" s="3">
-        <v>-0.06994797314492181</v>
+        <v>-0.0605328197351631</v>
       </c>
       <c r="L60" s="3">
-        <v>-0.1583288983501863</v>
+        <v>-0.1967840735068913</v>
       </c>
       <c r="M60" s="3">
-        <v>-0.1468855054059463</v>
+        <v>-0.1488651903610659</v>
       </c>
       <c r="N60" s="3">
-        <v>-0.2423952095808382</v>
+        <v>-0.2424169475204623</v>
       </c>
       <c r="O60" s="3">
-        <v>-0.06190522937589261</v>
+        <v>-0.06626613885163592</v>
       </c>
       <c r="P60" s="3">
-        <v>-0.108416739275434</v>
+        <v>-0.1046990050481145</v>
       </c>
       <c r="Q60" s="3">
-        <v>-0.1048188285346387</v>
+        <v>-0.1013882709128195</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4506,46 +4506,46 @@
         <v>221</v>
       </c>
       <c r="D61" s="1">
-        <v>13014870.79768571</v>
+        <v>12494203.94278571</v>
       </c>
       <c r="E61" s="2">
-        <v>1.216118153285944</v>
+        <v>1.184485004913461</v>
       </c>
       <c r="F61" s="3">
-        <v>-0.005597014925373165</v>
+        <v>0.04403131115459887</v>
       </c>
       <c r="G61" s="3">
-        <v>-0.01238235372467317</v>
+        <v>0.0509648917895421</v>
       </c>
       <c r="H61" s="3">
-        <v>0.0009389671361502616</v>
+        <v>-0.004664179104477616</v>
       </c>
       <c r="I61" s="3">
-        <v>-0.01636691614419216</v>
+        <v>-0.0001985356083026968</v>
       </c>
       <c r="J61" s="3">
-        <v>-0.03703703703703709</v>
+        <v>-0.02999999999999997</v>
       </c>
       <c r="K61" s="3">
-        <v>-0.04326903421773966</v>
+        <v>-0.01394125558772934</v>
       </c>
       <c r="L61" s="3">
-        <v>-0.08024158757549614</v>
+        <v>-0.1181818181818181</v>
       </c>
       <c r="M61" s="3">
-        <v>-0.08678794190759789</v>
+        <v>-0.1053169292238895</v>
       </c>
       <c r="N61" s="3">
-        <v>-0.1049538203190596</v>
+        <v>-0.1181818181818181</v>
       </c>
       <c r="O61" s="3">
-        <v>-0.01749776180016359</v>
+        <v>-0.0226495342017294</v>
       </c>
       <c r="P61" s="3">
-        <v>-0.06502848806266878</v>
+        <v>-0.05962909240580941</v>
       </c>
       <c r="Q61" s="3">
-        <v>-0.05347217939882093</v>
+        <v>-0.05034178749284036</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4559,46 +4559,46 @@
         <v>222</v>
       </c>
       <c r="D62" s="1">
-        <v>6666479.137054285</v>
+        <v>6379783.686305714</v>
       </c>
       <c r="E62" s="2">
-        <v>0.9958732309442525</v>
+        <v>0.9922818388573899</v>
       </c>
       <c r="F62" s="3">
-        <v>-0.0179054054054055</v>
+        <v>0.03424901890831249</v>
       </c>
       <c r="G62" s="3">
-        <v>-0.02441395335695575</v>
+        <v>0.01322566970109436</v>
       </c>
       <c r="H62" s="3">
-        <v>-0.01088805716230013</v>
+        <v>-0.01444841067482583</v>
       </c>
       <c r="I62" s="3">
-        <v>-0.02096869154787444</v>
+        <v>-0.01041399906730854</v>
       </c>
       <c r="J62" s="3">
-        <v>-0.01491019993222646</v>
+        <v>-0.01861882193635754</v>
       </c>
       <c r="K62" s="3">
-        <v>-0.003659500471259638</v>
+        <v>-0.01814132597638658</v>
       </c>
       <c r="L62" s="3">
-        <v>-0.1350788455816722</v>
+        <v>-0.1821131330229933</v>
       </c>
       <c r="M62" s="3">
-        <v>-0.1254620052083292</v>
+        <v>-0.1201471088974886</v>
       </c>
       <c r="N62" s="3">
-        <v>-0.2044334975369459</v>
+        <v>-0.1989499861840288</v>
       </c>
       <c r="O62" s="3">
-        <v>-0.05258692513481862</v>
+        <v>-0.05750927484868813</v>
       </c>
       <c r="P62" s="3">
-        <v>-0.07493797928264248</v>
+        <v>-0.06914421743693759</v>
       </c>
       <c r="Q62" s="3">
-        <v>-0.07524851251558282</v>
+        <v>-0.0696820346087932</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4612,46 +4612,46 @@
         <v>223</v>
       </c>
       <c r="D63" s="1">
-        <v>11760078.70285714</v>
+        <v>11428524.5787</v>
       </c>
       <c r="E63" s="2">
-        <v>1.175117871288314</v>
+        <v>1.197977166458551</v>
       </c>
       <c r="F63" s="3">
-        <v>-0.003322259136212605</v>
+        <v>0.04482758620689652</v>
       </c>
       <c r="G63" s="3">
-        <v>-0.001237339390500477</v>
+        <v>0.0691873001141565</v>
       </c>
       <c r="H63" s="3">
-        <v>0</v>
+        <v>-0.006557377049180288</v>
       </c>
       <c r="I63" s="3">
-        <v>-0.01317508565348248</v>
+        <v>-1.20483941854289E-05</v>
       </c>
       <c r="J63" s="3">
-        <v>0</v>
+        <v>-0.003289473684210507</v>
       </c>
       <c r="K63" s="3">
-        <v>-0.003623025098819767</v>
+        <v>-0.001360203417095617</v>
       </c>
       <c r="L63" s="3">
-        <v>-0.07692307692307698</v>
+        <v>-0.1088235294117647</v>
       </c>
       <c r="M63" s="3">
-        <v>-0.08095201893607827</v>
+        <v>-0.07096077431863793</v>
       </c>
       <c r="N63" s="3">
-        <v>-0.08256880733944957</v>
+        <v>-0.0676923076923077</v>
       </c>
       <c r="O63" s="3">
-        <v>-0.009726949295194872</v>
+        <v>-0.01284348850528434</v>
       </c>
       <c r="P63" s="3">
-        <v>-0.04228752201744902</v>
+        <v>-0.03452625555470166</v>
       </c>
       <c r="Q63" s="3">
-        <v>-0.03598577049218735</v>
+        <v>-0.02882046212680985</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4665,46 +4665,46 @@
         <v>224</v>
       </c>
       <c r="D64" s="1">
-        <v>41688692.89007143</v>
+        <v>41722837.46049999</v>
       </c>
       <c r="E64" s="2">
-        <v>1.746395506874096</v>
+        <v>1.709491189596109</v>
       </c>
       <c r="F64" s="3">
-        <v>0.008574228319451257</v>
+        <v>0.04333667334669334</v>
       </c>
       <c r="G64" s="3">
-        <v>-0.000227084367374579</v>
+        <v>0.08092225668610277</v>
       </c>
       <c r="H64" s="3">
-        <v>0.03157103482836382</v>
+        <v>0.03221809169764549</v>
       </c>
       <c r="I64" s="3">
-        <v>0.01129981408962383</v>
+        <v>0.01426706205486257</v>
       </c>
       <c r="J64" s="3">
-        <v>0.02796504369538074</v>
+        <v>0.02738036507153429</v>
       </c>
       <c r="K64" s="3">
-        <v>0.01560610092435251</v>
+        <v>0.01960838864840672</v>
       </c>
       <c r="L64" s="3">
-        <v>-0.1365352348993288</v>
+        <v>-0.107181136120043</v>
       </c>
       <c r="M64" s="3">
-        <v>-0.08166242119978559</v>
+        <v>-0.07989880545911301</v>
       </c>
       <c r="N64" s="3">
-        <v>-0.07731958762886593</v>
+        <v>-0.0878230398598336</v>
       </c>
       <c r="O64" s="3">
-        <v>-0.00529456261499703</v>
+        <v>-0.008511951158339895</v>
       </c>
       <c r="P64" s="3">
-        <v>-0.03877333599812025</v>
+        <v>-0.03014520840535315</v>
       </c>
       <c r="Q64" s="3">
-        <v>-0.02220192152665424</v>
+        <v>-0.01763402384804064</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4718,46 +4718,46 @@
         <v>225</v>
       </c>
       <c r="D65" s="1">
-        <v>8023253.914962857</v>
+        <v>7598429.989285715</v>
       </c>
       <c r="E65" s="2">
-        <v>1.015473328544095</v>
+        <v>1.00370708958666</v>
       </c>
       <c r="F65" s="3">
-        <v>-0.01245019920318726</v>
+        <v>0.06167633104902482</v>
       </c>
       <c r="G65" s="3">
-        <v>-0.01392270918092118</v>
+        <v>0.1206242456690595</v>
       </c>
       <c r="H65" s="3">
-        <v>0.01070336391437318</v>
+        <v>0.01206030150753772</v>
       </c>
       <c r="I65" s="3">
-        <v>-0.003825191814105321</v>
+        <v>-3.519324830330508E-06</v>
       </c>
       <c r="J65" s="3">
-        <v>0.01432225063938614</v>
+        <v>0.01768569984840844</v>
       </c>
       <c r="K65" s="3">
-        <v>4.7647595829995E-06</v>
+        <v>6.807648685439394E-06</v>
       </c>
       <c r="L65" s="3">
-        <v>-0.06988742964352712</v>
+        <v>-0.08951175406871605</v>
       </c>
       <c r="M65" s="3">
-        <v>-0.06778984306287014</v>
+        <v>-0.05554943184834526</v>
       </c>
       <c r="N65" s="3">
-        <v>-0.09699453551912568</v>
+        <v>-0.08909995477159653</v>
       </c>
       <c r="O65" s="3">
-        <v>-0.02238671718990985</v>
+        <v>-0.02439004959375312</v>
       </c>
       <c r="P65" s="3">
-        <v>-0.04085627612189566</v>
+        <v>-0.02777131209982991</v>
       </c>
       <c r="Q65" s="3">
-        <v>-0.04023372645392091</v>
+        <v>-0.02766874159598347</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4771,46 +4771,46 @@
         <v>226</v>
       </c>
       <c r="D66" s="1">
-        <v>9449693.800750857</v>
+        <v>9415828.028617572</v>
       </c>
       <c r="E66" s="2">
-        <v>1.099264831382234</v>
+        <v>1.103300401253294</v>
       </c>
       <c r="F66" s="3">
-        <v>-0.0231862378459237</v>
+        <v>0.05851493139628722</v>
       </c>
       <c r="G66" s="3">
-        <v>-0.03561023502039363</v>
+        <v>0.08633566780719995</v>
       </c>
       <c r="H66" s="3">
-        <v>-0.004952380952380949</v>
+        <v>-0.008317580340264769</v>
       </c>
       <c r="I66" s="3">
-        <v>-0.02300312797647957</v>
+        <v>-0.00513102071388705</v>
       </c>
       <c r="J66" s="3">
-        <v>-0.006844106463878246</v>
+        <v>-0.01943925233644858</v>
       </c>
       <c r="K66" s="3">
-        <v>-0.004094745984474434</v>
+        <v>-0.009515566780158581</v>
       </c>
       <c r="L66" s="3">
-        <v>-0.1127717391304347</v>
+        <v>-0.1377383300460224</v>
       </c>
       <c r="M66" s="3">
-        <v>-0.1031088490672249</v>
+        <v>-0.09848262884787012</v>
       </c>
       <c r="N66" s="3">
-        <v>-0.1546925566343041</v>
+        <v>-0.1579454253611558</v>
       </c>
       <c r="O66" s="3">
-        <v>-0.03237192198253171</v>
+        <v>-0.03550086548627795</v>
       </c>
       <c r="P66" s="3">
-        <v>-0.06935954204380926</v>
+        <v>-0.05399909781401435</v>
       </c>
       <c r="Q66" s="3">
-        <v>-0.06309629860221709</v>
+        <v>-0.04894324134449158</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4824,46 +4824,46 @@
         <v>227</v>
       </c>
       <c r="D67" s="1">
-        <v>17724091.07322857</v>
+        <v>16608025.94212857</v>
       </c>
       <c r="E67" s="2">
-        <v>1.701440530802419</v>
+        <v>1.644597934025128</v>
       </c>
       <c r="F67" s="3">
-        <v>-0.004434011476264973</v>
+        <v>0.03543199781956934</v>
       </c>
       <c r="G67" s="3">
-        <v>-0.0008980702486577314</v>
+        <v>0.007216525455102503</v>
       </c>
       <c r="H67" s="3">
-        <v>0.01327316166710918</v>
+        <v>-0.001051801209571392</v>
       </c>
       <c r="I67" s="3">
-        <v>-0.0004176936931829526</v>
+        <v>3.468803602349813E-09</v>
       </c>
       <c r="J67" s="3">
-        <v>0.005002632964718306</v>
+        <v>-0.005497382198952855</v>
       </c>
       <c r="K67" s="3">
-        <v>-0.0004917759481534047</v>
+        <v>-0.0001649853253690045</v>
       </c>
       <c r="L67" s="3">
-        <v>-0.1588805641251653</v>
+        <v>-0.1831864115244033</v>
       </c>
       <c r="M67" s="3">
-        <v>-0.1390930327103919</v>
+        <v>-0.1261765655381003</v>
       </c>
       <c r="N67" s="3">
-        <v>-0.203630294179011</v>
+        <v>-0.2110072689511943</v>
       </c>
       <c r="O67" s="3">
-        <v>-0.06930632674517404</v>
+        <v>-0.07821356207029456</v>
       </c>
       <c r="P67" s="3">
-        <v>-0.06999555147952483</v>
+        <v>-0.06317077543173465</v>
       </c>
       <c r="Q67" s="3">
-        <v>-0.04113899381867559</v>
+        <v>-0.03841107551261794</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4877,46 +4877,46 @@
         <v>228</v>
       </c>
       <c r="D68" s="1">
-        <v>42017526.94397143</v>
+        <v>39453065.2965</v>
       </c>
       <c r="E68" s="2">
-        <v>1.929603180630725</v>
+        <v>1.889197288207066</v>
       </c>
       <c r="F68" s="3">
-        <v>-0.01680672268907565</v>
+        <v>0.04954954954954943</v>
       </c>
       <c r="G68" s="3">
-        <v>-0.01400871506302484</v>
+        <v>0.008696508473439942</v>
       </c>
       <c r="H68" s="3">
-        <v>0</v>
+        <v>-0.0168776371308017</v>
       </c>
       <c r="I68" s="3">
-        <v>-0.006748862171927912</v>
+        <v>-0.01378125128951851</v>
       </c>
       <c r="J68" s="3">
-        <v>0.004291845493562236</v>
+        <v>-0.03319502074688799</v>
       </c>
       <c r="K68" s="3">
-        <v>-0.006522580804782074</v>
+        <v>-0.01083979502066594</v>
       </c>
       <c r="L68" s="3">
-        <v>-0.06772908366533871</v>
+        <v>-0.1129441624365483</v>
       </c>
       <c r="M68" s="3">
-        <v>-0.06695939632303863</v>
+        <v>-0.06966328600327697</v>
       </c>
       <c r="N68" s="3">
-        <v>-0.2094594594594595</v>
+        <v>-0.2002288329519451</v>
       </c>
       <c r="O68" s="3">
-        <v>-0.06500974499816149</v>
+        <v>-0.06298049071047419</v>
       </c>
       <c r="P68" s="3">
-        <v>-0.04048405569303173</v>
+        <v>-0.04025154051197145</v>
       </c>
       <c r="Q68" s="3">
-        <v>-0.0209805083757163</v>
+        <v>-0.02130616043291698</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4930,46 +4930,46 @@
         <v>229</v>
       </c>
       <c r="D69" s="1">
-        <v>6111949.714045715</v>
+        <v>5900240.310248571</v>
       </c>
       <c r="E69" s="2">
-        <v>0.9679323404144619</v>
+        <v>0.95540746530178</v>
       </c>
       <c r="F69" s="3">
-        <v>-0.02612562534741513</v>
+        <v>0.05453467694131599</v>
       </c>
       <c r="G69" s="3">
-        <v>-0.07425719272835396</v>
+        <v>0.1603628916543701</v>
       </c>
       <c r="H69" s="3">
-        <v>-0.03257868580894534</v>
+        <v>-0.02091359383599331</v>
       </c>
       <c r="I69" s="3">
-        <v>-0.09448016353973313</v>
+        <v>-0.009619514279803395</v>
       </c>
       <c r="J69" s="3">
-        <v>-0.03789126853377263</v>
+        <v>-0.02893013100436677</v>
       </c>
       <c r="K69" s="3">
-        <v>-0.04895673686227471</v>
+        <v>-0.0371912701978693</v>
       </c>
       <c r="L69" s="3">
-        <v>-0.1287916459472898</v>
+        <v>-0.1564722617354197</v>
       </c>
       <c r="M69" s="3">
-        <v>-0.1226454936506694</v>
+        <v>-0.1220350299203668</v>
       </c>
       <c r="N69" s="3">
-        <v>-0.1809256661991584</v>
+        <v>-0.1782909930715935</v>
       </c>
       <c r="O69" s="3">
-        <v>-0.04080605913555288</v>
+        <v>-0.04525641615553021</v>
       </c>
       <c r="P69" s="3">
-        <v>-0.09845134318951171</v>
+        <v>-0.07961315005911804</v>
       </c>
       <c r="Q69" s="3">
-        <v>-0.1017130424088894</v>
+        <v>-0.08332900144753527</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4983,46 +4983,46 @@
         <v>230</v>
       </c>
       <c r="D70" s="1">
-        <v>53859755.6365</v>
+        <v>52593899.13774286</v>
       </c>
       <c r="E70" s="2">
-        <v>1.194333832341033</v>
+        <v>1.163349305430186</v>
       </c>
       <c r="F70" s="3">
-        <v>-0.03310255300735608</v>
+        <v>0.04015784586815223</v>
       </c>
       <c r="G70" s="3">
-        <v>-0.0749440610312927</v>
+        <v>0.05091552649754361</v>
       </c>
       <c r="H70" s="3">
-        <v>-0.04813631522896689</v>
+        <v>-0.05023314963967783</v>
       </c>
       <c r="I70" s="3">
-        <v>-0.1316178177927693</v>
+        <v>-0.04129920415115668</v>
       </c>
       <c r="J70" s="3">
-        <v>-0.0603448275862069</v>
+        <v>-0.06626380495936653</v>
       </c>
       <c r="K70" s="3">
-        <v>-0.09743009210262957</v>
+        <v>-0.08768517265107179</v>
       </c>
       <c r="L70" s="3">
-        <v>-0.1829981718464351</v>
+        <v>-0.2110915492957746</v>
       </c>
       <c r="M70" s="3">
-        <v>-0.1618917731705342</v>
+        <v>-0.1620231162725937</v>
       </c>
       <c r="N70" s="3">
-        <v>-0.2627845595513031</v>
+        <v>-0.2716189856957087</v>
       </c>
       <c r="O70" s="3">
-        <v>-0.07485391963396509</v>
+        <v>-0.07964374395340462</v>
       </c>
       <c r="P70" s="3">
-        <v>-0.1296609326365819</v>
+        <v>-0.1248541444618327</v>
       </c>
       <c r="Q70" s="3">
-        <v>-0.1085633925168405</v>
+        <v>-0.107323005978556</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5036,46 +5036,46 @@
         <v>231</v>
       </c>
       <c r="D71" s="1">
-        <v>235216326.36414</v>
+        <v>243300294.2080114</v>
       </c>
       <c r="E71" s="2">
-        <v>1.562761816194886</v>
+        <v>1.544969895829333</v>
       </c>
       <c r="F71" s="3">
-        <v>-0.05118751607648121</v>
+        <v>0.05354965769483253</v>
       </c>
       <c r="G71" s="3">
-        <v>-0.1305745719837689</v>
+        <v>0.141754714078901</v>
       </c>
       <c r="H71" s="3">
-        <v>-0.04800412938747421</v>
+        <v>-0.04812743602779194</v>
       </c>
       <c r="I71" s="3">
-        <v>-0.1672769966999186</v>
+        <v>-0.03981503843343105</v>
       </c>
       <c r="J71" s="3">
-        <v>-0.06600270087778534</v>
+        <v>-0.06234871880477427</v>
       </c>
       <c r="K71" s="3">
-        <v>-0.07139318729831381</v>
+        <v>-0.08173485409527977</v>
       </c>
       <c r="L71" s="3">
-        <v>-0.1968355349107274</v>
+        <v>-0.2014500995166335</v>
       </c>
       <c r="M71" s="3">
-        <v>-0.1420852176803561</v>
+        <v>-0.1521318970685499</v>
       </c>
       <c r="N71" s="3">
-        <v>-0.3133531893770167</v>
+        <v>-0.3026691495965239</v>
       </c>
       <c r="O71" s="3">
-        <v>-0.08818410548505487</v>
+        <v>-0.09152928909989082</v>
       </c>
       <c r="P71" s="3">
-        <v>-0.1363298948320625</v>
+        <v>-0.1169333755819148</v>
       </c>
       <c r="Q71" s="3">
-        <v>-0.08723651513575331</v>
+        <v>-0.07568650748314126</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -5089,46 +5089,46 @@
         <v>232</v>
       </c>
       <c r="D72" s="1">
-        <v>23854192.71342858</v>
+        <v>23270006.31142857</v>
       </c>
       <c r="E72" s="2">
-        <v>0.9466543490513216</v>
+        <v>0.9341891449508579</v>
       </c>
       <c r="F72" s="3">
-        <v>0.0007543374402816758</v>
+        <v>0.05610907184058724</v>
       </c>
       <c r="G72" s="3">
-        <v>-0.002163290774328671</v>
+        <v>0.1133799091892549</v>
       </c>
       <c r="H72" s="3">
-        <v>0.03726869950482157</v>
+        <v>0.03149807938540327</v>
       </c>
       <c r="I72" s="3">
-        <v>0.003899794503757212</v>
+        <v>0.01260404683800096</v>
       </c>
       <c r="J72" s="3">
-        <v>0.02922161882596336</v>
+        <v>0.03520945772295037</v>
       </c>
       <c r="K72" s="3">
-        <v>0.01790744744937209</v>
+        <v>0.0256208300515716</v>
       </c>
       <c r="L72" s="3">
-        <v>-0.07484890748489076</v>
+        <v>-0.08765571913929787</v>
       </c>
       <c r="M72" s="3">
-        <v>-0.06979799502740161</v>
+        <v>-0.04850930505704928</v>
       </c>
       <c r="N72" s="3">
-        <v>-0.1716961498439125</v>
+        <v>-0.152</v>
       </c>
       <c r="O72" s="3">
-        <v>-0.04073071684882675</v>
+        <v>-0.03624582690336479</v>
       </c>
       <c r="P72" s="3">
-        <v>-0.03598064290086514</v>
+        <v>-0.01144423750273884</v>
       </c>
       <c r="Q72" s="3">
-        <v>-0.03800821592054451</v>
+        <v>-0.01225045009845501</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5142,46 +5142,46 @@
         <v>233</v>
       </c>
       <c r="D73" s="1">
-        <v>22369751.83517143</v>
+        <v>20634725.70087428</v>
       </c>
       <c r="E73" s="2">
-        <v>1.33828831945982</v>
+        <v>1.336684882648804</v>
       </c>
       <c r="F73" s="3">
-        <v>-0.01174033149171271</v>
+        <v>0.04289349327517268</v>
       </c>
       <c r="G73" s="3">
-        <v>-0.00694782510616806</v>
+        <v>0.02548106330562767</v>
       </c>
       <c r="H73" s="3">
-        <v>-0.0005238344683080539</v>
+        <v>-0.002607335303319961</v>
       </c>
       <c r="I73" s="3">
-        <v>-0.007276452808749861</v>
+        <v>-0.0004924712853197258</v>
       </c>
       <c r="J73" s="3">
-        <v>-0.001047120418848125</v>
+        <v>-0.008809811711867276</v>
       </c>
       <c r="K73" s="3">
-        <v>-0.00244480327701612</v>
+        <v>-0.00227713680848866</v>
       </c>
       <c r="L73" s="3">
-        <v>-0.1323328785811733</v>
+        <v>-0.1458767490324502</v>
       </c>
       <c r="M73" s="3">
-        <v>-0.1129572463981285</v>
+        <v>-0.09713020951824496</v>
       </c>
       <c r="N73" s="3">
-        <v>-0.1082723165602118</v>
+        <v>-0.1053944496414094</v>
       </c>
       <c r="O73" s="3">
-        <v>-0.01421495927167175</v>
+        <v>-0.02076198968781199</v>
       </c>
       <c r="P73" s="3">
-        <v>-0.05761007083318995</v>
+        <v>-0.04970367316336681</v>
       </c>
       <c r="Q73" s="3">
-        <v>-0.04304757801102484</v>
+        <v>-0.03718428614594108</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5195,46 +5195,46 @@
         <v>234</v>
       </c>
       <c r="D74" s="1">
-        <v>6301778.68433</v>
+        <v>6007341.668941429</v>
       </c>
       <c r="E74" s="2">
-        <v>1.111452361289017</v>
+        <v>1.081032115565275</v>
       </c>
       <c r="F74" s="3">
-        <v>-0.006855575868372981</v>
+        <v>0.0689655172413792</v>
       </c>
       <c r="G74" s="3">
-        <v>-0.009352865354195824</v>
+        <v>0.07706028251059042</v>
       </c>
       <c r="H74" s="3">
-        <v>0.01970905678085407</v>
+        <v>0.02039870190078811</v>
       </c>
       <c r="I74" s="3">
-        <v>-0.0002523602889851171</v>
+        <v>0.0002658354614670041</v>
       </c>
       <c r="J74" s="3">
-        <v>0.01875293014533526</v>
+        <v>0.01662817551963045</v>
       </c>
       <c r="K74" s="3">
-        <v>0.0003059128409440798</v>
+        <v>0.0001194632630570375</v>
       </c>
       <c r="L74" s="3">
-        <v>-0.08659100462379149</v>
+        <v>-0.1074614760746149</v>
       </c>
       <c r="M74" s="3">
-        <v>-0.08449629829487695</v>
+        <v>-0.07246215462623468</v>
       </c>
       <c r="N74" s="3">
-        <v>-0.1972663465090506</v>
+        <v>-0.1978862973760933</v>
       </c>
       <c r="O74" s="3">
-        <v>-0.06427285699184138</v>
+        <v>-0.06144547068281773</v>
       </c>
       <c r="P74" s="3">
-        <v>-0.04692458182453639</v>
+        <v>-0.03617134568158882</v>
       </c>
       <c r="Q74" s="3">
-        <v>-0.04221915707670563</v>
+        <v>-0.03346001026313145</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -5248,46 +5248,46 @@
         <v>235</v>
       </c>
       <c r="D75" s="1">
-        <v>8711041.225200001</v>
+        <v>8684911.396342857</v>
       </c>
       <c r="E75" s="2">
-        <v>1.049766308895161</v>
+        <v>1.033939149385898</v>
       </c>
       <c r="F75" s="3">
-        <v>-0.01528911369122878</v>
+        <v>0.04986686032437655</v>
       </c>
       <c r="G75" s="3">
-        <v>-0.02909958280665679</v>
+        <v>0.07348053070892906</v>
       </c>
       <c r="H75" s="3">
-        <v>-0.01517590250632325</v>
+        <v>0.005797773654916388</v>
       </c>
       <c r="I75" s="3">
-        <v>-0.01727363754872382</v>
+        <v>-0.0001645981682135495</v>
       </c>
       <c r="J75" s="3">
-        <v>-0.05012197826569083</v>
+        <v>-0.03407572383073507</v>
       </c>
       <c r="K75" s="3">
-        <v>-0.04711390592382089</v>
+        <v>-0.01407190792163811</v>
       </c>
       <c r="L75" s="3">
-        <v>-0.1445975634112242</v>
+        <v>-0.1636293510751134</v>
       </c>
       <c r="M75" s="3">
-        <v>-0.1321255242478755</v>
+        <v>-0.1321567475354247</v>
       </c>
       <c r="N75" s="3">
-        <v>-0.193939964242025</v>
+        <v>-0.1750047555640099</v>
       </c>
       <c r="O75" s="3">
-        <v>-0.03386944251761585</v>
+        <v>-0.03664919491658442</v>
       </c>
       <c r="P75" s="3">
-        <v>-0.08961971508584819</v>
+        <v>-0.07311432772853139</v>
       </c>
       <c r="Q75" s="3">
-        <v>-0.08537111005226442</v>
+        <v>-0.07071434307517731</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5301,46 +5301,46 @@
         <v>236</v>
       </c>
       <c r="D76" s="1">
-        <v>12376959.08228571</v>
+        <v>10519789.35136714</v>
       </c>
       <c r="E76" s="2">
-        <v>1.215567776049988</v>
+        <v>1.224412362349355</v>
       </c>
       <c r="F76" s="3">
-        <v>-0.01927299341302754</v>
+        <v>0.03784834737524311</v>
       </c>
       <c r="G76" s="3">
-        <v>-0.03311060758956</v>
+        <v>0.01356479013115253</v>
       </c>
       <c r="H76" s="3">
-        <v>-0.008142116950407032</v>
+        <v>-0.01537137235612397</v>
       </c>
       <c r="I76" s="3">
-        <v>-0.0162327134525268</v>
+        <v>-0.01434156672772025</v>
       </c>
       <c r="J76" s="3">
-        <v>-0.003223406893131619</v>
+        <v>-0.02186660151478133</v>
       </c>
       <c r="K76" s="3">
-        <v>-0.0008089343619513711</v>
+        <v>-0.01633607982281729</v>
       </c>
       <c r="L76" s="3">
-        <v>-0.145680586547657</v>
+        <v>-0.1531464833421469</v>
       </c>
       <c r="M76" s="3">
-        <v>-0.1066433095520277</v>
+        <v>-0.09998693512646331</v>
       </c>
       <c r="N76" s="3">
-        <v>-0.1078561917443409</v>
+        <v>-0.1152486187845303</v>
       </c>
       <c r="O76" s="3">
-        <v>-0.005998394988683814</v>
+        <v>-0.009121611709227454</v>
       </c>
       <c r="P76" s="3">
-        <v>-0.06987695857079383</v>
+        <v>-0.0581615074746403</v>
       </c>
       <c r="Q76" s="3">
-        <v>-0.05748503699058263</v>
+        <v>-0.04750156831399696</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -5354,46 +5354,46 @@
         <v>237</v>
       </c>
       <c r="D77" s="1">
-        <v>161965172.4222857</v>
+        <v>152928439.5947143</v>
       </c>
       <c r="E77" s="2">
-        <v>1.68517942983329</v>
+        <v>1.529341820170792</v>
       </c>
       <c r="F77" s="3">
-        <v>-0.02265925609234725</v>
+        <v>0.06263399693721283</v>
       </c>
       <c r="G77" s="3">
-        <v>-0.04524813405279546</v>
+        <v>0.1513440630489717</v>
       </c>
       <c r="H77" s="3">
-        <v>0.01195219123505969</v>
+        <v>0.0150672908133411</v>
       </c>
       <c r="I77" s="3">
-        <v>-4.620594354530087E-05</v>
+        <v>0.0001884742732869765</v>
       </c>
       <c r="J77" s="3">
-        <v>0.01165363622953234</v>
+        <v>0.0004325259515571098</v>
       </c>
       <c r="K77" s="3">
-        <v>-6.393633971648657E-06</v>
+        <v>0.0002574711666786197</v>
       </c>
       <c r="L77" s="3">
-        <v>-0.07847352862133841</v>
+        <v>-0.09812841174941511</v>
       </c>
       <c r="M77" s="3">
-        <v>-0.07698595585638861</v>
+        <v>-0.06666164443139661</v>
       </c>
       <c r="N77" s="3">
-        <v>-0.2115428834214763</v>
+        <v>-0.2076053442959917</v>
       </c>
       <c r="O77" s="3">
-        <v>-0.07114995625182015</v>
+        <v>-0.06617968727928322</v>
       </c>
       <c r="P77" s="3">
-        <v>-0.06111704495459204</v>
+        <v>-0.03320208663235899</v>
       </c>
       <c r="Q77" s="3">
-        <v>-0.03626738130825522</v>
+        <v>-0.02171004950917454</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -5407,46 +5407,46 @@
         <v>238</v>
       </c>
       <c r="D78" s="1">
-        <v>4571619.341428571</v>
+        <v>4452011.487142857</v>
       </c>
       <c r="E78" s="2">
-        <v>0.7741090909693512</v>
+        <v>0.7623752698631909</v>
       </c>
       <c r="F78" s="3">
-        <v>-0.02312221743501365</v>
+        <v>0.04596834966088918</v>
       </c>
       <c r="G78" s="3">
-        <v>-0.0735909733328689</v>
+        <v>0.1534441129080902</v>
       </c>
       <c r="H78" s="3">
-        <v>-0.01348803480783173</v>
+        <v>0.008720930232558148</v>
       </c>
       <c r="I78" s="3">
-        <v>-0.02152162447135602</v>
+        <v>-0.0002230756703022895</v>
       </c>
       <c r="J78" s="3">
-        <v>-0.006862315666520553</v>
+        <v>0.008134805345729138</v>
       </c>
       <c r="K78" s="3">
-        <v>-0.001016678210297458</v>
+        <v>-0.004988365586686106</v>
       </c>
       <c r="L78" s="3">
-        <v>-0.08746981486450219</v>
+        <v>-0.08911930699566882</v>
       </c>
       <c r="M78" s="3">
-        <v>-0.06759545667455796</v>
+        <v>-0.06126770948147471</v>
       </c>
       <c r="N78" s="3">
-        <v>-0.104174897932306</v>
+        <v>-0.1018506535524785</v>
       </c>
       <c r="O78" s="3">
-        <v>-0.02296965955513477</v>
+        <v>-0.02654563199299077</v>
       </c>
       <c r="P78" s="3">
-        <v>-0.07059321500371343</v>
+        <v>-0.03312803753408041</v>
       </c>
       <c r="Q78" s="3">
-        <v>-0.09119285101705178</v>
+        <v>-0.0434537147827805</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -5460,46 +5460,46 @@
         <v>239</v>
       </c>
       <c r="D79" s="1">
-        <v>9269824.463914284</v>
+        <v>9114873.501014285</v>
       </c>
       <c r="E79" s="2">
-        <v>1.228490763964769</v>
+        <v>1.16478136759538</v>
       </c>
       <c r="F79" s="3">
-        <v>-0.0435399905347846</v>
+        <v>0.04889912954429085</v>
       </c>
       <c r="G79" s="3">
-        <v>-0.1305178616680175</v>
+        <v>0.05820494030402461</v>
       </c>
       <c r="H79" s="3">
-        <v>-0.02953181272508998</v>
+        <v>-0.02266221374045804</v>
       </c>
       <c r="I79" s="3">
-        <v>-0.03607423017836103</v>
+        <v>-0.0394957230342557</v>
       </c>
       <c r="J79" s="3">
-        <v>-0.03830597192481561</v>
+        <v>-0.02289530169329835</v>
       </c>
       <c r="K79" s="3">
-        <v>-0.01351808536669718</v>
+        <v>-0.02696816982253673</v>
       </c>
       <c r="L79" s="3">
-        <v>-0.08984462958793063</v>
+        <v>-0.1301486199575371</v>
       </c>
       <c r="M79" s="3">
-        <v>-0.08135875094528865</v>
+        <v>-0.09341839068779888</v>
       </c>
       <c r="N79" s="3">
-        <v>-0.1425540941875265</v>
+        <v>-0.1303332625769476</v>
       </c>
       <c r="O79" s="3">
-        <v>-0.01679819620473972</v>
+        <v>-0.0204386075099844</v>
       </c>
       <c r="P79" s="3">
-        <v>-0.1059383063066531</v>
+        <v>-0.06019328025516781</v>
       </c>
       <c r="Q79" s="3">
-        <v>-0.0862345158906634</v>
+        <v>-0.05167774994498168</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -5513,46 +5513,46 @@
         <v>240</v>
       </c>
       <c r="D80" s="1">
-        <v>138008981.6120043</v>
+        <v>137239599.95697</v>
       </c>
       <c r="E80" s="2">
-        <v>1.928699865710544</v>
+        <v>1.904832024823228</v>
       </c>
       <c r="F80" s="3">
-        <v>0.03557338682714824</v>
+        <v>0.04372926343729272</v>
       </c>
       <c r="G80" s="3">
-        <v>0.1151630068558449</v>
+        <v>0.07055044815524973</v>
       </c>
       <c r="H80" s="3">
-        <v>0.06498418374363921</v>
+        <v>0.06356075461491663</v>
       </c>
       <c r="I80" s="3">
-        <v>0.07913976328621677</v>
+        <v>0.1296276465355293</v>
       </c>
       <c r="J80" s="3">
-        <v>0.02177211849310548</v>
+        <v>0.03521126760563394</v>
       </c>
       <c r="K80" s="3">
-        <v>0.0003254045591887454</v>
+        <v>0.05113862667217442</v>
       </c>
       <c r="L80" s="3">
-        <v>-0.1135088723526044</v>
+        <v>-0.07509114430201091</v>
       </c>
       <c r="M80" s="3">
-        <v>-0.08573168299385542</v>
+        <v>-0.06780537157911427</v>
       </c>
       <c r="N80" s="3">
-        <v>0.09619195922989822</v>
+        <v>0.1239013933547697</v>
       </c>
       <c r="O80" s="3">
-        <v>0.00574636858128556</v>
+        <v>0.003074168319142455</v>
       </c>
       <c r="P80" s="3">
-        <v>0.04825868189454349</v>
+        <v>0.06084453741371208</v>
       </c>
       <c r="Q80" s="3">
-        <v>0.02502135389363171</v>
+        <v>0.0319422062527317</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5566,46 +5566,46 @@
         <v>241</v>
       </c>
       <c r="D81" s="1">
-        <v>292642349.442</v>
+        <v>277314019.8673286</v>
       </c>
       <c r="E81" s="2">
-        <v>0.9239731629981478</v>
+        <v>0.9249522511527575</v>
       </c>
       <c r="F81" s="3">
-        <v>-0.002125797173940132</v>
+        <v>0.03168649767201237</v>
       </c>
       <c r="G81" s="3">
-        <v>0.0003479973770662568</v>
+        <v>0.01460144215715639</v>
       </c>
       <c r="H81" s="3">
-        <v>-0.01090728805156163</v>
+        <v>-0.01797365505355171</v>
       </c>
       <c r="I81" s="3">
-        <v>-0.03790453451633002</v>
+        <v>-0.0003982321384725111</v>
       </c>
       <c r="J81" s="3">
-        <v>-0.01249845316173741</v>
+        <v>-0.02146712463199224</v>
       </c>
       <c r="K81" s="3">
-        <v>-0.01765179497694916</v>
+        <v>-0.01797066438122706</v>
       </c>
       <c r="L81" s="3">
-        <v>-0.1122483034820336</v>
+        <v>-0.1367817335786171</v>
       </c>
       <c r="M81" s="3">
-        <v>-0.1016720651834299</v>
+        <v>-0.08913155782417197</v>
       </c>
       <c r="N81" s="3">
-        <v>-0.119205298013245</v>
+        <v>-0.1300981461286806</v>
       </c>
       <c r="O81" s="3">
-        <v>-0.0263845683125891</v>
+        <v>-0.03107963143523953</v>
       </c>
       <c r="P81" s="3">
-        <v>-0.05966193008018954</v>
+        <v>-0.05355111110269951</v>
       </c>
       <c r="Q81" s="3">
-        <v>-0.06457106382462012</v>
+        <v>-0.05789608170147094</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5619,46 +5619,46 @@
         <v>242</v>
       </c>
       <c r="D82" s="1">
-        <v>10107038.9568</v>
+        <v>9227229.095057143</v>
       </c>
       <c r="E82" s="2">
-        <v>1.219742109092553</v>
+        <v>1.200586494087702</v>
       </c>
       <c r="F82" s="3">
-        <v>-0.02133712660028451</v>
+        <v>0.04781077000503276</v>
       </c>
       <c r="G82" s="3">
-        <v>-0.03544860761979239</v>
+        <v>0.06153251038114649</v>
       </c>
       <c r="H82" s="3">
-        <v>-0.01432664756446993</v>
+        <v>-0.009043312708234235</v>
       </c>
       <c r="I82" s="3">
-        <v>-0.03229041925988633</v>
+        <v>-0.004479569622743215</v>
       </c>
       <c r="J82" s="3">
-        <v>-0.03776223776223774</v>
+        <v>-0.03655714946783892</v>
       </c>
       <c r="K82" s="3">
-        <v>-0.03976452684399173</v>
+        <v>-0.0238986898225743</v>
       </c>
       <c r="L82" s="3">
-        <v>-0.1540983606557377</v>
+        <v>-0.1594670972951151</v>
       </c>
       <c r="M82" s="3">
-        <v>-0.1328738206673641</v>
+        <v>-0.1254607874751548</v>
       </c>
       <c r="N82" s="3">
-        <v>-0.175389532560927</v>
+        <v>-0.1734815402937674</v>
       </c>
       <c r="O82" s="3">
-        <v>-0.03353653739301109</v>
+        <v>-0.03782106114848909</v>
       </c>
       <c r="P82" s="3">
-        <v>-0.08631917375567791</v>
+        <v>-0.07467973864886455</v>
       </c>
       <c r="Q82" s="3">
-        <v>-0.07076838055537529</v>
+        <v>-0.06220271427058818</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5672,46 +5672,46 @@
         <v>243</v>
       </c>
       <c r="D83" s="1">
-        <v>17468055.50929857</v>
+        <v>17108031.66083315</v>
       </c>
       <c r="E83" s="2">
-        <v>1.201651527211977</v>
+        <v>1.171444886799575</v>
       </c>
       <c r="F83" s="3">
-        <v>-0.009483022330988133</v>
+        <v>0.04125359769747369</v>
       </c>
       <c r="G83" s="3">
-        <v>-0.01404585894334116</v>
+        <v>0.04553766249203901</v>
       </c>
       <c r="H83" s="3">
-        <v>0.006840796019900461</v>
+        <v>0.006802721088435473</v>
       </c>
       <c r="I83" s="3">
-        <v>-0.000413213629923802</v>
+        <v>-3.058240223873401E-06</v>
       </c>
       <c r="J83" s="3">
-        <v>-0.009785932721712512</v>
+        <v>-0.000613873542050286</v>
       </c>
       <c r="K83" s="3">
-        <v>-0.0001988309254054338</v>
+        <v>-0.0001025640204509409</v>
       </c>
       <c r="L83" s="3">
-        <v>-0.1825296642262055</v>
+        <v>-0.2039119804400977</v>
       </c>
       <c r="M83" s="3">
-        <v>-0.1620433599540421</v>
+        <v>-0.1367553866281253</v>
       </c>
       <c r="N83" s="3">
-        <v>-0.2277605533031242</v>
+        <v>-0.2243925678894712</v>
       </c>
       <c r="O83" s="3">
-        <v>-0.06438823666268199</v>
+        <v>-0.06875443174643725</v>
       </c>
       <c r="P83" s="3">
-        <v>-0.08804460944869162</v>
+        <v>-0.06842897532428813</v>
       </c>
       <c r="Q83" s="3">
-        <v>-0.07326966883067101</v>
+        <v>-0.05841416535714138</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5725,46 +5725,46 @@
         <v>244</v>
       </c>
       <c r="D84" s="1">
-        <v>157341589.9534286</v>
+        <v>165751896.7335143</v>
       </c>
       <c r="E84" s="2">
-        <v>1.500644819539965</v>
+        <v>1.528655427533614</v>
       </c>
       <c r="F84" s="3">
-        <v>-0.02012537116463212</v>
+        <v>0.05193881181074347</v>
       </c>
       <c r="G84" s="3">
-        <v>-0.008555702925173894</v>
+        <v>0.04639363093844574</v>
       </c>
       <c r="H84" s="3">
-        <v>-0.03602726387536507</v>
+        <v>-0.02858081471747707</v>
       </c>
       <c r="I84" s="3">
-        <v>-0.08671390184148675</v>
+        <v>-0.001076964466870032</v>
       </c>
       <c r="J84" s="3">
-        <v>-0.02622950819672119</v>
+        <v>-0.07333124412409903</v>
       </c>
       <c r="K84" s="3">
-        <v>-0.03740464497894701</v>
+        <v>-0.04105726636596401</v>
       </c>
       <c r="L84" s="3">
-        <v>-0.2960417160464565</v>
+        <v>-0.3161424606845514</v>
       </c>
       <c r="M84" s="3">
-        <v>-0.2651618365547799</v>
+        <v>-0.2459799648588375</v>
       </c>
       <c r="N84" s="3">
-        <v>-0.3421926910299002</v>
+        <v>-0.3554925893635572</v>
       </c>
       <c r="O84" s="3">
-        <v>-0.09555232750058652</v>
+        <v>-0.1065406658888777</v>
       </c>
       <c r="P84" s="3">
-        <v>-0.1512832407668634</v>
+        <v>-0.1435186156124008</v>
       </c>
       <c r="Q84" s="3">
-        <v>-0.100812156745552</v>
+        <v>-0.09388552385802125</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5778,46 +5778,46 @@
         <v>245</v>
       </c>
       <c r="D85" s="1">
-        <v>29594619.00985714</v>
+        <v>27174376.09142857</v>
       </c>
       <c r="E85" s="2">
-        <v>0.9341426693251504</v>
+        <v>0.9414001084608992</v>
       </c>
       <c r="F85" s="3">
-        <v>0.007011866235167217</v>
+        <v>0.03538175046554932</v>
       </c>
       <c r="G85" s="3">
-        <v>-0.0003958690910379139</v>
+        <v>0.01705133708753297</v>
       </c>
       <c r="H85" s="3">
-        <v>0.01688453159041394</v>
+        <v>-0.003584229390680927</v>
       </c>
       <c r="I85" s="3">
-        <v>-0.001816351033308703</v>
+        <v>1.106089007011211E-05</v>
       </c>
       <c r="J85" s="3">
-        <v>0.01522566612289281</v>
+        <v>0.001621329490182011</v>
       </c>
       <c r="K85" s="3">
-        <v>-3.737783619846244E-07</v>
+        <v>-5.194420022063003E-06</v>
       </c>
       <c r="L85" s="3">
-        <v>-0.06650000000000003</v>
+        <v>-0.1035149951628507</v>
       </c>
       <c r="M85" s="3">
-        <v>-0.07804163529469087</v>
+        <v>-0.06803278418175505</v>
       </c>
       <c r="N85" s="3">
-        <v>-0.1175358437056877</v>
+        <v>-0.130162703379224</v>
       </c>
       <c r="O85" s="3">
-        <v>-0.0268701395516743</v>
+        <v>-0.02750472188199858</v>
       </c>
       <c r="P85" s="3">
-        <v>-0.03921875219286439</v>
+        <v>-0.03401898930088856</v>
       </c>
       <c r="Q85" s="3">
-        <v>-0.04198368566248779</v>
+        <v>-0.03613658952781131</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5831,46 +5831,46 @@
         <v>246</v>
       </c>
       <c r="D86" s="1">
-        <v>110281129.008</v>
+        <v>104278389.3115714</v>
       </c>
       <c r="E86" s="2">
-        <v>1.351537153753862</v>
+        <v>1.329754388489616</v>
       </c>
       <c r="F86" s="3">
-        <v>-0.008178438661709963</v>
+        <v>0.06438791732909377</v>
       </c>
       <c r="G86" s="3">
-        <v>-0.02408568371784169</v>
+        <v>0.1028953190446312</v>
       </c>
       <c r="H86" s="3">
-        <v>-0.01911764705882354</v>
+        <v>-0.01760821716801176</v>
       </c>
       <c r="I86" s="3">
-        <v>-0.06182014889584436</v>
+        <v>-0.000981329297151997</v>
       </c>
       <c r="J86" s="3">
-        <v>-0.03959683225341968</v>
+        <v>-0.03876525484565689</v>
       </c>
       <c r="K86" s="3">
-        <v>-0.06562733894593389</v>
+        <v>-0.0278285045363517</v>
       </c>
       <c r="L86" s="3">
-        <v>-0.1641604010025063</v>
+        <v>-0.2169590643274854</v>
       </c>
       <c r="M86" s="3">
-        <v>-0.1787597561312916</v>
+        <v>-0.1678193600609659</v>
       </c>
       <c r="N86" s="3">
-        <v>-0.2226107226107226</v>
+        <v>-0.2506994963626189</v>
       </c>
       <c r="O86" s="3">
-        <v>-0.06467479817914262</v>
+        <v>-0.07028218282128383</v>
       </c>
       <c r="P86" s="3">
-        <v>-0.1221935475386128</v>
+        <v>-0.09782393229865881</v>
       </c>
       <c r="Q86" s="3">
-        <v>-0.09041079425691195</v>
+        <v>-0.07356541414371327</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5884,46 +5884,46 @@
         <v>247</v>
       </c>
       <c r="D87" s="1">
-        <v>12457349.19628572</v>
+        <v>11955669.44</v>
       </c>
       <c r="E87" s="2">
-        <v>1.14633518913669</v>
+        <v>1.129827722575078</v>
       </c>
       <c r="F87" s="3">
-        <v>-0.01894238358326758</v>
+        <v>0.02108309218685399</v>
       </c>
       <c r="G87" s="3">
-        <v>-0.07587712501521546</v>
+        <v>0.001239825447276059</v>
       </c>
       <c r="H87" s="3">
-        <v>-0.003207698476343298</v>
+        <v>-0.02602523659305994</v>
       </c>
       <c r="I87" s="3">
-        <v>-0.01269536208396092</v>
+        <v>-0.03992538985328916</v>
       </c>
       <c r="J87" s="3">
-        <v>-0.01388337961126543</v>
+        <v>-0.03440187646598902</v>
       </c>
       <c r="K87" s="3">
-        <v>-0.002980601888341194</v>
+        <v>-0.02240734211883653</v>
       </c>
       <c r="L87" s="3">
-        <v>-0.1134094151212553</v>
+        <v>-0.1447368421052632</v>
       </c>
       <c r="M87" s="3">
-        <v>-0.08312925805878904</v>
+        <v>-0.074099129231566</v>
       </c>
       <c r="N87" s="3">
-        <v>-0.2047344849648113</v>
+        <v>-0.190694626474443</v>
       </c>
       <c r="O87" s="3">
-        <v>-0.05882209891275735</v>
+        <v>-0.06001652430086419</v>
       </c>
       <c r="P87" s="3">
-        <v>-0.07950319153700225</v>
+        <v>-0.04825323567520127</v>
       </c>
       <c r="Q87" s="3">
-        <v>-0.06935422753346378</v>
+        <v>-0.04270848972020582</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5937,46 +5937,46 @@
         <v>248</v>
       </c>
       <c r="D88" s="1">
-        <v>27951214.26884572</v>
+        <v>27641359.6412</v>
       </c>
       <c r="E88" s="2">
-        <v>1.665576199483117</v>
+        <v>1.737792105054802</v>
       </c>
       <c r="F88" s="3">
-        <v>-0.06410256410256408</v>
+        <v>0.00104900344672562</v>
       </c>
       <c r="G88" s="3">
-        <v>-0.1278197672719765</v>
+        <v>1.165618627176493E-05</v>
       </c>
       <c r="H88" s="3">
-        <v>-0.05220449012713013</v>
+        <v>-0.1129996016465277</v>
       </c>
       <c r="I88" s="3">
-        <v>-0.1491568449368053</v>
+        <v>-0.1560015240813145</v>
       </c>
       <c r="J88" s="3">
-        <v>-0.08344232278315455</v>
+        <v>-0.1140583554376658</v>
       </c>
       <c r="K88" s="3">
-        <v>-0.08090990230243321</v>
+        <v>-0.12143110565899</v>
       </c>
       <c r="L88" s="3">
-        <v>-0.1488948263298518</v>
+        <v>-0.2134699164017427</v>
       </c>
       <c r="M88" s="3">
-        <v>-0.1122783742714289</v>
+        <v>-0.1366589475663314</v>
       </c>
       <c r="N88" s="3">
-        <v>-0.2531173398699775</v>
+        <v>-0.2824919441460795</v>
       </c>
       <c r="O88" s="3">
-        <v>-0.04457742693195336</v>
+        <v>-0.04697852148951544</v>
       </c>
       <c r="P88" s="3">
-        <v>-0.1200490707717027</v>
+        <v>-0.1290450266126607</v>
       </c>
       <c r="Q88" s="3">
-        <v>-0.0720766007637224</v>
+        <v>-0.07425803480019331</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5990,46 +5990,46 @@
         <v>249</v>
       </c>
       <c r="D89" s="1">
-        <v>4844793.154714285</v>
+        <v>4446946.362</v>
       </c>
       <c r="E89" s="2">
-        <v>1.117753420447871</v>
+        <v>1.119034427549144</v>
       </c>
       <c r="F89" s="3">
-        <v>-0.02519167579408529</v>
+        <v>0.03091190108191657</v>
       </c>
       <c r="G89" s="3">
-        <v>-0.06845485649018766</v>
+        <v>0.02018058221187315</v>
       </c>
       <c r="H89" s="3">
-        <v>-0.021978021978022</v>
+        <v>-0.02592186929536325</v>
       </c>
       <c r="I89" s="3">
-        <v>-0.04944428049888593</v>
+        <v>-0.03226636215028284</v>
       </c>
       <c r="J89" s="3">
-        <v>-0.021978021978022</v>
+        <v>-0.04543828264758513</v>
       </c>
       <c r="K89" s="3">
-        <v>-0.01894881554809213</v>
+        <v>-0.0414237390190333</v>
       </c>
       <c r="L89" s="3">
-        <v>-0.08966928060006815</v>
+        <v>-0.1401869158878506</v>
       </c>
       <c r="M89" s="3">
-        <v>-0.08376036168856328</v>
+        <v>-0.089820320287884</v>
       </c>
       <c r="N89" s="3">
-        <v>-0.1777024946104095</v>
+        <v>-0.1830985915492958</v>
       </c>
       <c r="O89" s="3">
-        <v>-0.04413370365555122</v>
+        <v>-0.04569800412615906</v>
       </c>
       <c r="P89" s="3">
-        <v>-0.07610760908937547</v>
+        <v>-0.06562202965345865</v>
       </c>
       <c r="Q89" s="3">
-        <v>-0.06808980200559801</v>
+        <v>-0.05864165394551882</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -6043,46 +6043,46 @@
         <v>250</v>
       </c>
       <c r="D90" s="1">
-        <v>8068411.809914286</v>
+        <v>7865000.771571428</v>
       </c>
       <c r="E90" s="2">
-        <v>1.159750856450255</v>
+        <v>1.15664025843643</v>
       </c>
       <c r="F90" s="3">
-        <v>-0.02570694087403584</v>
+        <v>0.03830369357045139</v>
       </c>
       <c r="G90" s="3">
-        <v>-0.07240546090950954</v>
+        <v>0.04073652135150273</v>
       </c>
       <c r="H90" s="3">
-        <v>-0.01044386422976495</v>
+        <v>-0.01811125485122896</v>
       </c>
       <c r="I90" s="3">
-        <v>-0.01780305058067506</v>
+        <v>-0.01503552458518304</v>
       </c>
       <c r="J90" s="3">
-        <v>-0.01558441558441549</v>
+        <v>-0.02190721649484545</v>
       </c>
       <c r="K90" s="3">
-        <v>-0.002113400571508601</v>
+        <v>-0.009874522472972708</v>
       </c>
       <c r="L90" s="3">
-        <v>-0.1040189125295507</v>
+        <v>-0.1433408577878104</v>
       </c>
       <c r="M90" s="3">
-        <v>-0.08984610618167807</v>
+        <v>-0.1039494355790551</v>
       </c>
       <c r="N90" s="3">
-        <v>-0.1124121779859484</v>
+        <v>-0.1275862068965517</v>
       </c>
       <c r="O90" s="3">
-        <v>-0.007957459616199933</v>
+        <v>-0.01142541178655901</v>
       </c>
       <c r="P90" s="3">
-        <v>-0.0811257835455938</v>
+        <v>-0.0569119790260139</v>
       </c>
       <c r="Q90" s="3">
-        <v>-0.06995104430782846</v>
+        <v>-0.04920456348540787</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -6096,46 +6096,46 @@
         <v>251</v>
       </c>
       <c r="D91" s="1">
-        <v>12236140.0512</v>
+        <v>11144284.89057143</v>
       </c>
       <c r="E91" s="2">
-        <v>0.9504129021354942</v>
+        <v>0.9370209955721926</v>
       </c>
       <c r="F91" s="3">
-        <v>-0.008755234107346665</v>
+        <v>0.06242448650825608</v>
       </c>
       <c r="G91" s="3">
-        <v>-0.02072361638089711</v>
+        <v>0.137504049404139</v>
       </c>
       <c r="H91" s="3">
-        <v>0.006182380216383485</v>
+        <v>0.009567546880979726</v>
       </c>
       <c r="I91" s="3">
-        <v>-0.003192591487016816</v>
+        <v>5.027749509827723E-06</v>
       </c>
       <c r="J91" s="3">
-        <v>-0.005347593582887536</v>
+        <v>0.004569687738004489</v>
       </c>
       <c r="K91" s="3">
-        <v>-0.002096692585416626</v>
+        <v>-2.513932678729744E-06</v>
       </c>
       <c r="L91" s="3">
-        <v>-0.09363035154890352</v>
+        <v>-0.1342303905480802</v>
       </c>
       <c r="M91" s="3">
-        <v>-0.1074686239024038</v>
+        <v>-0.09336928878620003</v>
       </c>
       <c r="N91" s="3">
-        <v>-0.169642857142857</v>
+        <v>-0.1574576812519962</v>
       </c>
       <c r="O91" s="3">
-        <v>-0.04009893091687191</v>
+        <v>-0.0415517791239499</v>
       </c>
       <c r="P91" s="3">
-        <v>-0.06409612014165046</v>
+        <v>-0.04668590135943938</v>
       </c>
       <c r="Q91" s="3">
-        <v>-0.06744028831851095</v>
+        <v>-0.04982375163422096</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -6149,46 +6149,46 @@
         <v>252</v>
       </c>
       <c r="D92" s="1">
-        <v>13503207.90971429</v>
+        <v>12777359.582</v>
       </c>
       <c r="E92" s="2">
-        <v>1.408060712745388</v>
+        <v>1.497238432751187</v>
       </c>
       <c r="F92" s="3">
-        <v>-0.04675028506271384</v>
+        <v>-0.03128834355828217</v>
       </c>
       <c r="G92" s="3">
-        <v>-0.1526831117145014</v>
+        <v>-0.1813620255444134</v>
       </c>
       <c r="H92" s="3">
-        <v>-0.02050380785002937</v>
+        <v>-0.1002849002849003</v>
       </c>
       <c r="I92" s="3">
-        <v>-0.04555539116824312</v>
+        <v>-0.1949386278460719</v>
       </c>
       <c r="J92" s="3">
-        <v>-0.04018369690011485</v>
+        <v>-0.09461009174311928</v>
       </c>
       <c r="K92" s="3">
-        <v>-0.01184437402822552</v>
+        <v>-0.07259036675631349</v>
       </c>
       <c r="L92" s="3">
-        <v>-0.1538461538461539</v>
+        <v>-0.2005063291139241</v>
       </c>
       <c r="M92" s="3">
-        <v>-0.08776367401519948</v>
+        <v>-0.09914434757168185</v>
       </c>
       <c r="N92" s="3">
-        <v>-0.2365296803652968</v>
+        <v>-0.2763519706691109</v>
       </c>
       <c r="O92" s="3">
-        <v>-0.06894875541428436</v>
+        <v>-0.0743971071202099</v>
       </c>
       <c r="P92" s="3">
-        <v>-0.1202233928648504</v>
+        <v>-0.1402531865580476</v>
       </c>
       <c r="Q92" s="3">
-        <v>-0.08538225076278352</v>
+        <v>-0.0936745834798879</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -6202,46 +6202,46 @@
         <v>253</v>
       </c>
       <c r="D93" s="1">
-        <v>156255389.5327857</v>
+        <v>136078021.3028</v>
       </c>
       <c r="E93" s="2">
-        <v>1.394266546004387</v>
+        <v>1.403365484640465</v>
       </c>
       <c r="F93" s="3">
-        <v>0.004394531249999923</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="G93" s="3">
-        <v>-0.006200926379916247</v>
+        <v>0.004225181903185377</v>
       </c>
       <c r="H93" s="3">
-        <v>0.008333333333333368</v>
+        <v>-0.01413255360623775</v>
       </c>
       <c r="I93" s="3">
-        <v>-0.006445781393915492</v>
+        <v>-0.0007293978593922742</v>
       </c>
       <c r="J93" s="3">
-        <v>-0.0004859086491740366</v>
+        <v>-0.02364864864864859</v>
       </c>
       <c r="K93" s="3">
-        <v>-0.001536842800640747</v>
+        <v>-0.004137119093089421</v>
       </c>
       <c r="L93" s="3">
-        <v>-0.107592190889371</v>
+        <v>-0.1885278780585639</v>
       </c>
       <c r="M93" s="3">
-        <v>-0.1276348349000054</v>
+        <v>-0.1131487626592048</v>
       </c>
       <c r="N93" s="3">
-        <v>-0.1692245557350565</v>
+        <v>-0.1786439301664636</v>
       </c>
       <c r="O93" s="3">
-        <v>-0.03094503126835486</v>
+        <v>-0.03372431341120293</v>
       </c>
       <c r="P93" s="3">
-        <v>-0.06691788063996085</v>
+        <v>-0.05864294087614712</v>
       </c>
       <c r="Q93" s="3">
-        <v>-0.0479950414300124</v>
+        <v>-0.04178736153766184</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -6255,46 +6255,46 @@
         <v>254</v>
       </c>
       <c r="D94" s="1">
-        <v>115274206.552</v>
+        <v>100878203.439</v>
       </c>
       <c r="E94" s="2">
-        <v>0.9645801395973014</v>
+        <v>0.9632565601288161</v>
       </c>
       <c r="F94" s="3">
-        <v>-0.006504336224149531</v>
+        <v>0.04691206184661344</v>
       </c>
       <c r="G94" s="3">
-        <v>-0.003019307959232939</v>
+        <v>0.04460088804696995</v>
       </c>
       <c r="H94" s="3">
-        <v>0.006080054044924774</v>
+        <v>-0.0002516778523490028</v>
       </c>
       <c r="I94" s="3">
-        <v>-0.004606344324639436</v>
+        <v>-2.461574006018766E-13</v>
       </c>
       <c r="J94" s="3">
-        <v>0.005570560432140357</v>
+        <v>-0.002177007452063954</v>
       </c>
       <c r="K94" s="3">
-        <v>-0.001673262886568759</v>
+        <v>-0.0001967169901673091</v>
       </c>
       <c r="L94" s="3">
-        <v>-0.07081578536889717</v>
+        <v>-0.1333090909090909</v>
       </c>
       <c r="M94" s="3">
-        <v>-0.0996054519180409</v>
+        <v>-0.09086166703324033</v>
       </c>
       <c r="N94" s="3">
-        <v>-0.1210623386204353</v>
+        <v>-0.1277265407700191</v>
       </c>
       <c r="O94" s="3">
-        <v>-0.02185666641756854</v>
+        <v>-0.02433005227995086</v>
       </c>
       <c r="P94" s="3">
-        <v>-0.05131237993863692</v>
+        <v>-0.04552919201170382</v>
       </c>
       <c r="Q94" s="3">
-        <v>-0.05319659594075731</v>
+        <v>-0.04726590390997722</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -6308,46 +6308,46 @@
         <v>255</v>
       </c>
       <c r="D95" s="1">
-        <v>34148382.138</v>
+        <v>31748036.73428571</v>
       </c>
       <c r="E95" s="2">
-        <v>1.016480095843505</v>
+        <v>0.9952152412251808</v>
       </c>
       <c r="F95" s="3">
-        <v>-0.002070003763643229</v>
+        <v>0.04481132075471693</v>
       </c>
       <c r="G95" s="3">
-        <v>-0.0007182111963154024</v>
+        <v>0.06757771112797109</v>
       </c>
       <c r="H95" s="3">
-        <v>-0.004318437852046506</v>
+        <v>-0.001315047905316656</v>
       </c>
       <c r="I95" s="3">
-        <v>-0.02691804769438489</v>
+        <v>5.000272119734248E-06</v>
       </c>
       <c r="J95" s="3">
-        <v>-0.01687059695958476</v>
+        <v>-0.01226309921962093</v>
       </c>
       <c r="K95" s="3">
-        <v>-0.0270832627091198</v>
+        <v>-0.003446815003862815</v>
       </c>
       <c r="L95" s="3">
-        <v>-0.1149866488651535</v>
+        <v>-0.1292383292383293</v>
       </c>
       <c r="M95" s="3">
-        <v>-0.1026289548839248</v>
+        <v>-0.08611095998530964</v>
       </c>
       <c r="N95" s="3">
-        <v>-0.1293712034148744</v>
+        <v>-0.139666612720505</v>
       </c>
       <c r="O95" s="3">
-        <v>-0.03599789698064876</v>
+        <v>-0.03932860357498984</v>
       </c>
       <c r="P95" s="3">
-        <v>-0.06485610879652229</v>
+        <v>-0.04477888749458623</v>
       </c>
       <c r="Q95" s="3">
-        <v>-0.06380460282668178</v>
+        <v>-0.04499417376231118</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -6361,46 +6361,46 @@
         <v>256</v>
       </c>
       <c r="D96" s="1">
-        <v>7352644.155750001</v>
+        <v>7119746.062062858</v>
       </c>
       <c r="E96" s="2">
-        <v>1.232024292936506</v>
+        <v>1.198841498884018</v>
       </c>
       <c r="F96" s="3">
-        <v>-0.004461795872838765</v>
+        <v>0.05538221528861159</v>
       </c>
       <c r="G96" s="3">
-        <v>-0.002182727953035517</v>
+        <v>0.07022001134961221</v>
       </c>
       <c r="H96" s="3">
-        <v>0.01037735849056607</v>
+        <v>0.0110218569026714</v>
       </c>
       <c r="I96" s="3">
-        <v>-0.0002972773473109567</v>
+        <v>0.0006054045941370536</v>
       </c>
       <c r="J96" s="3">
-        <v>-0.01162790697674416</v>
+        <v>-0.003314917127071816</v>
       </c>
       <c r="K96" s="3">
-        <v>-0.001528706628249647</v>
+        <v>1.033307753811552E-05</v>
       </c>
       <c r="L96" s="3">
-        <v>-0.1080946035976016</v>
+        <v>-0.1432642076935254</v>
       </c>
       <c r="M96" s="3">
-        <v>-0.1173539756447541</v>
+        <v>-0.1141421442788884</v>
       </c>
       <c r="N96" s="3">
-        <v>-0.1737386205832434</v>
+        <v>-0.177132431199635</v>
       </c>
       <c r="O96" s="3">
-        <v>-0.03997843148876618</v>
+        <v>-0.04139866906122032</v>
       </c>
       <c r="P96" s="3">
-        <v>-0.05976835179889482</v>
+        <v>-0.05706590560067516</v>
       </c>
       <c r="Q96" s="3">
-        <v>-0.04851231598399583</v>
+        <v>-0.04760087605725769</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -6414,46 +6414,46 @@
         <v>257</v>
       </c>
       <c r="D97" s="1">
-        <v>29912694.623</v>
+        <v>28012006.30114286</v>
       </c>
       <c r="E97" s="2">
-        <v>1.25409745501591</v>
+        <v>1.257375374926991</v>
       </c>
       <c r="F97" s="3">
-        <v>-0.02923760177646195</v>
+        <v>0.046594982078853</v>
       </c>
       <c r="G97" s="3">
-        <v>-0.08968395853928343</v>
+        <v>0.05513242570001387</v>
       </c>
       <c r="H97" s="3">
-        <v>-0.0252694165737645</v>
+        <v>-0.03771512266569034</v>
       </c>
       <c r="I97" s="3">
-        <v>-0.06940755802140476</v>
+        <v>-0.03017468596188951</v>
       </c>
       <c r="J97" s="3">
-        <v>-0.0356617647058825</v>
+        <v>-0.04331998543866043</v>
       </c>
       <c r="K97" s="3">
-        <v>-0.02714501074518294</v>
+        <v>-0.04253767164256882</v>
       </c>
       <c r="L97" s="3">
-        <v>-0.1461588541666667</v>
+        <v>-0.1901386748844377</v>
       </c>
       <c r="M97" s="3">
-        <v>-0.1538467842282968</v>
+        <v>-0.1677208998087058</v>
       </c>
       <c r="N97" s="3">
-        <v>-0.1891808346213293</v>
+        <v>-0.2000000000000001</v>
       </c>
       <c r="O97" s="3">
-        <v>-0.02983523445575837</v>
+        <v>-0.036089782648858</v>
       </c>
       <c r="P97" s="3">
-        <v>-0.1217653713837901</v>
+        <v>-0.1051292857256373</v>
       </c>
       <c r="Q97" s="3">
-        <v>-0.09709402638269872</v>
+        <v>-0.08361010388941457</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -6467,46 +6467,46 @@
         <v>258</v>
       </c>
       <c r="D98" s="1">
-        <v>6041482.067028572</v>
+        <v>5700235.886185715</v>
       </c>
       <c r="E98" s="2">
-        <v>1.028898844262402</v>
+        <v>1.017354585159817</v>
       </c>
       <c r="F98" s="3">
-        <v>-0.007348029392117501</v>
+        <v>0.05192982456140364</v>
       </c>
       <c r="G98" s="3">
-        <v>-0.00408892307758458</v>
+        <v>0.08519645951154474</v>
       </c>
       <c r="H98" s="3">
-        <v>-0.003353454057679413</v>
+        <v>-0.005968169761273105</v>
       </c>
       <c r="I98" s="3">
-        <v>-0.02134943570781601</v>
+        <v>-1.904368747049597E-07</v>
       </c>
       <c r="J98" s="3">
-        <v>-0.01458885941644549</v>
+        <v>-0.01121372031662274</v>
       </c>
       <c r="K98" s="3">
-        <v>-0.00971658282476953</v>
+        <v>-0.002469774726774246</v>
       </c>
       <c r="L98" s="3">
-        <v>-0.1253678634490876</v>
+        <v>-0.1535855448898927</v>
       </c>
       <c r="M98" s="3">
-        <v>-0.1229713865311625</v>
+        <v>-0.1082948487582457</v>
       </c>
       <c r="N98" s="3">
-        <v>-0.1767313019390581</v>
+        <v>-0.17907995618839</v>
       </c>
       <c r="O98" s="3">
-        <v>-0.04667269415090808</v>
+        <v>-0.05120467932412125</v>
       </c>
       <c r="P98" s="3">
-        <v>-0.066343984677966</v>
+        <v>-0.05538231174250998</v>
       </c>
       <c r="Q98" s="3">
-        <v>-0.06448057070714927</v>
+        <v>-0.05443757029296718</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -6520,46 +6520,46 @@
         <v>259</v>
       </c>
       <c r="D99" s="1">
-        <v>241925395.643</v>
+        <v>220043064.6021429</v>
       </c>
       <c r="E99" s="2">
-        <v>1.11044830345806</v>
+        <v>1.112597627777309</v>
       </c>
       <c r="F99" s="3">
-        <v>0.005874194337929424</v>
+        <v>0.02724224643755248</v>
       </c>
       <c r="G99" s="3">
-        <v>0.0002330698540934103</v>
+        <v>0.002775915841521819</v>
       </c>
       <c r="H99" s="3">
-        <v>0.003418246927647091</v>
+        <v>-0.009216589861751071</v>
       </c>
       <c r="I99" s="3">
-        <v>-0.01433687871416886</v>
+        <v>-1.610853807918197E-05</v>
       </c>
       <c r="J99" s="3">
-        <v>0.001706207344816444</v>
+        <v>-0.01873648810953639</v>
       </c>
       <c r="K99" s="3">
-        <v>-0.005388326772736893</v>
+        <v>-0.006901523213754701</v>
       </c>
       <c r="L99" s="3">
-        <v>-0.06093381064818333</v>
+        <v>-0.1179645890312365</v>
       </c>
       <c r="M99" s="3">
-        <v>-0.0835710854886943</v>
+        <v>-0.09030892980202591</v>
       </c>
       <c r="N99" s="3">
-        <v>-0.1199229067028339</v>
+        <v>-0.1418668160492962</v>
       </c>
       <c r="O99" s="3">
-        <v>-0.01534860052174083</v>
+        <v>-0.01694389898148478</v>
       </c>
       <c r="P99" s="3">
-        <v>-0.04447970613071559</v>
+        <v>-0.04860522650789031</v>
       </c>
       <c r="Q99" s="3">
-        <v>-0.0400556297778121</v>
+        <v>-0.04368625754217306</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -6573,46 +6573,46 @@
         <v>260</v>
       </c>
       <c r="D100" s="1">
-        <v>23973591.51714286</v>
+        <v>24971205.09</v>
       </c>
       <c r="E100" s="2">
-        <v>1.08507025801408</v>
+        <v>1.067464711687534</v>
       </c>
       <c r="F100" s="3">
-        <v>-0.08237400869787684</v>
+        <v>0.008493771234428005</v>
       </c>
       <c r="G100" s="3">
-        <v>-0.3849594230891629</v>
+        <v>5.87537971719115E-06</v>
       </c>
       <c r="H100" s="3">
-        <v>-0.07144706186901385</v>
+        <v>-0.08384773662551454</v>
       </c>
       <c r="I100" s="3">
-        <v>-0.1377858509909762</v>
+        <v>-0.2040784406356405</v>
       </c>
       <c r="J100" s="3">
-        <v>-0.06710013003901184</v>
+        <v>-0.09039836567926454</v>
       </c>
       <c r="K100" s="3">
-        <v>-0.05028942476256332</v>
+        <v>-0.1265827435889422</v>
       </c>
       <c r="L100" s="3">
-        <v>-0.1899277326106595</v>
+        <v>-0.1886104783599089</v>
       </c>
       <c r="M100" s="3">
-        <v>-0.1056808794788084</v>
+        <v>-0.1105687562064707</v>
       </c>
       <c r="N100" s="3">
-        <v>-0.1748332183114792</v>
+        <v>-0.2152456488213264</v>
       </c>
       <c r="O100" s="3">
-        <v>-0.04705815782336006</v>
+        <v>-0.05835430422496499</v>
       </c>
       <c r="P100" s="3">
-        <v>-0.1402570488951438</v>
+        <v>-0.1185757498977065</v>
       </c>
       <c r="Q100" s="3">
-        <v>-0.1292607993438558</v>
+        <v>-0.1110816578753712</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6626,46 +6626,46 @@
         <v>261</v>
       </c>
       <c r="D101" s="1">
-        <v>37893150.60285714</v>
+        <v>35569495.50628571</v>
       </c>
       <c r="E101" s="2">
-        <v>1.484186052109373</v>
+        <v>1.431732724500198</v>
       </c>
       <c r="F101" s="3">
-        <v>-0.02020202020202022</v>
+        <v>0.03791982665222093</v>
       </c>
       <c r="G101" s="3">
-        <v>-0.02826024165341953</v>
+        <v>0.004799262694327397</v>
       </c>
       <c r="H101" s="3">
-        <v>-0.03000000000000003</v>
+        <v>-0.04486540378863403</v>
       </c>
       <c r="I101" s="3">
-        <v>-0.09194399824349418</v>
+        <v>-0.02461555627519374</v>
       </c>
       <c r="J101" s="3">
-        <v>-0.02805611222444892</v>
+        <v>-0.05893909626719062</v>
       </c>
       <c r="K101" s="3">
-        <v>-0.03780791086083801</v>
+        <v>-0.05745533611920912</v>
       </c>
       <c r="L101" s="3">
-        <v>-0.1423519009725907</v>
+        <v>-0.1755593803786575</v>
       </c>
       <c r="M101" s="3">
-        <v>-0.1132742295898388</v>
+        <v>-0.1089980242826296</v>
       </c>
       <c r="N101" s="3">
-        <v>-0.3041606886657102</v>
+        <v>-0.2408874801901744</v>
       </c>
       <c r="O101" s="3">
-        <v>-0.06095023687795504</v>
+        <v>-0.06066433322026634</v>
       </c>
       <c r="P101" s="3">
-        <v>-0.07554107022533837</v>
+        <v>-0.08322668020091933</v>
       </c>
       <c r="Q101" s="3">
-        <v>-0.05089730503664078</v>
+        <v>-0.05813003976002073</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6679,46 +6679,46 @@
         <v>262</v>
       </c>
       <c r="D102" s="1">
-        <v>38917694.79085714</v>
+        <v>38813222.03785715</v>
       </c>
       <c r="E102" s="2">
-        <v>1.025847206672706</v>
+        <v>1.018828668306945</v>
       </c>
       <c r="F102" s="3">
-        <v>0.003739715781600685</v>
+        <v>0.04237288135593215</v>
       </c>
       <c r="G102" s="3">
-        <v>-1.223180863756771E-06</v>
+        <v>0.09629104808746465</v>
       </c>
       <c r="H102" s="3">
-        <v>0.03709428129829988</v>
+        <v>0.02655538694992407</v>
       </c>
       <c r="I102" s="3">
-        <v>0.01692285402363499</v>
+        <v>0.01435407750686245</v>
       </c>
       <c r="J102" s="3">
-        <v>0.01743745261561799</v>
+        <v>0.03598774885145477</v>
       </c>
       <c r="K102" s="3">
-        <v>0.02016755867416864</v>
+        <v>0.03987393944954572</v>
       </c>
       <c r="L102" s="3">
-        <v>-0.01684981684981678</v>
+        <v>-0.04583921015514806</v>
       </c>
       <c r="M102" s="3">
-        <v>-0.04299665894101137</v>
+        <v>-0.04217630533885054</v>
       </c>
       <c r="N102" s="3">
-        <v>-0.02541757443718222</v>
+        <v>-0.0252161383285302</v>
       </c>
       <c r="O102" s="3">
-        <v>-0.001514189852949273</v>
+        <v>-0.002304748542714211</v>
       </c>
       <c r="P102" s="3">
-        <v>-0.01270939880902299</v>
+        <v>0.007328900560507758</v>
       </c>
       <c r="Q102" s="3">
-        <v>-0.01238917328658076</v>
+        <v>0.00719345733830466</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6732,46 +6732,46 @@
         <v>263</v>
       </c>
       <c r="D103" s="1">
-        <v>66744653.02514286</v>
+        <v>70105749.48928571</v>
       </c>
       <c r="E103" s="2">
-        <v>1.50112810452976</v>
+        <v>1.483223225278648</v>
       </c>
       <c r="F103" s="3">
-        <v>0.001413427561837426</v>
+        <v>0.005685856432125094</v>
       </c>
       <c r="G103" s="3">
-        <v>-0.0003156393787208408</v>
+        <v>0.0009201201730440746</v>
       </c>
       <c r="H103" s="3">
-        <v>0.07186081694402414</v>
+        <v>0.06471030850263365</v>
       </c>
       <c r="I103" s="3">
-        <v>0.1400954368183141</v>
+        <v>0.01886892483738815</v>
       </c>
       <c r="J103" s="3">
-        <v>0.1643385373870173</v>
+        <v>0.0543964232488823</v>
       </c>
       <c r="K103" s="3">
-        <v>0.1104565447579301</v>
+        <v>0.09606186829234301</v>
       </c>
       <c r="L103" s="3">
-        <v>0.07024169184290029</v>
+        <v>0.02461984069514843</v>
       </c>
       <c r="M103" s="3">
-        <v>2.629687342070286E-05</v>
+        <v>0.000638957638637719</v>
       </c>
       <c r="N103" s="3">
-        <v>0.02458423716558206</v>
+        <v>0.03360116873630394</v>
       </c>
       <c r="O103" s="3">
-        <v>6.659660696264782E-06</v>
+        <v>0.0001919991212569849</v>
       </c>
       <c r="P103" s="3">
-        <v>0.01230526701950138</v>
+        <v>0.01726064445467401</v>
       </c>
       <c r="Q103" s="3">
-        <v>0.008197346370619115</v>
+        <v>0.01163725335505808</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6785,46 +6785,46 @@
         <v>264</v>
       </c>
       <c r="D104" s="1">
-        <v>85220359.61300001</v>
+        <v>76898956.3996</v>
       </c>
       <c r="E104" s="2">
-        <v>1.387040159984871</v>
+        <v>1.40230705509903</v>
       </c>
       <c r="F104" s="3">
-        <v>-0.04973357015985776</v>
+        <v>0.01937984496124033</v>
       </c>
       <c r="G104" s="3">
-        <v>-0.160610361728294</v>
+        <v>-0.0005977967326073726</v>
       </c>
       <c r="H104" s="3">
-        <v>-0.02014652014652016</v>
+        <v>-0.04014598540145989</v>
       </c>
       <c r="I104" s="3">
-        <v>-0.02204300929565615</v>
+        <v>-0.1046686496483866</v>
       </c>
       <c r="J104" s="3">
-        <v>-0.0272727272727273</v>
+        <v>-0.05903398926654745</v>
       </c>
       <c r="K104" s="3">
-        <v>-0.01385797257652947</v>
+        <v>-0.0569473251431566</v>
       </c>
       <c r="L104" s="3">
-        <v>-0.1574803149606299</v>
+        <v>-0.1957186544342508</v>
       </c>
       <c r="M104" s="3">
-        <v>-0.1246607770495203</v>
+        <v>-0.1250105378114971</v>
       </c>
       <c r="N104" s="3">
-        <v>-0.202682563338301</v>
+        <v>-0.2253313696612666</v>
       </c>
       <c r="O104" s="3">
-        <v>-0.05233879844391105</v>
+        <v>-0.05679022385367361</v>
       </c>
       <c r="P104" s="3">
-        <v>-0.1426355693889071</v>
+        <v>-0.09097893147732686</v>
       </c>
       <c r="Q104" s="3">
-        <v>-0.1028344913895377</v>
+        <v>-0.0648780387622752</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6838,46 +6838,46 @@
         <v>265</v>
       </c>
       <c r="D105" s="1">
-        <v>8173315.839371428</v>
+        <v>8313423.879428571</v>
       </c>
       <c r="E105" s="2">
-        <v>0.8884661603247012</v>
+        <v>0.8801517070704509</v>
       </c>
       <c r="F105" s="3">
-        <v>0.02116304747883699</v>
+        <v>0.04657794676806086</v>
       </c>
       <c r="G105" s="3">
-        <v>0.003214262042572068</v>
+        <v>0.04267471741637349</v>
       </c>
       <c r="H105" s="3">
-        <v>0.01891296364304088</v>
+        <v>0.002367079388201002</v>
       </c>
       <c r="I105" s="3">
-        <v>-0.003996665721904567</v>
+        <v>0.003775660706046167</v>
       </c>
       <c r="J105" s="3">
-        <v>0.01667277390985713</v>
+        <v>-0.005599710982658905</v>
       </c>
       <c r="K105" s="3">
-        <v>-0.005615673079775211</v>
+        <v>2.070789737328502E-07</v>
       </c>
       <c r="L105" s="3">
-        <v>-0.05805465965031398</v>
+        <v>-0.09975470155355688</v>
       </c>
       <c r="M105" s="3">
-        <v>-0.07910571129547882</v>
+        <v>-0.0673961525109551</v>
       </c>
       <c r="N105" s="3">
-        <v>-0.1054328550701273</v>
+        <v>-0.103858049812795</v>
       </c>
       <c r="O105" s="3">
-        <v>-0.01532034657589684</v>
+        <v>-0.01498483379970491</v>
       </c>
       <c r="P105" s="3">
-        <v>-0.04236069218762702</v>
+        <v>-0.03369797271599068</v>
       </c>
       <c r="Q105" s="3">
-        <v>-0.0476784531356217</v>
+        <v>-0.03828655042680428</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6891,46 +6891,46 @@
         <v>266</v>
       </c>
       <c r="D106" s="1">
-        <v>26105721.31285715</v>
+        <v>24289560.26228571</v>
       </c>
       <c r="E106" s="2">
-        <v>1.156171163682391</v>
+        <v>1.122802493226664</v>
       </c>
       <c r="F106" s="3">
-        <v>-0.003750669762457582</v>
+        <v>0.03593145384190161</v>
       </c>
       <c r="G106" s="3">
-        <v>-0.004510085935940871</v>
+        <v>0.02232103898159826</v>
       </c>
       <c r="H106" s="3">
-        <v>0.003417880913833423</v>
+        <v>0.01645272102693907</v>
       </c>
       <c r="I106" s="3">
-        <v>0.0001416984315902058</v>
+        <v>0.001264356007245672</v>
       </c>
       <c r="J106" s="3">
-        <v>-0.0183034142907427</v>
+        <v>-0.01523909616395165</v>
       </c>
       <c r="K106" s="3">
-        <v>-0.007556011520078273</v>
+        <v>-0.0001427867360755035</v>
       </c>
       <c r="L106" s="3">
-        <v>-0.1283012970776684</v>
+        <v>-0.1332099907493062</v>
       </c>
       <c r="M106" s="3">
-        <v>-0.1083826261019303</v>
+        <v>-0.09459092459007157</v>
       </c>
       <c r="N106" s="3">
-        <v>-0.2209497206703911</v>
+        <v>-0.2144753388291183</v>
       </c>
       <c r="O106" s="3">
-        <v>-0.07809143810264374</v>
+        <v>-0.07947602876118624</v>
       </c>
       <c r="P106" s="3">
-        <v>-0.0579693188110043</v>
+        <v>-0.04736685566307353</v>
       </c>
       <c r="Q106" s="3">
-        <v>-0.05013904569836591</v>
+        <v>-0.04218627581325776</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6944,46 +6944,46 @@
         <v>267</v>
       </c>
       <c r="D107" s="1">
-        <v>2387685.773142857</v>
+        <v>2108617.773542858</v>
       </c>
       <c r="E107" s="2">
-        <v>0.8556795036943396</v>
+        <v>0.8526036292454977</v>
       </c>
       <c r="F107" s="3">
-        <v>-0.01207937877480592</v>
+        <v>0.04061719990923539</v>
       </c>
       <c r="G107" s="3">
-        <v>-0.01211067349774461</v>
+        <v>0.04614778216876855</v>
       </c>
       <c r="H107" s="3">
-        <v>-0.0006545930613135748</v>
+        <v>-0.00347674923946103</v>
       </c>
       <c r="I107" s="3">
-        <v>-0.01109909771231611</v>
+        <v>-0.0004350428352359794</v>
       </c>
       <c r="J107" s="3">
-        <v>-0.008228670420095304</v>
+        <v>-0.01397548914211997</v>
       </c>
       <c r="K107" s="3">
-        <v>-0.006748903963163056</v>
+        <v>-0.0036744272443372</v>
       </c>
       <c r="L107" s="3">
-        <v>-0.114804793196753</v>
+        <v>-0.1368341803124411</v>
       </c>
       <c r="M107" s="3">
-        <v>-0.104835459010594</v>
+        <v>-0.09594101293559897</v>
       </c>
       <c r="N107" s="3">
-        <v>-0.1604032997250229</v>
+        <v>-0.1583776839787116</v>
       </c>
       <c r="O107" s="3">
-        <v>-0.03819656521842194</v>
+        <v>-0.04092790530004325</v>
       </c>
       <c r="P107" s="3">
-        <v>-0.05847306625416933</v>
+        <v>-0.04980772008996808</v>
       </c>
       <c r="Q107" s="3">
-        <v>-0.06833524234449433</v>
+        <v>-0.05841837681836386</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6997,46 +6997,46 @@
         <v>268</v>
       </c>
       <c r="D108" s="1">
-        <v>124530243.3561428</v>
+        <v>117803664.8850286</v>
       </c>
       <c r="E108" s="2">
-        <v>0.7848102726447904</v>
+        <v>0.7832542343592354</v>
       </c>
       <c r="F108" s="3">
-        <v>-0.004333694474539644</v>
+        <v>0.02679767753461369</v>
       </c>
       <c r="G108" s="3">
-        <v>-0.003091145791997059</v>
+        <v>0.02120582025064943</v>
       </c>
       <c r="H108" s="3">
-        <v>-0.01033814344174026</v>
+        <v>-0.01182033096926708</v>
       </c>
       <c r="I108" s="3">
-        <v>-0.02902974665716208</v>
+        <v>-0.0016611981823338</v>
       </c>
       <c r="J108" s="3">
-        <v>-0.0154274694664667</v>
+        <v>-0.02274176408076519</v>
       </c>
       <c r="K108" s="3">
-        <v>-0.02778047300774738</v>
+        <v>-0.0161958794833032</v>
       </c>
       <c r="L108" s="3">
-        <v>-0.1027143136106231</v>
+        <v>-0.1298258894776684</v>
       </c>
       <c r="M108" s="3">
-        <v>-0.09627033697261847</v>
+        <v>-0.09404674098079445</v>
       </c>
       <c r="N108" s="3">
-        <v>-0.1568807339449542</v>
+        <v>-0.1635437511369838</v>
       </c>
       <c r="O108" s="3">
-        <v>-0.03831304595442038</v>
+        <v>-0.04060846053939689</v>
       </c>
       <c r="P108" s="3">
-        <v>-0.06202540499018293</v>
+        <v>-0.05512131023204882</v>
       </c>
       <c r="Q108" s="3">
-        <v>-0.07903235616572514</v>
+        <v>-0.07037473634233521</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -7050,46 +7050,46 @@
         <v>269</v>
       </c>
       <c r="D109" s="1">
-        <v>21153026.99525714</v>
+        <v>20336916.6693</v>
       </c>
       <c r="E109" s="2">
-        <v>1.311647165384846</v>
+        <v>1.268748166767235</v>
       </c>
       <c r="F109" s="3">
-        <v>-0.009864364981504324</v>
+        <v>0.05479452054794526</v>
       </c>
       <c r="G109" s="3">
-        <v>-0.002253766625298763</v>
+        <v>0.04763279418843031</v>
       </c>
       <c r="H109" s="3">
-        <v>-0.006188118811881194</v>
+        <v>0.003724394785847303</v>
       </c>
       <c r="I109" s="3">
-        <v>-0.002198026890169237</v>
+        <v>0.0002993716970600952</v>
       </c>
       <c r="J109" s="3">
-        <v>0.0229299363057325</v>
+        <v>0.00873362445414848</v>
       </c>
       <c r="K109" s="3">
-        <v>0.0005777937052246188</v>
+        <v>3.485084682512485E-05</v>
       </c>
       <c r="L109" s="3">
-        <v>-0.1238406983087833</v>
+        <v>-0.1311123052122515</v>
       </c>
       <c r="M109" s="3">
-        <v>-0.1030427274328471</v>
+        <v>-0.08497903414459497</v>
       </c>
       <c r="N109" s="3">
-        <v>-0.1604809200209095</v>
+        <v>-0.1471518987341772</v>
       </c>
       <c r="O109" s="3">
-        <v>-0.05154009480293262</v>
+        <v>-0.05687879146113391</v>
       </c>
       <c r="P109" s="3">
-        <v>-0.05264824702907292</v>
+        <v>-0.04247209164888492</v>
       </c>
       <c r="Q109" s="3">
-        <v>-0.04013903160734966</v>
+        <v>-0.03347558858516708</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -7103,46 +7103,46 @@
         <v>270</v>
       </c>
       <c r="D110" s="1">
-        <v>12015599.31898571</v>
+        <v>11258092.61307143</v>
       </c>
       <c r="E110" s="2">
-        <v>0.8488285691572981</v>
+        <v>0.8390970619316934</v>
       </c>
       <c r="F110" s="3">
-        <v>-0.0001834862385321518</v>
+        <v>0.05405918057663125</v>
       </c>
       <c r="G110" s="3">
-        <v>-0.001293952693134806</v>
+        <v>0.1798092137374286</v>
       </c>
       <c r="H110" s="3">
-        <v>-0.01855187319884738</v>
+        <v>0.004519161243673173</v>
       </c>
       <c r="I110" s="3">
-        <v>-0.0548985733077176</v>
+        <v>0.002846110049636474</v>
       </c>
       <c r="J110" s="3">
-        <v>0.002575896964121393</v>
+        <v>0.00433761069943989</v>
       </c>
       <c r="K110" s="3">
-        <v>-0.008072426641453172</v>
+        <v>-0.003235069159300065</v>
       </c>
       <c r="L110" s="3">
-        <v>-0.07377188509263978</v>
+        <v>-0.07996688741721847</v>
       </c>
       <c r="M110" s="3">
-        <v>-0.0672378181867186</v>
+        <v>-0.05810963716626124</v>
       </c>
       <c r="N110" s="3">
-        <v>-0.1409427715591991</v>
+        <v>-0.1190551680405832</v>
       </c>
       <c r="O110" s="3">
-        <v>-0.03534358389477816</v>
+        <v>-0.03427541375631726</v>
       </c>
       <c r="P110" s="3">
-        <v>-0.03765512241408589</v>
+        <v>-0.03067235316278065</v>
       </c>
       <c r="Q110" s="3">
-        <v>-0.04436128069000932</v>
+        <v>-0.03655399900003169</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -7156,46 +7156,46 @@
         <v>271</v>
       </c>
       <c r="D111" s="1">
-        <v>151469329.2840014</v>
+        <v>132776421.1598571</v>
       </c>
       <c r="E111" s="2">
-        <v>2.101404717256411</v>
+        <v>2.090631439858315</v>
       </c>
       <c r="F111" s="3">
-        <v>0.007551719761390912</v>
+        <v>0.06285829904903228</v>
       </c>
       <c r="G111" s="3">
-        <v>0.0002612755036226691</v>
+        <v>0.04754132725004645</v>
       </c>
       <c r="H111" s="3">
-        <v>0.0470192561329464</v>
+        <v>0.03875815701008516</v>
       </c>
       <c r="I111" s="3">
-        <v>0.006954298455387095</v>
+        <v>0.02692288089031971</v>
       </c>
       <c r="J111" s="3">
-        <v>-0.001069586007298373</v>
+        <v>-0.007932011331444725</v>
       </c>
       <c r="K111" s="3">
-        <v>-0.004573812935935997</v>
+        <v>0.00456743364876787</v>
       </c>
       <c r="L111" s="3">
-        <v>-0.05550267697798938</v>
+        <v>-0.1458536585365853</v>
       </c>
       <c r="M111" s="3">
-        <v>-0.1000091694250723</v>
+        <v>-0.08770768816497</v>
       </c>
       <c r="N111" s="3">
-        <v>-0.3479671457905545</v>
+        <v>-0.3663449939686369</v>
       </c>
       <c r="O111" s="3">
-        <v>-0.1337677344033205</v>
+        <v>-0.1216193827129386</v>
       </c>
       <c r="P111" s="3">
-        <v>-0.05229149118050417</v>
+        <v>-0.04157012725810107</v>
       </c>
       <c r="Q111" s="3">
-        <v>-0.02488406481202527</v>
+        <v>-0.01988400560020198</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -7209,46 +7209,46 @@
         <v>272</v>
       </c>
       <c r="D112" s="1">
-        <v>109835780.2857229</v>
+        <v>110096288.63472</v>
       </c>
       <c r="E112" s="2">
-        <v>1.547334032992023</v>
+        <v>1.581691239648468</v>
       </c>
       <c r="F112" s="3">
-        <v>0.03269544323350213</v>
+        <v>0.02409844471030594</v>
       </c>
       <c r="G112" s="3">
-        <v>0.06689850053556511</v>
+        <v>0.007671154241693266</v>
       </c>
       <c r="H112" s="3">
-        <v>0.04935472619462852</v>
+        <v>0.02034908471690065</v>
       </c>
       <c r="I112" s="3">
-        <v>0.03934851351564619</v>
+        <v>0.0854985804631291</v>
       </c>
       <c r="J112" s="3">
-        <v>0.09729187562688066</v>
+        <v>-0.001499750041659743</v>
       </c>
       <c r="K112" s="3">
-        <v>0.01168265327002102</v>
+        <v>0.02608100403562238</v>
       </c>
       <c r="L112" s="3">
-        <v>0.04679888656924154</v>
+        <v>0.04118158123370972</v>
       </c>
       <c r="M112" s="3">
-        <v>5.578072667428331E-05</v>
+        <v>0.0003087986262919632</v>
       </c>
       <c r="N112" s="3">
-        <v>0.1439163498098859</v>
+        <v>0.1419858967028776</v>
       </c>
       <c r="O112" s="3">
-        <v>0.02826834653605231</v>
+        <v>0.02848803169983763</v>
       </c>
       <c r="P112" s="3">
-        <v>0.03929057690279306</v>
+        <v>0.01687607913865782</v>
       </c>
       <c r="Q112" s="3">
-        <v>0.02539243373767093</v>
+        <v>0.01066964190963626</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -7262,46 +7262,46 @@
         <v>273</v>
       </c>
       <c r="D113" s="1">
-        <v>34932304.64423428</v>
+        <v>35096703.28899285</v>
       </c>
       <c r="E113" s="2">
-        <v>1.562118600357693</v>
+        <v>1.517356394398089</v>
       </c>
       <c r="F113" s="3">
-        <v>-0.05068782464752554</v>
+        <v>0.04981917944880913</v>
       </c>
       <c r="G113" s="3">
-        <v>-0.1570597485554398</v>
+        <v>0.09711668933390874</v>
       </c>
       <c r="H113" s="3">
-        <v>-0.01626641429078438</v>
+        <v>-0.02428140936485863</v>
       </c>
       <c r="I113" s="3">
-        <v>-0.03690344914423289</v>
+        <v>-0.02708021447848312</v>
       </c>
       <c r="J113" s="3">
-        <v>-0.02239595579590878</v>
+        <v>-0.03291211947156814</v>
       </c>
       <c r="K113" s="3">
-        <v>-0.006799673956378615</v>
+        <v>-0.01255266814681256</v>
       </c>
       <c r="L113" s="3">
-        <v>-0.1341628488129946</v>
+        <v>-0.1303202479338843</v>
       </c>
       <c r="M113" s="3">
-        <v>-0.09859441759520846</v>
+        <v>-0.09556742075548522</v>
       </c>
       <c r="N113" s="3">
-        <v>-0.2072170845647821</v>
+        <v>-0.1706319885719915</v>
       </c>
       <c r="O113" s="3">
-        <v>-0.04863885899756447</v>
+        <v>-0.05304761831185085</v>
       </c>
       <c r="P113" s="3">
-        <v>-0.1278270830753241</v>
+        <v>-0.05406004445114888</v>
       </c>
       <c r="Q113" s="3">
-        <v>-0.08182930735608319</v>
+        <v>-0.03562778306450122</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -7315,46 +7315,46 @@
         <v>274</v>
       </c>
       <c r="D114" s="1">
-        <v>23022957.00667429</v>
+        <v>24226739.09682857</v>
       </c>
       <c r="E114" s="2">
-        <v>1.259648112252591</v>
+        <v>1.236467047381812</v>
       </c>
       <c r="F114" s="3">
-        <v>0.002120740845468607</v>
+        <v>0.06670610856382179</v>
       </c>
       <c r="G114" s="3">
-        <v>-8.627290279818314E-05</v>
+        <v>0.156118805079741</v>
       </c>
       <c r="H114" s="3">
-        <v>0.003397508493771175</v>
+        <v>0.02925645782788635</v>
       </c>
       <c r="I114" s="3">
-        <v>-1.679216353708877E-05</v>
+        <v>0.02152626669217877</v>
       </c>
       <c r="J114" s="3">
-        <v>-0.01773835920177388</v>
+        <v>0.00571747315576627</v>
       </c>
       <c r="K114" s="3">
-        <v>-0.007338154300898914</v>
+        <v>0.0005143310206405676</v>
       </c>
       <c r="L114" s="3">
-        <v>-0.1561904761904762</v>
+        <v>-0.1561951561951563</v>
       </c>
       <c r="M114" s="3">
-        <v>-0.1389039860850727</v>
+        <v>-0.1298854881234164</v>
       </c>
       <c r="N114" s="3">
-        <v>-0.2097223770765972</v>
+        <v>-0.1647944412275623</v>
       </c>
       <c r="O114" s="3">
-        <v>-0.03938600213764838</v>
+        <v>-0.04411360521389338</v>
       </c>
       <c r="P114" s="3">
-        <v>-0.07312107019298579</v>
+        <v>-0.06468557855138789</v>
       </c>
       <c r="Q114" s="3">
-        <v>-0.05804880702931042</v>
+        <v>-0.05231484226640571</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -7368,46 +7368,46 @@
         <v>275</v>
       </c>
       <c r="D115" s="1">
-        <v>12051052.14305571</v>
+        <v>9821347.593388569</v>
       </c>
       <c r="E115" s="2">
-        <v>1.062332318778244</v>
+        <v>1.047436863218336</v>
       </c>
       <c r="F115" s="3">
-        <v>-0.02055114432508181</v>
+        <v>0.04356435643564344</v>
       </c>
       <c r="G115" s="3">
-        <v>-0.03759637278633871</v>
+        <v>0.05331527350938087</v>
       </c>
       <c r="H115" s="3">
-        <v>-0.02328830926874711</v>
+        <v>-0.02362204724409459</v>
       </c>
       <c r="I115" s="3">
-        <v>-0.06017640574404892</v>
+        <v>-0.01245765682096103</v>
       </c>
       <c r="J115" s="3">
-        <v>-0.02826691380908246</v>
+        <v>-0.02946593001841628</v>
       </c>
       <c r="K115" s="3">
-        <v>-0.03197546171689007</v>
+        <v>-0.042235987661101</v>
       </c>
       <c r="L115" s="3">
-        <v>-0.1053754266211604</v>
+        <v>-0.1475940153659523</v>
       </c>
       <c r="M115" s="3">
-        <v>-0.1080893659206485</v>
+        <v>-0.1061315079066932</v>
       </c>
       <c r="N115" s="3">
-        <v>-0.1472143147620985</v>
+        <v>-0.1684418145956608</v>
       </c>
       <c r="O115" s="3">
-        <v>-0.03415219741900333</v>
+        <v>-0.03825794362159745</v>
       </c>
       <c r="P115" s="3">
-        <v>-0.0728428693534936</v>
+        <v>-0.07418374778389709</v>
       </c>
       <c r="Q115" s="3">
-        <v>-0.06856881605302938</v>
+        <v>-0.07082407578816864</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -7421,46 +7421,46 @@
         <v>276</v>
       </c>
       <c r="D116" s="1">
-        <v>671090486.3644799</v>
+        <v>644048590.9220572</v>
       </c>
       <c r="E116" s="2">
-        <v>1.378667184570231</v>
+        <v>1.348942001941819</v>
       </c>
       <c r="F116" s="3">
-        <v>-0.04947314315086104</v>
+        <v>0.0434782608695651</v>
       </c>
       <c r="G116" s="3">
-        <v>-0.08034783605394848</v>
+        <v>0.01682024932981475</v>
       </c>
       <c r="H116" s="3">
-        <v>-0.04898431473386484</v>
+        <v>-0.05138339920948624</v>
       </c>
       <c r="I116" s="3">
-        <v>-0.1112790717290861</v>
+        <v>-0.05978643622275592</v>
       </c>
       <c r="J116" s="3">
-        <v>-0.04009862444848182</v>
+        <v>-0.05977505370908646</v>
       </c>
       <c r="K116" s="3">
-        <v>-0.04076810892775222</v>
+        <v>-0.08496093292222832</v>
       </c>
       <c r="L116" s="3">
-        <v>-0.1723173324381785</v>
+        <v>-0.1824175824175825</v>
       </c>
       <c r="M116" s="3">
-        <v>-0.1262115549046804</v>
+        <v>-0.120837488759078</v>
       </c>
       <c r="N116" s="3">
-        <v>-0.263467091506522</v>
+        <v>-0.2568917299240912</v>
       </c>
       <c r="O116" s="3">
-        <v>-0.0817106124864085</v>
+        <v>-0.08569550183661782</v>
       </c>
       <c r="P116" s="3">
-        <v>-0.1032796954793145</v>
+        <v>-0.1028992108406531</v>
       </c>
       <c r="Q116" s="3">
-        <v>-0.07491271035910642</v>
+        <v>-0.07628141958107053</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -7474,46 +7474,46 @@
         <v>277</v>
       </c>
       <c r="D117" s="1">
-        <v>6628246.663742856</v>
+        <v>6369398.299314287</v>
       </c>
       <c r="E117" s="2">
-        <v>0.9780449895116079</v>
+        <v>0.9730630185637837</v>
       </c>
       <c r="F117" s="3">
-        <v>-0.001978239366963405</v>
+        <v>0.06054279749478085</v>
       </c>
       <c r="G117" s="3">
-        <v>-0.01963485176219347</v>
+        <v>0.1306609720997032</v>
       </c>
       <c r="H117" s="3">
-        <v>0.001986097318768622</v>
+        <v>0.003952569169960478</v>
       </c>
       <c r="I117" s="3">
-        <v>-0.02293862388390474</v>
+        <v>5.268789822991756E-06</v>
       </c>
       <c r="J117" s="3">
-        <v>-0.01752677702044792</v>
+        <v>-0.01071080817916251</v>
       </c>
       <c r="K117" s="3">
-        <v>-0.01610326080588176</v>
+        <v>-0.002406578432511409</v>
       </c>
       <c r="L117" s="3">
-        <v>-0.1031111111111112</v>
+        <v>-0.1367884451996602</v>
       </c>
       <c r="M117" s="3">
-        <v>-0.111858319012766</v>
+        <v>-0.1052894523907093</v>
       </c>
       <c r="N117" s="3">
-        <v>-0.1633499170812604</v>
+        <v>-0.1603305785123967</v>
       </c>
       <c r="O117" s="3">
-        <v>-0.03631011648064029</v>
+        <v>-0.03838491162649032</v>
       </c>
       <c r="P117" s="3">
-        <v>-0.06574658538747975</v>
+        <v>-0.05384801541161034</v>
       </c>
       <c r="Q117" s="3">
-        <v>-0.06722245509412678</v>
+        <v>-0.0553386721972937</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -7527,46 +7527,46 @@
         <v>278</v>
       </c>
       <c r="D118" s="1">
-        <v>18190980.03701143</v>
+        <v>17756155.15579429</v>
       </c>
       <c r="E118" s="2">
-        <v>1.197521064439867</v>
+        <v>1.184916642371808</v>
       </c>
       <c r="F118" s="3">
-        <v>-0.0279165442256833</v>
+        <v>0.06547997457088373</v>
       </c>
       <c r="G118" s="3">
-        <v>-0.06683777411501442</v>
+        <v>0.1345823508150206</v>
       </c>
       <c r="H118" s="3">
-        <v>-0.01165222587391696</v>
+        <v>-0.004750593824227927</v>
       </c>
       <c r="I118" s="3">
-        <v>-0.02973504342296081</v>
+        <v>-0.005112736301899351</v>
       </c>
       <c r="J118" s="3">
-        <v>-0.02591283863368676</v>
+        <v>-0.01643192488262897</v>
       </c>
       <c r="K118" s="3">
-        <v>-0.02238312579564822</v>
+        <v>-0.01099705788587946</v>
       </c>
       <c r="L118" s="3">
-        <v>-0.1454404546628779</v>
+        <v>-0.1516071880536572</v>
       </c>
       <c r="M118" s="3">
-        <v>-0.1223156468597531</v>
+        <v>-0.1209680849218084</v>
       </c>
       <c r="N118" s="3">
-        <v>-0.1278671236488268</v>
+        <v>-0.1275377407600208</v>
       </c>
       <c r="O118" s="3">
-        <v>-0.0189715713116844</v>
+        <v>-0.02572717296864597</v>
       </c>
       <c r="P118" s="3">
-        <v>-0.09457671048738374</v>
+        <v>-0.06598257140384395</v>
       </c>
       <c r="Q118" s="3">
-        <v>-0.07897707463845022</v>
+        <v>-0.05568541198963065</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -7580,46 +7580,46 @@
         <v>279</v>
       </c>
       <c r="D119" s="1">
-        <v>10915156.61787857</v>
+        <v>10552793.11304571</v>
       </c>
       <c r="E119" s="2">
-        <v>0.9299449097095566</v>
+        <v>0.919725280283</v>
       </c>
       <c r="F119" s="3">
-        <v>-0.01436265709156185</v>
+        <v>0.05941845764854609</v>
       </c>
       <c r="G119" s="3">
-        <v>-0.02377503674807952</v>
+        <v>0.1397958898375615</v>
       </c>
       <c r="H119" s="3">
-        <v>-0.001212856276531098</v>
+        <v>-0.0005963029218842516</v>
       </c>
       <c r="I119" s="3">
-        <v>-0.01512352083137075</v>
+        <v>-0.0001623266241146671</v>
       </c>
       <c r="J119" s="3">
-        <v>-0.0161290322580644</v>
+        <v>-0.004159239453357137</v>
       </c>
       <c r="K119" s="3">
-        <v>-0.01139176392532759</v>
+        <v>-0.001305517271662458</v>
       </c>
       <c r="L119" s="3">
-        <v>-0.103917301414581</v>
+        <v>-0.1279916753381894</v>
       </c>
       <c r="M119" s="3">
-        <v>-0.1068586758453364</v>
+        <v>-0.09983612868936491</v>
       </c>
       <c r="N119" s="3">
-        <v>-0.1336138874276695</v>
+        <v>-0.1270833333333334</v>
       </c>
       <c r="O119" s="3">
-        <v>-0.02222789009338406</v>
+        <v>-0.02587804875419343</v>
       </c>
       <c r="P119" s="3">
-        <v>-0.06531685629670794</v>
+        <v>-0.05057082298051369</v>
       </c>
       <c r="Q119" s="3">
-        <v>-0.07023733945391229</v>
+        <v>-0.05498470474243462</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -7633,46 +7633,46 @@
         <v>280</v>
       </c>
       <c r="D120" s="1">
-        <v>17437257.43118571</v>
+        <v>16803612.87045714</v>
       </c>
       <c r="E120" s="2">
-        <v>1.110847484616667</v>
+        <v>1.088087009805218</v>
       </c>
       <c r="F120" s="3">
-        <v>-0.004347826086956673</v>
+        <v>0.06129353233830856</v>
       </c>
       <c r="G120" s="3">
-        <v>-0.002598904577725454</v>
+        <v>0.1039628410629479</v>
       </c>
       <c r="H120" s="3">
-        <v>-0.002651013065707381</v>
+        <v>0.00489918974938769</v>
       </c>
       <c r="I120" s="3">
-        <v>-0.008573766782335608</v>
+        <v>0.002016891637058013</v>
       </c>
       <c r="J120" s="3">
-        <v>-0.02589236175328281</v>
+        <v>-0.01313841598815691</v>
       </c>
       <c r="K120" s="3">
-        <v>-0.02833433066553782</v>
+        <v>-0.0005773205577965553</v>
       </c>
       <c r="L120" s="3">
-        <v>-0.1351395730706076</v>
+        <v>-0.1682782283218964</v>
       </c>
       <c r="M120" s="3">
-        <v>-0.1359425388471847</v>
+        <v>-0.1206043553427436</v>
       </c>
       <c r="N120" s="3">
-        <v>-0.2108181000899012</v>
+        <v>-0.2085188483229445</v>
       </c>
       <c r="O120" s="3">
-        <v>-0.04731510529763246</v>
+        <v>-0.0475217339671169</v>
       </c>
       <c r="P120" s="3">
-        <v>-0.08213843475636126</v>
+        <v>-0.0605908379502701</v>
       </c>
       <c r="Q120" s="3">
-        <v>-0.07394213507600074</v>
+        <v>-0.0556856551031858</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -7686,46 +7686,46 @@
         <v>281</v>
       </c>
       <c r="D121" s="1">
-        <v>11732967.73293428</v>
+        <v>11345162.85040286</v>
       </c>
       <c r="E121" s="2">
-        <v>0.9553139815898769</v>
+        <v>0.9529399434294313</v>
       </c>
       <c r="F121" s="3">
-        <v>-0.02812330989724173</v>
+        <v>0.03511801957397809</v>
       </c>
       <c r="G121" s="3">
-        <v>-0.07427130848966636</v>
+        <v>0.04296527254720169</v>
       </c>
       <c r="H121" s="3">
-        <v>-0.03800856531049245</v>
+        <v>-0.03125000000000003</v>
       </c>
       <c r="I121" s="3">
-        <v>-0.09500912895386694</v>
+        <v>-0.02351916239296743</v>
       </c>
       <c r="J121" s="3">
-        <v>-0.05421052631578946</v>
+        <v>-0.05567226890756312</v>
       </c>
       <c r="K121" s="3">
-        <v>-0.07306259032877695</v>
+        <v>-0.06823188717470575</v>
       </c>
       <c r="L121" s="3">
-        <v>-0.1587078651685394</v>
+        <v>-0.192273135669362</v>
       </c>
       <c r="M121" s="3">
-        <v>-0.1444078778363477</v>
+        <v>-0.1428663170440084</v>
       </c>
       <c r="N121" s="3">
-        <v>-0.2052189296771341</v>
+        <v>-0.200533570475767</v>
       </c>
       <c r="O121" s="3">
-        <v>-0.04632642961602793</v>
+        <v>-0.0527423908662674</v>
       </c>
       <c r="P121" s="3">
-        <v>-0.109339593163007</v>
+        <v>-0.1055491021093571</v>
       </c>
       <c r="Q121" s="3">
-        <v>-0.1144540907702817</v>
+        <v>-0.1107615467660092</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -7739,46 +7739,46 @@
         <v>282</v>
       </c>
       <c r="D122" s="1">
-        <v>42984430.82307999</v>
+        <v>42111230.92090715</v>
       </c>
       <c r="E122" s="2">
-        <v>1.206781267203057</v>
+        <v>1.238459942335357</v>
       </c>
       <c r="F122" s="3">
-        <v>-0.02810810810810816</v>
+        <v>0.01896551724137946</v>
       </c>
       <c r="G122" s="3">
-        <v>-0.03818895413641656</v>
+        <v>-0.001202456307429609</v>
       </c>
       <c r="H122" s="3">
-        <v>-0.04310803618946261</v>
+        <v>-0.05741626794258361</v>
       </c>
       <c r="I122" s="3">
-        <v>-0.1347080218471872</v>
+        <v>-0.08172853808977491</v>
       </c>
       <c r="J122" s="3">
-        <v>-0.06109660574412541</v>
+        <v>-0.0870236869207003</v>
       </c>
       <c r="K122" s="3">
-        <v>-0.09729173453412424</v>
+        <v>-0.1196484051458902</v>
       </c>
       <c r="L122" s="3">
-        <v>-0.1598130841121496</v>
+        <v>-0.208128628852166</v>
       </c>
       <c r="M122" s="3">
-        <v>-0.139926783487017</v>
+        <v>-0.1489735306897414</v>
       </c>
       <c r="N122" s="3">
-        <v>-0.2312954253954682</v>
+        <v>-0.2410102739726027</v>
       </c>
       <c r="O122" s="3">
-        <v>-0.05140409024524377</v>
+        <v>-0.05694641455114315</v>
       </c>
       <c r="P122" s="3">
-        <v>-0.1186092590105706</v>
+        <v>-0.1343109679178158</v>
       </c>
       <c r="Q122" s="3">
-        <v>-0.09828563156724322</v>
+        <v>-0.1084499896416079</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -7792,46 +7792,46 @@
         <v>283</v>
       </c>
       <c r="D123" s="1">
-        <v>27578369.6395</v>
+        <v>26743965.88859429</v>
       </c>
       <c r="E123" s="2">
-        <v>0.9627177276796852</v>
+        <v>0.9520313009314687</v>
       </c>
       <c r="F123" s="3">
-        <v>0.02141900937081662</v>
+        <v>0.04869731278133961</v>
       </c>
       <c r="G123" s="3">
-        <v>0.01090222892518913</v>
+        <v>0.05966613665650438</v>
       </c>
       <c r="H123" s="3">
-        <v>0.02636534839924679</v>
+        <v>0.02588737656792112</v>
       </c>
       <c r="I123" s="3">
-        <v>0.001277964529104161</v>
+        <v>0.04427416682410801</v>
       </c>
       <c r="J123" s="3">
-        <v>0.02374882597611707</v>
+        <v>0.02356543735854087</v>
       </c>
       <c r="K123" s="3">
-        <v>0.002551389039188029</v>
+        <v>0.01397621347594641</v>
       </c>
       <c r="L123" s="3">
-        <v>-0.06046053441694376</v>
+        <v>-0.09467734338200651</v>
       </c>
       <c r="M123" s="3">
-        <v>-0.07012847735337979</v>
+        <v>-0.05192137370860285</v>
       </c>
       <c r="N123" s="3">
-        <v>-0.1321656050955414</v>
+        <v>-0.1487099988927029</v>
       </c>
       <c r="O123" s="3">
-        <v>-0.04679854651642538</v>
+        <v>-0.04480711365504075</v>
       </c>
       <c r="P123" s="3">
-        <v>-0.03378854415709588</v>
+        <v>-0.01897258011632822</v>
       </c>
       <c r="Q123" s="3">
-        <v>-0.03509704162042603</v>
+        <v>-0.01992852556188586</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -7845,46 +7845,46 @@
         <v>284</v>
       </c>
       <c r="D124" s="1">
-        <v>4301944.287799999</v>
+        <v>4222483.004838286</v>
       </c>
       <c r="E124" s="2">
-        <v>0.7914377225411509</v>
+        <v>0.7842442066221925</v>
       </c>
       <c r="F124" s="3">
-        <v>-0.02321083172146999</v>
+        <v>0.0544197676128842</v>
       </c>
       <c r="G124" s="3">
-        <v>-0.0432099379937901</v>
+        <v>0.1499122773222467</v>
       </c>
       <c r="H124" s="3">
-        <v>-0.03017832647462273</v>
+        <v>-0.01470588235294122</v>
       </c>
       <c r="I124" s="3">
-        <v>-0.08603628694698451</v>
+        <v>-0.004527222761507955</v>
       </c>
       <c r="J124" s="3">
-        <v>-0.02871273526583322</v>
+        <v>-0.03082330674597809</v>
       </c>
       <c r="K124" s="3">
-        <v>-0.04775989286919613</v>
+        <v>-0.03619548741326054</v>
       </c>
       <c r="L124" s="3">
-        <v>-0.1192226236451974</v>
+        <v>-0.1441021967526265</v>
       </c>
       <c r="M124" s="3">
-        <v>-0.1116975583463307</v>
+        <v>-0.110201890880612</v>
       </c>
       <c r="N124" s="3">
-        <v>-0.1666666666666667</v>
+        <v>-0.1607351908218215</v>
       </c>
       <c r="O124" s="3">
-        <v>-0.04121453035001863</v>
+        <v>-0.04662281377388578</v>
       </c>
       <c r="P124" s="3">
-        <v>-0.0797287256077634</v>
+        <v>-0.07319868914693629</v>
       </c>
       <c r="Q124" s="3">
-        <v>-0.1007391021895824</v>
+        <v>-0.09333660169733272</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -7898,46 +7898,46 @@
         <v>285</v>
       </c>
       <c r="D125" s="1">
-        <v>16470585.4548</v>
+        <v>16247820.5911</v>
       </c>
       <c r="E125" s="2">
-        <v>1.141219790702324</v>
+        <v>1.123420253429128</v>
       </c>
       <c r="F125" s="3">
-        <v>-0.02277227722772279</v>
+        <v>0.05348715259569999</v>
       </c>
       <c r="G125" s="3">
-        <v>-0.08949827962695769</v>
+        <v>0.1652342736566964</v>
       </c>
       <c r="H125" s="3">
-        <v>-0.020347394540943</v>
+        <v>-0.007901234567901242</v>
       </c>
       <c r="I125" s="3">
-        <v>-0.05998545266641025</v>
+        <v>-0.00431098167075547</v>
       </c>
       <c r="J125" s="3">
-        <v>-0.0573065902578796</v>
+        <v>-0.02428363283147172</v>
       </c>
       <c r="K125" s="3">
-        <v>-0.04365492470498389</v>
+        <v>-0.01930572008833516</v>
       </c>
       <c r="L125" s="3">
-        <v>-0.1059782608695653</v>
+        <v>-0.1318063958513397</v>
       </c>
       <c r="M125" s="3">
-        <v>-0.1031295961623143</v>
+        <v>-0.1226717491821777</v>
       </c>
       <c r="N125" s="3">
-        <v>-0.09407985314364381</v>
+        <v>-0.09382047812359051</v>
       </c>
       <c r="O125" s="3">
-        <v>-0.001466957215623396</v>
+        <v>-0.003327092009049357</v>
       </c>
       <c r="P125" s="3">
-        <v>-0.09178906638530075</v>
+        <v>-0.05656309910596283</v>
       </c>
       <c r="Q125" s="3">
-        <v>-0.08043066474409134</v>
+        <v>-0.05034901136356554</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7951,46 +7951,46 @@
         <v>286</v>
       </c>
       <c r="D126" s="1">
-        <v>20458534.86533143</v>
+        <v>19412283.34002572</v>
       </c>
       <c r="E126" s="2">
-        <v>0.9671090870995367</v>
+        <v>0.9401733477104756</v>
       </c>
       <c r="F126" s="3">
-        <v>-0.02814344076259645</v>
+        <v>0.03396825396825404</v>
       </c>
       <c r="G126" s="3">
-        <v>-0.09120672591393722</v>
+        <v>0.1133404738847145</v>
       </c>
       <c r="H126" s="3">
-        <v>-0.03399007369529252</v>
+        <v>-0.03151947665774602</v>
       </c>
       <c r="I126" s="3">
-        <v>-0.1036594985898476</v>
+        <v>-0.02634612218425865</v>
       </c>
       <c r="J126" s="3">
-        <v>-0.03078315980081481</v>
+        <v>-0.02616235610704138</v>
       </c>
       <c r="K126" s="3">
-        <v>-0.02300260985640602</v>
+        <v>-0.04321024594750193</v>
       </c>
       <c r="L126" s="3">
-        <v>-0.1016783216783217</v>
+        <v>-0.1080377926879364</v>
       </c>
       <c r="M126" s="3">
-        <v>-0.06798958452561117</v>
+        <v>-0.07466061819625514</v>
       </c>
       <c r="N126" s="3">
-        <v>-0.07913978494623651</v>
+        <v>-0.08741944522275143</v>
       </c>
       <c r="O126" s="3">
-        <v>-0.003517606466716846</v>
+        <v>-0.006295389325783198</v>
       </c>
       <c r="P126" s="3">
-        <v>-0.07356468473592384</v>
+        <v>-0.05893543207187853</v>
       </c>
       <c r="Q126" s="3">
-        <v>-0.07606658412915153</v>
+        <v>-0.06268570813605702</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -8004,46 +8004,46 @@
         <v>287</v>
       </c>
       <c r="D127" s="1">
-        <v>11172310.45326571</v>
+        <v>10671442.95988286</v>
       </c>
       <c r="E127" s="2">
-        <v>0.8264132739839787</v>
+        <v>0.8430944327954107</v>
       </c>
       <c r="F127" s="3">
-        <v>-0.01437125748502998</v>
+        <v>0.03231939163498099</v>
       </c>
       <c r="G127" s="3">
-        <v>-0.008849970049925901</v>
+        <v>0.002946842728778399</v>
       </c>
       <c r="H127" s="3">
-        <v>-0.004836759371221295</v>
+        <v>-0.01926550270921137</v>
       </c>
       <c r="I127" s="3">
-        <v>-0.02119008978628595</v>
+        <v>-0.005033091915244873</v>
       </c>
       <c r="J127" s="3">
-        <v>-0.01907032181168062</v>
+        <v>-0.0349526066350711</v>
       </c>
       <c r="K127" s="3">
-        <v>-0.03012436934949721</v>
+        <v>-0.02411265261892482</v>
       </c>
       <c r="L127" s="3">
-        <v>-0.1121898597626754</v>
+        <v>-0.1466736511262441</v>
       </c>
       <c r="M127" s="3">
-        <v>-0.1059919035747564</v>
+        <v>-0.1004418853204898</v>
       </c>
       <c r="N127" s="3">
-        <v>-0.1413667188315076</v>
+        <v>-0.1506777893639208</v>
       </c>
       <c r="O127" s="3">
-        <v>-0.03362237152464237</v>
+        <v>-0.03901660006718909</v>
       </c>
       <c r="P127" s="3">
-        <v>-0.06805813646212683</v>
+        <v>-0.06227726896970731</v>
       </c>
       <c r="Q127" s="3">
-        <v>-0.08235363419809523</v>
+        <v>-0.07386748927189252</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -8057,46 +8057,46 @@
         <v>288</v>
       </c>
       <c r="D128" s="1">
-        <v>7264531.252272856</v>
+        <v>7009792.961537143</v>
       </c>
       <c r="E128" s="2">
-        <v>0.9408502537966688</v>
+        <v>0.9308673164526391</v>
       </c>
       <c r="F128" s="3">
-        <v>-0.006400000000000035</v>
+        <v>0.05022321428571433</v>
       </c>
       <c r="G128" s="3">
-        <v>-0.008354949583056135</v>
+        <v>0.1074762176996341</v>
       </c>
       <c r="H128" s="3">
-        <v>-0.01219512195121949</v>
+        <v>-0.002649708532061475</v>
       </c>
       <c r="I128" s="3">
-        <v>-0.04190839443506078</v>
+        <v>-0.0001498934118463788</v>
       </c>
       <c r="J128" s="3">
-        <v>-0.02715404699738909</v>
+        <v>-0.01414353064431629</v>
       </c>
       <c r="K128" s="3">
-        <v>-0.03252118401850837</v>
+        <v>-0.01256999041258194</v>
       </c>
       <c r="L128" s="3">
-        <v>-0.1398891966759002</v>
+        <v>-0.1690949227373068</v>
       </c>
       <c r="M128" s="3">
-        <v>-0.1403767972350889</v>
+        <v>-0.127929625131038</v>
       </c>
       <c r="N128" s="3">
-        <v>-0.1931572109138155</v>
+        <v>-0.1905376344086022</v>
       </c>
       <c r="O128" s="3">
-        <v>-0.04721235830711371</v>
+        <v>-0.05076097826054137</v>
       </c>
       <c r="P128" s="3">
-        <v>-0.08644899062679862</v>
+        <v>-0.07024980777180997</v>
       </c>
       <c r="Q128" s="3">
-        <v>-0.09188389999146611</v>
+        <v>-0.07546704726890491</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -8110,46 +8110,46 @@
         <v>289</v>
       </c>
       <c r="D129" s="1">
-        <v>13197739.51357714</v>
+        <v>13016554.37171429</v>
       </c>
       <c r="E129" s="2">
-        <v>1.012133872794161</v>
+        <v>1.016875515105239</v>
       </c>
       <c r="F129" s="3">
-        <v>-0.009540846750149018</v>
+        <v>0.03879849812265339</v>
       </c>
       <c r="G129" s="3">
-        <v>-0.004092076215605421</v>
+        <v>0.02315764357594882</v>
       </c>
       <c r="H129" s="3">
-        <v>-0.01189767995240929</v>
+        <v>-0.01249256395002969</v>
       </c>
       <c r="I129" s="3">
-        <v>-0.04888735791625787</v>
+        <v>-0.00349901906573499</v>
       </c>
       <c r="J129" s="3">
-        <v>-0.01657785671995262</v>
+        <v>-0.02696365767878073</v>
       </c>
       <c r="K129" s="3">
-        <v>-0.0383123811010775</v>
+        <v>-0.0321437294526704</v>
       </c>
       <c r="L129" s="3">
-        <v>-0.1682523785678517</v>
+        <v>-0.1882640586797065</v>
       </c>
       <c r="M129" s="3">
-        <v>-0.1377038329380019</v>
+        <v>-0.1179936178956889</v>
       </c>
       <c r="N129" s="3">
-        <v>-0.2165094339622641</v>
+        <v>-0.2210229938995777</v>
       </c>
       <c r="O129" s="3">
-        <v>-0.06807474965144263</v>
+        <v>-0.07303714317004176</v>
       </c>
       <c r="P129" s="3">
-        <v>-0.08800810701953968</v>
+        <v>-0.07506867367417963</v>
       </c>
       <c r="Q129" s="3">
-        <v>-0.08695303001427958</v>
+        <v>-0.07382287463811198</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -8163,46 +8163,46 @@
         <v>290</v>
       </c>
       <c r="D130" s="1">
-        <v>9143819.95241143</v>
+        <v>8714469.969827143</v>
       </c>
       <c r="E130" s="2">
-        <v>0.9578749136176463</v>
+        <v>0.9526523714864557</v>
       </c>
       <c r="F130" s="3">
-        <v>-0.004334365325077438</v>
+        <v>0.04925469863901488</v>
       </c>
       <c r="G130" s="3">
-        <v>-0.008738644170124391</v>
+        <v>0.09777346541540988</v>
       </c>
       <c r="H130" s="3">
-        <v>-0.001862197392923617</v>
+        <v>-0.004917025199754289</v>
       </c>
       <c r="I130" s="3">
-        <v>-0.02277301033897143</v>
+        <v>-0.0001056482064251712</v>
       </c>
       <c r="J130" s="3">
-        <v>-0.01167793484941618</v>
+        <v>-0.009179926560587524</v>
       </c>
       <c r="K130" s="3">
-        <v>-0.01645358396051753</v>
+        <v>-0.003139087530412657</v>
       </c>
       <c r="L130" s="3">
-        <v>-0.1016759776536313</v>
+        <v>-0.1388297872340426</v>
       </c>
       <c r="M130" s="3">
-        <v>-0.1077492294288398</v>
+        <v>-0.1053577045614388</v>
       </c>
       <c r="N130" s="3">
-        <v>-0.121791370835609</v>
+        <v>-0.1248648648648649</v>
       </c>
       <c r="O130" s="3">
-        <v>-0.01757533894182461</v>
+        <v>-0.02069835219793167</v>
       </c>
       <c r="P130" s="3">
-        <v>-0.06210140669467865</v>
+        <v>-0.05424839604592573</v>
       </c>
       <c r="Q130" s="3">
-        <v>-0.06483248053771203</v>
+        <v>-0.05694458720685293</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -8216,46 +8216,46 @@
         <v>291</v>
       </c>
       <c r="D131" s="1">
-        <v>57151440.20378572</v>
+        <v>53617123.51318285</v>
       </c>
       <c r="E131" s="2">
-        <v>0.9559394137663459</v>
+        <v>0.9536518766763785</v>
       </c>
       <c r="F131" s="3">
-        <v>0.00574453705789594</v>
+        <v>0.03497394325419799</v>
       </c>
       <c r="G131" s="3">
-        <v>2.55013454216972E-05</v>
+        <v>0.02023808537251852</v>
       </c>
       <c r="H131" s="3">
-        <v>0.01316237376602742</v>
+        <v>0.009830508474576243</v>
       </c>
       <c r="I131" s="3">
-        <v>-1.618688755511515E-05</v>
+        <v>0.00424097429891289</v>
       </c>
       <c r="J131" s="3">
-        <v>0.02703013572578783</v>
+        <v>0.01591451631237908</v>
       </c>
       <c r="K131" s="3">
-        <v>0.003552584891679721</v>
+        <v>0.002012732874071407</v>
       </c>
       <c r="L131" s="3">
-        <v>-0.04472023109018929</v>
+        <v>-0.08338461538461545</v>
       </c>
       <c r="M131" s="3">
-        <v>-0.05880861771522604</v>
+        <v>-0.04625308590167461</v>
       </c>
       <c r="N131" s="3">
-        <v>-0.1192542907871375</v>
+        <v>-0.1202008269344359</v>
       </c>
       <c r="O131" s="3">
-        <v>-0.02826526709350122</v>
+        <v>-0.02698034225677951</v>
       </c>
       <c r="P131" s="3">
-        <v>-0.02939155818490217</v>
+        <v>-0.0221201765138016</v>
       </c>
       <c r="Q131" s="3">
-        <v>-0.03074625626021751</v>
+        <v>-0.0231952319864286</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -8269,46 +8269,46 @@
         <v>292</v>
       </c>
       <c r="D132" s="1">
-        <v>1238229283.257943</v>
+        <v>1147555941.098286</v>
       </c>
       <c r="E132" s="2">
-        <v>1.051333462038989</v>
+        <v>1.052677974859499</v>
       </c>
       <c r="F132" s="3">
-        <v>0.002547616159165334</v>
+        <v>0.04233442950505772</v>
       </c>
       <c r="G132" s="3">
-        <v>2.340036015133233E-05</v>
+        <v>0.06155417970624667</v>
       </c>
       <c r="H132" s="3">
-        <v>0.00948735697707555</v>
+        <v>-0.001515272350267148</v>
       </c>
       <c r="I132" s="3">
-        <v>-0.0007277011814217213</v>
+        <v>0.001176276566824061</v>
       </c>
       <c r="J132" s="3">
-        <v>0.05569749616760341</v>
+        <v>0.03578076525336094</v>
       </c>
       <c r="K132" s="3">
-        <v>0.01786181899154284</v>
+        <v>0.002353272379856543</v>
       </c>
       <c r="L132" s="3">
-        <v>-0.07973273942093538</v>
+        <v>-0.08056106337666143</v>
       </c>
       <c r="M132" s="3">
-        <v>-0.04650856711966588</v>
+        <v>-0.02674190362831357</v>
       </c>
       <c r="N132" s="3">
-        <v>-0.1399431069173663</v>
+        <v>-0.1371765273422693</v>
       </c>
       <c r="O132" s="3">
-        <v>-0.05226827978419987</v>
+        <v>-0.05199391984210341</v>
       </c>
       <c r="P132" s="3">
-        <v>-0.02324258337975727</v>
+        <v>-0.01219431562422851</v>
       </c>
       <c r="Q132" s="3">
-        <v>-0.02210771769280499</v>
+        <v>-0.01158408926134898</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -8322,46 +8322,46 @@
         <v>293</v>
       </c>
       <c r="D133" s="1">
-        <v>23454576.616</v>
+        <v>22396227.506</v>
       </c>
       <c r="E133" s="2">
-        <v>1.014974073787053</v>
+        <v>1.01786927172047</v>
       </c>
       <c r="F133" s="3">
-        <v>-0.02905569007263912</v>
+        <v>0.03737113402061859</v>
       </c>
       <c r="G133" s="3">
-        <v>-0.09987072479024965</v>
+        <v>0.04991431934368143</v>
       </c>
       <c r="H133" s="3">
-        <v>-0.03373493975903604</v>
+        <v>-0.03592814371257475</v>
       </c>
       <c r="I133" s="3">
-        <v>-0.09881919546883751</v>
+        <v>-0.0374460464080427</v>
       </c>
       <c r="J133" s="3">
-        <v>-0.06852497096399529</v>
+        <v>-0.04394299287410917</v>
       </c>
       <c r="K133" s="3">
-        <v>-0.08544552556049294</v>
+        <v>-0.06815684461354229</v>
       </c>
       <c r="L133" s="3">
-        <v>-0.1394849785407725</v>
+        <v>-0.1701030927835051</v>
       </c>
       <c r="M133" s="3">
-        <v>-0.1247515569563524</v>
+        <v>-0.1300780670248017</v>
       </c>
       <c r="N133" s="3">
-        <v>-0.2059405940594059</v>
+        <v>-0.2037586547972303</v>
       </c>
       <c r="O133" s="3">
-        <v>-0.0532124958145409</v>
+        <v>-0.05926163766002997</v>
       </c>
       <c r="P133" s="3">
-        <v>-0.112311140873301</v>
+        <v>-0.09911745581917197</v>
       </c>
       <c r="Q133" s="3">
-        <v>-0.1106541967660786</v>
+        <v>-0.09737739272906543</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -8375,46 +8375,46 @@
         <v>294</v>
       </c>
       <c r="D134" s="1">
-        <v>40244069.85877714</v>
+        <v>38506239.81757143</v>
       </c>
       <c r="E134" s="2">
-        <v>0.9896151602559808</v>
+        <v>0.9853328410751948</v>
       </c>
       <c r="F134" s="3">
-        <v>-0.03598441439376576</v>
+        <v>0.002375296912114048</v>
       </c>
       <c r="G134" s="3">
-        <v>-0.07104582978785397</v>
+        <v>-0.001807810150026393</v>
       </c>
       <c r="H134" s="3">
-        <v>-0.02186046511627902</v>
+        <v>-0.0287686996547756</v>
       </c>
       <c r="I134" s="3">
-        <v>-0.02802494665675106</v>
+        <v>-0.08896904606466531</v>
       </c>
       <c r="J134" s="3">
-        <v>0.01178734664421462</v>
+        <v>-0.01791947870607391</v>
       </c>
       <c r="K134" s="3">
-        <v>0.0003393402415139841</v>
+        <v>-0.01884553365014103</v>
       </c>
       <c r="L134" s="3">
-        <v>-0.08505547095932123</v>
+        <v>-0.08796196239464016</v>
       </c>
       <c r="M134" s="3">
-        <v>-0.04341340484431392</v>
+        <v>-0.04392971870099999</v>
       </c>
       <c r="N134" s="3">
-        <v>-0.08145883380650791</v>
+        <v>-0.0849956634865567</v>
       </c>
       <c r="O134" s="3">
-        <v>-0.003307971112462017</v>
+        <v>-0.00498582443043451</v>
       </c>
       <c r="P134" s="3">
-        <v>-0.05722961731608395</v>
+        <v>-0.03138762617557051</v>
       </c>
       <c r="Q134" s="3">
-        <v>-0.05783017440969733</v>
+        <v>-0.0318548462683131</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -8428,46 +8428,46 @@
         <v>295</v>
       </c>
       <c r="D135" s="1">
-        <v>40355062.94738286</v>
+        <v>35614581.37450001</v>
       </c>
       <c r="E135" s="2">
-        <v>1.282185984966466</v>
+        <v>1.299087219820819</v>
       </c>
       <c r="F135" s="3">
-        <v>-0.01157943492357573</v>
+        <v>0.01795680660033977</v>
       </c>
       <c r="G135" s="3">
-        <v>-0.005479441396356629</v>
+        <v>-3.63837029676448E-05</v>
       </c>
       <c r="H135" s="3">
-        <v>0.0101775147928994</v>
+        <v>-0.01061320754716971</v>
       </c>
       <c r="I135" s="3">
-        <v>-0.0005202228900096981</v>
+        <v>-0.006312307671214685</v>
       </c>
       <c r="J135" s="3">
-        <v>0.01161412657027736</v>
+        <v>-0.02780996523754336</v>
       </c>
       <c r="K135" s="3">
-        <v>-0.0003794014945763687</v>
+        <v>-0.00431371927584541</v>
       </c>
       <c r="L135" s="3">
-        <v>-0.1097204839382561</v>
+        <v>-0.1309301843795318</v>
       </c>
       <c r="M135" s="3">
-        <v>-0.09637308599758528</v>
+        <v>-0.08702795305712795</v>
       </c>
       <c r="N135" s="3">
-        <v>-0.07277862263741042</v>
+        <v>-0.09179476077072948</v>
       </c>
       <c r="O135" s="3">
-        <v>-0.003615449763149457</v>
+        <v>-0.006193582612434243</v>
       </c>
       <c r="P135" s="3">
-        <v>-0.03912903201688352</v>
+        <v>-0.04567083616648668</v>
       </c>
       <c r="Q135" s="3">
-        <v>-0.03051743855857768</v>
+        <v>-0.03515609688838751</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -8481,46 +8481,46 @@
         <v>296</v>
       </c>
       <c r="D136" s="1">
-        <v>42858618.96399286</v>
+        <v>42343670.4928</v>
       </c>
       <c r="E136" s="2">
-        <v>0.6756353727167773</v>
+        <v>0.6737832358706616</v>
       </c>
       <c r="F136" s="3">
-        <v>0.008226185538504063</v>
+        <v>0.02203378049628128</v>
       </c>
       <c r="G136" s="3">
-        <v>0.0103349193344926</v>
+        <v>0.01451126053793257</v>
       </c>
       <c r="H136" s="3">
-        <v>0.01630548393840153</v>
+        <v>0.02132388692088625</v>
       </c>
       <c r="I136" s="3">
-        <v>0.01692151140261087</v>
+        <v>0.01790277844731929</v>
       </c>
       <c r="J136" s="3">
-        <v>0.02740208509439269</v>
+        <v>0.02595590287468601</v>
       </c>
       <c r="K136" s="3">
-        <v>0.02615271778109605</v>
+        <v>0.02050949617275395</v>
       </c>
       <c r="L136" s="3">
-        <v>-0.02844391153743678</v>
+        <v>-0.02899029254441006</v>
       </c>
       <c r="M136" s="3">
-        <v>-0.01596887911123393</v>
+        <v>-0.005957978597607553</v>
       </c>
       <c r="N136" s="3">
-        <v>0.01355107713690055</v>
+        <v>0.0258127528952141</v>
       </c>
       <c r="O136" s="3">
-        <v>-4.355600078392924E-05</v>
+        <v>-0.0002532301474795913</v>
       </c>
       <c r="P136" s="3">
-        <v>0.01194299823569657</v>
+        <v>0.01751037835534326</v>
       </c>
       <c r="Q136" s="3">
-        <v>0.01767669177484438</v>
+        <v>0.02598814785398509</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -8534,46 +8534,46 @@
         <v>297</v>
       </c>
       <c r="D137" s="1">
-        <v>154035986.4080714</v>
+        <v>145602236.6887714</v>
       </c>
       <c r="E137" s="2">
-        <v>0.8645218905261929</v>
+        <v>0.8613771943166535</v>
       </c>
       <c r="F137" s="3">
-        <v>-0.02278769464489178</v>
+        <v>0.02096518987341761</v>
       </c>
       <c r="G137" s="3">
-        <v>-0.06318668723725113</v>
+        <v>0.04651105569536015</v>
       </c>
       <c r="H137" s="3">
-        <v>-0.02574782279439617</v>
+        <v>-0.02896914973664404</v>
       </c>
       <c r="I137" s="3">
-        <v>-0.07044047187764044</v>
+        <v>-0.03018433464445575</v>
       </c>
       <c r="J137" s="3">
-        <v>-0.03088512241054629</v>
+        <v>-0.03297115024353701</v>
       </c>
       <c r="K137" s="3">
-        <v>-0.02880462241160767</v>
+        <v>-0.04607572024025693</v>
       </c>
       <c r="L137" s="3">
-        <v>-0.1591503267973857</v>
+        <v>-0.1782871696911811</v>
       </c>
       <c r="M137" s="3">
-        <v>-0.1280700777682821</v>
+        <v>-0.1196767390800593</v>
       </c>
       <c r="N137" s="3">
-        <v>-0.1865317736326274</v>
+        <v>-0.1881094683862851</v>
       </c>
       <c r="O137" s="3">
-        <v>-0.04556943789050121</v>
+        <v>-0.05139531607839454</v>
       </c>
       <c r="P137" s="3">
-        <v>-0.09562838250276662</v>
+        <v>-0.0828762296601581</v>
       </c>
       <c r="Q137" s="3">
-        <v>-0.1106141828803921</v>
+        <v>-0.09621363347784631</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -8587,46 +8587,46 @@
         <v>298</v>
       </c>
       <c r="D138" s="1">
-        <v>23862089.96244</v>
+        <v>23099077.53164428</v>
       </c>
       <c r="E138" s="2">
-        <v>0.7255728075223016</v>
+        <v>0.7211202647782777</v>
       </c>
       <c r="F138" s="3">
-        <v>-0.01741065584500586</v>
+        <v>0.03414834039065705</v>
       </c>
       <c r="G138" s="3">
-        <v>-0.04888217673617696</v>
+        <v>0.0451839072593978</v>
       </c>
       <c r="H138" s="3">
-        <v>-0.008192389006342437</v>
+        <v>-0.009031413612565396</v>
       </c>
       <c r="I138" s="3">
-        <v>-0.02118855469050402</v>
+        <v>-0.003923198143792115</v>
       </c>
       <c r="J138" s="3">
-        <v>0.01090909090909098</v>
+        <v>0.0001321003963011377</v>
       </c>
       <c r="K138" s="3">
-        <v>1.406471609916302E-05</v>
+        <v>-0.004966330264789264</v>
       </c>
       <c r="L138" s="3">
-        <v>-0.0946809793752261</v>
+        <v>-0.09847582757799475</v>
       </c>
       <c r="M138" s="3">
-        <v>-0.06670580952181543</v>
+        <v>-0.05663917711201296</v>
       </c>
       <c r="N138" s="3">
-        <v>-0.1216943599344722</v>
+        <v>-0.1196511627906976</v>
       </c>
       <c r="O138" s="3">
-        <v>-0.03260998772934736</v>
+        <v>-0.03524266441478608</v>
       </c>
       <c r="P138" s="3">
-        <v>-0.05779399312899619</v>
+        <v>-0.03080275368840111</v>
       </c>
       <c r="Q138" s="3">
-        <v>-0.07965292046480091</v>
+        <v>-0.04271514086193655</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -8640,46 +8640,46 @@
         <v>299</v>
       </c>
       <c r="D139" s="1">
-        <v>228710428.5629828</v>
+        <v>213448759.2063829</v>
       </c>
       <c r="E139" s="2">
-        <v>1.047522153648547</v>
+        <v>1.028635792475395</v>
       </c>
       <c r="F139" s="3">
-        <v>0.003330003330003259</v>
+        <v>0.03508468717594198</v>
       </c>
       <c r="G139" s="3">
-        <v>4.09444689166699E-07</v>
+        <v>0.009174409906791551</v>
       </c>
       <c r="H139" s="3">
-        <v>0.01328400874390444</v>
+        <v>0.006893073301950148</v>
       </c>
       <c r="I139" s="3">
-        <v>-0.0001088371180967733</v>
+        <v>0.004934090089815696</v>
       </c>
       <c r="J139" s="3">
-        <v>0.005170975813177597</v>
+        <v>-0.005975103734439912</v>
       </c>
       <c r="K139" s="3">
-        <v>-0.001379707345298166</v>
+        <v>2.170470946833081E-05</v>
       </c>
       <c r="L139" s="3">
-        <v>-0.09857890800299175</v>
+        <v>-0.1350375505488158</v>
       </c>
       <c r="M139" s="3">
-        <v>-0.09477528363576899</v>
+        <v>-0.07217836921036873</v>
       </c>
       <c r="N139" s="3">
-        <v>-0.163984461709212</v>
+        <v>-0.1595565534661803</v>
       </c>
       <c r="O139" s="3">
-        <v>-0.04581602905094154</v>
+        <v>-0.04512718553558379</v>
       </c>
       <c r="P139" s="3">
-        <v>-0.04807749549053358</v>
+        <v>-0.0360783322504502</v>
       </c>
       <c r="Q139" s="3">
-        <v>-0.04589639973061992</v>
+        <v>-0.03507396156576302</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -8693,46 +8693,46 @@
         <v>300</v>
       </c>
       <c r="D140" s="1">
-        <v>160683513.0264086</v>
+        <v>153797817.2456</v>
       </c>
       <c r="E140" s="2">
-        <v>0.9861413145707975</v>
+        <v>0.9903134976790913</v>
       </c>
       <c r="F140" s="3">
-        <v>0.0001899335232668638</v>
+        <v>0.04582866925660103</v>
       </c>
       <c r="G140" s="3">
-        <v>-0.0007143346540073566</v>
+        <v>0.04731691212891765</v>
       </c>
       <c r="H140" s="3">
-        <v>-0.009778112072207632</v>
+        <v>-0.003200702899460284</v>
       </c>
       <c r="I140" s="3">
-        <v>-0.02267482818187453</v>
+        <v>-3.204204796142162E-06</v>
       </c>
       <c r="J140" s="3">
-        <v>-0.0195494321355427</v>
+        <v>-0.01805255023183936</v>
       </c>
       <c r="K140" s="3">
-        <v>-0.02988740049864097</v>
+        <v>-0.01025270518912521</v>
       </c>
       <c r="L140" s="3">
-        <v>-0.1417861799217732</v>
+        <v>-0.1751233445858219</v>
       </c>
       <c r="M140" s="3">
-        <v>-0.1438203542675403</v>
+        <v>-0.1291838343652533</v>
       </c>
       <c r="N140" s="3">
-        <v>-0.1817475527010928</v>
+        <v>-0.186904883792362</v>
       </c>
       <c r="O140" s="3">
-        <v>-0.04703530145109915</v>
+        <v>-0.05209379352094724</v>
       </c>
       <c r="P140" s="3">
-        <v>-0.08685387738309065</v>
+        <v>-0.06971826977718924</v>
       </c>
       <c r="Q140" s="3">
-        <v>-0.0880744738099655</v>
+        <v>-0.07040020149233721</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -8746,46 +8746,46 @@
         <v>301</v>
       </c>
       <c r="D141" s="1">
-        <v>82497166.76025</v>
+        <v>80148238.43441428</v>
       </c>
       <c r="E141" s="2">
-        <v>0.6214288907628586</v>
+        <v>0.6147934560778689</v>
       </c>
       <c r="F141" s="3">
-        <v>0.01061847988077498</v>
+        <v>0.02204783258594919</v>
       </c>
       <c r="G141" s="3">
-        <v>0.009408985864294847</v>
+        <v>0.04447908565237155</v>
       </c>
       <c r="H141" s="3">
-        <v>0.01024208566108011</v>
+        <v>0.01805322910850547</v>
       </c>
       <c r="I141" s="3">
-        <v>0.001395711123578205</v>
+        <v>0.01968065747347378</v>
       </c>
       <c r="J141" s="3">
-        <v>0.02127259036144577</v>
+        <v>-0.002188982123312697</v>
       </c>
       <c r="K141" s="3">
-        <v>1.490251384237176E-06</v>
+        <v>0.0002628423906425607</v>
       </c>
       <c r="L141" s="3">
-        <v>0.02031220613127699</v>
+        <v>0.004591368227731868</v>
       </c>
       <c r="M141" s="3">
-        <v>-0.004525134485369873</v>
+        <v>-0.007387630759601583</v>
       </c>
       <c r="N141" s="3">
-        <v>0.02980258162490513</v>
+        <v>0.02090332213512497</v>
       </c>
       <c r="O141" s="3">
-        <v>0.0001527777966764538</v>
+        <v>4.563008740262126E-05</v>
       </c>
       <c r="P141" s="3">
-        <v>0.004705238057839543</v>
+        <v>0.01058308226288377</v>
       </c>
       <c r="Q141" s="3">
-        <v>0.007571643558546899</v>
+        <v>0.01721404507198158</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -8799,46 +8799,46 @@
         <v>302</v>
       </c>
       <c r="D142" s="1">
-        <v>354545922.8044072</v>
+        <v>347352446.6417015</v>
       </c>
       <c r="E142" s="2">
-        <v>1.199326275210737</v>
+        <v>1.184228108697715</v>
       </c>
       <c r="F142" s="3">
-        <v>0.02553996531609645</v>
+        <v>0.03269109286165509</v>
       </c>
       <c r="G142" s="3">
-        <v>0.06138922965564169</v>
+        <v>0.02535149136128683</v>
       </c>
       <c r="H142" s="3">
-        <v>0.02764612954186414</v>
+        <v>0.0158458909429858</v>
       </c>
       <c r="I142" s="3">
-        <v>6.330570534260357E-05</v>
+        <v>0.03611373284682957</v>
       </c>
       <c r="J142" s="3">
-        <v>0.01640624999999996</v>
+        <v>0.008326908249807344</v>
       </c>
       <c r="K142" s="3">
-        <v>-0.0001909668388122718</v>
+        <v>0.0006994208916434641</v>
       </c>
       <c r="L142" s="3">
-        <v>-0.1453159900144528</v>
+        <v>-0.1548403774072638</v>
       </c>
       <c r="M142" s="3">
-        <v>-0.1402104076760821</v>
+        <v>-0.1104316997681049</v>
       </c>
       <c r="N142" s="3">
-        <v>-0.1778311425682508</v>
+        <v>-0.1809869739478958</v>
       </c>
       <c r="O142" s="3">
-        <v>-0.04918363112449366</v>
+        <v>-0.05167638785418509</v>
       </c>
       <c r="P142" s="3">
-        <v>-0.07020068725744721</v>
+        <v>-0.05486613943823074</v>
       </c>
       <c r="Q142" s="3">
-        <v>-0.05853343556999285</v>
+        <v>-0.04633071874857499</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -8852,46 +8852,46 @@
         <v>303</v>
       </c>
       <c r="D143" s="1">
-        <v>124386080.6873143</v>
+        <v>117025730.261</v>
       </c>
       <c r="E143" s="2">
-        <v>1.152176919678204</v>
+        <v>1.125157538320479</v>
       </c>
       <c r="F143" s="3">
-        <v>-0.01237345331833522</v>
+        <v>0.04958677685950418</v>
       </c>
       <c r="G143" s="3">
-        <v>-0.005854405274048203</v>
+        <v>0.09775240212034626</v>
       </c>
       <c r="H143" s="3">
-        <v>0</v>
+        <v>0.007936507936507943</v>
       </c>
       <c r="I143" s="3">
-        <v>-0.01502402562240527</v>
+        <v>-9.064231188803984E-07</v>
       </c>
       <c r="J143" s="3">
-        <v>-0.003405221339387063</v>
+        <v>-0.001123595505617978</v>
       </c>
       <c r="K143" s="3">
-        <v>-0.006203905632264877</v>
+        <v>-0.0009750033473184458</v>
       </c>
       <c r="L143" s="3">
-        <v>-0.09484536082474224</v>
+        <v>-0.111</v>
       </c>
       <c r="M143" s="3">
-        <v>-0.0892838364253004</v>
+        <v>-0.07363302036861594</v>
       </c>
       <c r="N143" s="3">
-        <v>-0.05793991416309018</v>
+        <v>-0.07105538140020894</v>
       </c>
       <c r="O143" s="3">
-        <v>-0.02194165256988313</v>
+        <v>-0.03245967238788737</v>
       </c>
       <c r="P143" s="3">
-        <v>-0.03207190989767753</v>
+        <v>-0.03601519237376369</v>
       </c>
       <c r="Q143" s="3">
-        <v>-0.02783592463094558</v>
+        <v>-0.03200902197884532</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -8905,46 +8905,46 @@
         <v>304</v>
       </c>
       <c r="D144" s="1">
-        <v>420817315.72844</v>
+        <v>417065084.5261528</v>
       </c>
       <c r="E144" s="2">
-        <v>0.8634530839935709</v>
+        <v>0.8440463808078025</v>
       </c>
       <c r="F144" s="3">
-        <v>-0.003788982803847343</v>
+        <v>0.03663220088626282</v>
       </c>
       <c r="G144" s="3">
-        <v>-6.96953893898619E-12</v>
+        <v>0.1290512136255577</v>
       </c>
       <c r="H144" s="3">
-        <v>-0.02454337899543378</v>
+        <v>0.004005722460658118</v>
       </c>
       <c r="I144" s="3">
-        <v>-0.0541543535592517</v>
+        <v>0.001061759722552062</v>
       </c>
       <c r="J144" s="3">
-        <v>-0.03117913832199549</v>
+        <v>-0.009316770186335475</v>
       </c>
       <c r="K144" s="3">
-        <v>-0.04927067978164115</v>
+        <v>-0.01249123306100446</v>
       </c>
       <c r="L144" s="3">
-        <v>-0.1071055381400209</v>
+        <v>-0.1116455696202532</v>
       </c>
       <c r="M144" s="3">
-        <v>-0.0954973843357271</v>
+        <v>-0.08269050705468006</v>
       </c>
       <c r="N144" s="3">
-        <v>-0.1073387307390964</v>
+        <v>-0.1027870109946306</v>
       </c>
       <c r="O144" s="3">
-        <v>-0.02549346272182523</v>
+        <v>-0.02942675598542167</v>
       </c>
       <c r="P144" s="3">
-        <v>-0.07238403205868413</v>
+        <v>-0.04759087005784226</v>
       </c>
       <c r="Q144" s="3">
-        <v>-0.08383088021864438</v>
+        <v>-0.05638418828630599</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -8958,46 +8958,46 @@
         <v>305</v>
       </c>
       <c r="D145" s="1">
-        <v>69975643.90278856</v>
+        <v>62281709.68972857</v>
       </c>
       <c r="E145" s="2">
-        <v>0.7713396241722031</v>
+        <v>0.7632369466313172</v>
       </c>
       <c r="F145" s="3">
-        <v>-0.009351314105719094</v>
+        <v>0.0330654186590701</v>
       </c>
       <c r="G145" s="3">
-        <v>-0.01221485750963232</v>
+        <v>0.0550184749698816</v>
       </c>
       <c r="H145" s="3">
-        <v>-0.01081187340279137</v>
+        <v>-0.002945797329143727</v>
       </c>
       <c r="I145" s="3">
-        <v>-0.03305961001239664</v>
+        <v>-0.0009228869653067994</v>
       </c>
       <c r="J145" s="3">
-        <v>-0.008179757563811948</v>
+        <v>-0.01446180724060948</v>
       </c>
       <c r="K145" s="3">
-        <v>-0.0203663185637513</v>
+        <v>-0.01622222958787712</v>
       </c>
       <c r="L145" s="3">
-        <v>-0.06206896551724135</v>
+        <v>-0.07833348461468635</v>
       </c>
       <c r="M145" s="3">
-        <v>-0.0559532074231496</v>
+        <v>-0.05133995620225447</v>
       </c>
       <c r="N145" s="3">
-        <v>-0.09300648882480167</v>
+        <v>-0.09314995087969985</v>
       </c>
       <c r="O145" s="3">
-        <v>-0.02122895311862177</v>
+        <v>-0.02258436750718534</v>
       </c>
       <c r="P145" s="3">
-        <v>-0.03815976299345045</v>
+        <v>-0.0337810928950658</v>
       </c>
       <c r="Q145" s="3">
-        <v>-0.04947206366378917</v>
+        <v>-0.04426029563186726</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -9011,46 +9011,46 @@
         <v>306</v>
       </c>
       <c r="D146" s="1">
-        <v>6212255581.67424</v>
+        <v>5779444840.640743</v>
       </c>
       <c r="E146" s="2">
-        <v>0.7397254127702749</v>
+        <v>0.734750860182727</v>
       </c>
       <c r="F146" s="3">
-        <v>0.02057335011870877</v>
+        <v>0.04055825429871224</v>
       </c>
       <c r="G146" s="3">
-        <v>0.02865463333486702</v>
+        <v>0.07458112569502044</v>
       </c>
       <c r="H146" s="3">
-        <v>0.02636610048517701</v>
+        <v>0.02714702524419629</v>
       </c>
       <c r="I146" s="3">
-        <v>0.003577154216760797</v>
+        <v>0.04438591720695546</v>
       </c>
       <c r="J146" s="3">
-        <v>0.02683725081820901</v>
+        <v>0.02368409962493144</v>
       </c>
       <c r="K146" s="3">
-        <v>0.0009534065009846033</v>
+        <v>0.01554673945145389</v>
       </c>
       <c r="L146" s="3">
-        <v>-0.05440653817851607</v>
+        <v>-0.08062464990235114</v>
       </c>
       <c r="M146" s="3">
-        <v>-0.06810829826729936</v>
+        <v>-0.04495782835118391</v>
       </c>
       <c r="N146" s="3">
-        <v>-0.03770563632742475</v>
+        <v>-0.04420328632586256</v>
       </c>
       <c r="O146" s="3">
-        <v>-0.00481755632498341</v>
+        <v>-0.005864331565973046</v>
       </c>
       <c r="P146" s="3">
-        <v>-0.01837611491322007</v>
+        <v>-0.01432827343720434</v>
       </c>
       <c r="Q146" s="3">
-        <v>-0.02484180561595342</v>
+        <v>-0.01950085969772258</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -9064,46 +9064,46 @@
         <v>307</v>
       </c>
       <c r="D147" s="1">
-        <v>7538087200.712142</v>
+        <v>7085674002.163743</v>
       </c>
       <c r="E147" s="2">
-        <v>0.4572383668965512</v>
+        <v>0.4647589961539755</v>
       </c>
       <c r="F147" s="3">
-        <v>0.002472586540529006</v>
+        <v>0.0265807221288925</v>
       </c>
       <c r="G147" s="3">
-        <v>7.922455364166912E-05</v>
+        <v>0.04706112958878252</v>
       </c>
       <c r="H147" s="3">
-        <v>0.00571613459879215</v>
+        <v>0.008105054900390441</v>
       </c>
       <c r="I147" s="3">
-        <v>-0.0004546631289119804</v>
+        <v>0.003817746097350133</v>
       </c>
       <c r="J147" s="3">
-        <v>0.0058848910516097</v>
+        <v>0.005838501908397033</v>
       </c>
       <c r="K147" s="3">
-        <v>-0.0001621063345640641</v>
+        <v>0.0003315279922694036</v>
       </c>
       <c r="L147" s="3">
-        <v>-0.03703831193418463</v>
+        <v>-0.05125695417137762</v>
       </c>
       <c r="M147" s="3">
-        <v>-0.04147665971102257</v>
+        <v>-0.03308825323145051</v>
       </c>
       <c r="N147" s="3">
-        <v>-0.01056925425747006</v>
+        <v>-0.01245418242713086</v>
       </c>
       <c r="O147" s="3">
-        <v>-9.437549201325236E-05</v>
+        <v>-0.0002711652103321985</v>
       </c>
       <c r="P147" s="3">
-        <v>-0.00536568029601706</v>
+        <v>-0.006061327217430728</v>
       </c>
       <c r="Q147" s="3">
-        <v>-0.01173497388776876</v>
+        <v>-0.01304187173909507</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -1379,46 +1379,46 @@
         <v>162</v>
       </c>
       <c r="D2" s="1">
-        <v>3336806.183314285</v>
+        <v>3345414.181714286</v>
       </c>
       <c r="E2" s="2">
-        <v>1.042672211695197</v>
+        <v>1.040385282600928</v>
       </c>
       <c r="F2" s="3">
-        <v>0.04261890055589868</v>
+        <v>0.04508956145768991</v>
       </c>
       <c r="G2" s="3">
-        <v>0.04435558510308193</v>
+        <v>0.04688147269996706</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.02116555523340097</v>
+        <v>-0.01884604233111045</v>
       </c>
       <c r="I2" s="3">
-        <v>-0.005380645801133898</v>
+        <v>-0.005141924035428821</v>
       </c>
       <c r="J2" s="3">
-        <v>-0.004863669859985315</v>
+        <v>-0.002505526897568216</v>
       </c>
       <c r="K2" s="3">
-        <v>-0.009064897491835113</v>
+        <v>-0.008866308359745006</v>
       </c>
       <c r="L2" s="3">
-        <v>-0.1268589163326005</v>
+        <v>-0.1247898616319669</v>
       </c>
       <c r="M2" s="3">
-        <v>-0.06720463921323287</v>
+        <v>-0.06712285376061264</v>
       </c>
       <c r="N2" s="3">
-        <v>-0.1935021500238892</v>
+        <v>-0.1915910176779742</v>
       </c>
       <c r="O2" s="3">
-        <v>-0.06978704907779887</v>
+        <v>-0.06976929934031931</v>
       </c>
       <c r="P2" s="3">
-        <v>-0.03813476835253399</v>
+        <v>-0.03799458106017882</v>
       </c>
       <c r="Q2" s="3">
-        <v>-0.03657407181738712</v>
+        <v>-0.0365197217757576</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1432,46 +1432,46 @@
         <v>163</v>
       </c>
       <c r="D3" s="1">
-        <v>11685068.83428571</v>
+        <v>11751087.816</v>
       </c>
       <c r="E3" s="2">
-        <v>1.26568827041367</v>
+        <v>1.261521777683557</v>
       </c>
       <c r="F3" s="3">
-        <v>0.03173996175908229</v>
+        <v>0.03594646271510522</v>
       </c>
       <c r="G3" s="3">
-        <v>0.05293597831848547</v>
+        <v>0.057535789272909</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.01388888888888885</v>
+        <v>-0.009868421052631563</v>
       </c>
       <c r="I3" s="3">
-        <v>-0.01379054890624497</v>
+        <v>-0.01309916858335314</v>
       </c>
       <c r="J3" s="3">
-        <v>-0.0132577489256652</v>
+        <v>-0.009234707872359926</v>
       </c>
       <c r="K3" s="3">
-        <v>-0.01079087832595841</v>
+        <v>-0.01043276324227457</v>
       </c>
       <c r="L3" s="3">
-        <v>-0.118804605209439</v>
+        <v>-0.1152118886257859</v>
       </c>
       <c r="M3" s="3">
-        <v>-0.08969419446739528</v>
+        <v>-0.08954568949351613</v>
       </c>
       <c r="N3" s="3">
-        <v>-0.1150471504715047</v>
+        <v>-0.1114391143911439</v>
       </c>
       <c r="O3" s="3">
-        <v>-0.01932768164465547</v>
+        <v>-0.01930842456191021</v>
       </c>
       <c r="P3" s="3">
-        <v>-0.05024253639667685</v>
+        <v>-0.04998922636789535</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.03969582208441885</v>
+        <v>-0.03962613032308251</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1485,46 +1485,46 @@
         <v>164</v>
       </c>
       <c r="D4" s="1">
-        <v>92432446.02585</v>
+        <v>92614867.64255002</v>
       </c>
       <c r="E4" s="2">
-        <v>1.419779480572433</v>
+        <v>1.417953867250364</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0212480605885292</v>
+        <v>0.02256291582296786</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0005579185035369984</v>
+        <v>0.0006813358796050515</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.04070844552034188</v>
+        <v>-0.03947335918780727</v>
       </c>
       <c r="I4" s="3">
-        <v>-0.06344596627379526</v>
+        <v>-0.06301290435122676</v>
       </c>
       <c r="J4" s="3">
-        <v>-0.04941988544573353</v>
+        <v>-0.0481960150780829</v>
       </c>
       <c r="K4" s="3">
-        <v>-0.05295486298655852</v>
+        <v>-0.05276338229898495</v>
       </c>
       <c r="L4" s="3">
-        <v>-0.1597247765973559</v>
+        <v>-0.1586429235995412</v>
       </c>
       <c r="M4" s="3">
-        <v>-0.1207363313523895</v>
+        <v>-0.1206960182212786</v>
       </c>
       <c r="N4" s="3">
-        <v>-0.2298004839157511</v>
+        <v>-0.2288088532783309</v>
       </c>
       <c r="O4" s="3">
-        <v>-0.05723628950537005</v>
+        <v>-0.05722998671319797</v>
       </c>
       <c r="P4" s="3">
-        <v>-0.08684559716947401</v>
+        <v>-0.08672970026013177</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.06116837041091708</v>
+        <v>-0.06116538927201792</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1538,46 +1538,46 @@
         <v>165</v>
       </c>
       <c r="D5" s="1">
-        <v>21816830.53885714</v>
+        <v>21925697.05885714</v>
       </c>
       <c r="E5" s="2">
-        <v>1.215609503167953</v>
+        <v>1.213310703120986</v>
       </c>
       <c r="F5" s="3">
-        <v>0.05953062392673146</v>
+        <v>0.06210646823125347</v>
       </c>
       <c r="G5" s="3">
-        <v>0.05940714654098962</v>
+        <v>0.06157532028568496</v>
       </c>
       <c r="H5" s="3">
-        <v>0.005978260869565162</v>
+        <v>0.008423913043478178</v>
       </c>
       <c r="I5" s="3">
-        <v>1.195064738944936E-06</v>
+        <v>2.192638232020844E-06</v>
       </c>
       <c r="J5" s="3">
-        <v>0.003523990241257766</v>
+        <v>0.005963675792897749</v>
       </c>
       <c r="K5" s="3">
-        <v>-0.0003747128991653864</v>
+        <v>-0.0003498967126390282</v>
       </c>
       <c r="L5" s="3">
-        <v>-0.1122302158273381</v>
+        <v>-0.1100719424460432</v>
       </c>
       <c r="M5" s="3">
-        <v>-0.06152644496645026</v>
+        <v>-0.06143372540114821</v>
       </c>
       <c r="N5" s="3">
-        <v>-0.1544084056646871</v>
+        <v>-0.152352672453175</v>
       </c>
       <c r="O5" s="3">
-        <v>-0.05203589396198292</v>
+        <v>-0.05201712424519433</v>
       </c>
       <c r="P5" s="3">
-        <v>-0.03095057893280782</v>
+        <v>-0.03089181105689362</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.02546095506176014</v>
+        <v>-0.02546075871368392</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1591,46 +1591,46 @@
         <v>166</v>
       </c>
       <c r="D6" s="1">
-        <v>4226754.420428571</v>
+        <v>4251089.92</v>
       </c>
       <c r="E6" s="2">
-        <v>0.9492752795973984</v>
+        <v>0.9468222116542426</v>
       </c>
       <c r="F6" s="3">
-        <v>0.0449672424061941</v>
+        <v>0.04824300178677782</v>
       </c>
       <c r="G6" s="3">
-        <v>0.1020383532328707</v>
+        <v>0.1052256747177317</v>
       </c>
       <c r="H6" s="3">
-        <v>0.006886657101865143</v>
+        <v>0.0100430416068867</v>
       </c>
       <c r="I6" s="3">
-        <v>-0.002679043453880298</v>
+        <v>-0.002443669512134497</v>
       </c>
       <c r="J6" s="3">
-        <v>0.01916932907348238</v>
+        <v>0.02236421725239615</v>
       </c>
       <c r="K6" s="3">
-        <v>-0.0001852401277744889</v>
+        <v>-0.0001610343819221503</v>
       </c>
       <c r="L6" s="3">
-        <v>-0.1281987577639753</v>
+        <v>-0.1254658385093168</v>
       </c>
       <c r="M6" s="3">
-        <v>-0.06744825936763389</v>
+        <v>-0.06732885498583691</v>
       </c>
       <c r="N6" s="3">
-        <v>-0.1071246819338423</v>
+        <v>-0.1043256997455471</v>
       </c>
       <c r="O6" s="3">
-        <v>-0.029012727630127</v>
+        <v>-0.02899195608450462</v>
       </c>
       <c r="P6" s="3">
-        <v>-0.03381674974770419</v>
+        <v>-0.03374494468387953</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.03562375474693323</v>
+        <v>-0.03564021235298438</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1644,46 +1644,46 @@
         <v>167</v>
       </c>
       <c r="D7" s="1">
-        <v>14413686.97064286</v>
+        <v>14492218.3533</v>
       </c>
       <c r="E7" s="2">
-        <v>1.255413733310589</v>
+        <v>1.252114099123269</v>
       </c>
       <c r="F7" s="3">
-        <v>0.03496577145866246</v>
+        <v>0.03875724065297519</v>
       </c>
       <c r="G7" s="3">
-        <v>0.007977046438441198</v>
+        <v>0.009488795844651357</v>
       </c>
       <c r="H7" s="3">
-        <v>0.002141545992249633</v>
+        <v>0.005812767693248957</v>
       </c>
       <c r="I7" s="3">
-        <v>0.0008227204545076389</v>
+        <v>0.0009686680188038184</v>
       </c>
       <c r="J7" s="3">
-        <v>-0.01106973935795513</v>
+        <v>-0.00744691556807897</v>
       </c>
       <c r="K7" s="3">
-        <v>0.0001134120266744334</v>
+        <v>0.0001372507337641048</v>
       </c>
       <c r="L7" s="3">
-        <v>-0.1279616647439879</v>
+        <v>-0.1247670600763156</v>
       </c>
       <c r="M7" s="3">
-        <v>-0.09532416523331852</v>
+        <v>-0.09519445128498921</v>
       </c>
       <c r="N7" s="3">
-        <v>-0.07327423613730667</v>
+        <v>-0.06987929083364773</v>
       </c>
       <c r="O7" s="3">
-        <v>-0.0006037270027212781</v>
+        <v>-0.0006009983317001231</v>
       </c>
       <c r="P7" s="3">
-        <v>-0.03658041205531612</v>
+        <v>-0.03487102004994181</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.02913813278022038</v>
+        <v>-0.02784971439452564</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1697,46 +1697,46 @@
         <v>168</v>
       </c>
       <c r="D8" s="1">
-        <v>17957502.97367143</v>
+        <v>18036957.318</v>
       </c>
       <c r="E8" s="2">
-        <v>1.404777808286165</v>
+        <v>1.400073328664257</v>
       </c>
       <c r="F8" s="3">
-        <v>0.05133819951338192</v>
+        <v>0.05515004055150027</v>
       </c>
       <c r="G8" s="3">
-        <v>0.031360874903465</v>
+        <v>0.03439234088445697</v>
       </c>
       <c r="H8" s="3">
-        <v>-0.017880142435033</v>
+        <v>-0.01431926661110701</v>
       </c>
       <c r="I8" s="3">
-        <v>-0.009910115323408616</v>
+        <v>-0.009418265728325867</v>
       </c>
       <c r="J8" s="3">
-        <v>-0.02782360881955896</v>
+        <v>-0.02429878506074695</v>
       </c>
       <c r="K8" s="3">
-        <v>-0.01883377923836437</v>
+        <v>-0.01840813856727965</v>
       </c>
       <c r="L8" s="3">
-        <v>-0.2239583333333334</v>
+        <v>-0.2211446360153257</v>
       </c>
       <c r="M8" s="3">
-        <v>-0.1573102783995398</v>
+        <v>-0.1571830195502014</v>
       </c>
       <c r="N8" s="3">
-        <v>-0.2027675276752767</v>
+        <v>-0.1998769987699877</v>
       </c>
       <c r="O8" s="3">
-        <v>-0.05031817314910932</v>
+        <v>-0.05029972427563824</v>
       </c>
       <c r="P8" s="3">
-        <v>-0.08807202881895207</v>
+        <v>-0.08779557905874054</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0626946327735632</v>
+        <v>-0.06270784341167478</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1750,46 +1750,46 @@
         <v>169</v>
       </c>
       <c r="D9" s="1">
-        <v>30754311.08055715</v>
+        <v>30849240.89302857</v>
       </c>
       <c r="E9" s="2">
-        <v>1.423071666316079</v>
+        <v>1.419876146107286</v>
       </c>
       <c r="F9" s="3">
-        <v>0.02223926380368109</v>
+        <v>0.02453987730061356</v>
       </c>
       <c r="G9" s="3">
-        <v>0.002462310531548032</v>
+        <v>0.003008901721602115</v>
       </c>
       <c r="H9" s="3">
-        <v>-0.05460992907801408</v>
+        <v>-0.05248226950354604</v>
       </c>
       <c r="I9" s="3">
-        <v>-0.06717117729545487</v>
+        <v>-0.06645985940474389</v>
       </c>
       <c r="J9" s="3">
-        <v>-0.06978367062107473</v>
+        <v>-0.06769016050244252</v>
       </c>
       <c r="K9" s="3">
-        <v>-0.08486922631041749</v>
+        <v>-0.08450417029660579</v>
       </c>
       <c r="L9" s="3">
-        <v>-0.2070196311719215</v>
+        <v>-0.2052349791790601</v>
       </c>
       <c r="M9" s="3">
-        <v>-0.1466899027259664</v>
+        <v>-0.1466196984224897</v>
       </c>
       <c r="N9" s="3">
-        <v>-0.2227405247813412</v>
+        <v>-0.220991253644315</v>
       </c>
       <c r="O9" s="3">
-        <v>-0.0585301068920755</v>
+        <v>-0.05852016322394879</v>
       </c>
       <c r="P9" s="3">
-        <v>-0.115779564518192</v>
+        <v>-0.1155619343595477</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0813589134396244</v>
+        <v>-0.08138874272687154</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1803,46 +1803,46 @@
         <v>170</v>
       </c>
       <c r="D10" s="1">
-        <v>4149102.190063057</v>
+        <v>4165204.996747429</v>
       </c>
       <c r="E10" s="2">
-        <v>1.020235256799567</v>
+        <v>1.01816084130515</v>
       </c>
       <c r="F10" s="3">
-        <v>0.04067077872012319</v>
+        <v>0.04279105628373168</v>
       </c>
       <c r="G10" s="3">
-        <v>0.03633997483854807</v>
+        <v>0.03841007740050561</v>
       </c>
       <c r="H10" s="3">
-        <v>-0.008994126284875302</v>
+        <v>-0.0069750367107195</v>
       </c>
       <c r="I10" s="3">
-        <v>-0.0024423251860009</v>
+        <v>-0.002311129703589691</v>
       </c>
       <c r="J10" s="3">
-        <v>-0.01978939724037782</v>
+        <v>-0.01779230210602763</v>
       </c>
       <c r="K10" s="3">
-        <v>-0.01693910885379208</v>
+        <v>-0.01668610464384602</v>
       </c>
       <c r="L10" s="3">
-        <v>-0.1455926570659916</v>
+        <v>-0.1438518752967241</v>
       </c>
       <c r="M10" s="3">
-        <v>-0.09732791246319915</v>
+        <v>-0.09725570550916988</v>
       </c>
       <c r="N10" s="3">
-        <v>-0.1542919799498748</v>
+        <v>-0.1525689223057644</v>
       </c>
       <c r="O10" s="3">
-        <v>-0.03869208268234143</v>
+        <v>-0.03868093820925582</v>
       </c>
       <c r="P10" s="3">
-        <v>-0.05713351065849562</v>
+        <v>-0.05697090507650795</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.05600032960801698</v>
+        <v>-0.05595472028120688</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1856,46 +1856,46 @@
         <v>171</v>
       </c>
       <c r="D11" s="1">
-        <v>67216531.21221428</v>
+        <v>67304322.81668572</v>
       </c>
       <c r="E11" s="2">
-        <v>1.477902839266316</v>
+        <v>1.477295260296637</v>
       </c>
       <c r="F11" s="3">
-        <v>0.04483323180018289</v>
+        <v>0.04568991775814804</v>
       </c>
       <c r="G11" s="3">
-        <v>0.1198570623183738</v>
+        <v>0.1205970959764641</v>
       </c>
       <c r="H11" s="3">
-        <v>0.04043601895734605</v>
+        <v>0.0412890995260663</v>
       </c>
       <c r="I11" s="3">
-        <v>0.0002076503629959616</v>
+        <v>0.0002177522948023928</v>
       </c>
       <c r="J11" s="3">
-        <v>-0.05678244281368684</v>
+        <v>-0.05600907419182984</v>
       </c>
       <c r="K11" s="3">
-        <v>-0.04334730572918889</v>
+        <v>-0.04324090288276959</v>
       </c>
       <c r="L11" s="3">
-        <v>-0.1055427891588846</v>
+        <v>-0.1048094004139573</v>
       </c>
       <c r="M11" s="3">
-        <v>-0.09129560637491294</v>
+        <v>-0.09126933756892534</v>
       </c>
       <c r="N11" s="3">
-        <v>-0.1973705377381944</v>
+        <v>-0.1967124409540941</v>
       </c>
       <c r="O11" s="3">
-        <v>-0.05382490970407307</v>
+        <v>-0.05382009394519387</v>
       </c>
       <c r="P11" s="3">
-        <v>-0.06732145605205092</v>
+        <v>-0.06725512022584747</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.04555201753687118</v>
+        <v>-0.04552584851070518</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1909,46 +1909,46 @@
         <v>172</v>
       </c>
       <c r="D12" s="1">
-        <v>20354354.55085714</v>
+        <v>20299514.2016</v>
       </c>
       <c r="E12" s="2">
-        <v>0.9707027933117288</v>
+        <v>0.9748958939307861</v>
       </c>
       <c r="F12" s="3">
-        <v>0.00513374763577415</v>
+        <v>0.0008105917319643947</v>
       </c>
       <c r="G12" s="3">
-        <v>0.0009657968075788215</v>
+        <v>0.0007145240602019182</v>
       </c>
       <c r="H12" s="3">
-        <v>0.07359307359307367</v>
+        <v>0.06897546897546908</v>
       </c>
       <c r="I12" s="3">
-        <v>0.1036848062702111</v>
+        <v>0.1020931752581616</v>
       </c>
       <c r="J12" s="3">
-        <v>0.06225014277555678</v>
+        <v>0.05768132495716732</v>
       </c>
       <c r="K12" s="3">
-        <v>0.05908514438407062</v>
+        <v>0.05851731694429936</v>
       </c>
       <c r="L12" s="3">
-        <v>-0.05655592188688813</v>
+        <v>-0.06061374587877245</v>
       </c>
       <c r="M12" s="3">
-        <v>-0.01711530128642934</v>
+        <v>-0.01720729097703301</v>
       </c>
       <c r="N12" s="3">
-        <v>-0.1255289139633286</v>
+        <v>-0.1292900799247767</v>
       </c>
       <c r="O12" s="3">
-        <v>-0.03841138070369302</v>
+        <v>-0.03845207434914278</v>
       </c>
       <c r="P12" s="3">
-        <v>-0.008074752239425258</v>
+        <v>-0.008246383458415548</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.008318459877793052</v>
+        <v>-0.008458732373121483</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1962,46 +1962,46 @@
         <v>173</v>
       </c>
       <c r="D13" s="1">
-        <v>7665394.270999999</v>
+        <v>7680876.714000001</v>
       </c>
       <c r="E13" s="2">
-        <v>1.226243191538478</v>
+        <v>1.224455665020201</v>
       </c>
       <c r="F13" s="3">
-        <v>0.05061349693251538</v>
+        <v>0.05214723926380373</v>
       </c>
       <c r="G13" s="3">
-        <v>0.01422361918892396</v>
+        <v>0.01497268409672752</v>
       </c>
       <c r="H13" s="3">
-        <v>-0.02767920511000704</v>
+        <v>-0.02625975869410924</v>
       </c>
       <c r="I13" s="3">
-        <v>-0.01190251484179024</v>
+        <v>-0.01170547396175634</v>
       </c>
       <c r="J13" s="3">
-        <v>-0.04794996525364833</v>
+        <v>-0.04656011118832519</v>
       </c>
       <c r="K13" s="3">
-        <v>-0.02799947243192167</v>
+        <v>-0.02782956917366146</v>
       </c>
       <c r="L13" s="3">
-        <v>-0.1646341463414633</v>
+        <v>-0.1634146341463414</v>
       </c>
       <c r="M13" s="3">
-        <v>-0.1156928818287888</v>
+        <v>-0.1156451151985425</v>
       </c>
       <c r="N13" s="3">
-        <v>-0.1701998788612961</v>
+        <v>-0.1689884918231374</v>
       </c>
       <c r="O13" s="3">
-        <v>-0.03716980806903188</v>
+        <v>-0.03716321678532071</v>
       </c>
       <c r="P13" s="3">
-        <v>-0.07184617713035525</v>
+        <v>-0.07173734218610196</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.05859047995219861</v>
+        <v>-0.05858712915091006</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2015,46 +2015,46 @@
         <v>174</v>
       </c>
       <c r="D14" s="1">
-        <v>140161933.12494</v>
+        <v>141467235.4823314</v>
       </c>
       <c r="E14" s="2">
-        <v>1.654203719492381</v>
+        <v>1.643385216147023</v>
       </c>
       <c r="F14" s="3">
-        <v>0.09158751696065137</v>
+        <v>0.09995477159656269</v>
       </c>
       <c r="G14" s="3">
-        <v>0.1765278904430867</v>
+        <v>0.1869207057917524</v>
       </c>
       <c r="H14" s="3">
-        <v>0.04356285806939791</v>
+        <v>0.0515619932980218</v>
       </c>
       <c r="I14" s="3">
-        <v>0.0318601756654893</v>
+        <v>0.03313278709519263</v>
       </c>
       <c r="J14" s="3">
-        <v>0.02083113037961304</v>
+        <v>0.02865602199428996</v>
       </c>
       <c r="K14" s="3">
-        <v>0.001450573314004509</v>
+        <v>0.001583023042203043</v>
       </c>
       <c r="L14" s="3">
-        <v>-0.1515950435011863</v>
+        <v>-0.145091835837947</v>
       </c>
       <c r="M14" s="3">
-        <v>-0.1183040214498259</v>
+        <v>-0.1179915294036845</v>
       </c>
       <c r="N14" s="3">
-        <v>-0.08786848072562356</v>
+        <v>-0.08087679516250945</v>
       </c>
       <c r="O14" s="3">
-        <v>-0.0116549432720905</v>
+        <v>-0.01162536627181985</v>
       </c>
       <c r="P14" s="3">
-        <v>-0.04320895370580952</v>
+        <v>-0.0396468860601532</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.02612069674167392</v>
+        <v>-0.02412513248300163</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2068,46 +2068,46 @@
         <v>175</v>
       </c>
       <c r="D15" s="1">
-        <v>13633198.2848</v>
+        <v>13684926.83872857</v>
       </c>
       <c r="E15" s="2">
-        <v>1.41660332488135</v>
+        <v>1.41320428963548</v>
       </c>
       <c r="F15" s="3">
-        <v>0.0550980392156863</v>
+        <v>0.05813725490196069</v>
       </c>
       <c r="G15" s="3">
-        <v>0.01828509800440548</v>
+        <v>0.01991620030926301</v>
       </c>
       <c r="H15" s="3">
-        <v>-0.0008355770123478794</v>
+        <v>0.002042521585739467</v>
       </c>
       <c r="I15" s="3">
-        <v>-6.007704567774336E-05</v>
+        <v>-4.837520168949202E-05</v>
       </c>
       <c r="J15" s="3">
-        <v>-0.04081996434937617</v>
+        <v>-0.03805704099821763</v>
       </c>
       <c r="K15" s="3">
-        <v>-0.006459938328815465</v>
+        <v>-0.006297679220532676</v>
       </c>
       <c r="L15" s="3">
-        <v>-0.2352732182192851</v>
+        <v>-0.2330704185319406</v>
       </c>
       <c r="M15" s="3">
-        <v>-0.193439393907416</v>
+        <v>-0.1933356139685416</v>
       </c>
       <c r="N15" s="3">
-        <v>-0.2866706436004506</v>
+        <v>-0.2846158944786903</v>
       </c>
       <c r="O15" s="3">
-        <v>-0.07694772101092034</v>
+        <v>-0.07693209001917088</v>
       </c>
       <c r="P15" s="3">
-        <v>-0.09994966611811572</v>
+        <v>-0.09981664659453714</v>
       </c>
       <c r="Q15" s="3">
-        <v>-0.07055586017806868</v>
+        <v>-0.07063143476608304</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2121,46 +2121,46 @@
         <v>176</v>
       </c>
       <c r="D16" s="1">
-        <v>34817987.49778286</v>
+        <v>34938975.77826858</v>
       </c>
       <c r="E16" s="2">
-        <v>1.530283579998016</v>
+        <v>1.526280066119446</v>
       </c>
       <c r="F16" s="3">
-        <v>0.03553299492385783</v>
+        <v>0.03891708967851105</v>
       </c>
       <c r="G16" s="3">
-        <v>0.009801081776747584</v>
+        <v>0.01155219848364761</v>
       </c>
       <c r="H16" s="3">
-        <v>-0.04524180967238699</v>
+        <v>-0.04212168486739471</v>
       </c>
       <c r="I16" s="3">
-        <v>-0.0784269876276141</v>
+        <v>-0.0772593506679653</v>
       </c>
       <c r="J16" s="3">
-        <v>-0.06564885496183213</v>
+        <v>-0.06259541984732823</v>
       </c>
       <c r="K16" s="3">
-        <v>-0.06738324204501416</v>
+        <v>-0.06687072475587552</v>
       </c>
       <c r="L16" s="3">
-        <v>-0.184</v>
+        <v>-0.1813333333333333</v>
       </c>
       <c r="M16" s="3">
-        <v>-0.1655803766511512</v>
+        <v>-0.165471906266149</v>
       </c>
       <c r="N16" s="3">
-        <v>-0.09734513274336286</v>
+        <v>-0.09439528023598814</v>
       </c>
       <c r="O16" s="3">
-        <v>-2.904122700447501E-05</v>
+        <v>-2.87825255300505E-05</v>
       </c>
       <c r="P16" s="3">
-        <v>-0.08236418739418851</v>
+        <v>-0.08063300249593183</v>
       </c>
       <c r="Q16" s="3">
-        <v>-0.05382282635111023</v>
+        <v>-0.05282975535475645</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2174,46 +2174,46 @@
         <v>177</v>
       </c>
       <c r="D17" s="1">
-        <v>14436147.82036114</v>
+        <v>14462051.924961</v>
       </c>
       <c r="E17" s="2">
-        <v>1.280962227079466</v>
+        <v>1.280035304271706</v>
       </c>
       <c r="F17" s="3">
-        <v>0.05705705705705696</v>
+        <v>0.0580580580580581</v>
       </c>
       <c r="G17" s="3">
-        <v>0.09642243757921677</v>
+        <v>0.09767674333748509</v>
       </c>
       <c r="H17" s="3">
-        <v>0.01440922190201726</v>
+        <v>0.01536983669548521</v>
       </c>
       <c r="I17" s="3">
-        <v>0.0001857764271152843</v>
+        <v>0.0001955446353911134</v>
       </c>
       <c r="J17" s="3">
-        <v>-0.00876095118898631</v>
+        <v>-0.007822277847309088</v>
       </c>
       <c r="K17" s="3">
-        <v>-2.725485624528343E-05</v>
+        <v>-2.545373410735353E-05</v>
       </c>
       <c r="L17" s="3">
-        <v>-0.1601272534464476</v>
+        <v>-0.1593319194061506</v>
       </c>
       <c r="M17" s="3">
-        <v>-0.1135168261370648</v>
+        <v>-0.1134812227469045</v>
       </c>
       <c r="N17" s="3">
-        <v>-0.2091862206689966</v>
+        <v>-0.2084373439840239</v>
       </c>
       <c r="O17" s="3">
-        <v>-0.05715200426450159</v>
+        <v>-0.05714579376137215</v>
       </c>
       <c r="P17" s="3">
-        <v>-0.05677204049665503</v>
+        <v>-0.05675333824050594</v>
       </c>
       <c r="Q17" s="3">
-        <v>-0.04431983964592977</v>
+        <v>-0.04433732261220447</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2227,46 +2227,46 @@
         <v>178</v>
       </c>
       <c r="D18" s="1">
-        <v>20552923.46439</v>
+        <v>20629150.73677857</v>
       </c>
       <c r="E18" s="2">
-        <v>1.600287131708348</v>
+        <v>1.595791178389734</v>
       </c>
       <c r="F18" s="3">
-        <v>0.002211215283920044</v>
+        <v>0.005218468070051364</v>
       </c>
       <c r="G18" s="3">
-        <v>-0.01456892290375413</v>
+        <v>-0.01316998353257147</v>
       </c>
       <c r="H18" s="3">
-        <v>-0.07176210371098553</v>
+        <v>-0.06897681658065043</v>
       </c>
       <c r="I18" s="3">
-        <v>-0.09612667198713552</v>
+        <v>-0.09519530773490817</v>
       </c>
       <c r="J18" s="3">
-        <v>-0.08228719527010613</v>
+        <v>-0.07953348991657889</v>
       </c>
       <c r="K18" s="3">
-        <v>-0.09478760022562967</v>
+        <v>-0.09441215965185633</v>
       </c>
       <c r="L18" s="3">
-        <v>-0.1681838202907063</v>
+        <v>-0.1656878578769638</v>
       </c>
       <c r="M18" s="3">
-        <v>-0.10557870921286</v>
+        <v>-0.1055074324108832</v>
       </c>
       <c r="N18" s="3">
-        <v>-0.07183813892529489</v>
+        <v>-0.06905307994757531</v>
       </c>
       <c r="O18" s="3">
-        <v>2.176493967596753E-06</v>
+        <v>2.231142447484808E-06</v>
       </c>
       <c r="P18" s="3">
-        <v>-0.08331286957546227</v>
+        <v>-0.08173261979971583</v>
       </c>
       <c r="Q18" s="3">
-        <v>-0.05206120072122535</v>
+        <v>-0.05121761600549126</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2280,46 +2280,46 @@
         <v>179</v>
       </c>
       <c r="D19" s="1">
-        <v>142316549.4447143</v>
+        <v>141833430.279</v>
       </c>
       <c r="E19" s="2">
-        <v>1.73249205117339</v>
+        <v>1.740023366772896</v>
       </c>
       <c r="F19" s="3">
-        <v>-0.09199006925388745</v>
+        <v>-0.09564876519012161</v>
       </c>
       <c r="G19" s="3">
-        <v>-0.2882957265335805</v>
+        <v>-0.2943559798093657</v>
       </c>
       <c r="H19" s="3">
-        <v>0.1166639884300177</v>
+        <v>0.1121645508597139</v>
       </c>
       <c r="I19" s="3">
-        <v>0.1479751223520844</v>
+        <v>0.1465721528544838</v>
       </c>
       <c r="J19" s="3">
-        <v>0.1493549454184584</v>
+        <v>0.1447237843202116</v>
       </c>
       <c r="K19" s="3">
-        <v>0.2281356307908109</v>
+        <v>0.2273321462211645</v>
       </c>
       <c r="L19" s="3">
-        <v>0.2150725651337646</v>
+        <v>0.2101766043014512</v>
       </c>
       <c r="M19" s="3">
-        <v>0.06457046432740308</v>
+        <v>0.06448456246133633</v>
       </c>
       <c r="N19" s="3">
-        <v>0.1626233896603646</v>
+        <v>0.1579387652668561</v>
       </c>
       <c r="O19" s="3">
-        <v>0.05011768725682122</v>
+        <v>0.05009991763267924</v>
       </c>
       <c r="P19" s="3">
-        <v>0.1135969269938838</v>
+        <v>0.1112116638640962</v>
       </c>
       <c r="Q19" s="3">
-        <v>0.06556851266183089</v>
+        <v>0.06391389103604568</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2333,46 +2333,46 @@
         <v>180</v>
       </c>
       <c r="D20" s="1">
-        <v>220385718.508</v>
+        <v>222112155.5965714</v>
       </c>
       <c r="E20" s="2">
-        <v>1.602250473550892</v>
+        <v>1.592666867575559</v>
       </c>
       <c r="F20" s="3">
-        <v>0.02873900293255128</v>
+        <v>0.03548387096774194</v>
       </c>
       <c r="G20" s="3">
-        <v>0.007067724967819893</v>
+        <v>0.009853742253550676</v>
       </c>
       <c r="H20" s="3">
-        <v>0.01036866359447005</v>
+        <v>0.01699308755760373</v>
       </c>
       <c r="I20" s="3">
-        <v>0.006710745605207898</v>
+        <v>0.007578075043634024</v>
       </c>
       <c r="J20" s="3">
-        <v>-0.01155255001408845</v>
+        <v>-0.005071851225697322</v>
       </c>
       <c r="K20" s="3">
-        <v>0.003745532324325211</v>
+        <v>0.004090775447398675</v>
       </c>
       <c r="L20" s="3">
-        <v>-0.1395634044640667</v>
+        <v>-0.1339220014716703</v>
       </c>
       <c r="M20" s="3">
-        <v>-0.0796088034918624</v>
+        <v>-0.07938568702810653</v>
       </c>
       <c r="N20" s="3">
-        <v>-0.1609662760105238</v>
+        <v>-0.1554651997129873</v>
       </c>
       <c r="O20" s="3">
-        <v>-0.02368894688969189</v>
+        <v>-0.02365701204477673</v>
       </c>
       <c r="P20" s="3">
-        <v>-0.03793163558376859</v>
+        <v>-0.03764745579035392</v>
       </c>
       <c r="Q20" s="3">
-        <v>-0.02367397370755952</v>
+        <v>-0.023637997723694</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2386,46 +2386,46 @@
         <v>181</v>
       </c>
       <c r="D21" s="1">
-        <v>93363324.00827143</v>
+        <v>93632013.47477141</v>
       </c>
       <c r="E21" s="2">
-        <v>1.343091992877795</v>
+        <v>1.340044290556674</v>
       </c>
       <c r="F21" s="3">
-        <v>0.05302226935312836</v>
+        <v>0.05549664192294095</v>
       </c>
       <c r="G21" s="3">
-        <v>0.03758412120249923</v>
+        <v>0.03972626729660783</v>
       </c>
       <c r="H21" s="3">
-        <v>-0.003678929765886254</v>
+        <v>-0.001337792642140507</v>
       </c>
       <c r="I21" s="3">
-        <v>-0.003531836903197538</v>
+        <v>-0.003389123831898887</v>
       </c>
       <c r="J21" s="3">
-        <v>-0.02423845397969216</v>
+        <v>-0.02194562725188352</v>
       </c>
       <c r="K21" s="3">
-        <v>-0.0005001181631430475</v>
+        <v>-0.0004759511955174859</v>
       </c>
       <c r="L21" s="3">
-        <v>-0.2535705337008269</v>
+        <v>-0.2518165873214734</v>
       </c>
       <c r="M21" s="3">
-        <v>-0.1835045539679275</v>
+        <v>-0.183419014891095</v>
       </c>
       <c r="N21" s="3">
-        <v>-0.2662561576354681</v>
+        <v>-0.2645320197044336</v>
       </c>
       <c r="O21" s="3">
-        <v>-0.09059074584412058</v>
+        <v>-0.09057713130945604</v>
       </c>
       <c r="P21" s="3">
-        <v>-0.09200233606553526</v>
+        <v>-0.09194748304330623</v>
       </c>
       <c r="Q21" s="3">
-        <v>-0.06850039800207965</v>
+        <v>-0.06861525674282745</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2439,46 +2439,46 @@
         <v>182</v>
       </c>
       <c r="D22" s="1">
-        <v>2911796.808857142</v>
+        <v>2922173.1357</v>
       </c>
       <c r="E22" s="2">
-        <v>1.107475435354586</v>
+        <v>1.105430793048388</v>
       </c>
       <c r="F22" s="3">
-        <v>0.04332449160035361</v>
+        <v>0.04597701149425291</v>
       </c>
       <c r="G22" s="3">
-        <v>0.03025047262971252</v>
+        <v>0.03251394647195047</v>
       </c>
       <c r="H22" s="3">
-        <v>-0.002535925612848786</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>-0.0002448369429007941</v>
+        <v>-0.0002092040525059609</v>
       </c>
       <c r="J22" s="3">
-        <v>-0.01172529313232832</v>
+        <v>-0.009212730318257872</v>
       </c>
       <c r="K22" s="3">
-        <v>-0.002229666292530764</v>
+        <v>-0.002128063751386324</v>
       </c>
       <c r="L22" s="3">
-        <v>-0.144927536231884</v>
+        <v>-0.1427536231884057</v>
       </c>
       <c r="M22" s="3">
-        <v>-0.09641124210904639</v>
+        <v>-0.09631916680675902</v>
       </c>
       <c r="N22" s="3">
-        <v>-0.1856452726017944</v>
+        <v>-0.1835748792270532</v>
       </c>
       <c r="O22" s="3">
-        <v>-0.06010278119632466</v>
+        <v>-0.06008639339375788</v>
       </c>
       <c r="P22" s="3">
-        <v>-0.04932045420078858</v>
+        <v>-0.04922361527907267</v>
       </c>
       <c r="Q22" s="3">
-        <v>-0.04453412926942022</v>
+        <v>-0.04452889822557893</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2492,46 +2492,46 @@
         <v>183</v>
       </c>
       <c r="D23" s="1">
-        <v>29675005.72874286</v>
+        <v>29695311.07157143</v>
       </c>
       <c r="E23" s="2">
-        <v>1.159397383085818</v>
+        <v>1.160160479213342</v>
       </c>
       <c r="F23" s="3">
-        <v>0.05725544738062123</v>
+        <v>0.05656003708854886</v>
       </c>
       <c r="G23" s="3">
-        <v>0.0004387131491536262</v>
+        <v>0.0004094319256718636</v>
       </c>
       <c r="H23" s="3">
-        <v>0.08724672228843867</v>
+        <v>0.0865315852205006</v>
       </c>
       <c r="I23" s="3">
-        <v>0.1642511237764913</v>
+        <v>0.1640206114578883</v>
       </c>
       <c r="J23" s="3">
-        <v>0.0810618630007111</v>
+        <v>0.08035079402702058</v>
       </c>
       <c r="K23" s="3">
-        <v>0.1096470929934426</v>
+        <v>0.1095665201451105</v>
       </c>
       <c r="L23" s="3">
-        <v>0.03330312641594923</v>
+        <v>0.03262347077480736</v>
       </c>
       <c r="M23" s="3">
-        <v>-0.003233686322429884</v>
+        <v>-0.003238780623363808</v>
       </c>
       <c r="N23" s="3">
-        <v>-0.05803387030152832</v>
+        <v>-0.05865344898802155</v>
       </c>
       <c r="O23" s="3">
-        <v>-0.0007888673570341955</v>
+        <v>-0.0007897343986097746</v>
       </c>
       <c r="P23" s="3">
-        <v>-0.001397486586638129</v>
+        <v>-0.001414674348845972</v>
       </c>
       <c r="Q23" s="3">
-        <v>-0.001205355995300438</v>
+        <v>-0.001219378158619233</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2545,46 +2545,46 @@
         <v>184</v>
       </c>
       <c r="D24" s="1">
-        <v>19162491.81217143</v>
+        <v>19208814.35647143</v>
       </c>
       <c r="E24" s="2">
-        <v>1.404346576079622</v>
+        <v>1.402529827598277</v>
       </c>
       <c r="F24" s="3">
-        <v>0.0604395604395605</v>
+        <v>0.06181318681318687</v>
       </c>
       <c r="G24" s="3">
-        <v>0.1003967381614055</v>
+        <v>0.1021073176629362</v>
       </c>
       <c r="H24" s="3">
-        <v>0.01312335958005251</v>
+        <v>0.01443569553805775</v>
       </c>
       <c r="I24" s="3">
-        <v>0.00582048174560435</v>
+        <v>0.005925546929078547</v>
       </c>
       <c r="J24" s="3">
-        <v>-0.01404853128991061</v>
+        <v>-0.01277139208173692</v>
       </c>
       <c r="K24" s="3">
-        <v>1.827409622177424E-06</v>
+        <v>2.197733516219589E-06</v>
       </c>
       <c r="L24" s="3">
-        <v>-0.193312434691745</v>
+        <v>-0.1922675026123301</v>
       </c>
       <c r="M24" s="3">
-        <v>-0.1290577383983236</v>
+        <v>-0.1290075464244755</v>
       </c>
       <c r="N24" s="3">
-        <v>-0.3038773669972948</v>
+        <v>-0.30297565374211</v>
       </c>
       <c r="O24" s="3">
-        <v>-0.1093167563844013</v>
+        <v>-0.1093068432172032</v>
       </c>
       <c r="P24" s="3">
-        <v>-0.06452795549435072</v>
+        <v>-0.06450267434547965</v>
       </c>
       <c r="Q24" s="3">
-        <v>-0.04594873985771173</v>
+        <v>-0.04599023355954965</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2598,46 +2598,46 @@
         <v>185</v>
       </c>
       <c r="D25" s="1">
-        <v>2754243.479767143</v>
+        <v>2761072.157215714</v>
       </c>
       <c r="E25" s="2">
-        <v>0.8911469275872925</v>
+        <v>0.8895801742297359</v>
       </c>
       <c r="F25" s="3">
-        <v>0.04978869519281576</v>
+        <v>0.05163761225567896</v>
       </c>
       <c r="G25" s="3">
-        <v>0.06972790064251022</v>
+        <v>0.07192855315397673</v>
       </c>
       <c r="H25" s="3">
-        <v>-0.01291444182292312</v>
+        <v>-0.0111759592698373</v>
       </c>
       <c r="I25" s="3">
-        <v>-0.002811027254977002</v>
+        <v>-0.002699323702754005</v>
       </c>
       <c r="J25" s="3">
-        <v>-0.02334439120285046</v>
+        <v>-0.02162427816685094</v>
       </c>
       <c r="K25" s="3">
-        <v>-0.00576225876470227</v>
+        <v>-0.005650607693346087</v>
       </c>
       <c r="L25" s="3">
-        <v>-0.1209775516974455</v>
+        <v>-0.119429392900586</v>
       </c>
       <c r="M25" s="3">
-        <v>-0.08338157594524517</v>
+        <v>-0.08331654274055202</v>
       </c>
       <c r="N25" s="3">
-        <v>-0.1552603613177471</v>
+        <v>-0.1537725823591923</v>
       </c>
       <c r="O25" s="3">
-        <v>-0.04640437198810887</v>
+        <v>-0.04639323845823055</v>
       </c>
       <c r="P25" s="3">
-        <v>-0.04457191735497372</v>
+        <v>-0.04448357521694905</v>
       </c>
       <c r="Q25" s="3">
-        <v>-0.05001635081169897</v>
+        <v>-0.05000513332647753</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2651,46 +2651,46 @@
         <v>186</v>
       </c>
       <c r="D26" s="1">
-        <v>9408867.263714286</v>
+        <v>9439690.393635714</v>
       </c>
       <c r="E26" s="2">
-        <v>1.004045393754222</v>
+        <v>1.002009232199965</v>
       </c>
       <c r="F26" s="3">
-        <v>0.02045964125560523</v>
+        <v>0.02270179372197304</v>
       </c>
       <c r="G26" s="3">
-        <v>0.004113948989860132</v>
+        <v>0.004914929658899547</v>
       </c>
       <c r="H26" s="3">
-        <v>-0.04635935044525932</v>
+        <v>-0.04426401257202717</v>
       </c>
       <c r="I26" s="3">
-        <v>-0.08599300786330168</v>
+        <v>-0.08519597893706886</v>
       </c>
       <c r="J26" s="3">
-        <v>-0.04735740450026162</v>
+        <v>-0.04526425954997372</v>
       </c>
       <c r="K26" s="3">
-        <v>-0.0602570714644786</v>
+        <v>-0.05994248098553986</v>
       </c>
       <c r="L26" s="3">
-        <v>-0.1858228980322005</v>
+        <v>-0.1840339892665474</v>
       </c>
       <c r="M26" s="3">
-        <v>-0.1215048645049714</v>
+        <v>-0.1214358665551848</v>
       </c>
       <c r="N26" s="3">
-        <v>-0.2089941342602651</v>
+        <v>-0.2072561373017597</v>
       </c>
       <c r="O26" s="3">
-        <v>-0.05123368620698645</v>
+        <v>-0.05122374567643973</v>
       </c>
       <c r="P26" s="3">
-        <v>-0.09088096798472498</v>
+        <v>-0.09068917377036234</v>
       </c>
       <c r="Q26" s="3">
-        <v>-0.09051479997822844</v>
+        <v>-0.09050732354156993</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2704,46 +2704,46 @@
         <v>187</v>
       </c>
       <c r="D27" s="1">
-        <v>10720550.51297143</v>
+        <v>10731906.59207143</v>
       </c>
       <c r="E27" s="2">
-        <v>1.709329060889275</v>
+        <v>1.7084456866976</v>
       </c>
       <c r="F27" s="3">
-        <v>0.07444444444444438</v>
+        <v>0.075</v>
       </c>
       <c r="G27" s="3">
-        <v>0.1158926922047669</v>
+        <v>0.1165242309728854</v>
       </c>
       <c r="H27" s="3">
-        <v>0.04202586206896543</v>
+        <v>0.04256465517241377</v>
       </c>
       <c r="I27" s="3">
-        <v>0.06930007399767478</v>
+        <v>0.06942180858940647</v>
       </c>
       <c r="J27" s="3">
-        <v>0.03866809881847467</v>
+        <v>0.0392051557465091</v>
       </c>
       <c r="K27" s="3">
-        <v>0.03583482609586509</v>
+        <v>0.03587392185285031</v>
       </c>
       <c r="L27" s="3">
-        <v>-0.1221062187925556</v>
+        <v>-0.1216522923286427</v>
       </c>
       <c r="M27" s="3">
-        <v>-0.07914758196853984</v>
+        <v>-0.07912722328037439</v>
       </c>
       <c r="N27" s="3">
-        <v>-0.1079335793357935</v>
+        <v>-0.1074723247232473</v>
       </c>
       <c r="O27" s="3">
-        <v>-0.04857738298619772</v>
+        <v>-0.04857350620937298</v>
       </c>
       <c r="P27" s="3">
-        <v>-0.02165637793633738</v>
+        <v>-0.02162665071376204</v>
       </c>
       <c r="Q27" s="3">
-        <v>-0.01266951953947983</v>
+        <v>-0.01265867032364724</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2757,46 +2757,46 @@
         <v>188</v>
       </c>
       <c r="D28" s="1">
-        <v>43551249.46807142</v>
+        <v>43628164.70018286</v>
       </c>
       <c r="E28" s="2">
-        <v>1.377673315456001</v>
+        <v>1.37639294992119</v>
       </c>
       <c r="F28" s="3">
-        <v>0.06699751861042169</v>
+        <v>0.06799007444168732</v>
       </c>
       <c r="G28" s="3">
-        <v>0.1007807609592668</v>
+        <v>0.1018196329489616</v>
       </c>
       <c r="H28" s="3">
-        <v>0.04217159476490544</v>
+        <v>0.04314105671352409</v>
       </c>
       <c r="I28" s="3">
-        <v>0.03881671099107565</v>
+        <v>0.03899348514526477</v>
       </c>
       <c r="J28" s="3">
-        <v>0.04826913700633827</v>
+        <v>0.04924427108727452</v>
       </c>
       <c r="K28" s="3">
-        <v>0.03354428933786272</v>
+        <v>0.03360975209075407</v>
       </c>
       <c r="L28" s="3">
-        <v>-0.06358885017421616</v>
+        <v>-0.06271777003484322</v>
       </c>
       <c r="M28" s="3">
-        <v>-0.02564948921946239</v>
+        <v>-0.02562161001426368</v>
       </c>
       <c r="N28" s="3">
-        <v>-0.2042931162102147</v>
+        <v>-0.2035529237601776</v>
       </c>
       <c r="O28" s="3">
-        <v>-0.05548750399975225</v>
+        <v>-0.05547781588149279</v>
       </c>
       <c r="P28" s="3">
-        <v>0.003947400059200168</v>
+        <v>0.003994071038245195</v>
       </c>
       <c r="Q28" s="3">
-        <v>0.002865265672866433</v>
+        <v>0.002901839215664313</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2810,46 +2810,46 @@
         <v>189</v>
       </c>
       <c r="D29" s="1">
-        <v>16794060.16102857</v>
+        <v>16905331.23107143</v>
       </c>
       <c r="E29" s="2">
-        <v>1.100268782097602</v>
+        <v>1.095529111971314</v>
       </c>
       <c r="F29" s="3">
-        <v>0.04442186922792758</v>
+        <v>0.04977835241965289</v>
       </c>
       <c r="G29" s="3">
-        <v>0.01595176131976153</v>
+        <v>0.01899338815323284</v>
       </c>
       <c r="H29" s="3">
-        <v>-0.02289614653533787</v>
+        <v>-0.01788491446345248</v>
       </c>
       <c r="I29" s="3">
-        <v>-0.02550584764293627</v>
+        <v>-0.02432532673523724</v>
       </c>
       <c r="J29" s="3">
-        <v>-0.03026925055736593</v>
+        <v>-0.02529583261876178</v>
       </c>
       <c r="K29" s="3">
-        <v>-0.03256082489153529</v>
+        <v>-0.03183237172663474</v>
       </c>
       <c r="L29" s="3">
-        <v>-0.1552883178966239</v>
+        <v>-0.1509560800717059</v>
       </c>
       <c r="M29" s="3">
-        <v>-0.1034851773117305</v>
+        <v>-0.1033072412432624</v>
       </c>
       <c r="N29" s="3">
-        <v>-0.1731978359409271</v>
+        <v>-0.1689574499195789</v>
       </c>
       <c r="O29" s="3">
-        <v>-0.049899813177101</v>
+        <v>-0.0498716190861795</v>
       </c>
       <c r="P29" s="3">
-        <v>-0.0680230011016329</v>
+        <v>-0.06756980648494858</v>
       </c>
       <c r="Q29" s="3">
-        <v>-0.06182398538287231</v>
+        <v>-0.06167778267741537</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2863,46 +2863,46 @@
         <v>190</v>
       </c>
       <c r="D30" s="1">
-        <v>6143131.994399999</v>
+        <v>6179800.836857144</v>
       </c>
       <c r="E30" s="2">
-        <v>1.078330359151624</v>
+        <v>1.074477421130329</v>
       </c>
       <c r="F30" s="3">
-        <v>0.06062291434927697</v>
+        <v>0.06525769373377834</v>
       </c>
       <c r="G30" s="3">
-        <v>0.09049885210759513</v>
+        <v>0.09549933124843367</v>
       </c>
       <c r="H30" s="3">
-        <v>0.005094869992972578</v>
+        <v>0.009486999297259359</v>
       </c>
       <c r="I30" s="3">
-        <v>0.0004129488072038739</v>
+        <v>0.0004851899866349169</v>
       </c>
       <c r="J30" s="3">
-        <v>-0.008835758835758862</v>
+        <v>-0.00450450450450447</v>
       </c>
       <c r="K30" s="3">
-        <v>-0.004481165653488778</v>
+        <v>-0.004246193116213697</v>
       </c>
       <c r="L30" s="3">
-        <v>-0.1456093189964157</v>
+        <v>-0.1418757467144563</v>
       </c>
       <c r="M30" s="3">
-        <v>-0.1157238725101692</v>
+        <v>-0.1155519378026193</v>
       </c>
       <c r="N30" s="3">
-        <v>-0.2431538563302024</v>
+        <v>-0.2398465405476914</v>
       </c>
       <c r="O30" s="3">
-        <v>-0.08665370105923431</v>
+        <v>-0.08662117240989792</v>
       </c>
       <c r="P30" s="3">
-        <v>-0.06010251908182897</v>
+        <v>-0.05989906545941652</v>
       </c>
       <c r="Q30" s="3">
-        <v>-0.05573664746777103</v>
+        <v>-0.05574716069547919</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2916,46 +2916,46 @@
         <v>191</v>
       </c>
       <c r="D31" s="1">
-        <v>9312220.505114287</v>
+        <v>9326973.022285715</v>
       </c>
       <c r="E31" s="2">
-        <v>1.563868875216259</v>
+        <v>1.562652435856009</v>
       </c>
       <c r="F31" s="3">
-        <v>0.03596403596403602</v>
+        <v>0.03696303696303705</v>
       </c>
       <c r="G31" s="3">
-        <v>0.005537112909263858</v>
+        <v>0.005894273712966874</v>
       </c>
       <c r="H31" s="3">
-        <v>0.0009652509652509929</v>
+        <v>0.001930501930501986</v>
       </c>
       <c r="I31" s="3">
-        <v>1.386863540117327E-05</v>
+        <v>1.632221707757263E-05</v>
       </c>
       <c r="J31" s="3">
-        <v>0.00193236714975851</v>
+        <v>0.002898550724637764</v>
       </c>
       <c r="K31" s="3">
-        <v>0.001217293691537119</v>
+        <v>0.001244699467103567</v>
       </c>
       <c r="L31" s="3">
-        <v>-0.1415562913907285</v>
+        <v>-0.1407284768211921</v>
       </c>
       <c r="M31" s="3">
-        <v>-0.08303233488529152</v>
+        <v>-0.08299806092170176</v>
       </c>
       <c r="N31" s="3">
-        <v>-0.1936236391912908</v>
+        <v>-0.1928460342146189</v>
       </c>
       <c r="O31" s="3">
-        <v>-0.04724370201902327</v>
+        <v>-0.04723750958657352</v>
       </c>
       <c r="P31" s="3">
-        <v>-0.0409075205968772</v>
+        <v>-0.04087668072729909</v>
       </c>
       <c r="Q31" s="3">
-        <v>-0.02615789676818035</v>
+        <v>-0.02615852366742522</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2969,46 +2969,46 @@
         <v>192</v>
       </c>
       <c r="D32" s="1">
-        <v>5917357.820617143</v>
+        <v>5932430.623915714</v>
       </c>
       <c r="E32" s="2">
-        <v>0.9568132248888103</v>
+        <v>0.9551080665376627</v>
       </c>
       <c r="F32" s="3">
-        <v>0.05086103323988788</v>
+        <v>0.05286343612334809</v>
       </c>
       <c r="G32" s="3">
-        <v>0.04086693838283065</v>
+        <v>0.04260498705506136</v>
       </c>
       <c r="H32" s="3">
-        <v>0.004594180704440987</v>
+        <v>0.006508422664624809</v>
       </c>
       <c r="I32" s="3">
-        <v>1.269802736024035E-05</v>
+        <v>1.66017540253057E-05</v>
       </c>
       <c r="J32" s="3">
-        <v>0.007680491551459247</v>
+        <v>0.009600614439324124</v>
       </c>
       <c r="K32" s="3">
-        <v>-3.199847864119002E-10</v>
+        <v>4.319419021128264E-10</v>
       </c>
       <c r="L32" s="3">
-        <v>-0.1050477489768076</v>
+        <v>-0.1033424283765347</v>
       </c>
       <c r="M32" s="3">
-        <v>-0.07274458744029091</v>
+        <v>-0.07267706633351362</v>
       </c>
       <c r="N32" s="3">
-        <v>-0.08443824145150042</v>
+        <v>-0.08269364968597349</v>
       </c>
       <c r="O32" s="3">
-        <v>-0.01045724861269198</v>
+        <v>-0.01044967800860983</v>
       </c>
       <c r="P32" s="3">
-        <v>-0.03637229388013785</v>
+        <v>-0.03633853295078586</v>
       </c>
       <c r="Q32" s="3">
-        <v>-0.03801399576637814</v>
+        <v>-0.03804651455045891</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3022,10 +3022,10 @@
         <v>193</v>
       </c>
       <c r="D33" s="1">
-        <v>11411209.56924429</v>
+        <v>11419831.45963857</v>
       </c>
       <c r="E33" s="2">
-        <v>1.025182064189137</v>
+        <v>1.025563577576442</v>
       </c>
       <c r="F33" s="3">
         <v>0.04847277556440904</v>
@@ -3061,7 +3061,7 @@
         <v>-0.04726585625053401</v>
       </c>
       <c r="Q33" s="3">
-        <v>-0.04610484118049678</v>
+        <v>-0.04608769001160339</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3075,46 +3075,46 @@
         <v>194</v>
       </c>
       <c r="D34" s="1">
-        <v>13607117.11085714</v>
+        <v>13642431.65108571</v>
       </c>
       <c r="E34" s="2">
-        <v>1.167638163571306</v>
+        <v>1.167106212083577</v>
       </c>
       <c r="F34" s="3">
-        <v>0.009602194787380012</v>
+        <v>0.0106995884773663</v>
       </c>
       <c r="G34" s="3">
-        <v>-0.008708368066106512</v>
+        <v>-0.008314211702943665</v>
       </c>
       <c r="H34" s="3">
-        <v>-0.04465212876427822</v>
+        <v>-0.04361370716510896</v>
       </c>
       <c r="I34" s="3">
-        <v>-0.05507508430030164</v>
+        <v>-0.05478757382612631</v>
       </c>
       <c r="J34" s="3">
-        <v>-0.05556268446041317</v>
+        <v>-0.05453612216091362</v>
       </c>
       <c r="K34" s="3">
-        <v>-0.05189207483333538</v>
+        <v>-0.05177318263304835</v>
       </c>
       <c r="L34" s="3">
-        <v>-0.1706107730448501</v>
+        <v>-0.1697092630155511</v>
       </c>
       <c r="M34" s="3">
-        <v>-0.09452477176892735</v>
+        <v>-0.09449302031133605</v>
       </c>
       <c r="N34" s="3">
-        <v>-0.2233829270866308</v>
+        <v>-0.2225387780943336</v>
       </c>
       <c r="O34" s="3">
-        <v>-0.05865058940960369</v>
+        <v>-0.05864540268571886</v>
       </c>
       <c r="P34" s="3">
-        <v>-0.07320842330113136</v>
+        <v>-0.07313310147219221</v>
       </c>
       <c r="Q34" s="3">
-        <v>-0.06269786787134306</v>
+        <v>-0.06266190747252667</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3128,7 +3128,7 @@
         <v>195</v>
       </c>
       <c r="D35" s="1">
-        <v>58910043.58048572</v>
+        <v>58933350.35242858</v>
       </c>
       <c r="E35" s="2">
         <v>1.525598003783581</v>
@@ -3181,46 +3181,46 @@
         <v>196</v>
       </c>
       <c r="D36" s="1">
-        <v>35166493.39477428</v>
+        <v>35259459.95548286</v>
       </c>
       <c r="E36" s="2">
-        <v>1.336450203767061</v>
+        <v>1.333847213057158</v>
       </c>
       <c r="F36" s="3">
-        <v>0.04710341093665399</v>
+        <v>0.04926908500270715</v>
       </c>
       <c r="G36" s="3">
-        <v>0.01122463722452764</v>
+        <v>0.01215025584822929</v>
       </c>
       <c r="H36" s="3">
-        <v>-0.04635108481262327</v>
+        <v>-0.04437869822485197</v>
       </c>
       <c r="I36" s="3">
-        <v>-0.02542964178937489</v>
+        <v>-0.02502871685506905</v>
       </c>
       <c r="J36" s="3">
-        <v>-0.06434446057087573</v>
+        <v>-0.06240928882438314</v>
       </c>
       <c r="K36" s="3">
-        <v>-0.06958877265991366</v>
+        <v>-0.06926552485087298</v>
       </c>
       <c r="L36" s="3">
-        <v>-0.2325396825396826</v>
+        <v>-0.2309523809523809</v>
       </c>
       <c r="M36" s="3">
-        <v>-0.1710425015504355</v>
+        <v>-0.1709745598140248</v>
       </c>
       <c r="N36" s="3">
-        <v>-0.2850277264325324</v>
+        <v>-0.2835489833641405</v>
       </c>
       <c r="O36" s="3">
-        <v>-0.08270927188299314</v>
+        <v>-0.08269923486721192</v>
       </c>
       <c r="P36" s="3">
-        <v>-0.1203156371051746</v>
+        <v>-0.1201200423324489</v>
       </c>
       <c r="Q36" s="3">
-        <v>-0.09002627764658952</v>
+        <v>-0.09005532354574218</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3234,46 +3234,46 @@
         <v>197</v>
       </c>
       <c r="D37" s="1">
-        <v>3508597.3737</v>
+        <v>3520222.546617143</v>
       </c>
       <c r="E37" s="2">
-        <v>0.8820288687954613</v>
+        <v>0.8805703671521451</v>
       </c>
       <c r="F37" s="3">
-        <v>0.04954367666232082</v>
+        <v>0.05128205128205131</v>
       </c>
       <c r="G37" s="3">
-        <v>0.1257871364475697</v>
+        <v>0.1281053557756294</v>
       </c>
       <c r="H37" s="3">
-        <v>-0.02777777777777776</v>
+        <v>-0.02616747181964578</v>
       </c>
       <c r="I37" s="3">
-        <v>-0.01519997450527075</v>
+        <v>-0.01490217760735565</v>
       </c>
       <c r="J37" s="3">
-        <v>-0.04242664551942895</v>
+        <v>-0.04084060269627279</v>
       </c>
       <c r="K37" s="3">
-        <v>-0.05763017464226947</v>
+        <v>-0.05731170451054982</v>
       </c>
       <c r="L37" s="3">
-        <v>-0.1768916155419223</v>
+        <v>-0.1755282890252216</v>
       </c>
       <c r="M37" s="3">
-        <v>-0.1319547548564933</v>
+        <v>-0.131894607485788</v>
       </c>
       <c r="N37" s="3">
-        <v>-0.1852226720647773</v>
+        <v>-0.1838731443994602</v>
       </c>
       <c r="O37" s="3">
-        <v>-0.04843728385932975</v>
+        <v>-0.04842870770897694</v>
       </c>
       <c r="P37" s="3">
-        <v>-0.0947924647493814</v>
+        <v>-0.09460315599816889</v>
       </c>
       <c r="Q37" s="3">
-        <v>-0.1074709321916348</v>
+        <v>-0.1074339536363519</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3287,46 +3287,46 @@
         <v>198</v>
       </c>
       <c r="D38" s="1">
-        <v>124079079.1272857</v>
+        <v>124769189.9897142</v>
       </c>
       <c r="E38" s="2">
-        <v>1.745589350687909</v>
+        <v>1.738436360495466</v>
       </c>
       <c r="F38" s="3">
-        <v>0.03230653643876796</v>
+        <v>0.03681442524417726</v>
       </c>
       <c r="G38" s="3">
-        <v>6.436973312329399E-05</v>
+        <v>0.0001548352175373045</v>
       </c>
       <c r="H38" s="3">
-        <v>-0.02206405693950172</v>
+        <v>-0.01779359430604992</v>
       </c>
       <c r="I38" s="3">
-        <v>-0.003666876362927157</v>
+        <v>-0.003374958754211729</v>
       </c>
       <c r="J38" s="3">
-        <v>-0.03375527426160325</v>
+        <v>-0.02953586497890298</v>
       </c>
       <c r="K38" s="3">
-        <v>-0.0146160613036458</v>
+        <v>-0.01423888607681029</v>
       </c>
       <c r="L38" s="3">
-        <v>-0.172787477423239</v>
+        <v>-0.169175195665262</v>
       </c>
       <c r="M38" s="3">
-        <v>-0.1117158530220886</v>
+        <v>-0.1115752821120896</v>
       </c>
       <c r="N38" s="3">
-        <v>-0.2184300341296928</v>
+        <v>-0.2150170648464164</v>
       </c>
       <c r="O38" s="3">
-        <v>-0.03095323681277516</v>
+        <v>-0.03093335998998174</v>
       </c>
       <c r="P38" s="3">
-        <v>-0.06316595716286721</v>
+        <v>-0.06290708409444996</v>
       </c>
       <c r="Q38" s="3">
-        <v>-0.03618603489874322</v>
+        <v>-0.03618601492925576</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3340,46 +3340,46 @@
         <v>199</v>
       </c>
       <c r="D39" s="1">
-        <v>8089351.08557143</v>
+        <v>8122967.639657144</v>
       </c>
       <c r="E39" s="2">
-        <v>1.315706323716943</v>
+        <v>1.312001126408129</v>
       </c>
       <c r="F39" s="3">
-        <v>0.04472843450479243</v>
+        <v>0.04792332268370612</v>
       </c>
       <c r="G39" s="3">
-        <v>0.01547609513225708</v>
+        <v>0.01714744185119237</v>
       </c>
       <c r="H39" s="3">
-        <v>-0.02775024777006934</v>
+        <v>-0.02477700693756196</v>
       </c>
       <c r="I39" s="3">
-        <v>-0.03909465247615233</v>
+        <v>-0.03821392013570366</v>
       </c>
       <c r="J39" s="3">
-        <v>-0.03917727717923594</v>
+        <v>-0.03623898139079329</v>
       </c>
       <c r="K39" s="3">
-        <v>-0.04417274121632506</v>
+        <v>-0.04369746626083258</v>
       </c>
       <c r="L39" s="3">
-        <v>-0.1424825174825174</v>
+        <v>-0.1398601398601399</v>
       </c>
       <c r="M39" s="3">
-        <v>-0.09498518981871622</v>
+        <v>-0.09488553405314007</v>
       </c>
       <c r="N39" s="3">
-        <v>-0.1521175453759723</v>
+        <v>-0.1495246326707</v>
       </c>
       <c r="O39" s="3">
-        <v>-0.02355079702574392</v>
+        <v>-0.02353743812212246</v>
       </c>
       <c r="P39" s="3">
-        <v>-0.06957896551752064</v>
+        <v>-0.06929150015698632</v>
       </c>
       <c r="Q39" s="3">
-        <v>-0.0528833557027804</v>
+        <v>-0.05281359806960378</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3393,46 +3393,46 @@
         <v>200</v>
       </c>
       <c r="D40" s="1">
-        <v>175141326.5605715</v>
+        <v>175963523.1325714</v>
       </c>
       <c r="E40" s="2">
-        <v>2.230505910505341</v>
+        <v>2.223469724808676</v>
       </c>
       <c r="F40" s="3">
-        <v>0.05807041609510756</v>
+        <v>0.0617283950617285</v>
       </c>
       <c r="G40" s="3">
-        <v>0.04795428254495426</v>
+        <v>0.05118662312275039</v>
       </c>
       <c r="H40" s="3">
-        <v>-0.06125760649087213</v>
+        <v>-0.05801217038539546</v>
       </c>
       <c r="I40" s="3">
-        <v>-0.08525306393533033</v>
+        <v>-0.08421982511791717</v>
       </c>
       <c r="J40" s="3">
-        <v>-0.107941403238242</v>
+        <v>-0.1048573631457208</v>
       </c>
       <c r="K40" s="3">
-        <v>-0.0980892649478714</v>
+        <v>-0.09753550867402376</v>
       </c>
       <c r="L40" s="3">
-        <v>-0.2632919452403693</v>
+        <v>-0.2607449856733524</v>
       </c>
       <c r="M40" s="3">
-        <v>-0.2046872781102547</v>
+        <v>-0.2045747843100303</v>
       </c>
       <c r="N40" s="3">
-        <v>-0.3632361034672537</v>
+        <v>-0.3610346725371491</v>
       </c>
       <c r="O40" s="3">
-        <v>-0.1263487435607876</v>
+        <v>-0.1263302668698692</v>
       </c>
       <c r="P40" s="3">
-        <v>-0.151388271529063</v>
+        <v>-0.151055146492027</v>
       </c>
       <c r="Q40" s="3">
-        <v>-0.06787171951262154</v>
+        <v>-0.06793667788979001</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3446,46 +3446,46 @@
         <v>201</v>
       </c>
       <c r="D41" s="1">
-        <v>9695574.543642856</v>
+        <v>9716306.232342858</v>
       </c>
       <c r="E41" s="2">
-        <v>1.371833881547422</v>
+        <v>1.369676910035555</v>
       </c>
       <c r="F41" s="3">
-        <v>0.03588907014681889</v>
+        <v>0.03752039151712881</v>
       </c>
       <c r="G41" s="3">
-        <v>0.01832232465033633</v>
+        <v>0.0194763099651959</v>
       </c>
       <c r="H41" s="3">
-        <v>-0.01346452615225267</v>
+        <v>-0.01191092698083893</v>
       </c>
       <c r="I41" s="3">
-        <v>-0.003006532304045891</v>
+        <v>-0.002895930257983293</v>
       </c>
       <c r="J41" s="3">
-        <v>-0.03102746693794504</v>
+        <v>-0.02950152594099695</v>
       </c>
       <c r="K41" s="3">
-        <v>-0.01328104344515206</v>
+        <v>-0.01311698917653279</v>
       </c>
       <c r="L41" s="3">
-        <v>-0.1999160016799664</v>
+        <v>-0.1986560268794624</v>
       </c>
       <c r="M41" s="3">
-        <v>-0.1394505627332073</v>
+        <v>-0.1393927889552826</v>
       </c>
       <c r="N41" s="3">
-        <v>-0.1749675184062364</v>
+        <v>-0.1736682546556951</v>
       </c>
       <c r="O41" s="3">
-        <v>-0.04018980088879602</v>
+        <v>-0.04018192120366022</v>
       </c>
       <c r="P41" s="3">
-        <v>-0.07636580308917966</v>
+        <v>-0.0762548890659077</v>
       </c>
       <c r="Q41" s="3">
-        <v>-0.05566694635289179</v>
+        <v>-0.05567363259699561</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3499,46 +3499,46 @@
         <v>202</v>
       </c>
       <c r="D42" s="1">
-        <v>4144987.438714286</v>
+        <v>4162876.527314285</v>
       </c>
       <c r="E42" s="2">
-        <v>0.9818139954908128</v>
+        <v>0.9790117921193399</v>
       </c>
       <c r="F42" s="3">
-        <v>0.03781174577634763</v>
+        <v>0.04102976669348345</v>
       </c>
       <c r="G42" s="3">
-        <v>0.0126227348050193</v>
+        <v>0.01429989773515184</v>
       </c>
       <c r="H42" s="3">
-        <v>-0.01225114854517604</v>
+        <v>-0.009188361408882134</v>
       </c>
       <c r="I42" s="3">
-        <v>-0.007920065581893621</v>
+        <v>-0.007508425960306586</v>
       </c>
       <c r="J42" s="3">
-        <v>-0.01975683890577501</v>
+        <v>-0.01671732522796358</v>
       </c>
       <c r="K42" s="3">
-        <v>-0.007740618666987622</v>
+        <v>-0.00749650828041191</v>
       </c>
       <c r="L42" s="3">
-        <v>-0.1590612777053455</v>
+        <v>-0.1564537157757498</v>
       </c>
       <c r="M42" s="3">
-        <v>-0.1048780620681592</v>
+        <v>-0.104765563591122</v>
       </c>
       <c r="N42" s="3">
-        <v>-0.1977611940298507</v>
+        <v>-0.1952736318407961</v>
       </c>
       <c r="O42" s="3">
-        <v>-0.05092735730498971</v>
+        <v>-0.05090875662563521</v>
       </c>
       <c r="P42" s="3">
-        <v>-0.0563093403675734</v>
+        <v>-0.05613103593576697</v>
       </c>
       <c r="Q42" s="3">
-        <v>-0.05735235047186726</v>
+        <v>-0.05733438186097425</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3552,46 +3552,46 @@
         <v>203</v>
       </c>
       <c r="D43" s="1">
-        <v>4283172.134344285</v>
+        <v>4293584.8524</v>
       </c>
       <c r="E43" s="2">
-        <v>0.9350252882428279</v>
+        <v>0.9337568631944737</v>
       </c>
       <c r="F43" s="3">
-        <v>0.03900896151818648</v>
+        <v>0.04059040590405903</v>
       </c>
       <c r="G43" s="3">
-        <v>0.028810181281674</v>
+        <v>0.03017598535518414</v>
       </c>
       <c r="H43" s="3">
-        <v>-0.01989060169070119</v>
+        <v>-0.0183988065638985</v>
       </c>
       <c r="I43" s="3">
-        <v>-0.01152973806710401</v>
+        <v>-0.011291402372814</v>
       </c>
       <c r="J43" s="3">
-        <v>-0.02474022761009404</v>
+        <v>-0.02325581395348829</v>
       </c>
       <c r="K43" s="3">
-        <v>-0.01676437057519406</v>
+        <v>-0.01659403396419463</v>
       </c>
       <c r="L43" s="3">
-        <v>-0.1105595667870037</v>
+        <v>-0.1092057761732851</v>
       </c>
       <c r="M43" s="3">
-        <v>-0.07886846472510275</v>
+        <v>-0.07881720775827855</v>
       </c>
       <c r="N43" s="3">
-        <v>-0.1756587202007529</v>
+        <v>-0.1744040150564617</v>
       </c>
       <c r="O43" s="3">
-        <v>-0.04316389668189042</v>
+        <v>-0.04315520715727537</v>
       </c>
       <c r="P43" s="3">
-        <v>-0.04781641765014841</v>
+        <v>-0.04770562086123659</v>
       </c>
       <c r="Q43" s="3">
-        <v>-0.05113917051378229</v>
+        <v>-0.05108998149478761</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3605,46 +3605,46 @@
         <v>204</v>
       </c>
       <c r="D44" s="1">
-        <v>12007105.5163</v>
+        <v>12027666.395</v>
       </c>
       <c r="E44" s="2">
-        <v>0.3838016345564105</v>
+        <v>0.3861602515859485</v>
       </c>
       <c r="F44" s="3">
-        <v>-0.01152359419444239</v>
+        <v>-0.014659762234702</v>
       </c>
       <c r="G44" s="3">
-        <v>-0.01297169804677967</v>
+        <v>-0.01584764160095031</v>
       </c>
       <c r="H44" s="3">
-        <v>-0.003382601661887003</v>
+        <v>-0.006544598867563858</v>
       </c>
       <c r="I44" s="3">
-        <v>-0.003546759441541222</v>
+        <v>-0.003937775647431297</v>
       </c>
       <c r="J44" s="3">
-        <v>-0.004188096987509218</v>
+        <v>-0.007347538574577516</v>
       </c>
       <c r="K44" s="3">
-        <v>-1.976555443552766E-05</v>
+        <v>-3.096053854943838E-05</v>
       </c>
       <c r="L44" s="3">
-        <v>0.05151679726898895</v>
+        <v>0.04818061913259361</v>
       </c>
       <c r="M44" s="3">
-        <v>0.02454193932373458</v>
+        <v>0.02442208361784718</v>
       </c>
       <c r="N44" s="3">
-        <v>0.09175124859030116</v>
+        <v>0.08828741743193161</v>
       </c>
       <c r="O44" s="3">
-        <v>0.02994809115454963</v>
+        <v>0.02992127195629967</v>
       </c>
       <c r="P44" s="3">
-        <v>0.01226108688464953</v>
+        <v>0.01219556153964887</v>
       </c>
       <c r="Q44" s="3">
-        <v>0.03194641653577276</v>
+        <v>0.03158160760866005</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3658,46 +3658,46 @@
         <v>205</v>
       </c>
       <c r="D45" s="1">
-        <v>9048471.739371428</v>
+        <v>9076595.879999999</v>
       </c>
       <c r="E45" s="2">
-        <v>1.409161612320587</v>
+        <v>1.406572272893153</v>
       </c>
       <c r="F45" s="3">
-        <v>0.04801200300075023</v>
+        <v>0.05026256564141032</v>
       </c>
       <c r="G45" s="3">
-        <v>0.0866336837235844</v>
+        <v>0.08892392076008637</v>
       </c>
       <c r="H45" s="3">
-        <v>0.02494497432134999</v>
+        <v>0.02714600146735137</v>
       </c>
       <c r="I45" s="3">
-        <v>-6.481081021540675E-08</v>
+        <v>-2.81643170323845E-09</v>
       </c>
       <c r="J45" s="3">
-        <v>-0.002855103497501787</v>
+        <v>-0.000713775874375526</v>
       </c>
       <c r="K45" s="3">
-        <v>4.137587247097207E-05</v>
+        <v>4.697765944368943E-05</v>
       </c>
       <c r="L45" s="3">
-        <v>-0.1689470553242118</v>
+        <v>-0.1671624033313505</v>
       </c>
       <c r="M45" s="3">
-        <v>-0.1145108710940917</v>
+        <v>-0.1144289511671557</v>
       </c>
       <c r="N45" s="3">
-        <v>-0.2120699379582628</v>
+        <v>-0.2103778905809363</v>
       </c>
       <c r="O45" s="3">
-        <v>-0.08060182005700184</v>
+        <v>-0.08058616302029532</v>
       </c>
       <c r="P45" s="3">
-        <v>-0.05723474761081037</v>
+        <v>-0.05719098675385602</v>
       </c>
       <c r="Q45" s="3">
-        <v>-0.04061617000519693</v>
+        <v>-0.04065982804866537</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3711,46 +3711,46 @@
         <v>206</v>
       </c>
       <c r="D46" s="1">
-        <v>4462683.771214285</v>
+        <v>4465979.5544</v>
       </c>
       <c r="E46" s="2">
-        <v>1.138242302294398</v>
+        <v>1.140610351466994</v>
       </c>
       <c r="F46" s="3">
-        <v>0.04786076867295138</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="G46" s="3">
-        <v>0.05430758321283457</v>
+        <v>0.05182646447148005</v>
       </c>
       <c r="H46" s="3">
-        <v>-0.01095140314852853</v>
+        <v>-0.01300479123887757</v>
       </c>
       <c r="I46" s="3">
-        <v>-0.002348510589477461</v>
+        <v>-0.002466499248562683</v>
       </c>
       <c r="J46" s="3">
-        <v>-0.02166553825321604</v>
+        <v>-0.023696682464455</v>
       </c>
       <c r="K46" s="3">
-        <v>-0.01031487235276758</v>
+        <v>-0.01049233734247442</v>
       </c>
       <c r="L46" s="3">
-        <v>-0.1564506713368361</v>
+        <v>-0.1582019848219499</v>
       </c>
       <c r="M46" s="3">
-        <v>-0.1073945506925356</v>
+        <v>-0.1074682601730022</v>
       </c>
       <c r="N46" s="3">
-        <v>-0.2321997874601489</v>
+        <v>-0.2337938363443146</v>
       </c>
       <c r="O46" s="3">
-        <v>-0.07139782259788689</v>
+        <v>-0.07141097243888893</v>
       </c>
       <c r="P46" s="3">
-        <v>-0.05885471152265158</v>
+        <v>-0.05898029875773831</v>
       </c>
       <c r="Q46" s="3">
-        <v>-0.05170666333874246</v>
+        <v>-0.05170941915605177</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3764,46 +3764,46 @@
         <v>207</v>
       </c>
       <c r="D47" s="1">
-        <v>151592545.6510214</v>
+        <v>151781957.8526585</v>
       </c>
       <c r="E47" s="2">
-        <v>1.025624053542196</v>
+        <v>1.025551454710998</v>
       </c>
       <c r="F47" s="3">
-        <v>0.03156860336567971</v>
+        <v>0.03218277852843632</v>
       </c>
       <c r="G47" s="3">
-        <v>0.0341405045875286</v>
+        <v>0.03483192985091205</v>
       </c>
       <c r="H47" s="3">
-        <v>-0.01823708206686949</v>
+        <v>-0.01765256020575171</v>
       </c>
       <c r="I47" s="3">
-        <v>-0.02451565608770223</v>
+        <v>-0.02437745087716455</v>
       </c>
       <c r="J47" s="3">
-        <v>0.01253918495297805</v>
+        <v>0.01314203038340987</v>
       </c>
       <c r="K47" s="3">
-        <v>-0.01454596341152431</v>
+        <v>-0.01449354206509628</v>
       </c>
       <c r="L47" s="3">
-        <v>-0.08488612836438926</v>
+        <v>-0.08434128800261509</v>
       </c>
       <c r="M47" s="3">
-        <v>-0.02585755981109058</v>
+        <v>-0.02584264442771366</v>
       </c>
       <c r="N47" s="3">
-        <v>-0.09698924731182797</v>
+        <v>-0.09645161290322565</v>
       </c>
       <c r="O47" s="3">
-        <v>-0.0235750602704198</v>
+        <v>-0.02357133801491893</v>
       </c>
       <c r="P47" s="3">
-        <v>-0.02020176161130744</v>
+        <v>-0.02016809324640497</v>
       </c>
       <c r="Q47" s="3">
-        <v>-0.01969704351368969</v>
+        <v>-0.01966560834540318</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3817,46 +3817,46 @@
         <v>208</v>
       </c>
       <c r="D48" s="1">
-        <v>53670218.22040001</v>
+        <v>53894369.06311286</v>
       </c>
       <c r="E48" s="2">
-        <v>1.530086950266752</v>
+        <v>1.524913179420524</v>
       </c>
       <c r="F48" s="3">
-        <v>0.015990159901599</v>
+        <v>0.01968019680196807</v>
       </c>
       <c r="G48" s="3">
-        <v>0.03511302228644959</v>
+        <v>0.0389723125272708</v>
       </c>
       <c r="H48" s="3">
-        <v>0.015990159901599</v>
+        <v>0.01968019680196807</v>
       </c>
       <c r="I48" s="3">
-        <v>0.007308985523001225</v>
+        <v>0.007761773100314894</v>
       </c>
       <c r="J48" s="3">
-        <v>-0.001209189842805271</v>
+        <v>0.002418379685610752</v>
       </c>
       <c r="K48" s="3">
-        <v>0.009313286784189835</v>
+        <v>0.009575584815620706</v>
       </c>
       <c r="L48" s="3">
-        <v>0.03508771929824571</v>
+        <v>0.03884711779448637</v>
       </c>
       <c r="M48" s="3">
-        <v>-0.01509412175130762</v>
+        <v>-0.01503165256732097</v>
       </c>
       <c r="N48" s="3">
-        <v>0.0755208333333333</v>
+        <v>0.07942708333333337</v>
       </c>
       <c r="O48" s="3">
-        <v>0.02296462952478911</v>
+        <v>0.02298899096457726</v>
       </c>
       <c r="P48" s="3">
-        <v>0.02221315453531971</v>
+        <v>0.02427394867144575</v>
       </c>
       <c r="Q48" s="3">
-        <v>0.01451757661971244</v>
+        <v>0.01591824964137959</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3870,46 +3870,46 @@
         <v>209</v>
       </c>
       <c r="D49" s="1">
-        <v>15618524.42720428</v>
+        <v>15660725.86310571</v>
       </c>
       <c r="E49" s="2">
-        <v>1.120192076032848</v>
+        <v>1.118025379566802</v>
       </c>
       <c r="F49" s="3">
-        <v>0.03750802825947324</v>
+        <v>0.03969171483622345</v>
       </c>
       <c r="G49" s="3">
-        <v>0.0293212574619597</v>
+        <v>0.03142287579039523</v>
       </c>
       <c r="H49" s="3">
-        <v>0.01930843008581511</v>
+        <v>0.0214538112064613</v>
       </c>
       <c r="I49" s="3">
-        <v>0.002546645113871942</v>
+        <v>0.002707323699096865</v>
       </c>
       <c r="J49" s="3">
-        <v>0.01088861076345427</v>
+        <v>0.01301627033792239</v>
       </c>
       <c r="K49" s="3">
-        <v>0.0005406766923888695</v>
+        <v>0.0005750861946525348</v>
       </c>
       <c r="L49" s="3">
-        <v>-0.05487947577814182</v>
+        <v>-0.05289024104844368</v>
       </c>
       <c r="M49" s="3">
-        <v>-0.009555680785981503</v>
+        <v>-0.009514556243298515</v>
       </c>
       <c r="N49" s="3">
-        <v>-0.04278264991704198</v>
+        <v>-0.04076795449158567</v>
       </c>
       <c r="O49" s="3">
-        <v>-0.003459454114334501</v>
+        <v>-0.003452139286718117</v>
       </c>
       <c r="P49" s="3">
-        <v>-0.004507502046796317</v>
+        <v>-0.004469735024322991</v>
       </c>
       <c r="Q49" s="3">
-        <v>-0.004023865320275789</v>
+        <v>-0.003997883327169965</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3923,46 +3923,46 @@
         <v>210</v>
       </c>
       <c r="D50" s="1">
-        <v>6090246.699428572</v>
+        <v>6104620.379</v>
       </c>
       <c r="E50" s="2">
-        <v>1.153570558471302</v>
+        <v>1.152585164553159</v>
       </c>
       <c r="F50" s="3">
-        <v>0.05494505494505499</v>
+        <v>0.05616605616605608</v>
       </c>
       <c r="G50" s="3">
-        <v>0.04646054109877895</v>
+        <v>0.04761786023620966</v>
       </c>
       <c r="H50" s="3">
-        <v>-0.01257142857142846</v>
+        <v>-0.01142857142857144</v>
       </c>
       <c r="I50" s="3">
-        <v>-0.003364393228700131</v>
+        <v>-0.003285724598219421</v>
       </c>
       <c r="J50" s="3">
-        <v>-0.01706484641638227</v>
+        <v>-0.01592718998862358</v>
       </c>
       <c r="K50" s="3">
-        <v>-0.01436298566034094</v>
+        <v>-0.01424581570981164</v>
       </c>
       <c r="L50" s="3">
-        <v>-0.1587147030185004</v>
+        <v>-0.1577409931840312</v>
       </c>
       <c r="M50" s="3">
-        <v>-0.1199225141520883</v>
+        <v>-0.119881117670176</v>
       </c>
       <c r="N50" s="3">
-        <v>-0.18796992481203</v>
+        <v>-0.1870300751879699</v>
       </c>
       <c r="O50" s="3">
-        <v>-0.04604342019651397</v>
+        <v>-0.0460370762197634</v>
       </c>
       <c r="P50" s="3">
-        <v>-0.06714274990621462</v>
+        <v>-0.06706346668999383</v>
       </c>
       <c r="Q50" s="3">
-        <v>-0.05820428530630271</v>
+        <v>-0.0581852593218076</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3976,46 +3976,46 @@
         <v>211</v>
       </c>
       <c r="D51" s="1">
-        <v>55113595.38428572</v>
+        <v>55635783.79114287</v>
       </c>
       <c r="E51" s="2">
-        <v>1.128272078249124</v>
+        <v>1.131382407892816</v>
       </c>
       <c r="F51" s="3">
-        <v>0.1779468911917098</v>
+        <v>0.1747085492227979</v>
       </c>
       <c r="G51" s="3">
-        <v>0.5491227428400407</v>
+        <v>0.5448455364739966</v>
       </c>
       <c r="H51" s="3">
-        <v>0.1296583850931677</v>
+        <v>0.1265527950310559</v>
       </c>
       <c r="I51" s="3">
-        <v>0.1909963460192401</v>
+        <v>0.1903323773301531</v>
       </c>
       <c r="J51" s="3">
-        <v>0.1354768222256906</v>
+        <v>0.1323552364601217</v>
       </c>
       <c r="K51" s="3">
-        <v>0.0832740419178306</v>
+        <v>0.08306718970482911</v>
       </c>
       <c r="L51" s="3">
-        <v>-0.03051705756929627</v>
+        <v>-0.03318230277185491</v>
       </c>
       <c r="M51" s="3">
-        <v>-0.03617874224165714</v>
+        <v>-0.03625736871424479</v>
       </c>
       <c r="N51" s="3">
-        <v>-0.03552963012064157</v>
+        <v>-0.03818109505501781</v>
       </c>
       <c r="O51" s="3">
-        <v>-0.0201374510696956</v>
+        <v>-0.02015805268817636</v>
       </c>
       <c r="P51" s="3">
-        <v>0.02387220589859451</v>
+        <v>0.02340491049529216</v>
       </c>
       <c r="Q51" s="3">
-        <v>0.02115819965662883</v>
+        <v>0.02068700231859136</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -4029,46 +4029,46 @@
         <v>212</v>
       </c>
       <c r="D52" s="1">
-        <v>7861629.167186857</v>
+        <v>7879878.312644571</v>
       </c>
       <c r="E52" s="2">
-        <v>1.007534128164778</v>
+        <v>1.006386963882949</v>
       </c>
       <c r="F52" s="3">
-        <v>0.03972125435540068</v>
+        <v>0.04111498257839723</v>
       </c>
       <c r="G52" s="3">
-        <v>0.06966868470822751</v>
+        <v>0.0715658899010389</v>
       </c>
       <c r="H52" s="3">
-        <v>-0.02035456336178594</v>
+        <v>-0.01904136572554166</v>
       </c>
       <c r="I52" s="3">
-        <v>-0.006348630609460437</v>
+        <v>-0.006207034084356527</v>
       </c>
       <c r="J52" s="3">
-        <v>-0.0317975340687865</v>
+        <v>-0.03049967553536661</v>
       </c>
       <c r="K52" s="3">
-        <v>-0.03077782594092034</v>
+        <v>-0.03057873899235418</v>
       </c>
       <c r="L52" s="3">
-        <v>-0.114540059347181</v>
+        <v>-0.1133531157270029</v>
       </c>
       <c r="M52" s="3">
-        <v>-0.08651923145615238</v>
+        <v>-0.08647378186973362</v>
       </c>
       <c r="N52" s="3">
-        <v>-0.1315483119906868</v>
+        <v>-0.1303841676367869</v>
       </c>
       <c r="O52" s="3">
-        <v>-0.0317433664972805</v>
+        <v>-0.03173652378590779</v>
       </c>
       <c r="P52" s="3">
-        <v>-0.05864852869853636</v>
+        <v>-0.0585262604310439</v>
       </c>
       <c r="Q52" s="3">
-        <v>-0.05820996734409838</v>
+        <v>-0.05815482764724183</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -4082,7 +4082,7 @@
         <v>213</v>
       </c>
       <c r="D53" s="1">
-        <v>4928347.043731429</v>
+        <v>4936401.713804286</v>
       </c>
       <c r="E53" s="2">
         <v>1.123992035731193</v>
@@ -4135,46 +4135,46 @@
         <v>214</v>
       </c>
       <c r="D54" s="1">
-        <v>6554417.553900857</v>
+        <v>6586036.634581714</v>
       </c>
       <c r="E54" s="2">
-        <v>0.9958184058954832</v>
+        <v>0.992611261271021</v>
       </c>
       <c r="F54" s="3">
-        <v>0.04560810810810812</v>
+        <v>0.04898648648648658</v>
       </c>
       <c r="G54" s="3">
-        <v>0.09620417820543585</v>
+        <v>0.1001598845541473</v>
       </c>
       <c r="H54" s="3">
-        <v>-0.01433121019108281</v>
+        <v>-0.01114649681528655</v>
       </c>
       <c r="I54" s="3">
-        <v>-0.007950954896456712</v>
+        <v>-0.007526611256203234</v>
       </c>
       <c r="J54" s="3">
-        <v>-0.02211690363349134</v>
+        <v>-0.01895734597156393</v>
       </c>
       <c r="K54" s="3">
-        <v>-0.03256151915178911</v>
+        <v>-0.0320035466499877</v>
       </c>
       <c r="L54" s="3">
-        <v>-0.1244695898161244</v>
+        <v>-0.1216407355021215</v>
       </c>
       <c r="M54" s="3">
-        <v>-0.09239809145074721</v>
+        <v>-0.09227803923550894</v>
       </c>
       <c r="N54" s="3">
-        <v>-0.1306179775280899</v>
+        <v>-0.1278089887640449</v>
       </c>
       <c r="O54" s="3">
-        <v>-0.02675392382791248</v>
+        <v>-0.02673682790923088</v>
       </c>
       <c r="P54" s="3">
-        <v>-0.06247980530126816</v>
+        <v>-0.06214079294274832</v>
       </c>
       <c r="Q54" s="3">
-        <v>-0.06274216757932245</v>
+        <v>-0.06260335275984896</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4188,46 +4188,46 @@
         <v>215</v>
       </c>
       <c r="D55" s="1">
-        <v>7699978.607142856</v>
+        <v>7752211.364114285</v>
       </c>
       <c r="E55" s="2">
-        <v>1.204104857889422</v>
+        <v>1.198315892226492</v>
       </c>
       <c r="F55" s="3">
-        <v>0.05612244897959177</v>
+        <v>0.06122448979591831</v>
       </c>
       <c r="G55" s="3">
-        <v>0.1218009374002539</v>
+        <v>0.1287793303936186</v>
       </c>
       <c r="H55" s="3">
-        <v>-0.002409638554216978</v>
+        <v>0.002409638554216769</v>
       </c>
       <c r="I55" s="3">
-        <v>0.0001085736388923126</v>
+        <v>0.0001434561247058175</v>
       </c>
       <c r="J55" s="3">
-        <v>-0.01662707838479825</v>
+        <v>-0.0118764845605702</v>
       </c>
       <c r="K55" s="3">
-        <v>-0.004427745763484887</v>
+        <v>-0.004174812522630438</v>
       </c>
       <c r="L55" s="3">
-        <v>-0.1882352941176472</v>
+        <v>-0.1843137254901962</v>
       </c>
       <c r="M55" s="3">
-        <v>-0.141254166183065</v>
+        <v>-0.1410631674495748</v>
       </c>
       <c r="N55" s="3">
-        <v>-0.1992263056092844</v>
+        <v>-0.1953578336557061</v>
       </c>
       <c r="O55" s="3">
-        <v>-0.05898179980727453</v>
+        <v>-0.05895183634359542</v>
       </c>
       <c r="P55" s="3">
-        <v>-0.07284095597327496</v>
+        <v>-0.0726189899861026</v>
       </c>
       <c r="Q55" s="3">
-        <v>-0.06049386438067528</v>
+        <v>-0.06060087365709158</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4241,46 +4241,46 @@
         <v>216</v>
       </c>
       <c r="D56" s="1">
-        <v>12843109.08142857</v>
+        <v>12897908.38757571</v>
       </c>
       <c r="E56" s="2">
-        <v>1.153468210337135</v>
+        <v>1.151863194534762</v>
       </c>
       <c r="F56" s="3">
-        <v>0.06425702811244979</v>
+        <v>0.06626506024096376</v>
       </c>
       <c r="G56" s="3">
-        <v>0.07278704239566168</v>
+        <v>0.07464581965214519</v>
       </c>
       <c r="H56" s="3">
-        <v>-0.0130353817504655</v>
+        <v>-0.01117318435754193</v>
       </c>
       <c r="I56" s="3">
-        <v>-0.01358665485820925</v>
+        <v>-0.01329337483725395</v>
       </c>
       <c r="J56" s="3">
-        <v>-0.01851851851851857</v>
+        <v>-0.01666666666666679</v>
       </c>
       <c r="K56" s="3">
-        <v>-0.02661244347737203</v>
+        <v>-0.02635266958476664</v>
       </c>
       <c r="L56" s="3">
-        <v>-0.1297208538587849</v>
+        <v>-0.1280788177339902</v>
       </c>
       <c r="M56" s="3">
-        <v>-0.1022655226728754</v>
+        <v>-0.1021980469463668</v>
       </c>
       <c r="N56" s="3">
-        <v>-0.1666666666666667</v>
+        <v>-0.1650943396226416</v>
       </c>
       <c r="O56" s="3">
-        <v>-0.0412152069642171</v>
+        <v>-0.04120451603080349</v>
       </c>
       <c r="P56" s="3">
-        <v>-0.0644389830751237</v>
+        <v>-0.06427535826556671</v>
       </c>
       <c r="Q56" s="3">
-        <v>-0.0558654174407542</v>
+        <v>-0.05580120848598479</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4294,46 +4294,46 @@
         <v>217</v>
       </c>
       <c r="D57" s="1">
-        <v>6613144.030535715</v>
+        <v>6625176.18768</v>
       </c>
       <c r="E57" s="2">
-        <v>1.038944431566778</v>
+        <v>1.038047242938482</v>
       </c>
       <c r="F57" s="3">
-        <v>0.04705882352941173</v>
+        <v>0.0479638009049773</v>
       </c>
       <c r="G57" s="3">
-        <v>0.05998181849590105</v>
+        <v>0.06095094238112458</v>
       </c>
       <c r="H57" s="3">
-        <v>-0.003445305770887175</v>
+        <v>-0.002583979328165419</v>
       </c>
       <c r="I57" s="3">
-        <v>-0.0002231930405340413</v>
+        <v>-0.0002123427073520815</v>
       </c>
       <c r="J57" s="3">
-        <v>-0.01699235344095147</v>
+        <v>-0.01614273576890392</v>
       </c>
       <c r="K57" s="3">
-        <v>-0.0131526727309478</v>
+        <v>-0.01305589185038172</v>
       </c>
       <c r="L57" s="3">
-        <v>-0.1640173410404624</v>
+        <v>-0.1632947976878613</v>
       </c>
       <c r="M57" s="3">
-        <v>-0.1202621429556171</v>
+        <v>-0.1202290496541502</v>
       </c>
       <c r="N57" s="3">
-        <v>-0.2123893805309734</v>
+        <v>-0.2117086453369639</v>
       </c>
       <c r="O57" s="3">
-        <v>-0.07039586988236192</v>
+        <v>-0.07039029109453687</v>
       </c>
       <c r="P57" s="3">
-        <v>-0.06670740784328247</v>
+        <v>-0.06664247075226595</v>
       </c>
       <c r="Q57" s="3">
-        <v>-0.06420690637196493</v>
+        <v>-0.06419984370231151</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4347,46 +4347,46 @@
         <v>218</v>
       </c>
       <c r="D58" s="1">
-        <v>12294944.67383143</v>
+        <v>12497339.48078571</v>
       </c>
       <c r="E58" s="2">
-        <v>0.7491812440036913</v>
+        <v>0.7462771402347002</v>
       </c>
       <c r="F58" s="3">
-        <v>0.03720930232558141</v>
+        <v>0.04430844553243572</v>
       </c>
       <c r="G58" s="3">
-        <v>0.04708569555017137</v>
+        <v>0.0538593178074</v>
       </c>
       <c r="H58" s="3">
-        <v>-0.0324274948618407</v>
+        <v>-0.02580497830554935</v>
       </c>
       <c r="I58" s="3">
-        <v>-0.03710943768534879</v>
+        <v>-0.03504856843710341</v>
       </c>
       <c r="J58" s="3">
-        <v>-0.01350407450523874</v>
+        <v>-0.006752037252619453</v>
       </c>
       <c r="K58" s="3">
-        <v>-0.03824112231953335</v>
+        <v>-0.03716521276221747</v>
       </c>
       <c r="L58" s="3">
-        <v>-0.1130416579443166</v>
+        <v>-0.1069709022398996</v>
       </c>
       <c r="M58" s="3">
-        <v>-0.05583699994647383</v>
+        <v>-0.05560791016198198</v>
       </c>
       <c r="N58" s="3">
-        <v>-0.1198587453261322</v>
+        <v>-0.1138346489405901</v>
       </c>
       <c r="O58" s="3">
-        <v>-0.03149584366374689</v>
+        <v>-0.03145569752525373</v>
       </c>
       <c r="P58" s="3">
-        <v>-0.04703906113300359</v>
+        <v>-0.04638656146209973</v>
       </c>
       <c r="Q58" s="3">
-        <v>-0.06278729147251826</v>
+        <v>-0.06215728576050367</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4400,46 +4400,46 @@
         <v>219</v>
       </c>
       <c r="D59" s="1">
-        <v>9859761.442557141</v>
+        <v>9875167.471285714</v>
       </c>
       <c r="E59" s="2">
-        <v>1.108935400625952</v>
+        <v>1.108207715417529</v>
       </c>
       <c r="F59" s="3">
-        <v>0.0442561205273069</v>
+        <v>0.04519774011299438</v>
       </c>
       <c r="G59" s="3">
-        <v>0.02420176909016052</v>
+        <v>0.02489526433640418</v>
       </c>
       <c r="H59" s="3">
-        <v>-0.007162041181736801</v>
+        <v>-0.006266786034019602</v>
       </c>
       <c r="I59" s="3">
-        <v>-0.00147567387842138</v>
+        <v>-0.001434871617551159</v>
       </c>
       <c r="J59" s="3">
-        <v>-0.01158645276292346</v>
+        <v>-0.01069518716577541</v>
       </c>
       <c r="K59" s="3">
-        <v>-0.001826255897841369</v>
+        <v>-0.001796373037565619</v>
       </c>
       <c r="L59" s="3">
-        <v>-0.136964980544747</v>
+        <v>-0.1361867704280154</v>
       </c>
       <c r="M59" s="3">
-        <v>-0.09877146049103562</v>
+        <v>-0.09873963835824194</v>
       </c>
       <c r="N59" s="3">
-        <v>-0.1766889383815887</v>
+        <v>-0.175946547884187</v>
       </c>
       <c r="O59" s="3">
-        <v>-0.04237082612794288</v>
+        <v>-0.04236560692357743</v>
       </c>
       <c r="P59" s="3">
-        <v>-0.05029885819443849</v>
+        <v>-0.05026800569790378</v>
       </c>
       <c r="Q59" s="3">
-        <v>-0.04535778925088577</v>
+        <v>-0.04535973265532154</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4453,46 +4453,46 @@
         <v>220</v>
       </c>
       <c r="D60" s="1">
-        <v>32595089.90434285</v>
+        <v>32662186.1523</v>
       </c>
       <c r="E60" s="2">
-        <v>1.032654015158635</v>
+        <v>1.031438714859886</v>
       </c>
       <c r="F60" s="3">
-        <v>0.04136333553937774</v>
+        <v>0.04268696227663787</v>
       </c>
       <c r="G60" s="3">
-        <v>0.01857623549082871</v>
+        <v>0.01937479824853585</v>
       </c>
       <c r="H60" s="3">
-        <v>-0.032882606023356</v>
+        <v>-0.03165334972341743</v>
       </c>
       <c r="I60" s="3">
-        <v>-0.03006194023706429</v>
+        <v>-0.02976891834423358</v>
       </c>
       <c r="J60" s="3">
-        <v>-0.05637181409295364</v>
+        <v>-0.05517241379310353</v>
       </c>
       <c r="K60" s="3">
-        <v>-0.0605328197351631</v>
+        <v>-0.0603193721985209</v>
       </c>
       <c r="L60" s="3">
-        <v>-0.1967840735068913</v>
+        <v>-0.1957631444614599</v>
       </c>
       <c r="M60" s="3">
-        <v>-0.1488651903610659</v>
+        <v>-0.148822551729203</v>
       </c>
       <c r="N60" s="3">
-        <v>-0.2424169475204623</v>
+        <v>-0.2414540202214733</v>
       </c>
       <c r="O60" s="3">
-        <v>-0.06626613885163592</v>
+        <v>-0.06625995179502059</v>
       </c>
       <c r="P60" s="3">
-        <v>-0.1046990050481145</v>
+        <v>-0.104570961963862</v>
       </c>
       <c r="Q60" s="3">
-        <v>-0.1013882709128195</v>
+        <v>-0.1013835921197386</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4506,46 +4506,46 @@
         <v>221</v>
       </c>
       <c r="D61" s="1">
-        <v>12494203.94278571</v>
+        <v>12527499.83927143</v>
       </c>
       <c r="E61" s="2">
-        <v>1.184485004913461</v>
+        <v>1.182550706325481</v>
       </c>
       <c r="F61" s="3">
-        <v>0.04403131115459887</v>
+        <v>0.0459882583170254</v>
       </c>
       <c r="G61" s="3">
-        <v>0.0509648917895421</v>
+        <v>0.05309014392962939</v>
       </c>
       <c r="H61" s="3">
-        <v>-0.004664179104477616</v>
+        <v>-0.002798507462686647</v>
       </c>
       <c r="I61" s="3">
-        <v>-0.0001985356083026968</v>
+        <v>-0.0001742770209313047</v>
       </c>
       <c r="J61" s="3">
-        <v>-0.02999999999999997</v>
+        <v>-0.02818181818181823</v>
       </c>
       <c r="K61" s="3">
-        <v>-0.01394125558772934</v>
+        <v>-0.01371973665962062</v>
       </c>
       <c r="L61" s="3">
-        <v>-0.1181818181818181</v>
+        <v>-0.1165289256198347</v>
       </c>
       <c r="M61" s="3">
-        <v>-0.1053169292238895</v>
+        <v>-0.1052505387415804</v>
       </c>
       <c r="N61" s="3">
-        <v>-0.1181818181818181</v>
+        <v>-0.1165289256198347</v>
       </c>
       <c r="O61" s="3">
-        <v>-0.0226495342017294</v>
+        <v>-0.02264085553196327</v>
       </c>
       <c r="P61" s="3">
-        <v>-0.05962909240580941</v>
+        <v>-0.05948513770060052</v>
       </c>
       <c r="Q61" s="3">
-        <v>-0.05034178749284036</v>
+        <v>-0.05030239919727216</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4559,46 +4559,46 @@
         <v>222</v>
       </c>
       <c r="D62" s="1">
-        <v>6379783.686305714</v>
+        <v>6412816.203942858</v>
       </c>
       <c r="E62" s="2">
-        <v>0.9922818388573899</v>
+        <v>0.9889967259568111</v>
       </c>
       <c r="F62" s="3">
-        <v>0.03424901890831249</v>
+        <v>0.03817338565822339</v>
       </c>
       <c r="G62" s="3">
-        <v>0.01322566970109436</v>
+        <v>0.01561925667603181</v>
       </c>
       <c r="H62" s="3">
-        <v>-0.01444841067482583</v>
+        <v>-0.01070882202957672</v>
       </c>
       <c r="I62" s="3">
-        <v>-0.01041399906730854</v>
+        <v>-0.009804996659843671</v>
       </c>
       <c r="J62" s="3">
-        <v>-0.01861882193635754</v>
+        <v>-0.01489505754908597</v>
       </c>
       <c r="K62" s="3">
-        <v>-0.01814132597638658</v>
+        <v>-0.01766689480345536</v>
       </c>
       <c r="L62" s="3">
-        <v>-0.1821131330229933</v>
+        <v>-0.1790097333897587</v>
       </c>
       <c r="M62" s="3">
-        <v>-0.1201471088974886</v>
+        <v>-0.1200117813448936</v>
       </c>
       <c r="N62" s="3">
-        <v>-0.1989499861840288</v>
+        <v>-0.1959104725062172</v>
       </c>
       <c r="O62" s="3">
-        <v>-0.05750927484868813</v>
+        <v>-0.05748751066210074</v>
       </c>
       <c r="P62" s="3">
-        <v>-0.06914421743693759</v>
+        <v>-0.06883933807417449</v>
       </c>
       <c r="Q62" s="3">
-        <v>-0.0696820346087932</v>
+        <v>-0.06960522342232775</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4612,46 +4612,46 @@
         <v>223</v>
       </c>
       <c r="D63" s="1">
-        <v>11428524.5787</v>
+        <v>11363897.7732</v>
       </c>
       <c r="E63" s="2">
-        <v>1.197977166458551</v>
+        <v>1.205937147631034</v>
       </c>
       <c r="F63" s="3">
-        <v>0.04482758620689652</v>
+        <v>0.03793103448275851</v>
       </c>
       <c r="G63" s="3">
-        <v>0.0691873001141565</v>
+        <v>0.06110561711383403</v>
       </c>
       <c r="H63" s="3">
-        <v>-0.006557377049180288</v>
+        <v>-0.01311475409836069</v>
       </c>
       <c r="I63" s="3">
-        <v>-1.20483941854289E-05</v>
+        <v>-2.896615864302175E-05</v>
       </c>
       <c r="J63" s="3">
-        <v>-0.003289473684210507</v>
+        <v>-0.009868421052631634</v>
       </c>
       <c r="K63" s="3">
-        <v>-0.001360203417095617</v>
+        <v>-0.001557612104390448</v>
       </c>
       <c r="L63" s="3">
-        <v>-0.1088235294117647</v>
+        <v>-0.1147058823529413</v>
       </c>
       <c r="M63" s="3">
-        <v>-0.07096077431863793</v>
+        <v>-0.07120529815441518</v>
       </c>
       <c r="N63" s="3">
-        <v>-0.0676923076923077</v>
+        <v>-0.07384615384615394</v>
       </c>
       <c r="O63" s="3">
-        <v>-0.01284348850528434</v>
+        <v>-0.01287334189429242</v>
       </c>
       <c r="P63" s="3">
-        <v>-0.03452625555470166</v>
+        <v>-0.03638145512940281</v>
       </c>
       <c r="Q63" s="3">
-        <v>-0.02882046212680985</v>
+        <v>-0.0301686163336715</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4665,46 +4665,46 @@
         <v>224</v>
       </c>
       <c r="D64" s="1">
-        <v>41722837.46049999</v>
+        <v>41830574.84594285</v>
       </c>
       <c r="E64" s="2">
-        <v>1.709491189596109</v>
+        <v>1.706310311069175</v>
       </c>
       <c r="F64" s="3">
-        <v>0.04333667334669334</v>
+        <v>0.04559118236472944</v>
       </c>
       <c r="G64" s="3">
-        <v>0.08092225668610277</v>
+        <v>0.08388843241774421</v>
       </c>
       <c r="H64" s="3">
-        <v>0.03221809169764549</v>
+        <v>0.03444857496902098</v>
       </c>
       <c r="I64" s="3">
-        <v>0.01426706205486257</v>
+        <v>0.01461909210622637</v>
       </c>
       <c r="J64" s="3">
-        <v>0.02738036507153429</v>
+        <v>0.02960039467192899</v>
       </c>
       <c r="K64" s="3">
-        <v>0.01960838864840672</v>
+        <v>0.01981009251626146</v>
       </c>
       <c r="L64" s="3">
-        <v>-0.107181136120043</v>
+        <v>-0.1052518756698822</v>
       </c>
       <c r="M64" s="3">
-        <v>-0.07989880545911301</v>
+        <v>-0.07983502008930375</v>
       </c>
       <c r="N64" s="3">
-        <v>-0.0878230398598336</v>
+        <v>-0.08585194918966275</v>
       </c>
       <c r="O64" s="3">
-        <v>-0.008511951158339895</v>
+        <v>-0.008505507539984688</v>
       </c>
       <c r="P64" s="3">
-        <v>-0.03014520840535315</v>
+        <v>-0.03001246378652115</v>
       </c>
       <c r="Q64" s="3">
-        <v>-0.01763402384804064</v>
+        <v>-0.01758910064120478</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4718,46 +4718,46 @@
         <v>225</v>
       </c>
       <c r="D65" s="1">
-        <v>7598429.989285715</v>
+        <v>7629663.60208</v>
       </c>
       <c r="E65" s="2">
-        <v>1.00370708958666</v>
+        <v>1.001717580984902</v>
       </c>
       <c r="F65" s="3">
-        <v>0.06167633104902482</v>
+        <v>0.06378492356352131</v>
       </c>
       <c r="G65" s="3">
-        <v>0.1206242456690595</v>
+        <v>0.122986867222259</v>
       </c>
       <c r="H65" s="3">
-        <v>0.01206030150753772</v>
+        <v>0.01407035175879392</v>
       </c>
       <c r="I65" s="3">
-        <v>-3.519324830330508E-06</v>
+        <v>-2.218864853382401E-06</v>
       </c>
       <c r="J65" s="3">
-        <v>0.01768569984840844</v>
+        <v>0.01970692268822645</v>
       </c>
       <c r="K65" s="3">
-        <v>6.807648685439394E-06</v>
+        <v>8.398164090836547E-06</v>
       </c>
       <c r="L65" s="3">
-        <v>-0.08951175406871605</v>
+        <v>-0.08770343580470166</v>
       </c>
       <c r="M65" s="3">
-        <v>-0.05554943184834526</v>
+        <v>-0.05547305858868302</v>
       </c>
       <c r="N65" s="3">
-        <v>-0.08909995477159653</v>
+        <v>-0.08729081863410226</v>
       </c>
       <c r="O65" s="3">
-        <v>-0.02439004959375312</v>
+        <v>-0.02437613844753355</v>
       </c>
       <c r="P65" s="3">
-        <v>-0.02777131209982991</v>
+        <v>-0.02773233021229609</v>
       </c>
       <c r="Q65" s="3">
-        <v>-0.02766874159598347</v>
+        <v>-0.02768477936169324</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4771,46 +4771,46 @@
         <v>226</v>
       </c>
       <c r="D66" s="1">
-        <v>9415828.028617572</v>
+        <v>9449994.836275714</v>
       </c>
       <c r="E66" s="2">
-        <v>1.103300401253294</v>
+        <v>1.10082196645038</v>
       </c>
       <c r="F66" s="3">
-        <v>0.05851493139628722</v>
+        <v>0.06133979015334939</v>
       </c>
       <c r="G66" s="3">
-        <v>0.08633566780719995</v>
+        <v>0.08965465899619889</v>
       </c>
       <c r="H66" s="3">
-        <v>-0.008317580340264769</v>
+        <v>-0.005671077504725995</v>
       </c>
       <c r="I66" s="3">
-        <v>-0.00513102071388705</v>
+        <v>-0.004904094124478954</v>
       </c>
       <c r="J66" s="3">
-        <v>-0.01943925233644858</v>
+        <v>-0.01682242990654202</v>
       </c>
       <c r="K66" s="3">
-        <v>-0.009515566780158581</v>
+        <v>-0.009302912218799966</v>
       </c>
       <c r="L66" s="3">
-        <v>-0.1377383300460224</v>
+        <v>-0.1354372123602893</v>
       </c>
       <c r="M66" s="3">
-        <v>-0.09848262884787012</v>
+        <v>-0.09838497962681213</v>
       </c>
       <c r="N66" s="3">
-        <v>-0.1579454253611558</v>
+        <v>-0.1556982343499198</v>
       </c>
       <c r="O66" s="3">
-        <v>-0.03550086548627795</v>
+        <v>-0.03548581024341223</v>
       </c>
       <c r="P66" s="3">
-        <v>-0.05399909781401435</v>
+        <v>-0.05384394592280604</v>
       </c>
       <c r="Q66" s="3">
-        <v>-0.04894324134449158</v>
+        <v>-0.04891249226832457</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4824,46 +4824,46 @@
         <v>227</v>
       </c>
       <c r="D67" s="1">
-        <v>16608025.94212857</v>
+        <v>16684651.58428572</v>
       </c>
       <c r="E67" s="2">
-        <v>1.644597934025128</v>
+        <v>1.639305448750937</v>
       </c>
       <c r="F67" s="3">
-        <v>0.03543199781956934</v>
+        <v>0.03897519760152624</v>
       </c>
       <c r="G67" s="3">
-        <v>0.007216525455102503</v>
+        <v>0.008673410377504321</v>
       </c>
       <c r="H67" s="3">
-        <v>-0.001051801209571392</v>
+        <v>0.002366552721535603</v>
       </c>
       <c r="I67" s="3">
-        <v>3.468803602349813E-09</v>
+        <v>1.728708610495043E-07</v>
       </c>
       <c r="J67" s="3">
-        <v>-0.005497382198952855</v>
+        <v>-0.002094240837696337</v>
       </c>
       <c r="K67" s="3">
-        <v>-0.0001649853253690045</v>
+        <v>-0.0001421013094131405</v>
       </c>
       <c r="L67" s="3">
-        <v>-0.1831864115244033</v>
+        <v>-0.1803913136959794</v>
       </c>
       <c r="M67" s="3">
-        <v>-0.1261765655381003</v>
+        <v>-0.1260530513138249</v>
       </c>
       <c r="N67" s="3">
-        <v>-0.2110072689511943</v>
+        <v>-0.2083073727933542</v>
       </c>
       <c r="O67" s="3">
-        <v>-0.07821356207029456</v>
+        <v>-0.0781918357759388</v>
       </c>
       <c r="P67" s="3">
-        <v>-0.06317077543173465</v>
+        <v>-0.06309757631161901</v>
       </c>
       <c r="Q67" s="3">
-        <v>-0.03841107551261794</v>
+        <v>-0.03849043285965773</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4877,7 +4877,7 @@
         <v>228</v>
       </c>
       <c r="D68" s="1">
-        <v>39453065.2965</v>
+        <v>39485837.39224286</v>
       </c>
       <c r="E68" s="2">
         <v>1.889197288207066</v>
@@ -4930,46 +4930,46 @@
         <v>229</v>
       </c>
       <c r="D69" s="1">
-        <v>5900240.310248571</v>
+        <v>5918473.976297142</v>
       </c>
       <c r="E69" s="2">
-        <v>0.95540746530178</v>
+        <v>0.9537990352255145</v>
       </c>
       <c r="F69" s="3">
-        <v>0.05453467694131599</v>
+        <v>0.05631298162418491</v>
       </c>
       <c r="G69" s="3">
-        <v>0.1603628916543701</v>
+        <v>0.162755194315252</v>
       </c>
       <c r="H69" s="3">
-        <v>-0.02091359383599331</v>
+        <v>-0.01926252063841495</v>
       </c>
       <c r="I69" s="3">
-        <v>-0.009619514279803395</v>
+        <v>-0.009405792410803719</v>
       </c>
       <c r="J69" s="3">
-        <v>-0.02893013100436677</v>
+        <v>-0.027292576419214</v>
       </c>
       <c r="K69" s="3">
-        <v>-0.0371912701978693</v>
+        <v>-0.03691619308679709</v>
       </c>
       <c r="L69" s="3">
-        <v>-0.1564722617354197</v>
+        <v>-0.1550497866287341</v>
       </c>
       <c r="M69" s="3">
-        <v>-0.1220350299203668</v>
+        <v>-0.1219711174249187</v>
       </c>
       <c r="N69" s="3">
-        <v>-0.1782909930715935</v>
+        <v>-0.176905311778291</v>
       </c>
       <c r="O69" s="3">
-        <v>-0.04525641615553021</v>
+        <v>-0.04524701015200841</v>
       </c>
       <c r="P69" s="3">
-        <v>-0.07961315005911804</v>
+        <v>-0.07944365525585791</v>
       </c>
       <c r="Q69" s="3">
-        <v>-0.08332900144753527</v>
+        <v>-0.0832918175861589</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4983,46 +4983,46 @@
         <v>230</v>
       </c>
       <c r="D70" s="1">
-        <v>52593899.13774286</v>
+        <v>52829400.6042</v>
       </c>
       <c r="E70" s="2">
-        <v>1.163349305430186</v>
+        <v>1.159879983505766</v>
       </c>
       <c r="F70" s="3">
-        <v>0.04015784586815223</v>
+        <v>0.04387186629526456</v>
       </c>
       <c r="G70" s="3">
-        <v>0.05091552649754361</v>
+        <v>0.05474279830149425</v>
       </c>
       <c r="H70" s="3">
-        <v>-0.05023314963967783</v>
+        <v>-0.04684188215345488</v>
       </c>
       <c r="I70" s="3">
-        <v>-0.04129920415115668</v>
+        <v>-0.04027861969063347</v>
       </c>
       <c r="J70" s="3">
-        <v>-0.06626380495936653</v>
+        <v>-0.0629297770368827</v>
       </c>
       <c r="K70" s="3">
-        <v>-0.08768517265107179</v>
+        <v>-0.08699144133736327</v>
       </c>
       <c r="L70" s="3">
-        <v>-0.2110915492957746</v>
+        <v>-0.2082746478873239</v>
       </c>
       <c r="M70" s="3">
-        <v>-0.1620231162725937</v>
+        <v>-0.1619008075977816</v>
       </c>
       <c r="N70" s="3">
-        <v>-0.2716189856957087</v>
+        <v>-0.2690182054616385</v>
       </c>
       <c r="O70" s="3">
-        <v>-0.07964374395340462</v>
+        <v>-0.07962546057354522</v>
       </c>
       <c r="P70" s="3">
-        <v>-0.1248541444618327</v>
+        <v>-0.1244461244675724</v>
       </c>
       <c r="Q70" s="3">
-        <v>-0.107323005978556</v>
+        <v>-0.1072922425054969</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5036,46 +5036,46 @@
         <v>231</v>
       </c>
       <c r="D71" s="1">
-        <v>243300294.2080114</v>
+        <v>244218321.7138</v>
       </c>
       <c r="E71" s="2">
-        <v>1.544969895829333</v>
+        <v>1.540114944472454</v>
       </c>
       <c r="F71" s="3">
-        <v>0.05354965769483253</v>
+        <v>0.05692581825002337</v>
       </c>
       <c r="G71" s="3">
-        <v>0.141754714078901</v>
+        <v>0.1463714962100615</v>
       </c>
       <c r="H71" s="3">
-        <v>-0.04812743602779194</v>
+        <v>-0.04507710557532626</v>
       </c>
       <c r="I71" s="3">
-        <v>-0.03981503843343105</v>
+        <v>-0.03900596163215981</v>
       </c>
       <c r="J71" s="3">
-        <v>-0.06234871880477427</v>
+        <v>-0.05934396127201406</v>
       </c>
       <c r="K71" s="3">
-        <v>-0.08173485409527977</v>
+        <v>-0.08115897300296578</v>
       </c>
       <c r="L71" s="3">
-        <v>-0.2014500995166335</v>
+        <v>-0.1988911003696333</v>
       </c>
       <c r="M71" s="3">
-        <v>-0.1521318970685499</v>
+        <v>-0.1520269100858284</v>
       </c>
       <c r="N71" s="3">
-        <v>-0.3026691495965239</v>
+        <v>-0.3004345127250155</v>
       </c>
       <c r="O71" s="3">
-        <v>-0.09152928909989082</v>
+        <v>-0.09151149804631668</v>
       </c>
       <c r="P71" s="3">
-        <v>-0.1169333755819148</v>
+        <v>-0.1165929415443971</v>
       </c>
       <c r="Q71" s="3">
-        <v>-0.07568650748314126</v>
+        <v>-0.07570405180655811</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -5089,46 +5089,46 @@
         <v>232</v>
       </c>
       <c r="D72" s="1">
-        <v>23270006.31142857</v>
+        <v>23329215.99</v>
       </c>
       <c r="E72" s="2">
-        <v>0.9341891449508579</v>
+        <v>0.9325684946374363</v>
       </c>
       <c r="F72" s="3">
-        <v>0.05610907184058724</v>
+        <v>0.05794441531200841</v>
       </c>
       <c r="G72" s="3">
-        <v>0.1133799091892549</v>
+        <v>0.1155749610628651</v>
       </c>
       <c r="H72" s="3">
-        <v>0.03149807938540327</v>
+        <v>0.0332906530089629</v>
       </c>
       <c r="I72" s="3">
-        <v>0.01260404683800096</v>
+        <v>0.01284140703494824</v>
       </c>
       <c r="J72" s="3">
-        <v>0.03520945772295037</v>
+        <v>0.0370084811102545</v>
       </c>
       <c r="K72" s="3">
-        <v>0.0256208300515716</v>
+        <v>0.02576371956879978</v>
       </c>
       <c r="L72" s="3">
-        <v>-0.08765571913929787</v>
+        <v>-0.0860702151755379</v>
       </c>
       <c r="M72" s="3">
-        <v>-0.04850930505704928</v>
+        <v>-0.04844621649111956</v>
       </c>
       <c r="N72" s="3">
-        <v>-0.152</v>
+        <v>-0.1505263157894736</v>
       </c>
       <c r="O72" s="3">
-        <v>-0.03624582690336479</v>
+        <v>-0.03623120884725898</v>
       </c>
       <c r="P72" s="3">
-        <v>-0.01144423750273884</v>
+        <v>-0.01134124846115989</v>
       </c>
       <c r="Q72" s="3">
-        <v>-0.01225045009845501</v>
+        <v>-0.01216130346068482</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5142,46 +5142,46 @@
         <v>233</v>
       </c>
       <c r="D73" s="1">
-        <v>20634725.70087428</v>
+        <v>20697568.30065143</v>
       </c>
       <c r="E73" s="2">
-        <v>1.336684882648804</v>
+        <v>1.333640938093871</v>
       </c>
       <c r="F73" s="3">
-        <v>0.04289349327517268</v>
+        <v>0.04543802253725922</v>
       </c>
       <c r="G73" s="3">
-        <v>0.02548106330562767</v>
+        <v>0.02738483930127658</v>
       </c>
       <c r="H73" s="3">
-        <v>-0.002607335303319961</v>
+        <v>-0.0001738223535545998</v>
       </c>
       <c r="I73" s="3">
-        <v>-0.0004924712853197258</v>
+        <v>-0.0004422109403682567</v>
       </c>
       <c r="J73" s="3">
-        <v>-0.008809811711867276</v>
+        <v>-0.006391432026256613</v>
       </c>
       <c r="K73" s="3">
-        <v>-0.00227713680848866</v>
+        <v>-0.002184348580236342</v>
       </c>
       <c r="L73" s="3">
-        <v>-0.1458767490324502</v>
+        <v>-0.1437927954748437</v>
       </c>
       <c r="M73" s="3">
-        <v>-0.09713020951824496</v>
+        <v>-0.09703855807001643</v>
       </c>
       <c r="N73" s="3">
-        <v>-0.1053944496414094</v>
+        <v>-0.1032117243529779</v>
       </c>
       <c r="O73" s="3">
-        <v>-0.02076198968781199</v>
+        <v>-0.02075100590576067</v>
       </c>
       <c r="P73" s="3">
-        <v>-0.04970367316336681</v>
+        <v>-0.04961145332512639</v>
       </c>
       <c r="Q73" s="3">
-        <v>-0.03718428614594108</v>
+        <v>-0.03720000781922188</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5195,46 +5195,46 @@
         <v>234</v>
       </c>
       <c r="D74" s="1">
-        <v>6007341.668941429</v>
+        <v>6025045.540988572</v>
       </c>
       <c r="E74" s="2">
-        <v>1.081032115565275</v>
+        <v>1.08095154442189</v>
       </c>
       <c r="F74" s="3">
-        <v>0.0689655172413792</v>
+        <v>0.06945118989800877</v>
       </c>
       <c r="G74" s="3">
-        <v>0.07706028251059042</v>
+        <v>0.07755731021366778</v>
       </c>
       <c r="H74" s="3">
-        <v>0.02039870190078811</v>
+        <v>0.0208623087621698</v>
       </c>
       <c r="I74" s="3">
-        <v>0.0002658354614670041</v>
+        <v>0.0002714698138228106</v>
       </c>
       <c r="J74" s="3">
-        <v>0.01662817551963045</v>
+        <v>0.01709006928406477</v>
       </c>
       <c r="K74" s="3">
-        <v>0.0001194632630570375</v>
+        <v>0.0001216191687363559</v>
       </c>
       <c r="L74" s="3">
-        <v>-0.1074614760746149</v>
+        <v>-0.1070559610705596</v>
       </c>
       <c r="M74" s="3">
-        <v>-0.07246215462623468</v>
+        <v>-0.0724449164906</v>
       </c>
       <c r="N74" s="3">
-        <v>-0.1978862973760933</v>
+        <v>-0.1975218658892127</v>
       </c>
       <c r="O74" s="3">
-        <v>-0.06144547068281773</v>
+        <v>-0.06144179086274375</v>
       </c>
       <c r="P74" s="3">
-        <v>-0.03617134568158882</v>
+        <v>-0.03616164866093182</v>
       </c>
       <c r="Q74" s="3">
-        <v>-0.03346001026313145</v>
+        <v>-0.03345353346090239</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -5248,46 +5248,46 @@
         <v>235</v>
       </c>
       <c r="D75" s="1">
-        <v>8684911.396342857</v>
+        <v>8718352.525714286</v>
       </c>
       <c r="E75" s="2">
-        <v>1.033939149385898</v>
+        <v>1.031160807488135</v>
       </c>
       <c r="F75" s="3">
-        <v>0.04986686032437655</v>
+        <v>0.05301379811183719</v>
       </c>
       <c r="G75" s="3">
-        <v>0.07348053070892906</v>
+        <v>0.07696090017234129</v>
       </c>
       <c r="H75" s="3">
-        <v>0.005797773654916388</v>
+        <v>0.008812615955472952</v>
       </c>
       <c r="I75" s="3">
-        <v>-0.0001645981682135495</v>
+        <v>-0.0001358122022568417</v>
       </c>
       <c r="J75" s="3">
-        <v>-0.03407572383073507</v>
+        <v>-0.03118040089086872</v>
       </c>
       <c r="K75" s="3">
-        <v>-0.01407190792163811</v>
+        <v>-0.01374617064714264</v>
       </c>
       <c r="L75" s="3">
-        <v>-0.1636293510751134</v>
+        <v>-0.161122360428117</v>
       </c>
       <c r="M75" s="3">
-        <v>-0.1321567475354247</v>
+        <v>-0.1320437390406674</v>
       </c>
       <c r="N75" s="3">
-        <v>-0.1750047555640099</v>
+        <v>-0.1725318622788663</v>
       </c>
       <c r="O75" s="3">
-        <v>-0.03664919491658442</v>
+        <v>-0.03663364405150771</v>
       </c>
       <c r="P75" s="3">
-        <v>-0.07311432772853139</v>
+        <v>-0.07289495484390503</v>
       </c>
       <c r="Q75" s="3">
-        <v>-0.07071434307517731</v>
+        <v>-0.07069213096013037</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5301,46 +5301,46 @@
         <v>236</v>
       </c>
       <c r="D76" s="1">
-        <v>10519789.35136714</v>
+        <v>10562996.97632571</v>
       </c>
       <c r="E76" s="2">
-        <v>1.224412362349355</v>
+        <v>1.220561857312227</v>
       </c>
       <c r="F76" s="3">
-        <v>0.03784834737524311</v>
+        <v>0.04121840570317566</v>
       </c>
       <c r="G76" s="3">
-        <v>0.01356479013115253</v>
+        <v>0.01552190232938072</v>
       </c>
       <c r="H76" s="3">
-        <v>-0.01537137235612397</v>
+        <v>-0.01217412690605023</v>
       </c>
       <c r="I76" s="3">
-        <v>-0.01434156672772025</v>
+        <v>-0.01375470964621074</v>
       </c>
       <c r="J76" s="3">
-        <v>-0.02186660151478133</v>
+        <v>-0.01869044710481314</v>
       </c>
       <c r="K76" s="3">
-        <v>-0.01633607982281729</v>
+        <v>-0.01597981937440061</v>
       </c>
       <c r="L76" s="3">
-        <v>-0.1531464833421469</v>
+        <v>-0.1503966155473294</v>
       </c>
       <c r="M76" s="3">
-        <v>-0.09998693512646331</v>
+        <v>-0.09987781922083216</v>
       </c>
       <c r="N76" s="3">
-        <v>-0.1152486187845303</v>
+        <v>-0.1123756906077348</v>
       </c>
       <c r="O76" s="3">
-        <v>-0.009121611709227454</v>
+        <v>-0.009111708587334897</v>
       </c>
       <c r="P76" s="3">
-        <v>-0.0581615074746403</v>
+        <v>-0.05792881929761639</v>
       </c>
       <c r="Q76" s="3">
-        <v>-0.04750156831399696</v>
+        <v>-0.04746078123822434</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -5354,46 +5354,46 @@
         <v>237</v>
       </c>
       <c r="D77" s="1">
-        <v>152928439.5947143</v>
+        <v>154213922.4228572</v>
       </c>
       <c r="E77" s="2">
-        <v>1.529341820170792</v>
+        <v>1.519952248341551</v>
       </c>
       <c r="F77" s="3">
-        <v>0.06263399693721283</v>
+        <v>0.07029096477794787</v>
       </c>
       <c r="G77" s="3">
-        <v>0.1513440630489717</v>
+        <v>0.1618536629918441</v>
       </c>
       <c r="H77" s="3">
-        <v>0.0150672908133411</v>
+        <v>0.02238150965476881</v>
       </c>
       <c r="I77" s="3">
-        <v>0.0001884742732869765</v>
+        <v>0.0002701494599558274</v>
       </c>
       <c r="J77" s="3">
-        <v>0.0004325259515571098</v>
+        <v>0.007641291810841975</v>
       </c>
       <c r="K77" s="3">
-        <v>0.0002574711666786197</v>
+        <v>0.0003178099496134264</v>
       </c>
       <c r="L77" s="3">
-        <v>-0.09812841174941511</v>
+        <v>-0.09162984143488434</v>
       </c>
       <c r="M77" s="3">
-        <v>-0.06666164443139661</v>
+        <v>-0.06639029465911683</v>
       </c>
       <c r="N77" s="3">
-        <v>-0.2076053442959917</v>
+        <v>-0.201895626356058</v>
       </c>
       <c r="O77" s="3">
-        <v>-0.06617968727928322</v>
+        <v>-0.06611931361451537</v>
       </c>
       <c r="P77" s="3">
-        <v>-0.03320208663235899</v>
+        <v>-0.0330362423547517</v>
       </c>
       <c r="Q77" s="3">
-        <v>-0.02171004950917454</v>
+        <v>-0.02173505278919004</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -5407,46 +5407,46 @@
         <v>238</v>
       </c>
       <c r="D78" s="1">
-        <v>4452011.487142857</v>
+        <v>4472021.366057144</v>
       </c>
       <c r="E78" s="2">
-        <v>0.7623752698631909</v>
+        <v>0.7606789120230949</v>
       </c>
       <c r="F78" s="3">
-        <v>0.04596834966088918</v>
+        <v>0.04943481537302193</v>
       </c>
       <c r="G78" s="3">
-        <v>0.1534441129080902</v>
+        <v>0.1578197077995357</v>
       </c>
       <c r="H78" s="3">
-        <v>0.008720930232558148</v>
+        <v>0.01206395348837222</v>
       </c>
       <c r="I78" s="3">
-        <v>-0.0002230756703022895</v>
+        <v>-0.0001790992870845227</v>
       </c>
       <c r="J78" s="3">
-        <v>0.008134805345729138</v>
+        <v>0.01147588611272519</v>
       </c>
       <c r="K78" s="3">
-        <v>-0.004988365586686106</v>
+        <v>-0.004753267813105245</v>
       </c>
       <c r="L78" s="3">
-        <v>-0.08911930699566882</v>
+        <v>-0.08610053812836328</v>
       </c>
       <c r="M78" s="3">
-        <v>-0.06126770948147471</v>
+        <v>-0.06114044561056085</v>
       </c>
       <c r="N78" s="3">
-        <v>-0.1018506535524785</v>
+        <v>-0.09887407790863209</v>
       </c>
       <c r="O78" s="3">
-        <v>-0.02654563199299077</v>
+        <v>-0.02652463103164126</v>
       </c>
       <c r="P78" s="3">
-        <v>-0.03312803753408041</v>
+        <v>-0.03294685671183305</v>
       </c>
       <c r="Q78" s="3">
-        <v>-0.0434537147827805</v>
+        <v>-0.04331243602403526</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -5460,46 +5460,46 @@
         <v>239</v>
       </c>
       <c r="D79" s="1">
-        <v>9114873.501014285</v>
+        <v>9159829.092900001</v>
       </c>
       <c r="E79" s="2">
-        <v>1.16478136759538</v>
+        <v>1.160909337809814</v>
       </c>
       <c r="F79" s="3">
-        <v>0.04889912954429085</v>
+        <v>0.05299539170506912</v>
       </c>
       <c r="G79" s="3">
-        <v>0.05820494030402461</v>
+        <v>0.06195449017520673</v>
       </c>
       <c r="H79" s="3">
-        <v>-0.02266221374045804</v>
+        <v>-0.01884541984732829</v>
       </c>
       <c r="I79" s="3">
-        <v>-0.0394957230342557</v>
+        <v>-0.03839978027276433</v>
       </c>
       <c r="J79" s="3">
-        <v>-0.02289530169329835</v>
+        <v>-0.01907941807774865</v>
       </c>
       <c r="K79" s="3">
-        <v>-0.02696816982253673</v>
+        <v>-0.02646991759784395</v>
       </c>
       <c r="L79" s="3">
-        <v>-0.1301486199575371</v>
+        <v>-0.1267515923566878</v>
       </c>
       <c r="M79" s="3">
-        <v>-0.09341839068779888</v>
+        <v>-0.09328263873182956</v>
       </c>
       <c r="N79" s="3">
-        <v>-0.1303332625769476</v>
+        <v>-0.1269369560602845</v>
       </c>
       <c r="O79" s="3">
-        <v>-0.0204386075099844</v>
+        <v>-0.02042089484473349</v>
       </c>
       <c r="P79" s="3">
-        <v>-0.06019328025516781</v>
+        <v>-0.05987627816483675</v>
       </c>
       <c r="Q79" s="3">
-        <v>-0.05167774994498168</v>
+        <v>-0.05157704931360109</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -5513,46 +5513,46 @@
         <v>240</v>
       </c>
       <c r="D80" s="1">
-        <v>137239599.95697</v>
+        <v>136943269.9322143</v>
       </c>
       <c r="E80" s="2">
-        <v>1.904832024823228</v>
+        <v>1.913830081447088</v>
       </c>
       <c r="F80" s="3">
-        <v>0.04372926343729272</v>
+        <v>0.03981420039814204</v>
       </c>
       <c r="G80" s="3">
-        <v>0.07055044815524973</v>
+        <v>0.06582635690765264</v>
       </c>
       <c r="H80" s="3">
-        <v>0.06356075461491663</v>
+        <v>0.05957130299546969</v>
       </c>
       <c r="I80" s="3">
-        <v>0.1296276465355293</v>
+        <v>0.128320252718423</v>
       </c>
       <c r="J80" s="3">
-        <v>0.03521126760563394</v>
+        <v>0.03132815585099391</v>
       </c>
       <c r="K80" s="3">
-        <v>0.05113862667217442</v>
+        <v>0.0507467464190734</v>
       </c>
       <c r="L80" s="3">
-        <v>-0.07509114430201091</v>
+        <v>-0.07856050805598015</v>
       </c>
       <c r="M80" s="3">
-        <v>-0.06780537157911427</v>
+        <v>-0.06794106443148305</v>
       </c>
       <c r="N80" s="3">
-        <v>0.1239013933547697</v>
+        <v>0.1196856020007147</v>
       </c>
       <c r="O80" s="3">
-        <v>0.003074168319142455</v>
+        <v>0.003067618373054175</v>
       </c>
       <c r="P80" s="3">
-        <v>0.06084453741371208</v>
+        <v>0.05828655166336302</v>
       </c>
       <c r="Q80" s="3">
-        <v>0.0319422062527317</v>
+        <v>0.03045544754907985</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5566,46 +5566,46 @@
         <v>241</v>
       </c>
       <c r="D81" s="1">
-        <v>277314019.8673286</v>
+        <v>278799963.7852857</v>
       </c>
       <c r="E81" s="2">
-        <v>0.9249522511527575</v>
+        <v>0.9220463739106461</v>
       </c>
       <c r="F81" s="3">
-        <v>0.03168649767201237</v>
+        <v>0.03582514226590785</v>
       </c>
       <c r="G81" s="3">
-        <v>0.01460144215715639</v>
+        <v>0.01715423036054711</v>
       </c>
       <c r="H81" s="3">
-        <v>-0.01797365505355171</v>
+        <v>-0.01403422380893768</v>
       </c>
       <c r="I81" s="3">
-        <v>-0.0003982321384725111</v>
+        <v>-0.0003241941468933206</v>
       </c>
       <c r="J81" s="3">
-        <v>-0.02146712463199224</v>
+        <v>-0.01754170755642798</v>
       </c>
       <c r="K81" s="3">
-        <v>-0.01797066438122706</v>
+        <v>-0.01745731960170896</v>
       </c>
       <c r="L81" s="3">
-        <v>-0.1367817335786171</v>
+        <v>-0.1333189048804243</v>
       </c>
       <c r="M81" s="3">
-        <v>-0.08913155782417197</v>
+        <v>-0.08898198300800869</v>
       </c>
       <c r="N81" s="3">
-        <v>-0.1300981461286806</v>
+        <v>-0.1266085059978191</v>
       </c>
       <c r="O81" s="3">
-        <v>-0.03107963143523953</v>
+        <v>-0.03105750467368121</v>
       </c>
       <c r="P81" s="3">
-        <v>-0.05355111110269951</v>
+        <v>-0.05321965130485883</v>
       </c>
       <c r="Q81" s="3">
-        <v>-0.05789608170147094</v>
+        <v>-0.05771906143846106</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5619,46 +5619,46 @@
         <v>242</v>
       </c>
       <c r="D82" s="1">
-        <v>9227229.095057143</v>
+        <v>9254180.826199999</v>
       </c>
       <c r="E82" s="2">
-        <v>1.200586494087702</v>
+        <v>1.197710148869476</v>
       </c>
       <c r="F82" s="3">
-        <v>0.04781077000503276</v>
+        <v>0.05032712632108712</v>
       </c>
       <c r="G82" s="3">
-        <v>0.06153251038114649</v>
+        <v>0.06425625191375051</v>
       </c>
       <c r="H82" s="3">
-        <v>-0.009043312708234235</v>
+        <v>-0.006663493574488397</v>
       </c>
       <c r="I82" s="3">
-        <v>-0.004479569622743215</v>
+        <v>-0.004260954581849689</v>
       </c>
       <c r="J82" s="3">
-        <v>-0.03655714946783892</v>
+        <v>-0.03424340583063392</v>
       </c>
       <c r="K82" s="3">
-        <v>-0.0238986898225743</v>
+        <v>-0.02354602286806283</v>
       </c>
       <c r="L82" s="3">
-        <v>-0.1594670972951151</v>
+        <v>-0.1574485264432782</v>
       </c>
       <c r="M82" s="3">
-        <v>-0.1254607874751548</v>
+        <v>-0.1253708403299751</v>
       </c>
       <c r="N82" s="3">
-        <v>-0.1734815402937674</v>
+        <v>-0.1714966256450973</v>
       </c>
       <c r="O82" s="3">
-        <v>-0.03782106114848909</v>
+        <v>-0.03780861643610172</v>
       </c>
       <c r="P82" s="3">
-        <v>-0.07467973864886455</v>
+        <v>-0.07445843159901898</v>
       </c>
       <c r="Q82" s="3">
-        <v>-0.06220271427058818</v>
+        <v>-0.06216732125823651</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5672,46 +5672,46 @@
         <v>243</v>
       </c>
       <c r="D83" s="1">
-        <v>17108031.66083315</v>
+        <v>17168941.23833857</v>
       </c>
       <c r="E83" s="2">
-        <v>1.171444886799575</v>
+        <v>1.168308041727012</v>
       </c>
       <c r="F83" s="3">
-        <v>0.04125359769747369</v>
+        <v>0.04413175567636716</v>
       </c>
       <c r="G83" s="3">
-        <v>0.04553766249203901</v>
+        <v>0.04853158852699657</v>
       </c>
       <c r="H83" s="3">
-        <v>0.006802721088435473</v>
+        <v>0.009585652442795366</v>
       </c>
       <c r="I83" s="3">
-        <v>-3.058240223873401E-06</v>
+        <v>-1.344673136827303E-06</v>
       </c>
       <c r="J83" s="3">
-        <v>-0.000613873542050286</v>
+        <v>0.002148557397176201</v>
       </c>
       <c r="K83" s="3">
-        <v>-0.0001025640204509409</v>
+        <v>-8.831731750899571E-05</v>
       </c>
       <c r="L83" s="3">
-        <v>-0.2039119804400977</v>
+        <v>-0.2017114914425427</v>
       </c>
       <c r="M83" s="3">
-        <v>-0.1367553866281253</v>
+        <v>-0.136650042837921</v>
       </c>
       <c r="N83" s="3">
-        <v>-0.2243925678894712</v>
+        <v>-0.2222486898523107</v>
       </c>
       <c r="O83" s="3">
-        <v>-0.06875443174643725</v>
+        <v>-0.06873699197782945</v>
       </c>
       <c r="P83" s="3">
-        <v>-0.06842897532428813</v>
+        <v>-0.068369180077715</v>
       </c>
       <c r="Q83" s="3">
-        <v>-0.05841416535714138</v>
+        <v>-0.05851982322799951</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5725,46 +5725,46 @@
         <v>244</v>
       </c>
       <c r="D84" s="1">
-        <v>165751896.7335143</v>
+        <v>166200115.9093429</v>
       </c>
       <c r="E84" s="2">
-        <v>1.528655427533614</v>
+        <v>1.525559938986465</v>
       </c>
       <c r="F84" s="3">
-        <v>0.05193881181074347</v>
+        <v>0.05407328352899329</v>
       </c>
       <c r="G84" s="3">
-        <v>0.04639363093844574</v>
+        <v>0.04835545509853743</v>
       </c>
       <c r="H84" s="3">
-        <v>-0.02858081471747707</v>
+        <v>-0.02660972404730616</v>
       </c>
       <c r="I84" s="3">
-        <v>-0.001076964466870032</v>
+        <v>-0.00102888037180333</v>
       </c>
       <c r="J84" s="3">
-        <v>-0.07333124412409903</v>
+        <v>-0.07145095581322462</v>
       </c>
       <c r="K84" s="3">
-        <v>-0.04105726636596401</v>
+        <v>-0.04080706842512949</v>
       </c>
       <c r="L84" s="3">
-        <v>-0.3161424606845514</v>
+        <v>-0.314754856614246</v>
       </c>
       <c r="M84" s="3">
-        <v>-0.2459799648588375</v>
+        <v>-0.2459103127109611</v>
       </c>
       <c r="N84" s="3">
-        <v>-0.3554925893635572</v>
+        <v>-0.3541848299912816</v>
       </c>
       <c r="O84" s="3">
-        <v>-0.1065406658888777</v>
+        <v>-0.1065300185586516</v>
       </c>
       <c r="P84" s="3">
-        <v>-0.1435186156124008</v>
+        <v>-0.1433586905680453</v>
       </c>
       <c r="Q84" s="3">
-        <v>-0.09388552385802125</v>
+        <v>-0.09397119503759939</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5778,46 +5778,46 @@
         <v>245</v>
       </c>
       <c r="D85" s="1">
-        <v>27174376.09142857</v>
+        <v>27254028.284</v>
       </c>
       <c r="E85" s="2">
-        <v>0.9414001084608992</v>
+        <v>0.9394267422580541</v>
       </c>
       <c r="F85" s="3">
-        <v>0.03538175046554932</v>
+        <v>0.03761638733705765</v>
       </c>
       <c r="G85" s="3">
-        <v>0.01705133708753297</v>
+        <v>0.01852359736350948</v>
       </c>
       <c r="H85" s="3">
-        <v>-0.003584229390680927</v>
+        <v>-0.001433691756272371</v>
       </c>
       <c r="I85" s="3">
-        <v>1.106089007011211E-05</v>
+        <v>1.548847150758535E-05</v>
       </c>
       <c r="J85" s="3">
-        <v>0.001621329490182011</v>
+        <v>0.003783102143757897</v>
       </c>
       <c r="K85" s="3">
-        <v>-5.194420022063003E-06</v>
+        <v>-3.763517648433783E-06</v>
       </c>
       <c r="L85" s="3">
-        <v>-0.1035149951628507</v>
+        <v>-0.1015801354401806</v>
       </c>
       <c r="M85" s="3">
-        <v>-0.06803278418175505</v>
+        <v>-0.06795546027074767</v>
       </c>
       <c r="N85" s="3">
-        <v>-0.130162703379224</v>
+        <v>-0.1282853566958699</v>
       </c>
       <c r="O85" s="3">
-        <v>-0.02750472188199858</v>
+        <v>-0.02749143458043355</v>
       </c>
       <c r="P85" s="3">
-        <v>-0.03401898930088856</v>
+        <v>-0.03397961189419805</v>
       </c>
       <c r="Q85" s="3">
-        <v>-0.03613658952781131</v>
+        <v>-0.03617058187264599</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5831,46 +5831,46 @@
         <v>246</v>
       </c>
       <c r="D86" s="1">
-        <v>104278389.3115714</v>
+        <v>104537541.015</v>
       </c>
       <c r="E86" s="2">
-        <v>1.329754388489616</v>
+        <v>1.32822038465783</v>
       </c>
       <c r="F86" s="3">
-        <v>0.06438791732909377</v>
+        <v>0.06597774244833066</v>
       </c>
       <c r="G86" s="3">
-        <v>0.1028953190446312</v>
+        <v>0.104792840621844</v>
       </c>
       <c r="H86" s="3">
-        <v>-0.01760821716801176</v>
+        <v>-0.01614086573734411</v>
       </c>
       <c r="I86" s="3">
-        <v>-0.000981329297151997</v>
+        <v>-0.00094024452065867</v>
       </c>
       <c r="J86" s="3">
-        <v>-0.03876525484565689</v>
+        <v>-0.03732950466618812</v>
       </c>
       <c r="K86" s="3">
-        <v>-0.0278285045363517</v>
+        <v>-0.02762555511841003</v>
       </c>
       <c r="L86" s="3">
-        <v>-0.2169590643274854</v>
+        <v>-0.2157894736842105</v>
       </c>
       <c r="M86" s="3">
-        <v>-0.1678193600609659</v>
+        <v>-0.1677624898208668</v>
       </c>
       <c r="N86" s="3">
-        <v>-0.2506994963626189</v>
+        <v>-0.2495803021824286</v>
       </c>
       <c r="O86" s="3">
-        <v>-0.07028218282128383</v>
+        <v>-0.07027352817198321</v>
       </c>
       <c r="P86" s="3">
-        <v>-0.09782393229865881</v>
+        <v>-0.09769402246963842</v>
       </c>
       <c r="Q86" s="3">
-        <v>-0.07356541414371327</v>
+        <v>-0.07355256973774414</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5884,46 +5884,46 @@
         <v>247</v>
       </c>
       <c r="D87" s="1">
-        <v>11955669.44</v>
+        <v>11988063.80357143</v>
       </c>
       <c r="E87" s="2">
-        <v>1.129827722575078</v>
+        <v>1.127545242327451</v>
       </c>
       <c r="F87" s="3">
-        <v>0.02108309218685399</v>
+        <v>0.02315006200909461</v>
       </c>
       <c r="G87" s="3">
-        <v>0.001239825447276059</v>
+        <v>0.001578664368497428</v>
       </c>
       <c r="H87" s="3">
-        <v>-0.02602523659305994</v>
+        <v>-0.02405362776025234</v>
       </c>
       <c r="I87" s="3">
-        <v>-0.03992538985328916</v>
+        <v>-0.0392747566672702</v>
       </c>
       <c r="J87" s="3">
-        <v>-0.03440187646598902</v>
+        <v>-0.03244722439405779</v>
       </c>
       <c r="K87" s="3">
-        <v>-0.02240734211883653</v>
+        <v>-0.02217069793313377</v>
       </c>
       <c r="L87" s="3">
-        <v>-0.1447368421052632</v>
+        <v>-0.143005540166205</v>
       </c>
       <c r="M87" s="3">
-        <v>-0.074099129231566</v>
+        <v>-0.07403437422805062</v>
       </c>
       <c r="N87" s="3">
-        <v>-0.190694626474443</v>
+        <v>-0.1890563564875491</v>
       </c>
       <c r="O87" s="3">
-        <v>-0.06001652430086419</v>
+        <v>-0.06000449120223431</v>
       </c>
       <c r="P87" s="3">
-        <v>-0.04825323567520127</v>
+        <v>-0.0481025360805922</v>
       </c>
       <c r="Q87" s="3">
-        <v>-0.04270848972020582</v>
+        <v>-0.04266129133878488</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5937,46 +5937,46 @@
         <v>248</v>
       </c>
       <c r="D88" s="1">
-        <v>27641359.6412</v>
+        <v>28493323.93998857</v>
       </c>
       <c r="E88" s="2">
-        <v>1.737792105054802</v>
+        <v>1.709135933711143</v>
       </c>
       <c r="F88" s="3">
-        <v>0.00104900344672562</v>
+        <v>0.01783305859433533</v>
       </c>
       <c r="G88" s="3">
-        <v>1.165618627176493E-05</v>
+        <v>0.0004111461919115672</v>
       </c>
       <c r="H88" s="3">
-        <v>-0.1129996016465277</v>
+        <v>-0.09812773868012226</v>
       </c>
       <c r="I88" s="3">
-        <v>-0.1560015240813145</v>
+        <v>-0.1509058961904191</v>
       </c>
       <c r="J88" s="3">
-        <v>-0.1140583554376658</v>
+        <v>-0.09920424403183026</v>
       </c>
       <c r="K88" s="3">
-        <v>-0.12143110565899</v>
+        <v>-0.1195272976784673</v>
       </c>
       <c r="L88" s="3">
-        <v>-0.2134699164017427</v>
+        <v>-0.2002825856587779</v>
       </c>
       <c r="M88" s="3">
-        <v>-0.1366589475663314</v>
+        <v>-0.1363205338695175</v>
       </c>
       <c r="N88" s="3">
-        <v>-0.2824919441460795</v>
+        <v>-0.2704618689581096</v>
       </c>
       <c r="O88" s="3">
-        <v>-0.04697852148951544</v>
+        <v>-0.04694010535002399</v>
       </c>
       <c r="P88" s="3">
-        <v>-0.1290450266126607</v>
+        <v>-0.1279239157739924</v>
       </c>
       <c r="Q88" s="3">
-        <v>-0.07425803480019331</v>
+        <v>-0.0748471278678367</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5990,46 +5990,46 @@
         <v>249</v>
       </c>
       <c r="D89" s="1">
-        <v>4446946.362</v>
+        <v>4459721.829042857</v>
       </c>
       <c r="E89" s="2">
-        <v>1.119034427549144</v>
+        <v>1.116941209390616</v>
       </c>
       <c r="F89" s="3">
-        <v>0.03091190108191657</v>
+        <v>0.03284389489953635</v>
       </c>
       <c r="G89" s="3">
-        <v>0.02018058221187315</v>
+        <v>0.02165983819843031</v>
       </c>
       <c r="H89" s="3">
-        <v>-0.02592186929536325</v>
+        <v>-0.02409638554216866</v>
       </c>
       <c r="I89" s="3">
-        <v>-0.03226636215028284</v>
+        <v>-0.03173118805003442</v>
       </c>
       <c r="J89" s="3">
-        <v>-0.04543828264758513</v>
+        <v>-0.04364937388193218</v>
       </c>
       <c r="K89" s="3">
-        <v>-0.0414237390190333</v>
+        <v>-0.04112459355287707</v>
       </c>
       <c r="L89" s="3">
-        <v>-0.1401869158878506</v>
+        <v>-0.1385755720270707</v>
       </c>
       <c r="M89" s="3">
-        <v>-0.089820320287884</v>
+        <v>-0.08975925002186264</v>
       </c>
       <c r="N89" s="3">
-        <v>-0.1830985915492958</v>
+        <v>-0.18156766687079</v>
       </c>
       <c r="O89" s="3">
-        <v>-0.04569800412615906</v>
+        <v>-0.04568810476155218</v>
       </c>
       <c r="P89" s="3">
-        <v>-0.06562202965345865</v>
+        <v>-0.06544192178736985</v>
       </c>
       <c r="Q89" s="3">
-        <v>-0.05864165394551882</v>
+        <v>-0.05859030111627258</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -6043,46 +6043,46 @@
         <v>250</v>
       </c>
       <c r="D90" s="1">
-        <v>7865000.771571428</v>
+        <v>7906809.789600001</v>
       </c>
       <c r="E90" s="2">
-        <v>1.15664025843643</v>
+        <v>1.152086556631562</v>
       </c>
       <c r="F90" s="3">
-        <v>0.03830369357045139</v>
+        <v>0.04240766073871417</v>
       </c>
       <c r="G90" s="3">
-        <v>0.04073652135150273</v>
+        <v>0.04496602552338327</v>
       </c>
       <c r="H90" s="3">
-        <v>-0.01811125485122896</v>
+        <v>-0.01423027166882264</v>
       </c>
       <c r="I90" s="3">
-        <v>-0.01503552458518304</v>
+        <v>-0.01433854546295121</v>
       </c>
       <c r="J90" s="3">
-        <v>-0.02190721649484545</v>
+        <v>-0.01804123711340204</v>
       </c>
       <c r="K90" s="3">
-        <v>-0.009874522472972708</v>
+        <v>-0.009553759838120159</v>
       </c>
       <c r="L90" s="3">
-        <v>-0.1433408577878104</v>
+        <v>-0.1399548532731376</v>
       </c>
       <c r="M90" s="3">
-        <v>-0.1039494355790551</v>
+        <v>-0.1038191552823394</v>
       </c>
       <c r="N90" s="3">
-        <v>-0.1275862068965517</v>
+        <v>-0.1241379310344827</v>
       </c>
       <c r="O90" s="3">
-        <v>-0.01142541178655901</v>
+        <v>-0.01141205268974673</v>
       </c>
       <c r="P90" s="3">
-        <v>-0.0569119790260139</v>
+        <v>-0.05668645756022976</v>
       </c>
       <c r="Q90" s="3">
-        <v>-0.04920456348540787</v>
+        <v>-0.0492032974726899</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -6096,10 +6096,10 @@
         <v>251</v>
       </c>
       <c r="D91" s="1">
-        <v>11144284.89057143</v>
+        <v>11167516.58831429</v>
       </c>
       <c r="E91" s="2">
-        <v>0.9370209955721926</v>
+        <v>0.9372493540401813</v>
       </c>
       <c r="F91" s="3">
         <v>0.06242448650825608</v>
@@ -6135,7 +6135,7 @@
         <v>-0.04668590135943938</v>
       </c>
       <c r="Q91" s="3">
-        <v>-0.04982375163422096</v>
+        <v>-0.04981161220137569</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -6149,46 +6149,46 @@
         <v>252</v>
       </c>
       <c r="D92" s="1">
-        <v>12777359.582</v>
+        <v>12902921.528</v>
       </c>
       <c r="E92" s="2">
-        <v>1.497238432751187</v>
+        <v>1.487815912721287</v>
       </c>
       <c r="F92" s="3">
-        <v>-0.03128834355828217</v>
+        <v>-0.02515337423312879</v>
       </c>
       <c r="G92" s="3">
-        <v>-0.1813620255444134</v>
+        <v>-0.1751149343688936</v>
       </c>
       <c r="H92" s="3">
-        <v>-0.1002849002849003</v>
+        <v>-0.09458689458689455</v>
       </c>
       <c r="I92" s="3">
-        <v>-0.1949386278460719</v>
+        <v>-0.1933321739450291</v>
       </c>
       <c r="J92" s="3">
-        <v>-0.09461009174311928</v>
+        <v>-0.08887614678899085</v>
       </c>
       <c r="K92" s="3">
-        <v>-0.07259036675631349</v>
+        <v>-0.07213151863481961</v>
       </c>
       <c r="L92" s="3">
-        <v>-0.2005063291139241</v>
+        <v>-0.1954430379746836</v>
       </c>
       <c r="M92" s="3">
-        <v>-0.09914434757168185</v>
+        <v>-0.09903016433451695</v>
       </c>
       <c r="N92" s="3">
-        <v>-0.2763519706691109</v>
+        <v>-0.271769019248396</v>
       </c>
       <c r="O92" s="3">
-        <v>-0.0743971071202099</v>
+        <v>-0.07437817559513188</v>
       </c>
       <c r="P92" s="3">
-        <v>-0.1402531865580476</v>
+        <v>-0.1370725493517053</v>
       </c>
       <c r="Q92" s="3">
-        <v>-0.0936745834798879</v>
+        <v>-0.09213004658687443</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -6202,46 +6202,46 @@
         <v>253</v>
       </c>
       <c r="D93" s="1">
-        <v>136078021.3028</v>
+        <v>136540030.9601286</v>
       </c>
       <c r="E93" s="2">
-        <v>1.403365484640465</v>
+        <v>1.399215562063904</v>
       </c>
       <c r="F93" s="3">
-        <v>0.03478260869565217</v>
+        <v>0.03785166240409202</v>
       </c>
       <c r="G93" s="3">
-        <v>0.004225181903185377</v>
+        <v>0.005052603796176676</v>
       </c>
       <c r="H93" s="3">
-        <v>-0.01413255360623775</v>
+        <v>-0.01120857699805067</v>
       </c>
       <c r="I93" s="3">
-        <v>-0.0007293978593922742</v>
+        <v>-0.000650781997495323</v>
       </c>
       <c r="J93" s="3">
-        <v>-0.02364864864864859</v>
+        <v>-0.02075289575289575</v>
       </c>
       <c r="K93" s="3">
-        <v>-0.004137119093089421</v>
+        <v>-0.003987397179515644</v>
       </c>
       <c r="L93" s="3">
-        <v>-0.1885278780585639</v>
+        <v>-0.1861211391897312</v>
       </c>
       <c r="M93" s="3">
-        <v>-0.1131487626592048</v>
+        <v>-0.1130442176169822</v>
       </c>
       <c r="N93" s="3">
-        <v>-0.1786439301664636</v>
+        <v>-0.1762078765732846</v>
       </c>
       <c r="O93" s="3">
-        <v>-0.03372431341120293</v>
+        <v>-0.03370915447221356</v>
       </c>
       <c r="P93" s="3">
-        <v>-0.05864294087614712</v>
+        <v>-0.05851580739824894</v>
       </c>
       <c r="Q93" s="3">
-        <v>-0.04178736153766184</v>
+        <v>-0.04182043781155177</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -6255,46 +6255,46 @@
         <v>254</v>
       </c>
       <c r="D94" s="1">
-        <v>100878203.439</v>
+        <v>101332703.4685714</v>
       </c>
       <c r="E94" s="2">
-        <v>0.9632565601288161</v>
+        <v>0.9601160190756238</v>
       </c>
       <c r="F94" s="3">
-        <v>0.04691206184661344</v>
+        <v>0.05077747518228948</v>
       </c>
       <c r="G94" s="3">
-        <v>0.04460088804696995</v>
+        <v>0.04821089327073279</v>
       </c>
       <c r="H94" s="3">
-        <v>-0.0002516778523490028</v>
+        <v>0.003439597315436273</v>
       </c>
       <c r="I94" s="3">
-        <v>-2.461574006018766E-13</v>
+        <v>7.995337632057095E-08</v>
       </c>
       <c r="J94" s="3">
-        <v>-0.002177007452063954</v>
+        <v>0.001507159005275114</v>
       </c>
       <c r="K94" s="3">
-        <v>-0.0001967169901673091</v>
+        <v>-0.0001680305920012642</v>
       </c>
       <c r="L94" s="3">
-        <v>-0.1333090909090909</v>
+        <v>-0.1301090909090909</v>
       </c>
       <c r="M94" s="3">
-        <v>-0.09086166703324033</v>
+        <v>-0.09072231254872487</v>
       </c>
       <c r="N94" s="3">
-        <v>-0.1277265407700191</v>
+        <v>-0.124505928853755</v>
       </c>
       <c r="O94" s="3">
-        <v>-0.02433005227995086</v>
+        <v>-0.02430980045949968</v>
       </c>
       <c r="P94" s="3">
-        <v>-0.04552919201170382</v>
+        <v>-0.04544517157036307</v>
       </c>
       <c r="Q94" s="3">
-        <v>-0.04726590390997722</v>
+        <v>-0.04733300004109562</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -6308,46 +6308,46 @@
         <v>255</v>
       </c>
       <c r="D95" s="1">
-        <v>31748036.73428571</v>
+        <v>31857346.80142857</v>
       </c>
       <c r="E95" s="2">
-        <v>0.9952152412251808</v>
+        <v>0.9928272123133528</v>
       </c>
       <c r="F95" s="3">
-        <v>0.04481132075471693</v>
+        <v>0.047562893081761</v>
       </c>
       <c r="G95" s="3">
-        <v>0.06757771112797109</v>
+        <v>0.07085416528817973</v>
       </c>
       <c r="H95" s="3">
-        <v>-0.001315047905316656</v>
+        <v>0.001315047905316489</v>
       </c>
       <c r="I95" s="3">
-        <v>5.000272119734248E-06</v>
+        <v>7.888871036252497E-06</v>
       </c>
       <c r="J95" s="3">
-        <v>-0.01226309921962093</v>
+        <v>-0.009661835748792197</v>
       </c>
       <c r="K95" s="3">
-        <v>-0.003446815003862815</v>
+        <v>-0.003322577809150172</v>
       </c>
       <c r="L95" s="3">
-        <v>-0.1292383292383293</v>
+        <v>-0.126945126945127</v>
       </c>
       <c r="M95" s="3">
-        <v>-0.08611095998530964</v>
+        <v>-0.08600860946792813</v>
       </c>
       <c r="N95" s="3">
-        <v>-0.139666612720505</v>
+        <v>-0.13740087392782</v>
       </c>
       <c r="O95" s="3">
-        <v>-0.03932860357498984</v>
+        <v>-0.0393119684341233</v>
       </c>
       <c r="P95" s="3">
-        <v>-0.04477888749458623</v>
+        <v>-0.04466559363853915</v>
       </c>
       <c r="Q95" s="3">
-        <v>-0.04499417376231118</v>
+        <v>-0.04498828505562955</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -6361,46 +6361,46 @@
         <v>256</v>
       </c>
       <c r="D96" s="1">
-        <v>7119746.062062858</v>
+        <v>7151093.795</v>
       </c>
       <c r="E96" s="2">
-        <v>1.198841498884018</v>
+        <v>1.19652391523559</v>
       </c>
       <c r="F96" s="3">
-        <v>0.05538221528861159</v>
+        <v>0.05791731669266772</v>
       </c>
       <c r="G96" s="3">
-        <v>0.07022001134961221</v>
+        <v>0.07314068797648954</v>
       </c>
       <c r="H96" s="3">
-        <v>0.0110218569026714</v>
+        <v>0.01345040164393795</v>
       </c>
       <c r="I96" s="3">
-        <v>0.0006054045941370536</v>
+        <v>0.0006632083055629133</v>
       </c>
       <c r="J96" s="3">
-        <v>-0.003314917127071816</v>
+        <v>-0.0009208103130755328</v>
       </c>
       <c r="K96" s="3">
-        <v>1.033307753811552E-05</v>
+        <v>1.30162946986644E-05</v>
       </c>
       <c r="L96" s="3">
-        <v>-0.1432642076935254</v>
+        <v>-0.1412062687984804</v>
       </c>
       <c r="M96" s="3">
-        <v>-0.1141421442788884</v>
+        <v>-0.1140515511198641</v>
       </c>
       <c r="N96" s="3">
-        <v>-0.177132431199635</v>
+        <v>-0.1751558461304546</v>
       </c>
       <c r="O96" s="3">
-        <v>-0.04139866906122032</v>
+        <v>-0.04138419082693708</v>
       </c>
       <c r="P96" s="3">
-        <v>-0.05706590560067516</v>
+        <v>-0.05701926741258273</v>
       </c>
       <c r="Q96" s="3">
-        <v>-0.04760087605725769</v>
+        <v>-0.04765409757928314</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -6414,46 +6414,46 @@
         <v>257</v>
       </c>
       <c r="D97" s="1">
-        <v>28012006.30114286</v>
+        <v>28119843.54552857</v>
       </c>
       <c r="E97" s="2">
-        <v>1.257375374926991</v>
+        <v>1.253198213927724</v>
       </c>
       <c r="F97" s="3">
-        <v>0.046594982078853</v>
+        <v>0.05017921146953405</v>
       </c>
       <c r="G97" s="3">
-        <v>0.05513242570001387</v>
+        <v>0.05896016999825582</v>
       </c>
       <c r="H97" s="3">
-        <v>-0.03771512266569034</v>
+        <v>-0.03441962651043581</v>
       </c>
       <c r="I97" s="3">
-        <v>-0.03017468596188951</v>
+        <v>-0.02936230121156331</v>
       </c>
       <c r="J97" s="3">
-        <v>-0.04331998543866043</v>
+        <v>-0.04004368401892978</v>
       </c>
       <c r="K97" s="3">
-        <v>-0.04253767164256882</v>
+        <v>-0.04202218808684305</v>
       </c>
       <c r="L97" s="3">
-        <v>-0.1901386748844377</v>
+        <v>-0.1873651771956857</v>
       </c>
       <c r="M97" s="3">
-        <v>-0.1677208998087058</v>
+        <v>-0.1675992420181869</v>
       </c>
       <c r="N97" s="3">
-        <v>-0.2000000000000001</v>
+        <v>-0.1972602739726028</v>
       </c>
       <c r="O97" s="3">
-        <v>-0.036089782648858</v>
+        <v>-0.03607422788233464</v>
       </c>
       <c r="P97" s="3">
-        <v>-0.1051292857256373</v>
+        <v>-0.104810715052515</v>
       </c>
       <c r="Q97" s="3">
-        <v>-0.08361010388941457</v>
+        <v>-0.08363458700122257</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -6467,10 +6467,10 @@
         <v>258</v>
       </c>
       <c r="D98" s="1">
-        <v>5700235.886185715</v>
+        <v>5703632.4917</v>
       </c>
       <c r="E98" s="2">
-        <v>1.017354585159817</v>
+        <v>1.017555522330782</v>
       </c>
       <c r="F98" s="3">
         <v>0.05192982456140364</v>
@@ -6506,7 +6506,7 @@
         <v>-0.05538231174250998</v>
       </c>
       <c r="Q98" s="3">
-        <v>-0.05443757029296718</v>
+        <v>-0.05442682048017677</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -6520,46 +6520,46 @@
         <v>259</v>
       </c>
       <c r="D99" s="1">
-        <v>220043064.6021429</v>
+        <v>220558767.4154285</v>
       </c>
       <c r="E99" s="2">
-        <v>1.112597627777309</v>
+        <v>1.11060388762816</v>
       </c>
       <c r="F99" s="3">
-        <v>0.02724224643755248</v>
+        <v>0.02908633696563282</v>
       </c>
       <c r="G99" s="3">
-        <v>0.002775915841521819</v>
+        <v>0.003207424556840992</v>
       </c>
       <c r="H99" s="3">
-        <v>-0.009216589861751071</v>
+        <v>-0.0074379497129922</v>
       </c>
       <c r="I99" s="3">
-        <v>-1.610853807918197E-05</v>
+        <v>-1.197074303504177E-05</v>
       </c>
       <c r="J99" s="3">
-        <v>-0.01873648810953639</v>
+        <v>-0.01697493794539207</v>
       </c>
       <c r="K99" s="3">
-        <v>-0.006901523213754701</v>
+        <v>-0.00675799248932607</v>
       </c>
       <c r="L99" s="3">
-        <v>-0.1179645890312365</v>
+        <v>-0.1163811717288039</v>
       </c>
       <c r="M99" s="3">
-        <v>-0.09030892980202591</v>
+        <v>-0.09024635334635878</v>
       </c>
       <c r="N99" s="3">
-        <v>-0.1418668160492962</v>
+        <v>-0.140326307681535</v>
       </c>
       <c r="O99" s="3">
-        <v>-0.01694389898148478</v>
+        <v>-0.01693576894964485</v>
       </c>
       <c r="P99" s="3">
-        <v>-0.04860522650789031</v>
+        <v>-0.04850217291784242</v>
       </c>
       <c r="Q99" s="3">
-        <v>-0.04368625754217306</v>
+        <v>-0.04367189189426048</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -6573,46 +6573,46 @@
         <v>260</v>
       </c>
       <c r="D100" s="1">
-        <v>24971205.09</v>
+        <v>25039303.456</v>
       </c>
       <c r="E100" s="2">
-        <v>1.067464711687534</v>
+        <v>1.065754066101535</v>
       </c>
       <c r="F100" s="3">
-        <v>0.008493771234428005</v>
+        <v>0.01019252548131369</v>
       </c>
       <c r="G100" s="3">
-        <v>5.87537971719115E-06</v>
+        <v>1.958331019076869E-05</v>
       </c>
       <c r="H100" s="3">
-        <v>-0.08384773662551454</v>
+        <v>-0.08230452674897126</v>
       </c>
       <c r="I100" s="3">
-        <v>-0.2040784406356405</v>
+        <v>-0.2033922410817462</v>
       </c>
       <c r="J100" s="3">
-        <v>-0.09039836567926454</v>
+        <v>-0.08886618998978542</v>
       </c>
       <c r="K100" s="3">
-        <v>-0.1265827435889422</v>
+        <v>-0.1263430262663093</v>
       </c>
       <c r="L100" s="3">
-        <v>-0.1886104783599089</v>
+        <v>-0.1872437357630979</v>
       </c>
       <c r="M100" s="3">
-        <v>-0.1105687562064707</v>
+        <v>-0.1105314378542889</v>
       </c>
       <c r="N100" s="3">
-        <v>-0.2152456488213264</v>
+        <v>-0.2139237717558934</v>
       </c>
       <c r="O100" s="3">
-        <v>-0.05835430422496499</v>
+        <v>-0.05834899817895885</v>
       </c>
       <c r="P100" s="3">
-        <v>-0.1185757498977065</v>
+        <v>-0.1184372320602991</v>
       </c>
       <c r="Q100" s="3">
-        <v>-0.1110816578753712</v>
+        <v>-0.1111299837621409</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6626,46 +6626,46 @@
         <v>261</v>
       </c>
       <c r="D101" s="1">
-        <v>35569495.50628571</v>
+        <v>35769004.97857143</v>
       </c>
       <c r="E101" s="2">
-        <v>1.431732724500198</v>
+        <v>1.4267188820468</v>
       </c>
       <c r="F101" s="3">
-        <v>0.03791982665222093</v>
+        <v>0.04225352112676048</v>
       </c>
       <c r="G101" s="3">
-        <v>0.004799262694327397</v>
+        <v>0.005856833508054014</v>
       </c>
       <c r="H101" s="3">
-        <v>-0.04486540378863403</v>
+        <v>-0.040877367896311</v>
       </c>
       <c r="I101" s="3">
-        <v>-0.02461555627519374</v>
+        <v>-0.02380489419991262</v>
       </c>
       <c r="J101" s="3">
-        <v>-0.05893909626719062</v>
+        <v>-0.05500982318271125</v>
       </c>
       <c r="K101" s="3">
-        <v>-0.05745533611920912</v>
+        <v>-0.05684688196103965</v>
       </c>
       <c r="L101" s="3">
-        <v>-0.1755593803786575</v>
+        <v>-0.1721170395869191</v>
       </c>
       <c r="M101" s="3">
-        <v>-0.1089980242826296</v>
+        <v>-0.1088700100832584</v>
       </c>
       <c r="N101" s="3">
-        <v>-0.2408874801901744</v>
+        <v>-0.2377179080824089</v>
       </c>
       <c r="O101" s="3">
-        <v>-0.06066433322026634</v>
+        <v>-0.06064415594845071</v>
       </c>
       <c r="P101" s="3">
-        <v>-0.08322668020091933</v>
+        <v>-0.08285844602214903</v>
       </c>
       <c r="Q101" s="3">
-        <v>-0.05813003976002073</v>
+        <v>-0.05807622445094344</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6679,10 +6679,10 @@
         <v>262</v>
       </c>
       <c r="D102" s="1">
-        <v>38813222.03785715</v>
+        <v>38874028.56385715</v>
       </c>
       <c r="E102" s="2">
-        <v>1.018828668306945</v>
+        <v>1.019273908246749</v>
       </c>
       <c r="F102" s="3">
         <v>0.04237288135593215</v>
@@ -6718,7 +6718,7 @@
         <v>0.007328900560507758</v>
       </c>
       <c r="Q102" s="3">
-        <v>0.00719345733830466</v>
+        <v>0.007190315087250871</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6732,46 +6732,46 @@
         <v>263</v>
       </c>
       <c r="D103" s="1">
-        <v>70105749.48928571</v>
+        <v>70024826.84285714</v>
       </c>
       <c r="E103" s="2">
-        <v>1.483223225278648</v>
+        <v>1.487227820854388</v>
       </c>
       <c r="F103" s="3">
-        <v>0.005685856432125094</v>
+        <v>0.003553660270078105</v>
       </c>
       <c r="G103" s="3">
-        <v>0.0009201201730440746</v>
+        <v>0.0005501854719985799</v>
       </c>
       <c r="H103" s="3">
-        <v>0.06471030850263365</v>
+        <v>0.06245297215951844</v>
       </c>
       <c r="I103" s="3">
-        <v>0.01886892483738815</v>
+        <v>0.01835866098402457</v>
       </c>
       <c r="J103" s="3">
-        <v>0.0543964232488823</v>
+        <v>0.05216095380029801</v>
       </c>
       <c r="K103" s="3">
-        <v>0.09606186829234301</v>
+        <v>0.09564972902271175</v>
       </c>
       <c r="L103" s="3">
-        <v>0.02461984069514843</v>
+        <v>0.02244750181028231</v>
       </c>
       <c r="M103" s="3">
-        <v>0.000638957638637719</v>
+        <v>0.0006342203902568568</v>
       </c>
       <c r="N103" s="3">
-        <v>0.03360116873630394</v>
+        <v>0.0314097881665449</v>
       </c>
       <c r="O103" s="3">
-        <v>0.0001919991212569849</v>
+        <v>0.0001910236041259686</v>
       </c>
       <c r="P103" s="3">
-        <v>0.01726064445467401</v>
+        <v>0.01602200427840088</v>
       </c>
       <c r="Q103" s="3">
-        <v>0.01163725335505808</v>
+        <v>0.01077306654282227</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6785,46 +6785,46 @@
         <v>264</v>
       </c>
       <c r="D104" s="1">
-        <v>76898956.3996</v>
+        <v>77345973.95108572</v>
       </c>
       <c r="E104" s="2">
-        <v>1.40230705509903</v>
+        <v>1.396995285950928</v>
       </c>
       <c r="F104" s="3">
-        <v>0.01937984496124033</v>
+        <v>0.02325581395348839</v>
       </c>
       <c r="G104" s="3">
-        <v>-0.0005977967326073726</v>
+        <v>-0.0003584348138108117</v>
       </c>
       <c r="H104" s="3">
-        <v>-0.04014598540145989</v>
+        <v>-0.03649635036496354</v>
       </c>
       <c r="I104" s="3">
-        <v>-0.1046686496483866</v>
+        <v>-0.103245887757787</v>
       </c>
       <c r="J104" s="3">
-        <v>-0.05903398926654745</v>
+        <v>-0.05545617173524155</v>
       </c>
       <c r="K104" s="3">
-        <v>-0.0569473251431566</v>
+        <v>-0.05644385811524987</v>
       </c>
       <c r="L104" s="3">
-        <v>-0.1957186544342508</v>
+        <v>-0.1926605504587156</v>
       </c>
       <c r="M104" s="3">
-        <v>-0.1250105378114971</v>
+        <v>-0.1248926922147865</v>
       </c>
       <c r="N104" s="3">
-        <v>-0.2253313696612666</v>
+        <v>-0.2223858615611193</v>
       </c>
       <c r="O104" s="3">
-        <v>-0.05679022385367361</v>
+        <v>-0.05677252618087119</v>
       </c>
       <c r="P104" s="3">
-        <v>-0.09097893147732686</v>
+        <v>-0.09066827516501816</v>
       </c>
       <c r="Q104" s="3">
-        <v>-0.0648780387622752</v>
+        <v>-0.06490234868852883</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6838,46 +6838,46 @@
         <v>265</v>
       </c>
       <c r="D105" s="1">
-        <v>8313423.879428571</v>
+        <v>8332606.579885715</v>
       </c>
       <c r="E105" s="2">
-        <v>0.8801517070704509</v>
+        <v>0.880000431434004</v>
       </c>
       <c r="F105" s="3">
-        <v>0.04657794676806086</v>
+        <v>0.04714828897338407</v>
       </c>
       <c r="G105" s="3">
-        <v>0.04267471741637349</v>
+        <v>0.04317743742554218</v>
       </c>
       <c r="H105" s="3">
-        <v>0.002367079388201002</v>
+        <v>0.002913328477785873</v>
       </c>
       <c r="I105" s="3">
-        <v>0.003775660706046167</v>
+        <v>0.003812556152928477</v>
       </c>
       <c r="J105" s="3">
-        <v>-0.005599710982658905</v>
+        <v>-0.005057803468208017</v>
       </c>
       <c r="K105" s="3">
-        <v>2.070789737328502E-07</v>
+        <v>2.46610682731863E-07</v>
       </c>
       <c r="L105" s="3">
-        <v>-0.09975470155355688</v>
+        <v>-0.09926410466067051</v>
       </c>
       <c r="M105" s="3">
-        <v>-0.0673961525109551</v>
+        <v>-0.06737579035605161</v>
       </c>
       <c r="N105" s="3">
-        <v>-0.103858049812795</v>
+        <v>-0.1033696890769982</v>
       </c>
       <c r="O105" s="3">
-        <v>-0.01498483379970491</v>
+        <v>-0.01498204210104574</v>
       </c>
       <c r="P105" s="3">
-        <v>-0.03369797271599068</v>
+        <v>-0.03368777187268444</v>
       </c>
       <c r="Q105" s="3">
-        <v>-0.03828655042680428</v>
+        <v>-0.03828154017809805</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6891,46 +6891,46 @@
         <v>266</v>
       </c>
       <c r="D106" s="1">
-        <v>24289560.26228571</v>
+        <v>24353787.392</v>
       </c>
       <c r="E106" s="2">
-        <v>1.122802493226664</v>
+        <v>1.120808880845225</v>
       </c>
       <c r="F106" s="3">
-        <v>0.03593145384190161</v>
+        <v>0.03777409250046066</v>
       </c>
       <c r="G106" s="3">
-        <v>0.02232103898159826</v>
+        <v>0.02368285914108323</v>
       </c>
       <c r="H106" s="3">
-        <v>0.01645272102693907</v>
+        <v>0.01826071234858073</v>
       </c>
       <c r="I106" s="3">
-        <v>0.001264356007245672</v>
+        <v>0.001347496537777286</v>
       </c>
       <c r="J106" s="3">
-        <v>-0.01523909616395165</v>
+        <v>-0.01348747591522158</v>
       </c>
       <c r="K106" s="3">
-        <v>-0.0001427867360755035</v>
+        <v>-0.0001311254644456609</v>
       </c>
       <c r="L106" s="3">
-        <v>-0.1332099907493062</v>
+        <v>-0.131668208448967</v>
       </c>
       <c r="M106" s="3">
-        <v>-0.09459092459007157</v>
+        <v>-0.09452293704389801</v>
       </c>
       <c r="N106" s="3">
-        <v>-0.2144753388291183</v>
+        <v>-0.2130781053514042</v>
       </c>
       <c r="O106" s="3">
-        <v>-0.07947602876118624</v>
+        <v>-0.07946311876441246</v>
       </c>
       <c r="P106" s="3">
-        <v>-0.04736685566307353</v>
+        <v>-0.04732703125417183</v>
       </c>
       <c r="Q106" s="3">
-        <v>-0.04218627581325776</v>
+        <v>-0.04222578181079504</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6944,46 +6944,46 @@
         <v>267</v>
       </c>
       <c r="D107" s="1">
-        <v>2108617.773542858</v>
+        <v>2114385.532285714</v>
       </c>
       <c r="E107" s="2">
-        <v>0.8526036292454977</v>
+        <v>0.8508140662617774</v>
       </c>
       <c r="F107" s="3">
-        <v>0.04061719990923539</v>
+        <v>0.04288631722260049</v>
       </c>
       <c r="G107" s="3">
-        <v>0.04614778216876855</v>
+        <v>0.04863645769510599</v>
       </c>
       <c r="H107" s="3">
-        <v>-0.00347674923946103</v>
+        <v>-0.00130378096479784</v>
       </c>
       <c r="I107" s="3">
-        <v>-0.0004350428352359794</v>
+        <v>-0.0003906085604840472</v>
       </c>
       <c r="J107" s="3">
-        <v>-0.01397548914211997</v>
+        <v>-0.01182541388948613</v>
       </c>
       <c r="K107" s="3">
-        <v>-0.0036744272443372</v>
+        <v>-0.003556789543934564</v>
       </c>
       <c r="L107" s="3">
-        <v>-0.1368341803124411</v>
+        <v>-0.1349520045172218</v>
       </c>
       <c r="M107" s="3">
-        <v>-0.09594101293559897</v>
+        <v>-0.09586086161624942</v>
       </c>
       <c r="N107" s="3">
-        <v>-0.1583776839787116</v>
+        <v>-0.1565424848596072</v>
       </c>
       <c r="O107" s="3">
-        <v>-0.04092790530004325</v>
+        <v>-0.04091513669732093</v>
       </c>
       <c r="P107" s="3">
-        <v>-0.04980772008996808</v>
+        <v>-0.04970882558009199</v>
       </c>
       <c r="Q107" s="3">
-        <v>-0.05841837681836386</v>
+        <v>-0.05842501617127431</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6997,46 +6997,46 @@
         <v>268</v>
       </c>
       <c r="D108" s="1">
-        <v>117803664.8850286</v>
+        <v>118011583.8066286</v>
       </c>
       <c r="E108" s="2">
-        <v>0.7832542343592354</v>
+        <v>0.7822334860086368</v>
       </c>
       <c r="F108" s="3">
-        <v>0.02679767753461369</v>
+        <v>0.02813756141134443</v>
       </c>
       <c r="G108" s="3">
-        <v>0.02120582025064943</v>
+        <v>0.02239651675502711</v>
       </c>
       <c r="H108" s="3">
-        <v>-0.01182033096926708</v>
+        <v>-0.01053084031807425</v>
       </c>
       <c r="I108" s="3">
-        <v>-0.0016611981823338</v>
+        <v>-0.001582922470556907</v>
       </c>
       <c r="J108" s="3">
-        <v>-0.02274176408076519</v>
+        <v>-0.02146652497343251</v>
       </c>
       <c r="K108" s="3">
-        <v>-0.0161958794833032</v>
+        <v>-0.01601522834454848</v>
       </c>
       <c r="L108" s="3">
-        <v>-0.1298258894776684</v>
+        <v>-0.1286903860711582</v>
       </c>
       <c r="M108" s="3">
-        <v>-0.09404674098079445</v>
+        <v>-0.09400026351466571</v>
       </c>
       <c r="N108" s="3">
-        <v>-0.1635437511369838</v>
+        <v>-0.1624522466800072</v>
       </c>
       <c r="O108" s="3">
-        <v>-0.04060846053939689</v>
+        <v>-0.04060123434207689</v>
       </c>
       <c r="P108" s="3">
-        <v>-0.05512131023204882</v>
+        <v>-0.0550077459296071</v>
       </c>
       <c r="Q108" s="3">
-        <v>-0.07037473634233521</v>
+        <v>-0.07032138985801452</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -7050,46 +7050,46 @@
         <v>269</v>
       </c>
       <c r="D109" s="1">
-        <v>20336916.6693</v>
+        <v>20385422.23371429</v>
       </c>
       <c r="E109" s="2">
-        <v>1.268748166767235</v>
+        <v>1.266584562025862</v>
       </c>
       <c r="F109" s="3">
-        <v>0.05479452054794526</v>
+        <v>0.05675146771037195</v>
       </c>
       <c r="G109" s="3">
-        <v>0.04763279418843031</v>
+        <v>0.04948218175404858</v>
       </c>
       <c r="H109" s="3">
-        <v>0.003724394785847303</v>
+        <v>0.005586592178771024</v>
       </c>
       <c r="I109" s="3">
-        <v>0.0002993716970600952</v>
+        <v>0.0003253136884253731</v>
       </c>
       <c r="J109" s="3">
-        <v>0.00873362445414848</v>
+        <v>0.01060511540860894</v>
       </c>
       <c r="K109" s="3">
-        <v>3.485084682512485E-05</v>
+        <v>3.903153615681178E-05</v>
       </c>
       <c r="L109" s="3">
-        <v>-0.1311123052122515</v>
+        <v>-0.1295002686727565</v>
       </c>
       <c r="M109" s="3">
-        <v>-0.08497903414459497</v>
+        <v>-0.08491288893574225</v>
       </c>
       <c r="N109" s="3">
-        <v>-0.1471518987341772</v>
+        <v>-0.1455696202531645</v>
       </c>
       <c r="O109" s="3">
-        <v>-0.05687879146113391</v>
+        <v>-0.05686566958124328</v>
       </c>
       <c r="P109" s="3">
-        <v>-0.04247209164888492</v>
+        <v>-0.04243692869979272</v>
       </c>
       <c r="Q109" s="3">
-        <v>-0.03347558858516708</v>
+        <v>-0.03350501022364918</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -7103,46 +7103,46 @@
         <v>270</v>
       </c>
       <c r="D110" s="1">
-        <v>11258092.61307143</v>
+        <v>11301044.296</v>
       </c>
       <c r="E110" s="2">
-        <v>0.8390970619316934</v>
+        <v>0.8374631242495663</v>
       </c>
       <c r="F110" s="3">
-        <v>0.05405918057663125</v>
+        <v>0.05652503793626698</v>
       </c>
       <c r="G110" s="3">
-        <v>0.1798092137374286</v>
+        <v>0.1834118172167903</v>
       </c>
       <c r="H110" s="3">
-        <v>0.004519161243673173</v>
+        <v>0.006869125090383142</v>
       </c>
       <c r="I110" s="3">
-        <v>0.002846110049636474</v>
+        <v>0.002979581006144241</v>
       </c>
       <c r="J110" s="3">
-        <v>0.00433761069943989</v>
+        <v>0.006687149828302993</v>
       </c>
       <c r="K110" s="3">
-        <v>-0.003235069159300065</v>
+        <v>-0.003124976592931118</v>
       </c>
       <c r="L110" s="3">
-        <v>-0.07996688741721847</v>
+        <v>-0.07781456953642384</v>
       </c>
       <c r="M110" s="3">
-        <v>-0.05810963716626124</v>
+        <v>-0.05801566754333166</v>
       </c>
       <c r="N110" s="3">
-        <v>-0.1190551680405832</v>
+        <v>-0.1169942929613189</v>
       </c>
       <c r="O110" s="3">
-        <v>-0.03427541375631726</v>
+        <v>-0.03425716659471351</v>
       </c>
       <c r="P110" s="3">
-        <v>-0.03067235316278065</v>
+        <v>-0.03057032206813139</v>
       </c>
       <c r="Q110" s="3">
-        <v>-0.03655399900003169</v>
+        <v>-0.03650348437195349</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -7156,46 +7156,46 @@
         <v>271</v>
       </c>
       <c r="D111" s="1">
-        <v>132776421.1598571</v>
+        <v>133393969.1961429</v>
       </c>
       <c r="E111" s="2">
-        <v>2.090631439858315</v>
+        <v>2.082178687405817</v>
       </c>
       <c r="F111" s="3">
-        <v>0.06285829904903228</v>
+        <v>0.06730963782289075</v>
       </c>
       <c r="G111" s="3">
-        <v>0.04754132725004645</v>
+        <v>0.05105138789203133</v>
       </c>
       <c r="H111" s="3">
-        <v>0.03875815701008516</v>
+        <v>0.04310856238876813</v>
       </c>
       <c r="I111" s="3">
-        <v>0.02692288089031971</v>
+        <v>0.02769933263834756</v>
       </c>
       <c r="J111" s="3">
-        <v>-0.007932011331444725</v>
+        <v>-0.003777148253068936</v>
       </c>
       <c r="K111" s="3">
-        <v>0.00456743364876787</v>
+        <v>0.004725167362333513</v>
       </c>
       <c r="L111" s="3">
-        <v>-0.1458536585365853</v>
+        <v>-0.1422764227642276</v>
       </c>
       <c r="M111" s="3">
-        <v>-0.08770768816497</v>
+        <v>-0.08754423847603943</v>
       </c>
       <c r="N111" s="3">
-        <v>-0.3663449939686369</v>
+        <v>-0.3636911942098914</v>
       </c>
       <c r="O111" s="3">
-        <v>-0.1216193827129386</v>
+        <v>-0.1215814642764821</v>
       </c>
       <c r="P111" s="3">
-        <v>-0.04157012725810107</v>
+        <v>-0.04140953555685296</v>
       </c>
       <c r="Q111" s="3">
-        <v>-0.01988400560020198</v>
+        <v>-0.01988759937238865</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -7209,46 +7209,46 @@
         <v>272</v>
       </c>
       <c r="D112" s="1">
-        <v>110096288.63472</v>
+        <v>110196646.8119486</v>
       </c>
       <c r="E112" s="2">
-        <v>1.581691239648468</v>
+        <v>1.581263983585614</v>
       </c>
       <c r="F112" s="3">
-        <v>0.02409844471030594</v>
+        <v>0.02444026662109057</v>
       </c>
       <c r="G112" s="3">
-        <v>0.007671154241693266</v>
+        <v>0.007815235256066675</v>
       </c>
       <c r="H112" s="3">
-        <v>0.02034908471690065</v>
+        <v>0.02068965517241378</v>
       </c>
       <c r="I112" s="3">
-        <v>0.0854985804631291</v>
+        <v>0.08562582997336655</v>
       </c>
       <c r="J112" s="3">
-        <v>-0.001499750041659743</v>
+        <v>-0.001166472254624101</v>
       </c>
       <c r="K112" s="3">
-        <v>0.02608100403562238</v>
+        <v>0.02611567833413808</v>
       </c>
       <c r="L112" s="3">
-        <v>0.04118158123370972</v>
+        <v>0.04152910512597747</v>
       </c>
       <c r="M112" s="3">
-        <v>0.0003087986262919632</v>
+        <v>0.000309456331887276</v>
       </c>
       <c r="N112" s="3">
-        <v>0.1419858967028776</v>
+        <v>0.1423670668953687</v>
       </c>
       <c r="O112" s="3">
-        <v>0.02848803169983763</v>
+        <v>0.02849014204325018</v>
       </c>
       <c r="P112" s="3">
-        <v>0.01687607913865782</v>
+        <v>0.01696545679510238</v>
       </c>
       <c r="Q112" s="3">
-        <v>0.01066964190963626</v>
+        <v>0.01072904775623369</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -7262,46 +7262,46 @@
         <v>273</v>
       </c>
       <c r="D113" s="1">
-        <v>35096703.28899285</v>
+        <v>35199910.95380001</v>
       </c>
       <c r="E113" s="2">
-        <v>1.517356394398089</v>
+        <v>1.514423949147551</v>
       </c>
       <c r="F113" s="3">
-        <v>0.04981917944880913</v>
+        <v>0.05187679261753346</v>
       </c>
       <c r="G113" s="3">
-        <v>0.09711668933390874</v>
+        <v>0.09978754041244124</v>
       </c>
       <c r="H113" s="3">
-        <v>-0.02428140936485863</v>
+        <v>-0.02236903106165969</v>
       </c>
       <c r="I113" s="3">
-        <v>-0.02708021447848312</v>
+        <v>-0.02670221991550984</v>
       </c>
       <c r="J113" s="3">
-        <v>-0.03291211947156814</v>
+        <v>-0.03101665709362438</v>
       </c>
       <c r="K113" s="3">
-        <v>-0.01255266814681256</v>
+        <v>-0.01241023008738732</v>
       </c>
       <c r="L113" s="3">
-        <v>-0.1303202479338843</v>
+        <v>-0.1286157024793388</v>
       </c>
       <c r="M113" s="3">
-        <v>-0.09556742075548522</v>
+        <v>-0.0955005070861986</v>
       </c>
       <c r="N113" s="3">
-        <v>-0.1706319885719915</v>
+        <v>-0.1690064528840944</v>
       </c>
       <c r="O113" s="3">
-        <v>-0.05304761831185085</v>
+        <v>-0.05303607512166148</v>
       </c>
       <c r="P113" s="3">
-        <v>-0.05406004445114888</v>
+        <v>-0.05395536858679296</v>
       </c>
       <c r="Q113" s="3">
-        <v>-0.03562778306450122</v>
+        <v>-0.03562765143615414</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -7315,10 +7315,10 @@
         <v>274</v>
       </c>
       <c r="D114" s="1">
-        <v>24226739.09682857</v>
+        <v>24291726.51125143</v>
       </c>
       <c r="E114" s="2">
-        <v>1.236467047381812</v>
+        <v>1.237427628474903</v>
       </c>
       <c r="F114" s="3">
         <v>0.06670610856382179</v>
@@ -7354,7 +7354,7 @@
         <v>-0.06468557855138789</v>
       </c>
       <c r="Q114" s="3">
-        <v>-0.05231484226640571</v>
+        <v>-0.05227423169071403</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -7368,46 +7368,46 @@
         <v>275</v>
       </c>
       <c r="D115" s="1">
-        <v>9821347.593388569</v>
+        <v>9837950.116</v>
       </c>
       <c r="E115" s="2">
-        <v>1.047436863218336</v>
+        <v>1.046444032068366</v>
       </c>
       <c r="F115" s="3">
-        <v>0.04356435643564344</v>
+        <v>0.04455445544554446</v>
       </c>
       <c r="G115" s="3">
-        <v>0.05331527350938087</v>
+        <v>0.05438181147106388</v>
       </c>
       <c r="H115" s="3">
-        <v>-0.02362204724409459</v>
+        <v>-0.0226956924502085</v>
       </c>
       <c r="I115" s="3">
-        <v>-0.01245765682096103</v>
+        <v>-0.01229667638746356</v>
       </c>
       <c r="J115" s="3">
-        <v>-0.02946593001841628</v>
+        <v>-0.02854511970534075</v>
       </c>
       <c r="K115" s="3">
-        <v>-0.042235987661101</v>
+        <v>-0.0420690152983682</v>
       </c>
       <c r="L115" s="3">
-        <v>-0.1475940153659523</v>
+        <v>-0.1467852810351799</v>
       </c>
       <c r="M115" s="3">
-        <v>-0.1061315079066932</v>
+        <v>-0.1060972509392658</v>
       </c>
       <c r="N115" s="3">
-        <v>-0.1684418145956608</v>
+        <v>-0.1676528599605523</v>
       </c>
       <c r="O115" s="3">
-        <v>-0.03825794362159745</v>
+        <v>-0.03825292146386371</v>
       </c>
       <c r="P115" s="3">
-        <v>-0.07418374778389709</v>
+        <v>-0.07408313311881702</v>
       </c>
       <c r="Q115" s="3">
-        <v>-0.07082407578816864</v>
+        <v>-0.0707951221933836</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -7421,46 +7421,46 @@
         <v>276</v>
       </c>
       <c r="D116" s="1">
-        <v>644048590.9220572</v>
+        <v>646058779.0042514</v>
       </c>
       <c r="E116" s="2">
-        <v>1.348942001941819</v>
+        <v>1.346572445962679</v>
       </c>
       <c r="F116" s="3">
-        <v>0.0434782608695651</v>
+        <v>0.04572230014025244</v>
       </c>
       <c r="G116" s="3">
-        <v>0.01682024932981475</v>
+        <v>0.01813075305221182</v>
       </c>
       <c r="H116" s="3">
-        <v>-0.05138339920948624</v>
+        <v>-0.04934336350886138</v>
       </c>
       <c r="I116" s="3">
-        <v>-0.05978643622275592</v>
+        <v>-0.05912165554033919</v>
       </c>
       <c r="J116" s="3">
-        <v>-0.05977505370908646</v>
+        <v>-0.05775306457727795</v>
       </c>
       <c r="K116" s="3">
-        <v>-0.08496093292222832</v>
+        <v>-0.08458351566918258</v>
       </c>
       <c r="L116" s="3">
-        <v>-0.1824175824175825</v>
+        <v>-0.1806593406593406</v>
       </c>
       <c r="M116" s="3">
-        <v>-0.120837488759078</v>
+        <v>-0.1207674756853372</v>
       </c>
       <c r="N116" s="3">
-        <v>-0.2568917299240912</v>
+        <v>-0.2552936476228526</v>
       </c>
       <c r="O116" s="3">
-        <v>-0.08569550183661782</v>
+        <v>-0.08568327001392338</v>
       </c>
       <c r="P116" s="3">
-        <v>-0.1028992108406531</v>
+        <v>-0.1026754956772599</v>
       </c>
       <c r="Q116" s="3">
-        <v>-0.07628141958107053</v>
+        <v>-0.07624951482194936</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -7474,46 +7474,46 @@
         <v>277</v>
       </c>
       <c r="D117" s="1">
-        <v>6369398.299314287</v>
+        <v>6389227.240971427</v>
       </c>
       <c r="E117" s="2">
-        <v>0.9730630185637837</v>
+        <v>0.9711513033996113</v>
       </c>
       <c r="F117" s="3">
-        <v>0.06054279749478085</v>
+        <v>0.06263048016701467</v>
       </c>
       <c r="G117" s="3">
-        <v>0.1306609720997032</v>
+        <v>0.133506002287905</v>
       </c>
       <c r="H117" s="3">
-        <v>0.003952569169960478</v>
+        <v>0.005928853754940716</v>
       </c>
       <c r="I117" s="3">
-        <v>5.268789822991756E-06</v>
+        <v>7.350547224898254E-06</v>
       </c>
       <c r="J117" s="3">
-        <v>-0.01071080817916251</v>
+        <v>-0.008763388510223853</v>
       </c>
       <c r="K117" s="3">
-        <v>-0.002406578432511409</v>
+        <v>-0.00233307167249767</v>
       </c>
       <c r="L117" s="3">
-        <v>-0.1367884451996602</v>
+        <v>-0.135089209855565</v>
       </c>
       <c r="M117" s="3">
-        <v>-0.1052894523907093</v>
+        <v>-0.1052123114962491</v>
       </c>
       <c r="N117" s="3">
-        <v>-0.1603305785123967</v>
+        <v>-0.1586776859504132</v>
       </c>
       <c r="O117" s="3">
-        <v>-0.03838491162649032</v>
+        <v>-0.03837313887334504</v>
       </c>
       <c r="P117" s="3">
-        <v>-0.05384801541161034</v>
+        <v>-0.05377269158437341</v>
       </c>
       <c r="Q117" s="3">
-        <v>-0.0553386721972937</v>
+        <v>-0.05537004521966533</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -7527,46 +7527,46 @@
         <v>278</v>
       </c>
       <c r="D118" s="1">
-        <v>17756155.15579429</v>
+        <v>17822331.64078857</v>
       </c>
       <c r="E118" s="2">
-        <v>1.184916642371808</v>
+        <v>1.181922938074637</v>
       </c>
       <c r="F118" s="3">
-        <v>0.06547997457088373</v>
+        <v>0.06834075015893193</v>
       </c>
       <c r="G118" s="3">
-        <v>0.1345823508150206</v>
+        <v>0.1383098771991013</v>
       </c>
       <c r="H118" s="3">
-        <v>-0.004750593824227927</v>
+        <v>-0.002078384798099771</v>
       </c>
       <c r="I118" s="3">
-        <v>-0.005112736301899351</v>
+        <v>-0.004888413958309017</v>
       </c>
       <c r="J118" s="3">
-        <v>-0.01643192488262897</v>
+        <v>-0.01379107981220654</v>
       </c>
       <c r="K118" s="3">
-        <v>-0.01099705788587946</v>
+        <v>-0.01076395053779741</v>
       </c>
       <c r="L118" s="3">
-        <v>-0.1516071880536572</v>
+        <v>-0.1493292837256391</v>
       </c>
       <c r="M118" s="3">
-        <v>-0.1209680849218084</v>
+        <v>-0.1208679502235248</v>
       </c>
       <c r="N118" s="3">
-        <v>-0.1275377407600208</v>
+        <v>-0.125195210827694</v>
       </c>
       <c r="O118" s="3">
-        <v>-0.02572717296864597</v>
+        <v>-0.0257142982051955</v>
       </c>
       <c r="P118" s="3">
-        <v>-0.06598257140384395</v>
+        <v>-0.06581595038066111</v>
       </c>
       <c r="Q118" s="3">
-        <v>-0.05568541198963065</v>
+        <v>-0.05568548359665131</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -7580,46 +7580,46 @@
         <v>279</v>
       </c>
       <c r="D119" s="1">
-        <v>10552793.11304571</v>
+        <v>10578610.66081714</v>
       </c>
       <c r="E119" s="2">
-        <v>0.919725280283</v>
+        <v>0.9180819355296653</v>
       </c>
       <c r="F119" s="3">
-        <v>0.05941845764854609</v>
+        <v>0.06131479140328689</v>
       </c>
       <c r="G119" s="3">
-        <v>0.1397958898375615</v>
+        <v>0.1421809161339702</v>
       </c>
       <c r="H119" s="3">
-        <v>-0.0005963029218842516</v>
+        <v>0.001192605843768669</v>
       </c>
       <c r="I119" s="3">
-        <v>-0.0001623266241146671</v>
+        <v>-0.0001461158244881003</v>
       </c>
       <c r="J119" s="3">
-        <v>-0.004159239453357137</v>
+        <v>-0.002376708259061268</v>
       </c>
       <c r="K119" s="3">
-        <v>-0.001305517271662458</v>
+        <v>-0.001260931504280911</v>
       </c>
       <c r="L119" s="3">
-        <v>-0.1279916753381894</v>
+        <v>-0.1264308012486993</v>
       </c>
       <c r="M119" s="3">
-        <v>-0.09983612868936491</v>
+        <v>-0.09976536522165459</v>
       </c>
       <c r="N119" s="3">
-        <v>-0.1270833333333334</v>
+        <v>-0.1255208333333334</v>
       </c>
       <c r="O119" s="3">
-        <v>-0.02587804875419343</v>
+        <v>-0.02586826332578969</v>
       </c>
       <c r="P119" s="3">
-        <v>-0.05057082298051369</v>
+        <v>-0.05051314836296775</v>
       </c>
       <c r="Q119" s="3">
-        <v>-0.05498470474243462</v>
+        <v>-0.05502030527790028</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -7633,46 +7633,46 @@
         <v>280</v>
       </c>
       <c r="D120" s="1">
-        <v>16803612.87045714</v>
+        <v>16859233.28435714</v>
       </c>
       <c r="E120" s="2">
-        <v>1.088087009805218</v>
+        <v>1.085813215668673</v>
       </c>
       <c r="F120" s="3">
-        <v>0.06129353233830856</v>
+        <v>0.06368159203980106</v>
       </c>
       <c r="G120" s="3">
-        <v>0.1039628410629479</v>
+        <v>0.1071253154176486</v>
       </c>
       <c r="H120" s="3">
-        <v>0.00489918974938769</v>
+        <v>0.007160354249105005</v>
       </c>
       <c r="I120" s="3">
-        <v>0.002016891637058013</v>
+        <v>0.00212033439418805</v>
       </c>
       <c r="J120" s="3">
-        <v>-0.01313841598815691</v>
+        <v>-0.01091783863804592</v>
       </c>
       <c r="K120" s="3">
-        <v>-0.0005773205577965553</v>
+        <v>-0.0005461692792798526</v>
       </c>
       <c r="L120" s="3">
-        <v>-0.1682782283218964</v>
+        <v>-0.1664067373674361</v>
       </c>
       <c r="M120" s="3">
-        <v>-0.1206043553427436</v>
+        <v>-0.1205159011990442</v>
       </c>
       <c r="N120" s="3">
-        <v>-0.2085188483229445</v>
+        <v>-0.2067379044226773</v>
       </c>
       <c r="O120" s="3">
-        <v>-0.0475217339671169</v>
+        <v>-0.04750800235946953</v>
       </c>
       <c r="P120" s="3">
-        <v>-0.0605908379502701</v>
+        <v>-0.060531035239162</v>
       </c>
       <c r="Q120" s="3">
-        <v>-0.0556856551031858</v>
+        <v>-0.05574718963232119</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -7686,46 +7686,46 @@
         <v>281</v>
       </c>
       <c r="D121" s="1">
-        <v>11345162.85040286</v>
+        <v>11410841.18692857</v>
       </c>
       <c r="E121" s="2">
-        <v>0.9529399434294313</v>
+        <v>0.9495780764125603</v>
       </c>
       <c r="F121" s="3">
-        <v>0.03511801957397809</v>
+        <v>0.03914795624640185</v>
       </c>
       <c r="G121" s="3">
-        <v>0.04296527254720169</v>
+        <v>0.04746415192945828</v>
       </c>
       <c r="H121" s="3">
-        <v>-0.03125000000000003</v>
+        <v>-0.02747844827586207</v>
       </c>
       <c r="I121" s="3">
-        <v>-0.02351916239296743</v>
+        <v>-0.02263712213748986</v>
       </c>
       <c r="J121" s="3">
-        <v>-0.05567226890756312</v>
+        <v>-0.0519957983193278</v>
       </c>
       <c r="K121" s="3">
-        <v>-0.06823188717470575</v>
+        <v>-0.06750513694500386</v>
       </c>
       <c r="L121" s="3">
-        <v>-0.192273135669362</v>
+        <v>-0.1891284815813117</v>
       </c>
       <c r="M121" s="3">
-        <v>-0.1428663170440084</v>
+        <v>-0.1427329683759107</v>
       </c>
       <c r="N121" s="3">
-        <v>-0.200533570475767</v>
+        <v>-0.1974210760337928</v>
       </c>
       <c r="O121" s="3">
-        <v>-0.0527423908662674</v>
+        <v>-0.0527238714656992</v>
       </c>
       <c r="P121" s="3">
-        <v>-0.1055491021093571</v>
+        <v>-0.1051190526604573</v>
       </c>
       <c r="Q121" s="3">
-        <v>-0.1107615467660092</v>
+        <v>-0.1107007999358933</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -7739,46 +7739,46 @@
         <v>282</v>
       </c>
       <c r="D122" s="1">
-        <v>42111230.92090715</v>
+        <v>42236838.68283429</v>
       </c>
       <c r="E122" s="2">
-        <v>1.238459942335357</v>
+        <v>1.236876741113975</v>
       </c>
       <c r="F122" s="3">
-        <v>0.01896551724137946</v>
+        <v>0.02068965517241391</v>
       </c>
       <c r="G122" s="3">
-        <v>-0.001202456307429609</v>
+        <v>-0.001011045181013555</v>
       </c>
       <c r="H122" s="3">
-        <v>-0.05741626794258361</v>
+        <v>-0.0558213716108452</v>
       </c>
       <c r="I122" s="3">
-        <v>-0.08172853808977491</v>
+        <v>-0.08112525276776249</v>
       </c>
       <c r="J122" s="3">
-        <v>-0.0870236869207003</v>
+        <v>-0.08547888774459321</v>
       </c>
       <c r="K122" s="3">
-        <v>-0.1196484051458902</v>
+        <v>-0.1193512532156858</v>
       </c>
       <c r="L122" s="3">
-        <v>-0.208128628852166</v>
+        <v>-0.2067887449754354</v>
       </c>
       <c r="M122" s="3">
-        <v>-0.1489735306897414</v>
+        <v>-0.1489226428091162</v>
       </c>
       <c r="N122" s="3">
-        <v>-0.2410102739726027</v>
+        <v>-0.2397260273972603</v>
       </c>
       <c r="O122" s="3">
-        <v>-0.05694641455114315</v>
+        <v>-0.05693948034746399</v>
       </c>
       <c r="P122" s="3">
-        <v>-0.1343109679178158</v>
+        <v>-0.134136948012401</v>
       </c>
       <c r="Q122" s="3">
-        <v>-0.1084499896416079</v>
+        <v>-0.1084481125351201</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -7792,46 +7792,46 @@
         <v>283</v>
       </c>
       <c r="D123" s="1">
-        <v>26743965.88859429</v>
+        <v>26959319.18317715</v>
       </c>
       <c r="E123" s="2">
-        <v>0.9520313009314687</v>
+        <v>0.9487698008133646</v>
       </c>
       <c r="F123" s="3">
-        <v>0.04869731278133961</v>
+        <v>0.05347155913245125</v>
       </c>
       <c r="G123" s="3">
-        <v>0.05966613665650438</v>
+        <v>0.06479398899228694</v>
       </c>
       <c r="H123" s="3">
-        <v>0.02588737656792112</v>
+        <v>0.03055777955697896</v>
       </c>
       <c r="I123" s="3">
-        <v>0.04427416682410801</v>
+        <v>0.0454391946312627</v>
       </c>
       <c r="J123" s="3">
-        <v>0.02356543735854087</v>
+        <v>0.02822526960457995</v>
       </c>
       <c r="K123" s="3">
-        <v>0.01397621347594641</v>
+        <v>0.01431375242681262</v>
       </c>
       <c r="L123" s="3">
-        <v>-0.09467734338200651</v>
+        <v>-0.09055581723975503</v>
       </c>
       <c r="M123" s="3">
-        <v>-0.05192137370860285</v>
+        <v>-0.05175373535226675</v>
       </c>
       <c r="N123" s="3">
-        <v>-0.1487099988927029</v>
+        <v>-0.1448344590853726</v>
       </c>
       <c r="O123" s="3">
-        <v>-0.04480711365504075</v>
+        <v>-0.0447681981080048</v>
       </c>
       <c r="P123" s="3">
-        <v>-0.01897258011632822</v>
+        <v>-0.01871999146272706</v>
       </c>
       <c r="Q123" s="3">
-        <v>-0.01992852556188586</v>
+        <v>-0.01973080450777282</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -7845,46 +7845,46 @@
         <v>284</v>
       </c>
       <c r="D124" s="1">
-        <v>4222483.004838286</v>
+        <v>4236076.301052285</v>
       </c>
       <c r="E124" s="2">
-        <v>0.7842442066221925</v>
+        <v>0.7830176439693369</v>
       </c>
       <c r="F124" s="3">
-        <v>0.0544197676128842</v>
+        <v>0.05692013531401666</v>
       </c>
       <c r="G124" s="3">
-        <v>0.1499122773222467</v>
+        <v>0.1532897619447211</v>
       </c>
       <c r="H124" s="3">
-        <v>-0.01470588235294122</v>
+        <v>-0.01236943375481043</v>
       </c>
       <c r="I124" s="3">
-        <v>-0.004527222761507955</v>
+        <v>-0.004330595107959352</v>
       </c>
       <c r="J124" s="3">
-        <v>-0.03082330674597809</v>
+        <v>-0.02852507773421661</v>
       </c>
       <c r="K124" s="3">
-        <v>-0.03619548741326054</v>
+        <v>-0.03579322155227525</v>
       </c>
       <c r="L124" s="3">
-        <v>-0.1441021967526265</v>
+        <v>-0.14207258834766</v>
       </c>
       <c r="M124" s="3">
-        <v>-0.110201890880612</v>
+        <v>-0.1101110578568856</v>
       </c>
       <c r="N124" s="3">
-        <v>-0.1607351908218215</v>
+        <v>-0.1587450245844064</v>
       </c>
       <c r="O124" s="3">
-        <v>-0.04662281377388578</v>
+        <v>-0.04660881991477075</v>
       </c>
       <c r="P124" s="3">
-        <v>-0.07319868914693629</v>
+        <v>-0.07295213970458043</v>
       </c>
       <c r="Q124" s="3">
-        <v>-0.09333660169733272</v>
+        <v>-0.09316793850872312</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -7898,46 +7898,46 @@
         <v>285</v>
       </c>
       <c r="D125" s="1">
-        <v>16247820.5911</v>
+        <v>16322744.2464</v>
       </c>
       <c r="E125" s="2">
-        <v>1.123420253429128</v>
+        <v>1.120266524422372</v>
       </c>
       <c r="F125" s="3">
-        <v>0.05348715259569999</v>
+        <v>0.05715783953854221</v>
       </c>
       <c r="G125" s="3">
-        <v>0.1652342736566964</v>
+        <v>0.17006700771155</v>
       </c>
       <c r="H125" s="3">
-        <v>-0.007901234567901242</v>
+        <v>-0.004444444444444394</v>
       </c>
       <c r="I125" s="3">
-        <v>-0.00431098167075547</v>
+        <v>-0.004021448988048433</v>
       </c>
       <c r="J125" s="3">
-        <v>-0.02428363283147172</v>
+        <v>-0.02088392423506564</v>
       </c>
       <c r="K125" s="3">
-        <v>-0.01930572008833516</v>
+        <v>-0.01885011645014971</v>
       </c>
       <c r="L125" s="3">
-        <v>-0.1318063958513397</v>
+        <v>-0.128781331028522</v>
       </c>
       <c r="M125" s="3">
-        <v>-0.1226717491821777</v>
+        <v>-0.122544419111929</v>
       </c>
       <c r="N125" s="3">
-        <v>-0.09382047812359051</v>
+        <v>-0.09066305818673887</v>
       </c>
       <c r="O125" s="3">
-        <v>-0.003327092009049357</v>
+        <v>-0.003320645131322921</v>
       </c>
       <c r="P125" s="3">
-        <v>-0.05656309910596283</v>
+        <v>-0.05475658731844429</v>
       </c>
       <c r="Q125" s="3">
-        <v>-0.05034901136356554</v>
+        <v>-0.04887817865188614</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7951,46 +7951,46 @@
         <v>286</v>
       </c>
       <c r="D126" s="1">
-        <v>19412283.34002572</v>
+        <v>19527939.57940715</v>
       </c>
       <c r="E126" s="2">
-        <v>0.9401733477104756</v>
+        <v>0.9368349188037637</v>
       </c>
       <c r="F126" s="3">
-        <v>0.03396825396825404</v>
+        <v>0.03857142857142862</v>
       </c>
       <c r="G126" s="3">
-        <v>0.1133404738847145</v>
+        <v>0.1184046136494427</v>
       </c>
       <c r="H126" s="3">
-        <v>-0.03151947665774602</v>
+        <v>-0.02720785013380907</v>
       </c>
       <c r="I126" s="3">
-        <v>-0.02634612218425865</v>
+        <v>-0.0251953473730591</v>
       </c>
       <c r="J126" s="3">
-        <v>-0.02616235610704138</v>
+        <v>-0.02182687995216025</v>
       </c>
       <c r="K126" s="3">
-        <v>-0.04321024594750193</v>
+        <v>-0.04242560422526819</v>
       </c>
       <c r="L126" s="3">
-        <v>-0.1080377926879364</v>
+        <v>-0.1040668218540326</v>
       </c>
       <c r="M126" s="3">
-        <v>-0.07466061819625514</v>
+        <v>-0.07451097941802892</v>
       </c>
       <c r="N126" s="3">
-        <v>-0.08741944522275143</v>
+        <v>-0.08335668254412998</v>
       </c>
       <c r="O126" s="3">
-        <v>-0.006295389325783198</v>
+        <v>-0.006282327055110692</v>
       </c>
       <c r="P126" s="3">
-        <v>-0.05893543207187853</v>
+        <v>-0.05846829182164856</v>
       </c>
       <c r="Q126" s="3">
-        <v>-0.06268570813605702</v>
+        <v>-0.06241045316319572</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -8004,46 +8004,46 @@
         <v>287</v>
       </c>
       <c r="D127" s="1">
-        <v>10671442.95988286</v>
+        <v>10699171.96443429</v>
       </c>
       <c r="E127" s="2">
-        <v>0.8430944327954107</v>
+        <v>0.8415446268527721</v>
       </c>
       <c r="F127" s="3">
-        <v>0.03231939163498099</v>
+        <v>0.03422053231939178</v>
       </c>
       <c r="G127" s="3">
-        <v>0.002946842728778399</v>
+        <v>0.003366277028225483</v>
       </c>
       <c r="H127" s="3">
-        <v>-0.01926550270921137</v>
+        <v>-0.01745936183022267</v>
       </c>
       <c r="I127" s="3">
-        <v>-0.005033091915244873</v>
+        <v>-0.004852895997712806</v>
       </c>
       <c r="J127" s="3">
-        <v>-0.0349526066350711</v>
+        <v>-0.03317535545023685</v>
       </c>
       <c r="K127" s="3">
-        <v>-0.02411265261892482</v>
+        <v>-0.02386604578226874</v>
       </c>
       <c r="L127" s="3">
-        <v>-0.1466736511262441</v>
+        <v>-0.14510214772132</v>
       </c>
       <c r="M127" s="3">
-        <v>-0.1004418853204898</v>
+        <v>-0.1003781469602444</v>
       </c>
       <c r="N127" s="3">
-        <v>-0.1506777893639208</v>
+        <v>-0.1491136600625651</v>
       </c>
       <c r="O127" s="3">
-        <v>-0.03901660006718909</v>
+        <v>-0.03900742703584444</v>
       </c>
       <c r="P127" s="3">
-        <v>-0.06227726896970731</v>
+        <v>-0.06212209637125656</v>
       </c>
       <c r="Q127" s="3">
-        <v>-0.07386748927189252</v>
+        <v>-0.07381913494425388</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -8057,46 +8057,46 @@
         <v>288</v>
       </c>
       <c r="D128" s="1">
-        <v>7009792.961537143</v>
+        <v>7030832.038894285</v>
       </c>
       <c r="E128" s="2">
-        <v>0.9308673164526391</v>
+        <v>0.9292124598104033</v>
       </c>
       <c r="F128" s="3">
-        <v>0.05022321428571433</v>
+        <v>0.0524553571428571</v>
       </c>
       <c r="G128" s="3">
-        <v>0.1074762176996341</v>
+        <v>0.1103466687925171</v>
       </c>
       <c r="H128" s="3">
-        <v>-0.002649708532061475</v>
+        <v>-0.0005299417064123834</v>
       </c>
       <c r="I128" s="3">
-        <v>-0.0001498934118463788</v>
+        <v>-0.0001302797410456554</v>
       </c>
       <c r="J128" s="3">
-        <v>-0.01414353064431629</v>
+        <v>-0.01204819277108432</v>
       </c>
       <c r="K128" s="3">
-        <v>-0.01256999041258194</v>
+        <v>-0.01233510854066517</v>
       </c>
       <c r="L128" s="3">
-        <v>-0.1690949227373068</v>
+        <v>-0.1673289183222959</v>
       </c>
       <c r="M128" s="3">
-        <v>-0.127929625131038</v>
+        <v>-0.1278465123474306</v>
       </c>
       <c r="N128" s="3">
-        <v>-0.1905376344086022</v>
+        <v>-0.1888172043010753</v>
       </c>
       <c r="O128" s="3">
-        <v>-0.05076097826054137</v>
+        <v>-0.05074832390580215</v>
       </c>
       <c r="P128" s="3">
-        <v>-0.07024980777180997</v>
+        <v>-0.07009081044404789</v>
       </c>
       <c r="Q128" s="3">
-        <v>-0.07546704726890491</v>
+        <v>-0.07543033856686471</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -8110,46 +8110,46 @@
         <v>289</v>
       </c>
       <c r="D129" s="1">
-        <v>13016554.37171429</v>
+        <v>13043043.89916</v>
       </c>
       <c r="E129" s="2">
-        <v>1.016875515105239</v>
+        <v>1.015651838191755</v>
       </c>
       <c r="F129" s="3">
-        <v>0.03879849812265339</v>
+        <v>0.04005006257822271</v>
       </c>
       <c r="G129" s="3">
-        <v>0.02315764357594882</v>
+        <v>0.02403857235640611</v>
       </c>
       <c r="H129" s="3">
-        <v>-0.01249256395002969</v>
+        <v>-0.01130279595478889</v>
       </c>
       <c r="I129" s="3">
-        <v>-0.00349901906573499</v>
+        <v>-0.003394644994967819</v>
       </c>
       <c r="J129" s="3">
-        <v>-0.02696365767878073</v>
+        <v>-0.02579132473622518</v>
       </c>
       <c r="K129" s="3">
-        <v>-0.0321437294526704</v>
+        <v>-0.03193368714277879</v>
       </c>
       <c r="L129" s="3">
-        <v>-0.1882640586797065</v>
+        <v>-0.1872860635696822</v>
       </c>
       <c r="M129" s="3">
-        <v>-0.1179936178956889</v>
+        <v>-0.1179486479443877</v>
       </c>
       <c r="N129" s="3">
-        <v>-0.2210229938995777</v>
+        <v>-0.2200844673862038</v>
       </c>
       <c r="O129" s="3">
-        <v>-0.07303714317004176</v>
+        <v>-0.07302956889768016</v>
       </c>
       <c r="P129" s="3">
-        <v>-0.07506867367417963</v>
+        <v>-0.07494116754358326</v>
       </c>
       <c r="Q129" s="3">
-        <v>-0.07382287463811198</v>
+        <v>-0.0737862766802125</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -8163,46 +8163,46 @@
         <v>290</v>
       </c>
       <c r="D130" s="1">
-        <v>8714469.969827143</v>
+        <v>8739602.449607143</v>
       </c>
       <c r="E130" s="2">
-        <v>0.9526523714864557</v>
+        <v>0.9503044913349178</v>
       </c>
       <c r="F130" s="3">
-        <v>0.04925469863901488</v>
+        <v>0.05184705119896311</v>
       </c>
       <c r="G130" s="3">
-        <v>0.09777346541540988</v>
+        <v>0.1011210771787903</v>
       </c>
       <c r="H130" s="3">
-        <v>-0.004917025199754289</v>
+        <v>-0.002458512599877144</v>
       </c>
       <c r="I130" s="3">
-        <v>-0.0001056482064251712</v>
+        <v>-8.720267722035263E-05</v>
       </c>
       <c r="J130" s="3">
-        <v>-0.009179926560587524</v>
+        <v>-0.006731946144430783</v>
       </c>
       <c r="K130" s="3">
-        <v>-0.003139087530412657</v>
+        <v>-0.003017033395791005</v>
       </c>
       <c r="L130" s="3">
-        <v>-0.1388297872340426</v>
+        <v>-0.1367021276595745</v>
       </c>
       <c r="M130" s="3">
-        <v>-0.1053577045614388</v>
+        <v>-0.105262176863124</v>
       </c>
       <c r="N130" s="3">
-        <v>-0.1248648648648649</v>
+        <v>-0.1227027027027027</v>
       </c>
       <c r="O130" s="3">
-        <v>-0.02069835219793167</v>
+        <v>-0.02068633844141104</v>
       </c>
       <c r="P130" s="3">
-        <v>-0.05424839604592573</v>
+        <v>-0.05413960512945749</v>
       </c>
       <c r="Q130" s="3">
-        <v>-0.05694458720685293</v>
+        <v>-0.05697079791068457</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -8216,46 +8216,46 @@
         <v>291</v>
       </c>
       <c r="D131" s="1">
-        <v>53617123.51318285</v>
+        <v>53743260.85717715</v>
       </c>
       <c r="E131" s="2">
-        <v>0.9536518766763785</v>
+        <v>0.9520539345237706</v>
       </c>
       <c r="F131" s="3">
-        <v>0.03497394325419799</v>
+        <v>0.03671105964099597</v>
       </c>
       <c r="G131" s="3">
-        <v>0.02023808537251852</v>
+        <v>0.02143138149089582</v>
       </c>
       <c r="H131" s="3">
-        <v>0.009830508474576243</v>
+        <v>0.01152542372881359</v>
       </c>
       <c r="I131" s="3">
-        <v>0.00424097429891289</v>
+        <v>0.00440542276427448</v>
       </c>
       <c r="J131" s="3">
-        <v>0.01591451631237908</v>
+        <v>0.01761964306013406</v>
       </c>
       <c r="K131" s="3">
-        <v>0.002012732874071407</v>
+        <v>0.002075279881797939</v>
       </c>
       <c r="L131" s="3">
-        <v>-0.08338461538461545</v>
+        <v>-0.08184615384615385</v>
       </c>
       <c r="M131" s="3">
-        <v>-0.04625308590167461</v>
+        <v>-0.04619329257245545</v>
       </c>
       <c r="N131" s="3">
-        <v>-0.1202008269344359</v>
+        <v>-0.1187241582988777</v>
       </c>
       <c r="O131" s="3">
-        <v>-0.02698034225677951</v>
+        <v>-0.02696828578812133</v>
       </c>
       <c r="P131" s="3">
-        <v>-0.0221201765138016</v>
+        <v>-0.02205900634532876</v>
       </c>
       <c r="Q131" s="3">
-        <v>-0.0231952319864286</v>
+        <v>-0.02316991248648424</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -8269,46 +8269,46 @@
         <v>292</v>
       </c>
       <c r="D132" s="1">
-        <v>1147555941.098286</v>
+        <v>1150569445.399114</v>
       </c>
       <c r="E132" s="2">
-        <v>1.052677974859499</v>
+        <v>1.050412707837804</v>
       </c>
       <c r="F132" s="3">
-        <v>0.04233442950505772</v>
+        <v>0.04458227531948553</v>
       </c>
       <c r="G132" s="3">
-        <v>0.06155417970624667</v>
+        <v>0.06421938012265783</v>
       </c>
       <c r="H132" s="3">
-        <v>-0.001515272350267148</v>
+        <v>0.0006380094106387933</v>
       </c>
       <c r="I132" s="3">
-        <v>0.001176276566824061</v>
+        <v>0.00126356821097386</v>
       </c>
       <c r="J132" s="3">
-        <v>0.03578076525336094</v>
+        <v>0.03801447776628748</v>
       </c>
       <c r="K132" s="3">
-        <v>0.002353272379856543</v>
+        <v>0.002426875864606698</v>
       </c>
       <c r="L132" s="3">
-        <v>-0.08056106337666143</v>
+        <v>-0.07857824777851208</v>
       </c>
       <c r="M132" s="3">
-        <v>-0.02674190362831357</v>
+        <v>-0.02668681743940261</v>
       </c>
       <c r="N132" s="3">
-        <v>-0.1371765273422693</v>
+        <v>-0.135315805795803</v>
       </c>
       <c r="O132" s="3">
-        <v>-0.05199391984210341</v>
+        <v>-0.05197510953133056</v>
       </c>
       <c r="P132" s="3">
-        <v>-0.01219431562422851</v>
+        <v>-0.01212997078739795</v>
       </c>
       <c r="Q132" s="3">
-        <v>-0.01158408926134898</v>
+        <v>-0.01154781420377766</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -8322,46 +8322,46 @@
         <v>293</v>
       </c>
       <c r="D133" s="1">
-        <v>22396227.506</v>
+        <v>22393769.34205715</v>
       </c>
       <c r="E133" s="2">
-        <v>1.01786927172047</v>
+        <v>1.019135278277336</v>
       </c>
       <c r="F133" s="3">
-        <v>0.03737113402061859</v>
+        <v>0.03608247422680416</v>
       </c>
       <c r="G133" s="3">
-        <v>0.04991431934368143</v>
+        <v>0.04852013155541039</v>
       </c>
       <c r="H133" s="3">
-        <v>-0.03592814371257475</v>
+        <v>-0.03712574850299391</v>
       </c>
       <c r="I133" s="3">
-        <v>-0.0374460464080427</v>
+        <v>-0.03780910936159035</v>
       </c>
       <c r="J133" s="3">
-        <v>-0.04394299287410917</v>
+        <v>-0.04513064133016618</v>
       </c>
       <c r="K133" s="3">
-        <v>-0.06815684461354229</v>
+        <v>-0.06838683691183038</v>
       </c>
       <c r="L133" s="3">
-        <v>-0.1701030927835051</v>
+        <v>-0.1711340206185566</v>
       </c>
       <c r="M133" s="3">
-        <v>-0.1300780670248017</v>
+        <v>-0.130119273333259</v>
       </c>
       <c r="N133" s="3">
-        <v>-0.2037586547972303</v>
+        <v>-0.204747774480712</v>
       </c>
       <c r="O133" s="3">
-        <v>-0.05926163766002997</v>
+        <v>-0.05926763004295964</v>
       </c>
       <c r="P133" s="3">
-        <v>-0.09911745581917197</v>
+        <v>-0.09925305512254468</v>
       </c>
       <c r="Q133" s="3">
-        <v>-0.09737739272906543</v>
+        <v>-0.09738948031542391</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -8375,46 +8375,46 @@
         <v>294</v>
       </c>
       <c r="D134" s="1">
-        <v>38506239.81757143</v>
+        <v>38574654.83739714</v>
       </c>
       <c r="E134" s="2">
-        <v>0.9853328410751948</v>
+        <v>0.9839338829477811</v>
       </c>
       <c r="F134" s="3">
-        <v>0.002375296912114048</v>
+        <v>0.003800475059382342</v>
       </c>
       <c r="G134" s="3">
-        <v>-0.001807810150026393</v>
+        <v>-0.001427828304188265</v>
       </c>
       <c r="H134" s="3">
-        <v>-0.0287686996547756</v>
+        <v>-0.02738780207134648</v>
       </c>
       <c r="I134" s="3">
-        <v>-0.08896904606466531</v>
+        <v>-0.08834331706765049</v>
       </c>
       <c r="J134" s="3">
-        <v>-0.01791947870607391</v>
+        <v>-0.01652315569001631</v>
       </c>
       <c r="K134" s="3">
-        <v>-0.01884553365014103</v>
+        <v>-0.01870304928995815</v>
       </c>
       <c r="L134" s="3">
-        <v>-0.08796196239464016</v>
+        <v>-0.08666522584828193</v>
       </c>
       <c r="M134" s="3">
-        <v>-0.04392971870099999</v>
+        <v>-0.04389014202466646</v>
       </c>
       <c r="N134" s="3">
-        <v>-0.0849956634865567</v>
+        <v>-0.0836947094535993</v>
       </c>
       <c r="O134" s="3">
-        <v>-0.00498582443043451</v>
+        <v>-0.00498173335331308</v>
       </c>
       <c r="P134" s="3">
-        <v>-0.03138762617557051</v>
+        <v>-0.03129659565731231</v>
       </c>
       <c r="Q134" s="3">
-        <v>-0.0318548462683131</v>
+        <v>-0.03180762061323714</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -8428,46 +8428,46 @@
         <v>295</v>
       </c>
       <c r="D135" s="1">
-        <v>35614581.37450001</v>
+        <v>35785669.42013143</v>
       </c>
       <c r="E135" s="2">
-        <v>1.299087219820819</v>
+        <v>1.294773634805067</v>
       </c>
       <c r="F135" s="3">
-        <v>0.01795680660033977</v>
+        <v>0.02208201892744471</v>
       </c>
       <c r="G135" s="3">
-        <v>-3.63837029676448E-05</v>
+        <v>-6.001067875394489E-06</v>
       </c>
       <c r="H135" s="3">
-        <v>-0.01061320754716971</v>
+        <v>-0.006603773584905688</v>
       </c>
       <c r="I135" s="3">
-        <v>-0.006312307671214685</v>
+        <v>-0.005842936150932337</v>
       </c>
       <c r="J135" s="3">
-        <v>-0.02780996523754336</v>
+        <v>-0.02387022016222482</v>
       </c>
       <c r="K135" s="3">
-        <v>-0.00431371927584541</v>
+        <v>-0.004098927088156565</v>
       </c>
       <c r="L135" s="3">
-        <v>-0.1309301843795318</v>
+        <v>-0.1274083281541331</v>
       </c>
       <c r="M135" s="3">
-        <v>-0.08702795305712795</v>
+        <v>-0.0868928237946559</v>
       </c>
       <c r="N135" s="3">
-        <v>-0.09179476077072948</v>
+        <v>-0.08811431045680884</v>
       </c>
       <c r="O135" s="3">
-        <v>-0.006193582612434243</v>
+        <v>-0.006182696653067235</v>
       </c>
       <c r="P135" s="3">
-        <v>-0.04567083616648668</v>
+        <v>-0.04549587544140624</v>
       </c>
       <c r="Q135" s="3">
-        <v>-0.03515609688838751</v>
+        <v>-0.03513809226448747</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -8481,46 +8481,46 @@
         <v>296</v>
       </c>
       <c r="D136" s="1">
-        <v>42343670.4928</v>
+        <v>42405447.09800571</v>
       </c>
       <c r="E136" s="2">
-        <v>0.6737832358706616</v>
+        <v>0.6737530473752235</v>
       </c>
       <c r="F136" s="3">
-        <v>0.02203378049628128</v>
+        <v>0.02217279488427051</v>
       </c>
       <c r="G136" s="3">
-        <v>0.01451126053793257</v>
+        <v>0.01460030490933403</v>
       </c>
       <c r="H136" s="3">
-        <v>0.02132388692088625</v>
+        <v>0.02146280475098981</v>
       </c>
       <c r="I136" s="3">
-        <v>0.01790277844731929</v>
+        <v>0.01792867458356833</v>
       </c>
       <c r="J136" s="3">
-        <v>0.02595590287468601</v>
+        <v>0.02609545073960375</v>
       </c>
       <c r="K136" s="3">
-        <v>0.02050949617275395</v>
+        <v>0.02052065475916928</v>
       </c>
       <c r="L136" s="3">
-        <v>-0.02899029254441006</v>
+        <v>-0.02885821831869513</v>
       </c>
       <c r="M136" s="3">
-        <v>-0.005957978597607553</v>
+        <v>-0.005955173415274954</v>
       </c>
       <c r="N136" s="3">
-        <v>0.0258127528952141</v>
+        <v>0.02595228128924235</v>
       </c>
       <c r="O136" s="3">
-        <v>-0.0002532301474795913</v>
+        <v>-0.0002531144977101941</v>
       </c>
       <c r="P136" s="3">
-        <v>0.01751037835534326</v>
+        <v>0.01756047983425165</v>
       </c>
       <c r="Q136" s="3">
-        <v>0.02598814785398509</v>
+        <v>0.02606367407563197</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -8534,46 +8534,46 @@
         <v>297</v>
       </c>
       <c r="D137" s="1">
-        <v>145602236.6887714</v>
+        <v>145961731.7502143</v>
       </c>
       <c r="E137" s="2">
-        <v>0.8613771943166535</v>
+        <v>0.8601608291491526</v>
       </c>
       <c r="F137" s="3">
-        <v>0.02096518987341761</v>
+        <v>0.02254746835443031</v>
       </c>
       <c r="G137" s="3">
-        <v>0.04651105569536015</v>
+        <v>0.04876667116015242</v>
       </c>
       <c r="H137" s="3">
-        <v>-0.02896914973664404</v>
+        <v>-0.02746425884123391</v>
       </c>
       <c r="I137" s="3">
-        <v>-0.03018433464445575</v>
+        <v>-0.02974735481993592</v>
       </c>
       <c r="J137" s="3">
-        <v>-0.03297115024353701</v>
+        <v>-0.03147246159610348</v>
       </c>
       <c r="K137" s="3">
-        <v>-0.04607572024025693</v>
+        <v>-0.0458120879075757</v>
       </c>
       <c r="L137" s="3">
-        <v>-0.1782871696911811</v>
+        <v>-0.1770136899076727</v>
       </c>
       <c r="M137" s="3">
-        <v>-0.1196767390800593</v>
+        <v>-0.1196231849931748</v>
       </c>
       <c r="N137" s="3">
-        <v>-0.1881094683862851</v>
+        <v>-0.1868512110726644</v>
       </c>
       <c r="O137" s="3">
-        <v>-0.05139531607839454</v>
+        <v>-0.0513873466016686</v>
       </c>
       <c r="P137" s="3">
-        <v>-0.0828762296601581</v>
+        <v>-0.08271763645037528</v>
       </c>
       <c r="Q137" s="3">
-        <v>-0.09621363347784631</v>
+        <v>-0.09616531426128447</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -8587,46 +8587,46 @@
         <v>298</v>
       </c>
       <c r="D138" s="1">
-        <v>23099077.53164428</v>
+        <v>23158164.50811429</v>
       </c>
       <c r="E138" s="2">
-        <v>0.7211202647782777</v>
+        <v>0.7199878113029304</v>
       </c>
       <c r="F138" s="3">
-        <v>0.03414834039065705</v>
+        <v>0.03606064745253386</v>
       </c>
       <c r="G138" s="3">
-        <v>0.0451839072593978</v>
+        <v>0.04712167224052483</v>
       </c>
       <c r="H138" s="3">
-        <v>-0.009031413612565396</v>
+        <v>-0.007198952879581086</v>
       </c>
       <c r="I138" s="3">
-        <v>-0.003923198143792115</v>
+        <v>-0.003738572484310261</v>
       </c>
       <c r="J138" s="3">
-        <v>0.0001321003963011377</v>
+        <v>0.001981505944517799</v>
       </c>
       <c r="K138" s="3">
-        <v>-0.004966330264789264</v>
+        <v>-0.004834327346914504</v>
       </c>
       <c r="L138" s="3">
-        <v>-0.09847582757799475</v>
+        <v>-0.09680876399142652</v>
       </c>
       <c r="M138" s="3">
-        <v>-0.05663917711201296</v>
+        <v>-0.05657360177208037</v>
       </c>
       <c r="N138" s="3">
-        <v>-0.1196511627906976</v>
+        <v>-0.1180232558139534</v>
       </c>
       <c r="O138" s="3">
-        <v>-0.03524266441478608</v>
+        <v>-0.0352304614306744</v>
       </c>
       <c r="P138" s="3">
-        <v>-0.03080275368840111</v>
+        <v>-0.03070396455949743</v>
       </c>
       <c r="Q138" s="3">
-        <v>-0.04271514086193655</v>
+        <v>-0.0426451171498776</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -8640,46 +8640,46 @@
         <v>299</v>
       </c>
       <c r="D139" s="1">
-        <v>213448759.2063829</v>
+        <v>214037319.92973</v>
       </c>
       <c r="E139" s="2">
-        <v>1.028635792475395</v>
+        <v>1.027322787079407</v>
       </c>
       <c r="F139" s="3">
-        <v>0.03508468717594198</v>
+        <v>0.03681299688904253</v>
       </c>
       <c r="G139" s="3">
-        <v>0.009174409906791551</v>
+        <v>0.00986610096116503</v>
       </c>
       <c r="H139" s="3">
-        <v>0.006893073301950148</v>
+        <v>0.008574310692669682</v>
       </c>
       <c r="I139" s="3">
-        <v>0.004934090089815696</v>
+        <v>0.005105618816470816</v>
       </c>
       <c r="J139" s="3">
-        <v>-0.005975103734439912</v>
+        <v>-0.004315352697095549</v>
       </c>
       <c r="K139" s="3">
-        <v>2.170470946833081E-05</v>
+        <v>2.496028823391636E-05</v>
       </c>
       <c r="L139" s="3">
-        <v>-0.1350375505488158</v>
+        <v>-0.1335932986712884</v>
       </c>
       <c r="M139" s="3">
-        <v>-0.07217836921036873</v>
+        <v>-0.0721176756672371</v>
       </c>
       <c r="N139" s="3">
-        <v>-0.1595565534661803</v>
+        <v>-0.1581532416502948</v>
       </c>
       <c r="O139" s="3">
-        <v>-0.04512718553558379</v>
+        <v>-0.045115975864299</v>
       </c>
       <c r="P139" s="3">
-        <v>-0.0360783322504502</v>
+        <v>-0.0360463576895016</v>
       </c>
       <c r="Q139" s="3">
-        <v>-0.03507396156576302</v>
+        <v>-0.03508766489252944</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -8693,46 +8693,46 @@
         <v>300</v>
       </c>
       <c r="D140" s="1">
-        <v>153797817.2456</v>
+        <v>154619065.9174943</v>
       </c>
       <c r="E140" s="2">
-        <v>0.9903134976790913</v>
+        <v>0.9878787761475352</v>
       </c>
       <c r="F140" s="3">
-        <v>0.04582866925660103</v>
+        <v>0.0494501876604992</v>
       </c>
       <c r="G140" s="3">
-        <v>0.04731691212891765</v>
+        <v>0.05053056962486331</v>
       </c>
       <c r="H140" s="3">
-        <v>-0.003200702899460284</v>
+        <v>0.0002510355215263798</v>
       </c>
       <c r="I140" s="3">
-        <v>-3.204204796142162E-06</v>
+        <v>-1.226008036095035E-06</v>
       </c>
       <c r="J140" s="3">
-        <v>-0.01805255023183936</v>
+        <v>-0.01465224111282844</v>
       </c>
       <c r="K140" s="3">
-        <v>-0.01025270518912521</v>
+        <v>-0.009903399029098906</v>
       </c>
       <c r="L140" s="3">
-        <v>-0.1751233445858219</v>
+        <v>-0.1722669436509997</v>
       </c>
       <c r="M140" s="3">
-        <v>-0.1291838343652533</v>
+        <v>-0.1290472876124705</v>
       </c>
       <c r="N140" s="3">
-        <v>-0.186904883792362</v>
+        <v>-0.1840892802293436</v>
       </c>
       <c r="O140" s="3">
-        <v>-0.05209379352094724</v>
+        <v>-0.05207280788101906</v>
       </c>
       <c r="P140" s="3">
-        <v>-0.06971826977718924</v>
+        <v>-0.0694753433207847</v>
       </c>
       <c r="Q140" s="3">
-        <v>-0.07040020149233721</v>
+        <v>-0.07032780235619605</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -8746,46 +8746,46 @@
         <v>301</v>
       </c>
       <c r="D141" s="1">
-        <v>80148238.43441428</v>
+        <v>81703427.35714285</v>
       </c>
       <c r="E141" s="2">
-        <v>0.6147934560778689</v>
+        <v>0.6121712436570484</v>
       </c>
       <c r="F141" s="3">
-        <v>0.02204783258594919</v>
+        <v>0.031390134529148</v>
       </c>
       <c r="G141" s="3">
-        <v>0.04447908565237155</v>
+        <v>0.04970915141754802</v>
       </c>
       <c r="H141" s="3">
-        <v>0.01805322910850547</v>
+        <v>0.02735901730876604</v>
       </c>
       <c r="I141" s="3">
-        <v>0.01968065747347378</v>
+        <v>0.02068746856585171</v>
       </c>
       <c r="J141" s="3">
-        <v>-0.002188982123312697</v>
+        <v>0.006931776723823392</v>
       </c>
       <c r="K141" s="3">
-        <v>0.0002628423906425607</v>
+        <v>0.0003690555607273064</v>
       </c>
       <c r="L141" s="3">
-        <v>0.004591368227731868</v>
+        <v>0.0137741046831956</v>
       </c>
       <c r="M141" s="3">
-        <v>-0.007387630759601583</v>
+        <v>-0.007170919707323553</v>
       </c>
       <c r="N141" s="3">
-        <v>0.02090332213512497</v>
+        <v>0.03023516237402009</v>
       </c>
       <c r="O141" s="3">
-        <v>4.563008740262126E-05</v>
+        <v>4.825415381604179E-05</v>
       </c>
       <c r="P141" s="3">
-        <v>0.01058308226288377</v>
+        <v>0.0153021089673737</v>
       </c>
       <c r="Q141" s="3">
-        <v>0.01721404507198158</v>
+        <v>0.02499645177052169</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -8799,46 +8799,46 @@
         <v>302</v>
       </c>
       <c r="D142" s="1">
-        <v>347352446.6417015</v>
+        <v>348588928.5180972</v>
       </c>
       <c r="E142" s="2">
-        <v>1.184228108697715</v>
+        <v>1.182076220128112</v>
       </c>
       <c r="F142" s="3">
-        <v>0.03269109286165509</v>
+        <v>0.03537586860391664</v>
       </c>
       <c r="G142" s="3">
-        <v>0.02535149136128683</v>
+        <v>0.02757138914059165</v>
       </c>
       <c r="H142" s="3">
-        <v>0.0158458909429858</v>
+        <v>0.0184868727668168</v>
       </c>
       <c r="I142" s="3">
-        <v>0.03611373284682957</v>
+        <v>0.0366949368393559</v>
       </c>
       <c r="J142" s="3">
-        <v>0.008326908249807344</v>
+        <v>0.01094834232845039</v>
       </c>
       <c r="K142" s="3">
-        <v>0.0006994208916434641</v>
+        <v>0.0007360923170057018</v>
       </c>
       <c r="L142" s="3">
-        <v>-0.1548403774072638</v>
+        <v>-0.1526431433372108</v>
       </c>
       <c r="M142" s="3">
-        <v>-0.1104316997681049</v>
+        <v>-0.1103257869719871</v>
       </c>
       <c r="N142" s="3">
-        <v>-0.1809869739478958</v>
+        <v>-0.1788577154308617</v>
       </c>
       <c r="O142" s="3">
-        <v>-0.05167638785418509</v>
+        <v>-0.05165853554914921</v>
       </c>
       <c r="P142" s="3">
-        <v>-0.05486613943823074</v>
+        <v>-0.05479484732749072</v>
       </c>
       <c r="Q142" s="3">
-        <v>-0.04633071874857499</v>
+        <v>-0.04635474971449144</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -8852,10 +8852,10 @@
         <v>303</v>
       </c>
       <c r="D143" s="1">
-        <v>117025730.261</v>
+        <v>117164828.6239</v>
       </c>
       <c r="E143" s="2">
-        <v>1.125157538320479</v>
+        <v>1.125496351390532</v>
       </c>
       <c r="F143" s="3">
         <v>0.04958677685950418</v>
@@ -8891,7 +8891,7 @@
         <v>-0.03601519237376369</v>
       </c>
       <c r="Q143" s="3">
-        <v>-0.03200902197884532</v>
+        <v>-0.0319993861635069</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -8905,46 +8905,46 @@
         <v>304</v>
       </c>
       <c r="D144" s="1">
-        <v>417065084.5261528</v>
+        <v>419536701.4137186</v>
       </c>
       <c r="E144" s="2">
-        <v>0.8440463808078025</v>
+        <v>0.841632700331146</v>
       </c>
       <c r="F144" s="3">
-        <v>0.03663220088626282</v>
+        <v>0.0407680945347119</v>
       </c>
       <c r="G144" s="3">
-        <v>0.1290512136255577</v>
+        <v>0.1317717090260542</v>
       </c>
       <c r="H144" s="3">
-        <v>0.004005722460658118</v>
+        <v>0.008011444921316236</v>
       </c>
       <c r="I144" s="3">
-        <v>0.001061759722552062</v>
+        <v>0.001197122916202681</v>
       </c>
       <c r="J144" s="3">
-        <v>-0.009316770186335475</v>
+        <v>-0.005364201016374965</v>
       </c>
       <c r="K144" s="3">
-        <v>-0.01249123306100446</v>
+        <v>-0.01198455174937238</v>
       </c>
       <c r="L144" s="3">
-        <v>-0.1116455696202532</v>
+        <v>-0.1081012658227848</v>
       </c>
       <c r="M144" s="3">
-        <v>-0.08269050705468006</v>
+        <v>-0.08251087884720722</v>
       </c>
       <c r="N144" s="3">
-        <v>-0.1027870109946306</v>
+        <v>-0.09920736384556379</v>
       </c>
       <c r="O144" s="3">
-        <v>-0.02942675598542167</v>
+        <v>-0.02939968820552669</v>
       </c>
       <c r="P144" s="3">
-        <v>-0.04759087005784226</v>
+        <v>-0.0472477152982898</v>
       </c>
       <c r="Q144" s="3">
-        <v>-0.05638418828630599</v>
+        <v>-0.05613816487845573</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -8958,46 +8958,46 @@
         <v>305</v>
       </c>
       <c r="D145" s="1">
-        <v>62281709.68972857</v>
+        <v>62595550.56489428</v>
       </c>
       <c r="E145" s="2">
-        <v>0.7632369466313172</v>
+        <v>0.7619628646403814</v>
       </c>
       <c r="F145" s="3">
-        <v>0.0330654186590701</v>
+        <v>0.03632109065011693</v>
       </c>
       <c r="G145" s="3">
-        <v>0.0550184749698816</v>
+        <v>0.05807518797025517</v>
       </c>
       <c r="H145" s="3">
-        <v>-0.002945797329143727</v>
+        <v>0.0001963864886095446</v>
       </c>
       <c r="I145" s="3">
-        <v>-0.0009228869653067994</v>
+        <v>-0.0007732746333983057</v>
       </c>
       <c r="J145" s="3">
-        <v>-0.01446180724060948</v>
+        <v>-0.01135591575269341</v>
       </c>
       <c r="K145" s="3">
-        <v>-0.01622222958787712</v>
+        <v>-0.01566312542663121</v>
       </c>
       <c r="L145" s="3">
-        <v>-0.07833348461468635</v>
+        <v>-0.07542888263592631</v>
       </c>
       <c r="M145" s="3">
-        <v>-0.05133995620225447</v>
+        <v>-0.0512153380430525</v>
       </c>
       <c r="N145" s="3">
-        <v>-0.09314995087969985</v>
+        <v>-0.09029204251138698</v>
       </c>
       <c r="O145" s="3">
-        <v>-0.02258436750718534</v>
+        <v>-0.02256326309220821</v>
       </c>
       <c r="P145" s="3">
-        <v>-0.0337810928950658</v>
+        <v>-0.03343923173484185</v>
       </c>
       <c r="Q145" s="3">
-        <v>-0.04426029563186726</v>
+        <v>-0.04388564493969657</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -9011,46 +9011,46 @@
         <v>306</v>
       </c>
       <c r="D146" s="1">
-        <v>5779444840.640743</v>
+        <v>5792370932.887877</v>
       </c>
       <c r="E146" s="2">
-        <v>0.734750860182727</v>
+        <v>0.7337762471884622</v>
       </c>
       <c r="F146" s="3">
-        <v>0.04055825429871224</v>
+        <v>0.04216893275417451</v>
       </c>
       <c r="G146" s="3">
-        <v>0.07458112569502044</v>
+        <v>0.07674062960160853</v>
       </c>
       <c r="H146" s="3">
-        <v>0.02714702524419629</v>
+        <v>0.02873694447968203</v>
       </c>
       <c r="I146" s="3">
-        <v>0.04438591720695546</v>
+        <v>0.04479374073506141</v>
       </c>
       <c r="J146" s="3">
-        <v>0.02368409962493144</v>
+        <v>0.0252686586033967</v>
       </c>
       <c r="K146" s="3">
-        <v>0.01554673945145389</v>
+        <v>0.01566782280747354</v>
       </c>
       <c r="L146" s="3">
-        <v>-0.08062464990235114</v>
+        <v>-0.07920155027023745</v>
       </c>
       <c r="M146" s="3">
-        <v>-0.04495782835118391</v>
+        <v>-0.04489988049910728</v>
       </c>
       <c r="N146" s="3">
-        <v>-0.04420328632586256</v>
+        <v>-0.04272381012339458</v>
       </c>
       <c r="O146" s="3">
-        <v>-0.005864331565973046</v>
+        <v>-0.005858210903605304</v>
       </c>
       <c r="P146" s="3">
-        <v>-0.01432827343720434</v>
+        <v>-0.01352799365796052</v>
       </c>
       <c r="Q146" s="3">
-        <v>-0.01950085969772258</v>
+        <v>-0.01843612914671794</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -9064,46 +9064,46 @@
         <v>307</v>
       </c>
       <c r="D147" s="1">
-        <v>7085674002.163743</v>
+        <v>7096959727.592056</v>
       </c>
       <c r="E147" s="2">
-        <v>0.4647589961539755</v>
+        <v>0.4645196596573419</v>
       </c>
       <c r="F147" s="3">
-        <v>0.0265807221288925</v>
+        <v>0.02723200155820112</v>
       </c>
       <c r="G147" s="3">
-        <v>0.04706112958878252</v>
+        <v>0.04791072891886982</v>
       </c>
       <c r="H147" s="3">
-        <v>0.008105054900390441</v>
+        <v>0.008744613067308971</v>
       </c>
       <c r="I147" s="3">
-        <v>0.003817746097350133</v>
+        <v>0.003886728455536832</v>
       </c>
       <c r="J147" s="3">
-        <v>0.005838501908397033</v>
+        <v>0.006476622137404494</v>
       </c>
       <c r="K147" s="3">
-        <v>0.0003315279922694036</v>
+        <v>0.0003413789353135168</v>
       </c>
       <c r="L147" s="3">
-        <v>-0.05125695417137762</v>
+        <v>-0.05065505622401854</v>
       </c>
       <c r="M147" s="3">
-        <v>-0.03308825323145051</v>
+        <v>-0.03306362343163661</v>
       </c>
       <c r="N147" s="3">
-        <v>-0.01245418242713086</v>
+        <v>-0.01182766737320389</v>
       </c>
       <c r="O147" s="3">
-        <v>-0.0002711652103321985</v>
+        <v>-0.0002706557867239399</v>
       </c>
       <c r="P147" s="3">
-        <v>-0.006061327217430728</v>
+        <v>-0.005743144218945188</v>
       </c>
       <c r="Q147" s="3">
-        <v>-0.01304187173909507</v>
+        <v>-0.01236361927756014</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/market_performers/performance.xlsx
+++ b/strategies/market_performers/performance.xlsx
@@ -1379,46 +1379,46 @@
         <v>162</v>
       </c>
       <c r="D2" s="1">
-        <v>3345414.181714286</v>
+        <v>3112001.689371428</v>
       </c>
       <c r="E2" s="2">
-        <v>1.040385282600928</v>
+        <v>1.04241142724275</v>
       </c>
       <c r="F2" s="3">
-        <v>0.04508956145768991</v>
+        <v>-0.01774622892635304</v>
       </c>
       <c r="G2" s="3">
-        <v>0.04688147269996706</v>
+        <v>-0.0282158659852348</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.01884604233111045</v>
+        <v>0.02801423928184492</v>
       </c>
       <c r="I2" s="3">
-        <v>-0.005141924035428821</v>
+        <v>3.018190558426808E-06</v>
       </c>
       <c r="J2" s="3">
-        <v>-0.002505526897568216</v>
+        <v>-0.04058933988155419</v>
       </c>
       <c r="K2" s="3">
-        <v>-0.008866308359745006</v>
+        <v>-0.006585206950561812</v>
       </c>
       <c r="L2" s="3">
-        <v>-0.1247898616319669</v>
+        <v>-0.1228209191759112</v>
       </c>
       <c r="M2" s="3">
-        <v>-0.06712285376061264</v>
+        <v>-0.03261201564768323</v>
       </c>
       <c r="N2" s="3">
-        <v>-0.1915910176779742</v>
+        <v>-0.1807080300974465</v>
       </c>
       <c r="O2" s="3">
-        <v>-0.06976929934031931</v>
+        <v>-0.0731548675060008</v>
       </c>
       <c r="P2" s="3">
-        <v>-0.03799458106017882</v>
+        <v>-0.03041394081645901</v>
       </c>
       <c r="Q2" s="3">
-        <v>-0.0365197217757576</v>
+        <v>-0.02917652284079997</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1432,46 +1432,46 @@
         <v>163</v>
       </c>
       <c r="D3" s="1">
-        <v>11751087.816</v>
+        <v>11175305.88857143</v>
       </c>
       <c r="E3" s="2">
-        <v>1.261521777683557</v>
+        <v>1.289311969599695</v>
       </c>
       <c r="F3" s="3">
-        <v>0.03594646271510522</v>
+        <v>-0.0359419754227109</v>
       </c>
       <c r="G3" s="3">
-        <v>0.057535789272909</v>
+        <v>-0.1533214560548901</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.009868421052631563</v>
+        <v>0.0102633617350891</v>
       </c>
       <c r="I3" s="3">
-        <v>-0.01309916858335314</v>
+        <v>-0.01031504339415721</v>
       </c>
       <c r="J3" s="3">
-        <v>-0.009234707872359926</v>
+        <v>-0.04886052871467638</v>
       </c>
       <c r="K3" s="3">
-        <v>-0.01043276324227457</v>
+        <v>-0.0355853167091144</v>
       </c>
       <c r="L3" s="3">
-        <v>-0.1152118886257859</v>
+        <v>-0.1592264302981466</v>
       </c>
       <c r="M3" s="3">
-        <v>-0.08954568949351613</v>
+        <v>-0.0766398731318871</v>
       </c>
       <c r="N3" s="3">
-        <v>-0.1114391143911439</v>
+        <v>-0.1101825004264029</v>
       </c>
       <c r="O3" s="3">
-        <v>-0.01930842456191021</v>
+        <v>-0.03035469538008057</v>
       </c>
       <c r="P3" s="3">
-        <v>-0.04998922636789535</v>
+        <v>-0.09341118677914498</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.03962613032308251</v>
+        <v>-0.07245041462552095</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1485,46 +1485,46 @@
         <v>164</v>
       </c>
       <c r="D4" s="1">
-        <v>92614867.64255002</v>
+        <v>89246561.56736001</v>
       </c>
       <c r="E4" s="2">
-        <v>1.417953867250364</v>
+        <v>1.431480750804806</v>
       </c>
       <c r="F4" s="3">
-        <v>0.02256291582296786</v>
+        <v>-0.04411311053984581</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0006813358796050515</v>
+        <v>-0.1516481254583586</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.03947335918780727</v>
+        <v>-0.01224598220215169</v>
       </c>
       <c r="I4" s="3">
-        <v>-0.06301290435122676</v>
+        <v>-0.04843299898832275</v>
       </c>
       <c r="J4" s="3">
-        <v>-0.0481960150780829</v>
+        <v>-0.08262403473712782</v>
       </c>
       <c r="K4" s="3">
-        <v>-0.05276338229898495</v>
+        <v>-0.09058721202880035</v>
       </c>
       <c r="L4" s="3">
-        <v>-0.1586429235995412</v>
+        <v>-0.2047223885704509</v>
       </c>
       <c r="M4" s="3">
-        <v>-0.1206960182212786</v>
+        <v>-0.1200694435901061</v>
       </c>
       <c r="N4" s="3">
-        <v>-0.2288088532783309</v>
+        <v>-0.2255108204369832</v>
       </c>
       <c r="O4" s="3">
-        <v>-0.05722998671319797</v>
+        <v>-0.06805948916731541</v>
       </c>
       <c r="P4" s="3">
-        <v>-0.08672970026013177</v>
+        <v>-0.1358587845242323</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.06116538927201792</v>
+        <v>-0.09490786686991771</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1538,46 +1538,46 @@
         <v>165</v>
       </c>
       <c r="D5" s="1">
-        <v>21925697.05885714</v>
+        <v>21743799.99428571</v>
       </c>
       <c r="E5" s="2">
-        <v>1.213310703120986</v>
+        <v>1.212904915068982</v>
       </c>
       <c r="F5" s="3">
-        <v>0.06210646823125347</v>
+        <v>-0.003233629749393697</v>
       </c>
       <c r="G5" s="3">
-        <v>0.06157532028568496</v>
+        <v>-2.979206106279031E-05</v>
       </c>
       <c r="H5" s="3">
-        <v>0.008423913043478178</v>
+        <v>0.06323656223052594</v>
       </c>
       <c r="I5" s="3">
-        <v>2.192638232020844E-06</v>
+        <v>0.007509338138265996</v>
       </c>
       <c r="J5" s="3">
-        <v>0.005963675792897749</v>
+        <v>0.002439024390243875</v>
       </c>
       <c r="K5" s="3">
-        <v>-0.0003498967126390282</v>
+        <v>0.0001152360818626382</v>
       </c>
       <c r="L5" s="3">
-        <v>-0.1100719424460432</v>
+        <v>-0.07939273270283723</v>
       </c>
       <c r="M5" s="3">
-        <v>-0.06143372540114821</v>
+        <v>-0.02410342755886583</v>
       </c>
       <c r="N5" s="3">
-        <v>-0.152352672453175</v>
+        <v>-0.1144361982283935</v>
       </c>
       <c r="O5" s="3">
-        <v>-0.05201712424519433</v>
+        <v>-0.05641430706463606</v>
       </c>
       <c r="P5" s="3">
-        <v>-0.03089181105689362</v>
+        <v>-0.01206660980996431</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.02546075871368392</v>
+        <v>-0.009948520828013993</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1591,46 +1591,46 @@
         <v>166</v>
       </c>
       <c r="D6" s="1">
-        <v>4251089.92</v>
+        <v>4713942.628571428</v>
       </c>
       <c r="E6" s="2">
-        <v>0.9468222116542426</v>
+        <v>0.9343591522929245</v>
       </c>
       <c r="F6" s="3">
-        <v>0.04824300178677782</v>
+        <v>0.001983564749220776</v>
       </c>
       <c r="G6" s="3">
-        <v>0.1052256747177317</v>
+        <v>0.004012052808441908</v>
       </c>
       <c r="H6" s="3">
-        <v>0.0100430416068867</v>
+        <v>0.0501930501930502</v>
       </c>
       <c r="I6" s="3">
-        <v>-0.002443669512134497</v>
+        <v>0.06493578390146289</v>
       </c>
       <c r="J6" s="3">
-        <v>0.02236421725239615</v>
+        <v>0.006260671599317087</v>
       </c>
       <c r="K6" s="3">
-        <v>-0.0001610343819221503</v>
+        <v>0.0009435952890054492</v>
       </c>
       <c r="L6" s="3">
-        <v>-0.1254658385093168</v>
+        <v>-0.09565217391304351</v>
       </c>
       <c r="M6" s="3">
-        <v>-0.06732885498583691</v>
+        <v>-0.01899911059182498</v>
       </c>
       <c r="N6" s="3">
-        <v>-0.1043256997455471</v>
+        <v>-0.08298755186721987</v>
       </c>
       <c r="O6" s="3">
-        <v>-0.02899195608450462</v>
+        <v>-0.03259538219389541</v>
       </c>
       <c r="P6" s="3">
-        <v>-0.03374494468387953</v>
+        <v>-0.009027757651409764</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.03564021235298438</v>
+        <v>-0.0096619780833265</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1644,46 +1644,46 @@
         <v>167</v>
       </c>
       <c r="D7" s="1">
-        <v>14492218.3533</v>
+        <v>12077470.35651429</v>
       </c>
       <c r="E7" s="2">
-        <v>1.252114099123269</v>
+        <v>1.302135735136958</v>
       </c>
       <c r="F7" s="3">
-        <v>0.03875724065297519</v>
+        <v>-0.05030425963488842</v>
       </c>
       <c r="G7" s="3">
-        <v>0.009488795844651357</v>
+        <v>-0.1715302770382593</v>
       </c>
       <c r="H7" s="3">
-        <v>0.005812767693248957</v>
+        <v>-0.02671239995842422</v>
       </c>
       <c r="I7" s="3">
-        <v>0.0009686680188038184</v>
+        <v>-0.05572067180696079</v>
       </c>
       <c r="J7" s="3">
-        <v>-0.00744691556807897</v>
+        <v>-0.0486640251955704</v>
       </c>
       <c r="K7" s="3">
-        <v>0.0001372507337641048</v>
+        <v>-0.0221189968390968</v>
       </c>
       <c r="L7" s="3">
-        <v>-0.1247670600763156</v>
+        <v>-0.1836805858251242</v>
       </c>
       <c r="M7" s="3">
-        <v>-0.09519445128498921</v>
+        <v>-0.08018053151076947</v>
       </c>
       <c r="N7" s="3">
-        <v>-0.06987929083364773</v>
+        <v>-0.06788771650408115</v>
       </c>
       <c r="O7" s="3">
-        <v>-0.0006009983317001231</v>
+        <v>-0.00320438056846256</v>
       </c>
       <c r="P7" s="3">
-        <v>-0.03487102004994181</v>
+        <v>-0.07403412400742532</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.02784971439452564</v>
+        <v>-0.05685591909482342</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1697,46 +1697,46 @@
         <v>168</v>
       </c>
       <c r="D8" s="1">
-        <v>18036957.318</v>
+        <v>17704732.14792857</v>
       </c>
       <c r="E8" s="2">
-        <v>1.400073328664257</v>
+        <v>1.47503236920354</v>
       </c>
       <c r="F8" s="3">
-        <v>0.05515004055150027</v>
+        <v>-0.0580322828593389</v>
       </c>
       <c r="G8" s="3">
-        <v>0.03439234088445697</v>
+        <v>-0.2344547223148726</v>
       </c>
       <c r="H8" s="3">
-        <v>-0.01431926661110701</v>
+        <v>-0.004225237669618812</v>
       </c>
       <c r="I8" s="3">
-        <v>-0.009418265728325867</v>
+        <v>-0.02217247396638405</v>
       </c>
       <c r="J8" s="3">
-        <v>-0.02429878506074695</v>
+        <v>-0.07306557749035626</v>
       </c>
       <c r="K8" s="3">
-        <v>-0.01840813856727965</v>
+        <v>-0.04436117918134913</v>
       </c>
       <c r="L8" s="3">
-        <v>-0.2211446360153257</v>
+        <v>-0.251282991202346</v>
       </c>
       <c r="M8" s="3">
-        <v>-0.1571830195502014</v>
+        <v>-0.1200925437444848</v>
       </c>
       <c r="N8" s="3">
-        <v>-0.1998769987699877</v>
+        <v>-0.2198242933537051</v>
       </c>
       <c r="O8" s="3">
-        <v>-0.05029972427563824</v>
+        <v>-0.07241667278960486</v>
       </c>
       <c r="P8" s="3">
-        <v>-0.08779557905874054</v>
+        <v>-0.1699584185490949</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.06270784341167478</v>
+        <v>-0.1152235178681983</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1750,46 +1750,46 @@
         <v>169</v>
       </c>
       <c r="D9" s="1">
-        <v>30849240.89302857</v>
+        <v>30524141.42171429</v>
       </c>
       <c r="E9" s="2">
-        <v>1.419876146107286</v>
+        <v>1.463609919981053</v>
       </c>
       <c r="F9" s="3">
-        <v>0.02453987730061356</v>
+        <v>-0.0426327599102469</v>
       </c>
       <c r="G9" s="3">
-        <v>0.003008901721602115</v>
+        <v>-0.1322847904511484</v>
       </c>
       <c r="H9" s="3">
-        <v>-0.05248226950354604</v>
+        <v>-0.0138674884437596</v>
       </c>
       <c r="I9" s="3">
-        <v>-0.06645985940474389</v>
+        <v>-0.05158139152656921</v>
       </c>
       <c r="J9" s="3">
-        <v>-0.06769016050244252</v>
+        <v>-0.09219858156028359</v>
       </c>
       <c r="K9" s="3">
-        <v>-0.08450417029660579</v>
+        <v>-0.09308405467769566</v>
       </c>
       <c r="L9" s="3">
-        <v>-0.2052349791790601</v>
+        <v>-0.2279855247285887</v>
       </c>
       <c r="M9" s="3">
-        <v>-0.1466196984224897</v>
+        <v>-0.1310309758187028</v>
       </c>
       <c r="N9" s="3">
-        <v>-0.220991253644315</v>
+        <v>-0.2247122955784373</v>
       </c>
       <c r="O9" s="3">
-        <v>-0.05852016322394879</v>
+        <v>-0.07949962344959877</v>
       </c>
       <c r="P9" s="3">
-        <v>-0.1155619343595477</v>
+        <v>-0.1316578831349256</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.08138874272687154</v>
+        <v>-0.08995421617300189</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1803,46 +1803,46 @@
         <v>170</v>
       </c>
       <c r="D10" s="1">
-        <v>4165204.996747429</v>
+        <v>4123086.485365713</v>
       </c>
       <c r="E10" s="2">
-        <v>1.01816084130515</v>
+        <v>1.041720750482936</v>
       </c>
       <c r="F10" s="3">
-        <v>0.04279105628373168</v>
+        <v>-0.03988183161004448</v>
       </c>
       <c r="G10" s="3">
-        <v>0.03841007740050561</v>
+        <v>-0.1355921122975413</v>
       </c>
       <c r="H10" s="3">
-        <v>-0.0069750367107195</v>
+        <v>0.004830917874396148</v>
       </c>
       <c r="I10" s="3">
-        <v>-0.002311129703589691</v>
+        <v>-0.008671335589906667</v>
       </c>
       <c r="J10" s="3">
-        <v>-0.01779230210602763</v>
+        <v>-0.04692082111436965</v>
       </c>
       <c r="K10" s="3">
-        <v>-0.01668610464384602</v>
+        <v>-0.02141263061478688</v>
       </c>
       <c r="L10" s="3">
-        <v>-0.1438518752967241</v>
+        <v>-0.1622361849524731</v>
       </c>
       <c r="M10" s="3">
-        <v>-0.09725570550916988</v>
+        <v>-0.07469631681824108</v>
       </c>
       <c r="N10" s="3">
-        <v>-0.1525689223057644</v>
+        <v>-0.1578947368421053</v>
       </c>
       <c r="O10" s="3">
-        <v>-0.03868093820925582</v>
+        <v>-0.0490912297100299</v>
       </c>
       <c r="P10" s="3">
-        <v>-0.05697090507650795</v>
+        <v>-0.1051442145578912</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.05595472028120688</v>
+        <v>-0.1009332054767527</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1856,46 +1856,46 @@
         <v>171</v>
       </c>
       <c r="D11" s="1">
-        <v>67304322.81668572</v>
+        <v>67516334.00857143</v>
       </c>
       <c r="E11" s="2">
-        <v>1.477295260296637</v>
+        <v>1.498039637191495</v>
       </c>
       <c r="F11" s="3">
-        <v>0.04568991775814804</v>
+        <v>-0.01189175407925403</v>
       </c>
       <c r="G11" s="3">
-        <v>0.1205970959764641</v>
+        <v>-0.06587813042792144</v>
       </c>
       <c r="H11" s="3">
-        <v>0.0412890995260663</v>
+        <v>0.02942627305152916</v>
       </c>
       <c r="I11" s="3">
-        <v>0.0002177522948023928</v>
+        <v>0.02499102652481553</v>
       </c>
       <c r="J11" s="3">
-        <v>-0.05600907419182984</v>
+        <v>0.004796296296296355</v>
       </c>
       <c r="K11" s="3">
-        <v>-0.04324090288276959</v>
+        <v>0.003575807103197679</v>
       </c>
       <c r="L11" s="3">
-        <v>-0.1048094004139573</v>
+        <v>-0.1281734044604409</v>
       </c>
       <c r="M11" s="3">
-        <v>-0.09126933756892534</v>
+        <v>-0.1027370894657284</v>
       </c>
       <c r="N11" s="3">
-        <v>-0.1967124409540941</v>
+        <v>-0.1797085235690745</v>
       </c>
       <c r="O11" s="3">
-        <v>-0.05382009394519387</v>
+        <v>-0.05791747094635708</v>
       </c>
       <c r="P11" s="3">
-        <v>-0.06725512022584747</v>
+        <v>-0.08430760994682494</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.04552584851070518</v>
+        <v>-0.05627862431256075</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1909,46 +1909,46 @@
         <v>172</v>
       </c>
       <c r="D12" s="1">
-        <v>20299514.2016</v>
+        <v>22621668.08228571</v>
       </c>
       <c r="E12" s="2">
-        <v>0.9748958939307861</v>
+        <v>0.9800713261472909</v>
       </c>
       <c r="F12" s="3">
-        <v>0.0008105917319643947</v>
+        <v>0.01211305518169584</v>
       </c>
       <c r="G12" s="3">
-        <v>0.0007145240602019182</v>
+        <v>0.04051674541741387</v>
       </c>
       <c r="H12" s="3">
-        <v>0.06897546897546908</v>
+        <v>0.04910714285714287</v>
       </c>
       <c r="I12" s="3">
-        <v>0.1020931752581616</v>
+        <v>0.0007380740377146528</v>
       </c>
       <c r="J12" s="3">
-        <v>0.05768132495716732</v>
+        <v>0.07214143142286851</v>
       </c>
       <c r="K12" s="3">
-        <v>0.05851731694429936</v>
+        <v>0.05161133119508455</v>
       </c>
       <c r="L12" s="3">
-        <v>-0.06061374587877245</v>
+        <v>-0.03267301260612294</v>
       </c>
       <c r="M12" s="3">
-        <v>-0.01720729097703301</v>
+        <v>-0.0001078588230320211</v>
       </c>
       <c r="N12" s="3">
-        <v>-0.1292900799247767</v>
+        <v>-0.06211025193315036</v>
       </c>
       <c r="O12" s="3">
-        <v>-0.03845207434914278</v>
+        <v>-0.0317840650171905</v>
       </c>
       <c r="P12" s="3">
-        <v>-0.008246383458415548</v>
+        <v>0.02020444329719093</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.008458732373121483</v>
+        <v>0.02061527845796244</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1962,46 +1962,46 @@
         <v>173</v>
       </c>
       <c r="D13" s="1">
-        <v>7680876.714000001</v>
+        <v>7126834.245785712</v>
       </c>
       <c r="E13" s="2">
-        <v>1.224455665020201</v>
+        <v>1.243263075603871</v>
       </c>
       <c r="F13" s="3">
-        <v>0.05214723926380373</v>
+        <v>-0.04084609773887677</v>
       </c>
       <c r="G13" s="3">
-        <v>0.01497268409672752</v>
+        <v>-0.1192155984245616</v>
       </c>
       <c r="H13" s="3">
-        <v>-0.02625975869410924</v>
+        <v>0.01076095311299002</v>
       </c>
       <c r="I13" s="3">
-        <v>-0.01170547396175634</v>
+        <v>-0.02602748259110484</v>
       </c>
       <c r="J13" s="3">
-        <v>-0.04656011118832519</v>
+        <v>-0.06538734896943858</v>
       </c>
       <c r="K13" s="3">
-        <v>-0.02782956917366146</v>
+        <v>-0.05748995502903435</v>
       </c>
       <c r="L13" s="3">
-        <v>-0.1634146341463414</v>
+        <v>-0.1862623762376238</v>
       </c>
       <c r="M13" s="3">
-        <v>-0.1156451151985425</v>
+        <v>-0.100468159595723</v>
       </c>
       <c r="N13" s="3">
-        <v>-0.1689884918231374</v>
+        <v>-0.1708701134930644</v>
       </c>
       <c r="O13" s="3">
-        <v>-0.03716321678532071</v>
+        <v>-0.05305790694493075</v>
       </c>
       <c r="P13" s="3">
-        <v>-0.07173734218610196</v>
+        <v>-0.1098418790101423</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.05858712915091006</v>
+        <v>-0.0883496672309604</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2015,46 +2015,46 @@
         <v>174</v>
       </c>
       <c r="D14" s="1">
-        <v>141467235.4823314</v>
+        <v>122998202.3584229</v>
       </c>
       <c r="E14" s="2">
-        <v>1.643385216147023</v>
+        <v>1.660994137590541</v>
       </c>
       <c r="F14" s="3">
-        <v>0.09995477159656269</v>
+        <v>-0.01415435478871778</v>
       </c>
       <c r="G14" s="3">
-        <v>0.1869207057917524</v>
+        <v>-0.005128238946900445</v>
       </c>
       <c r="H14" s="3">
-        <v>0.0515619932980218</v>
+        <v>0.08407180186321299</v>
       </c>
       <c r="I14" s="3">
-        <v>0.03313278709519263</v>
+        <v>0.04044879614145269</v>
       </c>
       <c r="J14" s="3">
-        <v>0.02865602199428996</v>
+        <v>0.02381974248927038</v>
       </c>
       <c r="K14" s="3">
-        <v>0.001583023042203043</v>
+        <v>0.0419820295778074</v>
       </c>
       <c r="L14" s="3">
-        <v>-0.145091835837947</v>
+        <v>-0.1824880054832076</v>
       </c>
       <c r="M14" s="3">
-        <v>-0.1179915294036845</v>
+        <v>-0.04159024324165817</v>
       </c>
       <c r="N14" s="3">
-        <v>-0.08087679516250945</v>
+        <v>-0.06934555739783482</v>
       </c>
       <c r="O14" s="3">
-        <v>-0.01162536627181985</v>
+        <v>-0.01665782776903457</v>
       </c>
       <c r="P14" s="3">
-        <v>-0.0396468860601532</v>
+        <v>-0.02335924109427931</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.02412513248300163</v>
+        <v>-0.01406340971688469</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2068,46 +2068,46 @@
         <v>175</v>
       </c>
       <c r="D15" s="1">
-        <v>13684926.83872857</v>
+        <v>13320704.13325714</v>
       </c>
       <c r="E15" s="2">
-        <v>1.41320428963548</v>
+        <v>1.446375002737954</v>
       </c>
       <c r="F15" s="3">
-        <v>0.05813725490196069</v>
+        <v>-0.04175171645945458</v>
       </c>
       <c r="G15" s="3">
-        <v>0.01991620030926301</v>
+        <v>-0.1388613607397495</v>
       </c>
       <c r="H15" s="3">
-        <v>0.002042521585739467</v>
+        <v>0.01683567982672038</v>
       </c>
       <c r="I15" s="3">
-        <v>-4.837520168949202E-05</v>
+        <v>-0.01788819576780645</v>
       </c>
       <c r="J15" s="3">
-        <v>-0.03805704099821763</v>
+        <v>-0.04564775457401599</v>
       </c>
       <c r="K15" s="3">
-        <v>-0.006297679220532676</v>
+        <v>-0.01574792786538351</v>
       </c>
       <c r="L15" s="3">
-        <v>-0.2330704185319406</v>
+        <v>-0.2651725364638919</v>
       </c>
       <c r="M15" s="3">
-        <v>-0.1933356139685416</v>
+        <v>-0.1509725305399033</v>
       </c>
       <c r="N15" s="3">
-        <v>-0.2846158944786903</v>
+        <v>-0.2763452914798207</v>
       </c>
       <c r="O15" s="3">
-        <v>-0.07693209001917088</v>
+        <v>-0.08993500182006937</v>
       </c>
       <c r="P15" s="3">
-        <v>-0.09981664659453714</v>
+        <v>-0.1449169456398264</v>
       </c>
       <c r="Q15" s="3">
-        <v>-0.07063143476608304</v>
+        <v>-0.1001932039516045</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2121,46 +2121,46 @@
         <v>176</v>
       </c>
       <c r="D16" s="1">
-        <v>34938975.77826858</v>
+        <v>12345287.79556571</v>
       </c>
       <c r="E16" s="2">
-        <v>1.526280066119446</v>
+        <v>1.540207571883785</v>
       </c>
       <c r="F16" s="3">
-        <v>0.03891708967851105</v>
+        <v>-0.02198697068403915</v>
       </c>
       <c r="G16" s="3">
-        <v>0.01155219848364761</v>
+        <v>-0.03860368092311449</v>
       </c>
       <c r="H16" s="3">
-        <v>-0.04212168486739471</v>
+        <v>0.01952461799660438</v>
       </c>
       <c r="I16" s="3">
-        <v>-0.0772593506679653</v>
+        <v>-0.001129430799505978</v>
       </c>
       <c r="J16" s="3">
-        <v>-0.06259541984732823</v>
+        <v>-0.06025039123630672</v>
       </c>
       <c r="K16" s="3">
-        <v>-0.06687072475587552</v>
+        <v>-0.05850198172517339</v>
       </c>
       <c r="L16" s="3">
-        <v>-0.1813333333333333</v>
+        <v>-0.2413139608338598</v>
       </c>
       <c r="M16" s="3">
-        <v>-0.165471906266149</v>
+        <v>-0.1249177343347336</v>
       </c>
       <c r="N16" s="3">
-        <v>-0.09439528023598814</v>
+        <v>-0.07258687258687263</v>
       </c>
       <c r="O16" s="3">
-        <v>-2.87825255300505E-05</v>
+        <v>-0.0009483849937326408</v>
       </c>
       <c r="P16" s="3">
-        <v>-0.08063300249593183</v>
+        <v>-0.06554442715602302</v>
       </c>
       <c r="Q16" s="3">
-        <v>-0.05282975535475645</v>
+        <v>-0.04255558039872344</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2174,46 +2174,46 @@
         <v>177</v>
       </c>
       <c r="D17" s="1">
-        <v>14462051.924961</v>
+        <v>14184111.31600828</v>
       </c>
       <c r="E17" s="2">
-        <v>1.280035304271706</v>
+        <v>1.277237877660348</v>
       </c>
       <c r="F17" s="3">
-        <v>0.0580580580580581</v>
+        <v>-0.02049826553137823</v>
       </c>
       <c r="G17" s="3">
-        <v>0.09767674333748509</v>
+        <v>-0.05110430274637989</v>
       </c>
       <c r="H17" s="3">
-        <v>0.01536983669548521</v>
+        <v>0.04543924604510256</v>
       </c>
       <c r="I17" s="3">
-        <v>0.0001955446353911134</v>
+        <v>9.825281426187785E-05</v>
       </c>
       <c r="J17" s="3">
-        <v>-0.007822277847309088</v>
+        <v>-0.007667731629393019</v>
       </c>
       <c r="K17" s="3">
-        <v>-2.545373410735353E-05</v>
+        <v>-1.378539513937468E-05</v>
       </c>
       <c r="L17" s="3">
-        <v>-0.1593319194061506</v>
+        <v>-0.1632543103448277</v>
       </c>
       <c r="M17" s="3">
-        <v>-0.1134812227469045</v>
+        <v>-0.07139878288431678</v>
       </c>
       <c r="N17" s="3">
-        <v>-0.2084373439840239</v>
+        <v>-0.1819857782459837</v>
       </c>
       <c r="O17" s="3">
-        <v>-0.05714579376137215</v>
+        <v>-0.0630920108786352</v>
       </c>
       <c r="P17" s="3">
-        <v>-0.05675333824050594</v>
+        <v>-0.06125154281534834</v>
       </c>
       <c r="Q17" s="3">
-        <v>-0.04433732261220447</v>
+        <v>-0.04795625301024527</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2227,46 +2227,46 @@
         <v>178</v>
       </c>
       <c r="D18" s="1">
-        <v>20629150.73677857</v>
+        <v>19247241.45579286</v>
       </c>
       <c r="E18" s="2">
-        <v>1.595791178389734</v>
+        <v>1.573168861762027</v>
       </c>
       <c r="F18" s="3">
-        <v>0.005218468070051364</v>
+        <v>0.01628521126760555</v>
       </c>
       <c r="G18" s="3">
-        <v>-0.01316998353257147</v>
+        <v>0.01779480586429194</v>
       </c>
       <c r="H18" s="3">
-        <v>-0.06897681658065043</v>
+        <v>0.02832457468602478</v>
       </c>
       <c r="I18" s="3">
-        <v>-0.09519530773490817</v>
+        <v>-0.003809141719972956</v>
       </c>
       <c r="J18" s="3">
-        <v>-0.07953348991657889</v>
+        <v>-0.05508266492060894</v>
       </c>
       <c r="K18" s="3">
-        <v>-0.09441215965185633</v>
+        <v>-0.06000797618837531</v>
       </c>
       <c r="L18" s="3">
-        <v>-0.1656878578769638</v>
+        <v>-0.1530335265204313</v>
       </c>
       <c r="M18" s="3">
-        <v>-0.1055074324108832</v>
+        <v>-0.1078663057501385</v>
       </c>
       <c r="N18" s="3">
-        <v>-0.06905307994757531</v>
+        <v>0.001735357917570428</v>
       </c>
       <c r="O18" s="3">
-        <v>2.231142447484808E-06</v>
+        <v>-0.000984020388658839</v>
       </c>
       <c r="P18" s="3">
-        <v>-0.08173261979971583</v>
+        <v>-0.02913630913540244</v>
       </c>
       <c r="Q18" s="3">
-        <v>-0.05121761600549126</v>
+        <v>-0.0185207766588822</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2280,46 +2280,46 @@
         <v>179</v>
       </c>
       <c r="D19" s="1">
-        <v>141833430.279</v>
+        <v>150468460.5802857</v>
       </c>
       <c r="E19" s="2">
-        <v>1.740023366772896</v>
+        <v>1.653541466688204</v>
       </c>
       <c r="F19" s="3">
-        <v>-0.09564876519012161</v>
+        <v>0.06268053148469098</v>
       </c>
       <c r="G19" s="3">
-        <v>-0.2943559798093657</v>
+        <v>0.1490918897268456</v>
       </c>
       <c r="H19" s="3">
-        <v>0.1121645508597139</v>
+        <v>-0.009023569023569046</v>
       </c>
       <c r="I19" s="3">
-        <v>0.1465721528544838</v>
+        <v>0.0001840903930734112</v>
       </c>
       <c r="J19" s="3">
-        <v>0.1447237843202116</v>
+        <v>0.1707239459029435</v>
       </c>
       <c r="K19" s="3">
-        <v>0.2273321462211645</v>
+        <v>0.1181942757226977</v>
       </c>
       <c r="L19" s="3">
-        <v>0.2101766043014512</v>
+        <v>0.1933181965617905</v>
       </c>
       <c r="M19" s="3">
-        <v>0.06448456246133633</v>
+        <v>0.103673473723341</v>
       </c>
       <c r="N19" s="3">
-        <v>0.1579387652668561</v>
+        <v>0.2825518563709256</v>
       </c>
       <c r="O19" s="3">
-        <v>0.05009991763267924</v>
+        <v>0.08257574291567937</v>
       </c>
       <c r="P19" s="3">
-        <v>0.1112116638640962</v>
+        <v>0.1336430827247717</v>
       </c>
       <c r="Q19" s="3">
-        <v>0.06391389103604568</v>
+        <v>0.080822335222375</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2333,46 +2333,46 @@
         <v>180</v>
       </c>
       <c r="D20" s="1">
-        <v>222112155.5965714</v>
+        <v>196942192.6577143</v>
       </c>
       <c r="E20" s="2">
-        <v>1.592666867575559</v>
+        <v>1.541742680623158</v>
       </c>
       <c r="F20" s="3">
-        <v>0.03548387096774194</v>
+        <v>0.00624290578887622</v>
       </c>
       <c r="G20" s="3">
-        <v>0.009853742253550676</v>
+        <v>0.01291043449714377</v>
       </c>
       <c r="H20" s="3">
-        <v>0.01699308755760373</v>
+        <v>0.05066666666666661</v>
       </c>
       <c r="I20" s="3">
-        <v>0.007578075043634024</v>
+        <v>0.004019913486794042</v>
       </c>
       <c r="J20" s="3">
-        <v>-0.005071851225697322</v>
+        <v>0.01896551724137926</v>
       </c>
       <c r="K20" s="3">
-        <v>0.004090775447398675</v>
+        <v>0.00720378314323171</v>
       </c>
       <c r="L20" s="3">
-        <v>-0.1339220014716703</v>
+        <v>-0.1170318725099602</v>
       </c>
       <c r="M20" s="3">
-        <v>-0.07938568702810653</v>
+        <v>-0.03620000506182983</v>
       </c>
       <c r="N20" s="3">
-        <v>-0.1554651997129873</v>
+        <v>-0.09378993099923333</v>
       </c>
       <c r="O20" s="3">
-        <v>-0.02365701204477673</v>
+        <v>-0.03100254647335054</v>
       </c>
       <c r="P20" s="3">
-        <v>-0.03764745579035392</v>
+        <v>-0.01449811095929906</v>
       </c>
       <c r="Q20" s="3">
-        <v>-0.023637997723694</v>
+        <v>-0.009403716418772981</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2386,46 +2386,46 @@
         <v>181</v>
       </c>
       <c r="D21" s="1">
-        <v>93632013.47477141</v>
+        <v>90043311.17547143</v>
       </c>
       <c r="E21" s="2">
-        <v>1.340044290556674</v>
+        <v>1.320523010101038</v>
       </c>
       <c r="F21" s="3">
-        <v>0.05549664192294095</v>
+        <v>-0.03918285331547217</v>
       </c>
       <c r="G21" s="3">
-        <v>0.03972626729660783</v>
+        <v>-0.1233797676063841</v>
       </c>
       <c r="H21" s="3">
-        <v>-0.001337792642140507</v>
+        <v>0.01845935392261265</v>
       </c>
       <c r="I21" s="3">
-        <v>-0.003389123831898887</v>
+        <v>-0.0114953292349565</v>
       </c>
       <c r="J21" s="3">
-        <v>-0.02194562725188352</v>
+        <v>-0.04366666666666667</v>
       </c>
       <c r="K21" s="3">
-        <v>-0.0004759511955174859</v>
+        <v>-0.02731997369863902</v>
       </c>
       <c r="L21" s="3">
-        <v>-0.2518165873214734</v>
+        <v>-0.2569282569282569</v>
       </c>
       <c r="M21" s="3">
-        <v>-0.183419014891095</v>
+        <v>-0.1295191273195634</v>
       </c>
       <c r="N21" s="3">
-        <v>-0.2645320197044336</v>
+        <v>-0.2981898238747554</v>
       </c>
       <c r="O21" s="3">
-        <v>-0.09057713130945604</v>
+        <v>-0.106648328718083</v>
       </c>
       <c r="P21" s="3">
-        <v>-0.09194748304330623</v>
+        <v>-0.1264494474629738</v>
       </c>
       <c r="Q21" s="3">
-        <v>-0.06861525674282745</v>
+        <v>-0.09575709510226456</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2439,46 +2439,46 @@
         <v>182</v>
       </c>
       <c r="D22" s="1">
-        <v>2922173.1357</v>
+        <v>3070188.014371429</v>
       </c>
       <c r="E22" s="2">
-        <v>1.105430793048388</v>
+        <v>1.087126673909652</v>
       </c>
       <c r="F22" s="3">
-        <v>0.04597701149425291</v>
+        <v>0.003381234150464923</v>
       </c>
       <c r="G22" s="3">
-        <v>0.03251394647195047</v>
+        <v>0.003824194072432917</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>0.0532386867790595</v>
       </c>
       <c r="I22" s="3">
-        <v>-0.0002092040525059609</v>
+        <v>0.006974246694551438</v>
       </c>
       <c r="J22" s="3">
-        <v>-0.009212730318257872</v>
+        <v>-0.0008417508417507491</v>
       </c>
       <c r="K22" s="3">
-        <v>-0.002128063751386324</v>
+        <v>-5.15686685373739E-07</v>
       </c>
       <c r="L22" s="3">
-        <v>-0.1427536231884057</v>
+        <v>-0.1272058823529412</v>
       </c>
       <c r="M22" s="3">
-        <v>-0.09631916680675902</v>
+        <v>-0.0550051060808088</v>
       </c>
       <c r="N22" s="3">
-        <v>-0.1835748792270532</v>
+        <v>-0.1539558089807555</v>
       </c>
       <c r="O22" s="3">
-        <v>-0.06008639339375788</v>
+        <v>-0.06771600226206553</v>
       </c>
       <c r="P22" s="3">
-        <v>-0.04922361527907267</v>
+        <v>-0.02750281088374709</v>
       </c>
       <c r="Q22" s="3">
-        <v>-0.04452889822557893</v>
+        <v>-0.02529862576624881</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2492,46 +2492,46 @@
         <v>183</v>
       </c>
       <c r="D23" s="1">
-        <v>29695311.07157143</v>
+        <v>30671737.64857143</v>
       </c>
       <c r="E23" s="2">
-        <v>1.160160479213342</v>
+        <v>1.197832125671441</v>
       </c>
       <c r="F23" s="3">
-        <v>0.05656003708854886</v>
+        <v>-0.02154793315743178</v>
       </c>
       <c r="G23" s="3">
-        <v>0.0004094319256718636</v>
+        <v>-0.007057782048294576</v>
       </c>
       <c r="H23" s="3">
-        <v>0.0865315852205006</v>
+        <v>0.04166666666666662</v>
       </c>
       <c r="I23" s="3">
-        <v>0.1640206114578883</v>
+        <v>0.003128865578664355</v>
       </c>
       <c r="J23" s="3">
-        <v>0.08035079402702058</v>
+        <v>0.05801236329053741</v>
       </c>
       <c r="K23" s="3">
-        <v>0.1095665201451105</v>
+        <v>0.09051440200202458</v>
       </c>
       <c r="L23" s="3">
-        <v>0.03262347077480736</v>
+        <v>-0.01352250055420083</v>
       </c>
       <c r="M23" s="3">
-        <v>-0.003238780623363808</v>
+        <v>-1.592511042024656E-06</v>
       </c>
       <c r="N23" s="3">
-        <v>-0.05865344898802155</v>
+        <v>0.007699275362318873</v>
       </c>
       <c r="O23" s="3">
-        <v>-0.0007897343986097746</v>
+        <v>2.288046805330268E-08</v>
       </c>
       <c r="P23" s="3">
-        <v>-0.001414674348845972</v>
+        <v>0.003848841425638424</v>
       </c>
       <c r="Q23" s="3">
-        <v>-0.001219378158619233</v>
+        <v>0.003213172650116534</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2545,46 +2545,46 @@
         <v>184</v>
       </c>
       <c r="D24" s="1">
-        <v>19208814.35647143</v>
+        <v>18865719.88328571</v>
       </c>
       <c r="E24" s="2">
-        <v>1.402529827598277</v>
+        <v>1.376650688222707</v>
       </c>
       <c r="F24" s="3">
-        <v>0.06181318681318687</v>
+        <v>-0.01034928848641657</v>
       </c>
       <c r="G24" s="3">
-        <v>0.1021073176629362</v>
+        <v>-0.01383695203158885</v>
       </c>
       <c r="H24" s="3">
-        <v>0.01443569553805775</v>
+        <v>0.06102635228848827</v>
       </c>
       <c r="I24" s="3">
-        <v>0.005925546929078547</v>
+        <v>0.002785756905984458</v>
       </c>
       <c r="J24" s="3">
-        <v>-0.01277139208173692</v>
+        <v>0.003937007874015751</v>
       </c>
       <c r="K24" s="3">
-        <v>2.197733516219589E-06</v>
+        <v>0.002664098049138951</v>
       </c>
       <c r="L24" s="3">
-        <v>-0.1922675026123301</v>
+        <v>-0.1720779220779221</v>
       </c>
       <c r="M24" s="3">
-        <v>-0.1290075464244755</v>
+        <v>-0.06284491826223626</v>
       </c>
       <c r="N24" s="3">
-        <v>-0.30297565374211</v>
+        <v>-0.2608695652173912</v>
       </c>
       <c r="O24" s="3">
-        <v>-0.1093068432172032</v>
+        <v>-0.1075827267627677</v>
       </c>
       <c r="P24" s="3">
-        <v>-0.06450267434547965</v>
+        <v>-0.03834093514691256</v>
       </c>
       <c r="Q24" s="3">
-        <v>-0.04599023355954965</v>
+        <v>-0.0278508814726354</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2598,46 +2598,46 @@
         <v>185</v>
       </c>
       <c r="D25" s="1">
-        <v>2761072.157215714</v>
+        <v>2738079.85068</v>
       </c>
       <c r="E25" s="2">
-        <v>0.8895801742297359</v>
+        <v>0.8929614808291402</v>
       </c>
       <c r="F25" s="3">
-        <v>0.05163761225567896</v>
+        <v>-0.008800603469952303</v>
       </c>
       <c r="G25" s="3">
-        <v>0.07192855315397673</v>
+        <v>-0.001542792013596942</v>
       </c>
       <c r="H25" s="3">
-        <v>-0.0111759592698373</v>
+        <v>0.04410011918951132</v>
       </c>
       <c r="I25" s="3">
-        <v>-0.002699323702754005</v>
+        <v>0.009265874785344816</v>
       </c>
       <c r="J25" s="3">
-        <v>-0.02162427816685094</v>
+        <v>-0.01964685401641398</v>
       </c>
       <c r="K25" s="3">
-        <v>-0.005650607693346087</v>
+        <v>-0.0003779365318945384</v>
       </c>
       <c r="L25" s="3">
-        <v>-0.119429392900586</v>
+        <v>-0.1204819277108434</v>
       </c>
       <c r="M25" s="3">
-        <v>-0.08331654274055202</v>
+        <v>-0.04876342084598666</v>
       </c>
       <c r="N25" s="3">
-        <v>-0.1537725823591923</v>
+        <v>-0.1355263157894738</v>
       </c>
       <c r="O25" s="3">
-        <v>-0.04639323845823055</v>
+        <v>-0.05220668907920492</v>
       </c>
       <c r="P25" s="3">
-        <v>-0.04448357521694905</v>
+        <v>-0.0251531064297918</v>
       </c>
       <c r="Q25" s="3">
-        <v>-0.05000513332647753</v>
+        <v>-0.02816818750842022</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2651,46 +2651,46 @@
         <v>186</v>
       </c>
       <c r="D26" s="1">
-        <v>9439690.393635714</v>
+        <v>9638382.489004286</v>
       </c>
       <c r="E26" s="2">
-        <v>1.002009232199965</v>
+        <v>1.058514579584469</v>
       </c>
       <c r="F26" s="3">
-        <v>0.02270179372197304</v>
+        <v>-0.05596707818930041</v>
       </c>
       <c r="G26" s="3">
-        <v>0.004914929658899547</v>
+        <v>-0.2141669901840633</v>
       </c>
       <c r="H26" s="3">
-        <v>-0.04426401257202717</v>
+        <v>-0.03043110735418421</v>
       </c>
       <c r="I26" s="3">
-        <v>-0.08519597893706886</v>
+        <v>-0.07710235641678512</v>
       </c>
       <c r="J26" s="3">
-        <v>-0.04526425954997372</v>
+        <v>-0.09992152759612861</v>
       </c>
       <c r="K26" s="3">
-        <v>-0.05994248098553986</v>
+        <v>-0.1235853231065634</v>
       </c>
       <c r="L26" s="3">
-        <v>-0.1840339892665474</v>
+        <v>-0.2172429481346678</v>
       </c>
       <c r="M26" s="3">
-        <v>-0.1214358665551848</v>
+        <v>-0.1080835783406537</v>
       </c>
       <c r="N26" s="3">
-        <v>-0.2072561373017597</v>
+        <v>-0.2145628851860306</v>
       </c>
       <c r="O26" s="3">
-        <v>-0.05122374567643973</v>
+        <v>-0.06440220799332895</v>
       </c>
       <c r="P26" s="3">
-        <v>-0.09068917377036234</v>
+        <v>-0.1688761566453134</v>
       </c>
       <c r="Q26" s="3">
-        <v>-0.09050732354156993</v>
+        <v>-0.1595406996770961</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2704,46 +2704,46 @@
         <v>187</v>
       </c>
       <c r="D27" s="1">
-        <v>10731906.59207143</v>
+        <v>11526389.01385714</v>
       </c>
       <c r="E27" s="2">
-        <v>1.7084456866976</v>
+        <v>1.529056508592335</v>
       </c>
       <c r="F27" s="3">
-        <v>0.075</v>
+        <v>0.01862390067252976</v>
       </c>
       <c r="G27" s="3">
-        <v>0.1165242309728854</v>
+        <v>0.07723050397883896</v>
       </c>
       <c r="H27" s="3">
-        <v>0.04256465517241377</v>
+        <v>0.09025470653377632</v>
       </c>
       <c r="I27" s="3">
-        <v>0.06942180858940647</v>
+        <v>0.06830266277660844</v>
       </c>
       <c r="J27" s="3">
-        <v>0.0392051557465091</v>
+        <v>0.06260118726389644</v>
       </c>
       <c r="K27" s="3">
-        <v>0.03587392185285031</v>
+        <v>0.07265449844106196</v>
       </c>
       <c r="L27" s="3">
-        <v>-0.1216522923286427</v>
+        <v>-0.06682464454976293</v>
       </c>
       <c r="M27" s="3">
-        <v>-0.07912722328037439</v>
+        <v>-0.02399375749694195</v>
       </c>
       <c r="N27" s="3">
-        <v>-0.1074723247232473</v>
+        <v>-0.1303003533568903</v>
       </c>
       <c r="O27" s="3">
-        <v>-0.04857350620937298</v>
+        <v>-0.05255980117890814</v>
       </c>
       <c r="P27" s="3">
-        <v>-0.02162665071376204</v>
+        <v>0.02433037047206001</v>
       </c>
       <c r="Q27" s="3">
-        <v>-0.01265867032364724</v>
+        <v>0.01591201524295449</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2757,46 +2757,46 @@
         <v>188</v>
       </c>
       <c r="D28" s="1">
-        <v>43628164.70018286</v>
+        <v>41931025.74710143</v>
       </c>
       <c r="E28" s="2">
-        <v>1.37639294992119</v>
+        <v>1.325235455759487</v>
       </c>
       <c r="F28" s="3">
-        <v>0.06799007444168732</v>
+        <v>-0.0116063138347261</v>
       </c>
       <c r="G28" s="3">
-        <v>0.1018196329489616</v>
+        <v>5.758056997008263E-05</v>
       </c>
       <c r="H28" s="3">
-        <v>0.04314105671352409</v>
+        <v>0.05605158730158726</v>
       </c>
       <c r="I28" s="3">
-        <v>0.03899348514526477</v>
+        <v>0.03233854392951686</v>
       </c>
       <c r="J28" s="3">
-        <v>0.04924427108727452</v>
+        <v>0.02701398938736138</v>
       </c>
       <c r="K28" s="3">
-        <v>0.03360975209075407</v>
+        <v>0.04176339243087626</v>
       </c>
       <c r="L28" s="3">
-        <v>-0.06271777003484322</v>
+        <v>-0.048278945015646</v>
       </c>
       <c r="M28" s="3">
-        <v>-0.02562161001426368</v>
+        <v>-0.001007663943061693</v>
       </c>
       <c r="N28" s="3">
-        <v>-0.2035529237601776</v>
+        <v>-0.1324368378158109</v>
       </c>
       <c r="O28" s="3">
-        <v>-0.05547781588149279</v>
+        <v>-0.03993325080903264</v>
       </c>
       <c r="P28" s="3">
-        <v>0.003994071038245195</v>
+        <v>-0.0004750416865458054</v>
       </c>
       <c r="Q28" s="3">
-        <v>0.002901839215664313</v>
+        <v>-0.000358458328654934</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2810,46 +2810,46 @@
         <v>189</v>
       </c>
       <c r="D29" s="1">
-        <v>16905331.23107143</v>
+        <v>16554673.6608</v>
       </c>
       <c r="E29" s="2">
-        <v>1.095529111971314</v>
+        <v>1.084576701754548</v>
       </c>
       <c r="F29" s="3">
-        <v>0.04977835241965289</v>
+        <v>-0.01461524916358517</v>
       </c>
       <c r="G29" s="3">
-        <v>0.01899338815323284</v>
+        <v>-0.01128703245486727</v>
       </c>
       <c r="H29" s="3">
-        <v>-0.01788491446345248</v>
+        <v>0.04160074453234072</v>
       </c>
       <c r="I29" s="3">
-        <v>-0.02432532673523724</v>
+        <v>0.0008649620958233125</v>
       </c>
       <c r="J29" s="3">
-        <v>-0.02529583261876178</v>
+        <v>-0.03716448726772199</v>
       </c>
       <c r="K29" s="3">
-        <v>-0.03183237172663474</v>
+        <v>-0.01310408193562224</v>
       </c>
       <c r="L29" s="3">
-        <v>-0.1509560800717059</v>
+        <v>-0.16233814834219</v>
       </c>
       <c r="M29" s="3">
-        <v>-0.1033072412432624</v>
+        <v>-0.0690347713364947</v>
       </c>
       <c r="N29" s="3">
-        <v>-0.1689574499195789</v>
+        <v>-0.1581797668296352</v>
       </c>
       <c r="O29" s="3">
-        <v>-0.0498716190861795</v>
+        <v>-0.06017235085489817</v>
       </c>
       <c r="P29" s="3">
-        <v>-0.06756980648494858</v>
+        <v>-0.04106942663605847</v>
       </c>
       <c r="Q29" s="3">
-        <v>-0.06167778267741537</v>
+        <v>-0.03786677933392761</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2863,46 +2863,46 @@
         <v>190</v>
       </c>
       <c r="D30" s="1">
-        <v>6179800.836857144</v>
+        <v>5909190.1645</v>
       </c>
       <c r="E30" s="2">
-        <v>1.074477421130329</v>
+        <v>1.071695759467615</v>
       </c>
       <c r="F30" s="3">
-        <v>0.06525769373377834</v>
+        <v>-0.01880550235068789</v>
       </c>
       <c r="G30" s="3">
-        <v>0.09549933124843367</v>
+        <v>5.76566419599447E-07</v>
       </c>
       <c r="H30" s="3">
-        <v>0.009486999297259359</v>
+        <v>0.03870967741935483</v>
       </c>
       <c r="I30" s="3">
-        <v>0.0004851899866349169</v>
+        <v>0.008793282824106548</v>
       </c>
       <c r="J30" s="3">
-        <v>-0.00450450450450447</v>
+        <v>-0.01589242053789735</v>
       </c>
       <c r="K30" s="3">
-        <v>-0.004246193116213697</v>
+        <v>0.001085196283719827</v>
       </c>
       <c r="L30" s="3">
-        <v>-0.1418757467144563</v>
+        <v>-0.1643185525730388</v>
       </c>
       <c r="M30" s="3">
-        <v>-0.1155519378026193</v>
+        <v>-0.06406681905176008</v>
       </c>
       <c r="N30" s="3">
-        <v>-0.2398465405476914</v>
+        <v>-0.2125489100055897</v>
       </c>
       <c r="O30" s="3">
-        <v>-0.08662117240989792</v>
+        <v>-0.08904707350411192</v>
       </c>
       <c r="P30" s="3">
-        <v>-0.05989906545941652</v>
+        <v>-0.03203312124267024</v>
       </c>
       <c r="Q30" s="3">
-        <v>-0.05574716069547919</v>
+        <v>-0.0298901259612927</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2916,46 +2916,46 @@
         <v>191</v>
       </c>
       <c r="D31" s="1">
-        <v>9326973.022285715</v>
+        <v>8294021.830257143</v>
       </c>
       <c r="E31" s="2">
-        <v>1.562652435856009</v>
+        <v>1.528879144902778</v>
       </c>
       <c r="F31" s="3">
-        <v>0.03696303696303705</v>
+        <v>-0.0279383429672447</v>
       </c>
       <c r="G31" s="3">
-        <v>0.005894273712966874</v>
+        <v>-0.04657265658056165</v>
       </c>
       <c r="H31" s="3">
-        <v>0.001930501930501986</v>
+        <v>0.02436548223350253</v>
       </c>
       <c r="I31" s="3">
-        <v>1.632221707757263E-05</v>
+        <v>-0.004845793800009545</v>
       </c>
       <c r="J31" s="3">
-        <v>0.002898550724637764</v>
+        <v>-0.02512077294685982</v>
       </c>
       <c r="K31" s="3">
-        <v>0.001244699467103567</v>
+        <v>-0.005023970219374812</v>
       </c>
       <c r="L31" s="3">
-        <v>-0.1407284768211921</v>
+        <v>-0.1441899915182358</v>
       </c>
       <c r="M31" s="3">
-        <v>-0.08299806092170176</v>
+        <v>-0.04865111007149097</v>
       </c>
       <c r="N31" s="3">
-        <v>-0.1928460342146189</v>
+        <v>-0.1513877207737595</v>
       </c>
       <c r="O31" s="3">
-        <v>-0.04723750958657352</v>
+        <v>-0.05659162994487142</v>
       </c>
       <c r="P31" s="3">
-        <v>-0.04087668072729909</v>
+        <v>-0.04761188332602631</v>
       </c>
       <c r="Q31" s="3">
-        <v>-0.02615852366742522</v>
+        <v>-0.03114169192820926</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2969,46 +2969,46 @@
         <v>192</v>
       </c>
       <c r="D32" s="1">
-        <v>5932430.623915714</v>
+        <v>5665494.91524</v>
       </c>
       <c r="E32" s="2">
-        <v>0.9551080665376627</v>
+        <v>0.9594014121102371</v>
       </c>
       <c r="F32" s="3">
-        <v>0.05286343612334809</v>
+        <v>-0.01596958174904944</v>
       </c>
       <c r="G32" s="3">
-        <v>0.04260498705506136</v>
+        <v>-0.01253975413122561</v>
       </c>
       <c r="H32" s="3">
-        <v>0.006508422664624809</v>
+        <v>0.03935742971887557</v>
       </c>
       <c r="I32" s="3">
-        <v>1.66017540253057E-05</v>
+        <v>0.001257142223120483</v>
       </c>
       <c r="J32" s="3">
-        <v>0.009600614439324124</v>
+        <v>-0.007668711656441672</v>
       </c>
       <c r="K32" s="3">
-        <v>4.319419021128264E-10</v>
+        <v>1.443775852760548E-08</v>
       </c>
       <c r="L32" s="3">
-        <v>-0.1033424283765347</v>
+        <v>-0.115516062884484</v>
       </c>
       <c r="M32" s="3">
-        <v>-0.07267706633351362</v>
+        <v>-0.04549480751228023</v>
       </c>
       <c r="N32" s="3">
-        <v>-0.08269364968597349</v>
+        <v>-0.0589090909090909</v>
       </c>
       <c r="O32" s="3">
-        <v>-0.01044967800860983</v>
+        <v>-0.01884507104739573</v>
       </c>
       <c r="P32" s="3">
-        <v>-0.03633853295078586</v>
+        <v>-0.02901728082175292</v>
       </c>
       <c r="Q32" s="3">
-        <v>-0.03804651455045891</v>
+        <v>-0.03024519294580606</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3022,46 +3022,46 @@
         <v>193</v>
       </c>
       <c r="D33" s="1">
-        <v>11419831.45963857</v>
+        <v>11948636.87650286</v>
       </c>
       <c r="E33" s="2">
-        <v>1.025563577576442</v>
+        <v>1.015359674286543</v>
       </c>
       <c r="F33" s="3">
-        <v>0.04847277556440904</v>
+        <v>0.003802281368821402</v>
       </c>
       <c r="G33" s="3">
-        <v>0.06733209184006934</v>
+        <v>0.02784058873446952</v>
       </c>
       <c r="H33" s="3">
-        <v>0.0006337135614703216</v>
+        <v>0.05953177257525097</v>
       </c>
       <c r="I33" s="3">
-        <v>-1.730455060844906E-06</v>
+        <v>0.02037230148146931</v>
       </c>
       <c r="J33" s="3">
-        <v>-0.008165829145728614</v>
+        <v>0.0006317119393557596</v>
       </c>
       <c r="K33" s="3">
-        <v>-0.006326419591244618</v>
+        <v>0.0005841533696039434</v>
       </c>
       <c r="L33" s="3">
-        <v>-0.1542581681842528</v>
+        <v>-0.1121076233183856</v>
       </c>
       <c r="M33" s="3">
-        <v>-0.08820529290982339</v>
+        <v>-0.03714880866354402</v>
       </c>
       <c r="N33" s="3">
-        <v>-0.1366867140513942</v>
+        <v>-0.1145891559530463</v>
       </c>
       <c r="O33" s="3">
-        <v>-0.04464802853150195</v>
+        <v>-0.05640459521992339</v>
       </c>
       <c r="P33" s="3">
-        <v>-0.04726585625053401</v>
+        <v>-0.01828232764697004</v>
       </c>
       <c r="Q33" s="3">
-        <v>-0.04608769001160339</v>
+        <v>-0.01800576496187559</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3075,46 +3075,46 @@
         <v>194</v>
       </c>
       <c r="D34" s="1">
-        <v>13642431.65108571</v>
+        <v>13992741.3012</v>
       </c>
       <c r="E34" s="2">
-        <v>1.167106212083577</v>
+        <v>1.204442934096342</v>
       </c>
       <c r="F34" s="3">
-        <v>0.0106995884773663</v>
+        <v>-0.04106608648354643</v>
       </c>
       <c r="G34" s="3">
-        <v>-0.008314211702943665</v>
+        <v>-0.05493071626040417</v>
       </c>
       <c r="H34" s="3">
-        <v>-0.04361370716510896</v>
+        <v>-0.02731034482758626</v>
       </c>
       <c r="I34" s="3">
-        <v>-0.05478757382612631</v>
+        <v>-0.06859204221688472</v>
       </c>
       <c r="J34" s="3">
-        <v>-0.05453612216091362</v>
+        <v>-0.08994708994708996</v>
       </c>
       <c r="K34" s="3">
-        <v>-0.05177318263304835</v>
+        <v>-0.0892318136776859</v>
       </c>
       <c r="L34" s="3">
-        <v>-0.1697092630155511</v>
+        <v>-0.1948852608745291</v>
       </c>
       <c r="M34" s="3">
-        <v>-0.09449302031133605</v>
+        <v>-0.07504666959320785</v>
       </c>
       <c r="N34" s="3">
-        <v>-0.2225387780943336</v>
+        <v>-0.2063027574563872</v>
       </c>
       <c r="O34" s="3">
-        <v>-0.05864540268571886</v>
+        <v>-0.06597061069866161</v>
       </c>
       <c r="P34" s="3">
-        <v>-0.07313310147219221</v>
+        <v>-0.08213924163544688</v>
       </c>
       <c r="Q34" s="3">
-        <v>-0.06266190747252667</v>
+        <v>-0.06819687285315307</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3128,46 +3128,46 @@
         <v>195</v>
       </c>
       <c r="D35" s="1">
-        <v>58933350.35242858</v>
+        <v>57092055.447</v>
       </c>
       <c r="E35" s="2">
-        <v>1.525598003783581</v>
+        <v>1.561569230451757</v>
       </c>
       <c r="F35" s="3">
-        <v>0.03212851405622493</v>
+        <v>-0.03307392996108952</v>
       </c>
       <c r="G35" s="3">
-        <v>0.04081560904586677</v>
+        <v>-0.09681855651184514</v>
       </c>
       <c r="H35" s="3">
-        <v>-0.02466793168880458</v>
+        <v>-0.002008032128514058</v>
       </c>
       <c r="I35" s="3">
-        <v>-0.02438594491212668</v>
+        <v>-0.01144401647393513</v>
       </c>
       <c r="J35" s="3">
-        <v>-0.02281368821292777</v>
+        <v>-0.05871212121212126</v>
       </c>
       <c r="K35" s="3">
-        <v>-0.02190134505737096</v>
+        <v>-0.04587120097097084</v>
       </c>
       <c r="L35" s="3">
-        <v>-0.08214285714285721</v>
+        <v>-0.07962962962962969</v>
       </c>
       <c r="M35" s="3">
-        <v>-0.03942717169430703</v>
+        <v>-0.05921551883581588</v>
       </c>
       <c r="N35" s="3">
-        <v>-0.1892744479495268</v>
+        <v>-0.1632996632996633</v>
       </c>
       <c r="O35" s="3">
-        <v>-0.0405640232365995</v>
+        <v>-0.04399140279488526</v>
       </c>
       <c r="P35" s="3">
-        <v>-0.030664258375839</v>
+        <v>-0.0780170376738305</v>
       </c>
       <c r="Q35" s="3">
-        <v>-0.0200998285916668</v>
+        <v>-0.04996066530541231</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3181,46 +3181,46 @@
         <v>196</v>
       </c>
       <c r="D36" s="1">
-        <v>35259459.95548286</v>
+        <v>34867619.14676429</v>
       </c>
       <c r="E36" s="2">
-        <v>1.333847213057158</v>
+        <v>1.345101213001233</v>
       </c>
       <c r="F36" s="3">
-        <v>0.04926908500270715</v>
+        <v>-0.03617571059431521</v>
       </c>
       <c r="G36" s="3">
-        <v>0.01215025584822929</v>
+        <v>-0.06454359677335146</v>
       </c>
       <c r="H36" s="3">
-        <v>-0.04437869822485197</v>
+        <v>0.007019438444924495</v>
       </c>
       <c r="I36" s="3">
-        <v>-0.02502871685506905</v>
+        <v>-0.01915413299695707</v>
       </c>
       <c r="J36" s="3">
-        <v>-0.06240928882438314</v>
+        <v>-0.08128078817733984</v>
       </c>
       <c r="K36" s="3">
-        <v>-0.06926552485087298</v>
+        <v>-0.05824409946647686</v>
       </c>
       <c r="L36" s="3">
-        <v>-0.2309523809523809</v>
+        <v>-0.2384646794610045</v>
       </c>
       <c r="M36" s="3">
-        <v>-0.1709745598140248</v>
+        <v>-0.1416797958679795</v>
       </c>
       <c r="N36" s="3">
-        <v>-0.2835489833641405</v>
+        <v>-0.2731878409976617</v>
       </c>
       <c r="O36" s="3">
-        <v>-0.08269923486721192</v>
+        <v>-0.09799122138084283</v>
       </c>
       <c r="P36" s="3">
-        <v>-0.1201200423324489</v>
+        <v>-0.1031116963206655</v>
       </c>
       <c r="Q36" s="3">
-        <v>-0.09005532354574218</v>
+        <v>-0.0766572026878181</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3234,46 +3234,46 @@
         <v>197</v>
       </c>
       <c r="D37" s="1">
-        <v>3520222.546617143</v>
+        <v>3529743.353528571</v>
       </c>
       <c r="E37" s="2">
-        <v>0.8805703671521451</v>
+        <v>0.8955008977598661</v>
       </c>
       <c r="F37" s="3">
-        <v>0.05128205128205131</v>
+        <v>-0.01863354037267091</v>
       </c>
       <c r="G37" s="3">
-        <v>0.1281053557756294</v>
+        <v>-0.01791119657763394</v>
       </c>
       <c r="H37" s="3">
-        <v>-0.02616747181964578</v>
+        <v>0.03719912472647703</v>
       </c>
       <c r="I37" s="3">
-        <v>-0.01490217760735565</v>
+        <v>0.004115421033168118</v>
       </c>
       <c r="J37" s="3">
-        <v>-0.04084060269627279</v>
+        <v>-0.05048076923076926</v>
       </c>
       <c r="K37" s="3">
-        <v>-0.05731170451054982</v>
+        <v>-0.008172650511743512</v>
       </c>
       <c r="L37" s="3">
-        <v>-0.1755282890252216</v>
+        <v>-0.1779396462018731</v>
       </c>
       <c r="M37" s="3">
-        <v>-0.131894607485788</v>
+        <v>-0.1002504942368795</v>
       </c>
       <c r="N37" s="3">
-        <v>-0.1838731443994602</v>
+        <v>-0.1719077568134172</v>
       </c>
       <c r="O37" s="3">
-        <v>-0.04842870770897694</v>
+        <v>-0.06121812140864501</v>
       </c>
       <c r="P37" s="3">
-        <v>-0.09460315599816889</v>
+        <v>-0.05908084540725669</v>
       </c>
       <c r="Q37" s="3">
-        <v>-0.1074339536363519</v>
+        <v>-0.0659751939445845</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3287,46 +3287,46 @@
         <v>198</v>
       </c>
       <c r="D38" s="1">
-        <v>124769189.9897142</v>
+        <v>132038678.3559429</v>
       </c>
       <c r="E38" s="2">
-        <v>1.738436360495466</v>
+        <v>2.053264006114412</v>
       </c>
       <c r="F38" s="3">
-        <v>0.03681442524417726</v>
+        <v>-0.1365286855482933</v>
       </c>
       <c r="G38" s="3">
-        <v>0.0001548352175373045</v>
+        <v>-0.6104365682723379</v>
       </c>
       <c r="H38" s="3">
-        <v>-0.01779359430604992</v>
+        <v>-0.09992429977289924</v>
       </c>
       <c r="I38" s="3">
-        <v>-0.003374958754211729</v>
+        <v>-0.2171405378833246</v>
       </c>
       <c r="J38" s="3">
-        <v>-0.02953586497890298</v>
+        <v>-0.159123055162659</v>
       </c>
       <c r="K38" s="3">
-        <v>-0.01423888607681029</v>
+        <v>-0.1183698517631476</v>
       </c>
       <c r="L38" s="3">
-        <v>-0.169175195665262</v>
+        <v>-0.2587281795511222</v>
       </c>
       <c r="M38" s="3">
-        <v>-0.1115752821120896</v>
+        <v>-0.1207326484772993</v>
       </c>
       <c r="N38" s="3">
-        <v>-0.2150170648464164</v>
+        <v>-0.2683076923076922</v>
       </c>
       <c r="O38" s="3">
-        <v>-0.03093335998998174</v>
+        <v>-0.04188785678686482</v>
       </c>
       <c r="P38" s="3">
-        <v>-0.06290708409444996</v>
+        <v>-0.1945201703924958</v>
       </c>
       <c r="Q38" s="3">
-        <v>-0.03618601492925576</v>
+        <v>-0.09473704784832074</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3340,46 +3340,46 @@
         <v>199</v>
       </c>
       <c r="D39" s="1">
-        <v>8122967.639657144</v>
+        <v>8056024.889542857</v>
       </c>
       <c r="E39" s="2">
-        <v>1.312001126408129</v>
+        <v>1.347721681244421</v>
       </c>
       <c r="F39" s="3">
-        <v>0.04792332268370612</v>
+        <v>-0.04887983706720977</v>
       </c>
       <c r="G39" s="3">
-        <v>0.01714744185119237</v>
+        <v>-0.1672413712781773</v>
       </c>
       <c r="H39" s="3">
-        <v>-0.02477700693756196</v>
+        <v>-0.01164021164021168</v>
       </c>
       <c r="I39" s="3">
-        <v>-0.03821392013570366</v>
+        <v>-0.04896523716022375</v>
       </c>
       <c r="J39" s="3">
-        <v>-0.03623898139079329</v>
+        <v>-0.07707509881422926</v>
       </c>
       <c r="K39" s="3">
-        <v>-0.04369746626083258</v>
+        <v>-0.09063580585155843</v>
       </c>
       <c r="L39" s="3">
-        <v>-0.1398601398601399</v>
+        <v>-0.1697777777777778</v>
       </c>
       <c r="M39" s="3">
-        <v>-0.09488553405314007</v>
+        <v>-0.09331935888562332</v>
       </c>
       <c r="N39" s="3">
-        <v>-0.1495246326707</v>
+        <v>-0.1516802906448683</v>
       </c>
       <c r="O39" s="3">
-        <v>-0.02353743812212246</v>
+        <v>-0.03423059206512071</v>
       </c>
       <c r="P39" s="3">
-        <v>-0.06929150015698632</v>
+        <v>-0.1224998247652458</v>
       </c>
       <c r="Q39" s="3">
-        <v>-0.05281359806960378</v>
+        <v>-0.09089400762042753</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3393,46 +3393,46 @@
         <v>200</v>
       </c>
       <c r="D40" s="1">
-        <v>175963523.1325714</v>
+        <v>172885642.1014286</v>
       </c>
       <c r="E40" s="2">
-        <v>2.223469724808676</v>
+        <v>2.269954445275996</v>
       </c>
       <c r="F40" s="3">
-        <v>0.0617283950617285</v>
+        <v>-0.05358686257562666</v>
       </c>
       <c r="G40" s="3">
-        <v>0.05118662312275039</v>
+        <v>-0.1725992382702289</v>
       </c>
       <c r="H40" s="3">
-        <v>-0.05801217038539546</v>
+        <v>0.004126547455295689</v>
       </c>
       <c r="I40" s="3">
-        <v>-0.08421982511791717</v>
+        <v>-0.007363668919131062</v>
       </c>
       <c r="J40" s="3">
-        <v>-0.1048573631457208</v>
+        <v>-0.1169354838709678</v>
       </c>
       <c r="K40" s="3">
-        <v>-0.09753550867402376</v>
+        <v>-0.08198942375120377</v>
       </c>
       <c r="L40" s="3">
-        <v>-0.2607449856733524</v>
+        <v>-0.2822025565388398</v>
       </c>
       <c r="M40" s="3">
-        <v>-0.2045747843100303</v>
+        <v>-0.1723364967428748</v>
       </c>
       <c r="N40" s="3">
-        <v>-0.3610346725371491</v>
+        <v>-0.3635571054925893</v>
       </c>
       <c r="O40" s="3">
-        <v>-0.1263302668698692</v>
+        <v>-0.1369283786260792</v>
       </c>
       <c r="P40" s="3">
-        <v>-0.151055146492027</v>
+        <v>-0.1724678675065519</v>
       </c>
       <c r="Q40" s="3">
-        <v>-0.06793667788979001</v>
+        <v>-0.0759785588937588</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3446,46 +3446,46 @@
         <v>201</v>
       </c>
       <c r="D41" s="1">
-        <v>9716306.232342858</v>
+        <v>9025180.605342858</v>
       </c>
       <c r="E41" s="2">
-        <v>1.369676910035555</v>
+        <v>1.348504880445104</v>
       </c>
       <c r="F41" s="3">
-        <v>0.03752039151712881</v>
+        <v>-0.01572327044025159</v>
       </c>
       <c r="G41" s="3">
-        <v>0.0194763099651959</v>
+        <v>-0.04834426646982177</v>
       </c>
       <c r="H41" s="3">
-        <v>-0.01191092698083893</v>
+        <v>0.02960526315789467</v>
       </c>
       <c r="I41" s="3">
-        <v>-0.002895930257983293</v>
+        <v>-0.003102321168457488</v>
       </c>
       <c r="J41" s="3">
-        <v>-0.02950152594099695</v>
+        <v>-0.02895553257497412</v>
       </c>
       <c r="K41" s="3">
-        <v>-0.01311698917653279</v>
+        <v>-0.01261624485924843</v>
       </c>
       <c r="L41" s="3">
-        <v>-0.1986560268794624</v>
+        <v>-0.1848958333333333</v>
       </c>
       <c r="M41" s="3">
-        <v>-0.1393927889552826</v>
+        <v>-0.09784501219927874</v>
       </c>
       <c r="N41" s="3">
-        <v>-0.1736682546556951</v>
+        <v>-0.1486854034451496</v>
       </c>
       <c r="O41" s="3">
-        <v>-0.04018192120366022</v>
+        <v>-0.05549942352003706</v>
       </c>
       <c r="P41" s="3">
-        <v>-0.0762548890659077</v>
+        <v>-0.07309463933455025</v>
       </c>
       <c r="Q41" s="3">
-        <v>-0.05567363259699561</v>
+        <v>-0.05420420822683543</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3499,46 +3499,46 @@
         <v>202</v>
       </c>
       <c r="D42" s="1">
-        <v>4162876.527314285</v>
+        <v>3857772.108214286</v>
       </c>
       <c r="E42" s="2">
-        <v>0.9790117921193399</v>
+        <v>0.9713569072712372</v>
       </c>
       <c r="F42" s="3">
-        <v>0.04102976669348345</v>
+        <v>-0.0139211136890951</v>
       </c>
       <c r="G42" s="3">
-        <v>0.01429989773515184</v>
+        <v>-0.008721008189563255</v>
       </c>
       <c r="H42" s="3">
-        <v>-0.009188361408882134</v>
+        <v>0.02988691437802915</v>
       </c>
       <c r="I42" s="3">
-        <v>-0.007508425960306586</v>
+        <v>-7.136292038265473E-08</v>
       </c>
       <c r="J42" s="3">
-        <v>-0.01671732522796358</v>
+        <v>-0.02597402597402587</v>
       </c>
       <c r="K42" s="3">
-        <v>-0.00749650828041191</v>
+        <v>-0.009700139277704647</v>
       </c>
       <c r="L42" s="3">
-        <v>-0.1564537157757498</v>
+        <v>-0.1550695825049702</v>
       </c>
       <c r="M42" s="3">
-        <v>-0.104765563591122</v>
+        <v>-0.06444587236309196</v>
       </c>
       <c r="N42" s="3">
-        <v>-0.1952736318407961</v>
+        <v>-0.1584158415841584</v>
       </c>
       <c r="O42" s="3">
-        <v>-0.05090875662563521</v>
+        <v>-0.05689326694469387</v>
       </c>
       <c r="P42" s="3">
-        <v>-0.05613103593576697</v>
+        <v>-0.0370730058203983</v>
       </c>
       <c r="Q42" s="3">
-        <v>-0.05733438186097425</v>
+        <v>-0.03816620393892583</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3552,46 +3552,46 @@
         <v>203</v>
       </c>
       <c r="D43" s="1">
-        <v>4293584.8524</v>
+        <v>3913179.610011429</v>
       </c>
       <c r="E43" s="2">
-        <v>0.9337568631944737</v>
+        <v>0.934351826982029</v>
       </c>
       <c r="F43" s="3">
-        <v>0.04059040590405903</v>
+        <v>-0.01469842878864683</v>
       </c>
       <c r="G43" s="3">
-        <v>0.03017598535518414</v>
+        <v>-0.0003676574309278931</v>
       </c>
       <c r="H43" s="3">
-        <v>-0.0183988065638985</v>
+        <v>0.02966101694915244</v>
       </c>
       <c r="I43" s="3">
-        <v>-0.011291402372814</v>
+        <v>-2.932550833027182E-05</v>
       </c>
       <c r="J43" s="3">
-        <v>-0.02325581395348829</v>
+        <v>-0.03475670307845097</v>
       </c>
       <c r="K43" s="3">
-        <v>-0.01659403396419463</v>
+        <v>-0.01700274631772838</v>
       </c>
       <c r="L43" s="3">
-        <v>-0.1092057761732851</v>
+        <v>-0.1282511210762332</v>
       </c>
       <c r="M43" s="3">
-        <v>-0.07881720775827855</v>
+        <v>-0.06231330406472989</v>
       </c>
       <c r="N43" s="3">
-        <v>-0.1744040150564617</v>
+        <v>-0.1394422310756972</v>
       </c>
       <c r="O43" s="3">
-        <v>-0.04315520715727537</v>
+        <v>-0.04949730852203453</v>
       </c>
       <c r="P43" s="3">
-        <v>-0.04770562086123659</v>
+        <v>-0.03965802519122914</v>
       </c>
       <c r="Q43" s="3">
-        <v>-0.05108998149478761</v>
+        <v>-0.04244442408736458</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3605,46 +3605,46 @@
         <v>204</v>
       </c>
       <c r="D44" s="1">
-        <v>12027666.395</v>
+        <v>11778334.2744</v>
       </c>
       <c r="E44" s="2">
-        <v>0.3861602515859485</v>
+        <v>0.3815238054203968</v>
       </c>
       <c r="F44" s="3">
-        <v>-0.014659762234702</v>
+        <v>0.004138644593895601</v>
       </c>
       <c r="G44" s="3">
-        <v>-0.01584764160095031</v>
+        <v>0.0003572195507895062</v>
       </c>
       <c r="H44" s="3">
-        <v>-0.006544598867563858</v>
+        <v>-0.01221374045801523</v>
       </c>
       <c r="I44" s="3">
-        <v>-0.003937775647431297</v>
+        <v>-1.716910420441972E-05</v>
       </c>
       <c r="J44" s="3">
-        <v>-0.007347538574577516</v>
+        <v>0.0008102533883324517</v>
       </c>
       <c r="K44" s="3">
-        <v>-3.096053854943838E-05</v>
+        <v>-0.001000681331375929</v>
       </c>
       <c r="L44" s="3">
-        <v>0.04818061913259361</v>
+        <v>0.03804721521888605</v>
       </c>
       <c r="M44" s="3">
-        <v>0.02442208361784718</v>
+        <v>0.009392994239813339</v>
       </c>
       <c r="N44" s="3">
-        <v>0.08828741743193161</v>
+        <v>0.07688039946104462</v>
       </c>
       <c r="O44" s="3">
-        <v>0.02992127195629967</v>
+        <v>0.03038997898476776</v>
       </c>
       <c r="P44" s="3">
-        <v>0.01219556153964887</v>
+        <v>0.004875106895301423</v>
       </c>
       <c r="Q44" s="3">
-        <v>0.03158160760866005</v>
+        <v>0.0127779887546718</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3658,46 +3658,46 @@
         <v>205</v>
       </c>
       <c r="D45" s="1">
-        <v>9076595.879999999</v>
+        <v>8786849.208085716</v>
       </c>
       <c r="E45" s="2">
-        <v>1.406572272893153</v>
+        <v>1.404488984569092</v>
       </c>
       <c r="F45" s="3">
-        <v>0.05026256564141032</v>
+        <v>-0.04071428571428568</v>
       </c>
       <c r="G45" s="3">
-        <v>0.08892392076008637</v>
+        <v>-0.07325725401661748</v>
       </c>
       <c r="H45" s="3">
-        <v>0.02714600146735137</v>
+        <v>0.007501875468867224</v>
       </c>
       <c r="I45" s="3">
-        <v>-2.81643170323845E-09</v>
+        <v>-9.054626981024627E-05</v>
       </c>
       <c r="J45" s="3">
-        <v>-0.000713775874375526</v>
+        <v>-0.0189919649379109</v>
       </c>
       <c r="K45" s="3">
-        <v>4.697765944368943E-05</v>
+        <v>-0.001013975894424393</v>
       </c>
       <c r="L45" s="3">
-        <v>-0.1671624033313505</v>
+        <v>-0.1775872627066749</v>
       </c>
       <c r="M45" s="3">
-        <v>-0.1144289511671557</v>
+        <v>-0.06643190043230135</v>
       </c>
       <c r="N45" s="3">
-        <v>-0.2103778905809363</v>
+        <v>-0.2360637087599545</v>
       </c>
       <c r="O45" s="3">
-        <v>-0.08058616302029532</v>
+        <v>-0.08947417382521032</v>
       </c>
       <c r="P45" s="3">
-        <v>-0.05719098675385602</v>
+        <v>-0.06984457722445941</v>
       </c>
       <c r="Q45" s="3">
-        <v>-0.04065982804866537</v>
+        <v>-0.04972953009374316</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3711,46 +3711,46 @@
         <v>206</v>
       </c>
       <c r="D46" s="1">
-        <v>4465979.5544</v>
+        <v>4279284.139385714</v>
       </c>
       <c r="E46" s="2">
-        <v>1.140610351466994</v>
+        <v>1.195335449261783</v>
       </c>
       <c r="F46" s="3">
-        <v>0.04568527918781726</v>
+        <v>-0.05617198335644935</v>
       </c>
       <c r="G46" s="3">
-        <v>0.05182646447148005</v>
+        <v>-0.2037439861200025</v>
       </c>
       <c r="H46" s="3">
-        <v>-0.01300479123887757</v>
+        <v>-0.00584368151935716</v>
       </c>
       <c r="I46" s="3">
-        <v>-0.002466499248562683</v>
+        <v>-0.0265149924471533</v>
       </c>
       <c r="J46" s="3">
-        <v>-0.023696682464455</v>
+        <v>-0.06716929403701168</v>
       </c>
       <c r="K46" s="3">
-        <v>-0.01049233734247442</v>
+        <v>-0.03882618737077417</v>
       </c>
       <c r="L46" s="3">
-        <v>-0.1582019848219499</v>
+        <v>-0.1913250148544267</v>
       </c>
       <c r="M46" s="3">
-        <v>-0.1074682601730022</v>
+        <v>-0.08682262297130267</v>
       </c>
       <c r="N46" s="3">
-        <v>-0.2337938363443146</v>
+        <v>-0.2396648044692737</v>
       </c>
       <c r="O46" s="3">
-        <v>-0.07141097243888893</v>
+        <v>-0.07645737857192167</v>
       </c>
       <c r="P46" s="3">
-        <v>-0.05898029875773831</v>
+        <v>-0.1452833045456526</v>
       </c>
       <c r="Q46" s="3">
-        <v>-0.05170941915605177</v>
+        <v>-0.1215418689668886</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3764,46 +3764,46 @@
         <v>207</v>
       </c>
       <c r="D47" s="1">
-        <v>151781957.8526585</v>
+        <v>146048160.0739087</v>
       </c>
       <c r="E47" s="2">
-        <v>1.025551454710998</v>
+        <v>1.04128867578826</v>
       </c>
       <c r="F47" s="3">
-        <v>0.03218277852843632</v>
+        <v>-0.01988095238095223</v>
       </c>
       <c r="G47" s="3">
-        <v>0.03483192985091205</v>
+        <v>-0.06137767153158302</v>
       </c>
       <c r="H47" s="3">
-        <v>-0.01765256020575171</v>
+        <v>0.0113008229947181</v>
       </c>
       <c r="I47" s="3">
-        <v>-0.02437745087716455</v>
+        <v>-0.00255623032868813</v>
       </c>
       <c r="J47" s="3">
-        <v>0.01314203038340987</v>
+        <v>-0.04200605073306941</v>
       </c>
       <c r="K47" s="3">
-        <v>-0.01449354206509628</v>
+        <v>-0.03261989150795309</v>
       </c>
       <c r="L47" s="3">
-        <v>-0.08434128800261509</v>
+        <v>-0.08451017458022891</v>
       </c>
       <c r="M47" s="3">
-        <v>-0.02584264442771366</v>
+        <v>-0.01249121449695152</v>
       </c>
       <c r="N47" s="3">
-        <v>-0.09645161290322565</v>
+        <v>-0.09298226286217905</v>
       </c>
       <c r="O47" s="3">
-        <v>-0.02357133801491893</v>
+        <v>-0.02821856341496351</v>
       </c>
       <c r="P47" s="3">
-        <v>-0.02016809324640497</v>
+        <v>-0.04699878151976806</v>
       </c>
       <c r="Q47" s="3">
-        <v>-0.01966560834540318</v>
+        <v>-0.04513520852821125</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3817,46 +3817,46 @@
         <v>208</v>
       </c>
       <c r="D48" s="1">
-        <v>53894369.06311286</v>
+        <v>35519691.91442571</v>
       </c>
       <c r="E48" s="2">
-        <v>1.524913179420524</v>
+        <v>1.579417951202564</v>
       </c>
       <c r="F48" s="3">
-        <v>0.01968019680196807</v>
+        <v>-0.0180940892641738</v>
       </c>
       <c r="G48" s="3">
-        <v>0.0389723125272708</v>
+        <v>1.963584549275292E-05</v>
       </c>
       <c r="H48" s="3">
-        <v>0.01968019680196807</v>
+        <v>0.01877346683354181</v>
       </c>
       <c r="I48" s="3">
-        <v>0.007761773100314894</v>
+        <v>-0.001211854337739232</v>
       </c>
       <c r="J48" s="3">
-        <v>0.002418379685610752</v>
+        <v>-0.003671970624235069</v>
       </c>
       <c r="K48" s="3">
-        <v>0.009575584815620706</v>
+        <v>-5.989123737516814E-06</v>
       </c>
       <c r="L48" s="3">
-        <v>0.03884711779448637</v>
+        <v>-0.1458551941238196</v>
       </c>
       <c r="M48" s="3">
-        <v>-0.01503165256732097</v>
+        <v>-0.01911327138377156</v>
       </c>
       <c r="N48" s="3">
-        <v>0.07942708333333337</v>
+        <v>0.1150684931506849</v>
       </c>
       <c r="O48" s="3">
-        <v>0.02298899096457726</v>
+        <v>0.01538328431545208</v>
       </c>
       <c r="P48" s="3">
-        <v>0.02427394867144575</v>
+        <v>6.823360877618054E-06</v>
       </c>
       <c r="Q48" s="3">
-        <v>0.01591824964137959</v>
+        <v>4.320174322713482E-06</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3870,46 +3870,46 @@
         <v>209</v>
       </c>
       <c r="D49" s="1">
-        <v>15660725.86310571</v>
+        <v>14655979.71842286</v>
       </c>
       <c r="E49" s="2">
-        <v>1.118025379566802</v>
+        <v>1.115352259210166</v>
       </c>
       <c r="F49" s="3">
-        <v>0.03969171483622345</v>
+        <v>-0.004083653013241069</v>
       </c>
       <c r="G49" s="3">
-        <v>0.03142287579039523</v>
+        <v>0.0008844614842001751</v>
       </c>
       <c r="H49" s="3">
-        <v>0.0214538112064613</v>
+        <v>0.0291560102301789</v>
       </c>
       <c r="I49" s="3">
-        <v>0.002707323699096865</v>
+        <v>0.0001316500732272273</v>
       </c>
       <c r="J49" s="3">
-        <v>0.01301627033792239</v>
+        <v>0.01564866229177172</v>
       </c>
       <c r="K49" s="3">
-        <v>0.0005750861946525348</v>
+        <v>0.0002697953405204605</v>
       </c>
       <c r="L49" s="3">
-        <v>-0.05289024104844368</v>
+        <v>-0.04779933743492667</v>
       </c>
       <c r="M49" s="3">
-        <v>-0.009514556243298515</v>
+        <v>-0.0007958224106980489</v>
       </c>
       <c r="N49" s="3">
-        <v>-0.04076795449158567</v>
+        <v>-0.002726146220569988</v>
       </c>
       <c r="O49" s="3">
-        <v>-0.003452139286718117</v>
+        <v>-0.004531352440384796</v>
       </c>
       <c r="P49" s="3">
-        <v>-0.004469735024322991</v>
+        <v>-0.0002630135350887942</v>
       </c>
       <c r="Q49" s="3">
-        <v>-0.003997883327169965</v>
+        <v>-0.0002358120790242955</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3923,46 +3923,46 @@
         <v>210</v>
       </c>
       <c r="D50" s="1">
-        <v>6104620.379</v>
+        <v>5777391.379585715</v>
       </c>
       <c r="E50" s="2">
-        <v>1.152585164553159</v>
+        <v>1.163769672886322</v>
       </c>
       <c r="F50" s="3">
-        <v>0.05616605616605608</v>
+        <v>-0.01849710982658949</v>
       </c>
       <c r="G50" s="3">
-        <v>0.04761786023620966</v>
+        <v>-0.01867183378785262</v>
       </c>
       <c r="H50" s="3">
-        <v>-0.01142857142857144</v>
+        <v>0.03536585365853658</v>
       </c>
       <c r="I50" s="3">
-        <v>-0.003285724598219421</v>
+        <v>6.053462319582053E-05</v>
       </c>
       <c r="J50" s="3">
-        <v>-0.01592718998862358</v>
+        <v>-0.03082191780821911</v>
       </c>
       <c r="K50" s="3">
-        <v>-0.01424581570981164</v>
+        <v>-0.004972897894177222</v>
       </c>
       <c r="L50" s="3">
-        <v>-0.1577409931840312</v>
+        <v>-0.1651917404129793</v>
       </c>
       <c r="M50" s="3">
-        <v>-0.119881117670176</v>
+        <v>-0.08670630365274429</v>
       </c>
       <c r="N50" s="3">
-        <v>-0.1870300751879699</v>
+        <v>-0.1651917404129793</v>
       </c>
       <c r="O50" s="3">
-        <v>-0.0460370762197634</v>
+        <v>-0.05685612487051751</v>
       </c>
       <c r="P50" s="3">
-        <v>-0.06706346668999383</v>
+        <v>-0.05268906872029845</v>
       </c>
       <c r="Q50" s="3">
-        <v>-0.0581852593218076</v>
+        <v>-0.04527448166751221</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3976,46 +3976,46 @@
         <v>211</v>
       </c>
       <c r="D51" s="1">
-        <v>55635783.79114287</v>
+        <v>104350207.3247857</v>
       </c>
       <c r="E51" s="2">
-        <v>1.131382407892816</v>
+        <v>1.313708458410637</v>
       </c>
       <c r="F51" s="3">
-        <v>0.1747085492227979</v>
+        <v>-0.03695022749207216</v>
       </c>
       <c r="G51" s="3">
-        <v>0.5448455364739966</v>
+        <v>-0.2083753550176023</v>
       </c>
       <c r="H51" s="3">
-        <v>0.1265527950310559</v>
+        <v>0.1246176139108034</v>
       </c>
       <c r="I51" s="3">
-        <v>0.1903323773301531</v>
+        <v>0.08522435180285749</v>
       </c>
       <c r="J51" s="3">
-        <v>0.1323552364601217</v>
+        <v>0.08479577574157475</v>
       </c>
       <c r="K51" s="3">
-        <v>0.08306718970482911</v>
+        <v>0.158995372276029</v>
       </c>
       <c r="L51" s="3">
-        <v>-0.03318230277185491</v>
+        <v>-0.06392388099705168</v>
       </c>
       <c r="M51" s="3">
-        <v>-0.03625736871424479</v>
+        <v>-3.76591864688849E-05</v>
       </c>
       <c r="N51" s="3">
-        <v>-0.03818109505501781</v>
+        <v>-0.02335011185682318</v>
       </c>
       <c r="O51" s="3">
-        <v>-0.02015805268817636</v>
+        <v>-0.01287237658620254</v>
       </c>
       <c r="P51" s="3">
-        <v>0.02340491049529216</v>
+        <v>-0.01169388552164603</v>
       </c>
       <c r="Q51" s="3">
-        <v>0.02068700231859136</v>
+        <v>-0.008901431247381658</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -4029,46 +4029,46 @@
         <v>212</v>
       </c>
       <c r="D52" s="1">
-        <v>7879878.312644571</v>
+        <v>7212409.887246428</v>
       </c>
       <c r="E52" s="2">
-        <v>1.006386963882949</v>
+        <v>0.9395143016344831</v>
       </c>
       <c r="F52" s="3">
-        <v>0.04111498257839723</v>
+        <v>-0.01809651474530839</v>
       </c>
       <c r="G52" s="3">
-        <v>0.0715658899010389</v>
+        <v>-0.02404291197498886</v>
       </c>
       <c r="H52" s="3">
-        <v>-0.01904136572554166</v>
+        <v>0.02662929222144347</v>
       </c>
       <c r="I52" s="3">
-        <v>-0.006207034084356527</v>
+        <v>-4.670577939741252E-05</v>
       </c>
       <c r="J52" s="3">
-        <v>-0.03049967553536661</v>
+        <v>-0.04060248853962017</v>
       </c>
       <c r="K52" s="3">
-        <v>-0.03057873899235418</v>
+        <v>-0.01355721492366713</v>
       </c>
       <c r="L52" s="3">
-        <v>-0.1133531157270029</v>
+        <v>-0.1315945465323059</v>
       </c>
       <c r="M52" s="3">
-        <v>-0.08647378186973362</v>
+        <v>-0.0754583774394095</v>
       </c>
       <c r="N52" s="3">
-        <v>-0.1303841676367869</v>
+        <v>-0.1253731343283583</v>
       </c>
       <c r="O52" s="3">
-        <v>-0.03173652378590779</v>
+        <v>-0.03780464640963511</v>
       </c>
       <c r="P52" s="3">
-        <v>-0.0585262604310439</v>
+        <v>-0.04975064470719918</v>
       </c>
       <c r="Q52" s="3">
-        <v>-0.05815482764724183</v>
+        <v>-0.05295357890842902</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -4082,46 +4082,46 @@
         <v>213</v>
       </c>
       <c r="D53" s="1">
-        <v>4936401.713804286</v>
+        <v>4901324.003661429</v>
       </c>
       <c r="E53" s="2">
-        <v>1.123992035731193</v>
+        <v>1.130352806700504</v>
       </c>
       <c r="F53" s="3">
-        <v>0.04899999999999991</v>
+        <v>-0.02097235462345088</v>
       </c>
       <c r="G53" s="3">
-        <v>0.0781028606918457</v>
+        <v>-0.0842447271430285</v>
       </c>
       <c r="H53" s="3">
-        <v>-0.007568590350047324</v>
+        <v>0.03947368421052629</v>
       </c>
       <c r="I53" s="3">
-        <v>-0.0007303088684263968</v>
+        <v>-4.630354472260589E-06</v>
       </c>
       <c r="J53" s="3">
-        <v>-0.00944287063267244</v>
+        <v>-0.03113207547169815</v>
       </c>
       <c r="K53" s="3">
-        <v>-0.009101395664202856</v>
+        <v>-0.004454237605658168</v>
       </c>
       <c r="L53" s="3">
-        <v>-0.1464605370219692</v>
+        <v>-0.148424543946932</v>
       </c>
       <c r="M53" s="3">
-        <v>-0.1008779614520013</v>
+        <v>-0.06594282077572021</v>
       </c>
       <c r="N53" s="3">
-        <v>-0.1457654723127036</v>
+        <v>-0.1427378964941569</v>
       </c>
       <c r="O53" s="3">
-        <v>-0.03799393723321084</v>
+        <v>-0.05135613506769707</v>
       </c>
       <c r="P53" s="3">
-        <v>-0.05498967855810208</v>
+        <v>-0.07509377395937436</v>
       </c>
       <c r="Q53" s="3">
-        <v>-0.04892354821920918</v>
+        <v>-0.06643392533219147</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4135,46 +4135,46 @@
         <v>214</v>
       </c>
       <c r="D54" s="1">
-        <v>6586036.634581714</v>
+        <v>6253259.452575999</v>
       </c>
       <c r="E54" s="2">
-        <v>0.992611261271021</v>
+        <v>1.008556681144221</v>
       </c>
       <c r="F54" s="3">
-        <v>0.04898648648648658</v>
+        <v>-0.02903225806451613</v>
       </c>
       <c r="G54" s="3">
-        <v>0.1001598845541473</v>
+        <v>-0.0646111754982979</v>
       </c>
       <c r="H54" s="3">
-        <v>-0.01114649681528655</v>
+        <v>0.02380952380952384</v>
       </c>
       <c r="I54" s="3">
-        <v>-0.007526611256203234</v>
+        <v>0.0001225289051934863</v>
       </c>
       <c r="J54" s="3">
-        <v>-0.01895734597156393</v>
+        <v>-0.04595879556259913</v>
       </c>
       <c r="K54" s="3">
-        <v>-0.0320035466499877</v>
+        <v>-0.008172133391343097</v>
       </c>
       <c r="L54" s="3">
-        <v>-0.1216407355021215</v>
+        <v>-0.1448863636363636</v>
       </c>
       <c r="M54" s="3">
-        <v>-0.09227803923550894</v>
+        <v>-0.07183094690394778</v>
       </c>
       <c r="N54" s="3">
-        <v>-0.1278089887640449</v>
+        <v>-0.125</v>
       </c>
       <c r="O54" s="3">
-        <v>-0.02673682790923088</v>
+        <v>-0.03484245134182727</v>
       </c>
       <c r="P54" s="3">
-        <v>-0.06214079294274832</v>
+        <v>-0.06822106120112284</v>
       </c>
       <c r="Q54" s="3">
-        <v>-0.06260335275984896</v>
+        <v>-0.06764226788297621</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4188,46 +4188,46 @@
         <v>215</v>
       </c>
       <c r="D55" s="1">
-        <v>7752211.364114285</v>
+        <v>7728174.622628571</v>
       </c>
       <c r="E55" s="2">
-        <v>1.198315892226492</v>
+        <v>1.173185075053062</v>
       </c>
       <c r="F55" s="3">
-        <v>0.06122448979591831</v>
+        <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>0.1287793303936186</v>
+        <v>0.003645933795604661</v>
       </c>
       <c r="H55" s="3">
-        <v>0.002409638554216769</v>
+        <v>0.07493540051679572</v>
       </c>
       <c r="I55" s="3">
-        <v>0.0001434561247058175</v>
+        <v>0.04083385868232119</v>
       </c>
       <c r="J55" s="3">
-        <v>-0.0118764845605702</v>
+        <v>0.004830917874396148</v>
       </c>
       <c r="K55" s="3">
-        <v>-0.004174812522630438</v>
+        <v>0.005357190761967096</v>
       </c>
       <c r="L55" s="3">
-        <v>-0.1843137254901962</v>
+        <v>-0.1746031746031747</v>
       </c>
       <c r="M55" s="3">
-        <v>-0.1410631674495748</v>
+        <v>-0.07431634695095597</v>
       </c>
       <c r="N55" s="3">
-        <v>-0.1953578336557061</v>
+        <v>-0.1663326653306614</v>
       </c>
       <c r="O55" s="3">
-        <v>-0.05895183634359542</v>
+        <v>-0.06779996430897921</v>
       </c>
       <c r="P55" s="3">
-        <v>-0.0726189899861026</v>
+        <v>-0.03533520657767566</v>
       </c>
       <c r="Q55" s="3">
-        <v>-0.06060087365709158</v>
+        <v>-0.03011903861466827</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4241,46 +4241,46 @@
         <v>216</v>
       </c>
       <c r="D56" s="1">
-        <v>12897908.38757571</v>
+        <v>12036211.174</v>
       </c>
       <c r="E56" s="2">
-        <v>1.151863194534762</v>
+        <v>1.139473019755542</v>
       </c>
       <c r="F56" s="3">
-        <v>0.06626506024096376</v>
+        <v>-0.02071563088512238</v>
       </c>
       <c r="G56" s="3">
-        <v>0.07464581965214519</v>
+        <v>-0.02478250441097651</v>
       </c>
       <c r="H56" s="3">
-        <v>-0.01117318435754193</v>
+        <v>0.04417670682730918</v>
       </c>
       <c r="I56" s="3">
-        <v>-0.01329337483725395</v>
+        <v>0.001186909444237671</v>
       </c>
       <c r="J56" s="3">
-        <v>-0.01666666666666679</v>
+        <v>-0.02985074626865679</v>
       </c>
       <c r="K56" s="3">
-        <v>-0.02635266958476664</v>
+        <v>-0.00896040272010434</v>
       </c>
       <c r="L56" s="3">
-        <v>-0.1280788177339902</v>
+        <v>-0.1461412151067324</v>
       </c>
       <c r="M56" s="3">
-        <v>-0.1021980469463668</v>
+        <v>-0.08136197609237544</v>
       </c>
       <c r="N56" s="3">
-        <v>-0.1650943396226416</v>
+        <v>-0.1433278418451401</v>
       </c>
       <c r="O56" s="3">
-        <v>-0.04120451603080349</v>
+        <v>-0.05053534790292083</v>
       </c>
       <c r="P56" s="3">
-        <v>-0.06427535826556671</v>
+        <v>-0.05307224025167598</v>
       </c>
       <c r="Q56" s="3">
-        <v>-0.05580120848598479</v>
+        <v>-0.04657612714960277</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4294,46 +4294,46 @@
         <v>217</v>
       </c>
       <c r="D57" s="1">
-        <v>6625176.18768</v>
+        <v>6675273.613954285</v>
       </c>
       <c r="E57" s="2">
-        <v>1.038047242938482</v>
+        <v>1.085276948931664</v>
       </c>
       <c r="F57" s="3">
-        <v>0.0479638009049773</v>
+        <v>-0.05181347150259066</v>
       </c>
       <c r="G57" s="3">
-        <v>0.06095094238112458</v>
+        <v>-0.2231364634746036</v>
       </c>
       <c r="H57" s="3">
-        <v>-0.002583979328165419</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>-0.0002123427073520815</v>
+        <v>-0.03170343491424345</v>
       </c>
       <c r="J57" s="3">
-        <v>-0.01614273576890392</v>
+        <v>-0.05344827586206888</v>
       </c>
       <c r="K57" s="3">
-        <v>-0.01305589185038172</v>
+        <v>-0.02694817993441219</v>
       </c>
       <c r="L57" s="3">
-        <v>-0.1632947976878613</v>
+        <v>-0.1944240645634629</v>
       </c>
       <c r="M57" s="3">
-        <v>-0.1202290496541502</v>
+        <v>-0.09494226092243059</v>
       </c>
       <c r="N57" s="3">
-        <v>-0.2117086453369639</v>
+        <v>-0.2185053380782918</v>
       </c>
       <c r="O57" s="3">
-        <v>-0.07039029109453687</v>
+        <v>-0.08327597452154392</v>
       </c>
       <c r="P57" s="3">
-        <v>-0.06664247075226595</v>
+        <v>-0.1567237995003612</v>
       </c>
       <c r="Q57" s="3">
-        <v>-0.06419984370231151</v>
+        <v>-0.1444090373933019</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4347,46 +4347,46 @@
         <v>218</v>
       </c>
       <c r="D58" s="1">
-        <v>12497339.48078571</v>
+        <v>12974738.63234571</v>
       </c>
       <c r="E58" s="2">
-        <v>0.7462771402347002</v>
+        <v>0.7550013898584609</v>
       </c>
       <c r="F58" s="3">
-        <v>0.04430844553243572</v>
+        <v>-0.008198641368001783</v>
       </c>
       <c r="G58" s="3">
-        <v>0.0538593178074</v>
+        <v>-0.02990793209626717</v>
       </c>
       <c r="H58" s="3">
-        <v>-0.02580497830554935</v>
+        <v>0.04465827781889974</v>
       </c>
       <c r="I58" s="3">
-        <v>-0.03504856843710341</v>
+        <v>0.02418704527521246</v>
       </c>
       <c r="J58" s="3">
-        <v>-0.006752037252619453</v>
+        <v>-0.03487576931844077</v>
       </c>
       <c r="K58" s="3">
-        <v>-0.03716521276221747</v>
+        <v>-0.003055728682930233</v>
       </c>
       <c r="L58" s="3">
-        <v>-0.1069709022398996</v>
+        <v>-0.09141630901287554</v>
       </c>
       <c r="M58" s="3">
-        <v>-0.05560791016198198</v>
+        <v>-0.02678770313668678</v>
       </c>
       <c r="N58" s="3">
-        <v>-0.1138346489405901</v>
+        <v>-0.09684300341296918</v>
       </c>
       <c r="O58" s="3">
-        <v>-0.03145569752525373</v>
+        <v>-0.03844471181581568</v>
       </c>
       <c r="P58" s="3">
-        <v>-0.04638656146209973</v>
+        <v>-0.02834781761647698</v>
       </c>
       <c r="Q58" s="3">
-        <v>-0.06215728576050367</v>
+        <v>-0.03754670918127886</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4400,46 +4400,46 @@
         <v>219</v>
       </c>
       <c r="D59" s="1">
-        <v>9875167.471285714</v>
+        <v>7375184.658857143</v>
       </c>
       <c r="E59" s="2">
-        <v>1.108207715417529</v>
+        <v>1.127339193828511</v>
       </c>
       <c r="F59" s="3">
-        <v>0.04519774011299438</v>
+        <v>-0.03429602888086646</v>
       </c>
       <c r="G59" s="3">
-        <v>0.02489526433640418</v>
+        <v>-0.09102520947796992</v>
       </c>
       <c r="H59" s="3">
-        <v>-0.006266786034019602</v>
+        <v>0.007532956685499065</v>
       </c>
       <c r="I59" s="3">
-        <v>-0.001434871617551159</v>
+        <v>-0.01146771181959999</v>
       </c>
       <c r="J59" s="3">
-        <v>-0.01069518716577541</v>
+        <v>-0.04207699194270361</v>
       </c>
       <c r="K59" s="3">
-        <v>-0.001796373037565619</v>
+        <v>-0.02327142232204491</v>
       </c>
       <c r="L59" s="3">
-        <v>-0.1361867704280154</v>
+        <v>-0.1756548536209553</v>
       </c>
       <c r="M59" s="3">
-        <v>-0.09873963835824194</v>
+        <v>-0.07032189224182034</v>
       </c>
       <c r="N59" s="3">
-        <v>-0.175946547884187</v>
+        <v>-0.1588050314465408</v>
       </c>
       <c r="O59" s="3">
-        <v>-0.04236560692357743</v>
+        <v>-0.05166454889037073</v>
       </c>
       <c r="P59" s="3">
-        <v>-0.05026800569790378</v>
+        <v>-0.08067355085989514</v>
       </c>
       <c r="Q59" s="3">
-        <v>-0.04535973265532154</v>
+        <v>-0.07156102733013561</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4453,46 +4453,46 @@
         <v>220</v>
       </c>
       <c r="D60" s="1">
-        <v>32662186.1523</v>
+        <v>32417838.66325714</v>
       </c>
       <c r="E60" s="2">
-        <v>1.031438714859886</v>
+        <v>1.050956007348581</v>
       </c>
       <c r="F60" s="3">
-        <v>0.04268696227663787</v>
+        <v>-0.03619047619047626</v>
       </c>
       <c r="G60" s="3">
-        <v>0.01937479824853585</v>
+        <v>-0.04167215562804388</v>
       </c>
       <c r="H60" s="3">
-        <v>-0.03165334972341743</v>
+        <v>0.004965243296921554</v>
       </c>
       <c r="I60" s="3">
-        <v>-0.02976891834423358</v>
+        <v>-0.01159139102133734</v>
       </c>
       <c r="J60" s="3">
-        <v>-0.05517241379310353</v>
+        <v>-0.06956788231688629</v>
       </c>
       <c r="K60" s="3">
-        <v>-0.0603193721985209</v>
+        <v>-0.05154002572711814</v>
       </c>
       <c r="L60" s="3">
-        <v>-0.1957631444614599</v>
+        <v>-0.2060669456066946</v>
       </c>
       <c r="M60" s="3">
-        <v>-0.148822551729203</v>
+        <v>-0.1291626114390799</v>
       </c>
       <c r="N60" s="3">
-        <v>-0.2414540202214733</v>
+        <v>-0.2278738555442523</v>
       </c>
       <c r="O60" s="3">
-        <v>-0.06625995179502059</v>
+        <v>-0.07882057244896146</v>
       </c>
       <c r="P60" s="3">
-        <v>-0.104570961963862</v>
+        <v>-0.09035131858309904</v>
       </c>
       <c r="Q60" s="3">
-        <v>-0.1013835921197386</v>
+        <v>-0.08597060005493773</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4506,46 +4506,46 @@
         <v>221</v>
       </c>
       <c r="D61" s="1">
-        <v>12527499.83927143</v>
+        <v>9719498.258228572</v>
       </c>
       <c r="E61" s="2">
-        <v>1.182550706325481</v>
+        <v>1.176425299113113</v>
       </c>
       <c r="F61" s="3">
-        <v>0.0459882583170254</v>
+        <v>-0.01588785046728966</v>
       </c>
       <c r="G61" s="3">
-        <v>0.05309014392962939</v>
+        <v>-0.00418730035392726</v>
       </c>
       <c r="H61" s="3">
-        <v>-0.002798507462686647</v>
+        <v>0.02932551319648096</v>
       </c>
       <c r="I61" s="3">
-        <v>-0.0001742770209313047</v>
+        <v>0.0003168973246388486</v>
       </c>
       <c r="J61" s="3">
-        <v>-0.02818181818181823</v>
+        <v>-0.01863932898415659</v>
       </c>
       <c r="K61" s="3">
-        <v>-0.01371973665962062</v>
+        <v>-0.001155541182138423</v>
       </c>
       <c r="L61" s="3">
-        <v>-0.1165289256198347</v>
+        <v>-0.1466774716369529</v>
       </c>
       <c r="M61" s="3">
-        <v>-0.1052505387415804</v>
+        <v>-0.08346010488165638</v>
       </c>
       <c r="N61" s="3">
-        <v>-0.1165289256198347</v>
+        <v>-0.1091370558375634</v>
       </c>
       <c r="O61" s="3">
-        <v>-0.02264085553196327</v>
+        <v>-0.03731328487075769</v>
       </c>
       <c r="P61" s="3">
-        <v>-0.05948513770060052</v>
+        <v>-0.04382370261779182</v>
       </c>
       <c r="Q61" s="3">
-        <v>-0.05030239919727216</v>
+        <v>-0.03725158125282561</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4559,46 +4559,46 @@
         <v>222</v>
       </c>
       <c r="D62" s="1">
-        <v>6412816.203942858</v>
+        <v>5828498.98873</v>
       </c>
       <c r="E62" s="2">
-        <v>0.9889967259568111</v>
+        <v>0.9855351997580275</v>
       </c>
       <c r="F62" s="3">
-        <v>0.03817338565822339</v>
+        <v>-0.01532369146005513</v>
       </c>
       <c r="G62" s="3">
-        <v>0.01561925667603181</v>
+        <v>-0.000598946186298804</v>
       </c>
       <c r="H62" s="3">
-        <v>-0.01070882202957672</v>
+        <v>0.02271101573676682</v>
       </c>
       <c r="I62" s="3">
-        <v>-0.009804996659843671</v>
+        <v>-1.952546628117687E-06</v>
       </c>
       <c r="J62" s="3">
-        <v>-0.01489505754908597</v>
+        <v>-0.02853745541022594</v>
       </c>
       <c r="K62" s="3">
-        <v>-0.01766689480345536</v>
+        <v>-0.01140717326606663</v>
       </c>
       <c r="L62" s="3">
-        <v>-0.1790097333897587</v>
+        <v>-0.1764112903225807</v>
       </c>
       <c r="M62" s="3">
-        <v>-0.1200117813448936</v>
+        <v>-0.07850842808025997</v>
       </c>
       <c r="N62" s="3">
-        <v>-0.1959104725062172</v>
+        <v>-0.1812455261274159</v>
       </c>
       <c r="O62" s="3">
-        <v>-0.05748751066210074</v>
+        <v>-0.06826220830969154</v>
       </c>
       <c r="P62" s="3">
-        <v>-0.06883933807417449</v>
+        <v>-0.0449578006731633</v>
       </c>
       <c r="Q62" s="3">
-        <v>-0.06960522342232775</v>
+        <v>-0.04561765088066008</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4612,46 +4612,46 @@
         <v>223</v>
       </c>
       <c r="D63" s="1">
-        <v>11363897.7732</v>
+        <v>10383321.90878571</v>
       </c>
       <c r="E63" s="2">
-        <v>1.205937147631034</v>
+        <v>1.178830462868412</v>
       </c>
       <c r="F63" s="3">
-        <v>0.03793103448275851</v>
+        <v>-0.01993355481727574</v>
       </c>
       <c r="G63" s="3">
-        <v>0.06110561711383403</v>
+        <v>-0.03165843218940214</v>
       </c>
       <c r="H63" s="3">
-        <v>-0.01311475409836069</v>
+        <v>0.02430555555555553</v>
       </c>
       <c r="I63" s="3">
-        <v>-2.896615864302175E-05</v>
+        <v>5.398585030982369E-05</v>
       </c>
       <c r="J63" s="3">
-        <v>-0.009868421052631634</v>
+        <v>-0.03594771241830066</v>
       </c>
       <c r="K63" s="3">
-        <v>-0.001557612104390448</v>
+        <v>-0.000537136883489823</v>
       </c>
       <c r="L63" s="3">
-        <v>-0.1147058823529413</v>
+        <v>-0.1141141141141142</v>
       </c>
       <c r="M63" s="3">
-        <v>-0.07120529815441518</v>
+        <v>-0.04599470080425869</v>
       </c>
       <c r="N63" s="3">
-        <v>-0.07384615384615394</v>
+        <v>-0.07812500000000007</v>
       </c>
       <c r="O63" s="3">
-        <v>-0.01287334189429242</v>
+        <v>-0.02068402555812224</v>
       </c>
       <c r="P63" s="3">
-        <v>-0.03638145512940281</v>
+        <v>-0.03882656649683042</v>
       </c>
       <c r="Q63" s="3">
-        <v>-0.0301686163336715</v>
+        <v>-0.032936514384227</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4665,46 +4665,46 @@
         <v>224</v>
       </c>
       <c r="D64" s="1">
-        <v>41830574.84594285</v>
+        <v>40180159.59457143</v>
       </c>
       <c r="E64" s="2">
-        <v>1.7063103110691